--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="1472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="1477">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -4915,6 +4915,21 @@
   </si>
   <si>
     <t>/home/john/folder1/file1.txt</t>
+  </si>
+  <si>
+    <t>div=fullscreen</t>
+  </si>
+  <si>
+    <t>popular link</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>logo image</t>
   </si>
 </sst>
 </file>
@@ -5118,7 +5133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5260,6 +5275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5673,7 +5694,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="504">
+  <cellXfs count="512">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -6162,15 +6183,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6190,6 +6202,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6203,9 +6232,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6306,6 +6332,18 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6327,23 +6365,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6375,6 +6398,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6384,59 +6410,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6498,6 +6473,57 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6519,17 +6545,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6573,53 +6632,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6627,6 +6658,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEDF977"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -9876,7 +9912,7 @@
     <row r="198" spans="2:18">
       <c r="B198" s="5"/>
       <c r="C198" s="1"/>
-      <c r="D198" s="502"/>
+      <c r="D198" s="358"/>
       <c r="E198" s="2" t="s">
         <v>1461</v>
       </c>
@@ -12426,10 +12462,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="396" t="s">
+      <c r="L35" s="399" t="s">
         <v>375</v>
       </c>
-      <c r="M35" s="396"/>
+      <c r="M35" s="399"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -14359,10 +14395,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="397" t="s">
+      <c r="A155" s="400" t="s">
         <v>994</v>
       </c>
-      <c r="B155" s="397"/>
+      <c r="B155" s="400"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="93" t="s">
@@ -15952,18 +15988,18 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="405" t="s">
+      <c r="E6" s="401" t="s">
         <v>407</v>
       </c>
-      <c r="F6" s="352"/>
-      <c r="G6" s="351" t="s">
+      <c r="F6" s="362"/>
+      <c r="G6" s="361" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="351"/>
-      <c r="I6" s="351"/>
-      <c r="J6" s="351"/>
-      <c r="K6" s="351"/>
-      <c r="L6" s="352"/>
+      <c r="H6" s="361"/>
+      <c r="I6" s="361"/>
+      <c r="J6" s="361"/>
+      <c r="K6" s="361"/>
+      <c r="L6" s="362"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="28" t="s">
@@ -15973,7 +16009,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="402">
+      <c r="D7" s="409">
         <v>80</v>
       </c>
       <c r="E7" s="66"/>
@@ -15991,7 +16027,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="402"/>
+      <c r="D8" s="409"/>
       <c r="E8" s="58" t="s">
         <v>409</v>
       </c>
@@ -16026,7 +16062,7 @@
       <c r="B9" t="s">
         <v>408</v>
       </c>
-      <c r="D9" s="402"/>
+      <c r="D9" s="409"/>
       <c r="E9" s="232"/>
       <c r="F9" s="238"/>
       <c r="G9" s="232"/>
@@ -16050,7 +16086,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="402"/>
+      <c r="D10" s="409"/>
       <c r="E10" s="66"/>
       <c r="F10" s="237"/>
       <c r="G10" s="66"/>
@@ -16074,7 +16110,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="402"/>
+      <c r="D11" s="409"/>
       <c r="E11" s="58" t="s">
         <v>413</v>
       </c>
@@ -16103,7 +16139,7 @@
       <c r="B12" s="209" t="s">
         <v>417</v>
       </c>
-      <c r="D12" s="402"/>
+      <c r="D12" s="409"/>
       <c r="E12" s="232"/>
       <c r="F12" s="238"/>
       <c r="G12" s="232"/>
@@ -16121,7 +16157,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="402"/>
+      <c r="D13" s="409"/>
       <c r="E13" s="66"/>
       <c r="F13" s="237"/>
       <c r="G13" s="66"/>
@@ -16137,7 +16173,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="402"/>
+      <c r="D14" s="409"/>
       <c r="E14" s="58" t="s">
         <v>418</v>
       </c>
@@ -16161,7 +16197,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="402"/>
+      <c r="D15" s="409"/>
       <c r="E15" s="232"/>
       <c r="F15" s="238"/>
       <c r="G15" s="232"/>
@@ -16177,7 +16213,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="402"/>
+      <c r="D16" s="409"/>
       <c r="E16" s="66"/>
       <c r="F16" s="237"/>
       <c r="G16" s="59"/>
@@ -16193,7 +16229,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="402"/>
+      <c r="D17" s="409"/>
       <c r="E17" s="58" t="s">
         <v>422</v>
       </c>
@@ -16217,7 +16253,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="402"/>
+      <c r="D18" s="409"/>
       <c r="E18" s="232"/>
       <c r="F18" s="238"/>
       <c r="G18" s="321"/>
@@ -16234,20 +16270,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="406" t="s">
+      <c r="E19" s="402" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="407"/>
-      <c r="G19" s="406" t="s">
+      <c r="F19" s="403"/>
+      <c r="G19" s="402" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="407"/>
-      <c r="I19" s="406" t="s">
+      <c r="H19" s="403"/>
+      <c r="I19" s="402" t="s">
         <v>196</v>
       </c>
-      <c r="J19" s="408"/>
-      <c r="K19" s="408"/>
-      <c r="L19" s="407"/>
+      <c r="J19" s="404"/>
+      <c r="K19" s="404"/>
+      <c r="L19" s="403"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -16312,12 +16348,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="404"/>
-      <c r="H24" s="404"/>
-      <c r="I24" s="404"/>
-      <c r="J24" s="404"/>
-      <c r="K24" s="404"/>
-      <c r="L24" s="404"/>
+      <c r="G24" s="411"/>
+      <c r="H24" s="411"/>
+      <c r="I24" s="411"/>
+      <c r="J24" s="411"/>
+      <c r="K24" s="411"/>
+      <c r="L24" s="411"/>
       <c r="O24" s="40" t="s">
         <v>179</v>
       </c>
@@ -16690,11 +16726,11 @@
       <c r="G47" s="222" t="s">
         <v>884</v>
       </c>
-      <c r="H47" s="394" t="s">
+      <c r="H47" s="397" t="s">
         <v>1355</v>
       </c>
-      <c r="I47" s="403"/>
-      <c r="J47" s="395"/>
+      <c r="I47" s="410"/>
+      <c r="J47" s="398"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -17300,16 +17336,16 @@
         <v>1049</v>
       </c>
       <c r="F131" s="38"/>
-      <c r="G131" s="400" t="s">
+      <c r="G131" s="407" t="s">
         <v>1042</v>
       </c>
-      <c r="H131" s="400"/>
-      <c r="I131" s="400"/>
-      <c r="J131" s="400"/>
-      <c r="K131" s="400"/>
-      <c r="L131" s="400"/>
-      <c r="M131" s="400"/>
-      <c r="N131" s="400"/>
+      <c r="H131" s="407"/>
+      <c r="I131" s="407"/>
+      <c r="J131" s="407"/>
+      <c r="K131" s="407"/>
+      <c r="L131" s="407"/>
+      <c r="M131" s="407"/>
+      <c r="N131" s="407"/>
       <c r="O131" s="38"/>
     </row>
     <row r="132" spans="2:15">
@@ -17446,29 +17482,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="38"/>
-      <c r="G141" s="401"/>
-      <c r="H141" s="401"/>
-      <c r="I141" s="401"/>
-      <c r="J141" s="401"/>
-      <c r="K141" s="401"/>
-      <c r="L141" s="401"/>
-      <c r="M141" s="401"/>
-      <c r="N141" s="401"/>
-      <c r="O141" s="401"/>
+      <c r="G141" s="408"/>
+      <c r="H141" s="408"/>
+      <c r="I141" s="408"/>
+      <c r="J141" s="408"/>
+      <c r="K141" s="408"/>
+      <c r="L141" s="408"/>
+      <c r="M141" s="408"/>
+      <c r="N141" s="408"/>
+      <c r="O141" s="408"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="401"/>
-      <c r="H142" s="401"/>
-      <c r="I142" s="401"/>
-      <c r="J142" s="401"/>
-      <c r="K142" s="401"/>
-      <c r="L142" s="401"/>
-      <c r="M142" s="401"/>
-      <c r="N142" s="401"/>
-      <c r="O142" s="401"/>
+      <c r="G142" s="408"/>
+      <c r="H142" s="408"/>
+      <c r="I142" s="408"/>
+      <c r="J142" s="408"/>
+      <c r="K142" s="408"/>
+      <c r="L142" s="408"/>
+      <c r="M142" s="408"/>
+      <c r="N142" s="408"/>
+      <c r="O142" s="408"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -17512,7 +17548,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="398" t="s">
+      <c r="D158" s="405" t="s">
         <v>1321</v>
       </c>
       <c r="E158" s="66"/>
@@ -17525,7 +17561,7 @@
       <c r="L158" s="237"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="399"/>
+      <c r="D159" s="406"/>
       <c r="E159" s="313" t="s">
         <v>1319</v>
       </c>
@@ -17547,7 +17583,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="399"/>
+      <c r="D160" s="406"/>
       <c r="E160" s="232"/>
       <c r="F160" s="238"/>
       <c r="G160" s="232"/>
@@ -17558,7 +17594,7 @@
       <c r="L160" s="238"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="399"/>
+      <c r="D161" s="406"/>
       <c r="E161" s="315"/>
       <c r="F161" s="316"/>
       <c r="G161" s="315"/>
@@ -17569,7 +17605,7 @@
       <c r="L161" s="316"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="399"/>
+      <c r="D162" s="406"/>
       <c r="E162" s="317"/>
       <c r="F162" s="318"/>
       <c r="G162" s="317"/>
@@ -17583,7 +17619,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="399"/>
+      <c r="D163" s="406"/>
       <c r="E163" s="319"/>
       <c r="F163" s="320"/>
       <c r="G163" s="319"/>
@@ -17594,7 +17630,7 @@
       <c r="L163" s="320"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="399"/>
+      <c r="D164" s="406"/>
       <c r="E164" s="66"/>
       <c r="F164" s="237"/>
       <c r="G164" s="66"/>
@@ -17605,7 +17641,7 @@
       <c r="L164" s="237"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="399"/>
+      <c r="D165" s="406"/>
       <c r="E165" s="58"/>
       <c r="F165" s="312"/>
       <c r="G165" s="58"/>
@@ -17619,7 +17655,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="399"/>
+      <c r="D166" s="406"/>
       <c r="E166" s="232"/>
       <c r="F166" s="238"/>
       <c r="G166" s="232"/>
@@ -17630,7 +17666,7 @@
       <c r="L166" s="238"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="399"/>
+      <c r="D167" s="406"/>
       <c r="E167" s="66"/>
       <c r="F167" s="237"/>
       <c r="G167" s="59"/>
@@ -17641,7 +17677,7 @@
       <c r="L167" s="312"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="399"/>
+      <c r="D168" s="406"/>
       <c r="E168" s="58"/>
       <c r="F168" s="312"/>
       <c r="G168" s="59"/>
@@ -17655,7 +17691,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="399"/>
+      <c r="D169" s="406"/>
       <c r="E169" s="232"/>
       <c r="F169" s="238"/>
       <c r="G169" s="321"/>
@@ -17835,17 +17871,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -18090,13 +18126,13 @@
       <c r="C20" s="116">
         <v>43908</v>
       </c>
-      <c r="D20" s="409" t="s">
+      <c r="D20" s="412" t="s">
         <v>457</v>
       </c>
-      <c r="E20" s="409"/>
-      <c r="F20" s="409"/>
-      <c r="G20" s="409"/>
-      <c r="H20" s="409"/>
+      <c r="E20" s="412"/>
+      <c r="F20" s="412"/>
+      <c r="G20" s="412"/>
+      <c r="H20" s="412"/>
       <c r="I20" s="38" t="s">
         <v>458</v>
       </c>
@@ -18107,37 +18143,37 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="410">
+      <c r="C21" s="423">
         <v>43909</v>
       </c>
-      <c r="D21" s="409"/>
-      <c r="E21" s="409"/>
-      <c r="F21" s="409"/>
-      <c r="G21" s="409"/>
-      <c r="H21" s="409"/>
+      <c r="D21" s="412"/>
+      <c r="E21" s="412"/>
+      <c r="F21" s="412"/>
+      <c r="G21" s="412"/>
+      <c r="H21" s="412"/>
       <c r="I21" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="J21" s="409"/>
-      <c r="K21" s="409"/>
-      <c r="L21" s="409" t="s">
+      <c r="J21" s="412"/>
+      <c r="K21" s="412"/>
+      <c r="L21" s="412" t="s">
         <v>460</v>
       </c>
-      <c r="M21" s="409"/>
-      <c r="N21" s="409"/>
+      <c r="M21" s="412"/>
+      <c r="N21" s="412"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="410"/>
-      <c r="D22" s="409"/>
-      <c r="E22" s="409"/>
-      <c r="F22" s="409"/>
-      <c r="G22" s="409"/>
-      <c r="H22" s="409"/>
-      <c r="I22" s="361" t="s">
+      <c r="C22" s="423"/>
+      <c r="D22" s="412"/>
+      <c r="E22" s="412"/>
+      <c r="F22" s="412"/>
+      <c r="G22" s="412"/>
+      <c r="H22" s="412"/>
+      <c r="I22" s="365" t="s">
         <v>461</v>
       </c>
-      <c r="J22" s="409"/>
-      <c r="K22" s="409"/>
+      <c r="J22" s="412"/>
+      <c r="K22" s="412"/>
       <c r="L22" s="117" t="s">
         <v>462</v>
       </c>
@@ -18145,31 +18181,31 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="410"/>
-      <c r="D23" s="409"/>
-      <c r="E23" s="409"/>
-      <c r="F23" s="409"/>
-      <c r="G23" s="409"/>
-      <c r="H23" s="409"/>
-      <c r="I23" s="361"/>
-      <c r="J23" s="409"/>
-      <c r="K23" s="409"/>
-      <c r="L23" s="409" t="s">
+      <c r="C23" s="423"/>
+      <c r="D23" s="412"/>
+      <c r="E23" s="412"/>
+      <c r="F23" s="412"/>
+      <c r="G23" s="412"/>
+      <c r="H23" s="412"/>
+      <c r="I23" s="365"/>
+      <c r="J23" s="412"/>
+      <c r="K23" s="412"/>
+      <c r="L23" s="412" t="s">
         <v>463</v>
       </c>
-      <c r="M23" s="409"/>
-      <c r="N23" s="409"/>
+      <c r="M23" s="412"/>
+      <c r="N23" s="412"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="410"/>
-      <c r="D24" s="409"/>
-      <c r="E24" s="409"/>
-      <c r="F24" s="409"/>
-      <c r="G24" s="409"/>
-      <c r="H24" s="409"/>
-      <c r="I24" s="361"/>
-      <c r="J24" s="409"/>
-      <c r="K24" s="409"/>
+      <c r="C24" s="423"/>
+      <c r="D24" s="412"/>
+      <c r="E24" s="412"/>
+      <c r="F24" s="412"/>
+      <c r="G24" s="412"/>
+      <c r="H24" s="412"/>
+      <c r="I24" s="365"/>
+      <c r="J24" s="412"/>
+      <c r="K24" s="412"/>
       <c r="L24" s="118" t="s">
         <v>461</v>
       </c>
@@ -18180,13 +18216,13 @@
       <c r="C25" s="116">
         <v>43910</v>
       </c>
-      <c r="D25" s="409" t="s">
+      <c r="D25" s="412" t="s">
         <v>464</v>
       </c>
-      <c r="E25" s="409"/>
-      <c r="F25" s="409"/>
-      <c r="G25" s="409"/>
-      <c r="H25" s="409"/>
+      <c r="E25" s="412"/>
+      <c r="F25" s="412"/>
+      <c r="G25" s="412"/>
+      <c r="H25" s="412"/>
       <c r="I25" s="38" t="s">
         <v>465</v>
       </c>
@@ -18200,16 +18236,16 @@
       <c r="C26" s="116">
         <v>43911</v>
       </c>
-      <c r="D26" s="411"/>
-      <c r="E26" s="412"/>
-      <c r="F26" s="412"/>
-      <c r="G26" s="412"/>
-      <c r="H26" s="413"/>
-      <c r="I26" s="418" t="s">
+      <c r="D26" s="413"/>
+      <c r="E26" s="414"/>
+      <c r="F26" s="414"/>
+      <c r="G26" s="414"/>
+      <c r="H26" s="415"/>
+      <c r="I26" s="420" t="s">
         <v>461</v>
       </c>
-      <c r="J26" s="411"/>
-      <c r="K26" s="413"/>
+      <c r="J26" s="413"/>
+      <c r="K26" s="415"/>
       <c r="L26" s="117" t="s">
         <v>462</v>
       </c>
@@ -18218,30 +18254,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
-      <c r="D27" s="414"/>
-      <c r="E27" s="404"/>
-      <c r="F27" s="404"/>
-      <c r="G27" s="404"/>
-      <c r="H27" s="415"/>
-      <c r="I27" s="419"/>
-      <c r="J27" s="414"/>
-      <c r="K27" s="415"/>
-      <c r="L27" s="409" t="s">
+      <c r="D27" s="416"/>
+      <c r="E27" s="411"/>
+      <c r="F27" s="411"/>
+      <c r="G27" s="411"/>
+      <c r="H27" s="417"/>
+      <c r="I27" s="421"/>
+      <c r="J27" s="416"/>
+      <c r="K27" s="417"/>
+      <c r="L27" s="412" t="s">
         <v>466</v>
       </c>
-      <c r="M27" s="409"/>
-      <c r="N27" s="409"/>
+      <c r="M27" s="412"/>
+      <c r="N27" s="412"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
-      <c r="D28" s="414"/>
-      <c r="E28" s="404"/>
-      <c r="F28" s="404"/>
-      <c r="G28" s="404"/>
-      <c r="H28" s="415"/>
-      <c r="I28" s="419"/>
-      <c r="J28" s="414"/>
-      <c r="K28" s="415"/>
+      <c r="D28" s="416"/>
+      <c r="E28" s="411"/>
+      <c r="F28" s="411"/>
+      <c r="G28" s="411"/>
+      <c r="H28" s="417"/>
+      <c r="I28" s="421"/>
+      <c r="J28" s="416"/>
+      <c r="K28" s="417"/>
       <c r="L28" s="118" t="s">
         <v>461</v>
       </c>
@@ -18250,14 +18286,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
-      <c r="D29" s="416"/>
-      <c r="E29" s="396"/>
-      <c r="F29" s="396"/>
-      <c r="G29" s="396"/>
-      <c r="H29" s="417"/>
-      <c r="I29" s="420"/>
-      <c r="J29" s="416"/>
-      <c r="K29" s="417"/>
+      <c r="D29" s="418"/>
+      <c r="E29" s="399"/>
+      <c r="F29" s="399"/>
+      <c r="G29" s="399"/>
+      <c r="H29" s="419"/>
+      <c r="I29" s="422"/>
+      <c r="J29" s="418"/>
+      <c r="K29" s="419"/>
       <c r="L29" s="119" t="s">
         <v>467</v>
       </c>
@@ -18305,13 +18341,13 @@
       <c r="C33" s="116">
         <v>43908</v>
       </c>
-      <c r="D33" s="409" t="s">
+      <c r="D33" s="412" t="s">
         <v>457</v>
       </c>
-      <c r="E33" s="409"/>
-      <c r="F33" s="409"/>
-      <c r="G33" s="409"/>
-      <c r="H33" s="409"/>
+      <c r="E33" s="412"/>
+      <c r="F33" s="412"/>
+      <c r="G33" s="412"/>
+      <c r="H33" s="412"/>
       <c r="I33" s="38" t="s">
         <v>458</v>
       </c>
@@ -18322,33 +18358,33 @@
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="410">
+      <c r="C34" s="423">
         <v>43909</v>
       </c>
-      <c r="D34" s="409"/>
-      <c r="E34" s="409"/>
-      <c r="F34" s="409"/>
-      <c r="G34" s="409"/>
-      <c r="H34" s="409"/>
-      <c r="I34" s="421"/>
-      <c r="J34" s="409"/>
-      <c r="K34" s="409"/>
-      <c r="L34" s="409" t="s">
+      <c r="D34" s="412"/>
+      <c r="E34" s="412"/>
+      <c r="F34" s="412"/>
+      <c r="G34" s="412"/>
+      <c r="H34" s="412"/>
+      <c r="I34" s="424"/>
+      <c r="J34" s="412"/>
+      <c r="K34" s="412"/>
+      <c r="L34" s="412" t="s">
         <v>460</v>
       </c>
-      <c r="M34" s="409"/>
-      <c r="N34" s="409"/>
+      <c r="M34" s="412"/>
+      <c r="N34" s="412"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="410"/>
-      <c r="D35" s="409"/>
-      <c r="E35" s="409"/>
-      <c r="F35" s="409"/>
-      <c r="G35" s="409"/>
-      <c r="H35" s="409"/>
-      <c r="I35" s="422"/>
-      <c r="J35" s="409"/>
-      <c r="K35" s="409"/>
+      <c r="C35" s="423"/>
+      <c r="D35" s="412"/>
+      <c r="E35" s="412"/>
+      <c r="F35" s="412"/>
+      <c r="G35" s="412"/>
+      <c r="H35" s="412"/>
+      <c r="I35" s="425"/>
+      <c r="J35" s="412"/>
+      <c r="K35" s="412"/>
       <c r="L35" s="117" t="s">
         <v>462</v>
       </c>
@@ -18356,31 +18392,31 @@
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="410"/>
-      <c r="D36" s="409"/>
-      <c r="E36" s="409"/>
-      <c r="F36" s="409"/>
-      <c r="G36" s="409"/>
-      <c r="H36" s="409"/>
-      <c r="I36" s="422"/>
-      <c r="J36" s="409"/>
-      <c r="K36" s="409"/>
-      <c r="L36" s="409" t="s">
+      <c r="C36" s="423"/>
+      <c r="D36" s="412"/>
+      <c r="E36" s="412"/>
+      <c r="F36" s="412"/>
+      <c r="G36" s="412"/>
+      <c r="H36" s="412"/>
+      <c r="I36" s="425"/>
+      <c r="J36" s="412"/>
+      <c r="K36" s="412"/>
+      <c r="L36" s="412" t="s">
         <v>463</v>
       </c>
-      <c r="M36" s="409"/>
-      <c r="N36" s="409"/>
+      <c r="M36" s="412"/>
+      <c r="N36" s="412"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="410"/>
-      <c r="D37" s="409"/>
-      <c r="E37" s="409"/>
-      <c r="F37" s="409"/>
-      <c r="G37" s="409"/>
-      <c r="H37" s="409"/>
-      <c r="I37" s="423"/>
-      <c r="J37" s="409"/>
-      <c r="K37" s="409"/>
+      <c r="C37" s="423"/>
+      <c r="D37" s="412"/>
+      <c r="E37" s="412"/>
+      <c r="F37" s="412"/>
+      <c r="G37" s="412"/>
+      <c r="H37" s="412"/>
+      <c r="I37" s="426"/>
+      <c r="J37" s="412"/>
+      <c r="K37" s="412"/>
       <c r="L37" s="118" t="s">
         <v>468</v>
       </c>
@@ -18391,13 +18427,13 @@
       <c r="C38" s="116">
         <v>43910</v>
       </c>
-      <c r="D38" s="409" t="s">
+      <c r="D38" s="412" t="s">
         <v>464</v>
       </c>
-      <c r="E38" s="409"/>
-      <c r="F38" s="409"/>
-      <c r="G38" s="409"/>
-      <c r="H38" s="409"/>
+      <c r="E38" s="412"/>
+      <c r="F38" s="412"/>
+      <c r="G38" s="412"/>
+      <c r="H38" s="412"/>
       <c r="I38" s="38" t="s">
         <v>465</v>
       </c>
@@ -18411,14 +18447,14 @@
       <c r="C39" s="116">
         <v>43911</v>
       </c>
-      <c r="D39" s="411"/>
-      <c r="E39" s="412"/>
-      <c r="F39" s="412"/>
-      <c r="G39" s="412"/>
-      <c r="H39" s="413"/>
-      <c r="I39" s="418"/>
-      <c r="J39" s="411"/>
-      <c r="K39" s="413"/>
+      <c r="D39" s="413"/>
+      <c r="E39" s="414"/>
+      <c r="F39" s="414"/>
+      <c r="G39" s="414"/>
+      <c r="H39" s="415"/>
+      <c r="I39" s="420"/>
+      <c r="J39" s="413"/>
+      <c r="K39" s="415"/>
       <c r="L39" s="117" t="s">
         <v>462</v>
       </c>
@@ -18427,30 +18463,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
-      <c r="D40" s="414"/>
-      <c r="E40" s="404"/>
-      <c r="F40" s="404"/>
-      <c r="G40" s="404"/>
-      <c r="H40" s="415"/>
-      <c r="I40" s="419"/>
-      <c r="J40" s="414"/>
-      <c r="K40" s="415"/>
-      <c r="L40" s="409" t="s">
+      <c r="D40" s="416"/>
+      <c r="E40" s="411"/>
+      <c r="F40" s="411"/>
+      <c r="G40" s="411"/>
+      <c r="H40" s="417"/>
+      <c r="I40" s="421"/>
+      <c r="J40" s="416"/>
+      <c r="K40" s="417"/>
+      <c r="L40" s="412" t="s">
         <v>466</v>
       </c>
-      <c r="M40" s="409"/>
-      <c r="N40" s="409"/>
+      <c r="M40" s="412"/>
+      <c r="N40" s="412"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
-      <c r="D41" s="414"/>
-      <c r="E41" s="404"/>
-      <c r="F41" s="404"/>
-      <c r="G41" s="404"/>
-      <c r="H41" s="415"/>
-      <c r="I41" s="420"/>
-      <c r="J41" s="414"/>
-      <c r="K41" s="415"/>
+      <c r="D41" s="416"/>
+      <c r="E41" s="411"/>
+      <c r="F41" s="411"/>
+      <c r="G41" s="411"/>
+      <c r="H41" s="417"/>
+      <c r="I41" s="422"/>
+      <c r="J41" s="416"/>
+      <c r="K41" s="417"/>
       <c r="L41" s="118" t="s">
         <v>468</v>
       </c>
@@ -18459,16 +18495,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
-      <c r="D42" s="416"/>
-      <c r="E42" s="396"/>
-      <c r="F42" s="396"/>
-      <c r="G42" s="396"/>
-      <c r="H42" s="417"/>
+      <c r="D42" s="418"/>
+      <c r="E42" s="399"/>
+      <c r="F42" s="399"/>
+      <c r="G42" s="399"/>
+      <c r="H42" s="419"/>
       <c r="I42" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="J42" s="416"/>
-      <c r="K42" s="417"/>
+      <c r="J42" s="418"/>
+      <c r="K42" s="419"/>
       <c r="L42" s="119" t="s">
         <v>467</v>
       </c>
@@ -18780,17 +18816,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -18798,12 +18829,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18825,29 +18861,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="434" t="s">
+      <c r="B2" s="448" t="s">
         <v>1077</v>
       </c>
-      <c r="C2" s="434"/>
-      <c r="D2" s="434"/>
-      <c r="E2" s="434"/>
-      <c r="F2" s="434"/>
-      <c r="G2" s="434"/>
-      <c r="H2" s="434"/>
-      <c r="I2" s="434"/>
-      <c r="J2" s="434"/>
-      <c r="K2" s="434"/>
-      <c r="L2" s="434"/>
-      <c r="M2" s="434"/>
-      <c r="N2" s="434"/>
-      <c r="O2" s="434"/>
-      <c r="P2" s="434"/>
-      <c r="Q2" s="434"/>
-      <c r="R2" s="434"/>
-      <c r="S2" s="434"/>
-      <c r="T2" s="434"/>
-      <c r="U2" s="434"/>
-      <c r="V2" s="434"/>
+      <c r="C2" s="448"/>
+      <c r="D2" s="448"/>
+      <c r="E2" s="448"/>
+      <c r="F2" s="448"/>
+      <c r="G2" s="448"/>
+      <c r="H2" s="448"/>
+      <c r="I2" s="448"/>
+      <c r="J2" s="448"/>
+      <c r="K2" s="448"/>
+      <c r="L2" s="448"/>
+      <c r="M2" s="448"/>
+      <c r="N2" s="448"/>
+      <c r="O2" s="448"/>
+      <c r="P2" s="448"/>
+      <c r="Q2" s="448"/>
+      <c r="R2" s="448"/>
+      <c r="S2" s="448"/>
+      <c r="T2" s="448"/>
+      <c r="U2" s="448"/>
+      <c r="V2" s="448"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -18880,22 +18916,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="437" t="s">
+      <c r="G5" s="427" t="s">
         <v>519</v>
       </c>
-      <c r="H5" s="437"/>
-      <c r="I5" s="437" t="s">
+      <c r="H5" s="427"/>
+      <c r="I5" s="427" t="s">
         <v>520</v>
       </c>
-      <c r="J5" s="437"/>
-      <c r="K5" s="437"/>
-      <c r="L5" s="437"/>
-      <c r="M5" s="437"/>
-      <c r="N5" s="437"/>
-      <c r="O5" s="437" t="s">
+      <c r="J5" s="427"/>
+      <c r="K5" s="427"/>
+      <c r="L5" s="427"/>
+      <c r="M5" s="427"/>
+      <c r="N5" s="427"/>
+      <c r="O5" s="427" t="s">
         <v>521</v>
       </c>
-      <c r="P5" s="437"/>
+      <c r="P5" s="427"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -18907,7 +18943,7 @@
       <c r="D6" s="135"/>
       <c r="E6" s="136"/>
       <c r="F6" s="138"/>
-      <c r="G6" s="442" t="s">
+      <c r="G6" s="428" t="s">
         <v>522</v>
       </c>
       <c r="H6" s="111"/>
@@ -18936,26 +18972,26 @@
       </c>
       <c r="E7" s="138"/>
       <c r="F7" s="138"/>
-      <c r="G7" s="443"/>
-      <c r="H7" s="445" t="s">
+      <c r="G7" s="429"/>
+      <c r="H7" s="431" t="s">
         <v>524</v>
       </c>
-      <c r="I7" s="448" t="s">
+      <c r="I7" s="434" t="s">
         <v>525</v>
       </c>
-      <c r="J7" s="449"/>
-      <c r="K7" s="450" t="s">
+      <c r="J7" s="435"/>
+      <c r="K7" s="436" t="s">
         <v>526</v>
       </c>
-      <c r="L7" s="451"/>
-      <c r="M7" s="448" t="s">
+      <c r="L7" s="437"/>
+      <c r="M7" s="434" t="s">
         <v>527</v>
       </c>
-      <c r="N7" s="449"/>
-      <c r="O7" s="456" t="s">
+      <c r="N7" s="435"/>
+      <c r="O7" s="442" t="s">
         <v>528</v>
       </c>
-      <c r="P7" s="457"/>
+      <c r="P7" s="443"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -18967,16 +19003,16 @@
       <c r="D8" s="139"/>
       <c r="E8" s="140"/>
       <c r="F8" s="138"/>
-      <c r="G8" s="443"/>
-      <c r="H8" s="446"/>
-      <c r="I8" s="373"/>
-      <c r="J8" s="360"/>
-      <c r="K8" s="452"/>
-      <c r="L8" s="453"/>
-      <c r="M8" s="373"/>
-      <c r="N8" s="360"/>
-      <c r="O8" s="458"/>
-      <c r="P8" s="459"/>
+      <c r="G8" s="429"/>
+      <c r="H8" s="432"/>
+      <c r="I8" s="376"/>
+      <c r="J8" s="364"/>
+      <c r="K8" s="438"/>
+      <c r="L8" s="439"/>
+      <c r="M8" s="376"/>
+      <c r="N8" s="364"/>
+      <c r="O8" s="444"/>
+      <c r="P8" s="445"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="38" t="s">
         <v>182</v>
@@ -18994,16 +19030,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="443"/>
-      <c r="H9" s="446"/>
-      <c r="I9" s="373"/>
-      <c r="J9" s="360"/>
-      <c r="K9" s="452"/>
-      <c r="L9" s="453"/>
-      <c r="M9" s="373"/>
-      <c r="N9" s="360"/>
-      <c r="O9" s="458"/>
-      <c r="P9" s="459"/>
+      <c r="G9" s="429"/>
+      <c r="H9" s="432"/>
+      <c r="I9" s="376"/>
+      <c r="J9" s="364"/>
+      <c r="K9" s="438"/>
+      <c r="L9" s="439"/>
+      <c r="M9" s="376"/>
+      <c r="N9" s="364"/>
+      <c r="O9" s="444"/>
+      <c r="P9" s="445"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -19023,16 +19059,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="443"/>
-      <c r="H10" s="446"/>
-      <c r="I10" s="373"/>
-      <c r="J10" s="360"/>
-      <c r="K10" s="452"/>
-      <c r="L10" s="453"/>
-      <c r="M10" s="373"/>
-      <c r="N10" s="360"/>
-      <c r="O10" s="458"/>
-      <c r="P10" s="459"/>
+      <c r="G10" s="429"/>
+      <c r="H10" s="432"/>
+      <c r="I10" s="376"/>
+      <c r="J10" s="364"/>
+      <c r="K10" s="438"/>
+      <c r="L10" s="439"/>
+      <c r="M10" s="376"/>
+      <c r="N10" s="364"/>
+      <c r="O10" s="444"/>
+      <c r="P10" s="445"/>
       <c r="Q10" s="5" t="s">
         <v>187</v>
       </c>
@@ -19048,16 +19084,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="443"/>
-      <c r="H11" s="446"/>
-      <c r="I11" s="373"/>
-      <c r="J11" s="360"/>
-      <c r="K11" s="452"/>
-      <c r="L11" s="453"/>
-      <c r="M11" s="373"/>
-      <c r="N11" s="360"/>
-      <c r="O11" s="458"/>
-      <c r="P11" s="459"/>
+      <c r="G11" s="429"/>
+      <c r="H11" s="432"/>
+      <c r="I11" s="376"/>
+      <c r="J11" s="364"/>
+      <c r="K11" s="438"/>
+      <c r="L11" s="439"/>
+      <c r="M11" s="376"/>
+      <c r="N11" s="364"/>
+      <c r="O11" s="444"/>
+      <c r="P11" s="445"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -19075,16 +19111,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="443"/>
-      <c r="H12" s="446"/>
-      <c r="I12" s="373"/>
-      <c r="J12" s="360"/>
-      <c r="K12" s="452"/>
-      <c r="L12" s="453"/>
-      <c r="M12" s="373"/>
-      <c r="N12" s="360"/>
-      <c r="O12" s="458"/>
-      <c r="P12" s="459"/>
+      <c r="G12" s="429"/>
+      <c r="H12" s="432"/>
+      <c r="I12" s="376"/>
+      <c r="J12" s="364"/>
+      <c r="K12" s="438"/>
+      <c r="L12" s="439"/>
+      <c r="M12" s="376"/>
+      <c r="N12" s="364"/>
+      <c r="O12" s="444"/>
+      <c r="P12" s="445"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -19098,16 +19134,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="443"/>
-      <c r="H13" s="446"/>
-      <c r="I13" s="373"/>
-      <c r="J13" s="360"/>
-      <c r="K13" s="452"/>
-      <c r="L13" s="453"/>
-      <c r="M13" s="373"/>
-      <c r="N13" s="360"/>
-      <c r="O13" s="458"/>
-      <c r="P13" s="459"/>
+      <c r="G13" s="429"/>
+      <c r="H13" s="432"/>
+      <c r="I13" s="376"/>
+      <c r="J13" s="364"/>
+      <c r="K13" s="438"/>
+      <c r="L13" s="439"/>
+      <c r="M13" s="376"/>
+      <c r="N13" s="364"/>
+      <c r="O13" s="444"/>
+      <c r="P13" s="445"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -19119,16 +19155,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="443"/>
-      <c r="H14" s="446"/>
-      <c r="I14" s="373"/>
-      <c r="J14" s="360"/>
-      <c r="K14" s="452"/>
-      <c r="L14" s="453"/>
-      <c r="M14" s="373"/>
-      <c r="N14" s="360"/>
-      <c r="O14" s="458"/>
-      <c r="P14" s="459"/>
+      <c r="G14" s="429"/>
+      <c r="H14" s="432"/>
+      <c r="I14" s="376"/>
+      <c r="J14" s="364"/>
+      <c r="K14" s="438"/>
+      <c r="L14" s="439"/>
+      <c r="M14" s="376"/>
+      <c r="N14" s="364"/>
+      <c r="O14" s="444"/>
+      <c r="P14" s="445"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -19142,16 +19178,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="443"/>
-      <c r="H15" s="446"/>
-      <c r="I15" s="373"/>
-      <c r="J15" s="360"/>
-      <c r="K15" s="452"/>
-      <c r="L15" s="453"/>
-      <c r="M15" s="373"/>
-      <c r="N15" s="360"/>
-      <c r="O15" s="458"/>
-      <c r="P15" s="459"/>
+      <c r="G15" s="429"/>
+      <c r="H15" s="432"/>
+      <c r="I15" s="376"/>
+      <c r="J15" s="364"/>
+      <c r="K15" s="438"/>
+      <c r="L15" s="439"/>
+      <c r="M15" s="376"/>
+      <c r="N15" s="364"/>
+      <c r="O15" s="444"/>
+      <c r="P15" s="445"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -19163,16 +19199,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="443"/>
-      <c r="H16" s="446"/>
-      <c r="I16" s="373"/>
-      <c r="J16" s="360"/>
-      <c r="K16" s="452"/>
-      <c r="L16" s="453"/>
-      <c r="M16" s="373"/>
-      <c r="N16" s="360"/>
-      <c r="O16" s="458"/>
-      <c r="P16" s="459"/>
+      <c r="G16" s="429"/>
+      <c r="H16" s="432"/>
+      <c r="I16" s="376"/>
+      <c r="J16" s="364"/>
+      <c r="K16" s="438"/>
+      <c r="L16" s="439"/>
+      <c r="M16" s="376"/>
+      <c r="N16" s="364"/>
+      <c r="O16" s="444"/>
+      <c r="P16" s="445"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -19184,16 +19220,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="443"/>
-      <c r="H17" s="446"/>
-      <c r="I17" s="373"/>
-      <c r="J17" s="360"/>
-      <c r="K17" s="452"/>
-      <c r="L17" s="453"/>
-      <c r="M17" s="373"/>
-      <c r="N17" s="360"/>
-      <c r="O17" s="458"/>
-      <c r="P17" s="459"/>
+      <c r="G17" s="429"/>
+      <c r="H17" s="432"/>
+      <c r="I17" s="376"/>
+      <c r="J17" s="364"/>
+      <c r="K17" s="438"/>
+      <c r="L17" s="439"/>
+      <c r="M17" s="376"/>
+      <c r="N17" s="364"/>
+      <c r="O17" s="444"/>
+      <c r="P17" s="445"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -19205,16 +19241,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="443"/>
-      <c r="H18" s="446"/>
-      <c r="I18" s="373"/>
-      <c r="J18" s="360"/>
-      <c r="K18" s="452"/>
-      <c r="L18" s="453"/>
-      <c r="M18" s="373"/>
-      <c r="N18" s="360"/>
-      <c r="O18" s="458"/>
-      <c r="P18" s="459"/>
+      <c r="G18" s="429"/>
+      <c r="H18" s="432"/>
+      <c r="I18" s="376"/>
+      <c r="J18" s="364"/>
+      <c r="K18" s="438"/>
+      <c r="L18" s="439"/>
+      <c r="M18" s="376"/>
+      <c r="N18" s="364"/>
+      <c r="O18" s="444"/>
+      <c r="P18" s="445"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -19228,16 +19264,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="443"/>
-      <c r="H19" s="446"/>
-      <c r="I19" s="373"/>
-      <c r="J19" s="360"/>
-      <c r="K19" s="452"/>
-      <c r="L19" s="453"/>
-      <c r="M19" s="373"/>
-      <c r="N19" s="360"/>
-      <c r="O19" s="458"/>
-      <c r="P19" s="459"/>
+      <c r="G19" s="429"/>
+      <c r="H19" s="432"/>
+      <c r="I19" s="376"/>
+      <c r="J19" s="364"/>
+      <c r="K19" s="438"/>
+      <c r="L19" s="439"/>
+      <c r="M19" s="376"/>
+      <c r="N19" s="364"/>
+      <c r="O19" s="444"/>
+      <c r="P19" s="445"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -19249,16 +19285,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="444"/>
-      <c r="H20" s="447"/>
-      <c r="I20" s="375"/>
-      <c r="J20" s="377"/>
-      <c r="K20" s="454"/>
-      <c r="L20" s="455"/>
-      <c r="M20" s="375"/>
-      <c r="N20" s="377"/>
-      <c r="O20" s="460"/>
-      <c r="P20" s="461"/>
+      <c r="G20" s="430"/>
+      <c r="H20" s="433"/>
+      <c r="I20" s="378"/>
+      <c r="J20" s="380"/>
+      <c r="K20" s="440"/>
+      <c r="L20" s="441"/>
+      <c r="M20" s="378"/>
+      <c r="N20" s="380"/>
+      <c r="O20" s="446"/>
+      <c r="P20" s="447"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -19288,27 +19324,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="378" t="s">
+      <c r="D22" s="381" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="379"/>
+      <c r="E22" s="382"/>
       <c r="F22" s="265"/>
       <c r="G22" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="378" t="s">
+      <c r="H22" s="381" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="380"/>
-      <c r="J22" s="380"/>
-      <c r="K22" s="380"/>
-      <c r="L22" s="380"/>
-      <c r="M22" s="380"/>
-      <c r="N22" s="379"/>
-      <c r="O22" s="378" t="s">
+      <c r="I22" s="383"/>
+      <c r="J22" s="383"/>
+      <c r="K22" s="383"/>
+      <c r="L22" s="383"/>
+      <c r="M22" s="383"/>
+      <c r="N22" s="382"/>
+      <c r="O22" s="381" t="s">
         <v>529</v>
       </c>
-      <c r="P22" s="379"/>
+      <c r="P22" s="382"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -19339,59 +19375,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="434" t="s">
+      <c r="B25" s="448" t="s">
         <v>1076</v>
       </c>
-      <c r="C25" s="434"/>
-      <c r="D25" s="434"/>
-      <c r="E25" s="434"/>
-      <c r="F25" s="434"/>
-      <c r="G25" s="434"/>
-      <c r="H25" s="434"/>
-      <c r="I25" s="434"/>
-      <c r="J25" s="434"/>
-      <c r="K25" s="434"/>
-      <c r="L25" s="434"/>
-      <c r="M25" s="434"/>
-      <c r="N25" s="434"/>
-      <c r="O25" s="434"/>
-      <c r="P25" s="434"/>
-      <c r="Q25" s="434"/>
-      <c r="R25" s="434"/>
-      <c r="S25" s="434"/>
-      <c r="T25" s="434"/>
-      <c r="U25" s="434"/>
-      <c r="V25" s="434"/>
+      <c r="C25" s="448"/>
+      <c r="D25" s="448"/>
+      <c r="E25" s="448"/>
+      <c r="F25" s="448"/>
+      <c r="G25" s="448"/>
+      <c r="H25" s="448"/>
+      <c r="I25" s="448"/>
+      <c r="J25" s="448"/>
+      <c r="K25" s="448"/>
+      <c r="L25" s="448"/>
+      <c r="M25" s="448"/>
+      <c r="N25" s="448"/>
+      <c r="O25" s="448"/>
+      <c r="P25" s="448"/>
+      <c r="Q25" s="448"/>
+      <c r="R25" s="448"/>
+      <c r="S25" s="448"/>
+      <c r="T25" s="448"/>
+      <c r="U25" s="448"/>
+      <c r="V25" s="448"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="435" t="s">
+      <c r="C26" s="449" t="s">
         <v>571</v>
       </c>
-      <c r="D26" s="435"/>
-      <c r="E26" s="435"/>
-      <c r="F26" s="435"/>
-      <c r="G26" s="435"/>
-      <c r="H26" s="435"/>
-      <c r="I26" s="435"/>
-      <c r="J26" s="435"/>
-      <c r="K26" s="435"/>
-      <c r="L26" s="435"/>
-      <c r="M26" s="435"/>
+      <c r="D26" s="449"/>
+      <c r="E26" s="449"/>
+      <c r="F26" s="449"/>
+      <c r="G26" s="449"/>
+      <c r="H26" s="449"/>
+      <c r="I26" s="449"/>
+      <c r="J26" s="449"/>
+      <c r="K26" s="449"/>
+      <c r="L26" s="449"/>
+      <c r="M26" s="449"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="405" t="s">
+      <c r="E27" s="401" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="351"/>
-      <c r="G27" s="351"/>
-      <c r="H27" s="367"/>
-      <c r="I27" s="367"/>
-      <c r="J27" s="367"/>
-      <c r="K27" s="367"/>
-      <c r="L27" s="367"/>
-      <c r="M27" s="368"/>
+      <c r="F27" s="361"/>
+      <c r="G27" s="361"/>
+      <c r="H27" s="370"/>
+      <c r="I27" s="370"/>
+      <c r="J27" s="370"/>
+      <c r="K27" s="370"/>
+      <c r="L27" s="370"/>
+      <c r="M27" s="371"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -19424,11 +19460,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="436" t="s">
+      <c r="O29" s="450" t="s">
         <v>179</v>
       </c>
-      <c r="P29" s="436"/>
-      <c r="Q29" s="436"/>
+      <c r="P29" s="450"/>
+      <c r="Q29" s="450"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -19473,21 +19509,21 @@
         <v>190</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="431" t="s">
+      <c r="E32" s="454" t="s">
         <v>1080</v>
       </c>
-      <c r="F32" s="432"/>
-      <c r="G32" s="433"/>
-      <c r="H32" s="431" t="s">
+      <c r="F32" s="455"/>
+      <c r="G32" s="456"/>
+      <c r="H32" s="454" t="s">
         <v>1081</v>
       </c>
-      <c r="I32" s="432"/>
-      <c r="J32" s="433"/>
-      <c r="K32" s="431" t="s">
+      <c r="I32" s="455"/>
+      <c r="J32" s="456"/>
+      <c r="K32" s="454" t="s">
         <v>1082</v>
       </c>
-      <c r="L32" s="432"/>
-      <c r="M32" s="433"/>
+      <c r="L32" s="455"/>
+      <c r="M32" s="456"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -19504,15 +19540,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="431"/>
-      <c r="F33" s="432"/>
-      <c r="G33" s="433"/>
-      <c r="H33" s="431"/>
-      <c r="I33" s="432"/>
-      <c r="J33" s="433"/>
-      <c r="K33" s="431"/>
-      <c r="L33" s="432"/>
-      <c r="M33" s="433"/>
+      <c r="E33" s="454"/>
+      <c r="F33" s="455"/>
+      <c r="G33" s="456"/>
+      <c r="H33" s="454"/>
+      <c r="I33" s="455"/>
+      <c r="J33" s="456"/>
+      <c r="K33" s="454"/>
+      <c r="L33" s="455"/>
+      <c r="M33" s="456"/>
       <c r="N33" s="5" t="s">
         <v>187</v>
       </c>
@@ -19529,15 +19565,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="431"/>
-      <c r="F34" s="432"/>
-      <c r="G34" s="433"/>
-      <c r="H34" s="431"/>
-      <c r="I34" s="432"/>
-      <c r="J34" s="433"/>
-      <c r="K34" s="431"/>
-      <c r="L34" s="432"/>
-      <c r="M34" s="433"/>
+      <c r="E34" s="454"/>
+      <c r="F34" s="455"/>
+      <c r="G34" s="456"/>
+      <c r="H34" s="454"/>
+      <c r="I34" s="455"/>
+      <c r="J34" s="456"/>
+      <c r="K34" s="454"/>
+      <c r="L34" s="455"/>
+      <c r="M34" s="456"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -19548,15 +19584,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="431"/>
-      <c r="F35" s="432"/>
-      <c r="G35" s="433"/>
-      <c r="H35" s="431"/>
-      <c r="I35" s="432"/>
-      <c r="J35" s="433"/>
-      <c r="K35" s="431"/>
-      <c r="L35" s="432"/>
-      <c r="M35" s="433"/>
+      <c r="E35" s="454"/>
+      <c r="F35" s="455"/>
+      <c r="G35" s="456"/>
+      <c r="H35" s="454"/>
+      <c r="I35" s="455"/>
+      <c r="J35" s="456"/>
+      <c r="K35" s="454"/>
+      <c r="L35" s="455"/>
+      <c r="M35" s="456"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -19687,15 +19723,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="424"/>
-      <c r="F42" s="425"/>
-      <c r="G42" s="425"/>
-      <c r="H42" s="425"/>
-      <c r="I42" s="425"/>
-      <c r="J42" s="425"/>
-      <c r="K42" s="425"/>
-      <c r="L42" s="425"/>
-      <c r="M42" s="426"/>
+      <c r="E42" s="458"/>
+      <c r="F42" s="459"/>
+      <c r="G42" s="459"/>
+      <c r="H42" s="459"/>
+      <c r="I42" s="459"/>
+      <c r="J42" s="459"/>
+      <c r="K42" s="459"/>
+      <c r="L42" s="459"/>
+      <c r="M42" s="460"/>
       <c r="N42" s="40" t="s">
         <v>576</v>
       </c>
@@ -19714,83 +19750,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="378" t="s">
+      <c r="C44" s="381" t="s">
         <v>194</v>
       </c>
-      <c r="D44" s="379"/>
-      <c r="E44" s="378" t="s">
+      <c r="D44" s="382"/>
+      <c r="E44" s="381" t="s">
         <v>195</v>
       </c>
-      <c r="F44" s="380"/>
-      <c r="G44" s="379"/>
-      <c r="H44" s="378" t="s">
+      <c r="F44" s="383"/>
+      <c r="G44" s="382"/>
+      <c r="H44" s="381" t="s">
         <v>196</v>
       </c>
-      <c r="I44" s="380"/>
-      <c r="J44" s="380"/>
-      <c r="K44" s="380"/>
-      <c r="L44" s="380"/>
-      <c r="M44" s="379"/>
+      <c r="I44" s="383"/>
+      <c r="J44" s="383"/>
+      <c r="K44" s="383"/>
+      <c r="L44" s="383"/>
+      <c r="M44" s="382"/>
       <c r="Q44" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="434" t="s">
+      <c r="B47" s="448" t="s">
         <v>1078</v>
       </c>
-      <c r="C47" s="434"/>
-      <c r="D47" s="434"/>
-      <c r="E47" s="434"/>
-      <c r="F47" s="434"/>
-      <c r="G47" s="434"/>
-      <c r="H47" s="434"/>
-      <c r="I47" s="434"/>
-      <c r="J47" s="434"/>
-      <c r="K47" s="434"/>
-      <c r="L47" s="434"/>
-      <c r="M47" s="434"/>
-      <c r="N47" s="434"/>
-      <c r="O47" s="434"/>
-      <c r="P47" s="434"/>
-      <c r="Q47" s="434"/>
-      <c r="R47" s="434"/>
-      <c r="S47" s="434"/>
-      <c r="T47" s="434"/>
-      <c r="U47" s="434"/>
-      <c r="V47" s="434"/>
+      <c r="C47" s="448"/>
+      <c r="D47" s="448"/>
+      <c r="E47" s="448"/>
+      <c r="F47" s="448"/>
+      <c r="G47" s="448"/>
+      <c r="H47" s="448"/>
+      <c r="I47" s="448"/>
+      <c r="J47" s="448"/>
+      <c r="K47" s="448"/>
+      <c r="L47" s="448"/>
+      <c r="M47" s="448"/>
+      <c r="N47" s="448"/>
+      <c r="O47" s="448"/>
+      <c r="P47" s="448"/>
+      <c r="Q47" s="448"/>
+      <c r="R47" s="448"/>
+      <c r="S47" s="448"/>
+      <c r="T47" s="448"/>
+      <c r="U47" s="448"/>
+      <c r="V47" s="448"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="435" t="s">
+      <c r="C48" s="449" t="s">
         <v>571</v>
       </c>
-      <c r="D48" s="435"/>
-      <c r="E48" s="435"/>
-      <c r="F48" s="435"/>
-      <c r="G48" s="435"/>
-      <c r="H48" s="435"/>
-      <c r="I48" s="435"/>
-      <c r="J48" s="435"/>
-      <c r="K48" s="435"/>
-      <c r="L48" s="435"/>
-      <c r="M48" s="435"/>
+      <c r="D48" s="449"/>
+      <c r="E48" s="449"/>
+      <c r="F48" s="449"/>
+      <c r="G48" s="449"/>
+      <c r="H48" s="449"/>
+      <c r="I48" s="449"/>
+      <c r="J48" s="449"/>
+      <c r="K48" s="449"/>
+      <c r="L48" s="449"/>
+      <c r="M48" s="449"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="405" t="s">
+      <c r="E49" s="401" t="s">
         <v>178</v>
       </c>
-      <c r="F49" s="351"/>
-      <c r="G49" s="351"/>
-      <c r="H49" s="367"/>
-      <c r="I49" s="367"/>
-      <c r="J49" s="367"/>
-      <c r="K49" s="367"/>
-      <c r="L49" s="367"/>
-      <c r="M49" s="368"/>
+      <c r="F49" s="361"/>
+      <c r="G49" s="361"/>
+      <c r="H49" s="370"/>
+      <c r="I49" s="370"/>
+      <c r="J49" s="370"/>
+      <c r="K49" s="370"/>
+      <c r="L49" s="370"/>
+      <c r="M49" s="371"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -19808,16 +19844,16 @@
       </c>
       <c r="F50" s="122"/>
       <c r="G50" s="245"/>
-      <c r="H50" s="438" t="s">
+      <c r="H50" s="451" t="s">
         <v>1081</v>
       </c>
-      <c r="I50" s="439"/>
-      <c r="J50" s="440"/>
-      <c r="K50" s="438" t="s">
+      <c r="I50" s="452"/>
+      <c r="J50" s="453"/>
+      <c r="K50" s="451" t="s">
         <v>1082</v>
       </c>
-      <c r="L50" s="439"/>
-      <c r="M50" s="440"/>
+      <c r="L50" s="452"/>
+      <c r="M50" s="453"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -19831,20 +19867,20 @@
         <v>1096</v>
       </c>
       <c r="F51" s="286"/>
-      <c r="G51" s="441" t="s">
+      <c r="G51" s="457" t="s">
         <v>1104</v>
       </c>
-      <c r="H51" s="431"/>
-      <c r="I51" s="432"/>
-      <c r="J51" s="433"/>
-      <c r="K51" s="431"/>
-      <c r="L51" s="432"/>
-      <c r="M51" s="433"/>
-      <c r="O51" s="436" t="s">
+      <c r="H51" s="454"/>
+      <c r="I51" s="455"/>
+      <c r="J51" s="456"/>
+      <c r="K51" s="454"/>
+      <c r="L51" s="455"/>
+      <c r="M51" s="456"/>
+      <c r="O51" s="450" t="s">
         <v>179</v>
       </c>
-      <c r="P51" s="436"/>
-      <c r="Q51" s="436"/>
+      <c r="P51" s="450"/>
+      <c r="Q51" s="450"/>
       <c r="S51" s="273"/>
       <c r="T51" s="273"/>
       <c r="W51" s="40" t="s">
@@ -19858,13 +19894,13 @@
         <v>1097</v>
       </c>
       <c r="F52" s="287"/>
-      <c r="G52" s="441"/>
-      <c r="H52" s="431"/>
-      <c r="I52" s="432"/>
-      <c r="J52" s="433"/>
-      <c r="K52" s="431"/>
-      <c r="L52" s="432"/>
-      <c r="M52" s="433"/>
+      <c r="G52" s="457"/>
+      <c r="H52" s="454"/>
+      <c r="I52" s="455"/>
+      <c r="J52" s="456"/>
+      <c r="K52" s="454"/>
+      <c r="L52" s="455"/>
+      <c r="M52" s="456"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -19875,13 +19911,13 @@
         <v>1098</v>
       </c>
       <c r="F53" s="288"/>
-      <c r="G53" s="441"/>
-      <c r="H53" s="431"/>
-      <c r="I53" s="432"/>
-      <c r="J53" s="433"/>
-      <c r="K53" s="431"/>
-      <c r="L53" s="432"/>
-      <c r="M53" s="433"/>
+      <c r="G53" s="457"/>
+      <c r="H53" s="454"/>
+      <c r="I53" s="455"/>
+      <c r="J53" s="456"/>
+      <c r="K53" s="454"/>
+      <c r="L53" s="455"/>
+      <c r="M53" s="456"/>
       <c r="N53" s="5"/>
       <c r="O53" s="38" t="s">
         <v>182</v>
@@ -19920,7 +19956,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="274"/>
       <c r="F54" s="289"/>
-      <c r="G54" s="429" t="s">
+      <c r="G54" s="463" t="s">
         <v>1108</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -19967,11 +20003,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="427" t="s">
+      <c r="E55" s="461" t="s">
         <v>1109</v>
       </c>
-      <c r="F55" s="428"/>
-      <c r="G55" s="430"/>
+      <c r="F55" s="462"/>
+      <c r="G55" s="464"/>
       <c r="H55" s="141" t="s">
         <v>1100</v>
       </c>
@@ -20015,9 +20051,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="427"/>
-      <c r="F56" s="428"/>
-      <c r="G56" s="430"/>
+      <c r="E56" s="461"/>
+      <c r="F56" s="462"/>
+      <c r="G56" s="464"/>
       <c r="H56" s="141" t="s">
         <v>1101</v>
       </c>
@@ -20047,9 +20083,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="427"/>
-      <c r="F57" s="428"/>
-      <c r="G57" s="430"/>
+      <c r="E57" s="461"/>
+      <c r="F57" s="462"/>
+      <c r="G57" s="464"/>
       <c r="H57" s="4" t="s">
         <v>1113</v>
       </c>
@@ -20079,9 +20115,9 @@
         <v>192</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="427"/>
-      <c r="F58" s="428"/>
-      <c r="G58" s="430"/>
+      <c r="E58" s="461"/>
+      <c r="F58" s="462"/>
+      <c r="G58" s="464"/>
       <c r="H58" s="278" t="s">
         <v>1099</v>
       </c>
@@ -20106,9 +20142,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="427"/>
-      <c r="F59" s="428"/>
-      <c r="G59" s="430"/>
+      <c r="E59" s="461"/>
+      <c r="F59" s="462"/>
+      <c r="G59" s="464"/>
       <c r="H59" s="278" t="s">
         <v>550</v>
       </c>
@@ -20133,9 +20169,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="427"/>
-      <c r="F60" s="428"/>
-      <c r="G60" s="430"/>
+      <c r="E60" s="461"/>
+      <c r="F60" s="462"/>
+      <c r="G60" s="464"/>
       <c r="H60" s="280"/>
       <c r="I60" s="281" t="s">
         <v>1115</v>
@@ -20155,9 +20191,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="427"/>
-      <c r="F61" s="428"/>
-      <c r="G61" s="430"/>
+      <c r="E61" s="461"/>
+      <c r="F61" s="462"/>
+      <c r="G61" s="464"/>
       <c r="H61" s="280"/>
       <c r="I61" s="281" t="s">
         <v>1116</v>
@@ -20177,7 +20213,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="269"/>
       <c r="F62" s="285"/>
-      <c r="G62" s="430"/>
+      <c r="G62" s="464"/>
       <c r="H62" s="282"/>
       <c r="I62" s="284" t="s">
         <v>1117</v>
@@ -20219,15 +20255,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="424"/>
-      <c r="F64" s="425"/>
-      <c r="G64" s="425"/>
-      <c r="H64" s="425"/>
-      <c r="I64" s="425"/>
-      <c r="J64" s="425"/>
-      <c r="K64" s="425"/>
-      <c r="L64" s="425"/>
-      <c r="M64" s="426"/>
+      <c r="E64" s="458"/>
+      <c r="F64" s="459"/>
+      <c r="G64" s="459"/>
+      <c r="H64" s="459"/>
+      <c r="I64" s="459"/>
+      <c r="J64" s="459"/>
+      <c r="K64" s="459"/>
+      <c r="L64" s="459"/>
+      <c r="M64" s="460"/>
       <c r="N64" s="40" t="s">
         <v>576</v>
       </c>
@@ -20256,23 +20292,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="378" t="s">
+      <c r="C66" s="381" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="379"/>
-      <c r="E66" s="378" t="s">
+      <c r="D66" s="382"/>
+      <c r="E66" s="381" t="s">
         <v>195</v>
       </c>
-      <c r="F66" s="380"/>
-      <c r="G66" s="379"/>
-      <c r="H66" s="378" t="s">
+      <c r="F66" s="383"/>
+      <c r="G66" s="382"/>
+      <c r="H66" s="381" t="s">
         <v>196</v>
       </c>
-      <c r="I66" s="380"/>
-      <c r="J66" s="380"/>
-      <c r="K66" s="380"/>
-      <c r="L66" s="380"/>
-      <c r="M66" s="379"/>
+      <c r="I66" s="383"/>
+      <c r="J66" s="383"/>
+      <c r="K66" s="383"/>
+      <c r="L66" s="383"/>
+      <c r="M66" s="382"/>
       <c r="Q66" t="s">
         <v>1079</v>
       </c>
@@ -20293,23 +20329,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="409" t="s">
+      <c r="C68" s="412" t="s">
         <v>181</v>
       </c>
-      <c r="D68" s="409"/>
-      <c r="E68" s="409" t="s">
+      <c r="D68" s="412"/>
+      <c r="E68" s="412" t="s">
         <v>1365</v>
       </c>
-      <c r="F68" s="409"/>
-      <c r="G68" s="409"/>
-      <c r="H68" s="409" t="s">
+      <c r="F68" s="412"/>
+      <c r="G68" s="412"/>
+      <c r="H68" s="412" t="s">
         <v>1381</v>
       </c>
-      <c r="I68" s="409"/>
-      <c r="J68" s="409"/>
-      <c r="K68" s="409"/>
-      <c r="L68" s="409"/>
-      <c r="M68" s="409"/>
+      <c r="I68" s="412"/>
+      <c r="J68" s="412"/>
+      <c r="K68" s="412"/>
+      <c r="L68" s="412"/>
+      <c r="M68" s="412"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -21106,6 +21142,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -21122,30 +21182,6 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -21179,12 +21215,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="462" t="s">
+      <c r="B1" s="465" t="s">
         <v>539</v>
       </c>
-      <c r="C1" s="462"/>
-      <c r="D1" s="462"/>
-      <c r="E1" s="462"/>
+      <c r="C1" s="465"/>
+      <c r="D1" s="465"/>
+      <c r="E1" s="465"/>
       <c r="I1" s="40" t="s">
         <v>552</v>
       </c>
@@ -21301,12 +21337,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="404" t="s">
+      <c r="B8" s="411" t="s">
         <v>1403</v>
       </c>
-      <c r="C8" s="404"/>
-      <c r="D8" s="404"/>
-      <c r="E8" s="404"/>
+      <c r="C8" s="411"/>
+      <c r="D8" s="411"/>
+      <c r="E8" s="411"/>
       <c r="J8" s="32" t="s">
         <v>555</v>
       </c>
@@ -21479,32 +21515,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="435" t="s">
+      <c r="C2" s="449" t="s">
         <v>571</v>
       </c>
-      <c r="D2" s="435"/>
-      <c r="E2" s="435"/>
-      <c r="F2" s="435"/>
-      <c r="G2" s="435"/>
-      <c r="H2" s="435"/>
-      <c r="I2" s="435"/>
-      <c r="J2" s="435"/>
-      <c r="K2" s="435"/>
-      <c r="L2" s="435"/>
+      <c r="D2" s="449"/>
+      <c r="E2" s="449"/>
+      <c r="F2" s="449"/>
+      <c r="G2" s="449"/>
+      <c r="H2" s="449"/>
+      <c r="I2" s="449"/>
+      <c r="J2" s="449"/>
+      <c r="K2" s="449"/>
+      <c r="L2" s="449"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="405" t="s">
+      <c r="E3" s="401" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="351"/>
-      <c r="G3" s="367"/>
-      <c r="H3" s="367"/>
-      <c r="I3" s="367"/>
-      <c r="J3" s="367"/>
-      <c r="K3" s="367"/>
-      <c r="L3" s="368"/>
+      <c r="F3" s="361"/>
+      <c r="G3" s="370"/>
+      <c r="H3" s="370"/>
+      <c r="I3" s="370"/>
+      <c r="J3" s="370"/>
+      <c r="K3" s="370"/>
+      <c r="L3" s="371"/>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
@@ -21535,11 +21571,11 @@
         <v>590</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="436" t="s">
+      <c r="N5" s="450" t="s">
         <v>179</v>
       </c>
-      <c r="O5" s="436"/>
-      <c r="P5" s="436"/>
+      <c r="O5" s="450"/>
+      <c r="P5" s="450"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -21590,20 +21626,20 @@
         <v>190</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="431" t="s">
+      <c r="E8" s="454" t="s">
         <v>572</v>
       </c>
-      <c r="F8" s="433"/>
-      <c r="G8" s="431" t="s">
+      <c r="F8" s="456"/>
+      <c r="G8" s="454" t="s">
         <v>573</v>
       </c>
-      <c r="H8" s="432"/>
-      <c r="I8" s="433"/>
-      <c r="J8" s="431" t="s">
+      <c r="H8" s="455"/>
+      <c r="I8" s="456"/>
+      <c r="J8" s="454" t="s">
         <v>574</v>
       </c>
-      <c r="K8" s="432"/>
-      <c r="L8" s="433"/>
+      <c r="K8" s="455"/>
+      <c r="L8" s="456"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -21626,14 +21662,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="431"/>
-      <c r="F9" s="433"/>
-      <c r="G9" s="431"/>
-      <c r="H9" s="432"/>
-      <c r="I9" s="433"/>
-      <c r="J9" s="431"/>
-      <c r="K9" s="432"/>
-      <c r="L9" s="433"/>
+      <c r="E9" s="454"/>
+      <c r="F9" s="456"/>
+      <c r="G9" s="454"/>
+      <c r="H9" s="455"/>
+      <c r="I9" s="456"/>
+      <c r="J9" s="454"/>
+      <c r="K9" s="455"/>
+      <c r="L9" s="456"/>
       <c r="M9" s="5" t="s">
         <v>187</v>
       </c>
@@ -21653,14 +21689,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="431"/>
-      <c r="F10" s="433"/>
-      <c r="G10" s="431"/>
-      <c r="H10" s="432"/>
-      <c r="I10" s="433"/>
-      <c r="J10" s="431"/>
-      <c r="K10" s="432"/>
-      <c r="L10" s="433"/>
+      <c r="E10" s="454"/>
+      <c r="F10" s="456"/>
+      <c r="G10" s="454"/>
+      <c r="H10" s="455"/>
+      <c r="I10" s="456"/>
+      <c r="J10" s="454"/>
+      <c r="K10" s="455"/>
+      <c r="L10" s="456"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -21674,14 +21710,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="431"/>
-      <c r="F11" s="433"/>
-      <c r="G11" s="431"/>
-      <c r="H11" s="432"/>
-      <c r="I11" s="433"/>
-      <c r="J11" s="431"/>
-      <c r="K11" s="432"/>
-      <c r="L11" s="433"/>
+      <c r="E11" s="454"/>
+      <c r="F11" s="456"/>
+      <c r="G11" s="454"/>
+      <c r="H11" s="455"/>
+      <c r="I11" s="456"/>
+      <c r="J11" s="454"/>
+      <c r="K11" s="455"/>
+      <c r="L11" s="456"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -21784,16 +21820,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="424" t="s">
+      <c r="E17" s="458" t="s">
         <v>575</v>
       </c>
-      <c r="F17" s="425"/>
-      <c r="G17" s="425"/>
-      <c r="H17" s="425"/>
-      <c r="I17" s="425"/>
-      <c r="J17" s="425"/>
-      <c r="K17" s="425"/>
-      <c r="L17" s="426"/>
+      <c r="F17" s="459"/>
+      <c r="G17" s="459"/>
+      <c r="H17" s="459"/>
+      <c r="I17" s="459"/>
+      <c r="J17" s="459"/>
+      <c r="K17" s="459"/>
+      <c r="L17" s="460"/>
       <c r="M17" s="40" t="s">
         <v>576</v>
       </c>
@@ -21811,40 +21847,40 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="378" t="s">
+      <c r="C19" s="381" t="s">
         <v>194</v>
       </c>
-      <c r="D19" s="379"/>
-      <c r="E19" s="378" t="s">
+      <c r="D19" s="382"/>
+      <c r="E19" s="381" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="379"/>
-      <c r="G19" s="378" t="s">
+      <c r="F19" s="382"/>
+      <c r="G19" s="381" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="380"/>
-      <c r="I19" s="380"/>
-      <c r="J19" s="380"/>
-      <c r="K19" s="380"/>
-      <c r="L19" s="379"/>
+      <c r="H19" s="383"/>
+      <c r="I19" s="383"/>
+      <c r="J19" s="383"/>
+      <c r="K19" s="383"/>
+      <c r="L19" s="382"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="463" t="s">
+      <c r="E21" s="466" t="s">
         <v>1394</v>
       </c>
-      <c r="F21" s="464"/>
+      <c r="F21" s="467"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="E22" s="465"/>
-      <c r="F22" s="466"/>
+      <c r="E22" s="468"/>
+      <c r="F22" s="469"/>
       <c r="J22" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="E23" s="465"/>
-      <c r="F23" s="466"/>
+      <c r="E23" s="468"/>
+      <c r="F23" s="469"/>
       <c r="H23" t="s">
         <v>1415</v>
       </c>
@@ -21856,8 +21892,8 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="467"/>
-      <c r="F24" s="468"/>
+      <c r="E24" s="470"/>
+      <c r="F24" s="471"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -22312,22 +22348,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="437" t="s">
+      <c r="E3" s="427" t="s">
         <v>519</v>
       </c>
-      <c r="F3" s="437"/>
-      <c r="G3" s="437" t="s">
+      <c r="F3" s="427"/>
+      <c r="G3" s="427" t="s">
         <v>520</v>
       </c>
-      <c r="H3" s="437"/>
-      <c r="I3" s="437"/>
-      <c r="J3" s="437"/>
-      <c r="K3" s="437"/>
-      <c r="L3" s="437"/>
-      <c r="M3" s="437" t="s">
+      <c r="H3" s="427"/>
+      <c r="I3" s="427"/>
+      <c r="J3" s="427"/>
+      <c r="K3" s="427"/>
+      <c r="L3" s="427"/>
+      <c r="M3" s="427" t="s">
         <v>521</v>
       </c>
-      <c r="N3" s="437"/>
+      <c r="N3" s="427"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -22338,7 +22374,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="135"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="442" t="s">
+      <c r="E4" s="428" t="s">
         <v>522</v>
       </c>
       <c r="F4" s="131"/>
@@ -22366,22 +22402,22 @@
         <v>181</v>
       </c>
       <c r="D5" s="138"/>
-      <c r="E5" s="443"/>
-      <c r="F5" s="383" t="s">
+      <c r="E5" s="429"/>
+      <c r="F5" s="386" t="s">
         <v>618</v>
       </c>
-      <c r="G5" s="384"/>
-      <c r="H5" s="385"/>
-      <c r="I5" s="469" t="s">
+      <c r="G5" s="387"/>
+      <c r="H5" s="388"/>
+      <c r="I5" s="501" t="s">
         <v>619</v>
       </c>
-      <c r="J5" s="470"/>
-      <c r="K5" s="470"/>
-      <c r="L5" s="451"/>
-      <c r="M5" s="469" t="s">
+      <c r="J5" s="502"/>
+      <c r="K5" s="502"/>
+      <c r="L5" s="437"/>
+      <c r="M5" s="501" t="s">
         <v>620</v>
       </c>
-      <c r="N5" s="451"/>
+      <c r="N5" s="437"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -22392,16 +22428,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="139"/>
       <c r="D6" s="140"/>
-      <c r="E6" s="443"/>
-      <c r="F6" s="386"/>
-      <c r="G6" s="387"/>
-      <c r="H6" s="388"/>
-      <c r="I6" s="452"/>
-      <c r="J6" s="471"/>
-      <c r="K6" s="471"/>
-      <c r="L6" s="453"/>
-      <c r="M6" s="452"/>
-      <c r="N6" s="453"/>
+      <c r="E6" s="429"/>
+      <c r="F6" s="389"/>
+      <c r="G6" s="390"/>
+      <c r="H6" s="391"/>
+      <c r="I6" s="438"/>
+      <c r="J6" s="503"/>
+      <c r="K6" s="503"/>
+      <c r="L6" s="439"/>
+      <c r="M6" s="438"/>
+      <c r="N6" s="439"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>182</v>
@@ -22418,16 +22454,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="443"/>
-      <c r="F7" s="386"/>
-      <c r="G7" s="387"/>
-      <c r="H7" s="388"/>
-      <c r="I7" s="452"/>
-      <c r="J7" s="471"/>
-      <c r="K7" s="471"/>
-      <c r="L7" s="453"/>
-      <c r="M7" s="452"/>
-      <c r="N7" s="453"/>
+      <c r="E7" s="429"/>
+      <c r="F7" s="389"/>
+      <c r="G7" s="390"/>
+      <c r="H7" s="391"/>
+      <c r="I7" s="438"/>
+      <c r="J7" s="503"/>
+      <c r="K7" s="503"/>
+      <c r="L7" s="439"/>
+      <c r="M7" s="438"/>
+      <c r="N7" s="439"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -22446,16 +22482,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="443"/>
-      <c r="F8" s="386"/>
-      <c r="G8" s="387"/>
-      <c r="H8" s="388"/>
-      <c r="I8" s="452"/>
-      <c r="J8" s="471"/>
-      <c r="K8" s="471"/>
-      <c r="L8" s="453"/>
-      <c r="M8" s="452"/>
-      <c r="N8" s="453"/>
+      <c r="E8" s="429"/>
+      <c r="F8" s="389"/>
+      <c r="G8" s="390"/>
+      <c r="H8" s="391"/>
+      <c r="I8" s="438"/>
+      <c r="J8" s="503"/>
+      <c r="K8" s="503"/>
+      <c r="L8" s="439"/>
+      <c r="M8" s="438"/>
+      <c r="N8" s="439"/>
       <c r="O8" s="5" t="s">
         <v>187</v>
       </c>
@@ -22476,16 +22512,16 @@
         <v>190</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="443"/>
-      <c r="F9" s="386"/>
-      <c r="G9" s="387"/>
-      <c r="H9" s="388"/>
-      <c r="I9" s="452"/>
-      <c r="J9" s="471"/>
-      <c r="K9" s="471"/>
-      <c r="L9" s="453"/>
-      <c r="M9" s="452"/>
-      <c r="N9" s="453"/>
+      <c r="E9" s="429"/>
+      <c r="F9" s="389"/>
+      <c r="G9" s="390"/>
+      <c r="H9" s="391"/>
+      <c r="I9" s="438"/>
+      <c r="J9" s="503"/>
+      <c r="K9" s="503"/>
+      <c r="L9" s="439"/>
+      <c r="M9" s="438"/>
+      <c r="N9" s="439"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -22502,16 +22538,16 @@
         <v>538</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="443"/>
-      <c r="F10" s="386"/>
-      <c r="G10" s="387"/>
-      <c r="H10" s="388"/>
-      <c r="I10" s="452"/>
-      <c r="J10" s="471"/>
-      <c r="K10" s="471"/>
-      <c r="L10" s="453"/>
-      <c r="M10" s="452"/>
-      <c r="N10" s="453"/>
+      <c r="E10" s="429"/>
+      <c r="F10" s="389"/>
+      <c r="G10" s="390"/>
+      <c r="H10" s="391"/>
+      <c r="I10" s="438"/>
+      <c r="J10" s="503"/>
+      <c r="K10" s="503"/>
+      <c r="L10" s="439"/>
+      <c r="M10" s="438"/>
+      <c r="N10" s="439"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -22524,16 +22560,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="443"/>
-      <c r="F11" s="386"/>
-      <c r="G11" s="387"/>
-      <c r="H11" s="388"/>
-      <c r="I11" s="452"/>
-      <c r="J11" s="471"/>
-      <c r="K11" s="471"/>
-      <c r="L11" s="453"/>
-      <c r="M11" s="452"/>
-      <c r="N11" s="453"/>
+      <c r="E11" s="429"/>
+      <c r="F11" s="389"/>
+      <c r="G11" s="390"/>
+      <c r="H11" s="391"/>
+      <c r="I11" s="438"/>
+      <c r="J11" s="503"/>
+      <c r="K11" s="503"/>
+      <c r="L11" s="439"/>
+      <c r="M11" s="438"/>
+      <c r="N11" s="439"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -22544,16 +22580,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="443"/>
-      <c r="F12" s="386"/>
-      <c r="G12" s="387"/>
-      <c r="H12" s="388"/>
-      <c r="I12" s="452"/>
-      <c r="J12" s="471"/>
-      <c r="K12" s="471"/>
-      <c r="L12" s="453"/>
-      <c r="M12" s="452"/>
-      <c r="N12" s="453"/>
+      <c r="E12" s="429"/>
+      <c r="F12" s="389"/>
+      <c r="G12" s="390"/>
+      <c r="H12" s="391"/>
+      <c r="I12" s="438"/>
+      <c r="J12" s="503"/>
+      <c r="K12" s="503"/>
+      <c r="L12" s="439"/>
+      <c r="M12" s="438"/>
+      <c r="N12" s="439"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -22566,16 +22602,16 @@
         <v>192</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="443"/>
-      <c r="F13" s="386"/>
-      <c r="G13" s="387"/>
-      <c r="H13" s="388"/>
-      <c r="I13" s="452"/>
-      <c r="J13" s="471"/>
-      <c r="K13" s="471"/>
-      <c r="L13" s="453"/>
-      <c r="M13" s="452"/>
-      <c r="N13" s="453"/>
+      <c r="E13" s="429"/>
+      <c r="F13" s="389"/>
+      <c r="G13" s="390"/>
+      <c r="H13" s="391"/>
+      <c r="I13" s="438"/>
+      <c r="J13" s="503"/>
+      <c r="K13" s="503"/>
+      <c r="L13" s="439"/>
+      <c r="M13" s="438"/>
+      <c r="N13" s="439"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -22586,16 +22622,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="443"/>
-      <c r="F14" s="386"/>
-      <c r="G14" s="387"/>
-      <c r="H14" s="388"/>
-      <c r="I14" s="452"/>
-      <c r="J14" s="471"/>
-      <c r="K14" s="471"/>
-      <c r="L14" s="453"/>
-      <c r="M14" s="452"/>
-      <c r="N14" s="453"/>
+      <c r="E14" s="429"/>
+      <c r="F14" s="389"/>
+      <c r="G14" s="390"/>
+      <c r="H14" s="391"/>
+      <c r="I14" s="438"/>
+      <c r="J14" s="503"/>
+      <c r="K14" s="503"/>
+      <c r="L14" s="439"/>
+      <c r="M14" s="438"/>
+      <c r="N14" s="439"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -22606,16 +22642,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="443"/>
-      <c r="F15" s="386"/>
-      <c r="G15" s="387"/>
-      <c r="H15" s="388"/>
-      <c r="I15" s="452"/>
-      <c r="J15" s="471"/>
-      <c r="K15" s="471"/>
-      <c r="L15" s="453"/>
-      <c r="M15" s="452"/>
-      <c r="N15" s="453"/>
+      <c r="E15" s="429"/>
+      <c r="F15" s="389"/>
+      <c r="G15" s="390"/>
+      <c r="H15" s="391"/>
+      <c r="I15" s="438"/>
+      <c r="J15" s="503"/>
+      <c r="K15" s="503"/>
+      <c r="L15" s="439"/>
+      <c r="M15" s="438"/>
+      <c r="N15" s="439"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -22626,16 +22662,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="443"/>
-      <c r="F16" s="386"/>
-      <c r="G16" s="387"/>
-      <c r="H16" s="388"/>
-      <c r="I16" s="452"/>
-      <c r="J16" s="471"/>
-      <c r="K16" s="471"/>
-      <c r="L16" s="453"/>
-      <c r="M16" s="452"/>
-      <c r="N16" s="453"/>
+      <c r="E16" s="429"/>
+      <c r="F16" s="389"/>
+      <c r="G16" s="390"/>
+      <c r="H16" s="391"/>
+      <c r="I16" s="438"/>
+      <c r="J16" s="503"/>
+      <c r="K16" s="503"/>
+      <c r="L16" s="439"/>
+      <c r="M16" s="438"/>
+      <c r="N16" s="439"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -22648,16 +22684,16 @@
         <v>193</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="443"/>
-      <c r="F17" s="386"/>
-      <c r="G17" s="387"/>
-      <c r="H17" s="388"/>
-      <c r="I17" s="452"/>
-      <c r="J17" s="471"/>
-      <c r="K17" s="471"/>
-      <c r="L17" s="453"/>
-      <c r="M17" s="452"/>
-      <c r="N17" s="453"/>
+      <c r="E17" s="429"/>
+      <c r="F17" s="389"/>
+      <c r="G17" s="390"/>
+      <c r="H17" s="391"/>
+      <c r="I17" s="438"/>
+      <c r="J17" s="503"/>
+      <c r="K17" s="503"/>
+      <c r="L17" s="439"/>
+      <c r="M17" s="438"/>
+      <c r="N17" s="439"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -22668,16 +22704,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="444"/>
-      <c r="F18" s="389"/>
-      <c r="G18" s="390"/>
-      <c r="H18" s="391"/>
-      <c r="I18" s="454"/>
-      <c r="J18" s="472"/>
-      <c r="K18" s="472"/>
-      <c r="L18" s="455"/>
-      <c r="M18" s="454"/>
-      <c r="N18" s="455"/>
+      <c r="E18" s="430"/>
+      <c r="F18" s="392"/>
+      <c r="G18" s="393"/>
+      <c r="H18" s="394"/>
+      <c r="I18" s="440"/>
+      <c r="J18" s="504"/>
+      <c r="K18" s="504"/>
+      <c r="L18" s="441"/>
+      <c r="M18" s="440"/>
+      <c r="N18" s="441"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -22706,26 +22742,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="378" t="s">
+      <c r="C20" s="381" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="379"/>
+      <c r="D20" s="382"/>
       <c r="E20" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="F20" s="378" t="s">
+      <c r="F20" s="381" t="s">
         <v>196</v>
       </c>
-      <c r="G20" s="380"/>
-      <c r="H20" s="380"/>
-      <c r="I20" s="380"/>
-      <c r="J20" s="380"/>
-      <c r="K20" s="380"/>
-      <c r="L20" s="379"/>
-      <c r="M20" s="378" t="s">
+      <c r="G20" s="383"/>
+      <c r="H20" s="383"/>
+      <c r="I20" s="383"/>
+      <c r="J20" s="383"/>
+      <c r="K20" s="383"/>
+      <c r="L20" s="382"/>
+      <c r="M20" s="381" t="s">
         <v>529</v>
       </c>
-      <c r="N20" s="379"/>
+      <c r="N20" s="382"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -22753,39 +22789,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="436" t="s">
+      <c r="B24" s="450" t="s">
         <v>571</v>
       </c>
-      <c r="C24" s="436"/>
-      <c r="D24" s="435"/>
-      <c r="E24" s="435"/>
-      <c r="F24" s="435"/>
-      <c r="G24" s="435"/>
-      <c r="H24" s="435"/>
-      <c r="I24" s="435"/>
-      <c r="J24" s="435"/>
-      <c r="K24" s="435"/>
-      <c r="M24" s="490" t="s">
+      <c r="C24" s="450"/>
+      <c r="D24" s="449"/>
+      <c r="E24" s="449"/>
+      <c r="F24" s="449"/>
+      <c r="G24" s="449"/>
+      <c r="H24" s="449"/>
+      <c r="I24" s="449"/>
+      <c r="J24" s="449"/>
+      <c r="K24" s="449"/>
+      <c r="M24" s="472" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="490"/>
-      <c r="O24" s="490"/>
+      <c r="N24" s="472"/>
+      <c r="O24" s="472"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="491" t="s">
+      <c r="B25" s="473" t="s">
         <v>915</v>
       </c>
-      <c r="C25" s="413"/>
-      <c r="D25" s="367" t="s">
+      <c r="C25" s="415"/>
+      <c r="D25" s="370" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="367"/>
-      <c r="F25" s="367"/>
-      <c r="G25" s="367"/>
-      <c r="H25" s="367"/>
-      <c r="I25" s="367"/>
-      <c r="J25" s="367"/>
-      <c r="K25" s="368"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="370"/>
+      <c r="H25" s="370"/>
+      <c r="I25" s="370"/>
+      <c r="J25" s="370"/>
+      <c r="K25" s="371"/>
       <c r="M25" s="38" t="s">
         <v>182</v>
       </c>
@@ -22797,22 +22833,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="414"/>
-      <c r="C26" s="415"/>
-      <c r="D26" s="412" t="s">
+      <c r="B26" s="416"/>
+      <c r="C26" s="417"/>
+      <c r="D26" s="414" t="s">
         <v>908</v>
       </c>
-      <c r="E26" s="413"/>
-      <c r="F26" s="485" t="s">
+      <c r="E26" s="415"/>
+      <c r="F26" s="499" t="s">
         <v>908</v>
       </c>
-      <c r="G26" s="367"/>
-      <c r="H26" s="368"/>
-      <c r="I26" s="366" t="s">
+      <c r="G26" s="370"/>
+      <c r="H26" s="371"/>
+      <c r="I26" s="369" t="s">
         <v>912</v>
       </c>
-      <c r="J26" s="367"/>
-      <c r="K26" s="368"/>
+      <c r="J26" s="370"/>
+      <c r="K26" s="371"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -22827,22 +22863,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="414"/>
-      <c r="C27" s="415"/>
-      <c r="D27" s="404" t="s">
+      <c r="B27" s="416"/>
+      <c r="C27" s="417"/>
+      <c r="D27" s="411" t="s">
         <v>913</v>
       </c>
-      <c r="E27" s="415"/>
-      <c r="F27" s="414" t="s">
+      <c r="E27" s="417"/>
+      <c r="F27" s="416" t="s">
         <v>909</v>
       </c>
-      <c r="G27" s="404"/>
-      <c r="H27" s="365"/>
-      <c r="I27" s="489" t="s">
+      <c r="G27" s="411"/>
+      <c r="H27" s="368"/>
+      <c r="I27" s="483" t="s">
         <v>913</v>
       </c>
-      <c r="J27" s="404"/>
-      <c r="K27" s="365"/>
+      <c r="J27" s="411"/>
+      <c r="K27" s="368"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -22857,22 +22893,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="414"/>
-      <c r="C28" s="415"/>
-      <c r="D28" s="404" t="s">
+      <c r="B28" s="416"/>
+      <c r="C28" s="417"/>
+      <c r="D28" s="411" t="s">
         <v>910</v>
       </c>
-      <c r="E28" s="415"/>
-      <c r="F28" s="414" t="s">
+      <c r="E28" s="417"/>
+      <c r="F28" s="416" t="s">
         <v>910</v>
       </c>
-      <c r="G28" s="404"/>
-      <c r="H28" s="365"/>
-      <c r="I28" s="489" t="s">
+      <c r="G28" s="411"/>
+      <c r="H28" s="368"/>
+      <c r="I28" s="483" t="s">
         <v>910</v>
       </c>
-      <c r="J28" s="404"/>
-      <c r="K28" s="365"/>
+      <c r="J28" s="411"/>
+      <c r="K28" s="368"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -22881,22 +22917,22 @@
       <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="416"/>
-      <c r="C29" s="417"/>
-      <c r="D29" s="404" t="s">
+      <c r="B29" s="418"/>
+      <c r="C29" s="419"/>
+      <c r="D29" s="411" t="s">
         <v>911</v>
       </c>
-      <c r="E29" s="415"/>
-      <c r="F29" s="486" t="s">
+      <c r="E29" s="417"/>
+      <c r="F29" s="500" t="s">
         <v>911</v>
       </c>
-      <c r="G29" s="487"/>
-      <c r="H29" s="488"/>
-      <c r="I29" s="501" t="s">
+      <c r="G29" s="485"/>
+      <c r="H29" s="486"/>
+      <c r="I29" s="484" t="s">
         <v>911</v>
       </c>
-      <c r="J29" s="487"/>
-      <c r="K29" s="488"/>
+      <c r="J29" s="485"/>
+      <c r="K29" s="486"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -22905,149 +22941,149 @@
       <c r="O29" s="38"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="369" t="s">
+      <c r="B30" s="372" t="s">
         <v>914</v>
       </c>
-      <c r="C30" s="371"/>
-      <c r="D30" s="473" t="s">
+      <c r="C30" s="374"/>
+      <c r="D30" s="487" t="s">
         <v>572</v>
       </c>
-      <c r="E30" s="474"/>
-      <c r="F30" s="478" t="s">
+      <c r="E30" s="488"/>
+      <c r="F30" s="492" t="s">
         <v>573</v>
       </c>
-      <c r="G30" s="479"/>
-      <c r="H30" s="474"/>
-      <c r="I30" s="478" t="s">
+      <c r="G30" s="493"/>
+      <c r="H30" s="488"/>
+      <c r="I30" s="492" t="s">
         <v>574</v>
       </c>
-      <c r="J30" s="479"/>
-      <c r="K30" s="482"/>
+      <c r="J30" s="493"/>
+      <c r="K30" s="496"/>
       <c r="L30" s="5"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="373"/>
-      <c r="C31" s="374"/>
-      <c r="D31" s="475"/>
-      <c r="E31" s="433"/>
-      <c r="F31" s="431"/>
-      <c r="G31" s="432"/>
-      <c r="H31" s="433"/>
-      <c r="I31" s="431"/>
-      <c r="J31" s="432"/>
-      <c r="K31" s="483"/>
+      <c r="B31" s="376"/>
+      <c r="C31" s="377"/>
+      <c r="D31" s="489"/>
+      <c r="E31" s="456"/>
+      <c r="F31" s="454"/>
+      <c r="G31" s="455"/>
+      <c r="H31" s="456"/>
+      <c r="I31" s="454"/>
+      <c r="J31" s="455"/>
+      <c r="K31" s="497"/>
       <c r="L31" s="5"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="373"/>
-      <c r="C32" s="374"/>
-      <c r="D32" s="475"/>
-      <c r="E32" s="433"/>
-      <c r="F32" s="431"/>
-      <c r="G32" s="432"/>
-      <c r="H32" s="433"/>
-      <c r="I32" s="431"/>
-      <c r="J32" s="432"/>
-      <c r="K32" s="483"/>
+      <c r="B32" s="376"/>
+      <c r="C32" s="377"/>
+      <c r="D32" s="489"/>
+      <c r="E32" s="456"/>
+      <c r="F32" s="454"/>
+      <c r="G32" s="455"/>
+      <c r="H32" s="456"/>
+      <c r="I32" s="454"/>
+      <c r="J32" s="455"/>
+      <c r="K32" s="497"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="373"/>
-      <c r="C33" s="374"/>
-      <c r="D33" s="476"/>
-      <c r="E33" s="477"/>
-      <c r="F33" s="480"/>
-      <c r="G33" s="481"/>
-      <c r="H33" s="477"/>
-      <c r="I33" s="480"/>
-      <c r="J33" s="481"/>
-      <c r="K33" s="484"/>
+      <c r="B33" s="376"/>
+      <c r="C33" s="377"/>
+      <c r="D33" s="490"/>
+      <c r="E33" s="491"/>
+      <c r="F33" s="494"/>
+      <c r="G33" s="495"/>
+      <c r="H33" s="491"/>
+      <c r="I33" s="494"/>
+      <c r="J33" s="495"/>
+      <c r="K33" s="498"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="373"/>
-      <c r="C34" s="360"/>
-      <c r="D34" s="492" t="s">
+      <c r="B34" s="376"/>
+      <c r="C34" s="364"/>
+      <c r="D34" s="474" t="s">
         <v>901</v>
       </c>
-      <c r="E34" s="493"/>
-      <c r="F34" s="492" t="s">
+      <c r="E34" s="475"/>
+      <c r="F34" s="474" t="s">
         <v>594</v>
       </c>
-      <c r="G34" s="498"/>
-      <c r="H34" s="493"/>
-      <c r="I34" s="492" t="s">
+      <c r="G34" s="480"/>
+      <c r="H34" s="475"/>
+      <c r="I34" s="474" t="s">
         <v>916</v>
       </c>
-      <c r="J34" s="498"/>
-      <c r="K34" s="493"/>
+      <c r="J34" s="480"/>
+      <c r="K34" s="475"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="373"/>
-      <c r="C35" s="360"/>
-      <c r="D35" s="494"/>
-      <c r="E35" s="495"/>
-      <c r="F35" s="494"/>
-      <c r="G35" s="499"/>
-      <c r="H35" s="495"/>
-      <c r="I35" s="494"/>
-      <c r="J35" s="499"/>
-      <c r="K35" s="495"/>
+      <c r="B35" s="376"/>
+      <c r="C35" s="364"/>
+      <c r="D35" s="476"/>
+      <c r="E35" s="477"/>
+      <c r="F35" s="476"/>
+      <c r="G35" s="481"/>
+      <c r="H35" s="477"/>
+      <c r="I35" s="476"/>
+      <c r="J35" s="481"/>
+      <c r="K35" s="477"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="373"/>
-      <c r="C36" s="360"/>
-      <c r="D36" s="494"/>
-      <c r="E36" s="495"/>
-      <c r="F36" s="494"/>
-      <c r="G36" s="499"/>
-      <c r="H36" s="495"/>
-      <c r="I36" s="494"/>
-      <c r="J36" s="499"/>
-      <c r="K36" s="495"/>
+      <c r="B36" s="376"/>
+      <c r="C36" s="364"/>
+      <c r="D36" s="476"/>
+      <c r="E36" s="477"/>
+      <c r="F36" s="476"/>
+      <c r="G36" s="481"/>
+      <c r="H36" s="477"/>
+      <c r="I36" s="476"/>
+      <c r="J36" s="481"/>
+      <c r="K36" s="477"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="373"/>
-      <c r="C37" s="360"/>
-      <c r="D37" s="494"/>
-      <c r="E37" s="495"/>
-      <c r="F37" s="494"/>
-      <c r="G37" s="499"/>
-      <c r="H37" s="495"/>
-      <c r="I37" s="494"/>
-      <c r="J37" s="499"/>
-      <c r="K37" s="495"/>
+      <c r="B37" s="376"/>
+      <c r="C37" s="364"/>
+      <c r="D37" s="476"/>
+      <c r="E37" s="477"/>
+      <c r="F37" s="476"/>
+      <c r="G37" s="481"/>
+      <c r="H37" s="477"/>
+      <c r="I37" s="476"/>
+      <c r="J37" s="481"/>
+      <c r="K37" s="477"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="373"/>
-      <c r="C38" s="360"/>
-      <c r="D38" s="496"/>
-      <c r="E38" s="497"/>
-      <c r="F38" s="496"/>
-      <c r="G38" s="500"/>
-      <c r="H38" s="497"/>
-      <c r="I38" s="496"/>
-      <c r="J38" s="500"/>
-      <c r="K38" s="497"/>
+      <c r="B38" s="376"/>
+      <c r="C38" s="364"/>
+      <c r="D38" s="478"/>
+      <c r="E38" s="479"/>
+      <c r="F38" s="478"/>
+      <c r="G38" s="482"/>
+      <c r="H38" s="479"/>
+      <c r="I38" s="478"/>
+      <c r="J38" s="482"/>
+      <c r="K38" s="479"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="375"/>
-      <c r="C39" s="377"/>
-      <c r="D39" s="424" t="s">
+      <c r="B39" s="378"/>
+      <c r="C39" s="380"/>
+      <c r="D39" s="458" t="s">
         <v>575</v>
       </c>
-      <c r="E39" s="425"/>
-      <c r="F39" s="425"/>
-      <c r="G39" s="425"/>
-      <c r="H39" s="425"/>
-      <c r="I39" s="425"/>
-      <c r="J39" s="425"/>
-      <c r="K39" s="426"/>
+      <c r="E39" s="459"/>
+      <c r="F39" s="459"/>
+      <c r="G39" s="459"/>
+      <c r="H39" s="459"/>
+      <c r="I39" s="459"/>
+      <c r="J39" s="459"/>
+      <c r="K39" s="460"/>
       <c r="L39" s="40" t="s">
         <v>576</v>
       </c>
@@ -23065,36 +23101,35 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="378" t="s">
+      <c r="B41" s="381" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="379"/>
-      <c r="D41" s="378" t="s">
+      <c r="C41" s="382"/>
+      <c r="D41" s="381" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="379"/>
-      <c r="F41" s="378" t="s">
+      <c r="E41" s="382"/>
+      <c r="F41" s="381" t="s">
         <v>196</v>
       </c>
-      <c r="G41" s="380"/>
-      <c r="H41" s="380"/>
-      <c r="I41" s="380"/>
-      <c r="J41" s="380"/>
-      <c r="K41" s="379"/>
+      <c r="G41" s="383"/>
+      <c r="H41" s="383"/>
+      <c r="I41" s="383"/>
+      <c r="J41" s="383"/>
+      <c r="K41" s="382"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -23111,16 +23146,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -23408,7 +23444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:F13"/>
     </sheetView>
   </sheetViews>
@@ -23434,7 +23470,7 @@
       <c r="E5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="503" t="s">
+      <c r="F5" s="359" t="s">
         <v>1470</v>
       </c>
       <c r="I5" t="s">
@@ -23600,7 +23636,7 @@
   <dimension ref="A2:Q52"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23644,13 +23680,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="350" t="s">
+      <c r="A5" s="360" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="351"/>
-      <c r="C5" s="351"/>
-      <c r="D5" s="351"/>
-      <c r="E5" s="352"/>
+      <c r="B5" s="361"/>
+      <c r="C5" s="361"/>
+      <c r="D5" s="361"/>
+      <c r="E5" s="362"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>150</v>
@@ -24213,1198 +24249,1408 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:P119"/>
+  <dimension ref="B1:P218"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="4:16" ht="15.75" thickBot="1">
-      <c r="E2">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1">
+      <c r="C1" s="505">
+        <v>0.1</v>
+      </c>
+      <c r="D1" s="505">
+        <v>0.2</v>
+      </c>
+      <c r="E1" s="505">
+        <v>0.3</v>
+      </c>
+      <c r="F1" s="505">
+        <v>0.4</v>
+      </c>
+      <c r="G1" s="505">
+        <v>0.5</v>
+      </c>
+      <c r="H1" s="505">
+        <v>0.6</v>
+      </c>
+      <c r="I1" s="505">
+        <v>0.7</v>
+      </c>
+      <c r="J1" s="505">
+        <v>0.8</v>
+      </c>
+      <c r="K1" s="505">
+        <v>0.9</v>
+      </c>
+      <c r="L1" s="505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B2" s="505">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="506" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D2" s="508"/>
+      <c r="E2" s="507"/>
+      <c r="F2" s="507"/>
+      <c r="G2" s="507"/>
+      <c r="H2" s="507"/>
+      <c r="I2" s="507"/>
+      <c r="J2" s="507"/>
+      <c r="K2" s="506" t="s">
+        <v>302</v>
+      </c>
+      <c r="L2" s="508"/>
+      <c r="M2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B3" s="505">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="509"/>
+      <c r="D3" s="510"/>
+      <c r="E3" s="510"/>
+      <c r="F3" s="510"/>
+      <c r="G3" s="510"/>
+      <c r="H3" s="510"/>
+      <c r="I3" s="510"/>
+      <c r="J3" s="510"/>
+      <c r="K3" s="510"/>
+      <c r="L3" s="511"/>
+      <c r="M3" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="505">
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="239"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="376" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="505">
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="240"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="168"/>
+      <c r="M5" s="376"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="505">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="240"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="376"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="505">
+        <v>0.6</v>
+      </c>
+      <c r="C7" s="240" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D7" s="166"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167" t="s">
+        <v>1475</v>
+      </c>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="376"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="505">
+        <v>0.7</v>
+      </c>
+      <c r="C8" s="240"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="376"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="505">
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="240"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="168"/>
+      <c r="M9" s="376"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="505">
+        <v>0.9</v>
+      </c>
+      <c r="C10" s="240"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="167"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="376"/>
+    </row>
+    <row r="11" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B11" s="505">
+        <v>1</v>
+      </c>
+      <c r="C11" s="241"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="176"/>
+      <c r="L11" s="177"/>
+      <c r="M11" s="376"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="M12" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="101" spans="4:16" ht="15.75" thickBot="1">
+      <c r="E101">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F101">
         <v>20</v>
       </c>
-      <c r="G2">
+      <c r="G101">
         <v>30</v>
       </c>
-      <c r="H2">
+      <c r="H101">
         <v>40</v>
       </c>
-      <c r="I2">
+      <c r="I101">
         <v>50</v>
       </c>
-      <c r="J2">
+      <c r="J101">
         <v>60</v>
       </c>
-      <c r="K2">
+      <c r="K101">
         <v>70</v>
       </c>
-      <c r="L2">
+      <c r="L101">
         <v>80</v>
       </c>
-      <c r="M2">
+      <c r="M101">
         <v>90</v>
       </c>
-      <c r="N2">
+      <c r="N101">
         <v>100</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P101" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="4:16">
-      <c r="D3">
+    <row r="102" spans="4:16">
+      <c r="D102">
         <v>10</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="69"/>
-    </row>
-    <row r="4" spans="4:16">
-      <c r="D4">
+      <c r="E102" s="66"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="65"/>
+      <c r="I102" s="65"/>
+      <c r="J102" s="65"/>
+      <c r="K102" s="65"/>
+      <c r="L102" s="65"/>
+      <c r="M102" s="68"/>
+      <c r="N102" s="69"/>
+    </row>
+    <row r="103" spans="4:16">
+      <c r="D103">
         <v>20</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="51"/>
-    </row>
-    <row r="5" spans="4:16">
-      <c r="D5">
+      <c r="E103" s="58"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="59"/>
+      <c r="H103" s="50"/>
+      <c r="I103" s="50"/>
+      <c r="J103" s="50"/>
+      <c r="K103" s="50"/>
+      <c r="L103" s="50"/>
+      <c r="M103" s="60"/>
+      <c r="N103" s="51"/>
+    </row>
+    <row r="104" spans="4:16">
+      <c r="D104">
         <v>30</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="61"/>
-    </row>
-    <row r="6" spans="4:16">
-      <c r="D6">
+      <c r="E104" s="48"/>
+      <c r="F104" s="49"/>
+      <c r="G104" s="49"/>
+      <c r="H104" s="49"/>
+      <c r="I104" s="49"/>
+      <c r="J104" s="49"/>
+      <c r="K104" s="49"/>
+      <c r="L104" s="49"/>
+      <c r="M104" s="49"/>
+      <c r="N104" s="61"/>
+    </row>
+    <row r="105" spans="4:16">
+      <c r="D105">
         <v>40</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="61"/>
-    </row>
-    <row r="7" spans="4:16">
-      <c r="D7">
+      <c r="E105" s="48"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="49"/>
+      <c r="I105" s="49"/>
+      <c r="J105" s="49"/>
+      <c r="K105" s="49"/>
+      <c r="L105" s="49"/>
+      <c r="M105" s="49"/>
+      <c r="N105" s="61"/>
+    </row>
+    <row r="106" spans="4:16">
+      <c r="D106">
         <v>50</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="61"/>
-    </row>
-    <row r="8" spans="4:16">
-      <c r="D8">
+      <c r="E106" s="48"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="49"/>
+      <c r="H106" s="49"/>
+      <c r="I106" s="49"/>
+      <c r="J106" s="49"/>
+      <c r="K106" s="49"/>
+      <c r="L106" s="49"/>
+      <c r="M106" s="49"/>
+      <c r="N106" s="61"/>
+    </row>
+    <row r="107" spans="4:16">
+      <c r="D107">
         <v>60</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="61"/>
-    </row>
-    <row r="9" spans="4:16">
-      <c r="D9">
+      <c r="E107" s="48"/>
+      <c r="F107" s="49"/>
+      <c r="G107" s="49"/>
+      <c r="H107" s="49"/>
+      <c r="I107" s="49"/>
+      <c r="J107" s="49"/>
+      <c r="K107" s="49"/>
+      <c r="L107" s="49"/>
+      <c r="M107" s="49"/>
+      <c r="N107" s="61"/>
+    </row>
+    <row r="108" spans="4:16">
+      <c r="D108">
         <v>70</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="61"/>
-    </row>
-    <row r="10" spans="4:16">
-      <c r="D10">
+      <c r="E108" s="48"/>
+      <c r="F108" s="49"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="49"/>
+      <c r="I108" s="49"/>
+      <c r="J108" s="49"/>
+      <c r="K108" s="49"/>
+      <c r="L108" s="49"/>
+      <c r="M108" s="49"/>
+      <c r="N108" s="61"/>
+    </row>
+    <row r="109" spans="4:16">
+      <c r="D109">
         <v>80</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="61"/>
-    </row>
-    <row r="11" spans="4:16">
-      <c r="D11">
+      <c r="E109" s="48"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="49"/>
+      <c r="I109" s="49"/>
+      <c r="J109" s="49"/>
+      <c r="K109" s="49"/>
+      <c r="L109" s="49"/>
+      <c r="M109" s="49"/>
+      <c r="N109" s="61"/>
+    </row>
+    <row r="110" spans="4:16">
+      <c r="D110">
         <v>90</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="61"/>
-    </row>
-    <row r="12" spans="4:16" ht="15.75" thickBot="1">
-      <c r="D12">
+      <c r="E110" s="48"/>
+      <c r="F110" s="49"/>
+      <c r="G110" s="49"/>
+      <c r="H110" s="49"/>
+      <c r="I110" s="49"/>
+      <c r="J110" s="49"/>
+      <c r="K110" s="49"/>
+      <c r="L110" s="49"/>
+      <c r="M110" s="49"/>
+      <c r="N110" s="61"/>
+    </row>
+    <row r="111" spans="4:16" ht="15.75" thickBot="1">
+      <c r="D111">
         <v>100</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="64"/>
-    </row>
-    <row r="14" spans="4:16">
-      <c r="D14" t="s">
+      <c r="E111" s="62"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="63"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="63"/>
+      <c r="J111" s="63"/>
+      <c r="K111" s="63"/>
+      <c r="L111" s="63"/>
+      <c r="M111" s="63"/>
+      <c r="N111" s="64"/>
+    </row>
+    <row r="113" spans="4:14">
+      <c r="D113" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="4:16">
-      <c r="L15" t="s">
+    <row r="114" spans="4:14">
+      <c r="L114" t="s">
         <v>173</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M114" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="5:14">
-      <c r="F17" t="s">
+    <row r="116" spans="4:14">
+      <c r="F116" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="5:14" ht="15.75" thickBot="1"/>
-    <row r="21" spans="5:14">
-      <c r="E21" s="66"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="57"/>
-    </row>
-    <row r="22" spans="5:14">
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="39"/>
-    </row>
-    <row r="34" spans="3:15">
-      <c r="J34" t="s">
+    <row r="119" spans="4:14" ht="15.75" thickBot="1"/>
+    <row r="120" spans="4:14">
+      <c r="E120" s="66"/>
+      <c r="F120" s="67"/>
+      <c r="G120" s="67"/>
+      <c r="H120" s="56"/>
+      <c r="I120" s="56"/>
+      <c r="J120" s="56"/>
+      <c r="K120" s="56"/>
+      <c r="L120" s="56"/>
+      <c r="M120" s="56"/>
+      <c r="N120" s="57"/>
+    </row>
+    <row r="121" spans="4:14">
+      <c r="E121" s="58"/>
+      <c r="F121" s="59"/>
+      <c r="G121" s="59"/>
+      <c r="H121" s="28"/>
+      <c r="I121" s="28"/>
+      <c r="J121" s="28"/>
+      <c r="K121" s="28"/>
+      <c r="L121" s="28"/>
+      <c r="M121" s="28"/>
+      <c r="N121" s="39"/>
+    </row>
+    <row r="133" spans="3:15">
+      <c r="J133" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E35" s="5">
+    <row r="134" spans="3:15" ht="15.75" thickBot="1">
+      <c r="E134" s="5">
         <v>10</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F134" s="5">
         <v>20</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G134" s="5">
         <v>30</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H134" s="24">
         <v>40</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I134" s="24">
         <v>50</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J134" s="24">
         <v>60</v>
       </c>
-      <c r="K35" s="24">
+      <c r="K134" s="24">
         <v>70</v>
       </c>
-      <c r="L35" s="24">
+      <c r="L134" s="24">
         <v>80</v>
       </c>
-      <c r="M35" s="24">
+      <c r="M134" s="24">
         <v>90</v>
       </c>
-      <c r="N35" s="24">
+      <c r="N134" s="24">
         <v>100</v>
       </c>
-      <c r="O35" s="5"/>
-    </row>
-    <row r="36" spans="3:15">
-      <c r="C36" s="361" t="s">
+      <c r="O134" s="5"/>
+    </row>
+    <row r="135" spans="3:15">
+      <c r="C135" s="365" t="s">
         <v>167</v>
       </c>
-      <c r="D36">
+      <c r="D135">
         <v>10</v>
       </c>
-      <c r="E36" s="162" t="s">
+      <c r="E135" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="F36" s="163"/>
-      <c r="G36" s="163"/>
-      <c r="H36" s="163"/>
-      <c r="I36" s="163"/>
-      <c r="J36" s="163"/>
-      <c r="K36" s="163"/>
-      <c r="L36" s="163" t="s">
+      <c r="F135" s="163"/>
+      <c r="G135" s="163"/>
+      <c r="H135" s="163"/>
+      <c r="I135" s="163"/>
+      <c r="J135" s="163"/>
+      <c r="K135" s="163"/>
+      <c r="L135" s="163" t="s">
         <v>182</v>
       </c>
-      <c r="M36" s="163" t="s">
+      <c r="M135" s="163" t="s">
         <v>654</v>
       </c>
-      <c r="N36" s="164" t="s">
+      <c r="N135" s="164" t="s">
         <v>302</v>
       </c>
-      <c r="O36" s="5"/>
-    </row>
-    <row r="37" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C37" s="361"/>
-      <c r="D37">
+      <c r="O135" s="5"/>
+    </row>
+    <row r="136" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C136" s="365"/>
+      <c r="D136">
         <v>20</v>
       </c>
-      <c r="E37" s="62" t="s">
+      <c r="E136" s="62" t="s">
         <v>653</v>
       </c>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63" t="s">
+      <c r="F136" s="63"/>
+      <c r="G136" s="63" t="s">
         <v>657</v>
       </c>
-      <c r="H37" s="63" t="s">
+      <c r="H136" s="63" t="s">
         <v>658</v>
       </c>
-      <c r="I37" s="63" t="s">
+      <c r="I136" s="63" t="s">
         <v>659</v>
       </c>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63" t="s">
+      <c r="J136" s="63"/>
+      <c r="K136" s="63"/>
+      <c r="L136" s="63" t="s">
         <v>655</v>
       </c>
-      <c r="M37" s="63" t="s">
+      <c r="M136" s="63" t="s">
         <v>656</v>
       </c>
-      <c r="N37" s="64"/>
-      <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="3:15">
-      <c r="C38" s="361" t="s">
+      <c r="N136" s="64"/>
+      <c r="O136" s="5"/>
+    </row>
+    <row r="137" spans="3:15">
+      <c r="C137" s="365" t="s">
         <v>168</v>
       </c>
-      <c r="D38">
+      <c r="D137">
         <v>30</v>
       </c>
-      <c r="E38" s="165"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="167"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="167"/>
-      <c r="K38" s="167"/>
-      <c r="L38" s="167"/>
-      <c r="M38" s="167"/>
-      <c r="N38" s="168"/>
-      <c r="O38" s="5"/>
-    </row>
-    <row r="39" spans="3:15">
-      <c r="C39" s="361"/>
-      <c r="D39">
+      <c r="E137" s="165"/>
+      <c r="F137" s="167"/>
+      <c r="G137" s="167"/>
+      <c r="H137" s="167"/>
+      <c r="I137" s="167"/>
+      <c r="J137" s="167"/>
+      <c r="K137" s="167"/>
+      <c r="L137" s="167"/>
+      <c r="M137" s="167"/>
+      <c r="N137" s="168"/>
+      <c r="O137" s="5"/>
+    </row>
+    <row r="138" spans="3:15">
+      <c r="C138" s="365"/>
+      <c r="D138">
         <v>40</v>
       </c>
-      <c r="E39" s="165"/>
-      <c r="F39" s="167"/>
-      <c r="G39" s="167"/>
-      <c r="H39" s="167"/>
-      <c r="I39" s="167"/>
-      <c r="J39" s="167"/>
-      <c r="K39" s="167"/>
-      <c r="L39" s="167"/>
-      <c r="M39" s="167"/>
-      <c r="N39" s="168"/>
-      <c r="O39" s="5"/>
-    </row>
-    <row r="40" spans="3:15">
-      <c r="C40" s="361"/>
-      <c r="D40">
+      <c r="E138" s="165"/>
+      <c r="F138" s="167"/>
+      <c r="G138" s="167"/>
+      <c r="H138" s="167"/>
+      <c r="I138" s="167"/>
+      <c r="J138" s="167"/>
+      <c r="K138" s="167"/>
+      <c r="L138" s="167"/>
+      <c r="M138" s="167"/>
+      <c r="N138" s="168"/>
+      <c r="O138" s="5"/>
+    </row>
+    <row r="139" spans="3:15">
+      <c r="C139" s="365"/>
+      <c r="D139">
         <v>50</v>
       </c>
-      <c r="E40" s="165"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="167"/>
-      <c r="K40" s="167"/>
-      <c r="L40" s="167"/>
-      <c r="M40" s="167"/>
-      <c r="N40" s="168"/>
-      <c r="O40" s="5"/>
-    </row>
-    <row r="41" spans="3:15">
-      <c r="C41" s="361"/>
-      <c r="D41">
+      <c r="E139" s="165"/>
+      <c r="F139" s="167"/>
+      <c r="G139" s="167"/>
+      <c r="H139" s="167"/>
+      <c r="I139" s="167"/>
+      <c r="J139" s="167"/>
+      <c r="K139" s="167"/>
+      <c r="L139" s="167"/>
+      <c r="M139" s="167"/>
+      <c r="N139" s="168"/>
+      <c r="O139" s="5"/>
+    </row>
+    <row r="140" spans="3:15">
+      <c r="C140" s="365"/>
+      <c r="D140">
         <v>60</v>
       </c>
-      <c r="E41" s="165" t="s">
+      <c r="E140" s="165" t="s">
         <v>168</v>
       </c>
-      <c r="F41" s="167"/>
-      <c r="G41" s="167"/>
-      <c r="H41" s="167"/>
-      <c r="I41" s="167"/>
-      <c r="J41" s="167"/>
-      <c r="K41" s="167"/>
-      <c r="L41" s="167"/>
-      <c r="M41" s="167"/>
-      <c r="N41" s="168"/>
-      <c r="O41" s="5"/>
-    </row>
-    <row r="42" spans="3:15">
-      <c r="C42" s="361"/>
-      <c r="D42">
+      <c r="F140" s="167"/>
+      <c r="G140" s="167"/>
+      <c r="H140" s="167"/>
+      <c r="I140" s="167"/>
+      <c r="J140" s="167"/>
+      <c r="K140" s="167"/>
+      <c r="L140" s="167"/>
+      <c r="M140" s="167"/>
+      <c r="N140" s="168"/>
+      <c r="O140" s="5"/>
+    </row>
+    <row r="141" spans="3:15">
+      <c r="C141" s="365"/>
+      <c r="D141">
         <v>70</v>
       </c>
-      <c r="E42" s="165"/>
-      <c r="F42" s="167"/>
-      <c r="G42" s="167"/>
-      <c r="H42" s="167"/>
-      <c r="I42" s="167"/>
-      <c r="J42" s="167"/>
-      <c r="K42" s="167"/>
-      <c r="L42" s="167"/>
-      <c r="M42" s="167"/>
-      <c r="N42" s="168"/>
-      <c r="O42" s="5"/>
-    </row>
-    <row r="43" spans="3:15">
-      <c r="C43" s="361"/>
-      <c r="D43">
+      <c r="E141" s="165"/>
+      <c r="F141" s="167"/>
+      <c r="G141" s="167"/>
+      <c r="H141" s="167"/>
+      <c r="I141" s="167"/>
+      <c r="J141" s="167"/>
+      <c r="K141" s="167"/>
+      <c r="L141" s="167"/>
+      <c r="M141" s="167"/>
+      <c r="N141" s="168"/>
+      <c r="O141" s="5"/>
+    </row>
+    <row r="142" spans="3:15">
+      <c r="C142" s="365"/>
+      <c r="D142">
         <v>80</v>
       </c>
-      <c r="E43" s="165"/>
-      <c r="F43" s="167"/>
-      <c r="G43" s="167"/>
-      <c r="H43" s="167"/>
-      <c r="I43" s="167"/>
-      <c r="J43" s="167"/>
-      <c r="K43" s="167"/>
-      <c r="L43" s="167"/>
-      <c r="M43" s="167"/>
-      <c r="N43" s="168"/>
-      <c r="O43" s="5"/>
-    </row>
-    <row r="44" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C44" s="361"/>
-      <c r="D44">
+      <c r="E142" s="165"/>
+      <c r="F142" s="167"/>
+      <c r="G142" s="167"/>
+      <c r="H142" s="167"/>
+      <c r="I142" s="167"/>
+      <c r="J142" s="167"/>
+      <c r="K142" s="167"/>
+      <c r="L142" s="167"/>
+      <c r="M142" s="167"/>
+      <c r="N142" s="168"/>
+      <c r="O142" s="5"/>
+    </row>
+    <row r="143" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C143" s="365"/>
+      <c r="D143">
         <v>90</v>
       </c>
-      <c r="E44" s="165"/>
-      <c r="F44" s="167"/>
-      <c r="G44" s="167"/>
-      <c r="H44" s="167"/>
-      <c r="I44" s="167"/>
-      <c r="J44" s="167"/>
-      <c r="K44" s="167"/>
-      <c r="L44" s="167"/>
-      <c r="M44" s="167"/>
-      <c r="N44" s="168"/>
-      <c r="O44" s="5"/>
-    </row>
-    <row r="45" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C45" s="38" t="s">
+      <c r="E143" s="165"/>
+      <c r="F143" s="167"/>
+      <c r="G143" s="167"/>
+      <c r="H143" s="167"/>
+      <c r="I143" s="167"/>
+      <c r="J143" s="167"/>
+      <c r="K143" s="167"/>
+      <c r="L143" s="167"/>
+      <c r="M143" s="167"/>
+      <c r="N143" s="168"/>
+      <c r="O143" s="5"/>
+    </row>
+    <row r="144" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C144" s="38" t="s">
         <v>652</v>
       </c>
-      <c r="D45">
+      <c r="D144">
         <v>100</v>
       </c>
-      <c r="E45" s="159" t="s">
+      <c r="E144" s="159" t="s">
         <v>652</v>
       </c>
-      <c r="F45" s="160"/>
-      <c r="G45" s="160"/>
-      <c r="H45" s="160" t="s">
+      <c r="F144" s="160"/>
+      <c r="G144" s="160"/>
+      <c r="H144" s="160" t="s">
         <v>660</v>
       </c>
-      <c r="I45" s="160" t="s">
+      <c r="I144" s="160" t="s">
         <v>661</v>
       </c>
-      <c r="J45" s="160" t="s">
+      <c r="J144" s="160" t="s">
         <v>662</v>
       </c>
-      <c r="K45" s="160" t="s">
+      <c r="K144" s="160" t="s">
         <v>663</v>
       </c>
-      <c r="L45" s="160"/>
-      <c r="M45" s="160"/>
-      <c r="N45" s="161"/>
-      <c r="O45" s="5"/>
-    </row>
-    <row r="46" spans="3:15">
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-    </row>
-    <row r="48" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E48" s="5">
+      <c r="L144" s="160"/>
+      <c r="M144" s="160"/>
+      <c r="N144" s="161"/>
+      <c r="O144" s="5"/>
+    </row>
+    <row r="145" spans="4:15">
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="5"/>
+    </row>
+    <row r="147" spans="4:15" ht="15.75" thickBot="1">
+      <c r="E147" s="5">
         <v>10</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F147" s="5">
         <v>20</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G147" s="5">
         <v>30</v>
       </c>
-      <c r="H48" s="24">
+      <c r="H147" s="24">
         <v>40</v>
       </c>
-      <c r="I48" s="24">
+      <c r="I147" s="24">
         <v>50</v>
       </c>
-      <c r="J48" s="24">
+      <c r="J147" s="24">
         <v>60</v>
       </c>
-      <c r="K48" s="24">
+      <c r="K147" s="24">
         <v>70</v>
       </c>
-      <c r="L48" s="24">
+      <c r="L147" s="24">
         <v>80</v>
       </c>
-      <c r="M48" s="24">
+      <c r="M147" s="24">
         <v>90</v>
       </c>
-      <c r="N48" s="24">
+      <c r="N147" s="24">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="4:14">
-      <c r="D49" s="359">
+    <row r="148" spans="4:15">
+      <c r="D148" s="363">
         <v>1</v>
       </c>
-      <c r="E49" s="169"/>
-      <c r="F49" s="172"/>
-      <c r="G49" s="173"/>
-      <c r="H49" s="173"/>
-      <c r="I49" s="173"/>
-      <c r="J49" s="173"/>
-      <c r="K49" s="173"/>
-      <c r="L49" s="173"/>
-      <c r="M49" s="173"/>
-      <c r="N49" s="174"/>
-    </row>
-    <row r="50" spans="4:14">
-      <c r="D50" s="360"/>
-      <c r="E50" s="170"/>
-      <c r="F50" s="166"/>
-      <c r="G50" s="167"/>
-      <c r="H50" s="167"/>
-      <c r="I50" s="167"/>
-      <c r="J50" s="167"/>
-      <c r="K50" s="167"/>
-      <c r="L50" s="167"/>
-      <c r="M50" s="167"/>
-      <c r="N50" s="168"/>
-    </row>
-    <row r="51" spans="4:14">
-      <c r="D51" s="360"/>
-      <c r="E51" s="170"/>
-      <c r="F51" s="166"/>
-      <c r="G51" s="167"/>
-      <c r="H51" s="167"/>
-      <c r="I51" s="167"/>
-      <c r="J51" s="167"/>
-      <c r="K51" s="167"/>
-      <c r="L51" s="167"/>
-      <c r="M51" s="167"/>
-      <c r="N51" s="168"/>
-    </row>
-    <row r="52" spans="4:14">
-      <c r="D52" s="360"/>
-      <c r="E52" s="170" t="s">
+      <c r="E148" s="169"/>
+      <c r="F148" s="172"/>
+      <c r="G148" s="173"/>
+      <c r="H148" s="173"/>
+      <c r="I148" s="173"/>
+      <c r="J148" s="173"/>
+      <c r="K148" s="173"/>
+      <c r="L148" s="173"/>
+      <c r="M148" s="173"/>
+      <c r="N148" s="174"/>
+    </row>
+    <row r="149" spans="4:15">
+      <c r="D149" s="364"/>
+      <c r="E149" s="170"/>
+      <c r="F149" s="166"/>
+      <c r="G149" s="167"/>
+      <c r="H149" s="167"/>
+      <c r="I149" s="167"/>
+      <c r="J149" s="167"/>
+      <c r="K149" s="167"/>
+      <c r="L149" s="167"/>
+      <c r="M149" s="167"/>
+      <c r="N149" s="168"/>
+    </row>
+    <row r="150" spans="4:15">
+      <c r="D150" s="364"/>
+      <c r="E150" s="170"/>
+      <c r="F150" s="166"/>
+      <c r="G150" s="167"/>
+      <c r="H150" s="167"/>
+      <c r="I150" s="167"/>
+      <c r="J150" s="167"/>
+      <c r="K150" s="167"/>
+      <c r="L150" s="167"/>
+      <c r="M150" s="167"/>
+      <c r="N150" s="168"/>
+    </row>
+    <row r="151" spans="4:15">
+      <c r="D151" s="364"/>
+      <c r="E151" s="170" t="s">
         <v>664</v>
       </c>
-      <c r="F52" s="166"/>
-      <c r="G52" s="167"/>
-      <c r="H52" s="167"/>
-      <c r="I52" s="167"/>
-      <c r="J52" s="167" t="s">
+      <c r="F151" s="166"/>
+      <c r="G151" s="167"/>
+      <c r="H151" s="167"/>
+      <c r="I151" s="167"/>
+      <c r="J151" s="167" t="s">
         <v>325</v>
       </c>
-      <c r="K52" s="167"/>
-      <c r="L52" s="167"/>
-      <c r="M52" s="167"/>
-      <c r="N52" s="168"/>
-    </row>
-    <row r="53" spans="4:14">
-      <c r="D53" s="360"/>
-      <c r="E53" s="170"/>
-      <c r="F53" s="166"/>
-      <c r="G53" s="167"/>
-      <c r="H53" s="167"/>
-      <c r="I53" s="167"/>
-      <c r="J53" s="167"/>
-      <c r="K53" s="167"/>
-      <c r="L53" s="167"/>
-      <c r="M53" s="167"/>
-      <c r="N53" s="168"/>
-    </row>
-    <row r="54" spans="4:14">
-      <c r="D54" s="360"/>
-      <c r="E54" s="170"/>
-      <c r="F54" s="166"/>
-      <c r="G54" s="167"/>
-      <c r="H54" s="167"/>
-      <c r="I54" s="167"/>
-      <c r="J54" s="167"/>
-      <c r="K54" s="167"/>
-      <c r="L54" s="167"/>
-      <c r="M54" s="167"/>
-      <c r="N54" s="168"/>
-    </row>
-    <row r="55" spans="4:14" ht="15.75" thickBot="1">
-      <c r="D55" s="360"/>
-      <c r="E55" s="171"/>
-      <c r="F55" s="175"/>
-      <c r="G55" s="176"/>
-      <c r="H55" s="176"/>
-      <c r="I55" s="176"/>
-      <c r="J55" s="176"/>
-      <c r="K55" s="176"/>
-      <c r="L55" s="176"/>
-      <c r="M55" s="176"/>
-      <c r="N55" s="177"/>
-    </row>
-    <row r="61" spans="4:14">
-      <c r="F61" t="s">
+      <c r="K151" s="167"/>
+      <c r="L151" s="167"/>
+      <c r="M151" s="167"/>
+      <c r="N151" s="168"/>
+    </row>
+    <row r="152" spans="4:15">
+      <c r="D152" s="364"/>
+      <c r="E152" s="170"/>
+      <c r="F152" s="166"/>
+      <c r="G152" s="167"/>
+      <c r="H152" s="167"/>
+      <c r="I152" s="167"/>
+      <c r="J152" s="167"/>
+      <c r="K152" s="167"/>
+      <c r="L152" s="167"/>
+      <c r="M152" s="167"/>
+      <c r="N152" s="168"/>
+    </row>
+    <row r="153" spans="4:15">
+      <c r="D153" s="364"/>
+      <c r="E153" s="170"/>
+      <c r="F153" s="166"/>
+      <c r="G153" s="167"/>
+      <c r="H153" s="167"/>
+      <c r="I153" s="167"/>
+      <c r="J153" s="167"/>
+      <c r="K153" s="167"/>
+      <c r="L153" s="167"/>
+      <c r="M153" s="167"/>
+      <c r="N153" s="168"/>
+    </row>
+    <row r="154" spans="4:15" ht="15.75" thickBot="1">
+      <c r="D154" s="364"/>
+      <c r="E154" s="171"/>
+      <c r="F154" s="175"/>
+      <c r="G154" s="176"/>
+      <c r="H154" s="176"/>
+      <c r="I154" s="176"/>
+      <c r="J154" s="176"/>
+      <c r="K154" s="176"/>
+      <c r="L154" s="176"/>
+      <c r="M154" s="176"/>
+      <c r="N154" s="177"/>
+    </row>
+    <row r="160" spans="4:15">
+      <c r="F160" t="s">
         <v>665</v>
       </c>
-      <c r="G61" s="38" t="s">
+      <c r="G160" s="38" t="s">
         <v>666</v>
       </c>
-      <c r="H61" s="38" t="s">
+      <c r="H160" s="38" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="62" spans="4:14">
-      <c r="F62" t="s">
+    <row r="161" spans="5:8">
+      <c r="F161" t="s">
         <v>665</v>
       </c>
-      <c r="G62" s="38" t="s">
+      <c r="G161" s="38" t="s">
         <v>666</v>
       </c>
-      <c r="H62" s="38" t="s">
+      <c r="H161" s="38" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="65" spans="5:8">
-      <c r="G65" t="s">
+    <row r="164" spans="5:8">
+      <c r="G164" t="s">
         <v>666</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H164" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="66" spans="5:8">
-      <c r="E66" t="s">
+    <row r="165" spans="5:8">
+      <c r="E165" t="s">
         <v>665</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G165" t="s">
         <v>182</v>
       </c>
-      <c r="H66" s="38"/>
-    </row>
-    <row r="67" spans="5:8">
-      <c r="E67" t="s">
+      <c r="H165" s="38"/>
+    </row>
+    <row r="166" spans="5:8">
+      <c r="E166" t="s">
         <v>665</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G166" t="s">
         <v>183</v>
       </c>
-      <c r="H67" s="38"/>
-    </row>
-    <row r="68" spans="5:8">
-      <c r="E68" t="s">
+      <c r="H166" s="38"/>
+    </row>
+    <row r="167" spans="5:8">
+      <c r="E167" t="s">
         <v>665</v>
       </c>
-      <c r="H68" s="38" t="s">
+      <c r="H167" s="38" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="81" spans="3:15">
-      <c r="E81" t="s">
+    <row r="180" spans="3:15">
+      <c r="E180" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="83" spans="3:15" ht="15.75" thickBot="1">
-      <c r="D83">
+    <row r="182" spans="3:15" ht="15.75" thickBot="1">
+      <c r="D182">
         <v>10</v>
       </c>
-      <c r="E83">
+      <c r="E182">
         <v>20</v>
       </c>
-      <c r="F83">
+      <c r="F182">
         <v>30</v>
       </c>
-      <c r="G83">
+      <c r="G182">
         <v>40</v>
       </c>
-      <c r="H83">
+      <c r="H182">
         <v>50</v>
       </c>
-      <c r="I83">
+      <c r="I182">
         <v>60</v>
       </c>
-      <c r="J83">
+      <c r="J182">
         <v>70</v>
       </c>
-      <c r="K83">
+      <c r="K182">
         <v>80</v>
       </c>
-      <c r="L83">
+      <c r="L182">
         <v>90</v>
       </c>
-      <c r="M83">
+      <c r="M182">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:15">
-      <c r="C84">
+    <row r="183" spans="3:15">
+      <c r="C183">
         <v>10</v>
       </c>
-      <c r="D84" s="66" t="s">
+      <c r="D183" s="66" t="s">
         <v>653</v>
       </c>
-      <c r="E84" s="237"/>
-      <c r="F84" s="173"/>
-      <c r="G84" s="173"/>
-      <c r="H84" s="173" t="s">
+      <c r="E183" s="237"/>
+      <c r="F183" s="173"/>
+      <c r="G183" s="173"/>
+      <c r="H183" s="173" t="s">
         <v>925</v>
       </c>
-      <c r="I84" s="173"/>
-      <c r="J84" s="173"/>
-      <c r="K84" s="173"/>
-      <c r="L84" s="173"/>
-      <c r="M84" s="173"/>
-      <c r="N84" s="362" t="s">
+      <c r="I183" s="173"/>
+      <c r="J183" s="173"/>
+      <c r="K183" s="173"/>
+      <c r="L183" s="173"/>
+      <c r="M183" s="173"/>
+      <c r="N183" s="366" t="s">
         <v>918</v>
       </c>
-      <c r="O84" t="s">
+      <c r="O183" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="85" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C85">
+    <row r="184" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C184">
         <v>20</v>
       </c>
-      <c r="D85" s="232"/>
-      <c r="E85" s="238"/>
-      <c r="F85" s="176"/>
-      <c r="G85" s="176"/>
-      <c r="H85" s="176"/>
-      <c r="I85" s="176"/>
-      <c r="J85" s="176"/>
-      <c r="K85" s="176"/>
-      <c r="L85" s="176"/>
-      <c r="M85" s="176"/>
-      <c r="N85" s="362"/>
-      <c r="O85" t="s">
+      <c r="D184" s="232"/>
+      <c r="E184" s="238"/>
+      <c r="F184" s="176"/>
+      <c r="G184" s="176"/>
+      <c r="H184" s="176"/>
+      <c r="I184" s="176"/>
+      <c r="J184" s="176"/>
+      <c r="K184" s="176"/>
+      <c r="L184" s="176"/>
+      <c r="M184" s="176"/>
+      <c r="N184" s="366"/>
+      <c r="O184" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="86" spans="3:15">
-      <c r="C86">
+    <row r="185" spans="3:15">
+      <c r="C185">
         <v>30</v>
       </c>
-      <c r="D86" s="239"/>
-      <c r="E86" s="292"/>
-      <c r="F86" s="229"/>
-      <c r="G86" s="229"/>
-      <c r="H86" s="229"/>
-      <c r="I86" s="229"/>
-      <c r="J86" s="229"/>
-      <c r="K86" s="229"/>
-      <c r="L86" s="229"/>
-      <c r="M86" s="293"/>
-      <c r="N86" s="363" t="s">
+      <c r="D185" s="239"/>
+      <c r="E185" s="292"/>
+      <c r="F185" s="229"/>
+      <c r="G185" s="229"/>
+      <c r="H185" s="229"/>
+      <c r="I185" s="229"/>
+      <c r="J185" s="229"/>
+      <c r="K185" s="229"/>
+      <c r="L185" s="229"/>
+      <c r="M185" s="293"/>
+      <c r="N185" s="367" t="s">
         <v>921</v>
       </c>
-      <c r="O86" t="s">
+      <c r="O185" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="87" spans="3:15">
-      <c r="C87">
+    <row r="186" spans="3:15">
+      <c r="C186">
         <v>40</v>
       </c>
-      <c r="D87" s="240"/>
-      <c r="E87" s="294"/>
-      <c r="F87" s="230"/>
-      <c r="G87" s="230"/>
-      <c r="H87" s="230"/>
-      <c r="I87" s="230"/>
-      <c r="J87" s="230"/>
-      <c r="K87" s="230"/>
-      <c r="L87" s="230"/>
-      <c r="M87" s="295"/>
-      <c r="N87" s="363"/>
-    </row>
-    <row r="88" spans="3:15">
-      <c r="C88">
+      <c r="D186" s="240"/>
+      <c r="E186" s="294"/>
+      <c r="F186" s="230"/>
+      <c r="G186" s="230"/>
+      <c r="H186" s="230"/>
+      <c r="I186" s="230"/>
+      <c r="J186" s="230"/>
+      <c r="K186" s="230"/>
+      <c r="L186" s="230"/>
+      <c r="M186" s="295"/>
+      <c r="N186" s="367"/>
+    </row>
+    <row r="187" spans="3:15">
+      <c r="C187">
         <v>50</v>
       </c>
-      <c r="D88" s="240"/>
-      <c r="E88" s="294"/>
-      <c r="F88" s="230"/>
-      <c r="G88" s="230"/>
-      <c r="H88" s="230"/>
-      <c r="I88" s="230"/>
-      <c r="J88" s="230"/>
-      <c r="K88" s="230"/>
-      <c r="L88" s="230"/>
-      <c r="M88" s="295"/>
-      <c r="N88" s="363"/>
-    </row>
-    <row r="89" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C89">
+      <c r="D187" s="240"/>
+      <c r="E187" s="294"/>
+      <c r="F187" s="230"/>
+      <c r="G187" s="230"/>
+      <c r="H187" s="230"/>
+      <c r="I187" s="230"/>
+      <c r="J187" s="230"/>
+      <c r="K187" s="230"/>
+      <c r="L187" s="230"/>
+      <c r="M187" s="295"/>
+      <c r="N187" s="367"/>
+    </row>
+    <row r="188" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C188">
         <v>60</v>
       </c>
-      <c r="D89" s="240" t="s">
+      <c r="D188" s="240" t="s">
         <v>664</v>
       </c>
-      <c r="E89" s="296"/>
-      <c r="F89" s="231"/>
-      <c r="G89" s="231"/>
-      <c r="H89" s="231" t="s">
+      <c r="E188" s="296"/>
+      <c r="F188" s="231"/>
+      <c r="G188" s="231"/>
+      <c r="H188" s="231" t="s">
         <v>924</v>
       </c>
-      <c r="I89" s="231"/>
-      <c r="J89" s="231"/>
-      <c r="K89" s="231"/>
-      <c r="L89" s="231"/>
-      <c r="M89" s="297"/>
-      <c r="N89" s="363"/>
-    </row>
-    <row r="90" spans="3:15">
-      <c r="C90">
+      <c r="I188" s="231"/>
+      <c r="J188" s="231"/>
+      <c r="K188" s="231"/>
+      <c r="L188" s="231"/>
+      <c r="M188" s="297"/>
+      <c r="N188" s="367"/>
+    </row>
+    <row r="189" spans="3:15">
+      <c r="C189">
         <v>70</v>
       </c>
-      <c r="D90" s="240"/>
-      <c r="E90" s="230"/>
-      <c r="F90" s="230"/>
-      <c r="G90" s="230"/>
-      <c r="H90" s="230"/>
-      <c r="I90" s="230"/>
-      <c r="J90" s="230"/>
-      <c r="K90" s="230"/>
-      <c r="L90" s="230"/>
-      <c r="M90" s="230"/>
-      <c r="N90" s="362"/>
-    </row>
-    <row r="91" spans="3:15">
-      <c r="C91">
+      <c r="D189" s="240"/>
+      <c r="E189" s="230"/>
+      <c r="F189" s="230"/>
+      <c r="G189" s="230"/>
+      <c r="H189" s="230"/>
+      <c r="I189" s="230"/>
+      <c r="J189" s="230"/>
+      <c r="K189" s="230"/>
+      <c r="L189" s="230"/>
+      <c r="M189" s="230"/>
+      <c r="N189" s="366"/>
+    </row>
+    <row r="190" spans="3:15">
+      <c r="C190">
         <v>80</v>
       </c>
-      <c r="D91" s="240"/>
-      <c r="E91" s="230"/>
-      <c r="F91" s="230"/>
-      <c r="G91" s="230"/>
-      <c r="H91" s="230"/>
-      <c r="I91" s="230"/>
-      <c r="J91" s="230"/>
-      <c r="K91" s="230"/>
-      <c r="L91" s="230"/>
-      <c r="M91" s="230"/>
-      <c r="N91" s="362"/>
-    </row>
-    <row r="92" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C92">
+      <c r="D190" s="240"/>
+      <c r="E190" s="230"/>
+      <c r="F190" s="230"/>
+      <c r="G190" s="230"/>
+      <c r="H190" s="230"/>
+      <c r="I190" s="230"/>
+      <c r="J190" s="230"/>
+      <c r="K190" s="230"/>
+      <c r="L190" s="230"/>
+      <c r="M190" s="230"/>
+      <c r="N190" s="366"/>
+    </row>
+    <row r="191" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C191">
         <v>90</v>
       </c>
-      <c r="D92" s="241"/>
-      <c r="E92" s="231"/>
-      <c r="F92" s="231"/>
-      <c r="G92" s="231"/>
-      <c r="H92" s="231"/>
-      <c r="I92" s="231"/>
-      <c r="J92" s="231"/>
-      <c r="K92" s="231"/>
-      <c r="L92" s="231"/>
-      <c r="M92" s="231"/>
-      <c r="N92" s="362"/>
-    </row>
-    <row r="93" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C93">
+      <c r="D191" s="241"/>
+      <c r="E191" s="231"/>
+      <c r="F191" s="231"/>
+      <c r="G191" s="231"/>
+      <c r="H191" s="231"/>
+      <c r="I191" s="231"/>
+      <c r="J191" s="231"/>
+      <c r="K191" s="231"/>
+      <c r="L191" s="231"/>
+      <c r="M191" s="231"/>
+      <c r="N191" s="366"/>
+    </row>
+    <row r="192" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C192">
         <v>100</v>
       </c>
-      <c r="D93" s="233"/>
-      <c r="E93" s="234"/>
-      <c r="F93" s="234"/>
-      <c r="G93" s="234"/>
-      <c r="H93" s="234"/>
-      <c r="I93" s="234"/>
-      <c r="J93" s="234"/>
-      <c r="K93" s="234"/>
-      <c r="L93" s="234"/>
-      <c r="M93" s="234"/>
-      <c r="N93" s="242" t="s">
+      <c r="D192" s="233"/>
+      <c r="E192" s="234"/>
+      <c r="F192" s="234"/>
+      <c r="G192" s="234"/>
+      <c r="H192" s="234"/>
+      <c r="I192" s="234"/>
+      <c r="J192" s="234"/>
+      <c r="K192" s="234"/>
+      <c r="L192" s="234"/>
+      <c r="M192" s="234"/>
+      <c r="N192" s="242" t="s">
         <v>922</v>
       </c>
-      <c r="O93" t="s">
+      <c r="O192" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="94" spans="3:15">
-      <c r="C94" t="s">
+    <row r="193" spans="3:15">
+      <c r="C193" t="s">
         <v>917</v>
       </c>
-      <c r="O94" t="s">
+      <c r="O193" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="95" spans="3:15">
-      <c r="O95" t="s">
+    <row r="194" spans="3:15">
+      <c r="O194" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="96" spans="3:15" ht="15.75" thickBot="1">
-      <c r="O96" t="s">
+    <row r="195" spans="3:15" ht="15.75" thickBot="1">
+      <c r="O195" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="97" spans="3:13">
-      <c r="D97" s="66" t="s">
+    <row r="196" spans="3:15">
+      <c r="D196" s="66" t="s">
         <v>653</v>
       </c>
-      <c r="E97" s="237"/>
-      <c r="F97" s="226"/>
-      <c r="G97" s="226"/>
-      <c r="H97" s="226" t="s">
+      <c r="E196" s="237"/>
+      <c r="F196" s="226"/>
+      <c r="G196" s="226"/>
+      <c r="H196" s="226" t="s">
         <v>925</v>
       </c>
-      <c r="I97" s="226"/>
-      <c r="J97" s="226"/>
-      <c r="K97" s="226"/>
-      <c r="L97" s="226"/>
-      <c r="M97" s="226"/>
-    </row>
-    <row r="98" spans="3:13" ht="15.75" thickBot="1">
-      <c r="D98" s="232"/>
-      <c r="E98" s="238"/>
-      <c r="F98" s="228"/>
-      <c r="G98" s="228"/>
-      <c r="H98" s="228"/>
-      <c r="I98" s="228"/>
-      <c r="J98" s="228"/>
-      <c r="K98" s="228"/>
-      <c r="L98" s="228"/>
-      <c r="M98" s="228"/>
-    </row>
-    <row r="100" spans="3:13" ht="15.75" thickBot="1">
-      <c r="D100">
+      <c r="I196" s="226"/>
+      <c r="J196" s="226"/>
+      <c r="K196" s="226"/>
+      <c r="L196" s="226"/>
+      <c r="M196" s="226"/>
+    </row>
+    <row r="197" spans="3:15" ht="15.75" thickBot="1">
+      <c r="D197" s="232"/>
+      <c r="E197" s="238"/>
+      <c r="F197" s="228"/>
+      <c r="G197" s="228"/>
+      <c r="H197" s="228"/>
+      <c r="I197" s="228"/>
+      <c r="J197" s="228"/>
+      <c r="K197" s="228"/>
+      <c r="L197" s="228"/>
+      <c r="M197" s="228"/>
+    </row>
+    <row r="199" spans="3:15" ht="15.75" thickBot="1">
+      <c r="D199">
         <v>10</v>
       </c>
-      <c r="E100">
+      <c r="E199">
         <v>20</v>
       </c>
-      <c r="F100">
+      <c r="F199">
         <v>30</v>
       </c>
-      <c r="G100">
+      <c r="G199">
         <v>40</v>
       </c>
-      <c r="H100">
+      <c r="H199">
         <v>50</v>
       </c>
-      <c r="I100">
+      <c r="I199">
         <v>60</v>
       </c>
-      <c r="J100">
+      <c r="J199">
         <v>70</v>
       </c>
-      <c r="K100">
+      <c r="K199">
         <v>80</v>
       </c>
-      <c r="L100">
+      <c r="L199">
         <v>90</v>
       </c>
-      <c r="M100">
+      <c r="M199">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:13">
-      <c r="C101" s="364">
+    <row r="200" spans="3:15">
+      <c r="C200" s="356">
         <v>1</v>
       </c>
-      <c r="D101" s="225"/>
-      <c r="E101" s="226"/>
-      <c r="F101" s="226"/>
-      <c r="G101" s="226"/>
-      <c r="H101" s="226"/>
-      <c r="I101" s="226"/>
-      <c r="J101" s="226"/>
-      <c r="K101" s="226"/>
-      <c r="L101" s="226"/>
-      <c r="M101" s="235"/>
-    </row>
-    <row r="102" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C102" s="365"/>
-      <c r="D102" s="227"/>
-      <c r="E102" s="228"/>
-      <c r="F102" s="228"/>
-      <c r="G102" s="228"/>
-      <c r="H102" s="228"/>
-      <c r="I102" s="228"/>
-      <c r="J102" s="228"/>
-      <c r="K102" s="228"/>
-      <c r="L102" s="228"/>
-      <c r="M102" s="236"/>
-    </row>
-    <row r="104" spans="3:13" ht="15.75" thickBot="1"/>
-    <row r="105" spans="3:13">
-      <c r="D105" s="239"/>
-      <c r="E105" s="229"/>
-      <c r="F105" s="229"/>
-      <c r="G105" s="229"/>
-      <c r="H105" s="229"/>
-      <c r="I105" s="229"/>
-      <c r="J105" s="229"/>
-      <c r="K105" s="229"/>
-      <c r="L105" s="229"/>
-      <c r="M105" s="229"/>
-    </row>
-    <row r="106" spans="3:13">
-      <c r="D106" s="240"/>
-      <c r="E106" s="230"/>
-      <c r="F106" s="230"/>
-      <c r="G106" s="230"/>
-      <c r="H106" s="230"/>
-      <c r="I106" s="230"/>
-      <c r="J106" s="230"/>
-      <c r="K106" s="230"/>
-      <c r="L106" s="230"/>
-      <c r="M106" s="230"/>
-    </row>
-    <row r="107" spans="3:13">
-      <c r="D107" s="240"/>
-      <c r="E107" s="230"/>
-      <c r="F107" s="230"/>
-      <c r="G107" s="230"/>
-      <c r="H107" s="230"/>
-      <c r="I107" s="230"/>
-      <c r="J107" s="230"/>
-      <c r="K107" s="230"/>
-      <c r="L107" s="230"/>
-      <c r="M107" s="230"/>
-    </row>
-    <row r="108" spans="3:13">
-      <c r="D108" s="240" t="s">
+      <c r="D200" s="225"/>
+      <c r="E200" s="226"/>
+      <c r="F200" s="226"/>
+      <c r="G200" s="226"/>
+      <c r="H200" s="226"/>
+      <c r="I200" s="226"/>
+      <c r="J200" s="226"/>
+      <c r="K200" s="226"/>
+      <c r="L200" s="226"/>
+      <c r="M200" s="235"/>
+    </row>
+    <row r="201" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C201" s="357"/>
+      <c r="D201" s="227"/>
+      <c r="E201" s="228"/>
+      <c r="F201" s="228"/>
+      <c r="G201" s="228"/>
+      <c r="H201" s="228"/>
+      <c r="I201" s="228"/>
+      <c r="J201" s="228"/>
+      <c r="K201" s="228"/>
+      <c r="L201" s="228"/>
+      <c r="M201" s="236"/>
+    </row>
+    <row r="203" spans="3:15" ht="15.75" thickBot="1"/>
+    <row r="204" spans="3:15">
+      <c r="D204" s="239"/>
+      <c r="E204" s="229"/>
+      <c r="F204" s="229"/>
+      <c r="G204" s="229"/>
+      <c r="H204" s="229"/>
+      <c r="I204" s="229"/>
+      <c r="J204" s="229"/>
+      <c r="K204" s="229"/>
+      <c r="L204" s="229"/>
+      <c r="M204" s="229"/>
+    </row>
+    <row r="205" spans="3:15">
+      <c r="D205" s="240"/>
+      <c r="E205" s="230"/>
+      <c r="F205" s="230"/>
+      <c r="G205" s="230"/>
+      <c r="H205" s="230"/>
+      <c r="I205" s="230"/>
+      <c r="J205" s="230"/>
+      <c r="K205" s="230"/>
+      <c r="L205" s="230"/>
+      <c r="M205" s="230"/>
+    </row>
+    <row r="206" spans="3:15">
+      <c r="D206" s="240"/>
+      <c r="E206" s="230"/>
+      <c r="F206" s="230"/>
+      <c r="G206" s="230"/>
+      <c r="H206" s="230"/>
+      <c r="I206" s="230"/>
+      <c r="J206" s="230"/>
+      <c r="K206" s="230"/>
+      <c r="L206" s="230"/>
+      <c r="M206" s="230"/>
+    </row>
+    <row r="207" spans="3:15">
+      <c r="D207" s="240" t="s">
         <v>664</v>
       </c>
-      <c r="E108" s="230"/>
-      <c r="F108" s="230"/>
-      <c r="G108" s="230"/>
-      <c r="H108" s="230" t="s">
+      <c r="E207" s="230"/>
+      <c r="F207" s="230"/>
+      <c r="G207" s="230"/>
+      <c r="H207" s="230" t="s">
         <v>924</v>
       </c>
-      <c r="I108" s="230"/>
-      <c r="J108" s="230"/>
-      <c r="K108" s="230"/>
-      <c r="L108" s="230"/>
-      <c r="M108" s="230"/>
-    </row>
-    <row r="109" spans="3:13">
-      <c r="D109" s="240"/>
-      <c r="E109" s="230"/>
-      <c r="F109" s="230"/>
-      <c r="G109" s="230"/>
-      <c r="H109" s="230"/>
-      <c r="I109" s="230"/>
-      <c r="J109" s="230"/>
-      <c r="K109" s="230"/>
-      <c r="L109" s="230"/>
-      <c r="M109" s="230"/>
-    </row>
-    <row r="110" spans="3:13">
-      <c r="D110" s="240"/>
-      <c r="E110" s="230"/>
-      <c r="F110" s="230"/>
-      <c r="G110" s="230"/>
-      <c r="H110" s="230"/>
-      <c r="I110" s="230"/>
-      <c r="J110" s="230"/>
-      <c r="K110" s="230"/>
-      <c r="L110" s="230"/>
-      <c r="M110" s="230"/>
-    </row>
-    <row r="111" spans="3:13" ht="15.75" thickBot="1">
-      <c r="D111" s="241"/>
-      <c r="E111" s="231"/>
-      <c r="F111" s="231"/>
-      <c r="G111" s="231"/>
-      <c r="H111" s="231"/>
-      <c r="I111" s="231"/>
-      <c r="J111" s="231"/>
-      <c r="K111" s="231"/>
-      <c r="L111" s="231"/>
-      <c r="M111" s="231"/>
-    </row>
-    <row r="112" spans="3:13" ht="15.75" thickBot="1"/>
-    <row r="113" spans="4:13">
-      <c r="D113" s="353"/>
-      <c r="E113" s="354"/>
-      <c r="F113" s="354"/>
-      <c r="G113" s="354"/>
-      <c r="H113" s="354"/>
-      <c r="I113" s="354"/>
-      <c r="J113" s="354"/>
-      <c r="K113" s="354"/>
-      <c r="L113" s="354"/>
-      <c r="M113" s="354"/>
-    </row>
-    <row r="114" spans="4:13">
-      <c r="D114" s="355"/>
-      <c r="E114" s="356"/>
-      <c r="F114" s="356"/>
-      <c r="G114" s="356"/>
-      <c r="H114" s="356"/>
-      <c r="I114" s="356"/>
-      <c r="J114" s="356"/>
-      <c r="K114" s="356"/>
-      <c r="L114" s="356"/>
-      <c r="M114" s="356"/>
-    </row>
-    <row r="115" spans="4:13">
-      <c r="D115" s="355"/>
-      <c r="E115" s="356"/>
-      <c r="F115" s="356"/>
-      <c r="G115" s="356"/>
-      <c r="H115" s="356"/>
-      <c r="I115" s="356"/>
-      <c r="J115" s="356"/>
-      <c r="K115" s="356"/>
-      <c r="L115" s="356"/>
-      <c r="M115" s="356"/>
-    </row>
-    <row r="116" spans="4:13">
-      <c r="D116" s="355"/>
-      <c r="E116" s="356"/>
-      <c r="F116" s="356"/>
-      <c r="G116" s="356"/>
-      <c r="H116" s="356"/>
-      <c r="I116" s="356"/>
-      <c r="J116" s="356"/>
-      <c r="K116" s="356"/>
-      <c r="L116" s="356"/>
-      <c r="M116" s="356"/>
-    </row>
-    <row r="117" spans="4:13">
-      <c r="D117" s="355"/>
-      <c r="E117" s="356"/>
-      <c r="F117" s="356"/>
-      <c r="G117" s="356"/>
-      <c r="H117" s="356"/>
-      <c r="I117" s="356"/>
-      <c r="J117" s="356"/>
-      <c r="K117" s="356"/>
-      <c r="L117" s="356"/>
-      <c r="M117" s="356"/>
-    </row>
-    <row r="118" spans="4:13">
-      <c r="D118" s="355"/>
-      <c r="E118" s="356"/>
-      <c r="F118" s="356"/>
-      <c r="G118" s="356"/>
-      <c r="H118" s="356"/>
-      <c r="I118" s="356"/>
-      <c r="J118" s="356"/>
-      <c r="K118" s="356"/>
-      <c r="L118" s="356"/>
-      <c r="M118" s="356"/>
-    </row>
-    <row r="119" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D119" s="357"/>
-      <c r="E119" s="358"/>
-      <c r="F119" s="358"/>
-      <c r="G119" s="358"/>
-      <c r="H119" s="358"/>
-      <c r="I119" s="358"/>
-      <c r="J119" s="358"/>
-      <c r="K119" s="358"/>
-      <c r="L119" s="358"/>
-      <c r="M119" s="358"/>
+      <c r="I207" s="230"/>
+      <c r="J207" s="230"/>
+      <c r="K207" s="230"/>
+      <c r="L207" s="230"/>
+      <c r="M207" s="230"/>
+    </row>
+    <row r="208" spans="3:15">
+      <c r="D208" s="240"/>
+      <c r="E208" s="230"/>
+      <c r="F208" s="230"/>
+      <c r="G208" s="230"/>
+      <c r="H208" s="230"/>
+      <c r="I208" s="230"/>
+      <c r="J208" s="230"/>
+      <c r="K208" s="230"/>
+      <c r="L208" s="230"/>
+      <c r="M208" s="230"/>
+    </row>
+    <row r="209" spans="4:13">
+      <c r="D209" s="240"/>
+      <c r="E209" s="230"/>
+      <c r="F209" s="230"/>
+      <c r="G209" s="230"/>
+      <c r="H209" s="230"/>
+      <c r="I209" s="230"/>
+      <c r="J209" s="230"/>
+      <c r="K209" s="230"/>
+      <c r="L209" s="230"/>
+      <c r="M209" s="230"/>
+    </row>
+    <row r="210" spans="4:13" ht="15.75" thickBot="1">
+      <c r="D210" s="241"/>
+      <c r="E210" s="231"/>
+      <c r="F210" s="231"/>
+      <c r="G210" s="231"/>
+      <c r="H210" s="231"/>
+      <c r="I210" s="231"/>
+      <c r="J210" s="231"/>
+      <c r="K210" s="231"/>
+      <c r="L210" s="231"/>
+      <c r="M210" s="231"/>
+    </row>
+    <row r="211" spans="4:13" ht="15.75" thickBot="1"/>
+    <row r="212" spans="4:13">
+      <c r="D212" s="350"/>
+      <c r="E212" s="351"/>
+      <c r="F212" s="351"/>
+      <c r="G212" s="351"/>
+      <c r="H212" s="351"/>
+      <c r="I212" s="351"/>
+      <c r="J212" s="351"/>
+      <c r="K212" s="351"/>
+      <c r="L212" s="351"/>
+      <c r="M212" s="351"/>
+    </row>
+    <row r="213" spans="4:13">
+      <c r="D213" s="352"/>
+      <c r="E213" s="353"/>
+      <c r="F213" s="353"/>
+      <c r="G213" s="353"/>
+      <c r="H213" s="353"/>
+      <c r="I213" s="353"/>
+      <c r="J213" s="353"/>
+      <c r="K213" s="353"/>
+      <c r="L213" s="353"/>
+      <c r="M213" s="353"/>
+    </row>
+    <row r="214" spans="4:13">
+      <c r="D214" s="352"/>
+      <c r="E214" s="353"/>
+      <c r="F214" s="353"/>
+      <c r="G214" s="353"/>
+      <c r="H214" s="353"/>
+      <c r="I214" s="353"/>
+      <c r="J214" s="353"/>
+      <c r="K214" s="353"/>
+      <c r="L214" s="353"/>
+      <c r="M214" s="353"/>
+    </row>
+    <row r="215" spans="4:13">
+      <c r="D215" s="352"/>
+      <c r="E215" s="353"/>
+      <c r="F215" s="353"/>
+      <c r="G215" s="353"/>
+      <c r="H215" s="353"/>
+      <c r="I215" s="353"/>
+      <c r="J215" s="353"/>
+      <c r="K215" s="353"/>
+      <c r="L215" s="353"/>
+      <c r="M215" s="353"/>
+    </row>
+    <row r="216" spans="4:13">
+      <c r="D216" s="352"/>
+      <c r="E216" s="353"/>
+      <c r="F216" s="353"/>
+      <c r="G216" s="353"/>
+      <c r="H216" s="353"/>
+      <c r="I216" s="353"/>
+      <c r="J216" s="353"/>
+      <c r="K216" s="353"/>
+      <c r="L216" s="353"/>
+      <c r="M216" s="353"/>
+    </row>
+    <row r="217" spans="4:13">
+      <c r="D217" s="352"/>
+      <c r="E217" s="353"/>
+      <c r="F217" s="353"/>
+      <c r="G217" s="353"/>
+      <c r="H217" s="353"/>
+      <c r="I217" s="353"/>
+      <c r="J217" s="353"/>
+      <c r="K217" s="353"/>
+      <c r="L217" s="353"/>
+      <c r="M217" s="353"/>
+    </row>
+    <row r="218" spans="4:13" ht="15.75" thickBot="1">
+      <c r="D218" s="354"/>
+      <c r="E218" s="355"/>
+      <c r="F218" s="355"/>
+      <c r="G218" s="355"/>
+      <c r="H218" s="355"/>
+      <c r="I218" s="355"/>
+      <c r="J218" s="355"/>
+      <c r="K218" s="355"/>
+      <c r="L218" s="355"/>
+      <c r="M218" s="355"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D113:M119"/>
-    <mergeCell ref="D49:D55"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="N86:N92"/>
-    <mergeCell ref="C101:C102"/>
+  <mergeCells count="6">
+    <mergeCell ref="M4:M11"/>
+    <mergeCell ref="D148:D154"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C137:C143"/>
+    <mergeCell ref="N183:N184"/>
+    <mergeCell ref="N185:N191"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25468,14 +25714,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="366" t="s">
+      <c r="K4" s="369" t="s">
         <v>178</v>
       </c>
-      <c r="L4" s="367"/>
-      <c r="M4" s="367"/>
-      <c r="N4" s="367"/>
-      <c r="O4" s="367"/>
-      <c r="P4" s="368"/>
+      <c r="L4" s="370"/>
+      <c r="M4" s="370"/>
+      <c r="N4" s="370"/>
+      <c r="O4" s="370"/>
+      <c r="P4" s="371"/>
       <c r="Q4" s="115" t="s">
         <v>282</v>
       </c>
@@ -25600,10 +25846,10 @@
       <c r="L8" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M8" s="381" t="s">
+      <c r="M8" s="384" t="s">
         <v>211</v>
       </c>
-      <c r="N8" s="382"/>
+      <c r="N8" s="385"/>
       <c r="O8" s="5" t="s">
         <v>31</v>
       </c>
@@ -25645,8 +25891,8 @@
       <c r="L9" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M9" s="382"/>
-      <c r="N9" s="382"/>
+      <c r="M9" s="385"/>
+      <c r="N9" s="385"/>
       <c r="O9" s="5" t="s">
         <v>187</v>
       </c>
@@ -25682,8 +25928,8 @@
       <c r="L10" s="5" t="s">
         <v>1168</v>
       </c>
-      <c r="M10" s="382"/>
-      <c r="N10" s="382"/>
+      <c r="M10" s="385"/>
+      <c r="N10" s="385"/>
       <c r="O10" s="5"/>
       <c r="P10" s="246" t="s">
         <v>400</v>
@@ -25700,13 +25946,13 @@
       <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="369" t="s">
+      <c r="A11" s="372" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="370"/>
-      <c r="C11" s="371"/>
-      <c r="D11" s="371"/>
-      <c r="E11" s="372"/>
+      <c r="B11" s="373"/>
+      <c r="C11" s="374"/>
+      <c r="D11" s="374"/>
+      <c r="E11" s="375"/>
       <c r="F11" t="s">
         <v>209</v>
       </c>
@@ -25715,8 +25961,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="382"/>
-      <c r="N11" s="382"/>
+      <c r="M11" s="385"/>
+      <c r="N11" s="385"/>
       <c r="O11" s="5"/>
       <c r="P11" s="246" t="s">
         <v>401</v>
@@ -25726,11 +25972,11 @@
       <c r="T11" s="38"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="373"/>
-      <c r="B12" s="374"/>
-      <c r="C12" s="374"/>
-      <c r="D12" s="374"/>
-      <c r="E12" s="360"/>
+      <c r="A12" s="376"/>
+      <c r="B12" s="377"/>
+      <c r="C12" s="377"/>
+      <c r="D12" s="377"/>
+      <c r="E12" s="364"/>
       <c r="F12" t="s">
         <v>945</v>
       </c>
@@ -25739,8 +25985,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="382"/>
-      <c r="N12" s="382"/>
+      <c r="M12" s="385"/>
+      <c r="N12" s="385"/>
       <c r="O12" s="5"/>
       <c r="P12" s="246" t="s">
         <v>1306</v>
@@ -25750,11 +25996,11 @@
       <c r="T12" s="38"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A13" s="373"/>
-      <c r="B13" s="374"/>
-      <c r="C13" s="374"/>
-      <c r="D13" s="374"/>
-      <c r="E13" s="360"/>
+      <c r="A13" s="376"/>
+      <c r="B13" s="377"/>
+      <c r="C13" s="377"/>
+      <c r="D13" s="377"/>
+      <c r="E13" s="364"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>192</v>
@@ -25762,8 +26008,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="382"/>
-      <c r="N13" s="382"/>
+      <c r="M13" s="385"/>
+      <c r="N13" s="385"/>
       <c r="O13" s="28"/>
       <c r="P13" s="247"/>
       <c r="S13" t="s">
@@ -25771,11 +26017,11 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="375"/>
-      <c r="B14" s="376"/>
-      <c r="C14" s="376"/>
-      <c r="D14" s="376"/>
-      <c r="E14" s="377"/>
+      <c r="A14" s="378"/>
+      <c r="B14" s="379"/>
+      <c r="C14" s="379"/>
+      <c r="D14" s="379"/>
+      <c r="E14" s="380"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -25905,20 +26151,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="378" t="s">
+      <c r="I20" s="381" t="s">
         <v>194</v>
       </c>
-      <c r="J20" s="379"/>
-      <c r="K20" s="378" t="s">
+      <c r="J20" s="382"/>
+      <c r="K20" s="381" t="s">
         <v>195</v>
       </c>
-      <c r="L20" s="379"/>
-      <c r="M20" s="378" t="s">
+      <c r="L20" s="382"/>
+      <c r="M20" s="381" t="s">
         <v>196</v>
       </c>
-      <c r="N20" s="380"/>
-      <c r="O20" s="380"/>
-      <c r="P20" s="379"/>
+      <c r="N20" s="383"/>
+      <c r="O20" s="383"/>
+      <c r="P20" s="382"/>
       <c r="S20" t="s">
         <v>282</v>
       </c>
@@ -26863,13 +27109,13 @@
         <v>181</v>
       </c>
       <c r="J3" s="148"/>
-      <c r="K3" s="392"/>
-      <c r="L3" s="392"/>
-      <c r="M3" s="392"/>
-      <c r="N3" s="392"/>
-      <c r="O3" s="392"/>
-      <c r="P3" s="392"/>
-      <c r="Q3" s="393"/>
+      <c r="K3" s="395"/>
+      <c r="L3" s="395"/>
+      <c r="M3" s="395"/>
+      <c r="N3" s="395"/>
+      <c r="O3" s="395"/>
+      <c r="P3" s="395"/>
+      <c r="Q3" s="396"/>
       <c r="T3" s="40" t="s">
         <v>179</v>
       </c>
@@ -27137,13 +27383,13 @@
       <c r="U11" s="38"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="383" t="s">
+      <c r="A12" s="386" t="s">
         <v>668</v>
       </c>
-      <c r="B12" s="384"/>
-      <c r="C12" s="384"/>
-      <c r="D12" s="384"/>
-      <c r="E12" s="385"/>
+      <c r="B12" s="387"/>
+      <c r="C12" s="387"/>
+      <c r="D12" s="387"/>
+      <c r="E12" s="388"/>
       <c r="F12" t="s">
         <v>681</v>
       </c>
@@ -27166,11 +27412,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="386"/>
-      <c r="B13" s="387"/>
-      <c r="C13" s="387"/>
-      <c r="D13" s="387"/>
-      <c r="E13" s="388"/>
+      <c r="A13" s="389"/>
+      <c r="B13" s="390"/>
+      <c r="C13" s="390"/>
+      <c r="D13" s="390"/>
+      <c r="E13" s="391"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -27191,11 +27437,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="386"/>
-      <c r="B14" s="387"/>
-      <c r="C14" s="387"/>
-      <c r="D14" s="387"/>
-      <c r="E14" s="388"/>
+      <c r="A14" s="389"/>
+      <c r="B14" s="390"/>
+      <c r="C14" s="390"/>
+      <c r="D14" s="390"/>
+      <c r="E14" s="391"/>
       <c r="F14" t="s">
         <v>678</v>
       </c>
@@ -27218,11 +27464,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="389"/>
-      <c r="B15" s="390"/>
-      <c r="C15" s="390"/>
-      <c r="D15" s="390"/>
-      <c r="E15" s="391"/>
+      <c r="A15" s="392"/>
+      <c r="B15" s="393"/>
+      <c r="C15" s="393"/>
+      <c r="D15" s="393"/>
+      <c r="E15" s="394"/>
       <c r="F15" s="24"/>
       <c r="H15" s="192"/>
       <c r="I15" s="4" t="s">
@@ -27280,17 +27526,17 @@
       <c r="F17" s="188"/>
       <c r="G17" s="129"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="367" t="s">
+      <c r="I17" s="370" t="s">
         <v>1178</v>
       </c>
-      <c r="J17" s="367"/>
-      <c r="K17" s="367"/>
-      <c r="L17" s="367"/>
-      <c r="M17" s="367"/>
-      <c r="N17" s="367"/>
-      <c r="O17" s="367"/>
-      <c r="P17" s="367"/>
-      <c r="Q17" s="367"/>
+      <c r="J17" s="370"/>
+      <c r="K17" s="370"/>
+      <c r="L17" s="370"/>
+      <c r="M17" s="370"/>
+      <c r="N17" s="370"/>
+      <c r="O17" s="370"/>
+      <c r="P17" s="370"/>
+      <c r="Q17" s="370"/>
       <c r="S17" t="s">
         <v>359</v>
       </c>
@@ -31576,10 +31822,10 @@
       <c r="K232" s="35"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="394" t="s">
+      <c r="O232" s="397" t="s">
         <v>1226</v>
       </c>
-      <c r="P232" s="395"/>
+      <c r="P232" s="398"/>
       <c r="Q232" s="6"/>
     </row>
     <row r="233" spans="2:17">

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="1477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="1483">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -4930,6 +4930,24 @@
   </si>
   <si>
     <t>logo image</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;User ID&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;&lt;Input type="text"  name="uid" id="uid" &gt;&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;Password&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;&lt;Input type="password"  name="pwd" id="pwd" &gt;&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;&lt;Input type="submit" value="login"  &gt;&lt;/td&gt;</t>
   </si>
 </sst>
 </file>
@@ -6209,6 +6227,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6217,6 +6242,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6232,9 +6260,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6255,9 +6280,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6332,18 +6354,6 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6365,8 +6375,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6398,9 +6423,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6410,8 +6432,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6473,57 +6546,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6545,50 +6567,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6629,28 +6618,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12462,10 +12480,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="399" t="s">
+      <c r="L35" s="405" t="s">
         <v>375</v>
       </c>
-      <c r="M35" s="399"/>
+      <c r="M35" s="405"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -14395,10 +14413,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="400" t="s">
+      <c r="A155" s="406" t="s">
         <v>994</v>
       </c>
-      <c r="B155" s="400"/>
+      <c r="B155" s="406"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="93" t="s">
@@ -15988,18 +16006,18 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="401" t="s">
+      <c r="E6" s="414" t="s">
         <v>407</v>
       </c>
-      <c r="F6" s="362"/>
-      <c r="G6" s="361" t="s">
+      <c r="F6" s="369"/>
+      <c r="G6" s="368" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="361"/>
-      <c r="I6" s="361"/>
-      <c r="J6" s="361"/>
-      <c r="K6" s="361"/>
-      <c r="L6" s="362"/>
+      <c r="H6" s="368"/>
+      <c r="I6" s="368"/>
+      <c r="J6" s="368"/>
+      <c r="K6" s="368"/>
+      <c r="L6" s="369"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="28" t="s">
@@ -16009,7 +16027,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="409">
+      <c r="D7" s="411">
         <v>80</v>
       </c>
       <c r="E7" s="66"/>
@@ -16027,7 +16045,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="409"/>
+      <c r="D8" s="411"/>
       <c r="E8" s="58" t="s">
         <v>409</v>
       </c>
@@ -16062,7 +16080,7 @@
       <c r="B9" t="s">
         <v>408</v>
       </c>
-      <c r="D9" s="409"/>
+      <c r="D9" s="411"/>
       <c r="E9" s="232"/>
       <c r="F9" s="238"/>
       <c r="G9" s="232"/>
@@ -16086,7 +16104,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="409"/>
+      <c r="D10" s="411"/>
       <c r="E10" s="66"/>
       <c r="F10" s="237"/>
       <c r="G10" s="66"/>
@@ -16110,7 +16128,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="409"/>
+      <c r="D11" s="411"/>
       <c r="E11" s="58" t="s">
         <v>413</v>
       </c>
@@ -16139,7 +16157,7 @@
       <c r="B12" s="209" t="s">
         <v>417</v>
       </c>
-      <c r="D12" s="409"/>
+      <c r="D12" s="411"/>
       <c r="E12" s="232"/>
       <c r="F12" s="238"/>
       <c r="G12" s="232"/>
@@ -16157,7 +16175,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="409"/>
+      <c r="D13" s="411"/>
       <c r="E13" s="66"/>
       <c r="F13" s="237"/>
       <c r="G13" s="66"/>
@@ -16173,7 +16191,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="409"/>
+      <c r="D14" s="411"/>
       <c r="E14" s="58" t="s">
         <v>418</v>
       </c>
@@ -16197,7 +16215,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="409"/>
+      <c r="D15" s="411"/>
       <c r="E15" s="232"/>
       <c r="F15" s="238"/>
       <c r="G15" s="232"/>
@@ -16213,7 +16231,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="409"/>
+      <c r="D16" s="411"/>
       <c r="E16" s="66"/>
       <c r="F16" s="237"/>
       <c r="G16" s="59"/>
@@ -16229,7 +16247,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="409"/>
+      <c r="D17" s="411"/>
       <c r="E17" s="58" t="s">
         <v>422</v>
       </c>
@@ -16253,7 +16271,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="409"/>
+      <c r="D18" s="411"/>
       <c r="E18" s="232"/>
       <c r="F18" s="238"/>
       <c r="G18" s="321"/>
@@ -16270,20 +16288,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="402" t="s">
+      <c r="E19" s="415" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="403"/>
-      <c r="G19" s="402" t="s">
+      <c r="F19" s="416"/>
+      <c r="G19" s="415" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="403"/>
-      <c r="I19" s="402" t="s">
+      <c r="H19" s="416"/>
+      <c r="I19" s="415" t="s">
         <v>196</v>
       </c>
-      <c r="J19" s="404"/>
-      <c r="K19" s="404"/>
-      <c r="L19" s="403"/>
+      <c r="J19" s="417"/>
+      <c r="K19" s="417"/>
+      <c r="L19" s="416"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -16348,12 +16366,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="411"/>
-      <c r="H24" s="411"/>
-      <c r="I24" s="411"/>
-      <c r="J24" s="411"/>
-      <c r="K24" s="411"/>
-      <c r="L24" s="411"/>
+      <c r="G24" s="413"/>
+      <c r="H24" s="413"/>
+      <c r="I24" s="413"/>
+      <c r="J24" s="413"/>
+      <c r="K24" s="413"/>
+      <c r="L24" s="413"/>
       <c r="O24" s="40" t="s">
         <v>179</v>
       </c>
@@ -16726,11 +16744,11 @@
       <c r="G47" s="222" t="s">
         <v>884</v>
       </c>
-      <c r="H47" s="397" t="s">
+      <c r="H47" s="403" t="s">
         <v>1355</v>
       </c>
-      <c r="I47" s="410"/>
-      <c r="J47" s="398"/>
+      <c r="I47" s="412"/>
+      <c r="J47" s="404"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -17336,16 +17354,16 @@
         <v>1049</v>
       </c>
       <c r="F131" s="38"/>
-      <c r="G131" s="407" t="s">
+      <c r="G131" s="409" t="s">
         <v>1042</v>
       </c>
-      <c r="H131" s="407"/>
-      <c r="I131" s="407"/>
-      <c r="J131" s="407"/>
-      <c r="K131" s="407"/>
-      <c r="L131" s="407"/>
-      <c r="M131" s="407"/>
-      <c r="N131" s="407"/>
+      <c r="H131" s="409"/>
+      <c r="I131" s="409"/>
+      <c r="J131" s="409"/>
+      <c r="K131" s="409"/>
+      <c r="L131" s="409"/>
+      <c r="M131" s="409"/>
+      <c r="N131" s="409"/>
       <c r="O131" s="38"/>
     </row>
     <row r="132" spans="2:15">
@@ -17482,29 +17500,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="38"/>
-      <c r="G141" s="408"/>
-      <c r="H141" s="408"/>
-      <c r="I141" s="408"/>
-      <c r="J141" s="408"/>
-      <c r="K141" s="408"/>
-      <c r="L141" s="408"/>
-      <c r="M141" s="408"/>
-      <c r="N141" s="408"/>
-      <c r="O141" s="408"/>
+      <c r="G141" s="410"/>
+      <c r="H141" s="410"/>
+      <c r="I141" s="410"/>
+      <c r="J141" s="410"/>
+      <c r="K141" s="410"/>
+      <c r="L141" s="410"/>
+      <c r="M141" s="410"/>
+      <c r="N141" s="410"/>
+      <c r="O141" s="410"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="408"/>
-      <c r="H142" s="408"/>
-      <c r="I142" s="408"/>
-      <c r="J142" s="408"/>
-      <c r="K142" s="408"/>
-      <c r="L142" s="408"/>
-      <c r="M142" s="408"/>
-      <c r="N142" s="408"/>
-      <c r="O142" s="408"/>
+      <c r="G142" s="410"/>
+      <c r="H142" s="410"/>
+      <c r="I142" s="410"/>
+      <c r="J142" s="410"/>
+      <c r="K142" s="410"/>
+      <c r="L142" s="410"/>
+      <c r="M142" s="410"/>
+      <c r="N142" s="410"/>
+      <c r="O142" s="410"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -17548,7 +17566,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="405" t="s">
+      <c r="D158" s="407" t="s">
         <v>1321</v>
       </c>
       <c r="E158" s="66"/>
@@ -17561,7 +17579,7 @@
       <c r="L158" s="237"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="406"/>
+      <c r="D159" s="408"/>
       <c r="E159" s="313" t="s">
         <v>1319</v>
       </c>
@@ -17583,7 +17601,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="406"/>
+      <c r="D160" s="408"/>
       <c r="E160" s="232"/>
       <c r="F160" s="238"/>
       <c r="G160" s="232"/>
@@ -17594,7 +17612,7 @@
       <c r="L160" s="238"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="406"/>
+      <c r="D161" s="408"/>
       <c r="E161" s="315"/>
       <c r="F161" s="316"/>
       <c r="G161" s="315"/>
@@ -17605,7 +17623,7 @@
       <c r="L161" s="316"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="406"/>
+      <c r="D162" s="408"/>
       <c r="E162" s="317"/>
       <c r="F162" s="318"/>
       <c r="G162" s="317"/>
@@ -17619,7 +17637,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="406"/>
+      <c r="D163" s="408"/>
       <c r="E163" s="319"/>
       <c r="F163" s="320"/>
       <c r="G163" s="319"/>
@@ -17630,7 +17648,7 @@
       <c r="L163" s="320"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="406"/>
+      <c r="D164" s="408"/>
       <c r="E164" s="66"/>
       <c r="F164" s="237"/>
       <c r="G164" s="66"/>
@@ -17641,7 +17659,7 @@
       <c r="L164" s="237"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="406"/>
+      <c r="D165" s="408"/>
       <c r="E165" s="58"/>
       <c r="F165" s="312"/>
       <c r="G165" s="58"/>
@@ -17655,7 +17673,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="406"/>
+      <c r="D166" s="408"/>
       <c r="E166" s="232"/>
       <c r="F166" s="238"/>
       <c r="G166" s="232"/>
@@ -17666,7 +17684,7 @@
       <c r="L166" s="238"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="406"/>
+      <c r="D167" s="408"/>
       <c r="E167" s="66"/>
       <c r="F167" s="237"/>
       <c r="G167" s="59"/>
@@ -17677,7 +17695,7 @@
       <c r="L167" s="312"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="406"/>
+      <c r="D168" s="408"/>
       <c r="E168" s="58"/>
       <c r="F168" s="312"/>
       <c r="G168" s="59"/>
@@ -17691,7 +17709,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="406"/>
+      <c r="D169" s="408"/>
       <c r="E169" s="232"/>
       <c r="F169" s="238"/>
       <c r="G169" s="321"/>
@@ -17871,17 +17889,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -18126,13 +18144,13 @@
       <c r="C20" s="116">
         <v>43908</v>
       </c>
-      <c r="D20" s="412" t="s">
+      <c r="D20" s="418" t="s">
         <v>457</v>
       </c>
-      <c r="E20" s="412"/>
-      <c r="F20" s="412"/>
-      <c r="G20" s="412"/>
-      <c r="H20" s="412"/>
+      <c r="E20" s="418"/>
+      <c r="F20" s="418"/>
+      <c r="G20" s="418"/>
+      <c r="H20" s="418"/>
       <c r="I20" s="38" t="s">
         <v>458</v>
       </c>
@@ -18143,37 +18161,37 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="423">
+      <c r="C21" s="419">
         <v>43909</v>
       </c>
-      <c r="D21" s="412"/>
-      <c r="E21" s="412"/>
-      <c r="F21" s="412"/>
-      <c r="G21" s="412"/>
-      <c r="H21" s="412"/>
+      <c r="D21" s="418"/>
+      <c r="E21" s="418"/>
+      <c r="F21" s="418"/>
+      <c r="G21" s="418"/>
+      <c r="H21" s="418"/>
       <c r="I21" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="J21" s="412"/>
-      <c r="K21" s="412"/>
-      <c r="L21" s="412" t="s">
+      <c r="J21" s="418"/>
+      <c r="K21" s="418"/>
+      <c r="L21" s="418" t="s">
         <v>460</v>
       </c>
-      <c r="M21" s="412"/>
-      <c r="N21" s="412"/>
+      <c r="M21" s="418"/>
+      <c r="N21" s="418"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="423"/>
-      <c r="D22" s="412"/>
-      <c r="E22" s="412"/>
-      <c r="F22" s="412"/>
-      <c r="G22" s="412"/>
-      <c r="H22" s="412"/>
-      <c r="I22" s="365" t="s">
+      <c r="C22" s="419"/>
+      <c r="D22" s="418"/>
+      <c r="E22" s="418"/>
+      <c r="F22" s="418"/>
+      <c r="G22" s="418"/>
+      <c r="H22" s="418"/>
+      <c r="I22" s="373" t="s">
         <v>461</v>
       </c>
-      <c r="J22" s="412"/>
-      <c r="K22" s="412"/>
+      <c r="J22" s="418"/>
+      <c r="K22" s="418"/>
       <c r="L22" s="117" t="s">
         <v>462</v>
       </c>
@@ -18181,31 +18199,31 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="423"/>
-      <c r="D23" s="412"/>
-      <c r="E23" s="412"/>
-      <c r="F23" s="412"/>
-      <c r="G23" s="412"/>
-      <c r="H23" s="412"/>
-      <c r="I23" s="365"/>
-      <c r="J23" s="412"/>
-      <c r="K23" s="412"/>
-      <c r="L23" s="412" t="s">
+      <c r="C23" s="419"/>
+      <c r="D23" s="418"/>
+      <c r="E23" s="418"/>
+      <c r="F23" s="418"/>
+      <c r="G23" s="418"/>
+      <c r="H23" s="418"/>
+      <c r="I23" s="373"/>
+      <c r="J23" s="418"/>
+      <c r="K23" s="418"/>
+      <c r="L23" s="418" t="s">
         <v>463</v>
       </c>
-      <c r="M23" s="412"/>
-      <c r="N23" s="412"/>
+      <c r="M23" s="418"/>
+      <c r="N23" s="418"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="423"/>
-      <c r="D24" s="412"/>
-      <c r="E24" s="412"/>
-      <c r="F24" s="412"/>
-      <c r="G24" s="412"/>
-      <c r="H24" s="412"/>
-      <c r="I24" s="365"/>
-      <c r="J24" s="412"/>
-      <c r="K24" s="412"/>
+      <c r="C24" s="419"/>
+      <c r="D24" s="418"/>
+      <c r="E24" s="418"/>
+      <c r="F24" s="418"/>
+      <c r="G24" s="418"/>
+      <c r="H24" s="418"/>
+      <c r="I24" s="373"/>
+      <c r="J24" s="418"/>
+      <c r="K24" s="418"/>
       <c r="L24" s="118" t="s">
         <v>461</v>
       </c>
@@ -18216,13 +18234,13 @@
       <c r="C25" s="116">
         <v>43910</v>
       </c>
-      <c r="D25" s="412" t="s">
+      <c r="D25" s="418" t="s">
         <v>464</v>
       </c>
-      <c r="E25" s="412"/>
-      <c r="F25" s="412"/>
-      <c r="G25" s="412"/>
-      <c r="H25" s="412"/>
+      <c r="E25" s="418"/>
+      <c r="F25" s="418"/>
+      <c r="G25" s="418"/>
+      <c r="H25" s="418"/>
       <c r="I25" s="38" t="s">
         <v>465</v>
       </c>
@@ -18236,16 +18254,16 @@
       <c r="C26" s="116">
         <v>43911</v>
       </c>
-      <c r="D26" s="413"/>
-      <c r="E26" s="414"/>
-      <c r="F26" s="414"/>
-      <c r="G26" s="414"/>
-      <c r="H26" s="415"/>
-      <c r="I26" s="420" t="s">
+      <c r="D26" s="420"/>
+      <c r="E26" s="421"/>
+      <c r="F26" s="421"/>
+      <c r="G26" s="421"/>
+      <c r="H26" s="422"/>
+      <c r="I26" s="427" t="s">
         <v>461</v>
       </c>
-      <c r="J26" s="413"/>
-      <c r="K26" s="415"/>
+      <c r="J26" s="420"/>
+      <c r="K26" s="422"/>
       <c r="L26" s="117" t="s">
         <v>462</v>
       </c>
@@ -18254,30 +18272,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
-      <c r="D27" s="416"/>
-      <c r="E27" s="411"/>
-      <c r="F27" s="411"/>
-      <c r="G27" s="411"/>
-      <c r="H27" s="417"/>
-      <c r="I27" s="421"/>
-      <c r="J27" s="416"/>
-      <c r="K27" s="417"/>
-      <c r="L27" s="412" t="s">
+      <c r="D27" s="423"/>
+      <c r="E27" s="413"/>
+      <c r="F27" s="413"/>
+      <c r="G27" s="413"/>
+      <c r="H27" s="424"/>
+      <c r="I27" s="428"/>
+      <c r="J27" s="423"/>
+      <c r="K27" s="424"/>
+      <c r="L27" s="418" t="s">
         <v>466</v>
       </c>
-      <c r="M27" s="412"/>
-      <c r="N27" s="412"/>
+      <c r="M27" s="418"/>
+      <c r="N27" s="418"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
-      <c r="D28" s="416"/>
-      <c r="E28" s="411"/>
-      <c r="F28" s="411"/>
-      <c r="G28" s="411"/>
-      <c r="H28" s="417"/>
-      <c r="I28" s="421"/>
-      <c r="J28" s="416"/>
-      <c r="K28" s="417"/>
+      <c r="D28" s="423"/>
+      <c r="E28" s="413"/>
+      <c r="F28" s="413"/>
+      <c r="G28" s="413"/>
+      <c r="H28" s="424"/>
+      <c r="I28" s="428"/>
+      <c r="J28" s="423"/>
+      <c r="K28" s="424"/>
       <c r="L28" s="118" t="s">
         <v>461</v>
       </c>
@@ -18286,14 +18304,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
-      <c r="D29" s="418"/>
-      <c r="E29" s="399"/>
-      <c r="F29" s="399"/>
-      <c r="G29" s="399"/>
-      <c r="H29" s="419"/>
-      <c r="I29" s="422"/>
-      <c r="J29" s="418"/>
-      <c r="K29" s="419"/>
+      <c r="D29" s="425"/>
+      <c r="E29" s="405"/>
+      <c r="F29" s="405"/>
+      <c r="G29" s="405"/>
+      <c r="H29" s="426"/>
+      <c r="I29" s="429"/>
+      <c r="J29" s="425"/>
+      <c r="K29" s="426"/>
       <c r="L29" s="119" t="s">
         <v>467</v>
       </c>
@@ -18341,13 +18359,13 @@
       <c r="C33" s="116">
         <v>43908</v>
       </c>
-      <c r="D33" s="412" t="s">
+      <c r="D33" s="418" t="s">
         <v>457</v>
       </c>
-      <c r="E33" s="412"/>
-      <c r="F33" s="412"/>
-      <c r="G33" s="412"/>
-      <c r="H33" s="412"/>
+      <c r="E33" s="418"/>
+      <c r="F33" s="418"/>
+      <c r="G33" s="418"/>
+      <c r="H33" s="418"/>
       <c r="I33" s="38" t="s">
         <v>458</v>
       </c>
@@ -18358,33 +18376,33 @@
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="423">
+      <c r="C34" s="419">
         <v>43909</v>
       </c>
-      <c r="D34" s="412"/>
-      <c r="E34" s="412"/>
-      <c r="F34" s="412"/>
-      <c r="G34" s="412"/>
-      <c r="H34" s="412"/>
-      <c r="I34" s="424"/>
-      <c r="J34" s="412"/>
-      <c r="K34" s="412"/>
-      <c r="L34" s="412" t="s">
+      <c r="D34" s="418"/>
+      <c r="E34" s="418"/>
+      <c r="F34" s="418"/>
+      <c r="G34" s="418"/>
+      <c r="H34" s="418"/>
+      <c r="I34" s="430"/>
+      <c r="J34" s="418"/>
+      <c r="K34" s="418"/>
+      <c r="L34" s="418" t="s">
         <v>460</v>
       </c>
-      <c r="M34" s="412"/>
-      <c r="N34" s="412"/>
+      <c r="M34" s="418"/>
+      <c r="N34" s="418"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="423"/>
-      <c r="D35" s="412"/>
-      <c r="E35" s="412"/>
-      <c r="F35" s="412"/>
-      <c r="G35" s="412"/>
-      <c r="H35" s="412"/>
-      <c r="I35" s="425"/>
-      <c r="J35" s="412"/>
-      <c r="K35" s="412"/>
+      <c r="C35" s="419"/>
+      <c r="D35" s="418"/>
+      <c r="E35" s="418"/>
+      <c r="F35" s="418"/>
+      <c r="G35" s="418"/>
+      <c r="H35" s="418"/>
+      <c r="I35" s="431"/>
+      <c r="J35" s="418"/>
+      <c r="K35" s="418"/>
       <c r="L35" s="117" t="s">
         <v>462</v>
       </c>
@@ -18392,31 +18410,31 @@
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="423"/>
-      <c r="D36" s="412"/>
-      <c r="E36" s="412"/>
-      <c r="F36" s="412"/>
-      <c r="G36" s="412"/>
-      <c r="H36" s="412"/>
-      <c r="I36" s="425"/>
-      <c r="J36" s="412"/>
-      <c r="K36" s="412"/>
-      <c r="L36" s="412" t="s">
+      <c r="C36" s="419"/>
+      <c r="D36" s="418"/>
+      <c r="E36" s="418"/>
+      <c r="F36" s="418"/>
+      <c r="G36" s="418"/>
+      <c r="H36" s="418"/>
+      <c r="I36" s="431"/>
+      <c r="J36" s="418"/>
+      <c r="K36" s="418"/>
+      <c r="L36" s="418" t="s">
         <v>463</v>
       </c>
-      <c r="M36" s="412"/>
-      <c r="N36" s="412"/>
+      <c r="M36" s="418"/>
+      <c r="N36" s="418"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="423"/>
-      <c r="D37" s="412"/>
-      <c r="E37" s="412"/>
-      <c r="F37" s="412"/>
-      <c r="G37" s="412"/>
-      <c r="H37" s="412"/>
-      <c r="I37" s="426"/>
-      <c r="J37" s="412"/>
-      <c r="K37" s="412"/>
+      <c r="C37" s="419"/>
+      <c r="D37" s="418"/>
+      <c r="E37" s="418"/>
+      <c r="F37" s="418"/>
+      <c r="G37" s="418"/>
+      <c r="H37" s="418"/>
+      <c r="I37" s="432"/>
+      <c r="J37" s="418"/>
+      <c r="K37" s="418"/>
       <c r="L37" s="118" t="s">
         <v>468</v>
       </c>
@@ -18427,13 +18445,13 @@
       <c r="C38" s="116">
         <v>43910</v>
       </c>
-      <c r="D38" s="412" t="s">
+      <c r="D38" s="418" t="s">
         <v>464</v>
       </c>
-      <c r="E38" s="412"/>
-      <c r="F38" s="412"/>
-      <c r="G38" s="412"/>
-      <c r="H38" s="412"/>
+      <c r="E38" s="418"/>
+      <c r="F38" s="418"/>
+      <c r="G38" s="418"/>
+      <c r="H38" s="418"/>
       <c r="I38" s="38" t="s">
         <v>465</v>
       </c>
@@ -18447,14 +18465,14 @@
       <c r="C39" s="116">
         <v>43911</v>
       </c>
-      <c r="D39" s="413"/>
-      <c r="E39" s="414"/>
-      <c r="F39" s="414"/>
-      <c r="G39" s="414"/>
-      <c r="H39" s="415"/>
-      <c r="I39" s="420"/>
-      <c r="J39" s="413"/>
-      <c r="K39" s="415"/>
+      <c r="D39" s="420"/>
+      <c r="E39" s="421"/>
+      <c r="F39" s="421"/>
+      <c r="G39" s="421"/>
+      <c r="H39" s="422"/>
+      <c r="I39" s="427"/>
+      <c r="J39" s="420"/>
+      <c r="K39" s="422"/>
       <c r="L39" s="117" t="s">
         <v>462</v>
       </c>
@@ -18463,30 +18481,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
-      <c r="D40" s="416"/>
-      <c r="E40" s="411"/>
-      <c r="F40" s="411"/>
-      <c r="G40" s="411"/>
-      <c r="H40" s="417"/>
-      <c r="I40" s="421"/>
-      <c r="J40" s="416"/>
-      <c r="K40" s="417"/>
-      <c r="L40" s="412" t="s">
+      <c r="D40" s="423"/>
+      <c r="E40" s="413"/>
+      <c r="F40" s="413"/>
+      <c r="G40" s="413"/>
+      <c r="H40" s="424"/>
+      <c r="I40" s="428"/>
+      <c r="J40" s="423"/>
+      <c r="K40" s="424"/>
+      <c r="L40" s="418" t="s">
         <v>466</v>
       </c>
-      <c r="M40" s="412"/>
-      <c r="N40" s="412"/>
+      <c r="M40" s="418"/>
+      <c r="N40" s="418"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
-      <c r="D41" s="416"/>
-      <c r="E41" s="411"/>
-      <c r="F41" s="411"/>
-      <c r="G41" s="411"/>
-      <c r="H41" s="417"/>
-      <c r="I41" s="422"/>
-      <c r="J41" s="416"/>
-      <c r="K41" s="417"/>
+      <c r="D41" s="423"/>
+      <c r="E41" s="413"/>
+      <c r="F41" s="413"/>
+      <c r="G41" s="413"/>
+      <c r="H41" s="424"/>
+      <c r="I41" s="429"/>
+      <c r="J41" s="423"/>
+      <c r="K41" s="424"/>
       <c r="L41" s="118" t="s">
         <v>468</v>
       </c>
@@ -18495,16 +18513,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
-      <c r="D42" s="418"/>
-      <c r="E42" s="399"/>
-      <c r="F42" s="399"/>
-      <c r="G42" s="399"/>
-      <c r="H42" s="419"/>
+      <c r="D42" s="425"/>
+      <c r="E42" s="405"/>
+      <c r="F42" s="405"/>
+      <c r="G42" s="405"/>
+      <c r="H42" s="426"/>
       <c r="I42" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="J42" s="418"/>
-      <c r="K42" s="419"/>
+      <c r="J42" s="425"/>
+      <c r="K42" s="426"/>
       <c r="L42" s="119" t="s">
         <v>467</v>
       </c>
@@ -18816,12 +18834,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -18829,17 +18852,12 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18861,29 +18879,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="448" t="s">
+      <c r="B2" s="443" t="s">
         <v>1077</v>
       </c>
-      <c r="C2" s="448"/>
-      <c r="D2" s="448"/>
-      <c r="E2" s="448"/>
-      <c r="F2" s="448"/>
-      <c r="G2" s="448"/>
-      <c r="H2" s="448"/>
-      <c r="I2" s="448"/>
-      <c r="J2" s="448"/>
-      <c r="K2" s="448"/>
-      <c r="L2" s="448"/>
-      <c r="M2" s="448"/>
-      <c r="N2" s="448"/>
-      <c r="O2" s="448"/>
-      <c r="P2" s="448"/>
-      <c r="Q2" s="448"/>
-      <c r="R2" s="448"/>
-      <c r="S2" s="448"/>
-      <c r="T2" s="448"/>
-      <c r="U2" s="448"/>
-      <c r="V2" s="448"/>
+      <c r="C2" s="443"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="443"/>
+      <c r="F2" s="443"/>
+      <c r="G2" s="443"/>
+      <c r="H2" s="443"/>
+      <c r="I2" s="443"/>
+      <c r="J2" s="443"/>
+      <c r="K2" s="443"/>
+      <c r="L2" s="443"/>
+      <c r="M2" s="443"/>
+      <c r="N2" s="443"/>
+      <c r="O2" s="443"/>
+      <c r="P2" s="443"/>
+      <c r="Q2" s="443"/>
+      <c r="R2" s="443"/>
+      <c r="S2" s="443"/>
+      <c r="T2" s="443"/>
+      <c r="U2" s="443"/>
+      <c r="V2" s="443"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -18916,22 +18934,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="427" t="s">
+      <c r="G5" s="446" t="s">
         <v>519</v>
       </c>
-      <c r="H5" s="427"/>
-      <c r="I5" s="427" t="s">
+      <c r="H5" s="446"/>
+      <c r="I5" s="446" t="s">
         <v>520</v>
       </c>
-      <c r="J5" s="427"/>
-      <c r="K5" s="427"/>
-      <c r="L5" s="427"/>
-      <c r="M5" s="427"/>
-      <c r="N5" s="427"/>
-      <c r="O5" s="427" t="s">
+      <c r="J5" s="446"/>
+      <c r="K5" s="446"/>
+      <c r="L5" s="446"/>
+      <c r="M5" s="446"/>
+      <c r="N5" s="446"/>
+      <c r="O5" s="446" t="s">
         <v>521</v>
       </c>
-      <c r="P5" s="427"/>
+      <c r="P5" s="446"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -18943,7 +18961,7 @@
       <c r="D6" s="135"/>
       <c r="E6" s="136"/>
       <c r="F6" s="138"/>
-      <c r="G6" s="428" t="s">
+      <c r="G6" s="451" t="s">
         <v>522</v>
       </c>
       <c r="H6" s="111"/>
@@ -18972,26 +18990,26 @@
       </c>
       <c r="E7" s="138"/>
       <c r="F7" s="138"/>
-      <c r="G7" s="429"/>
-      <c r="H7" s="431" t="s">
+      <c r="G7" s="452"/>
+      <c r="H7" s="454" t="s">
         <v>524</v>
       </c>
-      <c r="I7" s="434" t="s">
+      <c r="I7" s="457" t="s">
         <v>525</v>
       </c>
-      <c r="J7" s="435"/>
-      <c r="K7" s="436" t="s">
+      <c r="J7" s="458"/>
+      <c r="K7" s="459" t="s">
         <v>526</v>
       </c>
-      <c r="L7" s="437"/>
-      <c r="M7" s="434" t="s">
+      <c r="L7" s="460"/>
+      <c r="M7" s="457" t="s">
         <v>527</v>
       </c>
-      <c r="N7" s="435"/>
-      <c r="O7" s="442" t="s">
+      <c r="N7" s="458"/>
+      <c r="O7" s="465" t="s">
         <v>528</v>
       </c>
-      <c r="P7" s="443"/>
+      <c r="P7" s="466"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -19003,16 +19021,16 @@
       <c r="D8" s="139"/>
       <c r="E8" s="140"/>
       <c r="F8" s="138"/>
-      <c r="G8" s="429"/>
-      <c r="H8" s="432"/>
-      <c r="I8" s="376"/>
-      <c r="J8" s="364"/>
-      <c r="K8" s="438"/>
-      <c r="L8" s="439"/>
-      <c r="M8" s="376"/>
-      <c r="N8" s="364"/>
-      <c r="O8" s="444"/>
-      <c r="P8" s="445"/>
+      <c r="G8" s="452"/>
+      <c r="H8" s="455"/>
+      <c r="I8" s="370"/>
+      <c r="J8" s="372"/>
+      <c r="K8" s="461"/>
+      <c r="L8" s="462"/>
+      <c r="M8" s="370"/>
+      <c r="N8" s="372"/>
+      <c r="O8" s="467"/>
+      <c r="P8" s="468"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="38" t="s">
         <v>182</v>
@@ -19030,16 +19048,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="429"/>
-      <c r="H9" s="432"/>
-      <c r="I9" s="376"/>
-      <c r="J9" s="364"/>
-      <c r="K9" s="438"/>
-      <c r="L9" s="439"/>
-      <c r="M9" s="376"/>
-      <c r="N9" s="364"/>
-      <c r="O9" s="444"/>
-      <c r="P9" s="445"/>
+      <c r="G9" s="452"/>
+      <c r="H9" s="455"/>
+      <c r="I9" s="370"/>
+      <c r="J9" s="372"/>
+      <c r="K9" s="461"/>
+      <c r="L9" s="462"/>
+      <c r="M9" s="370"/>
+      <c r="N9" s="372"/>
+      <c r="O9" s="467"/>
+      <c r="P9" s="468"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -19059,16 +19077,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="429"/>
-      <c r="H10" s="432"/>
-      <c r="I10" s="376"/>
-      <c r="J10" s="364"/>
-      <c r="K10" s="438"/>
-      <c r="L10" s="439"/>
-      <c r="M10" s="376"/>
-      <c r="N10" s="364"/>
-      <c r="O10" s="444"/>
-      <c r="P10" s="445"/>
+      <c r="G10" s="452"/>
+      <c r="H10" s="455"/>
+      <c r="I10" s="370"/>
+      <c r="J10" s="372"/>
+      <c r="K10" s="461"/>
+      <c r="L10" s="462"/>
+      <c r="M10" s="370"/>
+      <c r="N10" s="372"/>
+      <c r="O10" s="467"/>
+      <c r="P10" s="468"/>
       <c r="Q10" s="5" t="s">
         <v>187</v>
       </c>
@@ -19084,16 +19102,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="429"/>
-      <c r="H11" s="432"/>
-      <c r="I11" s="376"/>
-      <c r="J11" s="364"/>
-      <c r="K11" s="438"/>
-      <c r="L11" s="439"/>
-      <c r="M11" s="376"/>
-      <c r="N11" s="364"/>
-      <c r="O11" s="444"/>
-      <c r="P11" s="445"/>
+      <c r="G11" s="452"/>
+      <c r="H11" s="455"/>
+      <c r="I11" s="370"/>
+      <c r="J11" s="372"/>
+      <c r="K11" s="461"/>
+      <c r="L11" s="462"/>
+      <c r="M11" s="370"/>
+      <c r="N11" s="372"/>
+      <c r="O11" s="467"/>
+      <c r="P11" s="468"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -19111,16 +19129,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="429"/>
-      <c r="H12" s="432"/>
-      <c r="I12" s="376"/>
-      <c r="J12" s="364"/>
-      <c r="K12" s="438"/>
-      <c r="L12" s="439"/>
-      <c r="M12" s="376"/>
-      <c r="N12" s="364"/>
-      <c r="O12" s="444"/>
-      <c r="P12" s="445"/>
+      <c r="G12" s="452"/>
+      <c r="H12" s="455"/>
+      <c r="I12" s="370"/>
+      <c r="J12" s="372"/>
+      <c r="K12" s="461"/>
+      <c r="L12" s="462"/>
+      <c r="M12" s="370"/>
+      <c r="N12" s="372"/>
+      <c r="O12" s="467"/>
+      <c r="P12" s="468"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -19134,16 +19152,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="429"/>
-      <c r="H13" s="432"/>
-      <c r="I13" s="376"/>
-      <c r="J13" s="364"/>
-      <c r="K13" s="438"/>
-      <c r="L13" s="439"/>
-      <c r="M13" s="376"/>
-      <c r="N13" s="364"/>
-      <c r="O13" s="444"/>
-      <c r="P13" s="445"/>
+      <c r="G13" s="452"/>
+      <c r="H13" s="455"/>
+      <c r="I13" s="370"/>
+      <c r="J13" s="372"/>
+      <c r="K13" s="461"/>
+      <c r="L13" s="462"/>
+      <c r="M13" s="370"/>
+      <c r="N13" s="372"/>
+      <c r="O13" s="467"/>
+      <c r="P13" s="468"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -19155,16 +19173,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="429"/>
-      <c r="H14" s="432"/>
-      <c r="I14" s="376"/>
-      <c r="J14" s="364"/>
-      <c r="K14" s="438"/>
-      <c r="L14" s="439"/>
-      <c r="M14" s="376"/>
-      <c r="N14" s="364"/>
-      <c r="O14" s="444"/>
-      <c r="P14" s="445"/>
+      <c r="G14" s="452"/>
+      <c r="H14" s="455"/>
+      <c r="I14" s="370"/>
+      <c r="J14" s="372"/>
+      <c r="K14" s="461"/>
+      <c r="L14" s="462"/>
+      <c r="M14" s="370"/>
+      <c r="N14" s="372"/>
+      <c r="O14" s="467"/>
+      <c r="P14" s="468"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -19178,16 +19196,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="429"/>
-      <c r="H15" s="432"/>
-      <c r="I15" s="376"/>
-      <c r="J15" s="364"/>
-      <c r="K15" s="438"/>
-      <c r="L15" s="439"/>
-      <c r="M15" s="376"/>
-      <c r="N15" s="364"/>
-      <c r="O15" s="444"/>
-      <c r="P15" s="445"/>
+      <c r="G15" s="452"/>
+      <c r="H15" s="455"/>
+      <c r="I15" s="370"/>
+      <c r="J15" s="372"/>
+      <c r="K15" s="461"/>
+      <c r="L15" s="462"/>
+      <c r="M15" s="370"/>
+      <c r="N15" s="372"/>
+      <c r="O15" s="467"/>
+      <c r="P15" s="468"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -19199,16 +19217,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="429"/>
-      <c r="H16" s="432"/>
-      <c r="I16" s="376"/>
-      <c r="J16" s="364"/>
-      <c r="K16" s="438"/>
-      <c r="L16" s="439"/>
-      <c r="M16" s="376"/>
-      <c r="N16" s="364"/>
-      <c r="O16" s="444"/>
-      <c r="P16" s="445"/>
+      <c r="G16" s="452"/>
+      <c r="H16" s="455"/>
+      <c r="I16" s="370"/>
+      <c r="J16" s="372"/>
+      <c r="K16" s="461"/>
+      <c r="L16" s="462"/>
+      <c r="M16" s="370"/>
+      <c r="N16" s="372"/>
+      <c r="O16" s="467"/>
+      <c r="P16" s="468"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -19220,16 +19238,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="429"/>
-      <c r="H17" s="432"/>
-      <c r="I17" s="376"/>
-      <c r="J17" s="364"/>
-      <c r="K17" s="438"/>
-      <c r="L17" s="439"/>
-      <c r="M17" s="376"/>
-      <c r="N17" s="364"/>
-      <c r="O17" s="444"/>
-      <c r="P17" s="445"/>
+      <c r="G17" s="452"/>
+      <c r="H17" s="455"/>
+      <c r="I17" s="370"/>
+      <c r="J17" s="372"/>
+      <c r="K17" s="461"/>
+      <c r="L17" s="462"/>
+      <c r="M17" s="370"/>
+      <c r="N17" s="372"/>
+      <c r="O17" s="467"/>
+      <c r="P17" s="468"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -19241,16 +19259,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="429"/>
-      <c r="H18" s="432"/>
-      <c r="I18" s="376"/>
-      <c r="J18" s="364"/>
-      <c r="K18" s="438"/>
-      <c r="L18" s="439"/>
-      <c r="M18" s="376"/>
-      <c r="N18" s="364"/>
-      <c r="O18" s="444"/>
-      <c r="P18" s="445"/>
+      <c r="G18" s="452"/>
+      <c r="H18" s="455"/>
+      <c r="I18" s="370"/>
+      <c r="J18" s="372"/>
+      <c r="K18" s="461"/>
+      <c r="L18" s="462"/>
+      <c r="M18" s="370"/>
+      <c r="N18" s="372"/>
+      <c r="O18" s="467"/>
+      <c r="P18" s="468"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -19264,16 +19282,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="429"/>
-      <c r="H19" s="432"/>
-      <c r="I19" s="376"/>
-      <c r="J19" s="364"/>
-      <c r="K19" s="438"/>
-      <c r="L19" s="439"/>
-      <c r="M19" s="376"/>
-      <c r="N19" s="364"/>
-      <c r="O19" s="444"/>
-      <c r="P19" s="445"/>
+      <c r="G19" s="452"/>
+      <c r="H19" s="455"/>
+      <c r="I19" s="370"/>
+      <c r="J19" s="372"/>
+      <c r="K19" s="461"/>
+      <c r="L19" s="462"/>
+      <c r="M19" s="370"/>
+      <c r="N19" s="372"/>
+      <c r="O19" s="467"/>
+      <c r="P19" s="468"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -19285,16 +19303,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="430"/>
-      <c r="H20" s="433"/>
-      <c r="I20" s="378"/>
-      <c r="J20" s="380"/>
-      <c r="K20" s="440"/>
-      <c r="L20" s="441"/>
-      <c r="M20" s="378"/>
-      <c r="N20" s="380"/>
-      <c r="O20" s="446"/>
-      <c r="P20" s="447"/>
+      <c r="G20" s="453"/>
+      <c r="H20" s="456"/>
+      <c r="I20" s="384"/>
+      <c r="J20" s="386"/>
+      <c r="K20" s="463"/>
+      <c r="L20" s="464"/>
+      <c r="M20" s="384"/>
+      <c r="N20" s="386"/>
+      <c r="O20" s="469"/>
+      <c r="P20" s="470"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -19324,27 +19342,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="381" t="s">
+      <c r="D22" s="387" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="382"/>
+      <c r="E22" s="388"/>
       <c r="F22" s="265"/>
       <c r="G22" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="381" t="s">
+      <c r="H22" s="387" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="383"/>
-      <c r="J22" s="383"/>
-      <c r="K22" s="383"/>
-      <c r="L22" s="383"/>
-      <c r="M22" s="383"/>
-      <c r="N22" s="382"/>
-      <c r="O22" s="381" t="s">
+      <c r="I22" s="389"/>
+      <c r="J22" s="389"/>
+      <c r="K22" s="389"/>
+      <c r="L22" s="389"/>
+      <c r="M22" s="389"/>
+      <c r="N22" s="388"/>
+      <c r="O22" s="387" t="s">
         <v>529</v>
       </c>
-      <c r="P22" s="382"/>
+      <c r="P22" s="388"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -19375,59 +19393,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="448" t="s">
+      <c r="B25" s="443" t="s">
         <v>1076</v>
       </c>
-      <c r="C25" s="448"/>
-      <c r="D25" s="448"/>
-      <c r="E25" s="448"/>
-      <c r="F25" s="448"/>
-      <c r="G25" s="448"/>
-      <c r="H25" s="448"/>
-      <c r="I25" s="448"/>
-      <c r="J25" s="448"/>
-      <c r="K25" s="448"/>
-      <c r="L25" s="448"/>
-      <c r="M25" s="448"/>
-      <c r="N25" s="448"/>
-      <c r="O25" s="448"/>
-      <c r="P25" s="448"/>
-      <c r="Q25" s="448"/>
-      <c r="R25" s="448"/>
-      <c r="S25" s="448"/>
-      <c r="T25" s="448"/>
-      <c r="U25" s="448"/>
-      <c r="V25" s="448"/>
+      <c r="C25" s="443"/>
+      <c r="D25" s="443"/>
+      <c r="E25" s="443"/>
+      <c r="F25" s="443"/>
+      <c r="G25" s="443"/>
+      <c r="H25" s="443"/>
+      <c r="I25" s="443"/>
+      <c r="J25" s="443"/>
+      <c r="K25" s="443"/>
+      <c r="L25" s="443"/>
+      <c r="M25" s="443"/>
+      <c r="N25" s="443"/>
+      <c r="O25" s="443"/>
+      <c r="P25" s="443"/>
+      <c r="Q25" s="443"/>
+      <c r="R25" s="443"/>
+      <c r="S25" s="443"/>
+      <c r="T25" s="443"/>
+      <c r="U25" s="443"/>
+      <c r="V25" s="443"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="449" t="s">
+      <c r="C26" s="444" t="s">
         <v>571</v>
       </c>
-      <c r="D26" s="449"/>
-      <c r="E26" s="449"/>
-      <c r="F26" s="449"/>
-      <c r="G26" s="449"/>
-      <c r="H26" s="449"/>
-      <c r="I26" s="449"/>
-      <c r="J26" s="449"/>
-      <c r="K26" s="449"/>
-      <c r="L26" s="449"/>
-      <c r="M26" s="449"/>
+      <c r="D26" s="444"/>
+      <c r="E26" s="444"/>
+      <c r="F26" s="444"/>
+      <c r="G26" s="444"/>
+      <c r="H26" s="444"/>
+      <c r="I26" s="444"/>
+      <c r="J26" s="444"/>
+      <c r="K26" s="444"/>
+      <c r="L26" s="444"/>
+      <c r="M26" s="444"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="401" t="s">
+      <c r="E27" s="414" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="361"/>
-      <c r="G27" s="361"/>
-      <c r="H27" s="370"/>
-      <c r="I27" s="370"/>
-      <c r="J27" s="370"/>
-      <c r="K27" s="370"/>
-      <c r="L27" s="370"/>
-      <c r="M27" s="371"/>
+      <c r="F27" s="368"/>
+      <c r="G27" s="368"/>
+      <c r="H27" s="377"/>
+      <c r="I27" s="377"/>
+      <c r="J27" s="377"/>
+      <c r="K27" s="377"/>
+      <c r="L27" s="377"/>
+      <c r="M27" s="378"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -19460,11 +19478,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="450" t="s">
+      <c r="O29" s="445" t="s">
         <v>179</v>
       </c>
-      <c r="P29" s="450"/>
-      <c r="Q29" s="450"/>
+      <c r="P29" s="445"/>
+      <c r="Q29" s="445"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -19509,21 +19527,21 @@
         <v>190</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="454" t="s">
+      <c r="E32" s="440" t="s">
         <v>1080</v>
       </c>
-      <c r="F32" s="455"/>
-      <c r="G32" s="456"/>
-      <c r="H32" s="454" t="s">
+      <c r="F32" s="441"/>
+      <c r="G32" s="442"/>
+      <c r="H32" s="440" t="s">
         <v>1081</v>
       </c>
-      <c r="I32" s="455"/>
-      <c r="J32" s="456"/>
-      <c r="K32" s="454" t="s">
+      <c r="I32" s="441"/>
+      <c r="J32" s="442"/>
+      <c r="K32" s="440" t="s">
         <v>1082</v>
       </c>
-      <c r="L32" s="455"/>
-      <c r="M32" s="456"/>
+      <c r="L32" s="441"/>
+      <c r="M32" s="442"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -19540,15 +19558,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="454"/>
-      <c r="F33" s="455"/>
-      <c r="G33" s="456"/>
-      <c r="H33" s="454"/>
-      <c r="I33" s="455"/>
-      <c r="J33" s="456"/>
-      <c r="K33" s="454"/>
-      <c r="L33" s="455"/>
-      <c r="M33" s="456"/>
+      <c r="E33" s="440"/>
+      <c r="F33" s="441"/>
+      <c r="G33" s="442"/>
+      <c r="H33" s="440"/>
+      <c r="I33" s="441"/>
+      <c r="J33" s="442"/>
+      <c r="K33" s="440"/>
+      <c r="L33" s="441"/>
+      <c r="M33" s="442"/>
       <c r="N33" s="5" t="s">
         <v>187</v>
       </c>
@@ -19565,15 +19583,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="454"/>
-      <c r="F34" s="455"/>
-      <c r="G34" s="456"/>
-      <c r="H34" s="454"/>
-      <c r="I34" s="455"/>
-      <c r="J34" s="456"/>
-      <c r="K34" s="454"/>
-      <c r="L34" s="455"/>
-      <c r="M34" s="456"/>
+      <c r="E34" s="440"/>
+      <c r="F34" s="441"/>
+      <c r="G34" s="442"/>
+      <c r="H34" s="440"/>
+      <c r="I34" s="441"/>
+      <c r="J34" s="442"/>
+      <c r="K34" s="440"/>
+      <c r="L34" s="441"/>
+      <c r="M34" s="442"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -19584,15 +19602,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="454"/>
-      <c r="F35" s="455"/>
-      <c r="G35" s="456"/>
-      <c r="H35" s="454"/>
-      <c r="I35" s="455"/>
-      <c r="J35" s="456"/>
-      <c r="K35" s="454"/>
-      <c r="L35" s="455"/>
-      <c r="M35" s="456"/>
+      <c r="E35" s="440"/>
+      <c r="F35" s="441"/>
+      <c r="G35" s="442"/>
+      <c r="H35" s="440"/>
+      <c r="I35" s="441"/>
+      <c r="J35" s="442"/>
+      <c r="K35" s="440"/>
+      <c r="L35" s="441"/>
+      <c r="M35" s="442"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -19723,15 +19741,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="458"/>
-      <c r="F42" s="459"/>
-      <c r="G42" s="459"/>
-      <c r="H42" s="459"/>
-      <c r="I42" s="459"/>
-      <c r="J42" s="459"/>
-      <c r="K42" s="459"/>
-      <c r="L42" s="459"/>
-      <c r="M42" s="460"/>
+      <c r="E42" s="433"/>
+      <c r="F42" s="434"/>
+      <c r="G42" s="434"/>
+      <c r="H42" s="434"/>
+      <c r="I42" s="434"/>
+      <c r="J42" s="434"/>
+      <c r="K42" s="434"/>
+      <c r="L42" s="434"/>
+      <c r="M42" s="435"/>
       <c r="N42" s="40" t="s">
         <v>576</v>
       </c>
@@ -19750,83 +19768,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="381" t="s">
+      <c r="C44" s="387" t="s">
         <v>194</v>
       </c>
-      <c r="D44" s="382"/>
-      <c r="E44" s="381" t="s">
+      <c r="D44" s="388"/>
+      <c r="E44" s="387" t="s">
         <v>195</v>
       </c>
-      <c r="F44" s="383"/>
-      <c r="G44" s="382"/>
-      <c r="H44" s="381" t="s">
+      <c r="F44" s="389"/>
+      <c r="G44" s="388"/>
+      <c r="H44" s="387" t="s">
         <v>196</v>
       </c>
-      <c r="I44" s="383"/>
-      <c r="J44" s="383"/>
-      <c r="K44" s="383"/>
-      <c r="L44" s="383"/>
-      <c r="M44" s="382"/>
+      <c r="I44" s="389"/>
+      <c r="J44" s="389"/>
+      <c r="K44" s="389"/>
+      <c r="L44" s="389"/>
+      <c r="M44" s="388"/>
       <c r="Q44" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="448" t="s">
+      <c r="B47" s="443" t="s">
         <v>1078</v>
       </c>
-      <c r="C47" s="448"/>
-      <c r="D47" s="448"/>
-      <c r="E47" s="448"/>
-      <c r="F47" s="448"/>
-      <c r="G47" s="448"/>
-      <c r="H47" s="448"/>
-      <c r="I47" s="448"/>
-      <c r="J47" s="448"/>
-      <c r="K47" s="448"/>
-      <c r="L47" s="448"/>
-      <c r="M47" s="448"/>
-      <c r="N47" s="448"/>
-      <c r="O47" s="448"/>
-      <c r="P47" s="448"/>
-      <c r="Q47" s="448"/>
-      <c r="R47" s="448"/>
-      <c r="S47" s="448"/>
-      <c r="T47" s="448"/>
-      <c r="U47" s="448"/>
-      <c r="V47" s="448"/>
+      <c r="C47" s="443"/>
+      <c r="D47" s="443"/>
+      <c r="E47" s="443"/>
+      <c r="F47" s="443"/>
+      <c r="G47" s="443"/>
+      <c r="H47" s="443"/>
+      <c r="I47" s="443"/>
+      <c r="J47" s="443"/>
+      <c r="K47" s="443"/>
+      <c r="L47" s="443"/>
+      <c r="M47" s="443"/>
+      <c r="N47" s="443"/>
+      <c r="O47" s="443"/>
+      <c r="P47" s="443"/>
+      <c r="Q47" s="443"/>
+      <c r="R47" s="443"/>
+      <c r="S47" s="443"/>
+      <c r="T47" s="443"/>
+      <c r="U47" s="443"/>
+      <c r="V47" s="443"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="449" t="s">
+      <c r="C48" s="444" t="s">
         <v>571</v>
       </c>
-      <c r="D48" s="449"/>
-      <c r="E48" s="449"/>
-      <c r="F48" s="449"/>
-      <c r="G48" s="449"/>
-      <c r="H48" s="449"/>
-      <c r="I48" s="449"/>
-      <c r="J48" s="449"/>
-      <c r="K48" s="449"/>
-      <c r="L48" s="449"/>
-      <c r="M48" s="449"/>
+      <c r="D48" s="444"/>
+      <c r="E48" s="444"/>
+      <c r="F48" s="444"/>
+      <c r="G48" s="444"/>
+      <c r="H48" s="444"/>
+      <c r="I48" s="444"/>
+      <c r="J48" s="444"/>
+      <c r="K48" s="444"/>
+      <c r="L48" s="444"/>
+      <c r="M48" s="444"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="401" t="s">
+      <c r="E49" s="414" t="s">
         <v>178</v>
       </c>
-      <c r="F49" s="361"/>
-      <c r="G49" s="361"/>
-      <c r="H49" s="370"/>
-      <c r="I49" s="370"/>
-      <c r="J49" s="370"/>
-      <c r="K49" s="370"/>
-      <c r="L49" s="370"/>
-      <c r="M49" s="371"/>
+      <c r="F49" s="368"/>
+      <c r="G49" s="368"/>
+      <c r="H49" s="377"/>
+      <c r="I49" s="377"/>
+      <c r="J49" s="377"/>
+      <c r="K49" s="377"/>
+      <c r="L49" s="377"/>
+      <c r="M49" s="378"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -19844,16 +19862,16 @@
       </c>
       <c r="F50" s="122"/>
       <c r="G50" s="245"/>
-      <c r="H50" s="451" t="s">
+      <c r="H50" s="447" t="s">
         <v>1081</v>
       </c>
-      <c r="I50" s="452"/>
-      <c r="J50" s="453"/>
-      <c r="K50" s="451" t="s">
+      <c r="I50" s="448"/>
+      <c r="J50" s="449"/>
+      <c r="K50" s="447" t="s">
         <v>1082</v>
       </c>
-      <c r="L50" s="452"/>
-      <c r="M50" s="453"/>
+      <c r="L50" s="448"/>
+      <c r="M50" s="449"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -19867,20 +19885,20 @@
         <v>1096</v>
       </c>
       <c r="F51" s="286"/>
-      <c r="G51" s="457" t="s">
+      <c r="G51" s="450" t="s">
         <v>1104</v>
       </c>
-      <c r="H51" s="454"/>
-      <c r="I51" s="455"/>
-      <c r="J51" s="456"/>
-      <c r="K51" s="454"/>
-      <c r="L51" s="455"/>
-      <c r="M51" s="456"/>
-      <c r="O51" s="450" t="s">
+      <c r="H51" s="440"/>
+      <c r="I51" s="441"/>
+      <c r="J51" s="442"/>
+      <c r="K51" s="440"/>
+      <c r="L51" s="441"/>
+      <c r="M51" s="442"/>
+      <c r="O51" s="445" t="s">
         <v>179</v>
       </c>
-      <c r="P51" s="450"/>
-      <c r="Q51" s="450"/>
+      <c r="P51" s="445"/>
+      <c r="Q51" s="445"/>
       <c r="S51" s="273"/>
       <c r="T51" s="273"/>
       <c r="W51" s="40" t="s">
@@ -19894,13 +19912,13 @@
         <v>1097</v>
       </c>
       <c r="F52" s="287"/>
-      <c r="G52" s="457"/>
-      <c r="H52" s="454"/>
-      <c r="I52" s="455"/>
-      <c r="J52" s="456"/>
-      <c r="K52" s="454"/>
-      <c r="L52" s="455"/>
-      <c r="M52" s="456"/>
+      <c r="G52" s="450"/>
+      <c r="H52" s="440"/>
+      <c r="I52" s="441"/>
+      <c r="J52" s="442"/>
+      <c r="K52" s="440"/>
+      <c r="L52" s="441"/>
+      <c r="M52" s="442"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -19911,13 +19929,13 @@
         <v>1098</v>
       </c>
       <c r="F53" s="288"/>
-      <c r="G53" s="457"/>
-      <c r="H53" s="454"/>
-      <c r="I53" s="455"/>
-      <c r="J53" s="456"/>
-      <c r="K53" s="454"/>
-      <c r="L53" s="455"/>
-      <c r="M53" s="456"/>
+      <c r="G53" s="450"/>
+      <c r="H53" s="440"/>
+      <c r="I53" s="441"/>
+      <c r="J53" s="442"/>
+      <c r="K53" s="440"/>
+      <c r="L53" s="441"/>
+      <c r="M53" s="442"/>
       <c r="N53" s="5"/>
       <c r="O53" s="38" t="s">
         <v>182</v>
@@ -19956,7 +19974,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="274"/>
       <c r="F54" s="289"/>
-      <c r="G54" s="463" t="s">
+      <c r="G54" s="438" t="s">
         <v>1108</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -20003,11 +20021,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="461" t="s">
+      <c r="E55" s="436" t="s">
         <v>1109</v>
       </c>
-      <c r="F55" s="462"/>
-      <c r="G55" s="464"/>
+      <c r="F55" s="437"/>
+      <c r="G55" s="439"/>
       <c r="H55" s="141" t="s">
         <v>1100</v>
       </c>
@@ -20051,9 +20069,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="461"/>
-      <c r="F56" s="462"/>
-      <c r="G56" s="464"/>
+      <c r="E56" s="436"/>
+      <c r="F56" s="437"/>
+      <c r="G56" s="439"/>
       <c r="H56" s="141" t="s">
         <v>1101</v>
       </c>
@@ -20083,9 +20101,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="461"/>
-      <c r="F57" s="462"/>
-      <c r="G57" s="464"/>
+      <c r="E57" s="436"/>
+      <c r="F57" s="437"/>
+      <c r="G57" s="439"/>
       <c r="H57" s="4" t="s">
         <v>1113</v>
       </c>
@@ -20115,9 +20133,9 @@
         <v>192</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="461"/>
-      <c r="F58" s="462"/>
-      <c r="G58" s="464"/>
+      <c r="E58" s="436"/>
+      <c r="F58" s="437"/>
+      <c r="G58" s="439"/>
       <c r="H58" s="278" t="s">
         <v>1099</v>
       </c>
@@ -20142,9 +20160,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="461"/>
-      <c r="F59" s="462"/>
-      <c r="G59" s="464"/>
+      <c r="E59" s="436"/>
+      <c r="F59" s="437"/>
+      <c r="G59" s="439"/>
       <c r="H59" s="278" t="s">
         <v>550</v>
       </c>
@@ -20169,9 +20187,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="461"/>
-      <c r="F60" s="462"/>
-      <c r="G60" s="464"/>
+      <c r="E60" s="436"/>
+      <c r="F60" s="437"/>
+      <c r="G60" s="439"/>
       <c r="H60" s="280"/>
       <c r="I60" s="281" t="s">
         <v>1115</v>
@@ -20191,9 +20209,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="461"/>
-      <c r="F61" s="462"/>
-      <c r="G61" s="464"/>
+      <c r="E61" s="436"/>
+      <c r="F61" s="437"/>
+      <c r="G61" s="439"/>
       <c r="H61" s="280"/>
       <c r="I61" s="281" t="s">
         <v>1116</v>
@@ -20213,7 +20231,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="269"/>
       <c r="F62" s="285"/>
-      <c r="G62" s="464"/>
+      <c r="G62" s="439"/>
       <c r="H62" s="282"/>
       <c r="I62" s="284" t="s">
         <v>1117</v>
@@ -20255,15 +20273,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="458"/>
-      <c r="F64" s="459"/>
-      <c r="G64" s="459"/>
-      <c r="H64" s="459"/>
-      <c r="I64" s="459"/>
-      <c r="J64" s="459"/>
-      <c r="K64" s="459"/>
-      <c r="L64" s="459"/>
-      <c r="M64" s="460"/>
+      <c r="E64" s="433"/>
+      <c r="F64" s="434"/>
+      <c r="G64" s="434"/>
+      <c r="H64" s="434"/>
+      <c r="I64" s="434"/>
+      <c r="J64" s="434"/>
+      <c r="K64" s="434"/>
+      <c r="L64" s="434"/>
+      <c r="M64" s="435"/>
       <c r="N64" s="40" t="s">
         <v>576</v>
       </c>
@@ -20292,23 +20310,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="381" t="s">
+      <c r="C66" s="387" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="382"/>
-      <c r="E66" s="381" t="s">
+      <c r="D66" s="388"/>
+      <c r="E66" s="387" t="s">
         <v>195</v>
       </c>
-      <c r="F66" s="383"/>
-      <c r="G66" s="382"/>
-      <c r="H66" s="381" t="s">
+      <c r="F66" s="389"/>
+      <c r="G66" s="388"/>
+      <c r="H66" s="387" t="s">
         <v>196</v>
       </c>
-      <c r="I66" s="383"/>
-      <c r="J66" s="383"/>
-      <c r="K66" s="383"/>
-      <c r="L66" s="383"/>
-      <c r="M66" s="382"/>
+      <c r="I66" s="389"/>
+      <c r="J66" s="389"/>
+      <c r="K66" s="389"/>
+      <c r="L66" s="389"/>
+      <c r="M66" s="388"/>
       <c r="Q66" t="s">
         <v>1079</v>
       </c>
@@ -20329,23 +20347,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="412" t="s">
+      <c r="C68" s="418" t="s">
         <v>181</v>
       </c>
-      <c r="D68" s="412"/>
-      <c r="E68" s="412" t="s">
+      <c r="D68" s="418"/>
+      <c r="E68" s="418" t="s">
         <v>1365</v>
       </c>
-      <c r="F68" s="412"/>
-      <c r="G68" s="412"/>
-      <c r="H68" s="412" t="s">
+      <c r="F68" s="418"/>
+      <c r="G68" s="418"/>
+      <c r="H68" s="418" t="s">
         <v>1381</v>
       </c>
-      <c r="I68" s="412"/>
-      <c r="J68" s="412"/>
-      <c r="K68" s="412"/>
-      <c r="L68" s="412"/>
-      <c r="M68" s="412"/>
+      <c r="I68" s="418"/>
+      <c r="J68" s="418"/>
+      <c r="K68" s="418"/>
+      <c r="L68" s="418"/>
+      <c r="M68" s="418"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -21142,30 +21160,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -21182,6 +21176,30 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -21215,12 +21233,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="465" t="s">
+      <c r="B1" s="471" t="s">
         <v>539</v>
       </c>
-      <c r="C1" s="465"/>
-      <c r="D1" s="465"/>
-      <c r="E1" s="465"/>
+      <c r="C1" s="471"/>
+      <c r="D1" s="471"/>
+      <c r="E1" s="471"/>
       <c r="I1" s="40" t="s">
         <v>552</v>
       </c>
@@ -21337,12 +21355,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="411" t="s">
+      <c r="B8" s="413" t="s">
         <v>1403</v>
       </c>
-      <c r="C8" s="411"/>
-      <c r="D8" s="411"/>
-      <c r="E8" s="411"/>
+      <c r="C8" s="413"/>
+      <c r="D8" s="413"/>
+      <c r="E8" s="413"/>
       <c r="J8" s="32" t="s">
         <v>555</v>
       </c>
@@ -21515,32 +21533,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="449" t="s">
+      <c r="C2" s="444" t="s">
         <v>571</v>
       </c>
-      <c r="D2" s="449"/>
-      <c r="E2" s="449"/>
-      <c r="F2" s="449"/>
-      <c r="G2" s="449"/>
-      <c r="H2" s="449"/>
-      <c r="I2" s="449"/>
-      <c r="J2" s="449"/>
-      <c r="K2" s="449"/>
-      <c r="L2" s="449"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="444"/>
+      <c r="F2" s="444"/>
+      <c r="G2" s="444"/>
+      <c r="H2" s="444"/>
+      <c r="I2" s="444"/>
+      <c r="J2" s="444"/>
+      <c r="K2" s="444"/>
+      <c r="L2" s="444"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="401" t="s">
+      <c r="E3" s="414" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="361"/>
-      <c r="G3" s="370"/>
-      <c r="H3" s="370"/>
-      <c r="I3" s="370"/>
-      <c r="J3" s="370"/>
-      <c r="K3" s="370"/>
-      <c r="L3" s="371"/>
+      <c r="F3" s="368"/>
+      <c r="G3" s="377"/>
+      <c r="H3" s="377"/>
+      <c r="I3" s="377"/>
+      <c r="J3" s="377"/>
+      <c r="K3" s="377"/>
+      <c r="L3" s="378"/>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
@@ -21571,11 +21589,11 @@
         <v>590</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="450" t="s">
+      <c r="N5" s="445" t="s">
         <v>179</v>
       </c>
-      <c r="O5" s="450"/>
-      <c r="P5" s="450"/>
+      <c r="O5" s="445"/>
+      <c r="P5" s="445"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -21626,20 +21644,20 @@
         <v>190</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="454" t="s">
+      <c r="E8" s="440" t="s">
         <v>572</v>
       </c>
-      <c r="F8" s="456"/>
-      <c r="G8" s="454" t="s">
+      <c r="F8" s="442"/>
+      <c r="G8" s="440" t="s">
         <v>573</v>
       </c>
-      <c r="H8" s="455"/>
-      <c r="I8" s="456"/>
-      <c r="J8" s="454" t="s">
+      <c r="H8" s="441"/>
+      <c r="I8" s="442"/>
+      <c r="J8" s="440" t="s">
         <v>574</v>
       </c>
-      <c r="K8" s="455"/>
-      <c r="L8" s="456"/>
+      <c r="K8" s="441"/>
+      <c r="L8" s="442"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -21662,14 +21680,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="454"/>
-      <c r="F9" s="456"/>
-      <c r="G9" s="454"/>
-      <c r="H9" s="455"/>
-      <c r="I9" s="456"/>
-      <c r="J9" s="454"/>
-      <c r="K9" s="455"/>
-      <c r="L9" s="456"/>
+      <c r="E9" s="440"/>
+      <c r="F9" s="442"/>
+      <c r="G9" s="440"/>
+      <c r="H9" s="441"/>
+      <c r="I9" s="442"/>
+      <c r="J9" s="440"/>
+      <c r="K9" s="441"/>
+      <c r="L9" s="442"/>
       <c r="M9" s="5" t="s">
         <v>187</v>
       </c>
@@ -21689,14 +21707,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="454"/>
-      <c r="F10" s="456"/>
-      <c r="G10" s="454"/>
-      <c r="H10" s="455"/>
-      <c r="I10" s="456"/>
-      <c r="J10" s="454"/>
-      <c r="K10" s="455"/>
-      <c r="L10" s="456"/>
+      <c r="E10" s="440"/>
+      <c r="F10" s="442"/>
+      <c r="G10" s="440"/>
+      <c r="H10" s="441"/>
+      <c r="I10" s="442"/>
+      <c r="J10" s="440"/>
+      <c r="K10" s="441"/>
+      <c r="L10" s="442"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -21710,14 +21728,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="454"/>
-      <c r="F11" s="456"/>
-      <c r="G11" s="454"/>
-      <c r="H11" s="455"/>
-      <c r="I11" s="456"/>
-      <c r="J11" s="454"/>
-      <c r="K11" s="455"/>
-      <c r="L11" s="456"/>
+      <c r="E11" s="440"/>
+      <c r="F11" s="442"/>
+      <c r="G11" s="440"/>
+      <c r="H11" s="441"/>
+      <c r="I11" s="442"/>
+      <c r="J11" s="440"/>
+      <c r="K11" s="441"/>
+      <c r="L11" s="442"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -21820,16 +21838,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="458" t="s">
+      <c r="E17" s="433" t="s">
         <v>575</v>
       </c>
-      <c r="F17" s="459"/>
-      <c r="G17" s="459"/>
-      <c r="H17" s="459"/>
-      <c r="I17" s="459"/>
-      <c r="J17" s="459"/>
-      <c r="K17" s="459"/>
-      <c r="L17" s="460"/>
+      <c r="F17" s="434"/>
+      <c r="G17" s="434"/>
+      <c r="H17" s="434"/>
+      <c r="I17" s="434"/>
+      <c r="J17" s="434"/>
+      <c r="K17" s="434"/>
+      <c r="L17" s="435"/>
       <c r="M17" s="40" t="s">
         <v>576</v>
       </c>
@@ -21847,40 +21865,40 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="381" t="s">
+      <c r="C19" s="387" t="s">
         <v>194</v>
       </c>
-      <c r="D19" s="382"/>
-      <c r="E19" s="381" t="s">
+      <c r="D19" s="388"/>
+      <c r="E19" s="387" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="382"/>
-      <c r="G19" s="381" t="s">
+      <c r="F19" s="388"/>
+      <c r="G19" s="387" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="383"/>
-      <c r="I19" s="383"/>
-      <c r="J19" s="383"/>
-      <c r="K19" s="383"/>
-      <c r="L19" s="382"/>
+      <c r="H19" s="389"/>
+      <c r="I19" s="389"/>
+      <c r="J19" s="389"/>
+      <c r="K19" s="389"/>
+      <c r="L19" s="388"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="466" t="s">
+      <c r="E21" s="472" t="s">
         <v>1394</v>
       </c>
-      <c r="F21" s="467"/>
+      <c r="F21" s="473"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="E22" s="468"/>
-      <c r="F22" s="469"/>
+      <c r="E22" s="474"/>
+      <c r="F22" s="475"/>
       <c r="J22" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="E23" s="468"/>
-      <c r="F23" s="469"/>
+      <c r="E23" s="474"/>
+      <c r="F23" s="475"/>
       <c r="H23" t="s">
         <v>1415</v>
       </c>
@@ -21892,8 +21910,8 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="470"/>
-      <c r="F24" s="471"/>
+      <c r="E24" s="476"/>
+      <c r="F24" s="477"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -22348,22 +22366,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="427" t="s">
+      <c r="E3" s="446" t="s">
         <v>519</v>
       </c>
-      <c r="F3" s="427"/>
-      <c r="G3" s="427" t="s">
+      <c r="F3" s="446"/>
+      <c r="G3" s="446" t="s">
         <v>520</v>
       </c>
-      <c r="H3" s="427"/>
-      <c r="I3" s="427"/>
-      <c r="J3" s="427"/>
-      <c r="K3" s="427"/>
-      <c r="L3" s="427"/>
-      <c r="M3" s="427" t="s">
+      <c r="H3" s="446"/>
+      <c r="I3" s="446"/>
+      <c r="J3" s="446"/>
+      <c r="K3" s="446"/>
+      <c r="L3" s="446"/>
+      <c r="M3" s="446" t="s">
         <v>521</v>
       </c>
-      <c r="N3" s="427"/>
+      <c r="N3" s="446"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -22374,7 +22392,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="135"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="428" t="s">
+      <c r="E4" s="451" t="s">
         <v>522</v>
       </c>
       <c r="F4" s="131"/>
@@ -22402,22 +22420,22 @@
         <v>181</v>
       </c>
       <c r="D5" s="138"/>
-      <c r="E5" s="429"/>
-      <c r="F5" s="386" t="s">
+      <c r="E5" s="452"/>
+      <c r="F5" s="392" t="s">
         <v>618</v>
       </c>
-      <c r="G5" s="387"/>
-      <c r="H5" s="388"/>
-      <c r="I5" s="501" t="s">
+      <c r="G5" s="393"/>
+      <c r="H5" s="394"/>
+      <c r="I5" s="478" t="s">
         <v>619</v>
       </c>
-      <c r="J5" s="502"/>
-      <c r="K5" s="502"/>
-      <c r="L5" s="437"/>
-      <c r="M5" s="501" t="s">
+      <c r="J5" s="479"/>
+      <c r="K5" s="479"/>
+      <c r="L5" s="460"/>
+      <c r="M5" s="478" t="s">
         <v>620</v>
       </c>
-      <c r="N5" s="437"/>
+      <c r="N5" s="460"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -22428,16 +22446,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="139"/>
       <c r="D6" s="140"/>
-      <c r="E6" s="429"/>
-      <c r="F6" s="389"/>
-      <c r="G6" s="390"/>
-      <c r="H6" s="391"/>
-      <c r="I6" s="438"/>
-      <c r="J6" s="503"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="439"/>
-      <c r="M6" s="438"/>
-      <c r="N6" s="439"/>
+      <c r="E6" s="452"/>
+      <c r="F6" s="395"/>
+      <c r="G6" s="396"/>
+      <c r="H6" s="397"/>
+      <c r="I6" s="461"/>
+      <c r="J6" s="480"/>
+      <c r="K6" s="480"/>
+      <c r="L6" s="462"/>
+      <c r="M6" s="461"/>
+      <c r="N6" s="462"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>182</v>
@@ -22454,16 +22472,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="429"/>
-      <c r="F7" s="389"/>
-      <c r="G7" s="390"/>
-      <c r="H7" s="391"/>
-      <c r="I7" s="438"/>
-      <c r="J7" s="503"/>
-      <c r="K7" s="503"/>
-      <c r="L7" s="439"/>
-      <c r="M7" s="438"/>
-      <c r="N7" s="439"/>
+      <c r="E7" s="452"/>
+      <c r="F7" s="395"/>
+      <c r="G7" s="396"/>
+      <c r="H7" s="397"/>
+      <c r="I7" s="461"/>
+      <c r="J7" s="480"/>
+      <c r="K7" s="480"/>
+      <c r="L7" s="462"/>
+      <c r="M7" s="461"/>
+      <c r="N7" s="462"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -22482,16 +22500,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="429"/>
-      <c r="F8" s="389"/>
-      <c r="G8" s="390"/>
-      <c r="H8" s="391"/>
-      <c r="I8" s="438"/>
-      <c r="J8" s="503"/>
-      <c r="K8" s="503"/>
-      <c r="L8" s="439"/>
-      <c r="M8" s="438"/>
-      <c r="N8" s="439"/>
+      <c r="E8" s="452"/>
+      <c r="F8" s="395"/>
+      <c r="G8" s="396"/>
+      <c r="H8" s="397"/>
+      <c r="I8" s="461"/>
+      <c r="J8" s="480"/>
+      <c r="K8" s="480"/>
+      <c r="L8" s="462"/>
+      <c r="M8" s="461"/>
+      <c r="N8" s="462"/>
       <c r="O8" s="5" t="s">
         <v>187</v>
       </c>
@@ -22512,16 +22530,16 @@
         <v>190</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="429"/>
-      <c r="F9" s="389"/>
-      <c r="G9" s="390"/>
-      <c r="H9" s="391"/>
-      <c r="I9" s="438"/>
-      <c r="J9" s="503"/>
-      <c r="K9" s="503"/>
-      <c r="L9" s="439"/>
-      <c r="M9" s="438"/>
-      <c r="N9" s="439"/>
+      <c r="E9" s="452"/>
+      <c r="F9" s="395"/>
+      <c r="G9" s="396"/>
+      <c r="H9" s="397"/>
+      <c r="I9" s="461"/>
+      <c r="J9" s="480"/>
+      <c r="K9" s="480"/>
+      <c r="L9" s="462"/>
+      <c r="M9" s="461"/>
+      <c r="N9" s="462"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -22538,16 +22556,16 @@
         <v>538</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="429"/>
-      <c r="F10" s="389"/>
-      <c r="G10" s="390"/>
-      <c r="H10" s="391"/>
-      <c r="I10" s="438"/>
-      <c r="J10" s="503"/>
-      <c r="K10" s="503"/>
-      <c r="L10" s="439"/>
-      <c r="M10" s="438"/>
-      <c r="N10" s="439"/>
+      <c r="E10" s="452"/>
+      <c r="F10" s="395"/>
+      <c r="G10" s="396"/>
+      <c r="H10" s="397"/>
+      <c r="I10" s="461"/>
+      <c r="J10" s="480"/>
+      <c r="K10" s="480"/>
+      <c r="L10" s="462"/>
+      <c r="M10" s="461"/>
+      <c r="N10" s="462"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -22560,16 +22578,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="429"/>
-      <c r="F11" s="389"/>
-      <c r="G11" s="390"/>
-      <c r="H11" s="391"/>
-      <c r="I11" s="438"/>
-      <c r="J11" s="503"/>
-      <c r="K11" s="503"/>
-      <c r="L11" s="439"/>
-      <c r="M11" s="438"/>
-      <c r="N11" s="439"/>
+      <c r="E11" s="452"/>
+      <c r="F11" s="395"/>
+      <c r="G11" s="396"/>
+      <c r="H11" s="397"/>
+      <c r="I11" s="461"/>
+      <c r="J11" s="480"/>
+      <c r="K11" s="480"/>
+      <c r="L11" s="462"/>
+      <c r="M11" s="461"/>
+      <c r="N11" s="462"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -22580,16 +22598,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="429"/>
-      <c r="F12" s="389"/>
-      <c r="G12" s="390"/>
-      <c r="H12" s="391"/>
-      <c r="I12" s="438"/>
-      <c r="J12" s="503"/>
-      <c r="K12" s="503"/>
-      <c r="L12" s="439"/>
-      <c r="M12" s="438"/>
-      <c r="N12" s="439"/>
+      <c r="E12" s="452"/>
+      <c r="F12" s="395"/>
+      <c r="G12" s="396"/>
+      <c r="H12" s="397"/>
+      <c r="I12" s="461"/>
+      <c r="J12" s="480"/>
+      <c r="K12" s="480"/>
+      <c r="L12" s="462"/>
+      <c r="M12" s="461"/>
+      <c r="N12" s="462"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -22602,16 +22620,16 @@
         <v>192</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="429"/>
-      <c r="F13" s="389"/>
-      <c r="G13" s="390"/>
-      <c r="H13" s="391"/>
-      <c r="I13" s="438"/>
-      <c r="J13" s="503"/>
-      <c r="K13" s="503"/>
-      <c r="L13" s="439"/>
-      <c r="M13" s="438"/>
-      <c r="N13" s="439"/>
+      <c r="E13" s="452"/>
+      <c r="F13" s="395"/>
+      <c r="G13" s="396"/>
+      <c r="H13" s="397"/>
+      <c r="I13" s="461"/>
+      <c r="J13" s="480"/>
+      <c r="K13" s="480"/>
+      <c r="L13" s="462"/>
+      <c r="M13" s="461"/>
+      <c r="N13" s="462"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -22622,16 +22640,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="429"/>
-      <c r="F14" s="389"/>
-      <c r="G14" s="390"/>
-      <c r="H14" s="391"/>
-      <c r="I14" s="438"/>
-      <c r="J14" s="503"/>
-      <c r="K14" s="503"/>
-      <c r="L14" s="439"/>
-      <c r="M14" s="438"/>
-      <c r="N14" s="439"/>
+      <c r="E14" s="452"/>
+      <c r="F14" s="395"/>
+      <c r="G14" s="396"/>
+      <c r="H14" s="397"/>
+      <c r="I14" s="461"/>
+      <c r="J14" s="480"/>
+      <c r="K14" s="480"/>
+      <c r="L14" s="462"/>
+      <c r="M14" s="461"/>
+      <c r="N14" s="462"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -22642,16 +22660,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="429"/>
-      <c r="F15" s="389"/>
-      <c r="G15" s="390"/>
-      <c r="H15" s="391"/>
-      <c r="I15" s="438"/>
-      <c r="J15" s="503"/>
-      <c r="K15" s="503"/>
-      <c r="L15" s="439"/>
-      <c r="M15" s="438"/>
-      <c r="N15" s="439"/>
+      <c r="E15" s="452"/>
+      <c r="F15" s="395"/>
+      <c r="G15" s="396"/>
+      <c r="H15" s="397"/>
+      <c r="I15" s="461"/>
+      <c r="J15" s="480"/>
+      <c r="K15" s="480"/>
+      <c r="L15" s="462"/>
+      <c r="M15" s="461"/>
+      <c r="N15" s="462"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -22662,16 +22680,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="429"/>
-      <c r="F16" s="389"/>
-      <c r="G16" s="390"/>
-      <c r="H16" s="391"/>
-      <c r="I16" s="438"/>
-      <c r="J16" s="503"/>
-      <c r="K16" s="503"/>
-      <c r="L16" s="439"/>
-      <c r="M16" s="438"/>
-      <c r="N16" s="439"/>
+      <c r="E16" s="452"/>
+      <c r="F16" s="395"/>
+      <c r="G16" s="396"/>
+      <c r="H16" s="397"/>
+      <c r="I16" s="461"/>
+      <c r="J16" s="480"/>
+      <c r="K16" s="480"/>
+      <c r="L16" s="462"/>
+      <c r="M16" s="461"/>
+      <c r="N16" s="462"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -22684,16 +22702,16 @@
         <v>193</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="429"/>
-      <c r="F17" s="389"/>
-      <c r="G17" s="390"/>
-      <c r="H17" s="391"/>
-      <c r="I17" s="438"/>
-      <c r="J17" s="503"/>
-      <c r="K17" s="503"/>
-      <c r="L17" s="439"/>
-      <c r="M17" s="438"/>
-      <c r="N17" s="439"/>
+      <c r="E17" s="452"/>
+      <c r="F17" s="395"/>
+      <c r="G17" s="396"/>
+      <c r="H17" s="397"/>
+      <c r="I17" s="461"/>
+      <c r="J17" s="480"/>
+      <c r="K17" s="480"/>
+      <c r="L17" s="462"/>
+      <c r="M17" s="461"/>
+      <c r="N17" s="462"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -22704,16 +22722,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="430"/>
-      <c r="F18" s="392"/>
-      <c r="G18" s="393"/>
-      <c r="H18" s="394"/>
-      <c r="I18" s="440"/>
-      <c r="J18" s="504"/>
-      <c r="K18" s="504"/>
-      <c r="L18" s="441"/>
-      <c r="M18" s="440"/>
-      <c r="N18" s="441"/>
+      <c r="E18" s="453"/>
+      <c r="F18" s="398"/>
+      <c r="G18" s="399"/>
+      <c r="H18" s="400"/>
+      <c r="I18" s="463"/>
+      <c r="J18" s="481"/>
+      <c r="K18" s="481"/>
+      <c r="L18" s="464"/>
+      <c r="M18" s="463"/>
+      <c r="N18" s="464"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -22742,26 +22760,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="381" t="s">
+      <c r="C20" s="387" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="382"/>
+      <c r="D20" s="388"/>
       <c r="E20" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="F20" s="381" t="s">
+      <c r="F20" s="387" t="s">
         <v>196</v>
       </c>
-      <c r="G20" s="383"/>
-      <c r="H20" s="383"/>
-      <c r="I20" s="383"/>
-      <c r="J20" s="383"/>
-      <c r="K20" s="383"/>
-      <c r="L20" s="382"/>
-      <c r="M20" s="381" t="s">
+      <c r="G20" s="389"/>
+      <c r="H20" s="389"/>
+      <c r="I20" s="389"/>
+      <c r="J20" s="389"/>
+      <c r="K20" s="389"/>
+      <c r="L20" s="388"/>
+      <c r="M20" s="387" t="s">
         <v>529</v>
       </c>
-      <c r="N20" s="382"/>
+      <c r="N20" s="388"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -22789,39 +22807,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="450" t="s">
+      <c r="B24" s="445" t="s">
         <v>571</v>
       </c>
-      <c r="C24" s="450"/>
-      <c r="D24" s="449"/>
-      <c r="E24" s="449"/>
-      <c r="F24" s="449"/>
-      <c r="G24" s="449"/>
-      <c r="H24" s="449"/>
-      <c r="I24" s="449"/>
-      <c r="J24" s="449"/>
-      <c r="K24" s="449"/>
-      <c r="M24" s="472" t="s">
+      <c r="C24" s="445"/>
+      <c r="D24" s="444"/>
+      <c r="E24" s="444"/>
+      <c r="F24" s="444"/>
+      <c r="G24" s="444"/>
+      <c r="H24" s="444"/>
+      <c r="I24" s="444"/>
+      <c r="J24" s="444"/>
+      <c r="K24" s="444"/>
+      <c r="M24" s="500" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="472"/>
-      <c r="O24" s="472"/>
+      <c r="N24" s="500"/>
+      <c r="O24" s="500"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="473" t="s">
+      <c r="B25" s="501" t="s">
         <v>915</v>
       </c>
-      <c r="C25" s="415"/>
-      <c r="D25" s="370" t="s">
+      <c r="C25" s="422"/>
+      <c r="D25" s="377" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="370"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="370"/>
-      <c r="H25" s="370"/>
-      <c r="I25" s="370"/>
-      <c r="J25" s="370"/>
-      <c r="K25" s="371"/>
+      <c r="E25" s="377"/>
+      <c r="F25" s="377"/>
+      <c r="G25" s="377"/>
+      <c r="H25" s="377"/>
+      <c r="I25" s="377"/>
+      <c r="J25" s="377"/>
+      <c r="K25" s="378"/>
       <c r="M25" s="38" t="s">
         <v>182</v>
       </c>
@@ -22833,22 +22851,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="416"/>
-      <c r="C26" s="417"/>
-      <c r="D26" s="414" t="s">
+      <c r="B26" s="423"/>
+      <c r="C26" s="424"/>
+      <c r="D26" s="421" t="s">
         <v>908</v>
       </c>
-      <c r="E26" s="415"/>
-      <c r="F26" s="499" t="s">
+      <c r="E26" s="422"/>
+      <c r="F26" s="494" t="s">
         <v>908</v>
       </c>
-      <c r="G26" s="370"/>
-      <c r="H26" s="371"/>
-      <c r="I26" s="369" t="s">
+      <c r="G26" s="377"/>
+      <c r="H26" s="378"/>
+      <c r="I26" s="376" t="s">
         <v>912</v>
       </c>
-      <c r="J26" s="370"/>
-      <c r="K26" s="371"/>
+      <c r="J26" s="377"/>
+      <c r="K26" s="378"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -22863,22 +22881,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="416"/>
-      <c r="C27" s="417"/>
-      <c r="D27" s="411" t="s">
+      <c r="B27" s="423"/>
+      <c r="C27" s="424"/>
+      <c r="D27" s="413" t="s">
         <v>913</v>
       </c>
-      <c r="E27" s="417"/>
-      <c r="F27" s="416" t="s">
+      <c r="E27" s="424"/>
+      <c r="F27" s="423" t="s">
         <v>909</v>
       </c>
-      <c r="G27" s="411"/>
-      <c r="H27" s="368"/>
-      <c r="I27" s="483" t="s">
+      <c r="G27" s="413"/>
+      <c r="H27" s="495"/>
+      <c r="I27" s="499" t="s">
         <v>913</v>
       </c>
-      <c r="J27" s="411"/>
-      <c r="K27" s="368"/>
+      <c r="J27" s="413"/>
+      <c r="K27" s="495"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -22893,22 +22911,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="416"/>
-      <c r="C28" s="417"/>
-      <c r="D28" s="411" t="s">
+      <c r="B28" s="423"/>
+      <c r="C28" s="424"/>
+      <c r="D28" s="413" t="s">
         <v>910</v>
       </c>
-      <c r="E28" s="417"/>
-      <c r="F28" s="416" t="s">
+      <c r="E28" s="424"/>
+      <c r="F28" s="423" t="s">
         <v>910</v>
       </c>
-      <c r="G28" s="411"/>
-      <c r="H28" s="368"/>
-      <c r="I28" s="483" t="s">
+      <c r="G28" s="413"/>
+      <c r="H28" s="495"/>
+      <c r="I28" s="499" t="s">
         <v>910</v>
       </c>
-      <c r="J28" s="411"/>
-      <c r="K28" s="368"/>
+      <c r="J28" s="413"/>
+      <c r="K28" s="495"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -22917,22 +22935,22 @@
       <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="418"/>
-      <c r="C29" s="419"/>
-      <c r="D29" s="411" t="s">
+      <c r="B29" s="425"/>
+      <c r="C29" s="426"/>
+      <c r="D29" s="413" t="s">
         <v>911</v>
       </c>
-      <c r="E29" s="417"/>
-      <c r="F29" s="500" t="s">
+      <c r="E29" s="424"/>
+      <c r="F29" s="496" t="s">
         <v>911</v>
       </c>
-      <c r="G29" s="485"/>
-      <c r="H29" s="486"/>
-      <c r="I29" s="484" t="s">
+      <c r="G29" s="497"/>
+      <c r="H29" s="498"/>
+      <c r="I29" s="511" t="s">
         <v>911</v>
       </c>
-      <c r="J29" s="485"/>
-      <c r="K29" s="486"/>
+      <c r="J29" s="497"/>
+      <c r="K29" s="498"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -22941,149 +22959,149 @@
       <c r="O29" s="38"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="372" t="s">
+      <c r="B30" s="379" t="s">
         <v>914</v>
       </c>
-      <c r="C30" s="374"/>
-      <c r="D30" s="487" t="s">
+      <c r="C30" s="381"/>
+      <c r="D30" s="482" t="s">
         <v>572</v>
       </c>
-      <c r="E30" s="488"/>
-      <c r="F30" s="492" t="s">
+      <c r="E30" s="483"/>
+      <c r="F30" s="487" t="s">
         <v>573</v>
       </c>
-      <c r="G30" s="493"/>
-      <c r="H30" s="488"/>
-      <c r="I30" s="492" t="s">
+      <c r="G30" s="488"/>
+      <c r="H30" s="483"/>
+      <c r="I30" s="487" t="s">
         <v>574</v>
       </c>
-      <c r="J30" s="493"/>
-      <c r="K30" s="496"/>
+      <c r="J30" s="488"/>
+      <c r="K30" s="491"/>
       <c r="L30" s="5"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="376"/>
-      <c r="C31" s="377"/>
-      <c r="D31" s="489"/>
-      <c r="E31" s="456"/>
-      <c r="F31" s="454"/>
-      <c r="G31" s="455"/>
-      <c r="H31" s="456"/>
-      <c r="I31" s="454"/>
-      <c r="J31" s="455"/>
-      <c r="K31" s="497"/>
+      <c r="B31" s="370"/>
+      <c r="C31" s="383"/>
+      <c r="D31" s="484"/>
+      <c r="E31" s="442"/>
+      <c r="F31" s="440"/>
+      <c r="G31" s="441"/>
+      <c r="H31" s="442"/>
+      <c r="I31" s="440"/>
+      <c r="J31" s="441"/>
+      <c r="K31" s="492"/>
       <c r="L31" s="5"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="376"/>
-      <c r="C32" s="377"/>
-      <c r="D32" s="489"/>
-      <c r="E32" s="456"/>
-      <c r="F32" s="454"/>
-      <c r="G32" s="455"/>
-      <c r="H32" s="456"/>
-      <c r="I32" s="454"/>
-      <c r="J32" s="455"/>
-      <c r="K32" s="497"/>
+      <c r="B32" s="370"/>
+      <c r="C32" s="383"/>
+      <c r="D32" s="484"/>
+      <c r="E32" s="442"/>
+      <c r="F32" s="440"/>
+      <c r="G32" s="441"/>
+      <c r="H32" s="442"/>
+      <c r="I32" s="440"/>
+      <c r="J32" s="441"/>
+      <c r="K32" s="492"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="376"/>
-      <c r="C33" s="377"/>
-      <c r="D33" s="490"/>
-      <c r="E33" s="491"/>
-      <c r="F33" s="494"/>
-      <c r="G33" s="495"/>
-      <c r="H33" s="491"/>
-      <c r="I33" s="494"/>
-      <c r="J33" s="495"/>
-      <c r="K33" s="498"/>
+      <c r="B33" s="370"/>
+      <c r="C33" s="383"/>
+      <c r="D33" s="485"/>
+      <c r="E33" s="486"/>
+      <c r="F33" s="489"/>
+      <c r="G33" s="490"/>
+      <c r="H33" s="486"/>
+      <c r="I33" s="489"/>
+      <c r="J33" s="490"/>
+      <c r="K33" s="493"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="376"/>
-      <c r="C34" s="364"/>
-      <c r="D34" s="474" t="s">
+      <c r="B34" s="370"/>
+      <c r="C34" s="372"/>
+      <c r="D34" s="502" t="s">
         <v>901</v>
       </c>
-      <c r="E34" s="475"/>
-      <c r="F34" s="474" t="s">
+      <c r="E34" s="503"/>
+      <c r="F34" s="502" t="s">
         <v>594</v>
       </c>
-      <c r="G34" s="480"/>
-      <c r="H34" s="475"/>
-      <c r="I34" s="474" t="s">
+      <c r="G34" s="508"/>
+      <c r="H34" s="503"/>
+      <c r="I34" s="502" t="s">
         <v>916</v>
       </c>
-      <c r="J34" s="480"/>
-      <c r="K34" s="475"/>
+      <c r="J34" s="508"/>
+      <c r="K34" s="503"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="376"/>
-      <c r="C35" s="364"/>
-      <c r="D35" s="476"/>
-      <c r="E35" s="477"/>
-      <c r="F35" s="476"/>
-      <c r="G35" s="481"/>
-      <c r="H35" s="477"/>
-      <c r="I35" s="476"/>
-      <c r="J35" s="481"/>
-      <c r="K35" s="477"/>
+      <c r="B35" s="370"/>
+      <c r="C35" s="372"/>
+      <c r="D35" s="504"/>
+      <c r="E35" s="505"/>
+      <c r="F35" s="504"/>
+      <c r="G35" s="509"/>
+      <c r="H35" s="505"/>
+      <c r="I35" s="504"/>
+      <c r="J35" s="509"/>
+      <c r="K35" s="505"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="376"/>
-      <c r="C36" s="364"/>
-      <c r="D36" s="476"/>
-      <c r="E36" s="477"/>
-      <c r="F36" s="476"/>
-      <c r="G36" s="481"/>
-      <c r="H36" s="477"/>
-      <c r="I36" s="476"/>
-      <c r="J36" s="481"/>
-      <c r="K36" s="477"/>
+      <c r="B36" s="370"/>
+      <c r="C36" s="372"/>
+      <c r="D36" s="504"/>
+      <c r="E36" s="505"/>
+      <c r="F36" s="504"/>
+      <c r="G36" s="509"/>
+      <c r="H36" s="505"/>
+      <c r="I36" s="504"/>
+      <c r="J36" s="509"/>
+      <c r="K36" s="505"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="376"/>
-      <c r="C37" s="364"/>
-      <c r="D37" s="476"/>
-      <c r="E37" s="477"/>
-      <c r="F37" s="476"/>
-      <c r="G37" s="481"/>
-      <c r="H37" s="477"/>
-      <c r="I37" s="476"/>
-      <c r="J37" s="481"/>
-      <c r="K37" s="477"/>
+      <c r="B37" s="370"/>
+      <c r="C37" s="372"/>
+      <c r="D37" s="504"/>
+      <c r="E37" s="505"/>
+      <c r="F37" s="504"/>
+      <c r="G37" s="509"/>
+      <c r="H37" s="505"/>
+      <c r="I37" s="504"/>
+      <c r="J37" s="509"/>
+      <c r="K37" s="505"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="376"/>
-      <c r="C38" s="364"/>
-      <c r="D38" s="478"/>
-      <c r="E38" s="479"/>
-      <c r="F38" s="478"/>
-      <c r="G38" s="482"/>
-      <c r="H38" s="479"/>
-      <c r="I38" s="478"/>
-      <c r="J38" s="482"/>
-      <c r="K38" s="479"/>
+      <c r="B38" s="370"/>
+      <c r="C38" s="372"/>
+      <c r="D38" s="506"/>
+      <c r="E38" s="507"/>
+      <c r="F38" s="506"/>
+      <c r="G38" s="510"/>
+      <c r="H38" s="507"/>
+      <c r="I38" s="506"/>
+      <c r="J38" s="510"/>
+      <c r="K38" s="507"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="378"/>
-      <c r="C39" s="380"/>
-      <c r="D39" s="458" t="s">
+      <c r="B39" s="384"/>
+      <c r="C39" s="386"/>
+      <c r="D39" s="433" t="s">
         <v>575</v>
       </c>
-      <c r="E39" s="459"/>
-      <c r="F39" s="459"/>
-      <c r="G39" s="459"/>
-      <c r="H39" s="459"/>
-      <c r="I39" s="459"/>
-      <c r="J39" s="459"/>
-      <c r="K39" s="460"/>
+      <c r="E39" s="434"/>
+      <c r="F39" s="434"/>
+      <c r="G39" s="434"/>
+      <c r="H39" s="434"/>
+      <c r="I39" s="434"/>
+      <c r="J39" s="434"/>
+      <c r="K39" s="435"/>
       <c r="L39" s="40" t="s">
         <v>576</v>
       </c>
@@ -23101,35 +23119,36 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="381" t="s">
+      <c r="B41" s="387" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="382"/>
-      <c r="D41" s="381" t="s">
+      <c r="C41" s="388"/>
+      <c r="D41" s="387" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="382"/>
-      <c r="F41" s="381" t="s">
+      <c r="E41" s="388"/>
+      <c r="F41" s="387" t="s">
         <v>196</v>
       </c>
-      <c r="G41" s="383"/>
-      <c r="H41" s="383"/>
-      <c r="I41" s="383"/>
-      <c r="J41" s="383"/>
-      <c r="K41" s="382"/>
+      <c r="G41" s="389"/>
+      <c r="H41" s="389"/>
+      <c r="I41" s="389"/>
+      <c r="J41" s="389"/>
+      <c r="K41" s="388"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -23146,17 +23165,16 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -23680,13 +23698,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="360" t="s">
+      <c r="A5" s="367" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="361"/>
-      <c r="C5" s="361"/>
-      <c r="D5" s="361"/>
-      <c r="E5" s="362"/>
+      <c r="B5" s="368"/>
+      <c r="C5" s="368"/>
+      <c r="D5" s="368"/>
+      <c r="E5" s="369"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>150</v>
@@ -24251,86 +24269,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:P218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C1" s="505">
+      <c r="C1" s="360">
         <v>0.1</v>
       </c>
-      <c r="D1" s="505">
+      <c r="D1" s="360">
         <v>0.2</v>
       </c>
-      <c r="E1" s="505">
+      <c r="E1" s="360">
         <v>0.3</v>
       </c>
-      <c r="F1" s="505">
+      <c r="F1" s="360">
         <v>0.4</v>
       </c>
-      <c r="G1" s="505">
+      <c r="G1" s="360">
         <v>0.5</v>
       </c>
-      <c r="H1" s="505">
+      <c r="H1" s="360">
         <v>0.6</v>
       </c>
-      <c r="I1" s="505">
+      <c r="I1" s="360">
         <v>0.7</v>
       </c>
-      <c r="J1" s="505">
+      <c r="J1" s="360">
         <v>0.8</v>
       </c>
-      <c r="K1" s="505">
+      <c r="K1" s="360">
         <v>0.9</v>
       </c>
-      <c r="L1" s="505">
+      <c r="L1" s="360">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B2" s="505">
+      <c r="B2" s="360">
         <v>0.1</v>
       </c>
-      <c r="C2" s="506" t="s">
+      <c r="C2" s="361" t="s">
         <v>1476</v>
       </c>
-      <c r="D2" s="508"/>
-      <c r="E2" s="507"/>
-      <c r="F2" s="507"/>
-      <c r="G2" s="507"/>
-      <c r="H2" s="507"/>
-      <c r="I2" s="507"/>
-      <c r="J2" s="507"/>
-      <c r="K2" s="506" t="s">
+      <c r="D2" s="363"/>
+      <c r="E2" s="362"/>
+      <c r="F2" s="362"/>
+      <c r="G2" s="362"/>
+      <c r="H2" s="362"/>
+      <c r="I2" s="362"/>
+      <c r="J2" s="362"/>
+      <c r="K2" s="361" t="s">
         <v>302</v>
       </c>
-      <c r="L2" s="508"/>
+      <c r="L2" s="363"/>
       <c r="M2" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B3" s="505">
+      <c r="B3" s="360">
         <v>0.2</v>
       </c>
-      <c r="C3" s="509"/>
-      <c r="D3" s="510"/>
-      <c r="E3" s="510"/>
-      <c r="F3" s="510"/>
-      <c r="G3" s="510"/>
-      <c r="H3" s="510"/>
-      <c r="I3" s="510"/>
-      <c r="J3" s="510"/>
-      <c r="K3" s="510"/>
-      <c r="L3" s="511"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="365"/>
+      <c r="E3" s="365"/>
+      <c r="F3" s="365"/>
+      <c r="G3" s="365"/>
+      <c r="H3" s="365"/>
+      <c r="I3" s="365"/>
+      <c r="J3" s="365"/>
+      <c r="K3" s="365"/>
+      <c r="L3" s="366"/>
       <c r="M3" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="505">
+      <c r="B4" s="360">
         <v>0.3</v>
       </c>
       <c r="C4" s="239"/>
@@ -24338,17 +24356,17 @@
       <c r="E4" s="173"/>
       <c r="F4" s="173"/>
       <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
+      <c r="H4" s="174"/>
       <c r="I4" s="173"/>
       <c r="J4" s="173"/>
       <c r="K4" s="173"/>
       <c r="L4" s="174"/>
-      <c r="M4" s="376" t="s">
+      <c r="M4" s="370" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="505">
+      <c r="B5" s="360">
         <v>0.4</v>
       </c>
       <c r="C5" s="240"/>
@@ -24356,15 +24374,15 @@
       <c r="E5" s="167"/>
       <c r="F5" s="167"/>
       <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
+      <c r="H5" s="168"/>
       <c r="I5" s="167"/>
       <c r="J5" s="167"/>
       <c r="K5" s="167"/>
       <c r="L5" s="168"/>
-      <c r="M5" s="376"/>
+      <c r="M5" s="370"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="505">
+      <c r="B6" s="360">
         <v>0.5</v>
       </c>
       <c r="C6" s="240"/>
@@ -24372,15 +24390,15 @@
       <c r="E6" s="167"/>
       <c r="F6" s="167"/>
       <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
+      <c r="H6" s="168"/>
       <c r="I6" s="167"/>
       <c r="J6" s="167"/>
       <c r="K6" s="167"/>
       <c r="L6" s="168"/>
-      <c r="M6" s="376"/>
+      <c r="M6" s="370"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="505">
+      <c r="B7" s="360">
         <v>0.6</v>
       </c>
       <c r="C7" s="240" t="s">
@@ -24390,17 +24408,17 @@
       <c r="E7" s="167"/>
       <c r="F7" s="167"/>
       <c r="G7" s="167"/>
-      <c r="H7" s="167" t="s">
+      <c r="H7" s="168" t="s">
         <v>1475</v>
       </c>
       <c r="I7" s="167"/>
       <c r="J7" s="167"/>
       <c r="K7" s="167"/>
       <c r="L7" s="168"/>
-      <c r="M7" s="376"/>
+      <c r="M7" s="370"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="505">
+      <c r="B8" s="360">
         <v>0.7</v>
       </c>
       <c r="C8" s="240"/>
@@ -24408,15 +24426,15 @@
       <c r="E8" s="167"/>
       <c r="F8" s="167"/>
       <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
+      <c r="H8" s="168"/>
       <c r="I8" s="167"/>
       <c r="J8" s="167"/>
       <c r="K8" s="167"/>
       <c r="L8" s="168"/>
-      <c r="M8" s="376"/>
+      <c r="M8" s="370"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="505">
+      <c r="B9" s="360">
         <v>0.8</v>
       </c>
       <c r="C9" s="240"/>
@@ -24424,15 +24442,15 @@
       <c r="E9" s="167"/>
       <c r="F9" s="167"/>
       <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
+      <c r="H9" s="168"/>
       <c r="I9" s="167"/>
       <c r="J9" s="167"/>
       <c r="K9" s="167"/>
       <c r="L9" s="168"/>
-      <c r="M9" s="376"/>
+      <c r="M9" s="370"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="505">
+      <c r="B10" s="360">
         <v>0.9</v>
       </c>
       <c r="C10" s="240"/>
@@ -24440,15 +24458,15 @@
       <c r="E10" s="167"/>
       <c r="F10" s="167"/>
       <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
+      <c r="H10" s="168"/>
       <c r="I10" s="167"/>
       <c r="J10" s="167"/>
       <c r="K10" s="167"/>
       <c r="L10" s="168"/>
-      <c r="M10" s="376"/>
+      <c r="M10" s="370"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B11" s="505">
+      <c r="B11" s="360">
         <v>1</v>
       </c>
       <c r="C11" s="241"/>
@@ -24456,12 +24474,12 @@
       <c r="E11" s="176"/>
       <c r="F11" s="176"/>
       <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
+      <c r="H11" s="177"/>
       <c r="I11" s="176"/>
       <c r="J11" s="176"/>
       <c r="K11" s="176"/>
       <c r="L11" s="177"/>
-      <c r="M11" s="376"/>
+      <c r="M11" s="370"/>
     </row>
     <row r="12" spans="2:13">
       <c r="M12" t="s">
@@ -24735,7 +24753,7 @@
       <c r="O134" s="5"/>
     </row>
     <row r="135" spans="3:15">
-      <c r="C135" s="365" t="s">
+      <c r="C135" s="373" t="s">
         <v>167</v>
       </c>
       <c r="D135">
@@ -24762,7 +24780,7 @@
       <c r="O135" s="5"/>
     </row>
     <row r="136" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C136" s="365"/>
+      <c r="C136" s="373"/>
       <c r="D136">
         <v>20</v>
       </c>
@@ -24791,7 +24809,7 @@
       <c r="O136" s="5"/>
     </row>
     <row r="137" spans="3:15">
-      <c r="C137" s="365" t="s">
+      <c r="C137" s="373" t="s">
         <v>168</v>
       </c>
       <c r="D137">
@@ -24810,7 +24828,7 @@
       <c r="O137" s="5"/>
     </row>
     <row r="138" spans="3:15">
-      <c r="C138" s="365"/>
+      <c r="C138" s="373"/>
       <c r="D138">
         <v>40</v>
       </c>
@@ -24827,7 +24845,7 @@
       <c r="O138" s="5"/>
     </row>
     <row r="139" spans="3:15">
-      <c r="C139" s="365"/>
+      <c r="C139" s="373"/>
       <c r="D139">
         <v>50</v>
       </c>
@@ -24844,7 +24862,7 @@
       <c r="O139" s="5"/>
     </row>
     <row r="140" spans="3:15">
-      <c r="C140" s="365"/>
+      <c r="C140" s="373"/>
       <c r="D140">
         <v>60</v>
       </c>
@@ -24863,7 +24881,7 @@
       <c r="O140" s="5"/>
     </row>
     <row r="141" spans="3:15">
-      <c r="C141" s="365"/>
+      <c r="C141" s="373"/>
       <c r="D141">
         <v>70</v>
       </c>
@@ -24880,7 +24898,7 @@
       <c r="O141" s="5"/>
     </row>
     <row r="142" spans="3:15">
-      <c r="C142" s="365"/>
+      <c r="C142" s="373"/>
       <c r="D142">
         <v>80</v>
       </c>
@@ -24897,7 +24915,7 @@
       <c r="O142" s="5"/>
     </row>
     <row r="143" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C143" s="365"/>
+      <c r="C143" s="373"/>
       <c r="D143">
         <v>90</v>
       </c>
@@ -24988,7 +25006,7 @@
       </c>
     </row>
     <row r="148" spans="4:15">
-      <c r="D148" s="363">
+      <c r="D148" s="371">
         <v>1</v>
       </c>
       <c r="E148" s="169"/>
@@ -25003,7 +25021,7 @@
       <c r="N148" s="174"/>
     </row>
     <row r="149" spans="4:15">
-      <c r="D149" s="364"/>
+      <c r="D149" s="372"/>
       <c r="E149" s="170"/>
       <c r="F149" s="166"/>
       <c r="G149" s="167"/>
@@ -25016,7 +25034,7 @@
       <c r="N149" s="168"/>
     </row>
     <row r="150" spans="4:15">
-      <c r="D150" s="364"/>
+      <c r="D150" s="372"/>
       <c r="E150" s="170"/>
       <c r="F150" s="166"/>
       <c r="G150" s="167"/>
@@ -25029,7 +25047,7 @@
       <c r="N150" s="168"/>
     </row>
     <row r="151" spans="4:15">
-      <c r="D151" s="364"/>
+      <c r="D151" s="372"/>
       <c r="E151" s="170" t="s">
         <v>664</v>
       </c>
@@ -25046,7 +25064,7 @@
       <c r="N151" s="168"/>
     </row>
     <row r="152" spans="4:15">
-      <c r="D152" s="364"/>
+      <c r="D152" s="372"/>
       <c r="E152" s="170"/>
       <c r="F152" s="166"/>
       <c r="G152" s="167"/>
@@ -25059,7 +25077,7 @@
       <c r="N152" s="168"/>
     </row>
     <row r="153" spans="4:15">
-      <c r="D153" s="364"/>
+      <c r="D153" s="372"/>
       <c r="E153" s="170"/>
       <c r="F153" s="166"/>
       <c r="G153" s="167"/>
@@ -25072,7 +25090,7 @@
       <c r="N153" s="168"/>
     </row>
     <row r="154" spans="4:15" ht="15.75" thickBot="1">
-      <c r="D154" s="364"/>
+      <c r="D154" s="372"/>
       <c r="E154" s="171"/>
       <c r="F154" s="175"/>
       <c r="G154" s="176"/>
@@ -25195,7 +25213,7 @@
       <c r="K183" s="173"/>
       <c r="L183" s="173"/>
       <c r="M183" s="173"/>
-      <c r="N183" s="366" t="s">
+      <c r="N183" s="374" t="s">
         <v>918</v>
       </c>
       <c r="O183" t="s">
@@ -25216,7 +25234,7 @@
       <c r="K184" s="176"/>
       <c r="L184" s="176"/>
       <c r="M184" s="176"/>
-      <c r="N184" s="366"/>
+      <c r="N184" s="374"/>
       <c r="O184" t="s">
         <v>919</v>
       </c>
@@ -25235,7 +25253,7 @@
       <c r="K185" s="229"/>
       <c r="L185" s="229"/>
       <c r="M185" s="293"/>
-      <c r="N185" s="367" t="s">
+      <c r="N185" s="375" t="s">
         <v>921</v>
       </c>
       <c r="O185" t="s">
@@ -25256,7 +25274,7 @@
       <c r="K186" s="230"/>
       <c r="L186" s="230"/>
       <c r="M186" s="295"/>
-      <c r="N186" s="367"/>
+      <c r="N186" s="375"/>
     </row>
     <row r="187" spans="3:15">
       <c r="C187">
@@ -25272,7 +25290,7 @@
       <c r="K187" s="230"/>
       <c r="L187" s="230"/>
       <c r="M187" s="295"/>
-      <c r="N187" s="367"/>
+      <c r="N187" s="375"/>
     </row>
     <row r="188" spans="3:15" ht="15.75" thickBot="1">
       <c r="C188">
@@ -25292,7 +25310,7 @@
       <c r="K188" s="231"/>
       <c r="L188" s="231"/>
       <c r="M188" s="297"/>
-      <c r="N188" s="367"/>
+      <c r="N188" s="375"/>
     </row>
     <row r="189" spans="3:15">
       <c r="C189">
@@ -25308,7 +25326,7 @@
       <c r="K189" s="230"/>
       <c r="L189" s="230"/>
       <c r="M189" s="230"/>
-      <c r="N189" s="366"/>
+      <c r="N189" s="374"/>
     </row>
     <row r="190" spans="3:15">
       <c r="C190">
@@ -25324,7 +25342,7 @@
       <c r="K190" s="230"/>
       <c r="L190" s="230"/>
       <c r="M190" s="230"/>
-      <c r="N190" s="366"/>
+      <c r="N190" s="374"/>
     </row>
     <row r="191" spans="3:15" ht="15.75" thickBot="1">
       <c r="C191">
@@ -25340,7 +25358,7 @@
       <c r="K191" s="231"/>
       <c r="L191" s="231"/>
       <c r="M191" s="231"/>
-      <c r="N191" s="366"/>
+      <c r="N191" s="374"/>
     </row>
     <row r="192" spans="3:15" ht="15.75" thickBot="1">
       <c r="C192">
@@ -25645,12 +25663,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="N185:N191"/>
     <mergeCell ref="M4:M11"/>
     <mergeCell ref="D148:D154"/>
     <mergeCell ref="C135:C136"/>
     <mergeCell ref="C137:C143"/>
     <mergeCell ref="N183:N184"/>
-    <mergeCell ref="N185:N191"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25658,10 +25676,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:U129"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:N13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112:I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25714,14 +25732,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="369" t="s">
+      <c r="K4" s="376" t="s">
         <v>178</v>
       </c>
-      <c r="L4" s="370"/>
-      <c r="M4" s="370"/>
-      <c r="N4" s="370"/>
-      <c r="O4" s="370"/>
-      <c r="P4" s="371"/>
+      <c r="L4" s="377"/>
+      <c r="M4" s="377"/>
+      <c r="N4" s="377"/>
+      <c r="O4" s="377"/>
+      <c r="P4" s="378"/>
       <c r="Q4" s="115" t="s">
         <v>282</v>
       </c>
@@ -25846,10 +25864,10 @@
       <c r="L8" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M8" s="384" t="s">
+      <c r="M8" s="390" t="s">
         <v>211</v>
       </c>
-      <c r="N8" s="385"/>
+      <c r="N8" s="391"/>
       <c r="O8" s="5" t="s">
         <v>31</v>
       </c>
@@ -25876,7 +25894,7 @@
         <v>210</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1302</v>
+        <v>302</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="24" t="s">
@@ -25891,8 +25909,8 @@
       <c r="L9" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M9" s="385"/>
-      <c r="N9" s="385"/>
+      <c r="M9" s="391"/>
+      <c r="N9" s="391"/>
       <c r="O9" s="5" t="s">
         <v>187</v>
       </c>
@@ -25928,8 +25946,8 @@
       <c r="L10" s="5" t="s">
         <v>1168</v>
       </c>
-      <c r="M10" s="385"/>
-      <c r="N10" s="385"/>
+      <c r="M10" s="391"/>
+      <c r="N10" s="391"/>
       <c r="O10" s="5"/>
       <c r="P10" s="246" t="s">
         <v>400</v>
@@ -25946,13 +25964,13 @@
       <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="372" t="s">
+      <c r="A11" s="379" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="373"/>
-      <c r="C11" s="374"/>
-      <c r="D11" s="374"/>
-      <c r="E11" s="375"/>
+      <c r="B11" s="380"/>
+      <c r="C11" s="381"/>
+      <c r="D11" s="381"/>
+      <c r="E11" s="382"/>
       <c r="F11" t="s">
         <v>209</v>
       </c>
@@ -25961,8 +25979,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="385"/>
-      <c r="N11" s="385"/>
+      <c r="M11" s="391"/>
+      <c r="N11" s="391"/>
       <c r="O11" s="5"/>
       <c r="P11" s="246" t="s">
         <v>401</v>
@@ -25972,11 +25990,11 @@
       <c r="T11" s="38"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="376"/>
-      <c r="B12" s="377"/>
-      <c r="C12" s="377"/>
-      <c r="D12" s="377"/>
-      <c r="E12" s="364"/>
+      <c r="A12" s="370"/>
+      <c r="B12" s="383"/>
+      <c r="C12" s="383"/>
+      <c r="D12" s="383"/>
+      <c r="E12" s="372"/>
       <c r="F12" t="s">
         <v>945</v>
       </c>
@@ -25985,8 +26003,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="385"/>
-      <c r="N12" s="385"/>
+      <c r="M12" s="391"/>
+      <c r="N12" s="391"/>
       <c r="O12" s="5"/>
       <c r="P12" s="246" t="s">
         <v>1306</v>
@@ -25996,11 +26014,14 @@
       <c r="T12" s="38"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A13" s="376"/>
-      <c r="B13" s="377"/>
-      <c r="C13" s="377"/>
-      <c r="D13" s="377"/>
-      <c r="E13" s="364"/>
+      <c r="A13" s="370"/>
+      <c r="B13" s="383"/>
+      <c r="C13" s="383"/>
+      <c r="D13" s="383"/>
+      <c r="E13" s="372"/>
+      <c r="F13" t="s">
+        <v>680</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>192</v>
@@ -26008,8 +26029,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="385"/>
-      <c r="N13" s="385"/>
+      <c r="M13" s="391"/>
+      <c r="N13" s="391"/>
       <c r="O13" s="28"/>
       <c r="P13" s="247"/>
       <c r="S13" t="s">
@@ -26017,11 +26038,11 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="378"/>
-      <c r="B14" s="379"/>
-      <c r="C14" s="379"/>
-      <c r="D14" s="379"/>
-      <c r="E14" s="380"/>
+      <c r="A14" s="384"/>
+      <c r="B14" s="385"/>
+      <c r="C14" s="385"/>
+      <c r="D14" s="385"/>
+      <c r="E14" s="386"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -26151,20 +26172,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="381" t="s">
+      <c r="I20" s="387" t="s">
         <v>194</v>
       </c>
-      <c r="J20" s="382"/>
-      <c r="K20" s="381" t="s">
+      <c r="J20" s="388"/>
+      <c r="K20" s="387" t="s">
         <v>195</v>
       </c>
-      <c r="L20" s="382"/>
-      <c r="M20" s="381" t="s">
+      <c r="L20" s="388"/>
+      <c r="M20" s="387" t="s">
         <v>196</v>
       </c>
-      <c r="N20" s="383"/>
-      <c r="O20" s="383"/>
-      <c r="P20" s="382"/>
+      <c r="N20" s="389"/>
+      <c r="O20" s="389"/>
+      <c r="P20" s="388"/>
       <c r="S20" t="s">
         <v>282</v>
       </c>
@@ -26663,6 +26684,99 @@
     <row r="80" spans="3:14">
       <c r="J80" t="s">
         <v>930</v>
+      </c>
+    </row>
+    <row r="109" spans="5:11" ht="15.75" thickBot="1"/>
+    <row r="110" spans="5:11" ht="15.75" thickBot="1">
+      <c r="J110" t="s">
+        <v>182</v>
+      </c>
+      <c r="K110" s="11"/>
+    </row>
+    <row r="111" spans="5:11" ht="15.75" thickBot="1">
+      <c r="J111" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="K111" s="11"/>
+    </row>
+    <row r="112" spans="5:11">
+      <c r="E112" t="s">
+        <v>930</v>
+      </c>
+      <c r="J112" s="5"/>
+      <c r="K112" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="113" spans="6:11">
+      <c r="F113" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="114" spans="6:11">
+      <c r="G114" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="115" spans="6:11">
+      <c r="G115" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="116" spans="6:11">
+      <c r="F116" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="118" spans="6:11">
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+    </row>
+    <row r="119" spans="6:11">
+      <c r="F119" t="s">
+        <v>931</v>
+      </c>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+    </row>
+    <row r="120" spans="6:11">
+      <c r="G120" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="121" spans="6:11">
+      <c r="G121" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="122" spans="6:11">
+      <c r="F122" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="125" spans="6:11">
+      <c r="F125" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="126" spans="6:11">
+      <c r="G126" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="127" spans="6:11">
+      <c r="G127" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="128" spans="6:11">
+      <c r="F128" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5">
+      <c r="E129" t="s">
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
@@ -27109,13 +27223,13 @@
         <v>181</v>
       </c>
       <c r="J3" s="148"/>
-      <c r="K3" s="395"/>
-      <c r="L3" s="395"/>
-      <c r="M3" s="395"/>
-      <c r="N3" s="395"/>
-      <c r="O3" s="395"/>
-      <c r="P3" s="395"/>
-      <c r="Q3" s="396"/>
+      <c r="K3" s="401"/>
+      <c r="L3" s="401"/>
+      <c r="M3" s="401"/>
+      <c r="N3" s="401"/>
+      <c r="O3" s="401"/>
+      <c r="P3" s="401"/>
+      <c r="Q3" s="402"/>
       <c r="T3" s="40" t="s">
         <v>179</v>
       </c>
@@ -27383,13 +27497,13 @@
       <c r="U11" s="38"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="386" t="s">
+      <c r="A12" s="392" t="s">
         <v>668</v>
       </c>
-      <c r="B12" s="387"/>
-      <c r="C12" s="387"/>
-      <c r="D12" s="387"/>
-      <c r="E12" s="388"/>
+      <c r="B12" s="393"/>
+      <c r="C12" s="393"/>
+      <c r="D12" s="393"/>
+      <c r="E12" s="394"/>
       <c r="F12" t="s">
         <v>681</v>
       </c>
@@ -27412,11 +27526,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="389"/>
-      <c r="B13" s="390"/>
-      <c r="C13" s="390"/>
-      <c r="D13" s="390"/>
-      <c r="E13" s="391"/>
+      <c r="A13" s="395"/>
+      <c r="B13" s="396"/>
+      <c r="C13" s="396"/>
+      <c r="D13" s="396"/>
+      <c r="E13" s="397"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -27437,11 +27551,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="389"/>
-      <c r="B14" s="390"/>
-      <c r="C14" s="390"/>
-      <c r="D14" s="390"/>
-      <c r="E14" s="391"/>
+      <c r="A14" s="395"/>
+      <c r="B14" s="396"/>
+      <c r="C14" s="396"/>
+      <c r="D14" s="396"/>
+      <c r="E14" s="397"/>
       <c r="F14" t="s">
         <v>678</v>
       </c>
@@ -27464,11 +27578,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="392"/>
-      <c r="B15" s="393"/>
-      <c r="C15" s="393"/>
-      <c r="D15" s="393"/>
-      <c r="E15" s="394"/>
+      <c r="A15" s="398"/>
+      <c r="B15" s="399"/>
+      <c r="C15" s="399"/>
+      <c r="D15" s="399"/>
+      <c r="E15" s="400"/>
       <c r="F15" s="24"/>
       <c r="H15" s="192"/>
       <c r="I15" s="4" t="s">
@@ -27526,17 +27640,17 @@
       <c r="F17" s="188"/>
       <c r="G17" s="129"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="370" t="s">
+      <c r="I17" s="377" t="s">
         <v>1178</v>
       </c>
-      <c r="J17" s="370"/>
-      <c r="K17" s="370"/>
-      <c r="L17" s="370"/>
-      <c r="M17" s="370"/>
-      <c r="N17" s="370"/>
-      <c r="O17" s="370"/>
-      <c r="P17" s="370"/>
-      <c r="Q17" s="370"/>
+      <c r="J17" s="377"/>
+      <c r="K17" s="377"/>
+      <c r="L17" s="377"/>
+      <c r="M17" s="377"/>
+      <c r="N17" s="377"/>
+      <c r="O17" s="377"/>
+      <c r="P17" s="377"/>
+      <c r="Q17" s="377"/>
       <c r="S17" t="s">
         <v>359</v>
       </c>
@@ -31822,10 +31936,10 @@
       <c r="K232" s="35"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="397" t="s">
+      <c r="O232" s="403" t="s">
         <v>1226</v>
       </c>
-      <c r="P232" s="398"/>
+      <c r="P232" s="404"/>
       <c r="Q232" s="6"/>
     </row>
     <row r="233" spans="2:17">

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="1494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3028" uniqueCount="1496">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -4982,6 +4982,12 @@
   </si>
   <si>
     <t>AWS/STS</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>server contact = success/failure</t>
   </si>
 </sst>
 </file>
@@ -6268,6 +6274,7 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6334,6 +6341,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6379,18 +6413,6 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6412,8 +6434,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6445,9 +6482,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6457,17 +6491,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6520,57 +6599,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6592,53 +6620,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6679,42 +6671,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12527,10 +12533,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="402" t="s">
+      <c r="L35" s="412" t="s">
         <v>374</v>
       </c>
-      <c r="M35" s="402"/>
+      <c r="M35" s="412"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -14460,10 +14466,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="403" t="s">
+      <c r="A155" s="413" t="s">
         <v>993</v>
       </c>
-      <c r="B155" s="403"/>
+      <c r="B155" s="413"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="93" t="s">
@@ -16053,18 +16059,18 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="404" t="s">
+      <c r="E6" s="421" t="s">
         <v>406</v>
       </c>
-      <c r="F6" s="369"/>
-      <c r="G6" s="368" t="s">
+      <c r="F6" s="370"/>
+      <c r="G6" s="369" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="368"/>
-      <c r="I6" s="368"/>
-      <c r="J6" s="368"/>
-      <c r="K6" s="368"/>
-      <c r="L6" s="369"/>
+      <c r="H6" s="369"/>
+      <c r="I6" s="369"/>
+      <c r="J6" s="369"/>
+      <c r="K6" s="369"/>
+      <c r="L6" s="370"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="28" t="s">
@@ -16074,7 +16080,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="412">
+      <c r="D7" s="418">
         <v>80</v>
       </c>
       <c r="E7" s="66"/>
@@ -16092,7 +16098,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="412"/>
+      <c r="D8" s="418"/>
       <c r="E8" s="58" t="s">
         <v>408</v>
       </c>
@@ -16127,7 +16133,7 @@
       <c r="B9" t="s">
         <v>407</v>
       </c>
-      <c r="D9" s="412"/>
+      <c r="D9" s="418"/>
       <c r="E9" s="232"/>
       <c r="F9" s="238"/>
       <c r="G9" s="232"/>
@@ -16151,7 +16157,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="412"/>
+      <c r="D10" s="418"/>
       <c r="E10" s="66"/>
       <c r="F10" s="237"/>
       <c r="G10" s="66"/>
@@ -16175,7 +16181,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="412"/>
+      <c r="D11" s="418"/>
       <c r="E11" s="58" t="s">
         <v>412</v>
       </c>
@@ -16204,7 +16210,7 @@
       <c r="B12" s="209" t="s">
         <v>416</v>
       </c>
-      <c r="D12" s="412"/>
+      <c r="D12" s="418"/>
       <c r="E12" s="232"/>
       <c r="F12" s="238"/>
       <c r="G12" s="232"/>
@@ -16222,7 +16228,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="412"/>
+      <c r="D13" s="418"/>
       <c r="E13" s="66"/>
       <c r="F13" s="237"/>
       <c r="G13" s="66"/>
@@ -16238,7 +16244,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="412"/>
+      <c r="D14" s="418"/>
       <c r="E14" s="58" t="s">
         <v>417</v>
       </c>
@@ -16262,7 +16268,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="412"/>
+      <c r="D15" s="418"/>
       <c r="E15" s="232"/>
       <c r="F15" s="238"/>
       <c r="G15" s="232"/>
@@ -16278,7 +16284,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="412"/>
+      <c r="D16" s="418"/>
       <c r="E16" s="66"/>
       <c r="F16" s="237"/>
       <c r="G16" s="59"/>
@@ -16294,7 +16300,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="412"/>
+      <c r="D17" s="418"/>
       <c r="E17" s="58" t="s">
         <v>421</v>
       </c>
@@ -16318,7 +16324,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="412"/>
+      <c r="D18" s="418"/>
       <c r="E18" s="232"/>
       <c r="F18" s="238"/>
       <c r="G18" s="321"/>
@@ -16335,20 +16341,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="405" t="s">
+      <c r="E19" s="422" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="406"/>
-      <c r="G19" s="405" t="s">
+      <c r="F19" s="423"/>
+      <c r="G19" s="422" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="406"/>
-      <c r="I19" s="405" t="s">
+      <c r="H19" s="423"/>
+      <c r="I19" s="422" t="s">
         <v>196</v>
       </c>
-      <c r="J19" s="407"/>
-      <c r="K19" s="407"/>
-      <c r="L19" s="406"/>
+      <c r="J19" s="424"/>
+      <c r="K19" s="424"/>
+      <c r="L19" s="423"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -16413,12 +16419,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="414"/>
-      <c r="H24" s="414"/>
-      <c r="I24" s="414"/>
-      <c r="J24" s="414"/>
-      <c r="K24" s="414"/>
-      <c r="L24" s="414"/>
+      <c r="G24" s="420"/>
+      <c r="H24" s="420"/>
+      <c r="I24" s="420"/>
+      <c r="J24" s="420"/>
+      <c r="K24" s="420"/>
+      <c r="L24" s="420"/>
       <c r="O24" s="40" t="s">
         <v>179</v>
       </c>
@@ -16791,11 +16797,11 @@
       <c r="G47" s="222" t="s">
         <v>883</v>
       </c>
-      <c r="H47" s="400" t="s">
+      <c r="H47" s="410" t="s">
         <v>1354</v>
       </c>
-      <c r="I47" s="413"/>
-      <c r="J47" s="401"/>
+      <c r="I47" s="419"/>
+      <c r="J47" s="411"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -17401,16 +17407,16 @@
         <v>1048</v>
       </c>
       <c r="F131" s="38"/>
-      <c r="G131" s="410" t="s">
+      <c r="G131" s="416" t="s">
         <v>1041</v>
       </c>
-      <c r="H131" s="410"/>
-      <c r="I131" s="410"/>
-      <c r="J131" s="410"/>
-      <c r="K131" s="410"/>
-      <c r="L131" s="410"/>
-      <c r="M131" s="410"/>
-      <c r="N131" s="410"/>
+      <c r="H131" s="416"/>
+      <c r="I131" s="416"/>
+      <c r="J131" s="416"/>
+      <c r="K131" s="416"/>
+      <c r="L131" s="416"/>
+      <c r="M131" s="416"/>
+      <c r="N131" s="416"/>
       <c r="O131" s="38"/>
     </row>
     <row r="132" spans="2:15">
@@ -17547,29 +17553,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="38"/>
-      <c r="G141" s="411"/>
-      <c r="H141" s="411"/>
-      <c r="I141" s="411"/>
-      <c r="J141" s="411"/>
-      <c r="K141" s="411"/>
-      <c r="L141" s="411"/>
-      <c r="M141" s="411"/>
-      <c r="N141" s="411"/>
-      <c r="O141" s="411"/>
+      <c r="G141" s="417"/>
+      <c r="H141" s="417"/>
+      <c r="I141" s="417"/>
+      <c r="J141" s="417"/>
+      <c r="K141" s="417"/>
+      <c r="L141" s="417"/>
+      <c r="M141" s="417"/>
+      <c r="N141" s="417"/>
+      <c r="O141" s="417"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="411"/>
-      <c r="H142" s="411"/>
-      <c r="I142" s="411"/>
-      <c r="J142" s="411"/>
-      <c r="K142" s="411"/>
-      <c r="L142" s="411"/>
-      <c r="M142" s="411"/>
-      <c r="N142" s="411"/>
-      <c r="O142" s="411"/>
+      <c r="G142" s="417"/>
+      <c r="H142" s="417"/>
+      <c r="I142" s="417"/>
+      <c r="J142" s="417"/>
+      <c r="K142" s="417"/>
+      <c r="L142" s="417"/>
+      <c r="M142" s="417"/>
+      <c r="N142" s="417"/>
+      <c r="O142" s="417"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -17613,7 +17619,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="408" t="s">
+      <c r="D158" s="414" t="s">
         <v>1320</v>
       </c>
       <c r="E158" s="66"/>
@@ -17626,7 +17632,7 @@
       <c r="L158" s="237"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="409"/>
+      <c r="D159" s="415"/>
       <c r="E159" s="313" t="s">
         <v>1318</v>
       </c>
@@ -17648,7 +17654,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="409"/>
+      <c r="D160" s="415"/>
       <c r="E160" s="232"/>
       <c r="F160" s="238"/>
       <c r="G160" s="232"/>
@@ -17659,7 +17665,7 @@
       <c r="L160" s="238"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="409"/>
+      <c r="D161" s="415"/>
       <c r="E161" s="315"/>
       <c r="F161" s="316"/>
       <c r="G161" s="315"/>
@@ -17670,7 +17676,7 @@
       <c r="L161" s="316"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="409"/>
+      <c r="D162" s="415"/>
       <c r="E162" s="317"/>
       <c r="F162" s="318"/>
       <c r="G162" s="317"/>
@@ -17684,7 +17690,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="409"/>
+      <c r="D163" s="415"/>
       <c r="E163" s="319"/>
       <c r="F163" s="320"/>
       <c r="G163" s="319"/>
@@ -17695,7 +17701,7 @@
       <c r="L163" s="320"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="409"/>
+      <c r="D164" s="415"/>
       <c r="E164" s="66"/>
       <c r="F164" s="237"/>
       <c r="G164" s="66"/>
@@ -17706,7 +17712,7 @@
       <c r="L164" s="237"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="409"/>
+      <c r="D165" s="415"/>
       <c r="E165" s="58"/>
       <c r="F165" s="312"/>
       <c r="G165" s="58"/>
@@ -17720,7 +17726,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="409"/>
+      <c r="D166" s="415"/>
       <c r="E166" s="232"/>
       <c r="F166" s="238"/>
       <c r="G166" s="232"/>
@@ -17731,7 +17737,7 @@
       <c r="L166" s="238"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="409"/>
+      <c r="D167" s="415"/>
       <c r="E167" s="66"/>
       <c r="F167" s="237"/>
       <c r="G167" s="59"/>
@@ -17742,7 +17748,7 @@
       <c r="L167" s="312"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="409"/>
+      <c r="D168" s="415"/>
       <c r="E168" s="58"/>
       <c r="F168" s="312"/>
       <c r="G168" s="59"/>
@@ -17756,7 +17762,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="409"/>
+      <c r="D169" s="415"/>
       <c r="E169" s="232"/>
       <c r="F169" s="238"/>
       <c r="G169" s="321"/>
@@ -17936,17 +17942,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -18191,13 +18197,13 @@
       <c r="C20" s="116">
         <v>43908</v>
       </c>
-      <c r="D20" s="415" t="s">
+      <c r="D20" s="425" t="s">
         <v>456</v>
       </c>
-      <c r="E20" s="415"/>
-      <c r="F20" s="415"/>
-      <c r="G20" s="415"/>
-      <c r="H20" s="415"/>
+      <c r="E20" s="425"/>
+      <c r="F20" s="425"/>
+      <c r="G20" s="425"/>
+      <c r="H20" s="425"/>
       <c r="I20" s="38" t="s">
         <v>457</v>
       </c>
@@ -18211,34 +18217,34 @@
       <c r="C21" s="426">
         <v>43909</v>
       </c>
-      <c r="D21" s="415"/>
-      <c r="E21" s="415"/>
-      <c r="F21" s="415"/>
-      <c r="G21" s="415"/>
-      <c r="H21" s="415"/>
+      <c r="D21" s="425"/>
+      <c r="E21" s="425"/>
+      <c r="F21" s="425"/>
+      <c r="G21" s="425"/>
+      <c r="H21" s="425"/>
       <c r="I21" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="J21" s="415"/>
-      <c r="K21" s="415"/>
-      <c r="L21" s="415" t="s">
+      <c r="J21" s="425"/>
+      <c r="K21" s="425"/>
+      <c r="L21" s="425" t="s">
         <v>459</v>
       </c>
-      <c r="M21" s="415"/>
-      <c r="N21" s="415"/>
+      <c r="M21" s="425"/>
+      <c r="N21" s="425"/>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="426"/>
-      <c r="D22" s="415"/>
-      <c r="E22" s="415"/>
-      <c r="F22" s="415"/>
-      <c r="G22" s="415"/>
-      <c r="H22" s="415"/>
-      <c r="I22" s="375" t="s">
+      <c r="D22" s="425"/>
+      <c r="E22" s="425"/>
+      <c r="F22" s="425"/>
+      <c r="G22" s="425"/>
+      <c r="H22" s="425"/>
+      <c r="I22" s="376" t="s">
         <v>460</v>
       </c>
-      <c r="J22" s="415"/>
-      <c r="K22" s="415"/>
+      <c r="J22" s="425"/>
+      <c r="K22" s="425"/>
       <c r="L22" s="117" t="s">
         <v>461</v>
       </c>
@@ -18247,30 +18253,30 @@
     </row>
     <row r="23" spans="3:14">
       <c r="C23" s="426"/>
-      <c r="D23" s="415"/>
-      <c r="E23" s="415"/>
-      <c r="F23" s="415"/>
-      <c r="G23" s="415"/>
-      <c r="H23" s="415"/>
-      <c r="I23" s="375"/>
-      <c r="J23" s="415"/>
-      <c r="K23" s="415"/>
-      <c r="L23" s="415" t="s">
+      <c r="D23" s="425"/>
+      <c r="E23" s="425"/>
+      <c r="F23" s="425"/>
+      <c r="G23" s="425"/>
+      <c r="H23" s="425"/>
+      <c r="I23" s="376"/>
+      <c r="J23" s="425"/>
+      <c r="K23" s="425"/>
+      <c r="L23" s="425" t="s">
         <v>462</v>
       </c>
-      <c r="M23" s="415"/>
-      <c r="N23" s="415"/>
+      <c r="M23" s="425"/>
+      <c r="N23" s="425"/>
     </row>
     <row r="24" spans="3:14">
       <c r="C24" s="426"/>
-      <c r="D24" s="415"/>
-      <c r="E24" s="415"/>
-      <c r="F24" s="415"/>
-      <c r="G24" s="415"/>
-      <c r="H24" s="415"/>
-      <c r="I24" s="375"/>
-      <c r="J24" s="415"/>
-      <c r="K24" s="415"/>
+      <c r="D24" s="425"/>
+      <c r="E24" s="425"/>
+      <c r="F24" s="425"/>
+      <c r="G24" s="425"/>
+      <c r="H24" s="425"/>
+      <c r="I24" s="376"/>
+      <c r="J24" s="425"/>
+      <c r="K24" s="425"/>
       <c r="L24" s="118" t="s">
         <v>460</v>
       </c>
@@ -18281,13 +18287,13 @@
       <c r="C25" s="116">
         <v>43910</v>
       </c>
-      <c r="D25" s="415" t="s">
+      <c r="D25" s="425" t="s">
         <v>463</v>
       </c>
-      <c r="E25" s="415"/>
-      <c r="F25" s="415"/>
-      <c r="G25" s="415"/>
-      <c r="H25" s="415"/>
+      <c r="E25" s="425"/>
+      <c r="F25" s="425"/>
+      <c r="G25" s="425"/>
+      <c r="H25" s="425"/>
       <c r="I25" s="38" t="s">
         <v>464</v>
       </c>
@@ -18301,16 +18307,16 @@
       <c r="C26" s="116">
         <v>43911</v>
       </c>
-      <c r="D26" s="416"/>
-      <c r="E26" s="417"/>
-      <c r="F26" s="417"/>
-      <c r="G26" s="417"/>
-      <c r="H26" s="418"/>
-      <c r="I26" s="423" t="s">
+      <c r="D26" s="427"/>
+      <c r="E26" s="428"/>
+      <c r="F26" s="428"/>
+      <c r="G26" s="428"/>
+      <c r="H26" s="429"/>
+      <c r="I26" s="434" t="s">
         <v>460</v>
       </c>
-      <c r="J26" s="416"/>
-      <c r="K26" s="418"/>
+      <c r="J26" s="427"/>
+      <c r="K26" s="429"/>
       <c r="L26" s="117" t="s">
         <v>461</v>
       </c>
@@ -18319,30 +18325,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
-      <c r="D27" s="419"/>
-      <c r="E27" s="414"/>
-      <c r="F27" s="414"/>
-      <c r="G27" s="414"/>
-      <c r="H27" s="420"/>
-      <c r="I27" s="424"/>
-      <c r="J27" s="419"/>
-      <c r="K27" s="420"/>
-      <c r="L27" s="415" t="s">
+      <c r="D27" s="430"/>
+      <c r="E27" s="420"/>
+      <c r="F27" s="420"/>
+      <c r="G27" s="420"/>
+      <c r="H27" s="431"/>
+      <c r="I27" s="435"/>
+      <c r="J27" s="430"/>
+      <c r="K27" s="431"/>
+      <c r="L27" s="425" t="s">
         <v>465</v>
       </c>
-      <c r="M27" s="415"/>
-      <c r="N27" s="415"/>
+      <c r="M27" s="425"/>
+      <c r="N27" s="425"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
-      <c r="D28" s="419"/>
-      <c r="E28" s="414"/>
-      <c r="F28" s="414"/>
-      <c r="G28" s="414"/>
-      <c r="H28" s="420"/>
-      <c r="I28" s="424"/>
-      <c r="J28" s="419"/>
-      <c r="K28" s="420"/>
+      <c r="D28" s="430"/>
+      <c r="E28" s="420"/>
+      <c r="F28" s="420"/>
+      <c r="G28" s="420"/>
+      <c r="H28" s="431"/>
+      <c r="I28" s="435"/>
+      <c r="J28" s="430"/>
+      <c r="K28" s="431"/>
       <c r="L28" s="118" t="s">
         <v>460</v>
       </c>
@@ -18351,14 +18357,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
-      <c r="D29" s="421"/>
-      <c r="E29" s="402"/>
-      <c r="F29" s="402"/>
-      <c r="G29" s="402"/>
-      <c r="H29" s="422"/>
-      <c r="I29" s="425"/>
-      <c r="J29" s="421"/>
-      <c r="K29" s="422"/>
+      <c r="D29" s="432"/>
+      <c r="E29" s="412"/>
+      <c r="F29" s="412"/>
+      <c r="G29" s="412"/>
+      <c r="H29" s="433"/>
+      <c r="I29" s="436"/>
+      <c r="J29" s="432"/>
+      <c r="K29" s="433"/>
       <c r="L29" s="119" t="s">
         <v>466</v>
       </c>
@@ -18406,13 +18412,13 @@
       <c r="C33" s="116">
         <v>43908</v>
       </c>
-      <c r="D33" s="415" t="s">
+      <c r="D33" s="425" t="s">
         <v>456</v>
       </c>
-      <c r="E33" s="415"/>
-      <c r="F33" s="415"/>
-      <c r="G33" s="415"/>
-      <c r="H33" s="415"/>
+      <c r="E33" s="425"/>
+      <c r="F33" s="425"/>
+      <c r="G33" s="425"/>
+      <c r="H33" s="425"/>
       <c r="I33" s="38" t="s">
         <v>457</v>
       </c>
@@ -18426,30 +18432,30 @@
       <c r="C34" s="426">
         <v>43909</v>
       </c>
-      <c r="D34" s="415"/>
-      <c r="E34" s="415"/>
-      <c r="F34" s="415"/>
-      <c r="G34" s="415"/>
-      <c r="H34" s="415"/>
-      <c r="I34" s="427"/>
-      <c r="J34" s="415"/>
-      <c r="K34" s="415"/>
-      <c r="L34" s="415" t="s">
+      <c r="D34" s="425"/>
+      <c r="E34" s="425"/>
+      <c r="F34" s="425"/>
+      <c r="G34" s="425"/>
+      <c r="H34" s="425"/>
+      <c r="I34" s="437"/>
+      <c r="J34" s="425"/>
+      <c r="K34" s="425"/>
+      <c r="L34" s="425" t="s">
         <v>459</v>
       </c>
-      <c r="M34" s="415"/>
-      <c r="N34" s="415"/>
+      <c r="M34" s="425"/>
+      <c r="N34" s="425"/>
     </row>
     <row r="35" spans="1:14">
       <c r="C35" s="426"/>
-      <c r="D35" s="415"/>
-      <c r="E35" s="415"/>
-      <c r="F35" s="415"/>
-      <c r="G35" s="415"/>
-      <c r="H35" s="415"/>
-      <c r="I35" s="428"/>
-      <c r="J35" s="415"/>
-      <c r="K35" s="415"/>
+      <c r="D35" s="425"/>
+      <c r="E35" s="425"/>
+      <c r="F35" s="425"/>
+      <c r="G35" s="425"/>
+      <c r="H35" s="425"/>
+      <c r="I35" s="438"/>
+      <c r="J35" s="425"/>
+      <c r="K35" s="425"/>
       <c r="L35" s="117" t="s">
         <v>461</v>
       </c>
@@ -18458,30 +18464,30 @@
     </row>
     <row r="36" spans="1:14">
       <c r="C36" s="426"/>
-      <c r="D36" s="415"/>
-      <c r="E36" s="415"/>
-      <c r="F36" s="415"/>
-      <c r="G36" s="415"/>
-      <c r="H36" s="415"/>
-      <c r="I36" s="428"/>
-      <c r="J36" s="415"/>
-      <c r="K36" s="415"/>
-      <c r="L36" s="415" t="s">
+      <c r="D36" s="425"/>
+      <c r="E36" s="425"/>
+      <c r="F36" s="425"/>
+      <c r="G36" s="425"/>
+      <c r="H36" s="425"/>
+      <c r="I36" s="438"/>
+      <c r="J36" s="425"/>
+      <c r="K36" s="425"/>
+      <c r="L36" s="425" t="s">
         <v>462</v>
       </c>
-      <c r="M36" s="415"/>
-      <c r="N36" s="415"/>
+      <c r="M36" s="425"/>
+      <c r="N36" s="425"/>
     </row>
     <row r="37" spans="1:14">
       <c r="C37" s="426"/>
-      <c r="D37" s="415"/>
-      <c r="E37" s="415"/>
-      <c r="F37" s="415"/>
-      <c r="G37" s="415"/>
-      <c r="H37" s="415"/>
-      <c r="I37" s="429"/>
-      <c r="J37" s="415"/>
-      <c r="K37" s="415"/>
+      <c r="D37" s="425"/>
+      <c r="E37" s="425"/>
+      <c r="F37" s="425"/>
+      <c r="G37" s="425"/>
+      <c r="H37" s="425"/>
+      <c r="I37" s="439"/>
+      <c r="J37" s="425"/>
+      <c r="K37" s="425"/>
       <c r="L37" s="118" t="s">
         <v>467</v>
       </c>
@@ -18492,13 +18498,13 @@
       <c r="C38" s="116">
         <v>43910</v>
       </c>
-      <c r="D38" s="415" t="s">
+      <c r="D38" s="425" t="s">
         <v>463</v>
       </c>
-      <c r="E38" s="415"/>
-      <c r="F38" s="415"/>
-      <c r="G38" s="415"/>
-      <c r="H38" s="415"/>
+      <c r="E38" s="425"/>
+      <c r="F38" s="425"/>
+      <c r="G38" s="425"/>
+      <c r="H38" s="425"/>
       <c r="I38" s="38" t="s">
         <v>464</v>
       </c>
@@ -18512,14 +18518,14 @@
       <c r="C39" s="116">
         <v>43911</v>
       </c>
-      <c r="D39" s="416"/>
-      <c r="E39" s="417"/>
-      <c r="F39" s="417"/>
-      <c r="G39" s="417"/>
-      <c r="H39" s="418"/>
-      <c r="I39" s="423"/>
-      <c r="J39" s="416"/>
-      <c r="K39" s="418"/>
+      <c r="D39" s="427"/>
+      <c r="E39" s="428"/>
+      <c r="F39" s="428"/>
+      <c r="G39" s="428"/>
+      <c r="H39" s="429"/>
+      <c r="I39" s="434"/>
+      <c r="J39" s="427"/>
+      <c r="K39" s="429"/>
       <c r="L39" s="117" t="s">
         <v>461</v>
       </c>
@@ -18528,30 +18534,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
-      <c r="D40" s="419"/>
-      <c r="E40" s="414"/>
-      <c r="F40" s="414"/>
-      <c r="G40" s="414"/>
-      <c r="H40" s="420"/>
-      <c r="I40" s="424"/>
-      <c r="J40" s="419"/>
-      <c r="K40" s="420"/>
-      <c r="L40" s="415" t="s">
+      <c r="D40" s="430"/>
+      <c r="E40" s="420"/>
+      <c r="F40" s="420"/>
+      <c r="G40" s="420"/>
+      <c r="H40" s="431"/>
+      <c r="I40" s="435"/>
+      <c r="J40" s="430"/>
+      <c r="K40" s="431"/>
+      <c r="L40" s="425" t="s">
         <v>465</v>
       </c>
-      <c r="M40" s="415"/>
-      <c r="N40" s="415"/>
+      <c r="M40" s="425"/>
+      <c r="N40" s="425"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
-      <c r="D41" s="419"/>
-      <c r="E41" s="414"/>
-      <c r="F41" s="414"/>
-      <c r="G41" s="414"/>
-      <c r="H41" s="420"/>
-      <c r="I41" s="425"/>
-      <c r="J41" s="419"/>
-      <c r="K41" s="420"/>
+      <c r="D41" s="430"/>
+      <c r="E41" s="420"/>
+      <c r="F41" s="420"/>
+      <c r="G41" s="420"/>
+      <c r="H41" s="431"/>
+      <c r="I41" s="436"/>
+      <c r="J41" s="430"/>
+      <c r="K41" s="431"/>
       <c r="L41" s="118" t="s">
         <v>467</v>
       </c>
@@ -18560,16 +18566,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
-      <c r="D42" s="421"/>
-      <c r="E42" s="402"/>
-      <c r="F42" s="402"/>
-      <c r="G42" s="402"/>
-      <c r="H42" s="422"/>
+      <c r="D42" s="432"/>
+      <c r="E42" s="412"/>
+      <c r="F42" s="412"/>
+      <c r="G42" s="412"/>
+      <c r="H42" s="433"/>
       <c r="I42" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="J42" s="421"/>
-      <c r="K42" s="422"/>
+      <c r="J42" s="432"/>
+      <c r="K42" s="433"/>
       <c r="L42" s="119" t="s">
         <v>466</v>
       </c>
@@ -18881,12 +18887,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -18894,17 +18905,12 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18926,29 +18932,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="451" t="s">
+      <c r="B2" s="450" t="s">
         <v>1076</v>
       </c>
-      <c r="C2" s="451"/>
-      <c r="D2" s="451"/>
-      <c r="E2" s="451"/>
-      <c r="F2" s="451"/>
-      <c r="G2" s="451"/>
-      <c r="H2" s="451"/>
-      <c r="I2" s="451"/>
-      <c r="J2" s="451"/>
-      <c r="K2" s="451"/>
-      <c r="L2" s="451"/>
-      <c r="M2" s="451"/>
-      <c r="N2" s="451"/>
-      <c r="O2" s="451"/>
-      <c r="P2" s="451"/>
-      <c r="Q2" s="451"/>
-      <c r="R2" s="451"/>
-      <c r="S2" s="451"/>
-      <c r="T2" s="451"/>
-      <c r="U2" s="451"/>
-      <c r="V2" s="451"/>
+      <c r="C2" s="450"/>
+      <c r="D2" s="450"/>
+      <c r="E2" s="450"/>
+      <c r="F2" s="450"/>
+      <c r="G2" s="450"/>
+      <c r="H2" s="450"/>
+      <c r="I2" s="450"/>
+      <c r="J2" s="450"/>
+      <c r="K2" s="450"/>
+      <c r="L2" s="450"/>
+      <c r="M2" s="450"/>
+      <c r="N2" s="450"/>
+      <c r="O2" s="450"/>
+      <c r="P2" s="450"/>
+      <c r="Q2" s="450"/>
+      <c r="R2" s="450"/>
+      <c r="S2" s="450"/>
+      <c r="T2" s="450"/>
+      <c r="U2" s="450"/>
+      <c r="V2" s="450"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -18981,22 +18987,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="430" t="s">
+      <c r="G5" s="453" t="s">
         <v>518</v>
       </c>
-      <c r="H5" s="430"/>
-      <c r="I5" s="430" t="s">
+      <c r="H5" s="453"/>
+      <c r="I5" s="453" t="s">
         <v>519</v>
       </c>
-      <c r="J5" s="430"/>
-      <c r="K5" s="430"/>
-      <c r="L5" s="430"/>
-      <c r="M5" s="430"/>
-      <c r="N5" s="430"/>
-      <c r="O5" s="430" t="s">
+      <c r="J5" s="453"/>
+      <c r="K5" s="453"/>
+      <c r="L5" s="453"/>
+      <c r="M5" s="453"/>
+      <c r="N5" s="453"/>
+      <c r="O5" s="453" t="s">
         <v>520</v>
       </c>
-      <c r="P5" s="430"/>
+      <c r="P5" s="453"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -19008,7 +19014,7 @@
       <c r="D6" s="135"/>
       <c r="E6" s="136"/>
       <c r="F6" s="138"/>
-      <c r="G6" s="431" t="s">
+      <c r="G6" s="458" t="s">
         <v>521</v>
       </c>
       <c r="H6" s="111"/>
@@ -19037,26 +19043,26 @@
       </c>
       <c r="E7" s="138"/>
       <c r="F7" s="138"/>
-      <c r="G7" s="432"/>
-      <c r="H7" s="434" t="s">
+      <c r="G7" s="397"/>
+      <c r="H7" s="459" t="s">
         <v>523</v>
       </c>
-      <c r="I7" s="437" t="s">
+      <c r="I7" s="462" t="s">
         <v>524</v>
       </c>
-      <c r="J7" s="438"/>
-      <c r="K7" s="439" t="s">
+      <c r="J7" s="463"/>
+      <c r="K7" s="464" t="s">
         <v>525</v>
       </c>
-      <c r="L7" s="440"/>
-      <c r="M7" s="437" t="s">
+      <c r="L7" s="465"/>
+      <c r="M7" s="462" t="s">
         <v>526</v>
       </c>
-      <c r="N7" s="438"/>
-      <c r="O7" s="445" t="s">
+      <c r="N7" s="463"/>
+      <c r="O7" s="470" t="s">
         <v>527</v>
       </c>
-      <c r="P7" s="446"/>
+      <c r="P7" s="471"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -19068,16 +19074,16 @@
       <c r="D8" s="139"/>
       <c r="E8" s="140"/>
       <c r="F8" s="138"/>
-      <c r="G8" s="432"/>
-      <c r="H8" s="435"/>
-      <c r="I8" s="372"/>
-      <c r="J8" s="374"/>
-      <c r="K8" s="441"/>
-      <c r="L8" s="442"/>
-      <c r="M8" s="372"/>
-      <c r="N8" s="374"/>
-      <c r="O8" s="447"/>
-      <c r="P8" s="448"/>
+      <c r="G8" s="397"/>
+      <c r="H8" s="460"/>
+      <c r="I8" s="373"/>
+      <c r="J8" s="375"/>
+      <c r="K8" s="466"/>
+      <c r="L8" s="467"/>
+      <c r="M8" s="373"/>
+      <c r="N8" s="375"/>
+      <c r="O8" s="472"/>
+      <c r="P8" s="473"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="38" t="s">
         <v>182</v>
@@ -19095,16 +19101,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="432"/>
-      <c r="H9" s="435"/>
-      <c r="I9" s="372"/>
-      <c r="J9" s="374"/>
-      <c r="K9" s="441"/>
-      <c r="L9" s="442"/>
-      <c r="M9" s="372"/>
-      <c r="N9" s="374"/>
-      <c r="O9" s="447"/>
-      <c r="P9" s="448"/>
+      <c r="G9" s="397"/>
+      <c r="H9" s="460"/>
+      <c r="I9" s="373"/>
+      <c r="J9" s="375"/>
+      <c r="K9" s="466"/>
+      <c r="L9" s="467"/>
+      <c r="M9" s="373"/>
+      <c r="N9" s="375"/>
+      <c r="O9" s="472"/>
+      <c r="P9" s="473"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -19124,16 +19130,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="432"/>
-      <c r="H10" s="435"/>
-      <c r="I10" s="372"/>
-      <c r="J10" s="374"/>
-      <c r="K10" s="441"/>
-      <c r="L10" s="442"/>
-      <c r="M10" s="372"/>
-      <c r="N10" s="374"/>
-      <c r="O10" s="447"/>
-      <c r="P10" s="448"/>
+      <c r="G10" s="397"/>
+      <c r="H10" s="460"/>
+      <c r="I10" s="373"/>
+      <c r="J10" s="375"/>
+      <c r="K10" s="466"/>
+      <c r="L10" s="467"/>
+      <c r="M10" s="373"/>
+      <c r="N10" s="375"/>
+      <c r="O10" s="472"/>
+      <c r="P10" s="473"/>
       <c r="Q10" s="5" t="s">
         <v>187</v>
       </c>
@@ -19149,16 +19155,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="432"/>
-      <c r="H11" s="435"/>
-      <c r="I11" s="372"/>
-      <c r="J11" s="374"/>
-      <c r="K11" s="441"/>
-      <c r="L11" s="442"/>
-      <c r="M11" s="372"/>
-      <c r="N11" s="374"/>
-      <c r="O11" s="447"/>
-      <c r="P11" s="448"/>
+      <c r="G11" s="397"/>
+      <c r="H11" s="460"/>
+      <c r="I11" s="373"/>
+      <c r="J11" s="375"/>
+      <c r="K11" s="466"/>
+      <c r="L11" s="467"/>
+      <c r="M11" s="373"/>
+      <c r="N11" s="375"/>
+      <c r="O11" s="472"/>
+      <c r="P11" s="473"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -19176,16 +19182,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="432"/>
-      <c r="H12" s="435"/>
-      <c r="I12" s="372"/>
-      <c r="J12" s="374"/>
-      <c r="K12" s="441"/>
-      <c r="L12" s="442"/>
-      <c r="M12" s="372"/>
-      <c r="N12" s="374"/>
-      <c r="O12" s="447"/>
-      <c r="P12" s="448"/>
+      <c r="G12" s="397"/>
+      <c r="H12" s="460"/>
+      <c r="I12" s="373"/>
+      <c r="J12" s="375"/>
+      <c r="K12" s="466"/>
+      <c r="L12" s="467"/>
+      <c r="M12" s="373"/>
+      <c r="N12" s="375"/>
+      <c r="O12" s="472"/>
+      <c r="P12" s="473"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -19199,16 +19205,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="432"/>
-      <c r="H13" s="435"/>
-      <c r="I13" s="372"/>
-      <c r="J13" s="374"/>
-      <c r="K13" s="441"/>
-      <c r="L13" s="442"/>
-      <c r="M13" s="372"/>
-      <c r="N13" s="374"/>
-      <c r="O13" s="447"/>
-      <c r="P13" s="448"/>
+      <c r="G13" s="397"/>
+      <c r="H13" s="460"/>
+      <c r="I13" s="373"/>
+      <c r="J13" s="375"/>
+      <c r="K13" s="466"/>
+      <c r="L13" s="467"/>
+      <c r="M13" s="373"/>
+      <c r="N13" s="375"/>
+      <c r="O13" s="472"/>
+      <c r="P13" s="473"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -19220,16 +19226,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="432"/>
-      <c r="H14" s="435"/>
-      <c r="I14" s="372"/>
-      <c r="J14" s="374"/>
-      <c r="K14" s="441"/>
-      <c r="L14" s="442"/>
-      <c r="M14" s="372"/>
-      <c r="N14" s="374"/>
-      <c r="O14" s="447"/>
-      <c r="P14" s="448"/>
+      <c r="G14" s="397"/>
+      <c r="H14" s="460"/>
+      <c r="I14" s="373"/>
+      <c r="J14" s="375"/>
+      <c r="K14" s="466"/>
+      <c r="L14" s="467"/>
+      <c r="M14" s="373"/>
+      <c r="N14" s="375"/>
+      <c r="O14" s="472"/>
+      <c r="P14" s="473"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -19243,16 +19249,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="432"/>
-      <c r="H15" s="435"/>
-      <c r="I15" s="372"/>
-      <c r="J15" s="374"/>
-      <c r="K15" s="441"/>
-      <c r="L15" s="442"/>
-      <c r="M15" s="372"/>
-      <c r="N15" s="374"/>
-      <c r="O15" s="447"/>
-      <c r="P15" s="448"/>
+      <c r="G15" s="397"/>
+      <c r="H15" s="460"/>
+      <c r="I15" s="373"/>
+      <c r="J15" s="375"/>
+      <c r="K15" s="466"/>
+      <c r="L15" s="467"/>
+      <c r="M15" s="373"/>
+      <c r="N15" s="375"/>
+      <c r="O15" s="472"/>
+      <c r="P15" s="473"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -19264,16 +19270,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="432"/>
-      <c r="H16" s="435"/>
-      <c r="I16" s="372"/>
-      <c r="J16" s="374"/>
-      <c r="K16" s="441"/>
-      <c r="L16" s="442"/>
-      <c r="M16" s="372"/>
-      <c r="N16" s="374"/>
-      <c r="O16" s="447"/>
-      <c r="P16" s="448"/>
+      <c r="G16" s="397"/>
+      <c r="H16" s="460"/>
+      <c r="I16" s="373"/>
+      <c r="J16" s="375"/>
+      <c r="K16" s="466"/>
+      <c r="L16" s="467"/>
+      <c r="M16" s="373"/>
+      <c r="N16" s="375"/>
+      <c r="O16" s="472"/>
+      <c r="P16" s="473"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -19285,16 +19291,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="432"/>
-      <c r="H17" s="435"/>
-      <c r="I17" s="372"/>
-      <c r="J17" s="374"/>
-      <c r="K17" s="441"/>
-      <c r="L17" s="442"/>
-      <c r="M17" s="372"/>
-      <c r="N17" s="374"/>
-      <c r="O17" s="447"/>
-      <c r="P17" s="448"/>
+      <c r="G17" s="397"/>
+      <c r="H17" s="460"/>
+      <c r="I17" s="373"/>
+      <c r="J17" s="375"/>
+      <c r="K17" s="466"/>
+      <c r="L17" s="467"/>
+      <c r="M17" s="373"/>
+      <c r="N17" s="375"/>
+      <c r="O17" s="472"/>
+      <c r="P17" s="473"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -19306,16 +19312,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="432"/>
-      <c r="H18" s="435"/>
-      <c r="I18" s="372"/>
-      <c r="J18" s="374"/>
-      <c r="K18" s="441"/>
-      <c r="L18" s="442"/>
-      <c r="M18" s="372"/>
-      <c r="N18" s="374"/>
-      <c r="O18" s="447"/>
-      <c r="P18" s="448"/>
+      <c r="G18" s="397"/>
+      <c r="H18" s="460"/>
+      <c r="I18" s="373"/>
+      <c r="J18" s="375"/>
+      <c r="K18" s="466"/>
+      <c r="L18" s="467"/>
+      <c r="M18" s="373"/>
+      <c r="N18" s="375"/>
+      <c r="O18" s="472"/>
+      <c r="P18" s="473"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -19329,16 +19335,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="432"/>
-      <c r="H19" s="435"/>
-      <c r="I19" s="372"/>
-      <c r="J19" s="374"/>
-      <c r="K19" s="441"/>
-      <c r="L19" s="442"/>
-      <c r="M19" s="372"/>
-      <c r="N19" s="374"/>
-      <c r="O19" s="447"/>
-      <c r="P19" s="448"/>
+      <c r="G19" s="397"/>
+      <c r="H19" s="460"/>
+      <c r="I19" s="373"/>
+      <c r="J19" s="375"/>
+      <c r="K19" s="466"/>
+      <c r="L19" s="467"/>
+      <c r="M19" s="373"/>
+      <c r="N19" s="375"/>
+      <c r="O19" s="472"/>
+      <c r="P19" s="473"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -19350,16 +19356,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="433"/>
-      <c r="H20" s="436"/>
-      <c r="I20" s="383"/>
-      <c r="J20" s="385"/>
-      <c r="K20" s="443"/>
-      <c r="L20" s="444"/>
-      <c r="M20" s="383"/>
-      <c r="N20" s="385"/>
-      <c r="O20" s="449"/>
-      <c r="P20" s="450"/>
+      <c r="G20" s="398"/>
+      <c r="H20" s="461"/>
+      <c r="I20" s="384"/>
+      <c r="J20" s="386"/>
+      <c r="K20" s="468"/>
+      <c r="L20" s="469"/>
+      <c r="M20" s="384"/>
+      <c r="N20" s="386"/>
+      <c r="O20" s="474"/>
+      <c r="P20" s="475"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -19389,27 +19395,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="386" t="s">
+      <c r="D22" s="387" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="387"/>
+      <c r="E22" s="388"/>
       <c r="F22" s="265"/>
       <c r="G22" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="386" t="s">
+      <c r="H22" s="387" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="388"/>
-      <c r="J22" s="388"/>
-      <c r="K22" s="388"/>
-      <c r="L22" s="388"/>
-      <c r="M22" s="388"/>
-      <c r="N22" s="387"/>
-      <c r="O22" s="386" t="s">
+      <c r="I22" s="389"/>
+      <c r="J22" s="389"/>
+      <c r="K22" s="389"/>
+      <c r="L22" s="389"/>
+      <c r="M22" s="389"/>
+      <c r="N22" s="388"/>
+      <c r="O22" s="387" t="s">
         <v>528</v>
       </c>
-      <c r="P22" s="387"/>
+      <c r="P22" s="388"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -19440,59 +19446,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="451" t="s">
+      <c r="B25" s="450" t="s">
         <v>1075</v>
       </c>
-      <c r="C25" s="451"/>
-      <c r="D25" s="451"/>
-      <c r="E25" s="451"/>
-      <c r="F25" s="451"/>
-      <c r="G25" s="451"/>
-      <c r="H25" s="451"/>
-      <c r="I25" s="451"/>
-      <c r="J25" s="451"/>
-      <c r="K25" s="451"/>
-      <c r="L25" s="451"/>
-      <c r="M25" s="451"/>
-      <c r="N25" s="451"/>
-      <c r="O25" s="451"/>
-      <c r="P25" s="451"/>
-      <c r="Q25" s="451"/>
-      <c r="R25" s="451"/>
-      <c r="S25" s="451"/>
-      <c r="T25" s="451"/>
-      <c r="U25" s="451"/>
-      <c r="V25" s="451"/>
+      <c r="C25" s="450"/>
+      <c r="D25" s="450"/>
+      <c r="E25" s="450"/>
+      <c r="F25" s="450"/>
+      <c r="G25" s="450"/>
+      <c r="H25" s="450"/>
+      <c r="I25" s="450"/>
+      <c r="J25" s="450"/>
+      <c r="K25" s="450"/>
+      <c r="L25" s="450"/>
+      <c r="M25" s="450"/>
+      <c r="N25" s="450"/>
+      <c r="O25" s="450"/>
+      <c r="P25" s="450"/>
+      <c r="Q25" s="450"/>
+      <c r="R25" s="450"/>
+      <c r="S25" s="450"/>
+      <c r="T25" s="450"/>
+      <c r="U25" s="450"/>
+      <c r="V25" s="450"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="452" t="s">
+      <c r="C26" s="451" t="s">
         <v>570</v>
       </c>
-      <c r="D26" s="452"/>
-      <c r="E26" s="452"/>
-      <c r="F26" s="452"/>
-      <c r="G26" s="452"/>
-      <c r="H26" s="452"/>
-      <c r="I26" s="452"/>
-      <c r="J26" s="452"/>
-      <c r="K26" s="452"/>
-      <c r="L26" s="452"/>
-      <c r="M26" s="452"/>
+      <c r="D26" s="451"/>
+      <c r="E26" s="451"/>
+      <c r="F26" s="451"/>
+      <c r="G26" s="451"/>
+      <c r="H26" s="451"/>
+      <c r="I26" s="451"/>
+      <c r="J26" s="451"/>
+      <c r="K26" s="451"/>
+      <c r="L26" s="451"/>
+      <c r="M26" s="451"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="404" t="s">
+      <c r="E27" s="421" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="368"/>
-      <c r="G27" s="368"/>
-      <c r="H27" s="377"/>
-      <c r="I27" s="377"/>
-      <c r="J27" s="377"/>
-      <c r="K27" s="377"/>
-      <c r="L27" s="377"/>
-      <c r="M27" s="378"/>
+      <c r="F27" s="369"/>
+      <c r="G27" s="369"/>
+      <c r="H27" s="378"/>
+      <c r="I27" s="378"/>
+      <c r="J27" s="378"/>
+      <c r="K27" s="378"/>
+      <c r="L27" s="378"/>
+      <c r="M27" s="379"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -19525,11 +19531,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="453" t="s">
+      <c r="O29" s="452" t="s">
         <v>179</v>
       </c>
-      <c r="P29" s="453"/>
-      <c r="Q29" s="453"/>
+      <c r="P29" s="452"/>
+      <c r="Q29" s="452"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -19574,21 +19580,21 @@
         <v>190</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="457" t="s">
+      <c r="E32" s="447" t="s">
         <v>1079</v>
       </c>
-      <c r="F32" s="458"/>
-      <c r="G32" s="459"/>
-      <c r="H32" s="457" t="s">
+      <c r="F32" s="448"/>
+      <c r="G32" s="449"/>
+      <c r="H32" s="447" t="s">
         <v>1080</v>
       </c>
-      <c r="I32" s="458"/>
-      <c r="J32" s="459"/>
-      <c r="K32" s="457" t="s">
+      <c r="I32" s="448"/>
+      <c r="J32" s="449"/>
+      <c r="K32" s="447" t="s">
         <v>1081</v>
       </c>
-      <c r="L32" s="458"/>
-      <c r="M32" s="459"/>
+      <c r="L32" s="448"/>
+      <c r="M32" s="449"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -19605,15 +19611,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="457"/>
-      <c r="F33" s="458"/>
-      <c r="G33" s="459"/>
-      <c r="H33" s="457"/>
-      <c r="I33" s="458"/>
-      <c r="J33" s="459"/>
-      <c r="K33" s="457"/>
-      <c r="L33" s="458"/>
-      <c r="M33" s="459"/>
+      <c r="E33" s="447"/>
+      <c r="F33" s="448"/>
+      <c r="G33" s="449"/>
+      <c r="H33" s="447"/>
+      <c r="I33" s="448"/>
+      <c r="J33" s="449"/>
+      <c r="K33" s="447"/>
+      <c r="L33" s="448"/>
+      <c r="M33" s="449"/>
       <c r="N33" s="5" t="s">
         <v>187</v>
       </c>
@@ -19630,15 +19636,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="457"/>
-      <c r="F34" s="458"/>
-      <c r="G34" s="459"/>
-      <c r="H34" s="457"/>
-      <c r="I34" s="458"/>
-      <c r="J34" s="459"/>
-      <c r="K34" s="457"/>
-      <c r="L34" s="458"/>
-      <c r="M34" s="459"/>
+      <c r="E34" s="447"/>
+      <c r="F34" s="448"/>
+      <c r="G34" s="449"/>
+      <c r="H34" s="447"/>
+      <c r="I34" s="448"/>
+      <c r="J34" s="449"/>
+      <c r="K34" s="447"/>
+      <c r="L34" s="448"/>
+      <c r="M34" s="449"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -19649,15 +19655,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="457"/>
-      <c r="F35" s="458"/>
-      <c r="G35" s="459"/>
-      <c r="H35" s="457"/>
-      <c r="I35" s="458"/>
-      <c r="J35" s="459"/>
-      <c r="K35" s="457"/>
-      <c r="L35" s="458"/>
-      <c r="M35" s="459"/>
+      <c r="E35" s="447"/>
+      <c r="F35" s="448"/>
+      <c r="G35" s="449"/>
+      <c r="H35" s="447"/>
+      <c r="I35" s="448"/>
+      <c r="J35" s="449"/>
+      <c r="K35" s="447"/>
+      <c r="L35" s="448"/>
+      <c r="M35" s="449"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -19788,15 +19794,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="461"/>
-      <c r="F42" s="462"/>
-      <c r="G42" s="462"/>
-      <c r="H42" s="462"/>
-      <c r="I42" s="462"/>
-      <c r="J42" s="462"/>
-      <c r="K42" s="462"/>
-      <c r="L42" s="462"/>
-      <c r="M42" s="463"/>
+      <c r="E42" s="440"/>
+      <c r="F42" s="441"/>
+      <c r="G42" s="441"/>
+      <c r="H42" s="441"/>
+      <c r="I42" s="441"/>
+      <c r="J42" s="441"/>
+      <c r="K42" s="441"/>
+      <c r="L42" s="441"/>
+      <c r="M42" s="442"/>
       <c r="N42" s="40" t="s">
         <v>575</v>
       </c>
@@ -19815,83 +19821,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="386" t="s">
+      <c r="C44" s="387" t="s">
         <v>194</v>
       </c>
-      <c r="D44" s="387"/>
-      <c r="E44" s="386" t="s">
+      <c r="D44" s="388"/>
+      <c r="E44" s="387" t="s">
         <v>195</v>
       </c>
-      <c r="F44" s="388"/>
-      <c r="G44" s="387"/>
-      <c r="H44" s="386" t="s">
+      <c r="F44" s="389"/>
+      <c r="G44" s="388"/>
+      <c r="H44" s="387" t="s">
         <v>196</v>
       </c>
-      <c r="I44" s="388"/>
-      <c r="J44" s="388"/>
-      <c r="K44" s="388"/>
-      <c r="L44" s="388"/>
-      <c r="M44" s="387"/>
+      <c r="I44" s="389"/>
+      <c r="J44" s="389"/>
+      <c r="K44" s="389"/>
+      <c r="L44" s="389"/>
+      <c r="M44" s="388"/>
       <c r="Q44" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="451" t="s">
+      <c r="B47" s="450" t="s">
         <v>1077</v>
       </c>
-      <c r="C47" s="451"/>
-      <c r="D47" s="451"/>
-      <c r="E47" s="451"/>
-      <c r="F47" s="451"/>
-      <c r="G47" s="451"/>
-      <c r="H47" s="451"/>
-      <c r="I47" s="451"/>
-      <c r="J47" s="451"/>
-      <c r="K47" s="451"/>
-      <c r="L47" s="451"/>
-      <c r="M47" s="451"/>
-      <c r="N47" s="451"/>
-      <c r="O47" s="451"/>
-      <c r="P47" s="451"/>
-      <c r="Q47" s="451"/>
-      <c r="R47" s="451"/>
-      <c r="S47" s="451"/>
-      <c r="T47" s="451"/>
-      <c r="U47" s="451"/>
-      <c r="V47" s="451"/>
+      <c r="C47" s="450"/>
+      <c r="D47" s="450"/>
+      <c r="E47" s="450"/>
+      <c r="F47" s="450"/>
+      <c r="G47" s="450"/>
+      <c r="H47" s="450"/>
+      <c r="I47" s="450"/>
+      <c r="J47" s="450"/>
+      <c r="K47" s="450"/>
+      <c r="L47" s="450"/>
+      <c r="M47" s="450"/>
+      <c r="N47" s="450"/>
+      <c r="O47" s="450"/>
+      <c r="P47" s="450"/>
+      <c r="Q47" s="450"/>
+      <c r="R47" s="450"/>
+      <c r="S47" s="450"/>
+      <c r="T47" s="450"/>
+      <c r="U47" s="450"/>
+      <c r="V47" s="450"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="452" t="s">
+      <c r="C48" s="451" t="s">
         <v>570</v>
       </c>
-      <c r="D48" s="452"/>
-      <c r="E48" s="452"/>
-      <c r="F48" s="452"/>
-      <c r="G48" s="452"/>
-      <c r="H48" s="452"/>
-      <c r="I48" s="452"/>
-      <c r="J48" s="452"/>
-      <c r="K48" s="452"/>
-      <c r="L48" s="452"/>
-      <c r="M48" s="452"/>
+      <c r="D48" s="451"/>
+      <c r="E48" s="451"/>
+      <c r="F48" s="451"/>
+      <c r="G48" s="451"/>
+      <c r="H48" s="451"/>
+      <c r="I48" s="451"/>
+      <c r="J48" s="451"/>
+      <c r="K48" s="451"/>
+      <c r="L48" s="451"/>
+      <c r="M48" s="451"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="404" t="s">
+      <c r="E49" s="421" t="s">
         <v>178</v>
       </c>
-      <c r="F49" s="368"/>
-      <c r="G49" s="368"/>
-      <c r="H49" s="377"/>
-      <c r="I49" s="377"/>
-      <c r="J49" s="377"/>
-      <c r="K49" s="377"/>
-      <c r="L49" s="377"/>
-      <c r="M49" s="378"/>
+      <c r="F49" s="369"/>
+      <c r="G49" s="369"/>
+      <c r="H49" s="378"/>
+      <c r="I49" s="378"/>
+      <c r="J49" s="378"/>
+      <c r="K49" s="378"/>
+      <c r="L49" s="378"/>
+      <c r="M49" s="379"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -19932,20 +19938,20 @@
         <v>1095</v>
       </c>
       <c r="F51" s="286"/>
-      <c r="G51" s="460" t="s">
+      <c r="G51" s="457" t="s">
         <v>1103</v>
       </c>
-      <c r="H51" s="457"/>
-      <c r="I51" s="458"/>
-      <c r="J51" s="459"/>
-      <c r="K51" s="457"/>
-      <c r="L51" s="458"/>
-      <c r="M51" s="459"/>
-      <c r="O51" s="453" t="s">
+      <c r="H51" s="447"/>
+      <c r="I51" s="448"/>
+      <c r="J51" s="449"/>
+      <c r="K51" s="447"/>
+      <c r="L51" s="448"/>
+      <c r="M51" s="449"/>
+      <c r="O51" s="452" t="s">
         <v>179</v>
       </c>
-      <c r="P51" s="453"/>
-      <c r="Q51" s="453"/>
+      <c r="P51" s="452"/>
+      <c r="Q51" s="452"/>
       <c r="S51" s="273"/>
       <c r="T51" s="273"/>
       <c r="W51" s="40" t="s">
@@ -19959,13 +19965,13 @@
         <v>1096</v>
       </c>
       <c r="F52" s="287"/>
-      <c r="G52" s="460"/>
-      <c r="H52" s="457"/>
-      <c r="I52" s="458"/>
-      <c r="J52" s="459"/>
-      <c r="K52" s="457"/>
-      <c r="L52" s="458"/>
-      <c r="M52" s="459"/>
+      <c r="G52" s="457"/>
+      <c r="H52" s="447"/>
+      <c r="I52" s="448"/>
+      <c r="J52" s="449"/>
+      <c r="K52" s="447"/>
+      <c r="L52" s="448"/>
+      <c r="M52" s="449"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -19976,13 +19982,13 @@
         <v>1097</v>
       </c>
       <c r="F53" s="288"/>
-      <c r="G53" s="460"/>
-      <c r="H53" s="457"/>
-      <c r="I53" s="458"/>
-      <c r="J53" s="459"/>
-      <c r="K53" s="457"/>
-      <c r="L53" s="458"/>
-      <c r="M53" s="459"/>
+      <c r="G53" s="457"/>
+      <c r="H53" s="447"/>
+      <c r="I53" s="448"/>
+      <c r="J53" s="449"/>
+      <c r="K53" s="447"/>
+      <c r="L53" s="448"/>
+      <c r="M53" s="449"/>
       <c r="N53" s="5"/>
       <c r="O53" s="38" t="s">
         <v>182</v>
@@ -20021,7 +20027,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="274"/>
       <c r="F54" s="289"/>
-      <c r="G54" s="466" t="s">
+      <c r="G54" s="445" t="s">
         <v>1107</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -20068,11 +20074,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="464" t="s">
+      <c r="E55" s="443" t="s">
         <v>1108</v>
       </c>
-      <c r="F55" s="465"/>
-      <c r="G55" s="467"/>
+      <c r="F55" s="444"/>
+      <c r="G55" s="446"/>
       <c r="H55" s="141" t="s">
         <v>1099</v>
       </c>
@@ -20116,9 +20122,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="464"/>
-      <c r="F56" s="465"/>
-      <c r="G56" s="467"/>
+      <c r="E56" s="443"/>
+      <c r="F56" s="444"/>
+      <c r="G56" s="446"/>
       <c r="H56" s="141" t="s">
         <v>1100</v>
       </c>
@@ -20148,9 +20154,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="464"/>
-      <c r="F57" s="465"/>
-      <c r="G57" s="467"/>
+      <c r="E57" s="443"/>
+      <c r="F57" s="444"/>
+      <c r="G57" s="446"/>
       <c r="H57" s="4" t="s">
         <v>1112</v>
       </c>
@@ -20180,9 +20186,9 @@
         <v>192</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="464"/>
-      <c r="F58" s="465"/>
-      <c r="G58" s="467"/>
+      <c r="E58" s="443"/>
+      <c r="F58" s="444"/>
+      <c r="G58" s="446"/>
       <c r="H58" s="278" t="s">
         <v>1098</v>
       </c>
@@ -20207,9 +20213,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="464"/>
-      <c r="F59" s="465"/>
-      <c r="G59" s="467"/>
+      <c r="E59" s="443"/>
+      <c r="F59" s="444"/>
+      <c r="G59" s="446"/>
       <c r="H59" s="278" t="s">
         <v>549</v>
       </c>
@@ -20234,9 +20240,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="464"/>
-      <c r="F60" s="465"/>
-      <c r="G60" s="467"/>
+      <c r="E60" s="443"/>
+      <c r="F60" s="444"/>
+      <c r="G60" s="446"/>
       <c r="H60" s="280"/>
       <c r="I60" s="281" t="s">
         <v>1114</v>
@@ -20256,9 +20262,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="464"/>
-      <c r="F61" s="465"/>
-      <c r="G61" s="467"/>
+      <c r="E61" s="443"/>
+      <c r="F61" s="444"/>
+      <c r="G61" s="446"/>
       <c r="H61" s="280"/>
       <c r="I61" s="281" t="s">
         <v>1115</v>
@@ -20278,7 +20284,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="269"/>
       <c r="F62" s="285"/>
-      <c r="G62" s="467"/>
+      <c r="G62" s="446"/>
       <c r="H62" s="282"/>
       <c r="I62" s="284" t="s">
         <v>1116</v>
@@ -20320,15 +20326,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="461"/>
-      <c r="F64" s="462"/>
-      <c r="G64" s="462"/>
-      <c r="H64" s="462"/>
-      <c r="I64" s="462"/>
-      <c r="J64" s="462"/>
-      <c r="K64" s="462"/>
-      <c r="L64" s="462"/>
-      <c r="M64" s="463"/>
+      <c r="E64" s="440"/>
+      <c r="F64" s="441"/>
+      <c r="G64" s="441"/>
+      <c r="H64" s="441"/>
+      <c r="I64" s="441"/>
+      <c r="J64" s="441"/>
+      <c r="K64" s="441"/>
+      <c r="L64" s="441"/>
+      <c r="M64" s="442"/>
       <c r="N64" s="40" t="s">
         <v>575</v>
       </c>
@@ -20357,23 +20363,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="386" t="s">
+      <c r="C66" s="387" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="387"/>
-      <c r="E66" s="386" t="s">
+      <c r="D66" s="388"/>
+      <c r="E66" s="387" t="s">
         <v>195</v>
       </c>
-      <c r="F66" s="388"/>
-      <c r="G66" s="387"/>
-      <c r="H66" s="386" t="s">
+      <c r="F66" s="389"/>
+      <c r="G66" s="388"/>
+      <c r="H66" s="387" t="s">
         <v>196</v>
       </c>
-      <c r="I66" s="388"/>
-      <c r="J66" s="388"/>
-      <c r="K66" s="388"/>
-      <c r="L66" s="388"/>
-      <c r="M66" s="387"/>
+      <c r="I66" s="389"/>
+      <c r="J66" s="389"/>
+      <c r="K66" s="389"/>
+      <c r="L66" s="389"/>
+      <c r="M66" s="388"/>
       <c r="Q66" t="s">
         <v>1078</v>
       </c>
@@ -20394,23 +20400,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="415" t="s">
+      <c r="C68" s="425" t="s">
         <v>181</v>
       </c>
-      <c r="D68" s="415"/>
-      <c r="E68" s="415" t="s">
+      <c r="D68" s="425"/>
+      <c r="E68" s="425" t="s">
         <v>1364</v>
       </c>
-      <c r="F68" s="415"/>
-      <c r="G68" s="415"/>
-      <c r="H68" s="415" t="s">
+      <c r="F68" s="425"/>
+      <c r="G68" s="425"/>
+      <c r="H68" s="425" t="s">
         <v>1380</v>
       </c>
-      <c r="I68" s="415"/>
-      <c r="J68" s="415"/>
-      <c r="K68" s="415"/>
-      <c r="L68" s="415"/>
-      <c r="M68" s="415"/>
+      <c r="I68" s="425"/>
+      <c r="J68" s="425"/>
+      <c r="K68" s="425"/>
+      <c r="L68" s="425"/>
+      <c r="M68" s="425"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -21207,30 +21213,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -21247,6 +21229,30 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -21280,12 +21286,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="468" t="s">
+      <c r="B1" s="476" t="s">
         <v>538</v>
       </c>
-      <c r="C1" s="468"/>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
+      <c r="C1" s="476"/>
+      <c r="D1" s="476"/>
+      <c r="E1" s="476"/>
       <c r="I1" s="40" t="s">
         <v>551</v>
       </c>
@@ -21402,12 +21408,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="414" t="s">
+      <c r="B8" s="420" t="s">
         <v>1402</v>
       </c>
-      <c r="C8" s="414"/>
-      <c r="D8" s="414"/>
-      <c r="E8" s="414"/>
+      <c r="C8" s="420"/>
+      <c r="D8" s="420"/>
+      <c r="E8" s="420"/>
       <c r="J8" s="32" t="s">
         <v>554</v>
       </c>
@@ -21580,32 +21586,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="452" t="s">
+      <c r="C2" s="451" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="452"/>
-      <c r="H2" s="452"/>
-      <c r="I2" s="452"/>
-      <c r="J2" s="452"/>
-      <c r="K2" s="452"/>
-      <c r="L2" s="452"/>
+      <c r="D2" s="451"/>
+      <c r="E2" s="451"/>
+      <c r="F2" s="451"/>
+      <c r="G2" s="451"/>
+      <c r="H2" s="451"/>
+      <c r="I2" s="451"/>
+      <c r="J2" s="451"/>
+      <c r="K2" s="451"/>
+      <c r="L2" s="451"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="404" t="s">
+      <c r="E3" s="421" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="368"/>
-      <c r="G3" s="377"/>
-      <c r="H3" s="377"/>
-      <c r="I3" s="377"/>
-      <c r="J3" s="377"/>
-      <c r="K3" s="377"/>
-      <c r="L3" s="378"/>
+      <c r="F3" s="369"/>
+      <c r="G3" s="378"/>
+      <c r="H3" s="378"/>
+      <c r="I3" s="378"/>
+      <c r="J3" s="378"/>
+      <c r="K3" s="378"/>
+      <c r="L3" s="379"/>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
@@ -21636,11 +21642,11 @@
         <v>589</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="453" t="s">
+      <c r="N5" s="452" t="s">
         <v>179</v>
       </c>
-      <c r="O5" s="453"/>
-      <c r="P5" s="453"/>
+      <c r="O5" s="452"/>
+      <c r="P5" s="452"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -21691,20 +21697,20 @@
         <v>190</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="457" t="s">
+      <c r="E8" s="447" t="s">
         <v>571</v>
       </c>
-      <c r="F8" s="459"/>
-      <c r="G8" s="457" t="s">
+      <c r="F8" s="449"/>
+      <c r="G8" s="447" t="s">
         <v>572</v>
       </c>
-      <c r="H8" s="458"/>
-      <c r="I8" s="459"/>
-      <c r="J8" s="457" t="s">
+      <c r="H8" s="448"/>
+      <c r="I8" s="449"/>
+      <c r="J8" s="447" t="s">
         <v>573</v>
       </c>
-      <c r="K8" s="458"/>
-      <c r="L8" s="459"/>
+      <c r="K8" s="448"/>
+      <c r="L8" s="449"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -21727,14 +21733,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="457"/>
-      <c r="F9" s="459"/>
-      <c r="G9" s="457"/>
-      <c r="H9" s="458"/>
-      <c r="I9" s="459"/>
-      <c r="J9" s="457"/>
-      <c r="K9" s="458"/>
-      <c r="L9" s="459"/>
+      <c r="E9" s="447"/>
+      <c r="F9" s="449"/>
+      <c r="G9" s="447"/>
+      <c r="H9" s="448"/>
+      <c r="I9" s="449"/>
+      <c r="J9" s="447"/>
+      <c r="K9" s="448"/>
+      <c r="L9" s="449"/>
       <c r="M9" s="5" t="s">
         <v>187</v>
       </c>
@@ -21754,14 +21760,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="457"/>
-      <c r="F10" s="459"/>
-      <c r="G10" s="457"/>
-      <c r="H10" s="458"/>
-      <c r="I10" s="459"/>
-      <c r="J10" s="457"/>
-      <c r="K10" s="458"/>
-      <c r="L10" s="459"/>
+      <c r="E10" s="447"/>
+      <c r="F10" s="449"/>
+      <c r="G10" s="447"/>
+      <c r="H10" s="448"/>
+      <c r="I10" s="449"/>
+      <c r="J10" s="447"/>
+      <c r="K10" s="448"/>
+      <c r="L10" s="449"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -21775,14 +21781,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="457"/>
-      <c r="F11" s="459"/>
-      <c r="G11" s="457"/>
-      <c r="H11" s="458"/>
-      <c r="I11" s="459"/>
-      <c r="J11" s="457"/>
-      <c r="K11" s="458"/>
-      <c r="L11" s="459"/>
+      <c r="E11" s="447"/>
+      <c r="F11" s="449"/>
+      <c r="G11" s="447"/>
+      <c r="H11" s="448"/>
+      <c r="I11" s="449"/>
+      <c r="J11" s="447"/>
+      <c r="K11" s="448"/>
+      <c r="L11" s="449"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -21885,16 +21891,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="461" t="s">
+      <c r="E17" s="440" t="s">
         <v>574</v>
       </c>
-      <c r="F17" s="462"/>
-      <c r="G17" s="462"/>
-      <c r="H17" s="462"/>
-      <c r="I17" s="462"/>
-      <c r="J17" s="462"/>
-      <c r="K17" s="462"/>
-      <c r="L17" s="463"/>
+      <c r="F17" s="441"/>
+      <c r="G17" s="441"/>
+      <c r="H17" s="441"/>
+      <c r="I17" s="441"/>
+      <c r="J17" s="441"/>
+      <c r="K17" s="441"/>
+      <c r="L17" s="442"/>
       <c r="M17" s="40" t="s">
         <v>575</v>
       </c>
@@ -21912,40 +21918,40 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="386" t="s">
+      <c r="C19" s="387" t="s">
         <v>194</v>
       </c>
-      <c r="D19" s="387"/>
-      <c r="E19" s="386" t="s">
+      <c r="D19" s="388"/>
+      <c r="E19" s="387" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="387"/>
-      <c r="G19" s="386" t="s">
+      <c r="F19" s="388"/>
+      <c r="G19" s="387" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="388"/>
-      <c r="I19" s="388"/>
-      <c r="J19" s="388"/>
-      <c r="K19" s="388"/>
-      <c r="L19" s="387"/>
+      <c r="H19" s="389"/>
+      <c r="I19" s="389"/>
+      <c r="J19" s="389"/>
+      <c r="K19" s="389"/>
+      <c r="L19" s="388"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="469" t="s">
+      <c r="E21" s="477" t="s">
         <v>1393</v>
       </c>
-      <c r="F21" s="470"/>
+      <c r="F21" s="478"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="E22" s="471"/>
-      <c r="F22" s="472"/>
+      <c r="E22" s="479"/>
+      <c r="F22" s="480"/>
       <c r="J22" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="E23" s="471"/>
-      <c r="F23" s="472"/>
+      <c r="E23" s="479"/>
+      <c r="F23" s="480"/>
       <c r="H23" t="s">
         <v>1414</v>
       </c>
@@ -21957,8 +21963,8 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="473"/>
-      <c r="F24" s="474"/>
+      <c r="E24" s="481"/>
+      <c r="F24" s="482"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -22413,22 +22419,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="430" t="s">
+      <c r="E3" s="453" t="s">
         <v>518</v>
       </c>
-      <c r="F3" s="430"/>
-      <c r="G3" s="430" t="s">
+      <c r="F3" s="453"/>
+      <c r="G3" s="453" t="s">
         <v>519</v>
       </c>
-      <c r="H3" s="430"/>
-      <c r="I3" s="430"/>
-      <c r="J3" s="430"/>
-      <c r="K3" s="430"/>
-      <c r="L3" s="430"/>
-      <c r="M3" s="430" t="s">
+      <c r="H3" s="453"/>
+      <c r="I3" s="453"/>
+      <c r="J3" s="453"/>
+      <c r="K3" s="453"/>
+      <c r="L3" s="453"/>
+      <c r="M3" s="453" t="s">
         <v>520</v>
       </c>
-      <c r="N3" s="430"/>
+      <c r="N3" s="453"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -22439,7 +22445,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="135"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="431" t="s">
+      <c r="E4" s="458" t="s">
         <v>521</v>
       </c>
       <c r="F4" s="131"/>
@@ -22467,22 +22473,22 @@
         <v>181</v>
       </c>
       <c r="D5" s="138"/>
-      <c r="E5" s="432"/>
-      <c r="F5" s="389" t="s">
+      <c r="E5" s="397"/>
+      <c r="F5" s="399" t="s">
         <v>617</v>
       </c>
-      <c r="G5" s="390"/>
-      <c r="H5" s="391"/>
-      <c r="I5" s="505" t="s">
+      <c r="G5" s="400"/>
+      <c r="H5" s="401"/>
+      <c r="I5" s="483" t="s">
         <v>618</v>
       </c>
-      <c r="J5" s="506"/>
-      <c r="K5" s="506"/>
-      <c r="L5" s="440"/>
-      <c r="M5" s="505" t="s">
+      <c r="J5" s="484"/>
+      <c r="K5" s="484"/>
+      <c r="L5" s="465"/>
+      <c r="M5" s="483" t="s">
         <v>619</v>
       </c>
-      <c r="N5" s="440"/>
+      <c r="N5" s="465"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -22493,16 +22499,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="139"/>
       <c r="D6" s="140"/>
-      <c r="E6" s="432"/>
-      <c r="F6" s="392"/>
-      <c r="G6" s="393"/>
-      <c r="H6" s="394"/>
-      <c r="I6" s="441"/>
-      <c r="J6" s="507"/>
-      <c r="K6" s="507"/>
-      <c r="L6" s="442"/>
-      <c r="M6" s="441"/>
-      <c r="N6" s="442"/>
+      <c r="E6" s="397"/>
+      <c r="F6" s="402"/>
+      <c r="G6" s="403"/>
+      <c r="H6" s="404"/>
+      <c r="I6" s="466"/>
+      <c r="J6" s="485"/>
+      <c r="K6" s="485"/>
+      <c r="L6" s="467"/>
+      <c r="M6" s="466"/>
+      <c r="N6" s="467"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>182</v>
@@ -22519,16 +22525,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="432"/>
-      <c r="F7" s="392"/>
-      <c r="G7" s="393"/>
-      <c r="H7" s="394"/>
-      <c r="I7" s="441"/>
-      <c r="J7" s="507"/>
-      <c r="K7" s="507"/>
-      <c r="L7" s="442"/>
-      <c r="M7" s="441"/>
-      <c r="N7" s="442"/>
+      <c r="E7" s="397"/>
+      <c r="F7" s="402"/>
+      <c r="G7" s="403"/>
+      <c r="H7" s="404"/>
+      <c r="I7" s="466"/>
+      <c r="J7" s="485"/>
+      <c r="K7" s="485"/>
+      <c r="L7" s="467"/>
+      <c r="M7" s="466"/>
+      <c r="N7" s="467"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -22547,16 +22553,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="432"/>
-      <c r="F8" s="392"/>
-      <c r="G8" s="393"/>
-      <c r="H8" s="394"/>
-      <c r="I8" s="441"/>
-      <c r="J8" s="507"/>
-      <c r="K8" s="507"/>
-      <c r="L8" s="442"/>
-      <c r="M8" s="441"/>
-      <c r="N8" s="442"/>
+      <c r="E8" s="397"/>
+      <c r="F8" s="402"/>
+      <c r="G8" s="403"/>
+      <c r="H8" s="404"/>
+      <c r="I8" s="466"/>
+      <c r="J8" s="485"/>
+      <c r="K8" s="485"/>
+      <c r="L8" s="467"/>
+      <c r="M8" s="466"/>
+      <c r="N8" s="467"/>
       <c r="O8" s="5" t="s">
         <v>187</v>
       </c>
@@ -22577,16 +22583,16 @@
         <v>190</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="432"/>
-      <c r="F9" s="392"/>
-      <c r="G9" s="393"/>
-      <c r="H9" s="394"/>
-      <c r="I9" s="441"/>
-      <c r="J9" s="507"/>
-      <c r="K9" s="507"/>
-      <c r="L9" s="442"/>
-      <c r="M9" s="441"/>
-      <c r="N9" s="442"/>
+      <c r="E9" s="397"/>
+      <c r="F9" s="402"/>
+      <c r="G9" s="403"/>
+      <c r="H9" s="404"/>
+      <c r="I9" s="466"/>
+      <c r="J9" s="485"/>
+      <c r="K9" s="485"/>
+      <c r="L9" s="467"/>
+      <c r="M9" s="466"/>
+      <c r="N9" s="467"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -22603,16 +22609,16 @@
         <v>537</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="432"/>
-      <c r="F10" s="392"/>
-      <c r="G10" s="393"/>
-      <c r="H10" s="394"/>
-      <c r="I10" s="441"/>
-      <c r="J10" s="507"/>
-      <c r="K10" s="507"/>
-      <c r="L10" s="442"/>
-      <c r="M10" s="441"/>
-      <c r="N10" s="442"/>
+      <c r="E10" s="397"/>
+      <c r="F10" s="402"/>
+      <c r="G10" s="403"/>
+      <c r="H10" s="404"/>
+      <c r="I10" s="466"/>
+      <c r="J10" s="485"/>
+      <c r="K10" s="485"/>
+      <c r="L10" s="467"/>
+      <c r="M10" s="466"/>
+      <c r="N10" s="467"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -22625,16 +22631,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="432"/>
-      <c r="F11" s="392"/>
-      <c r="G11" s="393"/>
-      <c r="H11" s="394"/>
-      <c r="I11" s="441"/>
-      <c r="J11" s="507"/>
-      <c r="K11" s="507"/>
-      <c r="L11" s="442"/>
-      <c r="M11" s="441"/>
-      <c r="N11" s="442"/>
+      <c r="E11" s="397"/>
+      <c r="F11" s="402"/>
+      <c r="G11" s="403"/>
+      <c r="H11" s="404"/>
+      <c r="I11" s="466"/>
+      <c r="J11" s="485"/>
+      <c r="K11" s="485"/>
+      <c r="L11" s="467"/>
+      <c r="M11" s="466"/>
+      <c r="N11" s="467"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -22645,16 +22651,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="432"/>
-      <c r="F12" s="392"/>
-      <c r="G12" s="393"/>
-      <c r="H12" s="394"/>
-      <c r="I12" s="441"/>
-      <c r="J12" s="507"/>
-      <c r="K12" s="507"/>
-      <c r="L12" s="442"/>
-      <c r="M12" s="441"/>
-      <c r="N12" s="442"/>
+      <c r="E12" s="397"/>
+      <c r="F12" s="402"/>
+      <c r="G12" s="403"/>
+      <c r="H12" s="404"/>
+      <c r="I12" s="466"/>
+      <c r="J12" s="485"/>
+      <c r="K12" s="485"/>
+      <c r="L12" s="467"/>
+      <c r="M12" s="466"/>
+      <c r="N12" s="467"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -22667,16 +22673,16 @@
         <v>192</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="432"/>
-      <c r="F13" s="392"/>
-      <c r="G13" s="393"/>
-      <c r="H13" s="394"/>
-      <c r="I13" s="441"/>
-      <c r="J13" s="507"/>
-      <c r="K13" s="507"/>
-      <c r="L13" s="442"/>
-      <c r="M13" s="441"/>
-      <c r="N13" s="442"/>
+      <c r="E13" s="397"/>
+      <c r="F13" s="402"/>
+      <c r="G13" s="403"/>
+      <c r="H13" s="404"/>
+      <c r="I13" s="466"/>
+      <c r="J13" s="485"/>
+      <c r="K13" s="485"/>
+      <c r="L13" s="467"/>
+      <c r="M13" s="466"/>
+      <c r="N13" s="467"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -22687,16 +22693,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="432"/>
-      <c r="F14" s="392"/>
-      <c r="G14" s="393"/>
-      <c r="H14" s="394"/>
-      <c r="I14" s="441"/>
-      <c r="J14" s="507"/>
-      <c r="K14" s="507"/>
-      <c r="L14" s="442"/>
-      <c r="M14" s="441"/>
-      <c r="N14" s="442"/>
+      <c r="E14" s="397"/>
+      <c r="F14" s="402"/>
+      <c r="G14" s="403"/>
+      <c r="H14" s="404"/>
+      <c r="I14" s="466"/>
+      <c r="J14" s="485"/>
+      <c r="K14" s="485"/>
+      <c r="L14" s="467"/>
+      <c r="M14" s="466"/>
+      <c r="N14" s="467"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -22707,16 +22713,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="432"/>
-      <c r="F15" s="392"/>
-      <c r="G15" s="393"/>
-      <c r="H15" s="394"/>
-      <c r="I15" s="441"/>
-      <c r="J15" s="507"/>
-      <c r="K15" s="507"/>
-      <c r="L15" s="442"/>
-      <c r="M15" s="441"/>
-      <c r="N15" s="442"/>
+      <c r="E15" s="397"/>
+      <c r="F15" s="402"/>
+      <c r="G15" s="403"/>
+      <c r="H15" s="404"/>
+      <c r="I15" s="466"/>
+      <c r="J15" s="485"/>
+      <c r="K15" s="485"/>
+      <c r="L15" s="467"/>
+      <c r="M15" s="466"/>
+      <c r="N15" s="467"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -22727,16 +22733,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="432"/>
-      <c r="F16" s="392"/>
-      <c r="G16" s="393"/>
-      <c r="H16" s="394"/>
-      <c r="I16" s="441"/>
-      <c r="J16" s="507"/>
-      <c r="K16" s="507"/>
-      <c r="L16" s="442"/>
-      <c r="M16" s="441"/>
-      <c r="N16" s="442"/>
+      <c r="E16" s="397"/>
+      <c r="F16" s="402"/>
+      <c r="G16" s="403"/>
+      <c r="H16" s="404"/>
+      <c r="I16" s="466"/>
+      <c r="J16" s="485"/>
+      <c r="K16" s="485"/>
+      <c r="L16" s="467"/>
+      <c r="M16" s="466"/>
+      <c r="N16" s="467"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -22749,16 +22755,16 @@
         <v>193</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="432"/>
-      <c r="F17" s="392"/>
-      <c r="G17" s="393"/>
-      <c r="H17" s="394"/>
-      <c r="I17" s="441"/>
-      <c r="J17" s="507"/>
-      <c r="K17" s="507"/>
-      <c r="L17" s="442"/>
-      <c r="M17" s="441"/>
-      <c r="N17" s="442"/>
+      <c r="E17" s="397"/>
+      <c r="F17" s="402"/>
+      <c r="G17" s="403"/>
+      <c r="H17" s="404"/>
+      <c r="I17" s="466"/>
+      <c r="J17" s="485"/>
+      <c r="K17" s="485"/>
+      <c r="L17" s="467"/>
+      <c r="M17" s="466"/>
+      <c r="N17" s="467"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -22769,16 +22775,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="433"/>
-      <c r="F18" s="395"/>
-      <c r="G18" s="396"/>
-      <c r="H18" s="397"/>
-      <c r="I18" s="443"/>
-      <c r="J18" s="508"/>
-      <c r="K18" s="508"/>
-      <c r="L18" s="444"/>
-      <c r="M18" s="443"/>
-      <c r="N18" s="444"/>
+      <c r="E18" s="398"/>
+      <c r="F18" s="405"/>
+      <c r="G18" s="406"/>
+      <c r="H18" s="407"/>
+      <c r="I18" s="468"/>
+      <c r="J18" s="486"/>
+      <c r="K18" s="486"/>
+      <c r="L18" s="469"/>
+      <c r="M18" s="468"/>
+      <c r="N18" s="469"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -22807,26 +22813,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="386" t="s">
+      <c r="C20" s="387" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="387"/>
+      <c r="D20" s="388"/>
       <c r="E20" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="F20" s="386" t="s">
+      <c r="F20" s="387" t="s">
         <v>196</v>
       </c>
-      <c r="G20" s="388"/>
-      <c r="H20" s="388"/>
-      <c r="I20" s="388"/>
-      <c r="J20" s="388"/>
-      <c r="K20" s="388"/>
-      <c r="L20" s="387"/>
-      <c r="M20" s="386" t="s">
+      <c r="G20" s="389"/>
+      <c r="H20" s="389"/>
+      <c r="I20" s="389"/>
+      <c r="J20" s="389"/>
+      <c r="K20" s="389"/>
+      <c r="L20" s="388"/>
+      <c r="M20" s="387" t="s">
         <v>528</v>
       </c>
-      <c r="N20" s="387"/>
+      <c r="N20" s="388"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -22854,39 +22860,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="453" t="s">
+      <c r="B24" s="452" t="s">
         <v>570</v>
       </c>
-      <c r="C24" s="453"/>
-      <c r="D24" s="452"/>
-      <c r="E24" s="452"/>
-      <c r="F24" s="452"/>
-      <c r="G24" s="452"/>
-      <c r="H24" s="452"/>
-      <c r="I24" s="452"/>
-      <c r="J24" s="452"/>
-      <c r="K24" s="452"/>
-      <c r="M24" s="475" t="s">
+      <c r="C24" s="452"/>
+      <c r="D24" s="451"/>
+      <c r="E24" s="451"/>
+      <c r="F24" s="451"/>
+      <c r="G24" s="451"/>
+      <c r="H24" s="451"/>
+      <c r="I24" s="451"/>
+      <c r="J24" s="451"/>
+      <c r="K24" s="451"/>
+      <c r="M24" s="505" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="475"/>
-      <c r="O24" s="475"/>
+      <c r="N24" s="505"/>
+      <c r="O24" s="505"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="476" t="s">
+      <c r="B25" s="506" t="s">
         <v>914</v>
       </c>
-      <c r="C25" s="418"/>
-      <c r="D25" s="377" t="s">
+      <c r="C25" s="429"/>
+      <c r="D25" s="378" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="377"/>
-      <c r="F25" s="377"/>
-      <c r="G25" s="377"/>
-      <c r="H25" s="377"/>
-      <c r="I25" s="377"/>
-      <c r="J25" s="377"/>
-      <c r="K25" s="378"/>
+      <c r="E25" s="378"/>
+      <c r="F25" s="378"/>
+      <c r="G25" s="378"/>
+      <c r="H25" s="378"/>
+      <c r="I25" s="378"/>
+      <c r="J25" s="378"/>
+      <c r="K25" s="379"/>
       <c r="M25" s="38" t="s">
         <v>182</v>
       </c>
@@ -22898,22 +22904,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="419"/>
-      <c r="C26" s="420"/>
-      <c r="D26" s="417" t="s">
+      <c r="B26" s="430"/>
+      <c r="C26" s="431"/>
+      <c r="D26" s="428" t="s">
         <v>907</v>
       </c>
-      <c r="E26" s="418"/>
-      <c r="F26" s="503" t="s">
+      <c r="E26" s="429"/>
+      <c r="F26" s="499" t="s">
         <v>907</v>
       </c>
-      <c r="G26" s="377"/>
-      <c r="H26" s="378"/>
-      <c r="I26" s="376" t="s">
+      <c r="G26" s="378"/>
+      <c r="H26" s="379"/>
+      <c r="I26" s="377" t="s">
         <v>911</v>
       </c>
-      <c r="J26" s="377"/>
-      <c r="K26" s="378"/>
+      <c r="J26" s="378"/>
+      <c r="K26" s="379"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -22928,22 +22934,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="419"/>
-      <c r="C27" s="420"/>
-      <c r="D27" s="414" t="s">
+      <c r="B27" s="430"/>
+      <c r="C27" s="431"/>
+      <c r="D27" s="420" t="s">
         <v>912</v>
       </c>
-      <c r="E27" s="420"/>
-      <c r="F27" s="419" t="s">
+      <c r="E27" s="431"/>
+      <c r="F27" s="430" t="s">
         <v>908</v>
       </c>
-      <c r="G27" s="414"/>
-      <c r="H27" s="487"/>
-      <c r="I27" s="486" t="s">
+      <c r="G27" s="420"/>
+      <c r="H27" s="500"/>
+      <c r="I27" s="504" t="s">
         <v>912</v>
       </c>
-      <c r="J27" s="414"/>
-      <c r="K27" s="487"/>
+      <c r="J27" s="420"/>
+      <c r="K27" s="500"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -22958,22 +22964,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="419"/>
-      <c r="C28" s="420"/>
-      <c r="D28" s="414" t="s">
+      <c r="B28" s="430"/>
+      <c r="C28" s="431"/>
+      <c r="D28" s="420" t="s">
         <v>909</v>
       </c>
-      <c r="E28" s="420"/>
-      <c r="F28" s="419" t="s">
+      <c r="E28" s="431"/>
+      <c r="F28" s="430" t="s">
         <v>909</v>
       </c>
-      <c r="G28" s="414"/>
-      <c r="H28" s="487"/>
-      <c r="I28" s="486" t="s">
+      <c r="G28" s="420"/>
+      <c r="H28" s="500"/>
+      <c r="I28" s="504" t="s">
         <v>909</v>
       </c>
-      <c r="J28" s="414"/>
-      <c r="K28" s="487"/>
+      <c r="J28" s="420"/>
+      <c r="K28" s="500"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -22982,22 +22988,22 @@
       <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="421"/>
-      <c r="C29" s="422"/>
-      <c r="D29" s="414" t="s">
+      <c r="B29" s="432"/>
+      <c r="C29" s="433"/>
+      <c r="D29" s="420" t="s">
         <v>910</v>
       </c>
-      <c r="E29" s="420"/>
-      <c r="F29" s="504" t="s">
+      <c r="E29" s="431"/>
+      <c r="F29" s="501" t="s">
         <v>910</v>
       </c>
-      <c r="G29" s="489"/>
-      <c r="H29" s="490"/>
-      <c r="I29" s="488" t="s">
+      <c r="G29" s="502"/>
+      <c r="H29" s="503"/>
+      <c r="I29" s="516" t="s">
         <v>910</v>
       </c>
-      <c r="J29" s="489"/>
-      <c r="K29" s="490"/>
+      <c r="J29" s="502"/>
+      <c r="K29" s="503"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -23006,149 +23012,149 @@
       <c r="O29" s="38"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="379" t="s">
+      <c r="B30" s="380" t="s">
         <v>913</v>
       </c>
-      <c r="C30" s="381"/>
-      <c r="D30" s="491" t="s">
+      <c r="C30" s="382"/>
+      <c r="D30" s="487" t="s">
         <v>571</v>
       </c>
-      <c r="E30" s="492"/>
-      <c r="F30" s="496" t="s">
+      <c r="E30" s="488"/>
+      <c r="F30" s="492" t="s">
         <v>572</v>
       </c>
-      <c r="G30" s="497"/>
-      <c r="H30" s="492"/>
-      <c r="I30" s="496" t="s">
+      <c r="G30" s="493"/>
+      <c r="H30" s="488"/>
+      <c r="I30" s="492" t="s">
         <v>573</v>
       </c>
-      <c r="J30" s="497"/>
-      <c r="K30" s="500"/>
+      <c r="J30" s="493"/>
+      <c r="K30" s="496"/>
       <c r="L30" s="5"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="372"/>
-      <c r="C31" s="382"/>
-      <c r="D31" s="493"/>
-      <c r="E31" s="459"/>
-      <c r="F31" s="457"/>
-      <c r="G31" s="458"/>
-      <c r="H31" s="459"/>
-      <c r="I31" s="457"/>
-      <c r="J31" s="458"/>
-      <c r="K31" s="501"/>
+      <c r="B31" s="373"/>
+      <c r="C31" s="383"/>
+      <c r="D31" s="489"/>
+      <c r="E31" s="449"/>
+      <c r="F31" s="447"/>
+      <c r="G31" s="448"/>
+      <c r="H31" s="449"/>
+      <c r="I31" s="447"/>
+      <c r="J31" s="448"/>
+      <c r="K31" s="497"/>
       <c r="L31" s="5"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="372"/>
-      <c r="C32" s="382"/>
-      <c r="D32" s="493"/>
-      <c r="E32" s="459"/>
-      <c r="F32" s="457"/>
-      <c r="G32" s="458"/>
-      <c r="H32" s="459"/>
-      <c r="I32" s="457"/>
-      <c r="J32" s="458"/>
-      <c r="K32" s="501"/>
+      <c r="B32" s="373"/>
+      <c r="C32" s="383"/>
+      <c r="D32" s="489"/>
+      <c r="E32" s="449"/>
+      <c r="F32" s="447"/>
+      <c r="G32" s="448"/>
+      <c r="H32" s="449"/>
+      <c r="I32" s="447"/>
+      <c r="J32" s="448"/>
+      <c r="K32" s="497"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="372"/>
-      <c r="C33" s="382"/>
-      <c r="D33" s="494"/>
-      <c r="E33" s="495"/>
-      <c r="F33" s="498"/>
-      <c r="G33" s="499"/>
-      <c r="H33" s="495"/>
-      <c r="I33" s="498"/>
-      <c r="J33" s="499"/>
-      <c r="K33" s="502"/>
+      <c r="B33" s="373"/>
+      <c r="C33" s="383"/>
+      <c r="D33" s="490"/>
+      <c r="E33" s="491"/>
+      <c r="F33" s="494"/>
+      <c r="G33" s="495"/>
+      <c r="H33" s="491"/>
+      <c r="I33" s="494"/>
+      <c r="J33" s="495"/>
+      <c r="K33" s="498"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="372"/>
-      <c r="C34" s="374"/>
-      <c r="D34" s="477" t="s">
+      <c r="B34" s="373"/>
+      <c r="C34" s="375"/>
+      <c r="D34" s="507" t="s">
         <v>900</v>
       </c>
-      <c r="E34" s="478"/>
-      <c r="F34" s="477" t="s">
+      <c r="E34" s="508"/>
+      <c r="F34" s="507" t="s">
         <v>593</v>
       </c>
-      <c r="G34" s="483"/>
-      <c r="H34" s="478"/>
-      <c r="I34" s="477" t="s">
+      <c r="G34" s="513"/>
+      <c r="H34" s="508"/>
+      <c r="I34" s="507" t="s">
         <v>915</v>
       </c>
-      <c r="J34" s="483"/>
-      <c r="K34" s="478"/>
+      <c r="J34" s="513"/>
+      <c r="K34" s="508"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="372"/>
-      <c r="C35" s="374"/>
-      <c r="D35" s="479"/>
-      <c r="E35" s="480"/>
-      <c r="F35" s="479"/>
-      <c r="G35" s="484"/>
-      <c r="H35" s="480"/>
-      <c r="I35" s="479"/>
-      <c r="J35" s="484"/>
-      <c r="K35" s="480"/>
+      <c r="B35" s="373"/>
+      <c r="C35" s="375"/>
+      <c r="D35" s="509"/>
+      <c r="E35" s="510"/>
+      <c r="F35" s="509"/>
+      <c r="G35" s="514"/>
+      <c r="H35" s="510"/>
+      <c r="I35" s="509"/>
+      <c r="J35" s="514"/>
+      <c r="K35" s="510"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="372"/>
-      <c r="C36" s="374"/>
-      <c r="D36" s="479"/>
-      <c r="E36" s="480"/>
-      <c r="F36" s="479"/>
-      <c r="G36" s="484"/>
-      <c r="H36" s="480"/>
-      <c r="I36" s="479"/>
-      <c r="J36" s="484"/>
-      <c r="K36" s="480"/>
+      <c r="B36" s="373"/>
+      <c r="C36" s="375"/>
+      <c r="D36" s="509"/>
+      <c r="E36" s="510"/>
+      <c r="F36" s="509"/>
+      <c r="G36" s="514"/>
+      <c r="H36" s="510"/>
+      <c r="I36" s="509"/>
+      <c r="J36" s="514"/>
+      <c r="K36" s="510"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="372"/>
-      <c r="C37" s="374"/>
-      <c r="D37" s="479"/>
-      <c r="E37" s="480"/>
-      <c r="F37" s="479"/>
-      <c r="G37" s="484"/>
-      <c r="H37" s="480"/>
-      <c r="I37" s="479"/>
-      <c r="J37" s="484"/>
-      <c r="K37" s="480"/>
+      <c r="B37" s="373"/>
+      <c r="C37" s="375"/>
+      <c r="D37" s="509"/>
+      <c r="E37" s="510"/>
+      <c r="F37" s="509"/>
+      <c r="G37" s="514"/>
+      <c r="H37" s="510"/>
+      <c r="I37" s="509"/>
+      <c r="J37" s="514"/>
+      <c r="K37" s="510"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="372"/>
-      <c r="C38" s="374"/>
-      <c r="D38" s="481"/>
-      <c r="E38" s="482"/>
-      <c r="F38" s="481"/>
-      <c r="G38" s="485"/>
-      <c r="H38" s="482"/>
-      <c r="I38" s="481"/>
-      <c r="J38" s="485"/>
-      <c r="K38" s="482"/>
+      <c r="B38" s="373"/>
+      <c r="C38" s="375"/>
+      <c r="D38" s="511"/>
+      <c r="E38" s="512"/>
+      <c r="F38" s="511"/>
+      <c r="G38" s="515"/>
+      <c r="H38" s="512"/>
+      <c r="I38" s="511"/>
+      <c r="J38" s="515"/>
+      <c r="K38" s="512"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="383"/>
-      <c r="C39" s="385"/>
-      <c r="D39" s="461" t="s">
+      <c r="B39" s="384"/>
+      <c r="C39" s="386"/>
+      <c r="D39" s="440" t="s">
         <v>574</v>
       </c>
-      <c r="E39" s="462"/>
-      <c r="F39" s="462"/>
-      <c r="G39" s="462"/>
-      <c r="H39" s="462"/>
-      <c r="I39" s="462"/>
-      <c r="J39" s="462"/>
-      <c r="K39" s="463"/>
+      <c r="E39" s="441"/>
+      <c r="F39" s="441"/>
+      <c r="G39" s="441"/>
+      <c r="H39" s="441"/>
+      <c r="I39" s="441"/>
+      <c r="J39" s="441"/>
+      <c r="K39" s="442"/>
       <c r="L39" s="40" t="s">
         <v>575</v>
       </c>
@@ -23166,35 +23172,36 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="386" t="s">
+      <c r="B41" s="387" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="387"/>
-      <c r="D41" s="386" t="s">
+      <c r="C41" s="388"/>
+      <c r="D41" s="387" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="387"/>
-      <c r="F41" s="386" t="s">
+      <c r="E41" s="388"/>
+      <c r="F41" s="387" t="s">
         <v>196</v>
       </c>
-      <c r="G41" s="388"/>
-      <c r="H41" s="388"/>
-      <c r="I41" s="388"/>
-      <c r="J41" s="388"/>
-      <c r="K41" s="387"/>
+      <c r="G41" s="389"/>
+      <c r="H41" s="389"/>
+      <c r="I41" s="389"/>
+      <c r="J41" s="389"/>
+      <c r="K41" s="388"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -23211,17 +23218,16 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -23745,13 +23751,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="367" t="s">
+      <c r="A5" s="368" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="368"/>
-      <c r="C5" s="368"/>
-      <c r="D5" s="368"/>
-      <c r="E5" s="369"/>
+      <c r="B5" s="369"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="370"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>150</v>
@@ -24408,7 +24414,7 @@
       <c r="J4" s="173"/>
       <c r="K4" s="173"/>
       <c r="L4" s="174"/>
-      <c r="M4" s="372" t="s">
+      <c r="M4" s="373" t="s">
         <v>324</v>
       </c>
     </row>
@@ -24426,7 +24432,7 @@
       <c r="J5" s="167"/>
       <c r="K5" s="167"/>
       <c r="L5" s="168"/>
-      <c r="M5" s="372"/>
+      <c r="M5" s="373"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="360">
@@ -24442,7 +24448,7 @@
       <c r="J6" s="167"/>
       <c r="K6" s="167"/>
       <c r="L6" s="168"/>
-      <c r="M6" s="372"/>
+      <c r="M6" s="373"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="360">
@@ -24462,7 +24468,7 @@
       <c r="J7" s="167"/>
       <c r="K7" s="167"/>
       <c r="L7" s="168"/>
-      <c r="M7" s="372"/>
+      <c r="M7" s="373"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="360">
@@ -24478,7 +24484,7 @@
       <c r="J8" s="167"/>
       <c r="K8" s="167"/>
       <c r="L8" s="168"/>
-      <c r="M8" s="372"/>
+      <c r="M8" s="373"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="360">
@@ -24494,7 +24500,7 @@
       <c r="J9" s="167"/>
       <c r="K9" s="167"/>
       <c r="L9" s="168"/>
-      <c r="M9" s="372"/>
+      <c r="M9" s="373"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="360">
@@ -24510,7 +24516,7 @@
       <c r="J10" s="167"/>
       <c r="K10" s="167"/>
       <c r="L10" s="168"/>
-      <c r="M10" s="372"/>
+      <c r="M10" s="373"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1">
       <c r="B11" s="360">
@@ -24526,7 +24532,7 @@
       <c r="J11" s="176"/>
       <c r="K11" s="176"/>
       <c r="L11" s="177"/>
-      <c r="M11" s="372"/>
+      <c r="M11" s="373"/>
     </row>
     <row r="12" spans="2:13">
       <c r="M12" t="s">
@@ -24800,7 +24806,7 @@
       <c r="O134" s="5"/>
     </row>
     <row r="135" spans="3:15">
-      <c r="C135" s="375" t="s">
+      <c r="C135" s="376" t="s">
         <v>167</v>
       </c>
       <c r="D135">
@@ -24827,7 +24833,7 @@
       <c r="O135" s="5"/>
     </row>
     <row r="136" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C136" s="375"/>
+      <c r="C136" s="376"/>
       <c r="D136">
         <v>20</v>
       </c>
@@ -24856,7 +24862,7 @@
       <c r="O136" s="5"/>
     </row>
     <row r="137" spans="3:15">
-      <c r="C137" s="375" t="s">
+      <c r="C137" s="376" t="s">
         <v>168</v>
       </c>
       <c r="D137">
@@ -24875,7 +24881,7 @@
       <c r="O137" s="5"/>
     </row>
     <row r="138" spans="3:15">
-      <c r="C138" s="375"/>
+      <c r="C138" s="376"/>
       <c r="D138">
         <v>40</v>
       </c>
@@ -24892,7 +24898,7 @@
       <c r="O138" s="5"/>
     </row>
     <row r="139" spans="3:15">
-      <c r="C139" s="375"/>
+      <c r="C139" s="376"/>
       <c r="D139">
         <v>50</v>
       </c>
@@ -24909,7 +24915,7 @@
       <c r="O139" s="5"/>
     </row>
     <row r="140" spans="3:15">
-      <c r="C140" s="375"/>
+      <c r="C140" s="376"/>
       <c r="D140">
         <v>60</v>
       </c>
@@ -24928,7 +24934,7 @@
       <c r="O140" s="5"/>
     </row>
     <row r="141" spans="3:15">
-      <c r="C141" s="375"/>
+      <c r="C141" s="376"/>
       <c r="D141">
         <v>70</v>
       </c>
@@ -24945,7 +24951,7 @@
       <c r="O141" s="5"/>
     </row>
     <row r="142" spans="3:15">
-      <c r="C142" s="375"/>
+      <c r="C142" s="376"/>
       <c r="D142">
         <v>80</v>
       </c>
@@ -24962,7 +24968,7 @@
       <c r="O142" s="5"/>
     </row>
     <row r="143" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C143" s="375"/>
+      <c r="C143" s="376"/>
       <c r="D143">
         <v>90</v>
       </c>
@@ -25053,7 +25059,7 @@
       </c>
     </row>
     <row r="148" spans="4:15">
-      <c r="D148" s="373">
+      <c r="D148" s="374">
         <v>1</v>
       </c>
       <c r="E148" s="169"/>
@@ -25068,7 +25074,7 @@
       <c r="N148" s="174"/>
     </row>
     <row r="149" spans="4:15">
-      <c r="D149" s="374"/>
+      <c r="D149" s="375"/>
       <c r="E149" s="170"/>
       <c r="F149" s="166"/>
       <c r="G149" s="167"/>
@@ -25081,7 +25087,7 @@
       <c r="N149" s="168"/>
     </row>
     <row r="150" spans="4:15">
-      <c r="D150" s="374"/>
+      <c r="D150" s="375"/>
       <c r="E150" s="170"/>
       <c r="F150" s="166"/>
       <c r="G150" s="167"/>
@@ -25094,7 +25100,7 @@
       <c r="N150" s="168"/>
     </row>
     <row r="151" spans="4:15">
-      <c r="D151" s="374"/>
+      <c r="D151" s="375"/>
       <c r="E151" s="170" t="s">
         <v>663</v>
       </c>
@@ -25111,7 +25117,7 @@
       <c r="N151" s="168"/>
     </row>
     <row r="152" spans="4:15">
-      <c r="D152" s="374"/>
+      <c r="D152" s="375"/>
       <c r="E152" s="170"/>
       <c r="F152" s="166"/>
       <c r="G152" s="167"/>
@@ -25124,7 +25130,7 @@
       <c r="N152" s="168"/>
     </row>
     <row r="153" spans="4:15">
-      <c r="D153" s="374"/>
+      <c r="D153" s="375"/>
       <c r="E153" s="170"/>
       <c r="F153" s="166"/>
       <c r="G153" s="167"/>
@@ -25137,7 +25143,7 @@
       <c r="N153" s="168"/>
     </row>
     <row r="154" spans="4:15" ht="15.75" thickBot="1">
-      <c r="D154" s="374"/>
+      <c r="D154" s="375"/>
       <c r="E154" s="171"/>
       <c r="F154" s="175"/>
       <c r="G154" s="176"/>
@@ -25260,7 +25266,7 @@
       <c r="K183" s="173"/>
       <c r="L183" s="173"/>
       <c r="M183" s="173"/>
-      <c r="N183" s="371" t="s">
+      <c r="N183" s="372" t="s">
         <v>917</v>
       </c>
       <c r="O183" t="s">
@@ -25281,7 +25287,7 @@
       <c r="K184" s="176"/>
       <c r="L184" s="176"/>
       <c r="M184" s="176"/>
-      <c r="N184" s="371"/>
+      <c r="N184" s="372"/>
       <c r="O184" t="s">
         <v>918</v>
       </c>
@@ -25300,7 +25306,7 @@
       <c r="K185" s="229"/>
       <c r="L185" s="229"/>
       <c r="M185" s="293"/>
-      <c r="N185" s="370" t="s">
+      <c r="N185" s="371" t="s">
         <v>920</v>
       </c>
       <c r="O185" t="s">
@@ -25321,7 +25327,7 @@
       <c r="K186" s="230"/>
       <c r="L186" s="230"/>
       <c r="M186" s="295"/>
-      <c r="N186" s="370"/>
+      <c r="N186" s="371"/>
     </row>
     <row r="187" spans="3:15">
       <c r="C187">
@@ -25337,7 +25343,7 @@
       <c r="K187" s="230"/>
       <c r="L187" s="230"/>
       <c r="M187" s="295"/>
-      <c r="N187" s="370"/>
+      <c r="N187" s="371"/>
     </row>
     <row r="188" spans="3:15" ht="15.75" thickBot="1">
       <c r="C188">
@@ -25357,7 +25363,7 @@
       <c r="K188" s="231"/>
       <c r="L188" s="231"/>
       <c r="M188" s="297"/>
-      <c r="N188" s="370"/>
+      <c r="N188" s="371"/>
     </row>
     <row r="189" spans="3:15">
       <c r="C189">
@@ -25373,7 +25379,7 @@
       <c r="K189" s="230"/>
       <c r="L189" s="230"/>
       <c r="M189" s="230"/>
-      <c r="N189" s="371"/>
+      <c r="N189" s="372"/>
     </row>
     <row r="190" spans="3:15">
       <c r="C190">
@@ -25389,7 +25395,7 @@
       <c r="K190" s="230"/>
       <c r="L190" s="230"/>
       <c r="M190" s="230"/>
-      <c r="N190" s="371"/>
+      <c r="N190" s="372"/>
     </row>
     <row r="191" spans="3:15" ht="15.75" thickBot="1">
       <c r="C191">
@@ -25405,7 +25411,7 @@
       <c r="K191" s="231"/>
       <c r="L191" s="231"/>
       <c r="M191" s="231"/>
-      <c r="N191" s="371"/>
+      <c r="N191" s="372"/>
     </row>
     <row r="192" spans="3:15" ht="15.75" thickBot="1">
       <c r="C192">
@@ -25725,8 +25731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25779,14 +25785,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="376" t="s">
+      <c r="K4" s="377" t="s">
         <v>178</v>
       </c>
-      <c r="L4" s="377"/>
-      <c r="M4" s="377"/>
-      <c r="N4" s="377"/>
-      <c r="O4" s="377"/>
-      <c r="P4" s="378"/>
+      <c r="L4" s="378"/>
+      <c r="M4" s="378"/>
+      <c r="N4" s="378"/>
+      <c r="O4" s="378"/>
+      <c r="P4" s="379"/>
       <c r="Q4" s="115" t="s">
         <v>281</v>
       </c>
@@ -25825,7 +25831,7 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="516" t="s">
+      <c r="E6" s="396" t="s">
         <v>1492</v>
       </c>
       <c r="F6" t="s">
@@ -25865,10 +25871,10 @@
       <c r="C7" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="515" t="s">
+      <c r="D7" s="367" t="s">
         <v>1302</v>
       </c>
-      <c r="E7" s="432"/>
+      <c r="E7" s="397"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
@@ -25901,8 +25907,8 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="24"/>
-      <c r="D8" s="515"/>
-      <c r="E8" s="432"/>
+      <c r="D8" s="367"/>
+      <c r="E8" s="397"/>
       <c r="F8" t="s">
         <v>203</v>
       </c>
@@ -25913,10 +25919,10 @@
       <c r="L8" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M8" s="509" t="s">
+      <c r="M8" s="390" t="s">
         <v>1491</v>
       </c>
-      <c r="N8" s="510"/>
+      <c r="N8" s="391"/>
       <c r="O8" s="5" t="s">
         <v>31</v>
       </c>
@@ -25943,9 +25949,9 @@
         <v>210</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E9" s="432"/>
+        <v>654</v>
+      </c>
+      <c r="E9" s="397"/>
       <c r="F9" s="24" t="s">
         <v>216</v>
       </c>
@@ -25958,8 +25964,8 @@
       <c r="L9" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M9" s="511"/>
-      <c r="N9" s="512"/>
+      <c r="M9" s="392"/>
+      <c r="N9" s="393"/>
       <c r="O9" s="5" t="s">
         <v>187</v>
       </c>
@@ -25984,7 +25990,7 @@
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
-      <c r="E10" s="433"/>
+      <c r="E10" s="398"/>
       <c r="F10" t="s">
         <v>204</v>
       </c>
@@ -25995,8 +26001,8 @@
       <c r="L10" s="5" t="s">
         <v>1167</v>
       </c>
-      <c r="M10" s="511"/>
-      <c r="N10" s="512"/>
+      <c r="M10" s="392"/>
+      <c r="N10" s="393"/>
       <c r="O10" s="5"/>
       <c r="P10" s="246" t="s">
         <v>399</v>
@@ -26013,13 +26019,13 @@
       <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="379" t="s">
+      <c r="A11" s="380" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="380"/>
-      <c r="C11" s="381"/>
-      <c r="D11" s="381"/>
-      <c r="E11" s="374"/>
+      <c r="B11" s="381"/>
+      <c r="C11" s="382"/>
+      <c r="D11" s="382"/>
+      <c r="E11" s="375"/>
       <c r="F11" t="s">
         <v>209</v>
       </c>
@@ -26028,8 +26034,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="511"/>
-      <c r="N11" s="512"/>
+      <c r="M11" s="392"/>
+      <c r="N11" s="393"/>
       <c r="O11" s="5"/>
       <c r="P11" s="246" t="s">
         <v>400</v>
@@ -26039,11 +26045,11 @@
       <c r="T11" s="38"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="372"/>
-      <c r="B12" s="382"/>
-      <c r="C12" s="382"/>
-      <c r="D12" s="382"/>
-      <c r="E12" s="374"/>
+      <c r="A12" s="373"/>
+      <c r="B12" s="383"/>
+      <c r="C12" s="383"/>
+      <c r="D12" s="383"/>
+      <c r="E12" s="375"/>
       <c r="F12" t="s">
         <v>944</v>
       </c>
@@ -26052,8 +26058,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="511"/>
-      <c r="N12" s="512"/>
+      <c r="M12" s="392"/>
+      <c r="N12" s="393"/>
       <c r="O12" s="5"/>
       <c r="P12" s="246" t="s">
         <v>1305</v>
@@ -26063,11 +26069,11 @@
       <c r="T12" s="38"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A13" s="372"/>
-      <c r="B13" s="382"/>
-      <c r="C13" s="382"/>
-      <c r="D13" s="382"/>
-      <c r="E13" s="374"/>
+      <c r="A13" s="373"/>
+      <c r="B13" s="383"/>
+      <c r="C13" s="383"/>
+      <c r="D13" s="383"/>
+      <c r="E13" s="375"/>
       <c r="F13" t="s">
         <v>679</v>
       </c>
@@ -26078,8 +26084,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="513"/>
-      <c r="N13" s="514"/>
+      <c r="M13" s="394"/>
+      <c r="N13" s="395"/>
       <c r="O13" s="28"/>
       <c r="P13" s="247"/>
       <c r="S13" t="s">
@@ -26087,11 +26093,14 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="383"/>
-      <c r="B14" s="384"/>
-      <c r="C14" s="384"/>
-      <c r="D14" s="384"/>
-      <c r="E14" s="385"/>
+      <c r="A14" s="384"/>
+      <c r="B14" s="385"/>
+      <c r="C14" s="385"/>
+      <c r="D14" s="385"/>
+      <c r="E14" s="386"/>
+      <c r="F14" t="s">
+        <v>885</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -26221,20 +26230,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="386" t="s">
+      <c r="I20" s="387" t="s">
         <v>194</v>
       </c>
-      <c r="J20" s="387"/>
-      <c r="K20" s="386" t="s">
+      <c r="J20" s="388"/>
+      <c r="K20" s="387" t="s">
         <v>195</v>
       </c>
-      <c r="L20" s="387"/>
-      <c r="M20" s="386" t="s">
+      <c r="L20" s="388"/>
+      <c r="M20" s="387" t="s">
         <v>196</v>
       </c>
-      <c r="N20" s="388"/>
-      <c r="O20" s="388"/>
-      <c r="P20" s="387"/>
+      <c r="N20" s="389"/>
+      <c r="O20" s="389"/>
+      <c r="P20" s="388"/>
       <c r="S20" t="s">
         <v>281</v>
       </c>
@@ -26275,6 +26284,9 @@
       <c r="B23" s="72" t="s">
         <v>197</v>
       </c>
+      <c r="L23" t="s">
+        <v>216</v>
+      </c>
       <c r="Q23" t="s">
         <v>1288</v>
       </c>
@@ -26289,6 +26301,9 @@
       <c r="B24" s="72" t="s">
         <v>198</v>
       </c>
+      <c r="L24" t="s">
+        <v>1494</v>
+      </c>
       <c r="Q24" t="s">
         <v>1289</v>
       </c>
@@ -26299,6 +26314,9 @@
       </c>
       <c r="B25" s="72" t="s">
         <v>200</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="23.25">
@@ -27086,8 +27104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27504,13 +27522,13 @@
         <v>181</v>
       </c>
       <c r="J3" s="148"/>
-      <c r="K3" s="398"/>
-      <c r="L3" s="398"/>
-      <c r="M3" s="398"/>
-      <c r="N3" s="398"/>
-      <c r="O3" s="398"/>
-      <c r="P3" s="398"/>
-      <c r="Q3" s="399"/>
+      <c r="K3" s="408"/>
+      <c r="L3" s="408"/>
+      <c r="M3" s="408"/>
+      <c r="N3" s="408"/>
+      <c r="O3" s="408"/>
+      <c r="P3" s="408"/>
+      <c r="Q3" s="409"/>
       <c r="T3" s="40" t="s">
         <v>179</v>
       </c>
@@ -27778,13 +27796,13 @@
       <c r="U11" s="38"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="389" t="s">
+      <c r="A12" s="399" t="s">
         <v>667</v>
       </c>
-      <c r="B12" s="390"/>
-      <c r="C12" s="390"/>
-      <c r="D12" s="390"/>
-      <c r="E12" s="391"/>
+      <c r="B12" s="400"/>
+      <c r="C12" s="400"/>
+      <c r="D12" s="400"/>
+      <c r="E12" s="401"/>
       <c r="F12" t="s">
         <v>680</v>
       </c>
@@ -27807,11 +27825,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="392"/>
-      <c r="B13" s="393"/>
-      <c r="C13" s="393"/>
-      <c r="D13" s="393"/>
-      <c r="E13" s="394"/>
+      <c r="A13" s="402"/>
+      <c r="B13" s="403"/>
+      <c r="C13" s="403"/>
+      <c r="D13" s="403"/>
+      <c r="E13" s="404"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -27832,11 +27850,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="392"/>
-      <c r="B14" s="393"/>
-      <c r="C14" s="393"/>
-      <c r="D14" s="393"/>
-      <c r="E14" s="394"/>
+      <c r="A14" s="402"/>
+      <c r="B14" s="403"/>
+      <c r="C14" s="403"/>
+      <c r="D14" s="403"/>
+      <c r="E14" s="404"/>
       <c r="F14" t="s">
         <v>677</v>
       </c>
@@ -27859,11 +27877,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="395"/>
-      <c r="B15" s="396"/>
-      <c r="C15" s="396"/>
-      <c r="D15" s="396"/>
-      <c r="E15" s="397"/>
+      <c r="A15" s="405"/>
+      <c r="B15" s="406"/>
+      <c r="C15" s="406"/>
+      <c r="D15" s="406"/>
+      <c r="E15" s="407"/>
       <c r="F15" s="24"/>
       <c r="H15" s="192"/>
       <c r="I15" s="4" t="s">
@@ -27921,17 +27939,17 @@
       <c r="F17" s="188"/>
       <c r="G17" s="129"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="377" t="s">
+      <c r="I17" s="378" t="s">
         <v>1177</v>
       </c>
-      <c r="J17" s="377"/>
-      <c r="K17" s="377"/>
-      <c r="L17" s="377"/>
-      <c r="M17" s="377"/>
-      <c r="N17" s="377"/>
-      <c r="O17" s="377"/>
-      <c r="P17" s="377"/>
-      <c r="Q17" s="377"/>
+      <c r="J17" s="378"/>
+      <c r="K17" s="378"/>
+      <c r="L17" s="378"/>
+      <c r="M17" s="378"/>
+      <c r="N17" s="378"/>
+      <c r="O17" s="378"/>
+      <c r="P17" s="378"/>
+      <c r="Q17" s="378"/>
       <c r="S17" t="s">
         <v>358</v>
       </c>
@@ -32217,10 +32235,10 @@
       <c r="K232" s="35"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="400" t="s">
+      <c r="O232" s="410" t="s">
         <v>1225</v>
       </c>
-      <c r="P232" s="401"/>
+      <c r="P232" s="411"/>
       <c r="Q232" s="6"/>
     </row>
     <row r="233" spans="2:17">

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3028" uniqueCount="1496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="1545">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -4988,6 +4988,258 @@
   </si>
   <si>
     <t>server contact = success/failure</t>
+  </si>
+  <si>
+    <t>Tomcat
+80</t>
+  </si>
+  <si>
+    <t>www.mywebsite.com</t>
+  </si>
+  <si>
+    <t>login form includes an action="http://1.2.3.4:80/login</t>
+  </si>
+  <si>
+    <t>&lt;/form&gt;</t>
+  </si>
+  <si>
+    <t>&lt;form action="http url"&gt;</t>
+  </si>
+  <si>
+    <t>uid=john&amp;pwd=john1!</t>
+  </si>
+  <si>
+    <t>which machine</t>
+  </si>
+  <si>
+    <t>which web software</t>
+  </si>
+  <si>
+    <t>which java program in the web software</t>
+  </si>
+  <si>
+    <t>http://1.2.3.4:80/login?uid=john&amp;pwd=john1!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">at WebServlet("/login")
+public class Servlet{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     doinit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+          sdsadasd OPTIONAL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     doService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+          decision to call doget or dopost NEVER
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     doGet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+          compare uid and pwd. Login success/failure
+          req.getParameter("uid");
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doPost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+          sdfdsf
+}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter
+if(request.getRemoteAddr() .equals("0:0:0:0:0:0:0:1"))
+   response.getWriter().write("customer blocked");
+  else 
+   chain.doFilter(request, response);  
+</t>
+  </si>
+  <si>
+    <t>Tomcat 
+Http
+Server</t>
+  </si>
+  <si>
+    <t>www.bank.com</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;login&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;payment&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Http = stateless protocol</t>
+  </si>
+  <si>
+    <t>conversation</t>
+  </si>
+  <si>
+    <t>login=success</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;welcome.html + 1231231231 &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;payment + 1231231231 &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>iphone,samsung</t>
+  </si>
+  <si>
+    <t>login failed</t>
+  </si>
+  <si>
+    <t>login success</t>
+  </si>
+  <si>
+    <t>added iphone to the cart</t>
+  </si>
+  <si>
+    <t>added samsung to the cart</t>
+  </si>
+  <si>
+    <t>Http</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;login&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt; failed + 12345&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>sessionid=12345</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;login&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt; welcome + 234234&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt; add iphone&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt; success + 345345&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>sessionid=234324</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt; add sammsung + 345345&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>[iphone , samsung ]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt; transfer money + 12345 &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt; error &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>added nokia to the cart</t>
+  </si>
+  <si>
+    <t>LOGOUT and CLEAR COOKIE</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;add nokia&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>[nokia]</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt; success 456456&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>session id=456456</t>
   </si>
 </sst>
 </file>
@@ -5752,7 +6004,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="517">
+  <cellXfs count="534">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -6275,6 +6527,7 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6301,6 +6554,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6360,12 +6640,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6722,6 +6996,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12533,10 +12832,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="412" t="s">
+      <c r="L35" s="420" t="s">
         <v>374</v>
       </c>
-      <c r="M35" s="412"/>
+      <c r="M35" s="420"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -14466,10 +14765,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="413" t="s">
+      <c r="A155" s="421" t="s">
         <v>993</v>
       </c>
-      <c r="B155" s="413"/>
+      <c r="B155" s="421"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="93" t="s">
@@ -16059,18 +16358,18 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="421" t="s">
+      <c r="E6" s="429" t="s">
         <v>406</v>
       </c>
-      <c r="F6" s="370"/>
-      <c r="G6" s="369" t="s">
+      <c r="F6" s="371"/>
+      <c r="G6" s="370" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="369"/>
-      <c r="I6" s="369"/>
-      <c r="J6" s="369"/>
-      <c r="K6" s="369"/>
-      <c r="L6" s="370"/>
+      <c r="H6" s="370"/>
+      <c r="I6" s="370"/>
+      <c r="J6" s="370"/>
+      <c r="K6" s="370"/>
+      <c r="L6" s="371"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="28" t="s">
@@ -16080,7 +16379,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="418">
+      <c r="D7" s="426">
         <v>80</v>
       </c>
       <c r="E7" s="66"/>
@@ -16098,7 +16397,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="418"/>
+      <c r="D8" s="426"/>
       <c r="E8" s="58" t="s">
         <v>408</v>
       </c>
@@ -16133,7 +16432,7 @@
       <c r="B9" t="s">
         <v>407</v>
       </c>
-      <c r="D9" s="418"/>
+      <c r="D9" s="426"/>
       <c r="E9" s="232"/>
       <c r="F9" s="238"/>
       <c r="G9" s="232"/>
@@ -16157,7 +16456,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="418"/>
+      <c r="D10" s="426"/>
       <c r="E10" s="66"/>
       <c r="F10" s="237"/>
       <c r="G10" s="66"/>
@@ -16181,7 +16480,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="418"/>
+      <c r="D11" s="426"/>
       <c r="E11" s="58" t="s">
         <v>412</v>
       </c>
@@ -16210,7 +16509,7 @@
       <c r="B12" s="209" t="s">
         <v>416</v>
       </c>
-      <c r="D12" s="418"/>
+      <c r="D12" s="426"/>
       <c r="E12" s="232"/>
       <c r="F12" s="238"/>
       <c r="G12" s="232"/>
@@ -16228,7 +16527,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="418"/>
+      <c r="D13" s="426"/>
       <c r="E13" s="66"/>
       <c r="F13" s="237"/>
       <c r="G13" s="66"/>
@@ -16244,7 +16543,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="418"/>
+      <c r="D14" s="426"/>
       <c r="E14" s="58" t="s">
         <v>417</v>
       </c>
@@ -16268,7 +16567,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="418"/>
+      <c r="D15" s="426"/>
       <c r="E15" s="232"/>
       <c r="F15" s="238"/>
       <c r="G15" s="232"/>
@@ -16284,7 +16583,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="418"/>
+      <c r="D16" s="426"/>
       <c r="E16" s="66"/>
       <c r="F16" s="237"/>
       <c r="G16" s="59"/>
@@ -16300,7 +16599,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="418"/>
+      <c r="D17" s="426"/>
       <c r="E17" s="58" t="s">
         <v>421</v>
       </c>
@@ -16324,7 +16623,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="418"/>
+      <c r="D18" s="426"/>
       <c r="E18" s="232"/>
       <c r="F18" s="238"/>
       <c r="G18" s="321"/>
@@ -16341,20 +16640,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="422" t="s">
+      <c r="E19" s="430" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="423"/>
-      <c r="G19" s="422" t="s">
+      <c r="F19" s="431"/>
+      <c r="G19" s="430" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="423"/>
-      <c r="I19" s="422" t="s">
+      <c r="H19" s="431"/>
+      <c r="I19" s="430" t="s">
         <v>196</v>
       </c>
-      <c r="J19" s="424"/>
-      <c r="K19" s="424"/>
-      <c r="L19" s="423"/>
+      <c r="J19" s="432"/>
+      <c r="K19" s="432"/>
+      <c r="L19" s="431"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -16419,12 +16718,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="420"/>
-      <c r="H24" s="420"/>
-      <c r="I24" s="420"/>
-      <c r="J24" s="420"/>
-      <c r="K24" s="420"/>
-      <c r="L24" s="420"/>
+      <c r="G24" s="428"/>
+      <c r="H24" s="428"/>
+      <c r="I24" s="428"/>
+      <c r="J24" s="428"/>
+      <c r="K24" s="428"/>
+      <c r="L24" s="428"/>
       <c r="O24" s="40" t="s">
         <v>179</v>
       </c>
@@ -16797,11 +17096,11 @@
       <c r="G47" s="222" t="s">
         <v>883</v>
       </c>
-      <c r="H47" s="410" t="s">
+      <c r="H47" s="418" t="s">
         <v>1354</v>
       </c>
-      <c r="I47" s="419"/>
-      <c r="J47" s="411"/>
+      <c r="I47" s="427"/>
+      <c r="J47" s="419"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -17407,16 +17706,16 @@
         <v>1048</v>
       </c>
       <c r="F131" s="38"/>
-      <c r="G131" s="416" t="s">
+      <c r="G131" s="424" t="s">
         <v>1041</v>
       </c>
-      <c r="H131" s="416"/>
-      <c r="I131" s="416"/>
-      <c r="J131" s="416"/>
-      <c r="K131" s="416"/>
-      <c r="L131" s="416"/>
-      <c r="M131" s="416"/>
-      <c r="N131" s="416"/>
+      <c r="H131" s="424"/>
+      <c r="I131" s="424"/>
+      <c r="J131" s="424"/>
+      <c r="K131" s="424"/>
+      <c r="L131" s="424"/>
+      <c r="M131" s="424"/>
+      <c r="N131" s="424"/>
       <c r="O131" s="38"/>
     </row>
     <row r="132" spans="2:15">
@@ -17553,29 +17852,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="38"/>
-      <c r="G141" s="417"/>
-      <c r="H141" s="417"/>
-      <c r="I141" s="417"/>
-      <c r="J141" s="417"/>
-      <c r="K141" s="417"/>
-      <c r="L141" s="417"/>
-      <c r="M141" s="417"/>
-      <c r="N141" s="417"/>
-      <c r="O141" s="417"/>
+      <c r="G141" s="425"/>
+      <c r="H141" s="425"/>
+      <c r="I141" s="425"/>
+      <c r="J141" s="425"/>
+      <c r="K141" s="425"/>
+      <c r="L141" s="425"/>
+      <c r="M141" s="425"/>
+      <c r="N141" s="425"/>
+      <c r="O141" s="425"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="417"/>
-      <c r="H142" s="417"/>
-      <c r="I142" s="417"/>
-      <c r="J142" s="417"/>
-      <c r="K142" s="417"/>
-      <c r="L142" s="417"/>
-      <c r="M142" s="417"/>
-      <c r="N142" s="417"/>
-      <c r="O142" s="417"/>
+      <c r="G142" s="425"/>
+      <c r="H142" s="425"/>
+      <c r="I142" s="425"/>
+      <c r="J142" s="425"/>
+      <c r="K142" s="425"/>
+      <c r="L142" s="425"/>
+      <c r="M142" s="425"/>
+      <c r="N142" s="425"/>
+      <c r="O142" s="425"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -17619,7 +17918,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="414" t="s">
+      <c r="D158" s="422" t="s">
         <v>1320</v>
       </c>
       <c r="E158" s="66"/>
@@ -17632,7 +17931,7 @@
       <c r="L158" s="237"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="415"/>
+      <c r="D159" s="423"/>
       <c r="E159" s="313" t="s">
         <v>1318</v>
       </c>
@@ -17654,7 +17953,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="415"/>
+      <c r="D160" s="423"/>
       <c r="E160" s="232"/>
       <c r="F160" s="238"/>
       <c r="G160" s="232"/>
@@ -17665,7 +17964,7 @@
       <c r="L160" s="238"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="415"/>
+      <c r="D161" s="423"/>
       <c r="E161" s="315"/>
       <c r="F161" s="316"/>
       <c r="G161" s="315"/>
@@ -17676,7 +17975,7 @@
       <c r="L161" s="316"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="415"/>
+      <c r="D162" s="423"/>
       <c r="E162" s="317"/>
       <c r="F162" s="318"/>
       <c r="G162" s="317"/>
@@ -17690,7 +17989,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="415"/>
+      <c r="D163" s="423"/>
       <c r="E163" s="319"/>
       <c r="F163" s="320"/>
       <c r="G163" s="319"/>
@@ -17701,7 +18000,7 @@
       <c r="L163" s="320"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="415"/>
+      <c r="D164" s="423"/>
       <c r="E164" s="66"/>
       <c r="F164" s="237"/>
       <c r="G164" s="66"/>
@@ -17712,7 +18011,7 @@
       <c r="L164" s="237"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="415"/>
+      <c r="D165" s="423"/>
       <c r="E165" s="58"/>
       <c r="F165" s="312"/>
       <c r="G165" s="58"/>
@@ -17726,7 +18025,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="415"/>
+      <c r="D166" s="423"/>
       <c r="E166" s="232"/>
       <c r="F166" s="238"/>
       <c r="G166" s="232"/>
@@ -17737,7 +18036,7 @@
       <c r="L166" s="238"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="415"/>
+      <c r="D167" s="423"/>
       <c r="E167" s="66"/>
       <c r="F167" s="237"/>
       <c r="G167" s="59"/>
@@ -17748,7 +18047,7 @@
       <c r="L167" s="312"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="415"/>
+      <c r="D168" s="423"/>
       <c r="E168" s="58"/>
       <c r="F168" s="312"/>
       <c r="G168" s="59"/>
@@ -17762,7 +18061,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="415"/>
+      <c r="D169" s="423"/>
       <c r="E169" s="232"/>
       <c r="F169" s="238"/>
       <c r="G169" s="321"/>
@@ -18197,13 +18496,13 @@
       <c r="C20" s="116">
         <v>43908</v>
       </c>
-      <c r="D20" s="425" t="s">
+      <c r="D20" s="433" t="s">
         <v>456</v>
       </c>
-      <c r="E20" s="425"/>
-      <c r="F20" s="425"/>
-      <c r="G20" s="425"/>
-      <c r="H20" s="425"/>
+      <c r="E20" s="433"/>
+      <c r="F20" s="433"/>
+      <c r="G20" s="433"/>
+      <c r="H20" s="433"/>
       <c r="I20" s="38" t="s">
         <v>457</v>
       </c>
@@ -18214,37 +18513,37 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="426">
+      <c r="C21" s="434">
         <v>43909</v>
       </c>
-      <c r="D21" s="425"/>
-      <c r="E21" s="425"/>
-      <c r="F21" s="425"/>
-      <c r="G21" s="425"/>
-      <c r="H21" s="425"/>
+      <c r="D21" s="433"/>
+      <c r="E21" s="433"/>
+      <c r="F21" s="433"/>
+      <c r="G21" s="433"/>
+      <c r="H21" s="433"/>
       <c r="I21" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="J21" s="425"/>
-      <c r="K21" s="425"/>
-      <c r="L21" s="425" t="s">
+      <c r="J21" s="433"/>
+      <c r="K21" s="433"/>
+      <c r="L21" s="433" t="s">
         <v>459</v>
       </c>
-      <c r="M21" s="425"/>
-      <c r="N21" s="425"/>
+      <c r="M21" s="433"/>
+      <c r="N21" s="433"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="426"/>
-      <c r="D22" s="425"/>
-      <c r="E22" s="425"/>
-      <c r="F22" s="425"/>
-      <c r="G22" s="425"/>
-      <c r="H22" s="425"/>
-      <c r="I22" s="376" t="s">
+      <c r="C22" s="434"/>
+      <c r="D22" s="433"/>
+      <c r="E22" s="433"/>
+      <c r="F22" s="433"/>
+      <c r="G22" s="433"/>
+      <c r="H22" s="433"/>
+      <c r="I22" s="377" t="s">
         <v>460</v>
       </c>
-      <c r="J22" s="425"/>
-      <c r="K22" s="425"/>
+      <c r="J22" s="433"/>
+      <c r="K22" s="433"/>
       <c r="L22" s="117" t="s">
         <v>461</v>
       </c>
@@ -18252,31 +18551,31 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="426"/>
-      <c r="D23" s="425"/>
-      <c r="E23" s="425"/>
-      <c r="F23" s="425"/>
-      <c r="G23" s="425"/>
-      <c r="H23" s="425"/>
-      <c r="I23" s="376"/>
-      <c r="J23" s="425"/>
-      <c r="K23" s="425"/>
-      <c r="L23" s="425" t="s">
+      <c r="C23" s="434"/>
+      <c r="D23" s="433"/>
+      <c r="E23" s="433"/>
+      <c r="F23" s="433"/>
+      <c r="G23" s="433"/>
+      <c r="H23" s="433"/>
+      <c r="I23" s="377"/>
+      <c r="J23" s="433"/>
+      <c r="K23" s="433"/>
+      <c r="L23" s="433" t="s">
         <v>462</v>
       </c>
-      <c r="M23" s="425"/>
-      <c r="N23" s="425"/>
+      <c r="M23" s="433"/>
+      <c r="N23" s="433"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="426"/>
-      <c r="D24" s="425"/>
-      <c r="E24" s="425"/>
-      <c r="F24" s="425"/>
-      <c r="G24" s="425"/>
-      <c r="H24" s="425"/>
-      <c r="I24" s="376"/>
-      <c r="J24" s="425"/>
-      <c r="K24" s="425"/>
+      <c r="C24" s="434"/>
+      <c r="D24" s="433"/>
+      <c r="E24" s="433"/>
+      <c r="F24" s="433"/>
+      <c r="G24" s="433"/>
+      <c r="H24" s="433"/>
+      <c r="I24" s="377"/>
+      <c r="J24" s="433"/>
+      <c r="K24" s="433"/>
       <c r="L24" s="118" t="s">
         <v>460</v>
       </c>
@@ -18287,13 +18586,13 @@
       <c r="C25" s="116">
         <v>43910</v>
       </c>
-      <c r="D25" s="425" t="s">
+      <c r="D25" s="433" t="s">
         <v>463</v>
       </c>
-      <c r="E25" s="425"/>
-      <c r="F25" s="425"/>
-      <c r="G25" s="425"/>
-      <c r="H25" s="425"/>
+      <c r="E25" s="433"/>
+      <c r="F25" s="433"/>
+      <c r="G25" s="433"/>
+      <c r="H25" s="433"/>
       <c r="I25" s="38" t="s">
         <v>464</v>
       </c>
@@ -18307,16 +18606,16 @@
       <c r="C26" s="116">
         <v>43911</v>
       </c>
-      <c r="D26" s="427"/>
-      <c r="E26" s="428"/>
-      <c r="F26" s="428"/>
-      <c r="G26" s="428"/>
-      <c r="H26" s="429"/>
-      <c r="I26" s="434" t="s">
+      <c r="D26" s="435"/>
+      <c r="E26" s="436"/>
+      <c r="F26" s="436"/>
+      <c r="G26" s="436"/>
+      <c r="H26" s="437"/>
+      <c r="I26" s="442" t="s">
         <v>460</v>
       </c>
-      <c r="J26" s="427"/>
-      <c r="K26" s="429"/>
+      <c r="J26" s="435"/>
+      <c r="K26" s="437"/>
       <c r="L26" s="117" t="s">
         <v>461</v>
       </c>
@@ -18325,30 +18624,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
-      <c r="D27" s="430"/>
-      <c r="E27" s="420"/>
-      <c r="F27" s="420"/>
-      <c r="G27" s="420"/>
-      <c r="H27" s="431"/>
-      <c r="I27" s="435"/>
-      <c r="J27" s="430"/>
-      <c r="K27" s="431"/>
-      <c r="L27" s="425" t="s">
+      <c r="D27" s="438"/>
+      <c r="E27" s="428"/>
+      <c r="F27" s="428"/>
+      <c r="G27" s="428"/>
+      <c r="H27" s="439"/>
+      <c r="I27" s="443"/>
+      <c r="J27" s="438"/>
+      <c r="K27" s="439"/>
+      <c r="L27" s="433" t="s">
         <v>465</v>
       </c>
-      <c r="M27" s="425"/>
-      <c r="N27" s="425"/>
+      <c r="M27" s="433"/>
+      <c r="N27" s="433"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
-      <c r="D28" s="430"/>
-      <c r="E28" s="420"/>
-      <c r="F28" s="420"/>
-      <c r="G28" s="420"/>
-      <c r="H28" s="431"/>
-      <c r="I28" s="435"/>
-      <c r="J28" s="430"/>
-      <c r="K28" s="431"/>
+      <c r="D28" s="438"/>
+      <c r="E28" s="428"/>
+      <c r="F28" s="428"/>
+      <c r="G28" s="428"/>
+      <c r="H28" s="439"/>
+      <c r="I28" s="443"/>
+      <c r="J28" s="438"/>
+      <c r="K28" s="439"/>
       <c r="L28" s="118" t="s">
         <v>460</v>
       </c>
@@ -18357,14 +18656,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
-      <c r="D29" s="432"/>
-      <c r="E29" s="412"/>
-      <c r="F29" s="412"/>
-      <c r="G29" s="412"/>
-      <c r="H29" s="433"/>
-      <c r="I29" s="436"/>
-      <c r="J29" s="432"/>
-      <c r="K29" s="433"/>
+      <c r="D29" s="440"/>
+      <c r="E29" s="420"/>
+      <c r="F29" s="420"/>
+      <c r="G29" s="420"/>
+      <c r="H29" s="441"/>
+      <c r="I29" s="444"/>
+      <c r="J29" s="440"/>
+      <c r="K29" s="441"/>
       <c r="L29" s="119" t="s">
         <v>466</v>
       </c>
@@ -18412,13 +18711,13 @@
       <c r="C33" s="116">
         <v>43908</v>
       </c>
-      <c r="D33" s="425" t="s">
+      <c r="D33" s="433" t="s">
         <v>456</v>
       </c>
-      <c r="E33" s="425"/>
-      <c r="F33" s="425"/>
-      <c r="G33" s="425"/>
-      <c r="H33" s="425"/>
+      <c r="E33" s="433"/>
+      <c r="F33" s="433"/>
+      <c r="G33" s="433"/>
+      <c r="H33" s="433"/>
       <c r="I33" s="38" t="s">
         <v>457</v>
       </c>
@@ -18429,33 +18728,33 @@
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="426">
+      <c r="C34" s="434">
         <v>43909</v>
       </c>
-      <c r="D34" s="425"/>
-      <c r="E34" s="425"/>
-      <c r="F34" s="425"/>
-      <c r="G34" s="425"/>
-      <c r="H34" s="425"/>
-      <c r="I34" s="437"/>
-      <c r="J34" s="425"/>
-      <c r="K34" s="425"/>
-      <c r="L34" s="425" t="s">
+      <c r="D34" s="433"/>
+      <c r="E34" s="433"/>
+      <c r="F34" s="433"/>
+      <c r="G34" s="433"/>
+      <c r="H34" s="433"/>
+      <c r="I34" s="445"/>
+      <c r="J34" s="433"/>
+      <c r="K34" s="433"/>
+      <c r="L34" s="433" t="s">
         <v>459</v>
       </c>
-      <c r="M34" s="425"/>
-      <c r="N34" s="425"/>
+      <c r="M34" s="433"/>
+      <c r="N34" s="433"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="426"/>
-      <c r="D35" s="425"/>
-      <c r="E35" s="425"/>
-      <c r="F35" s="425"/>
-      <c r="G35" s="425"/>
-      <c r="H35" s="425"/>
-      <c r="I35" s="438"/>
-      <c r="J35" s="425"/>
-      <c r="K35" s="425"/>
+      <c r="C35" s="434"/>
+      <c r="D35" s="433"/>
+      <c r="E35" s="433"/>
+      <c r="F35" s="433"/>
+      <c r="G35" s="433"/>
+      <c r="H35" s="433"/>
+      <c r="I35" s="446"/>
+      <c r="J35" s="433"/>
+      <c r="K35" s="433"/>
       <c r="L35" s="117" t="s">
         <v>461</v>
       </c>
@@ -18463,31 +18762,31 @@
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="426"/>
-      <c r="D36" s="425"/>
-      <c r="E36" s="425"/>
-      <c r="F36" s="425"/>
-      <c r="G36" s="425"/>
-      <c r="H36" s="425"/>
-      <c r="I36" s="438"/>
-      <c r="J36" s="425"/>
-      <c r="K36" s="425"/>
-      <c r="L36" s="425" t="s">
+      <c r="C36" s="434"/>
+      <c r="D36" s="433"/>
+      <c r="E36" s="433"/>
+      <c r="F36" s="433"/>
+      <c r="G36" s="433"/>
+      <c r="H36" s="433"/>
+      <c r="I36" s="446"/>
+      <c r="J36" s="433"/>
+      <c r="K36" s="433"/>
+      <c r="L36" s="433" t="s">
         <v>462</v>
       </c>
-      <c r="M36" s="425"/>
-      <c r="N36" s="425"/>
+      <c r="M36" s="433"/>
+      <c r="N36" s="433"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="426"/>
-      <c r="D37" s="425"/>
-      <c r="E37" s="425"/>
-      <c r="F37" s="425"/>
-      <c r="G37" s="425"/>
-      <c r="H37" s="425"/>
-      <c r="I37" s="439"/>
-      <c r="J37" s="425"/>
-      <c r="K37" s="425"/>
+      <c r="C37" s="434"/>
+      <c r="D37" s="433"/>
+      <c r="E37" s="433"/>
+      <c r="F37" s="433"/>
+      <c r="G37" s="433"/>
+      <c r="H37" s="433"/>
+      <c r="I37" s="447"/>
+      <c r="J37" s="433"/>
+      <c r="K37" s="433"/>
       <c r="L37" s="118" t="s">
         <v>467</v>
       </c>
@@ -18498,13 +18797,13 @@
       <c r="C38" s="116">
         <v>43910</v>
       </c>
-      <c r="D38" s="425" t="s">
+      <c r="D38" s="433" t="s">
         <v>463</v>
       </c>
-      <c r="E38" s="425"/>
-      <c r="F38" s="425"/>
-      <c r="G38" s="425"/>
-      <c r="H38" s="425"/>
+      <c r="E38" s="433"/>
+      <c r="F38" s="433"/>
+      <c r="G38" s="433"/>
+      <c r="H38" s="433"/>
       <c r="I38" s="38" t="s">
         <v>464</v>
       </c>
@@ -18518,14 +18817,14 @@
       <c r="C39" s="116">
         <v>43911</v>
       </c>
-      <c r="D39" s="427"/>
-      <c r="E39" s="428"/>
-      <c r="F39" s="428"/>
-      <c r="G39" s="428"/>
-      <c r="H39" s="429"/>
-      <c r="I39" s="434"/>
-      <c r="J39" s="427"/>
-      <c r="K39" s="429"/>
+      <c r="D39" s="435"/>
+      <c r="E39" s="436"/>
+      <c r="F39" s="436"/>
+      <c r="G39" s="436"/>
+      <c r="H39" s="437"/>
+      <c r="I39" s="442"/>
+      <c r="J39" s="435"/>
+      <c r="K39" s="437"/>
       <c r="L39" s="117" t="s">
         <v>461</v>
       </c>
@@ -18534,30 +18833,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
-      <c r="D40" s="430"/>
-      <c r="E40" s="420"/>
-      <c r="F40" s="420"/>
-      <c r="G40" s="420"/>
-      <c r="H40" s="431"/>
-      <c r="I40" s="435"/>
-      <c r="J40" s="430"/>
-      <c r="K40" s="431"/>
-      <c r="L40" s="425" t="s">
+      <c r="D40" s="438"/>
+      <c r="E40" s="428"/>
+      <c r="F40" s="428"/>
+      <c r="G40" s="428"/>
+      <c r="H40" s="439"/>
+      <c r="I40" s="443"/>
+      <c r="J40" s="438"/>
+      <c r="K40" s="439"/>
+      <c r="L40" s="433" t="s">
         <v>465</v>
       </c>
-      <c r="M40" s="425"/>
-      <c r="N40" s="425"/>
+      <c r="M40" s="433"/>
+      <c r="N40" s="433"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
-      <c r="D41" s="430"/>
-      <c r="E41" s="420"/>
-      <c r="F41" s="420"/>
-      <c r="G41" s="420"/>
-      <c r="H41" s="431"/>
-      <c r="I41" s="436"/>
-      <c r="J41" s="430"/>
-      <c r="K41" s="431"/>
+      <c r="D41" s="438"/>
+      <c r="E41" s="428"/>
+      <c r="F41" s="428"/>
+      <c r="G41" s="428"/>
+      <c r="H41" s="439"/>
+      <c r="I41" s="444"/>
+      <c r="J41" s="438"/>
+      <c r="K41" s="439"/>
       <c r="L41" s="118" t="s">
         <v>467</v>
       </c>
@@ -18566,16 +18865,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
-      <c r="D42" s="432"/>
-      <c r="E42" s="412"/>
-      <c r="F42" s="412"/>
-      <c r="G42" s="412"/>
-      <c r="H42" s="433"/>
+      <c r="D42" s="440"/>
+      <c r="E42" s="420"/>
+      <c r="F42" s="420"/>
+      <c r="G42" s="420"/>
+      <c r="H42" s="441"/>
       <c r="I42" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="J42" s="432"/>
-      <c r="K42" s="433"/>
+      <c r="J42" s="440"/>
+      <c r="K42" s="441"/>
       <c r="L42" s="119" t="s">
         <v>466</v>
       </c>
@@ -18932,29 +19231,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="450" t="s">
+      <c r="B2" s="458" t="s">
         <v>1076</v>
       </c>
-      <c r="C2" s="450"/>
-      <c r="D2" s="450"/>
-      <c r="E2" s="450"/>
-      <c r="F2" s="450"/>
-      <c r="G2" s="450"/>
-      <c r="H2" s="450"/>
-      <c r="I2" s="450"/>
-      <c r="J2" s="450"/>
-      <c r="K2" s="450"/>
-      <c r="L2" s="450"/>
-      <c r="M2" s="450"/>
-      <c r="N2" s="450"/>
-      <c r="O2" s="450"/>
-      <c r="P2" s="450"/>
-      <c r="Q2" s="450"/>
-      <c r="R2" s="450"/>
-      <c r="S2" s="450"/>
-      <c r="T2" s="450"/>
-      <c r="U2" s="450"/>
-      <c r="V2" s="450"/>
+      <c r="C2" s="458"/>
+      <c r="D2" s="458"/>
+      <c r="E2" s="458"/>
+      <c r="F2" s="458"/>
+      <c r="G2" s="458"/>
+      <c r="H2" s="458"/>
+      <c r="I2" s="458"/>
+      <c r="J2" s="458"/>
+      <c r="K2" s="458"/>
+      <c r="L2" s="458"/>
+      <c r="M2" s="458"/>
+      <c r="N2" s="458"/>
+      <c r="O2" s="458"/>
+      <c r="P2" s="458"/>
+      <c r="Q2" s="458"/>
+      <c r="R2" s="458"/>
+      <c r="S2" s="458"/>
+      <c r="T2" s="458"/>
+      <c r="U2" s="458"/>
+      <c r="V2" s="458"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -18987,22 +19286,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="453" t="s">
+      <c r="G5" s="461" t="s">
         <v>518</v>
       </c>
-      <c r="H5" s="453"/>
-      <c r="I5" s="453" t="s">
+      <c r="H5" s="461"/>
+      <c r="I5" s="461" t="s">
         <v>519</v>
       </c>
-      <c r="J5" s="453"/>
-      <c r="K5" s="453"/>
-      <c r="L5" s="453"/>
-      <c r="M5" s="453"/>
-      <c r="N5" s="453"/>
-      <c r="O5" s="453" t="s">
+      <c r="J5" s="461"/>
+      <c r="K5" s="461"/>
+      <c r="L5" s="461"/>
+      <c r="M5" s="461"/>
+      <c r="N5" s="461"/>
+      <c r="O5" s="461" t="s">
         <v>520</v>
       </c>
-      <c r="P5" s="453"/>
+      <c r="P5" s="461"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -19014,7 +19313,7 @@
       <c r="D6" s="135"/>
       <c r="E6" s="136"/>
       <c r="F6" s="138"/>
-      <c r="G6" s="458" t="s">
+      <c r="G6" s="466" t="s">
         <v>521</v>
       </c>
       <c r="H6" s="111"/>
@@ -19043,26 +19342,26 @@
       </c>
       <c r="E7" s="138"/>
       <c r="F7" s="138"/>
-      <c r="G7" s="397"/>
-      <c r="H7" s="459" t="s">
+      <c r="G7" s="379"/>
+      <c r="H7" s="467" t="s">
         <v>523</v>
       </c>
-      <c r="I7" s="462" t="s">
+      <c r="I7" s="470" t="s">
         <v>524</v>
       </c>
-      <c r="J7" s="463"/>
-      <c r="K7" s="464" t="s">
+      <c r="J7" s="471"/>
+      <c r="K7" s="472" t="s">
         <v>525</v>
       </c>
-      <c r="L7" s="465"/>
-      <c r="M7" s="462" t="s">
+      <c r="L7" s="473"/>
+      <c r="M7" s="470" t="s">
         <v>526</v>
       </c>
-      <c r="N7" s="463"/>
-      <c r="O7" s="470" t="s">
+      <c r="N7" s="471"/>
+      <c r="O7" s="478" t="s">
         <v>527</v>
       </c>
-      <c r="P7" s="471"/>
+      <c r="P7" s="479"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -19074,16 +19373,16 @@
       <c r="D8" s="139"/>
       <c r="E8" s="140"/>
       <c r="F8" s="138"/>
-      <c r="G8" s="397"/>
-      <c r="H8" s="460"/>
-      <c r="I8" s="373"/>
-      <c r="J8" s="375"/>
-      <c r="K8" s="466"/>
-      <c r="L8" s="467"/>
-      <c r="M8" s="373"/>
-      <c r="N8" s="375"/>
-      <c r="O8" s="472"/>
-      <c r="P8" s="473"/>
+      <c r="G8" s="379"/>
+      <c r="H8" s="468"/>
+      <c r="I8" s="374"/>
+      <c r="J8" s="376"/>
+      <c r="K8" s="474"/>
+      <c r="L8" s="475"/>
+      <c r="M8" s="374"/>
+      <c r="N8" s="376"/>
+      <c r="O8" s="480"/>
+      <c r="P8" s="481"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="38" t="s">
         <v>182</v>
@@ -19101,16 +19400,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="397"/>
-      <c r="H9" s="460"/>
-      <c r="I9" s="373"/>
-      <c r="J9" s="375"/>
-      <c r="K9" s="466"/>
-      <c r="L9" s="467"/>
-      <c r="M9" s="373"/>
-      <c r="N9" s="375"/>
-      <c r="O9" s="472"/>
-      <c r="P9" s="473"/>
+      <c r="G9" s="379"/>
+      <c r="H9" s="468"/>
+      <c r="I9" s="374"/>
+      <c r="J9" s="376"/>
+      <c r="K9" s="474"/>
+      <c r="L9" s="475"/>
+      <c r="M9" s="374"/>
+      <c r="N9" s="376"/>
+      <c r="O9" s="480"/>
+      <c r="P9" s="481"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -19130,16 +19429,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="397"/>
-      <c r="H10" s="460"/>
-      <c r="I10" s="373"/>
-      <c r="J10" s="375"/>
-      <c r="K10" s="466"/>
-      <c r="L10" s="467"/>
-      <c r="M10" s="373"/>
-      <c r="N10" s="375"/>
-      <c r="O10" s="472"/>
-      <c r="P10" s="473"/>
+      <c r="G10" s="379"/>
+      <c r="H10" s="468"/>
+      <c r="I10" s="374"/>
+      <c r="J10" s="376"/>
+      <c r="K10" s="474"/>
+      <c r="L10" s="475"/>
+      <c r="M10" s="374"/>
+      <c r="N10" s="376"/>
+      <c r="O10" s="480"/>
+      <c r="P10" s="481"/>
       <c r="Q10" s="5" t="s">
         <v>187</v>
       </c>
@@ -19155,16 +19454,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="397"/>
-      <c r="H11" s="460"/>
-      <c r="I11" s="373"/>
-      <c r="J11" s="375"/>
-      <c r="K11" s="466"/>
-      <c r="L11" s="467"/>
-      <c r="M11" s="373"/>
-      <c r="N11" s="375"/>
-      <c r="O11" s="472"/>
-      <c r="P11" s="473"/>
+      <c r="G11" s="379"/>
+      <c r="H11" s="468"/>
+      <c r="I11" s="374"/>
+      <c r="J11" s="376"/>
+      <c r="K11" s="474"/>
+      <c r="L11" s="475"/>
+      <c r="M11" s="374"/>
+      <c r="N11" s="376"/>
+      <c r="O11" s="480"/>
+      <c r="P11" s="481"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -19182,16 +19481,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="397"/>
-      <c r="H12" s="460"/>
-      <c r="I12" s="373"/>
-      <c r="J12" s="375"/>
-      <c r="K12" s="466"/>
-      <c r="L12" s="467"/>
-      <c r="M12" s="373"/>
-      <c r="N12" s="375"/>
-      <c r="O12" s="472"/>
-      <c r="P12" s="473"/>
+      <c r="G12" s="379"/>
+      <c r="H12" s="468"/>
+      <c r="I12" s="374"/>
+      <c r="J12" s="376"/>
+      <c r="K12" s="474"/>
+      <c r="L12" s="475"/>
+      <c r="M12" s="374"/>
+      <c r="N12" s="376"/>
+      <c r="O12" s="480"/>
+      <c r="P12" s="481"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -19205,16 +19504,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="397"/>
-      <c r="H13" s="460"/>
-      <c r="I13" s="373"/>
-      <c r="J13" s="375"/>
-      <c r="K13" s="466"/>
-      <c r="L13" s="467"/>
-      <c r="M13" s="373"/>
-      <c r="N13" s="375"/>
-      <c r="O13" s="472"/>
-      <c r="P13" s="473"/>
+      <c r="G13" s="379"/>
+      <c r="H13" s="468"/>
+      <c r="I13" s="374"/>
+      <c r="J13" s="376"/>
+      <c r="K13" s="474"/>
+      <c r="L13" s="475"/>
+      <c r="M13" s="374"/>
+      <c r="N13" s="376"/>
+      <c r="O13" s="480"/>
+      <c r="P13" s="481"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -19226,16 +19525,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="397"/>
-      <c r="H14" s="460"/>
-      <c r="I14" s="373"/>
-      <c r="J14" s="375"/>
-      <c r="K14" s="466"/>
-      <c r="L14" s="467"/>
-      <c r="M14" s="373"/>
-      <c r="N14" s="375"/>
-      <c r="O14" s="472"/>
-      <c r="P14" s="473"/>
+      <c r="G14" s="379"/>
+      <c r="H14" s="468"/>
+      <c r="I14" s="374"/>
+      <c r="J14" s="376"/>
+      <c r="K14" s="474"/>
+      <c r="L14" s="475"/>
+      <c r="M14" s="374"/>
+      <c r="N14" s="376"/>
+      <c r="O14" s="480"/>
+      <c r="P14" s="481"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -19249,16 +19548,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="397"/>
-      <c r="H15" s="460"/>
-      <c r="I15" s="373"/>
-      <c r="J15" s="375"/>
-      <c r="K15" s="466"/>
-      <c r="L15" s="467"/>
-      <c r="M15" s="373"/>
-      <c r="N15" s="375"/>
-      <c r="O15" s="472"/>
-      <c r="P15" s="473"/>
+      <c r="G15" s="379"/>
+      <c r="H15" s="468"/>
+      <c r="I15" s="374"/>
+      <c r="J15" s="376"/>
+      <c r="K15" s="474"/>
+      <c r="L15" s="475"/>
+      <c r="M15" s="374"/>
+      <c r="N15" s="376"/>
+      <c r="O15" s="480"/>
+      <c r="P15" s="481"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -19270,16 +19569,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="397"/>
-      <c r="H16" s="460"/>
-      <c r="I16" s="373"/>
-      <c r="J16" s="375"/>
-      <c r="K16" s="466"/>
-      <c r="L16" s="467"/>
-      <c r="M16" s="373"/>
-      <c r="N16" s="375"/>
-      <c r="O16" s="472"/>
-      <c r="P16" s="473"/>
+      <c r="G16" s="379"/>
+      <c r="H16" s="468"/>
+      <c r="I16" s="374"/>
+      <c r="J16" s="376"/>
+      <c r="K16" s="474"/>
+      <c r="L16" s="475"/>
+      <c r="M16" s="374"/>
+      <c r="N16" s="376"/>
+      <c r="O16" s="480"/>
+      <c r="P16" s="481"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -19291,16 +19590,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="397"/>
-      <c r="H17" s="460"/>
-      <c r="I17" s="373"/>
-      <c r="J17" s="375"/>
-      <c r="K17" s="466"/>
-      <c r="L17" s="467"/>
-      <c r="M17" s="373"/>
-      <c r="N17" s="375"/>
-      <c r="O17" s="472"/>
-      <c r="P17" s="473"/>
+      <c r="G17" s="379"/>
+      <c r="H17" s="468"/>
+      <c r="I17" s="374"/>
+      <c r="J17" s="376"/>
+      <c r="K17" s="474"/>
+      <c r="L17" s="475"/>
+      <c r="M17" s="374"/>
+      <c r="N17" s="376"/>
+      <c r="O17" s="480"/>
+      <c r="P17" s="481"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -19312,16 +19611,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="397"/>
-      <c r="H18" s="460"/>
-      <c r="I18" s="373"/>
-      <c r="J18" s="375"/>
-      <c r="K18" s="466"/>
-      <c r="L18" s="467"/>
-      <c r="M18" s="373"/>
-      <c r="N18" s="375"/>
-      <c r="O18" s="472"/>
-      <c r="P18" s="473"/>
+      <c r="G18" s="379"/>
+      <c r="H18" s="468"/>
+      <c r="I18" s="374"/>
+      <c r="J18" s="376"/>
+      <c r="K18" s="474"/>
+      <c r="L18" s="475"/>
+      <c r="M18" s="374"/>
+      <c r="N18" s="376"/>
+      <c r="O18" s="480"/>
+      <c r="P18" s="481"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -19335,16 +19634,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="397"/>
-      <c r="H19" s="460"/>
-      <c r="I19" s="373"/>
-      <c r="J19" s="375"/>
-      <c r="K19" s="466"/>
-      <c r="L19" s="467"/>
-      <c r="M19" s="373"/>
-      <c r="N19" s="375"/>
-      <c r="O19" s="472"/>
-      <c r="P19" s="473"/>
+      <c r="G19" s="379"/>
+      <c r="H19" s="468"/>
+      <c r="I19" s="374"/>
+      <c r="J19" s="376"/>
+      <c r="K19" s="474"/>
+      <c r="L19" s="475"/>
+      <c r="M19" s="374"/>
+      <c r="N19" s="376"/>
+      <c r="O19" s="480"/>
+      <c r="P19" s="481"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -19356,16 +19655,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="398"/>
-      <c r="H20" s="461"/>
-      <c r="I20" s="384"/>
-      <c r="J20" s="386"/>
-      <c r="K20" s="468"/>
-      <c r="L20" s="469"/>
-      <c r="M20" s="384"/>
-      <c r="N20" s="386"/>
-      <c r="O20" s="474"/>
-      <c r="P20" s="475"/>
+      <c r="G20" s="380"/>
+      <c r="H20" s="469"/>
+      <c r="I20" s="394"/>
+      <c r="J20" s="396"/>
+      <c r="K20" s="476"/>
+      <c r="L20" s="477"/>
+      <c r="M20" s="394"/>
+      <c r="N20" s="396"/>
+      <c r="O20" s="482"/>
+      <c r="P20" s="483"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -19395,27 +19694,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="387" t="s">
+      <c r="D22" s="397" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="388"/>
+      <c r="E22" s="398"/>
       <c r="F22" s="265"/>
       <c r="G22" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="387" t="s">
+      <c r="H22" s="397" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="389"/>
-      <c r="J22" s="389"/>
-      <c r="K22" s="389"/>
-      <c r="L22" s="389"/>
-      <c r="M22" s="389"/>
-      <c r="N22" s="388"/>
-      <c r="O22" s="387" t="s">
+      <c r="I22" s="399"/>
+      <c r="J22" s="399"/>
+      <c r="K22" s="399"/>
+      <c r="L22" s="399"/>
+      <c r="M22" s="399"/>
+      <c r="N22" s="398"/>
+      <c r="O22" s="397" t="s">
         <v>528</v>
       </c>
-      <c r="P22" s="388"/>
+      <c r="P22" s="398"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -19446,59 +19745,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="450" t="s">
+      <c r="B25" s="458" t="s">
         <v>1075</v>
       </c>
-      <c r="C25" s="450"/>
-      <c r="D25" s="450"/>
-      <c r="E25" s="450"/>
-      <c r="F25" s="450"/>
-      <c r="G25" s="450"/>
-      <c r="H25" s="450"/>
-      <c r="I25" s="450"/>
-      <c r="J25" s="450"/>
-      <c r="K25" s="450"/>
-      <c r="L25" s="450"/>
-      <c r="M25" s="450"/>
-      <c r="N25" s="450"/>
-      <c r="O25" s="450"/>
-      <c r="P25" s="450"/>
-      <c r="Q25" s="450"/>
-      <c r="R25" s="450"/>
-      <c r="S25" s="450"/>
-      <c r="T25" s="450"/>
-      <c r="U25" s="450"/>
-      <c r="V25" s="450"/>
+      <c r="C25" s="458"/>
+      <c r="D25" s="458"/>
+      <c r="E25" s="458"/>
+      <c r="F25" s="458"/>
+      <c r="G25" s="458"/>
+      <c r="H25" s="458"/>
+      <c r="I25" s="458"/>
+      <c r="J25" s="458"/>
+      <c r="K25" s="458"/>
+      <c r="L25" s="458"/>
+      <c r="M25" s="458"/>
+      <c r="N25" s="458"/>
+      <c r="O25" s="458"/>
+      <c r="P25" s="458"/>
+      <c r="Q25" s="458"/>
+      <c r="R25" s="458"/>
+      <c r="S25" s="458"/>
+      <c r="T25" s="458"/>
+      <c r="U25" s="458"/>
+      <c r="V25" s="458"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="451" t="s">
+      <c r="C26" s="459" t="s">
         <v>570</v>
       </c>
-      <c r="D26" s="451"/>
-      <c r="E26" s="451"/>
-      <c r="F26" s="451"/>
-      <c r="G26" s="451"/>
-      <c r="H26" s="451"/>
-      <c r="I26" s="451"/>
-      <c r="J26" s="451"/>
-      <c r="K26" s="451"/>
-      <c r="L26" s="451"/>
-      <c r="M26" s="451"/>
+      <c r="D26" s="459"/>
+      <c r="E26" s="459"/>
+      <c r="F26" s="459"/>
+      <c r="G26" s="459"/>
+      <c r="H26" s="459"/>
+      <c r="I26" s="459"/>
+      <c r="J26" s="459"/>
+      <c r="K26" s="459"/>
+      <c r="L26" s="459"/>
+      <c r="M26" s="459"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="421" t="s">
+      <c r="E27" s="429" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="369"/>
-      <c r="G27" s="369"/>
-      <c r="H27" s="378"/>
-      <c r="I27" s="378"/>
-      <c r="J27" s="378"/>
-      <c r="K27" s="378"/>
-      <c r="L27" s="378"/>
-      <c r="M27" s="379"/>
+      <c r="F27" s="370"/>
+      <c r="G27" s="370"/>
+      <c r="H27" s="388"/>
+      <c r="I27" s="388"/>
+      <c r="J27" s="388"/>
+      <c r="K27" s="388"/>
+      <c r="L27" s="388"/>
+      <c r="M27" s="389"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -19531,11 +19830,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="452" t="s">
+      <c r="O29" s="460" t="s">
         <v>179</v>
       </c>
-      <c r="P29" s="452"/>
-      <c r="Q29" s="452"/>
+      <c r="P29" s="460"/>
+      <c r="Q29" s="460"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -19580,21 +19879,21 @@
         <v>190</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="447" t="s">
+      <c r="E32" s="455" t="s">
         <v>1079</v>
       </c>
-      <c r="F32" s="448"/>
-      <c r="G32" s="449"/>
-      <c r="H32" s="447" t="s">
+      <c r="F32" s="456"/>
+      <c r="G32" s="457"/>
+      <c r="H32" s="455" t="s">
         <v>1080</v>
       </c>
-      <c r="I32" s="448"/>
-      <c r="J32" s="449"/>
-      <c r="K32" s="447" t="s">
+      <c r="I32" s="456"/>
+      <c r="J32" s="457"/>
+      <c r="K32" s="455" t="s">
         <v>1081</v>
       </c>
-      <c r="L32" s="448"/>
-      <c r="M32" s="449"/>
+      <c r="L32" s="456"/>
+      <c r="M32" s="457"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -19611,15 +19910,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="447"/>
-      <c r="F33" s="448"/>
-      <c r="G33" s="449"/>
-      <c r="H33" s="447"/>
-      <c r="I33" s="448"/>
-      <c r="J33" s="449"/>
-      <c r="K33" s="447"/>
-      <c r="L33" s="448"/>
-      <c r="M33" s="449"/>
+      <c r="E33" s="455"/>
+      <c r="F33" s="456"/>
+      <c r="G33" s="457"/>
+      <c r="H33" s="455"/>
+      <c r="I33" s="456"/>
+      <c r="J33" s="457"/>
+      <c r="K33" s="455"/>
+      <c r="L33" s="456"/>
+      <c r="M33" s="457"/>
       <c r="N33" s="5" t="s">
         <v>187</v>
       </c>
@@ -19636,15 +19935,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="447"/>
-      <c r="F34" s="448"/>
-      <c r="G34" s="449"/>
-      <c r="H34" s="447"/>
-      <c r="I34" s="448"/>
-      <c r="J34" s="449"/>
-      <c r="K34" s="447"/>
-      <c r="L34" s="448"/>
-      <c r="M34" s="449"/>
+      <c r="E34" s="455"/>
+      <c r="F34" s="456"/>
+      <c r="G34" s="457"/>
+      <c r="H34" s="455"/>
+      <c r="I34" s="456"/>
+      <c r="J34" s="457"/>
+      <c r="K34" s="455"/>
+      <c r="L34" s="456"/>
+      <c r="M34" s="457"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -19655,15 +19954,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="447"/>
-      <c r="F35" s="448"/>
-      <c r="G35" s="449"/>
-      <c r="H35" s="447"/>
-      <c r="I35" s="448"/>
-      <c r="J35" s="449"/>
-      <c r="K35" s="447"/>
-      <c r="L35" s="448"/>
-      <c r="M35" s="449"/>
+      <c r="E35" s="455"/>
+      <c r="F35" s="456"/>
+      <c r="G35" s="457"/>
+      <c r="H35" s="455"/>
+      <c r="I35" s="456"/>
+      <c r="J35" s="457"/>
+      <c r="K35" s="455"/>
+      <c r="L35" s="456"/>
+      <c r="M35" s="457"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -19794,15 +20093,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="440"/>
-      <c r="F42" s="441"/>
-      <c r="G42" s="441"/>
-      <c r="H42" s="441"/>
-      <c r="I42" s="441"/>
-      <c r="J42" s="441"/>
-      <c r="K42" s="441"/>
-      <c r="L42" s="441"/>
-      <c r="M42" s="442"/>
+      <c r="E42" s="448"/>
+      <c r="F42" s="449"/>
+      <c r="G42" s="449"/>
+      <c r="H42" s="449"/>
+      <c r="I42" s="449"/>
+      <c r="J42" s="449"/>
+      <c r="K42" s="449"/>
+      <c r="L42" s="449"/>
+      <c r="M42" s="450"/>
       <c r="N42" s="40" t="s">
         <v>575</v>
       </c>
@@ -19821,83 +20120,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="387" t="s">
+      <c r="C44" s="397" t="s">
         <v>194</v>
       </c>
-      <c r="D44" s="388"/>
-      <c r="E44" s="387" t="s">
+      <c r="D44" s="398"/>
+      <c r="E44" s="397" t="s">
         <v>195</v>
       </c>
-      <c r="F44" s="389"/>
-      <c r="G44" s="388"/>
-      <c r="H44" s="387" t="s">
+      <c r="F44" s="399"/>
+      <c r="G44" s="398"/>
+      <c r="H44" s="397" t="s">
         <v>196</v>
       </c>
-      <c r="I44" s="389"/>
-      <c r="J44" s="389"/>
-      <c r="K44" s="389"/>
-      <c r="L44" s="389"/>
-      <c r="M44" s="388"/>
+      <c r="I44" s="399"/>
+      <c r="J44" s="399"/>
+      <c r="K44" s="399"/>
+      <c r="L44" s="399"/>
+      <c r="M44" s="398"/>
       <c r="Q44" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="450" t="s">
+      <c r="B47" s="458" t="s">
         <v>1077</v>
       </c>
-      <c r="C47" s="450"/>
-      <c r="D47" s="450"/>
-      <c r="E47" s="450"/>
-      <c r="F47" s="450"/>
-      <c r="G47" s="450"/>
-      <c r="H47" s="450"/>
-      <c r="I47" s="450"/>
-      <c r="J47" s="450"/>
-      <c r="K47" s="450"/>
-      <c r="L47" s="450"/>
-      <c r="M47" s="450"/>
-      <c r="N47" s="450"/>
-      <c r="O47" s="450"/>
-      <c r="P47" s="450"/>
-      <c r="Q47" s="450"/>
-      <c r="R47" s="450"/>
-      <c r="S47" s="450"/>
-      <c r="T47" s="450"/>
-      <c r="U47" s="450"/>
-      <c r="V47" s="450"/>
+      <c r="C47" s="458"/>
+      <c r="D47" s="458"/>
+      <c r="E47" s="458"/>
+      <c r="F47" s="458"/>
+      <c r="G47" s="458"/>
+      <c r="H47" s="458"/>
+      <c r="I47" s="458"/>
+      <c r="J47" s="458"/>
+      <c r="K47" s="458"/>
+      <c r="L47" s="458"/>
+      <c r="M47" s="458"/>
+      <c r="N47" s="458"/>
+      <c r="O47" s="458"/>
+      <c r="P47" s="458"/>
+      <c r="Q47" s="458"/>
+      <c r="R47" s="458"/>
+      <c r="S47" s="458"/>
+      <c r="T47" s="458"/>
+      <c r="U47" s="458"/>
+      <c r="V47" s="458"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="451" t="s">
+      <c r="C48" s="459" t="s">
         <v>570</v>
       </c>
-      <c r="D48" s="451"/>
-      <c r="E48" s="451"/>
-      <c r="F48" s="451"/>
-      <c r="G48" s="451"/>
-      <c r="H48" s="451"/>
-      <c r="I48" s="451"/>
-      <c r="J48" s="451"/>
-      <c r="K48" s="451"/>
-      <c r="L48" s="451"/>
-      <c r="M48" s="451"/>
+      <c r="D48" s="459"/>
+      <c r="E48" s="459"/>
+      <c r="F48" s="459"/>
+      <c r="G48" s="459"/>
+      <c r="H48" s="459"/>
+      <c r="I48" s="459"/>
+      <c r="J48" s="459"/>
+      <c r="K48" s="459"/>
+      <c r="L48" s="459"/>
+      <c r="M48" s="459"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="421" t="s">
+      <c r="E49" s="429" t="s">
         <v>178</v>
       </c>
-      <c r="F49" s="369"/>
-      <c r="G49" s="369"/>
-      <c r="H49" s="378"/>
-      <c r="I49" s="378"/>
-      <c r="J49" s="378"/>
-      <c r="K49" s="378"/>
-      <c r="L49" s="378"/>
-      <c r="M49" s="379"/>
+      <c r="F49" s="370"/>
+      <c r="G49" s="370"/>
+      <c r="H49" s="388"/>
+      <c r="I49" s="388"/>
+      <c r="J49" s="388"/>
+      <c r="K49" s="388"/>
+      <c r="L49" s="388"/>
+      <c r="M49" s="389"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -19915,16 +20214,16 @@
       </c>
       <c r="F50" s="122"/>
       <c r="G50" s="245"/>
-      <c r="H50" s="454" t="s">
+      <c r="H50" s="462" t="s">
         <v>1080</v>
       </c>
-      <c r="I50" s="455"/>
-      <c r="J50" s="456"/>
-      <c r="K50" s="454" t="s">
+      <c r="I50" s="463"/>
+      <c r="J50" s="464"/>
+      <c r="K50" s="462" t="s">
         <v>1081</v>
       </c>
-      <c r="L50" s="455"/>
-      <c r="M50" s="456"/>
+      <c r="L50" s="463"/>
+      <c r="M50" s="464"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -19938,20 +20237,20 @@
         <v>1095</v>
       </c>
       <c r="F51" s="286"/>
-      <c r="G51" s="457" t="s">
+      <c r="G51" s="465" t="s">
         <v>1103</v>
       </c>
-      <c r="H51" s="447"/>
-      <c r="I51" s="448"/>
-      <c r="J51" s="449"/>
-      <c r="K51" s="447"/>
-      <c r="L51" s="448"/>
-      <c r="M51" s="449"/>
-      <c r="O51" s="452" t="s">
+      <c r="H51" s="455"/>
+      <c r="I51" s="456"/>
+      <c r="J51" s="457"/>
+      <c r="K51" s="455"/>
+      <c r="L51" s="456"/>
+      <c r="M51" s="457"/>
+      <c r="O51" s="460" t="s">
         <v>179</v>
       </c>
-      <c r="P51" s="452"/>
-      <c r="Q51" s="452"/>
+      <c r="P51" s="460"/>
+      <c r="Q51" s="460"/>
       <c r="S51" s="273"/>
       <c r="T51" s="273"/>
       <c r="W51" s="40" t="s">
@@ -19965,13 +20264,13 @@
         <v>1096</v>
       </c>
       <c r="F52" s="287"/>
-      <c r="G52" s="457"/>
-      <c r="H52" s="447"/>
-      <c r="I52" s="448"/>
-      <c r="J52" s="449"/>
-      <c r="K52" s="447"/>
-      <c r="L52" s="448"/>
-      <c r="M52" s="449"/>
+      <c r="G52" s="465"/>
+      <c r="H52" s="455"/>
+      <c r="I52" s="456"/>
+      <c r="J52" s="457"/>
+      <c r="K52" s="455"/>
+      <c r="L52" s="456"/>
+      <c r="M52" s="457"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -19982,13 +20281,13 @@
         <v>1097</v>
       </c>
       <c r="F53" s="288"/>
-      <c r="G53" s="457"/>
-      <c r="H53" s="447"/>
-      <c r="I53" s="448"/>
-      <c r="J53" s="449"/>
-      <c r="K53" s="447"/>
-      <c r="L53" s="448"/>
-      <c r="M53" s="449"/>
+      <c r="G53" s="465"/>
+      <c r="H53" s="455"/>
+      <c r="I53" s="456"/>
+      <c r="J53" s="457"/>
+      <c r="K53" s="455"/>
+      <c r="L53" s="456"/>
+      <c r="M53" s="457"/>
       <c r="N53" s="5"/>
       <c r="O53" s="38" t="s">
         <v>182</v>
@@ -20027,7 +20326,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="274"/>
       <c r="F54" s="289"/>
-      <c r="G54" s="445" t="s">
+      <c r="G54" s="453" t="s">
         <v>1107</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -20074,11 +20373,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="443" t="s">
+      <c r="E55" s="451" t="s">
         <v>1108</v>
       </c>
-      <c r="F55" s="444"/>
-      <c r="G55" s="446"/>
+      <c r="F55" s="452"/>
+      <c r="G55" s="454"/>
       <c r="H55" s="141" t="s">
         <v>1099</v>
       </c>
@@ -20122,9 +20421,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="443"/>
-      <c r="F56" s="444"/>
-      <c r="G56" s="446"/>
+      <c r="E56" s="451"/>
+      <c r="F56" s="452"/>
+      <c r="G56" s="454"/>
       <c r="H56" s="141" t="s">
         <v>1100</v>
       </c>
@@ -20154,9 +20453,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="443"/>
-      <c r="F57" s="444"/>
-      <c r="G57" s="446"/>
+      <c r="E57" s="451"/>
+      <c r="F57" s="452"/>
+      <c r="G57" s="454"/>
       <c r="H57" s="4" t="s">
         <v>1112</v>
       </c>
@@ -20186,9 +20485,9 @@
         <v>192</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="443"/>
-      <c r="F58" s="444"/>
-      <c r="G58" s="446"/>
+      <c r="E58" s="451"/>
+      <c r="F58" s="452"/>
+      <c r="G58" s="454"/>
       <c r="H58" s="278" t="s">
         <v>1098</v>
       </c>
@@ -20213,9 +20512,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="443"/>
-      <c r="F59" s="444"/>
-      <c r="G59" s="446"/>
+      <c r="E59" s="451"/>
+      <c r="F59" s="452"/>
+      <c r="G59" s="454"/>
       <c r="H59" s="278" t="s">
         <v>549</v>
       </c>
@@ -20240,9 +20539,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="443"/>
-      <c r="F60" s="444"/>
-      <c r="G60" s="446"/>
+      <c r="E60" s="451"/>
+      <c r="F60" s="452"/>
+      <c r="G60" s="454"/>
       <c r="H60" s="280"/>
       <c r="I60" s="281" t="s">
         <v>1114</v>
@@ -20262,9 +20561,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="443"/>
-      <c r="F61" s="444"/>
-      <c r="G61" s="446"/>
+      <c r="E61" s="451"/>
+      <c r="F61" s="452"/>
+      <c r="G61" s="454"/>
       <c r="H61" s="280"/>
       <c r="I61" s="281" t="s">
         <v>1115</v>
@@ -20284,7 +20583,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="269"/>
       <c r="F62" s="285"/>
-      <c r="G62" s="446"/>
+      <c r="G62" s="454"/>
       <c r="H62" s="282"/>
       <c r="I62" s="284" t="s">
         <v>1116</v>
@@ -20326,15 +20625,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="440"/>
-      <c r="F64" s="441"/>
-      <c r="G64" s="441"/>
-      <c r="H64" s="441"/>
-      <c r="I64" s="441"/>
-      <c r="J64" s="441"/>
-      <c r="K64" s="441"/>
-      <c r="L64" s="441"/>
-      <c r="M64" s="442"/>
+      <c r="E64" s="448"/>
+      <c r="F64" s="449"/>
+      <c r="G64" s="449"/>
+      <c r="H64" s="449"/>
+      <c r="I64" s="449"/>
+      <c r="J64" s="449"/>
+      <c r="K64" s="449"/>
+      <c r="L64" s="449"/>
+      <c r="M64" s="450"/>
       <c r="N64" s="40" t="s">
         <v>575</v>
       </c>
@@ -20363,23 +20662,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="387" t="s">
+      <c r="C66" s="397" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="388"/>
-      <c r="E66" s="387" t="s">
+      <c r="D66" s="398"/>
+      <c r="E66" s="397" t="s">
         <v>195</v>
       </c>
-      <c r="F66" s="389"/>
-      <c r="G66" s="388"/>
-      <c r="H66" s="387" t="s">
+      <c r="F66" s="399"/>
+      <c r="G66" s="398"/>
+      <c r="H66" s="397" t="s">
         <v>196</v>
       </c>
-      <c r="I66" s="389"/>
-      <c r="J66" s="389"/>
-      <c r="K66" s="389"/>
-      <c r="L66" s="389"/>
-      <c r="M66" s="388"/>
+      <c r="I66" s="399"/>
+      <c r="J66" s="399"/>
+      <c r="K66" s="399"/>
+      <c r="L66" s="399"/>
+      <c r="M66" s="398"/>
       <c r="Q66" t="s">
         <v>1078</v>
       </c>
@@ -20400,23 +20699,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="425" t="s">
+      <c r="C68" s="433" t="s">
         <v>181</v>
       </c>
-      <c r="D68" s="425"/>
-      <c r="E68" s="425" t="s">
+      <c r="D68" s="433"/>
+      <c r="E68" s="433" t="s">
         <v>1364</v>
       </c>
-      <c r="F68" s="425"/>
-      <c r="G68" s="425"/>
-      <c r="H68" s="425" t="s">
+      <c r="F68" s="433"/>
+      <c r="G68" s="433"/>
+      <c r="H68" s="433" t="s">
         <v>1380</v>
       </c>
-      <c r="I68" s="425"/>
-      <c r="J68" s="425"/>
-      <c r="K68" s="425"/>
-      <c r="L68" s="425"/>
-      <c r="M68" s="425"/>
+      <c r="I68" s="433"/>
+      <c r="J68" s="433"/>
+      <c r="K68" s="433"/>
+      <c r="L68" s="433"/>
+      <c r="M68" s="433"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -21286,12 +21585,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="476" t="s">
+      <c r="B1" s="484" t="s">
         <v>538</v>
       </c>
-      <c r="C1" s="476"/>
-      <c r="D1" s="476"/>
-      <c r="E1" s="476"/>
+      <c r="C1" s="484"/>
+      <c r="D1" s="484"/>
+      <c r="E1" s="484"/>
       <c r="I1" s="40" t="s">
         <v>551</v>
       </c>
@@ -21408,12 +21707,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="420" t="s">
+      <c r="B8" s="428" t="s">
         <v>1402</v>
       </c>
-      <c r="C8" s="420"/>
-      <c r="D8" s="420"/>
-      <c r="E8" s="420"/>
+      <c r="C8" s="428"/>
+      <c r="D8" s="428"/>
+      <c r="E8" s="428"/>
       <c r="J8" s="32" t="s">
         <v>554</v>
       </c>
@@ -21586,32 +21885,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="451" t="s">
+      <c r="C2" s="459" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="451"/>
-      <c r="E2" s="451"/>
-      <c r="F2" s="451"/>
-      <c r="G2" s="451"/>
-      <c r="H2" s="451"/>
-      <c r="I2" s="451"/>
-      <c r="J2" s="451"/>
-      <c r="K2" s="451"/>
-      <c r="L2" s="451"/>
+      <c r="D2" s="459"/>
+      <c r="E2" s="459"/>
+      <c r="F2" s="459"/>
+      <c r="G2" s="459"/>
+      <c r="H2" s="459"/>
+      <c r="I2" s="459"/>
+      <c r="J2" s="459"/>
+      <c r="K2" s="459"/>
+      <c r="L2" s="459"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="421" t="s">
+      <c r="E3" s="429" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="369"/>
-      <c r="G3" s="378"/>
-      <c r="H3" s="378"/>
-      <c r="I3" s="378"/>
-      <c r="J3" s="378"/>
-      <c r="K3" s="378"/>
-      <c r="L3" s="379"/>
+      <c r="F3" s="370"/>
+      <c r="G3" s="388"/>
+      <c r="H3" s="388"/>
+      <c r="I3" s="388"/>
+      <c r="J3" s="388"/>
+      <c r="K3" s="388"/>
+      <c r="L3" s="389"/>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
@@ -21642,11 +21941,11 @@
         <v>589</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="452" t="s">
+      <c r="N5" s="460" t="s">
         <v>179</v>
       </c>
-      <c r="O5" s="452"/>
-      <c r="P5" s="452"/>
+      <c r="O5" s="460"/>
+      <c r="P5" s="460"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -21697,20 +21996,20 @@
         <v>190</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="447" t="s">
+      <c r="E8" s="455" t="s">
         <v>571</v>
       </c>
-      <c r="F8" s="449"/>
-      <c r="G8" s="447" t="s">
+      <c r="F8" s="457"/>
+      <c r="G8" s="455" t="s">
         <v>572</v>
       </c>
-      <c r="H8" s="448"/>
-      <c r="I8" s="449"/>
-      <c r="J8" s="447" t="s">
+      <c r="H8" s="456"/>
+      <c r="I8" s="457"/>
+      <c r="J8" s="455" t="s">
         <v>573</v>
       </c>
-      <c r="K8" s="448"/>
-      <c r="L8" s="449"/>
+      <c r="K8" s="456"/>
+      <c r="L8" s="457"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -21733,14 +22032,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="447"/>
-      <c r="F9" s="449"/>
-      <c r="G9" s="447"/>
-      <c r="H9" s="448"/>
-      <c r="I9" s="449"/>
-      <c r="J9" s="447"/>
-      <c r="K9" s="448"/>
-      <c r="L9" s="449"/>
+      <c r="E9" s="455"/>
+      <c r="F9" s="457"/>
+      <c r="G9" s="455"/>
+      <c r="H9" s="456"/>
+      <c r="I9" s="457"/>
+      <c r="J9" s="455"/>
+      <c r="K9" s="456"/>
+      <c r="L9" s="457"/>
       <c r="M9" s="5" t="s">
         <v>187</v>
       </c>
@@ -21760,14 +22059,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="447"/>
-      <c r="F10" s="449"/>
-      <c r="G10" s="447"/>
-      <c r="H10" s="448"/>
-      <c r="I10" s="449"/>
-      <c r="J10" s="447"/>
-      <c r="K10" s="448"/>
-      <c r="L10" s="449"/>
+      <c r="E10" s="455"/>
+      <c r="F10" s="457"/>
+      <c r="G10" s="455"/>
+      <c r="H10" s="456"/>
+      <c r="I10" s="457"/>
+      <c r="J10" s="455"/>
+      <c r="K10" s="456"/>
+      <c r="L10" s="457"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -21781,14 +22080,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="447"/>
-      <c r="F11" s="449"/>
-      <c r="G11" s="447"/>
-      <c r="H11" s="448"/>
-      <c r="I11" s="449"/>
-      <c r="J11" s="447"/>
-      <c r="K11" s="448"/>
-      <c r="L11" s="449"/>
+      <c r="E11" s="455"/>
+      <c r="F11" s="457"/>
+      <c r="G11" s="455"/>
+      <c r="H11" s="456"/>
+      <c r="I11" s="457"/>
+      <c r="J11" s="455"/>
+      <c r="K11" s="456"/>
+      <c r="L11" s="457"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -21891,16 +22190,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="440" t="s">
+      <c r="E17" s="448" t="s">
         <v>574</v>
       </c>
-      <c r="F17" s="441"/>
-      <c r="G17" s="441"/>
-      <c r="H17" s="441"/>
-      <c r="I17" s="441"/>
-      <c r="J17" s="441"/>
-      <c r="K17" s="441"/>
-      <c r="L17" s="442"/>
+      <c r="F17" s="449"/>
+      <c r="G17" s="449"/>
+      <c r="H17" s="449"/>
+      <c r="I17" s="449"/>
+      <c r="J17" s="449"/>
+      <c r="K17" s="449"/>
+      <c r="L17" s="450"/>
       <c r="M17" s="40" t="s">
         <v>575</v>
       </c>
@@ -21918,40 +22217,40 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="387" t="s">
+      <c r="C19" s="397" t="s">
         <v>194</v>
       </c>
-      <c r="D19" s="388"/>
-      <c r="E19" s="387" t="s">
+      <c r="D19" s="398"/>
+      <c r="E19" s="397" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="388"/>
-      <c r="G19" s="387" t="s">
+      <c r="F19" s="398"/>
+      <c r="G19" s="397" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="389"/>
-      <c r="I19" s="389"/>
-      <c r="J19" s="389"/>
-      <c r="K19" s="389"/>
-      <c r="L19" s="388"/>
+      <c r="H19" s="399"/>
+      <c r="I19" s="399"/>
+      <c r="J19" s="399"/>
+      <c r="K19" s="399"/>
+      <c r="L19" s="398"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="477" t="s">
+      <c r="E21" s="485" t="s">
         <v>1393</v>
       </c>
-      <c r="F21" s="478"/>
+      <c r="F21" s="486"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="E22" s="479"/>
-      <c r="F22" s="480"/>
+      <c r="E22" s="487"/>
+      <c r="F22" s="488"/>
       <c r="J22" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="E23" s="479"/>
-      <c r="F23" s="480"/>
+      <c r="E23" s="487"/>
+      <c r="F23" s="488"/>
       <c r="H23" t="s">
         <v>1414</v>
       </c>
@@ -21963,8 +22262,8 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="481"/>
-      <c r="F24" s="482"/>
+      <c r="E24" s="489"/>
+      <c r="F24" s="490"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -22419,22 +22718,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="453" t="s">
+      <c r="E3" s="461" t="s">
         <v>518</v>
       </c>
-      <c r="F3" s="453"/>
-      <c r="G3" s="453" t="s">
+      <c r="F3" s="461"/>
+      <c r="G3" s="461" t="s">
         <v>519</v>
       </c>
-      <c r="H3" s="453"/>
-      <c r="I3" s="453"/>
-      <c r="J3" s="453"/>
-      <c r="K3" s="453"/>
-      <c r="L3" s="453"/>
-      <c r="M3" s="453" t="s">
+      <c r="H3" s="461"/>
+      <c r="I3" s="461"/>
+      <c r="J3" s="461"/>
+      <c r="K3" s="461"/>
+      <c r="L3" s="461"/>
+      <c r="M3" s="461" t="s">
         <v>520</v>
       </c>
-      <c r="N3" s="453"/>
+      <c r="N3" s="461"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -22445,7 +22744,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="135"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="458" t="s">
+      <c r="E4" s="466" t="s">
         <v>521</v>
       </c>
       <c r="F4" s="131"/>
@@ -22473,22 +22772,22 @@
         <v>181</v>
       </c>
       <c r="D5" s="138"/>
-      <c r="E5" s="397"/>
-      <c r="F5" s="399" t="s">
+      <c r="E5" s="379"/>
+      <c r="F5" s="407" t="s">
         <v>617</v>
       </c>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="483" t="s">
+      <c r="G5" s="408"/>
+      <c r="H5" s="409"/>
+      <c r="I5" s="491" t="s">
         <v>618</v>
       </c>
-      <c r="J5" s="484"/>
-      <c r="K5" s="484"/>
-      <c r="L5" s="465"/>
-      <c r="M5" s="483" t="s">
+      <c r="J5" s="492"/>
+      <c r="K5" s="492"/>
+      <c r="L5" s="473"/>
+      <c r="M5" s="491" t="s">
         <v>619</v>
       </c>
-      <c r="N5" s="465"/>
+      <c r="N5" s="473"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -22499,16 +22798,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="139"/>
       <c r="D6" s="140"/>
-      <c r="E6" s="397"/>
-      <c r="F6" s="402"/>
-      <c r="G6" s="403"/>
-      <c r="H6" s="404"/>
-      <c r="I6" s="466"/>
-      <c r="J6" s="485"/>
-      <c r="K6" s="485"/>
-      <c r="L6" s="467"/>
-      <c r="M6" s="466"/>
-      <c r="N6" s="467"/>
+      <c r="E6" s="379"/>
+      <c r="F6" s="410"/>
+      <c r="G6" s="411"/>
+      <c r="H6" s="412"/>
+      <c r="I6" s="474"/>
+      <c r="J6" s="493"/>
+      <c r="K6" s="493"/>
+      <c r="L6" s="475"/>
+      <c r="M6" s="474"/>
+      <c r="N6" s="475"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>182</v>
@@ -22525,16 +22824,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="397"/>
-      <c r="F7" s="402"/>
-      <c r="G7" s="403"/>
-      <c r="H7" s="404"/>
-      <c r="I7" s="466"/>
-      <c r="J7" s="485"/>
-      <c r="K7" s="485"/>
-      <c r="L7" s="467"/>
-      <c r="M7" s="466"/>
-      <c r="N7" s="467"/>
+      <c r="E7" s="379"/>
+      <c r="F7" s="410"/>
+      <c r="G7" s="411"/>
+      <c r="H7" s="412"/>
+      <c r="I7" s="474"/>
+      <c r="J7" s="493"/>
+      <c r="K7" s="493"/>
+      <c r="L7" s="475"/>
+      <c r="M7" s="474"/>
+      <c r="N7" s="475"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -22553,16 +22852,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="397"/>
-      <c r="F8" s="402"/>
-      <c r="G8" s="403"/>
-      <c r="H8" s="404"/>
-      <c r="I8" s="466"/>
-      <c r="J8" s="485"/>
-      <c r="K8" s="485"/>
-      <c r="L8" s="467"/>
-      <c r="M8" s="466"/>
-      <c r="N8" s="467"/>
+      <c r="E8" s="379"/>
+      <c r="F8" s="410"/>
+      <c r="G8" s="411"/>
+      <c r="H8" s="412"/>
+      <c r="I8" s="474"/>
+      <c r="J8" s="493"/>
+      <c r="K8" s="493"/>
+      <c r="L8" s="475"/>
+      <c r="M8" s="474"/>
+      <c r="N8" s="475"/>
       <c r="O8" s="5" t="s">
         <v>187</v>
       </c>
@@ -22583,16 +22882,16 @@
         <v>190</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="397"/>
-      <c r="F9" s="402"/>
-      <c r="G9" s="403"/>
-      <c r="H9" s="404"/>
-      <c r="I9" s="466"/>
-      <c r="J9" s="485"/>
-      <c r="K9" s="485"/>
-      <c r="L9" s="467"/>
-      <c r="M9" s="466"/>
-      <c r="N9" s="467"/>
+      <c r="E9" s="379"/>
+      <c r="F9" s="410"/>
+      <c r="G9" s="411"/>
+      <c r="H9" s="412"/>
+      <c r="I9" s="474"/>
+      <c r="J9" s="493"/>
+      <c r="K9" s="493"/>
+      <c r="L9" s="475"/>
+      <c r="M9" s="474"/>
+      <c r="N9" s="475"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -22609,16 +22908,16 @@
         <v>537</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="397"/>
-      <c r="F10" s="402"/>
-      <c r="G10" s="403"/>
-      <c r="H10" s="404"/>
-      <c r="I10" s="466"/>
-      <c r="J10" s="485"/>
-      <c r="K10" s="485"/>
-      <c r="L10" s="467"/>
-      <c r="M10" s="466"/>
-      <c r="N10" s="467"/>
+      <c r="E10" s="379"/>
+      <c r="F10" s="410"/>
+      <c r="G10" s="411"/>
+      <c r="H10" s="412"/>
+      <c r="I10" s="474"/>
+      <c r="J10" s="493"/>
+      <c r="K10" s="493"/>
+      <c r="L10" s="475"/>
+      <c r="M10" s="474"/>
+      <c r="N10" s="475"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -22631,16 +22930,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="397"/>
-      <c r="F11" s="402"/>
-      <c r="G11" s="403"/>
-      <c r="H11" s="404"/>
-      <c r="I11" s="466"/>
-      <c r="J11" s="485"/>
-      <c r="K11" s="485"/>
-      <c r="L11" s="467"/>
-      <c r="M11" s="466"/>
-      <c r="N11" s="467"/>
+      <c r="E11" s="379"/>
+      <c r="F11" s="410"/>
+      <c r="G11" s="411"/>
+      <c r="H11" s="412"/>
+      <c r="I11" s="474"/>
+      <c r="J11" s="493"/>
+      <c r="K11" s="493"/>
+      <c r="L11" s="475"/>
+      <c r="M11" s="474"/>
+      <c r="N11" s="475"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -22651,16 +22950,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="397"/>
-      <c r="F12" s="402"/>
-      <c r="G12" s="403"/>
-      <c r="H12" s="404"/>
-      <c r="I12" s="466"/>
-      <c r="J12" s="485"/>
-      <c r="K12" s="485"/>
-      <c r="L12" s="467"/>
-      <c r="M12" s="466"/>
-      <c r="N12" s="467"/>
+      <c r="E12" s="379"/>
+      <c r="F12" s="410"/>
+      <c r="G12" s="411"/>
+      <c r="H12" s="412"/>
+      <c r="I12" s="474"/>
+      <c r="J12" s="493"/>
+      <c r="K12" s="493"/>
+      <c r="L12" s="475"/>
+      <c r="M12" s="474"/>
+      <c r="N12" s="475"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -22673,16 +22972,16 @@
         <v>192</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="397"/>
-      <c r="F13" s="402"/>
-      <c r="G13" s="403"/>
-      <c r="H13" s="404"/>
-      <c r="I13" s="466"/>
-      <c r="J13" s="485"/>
-      <c r="K13" s="485"/>
-      <c r="L13" s="467"/>
-      <c r="M13" s="466"/>
-      <c r="N13" s="467"/>
+      <c r="E13" s="379"/>
+      <c r="F13" s="410"/>
+      <c r="G13" s="411"/>
+      <c r="H13" s="412"/>
+      <c r="I13" s="474"/>
+      <c r="J13" s="493"/>
+      <c r="K13" s="493"/>
+      <c r="L13" s="475"/>
+      <c r="M13" s="474"/>
+      <c r="N13" s="475"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -22693,16 +22992,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="397"/>
-      <c r="F14" s="402"/>
-      <c r="G14" s="403"/>
-      <c r="H14" s="404"/>
-      <c r="I14" s="466"/>
-      <c r="J14" s="485"/>
-      <c r="K14" s="485"/>
-      <c r="L14" s="467"/>
-      <c r="M14" s="466"/>
-      <c r="N14" s="467"/>
+      <c r="E14" s="379"/>
+      <c r="F14" s="410"/>
+      <c r="G14" s="411"/>
+      <c r="H14" s="412"/>
+      <c r="I14" s="474"/>
+      <c r="J14" s="493"/>
+      <c r="K14" s="493"/>
+      <c r="L14" s="475"/>
+      <c r="M14" s="474"/>
+      <c r="N14" s="475"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -22713,16 +23012,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="397"/>
-      <c r="F15" s="402"/>
-      <c r="G15" s="403"/>
-      <c r="H15" s="404"/>
-      <c r="I15" s="466"/>
-      <c r="J15" s="485"/>
-      <c r="K15" s="485"/>
-      <c r="L15" s="467"/>
-      <c r="M15" s="466"/>
-      <c r="N15" s="467"/>
+      <c r="E15" s="379"/>
+      <c r="F15" s="410"/>
+      <c r="G15" s="411"/>
+      <c r="H15" s="412"/>
+      <c r="I15" s="474"/>
+      <c r="J15" s="493"/>
+      <c r="K15" s="493"/>
+      <c r="L15" s="475"/>
+      <c r="M15" s="474"/>
+      <c r="N15" s="475"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -22733,16 +23032,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="397"/>
-      <c r="F16" s="402"/>
-      <c r="G16" s="403"/>
-      <c r="H16" s="404"/>
-      <c r="I16" s="466"/>
-      <c r="J16" s="485"/>
-      <c r="K16" s="485"/>
-      <c r="L16" s="467"/>
-      <c r="M16" s="466"/>
-      <c r="N16" s="467"/>
+      <c r="E16" s="379"/>
+      <c r="F16" s="410"/>
+      <c r="G16" s="411"/>
+      <c r="H16" s="412"/>
+      <c r="I16" s="474"/>
+      <c r="J16" s="493"/>
+      <c r="K16" s="493"/>
+      <c r="L16" s="475"/>
+      <c r="M16" s="474"/>
+      <c r="N16" s="475"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -22755,16 +23054,16 @@
         <v>193</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="397"/>
-      <c r="F17" s="402"/>
-      <c r="G17" s="403"/>
-      <c r="H17" s="404"/>
-      <c r="I17" s="466"/>
-      <c r="J17" s="485"/>
-      <c r="K17" s="485"/>
-      <c r="L17" s="467"/>
-      <c r="M17" s="466"/>
-      <c r="N17" s="467"/>
+      <c r="E17" s="379"/>
+      <c r="F17" s="410"/>
+      <c r="G17" s="411"/>
+      <c r="H17" s="412"/>
+      <c r="I17" s="474"/>
+      <c r="J17" s="493"/>
+      <c r="K17" s="493"/>
+      <c r="L17" s="475"/>
+      <c r="M17" s="474"/>
+      <c r="N17" s="475"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -22775,16 +23074,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="398"/>
-      <c r="F18" s="405"/>
-      <c r="G18" s="406"/>
-      <c r="H18" s="407"/>
-      <c r="I18" s="468"/>
-      <c r="J18" s="486"/>
-      <c r="K18" s="486"/>
-      <c r="L18" s="469"/>
-      <c r="M18" s="468"/>
-      <c r="N18" s="469"/>
+      <c r="E18" s="380"/>
+      <c r="F18" s="413"/>
+      <c r="G18" s="414"/>
+      <c r="H18" s="415"/>
+      <c r="I18" s="476"/>
+      <c r="J18" s="494"/>
+      <c r="K18" s="494"/>
+      <c r="L18" s="477"/>
+      <c r="M18" s="476"/>
+      <c r="N18" s="477"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -22813,26 +23112,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="387" t="s">
+      <c r="C20" s="397" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="388"/>
+      <c r="D20" s="398"/>
       <c r="E20" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="F20" s="387" t="s">
+      <c r="F20" s="397" t="s">
         <v>196</v>
       </c>
-      <c r="G20" s="389"/>
-      <c r="H20" s="389"/>
-      <c r="I20" s="389"/>
-      <c r="J20" s="389"/>
-      <c r="K20" s="389"/>
-      <c r="L20" s="388"/>
-      <c r="M20" s="387" t="s">
+      <c r="G20" s="399"/>
+      <c r="H20" s="399"/>
+      <c r="I20" s="399"/>
+      <c r="J20" s="399"/>
+      <c r="K20" s="399"/>
+      <c r="L20" s="398"/>
+      <c r="M20" s="397" t="s">
         <v>528</v>
       </c>
-      <c r="N20" s="388"/>
+      <c r="N20" s="398"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -22860,39 +23159,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="452" t="s">
+      <c r="B24" s="460" t="s">
         <v>570</v>
       </c>
-      <c r="C24" s="452"/>
-      <c r="D24" s="451"/>
-      <c r="E24" s="451"/>
-      <c r="F24" s="451"/>
-      <c r="G24" s="451"/>
-      <c r="H24" s="451"/>
-      <c r="I24" s="451"/>
-      <c r="J24" s="451"/>
-      <c r="K24" s="451"/>
-      <c r="M24" s="505" t="s">
+      <c r="C24" s="460"/>
+      <c r="D24" s="459"/>
+      <c r="E24" s="459"/>
+      <c r="F24" s="459"/>
+      <c r="G24" s="459"/>
+      <c r="H24" s="459"/>
+      <c r="I24" s="459"/>
+      <c r="J24" s="459"/>
+      <c r="K24" s="459"/>
+      <c r="M24" s="513" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="505"/>
-      <c r="O24" s="505"/>
+      <c r="N24" s="513"/>
+      <c r="O24" s="513"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="506" t="s">
+      <c r="B25" s="514" t="s">
         <v>914</v>
       </c>
-      <c r="C25" s="429"/>
-      <c r="D25" s="378" t="s">
+      <c r="C25" s="437"/>
+      <c r="D25" s="388" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="378"/>
-      <c r="F25" s="378"/>
-      <c r="G25" s="378"/>
-      <c r="H25" s="378"/>
-      <c r="I25" s="378"/>
-      <c r="J25" s="378"/>
-      <c r="K25" s="379"/>
+      <c r="E25" s="388"/>
+      <c r="F25" s="388"/>
+      <c r="G25" s="388"/>
+      <c r="H25" s="388"/>
+      <c r="I25" s="388"/>
+      <c r="J25" s="388"/>
+      <c r="K25" s="389"/>
       <c r="M25" s="38" t="s">
         <v>182</v>
       </c>
@@ -22904,22 +23203,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="430"/>
-      <c r="C26" s="431"/>
-      <c r="D26" s="428" t="s">
+      <c r="B26" s="438"/>
+      <c r="C26" s="439"/>
+      <c r="D26" s="436" t="s">
         <v>907</v>
       </c>
-      <c r="E26" s="429"/>
-      <c r="F26" s="499" t="s">
+      <c r="E26" s="437"/>
+      <c r="F26" s="507" t="s">
         <v>907</v>
       </c>
-      <c r="G26" s="378"/>
-      <c r="H26" s="379"/>
-      <c r="I26" s="377" t="s">
+      <c r="G26" s="388"/>
+      <c r="H26" s="389"/>
+      <c r="I26" s="387" t="s">
         <v>911</v>
       </c>
-      <c r="J26" s="378"/>
-      <c r="K26" s="379"/>
+      <c r="J26" s="388"/>
+      <c r="K26" s="389"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -22934,22 +23233,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="430"/>
-      <c r="C27" s="431"/>
-      <c r="D27" s="420" t="s">
+      <c r="B27" s="438"/>
+      <c r="C27" s="439"/>
+      <c r="D27" s="428" t="s">
         <v>912</v>
       </c>
-      <c r="E27" s="431"/>
-      <c r="F27" s="430" t="s">
+      <c r="E27" s="439"/>
+      <c r="F27" s="438" t="s">
         <v>908</v>
       </c>
-      <c r="G27" s="420"/>
-      <c r="H27" s="500"/>
-      <c r="I27" s="504" t="s">
+      <c r="G27" s="428"/>
+      <c r="H27" s="508"/>
+      <c r="I27" s="512" t="s">
         <v>912</v>
       </c>
-      <c r="J27" s="420"/>
-      <c r="K27" s="500"/>
+      <c r="J27" s="428"/>
+      <c r="K27" s="508"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -22964,22 +23263,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="430"/>
-      <c r="C28" s="431"/>
-      <c r="D28" s="420" t="s">
+      <c r="B28" s="438"/>
+      <c r="C28" s="439"/>
+      <c r="D28" s="428" t="s">
         <v>909</v>
       </c>
-      <c r="E28" s="431"/>
-      <c r="F28" s="430" t="s">
+      <c r="E28" s="439"/>
+      <c r="F28" s="438" t="s">
         <v>909</v>
       </c>
-      <c r="G28" s="420"/>
-      <c r="H28" s="500"/>
-      <c r="I28" s="504" t="s">
+      <c r="G28" s="428"/>
+      <c r="H28" s="508"/>
+      <c r="I28" s="512" t="s">
         <v>909</v>
       </c>
-      <c r="J28" s="420"/>
-      <c r="K28" s="500"/>
+      <c r="J28" s="428"/>
+      <c r="K28" s="508"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -22988,22 +23287,22 @@
       <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="432"/>
-      <c r="C29" s="433"/>
-      <c r="D29" s="420" t="s">
+      <c r="B29" s="440"/>
+      <c r="C29" s="441"/>
+      <c r="D29" s="428" t="s">
         <v>910</v>
       </c>
-      <c r="E29" s="431"/>
-      <c r="F29" s="501" t="s">
+      <c r="E29" s="439"/>
+      <c r="F29" s="509" t="s">
         <v>910</v>
       </c>
-      <c r="G29" s="502"/>
-      <c r="H29" s="503"/>
-      <c r="I29" s="516" t="s">
+      <c r="G29" s="510"/>
+      <c r="H29" s="511"/>
+      <c r="I29" s="524" t="s">
         <v>910</v>
       </c>
-      <c r="J29" s="502"/>
-      <c r="K29" s="503"/>
+      <c r="J29" s="510"/>
+      <c r="K29" s="511"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -23012,149 +23311,149 @@
       <c r="O29" s="38"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="380" t="s">
+      <c r="B30" s="390" t="s">
         <v>913</v>
       </c>
-      <c r="C30" s="382"/>
-      <c r="D30" s="487" t="s">
+      <c r="C30" s="392"/>
+      <c r="D30" s="495" t="s">
         <v>571</v>
       </c>
-      <c r="E30" s="488"/>
-      <c r="F30" s="492" t="s">
+      <c r="E30" s="496"/>
+      <c r="F30" s="500" t="s">
         <v>572</v>
       </c>
-      <c r="G30" s="493"/>
-      <c r="H30" s="488"/>
-      <c r="I30" s="492" t="s">
+      <c r="G30" s="501"/>
+      <c r="H30" s="496"/>
+      <c r="I30" s="500" t="s">
         <v>573</v>
       </c>
-      <c r="J30" s="493"/>
-      <c r="K30" s="496"/>
+      <c r="J30" s="501"/>
+      <c r="K30" s="504"/>
       <c r="L30" s="5"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="373"/>
-      <c r="C31" s="383"/>
-      <c r="D31" s="489"/>
-      <c r="E31" s="449"/>
-      <c r="F31" s="447"/>
-      <c r="G31" s="448"/>
-      <c r="H31" s="449"/>
-      <c r="I31" s="447"/>
-      <c r="J31" s="448"/>
-      <c r="K31" s="497"/>
+      <c r="B31" s="374"/>
+      <c r="C31" s="393"/>
+      <c r="D31" s="497"/>
+      <c r="E31" s="457"/>
+      <c r="F31" s="455"/>
+      <c r="G31" s="456"/>
+      <c r="H31" s="457"/>
+      <c r="I31" s="455"/>
+      <c r="J31" s="456"/>
+      <c r="K31" s="505"/>
       <c r="L31" s="5"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="373"/>
-      <c r="C32" s="383"/>
-      <c r="D32" s="489"/>
-      <c r="E32" s="449"/>
-      <c r="F32" s="447"/>
-      <c r="G32" s="448"/>
-      <c r="H32" s="449"/>
-      <c r="I32" s="447"/>
-      <c r="J32" s="448"/>
-      <c r="K32" s="497"/>
+      <c r="B32" s="374"/>
+      <c r="C32" s="393"/>
+      <c r="D32" s="497"/>
+      <c r="E32" s="457"/>
+      <c r="F32" s="455"/>
+      <c r="G32" s="456"/>
+      <c r="H32" s="457"/>
+      <c r="I32" s="455"/>
+      <c r="J32" s="456"/>
+      <c r="K32" s="505"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="373"/>
-      <c r="C33" s="383"/>
-      <c r="D33" s="490"/>
-      <c r="E33" s="491"/>
-      <c r="F33" s="494"/>
-      <c r="G33" s="495"/>
-      <c r="H33" s="491"/>
-      <c r="I33" s="494"/>
-      <c r="J33" s="495"/>
-      <c r="K33" s="498"/>
+      <c r="B33" s="374"/>
+      <c r="C33" s="393"/>
+      <c r="D33" s="498"/>
+      <c r="E33" s="499"/>
+      <c r="F33" s="502"/>
+      <c r="G33" s="503"/>
+      <c r="H33" s="499"/>
+      <c r="I33" s="502"/>
+      <c r="J33" s="503"/>
+      <c r="K33" s="506"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="373"/>
-      <c r="C34" s="375"/>
-      <c r="D34" s="507" t="s">
+      <c r="B34" s="374"/>
+      <c r="C34" s="376"/>
+      <c r="D34" s="515" t="s">
         <v>900</v>
       </c>
-      <c r="E34" s="508"/>
-      <c r="F34" s="507" t="s">
+      <c r="E34" s="516"/>
+      <c r="F34" s="515" t="s">
         <v>593</v>
       </c>
-      <c r="G34" s="513"/>
-      <c r="H34" s="508"/>
-      <c r="I34" s="507" t="s">
+      <c r="G34" s="521"/>
+      <c r="H34" s="516"/>
+      <c r="I34" s="515" t="s">
         <v>915</v>
       </c>
-      <c r="J34" s="513"/>
-      <c r="K34" s="508"/>
+      <c r="J34" s="521"/>
+      <c r="K34" s="516"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="373"/>
-      <c r="C35" s="375"/>
-      <c r="D35" s="509"/>
-      <c r="E35" s="510"/>
-      <c r="F35" s="509"/>
-      <c r="G35" s="514"/>
-      <c r="H35" s="510"/>
-      <c r="I35" s="509"/>
-      <c r="J35" s="514"/>
-      <c r="K35" s="510"/>
+      <c r="B35" s="374"/>
+      <c r="C35" s="376"/>
+      <c r="D35" s="517"/>
+      <c r="E35" s="518"/>
+      <c r="F35" s="517"/>
+      <c r="G35" s="522"/>
+      <c r="H35" s="518"/>
+      <c r="I35" s="517"/>
+      <c r="J35" s="522"/>
+      <c r="K35" s="518"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="373"/>
-      <c r="C36" s="375"/>
-      <c r="D36" s="509"/>
-      <c r="E36" s="510"/>
-      <c r="F36" s="509"/>
-      <c r="G36" s="514"/>
-      <c r="H36" s="510"/>
-      <c r="I36" s="509"/>
-      <c r="J36" s="514"/>
-      <c r="K36" s="510"/>
+      <c r="B36" s="374"/>
+      <c r="C36" s="376"/>
+      <c r="D36" s="517"/>
+      <c r="E36" s="518"/>
+      <c r="F36" s="517"/>
+      <c r="G36" s="522"/>
+      <c r="H36" s="518"/>
+      <c r="I36" s="517"/>
+      <c r="J36" s="522"/>
+      <c r="K36" s="518"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="373"/>
-      <c r="C37" s="375"/>
-      <c r="D37" s="509"/>
-      <c r="E37" s="510"/>
-      <c r="F37" s="509"/>
-      <c r="G37" s="514"/>
-      <c r="H37" s="510"/>
-      <c r="I37" s="509"/>
-      <c r="J37" s="514"/>
-      <c r="K37" s="510"/>
+      <c r="B37" s="374"/>
+      <c r="C37" s="376"/>
+      <c r="D37" s="517"/>
+      <c r="E37" s="518"/>
+      <c r="F37" s="517"/>
+      <c r="G37" s="522"/>
+      <c r="H37" s="518"/>
+      <c r="I37" s="517"/>
+      <c r="J37" s="522"/>
+      <c r="K37" s="518"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="373"/>
-      <c r="C38" s="375"/>
-      <c r="D38" s="511"/>
-      <c r="E38" s="512"/>
-      <c r="F38" s="511"/>
-      <c r="G38" s="515"/>
-      <c r="H38" s="512"/>
-      <c r="I38" s="511"/>
-      <c r="J38" s="515"/>
-      <c r="K38" s="512"/>
+      <c r="B38" s="374"/>
+      <c r="C38" s="376"/>
+      <c r="D38" s="519"/>
+      <c r="E38" s="520"/>
+      <c r="F38" s="519"/>
+      <c r="G38" s="523"/>
+      <c r="H38" s="520"/>
+      <c r="I38" s="519"/>
+      <c r="J38" s="523"/>
+      <c r="K38" s="520"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="384"/>
-      <c r="C39" s="386"/>
-      <c r="D39" s="440" t="s">
+      <c r="B39" s="394"/>
+      <c r="C39" s="396"/>
+      <c r="D39" s="448" t="s">
         <v>574</v>
       </c>
-      <c r="E39" s="441"/>
-      <c r="F39" s="441"/>
-      <c r="G39" s="441"/>
-      <c r="H39" s="441"/>
-      <c r="I39" s="441"/>
-      <c r="J39" s="441"/>
-      <c r="K39" s="442"/>
+      <c r="E39" s="449"/>
+      <c r="F39" s="449"/>
+      <c r="G39" s="449"/>
+      <c r="H39" s="449"/>
+      <c r="I39" s="449"/>
+      <c r="J39" s="449"/>
+      <c r="K39" s="450"/>
       <c r="L39" s="40" t="s">
         <v>575</v>
       </c>
@@ -23172,22 +23471,22 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="387" t="s">
+      <c r="B41" s="397" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="388"/>
-      <c r="D41" s="387" t="s">
+      <c r="C41" s="398"/>
+      <c r="D41" s="397" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="388"/>
-      <c r="F41" s="387" t="s">
+      <c r="E41" s="398"/>
+      <c r="F41" s="397" t="s">
         <v>196</v>
       </c>
-      <c r="G41" s="389"/>
-      <c r="H41" s="389"/>
-      <c r="I41" s="389"/>
-      <c r="J41" s="389"/>
-      <c r="K41" s="388"/>
+      <c r="G41" s="399"/>
+      <c r="H41" s="399"/>
+      <c r="I41" s="399"/>
+      <c r="J41" s="399"/>
+      <c r="K41" s="398"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -23751,13 +24050,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="368" t="s">
+      <c r="A5" s="369" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="369"/>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="370"/>
+      <c r="B5" s="370"/>
+      <c r="C5" s="370"/>
+      <c r="D5" s="370"/>
+      <c r="E5" s="371"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>150</v>
@@ -24414,7 +24713,7 @@
       <c r="J4" s="173"/>
       <c r="K4" s="173"/>
       <c r="L4" s="174"/>
-      <c r="M4" s="373" t="s">
+      <c r="M4" s="374" t="s">
         <v>324</v>
       </c>
     </row>
@@ -24432,7 +24731,7 @@
       <c r="J5" s="167"/>
       <c r="K5" s="167"/>
       <c r="L5" s="168"/>
-      <c r="M5" s="373"/>
+      <c r="M5" s="374"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="360">
@@ -24448,7 +24747,7 @@
       <c r="J6" s="167"/>
       <c r="K6" s="167"/>
       <c r="L6" s="168"/>
-      <c r="M6" s="373"/>
+      <c r="M6" s="374"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="360">
@@ -24468,7 +24767,7 @@
       <c r="J7" s="167"/>
       <c r="K7" s="167"/>
       <c r="L7" s="168"/>
-      <c r="M7" s="373"/>
+      <c r="M7" s="374"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="360">
@@ -24484,7 +24783,7 @@
       <c r="J8" s="167"/>
       <c r="K8" s="167"/>
       <c r="L8" s="168"/>
-      <c r="M8" s="373"/>
+      <c r="M8" s="374"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="360">
@@ -24500,7 +24799,7 @@
       <c r="J9" s="167"/>
       <c r="K9" s="167"/>
       <c r="L9" s="168"/>
-      <c r="M9" s="373"/>
+      <c r="M9" s="374"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="360">
@@ -24516,7 +24815,7 @@
       <c r="J10" s="167"/>
       <c r="K10" s="167"/>
       <c r="L10" s="168"/>
-      <c r="M10" s="373"/>
+      <c r="M10" s="374"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1">
       <c r="B11" s="360">
@@ -24532,7 +24831,7 @@
       <c r="J11" s="176"/>
       <c r="K11" s="176"/>
       <c r="L11" s="177"/>
-      <c r="M11" s="373"/>
+      <c r="M11" s="374"/>
     </row>
     <row r="12" spans="2:13">
       <c r="M12" t="s">
@@ -24806,7 +25105,7 @@
       <c r="O134" s="5"/>
     </row>
     <row r="135" spans="3:15">
-      <c r="C135" s="376" t="s">
+      <c r="C135" s="377" t="s">
         <v>167</v>
       </c>
       <c r="D135">
@@ -24833,7 +25132,7 @@
       <c r="O135" s="5"/>
     </row>
     <row r="136" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C136" s="376"/>
+      <c r="C136" s="377"/>
       <c r="D136">
         <v>20</v>
       </c>
@@ -24862,7 +25161,7 @@
       <c r="O136" s="5"/>
     </row>
     <row r="137" spans="3:15">
-      <c r="C137" s="376" t="s">
+      <c r="C137" s="377" t="s">
         <v>168</v>
       </c>
       <c r="D137">
@@ -24881,7 +25180,7 @@
       <c r="O137" s="5"/>
     </row>
     <row r="138" spans="3:15">
-      <c r="C138" s="376"/>
+      <c r="C138" s="377"/>
       <c r="D138">
         <v>40</v>
       </c>
@@ -24898,7 +25197,7 @@
       <c r="O138" s="5"/>
     </row>
     <row r="139" spans="3:15">
-      <c r="C139" s="376"/>
+      <c r="C139" s="377"/>
       <c r="D139">
         <v>50</v>
       </c>
@@ -24915,7 +25214,7 @@
       <c r="O139" s="5"/>
     </row>
     <row r="140" spans="3:15">
-      <c r="C140" s="376"/>
+      <c r="C140" s="377"/>
       <c r="D140">
         <v>60</v>
       </c>
@@ -24934,7 +25233,7 @@
       <c r="O140" s="5"/>
     </row>
     <row r="141" spans="3:15">
-      <c r="C141" s="376"/>
+      <c r="C141" s="377"/>
       <c r="D141">
         <v>70</v>
       </c>
@@ -24951,7 +25250,7 @@
       <c r="O141" s="5"/>
     </row>
     <row r="142" spans="3:15">
-      <c r="C142" s="376"/>
+      <c r="C142" s="377"/>
       <c r="D142">
         <v>80</v>
       </c>
@@ -24968,7 +25267,7 @@
       <c r="O142" s="5"/>
     </row>
     <row r="143" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C143" s="376"/>
+      <c r="C143" s="377"/>
       <c r="D143">
         <v>90</v>
       </c>
@@ -25059,7 +25358,7 @@
       </c>
     </row>
     <row r="148" spans="4:15">
-      <c r="D148" s="374">
+      <c r="D148" s="375">
         <v>1</v>
       </c>
       <c r="E148" s="169"/>
@@ -25074,7 +25373,7 @@
       <c r="N148" s="174"/>
     </row>
     <row r="149" spans="4:15">
-      <c r="D149" s="375"/>
+      <c r="D149" s="376"/>
       <c r="E149" s="170"/>
       <c r="F149" s="166"/>
       <c r="G149" s="167"/>
@@ -25087,7 +25386,7 @@
       <c r="N149" s="168"/>
     </row>
     <row r="150" spans="4:15">
-      <c r="D150" s="375"/>
+      <c r="D150" s="376"/>
       <c r="E150" s="170"/>
       <c r="F150" s="166"/>
       <c r="G150" s="167"/>
@@ -25100,7 +25399,7 @@
       <c r="N150" s="168"/>
     </row>
     <row r="151" spans="4:15">
-      <c r="D151" s="375"/>
+      <c r="D151" s="376"/>
       <c r="E151" s="170" t="s">
         <v>663</v>
       </c>
@@ -25117,7 +25416,7 @@
       <c r="N151" s="168"/>
     </row>
     <row r="152" spans="4:15">
-      <c r="D152" s="375"/>
+      <c r="D152" s="376"/>
       <c r="E152" s="170"/>
       <c r="F152" s="166"/>
       <c r="G152" s="167"/>
@@ -25130,7 +25429,7 @@
       <c r="N152" s="168"/>
     </row>
     <row r="153" spans="4:15">
-      <c r="D153" s="375"/>
+      <c r="D153" s="376"/>
       <c r="E153" s="170"/>
       <c r="F153" s="166"/>
       <c r="G153" s="167"/>
@@ -25143,7 +25442,7 @@
       <c r="N153" s="168"/>
     </row>
     <row r="154" spans="4:15" ht="15.75" thickBot="1">
-      <c r="D154" s="375"/>
+      <c r="D154" s="376"/>
       <c r="E154" s="171"/>
       <c r="F154" s="175"/>
       <c r="G154" s="176"/>
@@ -25266,7 +25565,7 @@
       <c r="K183" s="173"/>
       <c r="L183" s="173"/>
       <c r="M183" s="173"/>
-      <c r="N183" s="372" t="s">
+      <c r="N183" s="373" t="s">
         <v>917</v>
       </c>
       <c r="O183" t="s">
@@ -25287,7 +25586,7 @@
       <c r="K184" s="176"/>
       <c r="L184" s="176"/>
       <c r="M184" s="176"/>
-      <c r="N184" s="372"/>
+      <c r="N184" s="373"/>
       <c r="O184" t="s">
         <v>918</v>
       </c>
@@ -25306,7 +25605,7 @@
       <c r="K185" s="229"/>
       <c r="L185" s="229"/>
       <c r="M185" s="293"/>
-      <c r="N185" s="371" t="s">
+      <c r="N185" s="372" t="s">
         <v>920</v>
       </c>
       <c r="O185" t="s">
@@ -25327,7 +25626,7 @@
       <c r="K186" s="230"/>
       <c r="L186" s="230"/>
       <c r="M186" s="295"/>
-      <c r="N186" s="371"/>
+      <c r="N186" s="372"/>
     </row>
     <row r="187" spans="3:15">
       <c r="C187">
@@ -25343,7 +25642,7 @@
       <c r="K187" s="230"/>
       <c r="L187" s="230"/>
       <c r="M187" s="295"/>
-      <c r="N187" s="371"/>
+      <c r="N187" s="372"/>
     </row>
     <row r="188" spans="3:15" ht="15.75" thickBot="1">
       <c r="C188">
@@ -25363,7 +25662,7 @@
       <c r="K188" s="231"/>
       <c r="L188" s="231"/>
       <c r="M188" s="297"/>
-      <c r="N188" s="371"/>
+      <c r="N188" s="372"/>
     </row>
     <row r="189" spans="3:15">
       <c r="C189">
@@ -25379,7 +25678,7 @@
       <c r="K189" s="230"/>
       <c r="L189" s="230"/>
       <c r="M189" s="230"/>
-      <c r="N189" s="372"/>
+      <c r="N189" s="373"/>
     </row>
     <row r="190" spans="3:15">
       <c r="C190">
@@ -25395,7 +25694,7 @@
       <c r="K190" s="230"/>
       <c r="L190" s="230"/>
       <c r="M190" s="230"/>
-      <c r="N190" s="372"/>
+      <c r="N190" s="373"/>
     </row>
     <row r="191" spans="3:15" ht="15.75" thickBot="1">
       <c r="C191">
@@ -25411,7 +25710,7 @@
       <c r="K191" s="231"/>
       <c r="L191" s="231"/>
       <c r="M191" s="231"/>
-      <c r="N191" s="372"/>
+      <c r="N191" s="373"/>
     </row>
     <row r="192" spans="3:15" ht="15.75" thickBot="1">
       <c r="C192">
@@ -25729,16 +26028,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U129"/>
+  <dimension ref="A1:U242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M229" sqref="M229:N229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
     <col min="13" max="13" width="21.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1"/>
@@ -25785,14 +26085,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="377" t="s">
+      <c r="K4" s="387" t="s">
         <v>178</v>
       </c>
-      <c r="L4" s="378"/>
-      <c r="M4" s="378"/>
-      <c r="N4" s="378"/>
-      <c r="O4" s="378"/>
-      <c r="P4" s="379"/>
+      <c r="L4" s="388"/>
+      <c r="M4" s="388"/>
+      <c r="N4" s="388"/>
+      <c r="O4" s="388"/>
+      <c r="P4" s="389"/>
       <c r="Q4" s="115" t="s">
         <v>281</v>
       </c>
@@ -25831,7 +26131,7 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="396" t="s">
+      <c r="E6" s="406" t="s">
         <v>1492</v>
       </c>
       <c r="F6" t="s">
@@ -25874,7 +26174,7 @@
       <c r="D7" s="367" t="s">
         <v>1302</v>
       </c>
-      <c r="E7" s="397"/>
+      <c r="E7" s="379"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
@@ -25908,7 +26208,7 @@
       <c r="B8" s="5"/>
       <c r="C8" s="24"/>
       <c r="D8" s="367"/>
-      <c r="E8" s="397"/>
+      <c r="E8" s="379"/>
       <c r="F8" t="s">
         <v>203</v>
       </c>
@@ -25919,10 +26219,10 @@
       <c r="L8" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M8" s="390" t="s">
+      <c r="M8" s="400" t="s">
         <v>1491</v>
       </c>
-      <c r="N8" s="391"/>
+      <c r="N8" s="401"/>
       <c r="O8" s="5" t="s">
         <v>31</v>
       </c>
@@ -25951,7 +26251,7 @@
       <c r="D9" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="E9" s="397"/>
+      <c r="E9" s="379"/>
       <c r="F9" s="24" t="s">
         <v>216</v>
       </c>
@@ -25964,8 +26264,8 @@
       <c r="L9" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M9" s="392"/>
-      <c r="N9" s="393"/>
+      <c r="M9" s="402"/>
+      <c r="N9" s="403"/>
       <c r="O9" s="5" t="s">
         <v>187</v>
       </c>
@@ -25990,7 +26290,7 @@
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
-      <c r="E10" s="398"/>
+      <c r="E10" s="380"/>
       <c r="F10" t="s">
         <v>204</v>
       </c>
@@ -26001,8 +26301,8 @@
       <c r="L10" s="5" t="s">
         <v>1167</v>
       </c>
-      <c r="M10" s="392"/>
-      <c r="N10" s="393"/>
+      <c r="M10" s="402"/>
+      <c r="N10" s="403"/>
       <c r="O10" s="5"/>
       <c r="P10" s="246" t="s">
         <v>399</v>
@@ -26019,13 +26319,13 @@
       <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="380" t="s">
+      <c r="A11" s="390" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="381"/>
-      <c r="C11" s="382"/>
-      <c r="D11" s="382"/>
-      <c r="E11" s="375"/>
+      <c r="B11" s="391"/>
+      <c r="C11" s="392"/>
+      <c r="D11" s="392"/>
+      <c r="E11" s="376"/>
       <c r="F11" t="s">
         <v>209</v>
       </c>
@@ -26034,8 +26334,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="392"/>
-      <c r="N11" s="393"/>
+      <c r="M11" s="402"/>
+      <c r="N11" s="403"/>
       <c r="O11" s="5"/>
       <c r="P11" s="246" t="s">
         <v>400</v>
@@ -26045,11 +26345,11 @@
       <c r="T11" s="38"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="373"/>
-      <c r="B12" s="383"/>
-      <c r="C12" s="383"/>
-      <c r="D12" s="383"/>
-      <c r="E12" s="375"/>
+      <c r="A12" s="374"/>
+      <c r="B12" s="393"/>
+      <c r="C12" s="393"/>
+      <c r="D12" s="393"/>
+      <c r="E12" s="376"/>
       <c r="F12" t="s">
         <v>944</v>
       </c>
@@ -26058,8 +26358,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="392"/>
-      <c r="N12" s="393"/>
+      <c r="M12" s="402"/>
+      <c r="N12" s="403"/>
       <c r="O12" s="5"/>
       <c r="P12" s="246" t="s">
         <v>1305</v>
@@ -26069,11 +26369,11 @@
       <c r="T12" s="38"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A13" s="373"/>
-      <c r="B13" s="383"/>
-      <c r="C13" s="383"/>
-      <c r="D13" s="383"/>
-      <c r="E13" s="375"/>
+      <c r="A13" s="374"/>
+      <c r="B13" s="393"/>
+      <c r="C13" s="393"/>
+      <c r="D13" s="393"/>
+      <c r="E13" s="376"/>
       <c r="F13" t="s">
         <v>679</v>
       </c>
@@ -26084,8 +26384,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="394"/>
-      <c r="N13" s="395"/>
+      <c r="M13" s="404"/>
+      <c r="N13" s="405"/>
       <c r="O13" s="28"/>
       <c r="P13" s="247"/>
       <c r="S13" t="s">
@@ -26093,11 +26393,11 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="384"/>
-      <c r="B14" s="385"/>
-      <c r="C14" s="385"/>
-      <c r="D14" s="385"/>
-      <c r="E14" s="386"/>
+      <c r="A14" s="394"/>
+      <c r="B14" s="395"/>
+      <c r="C14" s="395"/>
+      <c r="D14" s="395"/>
+      <c r="E14" s="396"/>
       <c r="F14" t="s">
         <v>885</v>
       </c>
@@ -26230,20 +26530,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="387" t="s">
+      <c r="I20" s="397" t="s">
         <v>194</v>
       </c>
-      <c r="J20" s="388"/>
-      <c r="K20" s="387" t="s">
+      <c r="J20" s="398"/>
+      <c r="K20" s="397" t="s">
         <v>195</v>
       </c>
-      <c r="L20" s="388"/>
-      <c r="M20" s="387" t="s">
+      <c r="L20" s="398"/>
+      <c r="M20" s="397" t="s">
         <v>196</v>
       </c>
-      <c r="N20" s="389"/>
-      <c r="O20" s="389"/>
-      <c r="P20" s="388"/>
+      <c r="N20" s="399"/>
+      <c r="O20" s="399"/>
+      <c r="P20" s="398"/>
       <c r="S20" t="s">
         <v>281</v>
       </c>
@@ -27074,8 +27374,1177 @@
         <v>1122</v>
       </c>
     </row>
+    <row r="163" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="164" spans="1:17" ht="15.75" thickBot="1">
+      <c r="E164" t="s">
+        <v>52</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" s="3"/>
+    </row>
+    <row r="165" spans="1:17">
+      <c r="A165" s="1"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="3"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="378" t="s">
+        <v>1496</v>
+      </c>
+      <c r="K165" s="1"/>
+      <c r="L165" s="529" t="s">
+        <v>1507</v>
+      </c>
+      <c r="M165" s="526" t="s">
+        <v>1506</v>
+      </c>
+      <c r="N165" s="381"/>
+      <c r="O165" s="381"/>
+      <c r="P165" s="382"/>
+      <c r="Q165" s="6"/>
+    </row>
+    <row r="166" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A166" s="4"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="6"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="379"/>
+      <c r="K166" s="4"/>
+      <c r="L166" s="527"/>
+      <c r="M166" s="383"/>
+      <c r="N166" s="383"/>
+      <c r="O166" s="383"/>
+      <c r="P166" s="384"/>
+      <c r="Q166" s="6"/>
+    </row>
+    <row r="167" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A167" s="7"/>
+      <c r="B167" s="368" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C167" s="107"/>
+      <c r="D167" s="107"/>
+      <c r="E167" s="108"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="379"/>
+      <c r="K167" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="L167" s="527"/>
+      <c r="M167" s="383"/>
+      <c r="N167" s="383"/>
+      <c r="O167" s="383"/>
+      <c r="P167" s="384"/>
+      <c r="Q167" s="6"/>
+    </row>
+    <row r="168" spans="1:17">
+      <c r="A168" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="6"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="379"/>
+      <c r="K168" s="4"/>
+      <c r="L168" s="527"/>
+      <c r="M168" s="383"/>
+      <c r="N168" s="383"/>
+      <c r="O168" s="383"/>
+      <c r="P168" s="384"/>
+      <c r="Q168" s="6"/>
+    </row>
+    <row r="169" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A169" s="4"/>
+      <c r="B169" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C169" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D169" s="5"/>
+      <c r="E169" s="6"/>
+      <c r="I169" s="4"/>
+      <c r="J169" s="379"/>
+      <c r="K169" s="8"/>
+      <c r="L169" s="527"/>
+      <c r="M169" s="383"/>
+      <c r="N169" s="383"/>
+      <c r="O169" s="383"/>
+      <c r="P169" s="384"/>
+      <c r="Q169" s="6"/>
+    </row>
+    <row r="170" spans="1:17">
+      <c r="A170" s="4"/>
+      <c r="B170" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C170" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D170" s="5"/>
+      <c r="E170" s="6"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="379"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="527"/>
+      <c r="M170" s="383"/>
+      <c r="N170" s="383"/>
+      <c r="O170" s="383"/>
+      <c r="P170" s="384"/>
+      <c r="Q170" s="6"/>
+    </row>
+    <row r="171" spans="1:17">
+      <c r="A171" s="4"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D171" s="5"/>
+      <c r="E171" s="6"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="379"/>
+      <c r="K171" s="4"/>
+      <c r="L171" s="527"/>
+      <c r="M171" s="383"/>
+      <c r="N171" s="383"/>
+      <c r="O171" s="383"/>
+      <c r="P171" s="384"/>
+      <c r="Q171" s="6"/>
+    </row>
+    <row r="172" spans="1:17">
+      <c r="A172" s="4" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="16" t="s">
+        <v>1505</v>
+      </c>
+      <c r="I172" s="4"/>
+      <c r="J172" s="379"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="527"/>
+      <c r="M172" s="383"/>
+      <c r="N172" s="383"/>
+      <c r="O172" s="383"/>
+      <c r="P172" s="384"/>
+      <c r="Q172" s="6"/>
+    </row>
+    <row r="173" spans="1:17">
+      <c r="A173" s="4"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="6"/>
+      <c r="F173" t="s">
+        <v>485</v>
+      </c>
+      <c r="I173" s="4"/>
+      <c r="J173" s="379"/>
+      <c r="K173" s="4" t="s">
+        <v>1486</v>
+      </c>
+      <c r="L173" s="527"/>
+      <c r="M173" s="383"/>
+      <c r="N173" s="383"/>
+      <c r="O173" s="383"/>
+      <c r="P173" s="384"/>
+      <c r="Q173" s="6"/>
+    </row>
+    <row r="174" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A174" s="8"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="9"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="379"/>
+      <c r="K174" s="4"/>
+      <c r="L174" s="527"/>
+      <c r="M174" s="383"/>
+      <c r="N174" s="383"/>
+      <c r="O174" s="383"/>
+      <c r="P174" s="384"/>
+      <c r="Q174" s="6"/>
+    </row>
+    <row r="175" spans="1:17" ht="15.75" thickBot="1">
+      <c r="I175" s="4"/>
+      <c r="J175" s="379"/>
+      <c r="K175" s="8"/>
+      <c r="L175" s="527"/>
+      <c r="M175" s="383"/>
+      <c r="N175" s="383"/>
+      <c r="O175" s="383"/>
+      <c r="P175" s="384"/>
+      <c r="Q175" s="6"/>
+    </row>
+    <row r="176" spans="1:17">
+      <c r="A176" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I176" s="4"/>
+      <c r="J176" s="379"/>
+      <c r="K176" s="5"/>
+      <c r="L176" s="527"/>
+      <c r="M176" s="383"/>
+      <c r="N176" s="383"/>
+      <c r="O176" s="383"/>
+      <c r="P176" s="384"/>
+      <c r="Q176" s="6"/>
+    </row>
+    <row r="177" spans="1:17">
+      <c r="I177" s="4"/>
+      <c r="J177" s="379"/>
+      <c r="K177" s="5"/>
+      <c r="L177" s="527"/>
+      <c r="M177" s="383"/>
+      <c r="N177" s="383"/>
+      <c r="O177" s="383"/>
+      <c r="P177" s="384"/>
+      <c r="Q177" s="6"/>
+    </row>
+    <row r="178" spans="1:17">
+      <c r="A178" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F178" t="s">
+        <v>167</v>
+      </c>
+      <c r="I178" s="4"/>
+      <c r="J178" s="379"/>
+      <c r="K178" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="L178" s="527"/>
+      <c r="M178" s="383"/>
+      <c r="N178" s="383"/>
+      <c r="O178" s="383"/>
+      <c r="P178" s="384"/>
+      <c r="Q178" s="6"/>
+    </row>
+    <row r="179" spans="1:17">
+      <c r="F179" t="s">
+        <v>168</v>
+      </c>
+      <c r="I179" s="4"/>
+      <c r="J179" s="379"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="527"/>
+      <c r="M179" s="383"/>
+      <c r="N179" s="383"/>
+      <c r="O179" s="383"/>
+      <c r="P179" s="384"/>
+      <c r="Q179" s="6"/>
+    </row>
+    <row r="180" spans="1:17">
+      <c r="A180" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D180" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I180" s="4"/>
+      <c r="J180" s="379"/>
+      <c r="K180" s="5"/>
+      <c r="L180" s="527"/>
+      <c r="M180" s="383"/>
+      <c r="N180" s="383"/>
+      <c r="O180" s="383"/>
+      <c r="P180" s="384"/>
+      <c r="Q180" s="6"/>
+    </row>
+    <row r="181" spans="1:17">
+      <c r="A181" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D181" s="37">
+        <v>80</v>
+      </c>
+      <c r="I181" s="4"/>
+      <c r="J181" s="379"/>
+      <c r="K181" s="5"/>
+      <c r="L181" s="527"/>
+      <c r="M181" s="383"/>
+      <c r="N181" s="383"/>
+      <c r="O181" s="383"/>
+      <c r="P181" s="384"/>
+      <c r="Q181" s="6"/>
+    </row>
+    <row r="182" spans="1:17">
+      <c r="A182" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E182" s="37" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I182" s="4"/>
+      <c r="J182" s="379"/>
+      <c r="K182" s="5"/>
+      <c r="L182" s="527"/>
+      <c r="M182" s="383"/>
+      <c r="N182" s="383"/>
+      <c r="O182" s="383"/>
+      <c r="P182" s="384"/>
+      <c r="Q182" s="6"/>
+    </row>
+    <row r="183" spans="1:17" ht="15.75" thickBot="1">
+      <c r="I183" s="4"/>
+      <c r="J183" s="380"/>
+      <c r="K183" s="10"/>
+      <c r="L183" s="528"/>
+      <c r="M183" s="385"/>
+      <c r="N183" s="385"/>
+      <c r="O183" s="385"/>
+      <c r="P183" s="386"/>
+      <c r="Q183" s="6"/>
+    </row>
+    <row r="184" spans="1:17" ht="15.75" thickBot="1">
+      <c r="H184" t="s">
+        <v>10</v>
+      </c>
+      <c r="I184" s="8"/>
+      <c r="J184" s="10"/>
+      <c r="K184" s="10"/>
+      <c r="L184" s="10"/>
+      <c r="M184" s="10"/>
+      <c r="N184" s="10"/>
+      <c r="O184" s="10"/>
+      <c r="P184" s="10"/>
+      <c r="Q184" s="9"/>
+    </row>
+    <row r="188" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="189" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A189" s="1"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="3"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="2"/>
+      <c r="K189" s="2"/>
+      <c r="L189" s="2"/>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
+      <c r="O189" s="2"/>
+      <c r="P189" s="2"/>
+      <c r="Q189" s="3"/>
+    </row>
+    <row r="190" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A190" s="7"/>
+      <c r="B190" s="368" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C190" s="107"/>
+      <c r="D190" s="108"/>
+      <c r="I190" s="4"/>
+      <c r="J190" s="378" t="s">
+        <v>1508</v>
+      </c>
+      <c r="K190" s="2"/>
+      <c r="L190" s="2"/>
+      <c r="M190" s="2"/>
+      <c r="N190" s="2"/>
+      <c r="O190" s="2"/>
+      <c r="P190" s="3"/>
+      <c r="Q190" s="6"/>
+    </row>
+    <row r="191" spans="1:17">
+      <c r="A191" s="4"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="6"/>
+      <c r="I191" s="4"/>
+      <c r="J191" s="379"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="245" t="s">
+        <v>301</v>
+      </c>
+      <c r="M191" s="5"/>
+      <c r="N191" s="245" t="s">
+        <v>299</v>
+      </c>
+      <c r="O191" s="5"/>
+      <c r="P191" s="6"/>
+      <c r="Q191" s="6"/>
+    </row>
+    <row r="192" spans="1:17">
+      <c r="A192" s="4"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="6"/>
+      <c r="E192" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I192" s="4"/>
+      <c r="J192" s="379"/>
+      <c r="K192" s="5"/>
+      <c r="L192" s="246" t="s">
+        <v>223</v>
+      </c>
+      <c r="M192" s="5"/>
+      <c r="N192" s="246" t="s">
+        <v>223</v>
+      </c>
+      <c r="O192" s="5"/>
+      <c r="P192" s="6"/>
+      <c r="Q192" s="6"/>
+    </row>
+    <row r="193" spans="1:17">
+      <c r="A193" s="4"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="6"/>
+      <c r="I193" s="4"/>
+      <c r="J193" s="379"/>
+      <c r="K193" s="5"/>
+      <c r="L193" s="246"/>
+      <c r="M193" s="5"/>
+      <c r="N193" s="246"/>
+      <c r="O193" s="5"/>
+      <c r="P193" s="6"/>
+      <c r="Q193" s="6"/>
+    </row>
+    <row r="194" spans="1:17">
+      <c r="A194" s="4"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="6"/>
+      <c r="E194" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I194" s="4"/>
+      <c r="J194" s="379"/>
+      <c r="K194" s="5"/>
+      <c r="L194" s="246"/>
+      <c r="M194" s="5"/>
+      <c r="N194" s="246"/>
+      <c r="O194" s="5"/>
+      <c r="P194" s="6"/>
+      <c r="Q194" s="6"/>
+    </row>
+    <row r="195" spans="1:17">
+      <c r="A195" s="4"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="6"/>
+      <c r="I195" s="4"/>
+      <c r="J195" s="379"/>
+      <c r="K195" s="5"/>
+      <c r="L195" s="246"/>
+      <c r="M195" s="5"/>
+      <c r="N195" s="246"/>
+      <c r="O195" s="5"/>
+      <c r="P195" s="6"/>
+      <c r="Q195" s="6"/>
+    </row>
+    <row r="196" spans="1:17">
+      <c r="A196" s="4"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="6"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="379"/>
+      <c r="K196" s="5"/>
+      <c r="L196" s="246"/>
+      <c r="M196" s="5"/>
+      <c r="N196" s="246"/>
+      <c r="O196" s="5"/>
+      <c r="P196" s="6"/>
+      <c r="Q196" s="6"/>
+    </row>
+    <row r="197" spans="1:17">
+      <c r="A197" s="4"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="6"/>
+      <c r="I197" s="4"/>
+      <c r="J197" s="379"/>
+      <c r="K197" s="5"/>
+      <c r="L197" s="246"/>
+      <c r="M197" s="5"/>
+      <c r="N197" s="246"/>
+      <c r="O197" s="5"/>
+      <c r="P197" s="6"/>
+      <c r="Q197" s="6"/>
+    </row>
+    <row r="198" spans="1:17">
+      <c r="A198" s="4"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="6"/>
+      <c r="I198" s="4"/>
+      <c r="J198" s="379"/>
+      <c r="K198" s="5"/>
+      <c r="L198" s="246"/>
+      <c r="M198" s="5"/>
+      <c r="N198" s="246"/>
+      <c r="O198" s="5"/>
+      <c r="P198" s="6"/>
+      <c r="Q198" s="6"/>
+    </row>
+    <row r="199" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A199" s="8"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="9"/>
+      <c r="I199" s="4"/>
+      <c r="J199" s="379"/>
+      <c r="K199" s="5"/>
+      <c r="L199" s="247"/>
+      <c r="M199" s="5"/>
+      <c r="N199" s="247"/>
+      <c r="O199" s="5"/>
+      <c r="P199" s="6"/>
+      <c r="Q199" s="6"/>
+    </row>
+    <row r="200" spans="1:17" ht="15.75" thickBot="1">
+      <c r="I200" s="4"/>
+      <c r="J200" s="380"/>
+      <c r="K200" s="10"/>
+      <c r="L200" s="10"/>
+      <c r="M200" s="10"/>
+      <c r="N200" s="10"/>
+      <c r="O200" s="10"/>
+      <c r="P200" s="9"/>
+      <c r="Q200" s="6"/>
+    </row>
+    <row r="201" spans="1:17" ht="15.75" thickBot="1">
+      <c r="I201" s="8"/>
+      <c r="J201" s="10"/>
+      <c r="K201" s="10"/>
+      <c r="L201" s="10"/>
+      <c r="M201" s="10"/>
+      <c r="N201" s="10"/>
+      <c r="O201" s="10"/>
+      <c r="P201" s="10"/>
+      <c r="Q201" s="9"/>
+    </row>
+    <row r="202" spans="1:17">
+      <c r="D202" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17">
+      <c r="E203" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="205" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A205" s="1"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="3"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="2"/>
+      <c r="L205" s="2"/>
+      <c r="M205" s="2"/>
+      <c r="N205" s="2"/>
+      <c r="O205" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="P205" s="2"/>
+      <c r="Q205" s="3"/>
+    </row>
+    <row r="206" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A206" s="7"/>
+      <c r="B206" s="368" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C206" s="107"/>
+      <c r="D206" s="108"/>
+      <c r="I206" s="4"/>
+      <c r="J206" s="378" t="s">
+        <v>1508</v>
+      </c>
+      <c r="K206" s="2"/>
+      <c r="L206" s="2"/>
+      <c r="M206" s="2"/>
+      <c r="N206" s="2"/>
+      <c r="O206" s="2">
+        <v>1231231231</v>
+      </c>
+      <c r="P206" s="3"/>
+      <c r="Q206" s="6"/>
+    </row>
+    <row r="207" spans="1:17">
+      <c r="A207" s="4"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="6"/>
+      <c r="I207" s="4"/>
+      <c r="J207" s="379"/>
+      <c r="K207" s="5"/>
+      <c r="L207" s="245" t="s">
+        <v>301</v>
+      </c>
+      <c r="M207" s="245" t="s">
+        <v>299</v>
+      </c>
+      <c r="O207" s="418" t="s">
+        <v>968</v>
+      </c>
+      <c r="P207" s="419"/>
+      <c r="Q207" s="6"/>
+    </row>
+    <row r="208" spans="1:17">
+      <c r="A208" s="4"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="6"/>
+      <c r="E208" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I208" s="4"/>
+      <c r="J208" s="379"/>
+      <c r="K208" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L208" s="246" t="s">
+        <v>223</v>
+      </c>
+      <c r="M208" s="246" t="s">
+        <v>223</v>
+      </c>
+      <c r="O208" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="P208" s="38" t="s">
+        <v>1377</v>
+      </c>
+      <c r="Q208" s="6"/>
+    </row>
+    <row r="209" spans="1:17">
+      <c r="A209" s="4"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="6"/>
+      <c r="E209" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I209" s="4"/>
+      <c r="J209" s="379"/>
+      <c r="K209" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="L209" s="246"/>
+      <c r="M209" s="246"/>
+      <c r="O209" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="P209" s="38" t="s">
+        <v>1377</v>
+      </c>
+      <c r="Q209" s="6"/>
+    </row>
+    <row r="210" spans="1:17">
+      <c r="A210" s="4"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="6"/>
+      <c r="I210" s="4"/>
+      <c r="J210" s="379"/>
+      <c r="K210" s="5"/>
+      <c r="L210" s="246" t="s">
+        <v>287</v>
+      </c>
+      <c r="M210" s="246"/>
+      <c r="O210" s="38" t="s">
+        <v>768</v>
+      </c>
+      <c r="P210" s="38" t="s">
+        <v>1518</v>
+      </c>
+      <c r="Q210" s="6"/>
+    </row>
+    <row r="211" spans="1:17">
+      <c r="A211" s="4"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="6"/>
+      <c r="I211" s="4"/>
+      <c r="J211" s="379"/>
+      <c r="K211" s="5"/>
+      <c r="L211" s="246" t="s">
+        <v>1514</v>
+      </c>
+      <c r="M211" s="246"/>
+      <c r="O211" s="38"/>
+      <c r="P211" s="38"/>
+      <c r="Q211" s="6"/>
+    </row>
+    <row r="212" spans="1:17">
+      <c r="A212" s="4"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="6"/>
+      <c r="E212" t="s">
+        <v>1517</v>
+      </c>
+      <c r="I212" s="4"/>
+      <c r="J212" s="379"/>
+      <c r="K212" s="5" t="s">
+        <v>1516</v>
+      </c>
+      <c r="L212" s="246"/>
+      <c r="M212" s="246"/>
+      <c r="O212" s="38"/>
+      <c r="P212" s="38"/>
+      <c r="Q212" s="6"/>
+    </row>
+    <row r="213" spans="1:17">
+      <c r="A213" s="487"/>
+      <c r="B213" s="428"/>
+      <c r="C213" s="428"/>
+      <c r="D213" s="508"/>
+      <c r="I213" s="4"/>
+      <c r="J213" s="379"/>
+      <c r="K213" s="5"/>
+      <c r="L213" s="246"/>
+      <c r="M213" s="246"/>
+      <c r="O213" s="38"/>
+      <c r="P213" s="38"/>
+      <c r="Q213" s="6"/>
+    </row>
+    <row r="214" spans="1:17">
+      <c r="A214" s="512"/>
+      <c r="B214" s="428"/>
+      <c r="C214" s="428"/>
+      <c r="D214" s="508"/>
+      <c r="I214" s="4"/>
+      <c r="J214" s="379"/>
+      <c r="K214" s="5"/>
+      <c r="L214" s="246"/>
+      <c r="M214" s="246"/>
+      <c r="O214" s="5"/>
+      <c r="P214" s="6"/>
+      <c r="Q214" s="6"/>
+    </row>
+    <row r="215" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A215" s="530"/>
+      <c r="B215" s="531"/>
+      <c r="C215" s="531"/>
+      <c r="D215" s="525"/>
+      <c r="I215" s="4"/>
+      <c r="J215" s="379"/>
+      <c r="K215" s="5"/>
+      <c r="L215" s="247"/>
+      <c r="M215" s="247"/>
+      <c r="O215" s="5"/>
+      <c r="P215" s="6"/>
+      <c r="Q215" s="6"/>
+    </row>
+    <row r="216" spans="1:17" ht="15.75" thickBot="1">
+      <c r="I216" s="4"/>
+      <c r="J216" s="380"/>
+      <c r="K216" s="10"/>
+      <c r="L216" s="10"/>
+      <c r="M216" s="10"/>
+      <c r="N216" s="10"/>
+      <c r="O216" s="10"/>
+      <c r="P216" s="9"/>
+      <c r="Q216" s="6"/>
+    </row>
+    <row r="217" spans="1:17" ht="15.75" thickBot="1">
+      <c r="I217" s="8"/>
+      <c r="J217" s="10"/>
+      <c r="K217" s="10"/>
+      <c r="L217" s="10"/>
+      <c r="M217" s="10"/>
+      <c r="N217" s="10"/>
+      <c r="O217" s="10"/>
+      <c r="P217" s="10"/>
+      <c r="Q217" s="9"/>
+    </row>
+    <row r="218" spans="1:17">
+      <c r="D218" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="220" spans="1:17" ht="15.75" thickBot="1">
+      <c r="I220" s="1"/>
+      <c r="J220" s="2"/>
+      <c r="K220" s="2"/>
+      <c r="L220" s="2"/>
+      <c r="M220" s="2"/>
+      <c r="N220" s="2"/>
+      <c r="O220" s="2"/>
+      <c r="P220" s="3"/>
+    </row>
+    <row r="221" spans="1:17">
+      <c r="A221" s="1"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="3"/>
+      <c r="I221" s="4"/>
+      <c r="J221" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="K221" s="2"/>
+      <c r="L221" s="2"/>
+      <c r="M221" s="2"/>
+      <c r="N221" s="2"/>
+      <c r="O221" s="3"/>
+      <c r="P221" s="6"/>
+    </row>
+    <row r="222" spans="1:17">
+      <c r="A222" s="4"/>
+      <c r="B222" s="5" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C222" s="5"/>
+      <c r="D222" s="6"/>
+      <c r="E222" t="s">
+        <v>29</v>
+      </c>
+      <c r="I222" s="4"/>
+      <c r="J222" s="4"/>
+      <c r="K222" s="5"/>
+      <c r="L222" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="M222" s="5" t="s">
+        <v>1524</v>
+      </c>
+      <c r="N222" s="5" t="s">
+        <v>1525</v>
+      </c>
+      <c r="O222" s="6"/>
+      <c r="P222" s="6"/>
+    </row>
+    <row r="223" spans="1:17">
+      <c r="A223" s="4"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="6"/>
+      <c r="E223" t="s">
+        <v>1526</v>
+      </c>
+      <c r="I223" s="4"/>
+      <c r="J223" s="4"/>
+      <c r="K223" s="5"/>
+      <c r="L223" s="532">
+        <v>12345</v>
+      </c>
+      <c r="M223" s="533" t="s">
+        <v>301</v>
+      </c>
+      <c r="N223" s="533" t="s">
+        <v>1529</v>
+      </c>
+      <c r="O223" s="6"/>
+      <c r="P223" s="6"/>
+    </row>
+    <row r="224" spans="1:17">
+      <c r="A224" s="374" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B224" s="393"/>
+      <c r="C224" s="393"/>
+      <c r="D224" s="376"/>
+      <c r="E224" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I224" s="4"/>
+      <c r="J224" s="4"/>
+      <c r="K224" s="5"/>
+      <c r="L224" s="532"/>
+      <c r="M224" s="533"/>
+      <c r="N224" s="533"/>
+      <c r="O224" s="6"/>
+      <c r="P224" s="6"/>
+    </row>
+    <row r="225" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A225" s="394"/>
+      <c r="B225" s="395"/>
+      <c r="C225" s="395"/>
+      <c r="D225" s="396"/>
+      <c r="E225" t="s">
+        <v>1537</v>
+      </c>
+      <c r="I225" s="4"/>
+      <c r="J225" s="4"/>
+      <c r="K225" s="5"/>
+      <c r="L225" s="532"/>
+      <c r="M225" s="533"/>
+      <c r="N225" s="533"/>
+      <c r="O225" s="6"/>
+      <c r="P225" s="6"/>
+    </row>
+    <row r="226" spans="1:16" ht="15.75" thickBot="1">
+      <c r="E226" t="s">
+        <v>1538</v>
+      </c>
+      <c r="I226" s="4"/>
+      <c r="J226" s="4"/>
+      <c r="K226" s="5"/>
+      <c r="L226" s="377">
+        <v>234234</v>
+      </c>
+      <c r="M226" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="N226" s="38" t="s">
+        <v>1377</v>
+      </c>
+      <c r="O226" s="6"/>
+      <c r="P226" s="6"/>
+    </row>
+    <row r="227" spans="1:16">
+      <c r="A227" s="1"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="3"/>
+      <c r="I227" s="4"/>
+      <c r="J227" s="4"/>
+      <c r="K227" s="5"/>
+      <c r="L227" s="377"/>
+      <c r="M227" s="38"/>
+      <c r="N227" s="38"/>
+      <c r="O227" s="6"/>
+      <c r="P227" s="6"/>
+    </row>
+    <row r="228" spans="1:16">
+      <c r="A228" s="4"/>
+      <c r="B228" s="5" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C228" s="5"/>
+      <c r="D228" s="6"/>
+      <c r="E228" t="s">
+        <v>26</v>
+      </c>
+      <c r="I228" s="4"/>
+      <c r="J228" s="4"/>
+      <c r="K228" s="5"/>
+      <c r="L228" s="377"/>
+      <c r="M228" s="38"/>
+      <c r="N228" s="38"/>
+      <c r="O228" s="6"/>
+      <c r="P228" s="6"/>
+    </row>
+    <row r="229" spans="1:16">
+      <c r="A229" s="374" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B229" s="393"/>
+      <c r="C229" s="393"/>
+      <c r="D229" s="376"/>
+      <c r="E229" t="s">
+        <v>1530</v>
+      </c>
+      <c r="I229" s="4"/>
+      <c r="J229" s="4"/>
+      <c r="K229" s="5"/>
+      <c r="L229" s="532">
+        <v>345345</v>
+      </c>
+      <c r="M229" s="533" t="s">
+        <v>768</v>
+      </c>
+      <c r="N229" s="533" t="s">
+        <v>1536</v>
+      </c>
+      <c r="O229" s="6"/>
+      <c r="P229" s="6"/>
+    </row>
+    <row r="230" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A230" s="394"/>
+      <c r="B230" s="395"/>
+      <c r="C230" s="395"/>
+      <c r="D230" s="396"/>
+      <c r="E230" t="s">
+        <v>1531</v>
+      </c>
+      <c r="I230" s="4"/>
+      <c r="J230" s="4"/>
+      <c r="K230" s="5"/>
+      <c r="L230" s="532"/>
+      <c r="M230" s="533"/>
+      <c r="N230" s="533"/>
+      <c r="O230" s="6"/>
+      <c r="P230" s="6"/>
+    </row>
+    <row r="231" spans="1:16" ht="15.75" thickBot="1">
+      <c r="I231" s="4"/>
+      <c r="J231" s="4"/>
+      <c r="K231" s="5"/>
+      <c r="L231" s="532"/>
+      <c r="M231" s="533"/>
+      <c r="N231" s="533"/>
+      <c r="O231" s="6"/>
+      <c r="P231" s="6"/>
+    </row>
+    <row r="232" spans="1:16">
+      <c r="A232" s="1"/>
+      <c r="B232" s="5" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C232" s="2"/>
+      <c r="D232" s="3"/>
+      <c r="E232" t="s">
+        <v>31</v>
+      </c>
+      <c r="I232" s="4"/>
+      <c r="J232" s="4"/>
+      <c r="K232" s="5"/>
+      <c r="L232" s="377">
+        <v>456456</v>
+      </c>
+      <c r="M232" s="38" t="s">
+        <v>768</v>
+      </c>
+      <c r="N232" s="38" t="s">
+        <v>1542</v>
+      </c>
+      <c r="O232" s="6"/>
+      <c r="P232" s="6"/>
+    </row>
+    <row r="233" spans="1:16">
+      <c r="A233" s="4"/>
+      <c r="B233" s="5" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C233" s="5"/>
+      <c r="D233" s="6"/>
+      <c r="E233" t="s">
+        <v>1532</v>
+      </c>
+      <c r="I233" s="4"/>
+      <c r="J233" s="4"/>
+      <c r="K233" s="5"/>
+      <c r="L233" s="377"/>
+      <c r="M233" s="38"/>
+      <c r="N233" s="38"/>
+      <c r="O233" s="6"/>
+      <c r="P233" s="6"/>
+    </row>
+    <row r="234" spans="1:16">
+      <c r="A234" s="4"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="6"/>
+      <c r="E234" t="s">
+        <v>1533</v>
+      </c>
+      <c r="I234" s="4"/>
+      <c r="J234" s="4"/>
+      <c r="K234" s="5"/>
+      <c r="L234" s="377"/>
+      <c r="M234" s="38"/>
+      <c r="N234" s="38"/>
+      <c r="O234" s="6"/>
+      <c r="P234" s="6"/>
+    </row>
+    <row r="235" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A235" s="374"/>
+      <c r="B235" s="393"/>
+      <c r="C235" s="393"/>
+      <c r="D235" s="376"/>
+      <c r="E235" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I235" s="4"/>
+      <c r="J235" s="8"/>
+      <c r="K235" s="10"/>
+      <c r="L235" s="10"/>
+      <c r="M235" s="10"/>
+      <c r="N235" s="10"/>
+      <c r="O235" s="9"/>
+      <c r="P235" s="6"/>
+    </row>
+    <row r="236" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A236" s="394"/>
+      <c r="B236" s="395"/>
+      <c r="C236" s="395"/>
+      <c r="D236" s="396"/>
+      <c r="I236" s="8"/>
+      <c r="J236" s="10"/>
+      <c r="K236" s="10"/>
+      <c r="L236" s="10"/>
+      <c r="M236" s="10"/>
+      <c r="N236" s="10"/>
+      <c r="O236" s="10"/>
+      <c r="P236" s="9"/>
+    </row>
+    <row r="237" spans="1:16" ht="15.75" thickBot="1">
+      <c r="E237" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16">
+      <c r="A238" s="1"/>
+      <c r="B238" s="5" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C238" s="2"/>
+      <c r="D238" s="3"/>
+      <c r="E238" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16">
+      <c r="A239" s="4"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="6"/>
+      <c r="E239" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16">
+      <c r="A240" s="4"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="6"/>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="374" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B241" s="393"/>
+      <c r="C241" s="393"/>
+      <c r="D241" s="376"/>
+    </row>
+    <row r="242" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A242" s="394"/>
+      <c r="B242" s="395"/>
+      <c r="C242" s="395"/>
+      <c r="D242" s="396"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="22">
+    <mergeCell ref="A241:D242"/>
+    <mergeCell ref="L232:L234"/>
+    <mergeCell ref="L226:L228"/>
+    <mergeCell ref="L229:L231"/>
+    <mergeCell ref="A224:D225"/>
+    <mergeCell ref="A229:D230"/>
+    <mergeCell ref="A235:D236"/>
+    <mergeCell ref="J190:J200"/>
+    <mergeCell ref="J206:J216"/>
+    <mergeCell ref="O207:P207"/>
+    <mergeCell ref="A213:D215"/>
+    <mergeCell ref="L223:L225"/>
+    <mergeCell ref="J165:J183"/>
+    <mergeCell ref="M165:P183"/>
     <mergeCell ref="K4:P4"/>
     <mergeCell ref="A11:E14"/>
     <mergeCell ref="I20:J20"/>
@@ -27083,6 +28552,7 @@
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="M8:N13"/>
     <mergeCell ref="E6:E10"/>
+    <mergeCell ref="L165:L183"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T7" r:id="rId1"/>
@@ -27094,9 +28564,13 @@
     <hyperlink ref="C87" r:id="rId7"/>
     <hyperlink ref="C88" r:id="rId8"/>
     <hyperlink ref="C89" r:id="rId9"/>
+    <hyperlink ref="B167" r:id="rId10"/>
+    <hyperlink ref="F172" r:id="rId11"/>
+    <hyperlink ref="B190" r:id="rId12"/>
+    <hyperlink ref="B206" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -27444,8 +28918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V293"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27522,13 +28996,13 @@
         <v>181</v>
       </c>
       <c r="J3" s="148"/>
-      <c r="K3" s="408"/>
-      <c r="L3" s="408"/>
-      <c r="M3" s="408"/>
-      <c r="N3" s="408"/>
-      <c r="O3" s="408"/>
-      <c r="P3" s="408"/>
-      <c r="Q3" s="409"/>
+      <c r="K3" s="416"/>
+      <c r="L3" s="416"/>
+      <c r="M3" s="416"/>
+      <c r="N3" s="416"/>
+      <c r="O3" s="416"/>
+      <c r="P3" s="416"/>
+      <c r="Q3" s="417"/>
       <c r="T3" s="40" t="s">
         <v>179</v>
       </c>
@@ -27796,13 +29270,13 @@
       <c r="U11" s="38"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="399" t="s">
+      <c r="A12" s="407" t="s">
         <v>667</v>
       </c>
-      <c r="B12" s="400"/>
-      <c r="C12" s="400"/>
-      <c r="D12" s="400"/>
-      <c r="E12" s="401"/>
+      <c r="B12" s="408"/>
+      <c r="C12" s="408"/>
+      <c r="D12" s="408"/>
+      <c r="E12" s="409"/>
       <c r="F12" t="s">
         <v>680</v>
       </c>
@@ -27825,11 +29299,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="402"/>
-      <c r="B13" s="403"/>
-      <c r="C13" s="403"/>
-      <c r="D13" s="403"/>
-      <c r="E13" s="404"/>
+      <c r="A13" s="410"/>
+      <c r="B13" s="411"/>
+      <c r="C13" s="411"/>
+      <c r="D13" s="411"/>
+      <c r="E13" s="412"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -27850,11 +29324,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="402"/>
-      <c r="B14" s="403"/>
-      <c r="C14" s="403"/>
-      <c r="D14" s="403"/>
-      <c r="E14" s="404"/>
+      <c r="A14" s="410"/>
+      <c r="B14" s="411"/>
+      <c r="C14" s="411"/>
+      <c r="D14" s="411"/>
+      <c r="E14" s="412"/>
       <c r="F14" t="s">
         <v>677</v>
       </c>
@@ -27877,11 +29351,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="405"/>
-      <c r="B15" s="406"/>
-      <c r="C15" s="406"/>
-      <c r="D15" s="406"/>
-      <c r="E15" s="407"/>
+      <c r="A15" s="413"/>
+      <c r="B15" s="414"/>
+      <c r="C15" s="414"/>
+      <c r="D15" s="414"/>
+      <c r="E15" s="415"/>
       <c r="F15" s="24"/>
       <c r="H15" s="192"/>
       <c r="I15" s="4" t="s">
@@ -27939,17 +29413,17 @@
       <c r="F17" s="188"/>
       <c r="G17" s="129"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="378" t="s">
+      <c r="I17" s="388" t="s">
         <v>1177</v>
       </c>
-      <c r="J17" s="378"/>
-      <c r="K17" s="378"/>
-      <c r="L17" s="378"/>
-      <c r="M17" s="378"/>
-      <c r="N17" s="378"/>
-      <c r="O17" s="378"/>
-      <c r="P17" s="378"/>
-      <c r="Q17" s="378"/>
+      <c r="J17" s="388"/>
+      <c r="K17" s="388"/>
+      <c r="L17" s="388"/>
+      <c r="M17" s="388"/>
+      <c r="N17" s="388"/>
+      <c r="O17" s="388"/>
+      <c r="P17" s="388"/>
+      <c r="Q17" s="388"/>
       <c r="S17" t="s">
         <v>358</v>
       </c>
@@ -32235,10 +33709,10 @@
       <c r="K232" s="35"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="410" t="s">
+      <c r="O232" s="418" t="s">
         <v>1225</v>
       </c>
-      <c r="P232" s="411"/>
+      <c r="P232" s="419"/>
       <c r="Q232" s="6"/>
     </row>
     <row r="233" spans="2:17">

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="1545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="1599">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -4902,15 +4902,6 @@
   </si>
   <si>
     <t>&lt;td&gt;Password&lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>&lt;td&gt;&lt;Input type="password"  name="pwd" id="pwd" &gt;&lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>&lt;td&gt;&lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>&lt;td&gt;&lt;Input type="submit" value="login"  &gt;&lt;/td&gt;</t>
   </si>
   <si>
     <t>webpages folder</t>
@@ -5240,6 +5231,199 @@
   </si>
   <si>
     <t>session id=456456</t>
+  </si>
+  <si>
+    <t>webpage</t>
+  </si>
+  <si>
+    <t>Google website</t>
+  </si>
+  <si>
+    <t>registration.html</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>process uid/pwd</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>Forwarding</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>FAILURE</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>||&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>redirect to google reg.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+    </r>
+  </si>
+  <si>
+    <t>electricity bill payment</t>
+  </si>
+  <si>
+    <t>1800-1234</t>
+  </si>
+  <si>
+    <t>1800-3456</t>
+  </si>
+  <si>
+    <t>1800-111</t>
+  </si>
+  <si>
+    <t>service - FORWARD</t>
+  </si>
+  <si>
+    <t>internet bill payment</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>service (REDIRECT)</t>
+  </si>
+  <si>
+    <t>loginsuccess</t>
+  </si>
+  <si>
+    <t>loginsuccess=true</t>
+  </si>
+  <si>
+    <t>name ?</t>
+  </si>
+  <si>
+    <t>electricity acct # ?</t>
+  </si>
+  <si>
+    <t>address #?</t>
+  </si>
+  <si>
+    <t>phone ?</t>
+  </si>
+  <si>
+    <t>problem ?</t>
+  </si>
+  <si>
+    <t>billing payment</t>
+  </si>
+  <si>
+    <t>WRITE</t>
+  </si>
+  <si>
+    <t>READ</t>
+  </si>
+  <si>
+    <t>setAttribute("phone",1234);</t>
+  </si>
+  <si>
+    <t>getAttribute("phone");</t>
+  </si>
+  <si>
+    <t>1234=</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>Traffic Controller</t>
+  </si>
+  <si>
+    <t>/success</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>jsp/welcome.jsp</t>
+  </si>
+  <si>
+    <t>HttpSession session=req.getSession();</t>
+  </si>
+  <si>
+    <t>if(session.getAttribute("cart") == null )</t>
+  </si>
+  <si>
+    <t>session.setAttribute("cart", new ArrayList&lt;String&gt; ());</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt; products=(ArrayList&lt;String&gt; )session.getAttribute("cart");</t>
+  </si>
+  <si>
+    <t>String prd=req.getParameter("productName");</t>
+  </si>
+  <si>
+    <t>products.add(prd);</t>
+  </si>
+  <si>
+    <t>res.getWriter().write(products.toString());</t>
+  </si>
+  <si>
+    <t>add2Cart</t>
+  </si>
+  <si>
+    <t>Iphone</t>
+  </si>
+  <si>
+    <t>cart&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>name="productName"</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;{ iphone ] 12312323&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt; samsung 12312323&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;[iphone,samsung] 1231231&lt;&lt;</t>
   </si>
 </sst>
 </file>
@@ -6004,7 +6188,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="534">
+  <cellXfs count="554">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -6528,6 +6712,67 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6555,6 +6800,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6563,6 +6820,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6600,18 +6878,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6640,6 +6906,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6675,16 +6950,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6705,26 +6986,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6756,6 +7019,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6765,59 +7031,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6873,6 +7088,57 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6880,9 +7146,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6894,17 +7157,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6945,82 +7238,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12832,10 +13068,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="420" t="s">
+      <c r="L35" s="449" t="s">
         <v>374</v>
       </c>
-      <c r="M35" s="420"/>
+      <c r="M35" s="449"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -14765,10 +15001,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="421" t="s">
+      <c r="A155" s="450" t="s">
         <v>993</v>
       </c>
-      <c r="B155" s="421"/>
+      <c r="B155" s="450"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="93" t="s">
@@ -16358,18 +16594,18 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="429" t="s">
+      <c r="E6" s="451" t="s">
         <v>406</v>
       </c>
-      <c r="F6" s="371"/>
-      <c r="G6" s="370" t="s">
+      <c r="F6" s="392"/>
+      <c r="G6" s="391" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="370"/>
-      <c r="I6" s="370"/>
-      <c r="J6" s="370"/>
-      <c r="K6" s="370"/>
-      <c r="L6" s="371"/>
+      <c r="H6" s="391"/>
+      <c r="I6" s="391"/>
+      <c r="J6" s="391"/>
+      <c r="K6" s="391"/>
+      <c r="L6" s="392"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="28" t="s">
@@ -16379,7 +16615,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="426">
+      <c r="D7" s="459">
         <v>80</v>
       </c>
       <c r="E7" s="66"/>
@@ -16397,7 +16633,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="426"/>
+      <c r="D8" s="459"/>
       <c r="E8" s="58" t="s">
         <v>408</v>
       </c>
@@ -16432,7 +16668,7 @@
       <c r="B9" t="s">
         <v>407</v>
       </c>
-      <c r="D9" s="426"/>
+      <c r="D9" s="459"/>
       <c r="E9" s="232"/>
       <c r="F9" s="238"/>
       <c r="G9" s="232"/>
@@ -16456,7 +16692,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="426"/>
+      <c r="D10" s="459"/>
       <c r="E10" s="66"/>
       <c r="F10" s="237"/>
       <c r="G10" s="66"/>
@@ -16480,7 +16716,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="426"/>
+      <c r="D11" s="459"/>
       <c r="E11" s="58" t="s">
         <v>412</v>
       </c>
@@ -16509,7 +16745,7 @@
       <c r="B12" s="209" t="s">
         <v>416</v>
       </c>
-      <c r="D12" s="426"/>
+      <c r="D12" s="459"/>
       <c r="E12" s="232"/>
       <c r="F12" s="238"/>
       <c r="G12" s="232"/>
@@ -16527,7 +16763,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="426"/>
+      <c r="D13" s="459"/>
       <c r="E13" s="66"/>
       <c r="F13" s="237"/>
       <c r="G13" s="66"/>
@@ -16543,7 +16779,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="426"/>
+      <c r="D14" s="459"/>
       <c r="E14" s="58" t="s">
         <v>417</v>
       </c>
@@ -16567,7 +16803,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="426"/>
+      <c r="D15" s="459"/>
       <c r="E15" s="232"/>
       <c r="F15" s="238"/>
       <c r="G15" s="232"/>
@@ -16583,7 +16819,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="426"/>
+      <c r="D16" s="459"/>
       <c r="E16" s="66"/>
       <c r="F16" s="237"/>
       <c r="G16" s="59"/>
@@ -16599,7 +16835,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="426"/>
+      <c r="D17" s="459"/>
       <c r="E17" s="58" t="s">
         <v>421</v>
       </c>
@@ -16623,7 +16859,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="426"/>
+      <c r="D18" s="459"/>
       <c r="E18" s="232"/>
       <c r="F18" s="238"/>
       <c r="G18" s="321"/>
@@ -16640,20 +16876,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="430" t="s">
+      <c r="E19" s="452" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="431"/>
-      <c r="G19" s="430" t="s">
+      <c r="F19" s="453"/>
+      <c r="G19" s="452" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="431"/>
-      <c r="I19" s="430" t="s">
+      <c r="H19" s="453"/>
+      <c r="I19" s="452" t="s">
         <v>196</v>
       </c>
-      <c r="J19" s="432"/>
-      <c r="K19" s="432"/>
-      <c r="L19" s="431"/>
+      <c r="J19" s="454"/>
+      <c r="K19" s="454"/>
+      <c r="L19" s="453"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -16718,12 +16954,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="428"/>
-      <c r="H24" s="428"/>
-      <c r="I24" s="428"/>
-      <c r="J24" s="428"/>
-      <c r="K24" s="428"/>
-      <c r="L24" s="428"/>
+      <c r="G24" s="409"/>
+      <c r="H24" s="409"/>
+      <c r="I24" s="409"/>
+      <c r="J24" s="409"/>
+      <c r="K24" s="409"/>
+      <c r="L24" s="409"/>
       <c r="O24" s="40" t="s">
         <v>179</v>
       </c>
@@ -17096,11 +17332,11 @@
       <c r="G47" s="222" t="s">
         <v>883</v>
       </c>
-      <c r="H47" s="418" t="s">
+      <c r="H47" s="406" t="s">
         <v>1354</v>
       </c>
-      <c r="I47" s="427"/>
-      <c r="J47" s="419"/>
+      <c r="I47" s="460"/>
+      <c r="J47" s="407"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -17706,16 +17942,16 @@
         <v>1048</v>
       </c>
       <c r="F131" s="38"/>
-      <c r="G131" s="424" t="s">
+      <c r="G131" s="457" t="s">
         <v>1041</v>
       </c>
-      <c r="H131" s="424"/>
-      <c r="I131" s="424"/>
-      <c r="J131" s="424"/>
-      <c r="K131" s="424"/>
-      <c r="L131" s="424"/>
-      <c r="M131" s="424"/>
-      <c r="N131" s="424"/>
+      <c r="H131" s="457"/>
+      <c r="I131" s="457"/>
+      <c r="J131" s="457"/>
+      <c r="K131" s="457"/>
+      <c r="L131" s="457"/>
+      <c r="M131" s="457"/>
+      <c r="N131" s="457"/>
       <c r="O131" s="38"/>
     </row>
     <row r="132" spans="2:15">
@@ -17852,29 +18088,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="38"/>
-      <c r="G141" s="425"/>
-      <c r="H141" s="425"/>
-      <c r="I141" s="425"/>
-      <c r="J141" s="425"/>
-      <c r="K141" s="425"/>
-      <c r="L141" s="425"/>
-      <c r="M141" s="425"/>
-      <c r="N141" s="425"/>
-      <c r="O141" s="425"/>
+      <c r="G141" s="458"/>
+      <c r="H141" s="458"/>
+      <c r="I141" s="458"/>
+      <c r="J141" s="458"/>
+      <c r="K141" s="458"/>
+      <c r="L141" s="458"/>
+      <c r="M141" s="458"/>
+      <c r="N141" s="458"/>
+      <c r="O141" s="458"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="425"/>
-      <c r="H142" s="425"/>
-      <c r="I142" s="425"/>
-      <c r="J142" s="425"/>
-      <c r="K142" s="425"/>
-      <c r="L142" s="425"/>
-      <c r="M142" s="425"/>
-      <c r="N142" s="425"/>
-      <c r="O142" s="425"/>
+      <c r="G142" s="458"/>
+      <c r="H142" s="458"/>
+      <c r="I142" s="458"/>
+      <c r="J142" s="458"/>
+      <c r="K142" s="458"/>
+      <c r="L142" s="458"/>
+      <c r="M142" s="458"/>
+      <c r="N142" s="458"/>
+      <c r="O142" s="458"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -17918,7 +18154,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="422" t="s">
+      <c r="D158" s="455" t="s">
         <v>1320</v>
       </c>
       <c r="E158" s="66"/>
@@ -17931,7 +18167,7 @@
       <c r="L158" s="237"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="423"/>
+      <c r="D159" s="456"/>
       <c r="E159" s="313" t="s">
         <v>1318</v>
       </c>
@@ -17953,7 +18189,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="423"/>
+      <c r="D160" s="456"/>
       <c r="E160" s="232"/>
       <c r="F160" s="238"/>
       <c r="G160" s="232"/>
@@ -17964,7 +18200,7 @@
       <c r="L160" s="238"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="423"/>
+      <c r="D161" s="456"/>
       <c r="E161" s="315"/>
       <c r="F161" s="316"/>
       <c r="G161" s="315"/>
@@ -17975,7 +18211,7 @@
       <c r="L161" s="316"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="423"/>
+      <c r="D162" s="456"/>
       <c r="E162" s="317"/>
       <c r="F162" s="318"/>
       <c r="G162" s="317"/>
@@ -17989,7 +18225,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="423"/>
+      <c r="D163" s="456"/>
       <c r="E163" s="319"/>
       <c r="F163" s="320"/>
       <c r="G163" s="319"/>
@@ -18000,7 +18236,7 @@
       <c r="L163" s="320"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="423"/>
+      <c r="D164" s="456"/>
       <c r="E164" s="66"/>
       <c r="F164" s="237"/>
       <c r="G164" s="66"/>
@@ -18011,7 +18247,7 @@
       <c r="L164" s="237"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="423"/>
+      <c r="D165" s="456"/>
       <c r="E165" s="58"/>
       <c r="F165" s="312"/>
       <c r="G165" s="58"/>
@@ -18025,7 +18261,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="423"/>
+      <c r="D166" s="456"/>
       <c r="E166" s="232"/>
       <c r="F166" s="238"/>
       <c r="G166" s="232"/>
@@ -18036,7 +18272,7 @@
       <c r="L166" s="238"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="423"/>
+      <c r="D167" s="456"/>
       <c r="E167" s="66"/>
       <c r="F167" s="237"/>
       <c r="G167" s="59"/>
@@ -18047,7 +18283,7 @@
       <c r="L167" s="312"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="423"/>
+      <c r="D168" s="456"/>
       <c r="E168" s="58"/>
       <c r="F168" s="312"/>
       <c r="G168" s="59"/>
@@ -18061,7 +18297,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="423"/>
+      <c r="D169" s="456"/>
       <c r="E169" s="232"/>
       <c r="F169" s="238"/>
       <c r="G169" s="321"/>
@@ -18241,17 +18477,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -18496,13 +18732,13 @@
       <c r="C20" s="116">
         <v>43908</v>
       </c>
-      <c r="D20" s="433" t="s">
+      <c r="D20" s="461" t="s">
         <v>456</v>
       </c>
-      <c r="E20" s="433"/>
-      <c r="F20" s="433"/>
-      <c r="G20" s="433"/>
-      <c r="H20" s="433"/>
+      <c r="E20" s="461"/>
+      <c r="F20" s="461"/>
+      <c r="G20" s="461"/>
+      <c r="H20" s="461"/>
       <c r="I20" s="38" t="s">
         <v>457</v>
       </c>
@@ -18513,37 +18749,37 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="434">
+      <c r="C21" s="472">
         <v>43909</v>
       </c>
-      <c r="D21" s="433"/>
-      <c r="E21" s="433"/>
-      <c r="F21" s="433"/>
-      <c r="G21" s="433"/>
-      <c r="H21" s="433"/>
+      <c r="D21" s="461"/>
+      <c r="E21" s="461"/>
+      <c r="F21" s="461"/>
+      <c r="G21" s="461"/>
+      <c r="H21" s="461"/>
       <c r="I21" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="J21" s="433"/>
-      <c r="K21" s="433"/>
-      <c r="L21" s="433" t="s">
+      <c r="J21" s="461"/>
+      <c r="K21" s="461"/>
+      <c r="L21" s="461" t="s">
         <v>459</v>
       </c>
-      <c r="M21" s="433"/>
-      <c r="N21" s="433"/>
+      <c r="M21" s="461"/>
+      <c r="N21" s="461"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="434"/>
-      <c r="D22" s="433"/>
-      <c r="E22" s="433"/>
-      <c r="F22" s="433"/>
-      <c r="G22" s="433"/>
-      <c r="H22" s="433"/>
-      <c r="I22" s="377" t="s">
+      <c r="C22" s="472"/>
+      <c r="D22" s="461"/>
+      <c r="E22" s="461"/>
+      <c r="F22" s="461"/>
+      <c r="G22" s="461"/>
+      <c r="H22" s="461"/>
+      <c r="I22" s="398" t="s">
         <v>460</v>
       </c>
-      <c r="J22" s="433"/>
-      <c r="K22" s="433"/>
+      <c r="J22" s="461"/>
+      <c r="K22" s="461"/>
       <c r="L22" s="117" t="s">
         <v>461</v>
       </c>
@@ -18551,31 +18787,31 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="434"/>
-      <c r="D23" s="433"/>
-      <c r="E23" s="433"/>
-      <c r="F23" s="433"/>
-      <c r="G23" s="433"/>
-      <c r="H23" s="433"/>
-      <c r="I23" s="377"/>
-      <c r="J23" s="433"/>
-      <c r="K23" s="433"/>
-      <c r="L23" s="433" t="s">
+      <c r="C23" s="472"/>
+      <c r="D23" s="461"/>
+      <c r="E23" s="461"/>
+      <c r="F23" s="461"/>
+      <c r="G23" s="461"/>
+      <c r="H23" s="461"/>
+      <c r="I23" s="398"/>
+      <c r="J23" s="461"/>
+      <c r="K23" s="461"/>
+      <c r="L23" s="461" t="s">
         <v>462</v>
       </c>
-      <c r="M23" s="433"/>
-      <c r="N23" s="433"/>
+      <c r="M23" s="461"/>
+      <c r="N23" s="461"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="434"/>
-      <c r="D24" s="433"/>
-      <c r="E24" s="433"/>
-      <c r="F24" s="433"/>
-      <c r="G24" s="433"/>
-      <c r="H24" s="433"/>
-      <c r="I24" s="377"/>
-      <c r="J24" s="433"/>
-      <c r="K24" s="433"/>
+      <c r="C24" s="472"/>
+      <c r="D24" s="461"/>
+      <c r="E24" s="461"/>
+      <c r="F24" s="461"/>
+      <c r="G24" s="461"/>
+      <c r="H24" s="461"/>
+      <c r="I24" s="398"/>
+      <c r="J24" s="461"/>
+      <c r="K24" s="461"/>
       <c r="L24" s="118" t="s">
         <v>460</v>
       </c>
@@ -18586,13 +18822,13 @@
       <c r="C25" s="116">
         <v>43910</v>
       </c>
-      <c r="D25" s="433" t="s">
+      <c r="D25" s="461" t="s">
         <v>463</v>
       </c>
-      <c r="E25" s="433"/>
-      <c r="F25" s="433"/>
-      <c r="G25" s="433"/>
-      <c r="H25" s="433"/>
+      <c r="E25" s="461"/>
+      <c r="F25" s="461"/>
+      <c r="G25" s="461"/>
+      <c r="H25" s="461"/>
       <c r="I25" s="38" t="s">
         <v>464</v>
       </c>
@@ -18606,16 +18842,16 @@
       <c r="C26" s="116">
         <v>43911</v>
       </c>
-      <c r="D26" s="435"/>
-      <c r="E26" s="436"/>
-      <c r="F26" s="436"/>
-      <c r="G26" s="436"/>
-      <c r="H26" s="437"/>
-      <c r="I26" s="442" t="s">
+      <c r="D26" s="462"/>
+      <c r="E26" s="463"/>
+      <c r="F26" s="463"/>
+      <c r="G26" s="463"/>
+      <c r="H26" s="464"/>
+      <c r="I26" s="469" t="s">
         <v>460</v>
       </c>
-      <c r="J26" s="435"/>
-      <c r="K26" s="437"/>
+      <c r="J26" s="462"/>
+      <c r="K26" s="464"/>
       <c r="L26" s="117" t="s">
         <v>461</v>
       </c>
@@ -18624,30 +18860,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
-      <c r="D27" s="438"/>
-      <c r="E27" s="428"/>
-      <c r="F27" s="428"/>
-      <c r="G27" s="428"/>
-      <c r="H27" s="439"/>
-      <c r="I27" s="443"/>
-      <c r="J27" s="438"/>
-      <c r="K27" s="439"/>
-      <c r="L27" s="433" t="s">
+      <c r="D27" s="465"/>
+      <c r="E27" s="409"/>
+      <c r="F27" s="409"/>
+      <c r="G27" s="409"/>
+      <c r="H27" s="466"/>
+      <c r="I27" s="470"/>
+      <c r="J27" s="465"/>
+      <c r="K27" s="466"/>
+      <c r="L27" s="461" t="s">
         <v>465</v>
       </c>
-      <c r="M27" s="433"/>
-      <c r="N27" s="433"/>
+      <c r="M27" s="461"/>
+      <c r="N27" s="461"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
-      <c r="D28" s="438"/>
-      <c r="E28" s="428"/>
-      <c r="F28" s="428"/>
-      <c r="G28" s="428"/>
-      <c r="H28" s="439"/>
-      <c r="I28" s="443"/>
-      <c r="J28" s="438"/>
-      <c r="K28" s="439"/>
+      <c r="D28" s="465"/>
+      <c r="E28" s="409"/>
+      <c r="F28" s="409"/>
+      <c r="G28" s="409"/>
+      <c r="H28" s="466"/>
+      <c r="I28" s="470"/>
+      <c r="J28" s="465"/>
+      <c r="K28" s="466"/>
       <c r="L28" s="118" t="s">
         <v>460</v>
       </c>
@@ -18656,14 +18892,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
-      <c r="D29" s="440"/>
-      <c r="E29" s="420"/>
-      <c r="F29" s="420"/>
-      <c r="G29" s="420"/>
-      <c r="H29" s="441"/>
-      <c r="I29" s="444"/>
-      <c r="J29" s="440"/>
-      <c r="K29" s="441"/>
+      <c r="D29" s="467"/>
+      <c r="E29" s="449"/>
+      <c r="F29" s="449"/>
+      <c r="G29" s="449"/>
+      <c r="H29" s="468"/>
+      <c r="I29" s="471"/>
+      <c r="J29" s="467"/>
+      <c r="K29" s="468"/>
       <c r="L29" s="119" t="s">
         <v>466</v>
       </c>
@@ -18711,13 +18947,13 @@
       <c r="C33" s="116">
         <v>43908</v>
       </c>
-      <c r="D33" s="433" t="s">
+      <c r="D33" s="461" t="s">
         <v>456</v>
       </c>
-      <c r="E33" s="433"/>
-      <c r="F33" s="433"/>
-      <c r="G33" s="433"/>
-      <c r="H33" s="433"/>
+      <c r="E33" s="461"/>
+      <c r="F33" s="461"/>
+      <c r="G33" s="461"/>
+      <c r="H33" s="461"/>
       <c r="I33" s="38" t="s">
         <v>457</v>
       </c>
@@ -18728,33 +18964,33 @@
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="434">
+      <c r="C34" s="472">
         <v>43909</v>
       </c>
-      <c r="D34" s="433"/>
-      <c r="E34" s="433"/>
-      <c r="F34" s="433"/>
-      <c r="G34" s="433"/>
-      <c r="H34" s="433"/>
-      <c r="I34" s="445"/>
-      <c r="J34" s="433"/>
-      <c r="K34" s="433"/>
-      <c r="L34" s="433" t="s">
+      <c r="D34" s="461"/>
+      <c r="E34" s="461"/>
+      <c r="F34" s="461"/>
+      <c r="G34" s="461"/>
+      <c r="H34" s="461"/>
+      <c r="I34" s="473"/>
+      <c r="J34" s="461"/>
+      <c r="K34" s="461"/>
+      <c r="L34" s="461" t="s">
         <v>459</v>
       </c>
-      <c r="M34" s="433"/>
-      <c r="N34" s="433"/>
+      <c r="M34" s="461"/>
+      <c r="N34" s="461"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="434"/>
-      <c r="D35" s="433"/>
-      <c r="E35" s="433"/>
-      <c r="F35" s="433"/>
-      <c r="G35" s="433"/>
-      <c r="H35" s="433"/>
-      <c r="I35" s="446"/>
-      <c r="J35" s="433"/>
-      <c r="K35" s="433"/>
+      <c r="C35" s="472"/>
+      <c r="D35" s="461"/>
+      <c r="E35" s="461"/>
+      <c r="F35" s="461"/>
+      <c r="G35" s="461"/>
+      <c r="H35" s="461"/>
+      <c r="I35" s="474"/>
+      <c r="J35" s="461"/>
+      <c r="K35" s="461"/>
       <c r="L35" s="117" t="s">
         <v>461</v>
       </c>
@@ -18762,31 +18998,31 @@
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="434"/>
-      <c r="D36" s="433"/>
-      <c r="E36" s="433"/>
-      <c r="F36" s="433"/>
-      <c r="G36" s="433"/>
-      <c r="H36" s="433"/>
-      <c r="I36" s="446"/>
-      <c r="J36" s="433"/>
-      <c r="K36" s="433"/>
-      <c r="L36" s="433" t="s">
+      <c r="C36" s="472"/>
+      <c r="D36" s="461"/>
+      <c r="E36" s="461"/>
+      <c r="F36" s="461"/>
+      <c r="G36" s="461"/>
+      <c r="H36" s="461"/>
+      <c r="I36" s="474"/>
+      <c r="J36" s="461"/>
+      <c r="K36" s="461"/>
+      <c r="L36" s="461" t="s">
         <v>462</v>
       </c>
-      <c r="M36" s="433"/>
-      <c r="N36" s="433"/>
+      <c r="M36" s="461"/>
+      <c r="N36" s="461"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="434"/>
-      <c r="D37" s="433"/>
-      <c r="E37" s="433"/>
-      <c r="F37" s="433"/>
-      <c r="G37" s="433"/>
-      <c r="H37" s="433"/>
-      <c r="I37" s="447"/>
-      <c r="J37" s="433"/>
-      <c r="K37" s="433"/>
+      <c r="C37" s="472"/>
+      <c r="D37" s="461"/>
+      <c r="E37" s="461"/>
+      <c r="F37" s="461"/>
+      <c r="G37" s="461"/>
+      <c r="H37" s="461"/>
+      <c r="I37" s="475"/>
+      <c r="J37" s="461"/>
+      <c r="K37" s="461"/>
       <c r="L37" s="118" t="s">
         <v>467</v>
       </c>
@@ -18797,13 +19033,13 @@
       <c r="C38" s="116">
         <v>43910</v>
       </c>
-      <c r="D38" s="433" t="s">
+      <c r="D38" s="461" t="s">
         <v>463</v>
       </c>
-      <c r="E38" s="433"/>
-      <c r="F38" s="433"/>
-      <c r="G38" s="433"/>
-      <c r="H38" s="433"/>
+      <c r="E38" s="461"/>
+      <c r="F38" s="461"/>
+      <c r="G38" s="461"/>
+      <c r="H38" s="461"/>
       <c r="I38" s="38" t="s">
         <v>464</v>
       </c>
@@ -18817,14 +19053,14 @@
       <c r="C39" s="116">
         <v>43911</v>
       </c>
-      <c r="D39" s="435"/>
-      <c r="E39" s="436"/>
-      <c r="F39" s="436"/>
-      <c r="G39" s="436"/>
-      <c r="H39" s="437"/>
-      <c r="I39" s="442"/>
-      <c r="J39" s="435"/>
-      <c r="K39" s="437"/>
+      <c r="D39" s="462"/>
+      <c r="E39" s="463"/>
+      <c r="F39" s="463"/>
+      <c r="G39" s="463"/>
+      <c r="H39" s="464"/>
+      <c r="I39" s="469"/>
+      <c r="J39" s="462"/>
+      <c r="K39" s="464"/>
       <c r="L39" s="117" t="s">
         <v>461</v>
       </c>
@@ -18833,30 +19069,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
-      <c r="D40" s="438"/>
-      <c r="E40" s="428"/>
-      <c r="F40" s="428"/>
-      <c r="G40" s="428"/>
-      <c r="H40" s="439"/>
-      <c r="I40" s="443"/>
-      <c r="J40" s="438"/>
-      <c r="K40" s="439"/>
-      <c r="L40" s="433" t="s">
+      <c r="D40" s="465"/>
+      <c r="E40" s="409"/>
+      <c r="F40" s="409"/>
+      <c r="G40" s="409"/>
+      <c r="H40" s="466"/>
+      <c r="I40" s="470"/>
+      <c r="J40" s="465"/>
+      <c r="K40" s="466"/>
+      <c r="L40" s="461" t="s">
         <v>465</v>
       </c>
-      <c r="M40" s="433"/>
-      <c r="N40" s="433"/>
+      <c r="M40" s="461"/>
+      <c r="N40" s="461"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
-      <c r="D41" s="438"/>
-      <c r="E41" s="428"/>
-      <c r="F41" s="428"/>
-      <c r="G41" s="428"/>
-      <c r="H41" s="439"/>
-      <c r="I41" s="444"/>
-      <c r="J41" s="438"/>
-      <c r="K41" s="439"/>
+      <c r="D41" s="465"/>
+      <c r="E41" s="409"/>
+      <c r="F41" s="409"/>
+      <c r="G41" s="409"/>
+      <c r="H41" s="466"/>
+      <c r="I41" s="471"/>
+      <c r="J41" s="465"/>
+      <c r="K41" s="466"/>
       <c r="L41" s="118" t="s">
         <v>467</v>
       </c>
@@ -18865,16 +19101,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
-      <c r="D42" s="440"/>
-      <c r="E42" s="420"/>
-      <c r="F42" s="420"/>
-      <c r="G42" s="420"/>
-      <c r="H42" s="441"/>
+      <c r="D42" s="467"/>
+      <c r="E42" s="449"/>
+      <c r="F42" s="449"/>
+      <c r="G42" s="449"/>
+      <c r="H42" s="468"/>
       <c r="I42" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="J42" s="440"/>
-      <c r="K42" s="441"/>
+      <c r="J42" s="467"/>
+      <c r="K42" s="468"/>
       <c r="L42" s="119" t="s">
         <v>466</v>
       </c>
@@ -19186,17 +19422,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -19204,12 +19435,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19231,29 +19467,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="458" t="s">
+      <c r="B2" s="495" t="s">
         <v>1076</v>
       </c>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
-      <c r="F2" s="458"/>
-      <c r="G2" s="458"/>
-      <c r="H2" s="458"/>
-      <c r="I2" s="458"/>
-      <c r="J2" s="458"/>
-      <c r="K2" s="458"/>
-      <c r="L2" s="458"/>
-      <c r="M2" s="458"/>
-      <c r="N2" s="458"/>
-      <c r="O2" s="458"/>
-      <c r="P2" s="458"/>
-      <c r="Q2" s="458"/>
-      <c r="R2" s="458"/>
-      <c r="S2" s="458"/>
-      <c r="T2" s="458"/>
-      <c r="U2" s="458"/>
-      <c r="V2" s="458"/>
+      <c r="C2" s="495"/>
+      <c r="D2" s="495"/>
+      <c r="E2" s="495"/>
+      <c r="F2" s="495"/>
+      <c r="G2" s="495"/>
+      <c r="H2" s="495"/>
+      <c r="I2" s="495"/>
+      <c r="J2" s="495"/>
+      <c r="K2" s="495"/>
+      <c r="L2" s="495"/>
+      <c r="M2" s="495"/>
+      <c r="N2" s="495"/>
+      <c r="O2" s="495"/>
+      <c r="P2" s="495"/>
+      <c r="Q2" s="495"/>
+      <c r="R2" s="495"/>
+      <c r="S2" s="495"/>
+      <c r="T2" s="495"/>
+      <c r="U2" s="495"/>
+      <c r="V2" s="495"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -19286,22 +19522,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="461" t="s">
+      <c r="G5" s="476" t="s">
         <v>518</v>
       </c>
-      <c r="H5" s="461"/>
-      <c r="I5" s="461" t="s">
+      <c r="H5" s="476"/>
+      <c r="I5" s="476" t="s">
         <v>519</v>
       </c>
-      <c r="J5" s="461"/>
-      <c r="K5" s="461"/>
-      <c r="L5" s="461"/>
-      <c r="M5" s="461"/>
-      <c r="N5" s="461"/>
-      <c r="O5" s="461" t="s">
+      <c r="J5" s="476"/>
+      <c r="K5" s="476"/>
+      <c r="L5" s="476"/>
+      <c r="M5" s="476"/>
+      <c r="N5" s="476"/>
+      <c r="O5" s="476" t="s">
         <v>520</v>
       </c>
-      <c r="P5" s="461"/>
+      <c r="P5" s="476"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -19313,7 +19549,7 @@
       <c r="D6" s="135"/>
       <c r="E6" s="136"/>
       <c r="F6" s="138"/>
-      <c r="G6" s="466" t="s">
+      <c r="G6" s="477" t="s">
         <v>521</v>
       </c>
       <c r="H6" s="111"/>
@@ -19342,26 +19578,26 @@
       </c>
       <c r="E7" s="138"/>
       <c r="F7" s="138"/>
-      <c r="G7" s="379"/>
-      <c r="H7" s="467" t="s">
+      <c r="G7" s="404"/>
+      <c r="H7" s="478" t="s">
         <v>523</v>
       </c>
-      <c r="I7" s="470" t="s">
+      <c r="I7" s="481" t="s">
         <v>524</v>
       </c>
-      <c r="J7" s="471"/>
-      <c r="K7" s="472" t="s">
+      <c r="J7" s="482"/>
+      <c r="K7" s="483" t="s">
         <v>525</v>
       </c>
-      <c r="L7" s="473"/>
-      <c r="M7" s="470" t="s">
+      <c r="L7" s="484"/>
+      <c r="M7" s="481" t="s">
         <v>526</v>
       </c>
-      <c r="N7" s="471"/>
-      <c r="O7" s="478" t="s">
+      <c r="N7" s="482"/>
+      <c r="O7" s="489" t="s">
         <v>527</v>
       </c>
-      <c r="P7" s="479"/>
+      <c r="P7" s="490"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -19373,16 +19609,16 @@
       <c r="D8" s="139"/>
       <c r="E8" s="140"/>
       <c r="F8" s="138"/>
-      <c r="G8" s="379"/>
-      <c r="H8" s="468"/>
-      <c r="I8" s="374"/>
-      <c r="J8" s="376"/>
-      <c r="K8" s="474"/>
-      <c r="L8" s="475"/>
-      <c r="M8" s="374"/>
-      <c r="N8" s="376"/>
-      <c r="O8" s="480"/>
-      <c r="P8" s="481"/>
+      <c r="G8" s="404"/>
+      <c r="H8" s="479"/>
+      <c r="I8" s="395"/>
+      <c r="J8" s="397"/>
+      <c r="K8" s="485"/>
+      <c r="L8" s="486"/>
+      <c r="M8" s="395"/>
+      <c r="N8" s="397"/>
+      <c r="O8" s="491"/>
+      <c r="P8" s="492"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="38" t="s">
         <v>182</v>
@@ -19400,16 +19636,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="379"/>
-      <c r="H9" s="468"/>
-      <c r="I9" s="374"/>
-      <c r="J9" s="376"/>
-      <c r="K9" s="474"/>
-      <c r="L9" s="475"/>
-      <c r="M9" s="374"/>
-      <c r="N9" s="376"/>
-      <c r="O9" s="480"/>
-      <c r="P9" s="481"/>
+      <c r="G9" s="404"/>
+      <c r="H9" s="479"/>
+      <c r="I9" s="395"/>
+      <c r="J9" s="397"/>
+      <c r="K9" s="485"/>
+      <c r="L9" s="486"/>
+      <c r="M9" s="395"/>
+      <c r="N9" s="397"/>
+      <c r="O9" s="491"/>
+      <c r="P9" s="492"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -19429,16 +19665,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="379"/>
-      <c r="H10" s="468"/>
-      <c r="I10" s="374"/>
-      <c r="J10" s="376"/>
-      <c r="K10" s="474"/>
-      <c r="L10" s="475"/>
-      <c r="M10" s="374"/>
-      <c r="N10" s="376"/>
-      <c r="O10" s="480"/>
-      <c r="P10" s="481"/>
+      <c r="G10" s="404"/>
+      <c r="H10" s="479"/>
+      <c r="I10" s="395"/>
+      <c r="J10" s="397"/>
+      <c r="K10" s="485"/>
+      <c r="L10" s="486"/>
+      <c r="M10" s="395"/>
+      <c r="N10" s="397"/>
+      <c r="O10" s="491"/>
+      <c r="P10" s="492"/>
       <c r="Q10" s="5" t="s">
         <v>187</v>
       </c>
@@ -19454,16 +19690,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="379"/>
-      <c r="H11" s="468"/>
-      <c r="I11" s="374"/>
-      <c r="J11" s="376"/>
-      <c r="K11" s="474"/>
-      <c r="L11" s="475"/>
-      <c r="M11" s="374"/>
-      <c r="N11" s="376"/>
-      <c r="O11" s="480"/>
-      <c r="P11" s="481"/>
+      <c r="G11" s="404"/>
+      <c r="H11" s="479"/>
+      <c r="I11" s="395"/>
+      <c r="J11" s="397"/>
+      <c r="K11" s="485"/>
+      <c r="L11" s="486"/>
+      <c r="M11" s="395"/>
+      <c r="N11" s="397"/>
+      <c r="O11" s="491"/>
+      <c r="P11" s="492"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -19481,16 +19717,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="379"/>
-      <c r="H12" s="468"/>
-      <c r="I12" s="374"/>
-      <c r="J12" s="376"/>
-      <c r="K12" s="474"/>
-      <c r="L12" s="475"/>
-      <c r="M12" s="374"/>
-      <c r="N12" s="376"/>
-      <c r="O12" s="480"/>
-      <c r="P12" s="481"/>
+      <c r="G12" s="404"/>
+      <c r="H12" s="479"/>
+      <c r="I12" s="395"/>
+      <c r="J12" s="397"/>
+      <c r="K12" s="485"/>
+      <c r="L12" s="486"/>
+      <c r="M12" s="395"/>
+      <c r="N12" s="397"/>
+      <c r="O12" s="491"/>
+      <c r="P12" s="492"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -19504,16 +19740,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="379"/>
-      <c r="H13" s="468"/>
-      <c r="I13" s="374"/>
-      <c r="J13" s="376"/>
-      <c r="K13" s="474"/>
-      <c r="L13" s="475"/>
-      <c r="M13" s="374"/>
-      <c r="N13" s="376"/>
-      <c r="O13" s="480"/>
-      <c r="P13" s="481"/>
+      <c r="G13" s="404"/>
+      <c r="H13" s="479"/>
+      <c r="I13" s="395"/>
+      <c r="J13" s="397"/>
+      <c r="K13" s="485"/>
+      <c r="L13" s="486"/>
+      <c r="M13" s="395"/>
+      <c r="N13" s="397"/>
+      <c r="O13" s="491"/>
+      <c r="P13" s="492"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -19525,16 +19761,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="379"/>
-      <c r="H14" s="468"/>
-      <c r="I14" s="374"/>
-      <c r="J14" s="376"/>
-      <c r="K14" s="474"/>
-      <c r="L14" s="475"/>
-      <c r="M14" s="374"/>
-      <c r="N14" s="376"/>
-      <c r="O14" s="480"/>
-      <c r="P14" s="481"/>
+      <c r="G14" s="404"/>
+      <c r="H14" s="479"/>
+      <c r="I14" s="395"/>
+      <c r="J14" s="397"/>
+      <c r="K14" s="485"/>
+      <c r="L14" s="486"/>
+      <c r="M14" s="395"/>
+      <c r="N14" s="397"/>
+      <c r="O14" s="491"/>
+      <c r="P14" s="492"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -19548,16 +19784,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="379"/>
-      <c r="H15" s="468"/>
-      <c r="I15" s="374"/>
-      <c r="J15" s="376"/>
-      <c r="K15" s="474"/>
-      <c r="L15" s="475"/>
-      <c r="M15" s="374"/>
-      <c r="N15" s="376"/>
-      <c r="O15" s="480"/>
-      <c r="P15" s="481"/>
+      <c r="G15" s="404"/>
+      <c r="H15" s="479"/>
+      <c r="I15" s="395"/>
+      <c r="J15" s="397"/>
+      <c r="K15" s="485"/>
+      <c r="L15" s="486"/>
+      <c r="M15" s="395"/>
+      <c r="N15" s="397"/>
+      <c r="O15" s="491"/>
+      <c r="P15" s="492"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -19569,16 +19805,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="379"/>
-      <c r="H16" s="468"/>
-      <c r="I16" s="374"/>
-      <c r="J16" s="376"/>
-      <c r="K16" s="474"/>
-      <c r="L16" s="475"/>
-      <c r="M16" s="374"/>
-      <c r="N16" s="376"/>
-      <c r="O16" s="480"/>
-      <c r="P16" s="481"/>
+      <c r="G16" s="404"/>
+      <c r="H16" s="479"/>
+      <c r="I16" s="395"/>
+      <c r="J16" s="397"/>
+      <c r="K16" s="485"/>
+      <c r="L16" s="486"/>
+      <c r="M16" s="395"/>
+      <c r="N16" s="397"/>
+      <c r="O16" s="491"/>
+      <c r="P16" s="492"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -19590,16 +19826,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="379"/>
-      <c r="H17" s="468"/>
-      <c r="I17" s="374"/>
-      <c r="J17" s="376"/>
-      <c r="K17" s="474"/>
-      <c r="L17" s="475"/>
-      <c r="M17" s="374"/>
-      <c r="N17" s="376"/>
-      <c r="O17" s="480"/>
-      <c r="P17" s="481"/>
+      <c r="G17" s="404"/>
+      <c r="H17" s="479"/>
+      <c r="I17" s="395"/>
+      <c r="J17" s="397"/>
+      <c r="K17" s="485"/>
+      <c r="L17" s="486"/>
+      <c r="M17" s="395"/>
+      <c r="N17" s="397"/>
+      <c r="O17" s="491"/>
+      <c r="P17" s="492"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -19611,16 +19847,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="379"/>
-      <c r="H18" s="468"/>
-      <c r="I18" s="374"/>
-      <c r="J18" s="376"/>
-      <c r="K18" s="474"/>
-      <c r="L18" s="475"/>
-      <c r="M18" s="374"/>
-      <c r="N18" s="376"/>
-      <c r="O18" s="480"/>
-      <c r="P18" s="481"/>
+      <c r="G18" s="404"/>
+      <c r="H18" s="479"/>
+      <c r="I18" s="395"/>
+      <c r="J18" s="397"/>
+      <c r="K18" s="485"/>
+      <c r="L18" s="486"/>
+      <c r="M18" s="395"/>
+      <c r="N18" s="397"/>
+      <c r="O18" s="491"/>
+      <c r="P18" s="492"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -19634,16 +19870,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="379"/>
-      <c r="H19" s="468"/>
-      <c r="I19" s="374"/>
-      <c r="J19" s="376"/>
-      <c r="K19" s="474"/>
-      <c r="L19" s="475"/>
-      <c r="M19" s="374"/>
-      <c r="N19" s="376"/>
-      <c r="O19" s="480"/>
-      <c r="P19" s="481"/>
+      <c r="G19" s="404"/>
+      <c r="H19" s="479"/>
+      <c r="I19" s="395"/>
+      <c r="J19" s="397"/>
+      <c r="K19" s="485"/>
+      <c r="L19" s="486"/>
+      <c r="M19" s="395"/>
+      <c r="N19" s="397"/>
+      <c r="O19" s="491"/>
+      <c r="P19" s="492"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -19655,16 +19891,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="380"/>
-      <c r="H20" s="469"/>
-      <c r="I20" s="394"/>
-      <c r="J20" s="396"/>
-      <c r="K20" s="476"/>
-      <c r="L20" s="477"/>
-      <c r="M20" s="394"/>
-      <c r="N20" s="396"/>
-      <c r="O20" s="482"/>
-      <c r="P20" s="483"/>
+      <c r="G20" s="405"/>
+      <c r="H20" s="480"/>
+      <c r="I20" s="400"/>
+      <c r="J20" s="402"/>
+      <c r="K20" s="487"/>
+      <c r="L20" s="488"/>
+      <c r="M20" s="400"/>
+      <c r="N20" s="402"/>
+      <c r="O20" s="493"/>
+      <c r="P20" s="494"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -19694,27 +19930,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="397" t="s">
+      <c r="D22" s="425" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="398"/>
+      <c r="E22" s="426"/>
       <c r="F22" s="265"/>
       <c r="G22" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="397" t="s">
+      <c r="H22" s="425" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="399"/>
-      <c r="J22" s="399"/>
-      <c r="K22" s="399"/>
-      <c r="L22" s="399"/>
-      <c r="M22" s="399"/>
-      <c r="N22" s="398"/>
-      <c r="O22" s="397" t="s">
+      <c r="I22" s="427"/>
+      <c r="J22" s="427"/>
+      <c r="K22" s="427"/>
+      <c r="L22" s="427"/>
+      <c r="M22" s="427"/>
+      <c r="N22" s="426"/>
+      <c r="O22" s="425" t="s">
         <v>528</v>
       </c>
-      <c r="P22" s="398"/>
+      <c r="P22" s="426"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -19745,59 +19981,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="458" t="s">
+      <c r="B25" s="495" t="s">
         <v>1075</v>
       </c>
-      <c r="C25" s="458"/>
-      <c r="D25" s="458"/>
-      <c r="E25" s="458"/>
-      <c r="F25" s="458"/>
-      <c r="G25" s="458"/>
-      <c r="H25" s="458"/>
-      <c r="I25" s="458"/>
-      <c r="J25" s="458"/>
-      <c r="K25" s="458"/>
-      <c r="L25" s="458"/>
-      <c r="M25" s="458"/>
-      <c r="N25" s="458"/>
-      <c r="O25" s="458"/>
-      <c r="P25" s="458"/>
-      <c r="Q25" s="458"/>
-      <c r="R25" s="458"/>
-      <c r="S25" s="458"/>
-      <c r="T25" s="458"/>
-      <c r="U25" s="458"/>
-      <c r="V25" s="458"/>
+      <c r="C25" s="495"/>
+      <c r="D25" s="495"/>
+      <c r="E25" s="495"/>
+      <c r="F25" s="495"/>
+      <c r="G25" s="495"/>
+      <c r="H25" s="495"/>
+      <c r="I25" s="495"/>
+      <c r="J25" s="495"/>
+      <c r="K25" s="495"/>
+      <c r="L25" s="495"/>
+      <c r="M25" s="495"/>
+      <c r="N25" s="495"/>
+      <c r="O25" s="495"/>
+      <c r="P25" s="495"/>
+      <c r="Q25" s="495"/>
+      <c r="R25" s="495"/>
+      <c r="S25" s="495"/>
+      <c r="T25" s="495"/>
+      <c r="U25" s="495"/>
+      <c r="V25" s="495"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="459" t="s">
+      <c r="C26" s="496" t="s">
         <v>570</v>
       </c>
-      <c r="D26" s="459"/>
-      <c r="E26" s="459"/>
-      <c r="F26" s="459"/>
-      <c r="G26" s="459"/>
-      <c r="H26" s="459"/>
-      <c r="I26" s="459"/>
-      <c r="J26" s="459"/>
-      <c r="K26" s="459"/>
-      <c r="L26" s="459"/>
-      <c r="M26" s="459"/>
+      <c r="D26" s="496"/>
+      <c r="E26" s="496"/>
+      <c r="F26" s="496"/>
+      <c r="G26" s="496"/>
+      <c r="H26" s="496"/>
+      <c r="I26" s="496"/>
+      <c r="J26" s="496"/>
+      <c r="K26" s="496"/>
+      <c r="L26" s="496"/>
+      <c r="M26" s="496"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="429" t="s">
+      <c r="E27" s="451" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="370"/>
-      <c r="G27" s="370"/>
-      <c r="H27" s="388"/>
-      <c r="I27" s="388"/>
-      <c r="J27" s="388"/>
-      <c r="K27" s="388"/>
-      <c r="L27" s="388"/>
-      <c r="M27" s="389"/>
+      <c r="F27" s="391"/>
+      <c r="G27" s="391"/>
+      <c r="H27" s="420"/>
+      <c r="I27" s="420"/>
+      <c r="J27" s="420"/>
+      <c r="K27" s="420"/>
+      <c r="L27" s="420"/>
+      <c r="M27" s="421"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -19830,11 +20066,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="460" t="s">
+      <c r="O29" s="497" t="s">
         <v>179</v>
       </c>
-      <c r="P29" s="460"/>
-      <c r="Q29" s="460"/>
+      <c r="P29" s="497"/>
+      <c r="Q29" s="497"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -19879,21 +20115,21 @@
         <v>190</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="455" t="s">
+      <c r="E32" s="501" t="s">
         <v>1079</v>
       </c>
-      <c r="F32" s="456"/>
-      <c r="G32" s="457"/>
-      <c r="H32" s="455" t="s">
+      <c r="F32" s="502"/>
+      <c r="G32" s="503"/>
+      <c r="H32" s="501" t="s">
         <v>1080</v>
       </c>
-      <c r="I32" s="456"/>
-      <c r="J32" s="457"/>
-      <c r="K32" s="455" t="s">
+      <c r="I32" s="502"/>
+      <c r="J32" s="503"/>
+      <c r="K32" s="501" t="s">
         <v>1081</v>
       </c>
-      <c r="L32" s="456"/>
-      <c r="M32" s="457"/>
+      <c r="L32" s="502"/>
+      <c r="M32" s="503"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -19910,15 +20146,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="455"/>
-      <c r="F33" s="456"/>
-      <c r="G33" s="457"/>
-      <c r="H33" s="455"/>
-      <c r="I33" s="456"/>
-      <c r="J33" s="457"/>
-      <c r="K33" s="455"/>
-      <c r="L33" s="456"/>
-      <c r="M33" s="457"/>
+      <c r="E33" s="501"/>
+      <c r="F33" s="502"/>
+      <c r="G33" s="503"/>
+      <c r="H33" s="501"/>
+      <c r="I33" s="502"/>
+      <c r="J33" s="503"/>
+      <c r="K33" s="501"/>
+      <c r="L33" s="502"/>
+      <c r="M33" s="503"/>
       <c r="N33" s="5" t="s">
         <v>187</v>
       </c>
@@ -19935,15 +20171,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="455"/>
-      <c r="F34" s="456"/>
-      <c r="G34" s="457"/>
-      <c r="H34" s="455"/>
-      <c r="I34" s="456"/>
-      <c r="J34" s="457"/>
-      <c r="K34" s="455"/>
-      <c r="L34" s="456"/>
-      <c r="M34" s="457"/>
+      <c r="E34" s="501"/>
+      <c r="F34" s="502"/>
+      <c r="G34" s="503"/>
+      <c r="H34" s="501"/>
+      <c r="I34" s="502"/>
+      <c r="J34" s="503"/>
+      <c r="K34" s="501"/>
+      <c r="L34" s="502"/>
+      <c r="M34" s="503"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -19954,15 +20190,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="455"/>
-      <c r="F35" s="456"/>
-      <c r="G35" s="457"/>
-      <c r="H35" s="455"/>
-      <c r="I35" s="456"/>
-      <c r="J35" s="457"/>
-      <c r="K35" s="455"/>
-      <c r="L35" s="456"/>
-      <c r="M35" s="457"/>
+      <c r="E35" s="501"/>
+      <c r="F35" s="502"/>
+      <c r="G35" s="503"/>
+      <c r="H35" s="501"/>
+      <c r="I35" s="502"/>
+      <c r="J35" s="503"/>
+      <c r="K35" s="501"/>
+      <c r="L35" s="502"/>
+      <c r="M35" s="503"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -20093,15 +20329,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="448"/>
-      <c r="F42" s="449"/>
-      <c r="G42" s="449"/>
-      <c r="H42" s="449"/>
-      <c r="I42" s="449"/>
-      <c r="J42" s="449"/>
-      <c r="K42" s="449"/>
-      <c r="L42" s="449"/>
-      <c r="M42" s="450"/>
+      <c r="E42" s="505"/>
+      <c r="F42" s="506"/>
+      <c r="G42" s="506"/>
+      <c r="H42" s="506"/>
+      <c r="I42" s="506"/>
+      <c r="J42" s="506"/>
+      <c r="K42" s="506"/>
+      <c r="L42" s="506"/>
+      <c r="M42" s="507"/>
       <c r="N42" s="40" t="s">
         <v>575</v>
       </c>
@@ -20120,83 +20356,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="397" t="s">
+      <c r="C44" s="425" t="s">
         <v>194</v>
       </c>
-      <c r="D44" s="398"/>
-      <c r="E44" s="397" t="s">
+      <c r="D44" s="426"/>
+      <c r="E44" s="425" t="s">
         <v>195</v>
       </c>
-      <c r="F44" s="399"/>
-      <c r="G44" s="398"/>
-      <c r="H44" s="397" t="s">
+      <c r="F44" s="427"/>
+      <c r="G44" s="426"/>
+      <c r="H44" s="425" t="s">
         <v>196</v>
       </c>
-      <c r="I44" s="399"/>
-      <c r="J44" s="399"/>
-      <c r="K44" s="399"/>
-      <c r="L44" s="399"/>
-      <c r="M44" s="398"/>
+      <c r="I44" s="427"/>
+      <c r="J44" s="427"/>
+      <c r="K44" s="427"/>
+      <c r="L44" s="427"/>
+      <c r="M44" s="426"/>
       <c r="Q44" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="458" t="s">
+      <c r="B47" s="495" t="s">
         <v>1077</v>
       </c>
-      <c r="C47" s="458"/>
-      <c r="D47" s="458"/>
-      <c r="E47" s="458"/>
-      <c r="F47" s="458"/>
-      <c r="G47" s="458"/>
-      <c r="H47" s="458"/>
-      <c r="I47" s="458"/>
-      <c r="J47" s="458"/>
-      <c r="K47" s="458"/>
-      <c r="L47" s="458"/>
-      <c r="M47" s="458"/>
-      <c r="N47" s="458"/>
-      <c r="O47" s="458"/>
-      <c r="P47" s="458"/>
-      <c r="Q47" s="458"/>
-      <c r="R47" s="458"/>
-      <c r="S47" s="458"/>
-      <c r="T47" s="458"/>
-      <c r="U47" s="458"/>
-      <c r="V47" s="458"/>
+      <c r="C47" s="495"/>
+      <c r="D47" s="495"/>
+      <c r="E47" s="495"/>
+      <c r="F47" s="495"/>
+      <c r="G47" s="495"/>
+      <c r="H47" s="495"/>
+      <c r="I47" s="495"/>
+      <c r="J47" s="495"/>
+      <c r="K47" s="495"/>
+      <c r="L47" s="495"/>
+      <c r="M47" s="495"/>
+      <c r="N47" s="495"/>
+      <c r="O47" s="495"/>
+      <c r="P47" s="495"/>
+      <c r="Q47" s="495"/>
+      <c r="R47" s="495"/>
+      <c r="S47" s="495"/>
+      <c r="T47" s="495"/>
+      <c r="U47" s="495"/>
+      <c r="V47" s="495"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="459" t="s">
+      <c r="C48" s="496" t="s">
         <v>570</v>
       </c>
-      <c r="D48" s="459"/>
-      <c r="E48" s="459"/>
-      <c r="F48" s="459"/>
-      <c r="G48" s="459"/>
-      <c r="H48" s="459"/>
-      <c r="I48" s="459"/>
-      <c r="J48" s="459"/>
-      <c r="K48" s="459"/>
-      <c r="L48" s="459"/>
-      <c r="M48" s="459"/>
+      <c r="D48" s="496"/>
+      <c r="E48" s="496"/>
+      <c r="F48" s="496"/>
+      <c r="G48" s="496"/>
+      <c r="H48" s="496"/>
+      <c r="I48" s="496"/>
+      <c r="J48" s="496"/>
+      <c r="K48" s="496"/>
+      <c r="L48" s="496"/>
+      <c r="M48" s="496"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="429" t="s">
+      <c r="E49" s="451" t="s">
         <v>178</v>
       </c>
-      <c r="F49" s="370"/>
-      <c r="G49" s="370"/>
-      <c r="H49" s="388"/>
-      <c r="I49" s="388"/>
-      <c r="J49" s="388"/>
-      <c r="K49" s="388"/>
-      <c r="L49" s="388"/>
-      <c r="M49" s="389"/>
+      <c r="F49" s="391"/>
+      <c r="G49" s="391"/>
+      <c r="H49" s="420"/>
+      <c r="I49" s="420"/>
+      <c r="J49" s="420"/>
+      <c r="K49" s="420"/>
+      <c r="L49" s="420"/>
+      <c r="M49" s="421"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -20214,16 +20450,16 @@
       </c>
       <c r="F50" s="122"/>
       <c r="G50" s="245"/>
-      <c r="H50" s="462" t="s">
+      <c r="H50" s="498" t="s">
         <v>1080</v>
       </c>
-      <c r="I50" s="463"/>
-      <c r="J50" s="464"/>
-      <c r="K50" s="462" t="s">
+      <c r="I50" s="499"/>
+      <c r="J50" s="500"/>
+      <c r="K50" s="498" t="s">
         <v>1081</v>
       </c>
-      <c r="L50" s="463"/>
-      <c r="M50" s="464"/>
+      <c r="L50" s="499"/>
+      <c r="M50" s="500"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -20237,20 +20473,20 @@
         <v>1095</v>
       </c>
       <c r="F51" s="286"/>
-      <c r="G51" s="465" t="s">
+      <c r="G51" s="504" t="s">
         <v>1103</v>
       </c>
-      <c r="H51" s="455"/>
-      <c r="I51" s="456"/>
-      <c r="J51" s="457"/>
-      <c r="K51" s="455"/>
-      <c r="L51" s="456"/>
-      <c r="M51" s="457"/>
-      <c r="O51" s="460" t="s">
+      <c r="H51" s="501"/>
+      <c r="I51" s="502"/>
+      <c r="J51" s="503"/>
+      <c r="K51" s="501"/>
+      <c r="L51" s="502"/>
+      <c r="M51" s="503"/>
+      <c r="O51" s="497" t="s">
         <v>179</v>
       </c>
-      <c r="P51" s="460"/>
-      <c r="Q51" s="460"/>
+      <c r="P51" s="497"/>
+      <c r="Q51" s="497"/>
       <c r="S51" s="273"/>
       <c r="T51" s="273"/>
       <c r="W51" s="40" t="s">
@@ -20264,13 +20500,13 @@
         <v>1096</v>
       </c>
       <c r="F52" s="287"/>
-      <c r="G52" s="465"/>
-      <c r="H52" s="455"/>
-      <c r="I52" s="456"/>
-      <c r="J52" s="457"/>
-      <c r="K52" s="455"/>
-      <c r="L52" s="456"/>
-      <c r="M52" s="457"/>
+      <c r="G52" s="504"/>
+      <c r="H52" s="501"/>
+      <c r="I52" s="502"/>
+      <c r="J52" s="503"/>
+      <c r="K52" s="501"/>
+      <c r="L52" s="502"/>
+      <c r="M52" s="503"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -20281,13 +20517,13 @@
         <v>1097</v>
       </c>
       <c r="F53" s="288"/>
-      <c r="G53" s="465"/>
-      <c r="H53" s="455"/>
-      <c r="I53" s="456"/>
-      <c r="J53" s="457"/>
-      <c r="K53" s="455"/>
-      <c r="L53" s="456"/>
-      <c r="M53" s="457"/>
+      <c r="G53" s="504"/>
+      <c r="H53" s="501"/>
+      <c r="I53" s="502"/>
+      <c r="J53" s="503"/>
+      <c r="K53" s="501"/>
+      <c r="L53" s="502"/>
+      <c r="M53" s="503"/>
       <c r="N53" s="5"/>
       <c r="O53" s="38" t="s">
         <v>182</v>
@@ -20326,7 +20562,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="274"/>
       <c r="F54" s="289"/>
-      <c r="G54" s="453" t="s">
+      <c r="G54" s="510" t="s">
         <v>1107</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -20373,11 +20609,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="451" t="s">
+      <c r="E55" s="508" t="s">
         <v>1108</v>
       </c>
-      <c r="F55" s="452"/>
-      <c r="G55" s="454"/>
+      <c r="F55" s="509"/>
+      <c r="G55" s="511"/>
       <c r="H55" s="141" t="s">
         <v>1099</v>
       </c>
@@ -20421,9 +20657,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="451"/>
-      <c r="F56" s="452"/>
-      <c r="G56" s="454"/>
+      <c r="E56" s="508"/>
+      <c r="F56" s="509"/>
+      <c r="G56" s="511"/>
       <c r="H56" s="141" t="s">
         <v>1100</v>
       </c>
@@ -20453,9 +20689,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="451"/>
-      <c r="F57" s="452"/>
-      <c r="G57" s="454"/>
+      <c r="E57" s="508"/>
+      <c r="F57" s="509"/>
+      <c r="G57" s="511"/>
       <c r="H57" s="4" t="s">
         <v>1112</v>
       </c>
@@ -20485,9 +20721,9 @@
         <v>192</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="451"/>
-      <c r="F58" s="452"/>
-      <c r="G58" s="454"/>
+      <c r="E58" s="508"/>
+      <c r="F58" s="509"/>
+      <c r="G58" s="511"/>
       <c r="H58" s="278" t="s">
         <v>1098</v>
       </c>
@@ -20512,9 +20748,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="451"/>
-      <c r="F59" s="452"/>
-      <c r="G59" s="454"/>
+      <c r="E59" s="508"/>
+      <c r="F59" s="509"/>
+      <c r="G59" s="511"/>
       <c r="H59" s="278" t="s">
         <v>549</v>
       </c>
@@ -20539,9 +20775,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="451"/>
-      <c r="F60" s="452"/>
-      <c r="G60" s="454"/>
+      <c r="E60" s="508"/>
+      <c r="F60" s="509"/>
+      <c r="G60" s="511"/>
       <c r="H60" s="280"/>
       <c r="I60" s="281" t="s">
         <v>1114</v>
@@ -20561,9 +20797,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="451"/>
-      <c r="F61" s="452"/>
-      <c r="G61" s="454"/>
+      <c r="E61" s="508"/>
+      <c r="F61" s="509"/>
+      <c r="G61" s="511"/>
       <c r="H61" s="280"/>
       <c r="I61" s="281" t="s">
         <v>1115</v>
@@ -20583,7 +20819,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="269"/>
       <c r="F62" s="285"/>
-      <c r="G62" s="454"/>
+      <c r="G62" s="511"/>
       <c r="H62" s="282"/>
       <c r="I62" s="284" t="s">
         <v>1116</v>
@@ -20625,15 +20861,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="448"/>
-      <c r="F64" s="449"/>
-      <c r="G64" s="449"/>
-      <c r="H64" s="449"/>
-      <c r="I64" s="449"/>
-      <c r="J64" s="449"/>
-      <c r="K64" s="449"/>
-      <c r="L64" s="449"/>
-      <c r="M64" s="450"/>
+      <c r="E64" s="505"/>
+      <c r="F64" s="506"/>
+      <c r="G64" s="506"/>
+      <c r="H64" s="506"/>
+      <c r="I64" s="506"/>
+      <c r="J64" s="506"/>
+      <c r="K64" s="506"/>
+      <c r="L64" s="506"/>
+      <c r="M64" s="507"/>
       <c r="N64" s="40" t="s">
         <v>575</v>
       </c>
@@ -20662,23 +20898,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="397" t="s">
+      <c r="C66" s="425" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="398"/>
-      <c r="E66" s="397" t="s">
+      <c r="D66" s="426"/>
+      <c r="E66" s="425" t="s">
         <v>195</v>
       </c>
-      <c r="F66" s="399"/>
-      <c r="G66" s="398"/>
-      <c r="H66" s="397" t="s">
+      <c r="F66" s="427"/>
+      <c r="G66" s="426"/>
+      <c r="H66" s="425" t="s">
         <v>196</v>
       </c>
-      <c r="I66" s="399"/>
-      <c r="J66" s="399"/>
-      <c r="K66" s="399"/>
-      <c r="L66" s="399"/>
-      <c r="M66" s="398"/>
+      <c r="I66" s="427"/>
+      <c r="J66" s="427"/>
+      <c r="K66" s="427"/>
+      <c r="L66" s="427"/>
+      <c r="M66" s="426"/>
       <c r="Q66" t="s">
         <v>1078</v>
       </c>
@@ -20699,23 +20935,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="433" t="s">
+      <c r="C68" s="461" t="s">
         <v>181</v>
       </c>
-      <c r="D68" s="433"/>
-      <c r="E68" s="433" t="s">
+      <c r="D68" s="461"/>
+      <c r="E68" s="461" t="s">
         <v>1364</v>
       </c>
-      <c r="F68" s="433"/>
-      <c r="G68" s="433"/>
-      <c r="H68" s="433" t="s">
+      <c r="F68" s="461"/>
+      <c r="G68" s="461"/>
+      <c r="H68" s="461" t="s">
         <v>1380</v>
       </c>
-      <c r="I68" s="433"/>
-      <c r="J68" s="433"/>
-      <c r="K68" s="433"/>
-      <c r="L68" s="433"/>
-      <c r="M68" s="433"/>
+      <c r="I68" s="461"/>
+      <c r="J68" s="461"/>
+      <c r="K68" s="461"/>
+      <c r="L68" s="461"/>
+      <c r="M68" s="461"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -21512,6 +21748,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -21528,30 +21788,6 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -21585,12 +21821,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="484" t="s">
+      <c r="B1" s="512" t="s">
         <v>538</v>
       </c>
-      <c r="C1" s="484"/>
-      <c r="D1" s="484"/>
-      <c r="E1" s="484"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
       <c r="I1" s="40" t="s">
         <v>551</v>
       </c>
@@ -21707,12 +21943,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="428" t="s">
+      <c r="B8" s="409" t="s">
         <v>1402</v>
       </c>
-      <c r="C8" s="428"/>
-      <c r="D8" s="428"/>
-      <c r="E8" s="428"/>
+      <c r="C8" s="409"/>
+      <c r="D8" s="409"/>
+      <c r="E8" s="409"/>
       <c r="J8" s="32" t="s">
         <v>554</v>
       </c>
@@ -21885,32 +22121,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="459" t="s">
+      <c r="C2" s="496" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="459"/>
-      <c r="E2" s="459"/>
-      <c r="F2" s="459"/>
-      <c r="G2" s="459"/>
-      <c r="H2" s="459"/>
-      <c r="I2" s="459"/>
-      <c r="J2" s="459"/>
-      <c r="K2" s="459"/>
-      <c r="L2" s="459"/>
+      <c r="D2" s="496"/>
+      <c r="E2" s="496"/>
+      <c r="F2" s="496"/>
+      <c r="G2" s="496"/>
+      <c r="H2" s="496"/>
+      <c r="I2" s="496"/>
+      <c r="J2" s="496"/>
+      <c r="K2" s="496"/>
+      <c r="L2" s="496"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="429" t="s">
+      <c r="E3" s="451" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="370"/>
-      <c r="G3" s="388"/>
-      <c r="H3" s="388"/>
-      <c r="I3" s="388"/>
-      <c r="J3" s="388"/>
-      <c r="K3" s="388"/>
-      <c r="L3" s="389"/>
+      <c r="F3" s="391"/>
+      <c r="G3" s="420"/>
+      <c r="H3" s="420"/>
+      <c r="I3" s="420"/>
+      <c r="J3" s="420"/>
+      <c r="K3" s="420"/>
+      <c r="L3" s="421"/>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
@@ -21941,11 +22177,11 @@
         <v>589</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="460" t="s">
+      <c r="N5" s="497" t="s">
         <v>179</v>
       </c>
-      <c r="O5" s="460"/>
-      <c r="P5" s="460"/>
+      <c r="O5" s="497"/>
+      <c r="P5" s="497"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -21996,20 +22232,20 @@
         <v>190</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="455" t="s">
+      <c r="E8" s="501" t="s">
         <v>571</v>
       </c>
-      <c r="F8" s="457"/>
-      <c r="G8" s="455" t="s">
+      <c r="F8" s="503"/>
+      <c r="G8" s="501" t="s">
         <v>572</v>
       </c>
-      <c r="H8" s="456"/>
-      <c r="I8" s="457"/>
-      <c r="J8" s="455" t="s">
+      <c r="H8" s="502"/>
+      <c r="I8" s="503"/>
+      <c r="J8" s="501" t="s">
         <v>573</v>
       </c>
-      <c r="K8" s="456"/>
-      <c r="L8" s="457"/>
+      <c r="K8" s="502"/>
+      <c r="L8" s="503"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -22032,14 +22268,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="455"/>
-      <c r="F9" s="457"/>
-      <c r="G9" s="455"/>
-      <c r="H9" s="456"/>
-      <c r="I9" s="457"/>
-      <c r="J9" s="455"/>
-      <c r="K9" s="456"/>
-      <c r="L9" s="457"/>
+      <c r="E9" s="501"/>
+      <c r="F9" s="503"/>
+      <c r="G9" s="501"/>
+      <c r="H9" s="502"/>
+      <c r="I9" s="503"/>
+      <c r="J9" s="501"/>
+      <c r="K9" s="502"/>
+      <c r="L9" s="503"/>
       <c r="M9" s="5" t="s">
         <v>187</v>
       </c>
@@ -22059,14 +22295,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="455"/>
-      <c r="F10" s="457"/>
-      <c r="G10" s="455"/>
-      <c r="H10" s="456"/>
-      <c r="I10" s="457"/>
-      <c r="J10" s="455"/>
-      <c r="K10" s="456"/>
-      <c r="L10" s="457"/>
+      <c r="E10" s="501"/>
+      <c r="F10" s="503"/>
+      <c r="G10" s="501"/>
+      <c r="H10" s="502"/>
+      <c r="I10" s="503"/>
+      <c r="J10" s="501"/>
+      <c r="K10" s="502"/>
+      <c r="L10" s="503"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -22080,14 +22316,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="455"/>
-      <c r="F11" s="457"/>
-      <c r="G11" s="455"/>
-      <c r="H11" s="456"/>
-      <c r="I11" s="457"/>
-      <c r="J11" s="455"/>
-      <c r="K11" s="456"/>
-      <c r="L11" s="457"/>
+      <c r="E11" s="501"/>
+      <c r="F11" s="503"/>
+      <c r="G11" s="501"/>
+      <c r="H11" s="502"/>
+      <c r="I11" s="503"/>
+      <c r="J11" s="501"/>
+      <c r="K11" s="502"/>
+      <c r="L11" s="503"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -22190,16 +22426,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="448" t="s">
+      <c r="E17" s="505" t="s">
         <v>574</v>
       </c>
-      <c r="F17" s="449"/>
-      <c r="G17" s="449"/>
-      <c r="H17" s="449"/>
-      <c r="I17" s="449"/>
-      <c r="J17" s="449"/>
-      <c r="K17" s="449"/>
-      <c r="L17" s="450"/>
+      <c r="F17" s="506"/>
+      <c r="G17" s="506"/>
+      <c r="H17" s="506"/>
+      <c r="I17" s="506"/>
+      <c r="J17" s="506"/>
+      <c r="K17" s="506"/>
+      <c r="L17" s="507"/>
       <c r="M17" s="40" t="s">
         <v>575</v>
       </c>
@@ -22217,40 +22453,40 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="397" t="s">
+      <c r="C19" s="425" t="s">
         <v>194</v>
       </c>
-      <c r="D19" s="398"/>
-      <c r="E19" s="397" t="s">
+      <c r="D19" s="426"/>
+      <c r="E19" s="425" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="398"/>
-      <c r="G19" s="397" t="s">
+      <c r="F19" s="426"/>
+      <c r="G19" s="425" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="399"/>
-      <c r="I19" s="399"/>
-      <c r="J19" s="399"/>
-      <c r="K19" s="399"/>
-      <c r="L19" s="398"/>
+      <c r="H19" s="427"/>
+      <c r="I19" s="427"/>
+      <c r="J19" s="427"/>
+      <c r="K19" s="427"/>
+      <c r="L19" s="426"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="485" t="s">
+      <c r="E21" s="513" t="s">
         <v>1393</v>
       </c>
-      <c r="F21" s="486"/>
+      <c r="F21" s="514"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="E22" s="487"/>
-      <c r="F22" s="488"/>
+      <c r="E22" s="408"/>
+      <c r="F22" s="515"/>
       <c r="J22" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="E23" s="487"/>
-      <c r="F23" s="488"/>
+      <c r="E23" s="408"/>
+      <c r="F23" s="515"/>
       <c r="H23" t="s">
         <v>1414</v>
       </c>
@@ -22262,8 +22498,8 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="489"/>
-      <c r="F24" s="490"/>
+      <c r="E24" s="516"/>
+      <c r="F24" s="517"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -22718,22 +22954,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="461" t="s">
+      <c r="E3" s="476" t="s">
         <v>518</v>
       </c>
-      <c r="F3" s="461"/>
-      <c r="G3" s="461" t="s">
+      <c r="F3" s="476"/>
+      <c r="G3" s="476" t="s">
         <v>519</v>
       </c>
-      <c r="H3" s="461"/>
-      <c r="I3" s="461"/>
-      <c r="J3" s="461"/>
-      <c r="K3" s="461"/>
-      <c r="L3" s="461"/>
-      <c r="M3" s="461" t="s">
+      <c r="H3" s="476"/>
+      <c r="I3" s="476"/>
+      <c r="J3" s="476"/>
+      <c r="K3" s="476"/>
+      <c r="L3" s="476"/>
+      <c r="M3" s="476" t="s">
         <v>520</v>
       </c>
-      <c r="N3" s="461"/>
+      <c r="N3" s="476"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -22744,7 +22980,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="135"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="466" t="s">
+      <c r="E4" s="477" t="s">
         <v>521</v>
       </c>
       <c r="F4" s="131"/>
@@ -22772,22 +23008,22 @@
         <v>181</v>
       </c>
       <c r="D5" s="138"/>
-      <c r="E5" s="379"/>
-      <c r="F5" s="407" t="s">
+      <c r="E5" s="404"/>
+      <c r="F5" s="438" t="s">
         <v>617</v>
       </c>
-      <c r="G5" s="408"/>
-      <c r="H5" s="409"/>
-      <c r="I5" s="491" t="s">
+      <c r="G5" s="439"/>
+      <c r="H5" s="440"/>
+      <c r="I5" s="546" t="s">
         <v>618</v>
       </c>
-      <c r="J5" s="492"/>
-      <c r="K5" s="492"/>
-      <c r="L5" s="473"/>
-      <c r="M5" s="491" t="s">
+      <c r="J5" s="547"/>
+      <c r="K5" s="547"/>
+      <c r="L5" s="484"/>
+      <c r="M5" s="546" t="s">
         <v>619</v>
       </c>
-      <c r="N5" s="473"/>
+      <c r="N5" s="484"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -22798,16 +23034,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="139"/>
       <c r="D6" s="140"/>
-      <c r="E6" s="379"/>
-      <c r="F6" s="410"/>
-      <c r="G6" s="411"/>
-      <c r="H6" s="412"/>
-      <c r="I6" s="474"/>
-      <c r="J6" s="493"/>
-      <c r="K6" s="493"/>
-      <c r="L6" s="475"/>
-      <c r="M6" s="474"/>
-      <c r="N6" s="475"/>
+      <c r="E6" s="404"/>
+      <c r="F6" s="441"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="485"/>
+      <c r="J6" s="548"/>
+      <c r="K6" s="548"/>
+      <c r="L6" s="486"/>
+      <c r="M6" s="485"/>
+      <c r="N6" s="486"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>182</v>
@@ -22824,16 +23060,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="410"/>
-      <c r="G7" s="411"/>
-      <c r="H7" s="412"/>
-      <c r="I7" s="474"/>
-      <c r="J7" s="493"/>
-      <c r="K7" s="493"/>
-      <c r="L7" s="475"/>
-      <c r="M7" s="474"/>
-      <c r="N7" s="475"/>
+      <c r="E7" s="404"/>
+      <c r="F7" s="441"/>
+      <c r="G7" s="442"/>
+      <c r="H7" s="443"/>
+      <c r="I7" s="485"/>
+      <c r="J7" s="548"/>
+      <c r="K7" s="548"/>
+      <c r="L7" s="486"/>
+      <c r="M7" s="485"/>
+      <c r="N7" s="486"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -22852,16 +23088,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="379"/>
-      <c r="F8" s="410"/>
-      <c r="G8" s="411"/>
-      <c r="H8" s="412"/>
-      <c r="I8" s="474"/>
-      <c r="J8" s="493"/>
-      <c r="K8" s="493"/>
-      <c r="L8" s="475"/>
-      <c r="M8" s="474"/>
-      <c r="N8" s="475"/>
+      <c r="E8" s="404"/>
+      <c r="F8" s="441"/>
+      <c r="G8" s="442"/>
+      <c r="H8" s="443"/>
+      <c r="I8" s="485"/>
+      <c r="J8" s="548"/>
+      <c r="K8" s="548"/>
+      <c r="L8" s="486"/>
+      <c r="M8" s="485"/>
+      <c r="N8" s="486"/>
       <c r="O8" s="5" t="s">
         <v>187</v>
       </c>
@@ -22882,16 +23118,16 @@
         <v>190</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="379"/>
-      <c r="F9" s="410"/>
-      <c r="G9" s="411"/>
-      <c r="H9" s="412"/>
-      <c r="I9" s="474"/>
-      <c r="J9" s="493"/>
-      <c r="K9" s="493"/>
-      <c r="L9" s="475"/>
-      <c r="M9" s="474"/>
-      <c r="N9" s="475"/>
+      <c r="E9" s="404"/>
+      <c r="F9" s="441"/>
+      <c r="G9" s="442"/>
+      <c r="H9" s="443"/>
+      <c r="I9" s="485"/>
+      <c r="J9" s="548"/>
+      <c r="K9" s="548"/>
+      <c r="L9" s="486"/>
+      <c r="M9" s="485"/>
+      <c r="N9" s="486"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -22908,16 +23144,16 @@
         <v>537</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="379"/>
-      <c r="F10" s="410"/>
-      <c r="G10" s="411"/>
-      <c r="H10" s="412"/>
-      <c r="I10" s="474"/>
-      <c r="J10" s="493"/>
-      <c r="K10" s="493"/>
-      <c r="L10" s="475"/>
-      <c r="M10" s="474"/>
-      <c r="N10" s="475"/>
+      <c r="E10" s="404"/>
+      <c r="F10" s="441"/>
+      <c r="G10" s="442"/>
+      <c r="H10" s="443"/>
+      <c r="I10" s="485"/>
+      <c r="J10" s="548"/>
+      <c r="K10" s="548"/>
+      <c r="L10" s="486"/>
+      <c r="M10" s="485"/>
+      <c r="N10" s="486"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -22930,16 +23166,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="379"/>
-      <c r="F11" s="410"/>
-      <c r="G11" s="411"/>
-      <c r="H11" s="412"/>
-      <c r="I11" s="474"/>
-      <c r="J11" s="493"/>
-      <c r="K11" s="493"/>
-      <c r="L11" s="475"/>
-      <c r="M11" s="474"/>
-      <c r="N11" s="475"/>
+      <c r="E11" s="404"/>
+      <c r="F11" s="441"/>
+      <c r="G11" s="442"/>
+      <c r="H11" s="443"/>
+      <c r="I11" s="485"/>
+      <c r="J11" s="548"/>
+      <c r="K11" s="548"/>
+      <c r="L11" s="486"/>
+      <c r="M11" s="485"/>
+      <c r="N11" s="486"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -22950,16 +23186,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="379"/>
-      <c r="F12" s="410"/>
-      <c r="G12" s="411"/>
-      <c r="H12" s="412"/>
-      <c r="I12" s="474"/>
-      <c r="J12" s="493"/>
-      <c r="K12" s="493"/>
-      <c r="L12" s="475"/>
-      <c r="M12" s="474"/>
-      <c r="N12" s="475"/>
+      <c r="E12" s="404"/>
+      <c r="F12" s="441"/>
+      <c r="G12" s="442"/>
+      <c r="H12" s="443"/>
+      <c r="I12" s="485"/>
+      <c r="J12" s="548"/>
+      <c r="K12" s="548"/>
+      <c r="L12" s="486"/>
+      <c r="M12" s="485"/>
+      <c r="N12" s="486"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -22972,16 +23208,16 @@
         <v>192</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="379"/>
-      <c r="F13" s="410"/>
-      <c r="G13" s="411"/>
-      <c r="H13" s="412"/>
-      <c r="I13" s="474"/>
-      <c r="J13" s="493"/>
-      <c r="K13" s="493"/>
-      <c r="L13" s="475"/>
-      <c r="M13" s="474"/>
-      <c r="N13" s="475"/>
+      <c r="E13" s="404"/>
+      <c r="F13" s="441"/>
+      <c r="G13" s="442"/>
+      <c r="H13" s="443"/>
+      <c r="I13" s="485"/>
+      <c r="J13" s="548"/>
+      <c r="K13" s="548"/>
+      <c r="L13" s="486"/>
+      <c r="M13" s="485"/>
+      <c r="N13" s="486"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -22992,16 +23228,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="379"/>
-      <c r="F14" s="410"/>
-      <c r="G14" s="411"/>
-      <c r="H14" s="412"/>
-      <c r="I14" s="474"/>
-      <c r="J14" s="493"/>
-      <c r="K14" s="493"/>
-      <c r="L14" s="475"/>
-      <c r="M14" s="474"/>
-      <c r="N14" s="475"/>
+      <c r="E14" s="404"/>
+      <c r="F14" s="441"/>
+      <c r="G14" s="442"/>
+      <c r="H14" s="443"/>
+      <c r="I14" s="485"/>
+      <c r="J14" s="548"/>
+      <c r="K14" s="548"/>
+      <c r="L14" s="486"/>
+      <c r="M14" s="485"/>
+      <c r="N14" s="486"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -23012,16 +23248,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="379"/>
-      <c r="F15" s="410"/>
-      <c r="G15" s="411"/>
-      <c r="H15" s="412"/>
-      <c r="I15" s="474"/>
-      <c r="J15" s="493"/>
-      <c r="K15" s="493"/>
-      <c r="L15" s="475"/>
-      <c r="M15" s="474"/>
-      <c r="N15" s="475"/>
+      <c r="E15" s="404"/>
+      <c r="F15" s="441"/>
+      <c r="G15" s="442"/>
+      <c r="H15" s="443"/>
+      <c r="I15" s="485"/>
+      <c r="J15" s="548"/>
+      <c r="K15" s="548"/>
+      <c r="L15" s="486"/>
+      <c r="M15" s="485"/>
+      <c r="N15" s="486"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -23032,16 +23268,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="379"/>
-      <c r="F16" s="410"/>
-      <c r="G16" s="411"/>
-      <c r="H16" s="412"/>
-      <c r="I16" s="474"/>
-      <c r="J16" s="493"/>
-      <c r="K16" s="493"/>
-      <c r="L16" s="475"/>
-      <c r="M16" s="474"/>
-      <c r="N16" s="475"/>
+      <c r="E16" s="404"/>
+      <c r="F16" s="441"/>
+      <c r="G16" s="442"/>
+      <c r="H16" s="443"/>
+      <c r="I16" s="485"/>
+      <c r="J16" s="548"/>
+      <c r="K16" s="548"/>
+      <c r="L16" s="486"/>
+      <c r="M16" s="485"/>
+      <c r="N16" s="486"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -23054,16 +23290,16 @@
         <v>193</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="379"/>
-      <c r="F17" s="410"/>
-      <c r="G17" s="411"/>
-      <c r="H17" s="412"/>
-      <c r="I17" s="474"/>
-      <c r="J17" s="493"/>
-      <c r="K17" s="493"/>
-      <c r="L17" s="475"/>
-      <c r="M17" s="474"/>
-      <c r="N17" s="475"/>
+      <c r="E17" s="404"/>
+      <c r="F17" s="441"/>
+      <c r="G17" s="442"/>
+      <c r="H17" s="443"/>
+      <c r="I17" s="485"/>
+      <c r="J17" s="548"/>
+      <c r="K17" s="548"/>
+      <c r="L17" s="486"/>
+      <c r="M17" s="485"/>
+      <c r="N17" s="486"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -23074,16 +23310,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="380"/>
-      <c r="F18" s="413"/>
-      <c r="G18" s="414"/>
-      <c r="H18" s="415"/>
-      <c r="I18" s="476"/>
-      <c r="J18" s="494"/>
-      <c r="K18" s="494"/>
-      <c r="L18" s="477"/>
-      <c r="M18" s="476"/>
-      <c r="N18" s="477"/>
+      <c r="E18" s="405"/>
+      <c r="F18" s="444"/>
+      <c r="G18" s="445"/>
+      <c r="H18" s="446"/>
+      <c r="I18" s="487"/>
+      <c r="J18" s="549"/>
+      <c r="K18" s="549"/>
+      <c r="L18" s="488"/>
+      <c r="M18" s="487"/>
+      <c r="N18" s="488"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -23112,26 +23348,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="397" t="s">
+      <c r="C20" s="425" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="398"/>
+      <c r="D20" s="426"/>
       <c r="E20" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="F20" s="397" t="s">
+      <c r="F20" s="425" t="s">
         <v>196</v>
       </c>
-      <c r="G20" s="399"/>
-      <c r="H20" s="399"/>
-      <c r="I20" s="399"/>
-      <c r="J20" s="399"/>
-      <c r="K20" s="399"/>
-      <c r="L20" s="398"/>
-      <c r="M20" s="397" t="s">
+      <c r="G20" s="427"/>
+      <c r="H20" s="427"/>
+      <c r="I20" s="427"/>
+      <c r="J20" s="427"/>
+      <c r="K20" s="427"/>
+      <c r="L20" s="426"/>
+      <c r="M20" s="425" t="s">
         <v>528</v>
       </c>
-      <c r="N20" s="398"/>
+      <c r="N20" s="426"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -23159,39 +23395,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="460" t="s">
+      <c r="B24" s="497" t="s">
         <v>570</v>
       </c>
-      <c r="C24" s="460"/>
-      <c r="D24" s="459"/>
-      <c r="E24" s="459"/>
-      <c r="F24" s="459"/>
-      <c r="G24" s="459"/>
-      <c r="H24" s="459"/>
-      <c r="I24" s="459"/>
-      <c r="J24" s="459"/>
-      <c r="K24" s="459"/>
-      <c r="M24" s="513" t="s">
+      <c r="C24" s="497"/>
+      <c r="D24" s="496"/>
+      <c r="E24" s="496"/>
+      <c r="F24" s="496"/>
+      <c r="G24" s="496"/>
+      <c r="H24" s="496"/>
+      <c r="I24" s="496"/>
+      <c r="J24" s="496"/>
+      <c r="K24" s="496"/>
+      <c r="M24" s="518" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="513"/>
-      <c r="O24" s="513"/>
+      <c r="N24" s="518"/>
+      <c r="O24" s="518"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="514" t="s">
+      <c r="B25" s="519" t="s">
         <v>914</v>
       </c>
-      <c r="C25" s="437"/>
-      <c r="D25" s="388" t="s">
+      <c r="C25" s="464"/>
+      <c r="D25" s="420" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="388"/>
-      <c r="F25" s="388"/>
-      <c r="G25" s="388"/>
-      <c r="H25" s="388"/>
-      <c r="I25" s="388"/>
-      <c r="J25" s="388"/>
-      <c r="K25" s="389"/>
+      <c r="E25" s="420"/>
+      <c r="F25" s="420"/>
+      <c r="G25" s="420"/>
+      <c r="H25" s="420"/>
+      <c r="I25" s="420"/>
+      <c r="J25" s="420"/>
+      <c r="K25" s="421"/>
       <c r="M25" s="38" t="s">
         <v>182</v>
       </c>
@@ -23203,22 +23439,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="438"/>
-      <c r="C26" s="439"/>
-      <c r="D26" s="436" t="s">
+      <c r="B26" s="465"/>
+      <c r="C26" s="466"/>
+      <c r="D26" s="463" t="s">
         <v>907</v>
       </c>
-      <c r="E26" s="437"/>
-      <c r="F26" s="507" t="s">
+      <c r="E26" s="464"/>
+      <c r="F26" s="544" t="s">
         <v>907</v>
       </c>
-      <c r="G26" s="388"/>
-      <c r="H26" s="389"/>
-      <c r="I26" s="387" t="s">
+      <c r="G26" s="420"/>
+      <c r="H26" s="421"/>
+      <c r="I26" s="419" t="s">
         <v>911</v>
       </c>
-      <c r="J26" s="388"/>
-      <c r="K26" s="389"/>
+      <c r="J26" s="420"/>
+      <c r="K26" s="421"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -23233,22 +23469,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="438"/>
-      <c r="C27" s="439"/>
-      <c r="D27" s="428" t="s">
+      <c r="B27" s="465"/>
+      <c r="C27" s="466"/>
+      <c r="D27" s="409" t="s">
         <v>912</v>
       </c>
-      <c r="E27" s="439"/>
-      <c r="F27" s="438" t="s">
+      <c r="E27" s="466"/>
+      <c r="F27" s="465" t="s">
         <v>908</v>
       </c>
-      <c r="G27" s="428"/>
-      <c r="H27" s="508"/>
-      <c r="I27" s="512" t="s">
+      <c r="G27" s="409"/>
+      <c r="H27" s="410"/>
+      <c r="I27" s="411" t="s">
         <v>912</v>
       </c>
-      <c r="J27" s="428"/>
-      <c r="K27" s="508"/>
+      <c r="J27" s="409"/>
+      <c r="K27" s="410"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -23263,22 +23499,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="438"/>
-      <c r="C28" s="439"/>
-      <c r="D28" s="428" t="s">
+      <c r="B28" s="465"/>
+      <c r="C28" s="466"/>
+      <c r="D28" s="409" t="s">
         <v>909</v>
       </c>
-      <c r="E28" s="439"/>
-      <c r="F28" s="438" t="s">
+      <c r="E28" s="466"/>
+      <c r="F28" s="465" t="s">
         <v>909</v>
       </c>
-      <c r="G28" s="428"/>
-      <c r="H28" s="508"/>
-      <c r="I28" s="512" t="s">
+      <c r="G28" s="409"/>
+      <c r="H28" s="410"/>
+      <c r="I28" s="411" t="s">
         <v>909</v>
       </c>
-      <c r="J28" s="428"/>
-      <c r="K28" s="508"/>
+      <c r="J28" s="409"/>
+      <c r="K28" s="410"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -23287,22 +23523,22 @@
       <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="440"/>
-      <c r="C29" s="441"/>
-      <c r="D29" s="428" t="s">
+      <c r="B29" s="467"/>
+      <c r="C29" s="468"/>
+      <c r="D29" s="409" t="s">
         <v>910</v>
       </c>
-      <c r="E29" s="439"/>
-      <c r="F29" s="509" t="s">
+      <c r="E29" s="466"/>
+      <c r="F29" s="545" t="s">
         <v>910</v>
       </c>
-      <c r="G29" s="510"/>
-      <c r="H29" s="511"/>
-      <c r="I29" s="524" t="s">
+      <c r="G29" s="530"/>
+      <c r="H29" s="531"/>
+      <c r="I29" s="529" t="s">
         <v>910</v>
       </c>
-      <c r="J29" s="510"/>
-      <c r="K29" s="511"/>
+      <c r="J29" s="530"/>
+      <c r="K29" s="531"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -23311,149 +23547,149 @@
       <c r="O29" s="38"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="390" t="s">
+      <c r="B30" s="422" t="s">
         <v>913</v>
       </c>
-      <c r="C30" s="392"/>
-      <c r="D30" s="495" t="s">
+      <c r="C30" s="424"/>
+      <c r="D30" s="532" t="s">
         <v>571</v>
       </c>
-      <c r="E30" s="496"/>
-      <c r="F30" s="500" t="s">
+      <c r="E30" s="533"/>
+      <c r="F30" s="537" t="s">
         <v>572</v>
       </c>
-      <c r="G30" s="501"/>
-      <c r="H30" s="496"/>
-      <c r="I30" s="500" t="s">
+      <c r="G30" s="538"/>
+      <c r="H30" s="533"/>
+      <c r="I30" s="537" t="s">
         <v>573</v>
       </c>
-      <c r="J30" s="501"/>
-      <c r="K30" s="504"/>
+      <c r="J30" s="538"/>
+      <c r="K30" s="541"/>
       <c r="L30" s="5"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="374"/>
-      <c r="C31" s="393"/>
-      <c r="D31" s="497"/>
-      <c r="E31" s="457"/>
-      <c r="F31" s="455"/>
-      <c r="G31" s="456"/>
-      <c r="H31" s="457"/>
-      <c r="I31" s="455"/>
-      <c r="J31" s="456"/>
-      <c r="K31" s="505"/>
+      <c r="B31" s="395"/>
+      <c r="C31" s="399"/>
+      <c r="D31" s="534"/>
+      <c r="E31" s="503"/>
+      <c r="F31" s="501"/>
+      <c r="G31" s="502"/>
+      <c r="H31" s="503"/>
+      <c r="I31" s="501"/>
+      <c r="J31" s="502"/>
+      <c r="K31" s="542"/>
       <c r="L31" s="5"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="374"/>
-      <c r="C32" s="393"/>
-      <c r="D32" s="497"/>
-      <c r="E32" s="457"/>
-      <c r="F32" s="455"/>
-      <c r="G32" s="456"/>
-      <c r="H32" s="457"/>
-      <c r="I32" s="455"/>
-      <c r="J32" s="456"/>
-      <c r="K32" s="505"/>
+      <c r="B32" s="395"/>
+      <c r="C32" s="399"/>
+      <c r="D32" s="534"/>
+      <c r="E32" s="503"/>
+      <c r="F32" s="501"/>
+      <c r="G32" s="502"/>
+      <c r="H32" s="503"/>
+      <c r="I32" s="501"/>
+      <c r="J32" s="502"/>
+      <c r="K32" s="542"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="374"/>
-      <c r="C33" s="393"/>
-      <c r="D33" s="498"/>
-      <c r="E33" s="499"/>
-      <c r="F33" s="502"/>
-      <c r="G33" s="503"/>
-      <c r="H33" s="499"/>
-      <c r="I33" s="502"/>
-      <c r="J33" s="503"/>
-      <c r="K33" s="506"/>
+      <c r="B33" s="395"/>
+      <c r="C33" s="399"/>
+      <c r="D33" s="535"/>
+      <c r="E33" s="536"/>
+      <c r="F33" s="539"/>
+      <c r="G33" s="540"/>
+      <c r="H33" s="536"/>
+      <c r="I33" s="539"/>
+      <c r="J33" s="540"/>
+      <c r="K33" s="543"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="374"/>
-      <c r="C34" s="376"/>
-      <c r="D34" s="515" t="s">
+      <c r="B34" s="395"/>
+      <c r="C34" s="397"/>
+      <c r="D34" s="520" t="s">
         <v>900</v>
       </c>
-      <c r="E34" s="516"/>
-      <c r="F34" s="515" t="s">
+      <c r="E34" s="521"/>
+      <c r="F34" s="520" t="s">
         <v>593</v>
       </c>
-      <c r="G34" s="521"/>
-      <c r="H34" s="516"/>
-      <c r="I34" s="515" t="s">
+      <c r="G34" s="526"/>
+      <c r="H34" s="521"/>
+      <c r="I34" s="520" t="s">
         <v>915</v>
       </c>
-      <c r="J34" s="521"/>
-      <c r="K34" s="516"/>
+      <c r="J34" s="526"/>
+      <c r="K34" s="521"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="374"/>
-      <c r="C35" s="376"/>
-      <c r="D35" s="517"/>
-      <c r="E35" s="518"/>
-      <c r="F35" s="517"/>
-      <c r="G35" s="522"/>
-      <c r="H35" s="518"/>
-      <c r="I35" s="517"/>
-      <c r="J35" s="522"/>
-      <c r="K35" s="518"/>
+      <c r="B35" s="395"/>
+      <c r="C35" s="397"/>
+      <c r="D35" s="522"/>
+      <c r="E35" s="523"/>
+      <c r="F35" s="522"/>
+      <c r="G35" s="527"/>
+      <c r="H35" s="523"/>
+      <c r="I35" s="522"/>
+      <c r="J35" s="527"/>
+      <c r="K35" s="523"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="374"/>
-      <c r="C36" s="376"/>
-      <c r="D36" s="517"/>
-      <c r="E36" s="518"/>
-      <c r="F36" s="517"/>
-      <c r="G36" s="522"/>
-      <c r="H36" s="518"/>
-      <c r="I36" s="517"/>
-      <c r="J36" s="522"/>
-      <c r="K36" s="518"/>
+      <c r="B36" s="395"/>
+      <c r="C36" s="397"/>
+      <c r="D36" s="522"/>
+      <c r="E36" s="523"/>
+      <c r="F36" s="522"/>
+      <c r="G36" s="527"/>
+      <c r="H36" s="523"/>
+      <c r="I36" s="522"/>
+      <c r="J36" s="527"/>
+      <c r="K36" s="523"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="374"/>
-      <c r="C37" s="376"/>
-      <c r="D37" s="517"/>
-      <c r="E37" s="518"/>
-      <c r="F37" s="517"/>
-      <c r="G37" s="522"/>
-      <c r="H37" s="518"/>
-      <c r="I37" s="517"/>
-      <c r="J37" s="522"/>
-      <c r="K37" s="518"/>
+      <c r="B37" s="395"/>
+      <c r="C37" s="397"/>
+      <c r="D37" s="522"/>
+      <c r="E37" s="523"/>
+      <c r="F37" s="522"/>
+      <c r="G37" s="527"/>
+      <c r="H37" s="523"/>
+      <c r="I37" s="522"/>
+      <c r="J37" s="527"/>
+      <c r="K37" s="523"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="374"/>
-      <c r="C38" s="376"/>
-      <c r="D38" s="519"/>
-      <c r="E38" s="520"/>
-      <c r="F38" s="519"/>
-      <c r="G38" s="523"/>
-      <c r="H38" s="520"/>
-      <c r="I38" s="519"/>
-      <c r="J38" s="523"/>
-      <c r="K38" s="520"/>
+      <c r="B38" s="395"/>
+      <c r="C38" s="397"/>
+      <c r="D38" s="524"/>
+      <c r="E38" s="525"/>
+      <c r="F38" s="524"/>
+      <c r="G38" s="528"/>
+      <c r="H38" s="525"/>
+      <c r="I38" s="524"/>
+      <c r="J38" s="528"/>
+      <c r="K38" s="525"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="394"/>
-      <c r="C39" s="396"/>
-      <c r="D39" s="448" t="s">
+      <c r="B39" s="400"/>
+      <c r="C39" s="402"/>
+      <c r="D39" s="505" t="s">
         <v>574</v>
       </c>
-      <c r="E39" s="449"/>
-      <c r="F39" s="449"/>
-      <c r="G39" s="449"/>
-      <c r="H39" s="449"/>
-      <c r="I39" s="449"/>
-      <c r="J39" s="449"/>
-      <c r="K39" s="450"/>
+      <c r="E39" s="506"/>
+      <c r="F39" s="506"/>
+      <c r="G39" s="506"/>
+      <c r="H39" s="506"/>
+      <c r="I39" s="506"/>
+      <c r="J39" s="506"/>
+      <c r="K39" s="507"/>
       <c r="L39" s="40" t="s">
         <v>575</v>
       </c>
@@ -23471,36 +23707,35 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="397" t="s">
+      <c r="B41" s="425" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="398"/>
-      <c r="D41" s="397" t="s">
+      <c r="C41" s="426"/>
+      <c r="D41" s="425" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="398"/>
-      <c r="F41" s="397" t="s">
+      <c r="E41" s="426"/>
+      <c r="F41" s="425" t="s">
         <v>196</v>
       </c>
-      <c r="G41" s="399"/>
-      <c r="H41" s="399"/>
-      <c r="I41" s="399"/>
-      <c r="J41" s="399"/>
-      <c r="K41" s="398"/>
+      <c r="G41" s="427"/>
+      <c r="H41" s="427"/>
+      <c r="I41" s="427"/>
+      <c r="J41" s="427"/>
+      <c r="K41" s="426"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -23517,16 +23752,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -24050,13 +24286,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="369" t="s">
+      <c r="A5" s="390" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="370"/>
-      <c r="C5" s="370"/>
-      <c r="D5" s="370"/>
-      <c r="E5" s="371"/>
+      <c r="B5" s="391"/>
+      <c r="C5" s="391"/>
+      <c r="D5" s="391"/>
+      <c r="E5" s="392"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>150</v>
@@ -24713,7 +24949,7 @@
       <c r="J4" s="173"/>
       <c r="K4" s="173"/>
       <c r="L4" s="174"/>
-      <c r="M4" s="374" t="s">
+      <c r="M4" s="395" t="s">
         <v>324</v>
       </c>
     </row>
@@ -24731,7 +24967,7 @@
       <c r="J5" s="167"/>
       <c r="K5" s="167"/>
       <c r="L5" s="168"/>
-      <c r="M5" s="374"/>
+      <c r="M5" s="395"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="360">
@@ -24747,7 +24983,7 @@
       <c r="J6" s="167"/>
       <c r="K6" s="167"/>
       <c r="L6" s="168"/>
-      <c r="M6" s="374"/>
+      <c r="M6" s="395"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="360">
@@ -24767,7 +25003,7 @@
       <c r="J7" s="167"/>
       <c r="K7" s="167"/>
       <c r="L7" s="168"/>
-      <c r="M7" s="374"/>
+      <c r="M7" s="395"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="360">
@@ -24783,7 +25019,7 @@
       <c r="J8" s="167"/>
       <c r="K8" s="167"/>
       <c r="L8" s="168"/>
-      <c r="M8" s="374"/>
+      <c r="M8" s="395"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="360">
@@ -24799,7 +25035,7 @@
       <c r="J9" s="167"/>
       <c r="K9" s="167"/>
       <c r="L9" s="168"/>
-      <c r="M9" s="374"/>
+      <c r="M9" s="395"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="360">
@@ -24815,7 +25051,7 @@
       <c r="J10" s="167"/>
       <c r="K10" s="167"/>
       <c r="L10" s="168"/>
-      <c r="M10" s="374"/>
+      <c r="M10" s="395"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1">
       <c r="B11" s="360">
@@ -24831,7 +25067,7 @@
       <c r="J11" s="176"/>
       <c r="K11" s="176"/>
       <c r="L11" s="177"/>
-      <c r="M11" s="374"/>
+      <c r="M11" s="395"/>
     </row>
     <row r="12" spans="2:13">
       <c r="M12" t="s">
@@ -25105,7 +25341,7 @@
       <c r="O134" s="5"/>
     </row>
     <row r="135" spans="3:15">
-      <c r="C135" s="377" t="s">
+      <c r="C135" s="398" t="s">
         <v>167</v>
       </c>
       <c r="D135">
@@ -25132,7 +25368,7 @@
       <c r="O135" s="5"/>
     </row>
     <row r="136" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C136" s="377"/>
+      <c r="C136" s="398"/>
       <c r="D136">
         <v>20</v>
       </c>
@@ -25161,7 +25397,7 @@
       <c r="O136" s="5"/>
     </row>
     <row r="137" spans="3:15">
-      <c r="C137" s="377" t="s">
+      <c r="C137" s="398" t="s">
         <v>168</v>
       </c>
       <c r="D137">
@@ -25180,7 +25416,7 @@
       <c r="O137" s="5"/>
     </row>
     <row r="138" spans="3:15">
-      <c r="C138" s="377"/>
+      <c r="C138" s="398"/>
       <c r="D138">
         <v>40</v>
       </c>
@@ -25197,7 +25433,7 @@
       <c r="O138" s="5"/>
     </row>
     <row r="139" spans="3:15">
-      <c r="C139" s="377"/>
+      <c r="C139" s="398"/>
       <c r="D139">
         <v>50</v>
       </c>
@@ -25214,7 +25450,7 @@
       <c r="O139" s="5"/>
     </row>
     <row r="140" spans="3:15">
-      <c r="C140" s="377"/>
+      <c r="C140" s="398"/>
       <c r="D140">
         <v>60</v>
       </c>
@@ -25233,7 +25469,7 @@
       <c r="O140" s="5"/>
     </row>
     <row r="141" spans="3:15">
-      <c r="C141" s="377"/>
+      <c r="C141" s="398"/>
       <c r="D141">
         <v>70</v>
       </c>
@@ -25250,7 +25486,7 @@
       <c r="O141" s="5"/>
     </row>
     <row r="142" spans="3:15">
-      <c r="C142" s="377"/>
+      <c r="C142" s="398"/>
       <c r="D142">
         <v>80</v>
       </c>
@@ -25267,7 +25503,7 @@
       <c r="O142" s="5"/>
     </row>
     <row r="143" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C143" s="377"/>
+      <c r="C143" s="398"/>
       <c r="D143">
         <v>90</v>
       </c>
@@ -25358,7 +25594,7 @@
       </c>
     </row>
     <row r="148" spans="4:15">
-      <c r="D148" s="375">
+      <c r="D148" s="396">
         <v>1</v>
       </c>
       <c r="E148" s="169"/>
@@ -25373,7 +25609,7 @@
       <c r="N148" s="174"/>
     </row>
     <row r="149" spans="4:15">
-      <c r="D149" s="376"/>
+      <c r="D149" s="397"/>
       <c r="E149" s="170"/>
       <c r="F149" s="166"/>
       <c r="G149" s="167"/>
@@ -25386,7 +25622,7 @@
       <c r="N149" s="168"/>
     </row>
     <row r="150" spans="4:15">
-      <c r="D150" s="376"/>
+      <c r="D150" s="397"/>
       <c r="E150" s="170"/>
       <c r="F150" s="166"/>
       <c r="G150" s="167"/>
@@ -25399,7 +25635,7 @@
       <c r="N150" s="168"/>
     </row>
     <row r="151" spans="4:15">
-      <c r="D151" s="376"/>
+      <c r="D151" s="397"/>
       <c r="E151" s="170" t="s">
         <v>663</v>
       </c>
@@ -25416,7 +25652,7 @@
       <c r="N151" s="168"/>
     </row>
     <row r="152" spans="4:15">
-      <c r="D152" s="376"/>
+      <c r="D152" s="397"/>
       <c r="E152" s="170"/>
       <c r="F152" s="166"/>
       <c r="G152" s="167"/>
@@ -25429,7 +25665,7 @@
       <c r="N152" s="168"/>
     </row>
     <row r="153" spans="4:15">
-      <c r="D153" s="376"/>
+      <c r="D153" s="397"/>
       <c r="E153" s="170"/>
       <c r="F153" s="166"/>
       <c r="G153" s="167"/>
@@ -25442,7 +25678,7 @@
       <c r="N153" s="168"/>
     </row>
     <row r="154" spans="4:15" ht="15.75" thickBot="1">
-      <c r="D154" s="376"/>
+      <c r="D154" s="397"/>
       <c r="E154" s="171"/>
       <c r="F154" s="175"/>
       <c r="G154" s="176"/>
@@ -25565,7 +25801,7 @@
       <c r="K183" s="173"/>
       <c r="L183" s="173"/>
       <c r="M183" s="173"/>
-      <c r="N183" s="373" t="s">
+      <c r="N183" s="394" t="s">
         <v>917</v>
       </c>
       <c r="O183" t="s">
@@ -25586,7 +25822,7 @@
       <c r="K184" s="176"/>
       <c r="L184" s="176"/>
       <c r="M184" s="176"/>
-      <c r="N184" s="373"/>
+      <c r="N184" s="394"/>
       <c r="O184" t="s">
         <v>918</v>
       </c>
@@ -25605,7 +25841,7 @@
       <c r="K185" s="229"/>
       <c r="L185" s="229"/>
       <c r="M185" s="293"/>
-      <c r="N185" s="372" t="s">
+      <c r="N185" s="393" t="s">
         <v>920</v>
       </c>
       <c r="O185" t="s">
@@ -25626,7 +25862,7 @@
       <c r="K186" s="230"/>
       <c r="L186" s="230"/>
       <c r="M186" s="295"/>
-      <c r="N186" s="372"/>
+      <c r="N186" s="393"/>
     </row>
     <row r="187" spans="3:15">
       <c r="C187">
@@ -25642,7 +25878,7 @@
       <c r="K187" s="230"/>
       <c r="L187" s="230"/>
       <c r="M187" s="295"/>
-      <c r="N187" s="372"/>
+      <c r="N187" s="393"/>
     </row>
     <row r="188" spans="3:15" ht="15.75" thickBot="1">
       <c r="C188">
@@ -25662,7 +25898,7 @@
       <c r="K188" s="231"/>
       <c r="L188" s="231"/>
       <c r="M188" s="297"/>
-      <c r="N188" s="372"/>
+      <c r="N188" s="393"/>
     </row>
     <row r="189" spans="3:15">
       <c r="C189">
@@ -25678,7 +25914,7 @@
       <c r="K189" s="230"/>
       <c r="L189" s="230"/>
       <c r="M189" s="230"/>
-      <c r="N189" s="373"/>
+      <c r="N189" s="394"/>
     </row>
     <row r="190" spans="3:15">
       <c r="C190">
@@ -25694,7 +25930,7 @@
       <c r="K190" s="230"/>
       <c r="L190" s="230"/>
       <c r="M190" s="230"/>
-      <c r="N190" s="373"/>
+      <c r="N190" s="394"/>
     </row>
     <row r="191" spans="3:15" ht="15.75" thickBot="1">
       <c r="C191">
@@ -25710,7 +25946,7 @@
       <c r="K191" s="231"/>
       <c r="L191" s="231"/>
       <c r="M191" s="231"/>
-      <c r="N191" s="373"/>
+      <c r="N191" s="394"/>
     </row>
     <row r="192" spans="3:15" ht="15.75" thickBot="1">
       <c r="C192">
@@ -26028,10 +26264,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U242"/>
+  <dimension ref="A1:U348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M229" sqref="M229:N229"/>
+    <sheetView tabSelected="1" topLeftCell="A279" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N284" sqref="N284:Q292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26044,7 +26280,7 @@
     <row r="1" spans="1:21" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:21">
       <c r="H2" s="1" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>176</v>
@@ -26085,14 +26321,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="387" t="s">
+      <c r="K4" s="419" t="s">
         <v>178</v>
       </c>
-      <c r="L4" s="388"/>
-      <c r="M4" s="388"/>
-      <c r="N4" s="388"/>
-      <c r="O4" s="388"/>
-      <c r="P4" s="389"/>
+      <c r="L4" s="420"/>
+      <c r="M4" s="420"/>
+      <c r="N4" s="420"/>
+      <c r="O4" s="420"/>
+      <c r="P4" s="421"/>
       <c r="Q4" s="115" t="s">
         <v>281</v>
       </c>
@@ -26131,8 +26367,8 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="406" t="s">
-        <v>1492</v>
+      <c r="E6" s="434" t="s">
+        <v>1489</v>
       </c>
       <c r="F6" t="s">
         <v>203</v>
@@ -26174,7 +26410,7 @@
       <c r="D7" s="367" t="s">
         <v>1302</v>
       </c>
-      <c r="E7" s="379"/>
+      <c r="E7" s="404"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
@@ -26208,7 +26444,7 @@
       <c r="B8" s="5"/>
       <c r="C8" s="24"/>
       <c r="D8" s="367"/>
-      <c r="E8" s="379"/>
+      <c r="E8" s="404"/>
       <c r="F8" t="s">
         <v>203</v>
       </c>
@@ -26219,10 +26455,10 @@
       <c r="L8" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M8" s="400" t="s">
-        <v>1491</v>
-      </c>
-      <c r="N8" s="401"/>
+      <c r="M8" s="428" t="s">
+        <v>1488</v>
+      </c>
+      <c r="N8" s="429"/>
       <c r="O8" s="5" t="s">
         <v>31</v>
       </c>
@@ -26251,7 +26487,7 @@
       <c r="D9" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="E9" s="379"/>
+      <c r="E9" s="404"/>
       <c r="F9" s="24" t="s">
         <v>216</v>
       </c>
@@ -26264,8 +26500,8 @@
       <c r="L9" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M9" s="402"/>
-      <c r="N9" s="403"/>
+      <c r="M9" s="430"/>
+      <c r="N9" s="431"/>
       <c r="O9" s="5" t="s">
         <v>187</v>
       </c>
@@ -26290,7 +26526,7 @@
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
-      <c r="E10" s="380"/>
+      <c r="E10" s="405"/>
       <c r="F10" t="s">
         <v>204</v>
       </c>
@@ -26301,8 +26537,8 @@
       <c r="L10" s="5" t="s">
         <v>1167</v>
       </c>
-      <c r="M10" s="402"/>
-      <c r="N10" s="403"/>
+      <c r="M10" s="430"/>
+      <c r="N10" s="431"/>
       <c r="O10" s="5"/>
       <c r="P10" s="246" t="s">
         <v>399</v>
@@ -26319,13 +26555,13 @@
       <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="390" t="s">
+      <c r="A11" s="422" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="391"/>
-      <c r="C11" s="392"/>
-      <c r="D11" s="392"/>
-      <c r="E11" s="376"/>
+      <c r="B11" s="423"/>
+      <c r="C11" s="424"/>
+      <c r="D11" s="424"/>
+      <c r="E11" s="397"/>
       <c r="F11" t="s">
         <v>209</v>
       </c>
@@ -26334,8 +26570,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="402"/>
-      <c r="N11" s="403"/>
+      <c r="M11" s="430"/>
+      <c r="N11" s="431"/>
       <c r="O11" s="5"/>
       <c r="P11" s="246" t="s">
         <v>400</v>
@@ -26345,11 +26581,11 @@
       <c r="T11" s="38"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="374"/>
-      <c r="B12" s="393"/>
-      <c r="C12" s="393"/>
-      <c r="D12" s="393"/>
-      <c r="E12" s="376"/>
+      <c r="A12" s="395"/>
+      <c r="B12" s="399"/>
+      <c r="C12" s="399"/>
+      <c r="D12" s="399"/>
+      <c r="E12" s="397"/>
       <c r="F12" t="s">
         <v>944</v>
       </c>
@@ -26358,8 +26594,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="402"/>
-      <c r="N12" s="403"/>
+      <c r="M12" s="430"/>
+      <c r="N12" s="431"/>
       <c r="O12" s="5"/>
       <c r="P12" s="246" t="s">
         <v>1305</v>
@@ -26369,11 +26605,11 @@
       <c r="T12" s="38"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A13" s="374"/>
-      <c r="B13" s="393"/>
-      <c r="C13" s="393"/>
-      <c r="D13" s="393"/>
-      <c r="E13" s="376"/>
+      <c r="A13" s="395"/>
+      <c r="B13" s="399"/>
+      <c r="C13" s="399"/>
+      <c r="D13" s="399"/>
+      <c r="E13" s="397"/>
       <c r="F13" t="s">
         <v>679</v>
       </c>
@@ -26384,8 +26620,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="404"/>
-      <c r="N13" s="405"/>
+      <c r="M13" s="432"/>
+      <c r="N13" s="433"/>
       <c r="O13" s="28"/>
       <c r="P13" s="247"/>
       <c r="S13" t="s">
@@ -26393,11 +26629,11 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="394"/>
-      <c r="B14" s="395"/>
-      <c r="C14" s="395"/>
-      <c r="D14" s="395"/>
-      <c r="E14" s="396"/>
+      <c r="A14" s="400"/>
+      <c r="B14" s="401"/>
+      <c r="C14" s="401"/>
+      <c r="D14" s="401"/>
+      <c r="E14" s="402"/>
       <c r="F14" t="s">
         <v>885</v>
       </c>
@@ -26530,20 +26766,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="397" t="s">
+      <c r="I20" s="425" t="s">
         <v>194</v>
       </c>
-      <c r="J20" s="398"/>
-      <c r="K20" s="397" t="s">
+      <c r="J20" s="426"/>
+      <c r="K20" s="425" t="s">
         <v>195</v>
       </c>
-      <c r="L20" s="398"/>
-      <c r="M20" s="397" t="s">
+      <c r="L20" s="426"/>
+      <c r="M20" s="425" t="s">
         <v>196</v>
       </c>
-      <c r="N20" s="399"/>
-      <c r="O20" s="399"/>
-      <c r="P20" s="398"/>
+      <c r="N20" s="427"/>
+      <c r="O20" s="427"/>
+      <c r="P20" s="426"/>
       <c r="S20" t="s">
         <v>281</v>
       </c>
@@ -26602,7 +26838,7 @@
         <v>198</v>
       </c>
       <c r="L24" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="Q24" t="s">
         <v>1289</v>
@@ -26616,7 +26852,7 @@
         <v>200</v>
       </c>
       <c r="L25" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="23.25">
@@ -27075,7 +27311,7 @@
     </row>
     <row r="87" spans="3:18">
       <c r="C87" s="16" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -27092,7 +27328,7 @@
     </row>
     <row r="88" spans="3:18" ht="15.75" thickBot="1">
       <c r="C88" s="41" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -27101,7 +27337,7 @@
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="5" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
@@ -27111,7 +27347,7 @@
     </row>
     <row r="89" spans="3:18" ht="15.75" thickBot="1">
       <c r="C89" s="41" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -27121,7 +27357,7 @@
       <c r="L89" s="4"/>
       <c r="M89" s="1"/>
       <c r="N89" s="2" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="O89" s="3"/>
       <c r="P89" s="6"/>
@@ -27261,24 +27497,24 @@
     </row>
     <row r="100" spans="3:18">
       <c r="D100" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="H100" t="s">
         <v>641</v>
       </c>
       <c r="K100" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="101" spans="3:18">
       <c r="D101" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="H101" t="s">
         <v>645</v>
       </c>
       <c r="K101" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="109" spans="3:18" ht="15.75" thickBot="1"/>
@@ -27303,1248 +27539,2656 @@
         <v>207</v>
       </c>
     </row>
-    <row r="113" spans="6:11">
+    <row r="113" spans="1:15">
       <c r="F113" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="114" spans="6:11">
+    <row r="114" spans="1:15">
       <c r="G114" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="115" spans="6:11">
+    <row r="115" spans="1:15">
       <c r="G115" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="116" spans="6:11">
+    <row r="116" spans="1:15">
       <c r="F116" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="118" spans="6:11">
+    <row r="118" spans="1:15">
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="6:11">
+    <row r="119" spans="1:15">
       <c r="F119" t="s">
         <v>930</v>
       </c>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="6:11">
+    <row r="120" spans="1:15" ht="15.75" thickBot="1">
       <c r="G120" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="121" spans="6:11">
-      <c r="G121" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="122" spans="6:11">
-      <c r="F122" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="125" spans="6:11">
-      <c r="F125" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="126" spans="6:11">
-      <c r="G126" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="127" spans="6:11">
-      <c r="G127" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="128" spans="6:11">
-      <c r="F128" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="129" spans="5:5">
-      <c r="E129" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="164" spans="1:17" ht="15.75" thickBot="1">
-      <c r="E164" t="s">
-        <v>52</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J164" s="2"/>
-      <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
-      <c r="O164" s="2"/>
-      <c r="P164" s="2"/>
-      <c r="Q164" s="3"/>
-    </row>
-    <row r="165" spans="1:17">
-      <c r="A165" s="1"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="3"/>
-      <c r="I165" s="4"/>
-      <c r="J165" s="378" t="s">
-        <v>1496</v>
-      </c>
-      <c r="K165" s="1"/>
-      <c r="L165" s="529" t="s">
-        <v>1507</v>
-      </c>
-      <c r="M165" s="526" t="s">
-        <v>1506</v>
-      </c>
-      <c r="N165" s="381"/>
-      <c r="O165" s="381"/>
-      <c r="P165" s="382"/>
-      <c r="Q165" s="6"/>
-    </row>
-    <row r="166" spans="1:17" ht="15.75" thickBot="1">
+    <row r="121" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A121" s="1"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="3"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="N121" s="2"/>
+      <c r="O121" s="3"/>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="4"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="6"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="245" t="s">
+        <v>314</v>
+      </c>
+      <c r="N122" s="5"/>
+      <c r="O122" s="6"/>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="4"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="6"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="246" t="s">
+        <v>1546</v>
+      </c>
+      <c r="N123" s="5"/>
+      <c r="O123" s="6"/>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="4"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="6"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="550"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="6"/>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="4"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="6"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="246"/>
+      <c r="N125" s="5"/>
+      <c r="O125" s="6"/>
+    </row>
+    <row r="126" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A126" s="4"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="6"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="247"/>
+      <c r="N126" s="5"/>
+      <c r="O126" s="6"/>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="4"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="6"/>
+      <c r="K127" s="4" t="s">
+        <v>1542</v>
+      </c>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
+      <c r="N127" s="5"/>
+      <c r="O127" s="6"/>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="4"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="6"/>
+      <c r="G128" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L128" s="5"/>
+      <c r="M128" s="24"/>
+      <c r="N128" s="24"/>
+      <c r="O128" s="6"/>
+    </row>
+    <row r="129" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A129" s="4"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="6"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="10"/>
+      <c r="M129" s="10"/>
+      <c r="N129" s="10"/>
+      <c r="O129" s="9"/>
+    </row>
+    <row r="130" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A130" s="8"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="9"/>
+    </row>
+    <row r="134" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="135" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A135" s="1"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="3"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="N135" s="2"/>
+      <c r="O135" s="3"/>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="4"/>
+      <c r="B136" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="6"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="5"/>
+      <c r="M136" s="245" t="s">
+        <v>314</v>
+      </c>
+      <c r="N136" s="5"/>
+      <c r="O136" s="6"/>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="4"/>
+      <c r="B137" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D137" s="551" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E137" s="551"/>
+      <c r="F137" s="552"/>
+      <c r="G137" s="553"/>
+      <c r="H137" s="553"/>
+      <c r="I137" s="553"/>
+      <c r="J137" s="553"/>
+      <c r="K137" s="143"/>
+      <c r="L137" s="551"/>
+      <c r="M137" s="246" t="s">
+        <v>1546</v>
+      </c>
+      <c r="N137" s="5"/>
+      <c r="O137" s="6"/>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="4"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="6"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="5"/>
+      <c r="M138" s="550" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N138" s="5"/>
+      <c r="O138" s="6"/>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="4"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="6"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="246"/>
+      <c r="N139" s="5"/>
+      <c r="O139" s="6"/>
+    </row>
+    <row r="140" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A140" s="4"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="6"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="5"/>
+      <c r="M140" s="247" t="s">
+        <v>1566</v>
+      </c>
+      <c r="N140" s="5"/>
+      <c r="O140" s="6"/>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" s="4"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="6"/>
+      <c r="K141" s="4" t="s">
+        <v>1542</v>
+      </c>
+      <c r="L141" s="5"/>
+      <c r="M141" s="551" t="s">
+        <v>281</v>
+      </c>
+      <c r="N141" s="5"/>
+      <c r="O141" s="6"/>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" s="4"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="204" t="s">
+        <v>1548</v>
+      </c>
+      <c r="H142" s="204"/>
+      <c r="I142" s="204"/>
+      <c r="J142" s="204"/>
+      <c r="K142" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L142" s="551" t="s">
+        <v>1547</v>
+      </c>
+      <c r="M142" s="28" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N142" s="24" t="s">
+        <v>1565</v>
+      </c>
+      <c r="O142" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A143" s="4"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="6"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="10"/>
+      <c r="M143" s="10"/>
+      <c r="N143" s="10"/>
+      <c r="O143" s="9"/>
+    </row>
+    <row r="144" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A144" s="4"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="6"/>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="4"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="6"/>
+      <c r="K145" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="3"/>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="4"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="6"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="5"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="6"/>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" s="4"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="6"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="5"/>
+      <c r="N147" s="5"/>
+      <c r="O147" s="6"/>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" s="4"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="6"/>
+      <c r="K148" s="4" t="s">
+        <v>1542</v>
+      </c>
+      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="6"/>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="4"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="6"/>
+      <c r="K149" s="4" t="s">
+        <v>1544</v>
+      </c>
+      <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
+      <c r="N149" s="5"/>
+      <c r="O149" s="6"/>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" s="4"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="6"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="6"/>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" s="4"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="6"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="6"/>
+    </row>
+    <row r="152" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A152" s="8"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="9"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="6"/>
+    </row>
+    <row r="153" spans="1:15" ht="15.75" thickBot="1">
+      <c r="K153" s="8"/>
+      <c r="L153" s="10"/>
+      <c r="M153" s="10"/>
+      <c r="N153" s="10"/>
+      <c r="O153" s="9"/>
+    </row>
+    <row r="155" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="156" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A156" s="1"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="3"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="N156" s="2"/>
+      <c r="O156" s="3"/>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" s="4"/>
+      <c r="B157" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="6"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="245" t="s">
+        <v>314</v>
+      </c>
+      <c r="N157" s="5"/>
+      <c r="O157" s="6"/>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" s="4"/>
+      <c r="B158" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E158" s="5"/>
+      <c r="F158" s="6"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="5"/>
+      <c r="M158" s="246" t="s">
+        <v>1546</v>
+      </c>
+      <c r="N158" s="5"/>
+      <c r="O158" s="6"/>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" s="4"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="6"/>
+      <c r="K159" s="4"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="550" t="s">
+        <v>1551</v>
+      </c>
+      <c r="N159" s="5"/>
+      <c r="O159" s="6"/>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" s="4"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G160" t="s">
+        <v>1556</v>
+      </c>
+      <c r="K160" s="4"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="246"/>
+      <c r="N160" s="5"/>
+      <c r="O160" s="6"/>
+    </row>
+    <row r="161" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A161" s="4"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F161" s="6"/>
+      <c r="K161" s="4"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="247"/>
+      <c r="N161" s="5"/>
+      <c r="O161" s="6"/>
+    </row>
+    <row r="162" spans="1:16">
+      <c r="A162" s="4"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F162" s="6"/>
+      <c r="K162" s="4"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+      <c r="O162" s="6"/>
+    </row>
+    <row r="163" spans="1:16">
+      <c r="A163" s="4"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F163" s="6"/>
+      <c r="K163" s="4"/>
+      <c r="L163" s="5"/>
+      <c r="M163" s="24"/>
+      <c r="N163" s="5"/>
+      <c r="O163" s="6"/>
+    </row>
+    <row r="164" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A164" s="4"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F164" s="6"/>
+      <c r="K164" s="8"/>
+      <c r="L164" s="10"/>
+      <c r="M164" s="10"/>
+      <c r="N164" s="10"/>
+      <c r="O164" s="9"/>
+    </row>
+    <row r="165" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A165" s="4"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F165" s="6"/>
+    </row>
+    <row r="166" spans="1:16">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
-      <c r="E166" s="6"/>
-      <c r="I166" s="4"/>
-      <c r="J166" s="379"/>
-      <c r="K166" s="4"/>
-      <c r="L166" s="527"/>
-      <c r="M166" s="383"/>
-      <c r="N166" s="383"/>
-      <c r="O166" s="383"/>
-      <c r="P166" s="384"/>
-      <c r="Q166" s="6"/>
-    </row>
-    <row r="167" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A167" s="7"/>
-      <c r="B167" s="368" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C167" s="107"/>
-      <c r="D167" s="107"/>
-      <c r="E167" s="108"/>
-      <c r="I167" s="4"/>
-      <c r="J167" s="379"/>
-      <c r="K167" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="L167" s="527"/>
-      <c r="M167" s="383"/>
-      <c r="N167" s="383"/>
-      <c r="O167" s="383"/>
-      <c r="P167" s="384"/>
-      <c r="Q167" s="6"/>
-    </row>
-    <row r="168" spans="1:17">
-      <c r="A168" s="4" t="s">
-        <v>1500</v>
-      </c>
+      <c r="E166" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F166" s="6"/>
+      <c r="K166" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="L166" s="2"/>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
+      <c r="O166" s="3"/>
+    </row>
+    <row r="167" spans="1:16">
+      <c r="A167" s="4"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F167" s="6"/>
+      <c r="K167" s="4"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="5"/>
+      <c r="N167" s="5"/>
+      <c r="O167" s="6"/>
+    </row>
+    <row r="168" spans="1:16">
+      <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
-      <c r="E168" s="6"/>
-      <c r="I168" s="4"/>
-      <c r="J168" s="379"/>
+      <c r="E168" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F168" s="6"/>
       <c r="K168" s="4"/>
-      <c r="L168" s="527"/>
-      <c r="M168" s="383"/>
-      <c r="N168" s="383"/>
-      <c r="O168" s="383"/>
-      <c r="P168" s="384"/>
-      <c r="Q168" s="6"/>
-    </row>
-    <row r="169" spans="1:17" ht="15.75" thickBot="1">
+      <c r="L168" s="5"/>
+      <c r="M168" s="5"/>
+      <c r="N168" s="5"/>
+      <c r="O168" s="6"/>
+    </row>
+    <row r="169" spans="1:16">
       <c r="A169" s="4"/>
-      <c r="B169" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C169" s="38" t="s">
-        <v>29</v>
-      </c>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
       <c r="D169" s="5"/>
-      <c r="E169" s="6"/>
-      <c r="I169" s="4"/>
-      <c r="J169" s="379"/>
-      <c r="K169" s="8"/>
-      <c r="L169" s="527"/>
-      <c r="M169" s="383"/>
-      <c r="N169" s="383"/>
-      <c r="O169" s="383"/>
-      <c r="P169" s="384"/>
-      <c r="Q169" s="6"/>
-    </row>
-    <row r="170" spans="1:17">
+      <c r="E169" s="5" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F169" s="6"/>
+      <c r="K169" s="4" t="s">
+        <v>1542</v>
+      </c>
+      <c r="L169" s="5"/>
+      <c r="M169" s="5"/>
+      <c r="N169" s="5"/>
+      <c r="O169" s="6"/>
+    </row>
+    <row r="170" spans="1:16">
       <c r="A170" s="4"/>
-      <c r="B170" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C170" s="38" t="s">
-        <v>188</v>
-      </c>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
       <c r="D170" s="5"/>
-      <c r="E170" s="6"/>
-      <c r="I170" s="4"/>
-      <c r="J170" s="379"/>
-      <c r="K170" s="1"/>
-      <c r="L170" s="527"/>
-      <c r="M170" s="383"/>
-      <c r="N170" s="383"/>
-      <c r="O170" s="383"/>
-      <c r="P170" s="384"/>
-      <c r="Q170" s="6"/>
-    </row>
-    <row r="171" spans="1:17">
+      <c r="E170" s="24" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F170" s="6"/>
+      <c r="K170" s="4" t="s">
+        <v>1544</v>
+      </c>
+      <c r="L170" s="5"/>
+      <c r="M170" s="5"/>
+      <c r="N170" s="5"/>
+      <c r="O170" s="6"/>
+    </row>
+    <row r="171" spans="1:16">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
-      <c r="C171" s="5" t="s">
-        <v>301</v>
-      </c>
+      <c r="C171" s="5"/>
       <c r="D171" s="5"/>
-      <c r="E171" s="6"/>
-      <c r="I171" s="4"/>
-      <c r="J171" s="379"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="6"/>
       <c r="K171" s="4"/>
-      <c r="L171" s="527"/>
-      <c r="M171" s="383"/>
-      <c r="N171" s="383"/>
-      <c r="O171" s="383"/>
-      <c r="P171" s="384"/>
-      <c r="Q171" s="6"/>
-    </row>
-    <row r="172" spans="1:17">
-      <c r="A172" s="4" t="s">
-        <v>1499</v>
-      </c>
+      <c r="L171" s="5"/>
+      <c r="M171" s="5"/>
+      <c r="N171" s="5"/>
+      <c r="O171" s="6"/>
+    </row>
+    <row r="172" spans="1:16">
+      <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="16" t="s">
-        <v>1505</v>
-      </c>
-      <c r="I172" s="4"/>
-      <c r="J172" s="379"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="6"/>
       <c r="K172" s="4"/>
-      <c r="L172" s="527"/>
-      <c r="M172" s="383"/>
-      <c r="N172" s="383"/>
-      <c r="O172" s="383"/>
-      <c r="P172" s="384"/>
-      <c r="Q172" s="6"/>
-    </row>
-    <row r="173" spans="1:17">
-      <c r="A173" s="4"/>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="6"/>
-      <c r="F173" t="s">
-        <v>485</v>
-      </c>
-      <c r="I173" s="4"/>
-      <c r="J173" s="379"/>
-      <c r="K173" s="4" t="s">
-        <v>1486</v>
-      </c>
-      <c r="L173" s="527"/>
-      <c r="M173" s="383"/>
-      <c r="N173" s="383"/>
-      <c r="O173" s="383"/>
-      <c r="P173" s="384"/>
-      <c r="Q173" s="6"/>
-    </row>
-    <row r="174" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A174" s="8"/>
-      <c r="B174" s="10"/>
-      <c r="C174" s="10"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="9"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="379"/>
-      <c r="K174" s="4"/>
-      <c r="L174" s="527"/>
-      <c r="M174" s="383"/>
-      <c r="N174" s="383"/>
-      <c r="O174" s="383"/>
-      <c r="P174" s="384"/>
-      <c r="Q174" s="6"/>
-    </row>
-    <row r="175" spans="1:17" ht="15.75" thickBot="1">
-      <c r="I175" s="4"/>
-      <c r="J175" s="379"/>
-      <c r="K175" s="8"/>
-      <c r="L175" s="527"/>
-      <c r="M175" s="383"/>
-      <c r="N175" s="383"/>
-      <c r="O175" s="383"/>
-      <c r="P175" s="384"/>
-      <c r="Q175" s="6"/>
-    </row>
-    <row r="176" spans="1:17">
-      <c r="A176" t="s">
-        <v>1498</v>
-      </c>
-      <c r="I176" s="4"/>
-      <c r="J176" s="379"/>
-      <c r="K176" s="5"/>
-      <c r="L176" s="527"/>
-      <c r="M176" s="383"/>
-      <c r="N176" s="383"/>
-      <c r="O176" s="383"/>
-      <c r="P176" s="384"/>
-      <c r="Q176" s="6"/>
-    </row>
-    <row r="177" spans="1:17">
-      <c r="I177" s="4"/>
-      <c r="J177" s="379"/>
-      <c r="K177" s="5"/>
-      <c r="L177" s="527"/>
-      <c r="M177" s="383"/>
-      <c r="N177" s="383"/>
-      <c r="O177" s="383"/>
-      <c r="P177" s="384"/>
-      <c r="Q177" s="6"/>
-    </row>
-    <row r="178" spans="1:17">
-      <c r="A178" t="s">
-        <v>1501</v>
-      </c>
-      <c r="F178" t="s">
-        <v>167</v>
-      </c>
-      <c r="I178" s="4"/>
-      <c r="J178" s="379"/>
-      <c r="K178" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="L178" s="527"/>
-      <c r="M178" s="383"/>
-      <c r="N178" s="383"/>
-      <c r="O178" s="383"/>
-      <c r="P178" s="384"/>
-      <c r="Q178" s="6"/>
-    </row>
-    <row r="179" spans="1:17">
-      <c r="F179" t="s">
-        <v>168</v>
-      </c>
-      <c r="I179" s="4"/>
-      <c r="J179" s="379"/>
-      <c r="K179" s="5"/>
-      <c r="L179" s="527"/>
-      <c r="M179" s="383"/>
-      <c r="N179" s="383"/>
-      <c r="O179" s="383"/>
-      <c r="P179" s="384"/>
-      <c r="Q179" s="6"/>
-    </row>
-    <row r="180" spans="1:17">
-      <c r="A180" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D180" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I180" s="4"/>
-      <c r="J180" s="379"/>
-      <c r="K180" s="5"/>
-      <c r="L180" s="527"/>
-      <c r="M180" s="383"/>
-      <c r="N180" s="383"/>
-      <c r="O180" s="383"/>
-      <c r="P180" s="384"/>
-      <c r="Q180" s="6"/>
-    </row>
-    <row r="181" spans="1:17">
-      <c r="A181" t="s">
+      <c r="L172" s="5"/>
+      <c r="M172" s="5"/>
+      <c r="N172" s="5"/>
+      <c r="O172" s="6"/>
+    </row>
+    <row r="173" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A173" s="8"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="9"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="5"/>
+      <c r="M173" s="5"/>
+      <c r="N173" s="5"/>
+      <c r="O173" s="6"/>
+    </row>
+    <row r="174" spans="1:16" ht="15.75" thickBot="1">
+      <c r="K174" s="8"/>
+      <c r="L174" s="10"/>
+      <c r="M174" s="10"/>
+      <c r="N174" s="10"/>
+      <c r="O174" s="9"/>
+    </row>
+    <row r="176" spans="1:16">
+      <c r="J176" t="s">
+        <v>1575</v>
+      </c>
+      <c r="M176" t="s">
+        <v>1573</v>
+      </c>
+      <c r="N176" t="s">
+        <v>1570</v>
+      </c>
+      <c r="P176" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="177" spans="5:16">
+      <c r="N177" t="s">
+        <v>1567</v>
+      </c>
+      <c r="P177" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="178" spans="5:16" ht="15.75" thickBot="1">
+      <c r="L178" t="s">
+        <v>1196</v>
+      </c>
+      <c r="N178" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="179" spans="5:16">
+      <c r="L179" s="1"/>
+      <c r="M179" s="3"/>
+      <c r="N179" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="180" spans="5:16">
+      <c r="E180" t="s">
+        <v>429</v>
+      </c>
+      <c r="F180" t="s">
+        <v>1554</v>
+      </c>
+      <c r="L180" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="M180" s="6" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="181" spans="5:16" ht="15.75" thickBot="1">
+      <c r="E181" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1563</v>
+      </c>
+      <c r="L181" s="8" t="s">
+        <v>1559</v>
+      </c>
+      <c r="M181" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="N181" t="s">
+        <v>1570</v>
+      </c>
+      <c r="P181" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="182" spans="5:16">
+      <c r="F182" t="s">
+        <v>1558</v>
+      </c>
+      <c r="I182" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J182" t="s">
+        <v>1576</v>
+      </c>
+      <c r="M182" t="s">
+        <v>1574</v>
+      </c>
+      <c r="N182" t="s">
+        <v>1567</v>
+      </c>
+      <c r="P182" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="183" spans="5:16" ht="15.75" thickBot="1">
+      <c r="L183" t="s">
+        <v>43</v>
+      </c>
+      <c r="N183" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="184" spans="5:16">
+      <c r="L184" s="1"/>
+      <c r="M184" s="3"/>
+      <c r="N184" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="185" spans="5:16">
+      <c r="L185" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="M185" s="6" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="186" spans="5:16" ht="15.75" thickBot="1">
+      <c r="L186" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="M186" s="9" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="190" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="L190" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="191" spans="5:16">
+      <c r="L191" s="1"/>
+      <c r="M191" s="3"/>
+    </row>
+    <row r="192" spans="5:16">
+      <c r="E192" t="s">
+        <v>429</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1554</v>
+      </c>
+      <c r="L192" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="M192" s="6" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" ht="15.75" thickBot="1">
+      <c r="E193" t="s">
+        <v>1562</v>
+      </c>
+      <c r="L193" s="8" t="s">
+        <v>1559</v>
+      </c>
+      <c r="M193" s="9" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17">
+      <c r="F194" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" ht="15.75" thickBot="1">
+      <c r="L195" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17">
+      <c r="L196" s="1"/>
+      <c r="M196" s="3"/>
+    </row>
+    <row r="197" spans="1:17">
+      <c r="F197" t="s">
+        <v>1554</v>
+      </c>
+      <c r="L197" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="M197" s="6" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" ht="15.75" thickBot="1">
+      <c r="L198" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="M198" s="9" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="203" spans="1:17" ht="15.75" thickBot="1">
+      <c r="E203" t="s">
+        <v>52</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="O203" s="2"/>
+      <c r="P203" s="2"/>
+      <c r="Q203" s="3"/>
+    </row>
+    <row r="204" spans="1:17">
+      <c r="A204" s="1"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="3"/>
+      <c r="I204" s="4"/>
+      <c r="J204" s="403" t="s">
+        <v>1493</v>
+      </c>
+      <c r="K204" s="1"/>
+      <c r="L204" s="435" t="s">
+        <v>1504</v>
+      </c>
+      <c r="M204" s="412" t="s">
         <v>1503</v>
       </c>
-      <c r="D181" s="37">
-        <v>80</v>
-      </c>
-      <c r="I181" s="4"/>
-      <c r="J181" s="379"/>
-      <c r="K181" s="5"/>
-      <c r="L181" s="527"/>
-      <c r="M181" s="383"/>
-      <c r="N181" s="383"/>
-      <c r="O181" s="383"/>
-      <c r="P181" s="384"/>
-      <c r="Q181" s="6"/>
-    </row>
-    <row r="182" spans="1:17">
-      <c r="A182" t="s">
-        <v>1504</v>
-      </c>
-      <c r="E182" s="37" t="s">
-        <v>1165</v>
-      </c>
-      <c r="I182" s="4"/>
-      <c r="J182" s="379"/>
-      <c r="K182" s="5"/>
-      <c r="L182" s="527"/>
-      <c r="M182" s="383"/>
-      <c r="N182" s="383"/>
-      <c r="O182" s="383"/>
-      <c r="P182" s="384"/>
-      <c r="Q182" s="6"/>
-    </row>
-    <row r="183" spans="1:17" ht="15.75" thickBot="1">
-      <c r="I183" s="4"/>
-      <c r="J183" s="380"/>
-      <c r="K183" s="10"/>
-      <c r="L183" s="528"/>
-      <c r="M183" s="385"/>
-      <c r="N183" s="385"/>
-      <c r="O183" s="385"/>
-      <c r="P183" s="386"/>
-      <c r="Q183" s="6"/>
-    </row>
-    <row r="184" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H184" t="s">
-        <v>10</v>
-      </c>
-      <c r="I184" s="8"/>
-      <c r="J184" s="10"/>
-      <c r="K184" s="10"/>
-      <c r="L184" s="10"/>
-      <c r="M184" s="10"/>
-      <c r="N184" s="10"/>
-      <c r="O184" s="10"/>
-      <c r="P184" s="10"/>
-      <c r="Q184" s="9"/>
-    </row>
-    <row r="188" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="189" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A189" s="1"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="3"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="2"/>
-      <c r="K189" s="2"/>
-      <c r="L189" s="2"/>
-      <c r="M189" s="2"/>
-      <c r="N189" s="2"/>
-      <c r="O189" s="2"/>
-      <c r="P189" s="2"/>
-      <c r="Q189" s="3"/>
-    </row>
-    <row r="190" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A190" s="7"/>
-      <c r="B190" s="368" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C190" s="107"/>
-      <c r="D190" s="108"/>
-      <c r="I190" s="4"/>
-      <c r="J190" s="378" t="s">
-        <v>1508</v>
-      </c>
-      <c r="K190" s="2"/>
-      <c r="L190" s="2"/>
-      <c r="M190" s="2"/>
-      <c r="N190" s="2"/>
-      <c r="O190" s="2"/>
-      <c r="P190" s="3"/>
-      <c r="Q190" s="6"/>
-    </row>
-    <row r="191" spans="1:17">
-      <c r="A191" s="4"/>
-      <c r="B191" s="5"/>
-      <c r="C191" s="5"/>
-      <c r="D191" s="6"/>
-      <c r="I191" s="4"/>
-      <c r="J191" s="379"/>
-      <c r="K191" s="5"/>
-      <c r="L191" s="245" t="s">
-        <v>301</v>
-      </c>
-      <c r="M191" s="5"/>
-      <c r="N191" s="245" t="s">
-        <v>299</v>
-      </c>
-      <c r="O191" s="5"/>
-      <c r="P191" s="6"/>
-      <c r="Q191" s="6"/>
-    </row>
-    <row r="192" spans="1:17">
-      <c r="A192" s="4"/>
-      <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
-      <c r="D192" s="6"/>
-      <c r="E192" t="s">
-        <v>1510</v>
-      </c>
-      <c r="I192" s="4"/>
-      <c r="J192" s="379"/>
-      <c r="K192" s="5"/>
-      <c r="L192" s="246" t="s">
-        <v>223</v>
-      </c>
-      <c r="M192" s="5"/>
-      <c r="N192" s="246" t="s">
-        <v>223</v>
-      </c>
-      <c r="O192" s="5"/>
-      <c r="P192" s="6"/>
-      <c r="Q192" s="6"/>
-    </row>
-    <row r="193" spans="1:17">
-      <c r="A193" s="4"/>
-      <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="6"/>
-      <c r="I193" s="4"/>
-      <c r="J193" s="379"/>
-      <c r="K193" s="5"/>
-      <c r="L193" s="246"/>
-      <c r="M193" s="5"/>
-      <c r="N193" s="246"/>
-      <c r="O193" s="5"/>
-      <c r="P193" s="6"/>
-      <c r="Q193" s="6"/>
-    </row>
-    <row r="194" spans="1:17">
-      <c r="A194" s="4"/>
-      <c r="B194" s="5"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="6"/>
-      <c r="E194" t="s">
-        <v>1511</v>
-      </c>
-      <c r="I194" s="4"/>
-      <c r="J194" s="379"/>
-      <c r="K194" s="5"/>
-      <c r="L194" s="246"/>
-      <c r="M194" s="5"/>
-      <c r="N194" s="246"/>
-      <c r="O194" s="5"/>
-      <c r="P194" s="6"/>
-      <c r="Q194" s="6"/>
-    </row>
-    <row r="195" spans="1:17">
-      <c r="A195" s="4"/>
-      <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="6"/>
-      <c r="I195" s="4"/>
-      <c r="J195" s="379"/>
-      <c r="K195" s="5"/>
-      <c r="L195" s="246"/>
-      <c r="M195" s="5"/>
-      <c r="N195" s="246"/>
-      <c r="O195" s="5"/>
-      <c r="P195" s="6"/>
-      <c r="Q195" s="6"/>
-    </row>
-    <row r="196" spans="1:17">
-      <c r="A196" s="4"/>
-      <c r="B196" s="5"/>
-      <c r="C196" s="5"/>
-      <c r="D196" s="6"/>
-      <c r="I196" s="4"/>
-      <c r="J196" s="379"/>
-      <c r="K196" s="5"/>
-      <c r="L196" s="246"/>
-      <c r="M196" s="5"/>
-      <c r="N196" s="246"/>
-      <c r="O196" s="5"/>
-      <c r="P196" s="6"/>
-      <c r="Q196" s="6"/>
-    </row>
-    <row r="197" spans="1:17">
-      <c r="A197" s="4"/>
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="6"/>
-      <c r="I197" s="4"/>
-      <c r="J197" s="379"/>
-      <c r="K197" s="5"/>
-      <c r="L197" s="246"/>
-      <c r="M197" s="5"/>
-      <c r="N197" s="246"/>
-      <c r="O197" s="5"/>
-      <c r="P197" s="6"/>
-      <c r="Q197" s="6"/>
-    </row>
-    <row r="198" spans="1:17">
-      <c r="A198" s="4"/>
-      <c r="B198" s="5"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="6"/>
-      <c r="I198" s="4"/>
-      <c r="J198" s="379"/>
-      <c r="K198" s="5"/>
-      <c r="L198" s="246"/>
-      <c r="M198" s="5"/>
-      <c r="N198" s="246"/>
-      <c r="O198" s="5"/>
-      <c r="P198" s="6"/>
-      <c r="Q198" s="6"/>
-    </row>
-    <row r="199" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A199" s="8"/>
-      <c r="B199" s="10"/>
-      <c r="C199" s="10"/>
-      <c r="D199" s="9"/>
-      <c r="I199" s="4"/>
-      <c r="J199" s="379"/>
-      <c r="K199" s="5"/>
-      <c r="L199" s="247"/>
-      <c r="M199" s="5"/>
-      <c r="N199" s="247"/>
-      <c r="O199" s="5"/>
-      <c r="P199" s="6"/>
-      <c r="Q199" s="6"/>
-    </row>
-    <row r="200" spans="1:17" ht="15.75" thickBot="1">
-      <c r="I200" s="4"/>
-      <c r="J200" s="380"/>
-      <c r="K200" s="10"/>
-      <c r="L200" s="10"/>
-      <c r="M200" s="10"/>
-      <c r="N200" s="10"/>
-      <c r="O200" s="10"/>
-      <c r="P200" s="9"/>
-      <c r="Q200" s="6"/>
-    </row>
-    <row r="201" spans="1:17" ht="15.75" thickBot="1">
-      <c r="I201" s="8"/>
-      <c r="J201" s="10"/>
-      <c r="K201" s="10"/>
-      <c r="L201" s="10"/>
-      <c r="M201" s="10"/>
-      <c r="N201" s="10"/>
-      <c r="O201" s="10"/>
-      <c r="P201" s="10"/>
-      <c r="Q201" s="9"/>
-    </row>
-    <row r="202" spans="1:17">
-      <c r="D202" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="203" spans="1:17">
-      <c r="E203" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="204" spans="1:17" ht="15.75" thickBot="1"/>
+      <c r="N204" s="413"/>
+      <c r="O204" s="413"/>
+      <c r="P204" s="414"/>
+      <c r="Q204" s="6"/>
+    </row>
     <row r="205" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A205" s="1"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="3"/>
-      <c r="I205" s="1"/>
-      <c r="J205" s="2"/>
-      <c r="K205" s="2"/>
-      <c r="L205" s="2"/>
-      <c r="M205" s="2"/>
-      <c r="N205" s="2"/>
-      <c r="O205" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="P205" s="2"/>
-      <c r="Q205" s="3"/>
-    </row>
-    <row r="206" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A205" s="4"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="6"/>
+      <c r="I205" s="4"/>
+      <c r="J205" s="404"/>
+      <c r="K205" s="4"/>
+      <c r="L205" s="436"/>
+      <c r="M205" s="415"/>
+      <c r="N205" s="415"/>
+      <c r="O205" s="415"/>
+      <c r="P205" s="416"/>
+      <c r="Q205" s="6"/>
+    </row>
+    <row r="206" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A206" s="7"/>
       <c r="B206" s="368" t="s">
-        <v>1509</v>
+        <v>1494</v>
       </c>
       <c r="C206" s="107"/>
-      <c r="D206" s="108"/>
+      <c r="D206" s="107"/>
+      <c r="E206" s="108"/>
       <c r="I206" s="4"/>
-      <c r="J206" s="378" t="s">
-        <v>1508</v>
-      </c>
-      <c r="K206" s="2"/>
-      <c r="L206" s="2"/>
-      <c r="M206" s="2"/>
-      <c r="N206" s="2"/>
-      <c r="O206" s="2">
-        <v>1231231231</v>
-      </c>
-      <c r="P206" s="3"/>
+      <c r="J206" s="404"/>
+      <c r="K206" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="L206" s="436"/>
+      <c r="M206" s="415"/>
+      <c r="N206" s="415"/>
+      <c r="O206" s="415"/>
+      <c r="P206" s="416"/>
       <c r="Q206" s="6"/>
     </row>
     <row r="207" spans="1:17">
-      <c r="A207" s="4"/>
+      <c r="A207" s="4" t="s">
+        <v>1497</v>
+      </c>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
-      <c r="D207" s="6"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="6"/>
       <c r="I207" s="4"/>
-      <c r="J207" s="379"/>
-      <c r="K207" s="5"/>
-      <c r="L207" s="245" t="s">
-        <v>301</v>
-      </c>
-      <c r="M207" s="245" t="s">
-        <v>299</v>
-      </c>
-      <c r="O207" s="418" t="s">
-        <v>968</v>
-      </c>
-      <c r="P207" s="419"/>
+      <c r="J207" s="404"/>
+      <c r="K207" s="4"/>
+      <c r="L207" s="436"/>
+      <c r="M207" s="415"/>
+      <c r="N207" s="415"/>
+      <c r="O207" s="415"/>
+      <c r="P207" s="416"/>
       <c r="Q207" s="6"/>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" ht="15.75" thickBot="1">
       <c r="A208" s="4"/>
-      <c r="B208" s="5"/>
-      <c r="C208" s="5"/>
-      <c r="D208" s="6"/>
-      <c r="E208" t="s">
-        <v>1510</v>
-      </c>
+      <c r="B208" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C208" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D208" s="5"/>
+      <c r="E208" s="6"/>
       <c r="I208" s="4"/>
-      <c r="J208" s="379"/>
-      <c r="K208" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L208" s="246" t="s">
-        <v>223</v>
-      </c>
-      <c r="M208" s="246" t="s">
-        <v>223</v>
-      </c>
-      <c r="O208" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="P208" s="38" t="s">
-        <v>1377</v>
-      </c>
+      <c r="J208" s="404"/>
+      <c r="K208" s="8"/>
+      <c r="L208" s="436"/>
+      <c r="M208" s="415"/>
+      <c r="N208" s="415"/>
+      <c r="O208" s="415"/>
+      <c r="P208" s="416"/>
       <c r="Q208" s="6"/>
     </row>
     <row r="209" spans="1:17">
       <c r="A209" s="4"/>
-      <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="6"/>
-      <c r="E209" t="s">
-        <v>1515</v>
-      </c>
+      <c r="B209" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C209" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D209" s="5"/>
+      <c r="E209" s="6"/>
       <c r="I209" s="4"/>
-      <c r="J209" s="379"/>
-      <c r="K209" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="L209" s="246"/>
-      <c r="M209" s="246"/>
-      <c r="O209" s="38" t="s">
-        <v>299</v>
-      </c>
-      <c r="P209" s="38" t="s">
-        <v>1377</v>
-      </c>
+      <c r="J209" s="404"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="436"/>
+      <c r="M209" s="415"/>
+      <c r="N209" s="415"/>
+      <c r="O209" s="415"/>
+      <c r="P209" s="416"/>
       <c r="Q209" s="6"/>
     </row>
     <row r="210" spans="1:17">
       <c r="A210" s="4"/>
       <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="6"/>
+      <c r="C210" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D210" s="5"/>
+      <c r="E210" s="6"/>
       <c r="I210" s="4"/>
-      <c r="J210" s="379"/>
-      <c r="K210" s="5"/>
-      <c r="L210" s="246" t="s">
-        <v>287</v>
-      </c>
-      <c r="M210" s="246"/>
-      <c r="O210" s="38" t="s">
-        <v>768</v>
-      </c>
-      <c r="P210" s="38" t="s">
-        <v>1518</v>
-      </c>
+      <c r="J210" s="404"/>
+      <c r="K210" s="4"/>
+      <c r="L210" s="436"/>
+      <c r="M210" s="415"/>
+      <c r="N210" s="415"/>
+      <c r="O210" s="415"/>
+      <c r="P210" s="416"/>
       <c r="Q210" s="6"/>
     </row>
     <row r="211" spans="1:17">
-      <c r="A211" s="4"/>
+      <c r="A211" s="4" t="s">
+        <v>1496</v>
+      </c>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
-      <c r="D211" s="6"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="6"/>
+      <c r="F211" s="16" t="s">
+        <v>1502</v>
+      </c>
       <c r="I211" s="4"/>
-      <c r="J211" s="379"/>
-      <c r="K211" s="5"/>
-      <c r="L211" s="246" t="s">
-        <v>1514</v>
-      </c>
-      <c r="M211" s="246"/>
-      <c r="O211" s="38"/>
-      <c r="P211" s="38"/>
+      <c r="J211" s="404"/>
+      <c r="K211" s="4"/>
+      <c r="L211" s="436"/>
+      <c r="M211" s="415"/>
+      <c r="N211" s="415"/>
+      <c r="O211" s="415"/>
+      <c r="P211" s="416"/>
       <c r="Q211" s="6"/>
     </row>
     <row r="212" spans="1:17">
       <c r="A212" s="4"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
-      <c r="D212" s="6"/>
-      <c r="E212" t="s">
-        <v>1517</v>
+      <c r="D212" s="5"/>
+      <c r="E212" s="6"/>
+      <c r="F212" t="s">
+        <v>485</v>
       </c>
       <c r="I212" s="4"/>
-      <c r="J212" s="379"/>
-      <c r="K212" s="5" t="s">
-        <v>1516</v>
-      </c>
-      <c r="L212" s="246"/>
-      <c r="M212" s="246"/>
-      <c r="O212" s="38"/>
-      <c r="P212" s="38"/>
+      <c r="J212" s="404"/>
+      <c r="K212" s="4" t="s">
+        <v>1483</v>
+      </c>
+      <c r="L212" s="436"/>
+      <c r="M212" s="415"/>
+      <c r="N212" s="415"/>
+      <c r="O212" s="415"/>
+      <c r="P212" s="416"/>
       <c r="Q212" s="6"/>
     </row>
-    <row r="213" spans="1:17">
-      <c r="A213" s="487"/>
-      <c r="B213" s="428"/>
-      <c r="C213" s="428"/>
-      <c r="D213" s="508"/>
+    <row r="213" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A213" s="8"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="9"/>
       <c r="I213" s="4"/>
-      <c r="J213" s="379"/>
-      <c r="K213" s="5"/>
-      <c r="L213" s="246"/>
-      <c r="M213" s="246"/>
-      <c r="O213" s="38"/>
-      <c r="P213" s="38"/>
+      <c r="J213" s="404"/>
+      <c r="K213" s="4"/>
+      <c r="L213" s="436"/>
+      <c r="M213" s="415"/>
+      <c r="N213" s="415"/>
+      <c r="O213" s="415"/>
+      <c r="P213" s="416"/>
       <c r="Q213" s="6"/>
     </row>
-    <row r="214" spans="1:17">
-      <c r="A214" s="512"/>
-      <c r="B214" s="428"/>
-      <c r="C214" s="428"/>
-      <c r="D214" s="508"/>
+    <row r="214" spans="1:17" ht="15.75" thickBot="1">
       <c r="I214" s="4"/>
-      <c r="J214" s="379"/>
-      <c r="K214" s="5"/>
-      <c r="L214" s="246"/>
-      <c r="M214" s="246"/>
-      <c r="O214" s="5"/>
-      <c r="P214" s="6"/>
+      <c r="J214" s="404"/>
+      <c r="K214" s="8"/>
+      <c r="L214" s="436"/>
+      <c r="M214" s="415"/>
+      <c r="N214" s="415"/>
+      <c r="O214" s="415"/>
+      <c r="P214" s="416"/>
       <c r="Q214" s="6"/>
     </row>
-    <row r="215" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A215" s="530"/>
-      <c r="B215" s="531"/>
-      <c r="C215" s="531"/>
-      <c r="D215" s="525"/>
+    <row r="215" spans="1:17">
+      <c r="A215" t="s">
+        <v>1495</v>
+      </c>
       <c r="I215" s="4"/>
-      <c r="J215" s="379"/>
+      <c r="J215" s="404"/>
       <c r="K215" s="5"/>
-      <c r="L215" s="247"/>
-      <c r="M215" s="247"/>
-      <c r="O215" s="5"/>
-      <c r="P215" s="6"/>
+      <c r="L215" s="436"/>
+      <c r="M215" s="415"/>
+      <c r="N215" s="415"/>
+      <c r="O215" s="415"/>
+      <c r="P215" s="416"/>
       <c r="Q215" s="6"/>
     </row>
-    <row r="216" spans="1:17" ht="15.75" thickBot="1">
+    <row r="216" spans="1:17">
       <c r="I216" s="4"/>
-      <c r="J216" s="380"/>
-      <c r="K216" s="10"/>
-      <c r="L216" s="10"/>
-      <c r="M216" s="10"/>
-      <c r="N216" s="10"/>
-      <c r="O216" s="10"/>
-      <c r="P216" s="9"/>
+      <c r="J216" s="404"/>
+      <c r="K216" s="5"/>
+      <c r="L216" s="436"/>
+      <c r="M216" s="415"/>
+      <c r="N216" s="415"/>
+      <c r="O216" s="415"/>
+      <c r="P216" s="416"/>
       <c r="Q216" s="6"/>
     </row>
-    <row r="217" spans="1:17" ht="15.75" thickBot="1">
-      <c r="I217" s="8"/>
-      <c r="J217" s="10"/>
-      <c r="K217" s="10"/>
-      <c r="L217" s="10"/>
-      <c r="M217" s="10"/>
-      <c r="N217" s="10"/>
-      <c r="O217" s="10"/>
-      <c r="P217" s="10"/>
-      <c r="Q217" s="9"/>
+    <row r="217" spans="1:17">
+      <c r="A217" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F217" t="s">
+        <v>167</v>
+      </c>
+      <c r="I217" s="4"/>
+      <c r="J217" s="404"/>
+      <c r="K217" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="L217" s="436"/>
+      <c r="M217" s="415"/>
+      <c r="N217" s="415"/>
+      <c r="O217" s="415"/>
+      <c r="P217" s="416"/>
+      <c r="Q217" s="6"/>
     </row>
     <row r="218" spans="1:17">
-      <c r="D218" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="219" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="220" spans="1:17" ht="15.75" thickBot="1">
-      <c r="I220" s="1"/>
-      <c r="J220" s="2"/>
-      <c r="K220" s="2"/>
-      <c r="L220" s="2"/>
-      <c r="M220" s="2"/>
-      <c r="N220" s="2"/>
-      <c r="O220" s="2"/>
-      <c r="P220" s="3"/>
+      <c r="F218" t="s">
+        <v>168</v>
+      </c>
+      <c r="I218" s="4"/>
+      <c r="J218" s="404"/>
+      <c r="K218" s="5"/>
+      <c r="L218" s="436"/>
+      <c r="M218" s="415"/>
+      <c r="N218" s="415"/>
+      <c r="O218" s="415"/>
+      <c r="P218" s="416"/>
+      <c r="Q218" s="6"/>
+    </row>
+    <row r="219" spans="1:17">
+      <c r="A219" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D219" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I219" s="4"/>
+      <c r="J219" s="404"/>
+      <c r="K219" s="5"/>
+      <c r="L219" s="436"/>
+      <c r="M219" s="415"/>
+      <c r="N219" s="415"/>
+      <c r="O219" s="415"/>
+      <c r="P219" s="416"/>
+      <c r="Q219" s="6"/>
+    </row>
+    <row r="220" spans="1:17">
+      <c r="A220" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D220" s="37">
+        <v>80</v>
+      </c>
+      <c r="I220" s="4"/>
+      <c r="J220" s="404"/>
+      <c r="K220" s="5"/>
+      <c r="L220" s="436"/>
+      <c r="M220" s="415"/>
+      <c r="N220" s="415"/>
+      <c r="O220" s="415"/>
+      <c r="P220" s="416"/>
+      <c r="Q220" s="6"/>
     </row>
     <row r="221" spans="1:17">
-      <c r="A221" s="1"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="3"/>
+      <c r="A221" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E221" s="37" t="s">
+        <v>1165</v>
+      </c>
       <c r="I221" s="4"/>
-      <c r="J221" s="1" t="s">
-        <v>1523</v>
-      </c>
-      <c r="K221" s="2"/>
-      <c r="L221" s="2"/>
-      <c r="M221" s="2"/>
-      <c r="N221" s="2"/>
-      <c r="O221" s="3"/>
-      <c r="P221" s="6"/>
-    </row>
-    <row r="222" spans="1:17">
-      <c r="A222" s="4"/>
-      <c r="B222" s="5" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C222" s="5"/>
-      <c r="D222" s="6"/>
-      <c r="E222" t="s">
-        <v>29</v>
-      </c>
+      <c r="J221" s="404"/>
+      <c r="K221" s="5"/>
+      <c r="L221" s="436"/>
+      <c r="M221" s="415"/>
+      <c r="N221" s="415"/>
+      <c r="O221" s="415"/>
+      <c r="P221" s="416"/>
+      <c r="Q221" s="6"/>
+    </row>
+    <row r="222" spans="1:17" ht="15.75" thickBot="1">
       <c r="I222" s="4"/>
-      <c r="J222" s="4"/>
-      <c r="K222" s="5"/>
-      <c r="L222" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="M222" s="5" t="s">
-        <v>1524</v>
-      </c>
-      <c r="N222" s="5" t="s">
-        <v>1525</v>
-      </c>
-      <c r="O222" s="6"/>
-      <c r="P222" s="6"/>
-    </row>
-    <row r="223" spans="1:17">
-      <c r="A223" s="4"/>
-      <c r="B223" s="5"/>
-      <c r="C223" s="5"/>
-      <c r="D223" s="6"/>
-      <c r="E223" t="s">
-        <v>1526</v>
-      </c>
-      <c r="I223" s="4"/>
-      <c r="J223" s="4"/>
-      <c r="K223" s="5"/>
-      <c r="L223" s="532">
-        <v>12345</v>
-      </c>
-      <c r="M223" s="533" t="s">
+      <c r="J222" s="405"/>
+      <c r="K222" s="10"/>
+      <c r="L222" s="437"/>
+      <c r="M222" s="417"/>
+      <c r="N222" s="417"/>
+      <c r="O222" s="417"/>
+      <c r="P222" s="418"/>
+      <c r="Q222" s="6"/>
+    </row>
+    <row r="223" spans="1:17" ht="15.75" thickBot="1">
+      <c r="H223" t="s">
+        <v>10</v>
+      </c>
+      <c r="I223" s="8"/>
+      <c r="J223" s="10"/>
+      <c r="K223" s="10"/>
+      <c r="L223" s="10"/>
+      <c r="M223" s="10"/>
+      <c r="N223" s="10"/>
+      <c r="O223" s="10"/>
+      <c r="P223" s="10"/>
+      <c r="Q223" s="9"/>
+    </row>
+    <row r="227" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="228" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A228" s="1"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="3"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="2"/>
+      <c r="K228" s="2"/>
+      <c r="L228" s="2"/>
+      <c r="M228" s="2"/>
+      <c r="N228" s="2"/>
+      <c r="O228" s="2"/>
+      <c r="P228" s="2"/>
+      <c r="Q228" s="3"/>
+    </row>
+    <row r="229" spans="1:17" ht="45.75" thickBot="1">
+      <c r="A229" s="7"/>
+      <c r="B229" s="368" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C229" s="107"/>
+      <c r="D229" s="108"/>
+      <c r="I229" s="4"/>
+      <c r="J229" s="372" t="s">
+        <v>1505</v>
+      </c>
+      <c r="K229" s="2"/>
+      <c r="L229" s="2"/>
+      <c r="M229" s="2"/>
+      <c r="N229" s="2"/>
+      <c r="O229" s="2"/>
+      <c r="P229" s="3"/>
+      <c r="Q229" s="6"/>
+    </row>
+    <row r="230" spans="1:17">
+      <c r="A230" s="4"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="6"/>
+      <c r="I230" s="4"/>
+      <c r="J230" s="373"/>
+      <c r="K230" s="5"/>
+      <c r="L230" s="245" t="s">
         <v>301</v>
       </c>
-      <c r="N223" s="533" t="s">
-        <v>1529</v>
-      </c>
-      <c r="O223" s="6"/>
-      <c r="P223" s="6"/>
-    </row>
-    <row r="224" spans="1:17">
-      <c r="A224" s="374" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B224" s="393"/>
-      <c r="C224" s="393"/>
-      <c r="D224" s="376"/>
-      <c r="E224" t="s">
-        <v>1527</v>
-      </c>
-      <c r="I224" s="4"/>
-      <c r="J224" s="4"/>
-      <c r="K224" s="5"/>
-      <c r="L224" s="532"/>
-      <c r="M224" s="533"/>
-      <c r="N224" s="533"/>
-      <c r="O224" s="6"/>
-      <c r="P224" s="6"/>
-    </row>
-    <row r="225" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A225" s="394"/>
-      <c r="B225" s="395"/>
-      <c r="C225" s="395"/>
-      <c r="D225" s="396"/>
-      <c r="E225" t="s">
-        <v>1537</v>
-      </c>
-      <c r="I225" s="4"/>
-      <c r="J225" s="4"/>
-      <c r="K225" s="5"/>
-      <c r="L225" s="532"/>
-      <c r="M225" s="533"/>
-      <c r="N225" s="533"/>
-      <c r="O225" s="6"/>
-      <c r="P225" s="6"/>
-    </row>
-    <row r="226" spans="1:16" ht="15.75" thickBot="1">
-      <c r="E226" t="s">
-        <v>1538</v>
-      </c>
-      <c r="I226" s="4"/>
-      <c r="J226" s="4"/>
-      <c r="K226" s="5"/>
-      <c r="L226" s="377">
-        <v>234234</v>
-      </c>
-      <c r="M226" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="N226" s="38" t="s">
-        <v>1377</v>
-      </c>
-      <c r="O226" s="6"/>
-      <c r="P226" s="6"/>
-    </row>
-    <row r="227" spans="1:16">
-      <c r="A227" s="1"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="3"/>
-      <c r="I227" s="4"/>
-      <c r="J227" s="4"/>
-      <c r="K227" s="5"/>
-      <c r="L227" s="377"/>
-      <c r="M227" s="38"/>
-      <c r="N227" s="38"/>
-      <c r="O227" s="6"/>
-      <c r="P227" s="6"/>
-    </row>
-    <row r="228" spans="1:16">
-      <c r="A228" s="4"/>
-      <c r="B228" s="5" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C228" s="5"/>
-      <c r="D228" s="6"/>
-      <c r="E228" t="s">
-        <v>26</v>
-      </c>
-      <c r="I228" s="4"/>
-      <c r="J228" s="4"/>
-      <c r="K228" s="5"/>
-      <c r="L228" s="377"/>
-      <c r="M228" s="38"/>
-      <c r="N228" s="38"/>
-      <c r="O228" s="6"/>
-      <c r="P228" s="6"/>
-    </row>
-    <row r="229" spans="1:16">
-      <c r="A229" s="374" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B229" s="393"/>
-      <c r="C229" s="393"/>
-      <c r="D229" s="376"/>
-      <c r="E229" t="s">
-        <v>1530</v>
-      </c>
-      <c r="I229" s="4"/>
-      <c r="J229" s="4"/>
-      <c r="K229" s="5"/>
-      <c r="L229" s="532">
-        <v>345345</v>
-      </c>
-      <c r="M229" s="533" t="s">
-        <v>768</v>
-      </c>
-      <c r="N229" s="533" t="s">
-        <v>1536</v>
-      </c>
-      <c r="O229" s="6"/>
-      <c r="P229" s="6"/>
-    </row>
-    <row r="230" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A230" s="394"/>
-      <c r="B230" s="395"/>
-      <c r="C230" s="395"/>
-      <c r="D230" s="396"/>
-      <c r="E230" t="s">
-        <v>1531</v>
-      </c>
-      <c r="I230" s="4"/>
-      <c r="J230" s="4"/>
-      <c r="K230" s="5"/>
-      <c r="L230" s="532"/>
-      <c r="M230" s="533"/>
-      <c r="N230" s="533"/>
-      <c r="O230" s="6"/>
+      <c r="M230" s="5"/>
+      <c r="N230" s="245" t="s">
+        <v>299</v>
+      </c>
+      <c r="O230" s="5"/>
       <c r="P230" s="6"/>
-    </row>
-    <row r="231" spans="1:16" ht="15.75" thickBot="1">
+      <c r="Q230" s="6"/>
+    </row>
+    <row r="231" spans="1:17">
+      <c r="A231" s="4"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="6"/>
+      <c r="E231" t="s">
+        <v>1507</v>
+      </c>
       <c r="I231" s="4"/>
-      <c r="J231" s="4"/>
+      <c r="J231" s="373"/>
       <c r="K231" s="5"/>
-      <c r="L231" s="532"/>
-      <c r="M231" s="533"/>
-      <c r="N231" s="533"/>
-      <c r="O231" s="6"/>
+      <c r="L231" s="246" t="s">
+        <v>223</v>
+      </c>
+      <c r="M231" s="5"/>
+      <c r="N231" s="246" t="s">
+        <v>223</v>
+      </c>
+      <c r="O231" s="5"/>
       <c r="P231" s="6"/>
-    </row>
-    <row r="232" spans="1:16">
-      <c r="A232" s="1"/>
-      <c r="B232" s="5" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C232" s="2"/>
-      <c r="D232" s="3"/>
-      <c r="E232" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q231" s="6"/>
+    </row>
+    <row r="232" spans="1:17">
+      <c r="A232" s="4"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="6"/>
       <c r="I232" s="4"/>
-      <c r="J232" s="4"/>
+      <c r="J232" s="373"/>
       <c r="K232" s="5"/>
-      <c r="L232" s="377">
-        <v>456456</v>
-      </c>
-      <c r="M232" s="38" t="s">
-        <v>768</v>
-      </c>
-      <c r="N232" s="38" t="s">
-        <v>1542</v>
-      </c>
-      <c r="O232" s="6"/>
+      <c r="L232" s="246"/>
+      <c r="M232" s="5"/>
+      <c r="N232" s="246"/>
+      <c r="O232" s="5"/>
       <c r="P232" s="6"/>
-    </row>
-    <row r="233" spans="1:16">
+      <c r="Q232" s="6"/>
+    </row>
+    <row r="233" spans="1:17">
       <c r="A233" s="4"/>
-      <c r="B233" s="5" t="s">
-        <v>1522</v>
-      </c>
+      <c r="B233" s="5"/>
       <c r="C233" s="5"/>
       <c r="D233" s="6"/>
       <c r="E233" t="s">
-        <v>1532</v>
+        <v>1508</v>
       </c>
       <c r="I233" s="4"/>
-      <c r="J233" s="4"/>
+      <c r="J233" s="373"/>
       <c r="K233" s="5"/>
-      <c r="L233" s="377"/>
-      <c r="M233" s="38"/>
-      <c r="N233" s="38"/>
-      <c r="O233" s="6"/>
+      <c r="L233" s="246"/>
+      <c r="M233" s="5"/>
+      <c r="N233" s="246"/>
+      <c r="O233" s="5"/>
       <c r="P233" s="6"/>
-    </row>
-    <row r="234" spans="1:16">
+      <c r="Q233" s="6"/>
+    </row>
+    <row r="234" spans="1:17">
       <c r="A234" s="4"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
       <c r="D234" s="6"/>
-      <c r="E234" t="s">
+      <c r="I234" s="4"/>
+      <c r="J234" s="373"/>
+      <c r="K234" s="5"/>
+      <c r="L234" s="246"/>
+      <c r="M234" s="5"/>
+      <c r="N234" s="246"/>
+      <c r="O234" s="5"/>
+      <c r="P234" s="6"/>
+      <c r="Q234" s="6"/>
+    </row>
+    <row r="235" spans="1:17">
+      <c r="A235" s="4"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="6"/>
+      <c r="I235" s="4"/>
+      <c r="J235" s="373"/>
+      <c r="K235" s="5"/>
+      <c r="L235" s="246"/>
+      <c r="M235" s="5"/>
+      <c r="N235" s="246"/>
+      <c r="O235" s="5"/>
+      <c r="P235" s="6"/>
+      <c r="Q235" s="6"/>
+    </row>
+    <row r="236" spans="1:17">
+      <c r="A236" s="4"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="6"/>
+      <c r="I236" s="4"/>
+      <c r="J236" s="373"/>
+      <c r="K236" s="5"/>
+      <c r="L236" s="246"/>
+      <c r="M236" s="5"/>
+      <c r="N236" s="246"/>
+      <c r="O236" s="5"/>
+      <c r="P236" s="6"/>
+      <c r="Q236" s="6"/>
+    </row>
+    <row r="237" spans="1:17">
+      <c r="A237" s="4"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="6"/>
+      <c r="I237" s="4"/>
+      <c r="J237" s="373"/>
+      <c r="K237" s="5"/>
+      <c r="L237" s="246"/>
+      <c r="M237" s="5"/>
+      <c r="N237" s="246"/>
+      <c r="O237" s="5"/>
+      <c r="P237" s="6"/>
+      <c r="Q237" s="6"/>
+    </row>
+    <row r="238" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A238" s="8"/>
+      <c r="B238" s="10"/>
+      <c r="C238" s="10"/>
+      <c r="D238" s="9"/>
+      <c r="I238" s="4"/>
+      <c r="J238" s="373"/>
+      <c r="K238" s="5"/>
+      <c r="L238" s="247"/>
+      <c r="M238" s="5"/>
+      <c r="N238" s="247"/>
+      <c r="O238" s="5"/>
+      <c r="P238" s="6"/>
+      <c r="Q238" s="6"/>
+    </row>
+    <row r="239" spans="1:17" ht="15.75" thickBot="1">
+      <c r="I239" s="4"/>
+      <c r="J239" s="374"/>
+      <c r="K239" s="10"/>
+      <c r="L239" s="10"/>
+      <c r="M239" s="10"/>
+      <c r="N239" s="10"/>
+      <c r="O239" s="10"/>
+      <c r="P239" s="9"/>
+      <c r="Q239" s="6"/>
+    </row>
+    <row r="240" spans="1:17" ht="15.75" thickBot="1">
+      <c r="I240" s="8"/>
+      <c r="J240" s="10"/>
+      <c r="K240" s="10"/>
+      <c r="L240" s="10"/>
+      <c r="M240" s="10"/>
+      <c r="N240" s="10"/>
+      <c r="O240" s="10"/>
+      <c r="P240" s="10"/>
+      <c r="Q240" s="9"/>
+    </row>
+    <row r="241" spans="1:17">
+      <c r="D241" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17">
+      <c r="E242" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="244" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A244" s="1"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="3"/>
+      <c r="I244" s="1"/>
+      <c r="J244" s="2"/>
+      <c r="K244" s="2"/>
+      <c r="L244" s="2"/>
+      <c r="M244" s="2"/>
+      <c r="N244" s="2"/>
+      <c r="O244" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="P244" s="2"/>
+      <c r="Q244" s="3"/>
+    </row>
+    <row r="245" spans="1:17" ht="45.75" thickBot="1">
+      <c r="A245" s="7"/>
+      <c r="B245" s="368" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C245" s="107"/>
+      <c r="D245" s="108"/>
+      <c r="I245" s="4"/>
+      <c r="J245" s="372" t="s">
+        <v>1505</v>
+      </c>
+      <c r="K245" s="2"/>
+      <c r="L245" s="2"/>
+      <c r="M245" s="2"/>
+      <c r="N245" s="2"/>
+      <c r="O245" s="2">
+        <v>1231231231</v>
+      </c>
+      <c r="P245" s="3"/>
+      <c r="Q245" s="6"/>
+    </row>
+    <row r="246" spans="1:17">
+      <c r="A246" s="4"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="6"/>
+      <c r="I246" s="4"/>
+      <c r="J246" s="373"/>
+      <c r="K246" s="5"/>
+      <c r="L246" s="245" t="s">
+        <v>301</v>
+      </c>
+      <c r="M246" s="245" t="s">
+        <v>299</v>
+      </c>
+      <c r="O246" s="379" t="s">
+        <v>968</v>
+      </c>
+      <c r="P246" s="380"/>
+      <c r="Q246" s="6"/>
+    </row>
+    <row r="247" spans="1:17">
+      <c r="A247" s="4"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="6"/>
+      <c r="E247" t="s">
+        <v>1507</v>
+      </c>
+      <c r="I247" s="4"/>
+      <c r="J247" s="373"/>
+      <c r="K247" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L247" s="246" t="s">
+        <v>223</v>
+      </c>
+      <c r="M247" s="246" t="s">
+        <v>223</v>
+      </c>
+      <c r="O247" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="P247" s="38" t="s">
+        <v>1377</v>
+      </c>
+      <c r="Q247" s="6"/>
+    </row>
+    <row r="248" spans="1:17">
+      <c r="A248" s="4"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="6"/>
+      <c r="E248" t="s">
+        <v>1512</v>
+      </c>
+      <c r="I248" s="4"/>
+      <c r="J248" s="373"/>
+      <c r="K248" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="L248" s="246"/>
+      <c r="M248" s="246"/>
+      <c r="O248" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="P248" s="38" t="s">
+        <v>1377</v>
+      </c>
+      <c r="Q248" s="6"/>
+    </row>
+    <row r="249" spans="1:17">
+      <c r="A249" s="4"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="6"/>
+      <c r="I249" s="4"/>
+      <c r="J249" s="373"/>
+      <c r="K249" s="5"/>
+      <c r="L249" s="246" t="s">
+        <v>287</v>
+      </c>
+      <c r="M249" s="246"/>
+      <c r="O249" s="38" t="s">
+        <v>768</v>
+      </c>
+      <c r="P249" s="38" t="s">
+        <v>1515</v>
+      </c>
+      <c r="Q249" s="6"/>
+    </row>
+    <row r="250" spans="1:17">
+      <c r="A250" s="4"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="6"/>
+      <c r="I250" s="4"/>
+      <c r="J250" s="373"/>
+      <c r="K250" s="5"/>
+      <c r="L250" s="246" t="s">
+        <v>1511</v>
+      </c>
+      <c r="M250" s="246"/>
+      <c r="O250" s="38"/>
+      <c r="P250" s="38"/>
+      <c r="Q250" s="6"/>
+    </row>
+    <row r="251" spans="1:17">
+      <c r="A251" s="4"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="6"/>
+      <c r="E251" t="s">
+        <v>1514</v>
+      </c>
+      <c r="I251" s="4"/>
+      <c r="J251" s="373"/>
+      <c r="K251" s="5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="L251" s="246"/>
+      <c r="M251" s="246"/>
+      <c r="O251" s="38"/>
+      <c r="P251" s="38"/>
+      <c r="Q251" s="6"/>
+    </row>
+    <row r="252" spans="1:17">
+      <c r="A252" s="382"/>
+      <c r="B252" s="381"/>
+      <c r="C252" s="381"/>
+      <c r="D252" s="383"/>
+      <c r="I252" s="4"/>
+      <c r="J252" s="373"/>
+      <c r="K252" s="5"/>
+      <c r="L252" s="246"/>
+      <c r="M252" s="246"/>
+      <c r="O252" s="38"/>
+      <c r="P252" s="38"/>
+      <c r="Q252" s="6"/>
+    </row>
+    <row r="253" spans="1:17">
+      <c r="A253" s="384"/>
+      <c r="B253" s="381"/>
+      <c r="C253" s="381"/>
+      <c r="D253" s="383"/>
+      <c r="I253" s="4"/>
+      <c r="J253" s="373"/>
+      <c r="K253" s="5"/>
+      <c r="L253" s="246"/>
+      <c r="M253" s="246"/>
+      <c r="O253" s="5"/>
+      <c r="P253" s="6"/>
+      <c r="Q253" s="6"/>
+    </row>
+    <row r="254" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A254" s="386"/>
+      <c r="B254" s="387"/>
+      <c r="C254" s="387"/>
+      <c r="D254" s="385"/>
+      <c r="I254" s="4"/>
+      <c r="J254" s="373"/>
+      <c r="K254" s="5"/>
+      <c r="L254" s="247"/>
+      <c r="M254" s="247"/>
+      <c r="O254" s="5"/>
+      <c r="P254" s="6"/>
+      <c r="Q254" s="6"/>
+    </row>
+    <row r="255" spans="1:17" ht="15.75" thickBot="1">
+      <c r="I255" s="4"/>
+      <c r="J255" s="374"/>
+      <c r="K255" s="10"/>
+      <c r="L255" s="10"/>
+      <c r="M255" s="10"/>
+      <c r="N255" s="10"/>
+      <c r="O255" s="10"/>
+      <c r="P255" s="9"/>
+      <c r="Q255" s="6"/>
+    </row>
+    <row r="256" spans="1:17" ht="15.75" thickBot="1">
+      <c r="I256" s="8"/>
+      <c r="J256" s="10"/>
+      <c r="K256" s="10"/>
+      <c r="L256" s="10"/>
+      <c r="M256" s="10"/>
+      <c r="N256" s="10"/>
+      <c r="O256" s="10"/>
+      <c r="P256" s="10"/>
+      <c r="Q256" s="9"/>
+    </row>
+    <row r="257" spans="1:16">
+      <c r="D257" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="259" spans="1:16" ht="15.75" thickBot="1">
+      <c r="I259" s="1"/>
+      <c r="J259" s="2"/>
+      <c r="K259" s="2"/>
+      <c r="L259" s="2"/>
+      <c r="M259" s="2"/>
+      <c r="N259" s="2"/>
+      <c r="O259" s="2"/>
+      <c r="P259" s="3"/>
+    </row>
+    <row r="260" spans="1:16">
+      <c r="A260" s="1"/>
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="3"/>
+      <c r="I260" s="4"/>
+      <c r="J260" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K260" s="2"/>
+      <c r="L260" s="2"/>
+      <c r="M260" s="2"/>
+      <c r="N260" s="2"/>
+      <c r="O260" s="3"/>
+      <c r="P260" s="6"/>
+    </row>
+    <row r="261" spans="1:16">
+      <c r="A261" s="4"/>
+      <c r="B261" s="5" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C261" s="5"/>
+      <c r="D261" s="6"/>
+      <c r="E261" t="s">
+        <v>29</v>
+      </c>
+      <c r="I261" s="4"/>
+      <c r="J261" s="4"/>
+      <c r="K261" s="5"/>
+      <c r="L261" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="M261" s="5" t="s">
+        <v>1521</v>
+      </c>
+      <c r="N261" s="5" t="s">
+        <v>1522</v>
+      </c>
+      <c r="O261" s="6"/>
+      <c r="P261" s="6"/>
+    </row>
+    <row r="262" spans="1:16">
+      <c r="A262" s="4"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="6"/>
+      <c r="E262" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I262" s="4"/>
+      <c r="J262" s="4"/>
+      <c r="K262" s="5"/>
+      <c r="L262" s="388">
+        <v>12345</v>
+      </c>
+      <c r="M262" s="389" t="s">
+        <v>301</v>
+      </c>
+      <c r="N262" s="389" t="s">
+        <v>1526</v>
+      </c>
+      <c r="O262" s="6"/>
+      <c r="P262" s="6"/>
+    </row>
+    <row r="263" spans="1:16">
+      <c r="A263" s="369" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B263" s="375"/>
+      <c r="C263" s="375"/>
+      <c r="D263" s="370"/>
+      <c r="E263" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I263" s="4"/>
+      <c r="J263" s="4"/>
+      <c r="K263" s="5"/>
+      <c r="L263" s="388"/>
+      <c r="M263" s="389"/>
+      <c r="N263" s="389"/>
+      <c r="O263" s="6"/>
+      <c r="P263" s="6"/>
+    </row>
+    <row r="264" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A264" s="376"/>
+      <c r="B264" s="377"/>
+      <c r="C264" s="377"/>
+      <c r="D264" s="378"/>
+      <c r="E264" t="s">
+        <v>1534</v>
+      </c>
+      <c r="I264" s="4"/>
+      <c r="J264" s="4"/>
+      <c r="K264" s="5"/>
+      <c r="L264" s="388"/>
+      <c r="M264" s="389"/>
+      <c r="N264" s="389"/>
+      <c r="O264" s="6"/>
+      <c r="P264" s="6"/>
+    </row>
+    <row r="265" spans="1:16" ht="15.75" thickBot="1">
+      <c r="E265" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I265" s="4"/>
+      <c r="J265" s="4"/>
+      <c r="K265" s="5"/>
+      <c r="L265" s="371">
+        <v>234234</v>
+      </c>
+      <c r="M265" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="N265" s="38" t="s">
+        <v>1377</v>
+      </c>
+      <c r="O265" s="6"/>
+      <c r="P265" s="6"/>
+    </row>
+    <row r="266" spans="1:16">
+      <c r="A266" s="1"/>
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="3"/>
+      <c r="I266" s="4"/>
+      <c r="J266" s="4"/>
+      <c r="K266" s="5"/>
+      <c r="L266" s="371"/>
+      <c r="M266" s="38"/>
+      <c r="N266" s="38"/>
+      <c r="O266" s="6"/>
+      <c r="P266" s="6"/>
+    </row>
+    <row r="267" spans="1:16">
+      <c r="A267" s="4"/>
+      <c r="B267" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C267" s="5"/>
+      <c r="D267" s="6"/>
+      <c r="E267" t="s">
+        <v>26</v>
+      </c>
+      <c r="I267" s="4"/>
+      <c r="J267" s="4"/>
+      <c r="K267" s="5"/>
+      <c r="L267" s="371"/>
+      <c r="M267" s="38"/>
+      <c r="N267" s="38"/>
+      <c r="O267" s="6"/>
+      <c r="P267" s="6"/>
+    </row>
+    <row r="268" spans="1:16">
+      <c r="A268" s="369" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B268" s="375"/>
+      <c r="C268" s="375"/>
+      <c r="D268" s="370"/>
+      <c r="E268" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I268" s="4"/>
+      <c r="J268" s="4"/>
+      <c r="K268" s="5"/>
+      <c r="L268" s="388">
+        <v>345345</v>
+      </c>
+      <c r="M268" s="389" t="s">
+        <v>768</v>
+      </c>
+      <c r="N268" s="389" t="s">
         <v>1533</v>
       </c>
-      <c r="I234" s="4"/>
-      <c r="J234" s="4"/>
-      <c r="K234" s="5"/>
-      <c r="L234" s="377"/>
-      <c r="M234" s="38"/>
-      <c r="N234" s="38"/>
-      <c r="O234" s="6"/>
-      <c r="P234" s="6"/>
-    </row>
-    <row r="235" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A235" s="374"/>
-      <c r="B235" s="393"/>
-      <c r="C235" s="393"/>
-      <c r="D235" s="376"/>
-      <c r="E235" t="s">
-        <v>1535</v>
-      </c>
-      <c r="I235" s="4"/>
-      <c r="J235" s="8"/>
-      <c r="K235" s="10"/>
-      <c r="L235" s="10"/>
-      <c r="M235" s="10"/>
-      <c r="N235" s="10"/>
-      <c r="O235" s="9"/>
-      <c r="P235" s="6"/>
-    </row>
-    <row r="236" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A236" s="394"/>
-      <c r="B236" s="395"/>
-      <c r="C236" s="395"/>
-      <c r="D236" s="396"/>
-      <c r="I236" s="8"/>
-      <c r="J236" s="10"/>
-      <c r="K236" s="10"/>
-      <c r="L236" s="10"/>
-      <c r="M236" s="10"/>
-      <c r="N236" s="10"/>
-      <c r="O236" s="10"/>
-      <c r="P236" s="9"/>
-    </row>
-    <row r="237" spans="1:16" ht="15.75" thickBot="1">
-      <c r="E237" t="s">
+      <c r="O268" s="6"/>
+      <c r="P268" s="6"/>
+    </row>
+    <row r="269" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A269" s="376"/>
+      <c r="B269" s="377"/>
+      <c r="C269" s="377"/>
+      <c r="D269" s="378"/>
+      <c r="E269" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I269" s="4"/>
+      <c r="J269" s="4"/>
+      <c r="K269" s="5"/>
+      <c r="L269" s="388"/>
+      <c r="M269" s="389"/>
+      <c r="N269" s="389"/>
+      <c r="O269" s="6"/>
+      <c r="P269" s="6"/>
+    </row>
+    <row r="270" spans="1:16" ht="15.75" thickBot="1">
+      <c r="I270" s="4"/>
+      <c r="J270" s="4"/>
+      <c r="K270" s="5"/>
+      <c r="L270" s="388"/>
+      <c r="M270" s="389"/>
+      <c r="N270" s="389"/>
+      <c r="O270" s="6"/>
+      <c r="P270" s="6"/>
+    </row>
+    <row r="271" spans="1:16">
+      <c r="A271" s="1"/>
+      <c r="B271" s="5" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C271" s="2"/>
+      <c r="D271" s="3"/>
+      <c r="E271" t="s">
+        <v>31</v>
+      </c>
+      <c r="I271" s="4"/>
+      <c r="J271" s="4"/>
+      <c r="K271" s="5"/>
+      <c r="L271" s="371">
+        <v>456456</v>
+      </c>
+      <c r="M271" s="38" t="s">
+        <v>768</v>
+      </c>
+      <c r="N271" s="38" t="s">
+        <v>1539</v>
+      </c>
+      <c r="O271" s="6"/>
+      <c r="P271" s="6"/>
+    </row>
+    <row r="272" spans="1:16">
+      <c r="A272" s="4"/>
+      <c r="B272" s="5" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C272" s="5"/>
+      <c r="D272" s="6"/>
+      <c r="E272" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I272" s="4"/>
+      <c r="J272" s="4"/>
+      <c r="K272" s="5"/>
+      <c r="L272" s="371"/>
+      <c r="M272" s="38"/>
+      <c r="N272" s="38"/>
+      <c r="O272" s="6"/>
+      <c r="P272" s="6"/>
+    </row>
+    <row r="273" spans="1:17">
+      <c r="A273" s="4"/>
+      <c r="B273" s="5"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="6"/>
+      <c r="E273" t="s">
+        <v>1530</v>
+      </c>
+      <c r="I273" s="4"/>
+      <c r="J273" s="4"/>
+      <c r="K273" s="5"/>
+      <c r="L273" s="371"/>
+      <c r="M273" s="38"/>
+      <c r="N273" s="38"/>
+      <c r="O273" s="6"/>
+      <c r="P273" s="6"/>
+    </row>
+    <row r="274" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A274" s="369"/>
+      <c r="B274" s="375"/>
+      <c r="C274" s="375"/>
+      <c r="D274" s="370"/>
+      <c r="E274" t="s">
+        <v>1532</v>
+      </c>
+      <c r="I274" s="4"/>
+      <c r="J274" s="8"/>
+      <c r="K274" s="10"/>
+      <c r="L274" s="10"/>
+      <c r="M274" s="10"/>
+      <c r="N274" s="10"/>
+      <c r="O274" s="9"/>
+      <c r="P274" s="6"/>
+    </row>
+    <row r="275" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A275" s="376"/>
+      <c r="B275" s="377"/>
+      <c r="C275" s="377"/>
+      <c r="D275" s="378"/>
+      <c r="I275" s="8"/>
+      <c r="J275" s="10"/>
+      <c r="K275" s="10"/>
+      <c r="L275" s="10"/>
+      <c r="M275" s="10"/>
+      <c r="N275" s="10"/>
+      <c r="O275" s="10"/>
+      <c r="P275" s="9"/>
+    </row>
+    <row r="276" spans="1:17" ht="15.75" thickBot="1">
+      <c r="E276" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17">
+      <c r="A277" s="1"/>
+      <c r="B277" s="5" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C277" s="2"/>
+      <c r="D277" s="3"/>
+      <c r="E277" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17">
+      <c r="A278" s="4"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="6"/>
+      <c r="E278" t="s">
         <v>1540</v>
       </c>
     </row>
-    <row r="238" spans="1:16">
-      <c r="A238" s="1"/>
-      <c r="B238" s="5" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C238" s="2"/>
-      <c r="D238" s="3"/>
-      <c r="E238" t="s">
+    <row r="279" spans="1:17">
+      <c r="A279" s="4"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="6"/>
+    </row>
+    <row r="280" spans="1:17">
+      <c r="A280" s="369" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="239" spans="1:16">
-      <c r="A239" s="4"/>
-      <c r="B239" s="5"/>
-      <c r="C239" s="5"/>
-      <c r="D239" s="6"/>
-      <c r="E239" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="240" spans="1:16">
-      <c r="A240" s="4"/>
-      <c r="B240" s="5"/>
-      <c r="C240" s="5"/>
-      <c r="D240" s="6"/>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="374" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B241" s="393"/>
-      <c r="C241" s="393"/>
-      <c r="D241" s="376"/>
-    </row>
-    <row r="242" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A242" s="394"/>
-      <c r="B242" s="395"/>
-      <c r="C242" s="395"/>
-      <c r="D242" s="396"/>
+      <c r="B280" s="375"/>
+      <c r="C280" s="375"/>
+      <c r="D280" s="370"/>
+    </row>
+    <row r="281" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A281" s="376"/>
+      <c r="B281" s="377"/>
+      <c r="C281" s="377"/>
+      <c r="D281" s="378"/>
+    </row>
+    <row r="282" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="283" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A283" s="1"/>
+      <c r="B283" s="2"/>
+      <c r="C283" s="3"/>
+      <c r="F283" s="1"/>
+      <c r="G283" s="2"/>
+      <c r="H283" s="2"/>
+      <c r="I283" s="2"/>
+      <c r="J283" s="2"/>
+      <c r="K283" s="2"/>
+      <c r="L283" s="2"/>
+      <c r="M283" s="2"/>
+      <c r="N283" s="2"/>
+      <c r="O283" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="P283" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="Q283" s="3"/>
+    </row>
+    <row r="284" spans="1:17">
+      <c r="A284" s="4"/>
+      <c r="B284" s="5"/>
+      <c r="C284" s="6"/>
+      <c r="F284" s="4"/>
+      <c r="G284" s="5"/>
+      <c r="H284" s="5"/>
+      <c r="I284" s="5"/>
+      <c r="J284" s="5"/>
+      <c r="K284" s="5"/>
+      <c r="L284" s="5"/>
+      <c r="M284" s="5"/>
+      <c r="N284" s="5">
+        <v>12312323</v>
+      </c>
+      <c r="O284" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="P284" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q284" s="6"/>
+    </row>
+    <row r="285" spans="1:17">
+      <c r="A285" s="4"/>
+      <c r="B285" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C285" s="6"/>
+      <c r="F285" s="4"/>
+      <c r="G285" s="5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="H285" s="5"/>
+      <c r="I285" s="5"/>
+      <c r="J285" s="5"/>
+      <c r="K285" s="5"/>
+      <c r="L285" s="5"/>
+      <c r="M285" s="5"/>
+      <c r="N285" s="5"/>
+      <c r="O285" s="4"/>
+      <c r="P285" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q285" s="6"/>
+    </row>
+    <row r="286" spans="1:17">
+      <c r="A286" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B286" s="38" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C286" s="6"/>
+      <c r="F286" s="4"/>
+      <c r="G286" s="5" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H286" s="5"/>
+      <c r="I286" s="5"/>
+      <c r="J286" s="5"/>
+      <c r="K286" t="b">
+        <v>1</v>
+      </c>
+      <c r="M286" s="5"/>
+      <c r="N286" s="5"/>
+      <c r="O286" s="4"/>
+      <c r="P286" s="38"/>
+      <c r="Q286" s="6"/>
+    </row>
+    <row r="287" spans="1:17">
+      <c r="A287" s="4"/>
+      <c r="B287" s="5" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F287" s="4"/>
+      <c r="G287" s="5"/>
+      <c r="H287" s="5" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I287" s="5"/>
+      <c r="J287" s="5"/>
+      <c r="M287" s="5"/>
+      <c r="N287" s="5"/>
+      <c r="O287" s="4"/>
+      <c r="P287" s="38"/>
+      <c r="Q287" s="6"/>
+    </row>
+    <row r="288" spans="1:17">
+      <c r="A288" s="4"/>
+      <c r="B288" s="5"/>
+      <c r="C288" s="6"/>
+      <c r="F288" s="4"/>
+      <c r="G288" s="5"/>
+      <c r="H288" s="5"/>
+      <c r="I288" s="5"/>
+      <c r="J288" s="5"/>
+      <c r="M288" s="5"/>
+      <c r="N288" s="5"/>
+      <c r="O288" s="4"/>
+      <c r="P288" s="6"/>
+      <c r="Q288" s="6"/>
+    </row>
+    <row r="289" spans="1:17">
+      <c r="A289" s="4"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="6"/>
+      <c r="F289" s="4"/>
+      <c r="G289" s="5" t="s">
+        <v>1588</v>
+      </c>
+      <c r="H289" s="5"/>
+      <c r="I289" s="5"/>
+      <c r="J289" s="5"/>
+      <c r="M289" s="5"/>
+      <c r="N289" s="5"/>
+      <c r="O289" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="P289" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q289" s="6"/>
+    </row>
+    <row r="290" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A290" s="8"/>
+      <c r="B290" s="10"/>
+      <c r="C290" s="9"/>
+      <c r="F290" s="4"/>
+      <c r="G290" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="H290" s="5"/>
+      <c r="I290" s="5"/>
+      <c r="J290" s="5"/>
+      <c r="M290" s="5"/>
+      <c r="N290" s="5"/>
+      <c r="O290" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="P290" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q290" s="6"/>
+    </row>
+    <row r="291" spans="1:17">
+      <c r="F291" s="4"/>
+      <c r="G291" s="5" t="s">
+        <v>1590</v>
+      </c>
+      <c r="H291" s="5"/>
+      <c r="I291" s="5"/>
+      <c r="J291" s="5"/>
+      <c r="M291" s="5"/>
+      <c r="N291" s="5"/>
+      <c r="O291" s="5"/>
+      <c r="P291" s="5"/>
+      <c r="Q291" s="6"/>
+    </row>
+    <row r="292" spans="1:17">
+      <c r="D292" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F292" s="4"/>
+      <c r="G292" s="5" t="s">
+        <v>1591</v>
+      </c>
+      <c r="H292" s="5"/>
+      <c r="I292" s="5"/>
+      <c r="J292" s="5"/>
+      <c r="M292" s="5"/>
+      <c r="N292" s="5"/>
+      <c r="O292" s="5"/>
+      <c r="P292" s="5"/>
+      <c r="Q292" s="6"/>
+    </row>
+    <row r="293" spans="1:17" ht="15.75" thickBot="1">
+      <c r="F293" s="4"/>
+      <c r="G293" s="5"/>
+      <c r="H293" s="5"/>
+      <c r="I293" s="5"/>
+      <c r="J293" s="5"/>
+      <c r="K293" s="5"/>
+      <c r="L293" s="5"/>
+      <c r="M293" s="5"/>
+      <c r="N293" s="5"/>
+      <c r="O293" s="5"/>
+      <c r="P293" s="5"/>
+      <c r="Q293" s="6"/>
+    </row>
+    <row r="294" spans="1:17">
+      <c r="A294" s="1"/>
+      <c r="B294" s="2"/>
+      <c r="C294" s="3"/>
+      <c r="F294" s="4"/>
+      <c r="G294" s="5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="H294" s="5"/>
+      <c r="I294" s="5"/>
+      <c r="J294" s="5"/>
+      <c r="K294" s="5"/>
+      <c r="L294" s="5"/>
+      <c r="M294" s="5"/>
+      <c r="N294" s="5"/>
+      <c r="O294" s="5"/>
+      <c r="P294" s="5"/>
+      <c r="Q294" s="6"/>
+    </row>
+    <row r="295" spans="1:17">
+      <c r="A295" s="4"/>
+      <c r="B295" s="5"/>
+      <c r="C295" s="6"/>
+      <c r="F295" s="4"/>
+      <c r="G295" s="5" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H295" s="5"/>
+      <c r="I295" s="5"/>
+      <c r="J295" s="5"/>
+      <c r="K295" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L295" s="5"/>
+      <c r="M295" s="5"/>
+      <c r="N295" s="5"/>
+      <c r="O295" s="5"/>
+      <c r="P295" s="5"/>
+      <c r="Q295" s="6"/>
+    </row>
+    <row r="296" spans="1:17">
+      <c r="A296" s="4"/>
+      <c r="B296" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C296" s="6"/>
+      <c r="F296" s="4"/>
+      <c r="G296" s="5"/>
+      <c r="H296" s="5" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I296" s="5"/>
+      <c r="J296" s="5"/>
+      <c r="K296" s="5"/>
+      <c r="L296" s="5"/>
+      <c r="M296" s="5"/>
+      <c r="N296" s="5"/>
+      <c r="O296" s="5"/>
+      <c r="P296" s="5"/>
+      <c r="Q296" s="6"/>
+    </row>
+    <row r="297" spans="1:17">
+      <c r="A297" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B297" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="C297" s="6"/>
+      <c r="F297" s="4"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="5"/>
+      <c r="J297" s="5"/>
+      <c r="K297" s="5"/>
+      <c r="L297" s="5"/>
+      <c r="M297" s="5"/>
+      <c r="N297" s="5"/>
+      <c r="O297" s="5"/>
+      <c r="P297" s="5"/>
+      <c r="Q297" s="6"/>
+    </row>
+    <row r="298" spans="1:17">
+      <c r="A298" s="4"/>
+      <c r="B298" s="5" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F298" s="4"/>
+      <c r="G298" s="5" t="s">
+        <v>1588</v>
+      </c>
+      <c r="H298" s="5"/>
+      <c r="I298" s="5"/>
+      <c r="J298" s="5"/>
+      <c r="K298" s="5"/>
+      <c r="L298" s="5"/>
+      <c r="M298" s="5"/>
+      <c r="N298" s="5"/>
+      <c r="O298" s="5"/>
+      <c r="P298" s="5"/>
+      <c r="Q298" s="6"/>
+    </row>
+    <row r="299" spans="1:17">
+      <c r="A299" s="4"/>
+      <c r="B299" s="5"/>
+      <c r="C299" s="6"/>
+      <c r="F299" s="4"/>
+      <c r="G299" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="H299" s="5"/>
+      <c r="I299" s="5"/>
+      <c r="J299" s="5"/>
+      <c r="K299" s="5"/>
+      <c r="L299" s="5"/>
+      <c r="M299" s="5"/>
+      <c r="N299" s="5"/>
+      <c r="O299" s="5"/>
+      <c r="P299" s="5"/>
+      <c r="Q299" s="6"/>
+    </row>
+    <row r="300" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A300" s="4"/>
+      <c r="B300" s="5"/>
+      <c r="C300" s="6"/>
+      <c r="F300" s="8"/>
+      <c r="G300" s="5" t="s">
+        <v>1590</v>
+      </c>
+      <c r="H300" s="5"/>
+      <c r="I300" s="5"/>
+      <c r="J300" s="5"/>
+      <c r="K300" s="10"/>
+      <c r="L300" s="10"/>
+      <c r="M300" s="10"/>
+      <c r="N300" s="10"/>
+      <c r="O300" s="10"/>
+      <c r="P300" s="10"/>
+      <c r="Q300" s="9"/>
+    </row>
+    <row r="301" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A301" s="8"/>
+      <c r="B301" s="10"/>
+      <c r="C301" s="9"/>
+      <c r="D301" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G301" s="5" t="s">
+        <v>1591</v>
+      </c>
+      <c r="H301" s="5"/>
+      <c r="I301" s="5"/>
+      <c r="J301" s="5"/>
+    </row>
+    <row r="326" spans="4:14" ht="15.75" thickBot="1"/>
+    <row r="327" spans="4:14">
+      <c r="H327" s="1"/>
+      <c r="I327" s="2"/>
+      <c r="J327" s="3"/>
+    </row>
+    <row r="328" spans="4:14">
+      <c r="H328" s="4"/>
+      <c r="I328" s="5"/>
+      <c r="J328" s="6"/>
+    </row>
+    <row r="329" spans="4:14">
+      <c r="H329" s="4"/>
+      <c r="I329" s="5"/>
+      <c r="J329" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="330" spans="4:14">
+      <c r="H330" s="4"/>
+      <c r="I330" s="5"/>
+      <c r="J330" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="331" spans="4:14">
+      <c r="H331" s="4"/>
+      <c r="I331" s="5"/>
+      <c r="J331" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="332" spans="4:14">
+      <c r="H332" s="4"/>
+      <c r="I332" s="5"/>
+      <c r="J332" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="333" spans="4:14">
+      <c r="H333" s="4"/>
+      <c r="I333" s="5"/>
+      <c r="J333" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="334" spans="4:14" ht="15.75" thickBot="1">
+      <c r="H334" s="8"/>
+      <c r="I334" s="10"/>
+      <c r="J334" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="335" spans="4:14">
+      <c r="D335" s="66"/>
+      <c r="E335" s="67"/>
+      <c r="F335" s="237"/>
+      <c r="J335" t="s">
+        <v>281</v>
+      </c>
+      <c r="L335" s="1"/>
+      <c r="M335" s="2"/>
+      <c r="N335" s="3"/>
+    </row>
+    <row r="336" spans="4:14">
+      <c r="D336" s="58"/>
+      <c r="E336" s="59"/>
+      <c r="F336" s="312"/>
+      <c r="J336" t="s">
+        <v>281</v>
+      </c>
+      <c r="L336" s="4"/>
+      <c r="M336" s="5"/>
+      <c r="N336" s="6"/>
+    </row>
+    <row r="337" spans="4:14">
+      <c r="D337" s="58"/>
+      <c r="E337" s="59"/>
+      <c r="F337" s="312"/>
+      <c r="J337" t="s">
+        <v>476</v>
+      </c>
+      <c r="L337" s="4" t="s">
+        <v>1579</v>
+      </c>
+      <c r="M337" s="5"/>
+      <c r="N337" s="6"/>
+    </row>
+    <row r="338" spans="4:14">
+      <c r="D338" s="58"/>
+      <c r="E338" s="59"/>
+      <c r="F338" s="312"/>
+      <c r="H338" t="s">
+        <v>1581</v>
+      </c>
+      <c r="L338" s="4"/>
+      <c r="M338" s="5"/>
+      <c r="N338" s="6"/>
+    </row>
+    <row r="339" spans="4:14">
+      <c r="D339" s="58"/>
+      <c r="E339" s="59"/>
+      <c r="F339" s="312"/>
+      <c r="L339" s="4" t="s">
+        <v>1580</v>
+      </c>
+      <c r="M339" s="5"/>
+      <c r="N339" s="6"/>
+    </row>
+    <row r="340" spans="4:14">
+      <c r="D340" s="58"/>
+      <c r="E340" s="59"/>
+      <c r="F340" s="312"/>
+      <c r="J340" t="s">
+        <v>476</v>
+      </c>
+      <c r="K340" t="s">
+        <v>1583</v>
+      </c>
+      <c r="L340" s="4" t="s">
+        <v>1582</v>
+      </c>
+      <c r="M340" s="5"/>
+      <c r="N340" s="6"/>
+    </row>
+    <row r="341" spans="4:14" ht="15.75" thickBot="1">
+      <c r="D341" s="232"/>
+      <c r="E341" s="321"/>
+      <c r="F341" s="238"/>
+      <c r="J341" t="s">
+        <v>281</v>
+      </c>
+      <c r="L341" s="8"/>
+      <c r="M341" s="10"/>
+      <c r="N341" s="9"/>
+    </row>
+    <row r="342" spans="4:14">
+      <c r="H342" s="1"/>
+      <c r="I342" s="2"/>
+      <c r="J342" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="343" spans="4:14">
+      <c r="H343" s="4"/>
+      <c r="I343" s="5"/>
+      <c r="J343" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="344" spans="4:14">
+      <c r="H344" s="4"/>
+      <c r="I344" s="5"/>
+      <c r="J344" s="6" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="345" spans="4:14">
+      <c r="H345" s="4"/>
+      <c r="I345" s="5"/>
+      <c r="J345" s="6"/>
+    </row>
+    <row r="346" spans="4:14">
+      <c r="H346" s="4"/>
+      <c r="I346" s="5"/>
+      <c r="J346" s="6"/>
+    </row>
+    <row r="347" spans="4:14">
+      <c r="H347" s="4"/>
+      <c r="I347" s="5"/>
+      <c r="J347" s="6"/>
+    </row>
+    <row r="348" spans="4:14" ht="15.75" thickBot="1">
+      <c r="H348" s="8"/>
+      <c r="I348" s="10"/>
+      <c r="J348" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A241:D242"/>
-    <mergeCell ref="L232:L234"/>
-    <mergeCell ref="L226:L228"/>
-    <mergeCell ref="L229:L231"/>
-    <mergeCell ref="A224:D225"/>
-    <mergeCell ref="A229:D230"/>
-    <mergeCell ref="A235:D236"/>
-    <mergeCell ref="J190:J200"/>
-    <mergeCell ref="J206:J216"/>
-    <mergeCell ref="O207:P207"/>
-    <mergeCell ref="A213:D215"/>
-    <mergeCell ref="L223:L225"/>
-    <mergeCell ref="J165:J183"/>
-    <mergeCell ref="M165:P183"/>
+  <mergeCells count="10">
+    <mergeCell ref="J204:J222"/>
+    <mergeCell ref="M204:P222"/>
     <mergeCell ref="K4:P4"/>
     <mergeCell ref="A11:E14"/>
     <mergeCell ref="I20:J20"/>
@@ -28552,7 +30196,7 @@
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="M8:N13"/>
     <mergeCell ref="E6:E10"/>
-    <mergeCell ref="L165:L183"/>
+    <mergeCell ref="L204:L222"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T7" r:id="rId1"/>
@@ -28564,10 +30208,10 @@
     <hyperlink ref="C87" r:id="rId7"/>
     <hyperlink ref="C88" r:id="rId8"/>
     <hyperlink ref="C89" r:id="rId9"/>
-    <hyperlink ref="B167" r:id="rId10"/>
-    <hyperlink ref="F172" r:id="rId11"/>
-    <hyperlink ref="B190" r:id="rId12"/>
-    <hyperlink ref="B206" r:id="rId13"/>
+    <hyperlink ref="B206" r:id="rId10"/>
+    <hyperlink ref="F211" r:id="rId11"/>
+    <hyperlink ref="B229" r:id="rId12"/>
+    <hyperlink ref="B245" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>
@@ -28996,13 +30640,13 @@
         <v>181</v>
       </c>
       <c r="J3" s="148"/>
-      <c r="K3" s="416"/>
-      <c r="L3" s="416"/>
-      <c r="M3" s="416"/>
-      <c r="N3" s="416"/>
-      <c r="O3" s="416"/>
-      <c r="P3" s="416"/>
-      <c r="Q3" s="417"/>
+      <c r="K3" s="447"/>
+      <c r="L3" s="447"/>
+      <c r="M3" s="447"/>
+      <c r="N3" s="447"/>
+      <c r="O3" s="447"/>
+      <c r="P3" s="447"/>
+      <c r="Q3" s="448"/>
       <c r="T3" s="40" t="s">
         <v>179</v>
       </c>
@@ -29270,13 +30914,13 @@
       <c r="U11" s="38"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="407" t="s">
+      <c r="A12" s="438" t="s">
         <v>667</v>
       </c>
-      <c r="B12" s="408"/>
-      <c r="C12" s="408"/>
-      <c r="D12" s="408"/>
-      <c r="E12" s="409"/>
+      <c r="B12" s="439"/>
+      <c r="C12" s="439"/>
+      <c r="D12" s="439"/>
+      <c r="E12" s="440"/>
       <c r="F12" t="s">
         <v>680</v>
       </c>
@@ -29299,11 +30943,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="410"/>
-      <c r="B13" s="411"/>
-      <c r="C13" s="411"/>
-      <c r="D13" s="411"/>
-      <c r="E13" s="412"/>
+      <c r="A13" s="441"/>
+      <c r="B13" s="442"/>
+      <c r="C13" s="442"/>
+      <c r="D13" s="442"/>
+      <c r="E13" s="443"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -29324,11 +30968,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="410"/>
-      <c r="B14" s="411"/>
-      <c r="C14" s="411"/>
-      <c r="D14" s="411"/>
-      <c r="E14" s="412"/>
+      <c r="A14" s="441"/>
+      <c r="B14" s="442"/>
+      <c r="C14" s="442"/>
+      <c r="D14" s="442"/>
+      <c r="E14" s="443"/>
       <c r="F14" t="s">
         <v>677</v>
       </c>
@@ -29351,11 +30995,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="413"/>
-      <c r="B15" s="414"/>
-      <c r="C15" s="414"/>
-      <c r="D15" s="414"/>
-      <c r="E15" s="415"/>
+      <c r="A15" s="444"/>
+      <c r="B15" s="445"/>
+      <c r="C15" s="445"/>
+      <c r="D15" s="445"/>
+      <c r="E15" s="446"/>
       <c r="F15" s="24"/>
       <c r="H15" s="192"/>
       <c r="I15" s="4" t="s">
@@ -29413,17 +31057,17 @@
       <c r="F17" s="188"/>
       <c r="G17" s="129"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="388" t="s">
+      <c r="I17" s="420" t="s">
         <v>1177</v>
       </c>
-      <c r="J17" s="388"/>
-      <c r="K17" s="388"/>
-      <c r="L17" s="388"/>
-      <c r="M17" s="388"/>
-      <c r="N17" s="388"/>
-      <c r="O17" s="388"/>
-      <c r="P17" s="388"/>
-      <c r="Q17" s="388"/>
+      <c r="J17" s="420"/>
+      <c r="K17" s="420"/>
+      <c r="L17" s="420"/>
+      <c r="M17" s="420"/>
+      <c r="N17" s="420"/>
+      <c r="O17" s="420"/>
+      <c r="P17" s="420"/>
+      <c r="Q17" s="420"/>
       <c r="S17" t="s">
         <v>358</v>
       </c>
@@ -33709,10 +35353,10 @@
       <c r="K232" s="35"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="418" t="s">
+      <c r="O232" s="406" t="s">
         <v>1225</v>
       </c>
-      <c r="P232" s="419"/>
+      <c r="P232" s="407"/>
       <c r="Q232" s="6"/>
     </row>
     <row r="233" spans="2:17">

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="1599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="1648">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -5425,12 +5425,159 @@
   <si>
     <t>&lt;&lt;&lt;[iphone,samsung] 1231231&lt;&lt;</t>
   </si>
+  <si>
+    <t>ROWS</t>
+  </si>
+  <si>
+    <t>COLUMN</t>
+  </si>
+  <si>
+    <t>OrderID</t>
+  </si>
+  <si>
+    <t>Order table</t>
+  </si>
+  <si>
+    <t>Profile table</t>
+  </si>
+  <si>
+    <t>info permanenty</t>
+  </si>
+  <si>
+    <t>Persistent storage area</t>
+  </si>
+  <si>
+    <t>raj1!</t>
+  </si>
+  <si>
+    <t>String userid=req.getParameter("uid");</t>
+  </si>
+  <si>
+    <t>String pwd=req.getParameter("pwd");</t>
+  </si>
+  <si>
+    <t>raj2@</t>
+  </si>
+  <si>
+    <t>raja</t>
+  </si>
+  <si>
+    <t>DATABASE</t>
+  </si>
+  <si>
+    <t>productname</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Relational DataBase Management Server</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>SQL database</t>
+  </si>
+  <si>
+    <t>Structured Query Language</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>MSSQL</t>
+  </si>
+  <si>
+    <t>PostGres</t>
+  </si>
+  <si>
+    <t>Different RDBMS software</t>
+  </si>
+  <si>
+    <t>RDBMS - concept on how to store data permanantly</t>
+  </si>
+  <si>
+    <t>NoSQL… mongodb</t>
+  </si>
+  <si>
+    <t>"userid":"john",</t>
+  </si>
+  <si>
+    <t>"password":"john1!"</t>
+  </si>
+  <si>
+    <t>Data Manipulation Language</t>
+  </si>
+  <si>
+    <t>Data Definition Language</t>
+  </si>
+  <si>
+    <t>create database , table</t>
+  </si>
+  <si>
+    <t>modify existing table</t>
+  </si>
+  <si>
+    <t>delete table</t>
+  </si>
+  <si>
+    <t>delete content of table</t>
+  </si>
+  <si>
+    <t>insert a record in table</t>
+  </si>
+  <si>
+    <t>update a record in table</t>
+  </si>
+  <si>
+    <t>read a record from table</t>
+  </si>
+  <si>
+    <t>delete a record from table</t>
+  </si>
+  <si>
+    <t>DML query</t>
+  </si>
+  <si>
+    <t>john@gmail.com</t>
+  </si>
+  <si>
+    <t>dml</t>
+  </si>
+  <si>
+    <t>cancel order</t>
+  </si>
+  <si>
+    <t>delete dml query</t>
+  </si>
+  <si>
+    <t>asdads</t>
+  </si>
+  <si>
+    <t>read a record</t>
+  </si>
+  <si>
+    <t>CRUD operation</t>
+  </si>
+  <si>
+    <t>Create record</t>
+  </si>
+  <si>
+    <t>Read record</t>
+  </si>
+  <si>
+    <t>Update record</t>
+  </si>
+  <si>
+    <t>Delete record</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5625,6 +5772,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="26">
@@ -6188,7 +6342,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="554">
+  <cellXfs count="559">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -6773,6 +6927,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6800,18 +6967,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6820,24 +6975,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6876,6 +7013,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6950,22 +7099,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6986,8 +7129,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7019,9 +7180,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7031,8 +7189,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7088,57 +7297,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7146,6 +7304,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7157,47 +7318,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7238,25 +7369,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12054,10 +12221,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:W194"/>
+  <dimension ref="A2:W212"/>
   <sheetViews>
-    <sheetView topLeftCell="A183" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I189" sqref="I189:L189"/>
+    <sheetView topLeftCell="A195" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198:G203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13068,10 +13235,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="449" t="s">
+      <c r="L35" s="452" t="s">
         <v>374</v>
       </c>
-      <c r="M35" s="449"/>
+      <c r="M35" s="452"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -15001,10 +15168,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="450" t="s">
+      <c r="A155" s="453" t="s">
         <v>993</v>
       </c>
-      <c r="B155" s="450"/>
+      <c r="B155" s="453"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="93" t="s">
@@ -15340,10 +15507,236 @@
       <c r="K190" s="38"/>
       <c r="L190" s="38"/>
     </row>
-    <row r="194" spans="4:4">
+    <row r="194" spans="1:9">
       <c r="D194" t="s">
         <v>1298</v>
       </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="B195" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="B196" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1600</v>
+      </c>
+      <c r="G196" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="B197" s="390" t="s">
+        <v>182</v>
+      </c>
+      <c r="C197" s="390" t="s">
+        <v>183</v>
+      </c>
+      <c r="D197" s="390" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E197" s="390" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F197" s="390" t="s">
+        <v>602</v>
+      </c>
+      <c r="G197" s="390" t="s">
+        <v>974</v>
+      </c>
+      <c r="I197" s="557" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B198" s="391" t="s">
+        <v>26</v>
+      </c>
+      <c r="C198" s="391" t="s">
+        <v>208</v>
+      </c>
+      <c r="D198" s="391" t="s">
+        <v>26</v>
+      </c>
+      <c r="E198" s="391" t="s">
+        <v>328</v>
+      </c>
+      <c r="F198" s="391" t="s">
+        <v>547</v>
+      </c>
+      <c r="G198" s="391">
+        <v>1231231231</v>
+      </c>
+      <c r="I198" s="392" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B199" s="391" t="s">
+        <v>29</v>
+      </c>
+      <c r="C199" s="391" t="s">
+        <v>188</v>
+      </c>
+      <c r="D199" s="391" t="s">
+        <v>29</v>
+      </c>
+      <c r="E199" s="391" t="s">
+        <v>328</v>
+      </c>
+      <c r="F199" s="391" t="s">
+        <v>604</v>
+      </c>
+      <c r="G199" s="391">
+        <v>12312312</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B200" s="391"/>
+      <c r="C200" s="391"/>
+      <c r="D200" s="391"/>
+      <c r="E200" s="391"/>
+      <c r="F200" s="391"/>
+      <c r="G200" s="391"/>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="B201" s="391"/>
+      <c r="C201" s="391"/>
+      <c r="D201" s="391"/>
+      <c r="E201" s="391"/>
+      <c r="F201" s="391"/>
+      <c r="G201" s="391"/>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="B202" s="391"/>
+      <c r="C202" s="391"/>
+      <c r="D202" s="391"/>
+      <c r="E202" s="391"/>
+      <c r="F202" s="391"/>
+      <c r="G202" s="391"/>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="B203" s="391"/>
+      <c r="C203" s="391"/>
+      <c r="D203" s="391"/>
+      <c r="E203" s="391"/>
+      <c r="F203" s="391"/>
+      <c r="G203" s="391"/>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="B204" s="115"/>
+      <c r="C204" s="115"/>
+      <c r="D204" s="115"/>
+      <c r="E204" s="115"/>
+      <c r="F204" s="115"/>
+      <c r="G204" s="115"/>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="B205" s="115" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C205" s="115"/>
+      <c r="D205" s="115"/>
+      <c r="E205" s="115"/>
+      <c r="F205" s="115"/>
+      <c r="G205" s="115"/>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="B206" s="390" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C206" s="390" t="s">
+        <v>395</v>
+      </c>
+      <c r="D206" s="390" t="s">
+        <v>325</v>
+      </c>
+      <c r="E206" s="390" t="s">
+        <v>326</v>
+      </c>
+      <c r="F206" s="390" t="s">
+        <v>182</v>
+      </c>
+      <c r="G206" s="115"/>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="B207" s="391">
+        <v>1</v>
+      </c>
+      <c r="C207" s="391" t="s">
+        <v>331</v>
+      </c>
+      <c r="D207" s="391">
+        <v>2</v>
+      </c>
+      <c r="E207" s="391">
+        <v>1000</v>
+      </c>
+      <c r="F207" s="391" t="s">
+        <v>26</v>
+      </c>
+      <c r="G207" s="115"/>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="B208" s="391"/>
+      <c r="C208" s="391"/>
+      <c r="D208" s="391"/>
+      <c r="E208" s="391"/>
+      <c r="F208" s="391"/>
+      <c r="G208" s="115"/>
+    </row>
+    <row r="209" spans="2:7">
+      <c r="B209" s="391"/>
+      <c r="C209" s="391"/>
+      <c r="D209" s="391"/>
+      <c r="E209" s="391"/>
+      <c r="F209" s="391"/>
+      <c r="G209" s="115"/>
+    </row>
+    <row r="210" spans="2:7">
+      <c r="B210" s="391"/>
+      <c r="C210" s="391"/>
+      <c r="D210" s="391"/>
+      <c r="E210" s="391"/>
+      <c r="F210" s="391"/>
+      <c r="G210" s="115"/>
+    </row>
+    <row r="211" spans="2:7">
+      <c r="B211" s="115"/>
+      <c r="C211" s="115"/>
+      <c r="D211" s="115"/>
+      <c r="E211" s="115"/>
+      <c r="F211" s="115"/>
+      <c r="G211" s="115"/>
+    </row>
+    <row r="212" spans="2:7">
+      <c r="B212" s="115"/>
+      <c r="C212" s="115"/>
+      <c r="D212" s="115"/>
+      <c r="E212" s="115"/>
+      <c r="F212" s="115"/>
+      <c r="G212" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15360,89 +15753,165 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:P142"/>
+  <dimension ref="A1:Q241"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="7" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:15" ht="15.75" thickBot="1"/>
-    <row r="3" spans="4:15">
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="4:15">
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+    <row r="1" spans="1:15" ht="15.75" thickBot="1">
+      <c r="B1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="C3" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>974</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="260" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="558" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="38">
+        <v>13123213</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>547</v>
+      </c>
       <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="J4" s="38">
+        <v>1</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="L4" s="38">
+        <v>1</v>
+      </c>
+      <c r="M4" s="38">
+        <v>123123</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>1640</v>
+      </c>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="4:15">
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
       <c r="N5" s="5"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="4:15">
-      <c r="D6" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="5" t="s">
-        <v>387</v>
+        <v>1639</v>
       </c>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="4:15" ht="15.75" thickBot="1">
-      <c r="D7" s="4"/>
+    <row r="7" spans="1:15">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
-        <v>391</v>
-      </c>
+      <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -15450,12 +15919,13 @@
       <c r="N7" s="5"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="4:15">
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5" t="s">
-        <v>389</v>
-      </c>
+    <row r="8" spans="1:15">
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -15463,17 +15933,20 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="4:15">
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F9" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="C9" s="4"/>
+      <c r="D9" s="390" t="s">
+        <v>324</v>
+      </c>
+      <c r="E9" s="390" t="s">
+        <v>810</v>
+      </c>
+      <c r="F9" s="390" t="s">
+        <v>326</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -15481,22 +15954,25 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10" spans="4:15" ht="15.75" thickBot="1">
-      <c r="D10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>386</v>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="391" t="s">
+        <v>331</v>
+      </c>
+      <c r="E10" s="391">
+        <v>100</v>
+      </c>
+      <c r="F10" s="391">
+        <v>999</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -15505,37 +15981,38 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="11" spans="4:15">
-      <c r="D11" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="391"/>
+      <c r="E11" s="391"/>
+      <c r="F11" s="391"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>1622</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5" t="s">
-        <v>385</v>
-      </c>
+      <c r="N11" s="5"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="4:15">
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+    <row r="12" spans="1:15">
+      <c r="C12" s="4"/>
+      <c r="D12" s="391"/>
+      <c r="E12" s="391"/>
+      <c r="F12" s="391"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>1614</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -15544,10 +16021,11 @@
       <c r="N12" s="5"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="4:15" ht="15.75" thickBot="1">
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+    <row r="13" spans="1:15">
+      <c r="C13" s="4"/>
+      <c r="D13" s="391"/>
+      <c r="E13" s="391"/>
+      <c r="F13" s="391"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -15558,69 +16036,90 @@
       <c r="N13" s="5"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="4:15" ht="15.75" thickBot="1">
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+    <row r="14" spans="1:15">
+      <c r="C14" s="4"/>
+      <c r="D14" s="391"/>
+      <c r="E14" s="391"/>
+      <c r="F14" s="391"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="108"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="4:15">
-      <c r="D15" s="4"/>
+    <row r="15" spans="1:15">
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="4:15">
-      <c r="D16" s="4"/>
+    <row r="16" spans="1:15">
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="6"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>1620</v>
+      </c>
+      <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="3:16" ht="15.75" thickBot="1">
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+    <row r="17" spans="3:17">
+      <c r="C17" s="4"/>
+      <c r="D17" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>1642</v>
+      </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="9"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>1619</v>
+      </c>
+      <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="3:16">
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
+    <row r="18" spans="3:17">
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="122" t="s">
+        <v>1641</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>1618</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -15628,929 +16127,1371 @@
       <c r="N18" s="5"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="3:16">
-      <c r="D19" s="4"/>
+    <row r="19" spans="3:17">
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>1615</v>
+      </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="K19" s="5" t="s">
+        <v>1616</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="3:16" ht="15.75" thickBot="1">
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="9"/>
-    </row>
-    <row r="23" spans="3:16">
-      <c r="D23" t="s">
+    <row r="20" spans="3:17">
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="3:17" ht="15.75" thickBot="1">
+      <c r="C21" s="8"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="3:17">
+      <c r="H22" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17">
+      <c r="F24" t="s">
+        <v>549</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1626</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1627</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17">
+      <c r="F25" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I25" t="s">
+        <v>360</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17">
+      <c r="F26" t="s">
+        <v>1625</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17">
+      <c r="I27" t="s">
+        <v>1633</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17">
+      <c r="F28" t="s">
+        <v>236</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1634</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17">
+      <c r="I29" t="s">
+        <v>1635</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17">
+      <c r="C30" t="s">
+        <v>360</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17">
+      <c r="C31" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17">
+      <c r="F32" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="101" spans="4:16" ht="15.75" thickBot="1"/>
+    <row r="102" spans="4:16">
+      <c r="D102" s="1"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="3"/>
+    </row>
+    <row r="103" spans="4:16">
+      <c r="D103" s="4"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="6"/>
+    </row>
+    <row r="104" spans="4:16">
+      <c r="D104" s="4"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="6"/>
+    </row>
+    <row r="105" spans="4:16">
+      <c r="D105" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="P105" s="6"/>
+    </row>
+    <row r="106" spans="4:16" ht="15.75" thickBot="1">
+      <c r="D106" s="4"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="6"/>
+    </row>
+    <row r="107" spans="4:16">
+      <c r="D107" s="1"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="3"/>
+    </row>
+    <row r="108" spans="4:16">
+      <c r="D108" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P108" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="109" spans="4:16" ht="15.75" thickBot="1">
+      <c r="D109" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P109" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="110" spans="4:16">
+      <c r="D110" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="P110" s="6"/>
+    </row>
+    <row r="111" spans="4:16">
+      <c r="D111" s="4"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="6"/>
+    </row>
+    <row r="112" spans="4:16" ht="15.75" thickBot="1">
+      <c r="D112" s="4"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="6"/>
+    </row>
+    <row r="113" spans="3:16" ht="15.75" thickBot="1">
+      <c r="D113" s="4"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="107"/>
+      <c r="K113" s="108"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="6"/>
+    </row>
+    <row r="114" spans="3:16">
+      <c r="D114" s="4"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="6"/>
+    </row>
+    <row r="115" spans="3:16">
+      <c r="D115" s="4"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="38"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="6"/>
+    </row>
+    <row r="116" spans="3:16" ht="15.75" thickBot="1">
+      <c r="D116" s="4"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="38"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="6"/>
+    </row>
+    <row r="117" spans="3:16">
+      <c r="D117" s="4"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="6"/>
+    </row>
+    <row r="118" spans="3:16">
+      <c r="D118" s="4"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="6"/>
+    </row>
+    <row r="119" spans="3:16" ht="15.75" thickBot="1">
+      <c r="D119" s="8"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
+      <c r="L119" s="10"/>
+      <c r="M119" s="10"/>
+      <c r="N119" s="10"/>
+      <c r="O119" s="10"/>
+      <c r="P119" s="9"/>
+    </row>
+    <row r="122" spans="3:16">
+      <c r="D122" t="s">
         <v>393</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J122" t="s">
         <v>394</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N122" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="3:16">
-      <c r="D24" t="s">
+    <row r="123" spans="3:16">
+      <c r="D123" t="s">
         <v>182</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E123" t="s">
         <v>392</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F123" t="s">
         <v>325</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J123" t="s">
         <v>395</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K123" t="s">
         <v>325</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N123" t="s">
         <v>182</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O123" t="s">
         <v>324</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P123" t="s">
         <v>325</v>
       </c>
-      <c r="P24" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16">
-      <c r="D25" t="s">
+    </row>
+    <row r="124" spans="3:16">
+      <c r="D124" t="s">
         <v>397</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E124" t="s">
         <v>396</v>
       </c>
-      <c r="F25">
+      <c r="F124">
         <v>1</v>
       </c>
-      <c r="H25" s="37" t="s">
+      <c r="I124" s="37" t="s">
         <v>400</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J124" t="s">
         <v>396</v>
       </c>
-      <c r="J25">
+      <c r="K124">
         <v>7</v>
       </c>
-      <c r="L25" s="37" t="s">
+      <c r="M124" s="37" t="s">
         <v>399</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N124" t="s">
         <v>29</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O124" t="s">
         <v>396</v>
       </c>
-      <c r="O25">
+      <c r="P124">
         <v>3</v>
       </c>
-      <c r="P25" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="26" spans="3:16">
-      <c r="C26" s="37" t="s">
+    </row>
+    <row r="125" spans="3:16">
+      <c r="C125" s="37" t="s">
         <v>399</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D125" t="s">
         <v>398</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E125" t="s">
         <v>396</v>
       </c>
-      <c r="F26">
+      <c r="F125">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="3:16">
-      <c r="F29" t="s">
+    <row r="128" spans="3:16">
+      <c r="F128" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="33" spans="4:12">
-      <c r="H33" t="s">
+    <row r="132" spans="4:13">
+      <c r="I132" t="s">
         <v>404</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J132" t="s">
         <v>396</v>
       </c>
-      <c r="J33">
+      <c r="K132">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="4:12">
-      <c r="E35" t="s">
+    <row r="134" spans="4:13">
+      <c r="E134" t="s">
         <v>797</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K134" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="36" spans="4:12">
-      <c r="D36" s="38" t="s">
+    <row r="135" spans="4:13">
+      <c r="D135" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E135" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="F135" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="I36" s="38" t="s">
+      <c r="J135" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="J36" s="38" t="s">
+      <c r="K135" s="38" t="s">
         <v>795</v>
       </c>
-      <c r="K36" s="38" t="s">
+      <c r="L135" s="38" t="s">
         <v>766</v>
       </c>
-      <c r="L36" s="38" t="s">
+      <c r="M135" s="38" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="37" spans="4:12">
-      <c r="D37" s="12" t="s">
+    <row r="136" spans="4:13">
+      <c r="D136" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="38" t="s">
+      <c r="E136" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F136" s="38" t="s">
         <v>793</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="J136" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J37" s="38">
+      <c r="K136" s="38">
         <v>1</v>
       </c>
-      <c r="K37" s="38" t="s">
+      <c r="L136" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="L37" s="38">
+      <c r="M136" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:12">
-      <c r="D38" s="38" t="s">
+    <row r="137" spans="4:13">
+      <c r="D137" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="38" t="s">
+      <c r="E137" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="F38" s="38" t="s">
+      <c r="F137" s="38" t="s">
         <v>794</v>
       </c>
-      <c r="I38" s="38" t="s">
+      <c r="J137" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="J38" s="38">
+      <c r="K137" s="38">
         <v>1</v>
       </c>
-      <c r="K38" s="38" t="s">
+      <c r="L137" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="L38" s="38">
+      <c r="M137" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="4:12">
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="I39" s="38" t="s">
+    <row r="138" spans="4:13">
+      <c r="D138" s="38"/>
+      <c r="E138" s="38"/>
+      <c r="F138" s="38"/>
+      <c r="J138" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="J39" s="38">
+      <c r="K138" s="38">
         <v>2</v>
       </c>
-      <c r="K39" s="38" t="s">
+      <c r="L138" s="38" t="s">
         <v>796</v>
       </c>
-      <c r="L39" s="38">
+      <c r="M138" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:14">
-      <c r="B50" s="76" t="s">
+    <row r="149" spans="2:15">
+      <c r="B149" s="76" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="51" spans="2:14">
-      <c r="B51" t="s">
+    <row r="150" spans="2:15">
+      <c r="B150" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="53" spans="2:14">
-      <c r="K53" s="93" t="s">
+    <row r="152" spans="2:15">
+      <c r="L152" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="L53" s="197" t="s">
+      <c r="M152" s="197" t="s">
         <v>183</v>
       </c>
-      <c r="M53" s="197" t="s">
+      <c r="N152" s="197" t="s">
         <v>318</v>
       </c>
-      <c r="N53" s="197" t="s">
+      <c r="O152" s="197" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="54" spans="2:14">
-      <c r="B54" t="s">
+    <row r="153" spans="2:15">
+      <c r="B153" t="s">
         <v>817</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D153" t="s">
         <v>819</v>
       </c>
-      <c r="K54" s="205" t="s">
+      <c r="L153" s="205" t="s">
         <v>327</v>
       </c>
-      <c r="L54" s="206" t="s">
+      <c r="M153" s="206" t="s">
         <v>208</v>
       </c>
-      <c r="M54" s="97" t="s">
+      <c r="N153" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="N54" s="97" t="s">
+      <c r="O153" s="97" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="2:14">
-      <c r="B55" t="s">
+    <row r="154" spans="2:15">
+      <c r="B154" t="s">
         <v>818</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D154" t="s">
         <v>829</v>
       </c>
-      <c r="K55" s="197" t="s">
+      <c r="L154" s="197" t="s">
         <v>334</v>
       </c>
-      <c r="L55" s="97" t="s">
+      <c r="M154" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="M55" s="97" t="s">
+      <c r="N154" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="N55" s="97" t="s">
+      <c r="O154" s="97" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="56" spans="2:14">
-      <c r="B56" t="s">
+    <row r="155" spans="2:15">
+      <c r="B155" t="s">
         <v>820</v>
       </c>
-      <c r="K56" s="197" t="s">
+      <c r="L155" s="197" t="s">
         <v>543</v>
       </c>
-      <c r="L56" s="94" t="s">
+      <c r="M155" s="94" t="s">
         <v>804</v>
       </c>
-      <c r="M56" s="94" t="s">
+      <c r="N155" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="N56" s="94" t="s">
+      <c r="O155" s="94" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="2:14">
-      <c r="B57" t="s">
+    <row r="156" spans="2:15">
+      <c r="B156" t="s">
         <v>821</v>
       </c>
-      <c r="K57" s="205" t="s">
+      <c r="L156" s="205" t="s">
         <v>327</v>
       </c>
-      <c r="L57" s="206" t="s">
+      <c r="M156" s="206" t="s">
         <v>208</v>
       </c>
-      <c r="M57" s="94" t="s">
+      <c r="N156" s="94" t="s">
         <v>830</v>
       </c>
-      <c r="N57" s="94" t="s">
+      <c r="O156" s="94" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="58" spans="2:14">
-      <c r="B58" s="204" t="s">
+    <row r="157" spans="2:15">
+      <c r="B157" s="204" t="s">
         <v>834</v>
       </c>
-      <c r="C58" s="204"/>
-      <c r="D58" s="204"/>
-    </row>
-    <row r="59" spans="2:14">
-      <c r="B59" t="s">
+      <c r="C157" s="204"/>
+      <c r="D157" s="204"/>
+    </row>
+    <row r="158" spans="2:15">
+      <c r="B158" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="60" spans="2:14">
-      <c r="B60" t="s">
+    <row r="159" spans="2:15">
+      <c r="B159" t="s">
         <v>823</v>
       </c>
-      <c r="F60" t="b">
+      <c r="F159" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:14">
-      <c r="B61" t="s">
+    <row r="160" spans="2:15">
+      <c r="B160" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="62" spans="2:14">
-      <c r="B62" t="s">
+    <row r="161" spans="2:16">
+      <c r="B161" t="s">
         <v>818</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C161" t="s">
         <v>835</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G161" t="s">
         <v>26</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I161" t="s">
         <v>830</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K161" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="63" spans="2:14">
-      <c r="C63" t="s">
+    <row r="162" spans="2:16">
+      <c r="C162" t="s">
         <v>831</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G162" t="s">
         <v>328</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I162" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="64" spans="2:14">
-      <c r="B64" t="s">
+    <row r="163" spans="2:16">
+      <c r="B163" t="s">
         <v>825</v>
       </c>
-      <c r="C64" s="204" t="s">
+      <c r="C163" s="204" t="s">
         <v>833</v>
       </c>
-      <c r="D64" s="204"/>
-      <c r="E64" s="204"/>
-      <c r="F64" s="204"/>
-      <c r="G64" s="204"/>
-      <c r="J64" t="s">
+      <c r="D163" s="204"/>
+      <c r="E163" s="204"/>
+      <c r="F163" s="204"/>
+      <c r="G163" s="204"/>
+      <c r="H163" s="204"/>
+      <c r="K163" t="s">
         <v>832</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L163" t="s">
         <v>318</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M163" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
-      <c r="B65" t="s">
+    <row r="164" spans="2:16">
+      <c r="B164" t="s">
         <v>826</v>
       </c>
-      <c r="K65" s="38" t="s">
+      <c r="L164" s="38" t="s">
         <v>837</v>
       </c>
-      <c r="L65" s="38" t="s">
+      <c r="M164" s="38" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
-      <c r="K66" s="38"/>
-      <c r="L66" s="38"/>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="F68" t="s">
+    <row r="165" spans="2:16">
+      <c r="L165" s="38"/>
+      <c r="M165" s="38"/>
+    </row>
+    <row r="167" spans="2:16">
+      <c r="F167" t="s">
         <v>983</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O167" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
-      <c r="D69" t="s">
+    <row r="168" spans="2:16">
+      <c r="D168" t="s">
         <v>980</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F168" t="s">
         <v>982</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K168" t="s">
         <v>981</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O168" t="s">
         <v>1012</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P168" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
-      <c r="D70" s="12" t="s">
+    <row r="169" spans="2:16">
+      <c r="D169" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E169" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="F169" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="G70" s="12" t="s">
+      <c r="G169" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="H70" s="12"/>
-      <c r="J70" s="259" t="s">
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+      <c r="K169" s="259" t="s">
         <v>795</v>
       </c>
-      <c r="K70" s="259" t="s">
+      <c r="L169" s="259" t="s">
         <v>324</v>
       </c>
-      <c r="L70" s="12" t="s">
+      <c r="M169" s="12" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
-      <c r="B71" t="s">
+    <row r="170" spans="2:16">
+      <c r="B170" t="s">
         <v>987</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C170" t="s">
         <v>984</v>
       </c>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="70"/>
-      <c r="J71" s="243">
+      <c r="D170" s="38"/>
+      <c r="E170" s="38"/>
+      <c r="F170" s="38"/>
+      <c r="G170" s="38"/>
+      <c r="H170" s="38"/>
+      <c r="I170" s="70"/>
+      <c r="K170" s="243">
         <v>1</v>
       </c>
-      <c r="K71" s="243" t="s">
+      <c r="L170" s="243" t="s">
         <v>331</v>
       </c>
-      <c r="L71" s="243">
+      <c r="M170" s="243">
         <v>2</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O170" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
-      <c r="B72" t="s">
+    <row r="171" spans="2:16">
+      <c r="B171" t="s">
         <v>988</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C171" t="s">
         <v>985</v>
       </c>
-      <c r="D72" s="38" t="s">
+      <c r="D171" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E72" s="38" t="s">
+      <c r="E171" s="38" t="s">
         <v>1001</v>
       </c>
-      <c r="F72" s="38" t="s">
+      <c r="F171" s="38" t="s">
         <v>604</v>
       </c>
-      <c r="G72" s="38">
+      <c r="G171" s="38">
         <v>345</v>
       </c>
-      <c r="H72" s="70"/>
-      <c r="J72" s="243">
+      <c r="H171" s="38"/>
+      <c r="I171" s="70"/>
+      <c r="K171" s="243">
         <v>2</v>
       </c>
-      <c r="K72" s="243" t="s">
+      <c r="L171" s="243" t="s">
         <v>1002</v>
       </c>
-      <c r="L72" s="243">
+      <c r="M171" s="243">
         <v>1</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O171" t="s">
         <v>360</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P171" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
-      <c r="B73" t="s">
+    <row r="172" spans="2:16">
+      <c r="B172" t="s">
         <v>989</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C172" t="s">
         <v>986</v>
       </c>
-      <c r="D73" s="38" t="s">
+      <c r="D172" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E73" s="38" t="s">
+      <c r="E172" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="F73" s="38" t="s">
+      <c r="F172" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="G73" s="38">
+      <c r="G172" s="38">
         <v>123</v>
       </c>
-      <c r="H73" s="70"/>
-      <c r="J73" s="243">
+      <c r="H172" s="38"/>
+      <c r="I172" s="70"/>
+      <c r="K172" s="243">
         <v>3</v>
       </c>
-      <c r="K73" s="243" t="s">
+      <c r="L172" s="243" t="s">
         <v>364</v>
       </c>
-      <c r="L73" s="243">
+      <c r="M172" s="243">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="J74" s="243">
+    <row r="173" spans="2:16">
+      <c r="D173" s="38"/>
+      <c r="E173" s="38"/>
+      <c r="F173" s="38"/>
+      <c r="G173" s="38"/>
+      <c r="H173" s="38"/>
+      <c r="I173" s="38"/>
+      <c r="K173" s="243">
         <v>3</v>
       </c>
-      <c r="K74" s="243" t="s">
+      <c r="L173" s="243" t="s">
         <v>1002</v>
       </c>
-      <c r="L74" s="243">
+      <c r="M173" s="243">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="J75" s="243"/>
-      <c r="K75" s="243"/>
-      <c r="L75" s="243"/>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="D76" t="s">
+    <row r="174" spans="2:16">
+      <c r="D174" s="38"/>
+      <c r="E174" s="38"/>
+      <c r="F174" s="38"/>
+      <c r="G174" s="38"/>
+      <c r="H174" s="38"/>
+      <c r="I174" s="38"/>
+      <c r="K174" s="243"/>
+      <c r="L174" s="243"/>
+      <c r="M174" s="243"/>
+    </row>
+    <row r="175" spans="2:16">
+      <c r="D175" t="s">
         <v>990</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E175" t="s">
         <v>991</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F175" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="L78" s="38"/>
-      <c r="M78" s="38"/>
-      <c r="N78" s="38"/>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="A79" t="s">
+    <row r="176" spans="2:16">
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
+      <c r="O176" s="12"/>
+    </row>
+    <row r="177" spans="1:15">
+      <c r="M177" s="38"/>
+      <c r="N177" s="38"/>
+      <c r="O177" s="38"/>
+    </row>
+    <row r="178" spans="1:15">
+      <c r="A178" t="s">
         <v>994</v>
       </c>
-      <c r="L79" s="38"/>
-      <c r="M79" s="38"/>
-      <c r="N79" s="38"/>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="A80" t="s">
+      <c r="M178" s="38"/>
+      <c r="N178" s="38"/>
+      <c r="O178" s="38"/>
+    </row>
+    <row r="179" spans="1:15">
+      <c r="A179" t="s">
         <v>993</v>
       </c>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="258"/>
-      <c r="K81" s="38"/>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="258"/>
-      <c r="K82" s="38"/>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="38"/>
-      <c r="L83" t="s">
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="12"/>
+    </row>
+    <row r="180" spans="1:15">
+      <c r="F180" s="38"/>
+      <c r="G180" s="38"/>
+      <c r="H180" s="38"/>
+      <c r="I180" s="38"/>
+      <c r="J180" s="38"/>
+      <c r="K180" s="258"/>
+      <c r="L180" s="38"/>
+    </row>
+    <row r="181" spans="1:15">
+      <c r="F181" s="38"/>
+      <c r="G181" s="38"/>
+      <c r="H181" s="38"/>
+      <c r="I181" s="38"/>
+      <c r="J181" s="38"/>
+      <c r="K181" s="258"/>
+      <c r="L181" s="38"/>
+    </row>
+    <row r="182" spans="1:15">
+      <c r="F182" s="38"/>
+      <c r="G182" s="38"/>
+      <c r="H182" s="38"/>
+      <c r="I182" s="38"/>
+      <c r="J182" s="38"/>
+      <c r="K182" s="38"/>
+      <c r="L182" s="38"/>
+      <c r="M182" t="s">
         <v>1003</v>
       </c>
-      <c r="N83" t="s">
+      <c r="O182" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
-      <c r="N84" t="s">
+    <row r="183" spans="1:15">
+      <c r="F183" s="38"/>
+      <c r="G183" s="38"/>
+      <c r="H183" s="38"/>
+      <c r="I183" s="38"/>
+      <c r="J183" s="38"/>
+      <c r="K183" s="38"/>
+      <c r="L183" s="38"/>
+      <c r="O183" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
-      <c r="A85" t="s">
+    <row r="184" spans="1:15">
+      <c r="A184" t="s">
         <v>1000</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D184" t="s">
         <v>604</v>
       </c>
-      <c r="N85" t="s">
+      <c r="O184" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
-      <c r="A86" t="s">
+    <row r="185" spans="1:15">
+      <c r="A185" t="s">
         <v>999</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D185" t="s">
         <v>746</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I185" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
-      <c r="A87" t="s">
+    <row r="186" spans="1:15">
+      <c r="A186" t="s">
         <v>995</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D186" t="s">
         <v>996</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I186" t="s">
         <v>1010</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O186" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
-      <c r="A88" t="s">
+    <row r="187" spans="1:15">
+      <c r="A187" t="s">
         <v>997</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D187" t="s">
         <v>998</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O187" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
-      <c r="N89" t="s">
+    <row r="188" spans="1:15">
+      <c r="O188" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
-      <c r="F90" t="s">
+    <row r="189" spans="1:15">
+      <c r="F189" t="s">
         <v>1026</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G189" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
-      <c r="F91" t="s">
+    <row r="190" spans="1:15">
+      <c r="F190" t="s">
         <v>1024</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G190" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
-      <c r="F92" t="s">
+    <row r="191" spans="1:15">
+      <c r="F191" t="s">
         <v>1020</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G191" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="E94" t="s">
+    <row r="192" spans="1:15">
+      <c r="F192" s="38"/>
+      <c r="G192" s="38"/>
+      <c r="H192" s="5"/>
+    </row>
+    <row r="193" spans="5:11">
+      <c r="E193" t="s">
         <v>1021</v>
       </c>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="24" t="s">
+      <c r="F193" s="38"/>
+      <c r="G193" s="38"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="24" t="s">
         <v>1022</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K193" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
-      <c r="E95" t="s">
+    <row r="194" spans="5:11">
+      <c r="E194" t="s">
         <v>1022</v>
       </c>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="24" t="s">
+      <c r="F194" s="38"/>
+      <c r="G194" s="38"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="24" t="s">
         <v>1022</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K194" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
-      <c r="E96" t="s">
+    <row r="195" spans="5:11">
+      <c r="E195" t="s">
         <v>1023</v>
       </c>
-      <c r="F96" s="260"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="24" t="s">
+      <c r="F195" s="260"/>
+      <c r="G195" s="38"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="24" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="97" spans="6:9">
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-    </row>
-    <row r="98" spans="6:9">
-      <c r="F98" s="38"/>
-      <c r="G98" s="38"/>
-      <c r="H98" t="s">
+    <row r="196" spans="5:11">
+      <c r="F196" s="38"/>
+      <c r="G196" s="38"/>
+      <c r="H196" s="5"/>
+    </row>
+    <row r="197" spans="5:11">
+      <c r="F197" s="38"/>
+      <c r="G197" s="38"/>
+      <c r="H197" s="5"/>
+      <c r="I197" t="s">
         <v>1028</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J197" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="99" spans="6:9">
-      <c r="H99" t="s">
+    <row r="198" spans="5:11">
+      <c r="I198" t="s">
         <v>1030</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J198" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="129" spans="2:12">
-      <c r="B129" t="s">
+    <row r="228" spans="2:13">
+      <c r="B228" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="130" spans="2:12">
-      <c r="D130" t="s">
+    <row r="229" spans="2:13">
+      <c r="D229" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="131" spans="2:12">
-      <c r="B131" t="s">
+    <row r="230" spans="2:13">
+      <c r="B230" t="s">
         <v>818</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C230" t="s">
         <v>820</v>
       </c>
-      <c r="J131" t="s">
+      <c r="K230" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="132" spans="2:12">
-      <c r="B132" t="s">
+    <row r="231" spans="2:13">
+      <c r="B231" t="s">
         <v>818</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C231" t="s">
         <v>821</v>
       </c>
-      <c r="J132" s="40" t="s">
+      <c r="K231" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="K132" s="40" t="s">
+      <c r="L231" s="40" t="s">
         <v>318</v>
       </c>
-      <c r="L132" s="40" t="s">
+      <c r="M231" s="40" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="133" spans="2:12">
-      <c r="B133" t="s">
+    <row r="232" spans="2:13">
+      <c r="B232" t="s">
         <v>822</v>
       </c>
-      <c r="J133" s="311" t="s">
+      <c r="K232" s="311" t="s">
         <v>29</v>
       </c>
-      <c r="K133" s="311" t="s">
+      <c r="L232" s="311" t="s">
         <v>29</v>
       </c>
-      <c r="L133" s="311" t="s">
+      <c r="M232" s="311" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="134" spans="2:12">
-      <c r="B134" t="s">
+    <row r="233" spans="2:13">
+      <c r="B233" t="s">
         <v>823</v>
       </c>
-      <c r="J134" t="s">
+      <c r="K233" t="s">
         <v>29</v>
       </c>
-      <c r="K134" t="s">
+      <c r="L233" t="s">
         <v>1311</v>
       </c>
-      <c r="L134" t="s">
+      <c r="M233" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="135" spans="2:12">
-      <c r="B135" t="s">
+    <row r="234" spans="2:13">
+      <c r="B234" t="s">
         <v>824</v>
       </c>
-      <c r="I135" t="s">
+      <c r="J234" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="136" spans="2:12">
-      <c r="B136" t="s">
+    <row r="235" spans="2:13">
+      <c r="B235" t="s">
         <v>825</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C235" t="s">
         <v>1308</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G235" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="137" spans="2:12">
-      <c r="D137" t="s">
+    <row r="236" spans="2:13">
+      <c r="D236" t="s">
         <v>1313</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G236" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="138" spans="2:12">
-      <c r="D138" t="s">
+    <row r="237" spans="2:13">
+      <c r="D237" t="s">
         <v>1314</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G237" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="139" spans="2:12">
-      <c r="D139" t="s">
+    <row r="238" spans="2:13">
+      <c r="D238" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="140" spans="2:12">
-      <c r="B140" t="s">
+    <row r="239" spans="2:13">
+      <c r="B239" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="141" spans="2:12">
-      <c r="C141" t="s">
+    <row r="240" spans="2:13">
+      <c r="C240" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="142" spans="2:12">
-      <c r="B142" t="s">
+    <row r="241" spans="2:2">
+      <c r="B241" t="s">
         <v>1310</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -16594,18 +17535,18 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="451" t="s">
+      <c r="E6" s="461" t="s">
         <v>406</v>
       </c>
-      <c r="F6" s="392"/>
-      <c r="G6" s="391" t="s">
+      <c r="F6" s="399"/>
+      <c r="G6" s="398" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="391"/>
-      <c r="I6" s="391"/>
-      <c r="J6" s="391"/>
-      <c r="K6" s="391"/>
-      <c r="L6" s="392"/>
+      <c r="H6" s="398"/>
+      <c r="I6" s="398"/>
+      <c r="J6" s="398"/>
+      <c r="K6" s="398"/>
+      <c r="L6" s="399"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="28" t="s">
@@ -16615,7 +17556,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="459">
+      <c r="D7" s="458">
         <v>80</v>
       </c>
       <c r="E7" s="66"/>
@@ -16633,7 +17574,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="459"/>
+      <c r="D8" s="458"/>
       <c r="E8" s="58" t="s">
         <v>408</v>
       </c>
@@ -16668,7 +17609,7 @@
       <c r="B9" t="s">
         <v>407</v>
       </c>
-      <c r="D9" s="459"/>
+      <c r="D9" s="458"/>
       <c r="E9" s="232"/>
       <c r="F9" s="238"/>
       <c r="G9" s="232"/>
@@ -16692,7 +17633,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="459"/>
+      <c r="D10" s="458"/>
       <c r="E10" s="66"/>
       <c r="F10" s="237"/>
       <c r="G10" s="66"/>
@@ -16716,7 +17657,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="459"/>
+      <c r="D11" s="458"/>
       <c r="E11" s="58" t="s">
         <v>412</v>
       </c>
@@ -16745,7 +17686,7 @@
       <c r="B12" s="209" t="s">
         <v>416</v>
       </c>
-      <c r="D12" s="459"/>
+      <c r="D12" s="458"/>
       <c r="E12" s="232"/>
       <c r="F12" s="238"/>
       <c r="G12" s="232"/>
@@ -16763,7 +17704,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="459"/>
+      <c r="D13" s="458"/>
       <c r="E13" s="66"/>
       <c r="F13" s="237"/>
       <c r="G13" s="66"/>
@@ -16779,7 +17720,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="459"/>
+      <c r="D14" s="458"/>
       <c r="E14" s="58" t="s">
         <v>417</v>
       </c>
@@ -16803,7 +17744,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="459"/>
+      <c r="D15" s="458"/>
       <c r="E15" s="232"/>
       <c r="F15" s="238"/>
       <c r="G15" s="232"/>
@@ -16819,7 +17760,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="459"/>
+      <c r="D16" s="458"/>
       <c r="E16" s="66"/>
       <c r="F16" s="237"/>
       <c r="G16" s="59"/>
@@ -16835,7 +17776,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="459"/>
+      <c r="D17" s="458"/>
       <c r="E17" s="58" t="s">
         <v>421</v>
       </c>
@@ -16859,7 +17800,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="459"/>
+      <c r="D18" s="458"/>
       <c r="E18" s="232"/>
       <c r="F18" s="238"/>
       <c r="G18" s="321"/>
@@ -16876,20 +17817,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="452" t="s">
+      <c r="E19" s="462" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="453"/>
-      <c r="G19" s="452" t="s">
+      <c r="F19" s="463"/>
+      <c r="G19" s="462" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="453"/>
-      <c r="I19" s="452" t="s">
+      <c r="H19" s="463"/>
+      <c r="I19" s="462" t="s">
         <v>196</v>
       </c>
-      <c r="J19" s="454"/>
-      <c r="K19" s="454"/>
-      <c r="L19" s="453"/>
+      <c r="J19" s="464"/>
+      <c r="K19" s="464"/>
+      <c r="L19" s="463"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -16954,12 +17895,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="409"/>
-      <c r="H24" s="409"/>
-      <c r="I24" s="409"/>
-      <c r="J24" s="409"/>
-      <c r="K24" s="409"/>
-      <c r="L24" s="409"/>
+      <c r="G24" s="460"/>
+      <c r="H24" s="460"/>
+      <c r="I24" s="460"/>
+      <c r="J24" s="460"/>
+      <c r="K24" s="460"/>
+      <c r="L24" s="460"/>
       <c r="O24" s="40" t="s">
         <v>179</v>
       </c>
@@ -17332,11 +18273,11 @@
       <c r="G47" s="222" t="s">
         <v>883</v>
       </c>
-      <c r="H47" s="406" t="s">
+      <c r="H47" s="450" t="s">
         <v>1354</v>
       </c>
-      <c r="I47" s="460"/>
-      <c r="J47" s="407"/>
+      <c r="I47" s="459"/>
+      <c r="J47" s="451"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -17942,16 +18883,16 @@
         <v>1048</v>
       </c>
       <c r="F131" s="38"/>
-      <c r="G131" s="457" t="s">
+      <c r="G131" s="456" t="s">
         <v>1041</v>
       </c>
-      <c r="H131" s="457"/>
-      <c r="I131" s="457"/>
-      <c r="J131" s="457"/>
-      <c r="K131" s="457"/>
-      <c r="L131" s="457"/>
-      <c r="M131" s="457"/>
-      <c r="N131" s="457"/>
+      <c r="H131" s="456"/>
+      <c r="I131" s="456"/>
+      <c r="J131" s="456"/>
+      <c r="K131" s="456"/>
+      <c r="L131" s="456"/>
+      <c r="M131" s="456"/>
+      <c r="N131" s="456"/>
       <c r="O131" s="38"/>
     </row>
     <row r="132" spans="2:15">
@@ -18088,29 +19029,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="38"/>
-      <c r="G141" s="458"/>
-      <c r="H141" s="458"/>
-      <c r="I141" s="458"/>
-      <c r="J141" s="458"/>
-      <c r="K141" s="458"/>
-      <c r="L141" s="458"/>
-      <c r="M141" s="458"/>
-      <c r="N141" s="458"/>
-      <c r="O141" s="458"/>
+      <c r="G141" s="457"/>
+      <c r="H141" s="457"/>
+      <c r="I141" s="457"/>
+      <c r="J141" s="457"/>
+      <c r="K141" s="457"/>
+      <c r="L141" s="457"/>
+      <c r="M141" s="457"/>
+      <c r="N141" s="457"/>
+      <c r="O141" s="457"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="458"/>
-      <c r="H142" s="458"/>
-      <c r="I142" s="458"/>
-      <c r="J142" s="458"/>
-      <c r="K142" s="458"/>
-      <c r="L142" s="458"/>
-      <c r="M142" s="458"/>
-      <c r="N142" s="458"/>
-      <c r="O142" s="458"/>
+      <c r="G142" s="457"/>
+      <c r="H142" s="457"/>
+      <c r="I142" s="457"/>
+      <c r="J142" s="457"/>
+      <c r="K142" s="457"/>
+      <c r="L142" s="457"/>
+      <c r="M142" s="457"/>
+      <c r="N142" s="457"/>
+      <c r="O142" s="457"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -18154,7 +19095,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="455" t="s">
+      <c r="D158" s="454" t="s">
         <v>1320</v>
       </c>
       <c r="E158" s="66"/>
@@ -18167,7 +19108,7 @@
       <c r="L158" s="237"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="456"/>
+      <c r="D159" s="455"/>
       <c r="E159" s="313" t="s">
         <v>1318</v>
       </c>
@@ -18189,7 +19130,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="456"/>
+      <c r="D160" s="455"/>
       <c r="E160" s="232"/>
       <c r="F160" s="238"/>
       <c r="G160" s="232"/>
@@ -18200,7 +19141,7 @@
       <c r="L160" s="238"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="456"/>
+      <c r="D161" s="455"/>
       <c r="E161" s="315"/>
       <c r="F161" s="316"/>
       <c r="G161" s="315"/>
@@ -18211,7 +19152,7 @@
       <c r="L161" s="316"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="456"/>
+      <c r="D162" s="455"/>
       <c r="E162" s="317"/>
       <c r="F162" s="318"/>
       <c r="G162" s="317"/>
@@ -18225,7 +19166,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="456"/>
+      <c r="D163" s="455"/>
       <c r="E163" s="319"/>
       <c r="F163" s="320"/>
       <c r="G163" s="319"/>
@@ -18236,7 +19177,7 @@
       <c r="L163" s="320"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="456"/>
+      <c r="D164" s="455"/>
       <c r="E164" s="66"/>
       <c r="F164" s="237"/>
       <c r="G164" s="66"/>
@@ -18247,7 +19188,7 @@
       <c r="L164" s="237"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="456"/>
+      <c r="D165" s="455"/>
       <c r="E165" s="58"/>
       <c r="F165" s="312"/>
       <c r="G165" s="58"/>
@@ -18261,7 +19202,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="456"/>
+      <c r="D166" s="455"/>
       <c r="E166" s="232"/>
       <c r="F166" s="238"/>
       <c r="G166" s="232"/>
@@ -18272,7 +19213,7 @@
       <c r="L166" s="238"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="456"/>
+      <c r="D167" s="455"/>
       <c r="E167" s="66"/>
       <c r="F167" s="237"/>
       <c r="G167" s="59"/>
@@ -18283,7 +19224,7 @@
       <c r="L167" s="312"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="456"/>
+      <c r="D168" s="455"/>
       <c r="E168" s="58"/>
       <c r="F168" s="312"/>
       <c r="G168" s="59"/>
@@ -18297,7 +19238,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="456"/>
+      <c r="D169" s="455"/>
       <c r="E169" s="232"/>
       <c r="F169" s="238"/>
       <c r="G169" s="321"/>
@@ -18477,17 +19418,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -18732,13 +19673,13 @@
       <c r="C20" s="116">
         <v>43908</v>
       </c>
-      <c r="D20" s="461" t="s">
+      <c r="D20" s="465" t="s">
         <v>456</v>
       </c>
-      <c r="E20" s="461"/>
-      <c r="F20" s="461"/>
-      <c r="G20" s="461"/>
-      <c r="H20" s="461"/>
+      <c r="E20" s="465"/>
+      <c r="F20" s="465"/>
+      <c r="G20" s="465"/>
+      <c r="H20" s="465"/>
       <c r="I20" s="38" t="s">
         <v>457</v>
       </c>
@@ -18749,37 +19690,37 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="472">
+      <c r="C21" s="466">
         <v>43909</v>
       </c>
-      <c r="D21" s="461"/>
-      <c r="E21" s="461"/>
-      <c r="F21" s="461"/>
-      <c r="G21" s="461"/>
-      <c r="H21" s="461"/>
+      <c r="D21" s="465"/>
+      <c r="E21" s="465"/>
+      <c r="F21" s="465"/>
+      <c r="G21" s="465"/>
+      <c r="H21" s="465"/>
       <c r="I21" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="J21" s="461"/>
-      <c r="K21" s="461"/>
-      <c r="L21" s="461" t="s">
+      <c r="J21" s="465"/>
+      <c r="K21" s="465"/>
+      <c r="L21" s="465" t="s">
         <v>459</v>
       </c>
-      <c r="M21" s="461"/>
-      <c r="N21" s="461"/>
+      <c r="M21" s="465"/>
+      <c r="N21" s="465"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="472"/>
-      <c r="D22" s="461"/>
-      <c r="E22" s="461"/>
-      <c r="F22" s="461"/>
-      <c r="G22" s="461"/>
-      <c r="H22" s="461"/>
-      <c r="I22" s="398" t="s">
+      <c r="C22" s="466"/>
+      <c r="D22" s="465"/>
+      <c r="E22" s="465"/>
+      <c r="F22" s="465"/>
+      <c r="G22" s="465"/>
+      <c r="H22" s="465"/>
+      <c r="I22" s="405" t="s">
         <v>460</v>
       </c>
-      <c r="J22" s="461"/>
-      <c r="K22" s="461"/>
+      <c r="J22" s="465"/>
+      <c r="K22" s="465"/>
       <c r="L22" s="117" t="s">
         <v>461</v>
       </c>
@@ -18787,31 +19728,31 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="472"/>
-      <c r="D23" s="461"/>
-      <c r="E23" s="461"/>
-      <c r="F23" s="461"/>
-      <c r="G23" s="461"/>
-      <c r="H23" s="461"/>
-      <c r="I23" s="398"/>
-      <c r="J23" s="461"/>
-      <c r="K23" s="461"/>
-      <c r="L23" s="461" t="s">
+      <c r="C23" s="466"/>
+      <c r="D23" s="465"/>
+      <c r="E23" s="465"/>
+      <c r="F23" s="465"/>
+      <c r="G23" s="465"/>
+      <c r="H23" s="465"/>
+      <c r="I23" s="405"/>
+      <c r="J23" s="465"/>
+      <c r="K23" s="465"/>
+      <c r="L23" s="465" t="s">
         <v>462</v>
       </c>
-      <c r="M23" s="461"/>
-      <c r="N23" s="461"/>
+      <c r="M23" s="465"/>
+      <c r="N23" s="465"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="472"/>
-      <c r="D24" s="461"/>
-      <c r="E24" s="461"/>
-      <c r="F24" s="461"/>
-      <c r="G24" s="461"/>
-      <c r="H24" s="461"/>
-      <c r="I24" s="398"/>
-      <c r="J24" s="461"/>
-      <c r="K24" s="461"/>
+      <c r="C24" s="466"/>
+      <c r="D24" s="465"/>
+      <c r="E24" s="465"/>
+      <c r="F24" s="465"/>
+      <c r="G24" s="465"/>
+      <c r="H24" s="465"/>
+      <c r="I24" s="405"/>
+      <c r="J24" s="465"/>
+      <c r="K24" s="465"/>
       <c r="L24" s="118" t="s">
         <v>460</v>
       </c>
@@ -18822,13 +19763,13 @@
       <c r="C25" s="116">
         <v>43910</v>
       </c>
-      <c r="D25" s="461" t="s">
+      <c r="D25" s="465" t="s">
         <v>463</v>
       </c>
-      <c r="E25" s="461"/>
-      <c r="F25" s="461"/>
-      <c r="G25" s="461"/>
-      <c r="H25" s="461"/>
+      <c r="E25" s="465"/>
+      <c r="F25" s="465"/>
+      <c r="G25" s="465"/>
+      <c r="H25" s="465"/>
       <c r="I25" s="38" t="s">
         <v>464</v>
       </c>
@@ -18842,16 +19783,16 @@
       <c r="C26" s="116">
         <v>43911</v>
       </c>
-      <c r="D26" s="462"/>
-      <c r="E26" s="463"/>
-      <c r="F26" s="463"/>
-      <c r="G26" s="463"/>
-      <c r="H26" s="464"/>
-      <c r="I26" s="469" t="s">
+      <c r="D26" s="467"/>
+      <c r="E26" s="468"/>
+      <c r="F26" s="468"/>
+      <c r="G26" s="468"/>
+      <c r="H26" s="469"/>
+      <c r="I26" s="474" t="s">
         <v>460</v>
       </c>
-      <c r="J26" s="462"/>
-      <c r="K26" s="464"/>
+      <c r="J26" s="467"/>
+      <c r="K26" s="469"/>
       <c r="L26" s="117" t="s">
         <v>461</v>
       </c>
@@ -18860,30 +19801,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
-      <c r="D27" s="465"/>
-      <c r="E27" s="409"/>
-      <c r="F27" s="409"/>
-      <c r="G27" s="409"/>
-      <c r="H27" s="466"/>
-      <c r="I27" s="470"/>
-      <c r="J27" s="465"/>
-      <c r="K27" s="466"/>
-      <c r="L27" s="461" t="s">
+      <c r="D27" s="470"/>
+      <c r="E27" s="460"/>
+      <c r="F27" s="460"/>
+      <c r="G27" s="460"/>
+      <c r="H27" s="471"/>
+      <c r="I27" s="475"/>
+      <c r="J27" s="470"/>
+      <c r="K27" s="471"/>
+      <c r="L27" s="465" t="s">
         <v>465</v>
       </c>
-      <c r="M27" s="461"/>
-      <c r="N27" s="461"/>
+      <c r="M27" s="465"/>
+      <c r="N27" s="465"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
-      <c r="D28" s="465"/>
-      <c r="E28" s="409"/>
-      <c r="F28" s="409"/>
-      <c r="G28" s="409"/>
-      <c r="H28" s="466"/>
-      <c r="I28" s="470"/>
-      <c r="J28" s="465"/>
-      <c r="K28" s="466"/>
+      <c r="D28" s="470"/>
+      <c r="E28" s="460"/>
+      <c r="F28" s="460"/>
+      <c r="G28" s="460"/>
+      <c r="H28" s="471"/>
+      <c r="I28" s="475"/>
+      <c r="J28" s="470"/>
+      <c r="K28" s="471"/>
       <c r="L28" s="118" t="s">
         <v>460</v>
       </c>
@@ -18892,14 +19833,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
-      <c r="D29" s="467"/>
-      <c r="E29" s="449"/>
-      <c r="F29" s="449"/>
-      <c r="G29" s="449"/>
-      <c r="H29" s="468"/>
-      <c r="I29" s="471"/>
-      <c r="J29" s="467"/>
-      <c r="K29" s="468"/>
+      <c r="D29" s="472"/>
+      <c r="E29" s="452"/>
+      <c r="F29" s="452"/>
+      <c r="G29" s="452"/>
+      <c r="H29" s="473"/>
+      <c r="I29" s="476"/>
+      <c r="J29" s="472"/>
+      <c r="K29" s="473"/>
       <c r="L29" s="119" t="s">
         <v>466</v>
       </c>
@@ -18947,13 +19888,13 @@
       <c r="C33" s="116">
         <v>43908</v>
       </c>
-      <c r="D33" s="461" t="s">
+      <c r="D33" s="465" t="s">
         <v>456</v>
       </c>
-      <c r="E33" s="461"/>
-      <c r="F33" s="461"/>
-      <c r="G33" s="461"/>
-      <c r="H33" s="461"/>
+      <c r="E33" s="465"/>
+      <c r="F33" s="465"/>
+      <c r="G33" s="465"/>
+      <c r="H33" s="465"/>
       <c r="I33" s="38" t="s">
         <v>457</v>
       </c>
@@ -18964,33 +19905,33 @@
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="472">
+      <c r="C34" s="466">
         <v>43909</v>
       </c>
-      <c r="D34" s="461"/>
-      <c r="E34" s="461"/>
-      <c r="F34" s="461"/>
-      <c r="G34" s="461"/>
-      <c r="H34" s="461"/>
-      <c r="I34" s="473"/>
-      <c r="J34" s="461"/>
-      <c r="K34" s="461"/>
-      <c r="L34" s="461" t="s">
+      <c r="D34" s="465"/>
+      <c r="E34" s="465"/>
+      <c r="F34" s="465"/>
+      <c r="G34" s="465"/>
+      <c r="H34" s="465"/>
+      <c r="I34" s="477"/>
+      <c r="J34" s="465"/>
+      <c r="K34" s="465"/>
+      <c r="L34" s="465" t="s">
         <v>459</v>
       </c>
-      <c r="M34" s="461"/>
-      <c r="N34" s="461"/>
+      <c r="M34" s="465"/>
+      <c r="N34" s="465"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="472"/>
-      <c r="D35" s="461"/>
-      <c r="E35" s="461"/>
-      <c r="F35" s="461"/>
-      <c r="G35" s="461"/>
-      <c r="H35" s="461"/>
-      <c r="I35" s="474"/>
-      <c r="J35" s="461"/>
-      <c r="K35" s="461"/>
+      <c r="C35" s="466"/>
+      <c r="D35" s="465"/>
+      <c r="E35" s="465"/>
+      <c r="F35" s="465"/>
+      <c r="G35" s="465"/>
+      <c r="H35" s="465"/>
+      <c r="I35" s="478"/>
+      <c r="J35" s="465"/>
+      <c r="K35" s="465"/>
       <c r="L35" s="117" t="s">
         <v>461</v>
       </c>
@@ -18998,31 +19939,31 @@
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="472"/>
-      <c r="D36" s="461"/>
-      <c r="E36" s="461"/>
-      <c r="F36" s="461"/>
-      <c r="G36" s="461"/>
-      <c r="H36" s="461"/>
-      <c r="I36" s="474"/>
-      <c r="J36" s="461"/>
-      <c r="K36" s="461"/>
-      <c r="L36" s="461" t="s">
+      <c r="C36" s="466"/>
+      <c r="D36" s="465"/>
+      <c r="E36" s="465"/>
+      <c r="F36" s="465"/>
+      <c r="G36" s="465"/>
+      <c r="H36" s="465"/>
+      <c r="I36" s="478"/>
+      <c r="J36" s="465"/>
+      <c r="K36" s="465"/>
+      <c r="L36" s="465" t="s">
         <v>462</v>
       </c>
-      <c r="M36" s="461"/>
-      <c r="N36" s="461"/>
+      <c r="M36" s="465"/>
+      <c r="N36" s="465"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="472"/>
-      <c r="D37" s="461"/>
-      <c r="E37" s="461"/>
-      <c r="F37" s="461"/>
-      <c r="G37" s="461"/>
-      <c r="H37" s="461"/>
-      <c r="I37" s="475"/>
-      <c r="J37" s="461"/>
-      <c r="K37" s="461"/>
+      <c r="C37" s="466"/>
+      <c r="D37" s="465"/>
+      <c r="E37" s="465"/>
+      <c r="F37" s="465"/>
+      <c r="G37" s="465"/>
+      <c r="H37" s="465"/>
+      <c r="I37" s="479"/>
+      <c r="J37" s="465"/>
+      <c r="K37" s="465"/>
       <c r="L37" s="118" t="s">
         <v>467</v>
       </c>
@@ -19033,13 +19974,13 @@
       <c r="C38" s="116">
         <v>43910</v>
       </c>
-      <c r="D38" s="461" t="s">
+      <c r="D38" s="465" t="s">
         <v>463</v>
       </c>
-      <c r="E38" s="461"/>
-      <c r="F38" s="461"/>
-      <c r="G38" s="461"/>
-      <c r="H38" s="461"/>
+      <c r="E38" s="465"/>
+      <c r="F38" s="465"/>
+      <c r="G38" s="465"/>
+      <c r="H38" s="465"/>
       <c r="I38" s="38" t="s">
         <v>464</v>
       </c>
@@ -19053,14 +19994,14 @@
       <c r="C39" s="116">
         <v>43911</v>
       </c>
-      <c r="D39" s="462"/>
-      <c r="E39" s="463"/>
-      <c r="F39" s="463"/>
-      <c r="G39" s="463"/>
-      <c r="H39" s="464"/>
-      <c r="I39" s="469"/>
-      <c r="J39" s="462"/>
-      <c r="K39" s="464"/>
+      <c r="D39" s="467"/>
+      <c r="E39" s="468"/>
+      <c r="F39" s="468"/>
+      <c r="G39" s="468"/>
+      <c r="H39" s="469"/>
+      <c r="I39" s="474"/>
+      <c r="J39" s="467"/>
+      <c r="K39" s="469"/>
       <c r="L39" s="117" t="s">
         <v>461</v>
       </c>
@@ -19069,30 +20010,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
-      <c r="D40" s="465"/>
-      <c r="E40" s="409"/>
-      <c r="F40" s="409"/>
-      <c r="G40" s="409"/>
-      <c r="H40" s="466"/>
-      <c r="I40" s="470"/>
-      <c r="J40" s="465"/>
-      <c r="K40" s="466"/>
-      <c r="L40" s="461" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="460"/>
+      <c r="F40" s="460"/>
+      <c r="G40" s="460"/>
+      <c r="H40" s="471"/>
+      <c r="I40" s="475"/>
+      <c r="J40" s="470"/>
+      <c r="K40" s="471"/>
+      <c r="L40" s="465" t="s">
         <v>465</v>
       </c>
-      <c r="M40" s="461"/>
-      <c r="N40" s="461"/>
+      <c r="M40" s="465"/>
+      <c r="N40" s="465"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
-      <c r="D41" s="465"/>
-      <c r="E41" s="409"/>
-      <c r="F41" s="409"/>
-      <c r="G41" s="409"/>
-      <c r="H41" s="466"/>
-      <c r="I41" s="471"/>
-      <c r="J41" s="465"/>
-      <c r="K41" s="466"/>
+      <c r="D41" s="470"/>
+      <c r="E41" s="460"/>
+      <c r="F41" s="460"/>
+      <c r="G41" s="460"/>
+      <c r="H41" s="471"/>
+      <c r="I41" s="476"/>
+      <c r="J41" s="470"/>
+      <c r="K41" s="471"/>
       <c r="L41" s="118" t="s">
         <v>467</v>
       </c>
@@ -19101,16 +20042,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
-      <c r="D42" s="467"/>
-      <c r="E42" s="449"/>
-      <c r="F42" s="449"/>
-      <c r="G42" s="449"/>
-      <c r="H42" s="468"/>
+      <c r="D42" s="472"/>
+      <c r="E42" s="452"/>
+      <c r="F42" s="452"/>
+      <c r="G42" s="452"/>
+      <c r="H42" s="473"/>
       <c r="I42" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="J42" s="467"/>
-      <c r="K42" s="468"/>
+      <c r="J42" s="472"/>
+      <c r="K42" s="473"/>
       <c r="L42" s="119" t="s">
         <v>466</v>
       </c>
@@ -19422,12 +20363,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -19435,17 +20381,12 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19467,29 +20408,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="495" t="s">
+      <c r="B2" s="490" t="s">
         <v>1076</v>
       </c>
-      <c r="C2" s="495"/>
-      <c r="D2" s="495"/>
-      <c r="E2" s="495"/>
-      <c r="F2" s="495"/>
-      <c r="G2" s="495"/>
-      <c r="H2" s="495"/>
-      <c r="I2" s="495"/>
-      <c r="J2" s="495"/>
-      <c r="K2" s="495"/>
-      <c r="L2" s="495"/>
-      <c r="M2" s="495"/>
-      <c r="N2" s="495"/>
-      <c r="O2" s="495"/>
-      <c r="P2" s="495"/>
-      <c r="Q2" s="495"/>
-      <c r="R2" s="495"/>
-      <c r="S2" s="495"/>
-      <c r="T2" s="495"/>
-      <c r="U2" s="495"/>
-      <c r="V2" s="495"/>
+      <c r="C2" s="490"/>
+      <c r="D2" s="490"/>
+      <c r="E2" s="490"/>
+      <c r="F2" s="490"/>
+      <c r="G2" s="490"/>
+      <c r="H2" s="490"/>
+      <c r="I2" s="490"/>
+      <c r="J2" s="490"/>
+      <c r="K2" s="490"/>
+      <c r="L2" s="490"/>
+      <c r="M2" s="490"/>
+      <c r="N2" s="490"/>
+      <c r="O2" s="490"/>
+      <c r="P2" s="490"/>
+      <c r="Q2" s="490"/>
+      <c r="R2" s="490"/>
+      <c r="S2" s="490"/>
+      <c r="T2" s="490"/>
+      <c r="U2" s="490"/>
+      <c r="V2" s="490"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -19522,22 +20463,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="476" t="s">
+      <c r="G5" s="493" t="s">
         <v>518</v>
       </c>
-      <c r="H5" s="476"/>
-      <c r="I5" s="476" t="s">
+      <c r="H5" s="493"/>
+      <c r="I5" s="493" t="s">
         <v>519</v>
       </c>
-      <c r="J5" s="476"/>
-      <c r="K5" s="476"/>
-      <c r="L5" s="476"/>
-      <c r="M5" s="476"/>
-      <c r="N5" s="476"/>
-      <c r="O5" s="476" t="s">
+      <c r="J5" s="493"/>
+      <c r="K5" s="493"/>
+      <c r="L5" s="493"/>
+      <c r="M5" s="493"/>
+      <c r="N5" s="493"/>
+      <c r="O5" s="493" t="s">
         <v>520</v>
       </c>
-      <c r="P5" s="476"/>
+      <c r="P5" s="493"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -19549,7 +20490,7 @@
       <c r="D6" s="135"/>
       <c r="E6" s="136"/>
       <c r="F6" s="138"/>
-      <c r="G6" s="477" t="s">
+      <c r="G6" s="498" t="s">
         <v>521</v>
       </c>
       <c r="H6" s="111"/>
@@ -19578,26 +20519,26 @@
       </c>
       <c r="E7" s="138"/>
       <c r="F7" s="138"/>
-      <c r="G7" s="404"/>
-      <c r="H7" s="478" t="s">
+      <c r="G7" s="407"/>
+      <c r="H7" s="499" t="s">
         <v>523</v>
       </c>
-      <c r="I7" s="481" t="s">
+      <c r="I7" s="502" t="s">
         <v>524</v>
       </c>
-      <c r="J7" s="482"/>
-      <c r="K7" s="483" t="s">
+      <c r="J7" s="503"/>
+      <c r="K7" s="504" t="s">
         <v>525</v>
       </c>
-      <c r="L7" s="484"/>
-      <c r="M7" s="481" t="s">
+      <c r="L7" s="505"/>
+      <c r="M7" s="502" t="s">
         <v>526</v>
       </c>
-      <c r="N7" s="482"/>
-      <c r="O7" s="489" t="s">
+      <c r="N7" s="503"/>
+      <c r="O7" s="510" t="s">
         <v>527</v>
       </c>
-      <c r="P7" s="490"/>
+      <c r="P7" s="511"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -19609,16 +20550,16 @@
       <c r="D8" s="139"/>
       <c r="E8" s="140"/>
       <c r="F8" s="138"/>
-      <c r="G8" s="404"/>
-      <c r="H8" s="479"/>
-      <c r="I8" s="395"/>
-      <c r="J8" s="397"/>
-      <c r="K8" s="485"/>
-      <c r="L8" s="486"/>
-      <c r="M8" s="395"/>
-      <c r="N8" s="397"/>
-      <c r="O8" s="491"/>
-      <c r="P8" s="492"/>
+      <c r="G8" s="407"/>
+      <c r="H8" s="500"/>
+      <c r="I8" s="402"/>
+      <c r="J8" s="404"/>
+      <c r="K8" s="506"/>
+      <c r="L8" s="507"/>
+      <c r="M8" s="402"/>
+      <c r="N8" s="404"/>
+      <c r="O8" s="512"/>
+      <c r="P8" s="513"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="38" t="s">
         <v>182</v>
@@ -19636,16 +20577,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="404"/>
-      <c r="H9" s="479"/>
-      <c r="I9" s="395"/>
-      <c r="J9" s="397"/>
-      <c r="K9" s="485"/>
-      <c r="L9" s="486"/>
-      <c r="M9" s="395"/>
-      <c r="N9" s="397"/>
-      <c r="O9" s="491"/>
-      <c r="P9" s="492"/>
+      <c r="G9" s="407"/>
+      <c r="H9" s="500"/>
+      <c r="I9" s="402"/>
+      <c r="J9" s="404"/>
+      <c r="K9" s="506"/>
+      <c r="L9" s="507"/>
+      <c r="M9" s="402"/>
+      <c r="N9" s="404"/>
+      <c r="O9" s="512"/>
+      <c r="P9" s="513"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -19665,16 +20606,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="404"/>
-      <c r="H10" s="479"/>
-      <c r="I10" s="395"/>
-      <c r="J10" s="397"/>
-      <c r="K10" s="485"/>
-      <c r="L10" s="486"/>
-      <c r="M10" s="395"/>
-      <c r="N10" s="397"/>
-      <c r="O10" s="491"/>
-      <c r="P10" s="492"/>
+      <c r="G10" s="407"/>
+      <c r="H10" s="500"/>
+      <c r="I10" s="402"/>
+      <c r="J10" s="404"/>
+      <c r="K10" s="506"/>
+      <c r="L10" s="507"/>
+      <c r="M10" s="402"/>
+      <c r="N10" s="404"/>
+      <c r="O10" s="512"/>
+      <c r="P10" s="513"/>
       <c r="Q10" s="5" t="s">
         <v>187</v>
       </c>
@@ -19690,16 +20631,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="404"/>
-      <c r="H11" s="479"/>
-      <c r="I11" s="395"/>
-      <c r="J11" s="397"/>
-      <c r="K11" s="485"/>
-      <c r="L11" s="486"/>
-      <c r="M11" s="395"/>
-      <c r="N11" s="397"/>
-      <c r="O11" s="491"/>
-      <c r="P11" s="492"/>
+      <c r="G11" s="407"/>
+      <c r="H11" s="500"/>
+      <c r="I11" s="402"/>
+      <c r="J11" s="404"/>
+      <c r="K11" s="506"/>
+      <c r="L11" s="507"/>
+      <c r="M11" s="402"/>
+      <c r="N11" s="404"/>
+      <c r="O11" s="512"/>
+      <c r="P11" s="513"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -19717,16 +20658,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="404"/>
-      <c r="H12" s="479"/>
-      <c r="I12" s="395"/>
-      <c r="J12" s="397"/>
-      <c r="K12" s="485"/>
-      <c r="L12" s="486"/>
-      <c r="M12" s="395"/>
-      <c r="N12" s="397"/>
-      <c r="O12" s="491"/>
-      <c r="P12" s="492"/>
+      <c r="G12" s="407"/>
+      <c r="H12" s="500"/>
+      <c r="I12" s="402"/>
+      <c r="J12" s="404"/>
+      <c r="K12" s="506"/>
+      <c r="L12" s="507"/>
+      <c r="M12" s="402"/>
+      <c r="N12" s="404"/>
+      <c r="O12" s="512"/>
+      <c r="P12" s="513"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -19740,16 +20681,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="404"/>
-      <c r="H13" s="479"/>
-      <c r="I13" s="395"/>
-      <c r="J13" s="397"/>
-      <c r="K13" s="485"/>
-      <c r="L13" s="486"/>
-      <c r="M13" s="395"/>
-      <c r="N13" s="397"/>
-      <c r="O13" s="491"/>
-      <c r="P13" s="492"/>
+      <c r="G13" s="407"/>
+      <c r="H13" s="500"/>
+      <c r="I13" s="402"/>
+      <c r="J13" s="404"/>
+      <c r="K13" s="506"/>
+      <c r="L13" s="507"/>
+      <c r="M13" s="402"/>
+      <c r="N13" s="404"/>
+      <c r="O13" s="512"/>
+      <c r="P13" s="513"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -19761,16 +20702,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="404"/>
-      <c r="H14" s="479"/>
-      <c r="I14" s="395"/>
-      <c r="J14" s="397"/>
-      <c r="K14" s="485"/>
-      <c r="L14" s="486"/>
-      <c r="M14" s="395"/>
-      <c r="N14" s="397"/>
-      <c r="O14" s="491"/>
-      <c r="P14" s="492"/>
+      <c r="G14" s="407"/>
+      <c r="H14" s="500"/>
+      <c r="I14" s="402"/>
+      <c r="J14" s="404"/>
+      <c r="K14" s="506"/>
+      <c r="L14" s="507"/>
+      <c r="M14" s="402"/>
+      <c r="N14" s="404"/>
+      <c r="O14" s="512"/>
+      <c r="P14" s="513"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -19784,16 +20725,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="404"/>
-      <c r="H15" s="479"/>
-      <c r="I15" s="395"/>
-      <c r="J15" s="397"/>
-      <c r="K15" s="485"/>
-      <c r="L15" s="486"/>
-      <c r="M15" s="395"/>
-      <c r="N15" s="397"/>
-      <c r="O15" s="491"/>
-      <c r="P15" s="492"/>
+      <c r="G15" s="407"/>
+      <c r="H15" s="500"/>
+      <c r="I15" s="402"/>
+      <c r="J15" s="404"/>
+      <c r="K15" s="506"/>
+      <c r="L15" s="507"/>
+      <c r="M15" s="402"/>
+      <c r="N15" s="404"/>
+      <c r="O15" s="512"/>
+      <c r="P15" s="513"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -19805,16 +20746,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="404"/>
-      <c r="H16" s="479"/>
-      <c r="I16" s="395"/>
-      <c r="J16" s="397"/>
-      <c r="K16" s="485"/>
-      <c r="L16" s="486"/>
-      <c r="M16" s="395"/>
-      <c r="N16" s="397"/>
-      <c r="O16" s="491"/>
-      <c r="P16" s="492"/>
+      <c r="G16" s="407"/>
+      <c r="H16" s="500"/>
+      <c r="I16" s="402"/>
+      <c r="J16" s="404"/>
+      <c r="K16" s="506"/>
+      <c r="L16" s="507"/>
+      <c r="M16" s="402"/>
+      <c r="N16" s="404"/>
+      <c r="O16" s="512"/>
+      <c r="P16" s="513"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -19826,16 +20767,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="404"/>
-      <c r="H17" s="479"/>
-      <c r="I17" s="395"/>
-      <c r="J17" s="397"/>
-      <c r="K17" s="485"/>
-      <c r="L17" s="486"/>
-      <c r="M17" s="395"/>
-      <c r="N17" s="397"/>
-      <c r="O17" s="491"/>
-      <c r="P17" s="492"/>
+      <c r="G17" s="407"/>
+      <c r="H17" s="500"/>
+      <c r="I17" s="402"/>
+      <c r="J17" s="404"/>
+      <c r="K17" s="506"/>
+      <c r="L17" s="507"/>
+      <c r="M17" s="402"/>
+      <c r="N17" s="404"/>
+      <c r="O17" s="512"/>
+      <c r="P17" s="513"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -19847,16 +20788,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="404"/>
-      <c r="H18" s="479"/>
-      <c r="I18" s="395"/>
-      <c r="J18" s="397"/>
-      <c r="K18" s="485"/>
-      <c r="L18" s="486"/>
-      <c r="M18" s="395"/>
-      <c r="N18" s="397"/>
-      <c r="O18" s="491"/>
-      <c r="P18" s="492"/>
+      <c r="G18" s="407"/>
+      <c r="H18" s="500"/>
+      <c r="I18" s="402"/>
+      <c r="J18" s="404"/>
+      <c r="K18" s="506"/>
+      <c r="L18" s="507"/>
+      <c r="M18" s="402"/>
+      <c r="N18" s="404"/>
+      <c r="O18" s="512"/>
+      <c r="P18" s="513"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -19870,16 +20811,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="404"/>
-      <c r="H19" s="479"/>
-      <c r="I19" s="395"/>
-      <c r="J19" s="397"/>
-      <c r="K19" s="485"/>
-      <c r="L19" s="486"/>
-      <c r="M19" s="395"/>
-      <c r="N19" s="397"/>
-      <c r="O19" s="491"/>
-      <c r="P19" s="492"/>
+      <c r="G19" s="407"/>
+      <c r="H19" s="500"/>
+      <c r="I19" s="402"/>
+      <c r="J19" s="404"/>
+      <c r="K19" s="506"/>
+      <c r="L19" s="507"/>
+      <c r="M19" s="402"/>
+      <c r="N19" s="404"/>
+      <c r="O19" s="512"/>
+      <c r="P19" s="513"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -19891,16 +20832,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="405"/>
-      <c r="H20" s="480"/>
-      <c r="I20" s="400"/>
-      <c r="J20" s="402"/>
-      <c r="K20" s="487"/>
-      <c r="L20" s="488"/>
-      <c r="M20" s="400"/>
-      <c r="N20" s="402"/>
-      <c r="O20" s="493"/>
-      <c r="P20" s="494"/>
+      <c r="G20" s="408"/>
+      <c r="H20" s="501"/>
+      <c r="I20" s="423"/>
+      <c r="J20" s="425"/>
+      <c r="K20" s="508"/>
+      <c r="L20" s="509"/>
+      <c r="M20" s="423"/>
+      <c r="N20" s="425"/>
+      <c r="O20" s="514"/>
+      <c r="P20" s="515"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -19930,27 +20871,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="425" t="s">
+      <c r="D22" s="426" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="426"/>
+      <c r="E22" s="427"/>
       <c r="F22" s="265"/>
       <c r="G22" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="425" t="s">
+      <c r="H22" s="426" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="427"/>
-      <c r="J22" s="427"/>
-      <c r="K22" s="427"/>
-      <c r="L22" s="427"/>
-      <c r="M22" s="427"/>
-      <c r="N22" s="426"/>
-      <c r="O22" s="425" t="s">
+      <c r="I22" s="428"/>
+      <c r="J22" s="428"/>
+      <c r="K22" s="428"/>
+      <c r="L22" s="428"/>
+      <c r="M22" s="428"/>
+      <c r="N22" s="427"/>
+      <c r="O22" s="426" t="s">
         <v>528</v>
       </c>
-      <c r="P22" s="426"/>
+      <c r="P22" s="427"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -19981,59 +20922,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="495" t="s">
+      <c r="B25" s="490" t="s">
         <v>1075</v>
       </c>
-      <c r="C25" s="495"/>
-      <c r="D25" s="495"/>
-      <c r="E25" s="495"/>
-      <c r="F25" s="495"/>
-      <c r="G25" s="495"/>
-      <c r="H25" s="495"/>
-      <c r="I25" s="495"/>
-      <c r="J25" s="495"/>
-      <c r="K25" s="495"/>
-      <c r="L25" s="495"/>
-      <c r="M25" s="495"/>
-      <c r="N25" s="495"/>
-      <c r="O25" s="495"/>
-      <c r="P25" s="495"/>
-      <c r="Q25" s="495"/>
-      <c r="R25" s="495"/>
-      <c r="S25" s="495"/>
-      <c r="T25" s="495"/>
-      <c r="U25" s="495"/>
-      <c r="V25" s="495"/>
+      <c r="C25" s="490"/>
+      <c r="D25" s="490"/>
+      <c r="E25" s="490"/>
+      <c r="F25" s="490"/>
+      <c r="G25" s="490"/>
+      <c r="H25" s="490"/>
+      <c r="I25" s="490"/>
+      <c r="J25" s="490"/>
+      <c r="K25" s="490"/>
+      <c r="L25" s="490"/>
+      <c r="M25" s="490"/>
+      <c r="N25" s="490"/>
+      <c r="O25" s="490"/>
+      <c r="P25" s="490"/>
+      <c r="Q25" s="490"/>
+      <c r="R25" s="490"/>
+      <c r="S25" s="490"/>
+      <c r="T25" s="490"/>
+      <c r="U25" s="490"/>
+      <c r="V25" s="490"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="496" t="s">
+      <c r="C26" s="491" t="s">
         <v>570</v>
       </c>
-      <c r="D26" s="496"/>
-      <c r="E26" s="496"/>
-      <c r="F26" s="496"/>
-      <c r="G26" s="496"/>
-      <c r="H26" s="496"/>
-      <c r="I26" s="496"/>
-      <c r="J26" s="496"/>
-      <c r="K26" s="496"/>
-      <c r="L26" s="496"/>
-      <c r="M26" s="496"/>
+      <c r="D26" s="491"/>
+      <c r="E26" s="491"/>
+      <c r="F26" s="491"/>
+      <c r="G26" s="491"/>
+      <c r="H26" s="491"/>
+      <c r="I26" s="491"/>
+      <c r="J26" s="491"/>
+      <c r="K26" s="491"/>
+      <c r="L26" s="491"/>
+      <c r="M26" s="491"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="451" t="s">
+      <c r="E27" s="461" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="391"/>
-      <c r="G27" s="391"/>
-      <c r="H27" s="420"/>
-      <c r="I27" s="420"/>
-      <c r="J27" s="420"/>
-      <c r="K27" s="420"/>
-      <c r="L27" s="420"/>
-      <c r="M27" s="421"/>
+      <c r="F27" s="398"/>
+      <c r="G27" s="398"/>
+      <c r="H27" s="417"/>
+      <c r="I27" s="417"/>
+      <c r="J27" s="417"/>
+      <c r="K27" s="417"/>
+      <c r="L27" s="417"/>
+      <c r="M27" s="418"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -20066,11 +21007,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="497" t="s">
+      <c r="O29" s="492" t="s">
         <v>179</v>
       </c>
-      <c r="P29" s="497"/>
-      <c r="Q29" s="497"/>
+      <c r="P29" s="492"/>
+      <c r="Q29" s="492"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -20115,21 +21056,21 @@
         <v>190</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="501" t="s">
+      <c r="E32" s="487" t="s">
         <v>1079</v>
       </c>
-      <c r="F32" s="502"/>
-      <c r="G32" s="503"/>
-      <c r="H32" s="501" t="s">
+      <c r="F32" s="488"/>
+      <c r="G32" s="489"/>
+      <c r="H32" s="487" t="s">
         <v>1080</v>
       </c>
-      <c r="I32" s="502"/>
-      <c r="J32" s="503"/>
-      <c r="K32" s="501" t="s">
+      <c r="I32" s="488"/>
+      <c r="J32" s="489"/>
+      <c r="K32" s="487" t="s">
         <v>1081</v>
       </c>
-      <c r="L32" s="502"/>
-      <c r="M32" s="503"/>
+      <c r="L32" s="488"/>
+      <c r="M32" s="489"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -20146,15 +21087,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="501"/>
-      <c r="F33" s="502"/>
-      <c r="G33" s="503"/>
-      <c r="H33" s="501"/>
-      <c r="I33" s="502"/>
-      <c r="J33" s="503"/>
-      <c r="K33" s="501"/>
-      <c r="L33" s="502"/>
-      <c r="M33" s="503"/>
+      <c r="E33" s="487"/>
+      <c r="F33" s="488"/>
+      <c r="G33" s="489"/>
+      <c r="H33" s="487"/>
+      <c r="I33" s="488"/>
+      <c r="J33" s="489"/>
+      <c r="K33" s="487"/>
+      <c r="L33" s="488"/>
+      <c r="M33" s="489"/>
       <c r="N33" s="5" t="s">
         <v>187</v>
       </c>
@@ -20171,15 +21112,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="501"/>
-      <c r="F34" s="502"/>
-      <c r="G34" s="503"/>
-      <c r="H34" s="501"/>
-      <c r="I34" s="502"/>
-      <c r="J34" s="503"/>
-      <c r="K34" s="501"/>
-      <c r="L34" s="502"/>
-      <c r="M34" s="503"/>
+      <c r="E34" s="487"/>
+      <c r="F34" s="488"/>
+      <c r="G34" s="489"/>
+      <c r="H34" s="487"/>
+      <c r="I34" s="488"/>
+      <c r="J34" s="489"/>
+      <c r="K34" s="487"/>
+      <c r="L34" s="488"/>
+      <c r="M34" s="489"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -20190,15 +21131,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="501"/>
-      <c r="F35" s="502"/>
-      <c r="G35" s="503"/>
-      <c r="H35" s="501"/>
-      <c r="I35" s="502"/>
-      <c r="J35" s="503"/>
-      <c r="K35" s="501"/>
-      <c r="L35" s="502"/>
-      <c r="M35" s="503"/>
+      <c r="E35" s="487"/>
+      <c r="F35" s="488"/>
+      <c r="G35" s="489"/>
+      <c r="H35" s="487"/>
+      <c r="I35" s="488"/>
+      <c r="J35" s="489"/>
+      <c r="K35" s="487"/>
+      <c r="L35" s="488"/>
+      <c r="M35" s="489"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -20329,15 +21270,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="505"/>
-      <c r="F42" s="506"/>
-      <c r="G42" s="506"/>
-      <c r="H42" s="506"/>
-      <c r="I42" s="506"/>
-      <c r="J42" s="506"/>
-      <c r="K42" s="506"/>
-      <c r="L42" s="506"/>
-      <c r="M42" s="507"/>
+      <c r="E42" s="480"/>
+      <c r="F42" s="481"/>
+      <c r="G42" s="481"/>
+      <c r="H42" s="481"/>
+      <c r="I42" s="481"/>
+      <c r="J42" s="481"/>
+      <c r="K42" s="481"/>
+      <c r="L42" s="481"/>
+      <c r="M42" s="482"/>
       <c r="N42" s="40" t="s">
         <v>575</v>
       </c>
@@ -20356,83 +21297,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="425" t="s">
+      <c r="C44" s="426" t="s">
         <v>194</v>
       </c>
-      <c r="D44" s="426"/>
-      <c r="E44" s="425" t="s">
+      <c r="D44" s="427"/>
+      <c r="E44" s="426" t="s">
         <v>195</v>
       </c>
-      <c r="F44" s="427"/>
-      <c r="G44" s="426"/>
-      <c r="H44" s="425" t="s">
+      <c r="F44" s="428"/>
+      <c r="G44" s="427"/>
+      <c r="H44" s="426" t="s">
         <v>196</v>
       </c>
-      <c r="I44" s="427"/>
-      <c r="J44" s="427"/>
-      <c r="K44" s="427"/>
-      <c r="L44" s="427"/>
-      <c r="M44" s="426"/>
+      <c r="I44" s="428"/>
+      <c r="J44" s="428"/>
+      <c r="K44" s="428"/>
+      <c r="L44" s="428"/>
+      <c r="M44" s="427"/>
       <c r="Q44" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="495" t="s">
+      <c r="B47" s="490" t="s">
         <v>1077</v>
       </c>
-      <c r="C47" s="495"/>
-      <c r="D47" s="495"/>
-      <c r="E47" s="495"/>
-      <c r="F47" s="495"/>
-      <c r="G47" s="495"/>
-      <c r="H47" s="495"/>
-      <c r="I47" s="495"/>
-      <c r="J47" s="495"/>
-      <c r="K47" s="495"/>
-      <c r="L47" s="495"/>
-      <c r="M47" s="495"/>
-      <c r="N47" s="495"/>
-      <c r="O47" s="495"/>
-      <c r="P47" s="495"/>
-      <c r="Q47" s="495"/>
-      <c r="R47" s="495"/>
-      <c r="S47" s="495"/>
-      <c r="T47" s="495"/>
-      <c r="U47" s="495"/>
-      <c r="V47" s="495"/>
+      <c r="C47" s="490"/>
+      <c r="D47" s="490"/>
+      <c r="E47" s="490"/>
+      <c r="F47" s="490"/>
+      <c r="G47" s="490"/>
+      <c r="H47" s="490"/>
+      <c r="I47" s="490"/>
+      <c r="J47" s="490"/>
+      <c r="K47" s="490"/>
+      <c r="L47" s="490"/>
+      <c r="M47" s="490"/>
+      <c r="N47" s="490"/>
+      <c r="O47" s="490"/>
+      <c r="P47" s="490"/>
+      <c r="Q47" s="490"/>
+      <c r="R47" s="490"/>
+      <c r="S47" s="490"/>
+      <c r="T47" s="490"/>
+      <c r="U47" s="490"/>
+      <c r="V47" s="490"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="496" t="s">
+      <c r="C48" s="491" t="s">
         <v>570</v>
       </c>
-      <c r="D48" s="496"/>
-      <c r="E48" s="496"/>
-      <c r="F48" s="496"/>
-      <c r="G48" s="496"/>
-      <c r="H48" s="496"/>
-      <c r="I48" s="496"/>
-      <c r="J48" s="496"/>
-      <c r="K48" s="496"/>
-      <c r="L48" s="496"/>
-      <c r="M48" s="496"/>
+      <c r="D48" s="491"/>
+      <c r="E48" s="491"/>
+      <c r="F48" s="491"/>
+      <c r="G48" s="491"/>
+      <c r="H48" s="491"/>
+      <c r="I48" s="491"/>
+      <c r="J48" s="491"/>
+      <c r="K48" s="491"/>
+      <c r="L48" s="491"/>
+      <c r="M48" s="491"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="451" t="s">
+      <c r="E49" s="461" t="s">
         <v>178</v>
       </c>
-      <c r="F49" s="391"/>
-      <c r="G49" s="391"/>
-      <c r="H49" s="420"/>
-      <c r="I49" s="420"/>
-      <c r="J49" s="420"/>
-      <c r="K49" s="420"/>
-      <c r="L49" s="420"/>
-      <c r="M49" s="421"/>
+      <c r="F49" s="398"/>
+      <c r="G49" s="398"/>
+      <c r="H49" s="417"/>
+      <c r="I49" s="417"/>
+      <c r="J49" s="417"/>
+      <c r="K49" s="417"/>
+      <c r="L49" s="417"/>
+      <c r="M49" s="418"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -20450,16 +21391,16 @@
       </c>
       <c r="F50" s="122"/>
       <c r="G50" s="245"/>
-      <c r="H50" s="498" t="s">
+      <c r="H50" s="494" t="s">
         <v>1080</v>
       </c>
-      <c r="I50" s="499"/>
-      <c r="J50" s="500"/>
-      <c r="K50" s="498" t="s">
+      <c r="I50" s="495"/>
+      <c r="J50" s="496"/>
+      <c r="K50" s="494" t="s">
         <v>1081</v>
       </c>
-      <c r="L50" s="499"/>
-      <c r="M50" s="500"/>
+      <c r="L50" s="495"/>
+      <c r="M50" s="496"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -20473,20 +21414,20 @@
         <v>1095</v>
       </c>
       <c r="F51" s="286"/>
-      <c r="G51" s="504" t="s">
+      <c r="G51" s="497" t="s">
         <v>1103</v>
       </c>
-      <c r="H51" s="501"/>
-      <c r="I51" s="502"/>
-      <c r="J51" s="503"/>
-      <c r="K51" s="501"/>
-      <c r="L51" s="502"/>
-      <c r="M51" s="503"/>
-      <c r="O51" s="497" t="s">
+      <c r="H51" s="487"/>
+      <c r="I51" s="488"/>
+      <c r="J51" s="489"/>
+      <c r="K51" s="487"/>
+      <c r="L51" s="488"/>
+      <c r="M51" s="489"/>
+      <c r="O51" s="492" t="s">
         <v>179</v>
       </c>
-      <c r="P51" s="497"/>
-      <c r="Q51" s="497"/>
+      <c r="P51" s="492"/>
+      <c r="Q51" s="492"/>
       <c r="S51" s="273"/>
       <c r="T51" s="273"/>
       <c r="W51" s="40" t="s">
@@ -20500,13 +21441,13 @@
         <v>1096</v>
       </c>
       <c r="F52" s="287"/>
-      <c r="G52" s="504"/>
-      <c r="H52" s="501"/>
-      <c r="I52" s="502"/>
-      <c r="J52" s="503"/>
-      <c r="K52" s="501"/>
-      <c r="L52" s="502"/>
-      <c r="M52" s="503"/>
+      <c r="G52" s="497"/>
+      <c r="H52" s="487"/>
+      <c r="I52" s="488"/>
+      <c r="J52" s="489"/>
+      <c r="K52" s="487"/>
+      <c r="L52" s="488"/>
+      <c r="M52" s="489"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -20517,13 +21458,13 @@
         <v>1097</v>
       </c>
       <c r="F53" s="288"/>
-      <c r="G53" s="504"/>
-      <c r="H53" s="501"/>
-      <c r="I53" s="502"/>
-      <c r="J53" s="503"/>
-      <c r="K53" s="501"/>
-      <c r="L53" s="502"/>
-      <c r="M53" s="503"/>
+      <c r="G53" s="497"/>
+      <c r="H53" s="487"/>
+      <c r="I53" s="488"/>
+      <c r="J53" s="489"/>
+      <c r="K53" s="487"/>
+      <c r="L53" s="488"/>
+      <c r="M53" s="489"/>
       <c r="N53" s="5"/>
       <c r="O53" s="38" t="s">
         <v>182</v>
@@ -20562,7 +21503,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="274"/>
       <c r="F54" s="289"/>
-      <c r="G54" s="510" t="s">
+      <c r="G54" s="485" t="s">
         <v>1107</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -20609,11 +21550,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="508" t="s">
+      <c r="E55" s="483" t="s">
         <v>1108</v>
       </c>
-      <c r="F55" s="509"/>
-      <c r="G55" s="511"/>
+      <c r="F55" s="484"/>
+      <c r="G55" s="486"/>
       <c r="H55" s="141" t="s">
         <v>1099</v>
       </c>
@@ -20657,9 +21598,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="508"/>
-      <c r="F56" s="509"/>
-      <c r="G56" s="511"/>
+      <c r="E56" s="483"/>
+      <c r="F56" s="484"/>
+      <c r="G56" s="486"/>
       <c r="H56" s="141" t="s">
         <v>1100</v>
       </c>
@@ -20689,9 +21630,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="508"/>
-      <c r="F57" s="509"/>
-      <c r="G57" s="511"/>
+      <c r="E57" s="483"/>
+      <c r="F57" s="484"/>
+      <c r="G57" s="486"/>
       <c r="H57" s="4" t="s">
         <v>1112</v>
       </c>
@@ -20721,9 +21662,9 @@
         <v>192</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="508"/>
-      <c r="F58" s="509"/>
-      <c r="G58" s="511"/>
+      <c r="E58" s="483"/>
+      <c r="F58" s="484"/>
+      <c r="G58" s="486"/>
       <c r="H58" s="278" t="s">
         <v>1098</v>
       </c>
@@ -20748,9 +21689,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="508"/>
-      <c r="F59" s="509"/>
-      <c r="G59" s="511"/>
+      <c r="E59" s="483"/>
+      <c r="F59" s="484"/>
+      <c r="G59" s="486"/>
       <c r="H59" s="278" t="s">
         <v>549</v>
       </c>
@@ -20775,9 +21716,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="508"/>
-      <c r="F60" s="509"/>
-      <c r="G60" s="511"/>
+      <c r="E60" s="483"/>
+      <c r="F60" s="484"/>
+      <c r="G60" s="486"/>
       <c r="H60" s="280"/>
       <c r="I60" s="281" t="s">
         <v>1114</v>
@@ -20797,9 +21738,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="508"/>
-      <c r="F61" s="509"/>
-      <c r="G61" s="511"/>
+      <c r="E61" s="483"/>
+      <c r="F61" s="484"/>
+      <c r="G61" s="486"/>
       <c r="H61" s="280"/>
       <c r="I61" s="281" t="s">
         <v>1115</v>
@@ -20819,7 +21760,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="269"/>
       <c r="F62" s="285"/>
-      <c r="G62" s="511"/>
+      <c r="G62" s="486"/>
       <c r="H62" s="282"/>
       <c r="I62" s="284" t="s">
         <v>1116</v>
@@ -20861,15 +21802,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="505"/>
-      <c r="F64" s="506"/>
-      <c r="G64" s="506"/>
-      <c r="H64" s="506"/>
-      <c r="I64" s="506"/>
-      <c r="J64" s="506"/>
-      <c r="K64" s="506"/>
-      <c r="L64" s="506"/>
-      <c r="M64" s="507"/>
+      <c r="E64" s="480"/>
+      <c r="F64" s="481"/>
+      <c r="G64" s="481"/>
+      <c r="H64" s="481"/>
+      <c r="I64" s="481"/>
+      <c r="J64" s="481"/>
+      <c r="K64" s="481"/>
+      <c r="L64" s="481"/>
+      <c r="M64" s="482"/>
       <c r="N64" s="40" t="s">
         <v>575</v>
       </c>
@@ -20898,23 +21839,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="425" t="s">
+      <c r="C66" s="426" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="426"/>
-      <c r="E66" s="425" t="s">
+      <c r="D66" s="427"/>
+      <c r="E66" s="426" t="s">
         <v>195</v>
       </c>
-      <c r="F66" s="427"/>
-      <c r="G66" s="426"/>
-      <c r="H66" s="425" t="s">
+      <c r="F66" s="428"/>
+      <c r="G66" s="427"/>
+      <c r="H66" s="426" t="s">
         <v>196</v>
       </c>
-      <c r="I66" s="427"/>
-      <c r="J66" s="427"/>
-      <c r="K66" s="427"/>
-      <c r="L66" s="427"/>
-      <c r="M66" s="426"/>
+      <c r="I66" s="428"/>
+      <c r="J66" s="428"/>
+      <c r="K66" s="428"/>
+      <c r="L66" s="428"/>
+      <c r="M66" s="427"/>
       <c r="Q66" t="s">
         <v>1078</v>
       </c>
@@ -20935,23 +21876,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="461" t="s">
+      <c r="C68" s="465" t="s">
         <v>181</v>
       </c>
-      <c r="D68" s="461"/>
-      <c r="E68" s="461" t="s">
+      <c r="D68" s="465"/>
+      <c r="E68" s="465" t="s">
         <v>1364</v>
       </c>
-      <c r="F68" s="461"/>
-      <c r="G68" s="461"/>
-      <c r="H68" s="461" t="s">
+      <c r="F68" s="465"/>
+      <c r="G68" s="465"/>
+      <c r="H68" s="465" t="s">
         <v>1380</v>
       </c>
-      <c r="I68" s="461"/>
-      <c r="J68" s="461"/>
-      <c r="K68" s="461"/>
-      <c r="L68" s="461"/>
-      <c r="M68" s="461"/>
+      <c r="I68" s="465"/>
+      <c r="J68" s="465"/>
+      <c r="K68" s="465"/>
+      <c r="L68" s="465"/>
+      <c r="M68" s="465"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -21748,30 +22689,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -21788,6 +22705,30 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -21821,12 +22762,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="512" t="s">
+      <c r="B1" s="516" t="s">
         <v>538</v>
       </c>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
+      <c r="C1" s="516"/>
+      <c r="D1" s="516"/>
+      <c r="E1" s="516"/>
       <c r="I1" s="40" t="s">
         <v>551</v>
       </c>
@@ -21943,12 +22884,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="409" t="s">
+      <c r="B8" s="460" t="s">
         <v>1402</v>
       </c>
-      <c r="C8" s="409"/>
-      <c r="D8" s="409"/>
-      <c r="E8" s="409"/>
+      <c r="C8" s="460"/>
+      <c r="D8" s="460"/>
+      <c r="E8" s="460"/>
       <c r="J8" s="32" t="s">
         <v>554</v>
       </c>
@@ -22121,32 +23062,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="496" t="s">
+      <c r="C2" s="491" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="496"/>
-      <c r="E2" s="496"/>
-      <c r="F2" s="496"/>
-      <c r="G2" s="496"/>
-      <c r="H2" s="496"/>
-      <c r="I2" s="496"/>
-      <c r="J2" s="496"/>
-      <c r="K2" s="496"/>
-      <c r="L2" s="496"/>
+      <c r="D2" s="491"/>
+      <c r="E2" s="491"/>
+      <c r="F2" s="491"/>
+      <c r="G2" s="491"/>
+      <c r="H2" s="491"/>
+      <c r="I2" s="491"/>
+      <c r="J2" s="491"/>
+      <c r="K2" s="491"/>
+      <c r="L2" s="491"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="451" t="s">
+      <c r="E3" s="461" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="391"/>
-      <c r="G3" s="420"/>
-      <c r="H3" s="420"/>
-      <c r="I3" s="420"/>
-      <c r="J3" s="420"/>
-      <c r="K3" s="420"/>
-      <c r="L3" s="421"/>
+      <c r="F3" s="398"/>
+      <c r="G3" s="417"/>
+      <c r="H3" s="417"/>
+      <c r="I3" s="417"/>
+      <c r="J3" s="417"/>
+      <c r="K3" s="417"/>
+      <c r="L3" s="418"/>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
@@ -22177,11 +23118,11 @@
         <v>589</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="497" t="s">
+      <c r="N5" s="492" t="s">
         <v>179</v>
       </c>
-      <c r="O5" s="497"/>
-      <c r="P5" s="497"/>
+      <c r="O5" s="492"/>
+      <c r="P5" s="492"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -22232,20 +23173,20 @@
         <v>190</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="501" t="s">
+      <c r="E8" s="487" t="s">
         <v>571</v>
       </c>
-      <c r="F8" s="503"/>
-      <c r="G8" s="501" t="s">
+      <c r="F8" s="489"/>
+      <c r="G8" s="487" t="s">
         <v>572</v>
       </c>
-      <c r="H8" s="502"/>
-      <c r="I8" s="503"/>
-      <c r="J8" s="501" t="s">
+      <c r="H8" s="488"/>
+      <c r="I8" s="489"/>
+      <c r="J8" s="487" t="s">
         <v>573</v>
       </c>
-      <c r="K8" s="502"/>
-      <c r="L8" s="503"/>
+      <c r="K8" s="488"/>
+      <c r="L8" s="489"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -22268,14 +23209,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="501"/>
-      <c r="F9" s="503"/>
-      <c r="G9" s="501"/>
-      <c r="H9" s="502"/>
-      <c r="I9" s="503"/>
-      <c r="J9" s="501"/>
-      <c r="K9" s="502"/>
-      <c r="L9" s="503"/>
+      <c r="E9" s="487"/>
+      <c r="F9" s="489"/>
+      <c r="G9" s="487"/>
+      <c r="H9" s="488"/>
+      <c r="I9" s="489"/>
+      <c r="J9" s="487"/>
+      <c r="K9" s="488"/>
+      <c r="L9" s="489"/>
       <c r="M9" s="5" t="s">
         <v>187</v>
       </c>
@@ -22295,14 +23236,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="501"/>
-      <c r="F10" s="503"/>
-      <c r="G10" s="501"/>
-      <c r="H10" s="502"/>
-      <c r="I10" s="503"/>
-      <c r="J10" s="501"/>
-      <c r="K10" s="502"/>
-      <c r="L10" s="503"/>
+      <c r="E10" s="487"/>
+      <c r="F10" s="489"/>
+      <c r="G10" s="487"/>
+      <c r="H10" s="488"/>
+      <c r="I10" s="489"/>
+      <c r="J10" s="487"/>
+      <c r="K10" s="488"/>
+      <c r="L10" s="489"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -22316,14 +23257,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="501"/>
-      <c r="F11" s="503"/>
-      <c r="G11" s="501"/>
-      <c r="H11" s="502"/>
-      <c r="I11" s="503"/>
-      <c r="J11" s="501"/>
-      <c r="K11" s="502"/>
-      <c r="L11" s="503"/>
+      <c r="E11" s="487"/>
+      <c r="F11" s="489"/>
+      <c r="G11" s="487"/>
+      <c r="H11" s="488"/>
+      <c r="I11" s="489"/>
+      <c r="J11" s="487"/>
+      <c r="K11" s="488"/>
+      <c r="L11" s="489"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -22426,16 +23367,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="505" t="s">
+      <c r="E17" s="480" t="s">
         <v>574</v>
       </c>
-      <c r="F17" s="506"/>
-      <c r="G17" s="506"/>
-      <c r="H17" s="506"/>
-      <c r="I17" s="506"/>
-      <c r="J17" s="506"/>
-      <c r="K17" s="506"/>
-      <c r="L17" s="507"/>
+      <c r="F17" s="481"/>
+      <c r="G17" s="481"/>
+      <c r="H17" s="481"/>
+      <c r="I17" s="481"/>
+      <c r="J17" s="481"/>
+      <c r="K17" s="481"/>
+      <c r="L17" s="482"/>
       <c r="M17" s="40" t="s">
         <v>575</v>
       </c>
@@ -22453,40 +23394,40 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="425" t="s">
+      <c r="C19" s="426" t="s">
         <v>194</v>
       </c>
-      <c r="D19" s="426"/>
-      <c r="E19" s="425" t="s">
+      <c r="D19" s="427"/>
+      <c r="E19" s="426" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="426"/>
-      <c r="G19" s="425" t="s">
+      <c r="F19" s="427"/>
+      <c r="G19" s="426" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="427"/>
-      <c r="I19" s="427"/>
-      <c r="J19" s="427"/>
-      <c r="K19" s="427"/>
-      <c r="L19" s="426"/>
+      <c r="H19" s="428"/>
+      <c r="I19" s="428"/>
+      <c r="J19" s="428"/>
+      <c r="K19" s="428"/>
+      <c r="L19" s="427"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="513" t="s">
+      <c r="E21" s="517" t="s">
         <v>1393</v>
       </c>
-      <c r="F21" s="514"/>
+      <c r="F21" s="518"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="E22" s="408"/>
-      <c r="F22" s="515"/>
+      <c r="E22" s="519"/>
+      <c r="F22" s="520"/>
       <c r="J22" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="E23" s="408"/>
-      <c r="F23" s="515"/>
+      <c r="E23" s="519"/>
+      <c r="F23" s="520"/>
       <c r="H23" t="s">
         <v>1414</v>
       </c>
@@ -22498,8 +23439,8 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="516"/>
-      <c r="F24" s="517"/>
+      <c r="E24" s="521"/>
+      <c r="F24" s="522"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -22954,22 +23895,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="476" t="s">
+      <c r="E3" s="493" t="s">
         <v>518</v>
       </c>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476" t="s">
+      <c r="F3" s="493"/>
+      <c r="G3" s="493" t="s">
         <v>519</v>
       </c>
-      <c r="H3" s="476"/>
-      <c r="I3" s="476"/>
-      <c r="J3" s="476"/>
-      <c r="K3" s="476"/>
-      <c r="L3" s="476"/>
-      <c r="M3" s="476" t="s">
+      <c r="H3" s="493"/>
+      <c r="I3" s="493"/>
+      <c r="J3" s="493"/>
+      <c r="K3" s="493"/>
+      <c r="L3" s="493"/>
+      <c r="M3" s="493" t="s">
         <v>520</v>
       </c>
-      <c r="N3" s="476"/>
+      <c r="N3" s="493"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -22980,7 +23921,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="135"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="477" t="s">
+      <c r="E4" s="498" t="s">
         <v>521</v>
       </c>
       <c r="F4" s="131"/>
@@ -23008,22 +23949,22 @@
         <v>181</v>
       </c>
       <c r="D5" s="138"/>
-      <c r="E5" s="404"/>
-      <c r="F5" s="438" t="s">
+      <c r="E5" s="407"/>
+      <c r="F5" s="439" t="s">
         <v>617</v>
       </c>
-      <c r="G5" s="439"/>
-      <c r="H5" s="440"/>
-      <c r="I5" s="546" t="s">
+      <c r="G5" s="440"/>
+      <c r="H5" s="441"/>
+      <c r="I5" s="523" t="s">
         <v>618</v>
       </c>
-      <c r="J5" s="547"/>
-      <c r="K5" s="547"/>
-      <c r="L5" s="484"/>
-      <c r="M5" s="546" t="s">
+      <c r="J5" s="524"/>
+      <c r="K5" s="524"/>
+      <c r="L5" s="505"/>
+      <c r="M5" s="523" t="s">
         <v>619</v>
       </c>
-      <c r="N5" s="484"/>
+      <c r="N5" s="505"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -23034,16 +23975,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="139"/>
       <c r="D6" s="140"/>
-      <c r="E6" s="404"/>
-      <c r="F6" s="441"/>
-      <c r="G6" s="442"/>
-      <c r="H6" s="443"/>
-      <c r="I6" s="485"/>
-      <c r="J6" s="548"/>
-      <c r="K6" s="548"/>
-      <c r="L6" s="486"/>
-      <c r="M6" s="485"/>
-      <c r="N6" s="486"/>
+      <c r="E6" s="407"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="443"/>
+      <c r="H6" s="444"/>
+      <c r="I6" s="506"/>
+      <c r="J6" s="525"/>
+      <c r="K6" s="525"/>
+      <c r="L6" s="507"/>
+      <c r="M6" s="506"/>
+      <c r="N6" s="507"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>182</v>
@@ -23060,16 +24001,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="404"/>
-      <c r="F7" s="441"/>
-      <c r="G7" s="442"/>
-      <c r="H7" s="443"/>
-      <c r="I7" s="485"/>
-      <c r="J7" s="548"/>
-      <c r="K7" s="548"/>
-      <c r="L7" s="486"/>
-      <c r="M7" s="485"/>
-      <c r="N7" s="486"/>
+      <c r="E7" s="407"/>
+      <c r="F7" s="442"/>
+      <c r="G7" s="443"/>
+      <c r="H7" s="444"/>
+      <c r="I7" s="506"/>
+      <c r="J7" s="525"/>
+      <c r="K7" s="525"/>
+      <c r="L7" s="507"/>
+      <c r="M7" s="506"/>
+      <c r="N7" s="507"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -23088,16 +24029,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="404"/>
-      <c r="F8" s="441"/>
-      <c r="G8" s="442"/>
-      <c r="H8" s="443"/>
-      <c r="I8" s="485"/>
-      <c r="J8" s="548"/>
-      <c r="K8" s="548"/>
-      <c r="L8" s="486"/>
-      <c r="M8" s="485"/>
-      <c r="N8" s="486"/>
+      <c r="E8" s="407"/>
+      <c r="F8" s="442"/>
+      <c r="G8" s="443"/>
+      <c r="H8" s="444"/>
+      <c r="I8" s="506"/>
+      <c r="J8" s="525"/>
+      <c r="K8" s="525"/>
+      <c r="L8" s="507"/>
+      <c r="M8" s="506"/>
+      <c r="N8" s="507"/>
       <c r="O8" s="5" t="s">
         <v>187</v>
       </c>
@@ -23118,16 +24059,16 @@
         <v>190</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="404"/>
-      <c r="F9" s="441"/>
-      <c r="G9" s="442"/>
-      <c r="H9" s="443"/>
-      <c r="I9" s="485"/>
-      <c r="J9" s="548"/>
-      <c r="K9" s="548"/>
-      <c r="L9" s="486"/>
-      <c r="M9" s="485"/>
-      <c r="N9" s="486"/>
+      <c r="E9" s="407"/>
+      <c r="F9" s="442"/>
+      <c r="G9" s="443"/>
+      <c r="H9" s="444"/>
+      <c r="I9" s="506"/>
+      <c r="J9" s="525"/>
+      <c r="K9" s="525"/>
+      <c r="L9" s="507"/>
+      <c r="M9" s="506"/>
+      <c r="N9" s="507"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -23144,16 +24085,16 @@
         <v>537</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="404"/>
-      <c r="F10" s="441"/>
-      <c r="G10" s="442"/>
-      <c r="H10" s="443"/>
-      <c r="I10" s="485"/>
-      <c r="J10" s="548"/>
-      <c r="K10" s="548"/>
-      <c r="L10" s="486"/>
-      <c r="M10" s="485"/>
-      <c r="N10" s="486"/>
+      <c r="E10" s="407"/>
+      <c r="F10" s="442"/>
+      <c r="G10" s="443"/>
+      <c r="H10" s="444"/>
+      <c r="I10" s="506"/>
+      <c r="J10" s="525"/>
+      <c r="K10" s="525"/>
+      <c r="L10" s="507"/>
+      <c r="M10" s="506"/>
+      <c r="N10" s="507"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -23166,16 +24107,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="404"/>
-      <c r="F11" s="441"/>
-      <c r="G11" s="442"/>
-      <c r="H11" s="443"/>
-      <c r="I11" s="485"/>
-      <c r="J11" s="548"/>
-      <c r="K11" s="548"/>
-      <c r="L11" s="486"/>
-      <c r="M11" s="485"/>
-      <c r="N11" s="486"/>
+      <c r="E11" s="407"/>
+      <c r="F11" s="442"/>
+      <c r="G11" s="443"/>
+      <c r="H11" s="444"/>
+      <c r="I11" s="506"/>
+      <c r="J11" s="525"/>
+      <c r="K11" s="525"/>
+      <c r="L11" s="507"/>
+      <c r="M11" s="506"/>
+      <c r="N11" s="507"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -23186,16 +24127,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="404"/>
-      <c r="F12" s="441"/>
-      <c r="G12" s="442"/>
-      <c r="H12" s="443"/>
-      <c r="I12" s="485"/>
-      <c r="J12" s="548"/>
-      <c r="K12" s="548"/>
-      <c r="L12" s="486"/>
-      <c r="M12" s="485"/>
-      <c r="N12" s="486"/>
+      <c r="E12" s="407"/>
+      <c r="F12" s="442"/>
+      <c r="G12" s="443"/>
+      <c r="H12" s="444"/>
+      <c r="I12" s="506"/>
+      <c r="J12" s="525"/>
+      <c r="K12" s="525"/>
+      <c r="L12" s="507"/>
+      <c r="M12" s="506"/>
+      <c r="N12" s="507"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -23208,16 +24149,16 @@
         <v>192</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="404"/>
-      <c r="F13" s="441"/>
-      <c r="G13" s="442"/>
-      <c r="H13" s="443"/>
-      <c r="I13" s="485"/>
-      <c r="J13" s="548"/>
-      <c r="K13" s="548"/>
-      <c r="L13" s="486"/>
-      <c r="M13" s="485"/>
-      <c r="N13" s="486"/>
+      <c r="E13" s="407"/>
+      <c r="F13" s="442"/>
+      <c r="G13" s="443"/>
+      <c r="H13" s="444"/>
+      <c r="I13" s="506"/>
+      <c r="J13" s="525"/>
+      <c r="K13" s="525"/>
+      <c r="L13" s="507"/>
+      <c r="M13" s="506"/>
+      <c r="N13" s="507"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -23228,16 +24169,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="404"/>
-      <c r="F14" s="441"/>
-      <c r="G14" s="442"/>
-      <c r="H14" s="443"/>
-      <c r="I14" s="485"/>
-      <c r="J14" s="548"/>
-      <c r="K14" s="548"/>
-      <c r="L14" s="486"/>
-      <c r="M14" s="485"/>
-      <c r="N14" s="486"/>
+      <c r="E14" s="407"/>
+      <c r="F14" s="442"/>
+      <c r="G14" s="443"/>
+      <c r="H14" s="444"/>
+      <c r="I14" s="506"/>
+      <c r="J14" s="525"/>
+      <c r="K14" s="525"/>
+      <c r="L14" s="507"/>
+      <c r="M14" s="506"/>
+      <c r="N14" s="507"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -23248,16 +24189,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="404"/>
-      <c r="F15" s="441"/>
-      <c r="G15" s="442"/>
-      <c r="H15" s="443"/>
-      <c r="I15" s="485"/>
-      <c r="J15" s="548"/>
-      <c r="K15" s="548"/>
-      <c r="L15" s="486"/>
-      <c r="M15" s="485"/>
-      <c r="N15" s="486"/>
+      <c r="E15" s="407"/>
+      <c r="F15" s="442"/>
+      <c r="G15" s="443"/>
+      <c r="H15" s="444"/>
+      <c r="I15" s="506"/>
+      <c r="J15" s="525"/>
+      <c r="K15" s="525"/>
+      <c r="L15" s="507"/>
+      <c r="M15" s="506"/>
+      <c r="N15" s="507"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -23268,16 +24209,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="404"/>
-      <c r="F16" s="441"/>
-      <c r="G16" s="442"/>
-      <c r="H16" s="443"/>
-      <c r="I16" s="485"/>
-      <c r="J16" s="548"/>
-      <c r="K16" s="548"/>
-      <c r="L16" s="486"/>
-      <c r="M16" s="485"/>
-      <c r="N16" s="486"/>
+      <c r="E16" s="407"/>
+      <c r="F16" s="442"/>
+      <c r="G16" s="443"/>
+      <c r="H16" s="444"/>
+      <c r="I16" s="506"/>
+      <c r="J16" s="525"/>
+      <c r="K16" s="525"/>
+      <c r="L16" s="507"/>
+      <c r="M16" s="506"/>
+      <c r="N16" s="507"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -23290,16 +24231,16 @@
         <v>193</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="404"/>
-      <c r="F17" s="441"/>
-      <c r="G17" s="442"/>
-      <c r="H17" s="443"/>
-      <c r="I17" s="485"/>
-      <c r="J17" s="548"/>
-      <c r="K17" s="548"/>
-      <c r="L17" s="486"/>
-      <c r="M17" s="485"/>
-      <c r="N17" s="486"/>
+      <c r="E17" s="407"/>
+      <c r="F17" s="442"/>
+      <c r="G17" s="443"/>
+      <c r="H17" s="444"/>
+      <c r="I17" s="506"/>
+      <c r="J17" s="525"/>
+      <c r="K17" s="525"/>
+      <c r="L17" s="507"/>
+      <c r="M17" s="506"/>
+      <c r="N17" s="507"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -23310,16 +24251,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="405"/>
-      <c r="F18" s="444"/>
-      <c r="G18" s="445"/>
-      <c r="H18" s="446"/>
-      <c r="I18" s="487"/>
-      <c r="J18" s="549"/>
-      <c r="K18" s="549"/>
-      <c r="L18" s="488"/>
-      <c r="M18" s="487"/>
-      <c r="N18" s="488"/>
+      <c r="E18" s="408"/>
+      <c r="F18" s="445"/>
+      <c r="G18" s="446"/>
+      <c r="H18" s="447"/>
+      <c r="I18" s="508"/>
+      <c r="J18" s="526"/>
+      <c r="K18" s="526"/>
+      <c r="L18" s="509"/>
+      <c r="M18" s="508"/>
+      <c r="N18" s="509"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -23348,26 +24289,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="425" t="s">
+      <c r="C20" s="426" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="426"/>
+      <c r="D20" s="427"/>
       <c r="E20" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="F20" s="425" t="s">
+      <c r="F20" s="426" t="s">
         <v>196</v>
       </c>
-      <c r="G20" s="427"/>
-      <c r="H20" s="427"/>
-      <c r="I20" s="427"/>
-      <c r="J20" s="427"/>
-      <c r="K20" s="427"/>
-      <c r="L20" s="426"/>
-      <c r="M20" s="425" t="s">
+      <c r="G20" s="428"/>
+      <c r="H20" s="428"/>
+      <c r="I20" s="428"/>
+      <c r="J20" s="428"/>
+      <c r="K20" s="428"/>
+      <c r="L20" s="427"/>
+      <c r="M20" s="426" t="s">
         <v>528</v>
       </c>
-      <c r="N20" s="426"/>
+      <c r="N20" s="427"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -23395,39 +24336,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="497" t="s">
+      <c r="B24" s="492" t="s">
         <v>570</v>
       </c>
-      <c r="C24" s="497"/>
-      <c r="D24" s="496"/>
-      <c r="E24" s="496"/>
-      <c r="F24" s="496"/>
-      <c r="G24" s="496"/>
-      <c r="H24" s="496"/>
-      <c r="I24" s="496"/>
-      <c r="J24" s="496"/>
-      <c r="K24" s="496"/>
-      <c r="M24" s="518" t="s">
+      <c r="C24" s="492"/>
+      <c r="D24" s="491"/>
+      <c r="E24" s="491"/>
+      <c r="F24" s="491"/>
+      <c r="G24" s="491"/>
+      <c r="H24" s="491"/>
+      <c r="I24" s="491"/>
+      <c r="J24" s="491"/>
+      <c r="K24" s="491"/>
+      <c r="M24" s="545" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="518"/>
-      <c r="O24" s="518"/>
+      <c r="N24" s="545"/>
+      <c r="O24" s="545"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="519" t="s">
+      <c r="B25" s="546" t="s">
         <v>914</v>
       </c>
-      <c r="C25" s="464"/>
-      <c r="D25" s="420" t="s">
+      <c r="C25" s="469"/>
+      <c r="D25" s="417" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="420"/>
-      <c r="F25" s="420"/>
-      <c r="G25" s="420"/>
-      <c r="H25" s="420"/>
-      <c r="I25" s="420"/>
-      <c r="J25" s="420"/>
-      <c r="K25" s="421"/>
+      <c r="E25" s="417"/>
+      <c r="F25" s="417"/>
+      <c r="G25" s="417"/>
+      <c r="H25" s="417"/>
+      <c r="I25" s="417"/>
+      <c r="J25" s="417"/>
+      <c r="K25" s="418"/>
       <c r="M25" s="38" t="s">
         <v>182</v>
       </c>
@@ -23439,22 +24380,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="465"/>
-      <c r="C26" s="466"/>
-      <c r="D26" s="463" t="s">
+      <c r="B26" s="470"/>
+      <c r="C26" s="471"/>
+      <c r="D26" s="468" t="s">
         <v>907</v>
       </c>
-      <c r="E26" s="464"/>
-      <c r="F26" s="544" t="s">
+      <c r="E26" s="469"/>
+      <c r="F26" s="539" t="s">
         <v>907</v>
       </c>
-      <c r="G26" s="420"/>
-      <c r="H26" s="421"/>
-      <c r="I26" s="419" t="s">
+      <c r="G26" s="417"/>
+      <c r="H26" s="418"/>
+      <c r="I26" s="416" t="s">
         <v>911</v>
       </c>
-      <c r="J26" s="420"/>
-      <c r="K26" s="421"/>
+      <c r="J26" s="417"/>
+      <c r="K26" s="418"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -23469,22 +24410,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="465"/>
-      <c r="C27" s="466"/>
-      <c r="D27" s="409" t="s">
+      <c r="B27" s="470"/>
+      <c r="C27" s="471"/>
+      <c r="D27" s="460" t="s">
         <v>912</v>
       </c>
-      <c r="E27" s="466"/>
-      <c r="F27" s="465" t="s">
+      <c r="E27" s="471"/>
+      <c r="F27" s="470" t="s">
         <v>908</v>
       </c>
-      <c r="G27" s="409"/>
-      <c r="H27" s="410"/>
-      <c r="I27" s="411" t="s">
+      <c r="G27" s="460"/>
+      <c r="H27" s="540"/>
+      <c r="I27" s="544" t="s">
         <v>912</v>
       </c>
-      <c r="J27" s="409"/>
-      <c r="K27" s="410"/>
+      <c r="J27" s="460"/>
+      <c r="K27" s="540"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -23499,22 +24440,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="465"/>
-      <c r="C28" s="466"/>
-      <c r="D28" s="409" t="s">
+      <c r="B28" s="470"/>
+      <c r="C28" s="471"/>
+      <c r="D28" s="460" t="s">
         <v>909</v>
       </c>
-      <c r="E28" s="466"/>
-      <c r="F28" s="465" t="s">
+      <c r="E28" s="471"/>
+      <c r="F28" s="470" t="s">
         <v>909</v>
       </c>
-      <c r="G28" s="409"/>
-      <c r="H28" s="410"/>
-      <c r="I28" s="411" t="s">
+      <c r="G28" s="460"/>
+      <c r="H28" s="540"/>
+      <c r="I28" s="544" t="s">
         <v>909</v>
       </c>
-      <c r="J28" s="409"/>
-      <c r="K28" s="410"/>
+      <c r="J28" s="460"/>
+      <c r="K28" s="540"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -23523,22 +24464,22 @@
       <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="467"/>
-      <c r="C29" s="468"/>
-      <c r="D29" s="409" t="s">
+      <c r="B29" s="472"/>
+      <c r="C29" s="473"/>
+      <c r="D29" s="460" t="s">
         <v>910</v>
       </c>
-      <c r="E29" s="466"/>
-      <c r="F29" s="545" t="s">
+      <c r="E29" s="471"/>
+      <c r="F29" s="541" t="s">
         <v>910</v>
       </c>
-      <c r="G29" s="530"/>
-      <c r="H29" s="531"/>
-      <c r="I29" s="529" t="s">
+      <c r="G29" s="542"/>
+      <c r="H29" s="543"/>
+      <c r="I29" s="556" t="s">
         <v>910</v>
       </c>
-      <c r="J29" s="530"/>
-      <c r="K29" s="531"/>
+      <c r="J29" s="542"/>
+      <c r="K29" s="543"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -23547,149 +24488,149 @@
       <c r="O29" s="38"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="422" t="s">
+      <c r="B30" s="419" t="s">
         <v>913</v>
       </c>
-      <c r="C30" s="424"/>
-      <c r="D30" s="532" t="s">
+      <c r="C30" s="421"/>
+      <c r="D30" s="527" t="s">
         <v>571</v>
       </c>
-      <c r="E30" s="533"/>
-      <c r="F30" s="537" t="s">
+      <c r="E30" s="528"/>
+      <c r="F30" s="532" t="s">
         <v>572</v>
       </c>
-      <c r="G30" s="538"/>
-      <c r="H30" s="533"/>
-      <c r="I30" s="537" t="s">
+      <c r="G30" s="533"/>
+      <c r="H30" s="528"/>
+      <c r="I30" s="532" t="s">
         <v>573</v>
       </c>
-      <c r="J30" s="538"/>
-      <c r="K30" s="541"/>
+      <c r="J30" s="533"/>
+      <c r="K30" s="536"/>
       <c r="L30" s="5"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="395"/>
-      <c r="C31" s="399"/>
-      <c r="D31" s="534"/>
-      <c r="E31" s="503"/>
-      <c r="F31" s="501"/>
-      <c r="G31" s="502"/>
-      <c r="H31" s="503"/>
-      <c r="I31" s="501"/>
-      <c r="J31" s="502"/>
-      <c r="K31" s="542"/>
+      <c r="B31" s="402"/>
+      <c r="C31" s="422"/>
+      <c r="D31" s="529"/>
+      <c r="E31" s="489"/>
+      <c r="F31" s="487"/>
+      <c r="G31" s="488"/>
+      <c r="H31" s="489"/>
+      <c r="I31" s="487"/>
+      <c r="J31" s="488"/>
+      <c r="K31" s="537"/>
       <c r="L31" s="5"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="395"/>
-      <c r="C32" s="399"/>
-      <c r="D32" s="534"/>
-      <c r="E32" s="503"/>
-      <c r="F32" s="501"/>
-      <c r="G32" s="502"/>
-      <c r="H32" s="503"/>
-      <c r="I32" s="501"/>
-      <c r="J32" s="502"/>
-      <c r="K32" s="542"/>
+      <c r="B32" s="402"/>
+      <c r="C32" s="422"/>
+      <c r="D32" s="529"/>
+      <c r="E32" s="489"/>
+      <c r="F32" s="487"/>
+      <c r="G32" s="488"/>
+      <c r="H32" s="489"/>
+      <c r="I32" s="487"/>
+      <c r="J32" s="488"/>
+      <c r="K32" s="537"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="395"/>
-      <c r="C33" s="399"/>
-      <c r="D33" s="535"/>
-      <c r="E33" s="536"/>
-      <c r="F33" s="539"/>
-      <c r="G33" s="540"/>
-      <c r="H33" s="536"/>
-      <c r="I33" s="539"/>
-      <c r="J33" s="540"/>
-      <c r="K33" s="543"/>
+      <c r="B33" s="402"/>
+      <c r="C33" s="422"/>
+      <c r="D33" s="530"/>
+      <c r="E33" s="531"/>
+      <c r="F33" s="534"/>
+      <c r="G33" s="535"/>
+      <c r="H33" s="531"/>
+      <c r="I33" s="534"/>
+      <c r="J33" s="535"/>
+      <c r="K33" s="538"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="395"/>
-      <c r="C34" s="397"/>
-      <c r="D34" s="520" t="s">
+      <c r="B34" s="402"/>
+      <c r="C34" s="404"/>
+      <c r="D34" s="547" t="s">
         <v>900</v>
       </c>
-      <c r="E34" s="521"/>
-      <c r="F34" s="520" t="s">
+      <c r="E34" s="548"/>
+      <c r="F34" s="547" t="s">
         <v>593</v>
       </c>
-      <c r="G34" s="526"/>
-      <c r="H34" s="521"/>
-      <c r="I34" s="520" t="s">
+      <c r="G34" s="553"/>
+      <c r="H34" s="548"/>
+      <c r="I34" s="547" t="s">
         <v>915</v>
       </c>
-      <c r="J34" s="526"/>
-      <c r="K34" s="521"/>
+      <c r="J34" s="553"/>
+      <c r="K34" s="548"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="395"/>
-      <c r="C35" s="397"/>
-      <c r="D35" s="522"/>
-      <c r="E35" s="523"/>
-      <c r="F35" s="522"/>
-      <c r="G35" s="527"/>
-      <c r="H35" s="523"/>
-      <c r="I35" s="522"/>
-      <c r="J35" s="527"/>
-      <c r="K35" s="523"/>
+      <c r="B35" s="402"/>
+      <c r="C35" s="404"/>
+      <c r="D35" s="549"/>
+      <c r="E35" s="550"/>
+      <c r="F35" s="549"/>
+      <c r="G35" s="554"/>
+      <c r="H35" s="550"/>
+      <c r="I35" s="549"/>
+      <c r="J35" s="554"/>
+      <c r="K35" s="550"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="395"/>
-      <c r="C36" s="397"/>
-      <c r="D36" s="522"/>
-      <c r="E36" s="523"/>
-      <c r="F36" s="522"/>
-      <c r="G36" s="527"/>
-      <c r="H36" s="523"/>
-      <c r="I36" s="522"/>
-      <c r="J36" s="527"/>
-      <c r="K36" s="523"/>
+      <c r="B36" s="402"/>
+      <c r="C36" s="404"/>
+      <c r="D36" s="549"/>
+      <c r="E36" s="550"/>
+      <c r="F36" s="549"/>
+      <c r="G36" s="554"/>
+      <c r="H36" s="550"/>
+      <c r="I36" s="549"/>
+      <c r="J36" s="554"/>
+      <c r="K36" s="550"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="395"/>
-      <c r="C37" s="397"/>
-      <c r="D37" s="522"/>
-      <c r="E37" s="523"/>
-      <c r="F37" s="522"/>
-      <c r="G37" s="527"/>
-      <c r="H37" s="523"/>
-      <c r="I37" s="522"/>
-      <c r="J37" s="527"/>
-      <c r="K37" s="523"/>
+      <c r="B37" s="402"/>
+      <c r="C37" s="404"/>
+      <c r="D37" s="549"/>
+      <c r="E37" s="550"/>
+      <c r="F37" s="549"/>
+      <c r="G37" s="554"/>
+      <c r="H37" s="550"/>
+      <c r="I37" s="549"/>
+      <c r="J37" s="554"/>
+      <c r="K37" s="550"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="395"/>
-      <c r="C38" s="397"/>
-      <c r="D38" s="524"/>
-      <c r="E38" s="525"/>
-      <c r="F38" s="524"/>
-      <c r="G38" s="528"/>
-      <c r="H38" s="525"/>
-      <c r="I38" s="524"/>
-      <c r="J38" s="528"/>
-      <c r="K38" s="525"/>
+      <c r="B38" s="402"/>
+      <c r="C38" s="404"/>
+      <c r="D38" s="551"/>
+      <c r="E38" s="552"/>
+      <c r="F38" s="551"/>
+      <c r="G38" s="555"/>
+      <c r="H38" s="552"/>
+      <c r="I38" s="551"/>
+      <c r="J38" s="555"/>
+      <c r="K38" s="552"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="400"/>
-      <c r="C39" s="402"/>
-      <c r="D39" s="505" t="s">
+      <c r="B39" s="423"/>
+      <c r="C39" s="425"/>
+      <c r="D39" s="480" t="s">
         <v>574</v>
       </c>
-      <c r="E39" s="506"/>
-      <c r="F39" s="506"/>
-      <c r="G39" s="506"/>
-      <c r="H39" s="506"/>
-      <c r="I39" s="506"/>
-      <c r="J39" s="506"/>
-      <c r="K39" s="507"/>
+      <c r="E39" s="481"/>
+      <c r="F39" s="481"/>
+      <c r="G39" s="481"/>
+      <c r="H39" s="481"/>
+      <c r="I39" s="481"/>
+      <c r="J39" s="481"/>
+      <c r="K39" s="482"/>
       <c r="L39" s="40" t="s">
         <v>575</v>
       </c>
@@ -23707,35 +24648,36 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="425" t="s">
+      <c r="B41" s="426" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="426"/>
-      <c r="D41" s="425" t="s">
+      <c r="C41" s="427"/>
+      <c r="D41" s="426" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="426"/>
-      <c r="F41" s="425" t="s">
+      <c r="E41" s="427"/>
+      <c r="F41" s="426" t="s">
         <v>196</v>
       </c>
-      <c r="G41" s="427"/>
-      <c r="H41" s="427"/>
-      <c r="I41" s="427"/>
-      <c r="J41" s="427"/>
-      <c r="K41" s="426"/>
+      <c r="G41" s="428"/>
+      <c r="H41" s="428"/>
+      <c r="I41" s="428"/>
+      <c r="J41" s="428"/>
+      <c r="K41" s="427"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -23752,17 +24694,16 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -24286,13 +25227,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="390" t="s">
+      <c r="A5" s="397" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="391"/>
-      <c r="C5" s="391"/>
-      <c r="D5" s="391"/>
-      <c r="E5" s="392"/>
+      <c r="B5" s="398"/>
+      <c r="C5" s="398"/>
+      <c r="D5" s="398"/>
+      <c r="E5" s="399"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>150</v>
@@ -24949,7 +25890,7 @@
       <c r="J4" s="173"/>
       <c r="K4" s="173"/>
       <c r="L4" s="174"/>
-      <c r="M4" s="395" t="s">
+      <c r="M4" s="402" t="s">
         <v>324</v>
       </c>
     </row>
@@ -24967,7 +25908,7 @@
       <c r="J5" s="167"/>
       <c r="K5" s="167"/>
       <c r="L5" s="168"/>
-      <c r="M5" s="395"/>
+      <c r="M5" s="402"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="360">
@@ -24983,7 +25924,7 @@
       <c r="J6" s="167"/>
       <c r="K6" s="167"/>
       <c r="L6" s="168"/>
-      <c r="M6" s="395"/>
+      <c r="M6" s="402"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="360">
@@ -25003,7 +25944,7 @@
       <c r="J7" s="167"/>
       <c r="K7" s="167"/>
       <c r="L7" s="168"/>
-      <c r="M7" s="395"/>
+      <c r="M7" s="402"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="360">
@@ -25019,7 +25960,7 @@
       <c r="J8" s="167"/>
       <c r="K8" s="167"/>
       <c r="L8" s="168"/>
-      <c r="M8" s="395"/>
+      <c r="M8" s="402"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="360">
@@ -25035,7 +25976,7 @@
       <c r="J9" s="167"/>
       <c r="K9" s="167"/>
       <c r="L9" s="168"/>
-      <c r="M9" s="395"/>
+      <c r="M9" s="402"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="360">
@@ -25051,7 +25992,7 @@
       <c r="J10" s="167"/>
       <c r="K10" s="167"/>
       <c r="L10" s="168"/>
-      <c r="M10" s="395"/>
+      <c r="M10" s="402"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1">
       <c r="B11" s="360">
@@ -25067,7 +26008,7 @@
       <c r="J11" s="176"/>
       <c r="K11" s="176"/>
       <c r="L11" s="177"/>
-      <c r="M11" s="395"/>
+      <c r="M11" s="402"/>
     </row>
     <row r="12" spans="2:13">
       <c r="M12" t="s">
@@ -25341,7 +26282,7 @@
       <c r="O134" s="5"/>
     </row>
     <row r="135" spans="3:15">
-      <c r="C135" s="398" t="s">
+      <c r="C135" s="405" t="s">
         <v>167</v>
       </c>
       <c r="D135">
@@ -25368,7 +26309,7 @@
       <c r="O135" s="5"/>
     </row>
     <row r="136" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C136" s="398"/>
+      <c r="C136" s="405"/>
       <c r="D136">
         <v>20</v>
       </c>
@@ -25397,7 +26338,7 @@
       <c r="O136" s="5"/>
     </row>
     <row r="137" spans="3:15">
-      <c r="C137" s="398" t="s">
+      <c r="C137" s="405" t="s">
         <v>168</v>
       </c>
       <c r="D137">
@@ -25416,7 +26357,7 @@
       <c r="O137" s="5"/>
     </row>
     <row r="138" spans="3:15">
-      <c r="C138" s="398"/>
+      <c r="C138" s="405"/>
       <c r="D138">
         <v>40</v>
       </c>
@@ -25433,7 +26374,7 @@
       <c r="O138" s="5"/>
     </row>
     <row r="139" spans="3:15">
-      <c r="C139" s="398"/>
+      <c r="C139" s="405"/>
       <c r="D139">
         <v>50</v>
       </c>
@@ -25450,7 +26391,7 @@
       <c r="O139" s="5"/>
     </row>
     <row r="140" spans="3:15">
-      <c r="C140" s="398"/>
+      <c r="C140" s="405"/>
       <c r="D140">
         <v>60</v>
       </c>
@@ -25469,7 +26410,7 @@
       <c r="O140" s="5"/>
     </row>
     <row r="141" spans="3:15">
-      <c r="C141" s="398"/>
+      <c r="C141" s="405"/>
       <c r="D141">
         <v>70</v>
       </c>
@@ -25486,7 +26427,7 @@
       <c r="O141" s="5"/>
     </row>
     <row r="142" spans="3:15">
-      <c r="C142" s="398"/>
+      <c r="C142" s="405"/>
       <c r="D142">
         <v>80</v>
       </c>
@@ -25503,7 +26444,7 @@
       <c r="O142" s="5"/>
     </row>
     <row r="143" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C143" s="398"/>
+      <c r="C143" s="405"/>
       <c r="D143">
         <v>90</v>
       </c>
@@ -25594,7 +26535,7 @@
       </c>
     </row>
     <row r="148" spans="4:15">
-      <c r="D148" s="396">
+      <c r="D148" s="403">
         <v>1</v>
       </c>
       <c r="E148" s="169"/>
@@ -25609,7 +26550,7 @@
       <c r="N148" s="174"/>
     </row>
     <row r="149" spans="4:15">
-      <c r="D149" s="397"/>
+      <c r="D149" s="404"/>
       <c r="E149" s="170"/>
       <c r="F149" s="166"/>
       <c r="G149" s="167"/>
@@ -25622,7 +26563,7 @@
       <c r="N149" s="168"/>
     </row>
     <row r="150" spans="4:15">
-      <c r="D150" s="397"/>
+      <c r="D150" s="404"/>
       <c r="E150" s="170"/>
       <c r="F150" s="166"/>
       <c r="G150" s="167"/>
@@ -25635,7 +26576,7 @@
       <c r="N150" s="168"/>
     </row>
     <row r="151" spans="4:15">
-      <c r="D151" s="397"/>
+      <c r="D151" s="404"/>
       <c r="E151" s="170" t="s">
         <v>663</v>
       </c>
@@ -25652,7 +26593,7 @@
       <c r="N151" s="168"/>
     </row>
     <row r="152" spans="4:15">
-      <c r="D152" s="397"/>
+      <c r="D152" s="404"/>
       <c r="E152" s="170"/>
       <c r="F152" s="166"/>
       <c r="G152" s="167"/>
@@ -25665,7 +26606,7 @@
       <c r="N152" s="168"/>
     </row>
     <row r="153" spans="4:15">
-      <c r="D153" s="397"/>
+      <c r="D153" s="404"/>
       <c r="E153" s="170"/>
       <c r="F153" s="166"/>
       <c r="G153" s="167"/>
@@ -25678,7 +26619,7 @@
       <c r="N153" s="168"/>
     </row>
     <row r="154" spans="4:15" ht="15.75" thickBot="1">
-      <c r="D154" s="397"/>
+      <c r="D154" s="404"/>
       <c r="E154" s="171"/>
       <c r="F154" s="175"/>
       <c r="G154" s="176"/>
@@ -25801,7 +26742,7 @@
       <c r="K183" s="173"/>
       <c r="L183" s="173"/>
       <c r="M183" s="173"/>
-      <c r="N183" s="394" t="s">
+      <c r="N183" s="401" t="s">
         <v>917</v>
       </c>
       <c r="O183" t="s">
@@ -25822,7 +26763,7 @@
       <c r="K184" s="176"/>
       <c r="L184" s="176"/>
       <c r="M184" s="176"/>
-      <c r="N184" s="394"/>
+      <c r="N184" s="401"/>
       <c r="O184" t="s">
         <v>918</v>
       </c>
@@ -25841,7 +26782,7 @@
       <c r="K185" s="229"/>
       <c r="L185" s="229"/>
       <c r="M185" s="293"/>
-      <c r="N185" s="393" t="s">
+      <c r="N185" s="400" t="s">
         <v>920</v>
       </c>
       <c r="O185" t="s">
@@ -25862,7 +26803,7 @@
       <c r="K186" s="230"/>
       <c r="L186" s="230"/>
       <c r="M186" s="295"/>
-      <c r="N186" s="393"/>
+      <c r="N186" s="400"/>
     </row>
     <row r="187" spans="3:15">
       <c r="C187">
@@ -25878,7 +26819,7 @@
       <c r="K187" s="230"/>
       <c r="L187" s="230"/>
       <c r="M187" s="295"/>
-      <c r="N187" s="393"/>
+      <c r="N187" s="400"/>
     </row>
     <row r="188" spans="3:15" ht="15.75" thickBot="1">
       <c r="C188">
@@ -25898,7 +26839,7 @@
       <c r="K188" s="231"/>
       <c r="L188" s="231"/>
       <c r="M188" s="297"/>
-      <c r="N188" s="393"/>
+      <c r="N188" s="400"/>
     </row>
     <row r="189" spans="3:15">
       <c r="C189">
@@ -25914,7 +26855,7 @@
       <c r="K189" s="230"/>
       <c r="L189" s="230"/>
       <c r="M189" s="230"/>
-      <c r="N189" s="394"/>
+      <c r="N189" s="401"/>
     </row>
     <row r="190" spans="3:15">
       <c r="C190">
@@ -25930,7 +26871,7 @@
       <c r="K190" s="230"/>
       <c r="L190" s="230"/>
       <c r="M190" s="230"/>
-      <c r="N190" s="394"/>
+      <c r="N190" s="401"/>
     </row>
     <row r="191" spans="3:15" ht="15.75" thickBot="1">
       <c r="C191">
@@ -25946,7 +26887,7 @@
       <c r="K191" s="231"/>
       <c r="L191" s="231"/>
       <c r="M191" s="231"/>
-      <c r="N191" s="394"/>
+      <c r="N191" s="401"/>
     </row>
     <row r="192" spans="3:15" ht="15.75" thickBot="1">
       <c r="C192">
@@ -26266,8 +27207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N284" sqref="N284:Q292"/>
+    <sheetView topLeftCell="A374" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26321,14 +27262,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="419" t="s">
+      <c r="K4" s="416" t="s">
         <v>178</v>
       </c>
-      <c r="L4" s="420"/>
-      <c r="M4" s="420"/>
-      <c r="N4" s="420"/>
-      <c r="O4" s="420"/>
-      <c r="P4" s="421"/>
+      <c r="L4" s="417"/>
+      <c r="M4" s="417"/>
+      <c r="N4" s="417"/>
+      <c r="O4" s="417"/>
+      <c r="P4" s="418"/>
       <c r="Q4" s="115" t="s">
         <v>281</v>
       </c>
@@ -26367,7 +27308,7 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="434" t="s">
+      <c r="E6" s="435" t="s">
         <v>1489</v>
       </c>
       <c r="F6" t="s">
@@ -26408,9 +27349,9 @@
         <v>182</v>
       </c>
       <c r="D7" s="367" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E7" s="404"/>
+        <v>1610</v>
+      </c>
+      <c r="E7" s="407"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
@@ -26443,8 +27384,10 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="24"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="404"/>
+      <c r="D8" s="367" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E8" s="407"/>
       <c r="F8" t="s">
         <v>203</v>
       </c>
@@ -26455,10 +27398,10 @@
       <c r="L8" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M8" s="428" t="s">
+      <c r="M8" s="429" t="s">
         <v>1488</v>
       </c>
-      <c r="N8" s="429"/>
+      <c r="N8" s="430"/>
       <c r="O8" s="5" t="s">
         <v>31</v>
       </c>
@@ -26485,9 +27428,9 @@
         <v>210</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="E9" s="404"/>
+        <v>301</v>
+      </c>
+      <c r="E9" s="407"/>
       <c r="F9" s="24" t="s">
         <v>216</v>
       </c>
@@ -26500,8 +27443,8 @@
       <c r="L9" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M9" s="430"/>
-      <c r="N9" s="431"/>
+      <c r="M9" s="431"/>
+      <c r="N9" s="432"/>
       <c r="O9" s="5" t="s">
         <v>187</v>
       </c>
@@ -26526,7 +27469,7 @@
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
-      <c r="E10" s="405"/>
+      <c r="E10" s="408"/>
       <c r="F10" t="s">
         <v>204</v>
       </c>
@@ -26537,8 +27480,8 @@
       <c r="L10" s="5" t="s">
         <v>1167</v>
       </c>
-      <c r="M10" s="430"/>
-      <c r="N10" s="431"/>
+      <c r="M10" s="431"/>
+      <c r="N10" s="432"/>
       <c r="O10" s="5"/>
       <c r="P10" s="246" t="s">
         <v>399</v>
@@ -26555,13 +27498,13 @@
       <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="422" t="s">
+      <c r="A11" s="419" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="423"/>
-      <c r="C11" s="424"/>
-      <c r="D11" s="424"/>
-      <c r="E11" s="397"/>
+      <c r="B11" s="420"/>
+      <c r="C11" s="421"/>
+      <c r="D11" s="421"/>
+      <c r="E11" s="404"/>
       <c r="F11" t="s">
         <v>209</v>
       </c>
@@ -26570,22 +27513,31 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="430"/>
-      <c r="N11" s="431"/>
-      <c r="O11" s="5"/>
+      <c r="M11" s="431"/>
+      <c r="N11" s="432"/>
+      <c r="O11" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="P11" s="246" t="s">
         <v>400</v>
       </c>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
+      <c r="Q11" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="S11" s="38" t="s">
+        <v>1606</v>
+      </c>
       <c r="T11" s="38"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="395"/>
-      <c r="B12" s="399"/>
-      <c r="C12" s="399"/>
-      <c r="D12" s="399"/>
-      <c r="E12" s="397"/>
+      <c r="A12" s="402"/>
+      <c r="B12" s="422"/>
+      <c r="C12" s="422"/>
+      <c r="D12" s="422"/>
+      <c r="E12" s="404"/>
       <c r="F12" t="s">
         <v>944</v>
       </c>
@@ -26594,8 +27546,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="430"/>
-      <c r="N12" s="431"/>
+      <c r="M12" s="431"/>
+      <c r="N12" s="432"/>
       <c r="O12" s="5"/>
       <c r="P12" s="246" t="s">
         <v>1305</v>
@@ -26605,11 +27557,11 @@
       <c r="T12" s="38"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A13" s="395"/>
-      <c r="B13" s="399"/>
-      <c r="C13" s="399"/>
-      <c r="D13" s="399"/>
-      <c r="E13" s="397"/>
+      <c r="A13" s="402"/>
+      <c r="B13" s="422"/>
+      <c r="C13" s="422"/>
+      <c r="D13" s="422"/>
+      <c r="E13" s="404"/>
       <c r="F13" t="s">
         <v>679</v>
       </c>
@@ -26620,8 +27572,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="432"/>
-      <c r="N13" s="433"/>
+      <c r="M13" s="433"/>
+      <c r="N13" s="434"/>
       <c r="O13" s="28"/>
       <c r="P13" s="247"/>
       <c r="S13" t="s">
@@ -26629,11 +27581,11 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="400"/>
-      <c r="B14" s="401"/>
-      <c r="C14" s="401"/>
-      <c r="D14" s="401"/>
-      <c r="E14" s="402"/>
+      <c r="A14" s="423"/>
+      <c r="B14" s="424"/>
+      <c r="C14" s="424"/>
+      <c r="D14" s="424"/>
+      <c r="E14" s="425"/>
       <c r="F14" t="s">
         <v>885</v>
       </c>
@@ -26686,7 +27638,9 @@
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="M16" s="5" t="s">
+        <v>1607</v>
+      </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="6"/>
@@ -26708,7 +27662,9 @@
       <c r="J17" s="5"/>
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="5" t="s">
+        <v>1608</v>
+      </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="6"/>
@@ -26766,20 +27722,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="425" t="s">
+      <c r="I20" s="426" t="s">
         <v>194</v>
       </c>
-      <c r="J20" s="426"/>
-      <c r="K20" s="425" t="s">
+      <c r="J20" s="427"/>
+      <c r="K20" s="426" t="s">
         <v>195</v>
       </c>
-      <c r="L20" s="426"/>
-      <c r="M20" s="425" t="s">
+      <c r="L20" s="427"/>
+      <c r="M20" s="426" t="s">
         <v>196</v>
       </c>
-      <c r="N20" s="427"/>
-      <c r="O20" s="427"/>
-      <c r="P20" s="426"/>
+      <c r="N20" s="428"/>
+      <c r="O20" s="428"/>
+      <c r="P20" s="427"/>
       <c r="S20" t="s">
         <v>281</v>
       </c>
@@ -27629,7 +28585,7 @@
       <c r="F124" s="6"/>
       <c r="K124" s="4"/>
       <c r="L124" s="5"/>
-      <c r="M124" s="550"/>
+      <c r="M124" s="393"/>
       <c r="N124" s="5"/>
       <c r="O124" s="6"/>
     </row>
@@ -27756,17 +28712,17 @@
       <c r="C137" s="5" t="s">
         <v>1303</v>
       </c>
-      <c r="D137" s="551" t="s">
+      <c r="D137" s="394" t="s">
         <v>1545</v>
       </c>
-      <c r="E137" s="551"/>
-      <c r="F137" s="552"/>
-      <c r="G137" s="553"/>
-      <c r="H137" s="553"/>
-      <c r="I137" s="553"/>
-      <c r="J137" s="553"/>
+      <c r="E137" s="394"/>
+      <c r="F137" s="395"/>
+      <c r="G137" s="396"/>
+      <c r="H137" s="396"/>
+      <c r="I137" s="396"/>
+      <c r="J137" s="396"/>
       <c r="K137" s="143"/>
-      <c r="L137" s="551"/>
+      <c r="L137" s="394"/>
       <c r="M137" s="246" t="s">
         <v>1546</v>
       </c>
@@ -27784,7 +28740,7 @@
       <c r="F138" s="6"/>
       <c r="K138" s="4"/>
       <c r="L138" s="5"/>
-      <c r="M138" s="550" t="s">
+      <c r="M138" s="393" t="s">
         <v>1550</v>
       </c>
       <c r="N138" s="5"/>
@@ -27829,7 +28785,7 @@
         <v>1542</v>
       </c>
       <c r="L141" s="5"/>
-      <c r="M141" s="551" t="s">
+      <c r="M141" s="394" t="s">
         <v>281</v>
       </c>
       <c r="N141" s="5"/>
@@ -27851,7 +28807,7 @@
       <c r="K142" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L142" s="551" t="s">
+      <c r="L142" s="394" t="s">
         <v>1547</v>
       </c>
       <c r="M142" s="28" t="s">
@@ -28069,7 +29025,7 @@
       <c r="F159" s="6"/>
       <c r="K159" s="4"/>
       <c r="L159" s="5"/>
-      <c r="M159" s="550" t="s">
+      <c r="M159" s="393" t="s">
         <v>1551</v>
       </c>
       <c r="N159" s="5"/>
@@ -28505,19 +29461,19 @@
       <c r="D204" s="2"/>
       <c r="E204" s="3"/>
       <c r="I204" s="4"/>
-      <c r="J204" s="403" t="s">
+      <c r="J204" s="406" t="s">
         <v>1493</v>
       </c>
       <c r="K204" s="1"/>
-      <c r="L204" s="435" t="s">
+      <c r="L204" s="436" t="s">
         <v>1504</v>
       </c>
-      <c r="M204" s="412" t="s">
+      <c r="M204" s="409" t="s">
         <v>1503</v>
       </c>
-      <c r="N204" s="413"/>
-      <c r="O204" s="413"/>
-      <c r="P204" s="414"/>
+      <c r="N204" s="410"/>
+      <c r="O204" s="410"/>
+      <c r="P204" s="411"/>
       <c r="Q204" s="6"/>
     </row>
     <row r="205" spans="1:17" ht="15.75" thickBot="1">
@@ -28527,13 +29483,13 @@
       <c r="D205" s="5"/>
       <c r="E205" s="6"/>
       <c r="I205" s="4"/>
-      <c r="J205" s="404"/>
+      <c r="J205" s="407"/>
       <c r="K205" s="4"/>
-      <c r="L205" s="436"/>
-      <c r="M205" s="415"/>
-      <c r="N205" s="415"/>
-      <c r="O205" s="415"/>
-      <c r="P205" s="416"/>
+      <c r="L205" s="437"/>
+      <c r="M205" s="412"/>
+      <c r="N205" s="412"/>
+      <c r="O205" s="412"/>
+      <c r="P205" s="413"/>
       <c r="Q205" s="6"/>
     </row>
     <row r="206" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
@@ -28545,15 +29501,15 @@
       <c r="D206" s="107"/>
       <c r="E206" s="108"/>
       <c r="I206" s="4"/>
-      <c r="J206" s="404"/>
+      <c r="J206" s="407"/>
       <c r="K206" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="L206" s="436"/>
-      <c r="M206" s="415"/>
-      <c r="N206" s="415"/>
-      <c r="O206" s="415"/>
-      <c r="P206" s="416"/>
+      <c r="L206" s="437"/>
+      <c r="M206" s="412"/>
+      <c r="N206" s="412"/>
+      <c r="O206" s="412"/>
+      <c r="P206" s="413"/>
       <c r="Q206" s="6"/>
     </row>
     <row r="207" spans="1:17">
@@ -28565,13 +29521,13 @@
       <c r="D207" s="5"/>
       <c r="E207" s="6"/>
       <c r="I207" s="4"/>
-      <c r="J207" s="404"/>
+      <c r="J207" s="407"/>
       <c r="K207" s="4"/>
-      <c r="L207" s="436"/>
-      <c r="M207" s="415"/>
-      <c r="N207" s="415"/>
-      <c r="O207" s="415"/>
-      <c r="P207" s="416"/>
+      <c r="L207" s="437"/>
+      <c r="M207" s="412"/>
+      <c r="N207" s="412"/>
+      <c r="O207" s="412"/>
+      <c r="P207" s="413"/>
       <c r="Q207" s="6"/>
     </row>
     <row r="208" spans="1:17" ht="15.75" thickBot="1">
@@ -28585,13 +29541,13 @@
       <c r="D208" s="5"/>
       <c r="E208" s="6"/>
       <c r="I208" s="4"/>
-      <c r="J208" s="404"/>
+      <c r="J208" s="407"/>
       <c r="K208" s="8"/>
-      <c r="L208" s="436"/>
-      <c r="M208" s="415"/>
-      <c r="N208" s="415"/>
-      <c r="O208" s="415"/>
-      <c r="P208" s="416"/>
+      <c r="L208" s="437"/>
+      <c r="M208" s="412"/>
+      <c r="N208" s="412"/>
+      <c r="O208" s="412"/>
+      <c r="P208" s="413"/>
       <c r="Q208" s="6"/>
     </row>
     <row r="209" spans="1:17">
@@ -28605,13 +29561,13 @@
       <c r="D209" s="5"/>
       <c r="E209" s="6"/>
       <c r="I209" s="4"/>
-      <c r="J209" s="404"/>
+      <c r="J209" s="407"/>
       <c r="K209" s="1"/>
-      <c r="L209" s="436"/>
-      <c r="M209" s="415"/>
-      <c r="N209" s="415"/>
-      <c r="O209" s="415"/>
-      <c r="P209" s="416"/>
+      <c r="L209" s="437"/>
+      <c r="M209" s="412"/>
+      <c r="N209" s="412"/>
+      <c r="O209" s="412"/>
+      <c r="P209" s="413"/>
       <c r="Q209" s="6"/>
     </row>
     <row r="210" spans="1:17">
@@ -28623,13 +29579,13 @@
       <c r="D210" s="5"/>
       <c r="E210" s="6"/>
       <c r="I210" s="4"/>
-      <c r="J210" s="404"/>
+      <c r="J210" s="407"/>
       <c r="K210" s="4"/>
-      <c r="L210" s="436"/>
-      <c r="M210" s="415"/>
-      <c r="N210" s="415"/>
-      <c r="O210" s="415"/>
-      <c r="P210" s="416"/>
+      <c r="L210" s="437"/>
+      <c r="M210" s="412"/>
+      <c r="N210" s="412"/>
+      <c r="O210" s="412"/>
+      <c r="P210" s="413"/>
       <c r="Q210" s="6"/>
     </row>
     <row r="211" spans="1:17">
@@ -28644,13 +29600,13 @@
         <v>1502</v>
       </c>
       <c r="I211" s="4"/>
-      <c r="J211" s="404"/>
+      <c r="J211" s="407"/>
       <c r="K211" s="4"/>
-      <c r="L211" s="436"/>
-      <c r="M211" s="415"/>
-      <c r="N211" s="415"/>
-      <c r="O211" s="415"/>
-      <c r="P211" s="416"/>
+      <c r="L211" s="437"/>
+      <c r="M211" s="412"/>
+      <c r="N211" s="412"/>
+      <c r="O211" s="412"/>
+      <c r="P211" s="413"/>
       <c r="Q211" s="6"/>
     </row>
     <row r="212" spans="1:17">
@@ -28663,15 +29619,15 @@
         <v>485</v>
       </c>
       <c r="I212" s="4"/>
-      <c r="J212" s="404"/>
+      <c r="J212" s="407"/>
       <c r="K212" s="4" t="s">
         <v>1483</v>
       </c>
-      <c r="L212" s="436"/>
-      <c r="M212" s="415"/>
-      <c r="N212" s="415"/>
-      <c r="O212" s="415"/>
-      <c r="P212" s="416"/>
+      <c r="L212" s="437"/>
+      <c r="M212" s="412"/>
+      <c r="N212" s="412"/>
+      <c r="O212" s="412"/>
+      <c r="P212" s="413"/>
       <c r="Q212" s="6"/>
     </row>
     <row r="213" spans="1:17" ht="15.75" thickBot="1">
@@ -28681,24 +29637,24 @@
       <c r="D213" s="10"/>
       <c r="E213" s="9"/>
       <c r="I213" s="4"/>
-      <c r="J213" s="404"/>
+      <c r="J213" s="407"/>
       <c r="K213" s="4"/>
-      <c r="L213" s="436"/>
-      <c r="M213" s="415"/>
-      <c r="N213" s="415"/>
-      <c r="O213" s="415"/>
-      <c r="P213" s="416"/>
+      <c r="L213" s="437"/>
+      <c r="M213" s="412"/>
+      <c r="N213" s="412"/>
+      <c r="O213" s="412"/>
+      <c r="P213" s="413"/>
       <c r="Q213" s="6"/>
     </row>
     <row r="214" spans="1:17" ht="15.75" thickBot="1">
       <c r="I214" s="4"/>
-      <c r="J214" s="404"/>
+      <c r="J214" s="407"/>
       <c r="K214" s="8"/>
-      <c r="L214" s="436"/>
-      <c r="M214" s="415"/>
-      <c r="N214" s="415"/>
-      <c r="O214" s="415"/>
-      <c r="P214" s="416"/>
+      <c r="L214" s="437"/>
+      <c r="M214" s="412"/>
+      <c r="N214" s="412"/>
+      <c r="O214" s="412"/>
+      <c r="P214" s="413"/>
       <c r="Q214" s="6"/>
     </row>
     <row r="215" spans="1:17">
@@ -28706,24 +29662,24 @@
         <v>1495</v>
       </c>
       <c r="I215" s="4"/>
-      <c r="J215" s="404"/>
+      <c r="J215" s="407"/>
       <c r="K215" s="5"/>
-      <c r="L215" s="436"/>
-      <c r="M215" s="415"/>
-      <c r="N215" s="415"/>
-      <c r="O215" s="415"/>
-      <c r="P215" s="416"/>
+      <c r="L215" s="437"/>
+      <c r="M215" s="412"/>
+      <c r="N215" s="412"/>
+      <c r="O215" s="412"/>
+      <c r="P215" s="413"/>
       <c r="Q215" s="6"/>
     </row>
     <row r="216" spans="1:17">
       <c r="I216" s="4"/>
-      <c r="J216" s="404"/>
+      <c r="J216" s="407"/>
       <c r="K216" s="5"/>
-      <c r="L216" s="436"/>
-      <c r="M216" s="415"/>
-      <c r="N216" s="415"/>
-      <c r="O216" s="415"/>
-      <c r="P216" s="416"/>
+      <c r="L216" s="437"/>
+      <c r="M216" s="412"/>
+      <c r="N216" s="412"/>
+      <c r="O216" s="412"/>
+      <c r="P216" s="413"/>
       <c r="Q216" s="6"/>
     </row>
     <row r="217" spans="1:17">
@@ -28734,15 +29690,15 @@
         <v>167</v>
       </c>
       <c r="I217" s="4"/>
-      <c r="J217" s="404"/>
+      <c r="J217" s="407"/>
       <c r="K217" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="L217" s="436"/>
-      <c r="M217" s="415"/>
-      <c r="N217" s="415"/>
-      <c r="O217" s="415"/>
-      <c r="P217" s="416"/>
+      <c r="L217" s="437"/>
+      <c r="M217" s="412"/>
+      <c r="N217" s="412"/>
+      <c r="O217" s="412"/>
+      <c r="P217" s="413"/>
       <c r="Q217" s="6"/>
     </row>
     <row r="218" spans="1:17">
@@ -28750,13 +29706,13 @@
         <v>168</v>
       </c>
       <c r="I218" s="4"/>
-      <c r="J218" s="404"/>
+      <c r="J218" s="407"/>
       <c r="K218" s="5"/>
-      <c r="L218" s="436"/>
-      <c r="M218" s="415"/>
-      <c r="N218" s="415"/>
-      <c r="O218" s="415"/>
-      <c r="P218" s="416"/>
+      <c r="L218" s="437"/>
+      <c r="M218" s="412"/>
+      <c r="N218" s="412"/>
+      <c r="O218" s="412"/>
+      <c r="P218" s="413"/>
       <c r="Q218" s="6"/>
     </row>
     <row r="219" spans="1:17">
@@ -28767,13 +29723,13 @@
         <v>10</v>
       </c>
       <c r="I219" s="4"/>
-      <c r="J219" s="404"/>
+      <c r="J219" s="407"/>
       <c r="K219" s="5"/>
-      <c r="L219" s="436"/>
-      <c r="M219" s="415"/>
-      <c r="N219" s="415"/>
-      <c r="O219" s="415"/>
-      <c r="P219" s="416"/>
+      <c r="L219" s="437"/>
+      <c r="M219" s="412"/>
+      <c r="N219" s="412"/>
+      <c r="O219" s="412"/>
+      <c r="P219" s="413"/>
       <c r="Q219" s="6"/>
     </row>
     <row r="220" spans="1:17">
@@ -28784,13 +29740,13 @@
         <v>80</v>
       </c>
       <c r="I220" s="4"/>
-      <c r="J220" s="404"/>
+      <c r="J220" s="407"/>
       <c r="K220" s="5"/>
-      <c r="L220" s="436"/>
-      <c r="M220" s="415"/>
-      <c r="N220" s="415"/>
-      <c r="O220" s="415"/>
-      <c r="P220" s="416"/>
+      <c r="L220" s="437"/>
+      <c r="M220" s="412"/>
+      <c r="N220" s="412"/>
+      <c r="O220" s="412"/>
+      <c r="P220" s="413"/>
       <c r="Q220" s="6"/>
     </row>
     <row r="221" spans="1:17">
@@ -28801,24 +29757,24 @@
         <v>1165</v>
       </c>
       <c r="I221" s="4"/>
-      <c r="J221" s="404"/>
+      <c r="J221" s="407"/>
       <c r="K221" s="5"/>
-      <c r="L221" s="436"/>
-      <c r="M221" s="415"/>
-      <c r="N221" s="415"/>
-      <c r="O221" s="415"/>
-      <c r="P221" s="416"/>
+      <c r="L221" s="437"/>
+      <c r="M221" s="412"/>
+      <c r="N221" s="412"/>
+      <c r="O221" s="412"/>
+      <c r="P221" s="413"/>
       <c r="Q221" s="6"/>
     </row>
     <row r="222" spans="1:17" ht="15.75" thickBot="1">
       <c r="I222" s="4"/>
-      <c r="J222" s="405"/>
+      <c r="J222" s="408"/>
       <c r="K222" s="10"/>
-      <c r="L222" s="437"/>
-      <c r="M222" s="417"/>
-      <c r="N222" s="417"/>
-      <c r="O222" s="417"/>
-      <c r="P222" s="418"/>
+      <c r="L222" s="438"/>
+      <c r="M222" s="414"/>
+      <c r="N222" s="414"/>
+      <c r="O222" s="414"/>
+      <c r="P222" s="415"/>
       <c r="Q222" s="6"/>
     </row>
     <row r="223" spans="1:17" ht="15.75" thickBot="1">
@@ -30212,9 +31168,10 @@
     <hyperlink ref="F211" r:id="rId11"/>
     <hyperlink ref="B229" r:id="rId12"/>
     <hyperlink ref="B245" r:id="rId13"/>
+    <hyperlink ref="D8" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -30640,13 +31597,13 @@
         <v>181</v>
       </c>
       <c r="J3" s="148"/>
-      <c r="K3" s="447"/>
-      <c r="L3" s="447"/>
-      <c r="M3" s="447"/>
-      <c r="N3" s="447"/>
-      <c r="O3" s="447"/>
-      <c r="P3" s="447"/>
-      <c r="Q3" s="448"/>
+      <c r="K3" s="448"/>
+      <c r="L3" s="448"/>
+      <c r="M3" s="448"/>
+      <c r="N3" s="448"/>
+      <c r="O3" s="448"/>
+      <c r="P3" s="448"/>
+      <c r="Q3" s="449"/>
       <c r="T3" s="40" t="s">
         <v>179</v>
       </c>
@@ -30914,13 +31871,13 @@
       <c r="U11" s="38"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="438" t="s">
+      <c r="A12" s="439" t="s">
         <v>667</v>
       </c>
-      <c r="B12" s="439"/>
-      <c r="C12" s="439"/>
-      <c r="D12" s="439"/>
-      <c r="E12" s="440"/>
+      <c r="B12" s="440"/>
+      <c r="C12" s="440"/>
+      <c r="D12" s="440"/>
+      <c r="E12" s="441"/>
       <c r="F12" t="s">
         <v>680</v>
       </c>
@@ -30943,11 +31900,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="441"/>
-      <c r="B13" s="442"/>
-      <c r="C13" s="442"/>
-      <c r="D13" s="442"/>
-      <c r="E13" s="443"/>
+      <c r="A13" s="442"/>
+      <c r="B13" s="443"/>
+      <c r="C13" s="443"/>
+      <c r="D13" s="443"/>
+      <c r="E13" s="444"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -30968,11 +31925,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="441"/>
-      <c r="B14" s="442"/>
-      <c r="C14" s="442"/>
-      <c r="D14" s="442"/>
-      <c r="E14" s="443"/>
+      <c r="A14" s="442"/>
+      <c r="B14" s="443"/>
+      <c r="C14" s="443"/>
+      <c r="D14" s="443"/>
+      <c r="E14" s="444"/>
       <c r="F14" t="s">
         <v>677</v>
       </c>
@@ -30995,11 +31952,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="444"/>
-      <c r="B15" s="445"/>
-      <c r="C15" s="445"/>
-      <c r="D15" s="445"/>
-      <c r="E15" s="446"/>
+      <c r="A15" s="445"/>
+      <c r="B15" s="446"/>
+      <c r="C15" s="446"/>
+      <c r="D15" s="446"/>
+      <c r="E15" s="447"/>
       <c r="F15" s="24"/>
       <c r="H15" s="192"/>
       <c r="I15" s="4" t="s">
@@ -31057,17 +32014,17 @@
       <c r="F17" s="188"/>
       <c r="G17" s="129"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="420" t="s">
+      <c r="I17" s="417" t="s">
         <v>1177</v>
       </c>
-      <c r="J17" s="420"/>
-      <c r="K17" s="420"/>
-      <c r="L17" s="420"/>
-      <c r="M17" s="420"/>
-      <c r="N17" s="420"/>
-      <c r="O17" s="420"/>
-      <c r="P17" s="420"/>
-      <c r="Q17" s="420"/>
+      <c r="J17" s="417"/>
+      <c r="K17" s="417"/>
+      <c r="L17" s="417"/>
+      <c r="M17" s="417"/>
+      <c r="N17" s="417"/>
+      <c r="O17" s="417"/>
+      <c r="P17" s="417"/>
+      <c r="Q17" s="417"/>
       <c r="S17" t="s">
         <v>358</v>
       </c>
@@ -35353,10 +36310,10 @@
       <c r="K232" s="35"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="406" t="s">
+      <c r="O232" s="450" t="s">
         <v>1225</v>
       </c>
-      <c r="P232" s="407"/>
+      <c r="P232" s="451"/>
       <c r="Q232" s="6"/>
     </row>
     <row r="233" spans="2:17">

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="1648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="1672">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -5572,12 +5572,84 @@
   <si>
     <t>Delete record</t>
   </si>
+  <si>
+    <t>quan</t>
+  </si>
+  <si>
+    <t>factory/warehouse data</t>
+  </si>
+  <si>
+    <t>Order&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Process&gt;&gt;</t>
+  </si>
+  <si>
+    <t>insert iphone in order tabl</t>
+  </si>
+  <si>
+    <t>insert samsung in order table</t>
+  </si>
+  <si>
+    <t>update iphone in procut table</t>
+  </si>
+  <si>
+    <t>update samsung in product table</t>
+  </si>
+  <si>
+    <t>order failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">please </t>
+  </si>
+  <si>
+    <t>try again later</t>
+  </si>
+  <si>
+    <t>REVERT</t>
+  </si>
+  <si>
+    <t>Connection  con=DatabaseConnection.getDBConnection();</t>
+  </si>
+  <si>
+    <t>try{</t>
+  </si>
+  <si>
+    <t>con.setAutoCommit(false);</t>
+  </si>
+  <si>
+    <t>con.commit();</t>
+  </si>
+  <si>
+    <t>catch(Exception e){</t>
+  </si>
+  <si>
+    <t>con.rollback();</t>
+  </si>
+  <si>
+    <t>finally{</t>
+  </si>
+  <si>
+    <t>con.close();</t>
+  </si>
+  <si>
+    <t>// permanently saved</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>// temp updates/insert/delete remove them</t>
+  </si>
+  <si>
+    <t>ALL or NOTHING</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5779,6 +5851,13 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="26">
@@ -6342,7 +6421,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="559">
+  <cellXfs count="574">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -6940,6 +7019,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7111,6 +7206,18 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7132,23 +7239,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7180,6 +7272,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7189,59 +7284,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7297,6 +7341,57 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7318,17 +7413,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7369,61 +7500,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13235,10 +13357,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="452" t="s">
+      <c r="L35" s="458" t="s">
         <v>374</v>
       </c>
-      <c r="M35" s="452"/>
+      <c r="M35" s="458"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -15168,10 +15290,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="453" t="s">
+      <c r="A155" s="459" t="s">
         <v>993</v>
       </c>
-      <c r="B155" s="453"/>
+      <c r="B155" s="459"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="93" t="s">
@@ -15556,7 +15678,7 @@
       <c r="G197" s="390" t="s">
         <v>974</v>
       </c>
-      <c r="I197" s="557" t="s">
+      <c r="I197" s="401" t="s">
         <v>1604</v>
       </c>
     </row>
@@ -15753,10 +15875,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q241"/>
+  <dimension ref="A1:Q264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="D243" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K263" sqref="K263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15836,7 +15958,7 @@
       <c r="D4" s="260" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="558" t="s">
+      <c r="E4" s="402" t="s">
         <v>185</v>
       </c>
       <c r="F4" s="38">
@@ -17480,18 +17602,395 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="241" spans="2:2">
+    <row r="241" spans="2:17">
       <c r="B241" t="s">
         <v>1310</v>
       </c>
     </row>
+    <row r="243" spans="2:17" ht="15.75" thickBot="1"/>
+    <row r="244" spans="2:17">
+      <c r="D244" s="1"/>
+      <c r="E244" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+      <c r="H244" s="2"/>
+      <c r="I244" s="2"/>
+      <c r="J244" s="2"/>
+      <c r="O244" s="2"/>
+    </row>
+    <row r="245" spans="2:17">
+      <c r="D245" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E245" s="397" t="s">
+        <v>182</v>
+      </c>
+      <c r="F245" s="397" t="s">
+        <v>183</v>
+      </c>
+      <c r="G245" s="397" t="s">
+        <v>974</v>
+      </c>
+      <c r="H245" s="397" t="s">
+        <v>184</v>
+      </c>
+      <c r="I245" s="397" t="s">
+        <v>320</v>
+      </c>
+      <c r="J245" s="398"/>
+      <c r="K245" s="398"/>
+      <c r="L245" s="398"/>
+      <c r="M245" s="398" t="s">
+        <v>766</v>
+      </c>
+      <c r="N245" s="398" t="s">
+        <v>1648</v>
+      </c>
+      <c r="O245" s="398"/>
+      <c r="P245" s="398"/>
+      <c r="Q245" s="398"/>
+    </row>
+    <row r="246" spans="2:17">
+      <c r="D246" s="4"/>
+      <c r="E246" s="205" t="s">
+        <v>26</v>
+      </c>
+      <c r="F246" s="563" t="s">
+        <v>185</v>
+      </c>
+      <c r="G246" s="399">
+        <v>13123213</v>
+      </c>
+      <c r="H246" s="564" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I246" s="399" t="s">
+        <v>547</v>
+      </c>
+      <c r="J246" s="398"/>
+      <c r="K246" s="398" t="s">
+        <v>635</v>
+      </c>
+      <c r="L246" s="411" t="s">
+        <v>1650</v>
+      </c>
+      <c r="M246" s="399" t="s">
+        <v>331</v>
+      </c>
+      <c r="N246" s="399">
+        <v>2</v>
+      </c>
+      <c r="O246" s="411" t="s">
+        <v>1651</v>
+      </c>
+      <c r="P246" s="411"/>
+      <c r="Q246" s="565" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="247" spans="2:17">
+      <c r="D247" s="4"/>
+      <c r="E247" s="399"/>
+      <c r="F247" s="399"/>
+      <c r="G247" s="399"/>
+      <c r="H247" s="399"/>
+      <c r="I247" s="399"/>
+      <c r="J247" s="398"/>
+      <c r="K247" s="398"/>
+      <c r="L247" s="411"/>
+      <c r="M247" s="399" t="s">
+        <v>364</v>
+      </c>
+      <c r="N247" s="399">
+        <v>5</v>
+      </c>
+      <c r="O247" s="411"/>
+      <c r="P247" s="411"/>
+      <c r="Q247" s="565" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="248" spans="2:17">
+      <c r="D248" s="4"/>
+      <c r="E248" s="399"/>
+      <c r="F248" s="399"/>
+      <c r="G248" s="399"/>
+      <c r="H248" s="399"/>
+      <c r="I248" s="399"/>
+      <c r="J248" s="398"/>
+      <c r="K248" s="398"/>
+      <c r="L248" s="398"/>
+      <c r="M248" s="398"/>
+      <c r="N248" s="398"/>
+      <c r="O248" s="398"/>
+      <c r="P248" s="398"/>
+      <c r="Q248" s="565" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="249" spans="2:17">
+      <c r="D249" s="4"/>
+      <c r="E249" s="398"/>
+      <c r="F249" s="398"/>
+      <c r="G249" s="398"/>
+      <c r="H249" s="398"/>
+      <c r="I249" s="398"/>
+      <c r="J249" s="398"/>
+      <c r="K249" s="398" t="s">
+        <v>1671</v>
+      </c>
+      <c r="L249" s="398"/>
+      <c r="M249" s="398"/>
+      <c r="N249" s="398"/>
+      <c r="O249" s="398"/>
+    </row>
+    <row r="250" spans="2:17">
+      <c r="D250" s="4"/>
+      <c r="E250" s="398" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F250" s="565" t="s">
+        <v>1649</v>
+      </c>
+      <c r="G250" s="398"/>
+      <c r="H250" s="398"/>
+      <c r="J250" s="565" t="s">
+        <v>1660</v>
+      </c>
+      <c r="K250" s="398"/>
+      <c r="L250" s="398"/>
+      <c r="M250" s="398"/>
+      <c r="N250" s="398"/>
+      <c r="O250" s="398"/>
+    </row>
+    <row r="251" spans="2:17">
+      <c r="D251" s="4"/>
+      <c r="E251" s="397" t="s">
+        <v>324</v>
+      </c>
+      <c r="F251" s="397" t="s">
+        <v>810</v>
+      </c>
+      <c r="G251" s="397" t="s">
+        <v>326</v>
+      </c>
+      <c r="H251" s="398"/>
+      <c r="J251" s="566" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="252" spans="2:17">
+      <c r="D252" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E252" s="399" t="s">
+        <v>331</v>
+      </c>
+      <c r="F252" s="573">
+        <v>100</v>
+      </c>
+      <c r="G252" s="399">
+        <v>999</v>
+      </c>
+      <c r="H252" s="398"/>
+      <c r="I252" s="566"/>
+      <c r="K252" s="566" t="s">
+        <v>1662</v>
+      </c>
+      <c r="L252" s="398"/>
+      <c r="M252" s="398"/>
+      <c r="N252" s="398"/>
+    </row>
+    <row r="253" spans="2:17">
+      <c r="D253" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E253" s="399" t="s">
+        <v>364</v>
+      </c>
+      <c r="F253" s="205">
+        <v>50</v>
+      </c>
+      <c r="G253" s="399">
+        <v>499</v>
+      </c>
+      <c r="H253" s="398"/>
+      <c r="I253" s="566"/>
+      <c r="J253" s="566"/>
+      <c r="K253" s="567" t="s">
+        <v>1652</v>
+      </c>
+      <c r="L253" s="569"/>
+      <c r="M253" s="569"/>
+      <c r="N253" s="428" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="254" spans="2:17">
+      <c r="D254" s="4"/>
+      <c r="E254" s="399"/>
+      <c r="F254" s="399"/>
+      <c r="G254" s="399"/>
+      <c r="H254" s="398"/>
+      <c r="K254" s="567" t="s">
+        <v>1653</v>
+      </c>
+      <c r="L254" s="569"/>
+      <c r="M254" s="569"/>
+      <c r="N254" s="428"/>
+    </row>
+    <row r="255" spans="2:17">
+      <c r="D255" s="4"/>
+      <c r="E255" s="399"/>
+      <c r="F255" s="399"/>
+      <c r="G255" s="399"/>
+      <c r="H255" s="398"/>
+      <c r="I255" s="398"/>
+      <c r="J255" s="398"/>
+      <c r="K255" s="568" t="s">
+        <v>1654</v>
+      </c>
+      <c r="L255" s="570"/>
+      <c r="M255" s="570"/>
+      <c r="N255" s="428"/>
+      <c r="O255" s="398"/>
+    </row>
+    <row r="256" spans="2:17">
+      <c r="D256" s="4"/>
+      <c r="E256" s="399"/>
+      <c r="F256" s="399"/>
+      <c r="G256" s="399"/>
+      <c r="H256" s="398"/>
+      <c r="I256" s="398"/>
+      <c r="J256" s="398"/>
+      <c r="K256" s="571" t="s">
+        <v>1655</v>
+      </c>
+      <c r="L256" s="572"/>
+      <c r="M256" s="572"/>
+      <c r="N256" t="s">
+        <v>1669</v>
+      </c>
+      <c r="O256" s="398"/>
+    </row>
+    <row r="257" spans="4:15" ht="15.75" thickBot="1">
+      <c r="D257" s="4"/>
+      <c r="E257" s="398"/>
+      <c r="F257" s="398"/>
+      <c r="G257" s="398"/>
+      <c r="H257" s="398"/>
+      <c r="I257" s="398"/>
+      <c r="J257" s="565"/>
+      <c r="K257" s="566" t="s">
+        <v>1663</v>
+      </c>
+      <c r="L257" t="s">
+        <v>1668</v>
+      </c>
+      <c r="O257" s="398"/>
+    </row>
+    <row r="258" spans="4:15">
+      <c r="D258" s="4"/>
+      <c r="E258" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F258" s="2"/>
+      <c r="G258" s="2"/>
+      <c r="H258" s="2"/>
+      <c r="I258" s="398"/>
+      <c r="J258" s="565" t="s">
+        <v>236</v>
+      </c>
+      <c r="K258" s="566"/>
+      <c r="O258" s="398"/>
+    </row>
+    <row r="259" spans="4:15">
+      <c r="E259" s="397" t="s">
+        <v>182</v>
+      </c>
+      <c r="F259" s="397" t="s">
+        <v>1612</v>
+      </c>
+      <c r="G259" s="397" t="s">
+        <v>325</v>
+      </c>
+      <c r="H259" s="397" t="s">
+        <v>795</v>
+      </c>
+      <c r="I259" s="115"/>
+      <c r="J259" s="566" t="s">
+        <v>1664</v>
+      </c>
+      <c r="K259" s="566"/>
+      <c r="O259" s="115"/>
+    </row>
+    <row r="260" spans="4:15">
+      <c r="D260" t="s">
+        <v>399</v>
+      </c>
+      <c r="E260" s="573"/>
+      <c r="F260" s="573"/>
+      <c r="G260" s="573"/>
+      <c r="H260" s="573"/>
+      <c r="J260" s="566"/>
+      <c r="K260" s="566" t="s">
+        <v>1665</v>
+      </c>
+      <c r="L260" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="261" spans="4:15">
+      <c r="D261" t="s">
+        <v>399</v>
+      </c>
+      <c r="E261" s="573"/>
+      <c r="F261" s="573"/>
+      <c r="G261" s="573"/>
+      <c r="H261" s="573"/>
+      <c r="J261" s="566" t="s">
+        <v>236</v>
+      </c>
+      <c r="K261" s="566"/>
+    </row>
+    <row r="262" spans="4:15">
+      <c r="E262" s="399"/>
+      <c r="F262" s="399"/>
+      <c r="G262" s="399"/>
+      <c r="H262" s="399"/>
+      <c r="J262" s="566" t="s">
+        <v>1666</v>
+      </c>
+      <c r="K262" s="566"/>
+    </row>
+    <row r="263" spans="4:15">
+      <c r="J263" s="566"/>
+      <c r="K263" s="566" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="264" spans="4:15">
+      <c r="J264" s="566" t="s">
+        <v>236</v>
+      </c>
+      <c r="K264" s="566"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="O246:P247"/>
+    <mergeCell ref="L246:L247"/>
+    <mergeCell ref="N253:N255"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1"/>
     <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="H246" r:id="rId3"/>
+    <hyperlink ref="F246" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -17535,18 +18034,18 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="461" t="s">
+      <c r="E6" s="460" t="s">
         <v>406</v>
       </c>
-      <c r="F6" s="399"/>
-      <c r="G6" s="398" t="s">
+      <c r="F6" s="405"/>
+      <c r="G6" s="404" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="398"/>
-      <c r="I6" s="398"/>
-      <c r="J6" s="398"/>
-      <c r="K6" s="398"/>
-      <c r="L6" s="399"/>
+      <c r="H6" s="404"/>
+      <c r="I6" s="404"/>
+      <c r="J6" s="404"/>
+      <c r="K6" s="404"/>
+      <c r="L6" s="405"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="28" t="s">
@@ -17556,7 +18055,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="458">
+      <c r="D7" s="468">
         <v>80</v>
       </c>
       <c r="E7" s="66"/>
@@ -17574,7 +18073,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="458"/>
+      <c r="D8" s="468"/>
       <c r="E8" s="58" t="s">
         <v>408</v>
       </c>
@@ -17609,7 +18108,7 @@
       <c r="B9" t="s">
         <v>407</v>
       </c>
-      <c r="D9" s="458"/>
+      <c r="D9" s="468"/>
       <c r="E9" s="232"/>
       <c r="F9" s="238"/>
       <c r="G9" s="232"/>
@@ -17633,7 +18132,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="458"/>
+      <c r="D10" s="468"/>
       <c r="E10" s="66"/>
       <c r="F10" s="237"/>
       <c r="G10" s="66"/>
@@ -17657,7 +18156,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="458"/>
+      <c r="D11" s="468"/>
       <c r="E11" s="58" t="s">
         <v>412</v>
       </c>
@@ -17686,7 +18185,7 @@
       <c r="B12" s="209" t="s">
         <v>416</v>
       </c>
-      <c r="D12" s="458"/>
+      <c r="D12" s="468"/>
       <c r="E12" s="232"/>
       <c r="F12" s="238"/>
       <c r="G12" s="232"/>
@@ -17704,7 +18203,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="458"/>
+      <c r="D13" s="468"/>
       <c r="E13" s="66"/>
       <c r="F13" s="237"/>
       <c r="G13" s="66"/>
@@ -17720,7 +18219,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="458"/>
+      <c r="D14" s="468"/>
       <c r="E14" s="58" t="s">
         <v>417</v>
       </c>
@@ -17744,7 +18243,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="458"/>
+      <c r="D15" s="468"/>
       <c r="E15" s="232"/>
       <c r="F15" s="238"/>
       <c r="G15" s="232"/>
@@ -17760,7 +18259,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="458"/>
+      <c r="D16" s="468"/>
       <c r="E16" s="66"/>
       <c r="F16" s="237"/>
       <c r="G16" s="59"/>
@@ -17776,7 +18275,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="458"/>
+      <c r="D17" s="468"/>
       <c r="E17" s="58" t="s">
         <v>421</v>
       </c>
@@ -17800,7 +18299,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="458"/>
+      <c r="D18" s="468"/>
       <c r="E18" s="232"/>
       <c r="F18" s="238"/>
       <c r="G18" s="321"/>
@@ -17817,20 +18316,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="462" t="s">
+      <c r="E19" s="461" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="463"/>
-      <c r="G19" s="462" t="s">
+      <c r="F19" s="462"/>
+      <c r="G19" s="461" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="463"/>
-      <c r="I19" s="462" t="s">
+      <c r="H19" s="462"/>
+      <c r="I19" s="461" t="s">
         <v>196</v>
       </c>
-      <c r="J19" s="464"/>
-      <c r="K19" s="464"/>
-      <c r="L19" s="463"/>
+      <c r="J19" s="463"/>
+      <c r="K19" s="463"/>
+      <c r="L19" s="462"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -17895,12 +18394,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="460"/>
-      <c r="H24" s="460"/>
-      <c r="I24" s="460"/>
-      <c r="J24" s="460"/>
-      <c r="K24" s="460"/>
-      <c r="L24" s="460"/>
+      <c r="G24" s="470"/>
+      <c r="H24" s="470"/>
+      <c r="I24" s="470"/>
+      <c r="J24" s="470"/>
+      <c r="K24" s="470"/>
+      <c r="L24" s="470"/>
       <c r="O24" s="40" t="s">
         <v>179</v>
       </c>
@@ -18273,11 +18772,11 @@
       <c r="G47" s="222" t="s">
         <v>883</v>
       </c>
-      <c r="H47" s="450" t="s">
+      <c r="H47" s="456" t="s">
         <v>1354</v>
       </c>
-      <c r="I47" s="459"/>
-      <c r="J47" s="451"/>
+      <c r="I47" s="469"/>
+      <c r="J47" s="457"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -18883,16 +19382,16 @@
         <v>1048</v>
       </c>
       <c r="F131" s="38"/>
-      <c r="G131" s="456" t="s">
+      <c r="G131" s="466" t="s">
         <v>1041</v>
       </c>
-      <c r="H131" s="456"/>
-      <c r="I131" s="456"/>
-      <c r="J131" s="456"/>
-      <c r="K131" s="456"/>
-      <c r="L131" s="456"/>
-      <c r="M131" s="456"/>
-      <c r="N131" s="456"/>
+      <c r="H131" s="466"/>
+      <c r="I131" s="466"/>
+      <c r="J131" s="466"/>
+      <c r="K131" s="466"/>
+      <c r="L131" s="466"/>
+      <c r="M131" s="466"/>
+      <c r="N131" s="466"/>
       <c r="O131" s="38"/>
     </row>
     <row r="132" spans="2:15">
@@ -19029,29 +19528,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="38"/>
-      <c r="G141" s="457"/>
-      <c r="H141" s="457"/>
-      <c r="I141" s="457"/>
-      <c r="J141" s="457"/>
-      <c r="K141" s="457"/>
-      <c r="L141" s="457"/>
-      <c r="M141" s="457"/>
-      <c r="N141" s="457"/>
-      <c r="O141" s="457"/>
+      <c r="G141" s="467"/>
+      <c r="H141" s="467"/>
+      <c r="I141" s="467"/>
+      <c r="J141" s="467"/>
+      <c r="K141" s="467"/>
+      <c r="L141" s="467"/>
+      <c r="M141" s="467"/>
+      <c r="N141" s="467"/>
+      <c r="O141" s="467"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="457"/>
-      <c r="H142" s="457"/>
-      <c r="I142" s="457"/>
-      <c r="J142" s="457"/>
-      <c r="K142" s="457"/>
-      <c r="L142" s="457"/>
-      <c r="M142" s="457"/>
-      <c r="N142" s="457"/>
-      <c r="O142" s="457"/>
+      <c r="G142" s="467"/>
+      <c r="H142" s="467"/>
+      <c r="I142" s="467"/>
+      <c r="J142" s="467"/>
+      <c r="K142" s="467"/>
+      <c r="L142" s="467"/>
+      <c r="M142" s="467"/>
+      <c r="N142" s="467"/>
+      <c r="O142" s="467"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -19095,7 +19594,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="454" t="s">
+      <c r="D158" s="464" t="s">
         <v>1320</v>
       </c>
       <c r="E158" s="66"/>
@@ -19108,7 +19607,7 @@
       <c r="L158" s="237"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="455"/>
+      <c r="D159" s="465"/>
       <c r="E159" s="313" t="s">
         <v>1318</v>
       </c>
@@ -19130,7 +19629,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="455"/>
+      <c r="D160" s="465"/>
       <c r="E160" s="232"/>
       <c r="F160" s="238"/>
       <c r="G160" s="232"/>
@@ -19141,7 +19640,7 @@
       <c r="L160" s="238"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="455"/>
+      <c r="D161" s="465"/>
       <c r="E161" s="315"/>
       <c r="F161" s="316"/>
       <c r="G161" s="315"/>
@@ -19152,7 +19651,7 @@
       <c r="L161" s="316"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="455"/>
+      <c r="D162" s="465"/>
       <c r="E162" s="317"/>
       <c r="F162" s="318"/>
       <c r="G162" s="317"/>
@@ -19166,7 +19665,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="455"/>
+      <c r="D163" s="465"/>
       <c r="E163" s="319"/>
       <c r="F163" s="320"/>
       <c r="G163" s="319"/>
@@ -19177,7 +19676,7 @@
       <c r="L163" s="320"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="455"/>
+      <c r="D164" s="465"/>
       <c r="E164" s="66"/>
       <c r="F164" s="237"/>
       <c r="G164" s="66"/>
@@ -19188,7 +19687,7 @@
       <c r="L164" s="237"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="455"/>
+      <c r="D165" s="465"/>
       <c r="E165" s="58"/>
       <c r="F165" s="312"/>
       <c r="G165" s="58"/>
@@ -19202,7 +19701,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="455"/>
+      <c r="D166" s="465"/>
       <c r="E166" s="232"/>
       <c r="F166" s="238"/>
       <c r="G166" s="232"/>
@@ -19213,7 +19712,7 @@
       <c r="L166" s="238"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="455"/>
+      <c r="D167" s="465"/>
       <c r="E167" s="66"/>
       <c r="F167" s="237"/>
       <c r="G167" s="59"/>
@@ -19224,7 +19723,7 @@
       <c r="L167" s="312"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="455"/>
+      <c r="D168" s="465"/>
       <c r="E168" s="58"/>
       <c r="F168" s="312"/>
       <c r="G168" s="59"/>
@@ -19238,7 +19737,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="455"/>
+      <c r="D169" s="465"/>
       <c r="E169" s="232"/>
       <c r="F169" s="238"/>
       <c r="G169" s="321"/>
@@ -19418,17 +19917,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -19673,13 +20172,13 @@
       <c r="C20" s="116">
         <v>43908</v>
       </c>
-      <c r="D20" s="465" t="s">
+      <c r="D20" s="471" t="s">
         <v>456</v>
       </c>
-      <c r="E20" s="465"/>
-      <c r="F20" s="465"/>
-      <c r="G20" s="465"/>
-      <c r="H20" s="465"/>
+      <c r="E20" s="471"/>
+      <c r="F20" s="471"/>
+      <c r="G20" s="471"/>
+      <c r="H20" s="471"/>
       <c r="I20" s="38" t="s">
         <v>457</v>
       </c>
@@ -19690,37 +20189,37 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="466">
+      <c r="C21" s="482">
         <v>43909</v>
       </c>
-      <c r="D21" s="465"/>
-      <c r="E21" s="465"/>
-      <c r="F21" s="465"/>
-      <c r="G21" s="465"/>
-      <c r="H21" s="465"/>
+      <c r="D21" s="471"/>
+      <c r="E21" s="471"/>
+      <c r="F21" s="471"/>
+      <c r="G21" s="471"/>
+      <c r="H21" s="471"/>
       <c r="I21" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="J21" s="465"/>
-      <c r="K21" s="465"/>
-      <c r="L21" s="465" t="s">
+      <c r="J21" s="471"/>
+      <c r="K21" s="471"/>
+      <c r="L21" s="471" t="s">
         <v>459</v>
       </c>
-      <c r="M21" s="465"/>
-      <c r="N21" s="465"/>
+      <c r="M21" s="471"/>
+      <c r="N21" s="471"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="466"/>
-      <c r="D22" s="465"/>
-      <c r="E22" s="465"/>
-      <c r="F22" s="465"/>
-      <c r="G22" s="465"/>
-      <c r="H22" s="465"/>
-      <c r="I22" s="405" t="s">
+      <c r="C22" s="482"/>
+      <c r="D22" s="471"/>
+      <c r="E22" s="471"/>
+      <c r="F22" s="471"/>
+      <c r="G22" s="471"/>
+      <c r="H22" s="471"/>
+      <c r="I22" s="411" t="s">
         <v>460</v>
       </c>
-      <c r="J22" s="465"/>
-      <c r="K22" s="465"/>
+      <c r="J22" s="471"/>
+      <c r="K22" s="471"/>
       <c r="L22" s="117" t="s">
         <v>461</v>
       </c>
@@ -19728,31 +20227,31 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="466"/>
-      <c r="D23" s="465"/>
-      <c r="E23" s="465"/>
-      <c r="F23" s="465"/>
-      <c r="G23" s="465"/>
-      <c r="H23" s="465"/>
-      <c r="I23" s="405"/>
-      <c r="J23" s="465"/>
-      <c r="K23" s="465"/>
-      <c r="L23" s="465" t="s">
+      <c r="C23" s="482"/>
+      <c r="D23" s="471"/>
+      <c r="E23" s="471"/>
+      <c r="F23" s="471"/>
+      <c r="G23" s="471"/>
+      <c r="H23" s="471"/>
+      <c r="I23" s="411"/>
+      <c r="J23" s="471"/>
+      <c r="K23" s="471"/>
+      <c r="L23" s="471" t="s">
         <v>462</v>
       </c>
-      <c r="M23" s="465"/>
-      <c r="N23" s="465"/>
+      <c r="M23" s="471"/>
+      <c r="N23" s="471"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="466"/>
-      <c r="D24" s="465"/>
-      <c r="E24" s="465"/>
-      <c r="F24" s="465"/>
-      <c r="G24" s="465"/>
-      <c r="H24" s="465"/>
-      <c r="I24" s="405"/>
-      <c r="J24" s="465"/>
-      <c r="K24" s="465"/>
+      <c r="C24" s="482"/>
+      <c r="D24" s="471"/>
+      <c r="E24" s="471"/>
+      <c r="F24" s="471"/>
+      <c r="G24" s="471"/>
+      <c r="H24" s="471"/>
+      <c r="I24" s="411"/>
+      <c r="J24" s="471"/>
+      <c r="K24" s="471"/>
       <c r="L24" s="118" t="s">
         <v>460</v>
       </c>
@@ -19763,13 +20262,13 @@
       <c r="C25" s="116">
         <v>43910</v>
       </c>
-      <c r="D25" s="465" t="s">
+      <c r="D25" s="471" t="s">
         <v>463</v>
       </c>
-      <c r="E25" s="465"/>
-      <c r="F25" s="465"/>
-      <c r="G25" s="465"/>
-      <c r="H25" s="465"/>
+      <c r="E25" s="471"/>
+      <c r="F25" s="471"/>
+      <c r="G25" s="471"/>
+      <c r="H25" s="471"/>
       <c r="I25" s="38" t="s">
         <v>464</v>
       </c>
@@ -19783,16 +20282,16 @@
       <c r="C26" s="116">
         <v>43911</v>
       </c>
-      <c r="D26" s="467"/>
-      <c r="E26" s="468"/>
-      <c r="F26" s="468"/>
-      <c r="G26" s="468"/>
-      <c r="H26" s="469"/>
-      <c r="I26" s="474" t="s">
+      <c r="D26" s="472"/>
+      <c r="E26" s="473"/>
+      <c r="F26" s="473"/>
+      <c r="G26" s="473"/>
+      <c r="H26" s="474"/>
+      <c r="I26" s="479" t="s">
         <v>460</v>
       </c>
-      <c r="J26" s="467"/>
-      <c r="K26" s="469"/>
+      <c r="J26" s="472"/>
+      <c r="K26" s="474"/>
       <c r="L26" s="117" t="s">
         <v>461</v>
       </c>
@@ -19801,30 +20300,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
-      <c r="D27" s="470"/>
-      <c r="E27" s="460"/>
-      <c r="F27" s="460"/>
-      <c r="G27" s="460"/>
-      <c r="H27" s="471"/>
-      <c r="I27" s="475"/>
-      <c r="J27" s="470"/>
-      <c r="K27" s="471"/>
-      <c r="L27" s="465" t="s">
+      <c r="D27" s="475"/>
+      <c r="E27" s="470"/>
+      <c r="F27" s="470"/>
+      <c r="G27" s="470"/>
+      <c r="H27" s="476"/>
+      <c r="I27" s="480"/>
+      <c r="J27" s="475"/>
+      <c r="K27" s="476"/>
+      <c r="L27" s="471" t="s">
         <v>465</v>
       </c>
-      <c r="M27" s="465"/>
-      <c r="N27" s="465"/>
+      <c r="M27" s="471"/>
+      <c r="N27" s="471"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
-      <c r="D28" s="470"/>
-      <c r="E28" s="460"/>
-      <c r="F28" s="460"/>
-      <c r="G28" s="460"/>
-      <c r="H28" s="471"/>
-      <c r="I28" s="475"/>
-      <c r="J28" s="470"/>
-      <c r="K28" s="471"/>
+      <c r="D28" s="475"/>
+      <c r="E28" s="470"/>
+      <c r="F28" s="470"/>
+      <c r="G28" s="470"/>
+      <c r="H28" s="476"/>
+      <c r="I28" s="480"/>
+      <c r="J28" s="475"/>
+      <c r="K28" s="476"/>
       <c r="L28" s="118" t="s">
         <v>460</v>
       </c>
@@ -19833,14 +20332,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
-      <c r="D29" s="472"/>
-      <c r="E29" s="452"/>
-      <c r="F29" s="452"/>
-      <c r="G29" s="452"/>
-      <c r="H29" s="473"/>
-      <c r="I29" s="476"/>
-      <c r="J29" s="472"/>
-      <c r="K29" s="473"/>
+      <c r="D29" s="477"/>
+      <c r="E29" s="458"/>
+      <c r="F29" s="458"/>
+      <c r="G29" s="458"/>
+      <c r="H29" s="478"/>
+      <c r="I29" s="481"/>
+      <c r="J29" s="477"/>
+      <c r="K29" s="478"/>
       <c r="L29" s="119" t="s">
         <v>466</v>
       </c>
@@ -19888,13 +20387,13 @@
       <c r="C33" s="116">
         <v>43908</v>
       </c>
-      <c r="D33" s="465" t="s">
+      <c r="D33" s="471" t="s">
         <v>456</v>
       </c>
-      <c r="E33" s="465"/>
-      <c r="F33" s="465"/>
-      <c r="G33" s="465"/>
-      <c r="H33" s="465"/>
+      <c r="E33" s="471"/>
+      <c r="F33" s="471"/>
+      <c r="G33" s="471"/>
+      <c r="H33" s="471"/>
       <c r="I33" s="38" t="s">
         <v>457</v>
       </c>
@@ -19905,33 +20404,33 @@
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="466">
+      <c r="C34" s="482">
         <v>43909</v>
       </c>
-      <c r="D34" s="465"/>
-      <c r="E34" s="465"/>
-      <c r="F34" s="465"/>
-      <c r="G34" s="465"/>
-      <c r="H34" s="465"/>
-      <c r="I34" s="477"/>
-      <c r="J34" s="465"/>
-      <c r="K34" s="465"/>
-      <c r="L34" s="465" t="s">
+      <c r="D34" s="471"/>
+      <c r="E34" s="471"/>
+      <c r="F34" s="471"/>
+      <c r="G34" s="471"/>
+      <c r="H34" s="471"/>
+      <c r="I34" s="483"/>
+      <c r="J34" s="471"/>
+      <c r="K34" s="471"/>
+      <c r="L34" s="471" t="s">
         <v>459</v>
       </c>
-      <c r="M34" s="465"/>
-      <c r="N34" s="465"/>
+      <c r="M34" s="471"/>
+      <c r="N34" s="471"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="466"/>
-      <c r="D35" s="465"/>
-      <c r="E35" s="465"/>
-      <c r="F35" s="465"/>
-      <c r="G35" s="465"/>
-      <c r="H35" s="465"/>
-      <c r="I35" s="478"/>
-      <c r="J35" s="465"/>
-      <c r="K35" s="465"/>
+      <c r="C35" s="482"/>
+      <c r="D35" s="471"/>
+      <c r="E35" s="471"/>
+      <c r="F35" s="471"/>
+      <c r="G35" s="471"/>
+      <c r="H35" s="471"/>
+      <c r="I35" s="484"/>
+      <c r="J35" s="471"/>
+      <c r="K35" s="471"/>
       <c r="L35" s="117" t="s">
         <v>461</v>
       </c>
@@ -19939,31 +20438,31 @@
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="466"/>
-      <c r="D36" s="465"/>
-      <c r="E36" s="465"/>
-      <c r="F36" s="465"/>
-      <c r="G36" s="465"/>
-      <c r="H36" s="465"/>
-      <c r="I36" s="478"/>
-      <c r="J36" s="465"/>
-      <c r="K36" s="465"/>
-      <c r="L36" s="465" t="s">
+      <c r="C36" s="482"/>
+      <c r="D36" s="471"/>
+      <c r="E36" s="471"/>
+      <c r="F36" s="471"/>
+      <c r="G36" s="471"/>
+      <c r="H36" s="471"/>
+      <c r="I36" s="484"/>
+      <c r="J36" s="471"/>
+      <c r="K36" s="471"/>
+      <c r="L36" s="471" t="s">
         <v>462</v>
       </c>
-      <c r="M36" s="465"/>
-      <c r="N36" s="465"/>
+      <c r="M36" s="471"/>
+      <c r="N36" s="471"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="466"/>
-      <c r="D37" s="465"/>
-      <c r="E37" s="465"/>
-      <c r="F37" s="465"/>
-      <c r="G37" s="465"/>
-      <c r="H37" s="465"/>
-      <c r="I37" s="479"/>
-      <c r="J37" s="465"/>
-      <c r="K37" s="465"/>
+      <c r="C37" s="482"/>
+      <c r="D37" s="471"/>
+      <c r="E37" s="471"/>
+      <c r="F37" s="471"/>
+      <c r="G37" s="471"/>
+      <c r="H37" s="471"/>
+      <c r="I37" s="485"/>
+      <c r="J37" s="471"/>
+      <c r="K37" s="471"/>
       <c r="L37" s="118" t="s">
         <v>467</v>
       </c>
@@ -19974,13 +20473,13 @@
       <c r="C38" s="116">
         <v>43910</v>
       </c>
-      <c r="D38" s="465" t="s">
+      <c r="D38" s="471" t="s">
         <v>463</v>
       </c>
-      <c r="E38" s="465"/>
-      <c r="F38" s="465"/>
-      <c r="G38" s="465"/>
-      <c r="H38" s="465"/>
+      <c r="E38" s="471"/>
+      <c r="F38" s="471"/>
+      <c r="G38" s="471"/>
+      <c r="H38" s="471"/>
       <c r="I38" s="38" t="s">
         <v>464</v>
       </c>
@@ -19994,14 +20493,14 @@
       <c r="C39" s="116">
         <v>43911</v>
       </c>
-      <c r="D39" s="467"/>
-      <c r="E39" s="468"/>
-      <c r="F39" s="468"/>
-      <c r="G39" s="468"/>
-      <c r="H39" s="469"/>
-      <c r="I39" s="474"/>
-      <c r="J39" s="467"/>
-      <c r="K39" s="469"/>
+      <c r="D39" s="472"/>
+      <c r="E39" s="473"/>
+      <c r="F39" s="473"/>
+      <c r="G39" s="473"/>
+      <c r="H39" s="474"/>
+      <c r="I39" s="479"/>
+      <c r="J39" s="472"/>
+      <c r="K39" s="474"/>
       <c r="L39" s="117" t="s">
         <v>461</v>
       </c>
@@ -20010,30 +20509,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
-      <c r="D40" s="470"/>
-      <c r="E40" s="460"/>
-      <c r="F40" s="460"/>
-      <c r="G40" s="460"/>
-      <c r="H40" s="471"/>
-      <c r="I40" s="475"/>
-      <c r="J40" s="470"/>
-      <c r="K40" s="471"/>
-      <c r="L40" s="465" t="s">
+      <c r="D40" s="475"/>
+      <c r="E40" s="470"/>
+      <c r="F40" s="470"/>
+      <c r="G40" s="470"/>
+      <c r="H40" s="476"/>
+      <c r="I40" s="480"/>
+      <c r="J40" s="475"/>
+      <c r="K40" s="476"/>
+      <c r="L40" s="471" t="s">
         <v>465</v>
       </c>
-      <c r="M40" s="465"/>
-      <c r="N40" s="465"/>
+      <c r="M40" s="471"/>
+      <c r="N40" s="471"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
-      <c r="D41" s="470"/>
-      <c r="E41" s="460"/>
-      <c r="F41" s="460"/>
-      <c r="G41" s="460"/>
-      <c r="H41" s="471"/>
-      <c r="I41" s="476"/>
-      <c r="J41" s="470"/>
-      <c r="K41" s="471"/>
+      <c r="D41" s="475"/>
+      <c r="E41" s="470"/>
+      <c r="F41" s="470"/>
+      <c r="G41" s="470"/>
+      <c r="H41" s="476"/>
+      <c r="I41" s="481"/>
+      <c r="J41" s="475"/>
+      <c r="K41" s="476"/>
       <c r="L41" s="118" t="s">
         <v>467</v>
       </c>
@@ -20042,16 +20541,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
-      <c r="D42" s="472"/>
-      <c r="E42" s="452"/>
-      <c r="F42" s="452"/>
-      <c r="G42" s="452"/>
-      <c r="H42" s="473"/>
+      <c r="D42" s="477"/>
+      <c r="E42" s="458"/>
+      <c r="F42" s="458"/>
+      <c r="G42" s="458"/>
+      <c r="H42" s="478"/>
       <c r="I42" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="J42" s="472"/>
-      <c r="K42" s="473"/>
+      <c r="J42" s="477"/>
+      <c r="K42" s="478"/>
       <c r="L42" s="119" t="s">
         <v>466</v>
       </c>
@@ -20363,17 +20862,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -20381,12 +20875,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20408,29 +20907,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="490" t="s">
+      <c r="B2" s="505" t="s">
         <v>1076</v>
       </c>
-      <c r="C2" s="490"/>
-      <c r="D2" s="490"/>
-      <c r="E2" s="490"/>
-      <c r="F2" s="490"/>
-      <c r="G2" s="490"/>
-      <c r="H2" s="490"/>
-      <c r="I2" s="490"/>
-      <c r="J2" s="490"/>
-      <c r="K2" s="490"/>
-      <c r="L2" s="490"/>
-      <c r="M2" s="490"/>
-      <c r="N2" s="490"/>
-      <c r="O2" s="490"/>
-      <c r="P2" s="490"/>
-      <c r="Q2" s="490"/>
-      <c r="R2" s="490"/>
-      <c r="S2" s="490"/>
-      <c r="T2" s="490"/>
-      <c r="U2" s="490"/>
-      <c r="V2" s="490"/>
+      <c r="C2" s="505"/>
+      <c r="D2" s="505"/>
+      <c r="E2" s="505"/>
+      <c r="F2" s="505"/>
+      <c r="G2" s="505"/>
+      <c r="H2" s="505"/>
+      <c r="I2" s="505"/>
+      <c r="J2" s="505"/>
+      <c r="K2" s="505"/>
+      <c r="L2" s="505"/>
+      <c r="M2" s="505"/>
+      <c r="N2" s="505"/>
+      <c r="O2" s="505"/>
+      <c r="P2" s="505"/>
+      <c r="Q2" s="505"/>
+      <c r="R2" s="505"/>
+      <c r="S2" s="505"/>
+      <c r="T2" s="505"/>
+      <c r="U2" s="505"/>
+      <c r="V2" s="505"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -20463,22 +20962,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="493" t="s">
+      <c r="G5" s="486" t="s">
         <v>518</v>
       </c>
-      <c r="H5" s="493"/>
-      <c r="I5" s="493" t="s">
+      <c r="H5" s="486"/>
+      <c r="I5" s="486" t="s">
         <v>519</v>
       </c>
-      <c r="J5" s="493"/>
-      <c r="K5" s="493"/>
-      <c r="L5" s="493"/>
-      <c r="M5" s="493"/>
-      <c r="N5" s="493"/>
-      <c r="O5" s="493" t="s">
+      <c r="J5" s="486"/>
+      <c r="K5" s="486"/>
+      <c r="L5" s="486"/>
+      <c r="M5" s="486"/>
+      <c r="N5" s="486"/>
+      <c r="O5" s="486" t="s">
         <v>520</v>
       </c>
-      <c r="P5" s="493"/>
+      <c r="P5" s="486"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -20490,7 +20989,7 @@
       <c r="D6" s="135"/>
       <c r="E6" s="136"/>
       <c r="F6" s="138"/>
-      <c r="G6" s="498" t="s">
+      <c r="G6" s="487" t="s">
         <v>521</v>
       </c>
       <c r="H6" s="111"/>
@@ -20519,26 +21018,26 @@
       </c>
       <c r="E7" s="138"/>
       <c r="F7" s="138"/>
-      <c r="G7" s="407"/>
-      <c r="H7" s="499" t="s">
+      <c r="G7" s="413"/>
+      <c r="H7" s="488" t="s">
         <v>523</v>
       </c>
-      <c r="I7" s="502" t="s">
+      <c r="I7" s="491" t="s">
         <v>524</v>
       </c>
-      <c r="J7" s="503"/>
-      <c r="K7" s="504" t="s">
+      <c r="J7" s="492"/>
+      <c r="K7" s="493" t="s">
         <v>525</v>
       </c>
-      <c r="L7" s="505"/>
-      <c r="M7" s="502" t="s">
+      <c r="L7" s="494"/>
+      <c r="M7" s="491" t="s">
         <v>526</v>
       </c>
-      <c r="N7" s="503"/>
-      <c r="O7" s="510" t="s">
+      <c r="N7" s="492"/>
+      <c r="O7" s="499" t="s">
         <v>527</v>
       </c>
-      <c r="P7" s="511"/>
+      <c r="P7" s="500"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -20550,16 +21049,16 @@
       <c r="D8" s="139"/>
       <c r="E8" s="140"/>
       <c r="F8" s="138"/>
-      <c r="G8" s="407"/>
-      <c r="H8" s="500"/>
-      <c r="I8" s="402"/>
-      <c r="J8" s="404"/>
-      <c r="K8" s="506"/>
-      <c r="L8" s="507"/>
-      <c r="M8" s="402"/>
-      <c r="N8" s="404"/>
-      <c r="O8" s="512"/>
-      <c r="P8" s="513"/>
+      <c r="G8" s="413"/>
+      <c r="H8" s="489"/>
+      <c r="I8" s="408"/>
+      <c r="J8" s="410"/>
+      <c r="K8" s="495"/>
+      <c r="L8" s="496"/>
+      <c r="M8" s="408"/>
+      <c r="N8" s="410"/>
+      <c r="O8" s="501"/>
+      <c r="P8" s="502"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="38" t="s">
         <v>182</v>
@@ -20577,16 +21076,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="407"/>
-      <c r="H9" s="500"/>
-      <c r="I9" s="402"/>
-      <c r="J9" s="404"/>
-      <c r="K9" s="506"/>
-      <c r="L9" s="507"/>
-      <c r="M9" s="402"/>
-      <c r="N9" s="404"/>
-      <c r="O9" s="512"/>
-      <c r="P9" s="513"/>
+      <c r="G9" s="413"/>
+      <c r="H9" s="489"/>
+      <c r="I9" s="408"/>
+      <c r="J9" s="410"/>
+      <c r="K9" s="495"/>
+      <c r="L9" s="496"/>
+      <c r="M9" s="408"/>
+      <c r="N9" s="410"/>
+      <c r="O9" s="501"/>
+      <c r="P9" s="502"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -20606,16 +21105,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="407"/>
-      <c r="H10" s="500"/>
-      <c r="I10" s="402"/>
-      <c r="J10" s="404"/>
-      <c r="K10" s="506"/>
-      <c r="L10" s="507"/>
-      <c r="M10" s="402"/>
-      <c r="N10" s="404"/>
-      <c r="O10" s="512"/>
-      <c r="P10" s="513"/>
+      <c r="G10" s="413"/>
+      <c r="H10" s="489"/>
+      <c r="I10" s="408"/>
+      <c r="J10" s="410"/>
+      <c r="K10" s="495"/>
+      <c r="L10" s="496"/>
+      <c r="M10" s="408"/>
+      <c r="N10" s="410"/>
+      <c r="O10" s="501"/>
+      <c r="P10" s="502"/>
       <c r="Q10" s="5" t="s">
         <v>187</v>
       </c>
@@ -20631,16 +21130,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="407"/>
-      <c r="H11" s="500"/>
-      <c r="I11" s="402"/>
-      <c r="J11" s="404"/>
-      <c r="K11" s="506"/>
-      <c r="L11" s="507"/>
-      <c r="M11" s="402"/>
-      <c r="N11" s="404"/>
-      <c r="O11" s="512"/>
-      <c r="P11" s="513"/>
+      <c r="G11" s="413"/>
+      <c r="H11" s="489"/>
+      <c r="I11" s="408"/>
+      <c r="J11" s="410"/>
+      <c r="K11" s="495"/>
+      <c r="L11" s="496"/>
+      <c r="M11" s="408"/>
+      <c r="N11" s="410"/>
+      <c r="O11" s="501"/>
+      <c r="P11" s="502"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -20658,16 +21157,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="407"/>
-      <c r="H12" s="500"/>
-      <c r="I12" s="402"/>
-      <c r="J12" s="404"/>
-      <c r="K12" s="506"/>
-      <c r="L12" s="507"/>
-      <c r="M12" s="402"/>
-      <c r="N12" s="404"/>
-      <c r="O12" s="512"/>
-      <c r="P12" s="513"/>
+      <c r="G12" s="413"/>
+      <c r="H12" s="489"/>
+      <c r="I12" s="408"/>
+      <c r="J12" s="410"/>
+      <c r="K12" s="495"/>
+      <c r="L12" s="496"/>
+      <c r="M12" s="408"/>
+      <c r="N12" s="410"/>
+      <c r="O12" s="501"/>
+      <c r="P12" s="502"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -20681,16 +21180,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="407"/>
-      <c r="H13" s="500"/>
-      <c r="I13" s="402"/>
-      <c r="J13" s="404"/>
-      <c r="K13" s="506"/>
-      <c r="L13" s="507"/>
-      <c r="M13" s="402"/>
-      <c r="N13" s="404"/>
-      <c r="O13" s="512"/>
-      <c r="P13" s="513"/>
+      <c r="G13" s="413"/>
+      <c r="H13" s="489"/>
+      <c r="I13" s="408"/>
+      <c r="J13" s="410"/>
+      <c r="K13" s="495"/>
+      <c r="L13" s="496"/>
+      <c r="M13" s="408"/>
+      <c r="N13" s="410"/>
+      <c r="O13" s="501"/>
+      <c r="P13" s="502"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -20702,16 +21201,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="407"/>
-      <c r="H14" s="500"/>
-      <c r="I14" s="402"/>
-      <c r="J14" s="404"/>
-      <c r="K14" s="506"/>
-      <c r="L14" s="507"/>
-      <c r="M14" s="402"/>
-      <c r="N14" s="404"/>
-      <c r="O14" s="512"/>
-      <c r="P14" s="513"/>
+      <c r="G14" s="413"/>
+      <c r="H14" s="489"/>
+      <c r="I14" s="408"/>
+      <c r="J14" s="410"/>
+      <c r="K14" s="495"/>
+      <c r="L14" s="496"/>
+      <c r="M14" s="408"/>
+      <c r="N14" s="410"/>
+      <c r="O14" s="501"/>
+      <c r="P14" s="502"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -20725,16 +21224,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="407"/>
-      <c r="H15" s="500"/>
-      <c r="I15" s="402"/>
-      <c r="J15" s="404"/>
-      <c r="K15" s="506"/>
-      <c r="L15" s="507"/>
-      <c r="M15" s="402"/>
-      <c r="N15" s="404"/>
-      <c r="O15" s="512"/>
-      <c r="P15" s="513"/>
+      <c r="G15" s="413"/>
+      <c r="H15" s="489"/>
+      <c r="I15" s="408"/>
+      <c r="J15" s="410"/>
+      <c r="K15" s="495"/>
+      <c r="L15" s="496"/>
+      <c r="M15" s="408"/>
+      <c r="N15" s="410"/>
+      <c r="O15" s="501"/>
+      <c r="P15" s="502"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -20746,16 +21245,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="407"/>
-      <c r="H16" s="500"/>
-      <c r="I16" s="402"/>
-      <c r="J16" s="404"/>
-      <c r="K16" s="506"/>
-      <c r="L16" s="507"/>
-      <c r="M16" s="402"/>
-      <c r="N16" s="404"/>
-      <c r="O16" s="512"/>
-      <c r="P16" s="513"/>
+      <c r="G16" s="413"/>
+      <c r="H16" s="489"/>
+      <c r="I16" s="408"/>
+      <c r="J16" s="410"/>
+      <c r="K16" s="495"/>
+      <c r="L16" s="496"/>
+      <c r="M16" s="408"/>
+      <c r="N16" s="410"/>
+      <c r="O16" s="501"/>
+      <c r="P16" s="502"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -20767,16 +21266,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="407"/>
-      <c r="H17" s="500"/>
-      <c r="I17" s="402"/>
-      <c r="J17" s="404"/>
-      <c r="K17" s="506"/>
-      <c r="L17" s="507"/>
-      <c r="M17" s="402"/>
-      <c r="N17" s="404"/>
-      <c r="O17" s="512"/>
-      <c r="P17" s="513"/>
+      <c r="G17" s="413"/>
+      <c r="H17" s="489"/>
+      <c r="I17" s="408"/>
+      <c r="J17" s="410"/>
+      <c r="K17" s="495"/>
+      <c r="L17" s="496"/>
+      <c r="M17" s="408"/>
+      <c r="N17" s="410"/>
+      <c r="O17" s="501"/>
+      <c r="P17" s="502"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -20788,16 +21287,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="407"/>
-      <c r="H18" s="500"/>
-      <c r="I18" s="402"/>
-      <c r="J18" s="404"/>
-      <c r="K18" s="506"/>
-      <c r="L18" s="507"/>
-      <c r="M18" s="402"/>
-      <c r="N18" s="404"/>
-      <c r="O18" s="512"/>
-      <c r="P18" s="513"/>
+      <c r="G18" s="413"/>
+      <c r="H18" s="489"/>
+      <c r="I18" s="408"/>
+      <c r="J18" s="410"/>
+      <c r="K18" s="495"/>
+      <c r="L18" s="496"/>
+      <c r="M18" s="408"/>
+      <c r="N18" s="410"/>
+      <c r="O18" s="501"/>
+      <c r="P18" s="502"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -20811,16 +21310,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="407"/>
-      <c r="H19" s="500"/>
-      <c r="I19" s="402"/>
-      <c r="J19" s="404"/>
-      <c r="K19" s="506"/>
-      <c r="L19" s="507"/>
-      <c r="M19" s="402"/>
-      <c r="N19" s="404"/>
-      <c r="O19" s="512"/>
-      <c r="P19" s="513"/>
+      <c r="G19" s="413"/>
+      <c r="H19" s="489"/>
+      <c r="I19" s="408"/>
+      <c r="J19" s="410"/>
+      <c r="K19" s="495"/>
+      <c r="L19" s="496"/>
+      <c r="M19" s="408"/>
+      <c r="N19" s="410"/>
+      <c r="O19" s="501"/>
+      <c r="P19" s="502"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -20832,16 +21331,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="408"/>
-      <c r="H20" s="501"/>
-      <c r="I20" s="423"/>
-      <c r="J20" s="425"/>
-      <c r="K20" s="508"/>
-      <c r="L20" s="509"/>
-      <c r="M20" s="423"/>
-      <c r="N20" s="425"/>
-      <c r="O20" s="514"/>
-      <c r="P20" s="515"/>
+      <c r="G20" s="414"/>
+      <c r="H20" s="490"/>
+      <c r="I20" s="429"/>
+      <c r="J20" s="431"/>
+      <c r="K20" s="497"/>
+      <c r="L20" s="498"/>
+      <c r="M20" s="429"/>
+      <c r="N20" s="431"/>
+      <c r="O20" s="503"/>
+      <c r="P20" s="504"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -20871,27 +21370,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="426" t="s">
+      <c r="D22" s="432" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="427"/>
+      <c r="E22" s="433"/>
       <c r="F22" s="265"/>
       <c r="G22" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="426" t="s">
+      <c r="H22" s="432" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="428"/>
-      <c r="J22" s="428"/>
-      <c r="K22" s="428"/>
-      <c r="L22" s="428"/>
-      <c r="M22" s="428"/>
-      <c r="N22" s="427"/>
-      <c r="O22" s="426" t="s">
+      <c r="I22" s="434"/>
+      <c r="J22" s="434"/>
+      <c r="K22" s="434"/>
+      <c r="L22" s="434"/>
+      <c r="M22" s="434"/>
+      <c r="N22" s="433"/>
+      <c r="O22" s="432" t="s">
         <v>528</v>
       </c>
-      <c r="P22" s="427"/>
+      <c r="P22" s="433"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -20922,59 +21421,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="490" t="s">
+      <c r="B25" s="505" t="s">
         <v>1075</v>
       </c>
-      <c r="C25" s="490"/>
-      <c r="D25" s="490"/>
-      <c r="E25" s="490"/>
-      <c r="F25" s="490"/>
-      <c r="G25" s="490"/>
-      <c r="H25" s="490"/>
-      <c r="I25" s="490"/>
-      <c r="J25" s="490"/>
-      <c r="K25" s="490"/>
-      <c r="L25" s="490"/>
-      <c r="M25" s="490"/>
-      <c r="N25" s="490"/>
-      <c r="O25" s="490"/>
-      <c r="P25" s="490"/>
-      <c r="Q25" s="490"/>
-      <c r="R25" s="490"/>
-      <c r="S25" s="490"/>
-      <c r="T25" s="490"/>
-      <c r="U25" s="490"/>
-      <c r="V25" s="490"/>
+      <c r="C25" s="505"/>
+      <c r="D25" s="505"/>
+      <c r="E25" s="505"/>
+      <c r="F25" s="505"/>
+      <c r="G25" s="505"/>
+      <c r="H25" s="505"/>
+      <c r="I25" s="505"/>
+      <c r="J25" s="505"/>
+      <c r="K25" s="505"/>
+      <c r="L25" s="505"/>
+      <c r="M25" s="505"/>
+      <c r="N25" s="505"/>
+      <c r="O25" s="505"/>
+      <c r="P25" s="505"/>
+      <c r="Q25" s="505"/>
+      <c r="R25" s="505"/>
+      <c r="S25" s="505"/>
+      <c r="T25" s="505"/>
+      <c r="U25" s="505"/>
+      <c r="V25" s="505"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="491" t="s">
+      <c r="C26" s="506" t="s">
         <v>570</v>
       </c>
-      <c r="D26" s="491"/>
-      <c r="E26" s="491"/>
-      <c r="F26" s="491"/>
-      <c r="G26" s="491"/>
-      <c r="H26" s="491"/>
-      <c r="I26" s="491"/>
-      <c r="J26" s="491"/>
-      <c r="K26" s="491"/>
-      <c r="L26" s="491"/>
-      <c r="M26" s="491"/>
+      <c r="D26" s="506"/>
+      <c r="E26" s="506"/>
+      <c r="F26" s="506"/>
+      <c r="G26" s="506"/>
+      <c r="H26" s="506"/>
+      <c r="I26" s="506"/>
+      <c r="J26" s="506"/>
+      <c r="K26" s="506"/>
+      <c r="L26" s="506"/>
+      <c r="M26" s="506"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="461" t="s">
+      <c r="E27" s="460" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="398"/>
-      <c r="G27" s="398"/>
-      <c r="H27" s="417"/>
-      <c r="I27" s="417"/>
-      <c r="J27" s="417"/>
-      <c r="K27" s="417"/>
-      <c r="L27" s="417"/>
-      <c r="M27" s="418"/>
+      <c r="F27" s="404"/>
+      <c r="G27" s="404"/>
+      <c r="H27" s="423"/>
+      <c r="I27" s="423"/>
+      <c r="J27" s="423"/>
+      <c r="K27" s="423"/>
+      <c r="L27" s="423"/>
+      <c r="M27" s="424"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -21007,11 +21506,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="492" t="s">
+      <c r="O29" s="507" t="s">
         <v>179</v>
       </c>
-      <c r="P29" s="492"/>
-      <c r="Q29" s="492"/>
+      <c r="P29" s="507"/>
+      <c r="Q29" s="507"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -21056,21 +21555,21 @@
         <v>190</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="487" t="s">
+      <c r="E32" s="511" t="s">
         <v>1079</v>
       </c>
-      <c r="F32" s="488"/>
-      <c r="G32" s="489"/>
-      <c r="H32" s="487" t="s">
+      <c r="F32" s="512"/>
+      <c r="G32" s="513"/>
+      <c r="H32" s="511" t="s">
         <v>1080</v>
       </c>
-      <c r="I32" s="488"/>
-      <c r="J32" s="489"/>
-      <c r="K32" s="487" t="s">
+      <c r="I32" s="512"/>
+      <c r="J32" s="513"/>
+      <c r="K32" s="511" t="s">
         <v>1081</v>
       </c>
-      <c r="L32" s="488"/>
-      <c r="M32" s="489"/>
+      <c r="L32" s="512"/>
+      <c r="M32" s="513"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -21087,15 +21586,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="487"/>
-      <c r="F33" s="488"/>
-      <c r="G33" s="489"/>
-      <c r="H33" s="487"/>
-      <c r="I33" s="488"/>
-      <c r="J33" s="489"/>
-      <c r="K33" s="487"/>
-      <c r="L33" s="488"/>
-      <c r="M33" s="489"/>
+      <c r="E33" s="511"/>
+      <c r="F33" s="512"/>
+      <c r="G33" s="513"/>
+      <c r="H33" s="511"/>
+      <c r="I33" s="512"/>
+      <c r="J33" s="513"/>
+      <c r="K33" s="511"/>
+      <c r="L33" s="512"/>
+      <c r="M33" s="513"/>
       <c r="N33" s="5" t="s">
         <v>187</v>
       </c>
@@ -21112,15 +21611,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="487"/>
-      <c r="F34" s="488"/>
-      <c r="G34" s="489"/>
-      <c r="H34" s="487"/>
-      <c r="I34" s="488"/>
-      <c r="J34" s="489"/>
-      <c r="K34" s="487"/>
-      <c r="L34" s="488"/>
-      <c r="M34" s="489"/>
+      <c r="E34" s="511"/>
+      <c r="F34" s="512"/>
+      <c r="G34" s="513"/>
+      <c r="H34" s="511"/>
+      <c r="I34" s="512"/>
+      <c r="J34" s="513"/>
+      <c r="K34" s="511"/>
+      <c r="L34" s="512"/>
+      <c r="M34" s="513"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -21131,15 +21630,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="487"/>
-      <c r="F35" s="488"/>
-      <c r="G35" s="489"/>
-      <c r="H35" s="487"/>
-      <c r="I35" s="488"/>
-      <c r="J35" s="489"/>
-      <c r="K35" s="487"/>
-      <c r="L35" s="488"/>
-      <c r="M35" s="489"/>
+      <c r="E35" s="511"/>
+      <c r="F35" s="512"/>
+      <c r="G35" s="513"/>
+      <c r="H35" s="511"/>
+      <c r="I35" s="512"/>
+      <c r="J35" s="513"/>
+      <c r="K35" s="511"/>
+      <c r="L35" s="512"/>
+      <c r="M35" s="513"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -21270,15 +21769,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="480"/>
-      <c r="F42" s="481"/>
-      <c r="G42" s="481"/>
-      <c r="H42" s="481"/>
-      <c r="I42" s="481"/>
-      <c r="J42" s="481"/>
-      <c r="K42" s="481"/>
-      <c r="L42" s="481"/>
-      <c r="M42" s="482"/>
+      <c r="E42" s="515"/>
+      <c r="F42" s="516"/>
+      <c r="G42" s="516"/>
+      <c r="H42" s="516"/>
+      <c r="I42" s="516"/>
+      <c r="J42" s="516"/>
+      <c r="K42" s="516"/>
+      <c r="L42" s="516"/>
+      <c r="M42" s="517"/>
       <c r="N42" s="40" t="s">
         <v>575</v>
       </c>
@@ -21297,83 +21796,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="426" t="s">
+      <c r="C44" s="432" t="s">
         <v>194</v>
       </c>
-      <c r="D44" s="427"/>
-      <c r="E44" s="426" t="s">
+      <c r="D44" s="433"/>
+      <c r="E44" s="432" t="s">
         <v>195</v>
       </c>
-      <c r="F44" s="428"/>
-      <c r="G44" s="427"/>
-      <c r="H44" s="426" t="s">
+      <c r="F44" s="434"/>
+      <c r="G44" s="433"/>
+      <c r="H44" s="432" t="s">
         <v>196</v>
       </c>
-      <c r="I44" s="428"/>
-      <c r="J44" s="428"/>
-      <c r="K44" s="428"/>
-      <c r="L44" s="428"/>
-      <c r="M44" s="427"/>
+      <c r="I44" s="434"/>
+      <c r="J44" s="434"/>
+      <c r="K44" s="434"/>
+      <c r="L44" s="434"/>
+      <c r="M44" s="433"/>
       <c r="Q44" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="490" t="s">
+      <c r="B47" s="505" t="s">
         <v>1077</v>
       </c>
-      <c r="C47" s="490"/>
-      <c r="D47" s="490"/>
-      <c r="E47" s="490"/>
-      <c r="F47" s="490"/>
-      <c r="G47" s="490"/>
-      <c r="H47" s="490"/>
-      <c r="I47" s="490"/>
-      <c r="J47" s="490"/>
-      <c r="K47" s="490"/>
-      <c r="L47" s="490"/>
-      <c r="M47" s="490"/>
-      <c r="N47" s="490"/>
-      <c r="O47" s="490"/>
-      <c r="P47" s="490"/>
-      <c r="Q47" s="490"/>
-      <c r="R47" s="490"/>
-      <c r="S47" s="490"/>
-      <c r="T47" s="490"/>
-      <c r="U47" s="490"/>
-      <c r="V47" s="490"/>
+      <c r="C47" s="505"/>
+      <c r="D47" s="505"/>
+      <c r="E47" s="505"/>
+      <c r="F47" s="505"/>
+      <c r="G47" s="505"/>
+      <c r="H47" s="505"/>
+      <c r="I47" s="505"/>
+      <c r="J47" s="505"/>
+      <c r="K47" s="505"/>
+      <c r="L47" s="505"/>
+      <c r="M47" s="505"/>
+      <c r="N47" s="505"/>
+      <c r="O47" s="505"/>
+      <c r="P47" s="505"/>
+      <c r="Q47" s="505"/>
+      <c r="R47" s="505"/>
+      <c r="S47" s="505"/>
+      <c r="T47" s="505"/>
+      <c r="U47" s="505"/>
+      <c r="V47" s="505"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="491" t="s">
+      <c r="C48" s="506" t="s">
         <v>570</v>
       </c>
-      <c r="D48" s="491"/>
-      <c r="E48" s="491"/>
-      <c r="F48" s="491"/>
-      <c r="G48" s="491"/>
-      <c r="H48" s="491"/>
-      <c r="I48" s="491"/>
-      <c r="J48" s="491"/>
-      <c r="K48" s="491"/>
-      <c r="L48" s="491"/>
-      <c r="M48" s="491"/>
+      <c r="D48" s="506"/>
+      <c r="E48" s="506"/>
+      <c r="F48" s="506"/>
+      <c r="G48" s="506"/>
+      <c r="H48" s="506"/>
+      <c r="I48" s="506"/>
+      <c r="J48" s="506"/>
+      <c r="K48" s="506"/>
+      <c r="L48" s="506"/>
+      <c r="M48" s="506"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="461" t="s">
+      <c r="E49" s="460" t="s">
         <v>178</v>
       </c>
-      <c r="F49" s="398"/>
-      <c r="G49" s="398"/>
-      <c r="H49" s="417"/>
-      <c r="I49" s="417"/>
-      <c r="J49" s="417"/>
-      <c r="K49" s="417"/>
-      <c r="L49" s="417"/>
-      <c r="M49" s="418"/>
+      <c r="F49" s="404"/>
+      <c r="G49" s="404"/>
+      <c r="H49" s="423"/>
+      <c r="I49" s="423"/>
+      <c r="J49" s="423"/>
+      <c r="K49" s="423"/>
+      <c r="L49" s="423"/>
+      <c r="M49" s="424"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -21391,16 +21890,16 @@
       </c>
       <c r="F50" s="122"/>
       <c r="G50" s="245"/>
-      <c r="H50" s="494" t="s">
+      <c r="H50" s="508" t="s">
         <v>1080</v>
       </c>
-      <c r="I50" s="495"/>
-      <c r="J50" s="496"/>
-      <c r="K50" s="494" t="s">
+      <c r="I50" s="509"/>
+      <c r="J50" s="510"/>
+      <c r="K50" s="508" t="s">
         <v>1081</v>
       </c>
-      <c r="L50" s="495"/>
-      <c r="M50" s="496"/>
+      <c r="L50" s="509"/>
+      <c r="M50" s="510"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -21414,20 +21913,20 @@
         <v>1095</v>
       </c>
       <c r="F51" s="286"/>
-      <c r="G51" s="497" t="s">
+      <c r="G51" s="514" t="s">
         <v>1103</v>
       </c>
-      <c r="H51" s="487"/>
-      <c r="I51" s="488"/>
-      <c r="J51" s="489"/>
-      <c r="K51" s="487"/>
-      <c r="L51" s="488"/>
-      <c r="M51" s="489"/>
-      <c r="O51" s="492" t="s">
+      <c r="H51" s="511"/>
+      <c r="I51" s="512"/>
+      <c r="J51" s="513"/>
+      <c r="K51" s="511"/>
+      <c r="L51" s="512"/>
+      <c r="M51" s="513"/>
+      <c r="O51" s="507" t="s">
         <v>179</v>
       </c>
-      <c r="P51" s="492"/>
-      <c r="Q51" s="492"/>
+      <c r="P51" s="507"/>
+      <c r="Q51" s="507"/>
       <c r="S51" s="273"/>
       <c r="T51" s="273"/>
       <c r="W51" s="40" t="s">
@@ -21441,13 +21940,13 @@
         <v>1096</v>
       </c>
       <c r="F52" s="287"/>
-      <c r="G52" s="497"/>
-      <c r="H52" s="487"/>
-      <c r="I52" s="488"/>
-      <c r="J52" s="489"/>
-      <c r="K52" s="487"/>
-      <c r="L52" s="488"/>
-      <c r="M52" s="489"/>
+      <c r="G52" s="514"/>
+      <c r="H52" s="511"/>
+      <c r="I52" s="512"/>
+      <c r="J52" s="513"/>
+      <c r="K52" s="511"/>
+      <c r="L52" s="512"/>
+      <c r="M52" s="513"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -21458,13 +21957,13 @@
         <v>1097</v>
       </c>
       <c r="F53" s="288"/>
-      <c r="G53" s="497"/>
-      <c r="H53" s="487"/>
-      <c r="I53" s="488"/>
-      <c r="J53" s="489"/>
-      <c r="K53" s="487"/>
-      <c r="L53" s="488"/>
-      <c r="M53" s="489"/>
+      <c r="G53" s="514"/>
+      <c r="H53" s="511"/>
+      <c r="I53" s="512"/>
+      <c r="J53" s="513"/>
+      <c r="K53" s="511"/>
+      <c r="L53" s="512"/>
+      <c r="M53" s="513"/>
       <c r="N53" s="5"/>
       <c r="O53" s="38" t="s">
         <v>182</v>
@@ -21503,7 +22002,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="274"/>
       <c r="F54" s="289"/>
-      <c r="G54" s="485" t="s">
+      <c r="G54" s="520" t="s">
         <v>1107</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -21550,11 +22049,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="483" t="s">
+      <c r="E55" s="518" t="s">
         <v>1108</v>
       </c>
-      <c r="F55" s="484"/>
-      <c r="G55" s="486"/>
+      <c r="F55" s="519"/>
+      <c r="G55" s="521"/>
       <c r="H55" s="141" t="s">
         <v>1099</v>
       </c>
@@ -21598,9 +22097,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="483"/>
-      <c r="F56" s="484"/>
-      <c r="G56" s="486"/>
+      <c r="E56" s="518"/>
+      <c r="F56" s="519"/>
+      <c r="G56" s="521"/>
       <c r="H56" s="141" t="s">
         <v>1100</v>
       </c>
@@ -21630,9 +22129,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="483"/>
-      <c r="F57" s="484"/>
-      <c r="G57" s="486"/>
+      <c r="E57" s="518"/>
+      <c r="F57" s="519"/>
+      <c r="G57" s="521"/>
       <c r="H57" s="4" t="s">
         <v>1112</v>
       </c>
@@ -21662,9 +22161,9 @@
         <v>192</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="483"/>
-      <c r="F58" s="484"/>
-      <c r="G58" s="486"/>
+      <c r="E58" s="518"/>
+      <c r="F58" s="519"/>
+      <c r="G58" s="521"/>
       <c r="H58" s="278" t="s">
         <v>1098</v>
       </c>
@@ -21689,9 +22188,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="483"/>
-      <c r="F59" s="484"/>
-      <c r="G59" s="486"/>
+      <c r="E59" s="518"/>
+      <c r="F59" s="519"/>
+      <c r="G59" s="521"/>
       <c r="H59" s="278" t="s">
         <v>549</v>
       </c>
@@ -21716,9 +22215,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="483"/>
-      <c r="F60" s="484"/>
-      <c r="G60" s="486"/>
+      <c r="E60" s="518"/>
+      <c r="F60" s="519"/>
+      <c r="G60" s="521"/>
       <c r="H60" s="280"/>
       <c r="I60" s="281" t="s">
         <v>1114</v>
@@ -21738,9 +22237,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="483"/>
-      <c r="F61" s="484"/>
-      <c r="G61" s="486"/>
+      <c r="E61" s="518"/>
+      <c r="F61" s="519"/>
+      <c r="G61" s="521"/>
       <c r="H61" s="280"/>
       <c r="I61" s="281" t="s">
         <v>1115</v>
@@ -21760,7 +22259,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="269"/>
       <c r="F62" s="285"/>
-      <c r="G62" s="486"/>
+      <c r="G62" s="521"/>
       <c r="H62" s="282"/>
       <c r="I62" s="284" t="s">
         <v>1116</v>
@@ -21802,15 +22301,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="480"/>
-      <c r="F64" s="481"/>
-      <c r="G64" s="481"/>
-      <c r="H64" s="481"/>
-      <c r="I64" s="481"/>
-      <c r="J64" s="481"/>
-      <c r="K64" s="481"/>
-      <c r="L64" s="481"/>
-      <c r="M64" s="482"/>
+      <c r="E64" s="515"/>
+      <c r="F64" s="516"/>
+      <c r="G64" s="516"/>
+      <c r="H64" s="516"/>
+      <c r="I64" s="516"/>
+      <c r="J64" s="516"/>
+      <c r="K64" s="516"/>
+      <c r="L64" s="516"/>
+      <c r="M64" s="517"/>
       <c r="N64" s="40" t="s">
         <v>575</v>
       </c>
@@ -21839,23 +22338,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="426" t="s">
+      <c r="C66" s="432" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="427"/>
-      <c r="E66" s="426" t="s">
+      <c r="D66" s="433"/>
+      <c r="E66" s="432" t="s">
         <v>195</v>
       </c>
-      <c r="F66" s="428"/>
-      <c r="G66" s="427"/>
-      <c r="H66" s="426" t="s">
+      <c r="F66" s="434"/>
+      <c r="G66" s="433"/>
+      <c r="H66" s="432" t="s">
         <v>196</v>
       </c>
-      <c r="I66" s="428"/>
-      <c r="J66" s="428"/>
-      <c r="K66" s="428"/>
-      <c r="L66" s="428"/>
-      <c r="M66" s="427"/>
+      <c r="I66" s="434"/>
+      <c r="J66" s="434"/>
+      <c r="K66" s="434"/>
+      <c r="L66" s="434"/>
+      <c r="M66" s="433"/>
       <c r="Q66" t="s">
         <v>1078</v>
       </c>
@@ -21876,23 +22375,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="465" t="s">
+      <c r="C68" s="471" t="s">
         <v>181</v>
       </c>
-      <c r="D68" s="465"/>
-      <c r="E68" s="465" t="s">
+      <c r="D68" s="471"/>
+      <c r="E68" s="471" t="s">
         <v>1364</v>
       </c>
-      <c r="F68" s="465"/>
-      <c r="G68" s="465"/>
-      <c r="H68" s="465" t="s">
+      <c r="F68" s="471"/>
+      <c r="G68" s="471"/>
+      <c r="H68" s="471" t="s">
         <v>1380</v>
       </c>
-      <c r="I68" s="465"/>
-      <c r="J68" s="465"/>
-      <c r="K68" s="465"/>
-      <c r="L68" s="465"/>
-      <c r="M68" s="465"/>
+      <c r="I68" s="471"/>
+      <c r="J68" s="471"/>
+      <c r="K68" s="471"/>
+      <c r="L68" s="471"/>
+      <c r="M68" s="471"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -22689,6 +23188,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -22705,30 +23228,6 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -22762,12 +23261,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="516" t="s">
+      <c r="B1" s="522" t="s">
         <v>538</v>
       </c>
-      <c r="C1" s="516"/>
-      <c r="D1" s="516"/>
-      <c r="E1" s="516"/>
+      <c r="C1" s="522"/>
+      <c r="D1" s="522"/>
+      <c r="E1" s="522"/>
       <c r="I1" s="40" t="s">
         <v>551</v>
       </c>
@@ -22884,12 +23383,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="460" t="s">
+      <c r="B8" s="470" t="s">
         <v>1402</v>
       </c>
-      <c r="C8" s="460"/>
-      <c r="D8" s="460"/>
-      <c r="E8" s="460"/>
+      <c r="C8" s="470"/>
+      <c r="D8" s="470"/>
+      <c r="E8" s="470"/>
       <c r="J8" s="32" t="s">
         <v>554</v>
       </c>
@@ -23062,32 +23561,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="491" t="s">
+      <c r="C2" s="506" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="491"/>
-      <c r="E2" s="491"/>
-      <c r="F2" s="491"/>
-      <c r="G2" s="491"/>
-      <c r="H2" s="491"/>
-      <c r="I2" s="491"/>
-      <c r="J2" s="491"/>
-      <c r="K2" s="491"/>
-      <c r="L2" s="491"/>
+      <c r="D2" s="506"/>
+      <c r="E2" s="506"/>
+      <c r="F2" s="506"/>
+      <c r="G2" s="506"/>
+      <c r="H2" s="506"/>
+      <c r="I2" s="506"/>
+      <c r="J2" s="506"/>
+      <c r="K2" s="506"/>
+      <c r="L2" s="506"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="461" t="s">
+      <c r="E3" s="460" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="398"/>
-      <c r="G3" s="417"/>
-      <c r="H3" s="417"/>
-      <c r="I3" s="417"/>
-      <c r="J3" s="417"/>
-      <c r="K3" s="417"/>
-      <c r="L3" s="418"/>
+      <c r="F3" s="404"/>
+      <c r="G3" s="423"/>
+      <c r="H3" s="423"/>
+      <c r="I3" s="423"/>
+      <c r="J3" s="423"/>
+      <c r="K3" s="423"/>
+      <c r="L3" s="424"/>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
@@ -23118,11 +23617,11 @@
         <v>589</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="492" t="s">
+      <c r="N5" s="507" t="s">
         <v>179</v>
       </c>
-      <c r="O5" s="492"/>
-      <c r="P5" s="492"/>
+      <c r="O5" s="507"/>
+      <c r="P5" s="507"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -23173,20 +23672,20 @@
         <v>190</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="487" t="s">
+      <c r="E8" s="511" t="s">
         <v>571</v>
       </c>
-      <c r="F8" s="489"/>
-      <c r="G8" s="487" t="s">
+      <c r="F8" s="513"/>
+      <c r="G8" s="511" t="s">
         <v>572</v>
       </c>
-      <c r="H8" s="488"/>
-      <c r="I8" s="489"/>
-      <c r="J8" s="487" t="s">
+      <c r="H8" s="512"/>
+      <c r="I8" s="513"/>
+      <c r="J8" s="511" t="s">
         <v>573</v>
       </c>
-      <c r="K8" s="488"/>
-      <c r="L8" s="489"/>
+      <c r="K8" s="512"/>
+      <c r="L8" s="513"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -23209,14 +23708,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="487"/>
-      <c r="F9" s="489"/>
-      <c r="G9" s="487"/>
-      <c r="H9" s="488"/>
-      <c r="I9" s="489"/>
-      <c r="J9" s="487"/>
-      <c r="K9" s="488"/>
-      <c r="L9" s="489"/>
+      <c r="E9" s="511"/>
+      <c r="F9" s="513"/>
+      <c r="G9" s="511"/>
+      <c r="H9" s="512"/>
+      <c r="I9" s="513"/>
+      <c r="J9" s="511"/>
+      <c r="K9" s="512"/>
+      <c r="L9" s="513"/>
       <c r="M9" s="5" t="s">
         <v>187</v>
       </c>
@@ -23236,14 +23735,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="487"/>
-      <c r="F10" s="489"/>
-      <c r="G10" s="487"/>
-      <c r="H10" s="488"/>
-      <c r="I10" s="489"/>
-      <c r="J10" s="487"/>
-      <c r="K10" s="488"/>
-      <c r="L10" s="489"/>
+      <c r="E10" s="511"/>
+      <c r="F10" s="513"/>
+      <c r="G10" s="511"/>
+      <c r="H10" s="512"/>
+      <c r="I10" s="513"/>
+      <c r="J10" s="511"/>
+      <c r="K10" s="512"/>
+      <c r="L10" s="513"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -23257,14 +23756,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="487"/>
-      <c r="F11" s="489"/>
-      <c r="G11" s="487"/>
-      <c r="H11" s="488"/>
-      <c r="I11" s="489"/>
-      <c r="J11" s="487"/>
-      <c r="K11" s="488"/>
-      <c r="L11" s="489"/>
+      <c r="E11" s="511"/>
+      <c r="F11" s="513"/>
+      <c r="G11" s="511"/>
+      <c r="H11" s="512"/>
+      <c r="I11" s="513"/>
+      <c r="J11" s="511"/>
+      <c r="K11" s="512"/>
+      <c r="L11" s="513"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -23367,16 +23866,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="480" t="s">
+      <c r="E17" s="515" t="s">
         <v>574</v>
       </c>
-      <c r="F17" s="481"/>
-      <c r="G17" s="481"/>
-      <c r="H17" s="481"/>
-      <c r="I17" s="481"/>
-      <c r="J17" s="481"/>
-      <c r="K17" s="481"/>
-      <c r="L17" s="482"/>
+      <c r="F17" s="516"/>
+      <c r="G17" s="516"/>
+      <c r="H17" s="516"/>
+      <c r="I17" s="516"/>
+      <c r="J17" s="516"/>
+      <c r="K17" s="516"/>
+      <c r="L17" s="517"/>
       <c r="M17" s="40" t="s">
         <v>575</v>
       </c>
@@ -23394,40 +23893,40 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="426" t="s">
+      <c r="C19" s="432" t="s">
         <v>194</v>
       </c>
-      <c r="D19" s="427"/>
-      <c r="E19" s="426" t="s">
+      <c r="D19" s="433"/>
+      <c r="E19" s="432" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="427"/>
-      <c r="G19" s="426" t="s">
+      <c r="F19" s="433"/>
+      <c r="G19" s="432" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="428"/>
-      <c r="I19" s="428"/>
-      <c r="J19" s="428"/>
-      <c r="K19" s="428"/>
-      <c r="L19" s="427"/>
+      <c r="H19" s="434"/>
+      <c r="I19" s="434"/>
+      <c r="J19" s="434"/>
+      <c r="K19" s="434"/>
+      <c r="L19" s="433"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="517" t="s">
+      <c r="E21" s="523" t="s">
         <v>1393</v>
       </c>
-      <c r="F21" s="518"/>
+      <c r="F21" s="524"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="E22" s="519"/>
-      <c r="F22" s="520"/>
+      <c r="E22" s="525"/>
+      <c r="F22" s="526"/>
       <c r="J22" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="E23" s="519"/>
-      <c r="F23" s="520"/>
+      <c r="E23" s="525"/>
+      <c r="F23" s="526"/>
       <c r="H23" t="s">
         <v>1414</v>
       </c>
@@ -23439,8 +23938,8 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="521"/>
-      <c r="F24" s="522"/>
+      <c r="E24" s="527"/>
+      <c r="F24" s="528"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -23895,22 +24394,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="493" t="s">
+      <c r="E3" s="486" t="s">
         <v>518</v>
       </c>
-      <c r="F3" s="493"/>
-      <c r="G3" s="493" t="s">
+      <c r="F3" s="486"/>
+      <c r="G3" s="486" t="s">
         <v>519</v>
       </c>
-      <c r="H3" s="493"/>
-      <c r="I3" s="493"/>
-      <c r="J3" s="493"/>
-      <c r="K3" s="493"/>
-      <c r="L3" s="493"/>
-      <c r="M3" s="493" t="s">
+      <c r="H3" s="486"/>
+      <c r="I3" s="486"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="486"/>
+      <c r="L3" s="486"/>
+      <c r="M3" s="486" t="s">
         <v>520</v>
       </c>
-      <c r="N3" s="493"/>
+      <c r="N3" s="486"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -23921,7 +24420,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="135"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="498" t="s">
+      <c r="E4" s="487" t="s">
         <v>521</v>
       </c>
       <c r="F4" s="131"/>
@@ -23949,22 +24448,22 @@
         <v>181</v>
       </c>
       <c r="D5" s="138"/>
-      <c r="E5" s="407"/>
-      <c r="F5" s="439" t="s">
+      <c r="E5" s="413"/>
+      <c r="F5" s="445" t="s">
         <v>617</v>
       </c>
-      <c r="G5" s="440"/>
-      <c r="H5" s="441"/>
-      <c r="I5" s="523" t="s">
+      <c r="G5" s="446"/>
+      <c r="H5" s="447"/>
+      <c r="I5" s="559" t="s">
         <v>618</v>
       </c>
-      <c r="J5" s="524"/>
-      <c r="K5" s="524"/>
-      <c r="L5" s="505"/>
-      <c r="M5" s="523" t="s">
+      <c r="J5" s="560"/>
+      <c r="K5" s="560"/>
+      <c r="L5" s="494"/>
+      <c r="M5" s="559" t="s">
         <v>619</v>
       </c>
-      <c r="N5" s="505"/>
+      <c r="N5" s="494"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -23975,16 +24474,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="139"/>
       <c r="D6" s="140"/>
-      <c r="E6" s="407"/>
-      <c r="F6" s="442"/>
-      <c r="G6" s="443"/>
-      <c r="H6" s="444"/>
-      <c r="I6" s="506"/>
-      <c r="J6" s="525"/>
-      <c r="K6" s="525"/>
-      <c r="L6" s="507"/>
-      <c r="M6" s="506"/>
-      <c r="N6" s="507"/>
+      <c r="E6" s="413"/>
+      <c r="F6" s="448"/>
+      <c r="G6" s="449"/>
+      <c r="H6" s="450"/>
+      <c r="I6" s="495"/>
+      <c r="J6" s="561"/>
+      <c r="K6" s="561"/>
+      <c r="L6" s="496"/>
+      <c r="M6" s="495"/>
+      <c r="N6" s="496"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>182</v>
@@ -24001,16 +24500,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="407"/>
-      <c r="F7" s="442"/>
-      <c r="G7" s="443"/>
-      <c r="H7" s="444"/>
-      <c r="I7" s="506"/>
-      <c r="J7" s="525"/>
-      <c r="K7" s="525"/>
-      <c r="L7" s="507"/>
-      <c r="M7" s="506"/>
-      <c r="N7" s="507"/>
+      <c r="E7" s="413"/>
+      <c r="F7" s="448"/>
+      <c r="G7" s="449"/>
+      <c r="H7" s="450"/>
+      <c r="I7" s="495"/>
+      <c r="J7" s="561"/>
+      <c r="K7" s="561"/>
+      <c r="L7" s="496"/>
+      <c r="M7" s="495"/>
+      <c r="N7" s="496"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -24029,16 +24528,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="407"/>
-      <c r="F8" s="442"/>
-      <c r="G8" s="443"/>
-      <c r="H8" s="444"/>
-      <c r="I8" s="506"/>
-      <c r="J8" s="525"/>
-      <c r="K8" s="525"/>
-      <c r="L8" s="507"/>
-      <c r="M8" s="506"/>
-      <c r="N8" s="507"/>
+      <c r="E8" s="413"/>
+      <c r="F8" s="448"/>
+      <c r="G8" s="449"/>
+      <c r="H8" s="450"/>
+      <c r="I8" s="495"/>
+      <c r="J8" s="561"/>
+      <c r="K8" s="561"/>
+      <c r="L8" s="496"/>
+      <c r="M8" s="495"/>
+      <c r="N8" s="496"/>
       <c r="O8" s="5" t="s">
         <v>187</v>
       </c>
@@ -24059,16 +24558,16 @@
         <v>190</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="407"/>
-      <c r="F9" s="442"/>
-      <c r="G9" s="443"/>
-      <c r="H9" s="444"/>
-      <c r="I9" s="506"/>
-      <c r="J9" s="525"/>
-      <c r="K9" s="525"/>
-      <c r="L9" s="507"/>
-      <c r="M9" s="506"/>
-      <c r="N9" s="507"/>
+      <c r="E9" s="413"/>
+      <c r="F9" s="448"/>
+      <c r="G9" s="449"/>
+      <c r="H9" s="450"/>
+      <c r="I9" s="495"/>
+      <c r="J9" s="561"/>
+      <c r="K9" s="561"/>
+      <c r="L9" s="496"/>
+      <c r="M9" s="495"/>
+      <c r="N9" s="496"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -24085,16 +24584,16 @@
         <v>537</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="407"/>
-      <c r="F10" s="442"/>
-      <c r="G10" s="443"/>
-      <c r="H10" s="444"/>
-      <c r="I10" s="506"/>
-      <c r="J10" s="525"/>
-      <c r="K10" s="525"/>
-      <c r="L10" s="507"/>
-      <c r="M10" s="506"/>
-      <c r="N10" s="507"/>
+      <c r="E10" s="413"/>
+      <c r="F10" s="448"/>
+      <c r="G10" s="449"/>
+      <c r="H10" s="450"/>
+      <c r="I10" s="495"/>
+      <c r="J10" s="561"/>
+      <c r="K10" s="561"/>
+      <c r="L10" s="496"/>
+      <c r="M10" s="495"/>
+      <c r="N10" s="496"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -24107,16 +24606,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="407"/>
-      <c r="F11" s="442"/>
-      <c r="G11" s="443"/>
-      <c r="H11" s="444"/>
-      <c r="I11" s="506"/>
-      <c r="J11" s="525"/>
-      <c r="K11" s="525"/>
-      <c r="L11" s="507"/>
-      <c r="M11" s="506"/>
-      <c r="N11" s="507"/>
+      <c r="E11" s="413"/>
+      <c r="F11" s="448"/>
+      <c r="G11" s="449"/>
+      <c r="H11" s="450"/>
+      <c r="I11" s="495"/>
+      <c r="J11" s="561"/>
+      <c r="K11" s="561"/>
+      <c r="L11" s="496"/>
+      <c r="M11" s="495"/>
+      <c r="N11" s="496"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -24127,16 +24626,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="407"/>
-      <c r="F12" s="442"/>
-      <c r="G12" s="443"/>
-      <c r="H12" s="444"/>
-      <c r="I12" s="506"/>
-      <c r="J12" s="525"/>
-      <c r="K12" s="525"/>
-      <c r="L12" s="507"/>
-      <c r="M12" s="506"/>
-      <c r="N12" s="507"/>
+      <c r="E12" s="413"/>
+      <c r="F12" s="448"/>
+      <c r="G12" s="449"/>
+      <c r="H12" s="450"/>
+      <c r="I12" s="495"/>
+      <c r="J12" s="561"/>
+      <c r="K12" s="561"/>
+      <c r="L12" s="496"/>
+      <c r="M12" s="495"/>
+      <c r="N12" s="496"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -24149,16 +24648,16 @@
         <v>192</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="407"/>
-      <c r="F13" s="442"/>
-      <c r="G13" s="443"/>
-      <c r="H13" s="444"/>
-      <c r="I13" s="506"/>
-      <c r="J13" s="525"/>
-      <c r="K13" s="525"/>
-      <c r="L13" s="507"/>
-      <c r="M13" s="506"/>
-      <c r="N13" s="507"/>
+      <c r="E13" s="413"/>
+      <c r="F13" s="448"/>
+      <c r="G13" s="449"/>
+      <c r="H13" s="450"/>
+      <c r="I13" s="495"/>
+      <c r="J13" s="561"/>
+      <c r="K13" s="561"/>
+      <c r="L13" s="496"/>
+      <c r="M13" s="495"/>
+      <c r="N13" s="496"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -24169,16 +24668,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="407"/>
-      <c r="F14" s="442"/>
-      <c r="G14" s="443"/>
-      <c r="H14" s="444"/>
-      <c r="I14" s="506"/>
-      <c r="J14" s="525"/>
-      <c r="K14" s="525"/>
-      <c r="L14" s="507"/>
-      <c r="M14" s="506"/>
-      <c r="N14" s="507"/>
+      <c r="E14" s="413"/>
+      <c r="F14" s="448"/>
+      <c r="G14" s="449"/>
+      <c r="H14" s="450"/>
+      <c r="I14" s="495"/>
+      <c r="J14" s="561"/>
+      <c r="K14" s="561"/>
+      <c r="L14" s="496"/>
+      <c r="M14" s="495"/>
+      <c r="N14" s="496"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -24189,16 +24688,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="407"/>
-      <c r="F15" s="442"/>
-      <c r="G15" s="443"/>
-      <c r="H15" s="444"/>
-      <c r="I15" s="506"/>
-      <c r="J15" s="525"/>
-      <c r="K15" s="525"/>
-      <c r="L15" s="507"/>
-      <c r="M15" s="506"/>
-      <c r="N15" s="507"/>
+      <c r="E15" s="413"/>
+      <c r="F15" s="448"/>
+      <c r="G15" s="449"/>
+      <c r="H15" s="450"/>
+      <c r="I15" s="495"/>
+      <c r="J15" s="561"/>
+      <c r="K15" s="561"/>
+      <c r="L15" s="496"/>
+      <c r="M15" s="495"/>
+      <c r="N15" s="496"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -24209,16 +24708,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="407"/>
-      <c r="F16" s="442"/>
-      <c r="G16" s="443"/>
-      <c r="H16" s="444"/>
-      <c r="I16" s="506"/>
-      <c r="J16" s="525"/>
-      <c r="K16" s="525"/>
-      <c r="L16" s="507"/>
-      <c r="M16" s="506"/>
-      <c r="N16" s="507"/>
+      <c r="E16" s="413"/>
+      <c r="F16" s="448"/>
+      <c r="G16" s="449"/>
+      <c r="H16" s="450"/>
+      <c r="I16" s="495"/>
+      <c r="J16" s="561"/>
+      <c r="K16" s="561"/>
+      <c r="L16" s="496"/>
+      <c r="M16" s="495"/>
+      <c r="N16" s="496"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -24231,16 +24730,16 @@
         <v>193</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="407"/>
-      <c r="F17" s="442"/>
-      <c r="G17" s="443"/>
-      <c r="H17" s="444"/>
-      <c r="I17" s="506"/>
-      <c r="J17" s="525"/>
-      <c r="K17" s="525"/>
-      <c r="L17" s="507"/>
-      <c r="M17" s="506"/>
-      <c r="N17" s="507"/>
+      <c r="E17" s="413"/>
+      <c r="F17" s="448"/>
+      <c r="G17" s="449"/>
+      <c r="H17" s="450"/>
+      <c r="I17" s="495"/>
+      <c r="J17" s="561"/>
+      <c r="K17" s="561"/>
+      <c r="L17" s="496"/>
+      <c r="M17" s="495"/>
+      <c r="N17" s="496"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -24251,16 +24750,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="408"/>
-      <c r="F18" s="445"/>
-      <c r="G18" s="446"/>
-      <c r="H18" s="447"/>
-      <c r="I18" s="508"/>
-      <c r="J18" s="526"/>
-      <c r="K18" s="526"/>
-      <c r="L18" s="509"/>
-      <c r="M18" s="508"/>
-      <c r="N18" s="509"/>
+      <c r="E18" s="414"/>
+      <c r="F18" s="451"/>
+      <c r="G18" s="452"/>
+      <c r="H18" s="453"/>
+      <c r="I18" s="497"/>
+      <c r="J18" s="562"/>
+      <c r="K18" s="562"/>
+      <c r="L18" s="498"/>
+      <c r="M18" s="497"/>
+      <c r="N18" s="498"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -24289,26 +24788,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="426" t="s">
+      <c r="C20" s="432" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="427"/>
+      <c r="D20" s="433"/>
       <c r="E20" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="F20" s="426" t="s">
+      <c r="F20" s="432" t="s">
         <v>196</v>
       </c>
-      <c r="G20" s="428"/>
-      <c r="H20" s="428"/>
-      <c r="I20" s="428"/>
-      <c r="J20" s="428"/>
-      <c r="K20" s="428"/>
-      <c r="L20" s="427"/>
-      <c r="M20" s="426" t="s">
+      <c r="G20" s="434"/>
+      <c r="H20" s="434"/>
+      <c r="I20" s="434"/>
+      <c r="J20" s="434"/>
+      <c r="K20" s="434"/>
+      <c r="L20" s="433"/>
+      <c r="M20" s="432" t="s">
         <v>528</v>
       </c>
-      <c r="N20" s="427"/>
+      <c r="N20" s="433"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -24336,39 +24835,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="492" t="s">
+      <c r="B24" s="507" t="s">
         <v>570</v>
       </c>
-      <c r="C24" s="492"/>
-      <c r="D24" s="491"/>
-      <c r="E24" s="491"/>
-      <c r="F24" s="491"/>
-      <c r="G24" s="491"/>
-      <c r="H24" s="491"/>
-      <c r="I24" s="491"/>
-      <c r="J24" s="491"/>
-      <c r="K24" s="491"/>
-      <c r="M24" s="545" t="s">
+      <c r="C24" s="507"/>
+      <c r="D24" s="506"/>
+      <c r="E24" s="506"/>
+      <c r="F24" s="506"/>
+      <c r="G24" s="506"/>
+      <c r="H24" s="506"/>
+      <c r="I24" s="506"/>
+      <c r="J24" s="506"/>
+      <c r="K24" s="506"/>
+      <c r="M24" s="529" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="545"/>
-      <c r="O24" s="545"/>
+      <c r="N24" s="529"/>
+      <c r="O24" s="529"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="546" t="s">
+      <c r="B25" s="530" t="s">
         <v>914</v>
       </c>
-      <c r="C25" s="469"/>
-      <c r="D25" s="417" t="s">
+      <c r="C25" s="474"/>
+      <c r="D25" s="423" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="417"/>
-      <c r="F25" s="417"/>
-      <c r="G25" s="417"/>
-      <c r="H25" s="417"/>
-      <c r="I25" s="417"/>
-      <c r="J25" s="417"/>
-      <c r="K25" s="418"/>
+      <c r="E25" s="423"/>
+      <c r="F25" s="423"/>
+      <c r="G25" s="423"/>
+      <c r="H25" s="423"/>
+      <c r="I25" s="423"/>
+      <c r="J25" s="423"/>
+      <c r="K25" s="424"/>
       <c r="M25" s="38" t="s">
         <v>182</v>
       </c>
@@ -24380,22 +24879,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="470"/>
-      <c r="C26" s="471"/>
-      <c r="D26" s="468" t="s">
+      <c r="B26" s="475"/>
+      <c r="C26" s="476"/>
+      <c r="D26" s="473" t="s">
         <v>907</v>
       </c>
-      <c r="E26" s="469"/>
-      <c r="F26" s="539" t="s">
+      <c r="E26" s="474"/>
+      <c r="F26" s="557" t="s">
         <v>907</v>
       </c>
-      <c r="G26" s="417"/>
-      <c r="H26" s="418"/>
-      <c r="I26" s="416" t="s">
+      <c r="G26" s="423"/>
+      <c r="H26" s="424"/>
+      <c r="I26" s="422" t="s">
         <v>911</v>
       </c>
-      <c r="J26" s="417"/>
-      <c r="K26" s="418"/>
+      <c r="J26" s="423"/>
+      <c r="K26" s="424"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -24410,22 +24909,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="470"/>
-      <c r="C27" s="471"/>
-      <c r="D27" s="460" t="s">
+      <c r="B27" s="475"/>
+      <c r="C27" s="476"/>
+      <c r="D27" s="470" t="s">
         <v>912</v>
       </c>
-      <c r="E27" s="471"/>
-      <c r="F27" s="470" t="s">
+      <c r="E27" s="476"/>
+      <c r="F27" s="475" t="s">
         <v>908</v>
       </c>
-      <c r="G27" s="460"/>
-      <c r="H27" s="540"/>
-      <c r="I27" s="544" t="s">
+      <c r="G27" s="470"/>
+      <c r="H27" s="541"/>
+      <c r="I27" s="540" t="s">
         <v>912</v>
       </c>
-      <c r="J27" s="460"/>
-      <c r="K27" s="540"/>
+      <c r="J27" s="470"/>
+      <c r="K27" s="541"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -24440,22 +24939,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="470"/>
-      <c r="C28" s="471"/>
-      <c r="D28" s="460" t="s">
+      <c r="B28" s="475"/>
+      <c r="C28" s="476"/>
+      <c r="D28" s="470" t="s">
         <v>909</v>
       </c>
-      <c r="E28" s="471"/>
-      <c r="F28" s="470" t="s">
+      <c r="E28" s="476"/>
+      <c r="F28" s="475" t="s">
         <v>909</v>
       </c>
-      <c r="G28" s="460"/>
-      <c r="H28" s="540"/>
-      <c r="I28" s="544" t="s">
+      <c r="G28" s="470"/>
+      <c r="H28" s="541"/>
+      <c r="I28" s="540" t="s">
         <v>909</v>
       </c>
-      <c r="J28" s="460"/>
-      <c r="K28" s="540"/>
+      <c r="J28" s="470"/>
+      <c r="K28" s="541"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -24464,22 +24963,22 @@
       <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="472"/>
-      <c r="C29" s="473"/>
-      <c r="D29" s="460" t="s">
+      <c r="B29" s="477"/>
+      <c r="C29" s="478"/>
+      <c r="D29" s="470" t="s">
         <v>910</v>
       </c>
-      <c r="E29" s="471"/>
-      <c r="F29" s="541" t="s">
+      <c r="E29" s="476"/>
+      <c r="F29" s="558" t="s">
         <v>910</v>
       </c>
-      <c r="G29" s="542"/>
-      <c r="H29" s="543"/>
-      <c r="I29" s="556" t="s">
+      <c r="G29" s="543"/>
+      <c r="H29" s="544"/>
+      <c r="I29" s="542" t="s">
         <v>910</v>
       </c>
-      <c r="J29" s="542"/>
-      <c r="K29" s="543"/>
+      <c r="J29" s="543"/>
+      <c r="K29" s="544"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -24488,149 +24987,149 @@
       <c r="O29" s="38"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="419" t="s">
+      <c r="B30" s="425" t="s">
         <v>913</v>
       </c>
-      <c r="C30" s="421"/>
-      <c r="D30" s="527" t="s">
+      <c r="C30" s="427"/>
+      <c r="D30" s="545" t="s">
         <v>571</v>
       </c>
-      <c r="E30" s="528"/>
-      <c r="F30" s="532" t="s">
+      <c r="E30" s="546"/>
+      <c r="F30" s="550" t="s">
         <v>572</v>
       </c>
-      <c r="G30" s="533"/>
-      <c r="H30" s="528"/>
-      <c r="I30" s="532" t="s">
+      <c r="G30" s="551"/>
+      <c r="H30" s="546"/>
+      <c r="I30" s="550" t="s">
         <v>573</v>
       </c>
-      <c r="J30" s="533"/>
-      <c r="K30" s="536"/>
+      <c r="J30" s="551"/>
+      <c r="K30" s="554"/>
       <c r="L30" s="5"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="402"/>
-      <c r="C31" s="422"/>
-      <c r="D31" s="529"/>
-      <c r="E31" s="489"/>
-      <c r="F31" s="487"/>
-      <c r="G31" s="488"/>
-      <c r="H31" s="489"/>
-      <c r="I31" s="487"/>
-      <c r="J31" s="488"/>
-      <c r="K31" s="537"/>
+      <c r="B31" s="408"/>
+      <c r="C31" s="428"/>
+      <c r="D31" s="547"/>
+      <c r="E31" s="513"/>
+      <c r="F31" s="511"/>
+      <c r="G31" s="512"/>
+      <c r="H31" s="513"/>
+      <c r="I31" s="511"/>
+      <c r="J31" s="512"/>
+      <c r="K31" s="555"/>
       <c r="L31" s="5"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="402"/>
-      <c r="C32" s="422"/>
-      <c r="D32" s="529"/>
-      <c r="E32" s="489"/>
-      <c r="F32" s="487"/>
-      <c r="G32" s="488"/>
-      <c r="H32" s="489"/>
-      <c r="I32" s="487"/>
-      <c r="J32" s="488"/>
-      <c r="K32" s="537"/>
+      <c r="B32" s="408"/>
+      <c r="C32" s="428"/>
+      <c r="D32" s="547"/>
+      <c r="E32" s="513"/>
+      <c r="F32" s="511"/>
+      <c r="G32" s="512"/>
+      <c r="H32" s="513"/>
+      <c r="I32" s="511"/>
+      <c r="J32" s="512"/>
+      <c r="K32" s="555"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="402"/>
-      <c r="C33" s="422"/>
-      <c r="D33" s="530"/>
-      <c r="E33" s="531"/>
-      <c r="F33" s="534"/>
-      <c r="G33" s="535"/>
-      <c r="H33" s="531"/>
-      <c r="I33" s="534"/>
-      <c r="J33" s="535"/>
-      <c r="K33" s="538"/>
+      <c r="B33" s="408"/>
+      <c r="C33" s="428"/>
+      <c r="D33" s="548"/>
+      <c r="E33" s="549"/>
+      <c r="F33" s="552"/>
+      <c r="G33" s="553"/>
+      <c r="H33" s="549"/>
+      <c r="I33" s="552"/>
+      <c r="J33" s="553"/>
+      <c r="K33" s="556"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="402"/>
-      <c r="C34" s="404"/>
-      <c r="D34" s="547" t="s">
+      <c r="B34" s="408"/>
+      <c r="C34" s="410"/>
+      <c r="D34" s="531" t="s">
         <v>900</v>
       </c>
-      <c r="E34" s="548"/>
-      <c r="F34" s="547" t="s">
+      <c r="E34" s="532"/>
+      <c r="F34" s="531" t="s">
         <v>593</v>
       </c>
-      <c r="G34" s="553"/>
-      <c r="H34" s="548"/>
-      <c r="I34" s="547" t="s">
+      <c r="G34" s="537"/>
+      <c r="H34" s="532"/>
+      <c r="I34" s="531" t="s">
         <v>915</v>
       </c>
-      <c r="J34" s="553"/>
-      <c r="K34" s="548"/>
+      <c r="J34" s="537"/>
+      <c r="K34" s="532"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="402"/>
-      <c r="C35" s="404"/>
-      <c r="D35" s="549"/>
-      <c r="E35" s="550"/>
-      <c r="F35" s="549"/>
-      <c r="G35" s="554"/>
-      <c r="H35" s="550"/>
-      <c r="I35" s="549"/>
-      <c r="J35" s="554"/>
-      <c r="K35" s="550"/>
+      <c r="B35" s="408"/>
+      <c r="C35" s="410"/>
+      <c r="D35" s="533"/>
+      <c r="E35" s="534"/>
+      <c r="F35" s="533"/>
+      <c r="G35" s="538"/>
+      <c r="H35" s="534"/>
+      <c r="I35" s="533"/>
+      <c r="J35" s="538"/>
+      <c r="K35" s="534"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="402"/>
-      <c r="C36" s="404"/>
-      <c r="D36" s="549"/>
-      <c r="E36" s="550"/>
-      <c r="F36" s="549"/>
-      <c r="G36" s="554"/>
-      <c r="H36" s="550"/>
-      <c r="I36" s="549"/>
-      <c r="J36" s="554"/>
-      <c r="K36" s="550"/>
+      <c r="B36" s="408"/>
+      <c r="C36" s="410"/>
+      <c r="D36" s="533"/>
+      <c r="E36" s="534"/>
+      <c r="F36" s="533"/>
+      <c r="G36" s="538"/>
+      <c r="H36" s="534"/>
+      <c r="I36" s="533"/>
+      <c r="J36" s="538"/>
+      <c r="K36" s="534"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="402"/>
-      <c r="C37" s="404"/>
-      <c r="D37" s="549"/>
-      <c r="E37" s="550"/>
-      <c r="F37" s="549"/>
-      <c r="G37" s="554"/>
-      <c r="H37" s="550"/>
-      <c r="I37" s="549"/>
-      <c r="J37" s="554"/>
-      <c r="K37" s="550"/>
+      <c r="B37" s="408"/>
+      <c r="C37" s="410"/>
+      <c r="D37" s="533"/>
+      <c r="E37" s="534"/>
+      <c r="F37" s="533"/>
+      <c r="G37" s="538"/>
+      <c r="H37" s="534"/>
+      <c r="I37" s="533"/>
+      <c r="J37" s="538"/>
+      <c r="K37" s="534"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="402"/>
-      <c r="C38" s="404"/>
-      <c r="D38" s="551"/>
-      <c r="E38" s="552"/>
-      <c r="F38" s="551"/>
-      <c r="G38" s="555"/>
-      <c r="H38" s="552"/>
-      <c r="I38" s="551"/>
-      <c r="J38" s="555"/>
-      <c r="K38" s="552"/>
+      <c r="B38" s="408"/>
+      <c r="C38" s="410"/>
+      <c r="D38" s="535"/>
+      <c r="E38" s="536"/>
+      <c r="F38" s="535"/>
+      <c r="G38" s="539"/>
+      <c r="H38" s="536"/>
+      <c r="I38" s="535"/>
+      <c r="J38" s="539"/>
+      <c r="K38" s="536"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="423"/>
-      <c r="C39" s="425"/>
-      <c r="D39" s="480" t="s">
+      <c r="B39" s="429"/>
+      <c r="C39" s="431"/>
+      <c r="D39" s="515" t="s">
         <v>574</v>
       </c>
-      <c r="E39" s="481"/>
-      <c r="F39" s="481"/>
-      <c r="G39" s="481"/>
-      <c r="H39" s="481"/>
-      <c r="I39" s="481"/>
-      <c r="J39" s="481"/>
-      <c r="K39" s="482"/>
+      <c r="E39" s="516"/>
+      <c r="F39" s="516"/>
+      <c r="G39" s="516"/>
+      <c r="H39" s="516"/>
+      <c r="I39" s="516"/>
+      <c r="J39" s="516"/>
+      <c r="K39" s="517"/>
       <c r="L39" s="40" t="s">
         <v>575</v>
       </c>
@@ -24648,36 +25147,35 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="426" t="s">
+      <c r="B41" s="432" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="427"/>
-      <c r="D41" s="426" t="s">
+      <c r="C41" s="433"/>
+      <c r="D41" s="432" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="427"/>
-      <c r="F41" s="426" t="s">
+      <c r="E41" s="433"/>
+      <c r="F41" s="432" t="s">
         <v>196</v>
       </c>
-      <c r="G41" s="428"/>
-      <c r="H41" s="428"/>
-      <c r="I41" s="428"/>
-      <c r="J41" s="428"/>
-      <c r="K41" s="427"/>
+      <c r="G41" s="434"/>
+      <c r="H41" s="434"/>
+      <c r="I41" s="434"/>
+      <c r="J41" s="434"/>
+      <c r="K41" s="433"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -24694,16 +25192,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -25227,13 +25726,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="397" t="s">
+      <c r="A5" s="403" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="398"/>
-      <c r="C5" s="398"/>
-      <c r="D5" s="398"/>
-      <c r="E5" s="399"/>
+      <c r="B5" s="404"/>
+      <c r="C5" s="404"/>
+      <c r="D5" s="404"/>
+      <c r="E5" s="405"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>150</v>
@@ -25890,7 +26389,7 @@
       <c r="J4" s="173"/>
       <c r="K4" s="173"/>
       <c r="L4" s="174"/>
-      <c r="M4" s="402" t="s">
+      <c r="M4" s="408" t="s">
         <v>324</v>
       </c>
     </row>
@@ -25908,7 +26407,7 @@
       <c r="J5" s="167"/>
       <c r="K5" s="167"/>
       <c r="L5" s="168"/>
-      <c r="M5" s="402"/>
+      <c r="M5" s="408"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="360">
@@ -25924,7 +26423,7 @@
       <c r="J6" s="167"/>
       <c r="K6" s="167"/>
       <c r="L6" s="168"/>
-      <c r="M6" s="402"/>
+      <c r="M6" s="408"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="360">
@@ -25944,7 +26443,7 @@
       <c r="J7" s="167"/>
       <c r="K7" s="167"/>
       <c r="L7" s="168"/>
-      <c r="M7" s="402"/>
+      <c r="M7" s="408"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="360">
@@ -25960,7 +26459,7 @@
       <c r="J8" s="167"/>
       <c r="K8" s="167"/>
       <c r="L8" s="168"/>
-      <c r="M8" s="402"/>
+      <c r="M8" s="408"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="360">
@@ -25976,7 +26475,7 @@
       <c r="J9" s="167"/>
       <c r="K9" s="167"/>
       <c r="L9" s="168"/>
-      <c r="M9" s="402"/>
+      <c r="M9" s="408"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="360">
@@ -25992,7 +26491,7 @@
       <c r="J10" s="167"/>
       <c r="K10" s="167"/>
       <c r="L10" s="168"/>
-      <c r="M10" s="402"/>
+      <c r="M10" s="408"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1">
       <c r="B11" s="360">
@@ -26008,7 +26507,7 @@
       <c r="J11" s="176"/>
       <c r="K11" s="176"/>
       <c r="L11" s="177"/>
-      <c r="M11" s="402"/>
+      <c r="M11" s="408"/>
     </row>
     <row r="12" spans="2:13">
       <c r="M12" t="s">
@@ -26282,7 +26781,7 @@
       <c r="O134" s="5"/>
     </row>
     <row r="135" spans="3:15">
-      <c r="C135" s="405" t="s">
+      <c r="C135" s="411" t="s">
         <v>167</v>
       </c>
       <c r="D135">
@@ -26309,7 +26808,7 @@
       <c r="O135" s="5"/>
     </row>
     <row r="136" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C136" s="405"/>
+      <c r="C136" s="411"/>
       <c r="D136">
         <v>20</v>
       </c>
@@ -26338,7 +26837,7 @@
       <c r="O136" s="5"/>
     </row>
     <row r="137" spans="3:15">
-      <c r="C137" s="405" t="s">
+      <c r="C137" s="411" t="s">
         <v>168</v>
       </c>
       <c r="D137">
@@ -26357,7 +26856,7 @@
       <c r="O137" s="5"/>
     </row>
     <row r="138" spans="3:15">
-      <c r="C138" s="405"/>
+      <c r="C138" s="411"/>
       <c r="D138">
         <v>40</v>
       </c>
@@ -26374,7 +26873,7 @@
       <c r="O138" s="5"/>
     </row>
     <row r="139" spans="3:15">
-      <c r="C139" s="405"/>
+      <c r="C139" s="411"/>
       <c r="D139">
         <v>50</v>
       </c>
@@ -26391,7 +26890,7 @@
       <c r="O139" s="5"/>
     </row>
     <row r="140" spans="3:15">
-      <c r="C140" s="405"/>
+      <c r="C140" s="411"/>
       <c r="D140">
         <v>60</v>
       </c>
@@ -26410,7 +26909,7 @@
       <c r="O140" s="5"/>
     </row>
     <row r="141" spans="3:15">
-      <c r="C141" s="405"/>
+      <c r="C141" s="411"/>
       <c r="D141">
         <v>70</v>
       </c>
@@ -26427,7 +26926,7 @@
       <c r="O141" s="5"/>
     </row>
     <row r="142" spans="3:15">
-      <c r="C142" s="405"/>
+      <c r="C142" s="411"/>
       <c r="D142">
         <v>80</v>
       </c>
@@ -26444,7 +26943,7 @@
       <c r="O142" s="5"/>
     </row>
     <row r="143" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C143" s="405"/>
+      <c r="C143" s="411"/>
       <c r="D143">
         <v>90</v>
       </c>
@@ -26535,7 +27034,7 @@
       </c>
     </row>
     <row r="148" spans="4:15">
-      <c r="D148" s="403">
+      <c r="D148" s="409">
         <v>1</v>
       </c>
       <c r="E148" s="169"/>
@@ -26550,7 +27049,7 @@
       <c r="N148" s="174"/>
     </row>
     <row r="149" spans="4:15">
-      <c r="D149" s="404"/>
+      <c r="D149" s="410"/>
       <c r="E149" s="170"/>
       <c r="F149" s="166"/>
       <c r="G149" s="167"/>
@@ -26563,7 +27062,7 @@
       <c r="N149" s="168"/>
     </row>
     <row r="150" spans="4:15">
-      <c r="D150" s="404"/>
+      <c r="D150" s="410"/>
       <c r="E150" s="170"/>
       <c r="F150" s="166"/>
       <c r="G150" s="167"/>
@@ -26576,7 +27075,7 @@
       <c r="N150" s="168"/>
     </row>
     <row r="151" spans="4:15">
-      <c r="D151" s="404"/>
+      <c r="D151" s="410"/>
       <c r="E151" s="170" t="s">
         <v>663</v>
       </c>
@@ -26593,7 +27092,7 @@
       <c r="N151" s="168"/>
     </row>
     <row r="152" spans="4:15">
-      <c r="D152" s="404"/>
+      <c r="D152" s="410"/>
       <c r="E152" s="170"/>
       <c r="F152" s="166"/>
       <c r="G152" s="167"/>
@@ -26606,7 +27105,7 @@
       <c r="N152" s="168"/>
     </row>
     <row r="153" spans="4:15">
-      <c r="D153" s="404"/>
+      <c r="D153" s="410"/>
       <c r="E153" s="170"/>
       <c r="F153" s="166"/>
       <c r="G153" s="167"/>
@@ -26619,7 +27118,7 @@
       <c r="N153" s="168"/>
     </row>
     <row r="154" spans="4:15" ht="15.75" thickBot="1">
-      <c r="D154" s="404"/>
+      <c r="D154" s="410"/>
       <c r="E154" s="171"/>
       <c r="F154" s="175"/>
       <c r="G154" s="176"/>
@@ -26742,7 +27241,7 @@
       <c r="K183" s="173"/>
       <c r="L183" s="173"/>
       <c r="M183" s="173"/>
-      <c r="N183" s="401" t="s">
+      <c r="N183" s="407" t="s">
         <v>917</v>
       </c>
       <c r="O183" t="s">
@@ -26763,7 +27262,7 @@
       <c r="K184" s="176"/>
       <c r="L184" s="176"/>
       <c r="M184" s="176"/>
-      <c r="N184" s="401"/>
+      <c r="N184" s="407"/>
       <c r="O184" t="s">
         <v>918</v>
       </c>
@@ -26782,7 +27281,7 @@
       <c r="K185" s="229"/>
       <c r="L185" s="229"/>
       <c r="M185" s="293"/>
-      <c r="N185" s="400" t="s">
+      <c r="N185" s="406" t="s">
         <v>920</v>
       </c>
       <c r="O185" t="s">
@@ -26803,7 +27302,7 @@
       <c r="K186" s="230"/>
       <c r="L186" s="230"/>
       <c r="M186" s="295"/>
-      <c r="N186" s="400"/>
+      <c r="N186" s="406"/>
     </row>
     <row r="187" spans="3:15">
       <c r="C187">
@@ -26819,7 +27318,7 @@
       <c r="K187" s="230"/>
       <c r="L187" s="230"/>
       <c r="M187" s="295"/>
-      <c r="N187" s="400"/>
+      <c r="N187" s="406"/>
     </row>
     <row r="188" spans="3:15" ht="15.75" thickBot="1">
       <c r="C188">
@@ -26839,7 +27338,7 @@
       <c r="K188" s="231"/>
       <c r="L188" s="231"/>
       <c r="M188" s="297"/>
-      <c r="N188" s="400"/>
+      <c r="N188" s="406"/>
     </row>
     <row r="189" spans="3:15">
       <c r="C189">
@@ -26855,7 +27354,7 @@
       <c r="K189" s="230"/>
       <c r="L189" s="230"/>
       <c r="M189" s="230"/>
-      <c r="N189" s="401"/>
+      <c r="N189" s="407"/>
     </row>
     <row r="190" spans="3:15">
       <c r="C190">
@@ -26871,7 +27370,7 @@
       <c r="K190" s="230"/>
       <c r="L190" s="230"/>
       <c r="M190" s="230"/>
-      <c r="N190" s="401"/>
+      <c r="N190" s="407"/>
     </row>
     <row r="191" spans="3:15" ht="15.75" thickBot="1">
       <c r="C191">
@@ -26887,7 +27386,7 @@
       <c r="K191" s="231"/>
       <c r="L191" s="231"/>
       <c r="M191" s="231"/>
-      <c r="N191" s="401"/>
+      <c r="N191" s="407"/>
     </row>
     <row r="192" spans="3:15" ht="15.75" thickBot="1">
       <c r="C192">
@@ -27207,8 +27706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U348"/>
   <sheetViews>
-    <sheetView topLeftCell="A374" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27262,14 +27761,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="416" t="s">
+      <c r="K4" s="422" t="s">
         <v>178</v>
       </c>
-      <c r="L4" s="417"/>
-      <c r="M4" s="417"/>
-      <c r="N4" s="417"/>
-      <c r="O4" s="417"/>
-      <c r="P4" s="418"/>
+      <c r="L4" s="423"/>
+      <c r="M4" s="423"/>
+      <c r="N4" s="423"/>
+      <c r="O4" s="423"/>
+      <c r="P4" s="424"/>
       <c r="Q4" s="115" t="s">
         <v>281</v>
       </c>
@@ -27308,7 +27807,7 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="435" t="s">
+      <c r="E6" s="441" t="s">
         <v>1489</v>
       </c>
       <c r="F6" t="s">
@@ -27351,7 +27850,7 @@
       <c r="D7" s="367" t="s">
         <v>1610</v>
       </c>
-      <c r="E7" s="407"/>
+      <c r="E7" s="413"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
@@ -27362,7 +27861,7 @@
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="245" t="s">
+      <c r="P7" s="239" t="s">
         <v>1290</v>
       </c>
       <c r="Q7" s="115" t="s">
@@ -27387,7 +27886,7 @@
       <c r="D8" s="367" t="s">
         <v>1609</v>
       </c>
-      <c r="E8" s="407"/>
+      <c r="E8" s="413"/>
       <c r="F8" t="s">
         <v>203</v>
       </c>
@@ -27398,14 +27897,14 @@
       <c r="L8" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M8" s="429" t="s">
+      <c r="M8" s="435" t="s">
         <v>1488</v>
       </c>
-      <c r="N8" s="430"/>
+      <c r="N8" s="436"/>
       <c r="O8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="246"/>
+      <c r="P8" s="240"/>
       <c r="Q8" s="115" t="s">
         <v>281</v>
       </c>
@@ -27430,7 +27929,7 @@
       <c r="D9" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="E9" s="407"/>
+      <c r="E9" s="413"/>
       <c r="F9" s="24" t="s">
         <v>216</v>
       </c>
@@ -27443,12 +27942,12 @@
       <c r="L9" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M9" s="431"/>
-      <c r="N9" s="432"/>
+      <c r="M9" s="437"/>
+      <c r="N9" s="438"/>
       <c r="O9" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="P9" s="246" t="s">
+      <c r="P9" s="240" t="s">
         <v>1301</v>
       </c>
       <c r="Q9" s="115" t="s">
@@ -27469,7 +27968,7 @@
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
-      <c r="E10" s="408"/>
+      <c r="E10" s="414"/>
       <c r="F10" t="s">
         <v>204</v>
       </c>
@@ -27480,14 +27979,14 @@
       <c r="L10" s="5" t="s">
         <v>1167</v>
       </c>
-      <c r="M10" s="431"/>
-      <c r="N10" s="432"/>
+      <c r="M10" s="437"/>
+      <c r="N10" s="438"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="246" t="s">
+      <c r="P10" s="240" t="s">
         <v>399</v>
       </c>
-      <c r="Q10" t="s">
-        <v>2</v>
+      <c r="Q10" s="400" t="s">
+        <v>187</v>
       </c>
       <c r="R10" s="38" t="s">
         <v>1302</v>
@@ -27498,13 +27997,13 @@
       <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="419" t="s">
+      <c r="A11" s="425" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="420"/>
-      <c r="C11" s="421"/>
-      <c r="D11" s="421"/>
-      <c r="E11" s="404"/>
+      <c r="B11" s="426"/>
+      <c r="C11" s="427"/>
+      <c r="D11" s="427"/>
+      <c r="E11" s="410"/>
       <c r="F11" t="s">
         <v>209</v>
       </c>
@@ -27513,17 +28012,15 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="431"/>
-      <c r="N11" s="432"/>
+      <c r="M11" s="437"/>
+      <c r="N11" s="438"/>
       <c r="O11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P11" s="246" t="s">
+      <c r="P11" s="240" t="s">
         <v>400</v>
       </c>
-      <c r="Q11" s="115" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q11" s="115"/>
       <c r="R11" s="38" t="s">
         <v>71</v>
       </c>
@@ -27533,11 +28030,11 @@
       <c r="T11" s="38"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="402"/>
-      <c r="B12" s="422"/>
-      <c r="C12" s="422"/>
-      <c r="D12" s="422"/>
-      <c r="E12" s="404"/>
+      <c r="A12" s="408"/>
+      <c r="B12" s="428"/>
+      <c r="C12" s="428"/>
+      <c r="D12" s="428"/>
+      <c r="E12" s="410"/>
       <c r="F12" t="s">
         <v>944</v>
       </c>
@@ -27546,22 +28043,25 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="431"/>
-      <c r="N12" s="432"/>
+      <c r="M12" s="437"/>
+      <c r="N12" s="438"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="246" t="s">
+      <c r="P12" s="240" t="s">
         <v>1305</v>
+      </c>
+      <c r="Q12">
+        <v>100</v>
       </c>
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A13" s="402"/>
-      <c r="B13" s="422"/>
-      <c r="C13" s="422"/>
-      <c r="D13" s="422"/>
-      <c r="E13" s="404"/>
+      <c r="A13" s="408"/>
+      <c r="B13" s="428"/>
+      <c r="C13" s="428"/>
+      <c r="D13" s="428"/>
+      <c r="E13" s="410"/>
       <c r="F13" t="s">
         <v>679</v>
       </c>
@@ -27572,20 +28072,23 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="433"/>
-      <c r="N13" s="434"/>
+      <c r="M13" s="439"/>
+      <c r="N13" s="440"/>
       <c r="O13" s="28"/>
-      <c r="P13" s="247"/>
+      <c r="P13" s="241"/>
+      <c r="Q13">
+        <v>500</v>
+      </c>
       <c r="S13" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="423"/>
-      <c r="B14" s="424"/>
-      <c r="C14" s="424"/>
-      <c r="D14" s="424"/>
-      <c r="E14" s="425"/>
+      <c r="A14" s="429"/>
+      <c r="B14" s="430"/>
+      <c r="C14" s="430"/>
+      <c r="D14" s="430"/>
+      <c r="E14" s="431"/>
       <c r="F14" t="s">
         <v>885</v>
       </c>
@@ -27600,6 +28103,9 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="6"/>
+      <c r="Q14">
+        <v>100</v>
+      </c>
       <c r="S14" t="s">
         <v>281</v>
       </c>
@@ -27722,20 +28228,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="426" t="s">
+      <c r="I20" s="432" t="s">
         <v>194</v>
       </c>
-      <c r="J20" s="427"/>
-      <c r="K20" s="426" t="s">
+      <c r="J20" s="433"/>
+      <c r="K20" s="432" t="s">
         <v>195</v>
       </c>
-      <c r="L20" s="427"/>
-      <c r="M20" s="426" t="s">
+      <c r="L20" s="433"/>
+      <c r="M20" s="432" t="s">
         <v>196</v>
       </c>
-      <c r="N20" s="428"/>
-      <c r="O20" s="428"/>
-      <c r="P20" s="427"/>
+      <c r="N20" s="434"/>
+      <c r="O20" s="434"/>
+      <c r="P20" s="433"/>
       <c r="S20" t="s">
         <v>281</v>
       </c>
@@ -29461,19 +29967,19 @@
       <c r="D204" s="2"/>
       <c r="E204" s="3"/>
       <c r="I204" s="4"/>
-      <c r="J204" s="406" t="s">
+      <c r="J204" s="412" t="s">
         <v>1493</v>
       </c>
       <c r="K204" s="1"/>
-      <c r="L204" s="436" t="s">
+      <c r="L204" s="442" t="s">
         <v>1504</v>
       </c>
-      <c r="M204" s="409" t="s">
+      <c r="M204" s="415" t="s">
         <v>1503</v>
       </c>
-      <c r="N204" s="410"/>
-      <c r="O204" s="410"/>
-      <c r="P204" s="411"/>
+      <c r="N204" s="416"/>
+      <c r="O204" s="416"/>
+      <c r="P204" s="417"/>
       <c r="Q204" s="6"/>
     </row>
     <row r="205" spans="1:17" ht="15.75" thickBot="1">
@@ -29483,13 +29989,13 @@
       <c r="D205" s="5"/>
       <c r="E205" s="6"/>
       <c r="I205" s="4"/>
-      <c r="J205" s="407"/>
+      <c r="J205" s="413"/>
       <c r="K205" s="4"/>
-      <c r="L205" s="437"/>
-      <c r="M205" s="412"/>
-      <c r="N205" s="412"/>
-      <c r="O205" s="412"/>
-      <c r="P205" s="413"/>
+      <c r="L205" s="443"/>
+      <c r="M205" s="418"/>
+      <c r="N205" s="418"/>
+      <c r="O205" s="418"/>
+      <c r="P205" s="419"/>
       <c r="Q205" s="6"/>
     </row>
     <row r="206" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
@@ -29501,15 +30007,15 @@
       <c r="D206" s="107"/>
       <c r="E206" s="108"/>
       <c r="I206" s="4"/>
-      <c r="J206" s="407"/>
+      <c r="J206" s="413"/>
       <c r="K206" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="L206" s="437"/>
-      <c r="M206" s="412"/>
-      <c r="N206" s="412"/>
-      <c r="O206" s="412"/>
-      <c r="P206" s="413"/>
+      <c r="L206" s="443"/>
+      <c r="M206" s="418"/>
+      <c r="N206" s="418"/>
+      <c r="O206" s="418"/>
+      <c r="P206" s="419"/>
       <c r="Q206" s="6"/>
     </row>
     <row r="207" spans="1:17">
@@ -29521,13 +30027,13 @@
       <c r="D207" s="5"/>
       <c r="E207" s="6"/>
       <c r="I207" s="4"/>
-      <c r="J207" s="407"/>
+      <c r="J207" s="413"/>
       <c r="K207" s="4"/>
-      <c r="L207" s="437"/>
-      <c r="M207" s="412"/>
-      <c r="N207" s="412"/>
-      <c r="O207" s="412"/>
-      <c r="P207" s="413"/>
+      <c r="L207" s="443"/>
+      <c r="M207" s="418"/>
+      <c r="N207" s="418"/>
+      <c r="O207" s="418"/>
+      <c r="P207" s="419"/>
       <c r="Q207" s="6"/>
     </row>
     <row r="208" spans="1:17" ht="15.75" thickBot="1">
@@ -29541,13 +30047,13 @@
       <c r="D208" s="5"/>
       <c r="E208" s="6"/>
       <c r="I208" s="4"/>
-      <c r="J208" s="407"/>
+      <c r="J208" s="413"/>
       <c r="K208" s="8"/>
-      <c r="L208" s="437"/>
-      <c r="M208" s="412"/>
-      <c r="N208" s="412"/>
-      <c r="O208" s="412"/>
-      <c r="P208" s="413"/>
+      <c r="L208" s="443"/>
+      <c r="M208" s="418"/>
+      <c r="N208" s="418"/>
+      <c r="O208" s="418"/>
+      <c r="P208" s="419"/>
       <c r="Q208" s="6"/>
     </row>
     <row r="209" spans="1:17">
@@ -29561,13 +30067,13 @@
       <c r="D209" s="5"/>
       <c r="E209" s="6"/>
       <c r="I209" s="4"/>
-      <c r="J209" s="407"/>
+      <c r="J209" s="413"/>
       <c r="K209" s="1"/>
-      <c r="L209" s="437"/>
-      <c r="M209" s="412"/>
-      <c r="N209" s="412"/>
-      <c r="O209" s="412"/>
-      <c r="P209" s="413"/>
+      <c r="L209" s="443"/>
+      <c r="M209" s="418"/>
+      <c r="N209" s="418"/>
+      <c r="O209" s="418"/>
+      <c r="P209" s="419"/>
       <c r="Q209" s="6"/>
     </row>
     <row r="210" spans="1:17">
@@ -29579,13 +30085,13 @@
       <c r="D210" s="5"/>
       <c r="E210" s="6"/>
       <c r="I210" s="4"/>
-      <c r="J210" s="407"/>
+      <c r="J210" s="413"/>
       <c r="K210" s="4"/>
-      <c r="L210" s="437"/>
-      <c r="M210" s="412"/>
-      <c r="N210" s="412"/>
-      <c r="O210" s="412"/>
-      <c r="P210" s="413"/>
+      <c r="L210" s="443"/>
+      <c r="M210" s="418"/>
+      <c r="N210" s="418"/>
+      <c r="O210" s="418"/>
+      <c r="P210" s="419"/>
       <c r="Q210" s="6"/>
     </row>
     <row r="211" spans="1:17">
@@ -29600,13 +30106,13 @@
         <v>1502</v>
       </c>
       <c r="I211" s="4"/>
-      <c r="J211" s="407"/>
+      <c r="J211" s="413"/>
       <c r="K211" s="4"/>
-      <c r="L211" s="437"/>
-      <c r="M211" s="412"/>
-      <c r="N211" s="412"/>
-      <c r="O211" s="412"/>
-      <c r="P211" s="413"/>
+      <c r="L211" s="443"/>
+      <c r="M211" s="418"/>
+      <c r="N211" s="418"/>
+      <c r="O211" s="418"/>
+      <c r="P211" s="419"/>
       <c r="Q211" s="6"/>
     </row>
     <row r="212" spans="1:17">
@@ -29619,15 +30125,15 @@
         <v>485</v>
       </c>
       <c r="I212" s="4"/>
-      <c r="J212" s="407"/>
+      <c r="J212" s="413"/>
       <c r="K212" s="4" t="s">
         <v>1483</v>
       </c>
-      <c r="L212" s="437"/>
-      <c r="M212" s="412"/>
-      <c r="N212" s="412"/>
-      <c r="O212" s="412"/>
-      <c r="P212" s="413"/>
+      <c r="L212" s="443"/>
+      <c r="M212" s="418"/>
+      <c r="N212" s="418"/>
+      <c r="O212" s="418"/>
+      <c r="P212" s="419"/>
       <c r="Q212" s="6"/>
     </row>
     <row r="213" spans="1:17" ht="15.75" thickBot="1">
@@ -29637,24 +30143,24 @@
       <c r="D213" s="10"/>
       <c r="E213" s="9"/>
       <c r="I213" s="4"/>
-      <c r="J213" s="407"/>
+      <c r="J213" s="413"/>
       <c r="K213" s="4"/>
-      <c r="L213" s="437"/>
-      <c r="M213" s="412"/>
-      <c r="N213" s="412"/>
-      <c r="O213" s="412"/>
-      <c r="P213" s="413"/>
+      <c r="L213" s="443"/>
+      <c r="M213" s="418"/>
+      <c r="N213" s="418"/>
+      <c r="O213" s="418"/>
+      <c r="P213" s="419"/>
       <c r="Q213" s="6"/>
     </row>
     <row r="214" spans="1:17" ht="15.75" thickBot="1">
       <c r="I214" s="4"/>
-      <c r="J214" s="407"/>
+      <c r="J214" s="413"/>
       <c r="K214" s="8"/>
-      <c r="L214" s="437"/>
-      <c r="M214" s="412"/>
-      <c r="N214" s="412"/>
-      <c r="O214" s="412"/>
-      <c r="P214" s="413"/>
+      <c r="L214" s="443"/>
+      <c r="M214" s="418"/>
+      <c r="N214" s="418"/>
+      <c r="O214" s="418"/>
+      <c r="P214" s="419"/>
       <c r="Q214" s="6"/>
     </row>
     <row r="215" spans="1:17">
@@ -29662,24 +30168,24 @@
         <v>1495</v>
       </c>
       <c r="I215" s="4"/>
-      <c r="J215" s="407"/>
+      <c r="J215" s="413"/>
       <c r="K215" s="5"/>
-      <c r="L215" s="437"/>
-      <c r="M215" s="412"/>
-      <c r="N215" s="412"/>
-      <c r="O215" s="412"/>
-      <c r="P215" s="413"/>
+      <c r="L215" s="443"/>
+      <c r="M215" s="418"/>
+      <c r="N215" s="418"/>
+      <c r="O215" s="418"/>
+      <c r="P215" s="419"/>
       <c r="Q215" s="6"/>
     </row>
     <row r="216" spans="1:17">
       <c r="I216" s="4"/>
-      <c r="J216" s="407"/>
+      <c r="J216" s="413"/>
       <c r="K216" s="5"/>
-      <c r="L216" s="437"/>
-      <c r="M216" s="412"/>
-      <c r="N216" s="412"/>
-      <c r="O216" s="412"/>
-      <c r="P216" s="413"/>
+      <c r="L216" s="443"/>
+      <c r="M216" s="418"/>
+      <c r="N216" s="418"/>
+      <c r="O216" s="418"/>
+      <c r="P216" s="419"/>
       <c r="Q216" s="6"/>
     </row>
     <row r="217" spans="1:17">
@@ -29690,15 +30196,15 @@
         <v>167</v>
       </c>
       <c r="I217" s="4"/>
-      <c r="J217" s="407"/>
+      <c r="J217" s="413"/>
       <c r="K217" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="L217" s="437"/>
-      <c r="M217" s="412"/>
-      <c r="N217" s="412"/>
-      <c r="O217" s="412"/>
-      <c r="P217" s="413"/>
+      <c r="L217" s="443"/>
+      <c r="M217" s="418"/>
+      <c r="N217" s="418"/>
+      <c r="O217" s="418"/>
+      <c r="P217" s="419"/>
       <c r="Q217" s="6"/>
     </row>
     <row r="218" spans="1:17">
@@ -29706,13 +30212,13 @@
         <v>168</v>
       </c>
       <c r="I218" s="4"/>
-      <c r="J218" s="407"/>
+      <c r="J218" s="413"/>
       <c r="K218" s="5"/>
-      <c r="L218" s="437"/>
-      <c r="M218" s="412"/>
-      <c r="N218" s="412"/>
-      <c r="O218" s="412"/>
-      <c r="P218" s="413"/>
+      <c r="L218" s="443"/>
+      <c r="M218" s="418"/>
+      <c r="N218" s="418"/>
+      <c r="O218" s="418"/>
+      <c r="P218" s="419"/>
       <c r="Q218" s="6"/>
     </row>
     <row r="219" spans="1:17">
@@ -29723,13 +30229,13 @@
         <v>10</v>
       </c>
       <c r="I219" s="4"/>
-      <c r="J219" s="407"/>
+      <c r="J219" s="413"/>
       <c r="K219" s="5"/>
-      <c r="L219" s="437"/>
-      <c r="M219" s="412"/>
-      <c r="N219" s="412"/>
-      <c r="O219" s="412"/>
-      <c r="P219" s="413"/>
+      <c r="L219" s="443"/>
+      <c r="M219" s="418"/>
+      <c r="N219" s="418"/>
+      <c r="O219" s="418"/>
+      <c r="P219" s="419"/>
       <c r="Q219" s="6"/>
     </row>
     <row r="220" spans="1:17">
@@ -29740,13 +30246,13 @@
         <v>80</v>
       </c>
       <c r="I220" s="4"/>
-      <c r="J220" s="407"/>
+      <c r="J220" s="413"/>
       <c r="K220" s="5"/>
-      <c r="L220" s="437"/>
-      <c r="M220" s="412"/>
-      <c r="N220" s="412"/>
-      <c r="O220" s="412"/>
-      <c r="P220" s="413"/>
+      <c r="L220" s="443"/>
+      <c r="M220" s="418"/>
+      <c r="N220" s="418"/>
+      <c r="O220" s="418"/>
+      <c r="P220" s="419"/>
       <c r="Q220" s="6"/>
     </row>
     <row r="221" spans="1:17">
@@ -29757,24 +30263,24 @@
         <v>1165</v>
       </c>
       <c r="I221" s="4"/>
-      <c r="J221" s="407"/>
+      <c r="J221" s="413"/>
       <c r="K221" s="5"/>
-      <c r="L221" s="437"/>
-      <c r="M221" s="412"/>
-      <c r="N221" s="412"/>
-      <c r="O221" s="412"/>
-      <c r="P221" s="413"/>
+      <c r="L221" s="443"/>
+      <c r="M221" s="418"/>
+      <c r="N221" s="418"/>
+      <c r="O221" s="418"/>
+      <c r="P221" s="419"/>
       <c r="Q221" s="6"/>
     </row>
     <row r="222" spans="1:17" ht="15.75" thickBot="1">
       <c r="I222" s="4"/>
-      <c r="J222" s="408"/>
+      <c r="J222" s="414"/>
       <c r="K222" s="10"/>
-      <c r="L222" s="438"/>
-      <c r="M222" s="414"/>
-      <c r="N222" s="414"/>
-      <c r="O222" s="414"/>
-      <c r="P222" s="415"/>
+      <c r="L222" s="444"/>
+      <c r="M222" s="420"/>
+      <c r="N222" s="420"/>
+      <c r="O222" s="420"/>
+      <c r="P222" s="421"/>
       <c r="Q222" s="6"/>
     </row>
     <row r="223" spans="1:17" ht="15.75" thickBot="1">
@@ -31597,13 +32103,13 @@
         <v>181</v>
       </c>
       <c r="J3" s="148"/>
-      <c r="K3" s="448"/>
-      <c r="L3" s="448"/>
-      <c r="M3" s="448"/>
-      <c r="N3" s="448"/>
-      <c r="O3" s="448"/>
-      <c r="P3" s="448"/>
-      <c r="Q3" s="449"/>
+      <c r="K3" s="454"/>
+      <c r="L3" s="454"/>
+      <c r="M3" s="454"/>
+      <c r="N3" s="454"/>
+      <c r="O3" s="454"/>
+      <c r="P3" s="454"/>
+      <c r="Q3" s="455"/>
       <c r="T3" s="40" t="s">
         <v>179</v>
       </c>
@@ -31871,13 +32377,13 @@
       <c r="U11" s="38"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="439" t="s">
+      <c r="A12" s="445" t="s">
         <v>667</v>
       </c>
-      <c r="B12" s="440"/>
-      <c r="C12" s="440"/>
-      <c r="D12" s="440"/>
-      <c r="E12" s="441"/>
+      <c r="B12" s="446"/>
+      <c r="C12" s="446"/>
+      <c r="D12" s="446"/>
+      <c r="E12" s="447"/>
       <c r="F12" t="s">
         <v>680</v>
       </c>
@@ -31900,11 +32406,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="442"/>
-      <c r="B13" s="443"/>
-      <c r="C13" s="443"/>
-      <c r="D13" s="443"/>
-      <c r="E13" s="444"/>
+      <c r="A13" s="448"/>
+      <c r="B13" s="449"/>
+      <c r="C13" s="449"/>
+      <c r="D13" s="449"/>
+      <c r="E13" s="450"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -31925,11 +32431,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="442"/>
-      <c r="B14" s="443"/>
-      <c r="C14" s="443"/>
-      <c r="D14" s="443"/>
-      <c r="E14" s="444"/>
+      <c r="A14" s="448"/>
+      <c r="B14" s="449"/>
+      <c r="C14" s="449"/>
+      <c r="D14" s="449"/>
+      <c r="E14" s="450"/>
       <c r="F14" t="s">
         <v>677</v>
       </c>
@@ -31952,11 +32458,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="445"/>
-      <c r="B15" s="446"/>
-      <c r="C15" s="446"/>
-      <c r="D15" s="446"/>
-      <c r="E15" s="447"/>
+      <c r="A15" s="451"/>
+      <c r="B15" s="452"/>
+      <c r="C15" s="452"/>
+      <c r="D15" s="452"/>
+      <c r="E15" s="453"/>
       <c r="F15" s="24"/>
       <c r="H15" s="192"/>
       <c r="I15" s="4" t="s">
@@ -32014,17 +32520,17 @@
       <c r="F17" s="188"/>
       <c r="G17" s="129"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="417" t="s">
+      <c r="I17" s="423" t="s">
         <v>1177</v>
       </c>
-      <c r="J17" s="417"/>
-      <c r="K17" s="417"/>
-      <c r="L17" s="417"/>
-      <c r="M17" s="417"/>
-      <c r="N17" s="417"/>
-      <c r="O17" s="417"/>
-      <c r="P17" s="417"/>
-      <c r="Q17" s="417"/>
+      <c r="J17" s="423"/>
+      <c r="K17" s="423"/>
+      <c r="L17" s="423"/>
+      <c r="M17" s="423"/>
+      <c r="N17" s="423"/>
+      <c r="O17" s="423"/>
+      <c r="P17" s="423"/>
+      <c r="Q17" s="423"/>
       <c r="S17" t="s">
         <v>358</v>
       </c>
@@ -36310,10 +36816,10 @@
       <c r="K232" s="35"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="450" t="s">
+      <c r="O232" s="456" t="s">
         <v>1225</v>
       </c>
-      <c r="P232" s="451"/>
+      <c r="P232" s="457"/>
       <c r="Q232" s="6"/>
     </row>
     <row r="233" spans="2:17">

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -7066,6 +7066,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7237,6 +7238,18 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7258,23 +7271,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7306,6 +7304,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7315,59 +7316,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7423,6 +7373,57 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7444,17 +7445,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7495,58 +7532,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13358,10 +13358,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="469" t="s">
+      <c r="L35" s="470" t="s">
         <v>374</v>
       </c>
-      <c r="M35" s="469"/>
+      <c r="M35" s="470"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -15291,10 +15291,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="470" t="s">
+      <c r="A155" s="471" t="s">
         <v>992</v>
       </c>
-      <c r="B155" s="470"/>
+      <c r="B155" s="471"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="93" t="s">
@@ -17674,7 +17674,7 @@
       <c r="K246" s="398" t="s">
         <v>635</v>
       </c>
-      <c r="L246" s="422" t="s">
+      <c r="L246" s="423" t="s">
         <v>1649</v>
       </c>
       <c r="M246" s="399" t="s">
@@ -17683,10 +17683,10 @@
       <c r="N246" s="399">
         <v>2</v>
       </c>
-      <c r="O246" s="422" t="s">
+      <c r="O246" s="423" t="s">
         <v>1650</v>
       </c>
-      <c r="P246" s="422"/>
+      <c r="P246" s="423"/>
       <c r="Q246" s="405" t="s">
         <v>1655</v>
       </c>
@@ -17700,15 +17700,15 @@
       <c r="I247" s="399"/>
       <c r="J247" s="398"/>
       <c r="K247" s="398"/>
-      <c r="L247" s="422"/>
+      <c r="L247" s="423"/>
       <c r="M247" s="399" t="s">
         <v>364</v>
       </c>
       <c r="N247" s="399">
         <v>5</v>
       </c>
-      <c r="O247" s="422"/>
-      <c r="P247" s="422"/>
+      <c r="O247" s="423"/>
+      <c r="P247" s="423"/>
       <c r="Q247" s="405" t="s">
         <v>1656</v>
       </c>
@@ -17825,7 +17825,7 @@
       </c>
       <c r="L253" s="409"/>
       <c r="M253" s="409"/>
-      <c r="N253" s="439" t="s">
+      <c r="N253" s="440" t="s">
         <v>1658</v>
       </c>
     </row>
@@ -17840,7 +17840,7 @@
       </c>
       <c r="L254" s="409"/>
       <c r="M254" s="409"/>
-      <c r="N254" s="439"/>
+      <c r="N254" s="440"/>
     </row>
     <row r="255" spans="2:17">
       <c r="D255" s="4"/>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="L255" s="410"/>
       <c r="M255" s="410"/>
-      <c r="N255" s="439"/>
+      <c r="N255" s="440"/>
       <c r="O255" s="398"/>
     </row>
     <row r="256" spans="2:17">
@@ -18000,7 +18000,7 @@
   <dimension ref="A2:Q203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="E31" sqref="E31:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18035,18 +18035,18 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="478" t="s">
+      <c r="E6" s="472" t="s">
         <v>406</v>
       </c>
-      <c r="F6" s="416"/>
-      <c r="G6" s="415" t="s">
+      <c r="F6" s="417"/>
+      <c r="G6" s="416" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="415"/>
-      <c r="I6" s="415"/>
-      <c r="J6" s="415"/>
-      <c r="K6" s="415"/>
-      <c r="L6" s="416"/>
+      <c r="H6" s="416"/>
+      <c r="I6" s="416"/>
+      <c r="J6" s="416"/>
+      <c r="K6" s="416"/>
+      <c r="L6" s="417"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="28" t="s">
@@ -18056,7 +18056,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="475">
+      <c r="D7" s="480">
         <v>80</v>
       </c>
       <c r="E7" s="147"/>
@@ -18074,7 +18074,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="475"/>
+      <c r="D8" s="480"/>
       <c r="E8" s="134" t="s">
         <v>408</v>
       </c>
@@ -18109,7 +18109,7 @@
       <c r="B9" t="s">
         <v>407</v>
       </c>
-      <c r="D9" s="475"/>
+      <c r="D9" s="480"/>
       <c r="E9" s="149"/>
       <c r="F9" s="344"/>
       <c r="G9" s="149"/>
@@ -18133,7 +18133,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="475"/>
+      <c r="D10" s="480"/>
       <c r="E10" s="147"/>
       <c r="F10" s="148"/>
       <c r="G10" s="147"/>
@@ -18157,7 +18157,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="475"/>
+      <c r="D11" s="480"/>
       <c r="E11" s="134" t="s">
         <v>412</v>
       </c>
@@ -18186,7 +18186,7 @@
       <c r="B12" s="209" t="s">
         <v>416</v>
       </c>
-      <c r="D12" s="475"/>
+      <c r="D12" s="480"/>
       <c r="E12" s="149"/>
       <c r="F12" s="344"/>
       <c r="G12" s="149"/>
@@ -18204,7 +18204,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="475"/>
+      <c r="D13" s="480"/>
       <c r="E13" s="147"/>
       <c r="F13" s="148"/>
       <c r="G13" s="147"/>
@@ -18220,7 +18220,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="475"/>
+      <c r="D14" s="480"/>
       <c r="E14" s="134" t="s">
         <v>417</v>
       </c>
@@ -18244,7 +18244,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="475"/>
+      <c r="D15" s="480"/>
       <c r="E15" s="149"/>
       <c r="F15" s="344"/>
       <c r="G15" s="149"/>
@@ -18260,7 +18260,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="475"/>
+      <c r="D16" s="480"/>
       <c r="E16" s="147"/>
       <c r="F16" s="148"/>
       <c r="G16" s="24"/>
@@ -18276,7 +18276,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="475"/>
+      <c r="D17" s="480"/>
       <c r="E17" s="134" t="s">
         <v>421</v>
       </c>
@@ -18300,7 +18300,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="475"/>
+      <c r="D18" s="480"/>
       <c r="E18" s="149"/>
       <c r="F18" s="344"/>
       <c r="G18" s="71"/>
@@ -18317,20 +18317,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="479" t="s">
+      <c r="E19" s="473" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="480"/>
-      <c r="G19" s="479" t="s">
+      <c r="F19" s="474"/>
+      <c r="G19" s="473" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="480"/>
-      <c r="I19" s="479" t="s">
+      <c r="H19" s="474"/>
+      <c r="I19" s="473" t="s">
         <v>196</v>
       </c>
-      <c r="J19" s="481"/>
-      <c r="K19" s="481"/>
-      <c r="L19" s="480"/>
+      <c r="J19" s="475"/>
+      <c r="K19" s="475"/>
+      <c r="L19" s="474"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -18395,12 +18395,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="477"/>
-      <c r="H24" s="477"/>
-      <c r="I24" s="477"/>
-      <c r="J24" s="477"/>
-      <c r="K24" s="477"/>
-      <c r="L24" s="477"/>
+      <c r="G24" s="482"/>
+      <c r="H24" s="482"/>
+      <c r="I24" s="482"/>
+      <c r="J24" s="482"/>
+      <c r="K24" s="482"/>
+      <c r="L24" s="482"/>
       <c r="O24" s="40" t="s">
         <v>179</v>
       </c>
@@ -18615,7 +18615,7 @@
       </c>
       <c r="J33" s="208"/>
       <c r="K33" s="208"/>
-      <c r="L33" s="574"/>
+      <c r="L33" s="414"/>
       <c r="Q33" s="6"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" thickBot="1">
@@ -18773,11 +18773,11 @@
       <c r="G47" s="222" t="s">
         <v>882</v>
       </c>
-      <c r="H47" s="467" t="s">
+      <c r="H47" s="468" t="s">
         <v>1353</v>
       </c>
-      <c r="I47" s="476"/>
-      <c r="J47" s="468"/>
+      <c r="I47" s="481"/>
+      <c r="J47" s="469"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -19383,16 +19383,16 @@
         <v>1047</v>
       </c>
       <c r="F131" s="38"/>
-      <c r="G131" s="473" t="s">
+      <c r="G131" s="478" t="s">
         <v>1040</v>
       </c>
-      <c r="H131" s="473"/>
-      <c r="I131" s="473"/>
-      <c r="J131" s="473"/>
-      <c r="K131" s="473"/>
-      <c r="L131" s="473"/>
-      <c r="M131" s="473"/>
-      <c r="N131" s="473"/>
+      <c r="H131" s="478"/>
+      <c r="I131" s="478"/>
+      <c r="J131" s="478"/>
+      <c r="K131" s="478"/>
+      <c r="L131" s="478"/>
+      <c r="M131" s="478"/>
+      <c r="N131" s="478"/>
       <c r="O131" s="38"/>
     </row>
     <row r="132" spans="2:15">
@@ -19529,29 +19529,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="38"/>
-      <c r="G141" s="474"/>
-      <c r="H141" s="474"/>
-      <c r="I141" s="474"/>
-      <c r="J141" s="474"/>
-      <c r="K141" s="474"/>
-      <c r="L141" s="474"/>
-      <c r="M141" s="474"/>
-      <c r="N141" s="474"/>
-      <c r="O141" s="474"/>
+      <c r="G141" s="479"/>
+      <c r="H141" s="479"/>
+      <c r="I141" s="479"/>
+      <c r="J141" s="479"/>
+      <c r="K141" s="479"/>
+      <c r="L141" s="479"/>
+      <c r="M141" s="479"/>
+      <c r="N141" s="479"/>
+      <c r="O141" s="479"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="474"/>
-      <c r="H142" s="474"/>
-      <c r="I142" s="474"/>
-      <c r="J142" s="474"/>
-      <c r="K142" s="474"/>
-      <c r="L142" s="474"/>
-      <c r="M142" s="474"/>
-      <c r="N142" s="474"/>
-      <c r="O142" s="474"/>
+      <c r="G142" s="479"/>
+      <c r="H142" s="479"/>
+      <c r="I142" s="479"/>
+      <c r="J142" s="479"/>
+      <c r="K142" s="479"/>
+      <c r="L142" s="479"/>
+      <c r="M142" s="479"/>
+      <c r="N142" s="479"/>
+      <c r="O142" s="479"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -19595,7 +19595,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="471" t="s">
+      <c r="D158" s="476" t="s">
         <v>1319</v>
       </c>
       <c r="E158" s="66"/>
@@ -19608,7 +19608,7 @@
       <c r="L158" s="237"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="472"/>
+      <c r="D159" s="477"/>
       <c r="E159" s="313" t="s">
         <v>1317</v>
       </c>
@@ -19630,7 +19630,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="472"/>
+      <c r="D160" s="477"/>
       <c r="E160" s="232"/>
       <c r="F160" s="238"/>
       <c r="G160" s="232"/>
@@ -19641,7 +19641,7 @@
       <c r="L160" s="238"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="472"/>
+      <c r="D161" s="477"/>
       <c r="E161" s="315"/>
       <c r="F161" s="316"/>
       <c r="G161" s="315"/>
@@ -19652,7 +19652,7 @@
       <c r="L161" s="316"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="472"/>
+      <c r="D162" s="477"/>
       <c r="E162" s="317"/>
       <c r="F162" s="318"/>
       <c r="G162" s="317"/>
@@ -19666,7 +19666,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="472"/>
+      <c r="D163" s="477"/>
       <c r="E163" s="319"/>
       <c r="F163" s="320"/>
       <c r="G163" s="319"/>
@@ -19677,7 +19677,7 @@
       <c r="L163" s="320"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="472"/>
+      <c r="D164" s="477"/>
       <c r="E164" s="66"/>
       <c r="F164" s="237"/>
       <c r="G164" s="66"/>
@@ -19688,7 +19688,7 @@
       <c r="L164" s="237"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="472"/>
+      <c r="D165" s="477"/>
       <c r="E165" s="58"/>
       <c r="F165" s="312"/>
       <c r="G165" s="58"/>
@@ -19702,7 +19702,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="472"/>
+      <c r="D166" s="477"/>
       <c r="E166" s="232"/>
       <c r="F166" s="238"/>
       <c r="G166" s="232"/>
@@ -19713,7 +19713,7 @@
       <c r="L166" s="238"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="472"/>
+      <c r="D167" s="477"/>
       <c r="E167" s="66"/>
       <c r="F167" s="237"/>
       <c r="G167" s="59"/>
@@ -19724,7 +19724,7 @@
       <c r="L167" s="312"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="472"/>
+      <c r="D168" s="477"/>
       <c r="E168" s="58"/>
       <c r="F168" s="312"/>
       <c r="G168" s="59"/>
@@ -19738,7 +19738,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="472"/>
+      <c r="D169" s="477"/>
       <c r="E169" s="232"/>
       <c r="F169" s="238"/>
       <c r="G169" s="321"/>
@@ -19918,17 +19918,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -20173,13 +20173,13 @@
       <c r="C20" s="116">
         <v>43908</v>
       </c>
-      <c r="D20" s="482" t="s">
+      <c r="D20" s="483" t="s">
         <v>456</v>
       </c>
-      <c r="E20" s="482"/>
-      <c r="F20" s="482"/>
-      <c r="G20" s="482"/>
-      <c r="H20" s="482"/>
+      <c r="E20" s="483"/>
+      <c r="F20" s="483"/>
+      <c r="G20" s="483"/>
+      <c r="H20" s="483"/>
       <c r="I20" s="38" t="s">
         <v>457</v>
       </c>
@@ -20190,37 +20190,37 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="483">
+      <c r="C21" s="494">
         <v>43909</v>
       </c>
-      <c r="D21" s="482"/>
-      <c r="E21" s="482"/>
-      <c r="F21" s="482"/>
-      <c r="G21" s="482"/>
-      <c r="H21" s="482"/>
+      <c r="D21" s="483"/>
+      <c r="E21" s="483"/>
+      <c r="F21" s="483"/>
+      <c r="G21" s="483"/>
+      <c r="H21" s="483"/>
       <c r="I21" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="J21" s="482"/>
-      <c r="K21" s="482"/>
-      <c r="L21" s="482" t="s">
+      <c r="J21" s="483"/>
+      <c r="K21" s="483"/>
+      <c r="L21" s="483" t="s">
         <v>459</v>
       </c>
-      <c r="M21" s="482"/>
-      <c r="N21" s="482"/>
+      <c r="M21" s="483"/>
+      <c r="N21" s="483"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="483"/>
-      <c r="D22" s="482"/>
-      <c r="E22" s="482"/>
-      <c r="F22" s="482"/>
-      <c r="G22" s="482"/>
-      <c r="H22" s="482"/>
-      <c r="I22" s="422" t="s">
+      <c r="C22" s="494"/>
+      <c r="D22" s="483"/>
+      <c r="E22" s="483"/>
+      <c r="F22" s="483"/>
+      <c r="G22" s="483"/>
+      <c r="H22" s="483"/>
+      <c r="I22" s="423" t="s">
         <v>460</v>
       </c>
-      <c r="J22" s="482"/>
-      <c r="K22" s="482"/>
+      <c r="J22" s="483"/>
+      <c r="K22" s="483"/>
       <c r="L22" s="117" t="s">
         <v>461</v>
       </c>
@@ -20228,31 +20228,31 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="483"/>
-      <c r="D23" s="482"/>
-      <c r="E23" s="482"/>
-      <c r="F23" s="482"/>
-      <c r="G23" s="482"/>
-      <c r="H23" s="482"/>
-      <c r="I23" s="422"/>
-      <c r="J23" s="482"/>
-      <c r="K23" s="482"/>
-      <c r="L23" s="482" t="s">
+      <c r="C23" s="494"/>
+      <c r="D23" s="483"/>
+      <c r="E23" s="483"/>
+      <c r="F23" s="483"/>
+      <c r="G23" s="483"/>
+      <c r="H23" s="483"/>
+      <c r="I23" s="423"/>
+      <c r="J23" s="483"/>
+      <c r="K23" s="483"/>
+      <c r="L23" s="483" t="s">
         <v>462</v>
       </c>
-      <c r="M23" s="482"/>
-      <c r="N23" s="482"/>
+      <c r="M23" s="483"/>
+      <c r="N23" s="483"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="483"/>
-      <c r="D24" s="482"/>
-      <c r="E24" s="482"/>
-      <c r="F24" s="482"/>
-      <c r="G24" s="482"/>
-      <c r="H24" s="482"/>
-      <c r="I24" s="422"/>
-      <c r="J24" s="482"/>
-      <c r="K24" s="482"/>
+      <c r="C24" s="494"/>
+      <c r="D24" s="483"/>
+      <c r="E24" s="483"/>
+      <c r="F24" s="483"/>
+      <c r="G24" s="483"/>
+      <c r="H24" s="483"/>
+      <c r="I24" s="423"/>
+      <c r="J24" s="483"/>
+      <c r="K24" s="483"/>
       <c r="L24" s="118" t="s">
         <v>460</v>
       </c>
@@ -20263,13 +20263,13 @@
       <c r="C25" s="116">
         <v>43910</v>
       </c>
-      <c r="D25" s="482" t="s">
+      <c r="D25" s="483" t="s">
         <v>463</v>
       </c>
-      <c r="E25" s="482"/>
-      <c r="F25" s="482"/>
-      <c r="G25" s="482"/>
-      <c r="H25" s="482"/>
+      <c r="E25" s="483"/>
+      <c r="F25" s="483"/>
+      <c r="G25" s="483"/>
+      <c r="H25" s="483"/>
       <c r="I25" s="38" t="s">
         <v>464</v>
       </c>
@@ -20302,25 +20302,25 @@
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
       <c r="D27" s="487"/>
-      <c r="E27" s="477"/>
-      <c r="F27" s="477"/>
-      <c r="G27" s="477"/>
+      <c r="E27" s="482"/>
+      <c r="F27" s="482"/>
+      <c r="G27" s="482"/>
       <c r="H27" s="488"/>
       <c r="I27" s="492"/>
       <c r="J27" s="487"/>
       <c r="K27" s="488"/>
-      <c r="L27" s="482" t="s">
+      <c r="L27" s="483" t="s">
         <v>465</v>
       </c>
-      <c r="M27" s="482"/>
-      <c r="N27" s="482"/>
+      <c r="M27" s="483"/>
+      <c r="N27" s="483"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
       <c r="D28" s="487"/>
-      <c r="E28" s="477"/>
-      <c r="F28" s="477"/>
-      <c r="G28" s="477"/>
+      <c r="E28" s="482"/>
+      <c r="F28" s="482"/>
+      <c r="G28" s="482"/>
       <c r="H28" s="488"/>
       <c r="I28" s="492"/>
       <c r="J28" s="487"/>
@@ -20334,9 +20334,9 @@
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
       <c r="D29" s="489"/>
-      <c r="E29" s="469"/>
-      <c r="F29" s="469"/>
-      <c r="G29" s="469"/>
+      <c r="E29" s="470"/>
+      <c r="F29" s="470"/>
+      <c r="G29" s="470"/>
       <c r="H29" s="490"/>
       <c r="I29" s="493"/>
       <c r="J29" s="489"/>
@@ -20388,13 +20388,13 @@
       <c r="C33" s="116">
         <v>43908</v>
       </c>
-      <c r="D33" s="482" t="s">
+      <c r="D33" s="483" t="s">
         <v>456</v>
       </c>
-      <c r="E33" s="482"/>
-      <c r="F33" s="482"/>
-      <c r="G33" s="482"/>
-      <c r="H33" s="482"/>
+      <c r="E33" s="483"/>
+      <c r="F33" s="483"/>
+      <c r="G33" s="483"/>
+      <c r="H33" s="483"/>
       <c r="I33" s="38" t="s">
         <v>457</v>
       </c>
@@ -20405,33 +20405,33 @@
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="483">
+      <c r="C34" s="494">
         <v>43909</v>
       </c>
-      <c r="D34" s="482"/>
-      <c r="E34" s="482"/>
-      <c r="F34" s="482"/>
-      <c r="G34" s="482"/>
-      <c r="H34" s="482"/>
-      <c r="I34" s="494"/>
-      <c r="J34" s="482"/>
-      <c r="K34" s="482"/>
-      <c r="L34" s="482" t="s">
+      <c r="D34" s="483"/>
+      <c r="E34" s="483"/>
+      <c r="F34" s="483"/>
+      <c r="G34" s="483"/>
+      <c r="H34" s="483"/>
+      <c r="I34" s="495"/>
+      <c r="J34" s="483"/>
+      <c r="K34" s="483"/>
+      <c r="L34" s="483" t="s">
         <v>459</v>
       </c>
-      <c r="M34" s="482"/>
-      <c r="N34" s="482"/>
+      <c r="M34" s="483"/>
+      <c r="N34" s="483"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="483"/>
-      <c r="D35" s="482"/>
-      <c r="E35" s="482"/>
-      <c r="F35" s="482"/>
-      <c r="G35" s="482"/>
-      <c r="H35" s="482"/>
-      <c r="I35" s="495"/>
-      <c r="J35" s="482"/>
-      <c r="K35" s="482"/>
+      <c r="C35" s="494"/>
+      <c r="D35" s="483"/>
+      <c r="E35" s="483"/>
+      <c r="F35" s="483"/>
+      <c r="G35" s="483"/>
+      <c r="H35" s="483"/>
+      <c r="I35" s="496"/>
+      <c r="J35" s="483"/>
+      <c r="K35" s="483"/>
       <c r="L35" s="117" t="s">
         <v>461</v>
       </c>
@@ -20439,31 +20439,31 @@
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="483"/>
-      <c r="D36" s="482"/>
-      <c r="E36" s="482"/>
-      <c r="F36" s="482"/>
-      <c r="G36" s="482"/>
-      <c r="H36" s="482"/>
-      <c r="I36" s="495"/>
-      <c r="J36" s="482"/>
-      <c r="K36" s="482"/>
-      <c r="L36" s="482" t="s">
+      <c r="C36" s="494"/>
+      <c r="D36" s="483"/>
+      <c r="E36" s="483"/>
+      <c r="F36" s="483"/>
+      <c r="G36" s="483"/>
+      <c r="H36" s="483"/>
+      <c r="I36" s="496"/>
+      <c r="J36" s="483"/>
+      <c r="K36" s="483"/>
+      <c r="L36" s="483" t="s">
         <v>462</v>
       </c>
-      <c r="M36" s="482"/>
-      <c r="N36" s="482"/>
+      <c r="M36" s="483"/>
+      <c r="N36" s="483"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="483"/>
-      <c r="D37" s="482"/>
-      <c r="E37" s="482"/>
-      <c r="F37" s="482"/>
-      <c r="G37" s="482"/>
-      <c r="H37" s="482"/>
-      <c r="I37" s="496"/>
-      <c r="J37" s="482"/>
-      <c r="K37" s="482"/>
+      <c r="C37" s="494"/>
+      <c r="D37" s="483"/>
+      <c r="E37" s="483"/>
+      <c r="F37" s="483"/>
+      <c r="G37" s="483"/>
+      <c r="H37" s="483"/>
+      <c r="I37" s="497"/>
+      <c r="J37" s="483"/>
+      <c r="K37" s="483"/>
       <c r="L37" s="118" t="s">
         <v>467</v>
       </c>
@@ -20474,13 +20474,13 @@
       <c r="C38" s="116">
         <v>43910</v>
       </c>
-      <c r="D38" s="482" t="s">
+      <c r="D38" s="483" t="s">
         <v>463</v>
       </c>
-      <c r="E38" s="482"/>
-      <c r="F38" s="482"/>
-      <c r="G38" s="482"/>
-      <c r="H38" s="482"/>
+      <c r="E38" s="483"/>
+      <c r="F38" s="483"/>
+      <c r="G38" s="483"/>
+      <c r="H38" s="483"/>
       <c r="I38" s="38" t="s">
         <v>464</v>
       </c>
@@ -20511,25 +20511,25 @@
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
       <c r="D40" s="487"/>
-      <c r="E40" s="477"/>
-      <c r="F40" s="477"/>
-      <c r="G40" s="477"/>
+      <c r="E40" s="482"/>
+      <c r="F40" s="482"/>
+      <c r="G40" s="482"/>
       <c r="H40" s="488"/>
       <c r="I40" s="492"/>
       <c r="J40" s="487"/>
       <c r="K40" s="488"/>
-      <c r="L40" s="482" t="s">
+      <c r="L40" s="483" t="s">
         <v>465</v>
       </c>
-      <c r="M40" s="482"/>
-      <c r="N40" s="482"/>
+      <c r="M40" s="483"/>
+      <c r="N40" s="483"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
       <c r="D41" s="487"/>
-      <c r="E41" s="477"/>
-      <c r="F41" s="477"/>
-      <c r="G41" s="477"/>
+      <c r="E41" s="482"/>
+      <c r="F41" s="482"/>
+      <c r="G41" s="482"/>
       <c r="H41" s="488"/>
       <c r="I41" s="493"/>
       <c r="J41" s="487"/>
@@ -20543,9 +20543,9 @@
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
       <c r="D42" s="489"/>
-      <c r="E42" s="469"/>
-      <c r="F42" s="469"/>
-      <c r="G42" s="469"/>
+      <c r="E42" s="470"/>
+      <c r="F42" s="470"/>
+      <c r="G42" s="470"/>
       <c r="H42" s="490"/>
       <c r="I42" s="38" t="s">
         <v>458</v>
@@ -20863,17 +20863,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -20881,12 +20876,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20908,29 +20908,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="507" t="s">
+      <c r="B2" s="517" t="s">
         <v>1075</v>
       </c>
-      <c r="C2" s="507"/>
-      <c r="D2" s="507"/>
-      <c r="E2" s="507"/>
-      <c r="F2" s="507"/>
-      <c r="G2" s="507"/>
-      <c r="H2" s="507"/>
-      <c r="I2" s="507"/>
-      <c r="J2" s="507"/>
-      <c r="K2" s="507"/>
-      <c r="L2" s="507"/>
-      <c r="M2" s="507"/>
-      <c r="N2" s="507"/>
-      <c r="O2" s="507"/>
-      <c r="P2" s="507"/>
-      <c r="Q2" s="507"/>
-      <c r="R2" s="507"/>
-      <c r="S2" s="507"/>
-      <c r="T2" s="507"/>
-      <c r="U2" s="507"/>
-      <c r="V2" s="507"/>
+      <c r="C2" s="517"/>
+      <c r="D2" s="517"/>
+      <c r="E2" s="517"/>
+      <c r="F2" s="517"/>
+      <c r="G2" s="517"/>
+      <c r="H2" s="517"/>
+      <c r="I2" s="517"/>
+      <c r="J2" s="517"/>
+      <c r="K2" s="517"/>
+      <c r="L2" s="517"/>
+      <c r="M2" s="517"/>
+      <c r="N2" s="517"/>
+      <c r="O2" s="517"/>
+      <c r="P2" s="517"/>
+      <c r="Q2" s="517"/>
+      <c r="R2" s="517"/>
+      <c r="S2" s="517"/>
+      <c r="T2" s="517"/>
+      <c r="U2" s="517"/>
+      <c r="V2" s="517"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -20963,22 +20963,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="510" t="s">
+      <c r="G5" s="498" t="s">
         <v>518</v>
       </c>
-      <c r="H5" s="510"/>
-      <c r="I5" s="510" t="s">
+      <c r="H5" s="498"/>
+      <c r="I5" s="498" t="s">
         <v>519</v>
       </c>
-      <c r="J5" s="510"/>
-      <c r="K5" s="510"/>
-      <c r="L5" s="510"/>
-      <c r="M5" s="510"/>
-      <c r="N5" s="510"/>
-      <c r="O5" s="510" t="s">
+      <c r="J5" s="498"/>
+      <c r="K5" s="498"/>
+      <c r="L5" s="498"/>
+      <c r="M5" s="498"/>
+      <c r="N5" s="498"/>
+      <c r="O5" s="498" t="s">
         <v>520</v>
       </c>
-      <c r="P5" s="510"/>
+      <c r="P5" s="498"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -20990,7 +20990,7 @@
       <c r="D6" s="135"/>
       <c r="E6" s="136"/>
       <c r="F6" s="138"/>
-      <c r="G6" s="515" t="s">
+      <c r="G6" s="499" t="s">
         <v>521</v>
       </c>
       <c r="H6" s="111"/>
@@ -21019,26 +21019,26 @@
       </c>
       <c r="E7" s="138"/>
       <c r="F7" s="138"/>
-      <c r="G7" s="424"/>
-      <c r="H7" s="516" t="s">
+      <c r="G7" s="425"/>
+      <c r="H7" s="500" t="s">
         <v>523</v>
       </c>
-      <c r="I7" s="519" t="s">
+      <c r="I7" s="503" t="s">
         <v>524</v>
       </c>
-      <c r="J7" s="520"/>
-      <c r="K7" s="521" t="s">
+      <c r="J7" s="504"/>
+      <c r="K7" s="505" t="s">
         <v>525</v>
       </c>
-      <c r="L7" s="522"/>
-      <c r="M7" s="519" t="s">
+      <c r="L7" s="506"/>
+      <c r="M7" s="503" t="s">
         <v>526</v>
       </c>
-      <c r="N7" s="520"/>
-      <c r="O7" s="527" t="s">
+      <c r="N7" s="504"/>
+      <c r="O7" s="511" t="s">
         <v>527</v>
       </c>
-      <c r="P7" s="528"/>
+      <c r="P7" s="512"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -21050,16 +21050,16 @@
       <c r="D8" s="139"/>
       <c r="E8" s="140"/>
       <c r="F8" s="138"/>
-      <c r="G8" s="424"/>
-      <c r="H8" s="517"/>
-      <c r="I8" s="419"/>
-      <c r="J8" s="421"/>
-      <c r="K8" s="523"/>
-      <c r="L8" s="524"/>
-      <c r="M8" s="419"/>
-      <c r="N8" s="421"/>
-      <c r="O8" s="529"/>
-      <c r="P8" s="530"/>
+      <c r="G8" s="425"/>
+      <c r="H8" s="501"/>
+      <c r="I8" s="420"/>
+      <c r="J8" s="422"/>
+      <c r="K8" s="507"/>
+      <c r="L8" s="508"/>
+      <c r="M8" s="420"/>
+      <c r="N8" s="422"/>
+      <c r="O8" s="513"/>
+      <c r="P8" s="514"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="38" t="s">
         <v>182</v>
@@ -21077,16 +21077,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="424"/>
-      <c r="H9" s="517"/>
-      <c r="I9" s="419"/>
-      <c r="J9" s="421"/>
-      <c r="K9" s="523"/>
-      <c r="L9" s="524"/>
-      <c r="M9" s="419"/>
-      <c r="N9" s="421"/>
-      <c r="O9" s="529"/>
-      <c r="P9" s="530"/>
+      <c r="G9" s="425"/>
+      <c r="H9" s="501"/>
+      <c r="I9" s="420"/>
+      <c r="J9" s="422"/>
+      <c r="K9" s="507"/>
+      <c r="L9" s="508"/>
+      <c r="M9" s="420"/>
+      <c r="N9" s="422"/>
+      <c r="O9" s="513"/>
+      <c r="P9" s="514"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -21106,16 +21106,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="424"/>
-      <c r="H10" s="517"/>
-      <c r="I10" s="419"/>
-      <c r="J10" s="421"/>
-      <c r="K10" s="523"/>
-      <c r="L10" s="524"/>
-      <c r="M10" s="419"/>
-      <c r="N10" s="421"/>
-      <c r="O10" s="529"/>
-      <c r="P10" s="530"/>
+      <c r="G10" s="425"/>
+      <c r="H10" s="501"/>
+      <c r="I10" s="420"/>
+      <c r="J10" s="422"/>
+      <c r="K10" s="507"/>
+      <c r="L10" s="508"/>
+      <c r="M10" s="420"/>
+      <c r="N10" s="422"/>
+      <c r="O10" s="513"/>
+      <c r="P10" s="514"/>
       <c r="Q10" s="5" t="s">
         <v>187</v>
       </c>
@@ -21131,16 +21131,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="424"/>
-      <c r="H11" s="517"/>
-      <c r="I11" s="419"/>
-      <c r="J11" s="421"/>
-      <c r="K11" s="523"/>
-      <c r="L11" s="524"/>
-      <c r="M11" s="419"/>
-      <c r="N11" s="421"/>
-      <c r="O11" s="529"/>
-      <c r="P11" s="530"/>
+      <c r="G11" s="425"/>
+      <c r="H11" s="501"/>
+      <c r="I11" s="420"/>
+      <c r="J11" s="422"/>
+      <c r="K11" s="507"/>
+      <c r="L11" s="508"/>
+      <c r="M11" s="420"/>
+      <c r="N11" s="422"/>
+      <c r="O11" s="513"/>
+      <c r="P11" s="514"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -21158,16 +21158,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="424"/>
-      <c r="H12" s="517"/>
-      <c r="I12" s="419"/>
-      <c r="J12" s="421"/>
-      <c r="K12" s="523"/>
-      <c r="L12" s="524"/>
-      <c r="M12" s="419"/>
-      <c r="N12" s="421"/>
-      <c r="O12" s="529"/>
-      <c r="P12" s="530"/>
+      <c r="G12" s="425"/>
+      <c r="H12" s="501"/>
+      <c r="I12" s="420"/>
+      <c r="J12" s="422"/>
+      <c r="K12" s="507"/>
+      <c r="L12" s="508"/>
+      <c r="M12" s="420"/>
+      <c r="N12" s="422"/>
+      <c r="O12" s="513"/>
+      <c r="P12" s="514"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -21181,16 +21181,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="424"/>
-      <c r="H13" s="517"/>
-      <c r="I13" s="419"/>
-      <c r="J13" s="421"/>
-      <c r="K13" s="523"/>
-      <c r="L13" s="524"/>
-      <c r="M13" s="419"/>
-      <c r="N13" s="421"/>
-      <c r="O13" s="529"/>
-      <c r="P13" s="530"/>
+      <c r="G13" s="425"/>
+      <c r="H13" s="501"/>
+      <c r="I13" s="420"/>
+      <c r="J13" s="422"/>
+      <c r="K13" s="507"/>
+      <c r="L13" s="508"/>
+      <c r="M13" s="420"/>
+      <c r="N13" s="422"/>
+      <c r="O13" s="513"/>
+      <c r="P13" s="514"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -21202,16 +21202,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="424"/>
-      <c r="H14" s="517"/>
-      <c r="I14" s="419"/>
-      <c r="J14" s="421"/>
-      <c r="K14" s="523"/>
-      <c r="L14" s="524"/>
-      <c r="M14" s="419"/>
-      <c r="N14" s="421"/>
-      <c r="O14" s="529"/>
-      <c r="P14" s="530"/>
+      <c r="G14" s="425"/>
+      <c r="H14" s="501"/>
+      <c r="I14" s="420"/>
+      <c r="J14" s="422"/>
+      <c r="K14" s="507"/>
+      <c r="L14" s="508"/>
+      <c r="M14" s="420"/>
+      <c r="N14" s="422"/>
+      <c r="O14" s="513"/>
+      <c r="P14" s="514"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -21225,16 +21225,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="424"/>
-      <c r="H15" s="517"/>
-      <c r="I15" s="419"/>
-      <c r="J15" s="421"/>
-      <c r="K15" s="523"/>
-      <c r="L15" s="524"/>
-      <c r="M15" s="419"/>
-      <c r="N15" s="421"/>
-      <c r="O15" s="529"/>
-      <c r="P15" s="530"/>
+      <c r="G15" s="425"/>
+      <c r="H15" s="501"/>
+      <c r="I15" s="420"/>
+      <c r="J15" s="422"/>
+      <c r="K15" s="507"/>
+      <c r="L15" s="508"/>
+      <c r="M15" s="420"/>
+      <c r="N15" s="422"/>
+      <c r="O15" s="513"/>
+      <c r="P15" s="514"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -21246,16 +21246,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="424"/>
-      <c r="H16" s="517"/>
-      <c r="I16" s="419"/>
-      <c r="J16" s="421"/>
-      <c r="K16" s="523"/>
-      <c r="L16" s="524"/>
-      <c r="M16" s="419"/>
-      <c r="N16" s="421"/>
-      <c r="O16" s="529"/>
-      <c r="P16" s="530"/>
+      <c r="G16" s="425"/>
+      <c r="H16" s="501"/>
+      <c r="I16" s="420"/>
+      <c r="J16" s="422"/>
+      <c r="K16" s="507"/>
+      <c r="L16" s="508"/>
+      <c r="M16" s="420"/>
+      <c r="N16" s="422"/>
+      <c r="O16" s="513"/>
+      <c r="P16" s="514"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -21267,16 +21267,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="424"/>
-      <c r="H17" s="517"/>
-      <c r="I17" s="419"/>
-      <c r="J17" s="421"/>
-      <c r="K17" s="523"/>
-      <c r="L17" s="524"/>
-      <c r="M17" s="419"/>
-      <c r="N17" s="421"/>
-      <c r="O17" s="529"/>
-      <c r="P17" s="530"/>
+      <c r="G17" s="425"/>
+      <c r="H17" s="501"/>
+      <c r="I17" s="420"/>
+      <c r="J17" s="422"/>
+      <c r="K17" s="507"/>
+      <c r="L17" s="508"/>
+      <c r="M17" s="420"/>
+      <c r="N17" s="422"/>
+      <c r="O17" s="513"/>
+      <c r="P17" s="514"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -21288,16 +21288,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="424"/>
-      <c r="H18" s="517"/>
-      <c r="I18" s="419"/>
-      <c r="J18" s="421"/>
-      <c r="K18" s="523"/>
-      <c r="L18" s="524"/>
-      <c r="M18" s="419"/>
-      <c r="N18" s="421"/>
-      <c r="O18" s="529"/>
-      <c r="P18" s="530"/>
+      <c r="G18" s="425"/>
+      <c r="H18" s="501"/>
+      <c r="I18" s="420"/>
+      <c r="J18" s="422"/>
+      <c r="K18" s="507"/>
+      <c r="L18" s="508"/>
+      <c r="M18" s="420"/>
+      <c r="N18" s="422"/>
+      <c r="O18" s="513"/>
+      <c r="P18" s="514"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -21311,16 +21311,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="424"/>
-      <c r="H19" s="517"/>
-      <c r="I19" s="419"/>
-      <c r="J19" s="421"/>
-      <c r="K19" s="523"/>
-      <c r="L19" s="524"/>
-      <c r="M19" s="419"/>
-      <c r="N19" s="421"/>
-      <c r="O19" s="529"/>
-      <c r="P19" s="530"/>
+      <c r="G19" s="425"/>
+      <c r="H19" s="501"/>
+      <c r="I19" s="420"/>
+      <c r="J19" s="422"/>
+      <c r="K19" s="507"/>
+      <c r="L19" s="508"/>
+      <c r="M19" s="420"/>
+      <c r="N19" s="422"/>
+      <c r="O19" s="513"/>
+      <c r="P19" s="514"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -21332,16 +21332,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="425"/>
-      <c r="H20" s="518"/>
-      <c r="I20" s="440"/>
-      <c r="J20" s="442"/>
-      <c r="K20" s="525"/>
-      <c r="L20" s="526"/>
-      <c r="M20" s="440"/>
-      <c r="N20" s="442"/>
-      <c r="O20" s="531"/>
-      <c r="P20" s="532"/>
+      <c r="G20" s="426"/>
+      <c r="H20" s="502"/>
+      <c r="I20" s="441"/>
+      <c r="J20" s="443"/>
+      <c r="K20" s="509"/>
+      <c r="L20" s="510"/>
+      <c r="M20" s="441"/>
+      <c r="N20" s="443"/>
+      <c r="O20" s="515"/>
+      <c r="P20" s="516"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -21371,27 +21371,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="443" t="s">
+      <c r="D22" s="444" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="444"/>
+      <c r="E22" s="445"/>
       <c r="F22" s="265"/>
       <c r="G22" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="443" t="s">
+      <c r="H22" s="444" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="445"/>
-      <c r="J22" s="445"/>
-      <c r="K22" s="445"/>
-      <c r="L22" s="445"/>
-      <c r="M22" s="445"/>
-      <c r="N22" s="444"/>
-      <c r="O22" s="443" t="s">
+      <c r="I22" s="446"/>
+      <c r="J22" s="446"/>
+      <c r="K22" s="446"/>
+      <c r="L22" s="446"/>
+      <c r="M22" s="446"/>
+      <c r="N22" s="445"/>
+      <c r="O22" s="444" t="s">
         <v>528</v>
       </c>
-      <c r="P22" s="444"/>
+      <c r="P22" s="445"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -21422,59 +21422,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="507" t="s">
+      <c r="B25" s="517" t="s">
         <v>1074</v>
       </c>
-      <c r="C25" s="507"/>
-      <c r="D25" s="507"/>
-      <c r="E25" s="507"/>
-      <c r="F25" s="507"/>
-      <c r="G25" s="507"/>
-      <c r="H25" s="507"/>
-      <c r="I25" s="507"/>
-      <c r="J25" s="507"/>
-      <c r="K25" s="507"/>
-      <c r="L25" s="507"/>
-      <c r="M25" s="507"/>
-      <c r="N25" s="507"/>
-      <c r="O25" s="507"/>
-      <c r="P25" s="507"/>
-      <c r="Q25" s="507"/>
-      <c r="R25" s="507"/>
-      <c r="S25" s="507"/>
-      <c r="T25" s="507"/>
-      <c r="U25" s="507"/>
-      <c r="V25" s="507"/>
+      <c r="C25" s="517"/>
+      <c r="D25" s="517"/>
+      <c r="E25" s="517"/>
+      <c r="F25" s="517"/>
+      <c r="G25" s="517"/>
+      <c r="H25" s="517"/>
+      <c r="I25" s="517"/>
+      <c r="J25" s="517"/>
+      <c r="K25" s="517"/>
+      <c r="L25" s="517"/>
+      <c r="M25" s="517"/>
+      <c r="N25" s="517"/>
+      <c r="O25" s="517"/>
+      <c r="P25" s="517"/>
+      <c r="Q25" s="517"/>
+      <c r="R25" s="517"/>
+      <c r="S25" s="517"/>
+      <c r="T25" s="517"/>
+      <c r="U25" s="517"/>
+      <c r="V25" s="517"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="508" t="s">
+      <c r="C26" s="518" t="s">
         <v>570</v>
       </c>
-      <c r="D26" s="508"/>
-      <c r="E26" s="508"/>
-      <c r="F26" s="508"/>
-      <c r="G26" s="508"/>
-      <c r="H26" s="508"/>
-      <c r="I26" s="508"/>
-      <c r="J26" s="508"/>
-      <c r="K26" s="508"/>
-      <c r="L26" s="508"/>
-      <c r="M26" s="508"/>
+      <c r="D26" s="518"/>
+      <c r="E26" s="518"/>
+      <c r="F26" s="518"/>
+      <c r="G26" s="518"/>
+      <c r="H26" s="518"/>
+      <c r="I26" s="518"/>
+      <c r="J26" s="518"/>
+      <c r="K26" s="518"/>
+      <c r="L26" s="518"/>
+      <c r="M26" s="518"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="478" t="s">
+      <c r="E27" s="472" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="415"/>
-      <c r="G27" s="415"/>
-      <c r="H27" s="434"/>
-      <c r="I27" s="434"/>
-      <c r="J27" s="434"/>
-      <c r="K27" s="434"/>
-      <c r="L27" s="434"/>
-      <c r="M27" s="435"/>
+      <c r="F27" s="416"/>
+      <c r="G27" s="416"/>
+      <c r="H27" s="435"/>
+      <c r="I27" s="435"/>
+      <c r="J27" s="435"/>
+      <c r="K27" s="435"/>
+      <c r="L27" s="435"/>
+      <c r="M27" s="436"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -21507,11 +21507,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="509" t="s">
+      <c r="O29" s="519" t="s">
         <v>179</v>
       </c>
-      <c r="P29" s="509"/>
-      <c r="Q29" s="509"/>
+      <c r="P29" s="519"/>
+      <c r="Q29" s="519"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -21556,21 +21556,21 @@
         <v>190</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="504" t="s">
+      <c r="E32" s="523" t="s">
         <v>1078</v>
       </c>
-      <c r="F32" s="505"/>
-      <c r="G32" s="506"/>
-      <c r="H32" s="504" t="s">
+      <c r="F32" s="524"/>
+      <c r="G32" s="525"/>
+      <c r="H32" s="523" t="s">
         <v>1079</v>
       </c>
-      <c r="I32" s="505"/>
-      <c r="J32" s="506"/>
-      <c r="K32" s="504" t="s">
+      <c r="I32" s="524"/>
+      <c r="J32" s="525"/>
+      <c r="K32" s="523" t="s">
         <v>1080</v>
       </c>
-      <c r="L32" s="505"/>
-      <c r="M32" s="506"/>
+      <c r="L32" s="524"/>
+      <c r="M32" s="525"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -21587,15 +21587,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="504"/>
-      <c r="F33" s="505"/>
-      <c r="G33" s="506"/>
-      <c r="H33" s="504"/>
-      <c r="I33" s="505"/>
-      <c r="J33" s="506"/>
-      <c r="K33" s="504"/>
-      <c r="L33" s="505"/>
-      <c r="M33" s="506"/>
+      <c r="E33" s="523"/>
+      <c r="F33" s="524"/>
+      <c r="G33" s="525"/>
+      <c r="H33" s="523"/>
+      <c r="I33" s="524"/>
+      <c r="J33" s="525"/>
+      <c r="K33" s="523"/>
+      <c r="L33" s="524"/>
+      <c r="M33" s="525"/>
       <c r="N33" s="5" t="s">
         <v>187</v>
       </c>
@@ -21612,15 +21612,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="504"/>
-      <c r="F34" s="505"/>
-      <c r="G34" s="506"/>
-      <c r="H34" s="504"/>
-      <c r="I34" s="505"/>
-      <c r="J34" s="506"/>
-      <c r="K34" s="504"/>
-      <c r="L34" s="505"/>
-      <c r="M34" s="506"/>
+      <c r="E34" s="523"/>
+      <c r="F34" s="524"/>
+      <c r="G34" s="525"/>
+      <c r="H34" s="523"/>
+      <c r="I34" s="524"/>
+      <c r="J34" s="525"/>
+      <c r="K34" s="523"/>
+      <c r="L34" s="524"/>
+      <c r="M34" s="525"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -21631,15 +21631,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="504"/>
-      <c r="F35" s="505"/>
-      <c r="G35" s="506"/>
-      <c r="H35" s="504"/>
-      <c r="I35" s="505"/>
-      <c r="J35" s="506"/>
-      <c r="K35" s="504"/>
-      <c r="L35" s="505"/>
-      <c r="M35" s="506"/>
+      <c r="E35" s="523"/>
+      <c r="F35" s="524"/>
+      <c r="G35" s="525"/>
+      <c r="H35" s="523"/>
+      <c r="I35" s="524"/>
+      <c r="J35" s="525"/>
+      <c r="K35" s="523"/>
+      <c r="L35" s="524"/>
+      <c r="M35" s="525"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -21770,15 +21770,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="497"/>
-      <c r="F42" s="498"/>
-      <c r="G42" s="498"/>
-      <c r="H42" s="498"/>
-      <c r="I42" s="498"/>
-      <c r="J42" s="498"/>
-      <c r="K42" s="498"/>
-      <c r="L42" s="498"/>
-      <c r="M42" s="499"/>
+      <c r="E42" s="527"/>
+      <c r="F42" s="528"/>
+      <c r="G42" s="528"/>
+      <c r="H42" s="528"/>
+      <c r="I42" s="528"/>
+      <c r="J42" s="528"/>
+      <c r="K42" s="528"/>
+      <c r="L42" s="528"/>
+      <c r="M42" s="529"/>
       <c r="N42" s="40" t="s">
         <v>575</v>
       </c>
@@ -21797,83 +21797,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="443" t="s">
+      <c r="C44" s="444" t="s">
         <v>194</v>
       </c>
-      <c r="D44" s="444"/>
-      <c r="E44" s="443" t="s">
+      <c r="D44" s="445"/>
+      <c r="E44" s="444" t="s">
         <v>195</v>
       </c>
-      <c r="F44" s="445"/>
-      <c r="G44" s="444"/>
-      <c r="H44" s="443" t="s">
+      <c r="F44" s="446"/>
+      <c r="G44" s="445"/>
+      <c r="H44" s="444" t="s">
         <v>196</v>
       </c>
-      <c r="I44" s="445"/>
-      <c r="J44" s="445"/>
-      <c r="K44" s="445"/>
-      <c r="L44" s="445"/>
-      <c r="M44" s="444"/>
+      <c r="I44" s="446"/>
+      <c r="J44" s="446"/>
+      <c r="K44" s="446"/>
+      <c r="L44" s="446"/>
+      <c r="M44" s="445"/>
       <c r="Q44" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="507" t="s">
+      <c r="B47" s="517" t="s">
         <v>1076</v>
       </c>
-      <c r="C47" s="507"/>
-      <c r="D47" s="507"/>
-      <c r="E47" s="507"/>
-      <c r="F47" s="507"/>
-      <c r="G47" s="507"/>
-      <c r="H47" s="507"/>
-      <c r="I47" s="507"/>
-      <c r="J47" s="507"/>
-      <c r="K47" s="507"/>
-      <c r="L47" s="507"/>
-      <c r="M47" s="507"/>
-      <c r="N47" s="507"/>
-      <c r="O47" s="507"/>
-      <c r="P47" s="507"/>
-      <c r="Q47" s="507"/>
-      <c r="R47" s="507"/>
-      <c r="S47" s="507"/>
-      <c r="T47" s="507"/>
-      <c r="U47" s="507"/>
-      <c r="V47" s="507"/>
+      <c r="C47" s="517"/>
+      <c r="D47" s="517"/>
+      <c r="E47" s="517"/>
+      <c r="F47" s="517"/>
+      <c r="G47" s="517"/>
+      <c r="H47" s="517"/>
+      <c r="I47" s="517"/>
+      <c r="J47" s="517"/>
+      <c r="K47" s="517"/>
+      <c r="L47" s="517"/>
+      <c r="M47" s="517"/>
+      <c r="N47" s="517"/>
+      <c r="O47" s="517"/>
+      <c r="P47" s="517"/>
+      <c r="Q47" s="517"/>
+      <c r="R47" s="517"/>
+      <c r="S47" s="517"/>
+      <c r="T47" s="517"/>
+      <c r="U47" s="517"/>
+      <c r="V47" s="517"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="508" t="s">
+      <c r="C48" s="518" t="s">
         <v>570</v>
       </c>
-      <c r="D48" s="508"/>
-      <c r="E48" s="508"/>
-      <c r="F48" s="508"/>
-      <c r="G48" s="508"/>
-      <c r="H48" s="508"/>
-      <c r="I48" s="508"/>
-      <c r="J48" s="508"/>
-      <c r="K48" s="508"/>
-      <c r="L48" s="508"/>
-      <c r="M48" s="508"/>
+      <c r="D48" s="518"/>
+      <c r="E48" s="518"/>
+      <c r="F48" s="518"/>
+      <c r="G48" s="518"/>
+      <c r="H48" s="518"/>
+      <c r="I48" s="518"/>
+      <c r="J48" s="518"/>
+      <c r="K48" s="518"/>
+      <c r="L48" s="518"/>
+      <c r="M48" s="518"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="478" t="s">
+      <c r="E49" s="472" t="s">
         <v>178</v>
       </c>
-      <c r="F49" s="415"/>
-      <c r="G49" s="415"/>
-      <c r="H49" s="434"/>
-      <c r="I49" s="434"/>
-      <c r="J49" s="434"/>
-      <c r="K49" s="434"/>
-      <c r="L49" s="434"/>
-      <c r="M49" s="435"/>
+      <c r="F49" s="416"/>
+      <c r="G49" s="416"/>
+      <c r="H49" s="435"/>
+      <c r="I49" s="435"/>
+      <c r="J49" s="435"/>
+      <c r="K49" s="435"/>
+      <c r="L49" s="435"/>
+      <c r="M49" s="436"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -21891,16 +21891,16 @@
       </c>
       <c r="F50" s="122"/>
       <c r="G50" s="245"/>
-      <c r="H50" s="511" t="s">
+      <c r="H50" s="520" t="s">
         <v>1079</v>
       </c>
-      <c r="I50" s="512"/>
-      <c r="J50" s="513"/>
-      <c r="K50" s="511" t="s">
+      <c r="I50" s="521"/>
+      <c r="J50" s="522"/>
+      <c r="K50" s="520" t="s">
         <v>1080</v>
       </c>
-      <c r="L50" s="512"/>
-      <c r="M50" s="513"/>
+      <c r="L50" s="521"/>
+      <c r="M50" s="522"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -21914,20 +21914,20 @@
         <v>1094</v>
       </c>
       <c r="F51" s="286"/>
-      <c r="G51" s="514" t="s">
+      <c r="G51" s="526" t="s">
         <v>1102</v>
       </c>
-      <c r="H51" s="504"/>
-      <c r="I51" s="505"/>
-      <c r="J51" s="506"/>
-      <c r="K51" s="504"/>
-      <c r="L51" s="505"/>
-      <c r="M51" s="506"/>
-      <c r="O51" s="509" t="s">
+      <c r="H51" s="523"/>
+      <c r="I51" s="524"/>
+      <c r="J51" s="525"/>
+      <c r="K51" s="523"/>
+      <c r="L51" s="524"/>
+      <c r="M51" s="525"/>
+      <c r="O51" s="519" t="s">
         <v>179</v>
       </c>
-      <c r="P51" s="509"/>
-      <c r="Q51" s="509"/>
+      <c r="P51" s="519"/>
+      <c r="Q51" s="519"/>
       <c r="S51" s="273"/>
       <c r="T51" s="273"/>
       <c r="W51" s="40" t="s">
@@ -21941,13 +21941,13 @@
         <v>1095</v>
       </c>
       <c r="F52" s="287"/>
-      <c r="G52" s="514"/>
-      <c r="H52" s="504"/>
-      <c r="I52" s="505"/>
-      <c r="J52" s="506"/>
-      <c r="K52" s="504"/>
-      <c r="L52" s="505"/>
-      <c r="M52" s="506"/>
+      <c r="G52" s="526"/>
+      <c r="H52" s="523"/>
+      <c r="I52" s="524"/>
+      <c r="J52" s="525"/>
+      <c r="K52" s="523"/>
+      <c r="L52" s="524"/>
+      <c r="M52" s="525"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -21958,13 +21958,13 @@
         <v>1096</v>
       </c>
       <c r="F53" s="288"/>
-      <c r="G53" s="514"/>
-      <c r="H53" s="504"/>
-      <c r="I53" s="505"/>
-      <c r="J53" s="506"/>
-      <c r="K53" s="504"/>
-      <c r="L53" s="505"/>
-      <c r="M53" s="506"/>
+      <c r="G53" s="526"/>
+      <c r="H53" s="523"/>
+      <c r="I53" s="524"/>
+      <c r="J53" s="525"/>
+      <c r="K53" s="523"/>
+      <c r="L53" s="524"/>
+      <c r="M53" s="525"/>
       <c r="N53" s="5"/>
       <c r="O53" s="38" t="s">
         <v>182</v>
@@ -22003,7 +22003,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="274"/>
       <c r="F54" s="289"/>
-      <c r="G54" s="502" t="s">
+      <c r="G54" s="532" t="s">
         <v>1106</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -22050,11 +22050,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="500" t="s">
+      <c r="E55" s="530" t="s">
         <v>1107</v>
       </c>
-      <c r="F55" s="501"/>
-      <c r="G55" s="503"/>
+      <c r="F55" s="531"/>
+      <c r="G55" s="533"/>
       <c r="H55" s="141" t="s">
         <v>1098</v>
       </c>
@@ -22098,9 +22098,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="500"/>
-      <c r="F56" s="501"/>
-      <c r="G56" s="503"/>
+      <c r="E56" s="530"/>
+      <c r="F56" s="531"/>
+      <c r="G56" s="533"/>
       <c r="H56" s="141" t="s">
         <v>1099</v>
       </c>
@@ -22130,9 +22130,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="500"/>
-      <c r="F57" s="501"/>
-      <c r="G57" s="503"/>
+      <c r="E57" s="530"/>
+      <c r="F57" s="531"/>
+      <c r="G57" s="533"/>
       <c r="H57" s="4" t="s">
         <v>1111</v>
       </c>
@@ -22162,9 +22162,9 @@
         <v>192</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="500"/>
-      <c r="F58" s="501"/>
-      <c r="G58" s="503"/>
+      <c r="E58" s="530"/>
+      <c r="F58" s="531"/>
+      <c r="G58" s="533"/>
       <c r="H58" s="278" t="s">
         <v>1097</v>
       </c>
@@ -22189,9 +22189,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="500"/>
-      <c r="F59" s="501"/>
-      <c r="G59" s="503"/>
+      <c r="E59" s="530"/>
+      <c r="F59" s="531"/>
+      <c r="G59" s="533"/>
       <c r="H59" s="278" t="s">
         <v>549</v>
       </c>
@@ -22216,9 +22216,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="500"/>
-      <c r="F60" s="501"/>
-      <c r="G60" s="503"/>
+      <c r="E60" s="530"/>
+      <c r="F60" s="531"/>
+      <c r="G60" s="533"/>
       <c r="H60" s="280"/>
       <c r="I60" s="281" t="s">
         <v>1113</v>
@@ -22238,9 +22238,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="500"/>
-      <c r="F61" s="501"/>
-      <c r="G61" s="503"/>
+      <c r="E61" s="530"/>
+      <c r="F61" s="531"/>
+      <c r="G61" s="533"/>
       <c r="H61" s="280"/>
       <c r="I61" s="281" t="s">
         <v>1114</v>
@@ -22260,7 +22260,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="269"/>
       <c r="F62" s="285"/>
-      <c r="G62" s="503"/>
+      <c r="G62" s="533"/>
       <c r="H62" s="282"/>
       <c r="I62" s="284" t="s">
         <v>1115</v>
@@ -22302,15 +22302,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="497"/>
-      <c r="F64" s="498"/>
-      <c r="G64" s="498"/>
-      <c r="H64" s="498"/>
-      <c r="I64" s="498"/>
-      <c r="J64" s="498"/>
-      <c r="K64" s="498"/>
-      <c r="L64" s="498"/>
-      <c r="M64" s="499"/>
+      <c r="E64" s="527"/>
+      <c r="F64" s="528"/>
+      <c r="G64" s="528"/>
+      <c r="H64" s="528"/>
+      <c r="I64" s="528"/>
+      <c r="J64" s="528"/>
+      <c r="K64" s="528"/>
+      <c r="L64" s="528"/>
+      <c r="M64" s="529"/>
       <c r="N64" s="40" t="s">
         <v>575</v>
       </c>
@@ -22339,23 +22339,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="443" t="s">
+      <c r="C66" s="444" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="444"/>
-      <c r="E66" s="443" t="s">
+      <c r="D66" s="445"/>
+      <c r="E66" s="444" t="s">
         <v>195</v>
       </c>
-      <c r="F66" s="445"/>
-      <c r="G66" s="444"/>
-      <c r="H66" s="443" t="s">
+      <c r="F66" s="446"/>
+      <c r="G66" s="445"/>
+      <c r="H66" s="444" t="s">
         <v>196</v>
       </c>
-      <c r="I66" s="445"/>
-      <c r="J66" s="445"/>
-      <c r="K66" s="445"/>
-      <c r="L66" s="445"/>
-      <c r="M66" s="444"/>
+      <c r="I66" s="446"/>
+      <c r="J66" s="446"/>
+      <c r="K66" s="446"/>
+      <c r="L66" s="446"/>
+      <c r="M66" s="445"/>
       <c r="Q66" t="s">
         <v>1077</v>
       </c>
@@ -22376,23 +22376,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="482" t="s">
+      <c r="C68" s="483" t="s">
         <v>181</v>
       </c>
-      <c r="D68" s="482"/>
-      <c r="E68" s="482" t="s">
+      <c r="D68" s="483"/>
+      <c r="E68" s="483" t="s">
         <v>1363</v>
       </c>
-      <c r="F68" s="482"/>
-      <c r="G68" s="482"/>
-      <c r="H68" s="482" t="s">
+      <c r="F68" s="483"/>
+      <c r="G68" s="483"/>
+      <c r="H68" s="483" t="s">
         <v>1379</v>
       </c>
-      <c r="I68" s="482"/>
-      <c r="J68" s="482"/>
-      <c r="K68" s="482"/>
-      <c r="L68" s="482"/>
-      <c r="M68" s="482"/>
+      <c r="I68" s="483"/>
+      <c r="J68" s="483"/>
+      <c r="K68" s="483"/>
+      <c r="L68" s="483"/>
+      <c r="M68" s="483"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -23189,6 +23189,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -23205,30 +23229,6 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -23262,12 +23262,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="533" t="s">
+      <c r="B1" s="534" t="s">
         <v>538</v>
       </c>
-      <c r="C1" s="533"/>
-      <c r="D1" s="533"/>
-      <c r="E1" s="533"/>
+      <c r="C1" s="534"/>
+      <c r="D1" s="534"/>
+      <c r="E1" s="534"/>
       <c r="I1" s="40" t="s">
         <v>551</v>
       </c>
@@ -23384,12 +23384,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="477" t="s">
+      <c r="B8" s="482" t="s">
         <v>1401</v>
       </c>
-      <c r="C8" s="477"/>
-      <c r="D8" s="477"/>
-      <c r="E8" s="477"/>
+      <c r="C8" s="482"/>
+      <c r="D8" s="482"/>
+      <c r="E8" s="482"/>
       <c r="J8" s="32" t="s">
         <v>554</v>
       </c>
@@ -23562,32 +23562,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="508" t="s">
+      <c r="C2" s="518" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="508"/>
-      <c r="E2" s="508"/>
-      <c r="F2" s="508"/>
-      <c r="G2" s="508"/>
-      <c r="H2" s="508"/>
-      <c r="I2" s="508"/>
-      <c r="J2" s="508"/>
-      <c r="K2" s="508"/>
-      <c r="L2" s="508"/>
+      <c r="D2" s="518"/>
+      <c r="E2" s="518"/>
+      <c r="F2" s="518"/>
+      <c r="G2" s="518"/>
+      <c r="H2" s="518"/>
+      <c r="I2" s="518"/>
+      <c r="J2" s="518"/>
+      <c r="K2" s="518"/>
+      <c r="L2" s="518"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="478" t="s">
+      <c r="E3" s="472" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="415"/>
-      <c r="G3" s="434"/>
-      <c r="H3" s="434"/>
-      <c r="I3" s="434"/>
-      <c r="J3" s="434"/>
-      <c r="K3" s="434"/>
-      <c r="L3" s="435"/>
+      <c r="F3" s="416"/>
+      <c r="G3" s="435"/>
+      <c r="H3" s="435"/>
+      <c r="I3" s="435"/>
+      <c r="J3" s="435"/>
+      <c r="K3" s="435"/>
+      <c r="L3" s="436"/>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
@@ -23618,11 +23618,11 @@
         <v>589</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="509" t="s">
+      <c r="N5" s="519" t="s">
         <v>179</v>
       </c>
-      <c r="O5" s="509"/>
-      <c r="P5" s="509"/>
+      <c r="O5" s="519"/>
+      <c r="P5" s="519"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -23673,20 +23673,20 @@
         <v>190</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="504" t="s">
+      <c r="E8" s="523" t="s">
         <v>571</v>
       </c>
-      <c r="F8" s="506"/>
-      <c r="G8" s="504" t="s">
+      <c r="F8" s="525"/>
+      <c r="G8" s="523" t="s">
         <v>572</v>
       </c>
-      <c r="H8" s="505"/>
-      <c r="I8" s="506"/>
-      <c r="J8" s="504" t="s">
+      <c r="H8" s="524"/>
+      <c r="I8" s="525"/>
+      <c r="J8" s="523" t="s">
         <v>573</v>
       </c>
-      <c r="K8" s="505"/>
-      <c r="L8" s="506"/>
+      <c r="K8" s="524"/>
+      <c r="L8" s="525"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -23709,14 +23709,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="504"/>
-      <c r="F9" s="506"/>
-      <c r="G9" s="504"/>
-      <c r="H9" s="505"/>
-      <c r="I9" s="506"/>
-      <c r="J9" s="504"/>
-      <c r="K9" s="505"/>
-      <c r="L9" s="506"/>
+      <c r="E9" s="523"/>
+      <c r="F9" s="525"/>
+      <c r="G9" s="523"/>
+      <c r="H9" s="524"/>
+      <c r="I9" s="525"/>
+      <c r="J9" s="523"/>
+      <c r="K9" s="524"/>
+      <c r="L9" s="525"/>
       <c r="M9" s="5" t="s">
         <v>187</v>
       </c>
@@ -23736,14 +23736,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="504"/>
-      <c r="F10" s="506"/>
-      <c r="G10" s="504"/>
-      <c r="H10" s="505"/>
-      <c r="I10" s="506"/>
-      <c r="J10" s="504"/>
-      <c r="K10" s="505"/>
-      <c r="L10" s="506"/>
+      <c r="E10" s="523"/>
+      <c r="F10" s="525"/>
+      <c r="G10" s="523"/>
+      <c r="H10" s="524"/>
+      <c r="I10" s="525"/>
+      <c r="J10" s="523"/>
+      <c r="K10" s="524"/>
+      <c r="L10" s="525"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -23757,14 +23757,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="504"/>
-      <c r="F11" s="506"/>
-      <c r="G11" s="504"/>
-      <c r="H11" s="505"/>
-      <c r="I11" s="506"/>
-      <c r="J11" s="504"/>
-      <c r="K11" s="505"/>
-      <c r="L11" s="506"/>
+      <c r="E11" s="523"/>
+      <c r="F11" s="525"/>
+      <c r="G11" s="523"/>
+      <c r="H11" s="524"/>
+      <c r="I11" s="525"/>
+      <c r="J11" s="523"/>
+      <c r="K11" s="524"/>
+      <c r="L11" s="525"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -23867,16 +23867,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="497" t="s">
+      <c r="E17" s="527" t="s">
         <v>574</v>
       </c>
-      <c r="F17" s="498"/>
-      <c r="G17" s="498"/>
-      <c r="H17" s="498"/>
-      <c r="I17" s="498"/>
-      <c r="J17" s="498"/>
-      <c r="K17" s="498"/>
-      <c r="L17" s="499"/>
+      <c r="F17" s="528"/>
+      <c r="G17" s="528"/>
+      <c r="H17" s="528"/>
+      <c r="I17" s="528"/>
+      <c r="J17" s="528"/>
+      <c r="K17" s="528"/>
+      <c r="L17" s="529"/>
       <c r="M17" s="40" t="s">
         <v>575</v>
       </c>
@@ -23894,40 +23894,40 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="443" t="s">
+      <c r="C19" s="444" t="s">
         <v>194</v>
       </c>
-      <c r="D19" s="444"/>
-      <c r="E19" s="443" t="s">
+      <c r="D19" s="445"/>
+      <c r="E19" s="444" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="444"/>
-      <c r="G19" s="443" t="s">
+      <c r="F19" s="445"/>
+      <c r="G19" s="444" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="445"/>
-      <c r="I19" s="445"/>
-      <c r="J19" s="445"/>
-      <c r="K19" s="445"/>
-      <c r="L19" s="444"/>
+      <c r="H19" s="446"/>
+      <c r="I19" s="446"/>
+      <c r="J19" s="446"/>
+      <c r="K19" s="446"/>
+      <c r="L19" s="445"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="534" t="s">
+      <c r="E21" s="535" t="s">
         <v>1392</v>
       </c>
-      <c r="F21" s="535"/>
+      <c r="F21" s="536"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="E22" s="536"/>
-      <c r="F22" s="537"/>
+      <c r="E22" s="537"/>
+      <c r="F22" s="538"/>
       <c r="J22" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="E23" s="536"/>
-      <c r="F23" s="537"/>
+      <c r="E23" s="537"/>
+      <c r="F23" s="538"/>
       <c r="H23" t="s">
         <v>1413</v>
       </c>
@@ -23939,8 +23939,8 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="538"/>
-      <c r="F24" s="539"/>
+      <c r="E24" s="539"/>
+      <c r="F24" s="540"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -24395,22 +24395,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="510" t="s">
+      <c r="E3" s="498" t="s">
         <v>518</v>
       </c>
-      <c r="F3" s="510"/>
-      <c r="G3" s="510" t="s">
+      <c r="F3" s="498"/>
+      <c r="G3" s="498" t="s">
         <v>519</v>
       </c>
-      <c r="H3" s="510"/>
-      <c r="I3" s="510"/>
-      <c r="J3" s="510"/>
-      <c r="K3" s="510"/>
-      <c r="L3" s="510"/>
-      <c r="M3" s="510" t="s">
+      <c r="H3" s="498"/>
+      <c r="I3" s="498"/>
+      <c r="J3" s="498"/>
+      <c r="K3" s="498"/>
+      <c r="L3" s="498"/>
+      <c r="M3" s="498" t="s">
         <v>520</v>
       </c>
-      <c r="N3" s="510"/>
+      <c r="N3" s="498"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -24421,7 +24421,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="135"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="515" t="s">
+      <c r="E4" s="499" t="s">
         <v>521</v>
       </c>
       <c r="F4" s="131"/>
@@ -24449,22 +24449,22 @@
         <v>181</v>
       </c>
       <c r="D5" s="138"/>
-      <c r="E5" s="424"/>
-      <c r="F5" s="456" t="s">
+      <c r="E5" s="425"/>
+      <c r="F5" s="457" t="s">
         <v>617</v>
       </c>
-      <c r="G5" s="457"/>
-      <c r="H5" s="458"/>
-      <c r="I5" s="540" t="s">
+      <c r="G5" s="458"/>
+      <c r="H5" s="459"/>
+      <c r="I5" s="571" t="s">
         <v>618</v>
       </c>
-      <c r="J5" s="541"/>
-      <c r="K5" s="541"/>
-      <c r="L5" s="522"/>
-      <c r="M5" s="540" t="s">
+      <c r="J5" s="572"/>
+      <c r="K5" s="572"/>
+      <c r="L5" s="506"/>
+      <c r="M5" s="571" t="s">
         <v>619</v>
       </c>
-      <c r="N5" s="522"/>
+      <c r="N5" s="506"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -24475,16 +24475,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="139"/>
       <c r="D6" s="140"/>
-      <c r="E6" s="424"/>
-      <c r="F6" s="459"/>
-      <c r="G6" s="460"/>
-      <c r="H6" s="461"/>
-      <c r="I6" s="523"/>
-      <c r="J6" s="542"/>
-      <c r="K6" s="542"/>
-      <c r="L6" s="524"/>
-      <c r="M6" s="523"/>
-      <c r="N6" s="524"/>
+      <c r="E6" s="425"/>
+      <c r="F6" s="460"/>
+      <c r="G6" s="461"/>
+      <c r="H6" s="462"/>
+      <c r="I6" s="507"/>
+      <c r="J6" s="573"/>
+      <c r="K6" s="573"/>
+      <c r="L6" s="508"/>
+      <c r="M6" s="507"/>
+      <c r="N6" s="508"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>182</v>
@@ -24501,16 +24501,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="424"/>
-      <c r="F7" s="459"/>
-      <c r="G7" s="460"/>
-      <c r="H7" s="461"/>
-      <c r="I7" s="523"/>
-      <c r="J7" s="542"/>
-      <c r="K7" s="542"/>
-      <c r="L7" s="524"/>
-      <c r="M7" s="523"/>
-      <c r="N7" s="524"/>
+      <c r="E7" s="425"/>
+      <c r="F7" s="460"/>
+      <c r="G7" s="461"/>
+      <c r="H7" s="462"/>
+      <c r="I7" s="507"/>
+      <c r="J7" s="573"/>
+      <c r="K7" s="573"/>
+      <c r="L7" s="508"/>
+      <c r="M7" s="507"/>
+      <c r="N7" s="508"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -24529,16 +24529,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="424"/>
-      <c r="F8" s="459"/>
-      <c r="G8" s="460"/>
-      <c r="H8" s="461"/>
-      <c r="I8" s="523"/>
-      <c r="J8" s="542"/>
-      <c r="K8" s="542"/>
-      <c r="L8" s="524"/>
-      <c r="M8" s="523"/>
-      <c r="N8" s="524"/>
+      <c r="E8" s="425"/>
+      <c r="F8" s="460"/>
+      <c r="G8" s="461"/>
+      <c r="H8" s="462"/>
+      <c r="I8" s="507"/>
+      <c r="J8" s="573"/>
+      <c r="K8" s="573"/>
+      <c r="L8" s="508"/>
+      <c r="M8" s="507"/>
+      <c r="N8" s="508"/>
       <c r="O8" s="5" t="s">
         <v>187</v>
       </c>
@@ -24559,16 +24559,16 @@
         <v>190</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="424"/>
-      <c r="F9" s="459"/>
-      <c r="G9" s="460"/>
-      <c r="H9" s="461"/>
-      <c r="I9" s="523"/>
-      <c r="J9" s="542"/>
-      <c r="K9" s="542"/>
-      <c r="L9" s="524"/>
-      <c r="M9" s="523"/>
-      <c r="N9" s="524"/>
+      <c r="E9" s="425"/>
+      <c r="F9" s="460"/>
+      <c r="G9" s="461"/>
+      <c r="H9" s="462"/>
+      <c r="I9" s="507"/>
+      <c r="J9" s="573"/>
+      <c r="K9" s="573"/>
+      <c r="L9" s="508"/>
+      <c r="M9" s="507"/>
+      <c r="N9" s="508"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -24585,16 +24585,16 @@
         <v>537</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="424"/>
-      <c r="F10" s="459"/>
-      <c r="G10" s="460"/>
-      <c r="H10" s="461"/>
-      <c r="I10" s="523"/>
-      <c r="J10" s="542"/>
-      <c r="K10" s="542"/>
-      <c r="L10" s="524"/>
-      <c r="M10" s="523"/>
-      <c r="N10" s="524"/>
+      <c r="E10" s="425"/>
+      <c r="F10" s="460"/>
+      <c r="G10" s="461"/>
+      <c r="H10" s="462"/>
+      <c r="I10" s="507"/>
+      <c r="J10" s="573"/>
+      <c r="K10" s="573"/>
+      <c r="L10" s="508"/>
+      <c r="M10" s="507"/>
+      <c r="N10" s="508"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -24607,16 +24607,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="424"/>
-      <c r="F11" s="459"/>
-      <c r="G11" s="460"/>
-      <c r="H11" s="461"/>
-      <c r="I11" s="523"/>
-      <c r="J11" s="542"/>
-      <c r="K11" s="542"/>
-      <c r="L11" s="524"/>
-      <c r="M11" s="523"/>
-      <c r="N11" s="524"/>
+      <c r="E11" s="425"/>
+      <c r="F11" s="460"/>
+      <c r="G11" s="461"/>
+      <c r="H11" s="462"/>
+      <c r="I11" s="507"/>
+      <c r="J11" s="573"/>
+      <c r="K11" s="573"/>
+      <c r="L11" s="508"/>
+      <c r="M11" s="507"/>
+      <c r="N11" s="508"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -24627,16 +24627,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="424"/>
-      <c r="F12" s="459"/>
-      <c r="G12" s="460"/>
-      <c r="H12" s="461"/>
-      <c r="I12" s="523"/>
-      <c r="J12" s="542"/>
-      <c r="K12" s="542"/>
-      <c r="L12" s="524"/>
-      <c r="M12" s="523"/>
-      <c r="N12" s="524"/>
+      <c r="E12" s="425"/>
+      <c r="F12" s="460"/>
+      <c r="G12" s="461"/>
+      <c r="H12" s="462"/>
+      <c r="I12" s="507"/>
+      <c r="J12" s="573"/>
+      <c r="K12" s="573"/>
+      <c r="L12" s="508"/>
+      <c r="M12" s="507"/>
+      <c r="N12" s="508"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -24649,16 +24649,16 @@
         <v>192</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="424"/>
-      <c r="F13" s="459"/>
-      <c r="G13" s="460"/>
-      <c r="H13" s="461"/>
-      <c r="I13" s="523"/>
-      <c r="J13" s="542"/>
-      <c r="K13" s="542"/>
-      <c r="L13" s="524"/>
-      <c r="M13" s="523"/>
-      <c r="N13" s="524"/>
+      <c r="E13" s="425"/>
+      <c r="F13" s="460"/>
+      <c r="G13" s="461"/>
+      <c r="H13" s="462"/>
+      <c r="I13" s="507"/>
+      <c r="J13" s="573"/>
+      <c r="K13" s="573"/>
+      <c r="L13" s="508"/>
+      <c r="M13" s="507"/>
+      <c r="N13" s="508"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -24669,16 +24669,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="424"/>
-      <c r="F14" s="459"/>
-      <c r="G14" s="460"/>
-      <c r="H14" s="461"/>
-      <c r="I14" s="523"/>
-      <c r="J14" s="542"/>
-      <c r="K14" s="542"/>
-      <c r="L14" s="524"/>
-      <c r="M14" s="523"/>
-      <c r="N14" s="524"/>
+      <c r="E14" s="425"/>
+      <c r="F14" s="460"/>
+      <c r="G14" s="461"/>
+      <c r="H14" s="462"/>
+      <c r="I14" s="507"/>
+      <c r="J14" s="573"/>
+      <c r="K14" s="573"/>
+      <c r="L14" s="508"/>
+      <c r="M14" s="507"/>
+      <c r="N14" s="508"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -24689,16 +24689,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="424"/>
-      <c r="F15" s="459"/>
-      <c r="G15" s="460"/>
-      <c r="H15" s="461"/>
-      <c r="I15" s="523"/>
-      <c r="J15" s="542"/>
-      <c r="K15" s="542"/>
-      <c r="L15" s="524"/>
-      <c r="M15" s="523"/>
-      <c r="N15" s="524"/>
+      <c r="E15" s="425"/>
+      <c r="F15" s="460"/>
+      <c r="G15" s="461"/>
+      <c r="H15" s="462"/>
+      <c r="I15" s="507"/>
+      <c r="J15" s="573"/>
+      <c r="K15" s="573"/>
+      <c r="L15" s="508"/>
+      <c r="M15" s="507"/>
+      <c r="N15" s="508"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -24709,16 +24709,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="424"/>
-      <c r="F16" s="459"/>
-      <c r="G16" s="460"/>
-      <c r="H16" s="461"/>
-      <c r="I16" s="523"/>
-      <c r="J16" s="542"/>
-      <c r="K16" s="542"/>
-      <c r="L16" s="524"/>
-      <c r="M16" s="523"/>
-      <c r="N16" s="524"/>
+      <c r="E16" s="425"/>
+      <c r="F16" s="460"/>
+      <c r="G16" s="461"/>
+      <c r="H16" s="462"/>
+      <c r="I16" s="507"/>
+      <c r="J16" s="573"/>
+      <c r="K16" s="573"/>
+      <c r="L16" s="508"/>
+      <c r="M16" s="507"/>
+      <c r="N16" s="508"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -24731,16 +24731,16 @@
         <v>193</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="424"/>
-      <c r="F17" s="459"/>
-      <c r="G17" s="460"/>
-      <c r="H17" s="461"/>
-      <c r="I17" s="523"/>
-      <c r="J17" s="542"/>
-      <c r="K17" s="542"/>
-      <c r="L17" s="524"/>
-      <c r="M17" s="523"/>
-      <c r="N17" s="524"/>
+      <c r="E17" s="425"/>
+      <c r="F17" s="460"/>
+      <c r="G17" s="461"/>
+      <c r="H17" s="462"/>
+      <c r="I17" s="507"/>
+      <c r="J17" s="573"/>
+      <c r="K17" s="573"/>
+      <c r="L17" s="508"/>
+      <c r="M17" s="507"/>
+      <c r="N17" s="508"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -24751,16 +24751,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="425"/>
-      <c r="F18" s="462"/>
-      <c r="G18" s="463"/>
-      <c r="H18" s="464"/>
-      <c r="I18" s="525"/>
-      <c r="J18" s="543"/>
-      <c r="K18" s="543"/>
-      <c r="L18" s="526"/>
-      <c r="M18" s="525"/>
-      <c r="N18" s="526"/>
+      <c r="E18" s="426"/>
+      <c r="F18" s="463"/>
+      <c r="G18" s="464"/>
+      <c r="H18" s="465"/>
+      <c r="I18" s="509"/>
+      <c r="J18" s="574"/>
+      <c r="K18" s="574"/>
+      <c r="L18" s="510"/>
+      <c r="M18" s="509"/>
+      <c r="N18" s="510"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -24789,26 +24789,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="443" t="s">
+      <c r="C20" s="444" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="444"/>
+      <c r="D20" s="445"/>
       <c r="E20" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="F20" s="443" t="s">
+      <c r="F20" s="444" t="s">
         <v>196</v>
       </c>
-      <c r="G20" s="445"/>
-      <c r="H20" s="445"/>
-      <c r="I20" s="445"/>
-      <c r="J20" s="445"/>
-      <c r="K20" s="445"/>
-      <c r="L20" s="444"/>
-      <c r="M20" s="443" t="s">
+      <c r="G20" s="446"/>
+      <c r="H20" s="446"/>
+      <c r="I20" s="446"/>
+      <c r="J20" s="446"/>
+      <c r="K20" s="446"/>
+      <c r="L20" s="445"/>
+      <c r="M20" s="444" t="s">
         <v>528</v>
       </c>
-      <c r="N20" s="444"/>
+      <c r="N20" s="445"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -24836,39 +24836,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="509" t="s">
+      <c r="B24" s="519" t="s">
         <v>570</v>
       </c>
-      <c r="C24" s="509"/>
-      <c r="D24" s="508"/>
-      <c r="E24" s="508"/>
-      <c r="F24" s="508"/>
-      <c r="G24" s="508"/>
-      <c r="H24" s="508"/>
-      <c r="I24" s="508"/>
-      <c r="J24" s="508"/>
-      <c r="K24" s="508"/>
-      <c r="M24" s="562" t="s">
+      <c r="C24" s="519"/>
+      <c r="D24" s="518"/>
+      <c r="E24" s="518"/>
+      <c r="F24" s="518"/>
+      <c r="G24" s="518"/>
+      <c r="H24" s="518"/>
+      <c r="I24" s="518"/>
+      <c r="J24" s="518"/>
+      <c r="K24" s="518"/>
+      <c r="M24" s="541" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="562"/>
-      <c r="O24" s="562"/>
+      <c r="N24" s="541"/>
+      <c r="O24" s="541"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="563" t="s">
+      <c r="B25" s="542" t="s">
         <v>913</v>
       </c>
       <c r="C25" s="486"/>
-      <c r="D25" s="434" t="s">
+      <c r="D25" s="435" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="434"/>
-      <c r="F25" s="434"/>
-      <c r="G25" s="434"/>
-      <c r="H25" s="434"/>
-      <c r="I25" s="434"/>
-      <c r="J25" s="434"/>
-      <c r="K25" s="435"/>
+      <c r="E25" s="435"/>
+      <c r="F25" s="435"/>
+      <c r="G25" s="435"/>
+      <c r="H25" s="435"/>
+      <c r="I25" s="435"/>
+      <c r="J25" s="435"/>
+      <c r="K25" s="436"/>
       <c r="M25" s="38" t="s">
         <v>182</v>
       </c>
@@ -24886,16 +24886,16 @@
         <v>906</v>
       </c>
       <c r="E26" s="486"/>
-      <c r="F26" s="556" t="s">
+      <c r="F26" s="569" t="s">
         <v>906</v>
       </c>
-      <c r="G26" s="434"/>
-      <c r="H26" s="435"/>
-      <c r="I26" s="433" t="s">
+      <c r="G26" s="435"/>
+      <c r="H26" s="436"/>
+      <c r="I26" s="434" t="s">
         <v>910</v>
       </c>
-      <c r="J26" s="434"/>
-      <c r="K26" s="435"/>
+      <c r="J26" s="435"/>
+      <c r="K26" s="436"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -24912,20 +24912,20 @@
     <row r="27" spans="2:19">
       <c r="B27" s="487"/>
       <c r="C27" s="488"/>
-      <c r="D27" s="477" t="s">
+      <c r="D27" s="482" t="s">
         <v>911</v>
       </c>
       <c r="E27" s="488"/>
       <c r="F27" s="487" t="s">
         <v>907</v>
       </c>
-      <c r="G27" s="477"/>
-      <c r="H27" s="557"/>
-      <c r="I27" s="561" t="s">
+      <c r="G27" s="482"/>
+      <c r="H27" s="553"/>
+      <c r="I27" s="552" t="s">
         <v>911</v>
       </c>
-      <c r="J27" s="477"/>
-      <c r="K27" s="557"/>
+      <c r="J27" s="482"/>
+      <c r="K27" s="553"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -24942,20 +24942,20 @@
     <row r="28" spans="2:19">
       <c r="B28" s="487"/>
       <c r="C28" s="488"/>
-      <c r="D28" s="477" t="s">
+      <c r="D28" s="482" t="s">
         <v>908</v>
       </c>
       <c r="E28" s="488"/>
       <c r="F28" s="487" t="s">
         <v>908</v>
       </c>
-      <c r="G28" s="477"/>
-      <c r="H28" s="557"/>
-      <c r="I28" s="561" t="s">
+      <c r="G28" s="482"/>
+      <c r="H28" s="553"/>
+      <c r="I28" s="552" t="s">
         <v>908</v>
       </c>
-      <c r="J28" s="477"/>
-      <c r="K28" s="557"/>
+      <c r="J28" s="482"/>
+      <c r="K28" s="553"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -24966,20 +24966,20 @@
     <row r="29" spans="2:19">
       <c r="B29" s="489"/>
       <c r="C29" s="490"/>
-      <c r="D29" s="477" t="s">
+      <c r="D29" s="482" t="s">
         <v>909</v>
       </c>
       <c r="E29" s="488"/>
-      <c r="F29" s="558" t="s">
+      <c r="F29" s="570" t="s">
         <v>909</v>
       </c>
-      <c r="G29" s="559"/>
-      <c r="H29" s="560"/>
-      <c r="I29" s="573" t="s">
+      <c r="G29" s="555"/>
+      <c r="H29" s="556"/>
+      <c r="I29" s="554" t="s">
         <v>909</v>
       </c>
-      <c r="J29" s="559"/>
-      <c r="K29" s="560"/>
+      <c r="J29" s="555"/>
+      <c r="K29" s="556"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -24988,149 +24988,149 @@
       <c r="O29" s="38"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="436" t="s">
+      <c r="B30" s="437" t="s">
         <v>912</v>
       </c>
-      <c r="C30" s="438"/>
-      <c r="D30" s="544" t="s">
+      <c r="C30" s="439"/>
+      <c r="D30" s="557" t="s">
         <v>571</v>
       </c>
-      <c r="E30" s="545"/>
-      <c r="F30" s="549" t="s">
+      <c r="E30" s="558"/>
+      <c r="F30" s="562" t="s">
         <v>572</v>
       </c>
-      <c r="G30" s="550"/>
-      <c r="H30" s="545"/>
-      <c r="I30" s="549" t="s">
+      <c r="G30" s="563"/>
+      <c r="H30" s="558"/>
+      <c r="I30" s="562" t="s">
         <v>573</v>
       </c>
-      <c r="J30" s="550"/>
-      <c r="K30" s="553"/>
+      <c r="J30" s="563"/>
+      <c r="K30" s="566"/>
       <c r="L30" s="5"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="419"/>
-      <c r="C31" s="439"/>
-      <c r="D31" s="546"/>
-      <c r="E31" s="506"/>
-      <c r="F31" s="504"/>
-      <c r="G31" s="505"/>
-      <c r="H31" s="506"/>
-      <c r="I31" s="504"/>
-      <c r="J31" s="505"/>
-      <c r="K31" s="554"/>
+      <c r="B31" s="420"/>
+      <c r="C31" s="440"/>
+      <c r="D31" s="559"/>
+      <c r="E31" s="525"/>
+      <c r="F31" s="523"/>
+      <c r="G31" s="524"/>
+      <c r="H31" s="525"/>
+      <c r="I31" s="523"/>
+      <c r="J31" s="524"/>
+      <c r="K31" s="567"/>
       <c r="L31" s="5"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="419"/>
-      <c r="C32" s="439"/>
-      <c r="D32" s="546"/>
-      <c r="E32" s="506"/>
-      <c r="F32" s="504"/>
-      <c r="G32" s="505"/>
-      <c r="H32" s="506"/>
-      <c r="I32" s="504"/>
-      <c r="J32" s="505"/>
-      <c r="K32" s="554"/>
+      <c r="B32" s="420"/>
+      <c r="C32" s="440"/>
+      <c r="D32" s="559"/>
+      <c r="E32" s="525"/>
+      <c r="F32" s="523"/>
+      <c r="G32" s="524"/>
+      <c r="H32" s="525"/>
+      <c r="I32" s="523"/>
+      <c r="J32" s="524"/>
+      <c r="K32" s="567"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="419"/>
-      <c r="C33" s="439"/>
-      <c r="D33" s="547"/>
-      <c r="E33" s="548"/>
-      <c r="F33" s="551"/>
-      <c r="G33" s="552"/>
-      <c r="H33" s="548"/>
-      <c r="I33" s="551"/>
-      <c r="J33" s="552"/>
-      <c r="K33" s="555"/>
+      <c r="B33" s="420"/>
+      <c r="C33" s="440"/>
+      <c r="D33" s="560"/>
+      <c r="E33" s="561"/>
+      <c r="F33" s="564"/>
+      <c r="G33" s="565"/>
+      <c r="H33" s="561"/>
+      <c r="I33" s="564"/>
+      <c r="J33" s="565"/>
+      <c r="K33" s="568"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="419"/>
-      <c r="C34" s="421"/>
-      <c r="D34" s="564" t="s">
+      <c r="B34" s="420"/>
+      <c r="C34" s="422"/>
+      <c r="D34" s="543" t="s">
         <v>899</v>
       </c>
-      <c r="E34" s="565"/>
-      <c r="F34" s="564" t="s">
+      <c r="E34" s="544"/>
+      <c r="F34" s="543" t="s">
         <v>593</v>
       </c>
-      <c r="G34" s="570"/>
-      <c r="H34" s="565"/>
-      <c r="I34" s="564" t="s">
+      <c r="G34" s="549"/>
+      <c r="H34" s="544"/>
+      <c r="I34" s="543" t="s">
         <v>914</v>
       </c>
-      <c r="J34" s="570"/>
-      <c r="K34" s="565"/>
+      <c r="J34" s="549"/>
+      <c r="K34" s="544"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="419"/>
-      <c r="C35" s="421"/>
-      <c r="D35" s="566"/>
-      <c r="E35" s="567"/>
-      <c r="F35" s="566"/>
-      <c r="G35" s="571"/>
-      <c r="H35" s="567"/>
-      <c r="I35" s="566"/>
-      <c r="J35" s="571"/>
-      <c r="K35" s="567"/>
+      <c r="B35" s="420"/>
+      <c r="C35" s="422"/>
+      <c r="D35" s="545"/>
+      <c r="E35" s="546"/>
+      <c r="F35" s="545"/>
+      <c r="G35" s="550"/>
+      <c r="H35" s="546"/>
+      <c r="I35" s="545"/>
+      <c r="J35" s="550"/>
+      <c r="K35" s="546"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="419"/>
-      <c r="C36" s="421"/>
-      <c r="D36" s="566"/>
-      <c r="E36" s="567"/>
-      <c r="F36" s="566"/>
-      <c r="G36" s="571"/>
-      <c r="H36" s="567"/>
-      <c r="I36" s="566"/>
-      <c r="J36" s="571"/>
-      <c r="K36" s="567"/>
+      <c r="B36" s="420"/>
+      <c r="C36" s="422"/>
+      <c r="D36" s="545"/>
+      <c r="E36" s="546"/>
+      <c r="F36" s="545"/>
+      <c r="G36" s="550"/>
+      <c r="H36" s="546"/>
+      <c r="I36" s="545"/>
+      <c r="J36" s="550"/>
+      <c r="K36" s="546"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="419"/>
-      <c r="C37" s="421"/>
-      <c r="D37" s="566"/>
-      <c r="E37" s="567"/>
-      <c r="F37" s="566"/>
-      <c r="G37" s="571"/>
-      <c r="H37" s="567"/>
-      <c r="I37" s="566"/>
-      <c r="J37" s="571"/>
-      <c r="K37" s="567"/>
+      <c r="B37" s="420"/>
+      <c r="C37" s="422"/>
+      <c r="D37" s="545"/>
+      <c r="E37" s="546"/>
+      <c r="F37" s="545"/>
+      <c r="G37" s="550"/>
+      <c r="H37" s="546"/>
+      <c r="I37" s="545"/>
+      <c r="J37" s="550"/>
+      <c r="K37" s="546"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="419"/>
-      <c r="C38" s="421"/>
-      <c r="D38" s="568"/>
-      <c r="E38" s="569"/>
-      <c r="F38" s="568"/>
-      <c r="G38" s="572"/>
-      <c r="H38" s="569"/>
-      <c r="I38" s="568"/>
-      <c r="J38" s="572"/>
-      <c r="K38" s="569"/>
+      <c r="B38" s="420"/>
+      <c r="C38" s="422"/>
+      <c r="D38" s="547"/>
+      <c r="E38" s="548"/>
+      <c r="F38" s="547"/>
+      <c r="G38" s="551"/>
+      <c r="H38" s="548"/>
+      <c r="I38" s="547"/>
+      <c r="J38" s="551"/>
+      <c r="K38" s="548"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="440"/>
-      <c r="C39" s="442"/>
-      <c r="D39" s="497" t="s">
+      <c r="B39" s="441"/>
+      <c r="C39" s="443"/>
+      <c r="D39" s="527" t="s">
         <v>574</v>
       </c>
-      <c r="E39" s="498"/>
-      <c r="F39" s="498"/>
-      <c r="G39" s="498"/>
-      <c r="H39" s="498"/>
-      <c r="I39" s="498"/>
-      <c r="J39" s="498"/>
-      <c r="K39" s="499"/>
+      <c r="E39" s="528"/>
+      <c r="F39" s="528"/>
+      <c r="G39" s="528"/>
+      <c r="H39" s="528"/>
+      <c r="I39" s="528"/>
+      <c r="J39" s="528"/>
+      <c r="K39" s="529"/>
       <c r="L39" s="40" t="s">
         <v>575</v>
       </c>
@@ -25148,36 +25148,35 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="443" t="s">
+      <c r="B41" s="444" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="444"/>
-      <c r="D41" s="443" t="s">
+      <c r="C41" s="445"/>
+      <c r="D41" s="444" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="444"/>
-      <c r="F41" s="443" t="s">
+      <c r="E41" s="445"/>
+      <c r="F41" s="444" t="s">
         <v>196</v>
       </c>
-      <c r="G41" s="445"/>
-      <c r="H41" s="445"/>
-      <c r="I41" s="445"/>
-      <c r="J41" s="445"/>
-      <c r="K41" s="444"/>
+      <c r="G41" s="446"/>
+      <c r="H41" s="446"/>
+      <c r="I41" s="446"/>
+      <c r="J41" s="446"/>
+      <c r="K41" s="445"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -25194,16 +25193,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -25727,13 +25727,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="414" t="s">
+      <c r="A5" s="415" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="415"/>
-      <c r="C5" s="415"/>
-      <c r="D5" s="415"/>
-      <c r="E5" s="416"/>
+      <c r="B5" s="416"/>
+      <c r="C5" s="416"/>
+      <c r="D5" s="416"/>
+      <c r="E5" s="417"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>150</v>
@@ -26390,7 +26390,7 @@
       <c r="J4" s="173"/>
       <c r="K4" s="173"/>
       <c r="L4" s="174"/>
-      <c r="M4" s="419" t="s">
+      <c r="M4" s="420" t="s">
         <v>324</v>
       </c>
     </row>
@@ -26408,7 +26408,7 @@
       <c r="J5" s="167"/>
       <c r="K5" s="167"/>
       <c r="L5" s="168"/>
-      <c r="M5" s="419"/>
+      <c r="M5" s="420"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="360">
@@ -26424,7 +26424,7 @@
       <c r="J6" s="167"/>
       <c r="K6" s="167"/>
       <c r="L6" s="168"/>
-      <c r="M6" s="419"/>
+      <c r="M6" s="420"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="360">
@@ -26444,7 +26444,7 @@
       <c r="J7" s="167"/>
       <c r="K7" s="167"/>
       <c r="L7" s="168"/>
-      <c r="M7" s="419"/>
+      <c r="M7" s="420"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="360">
@@ -26460,7 +26460,7 @@
       <c r="J8" s="167"/>
       <c r="K8" s="167"/>
       <c r="L8" s="168"/>
-      <c r="M8" s="419"/>
+      <c r="M8" s="420"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="360">
@@ -26476,7 +26476,7 @@
       <c r="J9" s="167"/>
       <c r="K9" s="167"/>
       <c r="L9" s="168"/>
-      <c r="M9" s="419"/>
+      <c r="M9" s="420"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="360">
@@ -26492,7 +26492,7 @@
       <c r="J10" s="167"/>
       <c r="K10" s="167"/>
       <c r="L10" s="168"/>
-      <c r="M10" s="419"/>
+      <c r="M10" s="420"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1">
       <c r="B11" s="360">
@@ -26508,7 +26508,7 @@
       <c r="J11" s="176"/>
       <c r="K11" s="176"/>
       <c r="L11" s="177"/>
-      <c r="M11" s="419"/>
+      <c r="M11" s="420"/>
     </row>
     <row r="12" spans="2:13">
       <c r="M12" t="s">
@@ -26782,7 +26782,7 @@
       <c r="O134" s="5"/>
     </row>
     <row r="135" spans="3:15">
-      <c r="C135" s="422" t="s">
+      <c r="C135" s="423" t="s">
         <v>167</v>
       </c>
       <c r="D135">
@@ -26809,7 +26809,7 @@
       <c r="O135" s="5"/>
     </row>
     <row r="136" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C136" s="422"/>
+      <c r="C136" s="423"/>
       <c r="D136">
         <v>20</v>
       </c>
@@ -26838,7 +26838,7 @@
       <c r="O136" s="5"/>
     </row>
     <row r="137" spans="3:15">
-      <c r="C137" s="422" t="s">
+      <c r="C137" s="423" t="s">
         <v>168</v>
       </c>
       <c r="D137">
@@ -26857,7 +26857,7 @@
       <c r="O137" s="5"/>
     </row>
     <row r="138" spans="3:15">
-      <c r="C138" s="422"/>
+      <c r="C138" s="423"/>
       <c r="D138">
         <v>40</v>
       </c>
@@ -26874,7 +26874,7 @@
       <c r="O138" s="5"/>
     </row>
     <row r="139" spans="3:15">
-      <c r="C139" s="422"/>
+      <c r="C139" s="423"/>
       <c r="D139">
         <v>50</v>
       </c>
@@ -26891,7 +26891,7 @@
       <c r="O139" s="5"/>
     </row>
     <row r="140" spans="3:15">
-      <c r="C140" s="422"/>
+      <c r="C140" s="423"/>
       <c r="D140">
         <v>60</v>
       </c>
@@ -26910,7 +26910,7 @@
       <c r="O140" s="5"/>
     </row>
     <row r="141" spans="3:15">
-      <c r="C141" s="422"/>
+      <c r="C141" s="423"/>
       <c r="D141">
         <v>70</v>
       </c>
@@ -26927,7 +26927,7 @@
       <c r="O141" s="5"/>
     </row>
     <row r="142" spans="3:15">
-      <c r="C142" s="422"/>
+      <c r="C142" s="423"/>
       <c r="D142">
         <v>80</v>
       </c>
@@ -26944,7 +26944,7 @@
       <c r="O142" s="5"/>
     </row>
     <row r="143" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C143" s="422"/>
+      <c r="C143" s="423"/>
       <c r="D143">
         <v>90</v>
       </c>
@@ -27035,7 +27035,7 @@
       </c>
     </row>
     <row r="148" spans="4:15">
-      <c r="D148" s="420">
+      <c r="D148" s="421">
         <v>1</v>
       </c>
       <c r="E148" s="169"/>
@@ -27050,7 +27050,7 @@
       <c r="N148" s="174"/>
     </row>
     <row r="149" spans="4:15">
-      <c r="D149" s="421"/>
+      <c r="D149" s="422"/>
       <c r="E149" s="170"/>
       <c r="F149" s="166"/>
       <c r="G149" s="167"/>
@@ -27063,7 +27063,7 @@
       <c r="N149" s="168"/>
     </row>
     <row r="150" spans="4:15">
-      <c r="D150" s="421"/>
+      <c r="D150" s="422"/>
       <c r="E150" s="170"/>
       <c r="F150" s="166"/>
       <c r="G150" s="167"/>
@@ -27076,7 +27076,7 @@
       <c r="N150" s="168"/>
     </row>
     <row r="151" spans="4:15">
-      <c r="D151" s="421"/>
+      <c r="D151" s="422"/>
       <c r="E151" s="170" t="s">
         <v>663</v>
       </c>
@@ -27093,7 +27093,7 @@
       <c r="N151" s="168"/>
     </row>
     <row r="152" spans="4:15">
-      <c r="D152" s="421"/>
+      <c r="D152" s="422"/>
       <c r="E152" s="170"/>
       <c r="F152" s="166"/>
       <c r="G152" s="167"/>
@@ -27106,7 +27106,7 @@
       <c r="N152" s="168"/>
     </row>
     <row r="153" spans="4:15">
-      <c r="D153" s="421"/>
+      <c r="D153" s="422"/>
       <c r="E153" s="170"/>
       <c r="F153" s="166"/>
       <c r="G153" s="167"/>
@@ -27119,7 +27119,7 @@
       <c r="N153" s="168"/>
     </row>
     <row r="154" spans="4:15" ht="15.75" thickBot="1">
-      <c r="D154" s="421"/>
+      <c r="D154" s="422"/>
       <c r="E154" s="171"/>
       <c r="F154" s="175"/>
       <c r="G154" s="176"/>
@@ -27242,7 +27242,7 @@
       <c r="K183" s="173"/>
       <c r="L183" s="173"/>
       <c r="M183" s="173"/>
-      <c r="N183" s="418" t="s">
+      <c r="N183" s="419" t="s">
         <v>916</v>
       </c>
       <c r="O183" t="s">
@@ -27263,7 +27263,7 @@
       <c r="K184" s="176"/>
       <c r="L184" s="176"/>
       <c r="M184" s="176"/>
-      <c r="N184" s="418"/>
+      <c r="N184" s="419"/>
       <c r="O184" t="s">
         <v>917</v>
       </c>
@@ -27282,7 +27282,7 @@
       <c r="K185" s="229"/>
       <c r="L185" s="229"/>
       <c r="M185" s="293"/>
-      <c r="N185" s="417" t="s">
+      <c r="N185" s="418" t="s">
         <v>919</v>
       </c>
       <c r="O185" t="s">
@@ -27303,7 +27303,7 @@
       <c r="K186" s="230"/>
       <c r="L186" s="230"/>
       <c r="M186" s="295"/>
-      <c r="N186" s="417"/>
+      <c r="N186" s="418"/>
     </row>
     <row r="187" spans="3:15">
       <c r="C187">
@@ -27319,7 +27319,7 @@
       <c r="K187" s="230"/>
       <c r="L187" s="230"/>
       <c r="M187" s="295"/>
-      <c r="N187" s="417"/>
+      <c r="N187" s="418"/>
     </row>
     <row r="188" spans="3:15" ht="15.75" thickBot="1">
       <c r="C188">
@@ -27339,7 +27339,7 @@
       <c r="K188" s="231"/>
       <c r="L188" s="231"/>
       <c r="M188" s="297"/>
-      <c r="N188" s="417"/>
+      <c r="N188" s="418"/>
     </row>
     <row r="189" spans="3:15">
       <c r="C189">
@@ -27355,7 +27355,7 @@
       <c r="K189" s="230"/>
       <c r="L189" s="230"/>
       <c r="M189" s="230"/>
-      <c r="N189" s="418"/>
+      <c r="N189" s="419"/>
     </row>
     <row r="190" spans="3:15">
       <c r="C190">
@@ -27371,7 +27371,7 @@
       <c r="K190" s="230"/>
       <c r="L190" s="230"/>
       <c r="M190" s="230"/>
-      <c r="N190" s="418"/>
+      <c r="N190" s="419"/>
     </row>
     <row r="191" spans="3:15" ht="15.75" thickBot="1">
       <c r="C191">
@@ -27387,7 +27387,7 @@
       <c r="K191" s="231"/>
       <c r="L191" s="231"/>
       <c r="M191" s="231"/>
-      <c r="N191" s="418"/>
+      <c r="N191" s="419"/>
     </row>
     <row r="192" spans="3:15" ht="15.75" thickBot="1">
       <c r="C192">
@@ -27762,14 +27762,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="433" t="s">
+      <c r="K4" s="434" t="s">
         <v>178</v>
       </c>
-      <c r="L4" s="434"/>
-      <c r="M4" s="434"/>
-      <c r="N4" s="434"/>
-      <c r="O4" s="434"/>
-      <c r="P4" s="435"/>
+      <c r="L4" s="435"/>
+      <c r="M4" s="435"/>
+      <c r="N4" s="435"/>
+      <c r="O4" s="435"/>
+      <c r="P4" s="436"/>
       <c r="Q4" s="115" t="s">
         <v>281</v>
       </c>
@@ -27808,7 +27808,7 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="452" t="s">
+      <c r="E6" s="453" t="s">
         <v>1488</v>
       </c>
       <c r="F6" t="s">
@@ -27851,7 +27851,7 @@
       <c r="D7" s="367" t="s">
         <v>1609</v>
       </c>
-      <c r="E7" s="424"/>
+      <c r="E7" s="425"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
@@ -27887,7 +27887,7 @@
       <c r="D8" s="367" t="s">
         <v>1608</v>
       </c>
-      <c r="E8" s="424"/>
+      <c r="E8" s="425"/>
       <c r="F8" t="s">
         <v>203</v>
       </c>
@@ -27898,10 +27898,10 @@
       <c r="L8" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M8" s="446" t="s">
+      <c r="M8" s="447" t="s">
         <v>1487</v>
       </c>
-      <c r="N8" s="447"/>
+      <c r="N8" s="448"/>
       <c r="O8" s="5" t="s">
         <v>31</v>
       </c>
@@ -27930,7 +27930,7 @@
       <c r="D9" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="E9" s="424"/>
+      <c r="E9" s="425"/>
       <c r="F9" s="24" t="s">
         <v>216</v>
       </c>
@@ -27943,8 +27943,8 @@
       <c r="L9" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M9" s="448"/>
-      <c r="N9" s="449"/>
+      <c r="M9" s="449"/>
+      <c r="N9" s="450"/>
       <c r="O9" s="5" t="s">
         <v>187</v>
       </c>
@@ -27969,7 +27969,7 @@
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
-      <c r="E10" s="425"/>
+      <c r="E10" s="426"/>
       <c r="F10" t="s">
         <v>204</v>
       </c>
@@ -27980,8 +27980,8 @@
       <c r="L10" s="5" t="s">
         <v>1166</v>
       </c>
-      <c r="M10" s="448"/>
-      <c r="N10" s="449"/>
+      <c r="M10" s="449"/>
+      <c r="N10" s="450"/>
       <c r="O10" s="5"/>
       <c r="P10" s="240" t="s">
         <v>399</v>
@@ -27998,13 +27998,13 @@
       <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="436" t="s">
+      <c r="A11" s="437" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="437"/>
-      <c r="C11" s="438"/>
-      <c r="D11" s="438"/>
-      <c r="E11" s="421"/>
+      <c r="B11" s="438"/>
+      <c r="C11" s="439"/>
+      <c r="D11" s="439"/>
+      <c r="E11" s="422"/>
       <c r="F11" t="s">
         <v>209</v>
       </c>
@@ -28013,8 +28013,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="448"/>
-      <c r="N11" s="449"/>
+      <c r="M11" s="449"/>
+      <c r="N11" s="450"/>
       <c r="O11" s="5" t="s">
         <v>2</v>
       </c>
@@ -28031,11 +28031,11 @@
       <c r="T11" s="38"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="419"/>
-      <c r="B12" s="439"/>
-      <c r="C12" s="439"/>
-      <c r="D12" s="439"/>
-      <c r="E12" s="421"/>
+      <c r="A12" s="420"/>
+      <c r="B12" s="440"/>
+      <c r="C12" s="440"/>
+      <c r="D12" s="440"/>
+      <c r="E12" s="422"/>
       <c r="F12" t="s">
         <v>943</v>
       </c>
@@ -28044,8 +28044,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="448"/>
-      <c r="N12" s="449"/>
+      <c r="M12" s="449"/>
+      <c r="N12" s="450"/>
       <c r="O12" s="5"/>
       <c r="P12" s="240" t="s">
         <v>1304</v>
@@ -28058,11 +28058,11 @@
       <c r="T12" s="38"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A13" s="419"/>
-      <c r="B13" s="439"/>
-      <c r="C13" s="439"/>
-      <c r="D13" s="439"/>
-      <c r="E13" s="421"/>
+      <c r="A13" s="420"/>
+      <c r="B13" s="440"/>
+      <c r="C13" s="440"/>
+      <c r="D13" s="440"/>
+      <c r="E13" s="422"/>
       <c r="F13" t="s">
         <v>679</v>
       </c>
@@ -28073,8 +28073,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="450"/>
-      <c r="N13" s="451"/>
+      <c r="M13" s="451"/>
+      <c r="N13" s="452"/>
       <c r="O13" s="28"/>
       <c r="P13" s="241"/>
       <c r="Q13">
@@ -28085,11 +28085,11 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="440"/>
-      <c r="B14" s="441"/>
-      <c r="C14" s="441"/>
-      <c r="D14" s="441"/>
-      <c r="E14" s="442"/>
+      <c r="A14" s="441"/>
+      <c r="B14" s="442"/>
+      <c r="C14" s="442"/>
+      <c r="D14" s="442"/>
+      <c r="E14" s="443"/>
       <c r="F14" t="s">
         <v>884</v>
       </c>
@@ -28229,20 +28229,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="443" t="s">
+      <c r="I20" s="444" t="s">
         <v>194</v>
       </c>
-      <c r="J20" s="444"/>
-      <c r="K20" s="443" t="s">
+      <c r="J20" s="445"/>
+      <c r="K20" s="444" t="s">
         <v>195</v>
       </c>
-      <c r="L20" s="444"/>
-      <c r="M20" s="443" t="s">
+      <c r="L20" s="445"/>
+      <c r="M20" s="444" t="s">
         <v>196</v>
       </c>
-      <c r="N20" s="445"/>
-      <c r="O20" s="445"/>
-      <c r="P20" s="444"/>
+      <c r="N20" s="446"/>
+      <c r="O20" s="446"/>
+      <c r="P20" s="445"/>
       <c r="S20" t="s">
         <v>281</v>
       </c>
@@ -29968,19 +29968,19 @@
       <c r="D204" s="2"/>
       <c r="E204" s="3"/>
       <c r="I204" s="4"/>
-      <c r="J204" s="423" t="s">
+      <c r="J204" s="424" t="s">
         <v>1492</v>
       </c>
       <c r="K204" s="1"/>
-      <c r="L204" s="453" t="s">
+      <c r="L204" s="454" t="s">
         <v>1503</v>
       </c>
-      <c r="M204" s="426" t="s">
+      <c r="M204" s="427" t="s">
         <v>1502</v>
       </c>
-      <c r="N204" s="427"/>
-      <c r="O204" s="427"/>
-      <c r="P204" s="428"/>
+      <c r="N204" s="428"/>
+      <c r="O204" s="428"/>
+      <c r="P204" s="429"/>
       <c r="Q204" s="6"/>
     </row>
     <row r="205" spans="1:17" ht="15.75" thickBot="1">
@@ -29990,13 +29990,13 @@
       <c r="D205" s="5"/>
       <c r="E205" s="6"/>
       <c r="I205" s="4"/>
-      <c r="J205" s="424"/>
+      <c r="J205" s="425"/>
       <c r="K205" s="4"/>
-      <c r="L205" s="454"/>
-      <c r="M205" s="429"/>
-      <c r="N205" s="429"/>
-      <c r="O205" s="429"/>
-      <c r="P205" s="430"/>
+      <c r="L205" s="455"/>
+      <c r="M205" s="430"/>
+      <c r="N205" s="430"/>
+      <c r="O205" s="430"/>
+      <c r="P205" s="431"/>
       <c r="Q205" s="6"/>
     </row>
     <row r="206" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
@@ -30008,15 +30008,15 @@
       <c r="D206" s="107"/>
       <c r="E206" s="108"/>
       <c r="I206" s="4"/>
-      <c r="J206" s="424"/>
+      <c r="J206" s="425"/>
       <c r="K206" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="L206" s="454"/>
-      <c r="M206" s="429"/>
-      <c r="N206" s="429"/>
-      <c r="O206" s="429"/>
-      <c r="P206" s="430"/>
+      <c r="L206" s="455"/>
+      <c r="M206" s="430"/>
+      <c r="N206" s="430"/>
+      <c r="O206" s="430"/>
+      <c r="P206" s="431"/>
       <c r="Q206" s="6"/>
     </row>
     <row r="207" spans="1:17">
@@ -30028,13 +30028,13 @@
       <c r="D207" s="5"/>
       <c r="E207" s="6"/>
       <c r="I207" s="4"/>
-      <c r="J207" s="424"/>
+      <c r="J207" s="425"/>
       <c r="K207" s="4"/>
-      <c r="L207" s="454"/>
-      <c r="M207" s="429"/>
-      <c r="N207" s="429"/>
-      <c r="O207" s="429"/>
-      <c r="P207" s="430"/>
+      <c r="L207" s="455"/>
+      <c r="M207" s="430"/>
+      <c r="N207" s="430"/>
+      <c r="O207" s="430"/>
+      <c r="P207" s="431"/>
       <c r="Q207" s="6"/>
     </row>
     <row r="208" spans="1:17" ht="15.75" thickBot="1">
@@ -30048,13 +30048,13 @@
       <c r="D208" s="5"/>
       <c r="E208" s="6"/>
       <c r="I208" s="4"/>
-      <c r="J208" s="424"/>
+      <c r="J208" s="425"/>
       <c r="K208" s="8"/>
-      <c r="L208" s="454"/>
-      <c r="M208" s="429"/>
-      <c r="N208" s="429"/>
-      <c r="O208" s="429"/>
-      <c r="P208" s="430"/>
+      <c r="L208" s="455"/>
+      <c r="M208" s="430"/>
+      <c r="N208" s="430"/>
+      <c r="O208" s="430"/>
+      <c r="P208" s="431"/>
       <c r="Q208" s="6"/>
     </row>
     <row r="209" spans="1:17">
@@ -30068,13 +30068,13 @@
       <c r="D209" s="5"/>
       <c r="E209" s="6"/>
       <c r="I209" s="4"/>
-      <c r="J209" s="424"/>
+      <c r="J209" s="425"/>
       <c r="K209" s="1"/>
-      <c r="L209" s="454"/>
-      <c r="M209" s="429"/>
-      <c r="N209" s="429"/>
-      <c r="O209" s="429"/>
-      <c r="P209" s="430"/>
+      <c r="L209" s="455"/>
+      <c r="M209" s="430"/>
+      <c r="N209" s="430"/>
+      <c r="O209" s="430"/>
+      <c r="P209" s="431"/>
       <c r="Q209" s="6"/>
     </row>
     <row r="210" spans="1:17">
@@ -30086,13 +30086,13 @@
       <c r="D210" s="5"/>
       <c r="E210" s="6"/>
       <c r="I210" s="4"/>
-      <c r="J210" s="424"/>
+      <c r="J210" s="425"/>
       <c r="K210" s="4"/>
-      <c r="L210" s="454"/>
-      <c r="M210" s="429"/>
-      <c r="N210" s="429"/>
-      <c r="O210" s="429"/>
-      <c r="P210" s="430"/>
+      <c r="L210" s="455"/>
+      <c r="M210" s="430"/>
+      <c r="N210" s="430"/>
+      <c r="O210" s="430"/>
+      <c r="P210" s="431"/>
       <c r="Q210" s="6"/>
     </row>
     <row r="211" spans="1:17">
@@ -30107,13 +30107,13 @@
         <v>1501</v>
       </c>
       <c r="I211" s="4"/>
-      <c r="J211" s="424"/>
+      <c r="J211" s="425"/>
       <c r="K211" s="4"/>
-      <c r="L211" s="454"/>
-      <c r="M211" s="429"/>
-      <c r="N211" s="429"/>
-      <c r="O211" s="429"/>
-      <c r="P211" s="430"/>
+      <c r="L211" s="455"/>
+      <c r="M211" s="430"/>
+      <c r="N211" s="430"/>
+      <c r="O211" s="430"/>
+      <c r="P211" s="431"/>
       <c r="Q211" s="6"/>
     </row>
     <row r="212" spans="1:17">
@@ -30126,15 +30126,15 @@
         <v>485</v>
       </c>
       <c r="I212" s="4"/>
-      <c r="J212" s="424"/>
+      <c r="J212" s="425"/>
       <c r="K212" s="4" t="s">
         <v>1482</v>
       </c>
-      <c r="L212" s="454"/>
-      <c r="M212" s="429"/>
-      <c r="N212" s="429"/>
-      <c r="O212" s="429"/>
-      <c r="P212" s="430"/>
+      <c r="L212" s="455"/>
+      <c r="M212" s="430"/>
+      <c r="N212" s="430"/>
+      <c r="O212" s="430"/>
+      <c r="P212" s="431"/>
       <c r="Q212" s="6"/>
     </row>
     <row r="213" spans="1:17" ht="15.75" thickBot="1">
@@ -30144,24 +30144,24 @@
       <c r="D213" s="10"/>
       <c r="E213" s="9"/>
       <c r="I213" s="4"/>
-      <c r="J213" s="424"/>
+      <c r="J213" s="425"/>
       <c r="K213" s="4"/>
-      <c r="L213" s="454"/>
-      <c r="M213" s="429"/>
-      <c r="N213" s="429"/>
-      <c r="O213" s="429"/>
-      <c r="P213" s="430"/>
+      <c r="L213" s="455"/>
+      <c r="M213" s="430"/>
+      <c r="N213" s="430"/>
+      <c r="O213" s="430"/>
+      <c r="P213" s="431"/>
       <c r="Q213" s="6"/>
     </row>
     <row r="214" spans="1:17" ht="15.75" thickBot="1">
       <c r="I214" s="4"/>
-      <c r="J214" s="424"/>
+      <c r="J214" s="425"/>
       <c r="K214" s="8"/>
-      <c r="L214" s="454"/>
-      <c r="M214" s="429"/>
-      <c r="N214" s="429"/>
-      <c r="O214" s="429"/>
-      <c r="P214" s="430"/>
+      <c r="L214" s="455"/>
+      <c r="M214" s="430"/>
+      <c r="N214" s="430"/>
+      <c r="O214" s="430"/>
+      <c r="P214" s="431"/>
       <c r="Q214" s="6"/>
     </row>
     <row r="215" spans="1:17">
@@ -30169,24 +30169,24 @@
         <v>1494</v>
       </c>
       <c r="I215" s="4"/>
-      <c r="J215" s="424"/>
+      <c r="J215" s="425"/>
       <c r="K215" s="5"/>
-      <c r="L215" s="454"/>
-      <c r="M215" s="429"/>
-      <c r="N215" s="429"/>
-      <c r="O215" s="429"/>
-      <c r="P215" s="430"/>
+      <c r="L215" s="455"/>
+      <c r="M215" s="430"/>
+      <c r="N215" s="430"/>
+      <c r="O215" s="430"/>
+      <c r="P215" s="431"/>
       <c r="Q215" s="6"/>
     </row>
     <row r="216" spans="1:17">
       <c r="I216" s="4"/>
-      <c r="J216" s="424"/>
+      <c r="J216" s="425"/>
       <c r="K216" s="5"/>
-      <c r="L216" s="454"/>
-      <c r="M216" s="429"/>
-      <c r="N216" s="429"/>
-      <c r="O216" s="429"/>
-      <c r="P216" s="430"/>
+      <c r="L216" s="455"/>
+      <c r="M216" s="430"/>
+      <c r="N216" s="430"/>
+      <c r="O216" s="430"/>
+      <c r="P216" s="431"/>
       <c r="Q216" s="6"/>
     </row>
     <row r="217" spans="1:17">
@@ -30197,15 +30197,15 @@
         <v>167</v>
       </c>
       <c r="I217" s="4"/>
-      <c r="J217" s="424"/>
+      <c r="J217" s="425"/>
       <c r="K217" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="L217" s="454"/>
-      <c r="M217" s="429"/>
-      <c r="N217" s="429"/>
-      <c r="O217" s="429"/>
-      <c r="P217" s="430"/>
+      <c r="L217" s="455"/>
+      <c r="M217" s="430"/>
+      <c r="N217" s="430"/>
+      <c r="O217" s="430"/>
+      <c r="P217" s="431"/>
       <c r="Q217" s="6"/>
     </row>
     <row r="218" spans="1:17">
@@ -30213,13 +30213,13 @@
         <v>168</v>
       </c>
       <c r="I218" s="4"/>
-      <c r="J218" s="424"/>
+      <c r="J218" s="425"/>
       <c r="K218" s="5"/>
-      <c r="L218" s="454"/>
-      <c r="M218" s="429"/>
-      <c r="N218" s="429"/>
-      <c r="O218" s="429"/>
-      <c r="P218" s="430"/>
+      <c r="L218" s="455"/>
+      <c r="M218" s="430"/>
+      <c r="N218" s="430"/>
+      <c r="O218" s="430"/>
+      <c r="P218" s="431"/>
       <c r="Q218" s="6"/>
     </row>
     <row r="219" spans="1:17">
@@ -30230,13 +30230,13 @@
         <v>10</v>
       </c>
       <c r="I219" s="4"/>
-      <c r="J219" s="424"/>
+      <c r="J219" s="425"/>
       <c r="K219" s="5"/>
-      <c r="L219" s="454"/>
-      <c r="M219" s="429"/>
-      <c r="N219" s="429"/>
-      <c r="O219" s="429"/>
-      <c r="P219" s="430"/>
+      <c r="L219" s="455"/>
+      <c r="M219" s="430"/>
+      <c r="N219" s="430"/>
+      <c r="O219" s="430"/>
+      <c r="P219" s="431"/>
       <c r="Q219" s="6"/>
     </row>
     <row r="220" spans="1:17">
@@ -30247,13 +30247,13 @@
         <v>80</v>
       </c>
       <c r="I220" s="4"/>
-      <c r="J220" s="424"/>
+      <c r="J220" s="425"/>
       <c r="K220" s="5"/>
-      <c r="L220" s="454"/>
-      <c r="M220" s="429"/>
-      <c r="N220" s="429"/>
-      <c r="O220" s="429"/>
-      <c r="P220" s="430"/>
+      <c r="L220" s="455"/>
+      <c r="M220" s="430"/>
+      <c r="N220" s="430"/>
+      <c r="O220" s="430"/>
+      <c r="P220" s="431"/>
       <c r="Q220" s="6"/>
     </row>
     <row r="221" spans="1:17">
@@ -30264,24 +30264,24 @@
         <v>1164</v>
       </c>
       <c r="I221" s="4"/>
-      <c r="J221" s="424"/>
+      <c r="J221" s="425"/>
       <c r="K221" s="5"/>
-      <c r="L221" s="454"/>
-      <c r="M221" s="429"/>
-      <c r="N221" s="429"/>
-      <c r="O221" s="429"/>
-      <c r="P221" s="430"/>
+      <c r="L221" s="455"/>
+      <c r="M221" s="430"/>
+      <c r="N221" s="430"/>
+      <c r="O221" s="430"/>
+      <c r="P221" s="431"/>
       <c r="Q221" s="6"/>
     </row>
     <row r="222" spans="1:17" ht="15.75" thickBot="1">
       <c r="I222" s="4"/>
-      <c r="J222" s="425"/>
+      <c r="J222" s="426"/>
       <c r="K222" s="10"/>
-      <c r="L222" s="455"/>
-      <c r="M222" s="431"/>
-      <c r="N222" s="431"/>
-      <c r="O222" s="431"/>
-      <c r="P222" s="432"/>
+      <c r="L222" s="456"/>
+      <c r="M222" s="432"/>
+      <c r="N222" s="432"/>
+      <c r="O222" s="432"/>
+      <c r="P222" s="433"/>
       <c r="Q222" s="6"/>
     </row>
     <row r="223" spans="1:17" ht="15.75" thickBot="1">
@@ -32104,13 +32104,13 @@
         <v>181</v>
       </c>
       <c r="J3" s="148"/>
-      <c r="K3" s="465"/>
-      <c r="L3" s="465"/>
-      <c r="M3" s="465"/>
-      <c r="N3" s="465"/>
-      <c r="O3" s="465"/>
-      <c r="P3" s="465"/>
-      <c r="Q3" s="466"/>
+      <c r="K3" s="466"/>
+      <c r="L3" s="466"/>
+      <c r="M3" s="466"/>
+      <c r="N3" s="466"/>
+      <c r="O3" s="466"/>
+      <c r="P3" s="466"/>
+      <c r="Q3" s="467"/>
       <c r="T3" s="40" t="s">
         <v>179</v>
       </c>
@@ -32378,13 +32378,13 @@
       <c r="U11" s="38"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="456" t="s">
+      <c r="A12" s="457" t="s">
         <v>667</v>
       </c>
-      <c r="B12" s="457"/>
-      <c r="C12" s="457"/>
-      <c r="D12" s="457"/>
-      <c r="E12" s="458"/>
+      <c r="B12" s="458"/>
+      <c r="C12" s="458"/>
+      <c r="D12" s="458"/>
+      <c r="E12" s="459"/>
       <c r="F12" t="s">
         <v>680</v>
       </c>
@@ -32407,11 +32407,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="459"/>
-      <c r="B13" s="460"/>
-      <c r="C13" s="460"/>
-      <c r="D13" s="460"/>
-      <c r="E13" s="461"/>
+      <c r="A13" s="460"/>
+      <c r="B13" s="461"/>
+      <c r="C13" s="461"/>
+      <c r="D13" s="461"/>
+      <c r="E13" s="462"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -32432,11 +32432,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="459"/>
-      <c r="B14" s="460"/>
-      <c r="C14" s="460"/>
-      <c r="D14" s="460"/>
-      <c r="E14" s="461"/>
+      <c r="A14" s="460"/>
+      <c r="B14" s="461"/>
+      <c r="C14" s="461"/>
+      <c r="D14" s="461"/>
+      <c r="E14" s="462"/>
       <c r="F14" t="s">
         <v>677</v>
       </c>
@@ -32459,11 +32459,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="462"/>
-      <c r="B15" s="463"/>
-      <c r="C15" s="463"/>
-      <c r="D15" s="463"/>
-      <c r="E15" s="464"/>
+      <c r="A15" s="463"/>
+      <c r="B15" s="464"/>
+      <c r="C15" s="464"/>
+      <c r="D15" s="464"/>
+      <c r="E15" s="465"/>
       <c r="F15" s="24"/>
       <c r="H15" s="192"/>
       <c r="I15" s="4" t="s">
@@ -32521,17 +32521,17 @@
       <c r="F17" s="188"/>
       <c r="G17" s="129"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="434" t="s">
+      <c r="I17" s="435" t="s">
         <v>1176</v>
       </c>
-      <c r="J17" s="434"/>
-      <c r="K17" s="434"/>
-      <c r="L17" s="434"/>
-      <c r="M17" s="434"/>
-      <c r="N17" s="434"/>
-      <c r="O17" s="434"/>
-      <c r="P17" s="434"/>
-      <c r="Q17" s="434"/>
+      <c r="J17" s="435"/>
+      <c r="K17" s="435"/>
+      <c r="L17" s="435"/>
+      <c r="M17" s="435"/>
+      <c r="N17" s="435"/>
+      <c r="O17" s="435"/>
+      <c r="P17" s="435"/>
+      <c r="Q17" s="435"/>
       <c r="S17" t="s">
         <v>358</v>
       </c>
@@ -36817,10 +36817,10 @@
       <c r="K232" s="35"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="467" t="s">
+      <c r="O232" s="468" t="s">
         <v>1224</v>
       </c>
-      <c r="P232" s="468"/>
+      <c r="P232" s="469"/>
       <c r="Q232" s="6"/>
     </row>
     <row r="233" spans="2:17">

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="1672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3517" uniqueCount="1718">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -5642,7 +5642,145 @@
     <t>ALL or NOTHING</t>
   </si>
   <si>
-    <t xml:space="preserve"> AA Dotnet program</t>
+    <t>SOAP UI software</t>
+  </si>
+  <si>
+    <t>Soap webservice client (Consuming)</t>
+  </si>
+  <si>
+    <t>&lt;calRect&gt; &lt;num1&gt;20&lt;/num1&gt; &lt;num2&gt;30&lt;/num2&gt;&lt;/calRect&gt;</t>
+  </si>
+  <si>
+    <t>Soap Webservice</t>
+  </si>
+  <si>
+    <t>(publish)</t>
+  </si>
+  <si>
+    <t>public class Math</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>public int add(int a,int b)</t>
+  </si>
+  <si>
+    <t>return a+b;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&lt;calculateRectangleResponse&gt;&lt;return&gt;600&lt;/return&gt;&lt;/calculateRectangleResponse&gt;</t>
+  </si>
+  <si>
+    <t>Java client</t>
+  </si>
+  <si>
+    <t>STUB program</t>
+  </si>
+  <si>
+    <t>&lt;num1&gt;20&lt;/num1&gt; &lt;num2&gt;30&lt;/num2&gt;</t>
+  </si>
+  <si>
+    <t>Math m=new Math();</t>
+  </si>
+  <si>
+    <t>int result=m.add(10,20);</t>
+  </si>
+  <si>
+    <t>convert client java variables into</t>
+  </si>
+  <si>
+    <t>XML… then make http call to</t>
+  </si>
+  <si>
+    <t>actual webservice</t>
+  </si>
+  <si>
+    <t>&lt;return&gt;600&lt;/return&gt;</t>
+  </si>
+  <si>
+    <t>complex soap response</t>
+  </si>
+  <si>
+    <t>cliennt</t>
+  </si>
+  <si>
+    <t>webservice client</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AA java program</t>
+  </si>
+  <si>
+    <t>HTTP URL</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;soap:calculateRectangle&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         &lt;arg0&gt;20&lt;/arg0&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         &lt;arg1&gt;10&lt;/arg1&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;/soap:calculateRectangle&gt;</t>
+  </si>
+  <si>
+    <t>&lt;soapenv:Envelope/"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;ns2:calculateRectangleResponse xmlns:ns2="http://soap.webservice.tutorial.com/"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         &lt;return&gt;200&lt;/return&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;/ns2:calculateRectangleResponse&gt;</t>
+  </si>
+  <si>
+    <t>m.add(10,20)</t>
+  </si>
+  <si>
+    <t>========</t>
+  </si>
+  <si>
+    <t>STUB program converts our method input into complex soap request</t>
+  </si>
+  <si>
+    <t>=========</t>
+  </si>
+  <si>
+    <t>int result</t>
+  </si>
+  <si>
+    <t>STUB Program convert complex soap response into simple java variable</t>
+  </si>
+  <si>
+    <t>weather.html</t>
+  </si>
+  <si>
+    <t>WeatherServlet</t>
+  </si>
+  <si>
+    <t>Newyork</t>
+  </si>
+  <si>
+    <t>openweather.com</t>
+  </si>
+  <si>
+    <t>Rest Weather webservice</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
   </si>
 </sst>
 </file>
@@ -6421,7 +6559,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="575">
+  <cellXfs count="581">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -7238,18 +7376,6 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7271,8 +7397,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7304,9 +7445,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7316,8 +7454,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7373,57 +7562,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7445,53 +7583,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7532,21 +7634,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -17997,10 +18141,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q203"/>
+  <dimension ref="A2:Q261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:J31"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I256" sqref="I256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18035,7 +18179,7 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="472" t="s">
+      <c r="E6" s="479" t="s">
         <v>406</v>
       </c>
       <c r="F6" s="417"/>
@@ -18056,7 +18200,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="480">
+      <c r="D7" s="476">
         <v>80</v>
       </c>
       <c r="E7" s="147"/>
@@ -18074,7 +18218,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="480"/>
+      <c r="D8" s="476"/>
       <c r="E8" s="134" t="s">
         <v>408</v>
       </c>
@@ -18109,7 +18253,7 @@
       <c r="B9" t="s">
         <v>407</v>
       </c>
-      <c r="D9" s="480"/>
+      <c r="D9" s="476"/>
       <c r="E9" s="149"/>
       <c r="F9" s="344"/>
       <c r="G9" s="149"/>
@@ -18133,7 +18277,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="480"/>
+      <c r="D10" s="476"/>
       <c r="E10" s="147"/>
       <c r="F10" s="148"/>
       <c r="G10" s="147"/>
@@ -18157,7 +18301,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="480"/>
+      <c r="D11" s="476"/>
       <c r="E11" s="134" t="s">
         <v>412</v>
       </c>
@@ -18186,7 +18330,7 @@
       <c r="B12" s="209" t="s">
         <v>416</v>
       </c>
-      <c r="D12" s="480"/>
+      <c r="D12" s="476"/>
       <c r="E12" s="149"/>
       <c r="F12" s="344"/>
       <c r="G12" s="149"/>
@@ -18204,7 +18348,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="480"/>
+      <c r="D13" s="476"/>
       <c r="E13" s="147"/>
       <c r="F13" s="148"/>
       <c r="G13" s="147"/>
@@ -18220,7 +18364,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="480"/>
+      <c r="D14" s="476"/>
       <c r="E14" s="134" t="s">
         <v>417</v>
       </c>
@@ -18244,7 +18388,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="480"/>
+      <c r="D15" s="476"/>
       <c r="E15" s="149"/>
       <c r="F15" s="344"/>
       <c r="G15" s="149"/>
@@ -18260,7 +18404,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="480"/>
+      <c r="D16" s="476"/>
       <c r="E16" s="147"/>
       <c r="F16" s="148"/>
       <c r="G16" s="24"/>
@@ -18276,7 +18420,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="480"/>
+      <c r="D17" s="476"/>
       <c r="E17" s="134" t="s">
         <v>421</v>
       </c>
@@ -18300,7 +18444,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="480"/>
+      <c r="D18" s="476"/>
       <c r="E18" s="149"/>
       <c r="F18" s="344"/>
       <c r="G18" s="71"/>
@@ -18317,20 +18461,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="473" t="s">
+      <c r="E19" s="480" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="474"/>
-      <c r="G19" s="473" t="s">
+      <c r="F19" s="481"/>
+      <c r="G19" s="480" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="474"/>
-      <c r="I19" s="473" t="s">
+      <c r="H19" s="481"/>
+      <c r="I19" s="480" t="s">
         <v>196</v>
       </c>
-      <c r="J19" s="475"/>
-      <c r="K19" s="475"/>
-      <c r="L19" s="474"/>
+      <c r="J19" s="482"/>
+      <c r="K19" s="482"/>
+      <c r="L19" s="481"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -18395,12 +18539,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="482"/>
-      <c r="H24" s="482"/>
-      <c r="I24" s="482"/>
-      <c r="J24" s="482"/>
-      <c r="K24" s="482"/>
-      <c r="L24" s="482"/>
+      <c r="G24" s="478"/>
+      <c r="H24" s="478"/>
+      <c r="I24" s="478"/>
+      <c r="J24" s="478"/>
+      <c r="K24" s="478"/>
+      <c r="L24" s="478"/>
       <c r="O24" s="40" t="s">
         <v>179</v>
       </c>
@@ -18716,7 +18860,9 @@
         <v>547</v>
       </c>
       <c r="G44" s="4"/>
-      <c r="H44" s="5"/>
+      <c r="H44" s="288" t="s">
+        <v>1693</v>
+      </c>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
       <c r="L44" t="s">
@@ -18745,6 +18891,9 @@
       <c r="J45" s="6"/>
     </row>
     <row r="46" spans="1:17">
+      <c r="A46" s="575" t="s">
+        <v>429</v>
+      </c>
       <c r="C46" s="4"/>
       <c r="D46" s="6" t="s">
         <v>442</v>
@@ -18768,6 +18917,9 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A47" s="575" t="s">
+        <v>1692</v>
+      </c>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
       <c r="G47" s="222" t="s">
@@ -18776,7 +18928,7 @@
       <c r="H47" s="468" t="s">
         <v>1353</v>
       </c>
-      <c r="I47" s="481"/>
+      <c r="I47" s="477"/>
       <c r="J47" s="469"/>
     </row>
     <row r="48" spans="1:17">
@@ -18885,7 +19037,7 @@
       <c r="G53" s="20" t="s">
         <v>846</v>
       </c>
-      <c r="H53" s="218" t="s">
+      <c r="H53" s="576" t="s">
         <v>851</v>
       </c>
       <c r="J53" s="35" t="s">
@@ -18910,7 +19062,7 @@
         <v>427</v>
       </c>
       <c r="G54" s="220" t="s">
-        <v>1671</v>
+        <v>1694</v>
       </c>
       <c r="H54" s="219"/>
       <c r="I54" t="s">
@@ -19383,16 +19535,16 @@
         <v>1047</v>
       </c>
       <c r="F131" s="38"/>
-      <c r="G131" s="478" t="s">
+      <c r="G131" s="474" t="s">
         <v>1040</v>
       </c>
-      <c r="H131" s="478"/>
-      <c r="I131" s="478"/>
-      <c r="J131" s="478"/>
-      <c r="K131" s="478"/>
-      <c r="L131" s="478"/>
-      <c r="M131" s="478"/>
-      <c r="N131" s="478"/>
+      <c r="H131" s="474"/>
+      <c r="I131" s="474"/>
+      <c r="J131" s="474"/>
+      <c r="K131" s="474"/>
+      <c r="L131" s="474"/>
+      <c r="M131" s="474"/>
+      <c r="N131" s="474"/>
       <c r="O131" s="38"/>
     </row>
     <row r="132" spans="2:15">
@@ -19529,29 +19681,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="38"/>
-      <c r="G141" s="479"/>
-      <c r="H141" s="479"/>
-      <c r="I141" s="479"/>
-      <c r="J141" s="479"/>
-      <c r="K141" s="479"/>
-      <c r="L141" s="479"/>
-      <c r="M141" s="479"/>
-      <c r="N141" s="479"/>
-      <c r="O141" s="479"/>
+      <c r="G141" s="475"/>
+      <c r="H141" s="475"/>
+      <c r="I141" s="475"/>
+      <c r="J141" s="475"/>
+      <c r="K141" s="475"/>
+      <c r="L141" s="475"/>
+      <c r="M141" s="475"/>
+      <c r="N141" s="475"/>
+      <c r="O141" s="475"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="479"/>
-      <c r="H142" s="479"/>
-      <c r="I142" s="479"/>
-      <c r="J142" s="479"/>
-      <c r="K142" s="479"/>
-      <c r="L142" s="479"/>
-      <c r="M142" s="479"/>
-      <c r="N142" s="479"/>
-      <c r="O142" s="479"/>
+      <c r="G142" s="475"/>
+      <c r="H142" s="475"/>
+      <c r="I142" s="475"/>
+      <c r="J142" s="475"/>
+      <c r="K142" s="475"/>
+      <c r="L142" s="475"/>
+      <c r="M142" s="475"/>
+      <c r="N142" s="475"/>
+      <c r="O142" s="475"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -19595,7 +19747,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="476" t="s">
+      <c r="D158" s="472" t="s">
         <v>1319</v>
       </c>
       <c r="E158" s="66"/>
@@ -19608,7 +19760,7 @@
       <c r="L158" s="237"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="477"/>
+      <c r="D159" s="473"/>
       <c r="E159" s="313" t="s">
         <v>1317</v>
       </c>
@@ -19630,7 +19782,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="477"/>
+      <c r="D160" s="473"/>
       <c r="E160" s="232"/>
       <c r="F160" s="238"/>
       <c r="G160" s="232"/>
@@ -19641,7 +19793,7 @@
       <c r="L160" s="238"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="477"/>
+      <c r="D161" s="473"/>
       <c r="E161" s="315"/>
       <c r="F161" s="316"/>
       <c r="G161" s="315"/>
@@ -19652,7 +19804,7 @@
       <c r="L161" s="316"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="477"/>
+      <c r="D162" s="473"/>
       <c r="E162" s="317"/>
       <c r="F162" s="318"/>
       <c r="G162" s="317"/>
@@ -19666,7 +19818,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="477"/>
+      <c r="D163" s="473"/>
       <c r="E163" s="319"/>
       <c r="F163" s="320"/>
       <c r="G163" s="319"/>
@@ -19677,7 +19829,7 @@
       <c r="L163" s="320"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="477"/>
+      <c r="D164" s="473"/>
       <c r="E164" s="66"/>
       <c r="F164" s="237"/>
       <c r="G164" s="66"/>
@@ -19688,7 +19840,7 @@
       <c r="L164" s="237"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="477"/>
+      <c r="D165" s="473"/>
       <c r="E165" s="58"/>
       <c r="F165" s="312"/>
       <c r="G165" s="58"/>
@@ -19702,7 +19854,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="477"/>
+      <c r="D166" s="473"/>
       <c r="E166" s="232"/>
       <c r="F166" s="238"/>
       <c r="G166" s="232"/>
@@ -19713,7 +19865,7 @@
       <c r="L166" s="238"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="477"/>
+      <c r="D167" s="473"/>
       <c r="E167" s="66"/>
       <c r="F167" s="237"/>
       <c r="G167" s="59"/>
@@ -19724,7 +19876,7 @@
       <c r="L167" s="312"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="477"/>
+      <c r="D168" s="473"/>
       <c r="E168" s="58"/>
       <c r="F168" s="312"/>
       <c r="G168" s="59"/>
@@ -19738,7 +19890,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="477"/>
+      <c r="D169" s="473"/>
       <c r="E169" s="232"/>
       <c r="F169" s="238"/>
       <c r="G169" s="321"/>
@@ -19916,19 +20068,586 @@
       <c r="J203" s="40"/>
       <c r="L203" s="40"/>
     </row>
+    <row r="209" spans="1:14">
+      <c r="D209" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F209" t="s">
+        <v>1695</v>
+      </c>
+      <c r="G209" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
+      <c r="A210" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A211" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1673</v>
+      </c>
+      <c r="L211" t="s">
+        <v>1674</v>
+      </c>
+      <c r="N211" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
+      <c r="A212" s="1"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="3"/>
+      <c r="H212" t="s">
+        <v>431</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="M212" s="2"/>
+      <c r="N212" s="3"/>
+    </row>
+    <row r="213" spans="1:14">
+      <c r="A213" s="4"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="6"/>
+      <c r="D213" t="s">
+        <v>1677</v>
+      </c>
+      <c r="L213" s="4" t="s">
+        <v>1678</v>
+      </c>
+      <c r="M213" s="5"/>
+      <c r="N213" s="6"/>
+    </row>
+    <row r="214" spans="1:14">
+      <c r="A214" s="4"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="6"/>
+      <c r="L214" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="M214" s="5"/>
+      <c r="N214" s="6"/>
+    </row>
+    <row r="215" spans="1:14">
+      <c r="A215" s="4"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="6"/>
+      <c r="H215" t="s">
+        <v>431</v>
+      </c>
+      <c r="L215" s="4"/>
+      <c r="M215" s="5" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N215" s="6"/>
+    </row>
+    <row r="216" spans="1:14">
+      <c r="A216" s="4"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="6"/>
+      <c r="D216" t="s">
+        <v>1680</v>
+      </c>
+      <c r="L216" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="M216" s="5"/>
+      <c r="N216" s="6"/>
+    </row>
+    <row r="217" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A217" s="8"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="9"/>
+      <c r="E217" t="s">
+        <v>1681</v>
+      </c>
+      <c r="L217" s="8"/>
+      <c r="M217" s="10"/>
+      <c r="N217" s="9"/>
+    </row>
+    <row r="220" spans="1:14">
+      <c r="A220" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A221" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H221" t="s">
+        <v>1684</v>
+      </c>
+      <c r="L221" t="s">
+        <v>1674</v>
+      </c>
+      <c r="N221" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
+      <c r="A222" s="1"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="3"/>
+      <c r="E222" s="248" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F222" s="56"/>
+      <c r="G222" s="57"/>
+      <c r="I222" t="s">
+        <v>431</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="M222" s="2"/>
+      <c r="N222" s="3"/>
+    </row>
+    <row r="223" spans="1:14">
+      <c r="A223" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B223" s="5"/>
+      <c r="C223" s="6"/>
+      <c r="D223" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E223" s="35" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F223" s="28"/>
+      <c r="G223" s="39"/>
+      <c r="H223" t="s">
+        <v>485</v>
+      </c>
+      <c r="L223" s="4" t="s">
+        <v>1678</v>
+      </c>
+      <c r="M223" s="5"/>
+      <c r="N223" s="6"/>
+    </row>
+    <row r="224" spans="1:14">
+      <c r="A224" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B224" s="5"/>
+      <c r="C224" s="6"/>
+      <c r="E224" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="F224" s="28"/>
+      <c r="G224" s="39"/>
+      <c r="L224" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="M224" s="5"/>
+      <c r="N224" s="6"/>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="A225" s="4"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="6"/>
+      <c r="E225" s="577" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F225" s="578"/>
+      <c r="G225" s="579"/>
+      <c r="I225" t="s">
+        <v>431</v>
+      </c>
+      <c r="L225" s="4"/>
+      <c r="M225" s="122" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N225" s="6"/>
+    </row>
+    <row r="226" spans="1:14">
+      <c r="A226" s="4"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="6"/>
+      <c r="D226" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E226" s="577" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F226" s="578"/>
+      <c r="G226" s="579"/>
+      <c r="H226" t="s">
+        <v>486</v>
+      </c>
+      <c r="L226" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="M226" s="5"/>
+      <c r="N226" s="6"/>
+    </row>
+    <row r="227" spans="1:14">
+      <c r="A227" s="4"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="6"/>
+      <c r="E227" s="577" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F227" s="578"/>
+      <c r="G227" s="579"/>
+      <c r="I227" t="s">
+        <v>1690</v>
+      </c>
+      <c r="L227" s="4"/>
+      <c r="M227" s="5"/>
+      <c r="N227" s="6"/>
+    </row>
+    <row r="228" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A228" s="8"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="9"/>
+      <c r="E228" s="249" t="s">
+        <v>236</v>
+      </c>
+      <c r="F228" s="305"/>
+      <c r="G228" s="250"/>
+      <c r="I228" t="s">
+        <v>1691</v>
+      </c>
+      <c r="L228" s="8"/>
+      <c r="M228" s="10"/>
+      <c r="N228" s="9"/>
+    </row>
+    <row r="230" spans="1:14">
+      <c r="A230" s="5" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I230" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14">
+      <c r="A231" s="580" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1708</v>
+      </c>
+      <c r="I231" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14">
+      <c r="A232" t="s">
+        <v>1702</v>
+      </c>
+      <c r="I232" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14">
+      <c r="A233" t="s">
+        <v>497</v>
+      </c>
+      <c r="I233" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14">
+      <c r="A234" t="s">
+        <v>498</v>
+      </c>
+      <c r="I234" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14">
+      <c r="A235" t="s">
+        <v>1698</v>
+      </c>
+      <c r="I235" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
+      <c r="A236" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I236" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
+      <c r="A237" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I237" s="580" t="s">
+        <v>1709</v>
+      </c>
+      <c r="J237" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
+      <c r="A238" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I238" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14">
+      <c r="A239" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
+      <c r="A240" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="241" spans="2:14" ht="15.75" thickBot="1"/>
+    <row r="242" spans="2:14">
+      <c r="G242" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="2"/>
+      <c r="M242" s="2"/>
+      <c r="N242" s="3"/>
+    </row>
+    <row r="243" spans="2:14" ht="15.75" thickBot="1">
+      <c r="G243" s="4"/>
+      <c r="H243" s="5"/>
+      <c r="I243" s="5"/>
+      <c r="J243" s="5"/>
+      <c r="K243" s="5"/>
+      <c r="L243" s="5"/>
+      <c r="M243" s="5"/>
+      <c r="N243" s="6"/>
+    </row>
+    <row r="244" spans="2:14">
+      <c r="B244" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C244" s="2"/>
+      <c r="D244" s="3"/>
+      <c r="G244" s="4"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="2"/>
+      <c r="J244" s="2"/>
+      <c r="K244" s="2"/>
+      <c r="L244" s="2"/>
+      <c r="M244" s="3"/>
+      <c r="N244" s="6"/>
+    </row>
+    <row r="245" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B245" s="4"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="6"/>
+      <c r="G245" s="4"/>
+      <c r="H245" s="4"/>
+      <c r="I245" s="5"/>
+      <c r="J245" s="5"/>
+      <c r="K245" s="5"/>
+      <c r="L245" s="5"/>
+      <c r="M245" s="6"/>
+      <c r="N245" s="6"/>
+    </row>
+    <row r="246" spans="2:14">
+      <c r="B246" s="4"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="6"/>
+      <c r="G246" s="4"/>
+      <c r="H246" s="4"/>
+      <c r="I246" s="5"/>
+      <c r="J246" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="K246" s="2"/>
+      <c r="L246" s="3"/>
+      <c r="M246" s="6"/>
+      <c r="N246" s="6"/>
+    </row>
+    <row r="247" spans="2:14">
+      <c r="B247" s="4"/>
+      <c r="C247" s="5" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D247" s="6"/>
+      <c r="E247" t="s">
+        <v>947</v>
+      </c>
+      <c r="G247" s="4"/>
+      <c r="H247" s="4"/>
+      <c r="I247" s="5"/>
+      <c r="J247" s="4"/>
+      <c r="K247" s="5"/>
+      <c r="L247" s="6"/>
+      <c r="M247" s="6"/>
+      <c r="N247" s="6"/>
+    </row>
+    <row r="248" spans="2:14">
+      <c r="B248" s="4"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="6"/>
+      <c r="G248" s="4"/>
+      <c r="H248" s="4"/>
+      <c r="I248" s="5"/>
+      <c r="J248" s="4"/>
+      <c r="K248" s="5" t="s">
+        <v>1693</v>
+      </c>
+      <c r="L248" s="6"/>
+      <c r="M248" s="6"/>
+      <c r="N248" s="6"/>
+    </row>
+    <row r="249" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B249" s="8"/>
+      <c r="C249" s="10"/>
+      <c r="D249" s="9"/>
+      <c r="E249" t="s">
+        <v>1717</v>
+      </c>
+      <c r="G249" s="4"/>
+      <c r="H249" s="4"/>
+      <c r="I249" s="5"/>
+      <c r="J249" s="8"/>
+      <c r="K249" s="305"/>
+      <c r="L249" s="9"/>
+      <c r="M249" s="6"/>
+      <c r="N249" s="6"/>
+    </row>
+    <row r="250" spans="2:14">
+      <c r="G250" s="4"/>
+      <c r="H250" s="4"/>
+      <c r="I250" s="5"/>
+      <c r="J250" s="5"/>
+      <c r="K250" s="28"/>
+      <c r="L250" s="5"/>
+      <c r="M250" s="6"/>
+      <c r="N250" s="6"/>
+    </row>
+    <row r="251" spans="2:14" ht="15.75" thickBot="1">
+      <c r="G251" s="4"/>
+      <c r="H251" s="8"/>
+      <c r="I251" s="10"/>
+      <c r="J251" s="10"/>
+      <c r="K251" s="305"/>
+      <c r="L251" s="10"/>
+      <c r="M251" s="9"/>
+      <c r="N251" s="6"/>
+    </row>
+    <row r="252" spans="2:14" ht="15.75" thickBot="1">
+      <c r="G252" s="8"/>
+      <c r="H252" s="10"/>
+      <c r="I252" s="10"/>
+      <c r="J252" s="10"/>
+      <c r="K252" s="305"/>
+      <c r="L252" s="10"/>
+      <c r="M252" s="10"/>
+      <c r="N252" s="9"/>
+    </row>
+    <row r="253" spans="2:14">
+      <c r="K253" s="40"/>
+    </row>
+    <row r="254" spans="2:14" ht="15.75" thickBot="1">
+      <c r="K254" s="40"/>
+    </row>
+    <row r="255" spans="2:14">
+      <c r="G255" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H255" s="2"/>
+      <c r="I255" s="2"/>
+      <c r="J255" s="2"/>
+      <c r="K255" s="56"/>
+      <c r="L255" s="2"/>
+      <c r="M255" s="2"/>
+      <c r="N255" s="3"/>
+    </row>
+    <row r="256" spans="2:14" ht="15.75" thickBot="1">
+      <c r="G256" s="4"/>
+      <c r="H256" s="5"/>
+      <c r="I256" s="5"/>
+      <c r="J256" s="5"/>
+      <c r="K256" s="28"/>
+      <c r="L256" s="5"/>
+      <c r="M256" s="5"/>
+      <c r="N256" s="6"/>
+    </row>
+    <row r="257" spans="7:14">
+      <c r="G257" s="4"/>
+      <c r="H257" s="5"/>
+      <c r="I257" s="5"/>
+      <c r="J257" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="K257" s="2"/>
+      <c r="L257" s="2"/>
+      <c r="M257" s="3"/>
+      <c r="N257" s="6"/>
+    </row>
+    <row r="258" spans="7:14">
+      <c r="G258" s="4"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
+      <c r="J258" s="4"/>
+      <c r="K258" s="5"/>
+      <c r="L258" s="5"/>
+      <c r="M258" s="6"/>
+      <c r="N258" s="6"/>
+    </row>
+    <row r="259" spans="7:14">
+      <c r="G259" s="4"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="5"/>
+      <c r="J259" s="4"/>
+      <c r="K259" s="5"/>
+      <c r="L259" s="5"/>
+      <c r="M259" s="6"/>
+      <c r="N259" s="6"/>
+    </row>
+    <row r="260" spans="7:14" ht="15.75" thickBot="1">
+      <c r="G260" s="4"/>
+      <c r="H260" s="5"/>
+      <c r="I260" s="5"/>
+      <c r="J260" s="8"/>
+      <c r="K260" s="10"/>
+      <c r="L260" s="10"/>
+      <c r="M260" s="9"/>
+      <c r="N260" s="6"/>
+    </row>
+    <row r="261" spans="7:14" ht="15.75" thickBot="1">
+      <c r="G261" s="8"/>
+      <c r="H261" s="10"/>
+      <c r="I261" s="10"/>
+      <c r="J261" s="10"/>
+      <c r="K261" s="10"/>
+      <c r="L261" s="10"/>
+      <c r="M261" s="10"/>
+      <c r="N261" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -20190,7 +20909,7 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="494">
+      <c r="C21" s="484">
         <v>43909</v>
       </c>
       <c r="D21" s="483"/>
@@ -20210,7 +20929,7 @@
       <c r="N21" s="483"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="494"/>
+      <c r="C22" s="484"/>
       <c r="D22" s="483"/>
       <c r="E22" s="483"/>
       <c r="F22" s="483"/>
@@ -20228,7 +20947,7 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="494"/>
+      <c r="C23" s="484"/>
       <c r="D23" s="483"/>
       <c r="E23" s="483"/>
       <c r="F23" s="483"/>
@@ -20244,7 +20963,7 @@
       <c r="N23" s="483"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="494"/>
+      <c r="C24" s="484"/>
       <c r="D24" s="483"/>
       <c r="E24" s="483"/>
       <c r="F24" s="483"/>
@@ -20283,16 +21002,16 @@
       <c r="C26" s="116">
         <v>43911</v>
       </c>
-      <c r="D26" s="484"/>
-      <c r="E26" s="485"/>
-      <c r="F26" s="485"/>
-      <c r="G26" s="485"/>
-      <c r="H26" s="486"/>
-      <c r="I26" s="491" t="s">
+      <c r="D26" s="485"/>
+      <c r="E26" s="486"/>
+      <c r="F26" s="486"/>
+      <c r="G26" s="486"/>
+      <c r="H26" s="487"/>
+      <c r="I26" s="492" t="s">
         <v>460</v>
       </c>
-      <c r="J26" s="484"/>
-      <c r="K26" s="486"/>
+      <c r="J26" s="485"/>
+      <c r="K26" s="487"/>
       <c r="L26" s="117" t="s">
         <v>461</v>
       </c>
@@ -20301,14 +21020,14 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
-      <c r="D27" s="487"/>
-      <c r="E27" s="482"/>
-      <c r="F27" s="482"/>
-      <c r="G27" s="482"/>
-      <c r="H27" s="488"/>
-      <c r="I27" s="492"/>
-      <c r="J27" s="487"/>
-      <c r="K27" s="488"/>
+      <c r="D27" s="488"/>
+      <c r="E27" s="478"/>
+      <c r="F27" s="478"/>
+      <c r="G27" s="478"/>
+      <c r="H27" s="489"/>
+      <c r="I27" s="493"/>
+      <c r="J27" s="488"/>
+      <c r="K27" s="489"/>
       <c r="L27" s="483" t="s">
         <v>465</v>
       </c>
@@ -20317,14 +21036,14 @@
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
-      <c r="D28" s="487"/>
-      <c r="E28" s="482"/>
-      <c r="F28" s="482"/>
-      <c r="G28" s="482"/>
-      <c r="H28" s="488"/>
-      <c r="I28" s="492"/>
-      <c r="J28" s="487"/>
-      <c r="K28" s="488"/>
+      <c r="D28" s="488"/>
+      <c r="E28" s="478"/>
+      <c r="F28" s="478"/>
+      <c r="G28" s="478"/>
+      <c r="H28" s="489"/>
+      <c r="I28" s="493"/>
+      <c r="J28" s="488"/>
+      <c r="K28" s="489"/>
       <c r="L28" s="118" t="s">
         <v>460</v>
       </c>
@@ -20333,14 +21052,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
-      <c r="D29" s="489"/>
+      <c r="D29" s="490"/>
       <c r="E29" s="470"/>
       <c r="F29" s="470"/>
       <c r="G29" s="470"/>
-      <c r="H29" s="490"/>
-      <c r="I29" s="493"/>
-      <c r="J29" s="489"/>
-      <c r="K29" s="490"/>
+      <c r="H29" s="491"/>
+      <c r="I29" s="494"/>
+      <c r="J29" s="490"/>
+      <c r="K29" s="491"/>
       <c r="L29" s="119" t="s">
         <v>466</v>
       </c>
@@ -20405,7 +21124,7 @@
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="494">
+      <c r="C34" s="484">
         <v>43909</v>
       </c>
       <c r="D34" s="483"/>
@@ -20423,7 +21142,7 @@
       <c r="N34" s="483"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="494"/>
+      <c r="C35" s="484"/>
       <c r="D35" s="483"/>
       <c r="E35" s="483"/>
       <c r="F35" s="483"/>
@@ -20439,7 +21158,7 @@
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="494"/>
+      <c r="C36" s="484"/>
       <c r="D36" s="483"/>
       <c r="E36" s="483"/>
       <c r="F36" s="483"/>
@@ -20455,7 +21174,7 @@
       <c r="N36" s="483"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="494"/>
+      <c r="C37" s="484"/>
       <c r="D37" s="483"/>
       <c r="E37" s="483"/>
       <c r="F37" s="483"/>
@@ -20494,14 +21213,14 @@
       <c r="C39" s="116">
         <v>43911</v>
       </c>
-      <c r="D39" s="484"/>
-      <c r="E39" s="485"/>
-      <c r="F39" s="485"/>
-      <c r="G39" s="485"/>
-      <c r="H39" s="486"/>
-      <c r="I39" s="491"/>
-      <c r="J39" s="484"/>
-      <c r="K39" s="486"/>
+      <c r="D39" s="485"/>
+      <c r="E39" s="486"/>
+      <c r="F39" s="486"/>
+      <c r="G39" s="486"/>
+      <c r="H39" s="487"/>
+      <c r="I39" s="492"/>
+      <c r="J39" s="485"/>
+      <c r="K39" s="487"/>
       <c r="L39" s="117" t="s">
         <v>461</v>
       </c>
@@ -20510,14 +21229,14 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
-      <c r="D40" s="487"/>
-      <c r="E40" s="482"/>
-      <c r="F40" s="482"/>
-      <c r="G40" s="482"/>
-      <c r="H40" s="488"/>
-      <c r="I40" s="492"/>
-      <c r="J40" s="487"/>
-      <c r="K40" s="488"/>
+      <c r="D40" s="488"/>
+      <c r="E40" s="478"/>
+      <c r="F40" s="478"/>
+      <c r="G40" s="478"/>
+      <c r="H40" s="489"/>
+      <c r="I40" s="493"/>
+      <c r="J40" s="488"/>
+      <c r="K40" s="489"/>
       <c r="L40" s="483" t="s">
         <v>465</v>
       </c>
@@ -20526,14 +21245,14 @@
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
-      <c r="D41" s="487"/>
-      <c r="E41" s="482"/>
-      <c r="F41" s="482"/>
-      <c r="G41" s="482"/>
-      <c r="H41" s="488"/>
-      <c r="I41" s="493"/>
-      <c r="J41" s="487"/>
-      <c r="K41" s="488"/>
+      <c r="D41" s="488"/>
+      <c r="E41" s="478"/>
+      <c r="F41" s="478"/>
+      <c r="G41" s="478"/>
+      <c r="H41" s="489"/>
+      <c r="I41" s="494"/>
+      <c r="J41" s="488"/>
+      <c r="K41" s="489"/>
       <c r="L41" s="118" t="s">
         <v>467</v>
       </c>
@@ -20542,16 +21261,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
-      <c r="D42" s="489"/>
+      <c r="D42" s="490"/>
       <c r="E42" s="470"/>
       <c r="F42" s="470"/>
       <c r="G42" s="470"/>
-      <c r="H42" s="490"/>
+      <c r="H42" s="491"/>
       <c r="I42" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="J42" s="489"/>
-      <c r="K42" s="490"/>
+      <c r="J42" s="490"/>
+      <c r="K42" s="491"/>
       <c r="L42" s="119" t="s">
         <v>466</v>
       </c>
@@ -20863,12 +21582,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -20876,17 +21600,12 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20908,29 +21627,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="517" t="s">
+      <c r="B2" s="508" t="s">
         <v>1075</v>
       </c>
-      <c r="C2" s="517"/>
-      <c r="D2" s="517"/>
-      <c r="E2" s="517"/>
-      <c r="F2" s="517"/>
-      <c r="G2" s="517"/>
-      <c r="H2" s="517"/>
-      <c r="I2" s="517"/>
-      <c r="J2" s="517"/>
-      <c r="K2" s="517"/>
-      <c r="L2" s="517"/>
-      <c r="M2" s="517"/>
-      <c r="N2" s="517"/>
-      <c r="O2" s="517"/>
-      <c r="P2" s="517"/>
-      <c r="Q2" s="517"/>
-      <c r="R2" s="517"/>
-      <c r="S2" s="517"/>
-      <c r="T2" s="517"/>
-      <c r="U2" s="517"/>
-      <c r="V2" s="517"/>
+      <c r="C2" s="508"/>
+      <c r="D2" s="508"/>
+      <c r="E2" s="508"/>
+      <c r="F2" s="508"/>
+      <c r="G2" s="508"/>
+      <c r="H2" s="508"/>
+      <c r="I2" s="508"/>
+      <c r="J2" s="508"/>
+      <c r="K2" s="508"/>
+      <c r="L2" s="508"/>
+      <c r="M2" s="508"/>
+      <c r="N2" s="508"/>
+      <c r="O2" s="508"/>
+      <c r="P2" s="508"/>
+      <c r="Q2" s="508"/>
+      <c r="R2" s="508"/>
+      <c r="S2" s="508"/>
+      <c r="T2" s="508"/>
+      <c r="U2" s="508"/>
+      <c r="V2" s="508"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -20963,22 +21682,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="498" t="s">
+      <c r="G5" s="511" t="s">
         <v>518</v>
       </c>
-      <c r="H5" s="498"/>
-      <c r="I5" s="498" t="s">
+      <c r="H5" s="511"/>
+      <c r="I5" s="511" t="s">
         <v>519</v>
       </c>
-      <c r="J5" s="498"/>
-      <c r="K5" s="498"/>
-      <c r="L5" s="498"/>
-      <c r="M5" s="498"/>
-      <c r="N5" s="498"/>
-      <c r="O5" s="498" t="s">
+      <c r="J5" s="511"/>
+      <c r="K5" s="511"/>
+      <c r="L5" s="511"/>
+      <c r="M5" s="511"/>
+      <c r="N5" s="511"/>
+      <c r="O5" s="511" t="s">
         <v>520</v>
       </c>
-      <c r="P5" s="498"/>
+      <c r="P5" s="511"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -20990,7 +21709,7 @@
       <c r="D6" s="135"/>
       <c r="E6" s="136"/>
       <c r="F6" s="138"/>
-      <c r="G6" s="499" t="s">
+      <c r="G6" s="516" t="s">
         <v>521</v>
       </c>
       <c r="H6" s="111"/>
@@ -21020,25 +21739,25 @@
       <c r="E7" s="138"/>
       <c r="F7" s="138"/>
       <c r="G7" s="425"/>
-      <c r="H7" s="500" t="s">
+      <c r="H7" s="517" t="s">
         <v>523</v>
       </c>
-      <c r="I7" s="503" t="s">
+      <c r="I7" s="520" t="s">
         <v>524</v>
       </c>
-      <c r="J7" s="504"/>
-      <c r="K7" s="505" t="s">
+      <c r="J7" s="521"/>
+      <c r="K7" s="522" t="s">
         <v>525</v>
       </c>
-      <c r="L7" s="506"/>
-      <c r="M7" s="503" t="s">
+      <c r="L7" s="523"/>
+      <c r="M7" s="520" t="s">
         <v>526</v>
       </c>
-      <c r="N7" s="504"/>
-      <c r="O7" s="511" t="s">
+      <c r="N7" s="521"/>
+      <c r="O7" s="528" t="s">
         <v>527</v>
       </c>
-      <c r="P7" s="512"/>
+      <c r="P7" s="529"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -21051,15 +21770,15 @@
       <c r="E8" s="140"/>
       <c r="F8" s="138"/>
       <c r="G8" s="425"/>
-      <c r="H8" s="501"/>
+      <c r="H8" s="518"/>
       <c r="I8" s="420"/>
       <c r="J8" s="422"/>
-      <c r="K8" s="507"/>
-      <c r="L8" s="508"/>
+      <c r="K8" s="524"/>
+      <c r="L8" s="525"/>
       <c r="M8" s="420"/>
       <c r="N8" s="422"/>
-      <c r="O8" s="513"/>
-      <c r="P8" s="514"/>
+      <c r="O8" s="530"/>
+      <c r="P8" s="531"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="38" t="s">
         <v>182</v>
@@ -21078,15 +21797,15 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="425"/>
-      <c r="H9" s="501"/>
+      <c r="H9" s="518"/>
       <c r="I9" s="420"/>
       <c r="J9" s="422"/>
-      <c r="K9" s="507"/>
-      <c r="L9" s="508"/>
+      <c r="K9" s="524"/>
+      <c r="L9" s="525"/>
       <c r="M9" s="420"/>
       <c r="N9" s="422"/>
-      <c r="O9" s="513"/>
-      <c r="P9" s="514"/>
+      <c r="O9" s="530"/>
+      <c r="P9" s="531"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -21107,15 +21826,15 @@
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
       <c r="G10" s="425"/>
-      <c r="H10" s="501"/>
+      <c r="H10" s="518"/>
       <c r="I10" s="420"/>
       <c r="J10" s="422"/>
-      <c r="K10" s="507"/>
-      <c r="L10" s="508"/>
+      <c r="K10" s="524"/>
+      <c r="L10" s="525"/>
       <c r="M10" s="420"/>
       <c r="N10" s="422"/>
-      <c r="O10" s="513"/>
-      <c r="P10" s="514"/>
+      <c r="O10" s="530"/>
+      <c r="P10" s="531"/>
       <c r="Q10" s="5" t="s">
         <v>187</v>
       </c>
@@ -21132,15 +21851,15 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="425"/>
-      <c r="H11" s="501"/>
+      <c r="H11" s="518"/>
       <c r="I11" s="420"/>
       <c r="J11" s="422"/>
-      <c r="K11" s="507"/>
-      <c r="L11" s="508"/>
+      <c r="K11" s="524"/>
+      <c r="L11" s="525"/>
       <c r="M11" s="420"/>
       <c r="N11" s="422"/>
-      <c r="O11" s="513"/>
-      <c r="P11" s="514"/>
+      <c r="O11" s="530"/>
+      <c r="P11" s="531"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -21159,15 +21878,15 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="425"/>
-      <c r="H12" s="501"/>
+      <c r="H12" s="518"/>
       <c r="I12" s="420"/>
       <c r="J12" s="422"/>
-      <c r="K12" s="507"/>
-      <c r="L12" s="508"/>
+      <c r="K12" s="524"/>
+      <c r="L12" s="525"/>
       <c r="M12" s="420"/>
       <c r="N12" s="422"/>
-      <c r="O12" s="513"/>
-      <c r="P12" s="514"/>
+      <c r="O12" s="530"/>
+      <c r="P12" s="531"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -21182,15 +21901,15 @@
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
       <c r="G13" s="425"/>
-      <c r="H13" s="501"/>
+      <c r="H13" s="518"/>
       <c r="I13" s="420"/>
       <c r="J13" s="422"/>
-      <c r="K13" s="507"/>
-      <c r="L13" s="508"/>
+      <c r="K13" s="524"/>
+      <c r="L13" s="525"/>
       <c r="M13" s="420"/>
       <c r="N13" s="422"/>
-      <c r="O13" s="513"/>
-      <c r="P13" s="514"/>
+      <c r="O13" s="530"/>
+      <c r="P13" s="531"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -21203,15 +21922,15 @@
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
       <c r="G14" s="425"/>
-      <c r="H14" s="501"/>
+      <c r="H14" s="518"/>
       <c r="I14" s="420"/>
       <c r="J14" s="422"/>
-      <c r="K14" s="507"/>
-      <c r="L14" s="508"/>
+      <c r="K14" s="524"/>
+      <c r="L14" s="525"/>
       <c r="M14" s="420"/>
       <c r="N14" s="422"/>
-      <c r="O14" s="513"/>
-      <c r="P14" s="514"/>
+      <c r="O14" s="530"/>
+      <c r="P14" s="531"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -21226,15 +21945,15 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="425"/>
-      <c r="H15" s="501"/>
+      <c r="H15" s="518"/>
       <c r="I15" s="420"/>
       <c r="J15" s="422"/>
-      <c r="K15" s="507"/>
-      <c r="L15" s="508"/>
+      <c r="K15" s="524"/>
+      <c r="L15" s="525"/>
       <c r="M15" s="420"/>
       <c r="N15" s="422"/>
-      <c r="O15" s="513"/>
-      <c r="P15" s="514"/>
+      <c r="O15" s="530"/>
+      <c r="P15" s="531"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -21247,15 +21966,15 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="425"/>
-      <c r="H16" s="501"/>
+      <c r="H16" s="518"/>
       <c r="I16" s="420"/>
       <c r="J16" s="422"/>
-      <c r="K16" s="507"/>
-      <c r="L16" s="508"/>
+      <c r="K16" s="524"/>
+      <c r="L16" s="525"/>
       <c r="M16" s="420"/>
       <c r="N16" s="422"/>
-      <c r="O16" s="513"/>
-      <c r="P16" s="514"/>
+      <c r="O16" s="530"/>
+      <c r="P16" s="531"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -21268,15 +21987,15 @@
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
       <c r="G17" s="425"/>
-      <c r="H17" s="501"/>
+      <c r="H17" s="518"/>
       <c r="I17" s="420"/>
       <c r="J17" s="422"/>
-      <c r="K17" s="507"/>
-      <c r="L17" s="508"/>
+      <c r="K17" s="524"/>
+      <c r="L17" s="525"/>
       <c r="M17" s="420"/>
       <c r="N17" s="422"/>
-      <c r="O17" s="513"/>
-      <c r="P17" s="514"/>
+      <c r="O17" s="530"/>
+      <c r="P17" s="531"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -21289,15 +22008,15 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="425"/>
-      <c r="H18" s="501"/>
+      <c r="H18" s="518"/>
       <c r="I18" s="420"/>
       <c r="J18" s="422"/>
-      <c r="K18" s="507"/>
-      <c r="L18" s="508"/>
+      <c r="K18" s="524"/>
+      <c r="L18" s="525"/>
       <c r="M18" s="420"/>
       <c r="N18" s="422"/>
-      <c r="O18" s="513"/>
-      <c r="P18" s="514"/>
+      <c r="O18" s="530"/>
+      <c r="P18" s="531"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -21312,15 +22031,15 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="425"/>
-      <c r="H19" s="501"/>
+      <c r="H19" s="518"/>
       <c r="I19" s="420"/>
       <c r="J19" s="422"/>
-      <c r="K19" s="507"/>
-      <c r="L19" s="508"/>
+      <c r="K19" s="524"/>
+      <c r="L19" s="525"/>
       <c r="M19" s="420"/>
       <c r="N19" s="422"/>
-      <c r="O19" s="513"/>
-      <c r="P19" s="514"/>
+      <c r="O19" s="530"/>
+      <c r="P19" s="531"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -21333,15 +22052,15 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="426"/>
-      <c r="H20" s="502"/>
+      <c r="H20" s="519"/>
       <c r="I20" s="441"/>
       <c r="J20" s="443"/>
-      <c r="K20" s="509"/>
-      <c r="L20" s="510"/>
+      <c r="K20" s="526"/>
+      <c r="L20" s="527"/>
       <c r="M20" s="441"/>
       <c r="N20" s="443"/>
-      <c r="O20" s="515"/>
-      <c r="P20" s="516"/>
+      <c r="O20" s="532"/>
+      <c r="P20" s="533"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -21422,49 +22141,49 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="517" t="s">
+      <c r="B25" s="508" t="s">
         <v>1074</v>
       </c>
-      <c r="C25" s="517"/>
-      <c r="D25" s="517"/>
-      <c r="E25" s="517"/>
-      <c r="F25" s="517"/>
-      <c r="G25" s="517"/>
-      <c r="H25" s="517"/>
-      <c r="I25" s="517"/>
-      <c r="J25" s="517"/>
-      <c r="K25" s="517"/>
-      <c r="L25" s="517"/>
-      <c r="M25" s="517"/>
-      <c r="N25" s="517"/>
-      <c r="O25" s="517"/>
-      <c r="P25" s="517"/>
-      <c r="Q25" s="517"/>
-      <c r="R25" s="517"/>
-      <c r="S25" s="517"/>
-      <c r="T25" s="517"/>
-      <c r="U25" s="517"/>
-      <c r="V25" s="517"/>
+      <c r="C25" s="508"/>
+      <c r="D25" s="508"/>
+      <c r="E25" s="508"/>
+      <c r="F25" s="508"/>
+      <c r="G25" s="508"/>
+      <c r="H25" s="508"/>
+      <c r="I25" s="508"/>
+      <c r="J25" s="508"/>
+      <c r="K25" s="508"/>
+      <c r="L25" s="508"/>
+      <c r="M25" s="508"/>
+      <c r="N25" s="508"/>
+      <c r="O25" s="508"/>
+      <c r="P25" s="508"/>
+      <c r="Q25" s="508"/>
+      <c r="R25" s="508"/>
+      <c r="S25" s="508"/>
+      <c r="T25" s="508"/>
+      <c r="U25" s="508"/>
+      <c r="V25" s="508"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="518" t="s">
+      <c r="C26" s="509" t="s">
         <v>570</v>
       </c>
-      <c r="D26" s="518"/>
-      <c r="E26" s="518"/>
-      <c r="F26" s="518"/>
-      <c r="G26" s="518"/>
-      <c r="H26" s="518"/>
-      <c r="I26" s="518"/>
-      <c r="J26" s="518"/>
-      <c r="K26" s="518"/>
-      <c r="L26" s="518"/>
-      <c r="M26" s="518"/>
+      <c r="D26" s="509"/>
+      <c r="E26" s="509"/>
+      <c r="F26" s="509"/>
+      <c r="G26" s="509"/>
+      <c r="H26" s="509"/>
+      <c r="I26" s="509"/>
+      <c r="J26" s="509"/>
+      <c r="K26" s="509"/>
+      <c r="L26" s="509"/>
+      <c r="M26" s="509"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="472" t="s">
+      <c r="E27" s="479" t="s">
         <v>178</v>
       </c>
       <c r="F27" s="416"/>
@@ -21507,11 +22226,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="519" t="s">
+      <c r="O29" s="510" t="s">
         <v>179</v>
       </c>
-      <c r="P29" s="519"/>
-      <c r="Q29" s="519"/>
+      <c r="P29" s="510"/>
+      <c r="Q29" s="510"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -21556,21 +22275,21 @@
         <v>190</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="523" t="s">
+      <c r="E32" s="505" t="s">
         <v>1078</v>
       </c>
-      <c r="F32" s="524"/>
-      <c r="G32" s="525"/>
-      <c r="H32" s="523" t="s">
+      <c r="F32" s="506"/>
+      <c r="G32" s="507"/>
+      <c r="H32" s="505" t="s">
         <v>1079</v>
       </c>
-      <c r="I32" s="524"/>
-      <c r="J32" s="525"/>
-      <c r="K32" s="523" t="s">
+      <c r="I32" s="506"/>
+      <c r="J32" s="507"/>
+      <c r="K32" s="505" t="s">
         <v>1080</v>
       </c>
-      <c r="L32" s="524"/>
-      <c r="M32" s="525"/>
+      <c r="L32" s="506"/>
+      <c r="M32" s="507"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -21587,15 +22306,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="523"/>
-      <c r="F33" s="524"/>
-      <c r="G33" s="525"/>
-      <c r="H33" s="523"/>
-      <c r="I33" s="524"/>
-      <c r="J33" s="525"/>
-      <c r="K33" s="523"/>
-      <c r="L33" s="524"/>
-      <c r="M33" s="525"/>
+      <c r="E33" s="505"/>
+      <c r="F33" s="506"/>
+      <c r="G33" s="507"/>
+      <c r="H33" s="505"/>
+      <c r="I33" s="506"/>
+      <c r="J33" s="507"/>
+      <c r="K33" s="505"/>
+      <c r="L33" s="506"/>
+      <c r="M33" s="507"/>
       <c r="N33" s="5" t="s">
         <v>187</v>
       </c>
@@ -21612,15 +22331,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="523"/>
-      <c r="F34" s="524"/>
-      <c r="G34" s="525"/>
-      <c r="H34" s="523"/>
-      <c r="I34" s="524"/>
-      <c r="J34" s="525"/>
-      <c r="K34" s="523"/>
-      <c r="L34" s="524"/>
-      <c r="M34" s="525"/>
+      <c r="E34" s="505"/>
+      <c r="F34" s="506"/>
+      <c r="G34" s="507"/>
+      <c r="H34" s="505"/>
+      <c r="I34" s="506"/>
+      <c r="J34" s="507"/>
+      <c r="K34" s="505"/>
+      <c r="L34" s="506"/>
+      <c r="M34" s="507"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -21631,15 +22350,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="523"/>
-      <c r="F35" s="524"/>
-      <c r="G35" s="525"/>
-      <c r="H35" s="523"/>
-      <c r="I35" s="524"/>
-      <c r="J35" s="525"/>
-      <c r="K35" s="523"/>
-      <c r="L35" s="524"/>
-      <c r="M35" s="525"/>
+      <c r="E35" s="505"/>
+      <c r="F35" s="506"/>
+      <c r="G35" s="507"/>
+      <c r="H35" s="505"/>
+      <c r="I35" s="506"/>
+      <c r="J35" s="507"/>
+      <c r="K35" s="505"/>
+      <c r="L35" s="506"/>
+      <c r="M35" s="507"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -21770,15 +22489,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="527"/>
-      <c r="F42" s="528"/>
-      <c r="G42" s="528"/>
-      <c r="H42" s="528"/>
-      <c r="I42" s="528"/>
-      <c r="J42" s="528"/>
-      <c r="K42" s="528"/>
-      <c r="L42" s="528"/>
-      <c r="M42" s="529"/>
+      <c r="E42" s="498"/>
+      <c r="F42" s="499"/>
+      <c r="G42" s="499"/>
+      <c r="H42" s="499"/>
+      <c r="I42" s="499"/>
+      <c r="J42" s="499"/>
+      <c r="K42" s="499"/>
+      <c r="L42" s="499"/>
+      <c r="M42" s="500"/>
       <c r="N42" s="40" t="s">
         <v>575</v>
       </c>
@@ -21819,51 +22538,51 @@
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="517" t="s">
+      <c r="B47" s="508" t="s">
         <v>1076</v>
       </c>
-      <c r="C47" s="517"/>
-      <c r="D47" s="517"/>
-      <c r="E47" s="517"/>
-      <c r="F47" s="517"/>
-      <c r="G47" s="517"/>
-      <c r="H47" s="517"/>
-      <c r="I47" s="517"/>
-      <c r="J47" s="517"/>
-      <c r="K47" s="517"/>
-      <c r="L47" s="517"/>
-      <c r="M47" s="517"/>
-      <c r="N47" s="517"/>
-      <c r="O47" s="517"/>
-      <c r="P47" s="517"/>
-      <c r="Q47" s="517"/>
-      <c r="R47" s="517"/>
-      <c r="S47" s="517"/>
-      <c r="T47" s="517"/>
-      <c r="U47" s="517"/>
-      <c r="V47" s="517"/>
+      <c r="C47" s="508"/>
+      <c r="D47" s="508"/>
+      <c r="E47" s="508"/>
+      <c r="F47" s="508"/>
+      <c r="G47" s="508"/>
+      <c r="H47" s="508"/>
+      <c r="I47" s="508"/>
+      <c r="J47" s="508"/>
+      <c r="K47" s="508"/>
+      <c r="L47" s="508"/>
+      <c r="M47" s="508"/>
+      <c r="N47" s="508"/>
+      <c r="O47" s="508"/>
+      <c r="P47" s="508"/>
+      <c r="Q47" s="508"/>
+      <c r="R47" s="508"/>
+      <c r="S47" s="508"/>
+      <c r="T47" s="508"/>
+      <c r="U47" s="508"/>
+      <c r="V47" s="508"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="518" t="s">
+      <c r="C48" s="509" t="s">
         <v>570</v>
       </c>
-      <c r="D48" s="518"/>
-      <c r="E48" s="518"/>
-      <c r="F48" s="518"/>
-      <c r="G48" s="518"/>
-      <c r="H48" s="518"/>
-      <c r="I48" s="518"/>
-      <c r="J48" s="518"/>
-      <c r="K48" s="518"/>
-      <c r="L48" s="518"/>
-      <c r="M48" s="518"/>
+      <c r="D48" s="509"/>
+      <c r="E48" s="509"/>
+      <c r="F48" s="509"/>
+      <c r="G48" s="509"/>
+      <c r="H48" s="509"/>
+      <c r="I48" s="509"/>
+      <c r="J48" s="509"/>
+      <c r="K48" s="509"/>
+      <c r="L48" s="509"/>
+      <c r="M48" s="509"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="472" t="s">
+      <c r="E49" s="479" t="s">
         <v>178</v>
       </c>
       <c r="F49" s="416"/>
@@ -21891,16 +22610,16 @@
       </c>
       <c r="F50" s="122"/>
       <c r="G50" s="245"/>
-      <c r="H50" s="520" t="s">
+      <c r="H50" s="512" t="s">
         <v>1079</v>
       </c>
-      <c r="I50" s="521"/>
-      <c r="J50" s="522"/>
-      <c r="K50" s="520" t="s">
+      <c r="I50" s="513"/>
+      <c r="J50" s="514"/>
+      <c r="K50" s="512" t="s">
         <v>1080</v>
       </c>
-      <c r="L50" s="521"/>
-      <c r="M50" s="522"/>
+      <c r="L50" s="513"/>
+      <c r="M50" s="514"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -21914,20 +22633,20 @@
         <v>1094</v>
       </c>
       <c r="F51" s="286"/>
-      <c r="G51" s="526" t="s">
+      <c r="G51" s="515" t="s">
         <v>1102</v>
       </c>
-      <c r="H51" s="523"/>
-      <c r="I51" s="524"/>
-      <c r="J51" s="525"/>
-      <c r="K51" s="523"/>
-      <c r="L51" s="524"/>
-      <c r="M51" s="525"/>
-      <c r="O51" s="519" t="s">
+      <c r="H51" s="505"/>
+      <c r="I51" s="506"/>
+      <c r="J51" s="507"/>
+      <c r="K51" s="505"/>
+      <c r="L51" s="506"/>
+      <c r="M51" s="507"/>
+      <c r="O51" s="510" t="s">
         <v>179</v>
       </c>
-      <c r="P51" s="519"/>
-      <c r="Q51" s="519"/>
+      <c r="P51" s="510"/>
+      <c r="Q51" s="510"/>
       <c r="S51" s="273"/>
       <c r="T51" s="273"/>
       <c r="W51" s="40" t="s">
@@ -21941,13 +22660,13 @@
         <v>1095</v>
       </c>
       <c r="F52" s="287"/>
-      <c r="G52" s="526"/>
-      <c r="H52" s="523"/>
-      <c r="I52" s="524"/>
-      <c r="J52" s="525"/>
-      <c r="K52" s="523"/>
-      <c r="L52" s="524"/>
-      <c r="M52" s="525"/>
+      <c r="G52" s="515"/>
+      <c r="H52" s="505"/>
+      <c r="I52" s="506"/>
+      <c r="J52" s="507"/>
+      <c r="K52" s="505"/>
+      <c r="L52" s="506"/>
+      <c r="M52" s="507"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -21958,13 +22677,13 @@
         <v>1096</v>
       </c>
       <c r="F53" s="288"/>
-      <c r="G53" s="526"/>
-      <c r="H53" s="523"/>
-      <c r="I53" s="524"/>
-      <c r="J53" s="525"/>
-      <c r="K53" s="523"/>
-      <c r="L53" s="524"/>
-      <c r="M53" s="525"/>
+      <c r="G53" s="515"/>
+      <c r="H53" s="505"/>
+      <c r="I53" s="506"/>
+      <c r="J53" s="507"/>
+      <c r="K53" s="505"/>
+      <c r="L53" s="506"/>
+      <c r="M53" s="507"/>
       <c r="N53" s="5"/>
       <c r="O53" s="38" t="s">
         <v>182</v>
@@ -22003,7 +22722,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="274"/>
       <c r="F54" s="289"/>
-      <c r="G54" s="532" t="s">
+      <c r="G54" s="503" t="s">
         <v>1106</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -22050,11 +22769,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="530" t="s">
+      <c r="E55" s="501" t="s">
         <v>1107</v>
       </c>
-      <c r="F55" s="531"/>
-      <c r="G55" s="533"/>
+      <c r="F55" s="502"/>
+      <c r="G55" s="504"/>
       <c r="H55" s="141" t="s">
         <v>1098</v>
       </c>
@@ -22098,9 +22817,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="530"/>
-      <c r="F56" s="531"/>
-      <c r="G56" s="533"/>
+      <c r="E56" s="501"/>
+      <c r="F56" s="502"/>
+      <c r="G56" s="504"/>
       <c r="H56" s="141" t="s">
         <v>1099</v>
       </c>
@@ -22130,9 +22849,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="530"/>
-      <c r="F57" s="531"/>
-      <c r="G57" s="533"/>
+      <c r="E57" s="501"/>
+      <c r="F57" s="502"/>
+      <c r="G57" s="504"/>
       <c r="H57" s="4" t="s">
         <v>1111</v>
       </c>
@@ -22162,9 +22881,9 @@
         <v>192</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="530"/>
-      <c r="F58" s="531"/>
-      <c r="G58" s="533"/>
+      <c r="E58" s="501"/>
+      <c r="F58" s="502"/>
+      <c r="G58" s="504"/>
       <c r="H58" s="278" t="s">
         <v>1097</v>
       </c>
@@ -22189,9 +22908,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="530"/>
-      <c r="F59" s="531"/>
-      <c r="G59" s="533"/>
+      <c r="E59" s="501"/>
+      <c r="F59" s="502"/>
+      <c r="G59" s="504"/>
       <c r="H59" s="278" t="s">
         <v>549</v>
       </c>
@@ -22216,9 +22935,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="530"/>
-      <c r="F60" s="531"/>
-      <c r="G60" s="533"/>
+      <c r="E60" s="501"/>
+      <c r="F60" s="502"/>
+      <c r="G60" s="504"/>
       <c r="H60" s="280"/>
       <c r="I60" s="281" t="s">
         <v>1113</v>
@@ -22238,9 +22957,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="530"/>
-      <c r="F61" s="531"/>
-      <c r="G61" s="533"/>
+      <c r="E61" s="501"/>
+      <c r="F61" s="502"/>
+      <c r="G61" s="504"/>
       <c r="H61" s="280"/>
       <c r="I61" s="281" t="s">
         <v>1114</v>
@@ -22260,7 +22979,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="269"/>
       <c r="F62" s="285"/>
-      <c r="G62" s="533"/>
+      <c r="G62" s="504"/>
       <c r="H62" s="282"/>
       <c r="I62" s="284" t="s">
         <v>1115</v>
@@ -22302,15 +23021,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="527"/>
-      <c r="F64" s="528"/>
-      <c r="G64" s="528"/>
-      <c r="H64" s="528"/>
-      <c r="I64" s="528"/>
-      <c r="J64" s="528"/>
-      <c r="K64" s="528"/>
-      <c r="L64" s="528"/>
-      <c r="M64" s="529"/>
+      <c r="E64" s="498"/>
+      <c r="F64" s="499"/>
+      <c r="G64" s="499"/>
+      <c r="H64" s="499"/>
+      <c r="I64" s="499"/>
+      <c r="J64" s="499"/>
+      <c r="K64" s="499"/>
+      <c r="L64" s="499"/>
+      <c r="M64" s="500"/>
       <c r="N64" s="40" t="s">
         <v>575</v>
       </c>
@@ -23189,30 +23908,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -23229,6 +23924,30 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -23384,12 +24103,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="482" t="s">
+      <c r="B8" s="478" t="s">
         <v>1401</v>
       </c>
-      <c r="C8" s="482"/>
-      <c r="D8" s="482"/>
-      <c r="E8" s="482"/>
+      <c r="C8" s="478"/>
+      <c r="D8" s="478"/>
+      <c r="E8" s="478"/>
       <c r="J8" s="32" t="s">
         <v>554</v>
       </c>
@@ -23562,23 +24281,23 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="518" t="s">
+      <c r="C2" s="509" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="518"/>
-      <c r="E2" s="518"/>
-      <c r="F2" s="518"/>
-      <c r="G2" s="518"/>
-      <c r="H2" s="518"/>
-      <c r="I2" s="518"/>
-      <c r="J2" s="518"/>
-      <c r="K2" s="518"/>
-      <c r="L2" s="518"/>
+      <c r="D2" s="509"/>
+      <c r="E2" s="509"/>
+      <c r="F2" s="509"/>
+      <c r="G2" s="509"/>
+      <c r="H2" s="509"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="509"/>
+      <c r="K2" s="509"/>
+      <c r="L2" s="509"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="472" t="s">
+      <c r="E3" s="479" t="s">
         <v>178</v>
       </c>
       <c r="F3" s="416"/>
@@ -23618,11 +24337,11 @@
         <v>589</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="519" t="s">
+      <c r="N5" s="510" t="s">
         <v>179</v>
       </c>
-      <c r="O5" s="519"/>
-      <c r="P5" s="519"/>
+      <c r="O5" s="510"/>
+      <c r="P5" s="510"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -23673,20 +24392,20 @@
         <v>190</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="523" t="s">
+      <c r="E8" s="505" t="s">
         <v>571</v>
       </c>
-      <c r="F8" s="525"/>
-      <c r="G8" s="523" t="s">
+      <c r="F8" s="507"/>
+      <c r="G8" s="505" t="s">
         <v>572</v>
       </c>
-      <c r="H8" s="524"/>
-      <c r="I8" s="525"/>
-      <c r="J8" s="523" t="s">
+      <c r="H8" s="506"/>
+      <c r="I8" s="507"/>
+      <c r="J8" s="505" t="s">
         <v>573</v>
       </c>
-      <c r="K8" s="524"/>
-      <c r="L8" s="525"/>
+      <c r="K8" s="506"/>
+      <c r="L8" s="507"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -23709,14 +24428,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="523"/>
-      <c r="F9" s="525"/>
-      <c r="G9" s="523"/>
-      <c r="H9" s="524"/>
-      <c r="I9" s="525"/>
-      <c r="J9" s="523"/>
-      <c r="K9" s="524"/>
-      <c r="L9" s="525"/>
+      <c r="E9" s="505"/>
+      <c r="F9" s="507"/>
+      <c r="G9" s="505"/>
+      <c r="H9" s="506"/>
+      <c r="I9" s="507"/>
+      <c r="J9" s="505"/>
+      <c r="K9" s="506"/>
+      <c r="L9" s="507"/>
       <c r="M9" s="5" t="s">
         <v>187</v>
       </c>
@@ -23736,14 +24455,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="523"/>
-      <c r="F10" s="525"/>
-      <c r="G10" s="523"/>
-      <c r="H10" s="524"/>
-      <c r="I10" s="525"/>
-      <c r="J10" s="523"/>
-      <c r="K10" s="524"/>
-      <c r="L10" s="525"/>
+      <c r="E10" s="505"/>
+      <c r="F10" s="507"/>
+      <c r="G10" s="505"/>
+      <c r="H10" s="506"/>
+      <c r="I10" s="507"/>
+      <c r="J10" s="505"/>
+      <c r="K10" s="506"/>
+      <c r="L10" s="507"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -23757,14 +24476,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="523"/>
-      <c r="F11" s="525"/>
-      <c r="G11" s="523"/>
-      <c r="H11" s="524"/>
-      <c r="I11" s="525"/>
-      <c r="J11" s="523"/>
-      <c r="K11" s="524"/>
-      <c r="L11" s="525"/>
+      <c r="E11" s="505"/>
+      <c r="F11" s="507"/>
+      <c r="G11" s="505"/>
+      <c r="H11" s="506"/>
+      <c r="I11" s="507"/>
+      <c r="J11" s="505"/>
+      <c r="K11" s="506"/>
+      <c r="L11" s="507"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -23867,16 +24586,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="527" t="s">
+      <c r="E17" s="498" t="s">
         <v>574</v>
       </c>
-      <c r="F17" s="528"/>
-      <c r="G17" s="528"/>
-      <c r="H17" s="528"/>
-      <c r="I17" s="528"/>
-      <c r="J17" s="528"/>
-      <c r="K17" s="528"/>
-      <c r="L17" s="529"/>
+      <c r="F17" s="499"/>
+      <c r="G17" s="499"/>
+      <c r="H17" s="499"/>
+      <c r="I17" s="499"/>
+      <c r="J17" s="499"/>
+      <c r="K17" s="499"/>
+      <c r="L17" s="500"/>
       <c r="M17" s="40" t="s">
         <v>575</v>
       </c>
@@ -24395,22 +25114,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="498" t="s">
+      <c r="E3" s="511" t="s">
         <v>518</v>
       </c>
-      <c r="F3" s="498"/>
-      <c r="G3" s="498" t="s">
+      <c r="F3" s="511"/>
+      <c r="G3" s="511" t="s">
         <v>519</v>
       </c>
-      <c r="H3" s="498"/>
-      <c r="I3" s="498"/>
-      <c r="J3" s="498"/>
-      <c r="K3" s="498"/>
-      <c r="L3" s="498"/>
-      <c r="M3" s="498" t="s">
+      <c r="H3" s="511"/>
+      <c r="I3" s="511"/>
+      <c r="J3" s="511"/>
+      <c r="K3" s="511"/>
+      <c r="L3" s="511"/>
+      <c r="M3" s="511" t="s">
         <v>520</v>
       </c>
-      <c r="N3" s="498"/>
+      <c r="N3" s="511"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -24421,7 +25140,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="135"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="499" t="s">
+      <c r="E4" s="516" t="s">
         <v>521</v>
       </c>
       <c r="F4" s="131"/>
@@ -24455,16 +25174,16 @@
       </c>
       <c r="G5" s="458"/>
       <c r="H5" s="459"/>
-      <c r="I5" s="571" t="s">
+      <c r="I5" s="541" t="s">
         <v>618</v>
       </c>
-      <c r="J5" s="572"/>
-      <c r="K5" s="572"/>
-      <c r="L5" s="506"/>
-      <c r="M5" s="571" t="s">
+      <c r="J5" s="542"/>
+      <c r="K5" s="542"/>
+      <c r="L5" s="523"/>
+      <c r="M5" s="541" t="s">
         <v>619</v>
       </c>
-      <c r="N5" s="506"/>
+      <c r="N5" s="523"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -24479,12 +25198,12 @@
       <c r="F6" s="460"/>
       <c r="G6" s="461"/>
       <c r="H6" s="462"/>
-      <c r="I6" s="507"/>
-      <c r="J6" s="573"/>
-      <c r="K6" s="573"/>
-      <c r="L6" s="508"/>
-      <c r="M6" s="507"/>
-      <c r="N6" s="508"/>
+      <c r="I6" s="524"/>
+      <c r="J6" s="543"/>
+      <c r="K6" s="543"/>
+      <c r="L6" s="525"/>
+      <c r="M6" s="524"/>
+      <c r="N6" s="525"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>182</v>
@@ -24505,12 +25224,12 @@
       <c r="F7" s="460"/>
       <c r="G7" s="461"/>
       <c r="H7" s="462"/>
-      <c r="I7" s="507"/>
-      <c r="J7" s="573"/>
-      <c r="K7" s="573"/>
-      <c r="L7" s="508"/>
-      <c r="M7" s="507"/>
-      <c r="N7" s="508"/>
+      <c r="I7" s="524"/>
+      <c r="J7" s="543"/>
+      <c r="K7" s="543"/>
+      <c r="L7" s="525"/>
+      <c r="M7" s="524"/>
+      <c r="N7" s="525"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -24533,12 +25252,12 @@
       <c r="F8" s="460"/>
       <c r="G8" s="461"/>
       <c r="H8" s="462"/>
-      <c r="I8" s="507"/>
-      <c r="J8" s="573"/>
-      <c r="K8" s="573"/>
-      <c r="L8" s="508"/>
-      <c r="M8" s="507"/>
-      <c r="N8" s="508"/>
+      <c r="I8" s="524"/>
+      <c r="J8" s="543"/>
+      <c r="K8" s="543"/>
+      <c r="L8" s="525"/>
+      <c r="M8" s="524"/>
+      <c r="N8" s="525"/>
       <c r="O8" s="5" t="s">
         <v>187</v>
       </c>
@@ -24563,12 +25282,12 @@
       <c r="F9" s="460"/>
       <c r="G9" s="461"/>
       <c r="H9" s="462"/>
-      <c r="I9" s="507"/>
-      <c r="J9" s="573"/>
-      <c r="K9" s="573"/>
-      <c r="L9" s="508"/>
-      <c r="M9" s="507"/>
-      <c r="N9" s="508"/>
+      <c r="I9" s="524"/>
+      <c r="J9" s="543"/>
+      <c r="K9" s="543"/>
+      <c r="L9" s="525"/>
+      <c r="M9" s="524"/>
+      <c r="N9" s="525"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -24589,12 +25308,12 @@
       <c r="F10" s="460"/>
       <c r="G10" s="461"/>
       <c r="H10" s="462"/>
-      <c r="I10" s="507"/>
-      <c r="J10" s="573"/>
-      <c r="K10" s="573"/>
-      <c r="L10" s="508"/>
-      <c r="M10" s="507"/>
-      <c r="N10" s="508"/>
+      <c r="I10" s="524"/>
+      <c r="J10" s="543"/>
+      <c r="K10" s="543"/>
+      <c r="L10" s="525"/>
+      <c r="M10" s="524"/>
+      <c r="N10" s="525"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -24611,12 +25330,12 @@
       <c r="F11" s="460"/>
       <c r="G11" s="461"/>
       <c r="H11" s="462"/>
-      <c r="I11" s="507"/>
-      <c r="J11" s="573"/>
-      <c r="K11" s="573"/>
-      <c r="L11" s="508"/>
-      <c r="M11" s="507"/>
-      <c r="N11" s="508"/>
+      <c r="I11" s="524"/>
+      <c r="J11" s="543"/>
+      <c r="K11" s="543"/>
+      <c r="L11" s="525"/>
+      <c r="M11" s="524"/>
+      <c r="N11" s="525"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -24631,12 +25350,12 @@
       <c r="F12" s="460"/>
       <c r="G12" s="461"/>
       <c r="H12" s="462"/>
-      <c r="I12" s="507"/>
-      <c r="J12" s="573"/>
-      <c r="K12" s="573"/>
-      <c r="L12" s="508"/>
-      <c r="M12" s="507"/>
-      <c r="N12" s="508"/>
+      <c r="I12" s="524"/>
+      <c r="J12" s="543"/>
+      <c r="K12" s="543"/>
+      <c r="L12" s="525"/>
+      <c r="M12" s="524"/>
+      <c r="N12" s="525"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -24653,12 +25372,12 @@
       <c r="F13" s="460"/>
       <c r="G13" s="461"/>
       <c r="H13" s="462"/>
-      <c r="I13" s="507"/>
-      <c r="J13" s="573"/>
-      <c r="K13" s="573"/>
-      <c r="L13" s="508"/>
-      <c r="M13" s="507"/>
-      <c r="N13" s="508"/>
+      <c r="I13" s="524"/>
+      <c r="J13" s="543"/>
+      <c r="K13" s="543"/>
+      <c r="L13" s="525"/>
+      <c r="M13" s="524"/>
+      <c r="N13" s="525"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -24673,12 +25392,12 @@
       <c r="F14" s="460"/>
       <c r="G14" s="461"/>
       <c r="H14" s="462"/>
-      <c r="I14" s="507"/>
-      <c r="J14" s="573"/>
-      <c r="K14" s="573"/>
-      <c r="L14" s="508"/>
-      <c r="M14" s="507"/>
-      <c r="N14" s="508"/>
+      <c r="I14" s="524"/>
+      <c r="J14" s="543"/>
+      <c r="K14" s="543"/>
+      <c r="L14" s="525"/>
+      <c r="M14" s="524"/>
+      <c r="N14" s="525"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -24693,12 +25412,12 @@
       <c r="F15" s="460"/>
       <c r="G15" s="461"/>
       <c r="H15" s="462"/>
-      <c r="I15" s="507"/>
-      <c r="J15" s="573"/>
-      <c r="K15" s="573"/>
-      <c r="L15" s="508"/>
-      <c r="M15" s="507"/>
-      <c r="N15" s="508"/>
+      <c r="I15" s="524"/>
+      <c r="J15" s="543"/>
+      <c r="K15" s="543"/>
+      <c r="L15" s="525"/>
+      <c r="M15" s="524"/>
+      <c r="N15" s="525"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -24713,12 +25432,12 @@
       <c r="F16" s="460"/>
       <c r="G16" s="461"/>
       <c r="H16" s="462"/>
-      <c r="I16" s="507"/>
-      <c r="J16" s="573"/>
-      <c r="K16" s="573"/>
-      <c r="L16" s="508"/>
-      <c r="M16" s="507"/>
-      <c r="N16" s="508"/>
+      <c r="I16" s="524"/>
+      <c r="J16" s="543"/>
+      <c r="K16" s="543"/>
+      <c r="L16" s="525"/>
+      <c r="M16" s="524"/>
+      <c r="N16" s="525"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -24735,12 +25454,12 @@
       <c r="F17" s="460"/>
       <c r="G17" s="461"/>
       <c r="H17" s="462"/>
-      <c r="I17" s="507"/>
-      <c r="J17" s="573"/>
-      <c r="K17" s="573"/>
-      <c r="L17" s="508"/>
-      <c r="M17" s="507"/>
-      <c r="N17" s="508"/>
+      <c r="I17" s="524"/>
+      <c r="J17" s="543"/>
+      <c r="K17" s="543"/>
+      <c r="L17" s="525"/>
+      <c r="M17" s="524"/>
+      <c r="N17" s="525"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -24755,12 +25474,12 @@
       <c r="F18" s="463"/>
       <c r="G18" s="464"/>
       <c r="H18" s="465"/>
-      <c r="I18" s="509"/>
-      <c r="J18" s="574"/>
-      <c r="K18" s="574"/>
-      <c r="L18" s="510"/>
-      <c r="M18" s="509"/>
-      <c r="N18" s="510"/>
+      <c r="I18" s="526"/>
+      <c r="J18" s="544"/>
+      <c r="K18" s="544"/>
+      <c r="L18" s="527"/>
+      <c r="M18" s="526"/>
+      <c r="N18" s="527"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -24836,29 +25555,29 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="519" t="s">
+      <c r="B24" s="510" t="s">
         <v>570</v>
       </c>
-      <c r="C24" s="519"/>
-      <c r="D24" s="518"/>
-      <c r="E24" s="518"/>
-      <c r="F24" s="518"/>
-      <c r="G24" s="518"/>
-      <c r="H24" s="518"/>
-      <c r="I24" s="518"/>
-      <c r="J24" s="518"/>
-      <c r="K24" s="518"/>
-      <c r="M24" s="541" t="s">
+      <c r="C24" s="510"/>
+      <c r="D24" s="509"/>
+      <c r="E24" s="509"/>
+      <c r="F24" s="509"/>
+      <c r="G24" s="509"/>
+      <c r="H24" s="509"/>
+      <c r="I24" s="509"/>
+      <c r="J24" s="509"/>
+      <c r="K24" s="509"/>
+      <c r="M24" s="563" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="541"/>
-      <c r="O24" s="541"/>
+      <c r="N24" s="563"/>
+      <c r="O24" s="563"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="542" t="s">
+      <c r="B25" s="564" t="s">
         <v>913</v>
       </c>
-      <c r="C25" s="486"/>
+      <c r="C25" s="487"/>
       <c r="D25" s="435" t="s">
         <v>178</v>
       </c>
@@ -24880,13 +25599,13 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="487"/>
-      <c r="C26" s="488"/>
-      <c r="D26" s="485" t="s">
+      <c r="B26" s="488"/>
+      <c r="C26" s="489"/>
+      <c r="D26" s="486" t="s">
         <v>906</v>
       </c>
-      <c r="E26" s="486"/>
-      <c r="F26" s="569" t="s">
+      <c r="E26" s="487"/>
+      <c r="F26" s="557" t="s">
         <v>906</v>
       </c>
       <c r="G26" s="435"/>
@@ -24910,22 +25629,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="487"/>
-      <c r="C27" s="488"/>
-      <c r="D27" s="482" t="s">
+      <c r="B27" s="488"/>
+      <c r="C27" s="489"/>
+      <c r="D27" s="478" t="s">
         <v>911</v>
       </c>
-      <c r="E27" s="488"/>
-      <c r="F27" s="487" t="s">
+      <c r="E27" s="489"/>
+      <c r="F27" s="488" t="s">
         <v>907</v>
       </c>
-      <c r="G27" s="482"/>
-      <c r="H27" s="553"/>
-      <c r="I27" s="552" t="s">
+      <c r="G27" s="478"/>
+      <c r="H27" s="558"/>
+      <c r="I27" s="562" t="s">
         <v>911</v>
       </c>
-      <c r="J27" s="482"/>
-      <c r="K27" s="553"/>
+      <c r="J27" s="478"/>
+      <c r="K27" s="558"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -24940,22 +25659,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="487"/>
-      <c r="C28" s="488"/>
-      <c r="D28" s="482" t="s">
+      <c r="B28" s="488"/>
+      <c r="C28" s="489"/>
+      <c r="D28" s="478" t="s">
         <v>908</v>
       </c>
-      <c r="E28" s="488"/>
-      <c r="F28" s="487" t="s">
+      <c r="E28" s="489"/>
+      <c r="F28" s="488" t="s">
         <v>908</v>
       </c>
-      <c r="G28" s="482"/>
-      <c r="H28" s="553"/>
-      <c r="I28" s="552" t="s">
+      <c r="G28" s="478"/>
+      <c r="H28" s="558"/>
+      <c r="I28" s="562" t="s">
         <v>908</v>
       </c>
-      <c r="J28" s="482"/>
-      <c r="K28" s="553"/>
+      <c r="J28" s="478"/>
+      <c r="K28" s="558"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -24964,22 +25683,22 @@
       <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="489"/>
-      <c r="C29" s="490"/>
-      <c r="D29" s="482" t="s">
+      <c r="B29" s="490"/>
+      <c r="C29" s="491"/>
+      <c r="D29" s="478" t="s">
         <v>909</v>
       </c>
-      <c r="E29" s="488"/>
-      <c r="F29" s="570" t="s">
+      <c r="E29" s="489"/>
+      <c r="F29" s="559" t="s">
         <v>909</v>
       </c>
-      <c r="G29" s="555"/>
-      <c r="H29" s="556"/>
-      <c r="I29" s="554" t="s">
+      <c r="G29" s="560"/>
+      <c r="H29" s="561"/>
+      <c r="I29" s="574" t="s">
         <v>909</v>
       </c>
-      <c r="J29" s="555"/>
-      <c r="K29" s="556"/>
+      <c r="J29" s="560"/>
+      <c r="K29" s="561"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -24992,20 +25711,20 @@
         <v>912</v>
       </c>
       <c r="C30" s="439"/>
-      <c r="D30" s="557" t="s">
+      <c r="D30" s="545" t="s">
         <v>571</v>
       </c>
-      <c r="E30" s="558"/>
-      <c r="F30" s="562" t="s">
+      <c r="E30" s="546"/>
+      <c r="F30" s="550" t="s">
         <v>572</v>
       </c>
-      <c r="G30" s="563"/>
-      <c r="H30" s="558"/>
-      <c r="I30" s="562" t="s">
+      <c r="G30" s="551"/>
+      <c r="H30" s="546"/>
+      <c r="I30" s="550" t="s">
         <v>573</v>
       </c>
-      <c r="J30" s="563"/>
-      <c r="K30" s="566"/>
+      <c r="J30" s="551"/>
+      <c r="K30" s="554"/>
       <c r="L30" s="5"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
@@ -25014,14 +25733,14 @@
     <row r="31" spans="2:19">
       <c r="B31" s="420"/>
       <c r="C31" s="440"/>
-      <c r="D31" s="559"/>
-      <c r="E31" s="525"/>
-      <c r="F31" s="523"/>
-      <c r="G31" s="524"/>
-      <c r="H31" s="525"/>
-      <c r="I31" s="523"/>
-      <c r="J31" s="524"/>
-      <c r="K31" s="567"/>
+      <c r="D31" s="547"/>
+      <c r="E31" s="507"/>
+      <c r="F31" s="505"/>
+      <c r="G31" s="506"/>
+      <c r="H31" s="507"/>
+      <c r="I31" s="505"/>
+      <c r="J31" s="506"/>
+      <c r="K31" s="555"/>
       <c r="L31" s="5"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
@@ -25030,107 +25749,107 @@
     <row r="32" spans="2:19">
       <c r="B32" s="420"/>
       <c r="C32" s="440"/>
-      <c r="D32" s="559"/>
-      <c r="E32" s="525"/>
-      <c r="F32" s="523"/>
-      <c r="G32" s="524"/>
-      <c r="H32" s="525"/>
-      <c r="I32" s="523"/>
-      <c r="J32" s="524"/>
-      <c r="K32" s="567"/>
+      <c r="D32" s="547"/>
+      <c r="E32" s="507"/>
+      <c r="F32" s="505"/>
+      <c r="G32" s="506"/>
+      <c r="H32" s="507"/>
+      <c r="I32" s="505"/>
+      <c r="J32" s="506"/>
+      <c r="K32" s="555"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="420"/>
       <c r="C33" s="440"/>
-      <c r="D33" s="560"/>
-      <c r="E33" s="561"/>
-      <c r="F33" s="564"/>
-      <c r="G33" s="565"/>
-      <c r="H33" s="561"/>
-      <c r="I33" s="564"/>
-      <c r="J33" s="565"/>
-      <c r="K33" s="568"/>
+      <c r="D33" s="548"/>
+      <c r="E33" s="549"/>
+      <c r="F33" s="552"/>
+      <c r="G33" s="553"/>
+      <c r="H33" s="549"/>
+      <c r="I33" s="552"/>
+      <c r="J33" s="553"/>
+      <c r="K33" s="556"/>
     </row>
     <row r="34" spans="2:14">
       <c r="B34" s="420"/>
       <c r="C34" s="422"/>
-      <c r="D34" s="543" t="s">
+      <c r="D34" s="565" t="s">
         <v>899</v>
       </c>
-      <c r="E34" s="544"/>
-      <c r="F34" s="543" t="s">
+      <c r="E34" s="566"/>
+      <c r="F34" s="565" t="s">
         <v>593</v>
       </c>
-      <c r="G34" s="549"/>
-      <c r="H34" s="544"/>
-      <c r="I34" s="543" t="s">
+      <c r="G34" s="571"/>
+      <c r="H34" s="566"/>
+      <c r="I34" s="565" t="s">
         <v>914</v>
       </c>
-      <c r="J34" s="549"/>
-      <c r="K34" s="544"/>
+      <c r="J34" s="571"/>
+      <c r="K34" s="566"/>
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="420"/>
       <c r="C35" s="422"/>
-      <c r="D35" s="545"/>
-      <c r="E35" s="546"/>
-      <c r="F35" s="545"/>
-      <c r="G35" s="550"/>
-      <c r="H35" s="546"/>
-      <c r="I35" s="545"/>
-      <c r="J35" s="550"/>
-      <c r="K35" s="546"/>
+      <c r="D35" s="567"/>
+      <c r="E35" s="568"/>
+      <c r="F35" s="567"/>
+      <c r="G35" s="572"/>
+      <c r="H35" s="568"/>
+      <c r="I35" s="567"/>
+      <c r="J35" s="572"/>
+      <c r="K35" s="568"/>
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="420"/>
       <c r="C36" s="422"/>
-      <c r="D36" s="545"/>
-      <c r="E36" s="546"/>
-      <c r="F36" s="545"/>
-      <c r="G36" s="550"/>
-      <c r="H36" s="546"/>
-      <c r="I36" s="545"/>
-      <c r="J36" s="550"/>
-      <c r="K36" s="546"/>
+      <c r="D36" s="567"/>
+      <c r="E36" s="568"/>
+      <c r="F36" s="567"/>
+      <c r="G36" s="572"/>
+      <c r="H36" s="568"/>
+      <c r="I36" s="567"/>
+      <c r="J36" s="572"/>
+      <c r="K36" s="568"/>
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="420"/>
       <c r="C37" s="422"/>
-      <c r="D37" s="545"/>
-      <c r="E37" s="546"/>
-      <c r="F37" s="545"/>
-      <c r="G37" s="550"/>
-      <c r="H37" s="546"/>
-      <c r="I37" s="545"/>
-      <c r="J37" s="550"/>
-      <c r="K37" s="546"/>
+      <c r="D37" s="567"/>
+      <c r="E37" s="568"/>
+      <c r="F37" s="567"/>
+      <c r="G37" s="572"/>
+      <c r="H37" s="568"/>
+      <c r="I37" s="567"/>
+      <c r="J37" s="572"/>
+      <c r="K37" s="568"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
       <c r="B38" s="420"/>
       <c r="C38" s="422"/>
-      <c r="D38" s="547"/>
-      <c r="E38" s="548"/>
-      <c r="F38" s="547"/>
-      <c r="G38" s="551"/>
-      <c r="H38" s="548"/>
-      <c r="I38" s="547"/>
-      <c r="J38" s="551"/>
-      <c r="K38" s="548"/>
+      <c r="D38" s="569"/>
+      <c r="E38" s="570"/>
+      <c r="F38" s="569"/>
+      <c r="G38" s="573"/>
+      <c r="H38" s="570"/>
+      <c r="I38" s="569"/>
+      <c r="J38" s="573"/>
+      <c r="K38" s="570"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
       <c r="B39" s="441"/>
       <c r="C39" s="443"/>
-      <c r="D39" s="527" t="s">
+      <c r="D39" s="498" t="s">
         <v>574</v>
       </c>
-      <c r="E39" s="528"/>
-      <c r="F39" s="528"/>
-      <c r="G39" s="528"/>
-      <c r="H39" s="528"/>
-      <c r="I39" s="528"/>
-      <c r="J39" s="528"/>
-      <c r="K39" s="529"/>
+      <c r="E39" s="499"/>
+      <c r="F39" s="499"/>
+      <c r="G39" s="499"/>
+      <c r="H39" s="499"/>
+      <c r="I39" s="499"/>
+      <c r="J39" s="499"/>
+      <c r="K39" s="500"/>
       <c r="L39" s="40" t="s">
         <v>575</v>
       </c>
@@ -25167,16 +25886,17 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -25193,17 +25913,16 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,19 @@
     <sheet name="db" sheetId="12" r:id="rId12"/>
     <sheet name="webservice" sheetId="13" r:id="rId13"/>
     <sheet name="git" sheetId="15" r:id="rId14"/>
-    <sheet name="framework" sheetId="16" r:id="rId15"/>
-    <sheet name="spring-data" sheetId="17" r:id="rId16"/>
-    <sheet name="spring" sheetId="18" r:id="rId17"/>
-    <sheet name="spring beans scope" sheetId="19" r:id="rId18"/>
-    <sheet name="junit" sheetId="20" r:id="rId19"/>
+    <sheet name="strut_tag" sheetId="21" r:id="rId15"/>
+    <sheet name="framework" sheetId="16" r:id="rId16"/>
+    <sheet name="spring-data" sheetId="17" r:id="rId17"/>
+    <sheet name="spring" sheetId="18" r:id="rId18"/>
+    <sheet name="spring beans scope" sheetId="19" r:id="rId19"/>
+    <sheet name="junit" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3517" uniqueCount="1718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3683" uniqueCount="1799">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -5782,12 +5783,367 @@
   <si>
     <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
   </si>
+  <si>
+    <t>passwprd</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>uerid</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt; welcome&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>at webservlet</t>
+  </si>
+  <si>
+    <t>do get</t>
+  </si>
+  <si>
+    <t>dopost</t>
+  </si>
+  <si>
+    <t>req.getpar</t>
+  </si>
+  <si>
+    <t>res.sendredi</t>
+  </si>
+  <si>
+    <t>public boolean checkUser</t>
+  </si>
+  <si>
+    <t>&lt;action name="login"</t>
+  </si>
+  <si>
+    <t>class=Business</t>
+  </si>
+  <si>
+    <t>method=checkUser</t>
+  </si>
+  <si>
+    <t>     &lt;s:param value="%{myList1}" /&gt;       &lt;s:param value="%{myList2}" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/s:append&gt;</t>
+  </si>
+  <si>
+    <t>&lt;s:iterator value="%{#appendIterator}"&gt;       &lt;s:property /&gt;    &lt;/s:iterator&gt;</t>
+  </si>
+  <si>
+    <t>&lt;s:append var=“appendIterator"&gt;</t>
+  </si>
+  <si>
+    <t>myList1</t>
+  </si>
+  <si>
+    <t>myList2</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>appendIterator</t>
+  </si>
+  <si>
+    <t>myList1and myList2 is an arraylist in action java program
+Append will join both list into 1
+s:iterator will read all value with new iterator and print on webpage</t>
+  </si>
+  <si>
+    <t>&lt;s:generator val="%{'a,b,c,d,e'}"&gt;</t>
+  </si>
+  <si>
+    <t> &lt;s:iterator&gt;      &lt;s:property /&gt;&lt;br/&gt;    &lt;/s:iterator&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;/s:generator&gt; </t>
+  </si>
+  <si>
+    <t>will create list that can be read through iteration. And iterator will print a b c d e in new line on webpage</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s:bean name="com.mywebsite.NameComparator" var=“nameComparator" /&gt;  </t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;s:sort comparator="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nameComparator" source="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>personsList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   &lt;s:iterator&gt; &lt;s:property value="firstName" /&gt;&lt;/s:iterator&gt;  &lt;/s:sort&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>personsList is list which has person object with firstname in it. Comparator will be sort all first name and display</t>
+  </si>
+  <si>
+    <t>personsList</t>
+  </si>
+  <si>
+    <t>firstName=john lastName=doe</t>
+  </si>
+  <si>
+    <t>firstName=jane lastName=doe</t>
+  </si>
+  <si>
+    <t>firstName=mike lastName=doe</t>
+  </si>
+  <si>
+    <t>&lt;s:iterator&gt; &lt;li&gt;&lt;s:property /&gt;&lt;/li&gt; &lt;/s:iterator&gt; &lt;/s:subset&gt;</t>
+  </si>
+  <si>
+    <t>namesList</t>
+  </si>
+  <si>
+    <t>print on webpage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;s:subset </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">="namesList" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">="1" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">="3"&gt; </t>
+    </r>
+  </si>
+  <si>
+    <t>namesList is an arraylist of name in action java program. You can read item using iterator from index 1 to3 counts and print on webpage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s:bean name="com.Person" var="personBean"&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s:param name="nickName" value=“jee"&gt;&lt;/s:param&gt; </t>
+  </si>
+  <si>
+    <t>&lt;s:param name=“lastName" &gt;java&lt;/s:param&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;/s:bean&gt;</t>
+  </si>
+  <si>
+    <t>public class Person</t>
+  </si>
+  <si>
+    <t>String nickName;</t>
+  </si>
+  <si>
+    <t>String lastName;</t>
+  </si>
+  <si>
+    <t>Person personBean=new Person();</t>
+  </si>
+  <si>
+    <t>personBean.nickName="jee";</t>
+  </si>
+  <si>
+    <t>personBean.lastName="java";</t>
+  </si>
+  <si>
+    <t>LoginAction.java</t>
+  </si>
+  <si>
+    <t>loginAction</t>
+  </si>
+  <si>
+    <t>============================================&gt;</t>
+  </si>
+  <si>
+    <t>public String auth()</t>
+  </si>
+  <si>
+    <t>{ if(userid==john &amp; pwd=john1!)</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>return good &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;s:property value = "lName" /&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome </t>
+  </si>
+  <si>
+    <t>&lt;s:property value = "fName" /&gt;</t>
+  </si>
+  <si>
+    <t>String fName</t>
+  </si>
+  <si>
+    <t>String lName</t>
+  </si>
+  <si>
+    <t>fName=johnathan</t>
+  </si>
+  <si>
+    <t>lName=doe</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>DESTINATION</t>
+  </si>
+  <si>
+    <t>====================================================&gt;</t>
+  </si>
+  <si>
+    <t>strut tag library</t>
+  </si>
+  <si>
+    <t>ArrayList myList1</t>
+  </si>
+  <si>
+    <t>MergeIterator</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="28">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5996,6 +6352,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="26">
@@ -6559,7 +6934,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="581">
+  <cellXfs count="587">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -7205,6 +7580,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7376,6 +7762,18 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7397,23 +7795,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7445,6 +7828,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7454,59 +7840,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7562,6 +7903,57 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7583,17 +7975,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7634,63 +8062,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13502,10 +13889,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="470" t="s">
+      <c r="L35" s="479" t="s">
         <v>374</v>
       </c>
-      <c r="M35" s="470"/>
+      <c r="M35" s="479"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -15435,10 +15822,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="471" t="s">
+      <c r="A155" s="480" t="s">
         <v>992</v>
       </c>
-      <c r="B155" s="471"/>
+      <c r="B155" s="480"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="93" t="s">
@@ -17818,7 +18205,7 @@
       <c r="K246" s="398" t="s">
         <v>635</v>
       </c>
-      <c r="L246" s="423" t="s">
+      <c r="L246" s="432" t="s">
         <v>1649</v>
       </c>
       <c r="M246" s="399" t="s">
@@ -17827,10 +18214,10 @@
       <c r="N246" s="399">
         <v>2</v>
       </c>
-      <c r="O246" s="423" t="s">
+      <c r="O246" s="432" t="s">
         <v>1650</v>
       </c>
-      <c r="P246" s="423"/>
+      <c r="P246" s="432"/>
       <c r="Q246" s="405" t="s">
         <v>1655</v>
       </c>
@@ -17844,15 +18231,15 @@
       <c r="I247" s="399"/>
       <c r="J247" s="398"/>
       <c r="K247" s="398"/>
-      <c r="L247" s="423"/>
+      <c r="L247" s="432"/>
       <c r="M247" s="399" t="s">
         <v>364</v>
       </c>
       <c r="N247" s="399">
         <v>5</v>
       </c>
-      <c r="O247" s="423"/>
-      <c r="P247" s="423"/>
+      <c r="O247" s="432"/>
+      <c r="P247" s="432"/>
       <c r="Q247" s="405" t="s">
         <v>1656</v>
       </c>
@@ -17969,7 +18356,7 @@
       </c>
       <c r="L253" s="409"/>
       <c r="M253" s="409"/>
-      <c r="N253" s="440" t="s">
+      <c r="N253" s="449" t="s">
         <v>1658</v>
       </c>
     </row>
@@ -17984,7 +18371,7 @@
       </c>
       <c r="L254" s="409"/>
       <c r="M254" s="409"/>
-      <c r="N254" s="440"/>
+      <c r="N254" s="449"/>
     </row>
     <row r="255" spans="2:17">
       <c r="D255" s="4"/>
@@ -17999,7 +18386,7 @@
       </c>
       <c r="L255" s="410"/>
       <c r="M255" s="410"/>
-      <c r="N255" s="440"/>
+      <c r="N255" s="449"/>
       <c r="O255" s="398"/>
     </row>
     <row r="256" spans="2:17">
@@ -18143,7 +18530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A241" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I256" sqref="I256"/>
     </sheetView>
   </sheetViews>
@@ -18179,18 +18566,18 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="479" t="s">
+      <c r="E6" s="481" t="s">
         <v>406</v>
       </c>
-      <c r="F6" s="417"/>
-      <c r="G6" s="416" t="s">
+      <c r="F6" s="426"/>
+      <c r="G6" s="425" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="416"/>
-      <c r="I6" s="416"/>
-      <c r="J6" s="416"/>
-      <c r="K6" s="416"/>
-      <c r="L6" s="417"/>
+      <c r="H6" s="425"/>
+      <c r="I6" s="425"/>
+      <c r="J6" s="425"/>
+      <c r="K6" s="425"/>
+      <c r="L6" s="426"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="28" t="s">
@@ -18200,7 +18587,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="476">
+      <c r="D7" s="489">
         <v>80</v>
       </c>
       <c r="E7" s="147"/>
@@ -18218,7 +18605,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="476"/>
+      <c r="D8" s="489"/>
       <c r="E8" s="134" t="s">
         <v>408</v>
       </c>
@@ -18253,7 +18640,7 @@
       <c r="B9" t="s">
         <v>407</v>
       </c>
-      <c r="D9" s="476"/>
+      <c r="D9" s="489"/>
       <c r="E9" s="149"/>
       <c r="F9" s="344"/>
       <c r="G9" s="149"/>
@@ -18277,7 +18664,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="476"/>
+      <c r="D10" s="489"/>
       <c r="E10" s="147"/>
       <c r="F10" s="148"/>
       <c r="G10" s="147"/>
@@ -18301,7 +18688,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="476"/>
+      <c r="D11" s="489"/>
       <c r="E11" s="134" t="s">
         <v>412</v>
       </c>
@@ -18330,7 +18717,7 @@
       <c r="B12" s="209" t="s">
         <v>416</v>
       </c>
-      <c r="D12" s="476"/>
+      <c r="D12" s="489"/>
       <c r="E12" s="149"/>
       <c r="F12" s="344"/>
       <c r="G12" s="149"/>
@@ -18348,7 +18735,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="476"/>
+      <c r="D13" s="489"/>
       <c r="E13" s="147"/>
       <c r="F13" s="148"/>
       <c r="G13" s="147"/>
@@ -18364,7 +18751,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="476"/>
+      <c r="D14" s="489"/>
       <c r="E14" s="134" t="s">
         <v>417</v>
       </c>
@@ -18388,7 +18775,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="476"/>
+      <c r="D15" s="489"/>
       <c r="E15" s="149"/>
       <c r="F15" s="344"/>
       <c r="G15" s="149"/>
@@ -18404,7 +18791,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="476"/>
+      <c r="D16" s="489"/>
       <c r="E16" s="147"/>
       <c r="F16" s="148"/>
       <c r="G16" s="24"/>
@@ -18420,7 +18807,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="476"/>
+      <c r="D17" s="489"/>
       <c r="E17" s="134" t="s">
         <v>421</v>
       </c>
@@ -18444,7 +18831,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="476"/>
+      <c r="D18" s="489"/>
       <c r="E18" s="149"/>
       <c r="F18" s="344"/>
       <c r="G18" s="71"/>
@@ -18461,20 +18848,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="480" t="s">
+      <c r="E19" s="482" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="481"/>
-      <c r="G19" s="480" t="s">
+      <c r="F19" s="483"/>
+      <c r="G19" s="482" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="481"/>
-      <c r="I19" s="480" t="s">
+      <c r="H19" s="483"/>
+      <c r="I19" s="482" t="s">
         <v>196</v>
       </c>
-      <c r="J19" s="482"/>
-      <c r="K19" s="482"/>
-      <c r="L19" s="481"/>
+      <c r="J19" s="484"/>
+      <c r="K19" s="484"/>
+      <c r="L19" s="483"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -18539,12 +18926,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="478"/>
-      <c r="H24" s="478"/>
-      <c r="I24" s="478"/>
-      <c r="J24" s="478"/>
-      <c r="K24" s="478"/>
-      <c r="L24" s="478"/>
+      <c r="G24" s="491"/>
+      <c r="H24" s="491"/>
+      <c r="I24" s="491"/>
+      <c r="J24" s="491"/>
+      <c r="K24" s="491"/>
+      <c r="L24" s="491"/>
       <c r="O24" s="40" t="s">
         <v>179</v>
       </c>
@@ -18891,7 +19278,7 @@
       <c r="J45" s="6"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="575" t="s">
+      <c r="A46" s="415" t="s">
         <v>429</v>
       </c>
       <c r="C46" s="4"/>
@@ -18917,7 +19304,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A47" s="575" t="s">
+      <c r="A47" s="415" t="s">
         <v>1692</v>
       </c>
       <c r="C47" s="8"/>
@@ -18925,11 +19312,11 @@
       <c r="G47" s="222" t="s">
         <v>882</v>
       </c>
-      <c r="H47" s="468" t="s">
+      <c r="H47" s="477" t="s">
         <v>1353</v>
       </c>
-      <c r="I47" s="477"/>
-      <c r="J47" s="469"/>
+      <c r="I47" s="490"/>
+      <c r="J47" s="478"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -19037,7 +19424,7 @@
       <c r="G53" s="20" t="s">
         <v>846</v>
       </c>
-      <c r="H53" s="576" t="s">
+      <c r="H53" s="416" t="s">
         <v>851</v>
       </c>
       <c r="J53" s="35" t="s">
@@ -19535,16 +19922,16 @@
         <v>1047</v>
       </c>
       <c r="F131" s="38"/>
-      <c r="G131" s="474" t="s">
+      <c r="G131" s="487" t="s">
         <v>1040</v>
       </c>
-      <c r="H131" s="474"/>
-      <c r="I131" s="474"/>
-      <c r="J131" s="474"/>
-      <c r="K131" s="474"/>
-      <c r="L131" s="474"/>
-      <c r="M131" s="474"/>
-      <c r="N131" s="474"/>
+      <c r="H131" s="487"/>
+      <c r="I131" s="487"/>
+      <c r="J131" s="487"/>
+      <c r="K131" s="487"/>
+      <c r="L131" s="487"/>
+      <c r="M131" s="487"/>
+      <c r="N131" s="487"/>
       <c r="O131" s="38"/>
     </row>
     <row r="132" spans="2:15">
@@ -19681,29 +20068,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="38"/>
-      <c r="G141" s="475"/>
-      <c r="H141" s="475"/>
-      <c r="I141" s="475"/>
-      <c r="J141" s="475"/>
-      <c r="K141" s="475"/>
-      <c r="L141" s="475"/>
-      <c r="M141" s="475"/>
-      <c r="N141" s="475"/>
-      <c r="O141" s="475"/>
+      <c r="G141" s="488"/>
+      <c r="H141" s="488"/>
+      <c r="I141" s="488"/>
+      <c r="J141" s="488"/>
+      <c r="K141" s="488"/>
+      <c r="L141" s="488"/>
+      <c r="M141" s="488"/>
+      <c r="N141" s="488"/>
+      <c r="O141" s="488"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="475"/>
-      <c r="H142" s="475"/>
-      <c r="I142" s="475"/>
-      <c r="J142" s="475"/>
-      <c r="K142" s="475"/>
-      <c r="L142" s="475"/>
-      <c r="M142" s="475"/>
-      <c r="N142" s="475"/>
-      <c r="O142" s="475"/>
+      <c r="G142" s="488"/>
+      <c r="H142" s="488"/>
+      <c r="I142" s="488"/>
+      <c r="J142" s="488"/>
+      <c r="K142" s="488"/>
+      <c r="L142" s="488"/>
+      <c r="M142" s="488"/>
+      <c r="N142" s="488"/>
+      <c r="O142" s="488"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -19747,7 +20134,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="472" t="s">
+      <c r="D158" s="485" t="s">
         <v>1319</v>
       </c>
       <c r="E158" s="66"/>
@@ -19760,7 +20147,7 @@
       <c r="L158" s="237"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="473"/>
+      <c r="D159" s="486"/>
       <c r="E159" s="313" t="s">
         <v>1317</v>
       </c>
@@ -19782,7 +20169,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="473"/>
+      <c r="D160" s="486"/>
       <c r="E160" s="232"/>
       <c r="F160" s="238"/>
       <c r="G160" s="232"/>
@@ -19793,7 +20180,7 @@
       <c r="L160" s="238"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="473"/>
+      <c r="D161" s="486"/>
       <c r="E161" s="315"/>
       <c r="F161" s="316"/>
       <c r="G161" s="315"/>
@@ -19804,7 +20191,7 @@
       <c r="L161" s="316"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="473"/>
+      <c r="D162" s="486"/>
       <c r="E162" s="317"/>
       <c r="F162" s="318"/>
       <c r="G162" s="317"/>
@@ -19818,7 +20205,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="473"/>
+      <c r="D163" s="486"/>
       <c r="E163" s="319"/>
       <c r="F163" s="320"/>
       <c r="G163" s="319"/>
@@ -19829,7 +20216,7 @@
       <c r="L163" s="320"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="473"/>
+      <c r="D164" s="486"/>
       <c r="E164" s="66"/>
       <c r="F164" s="237"/>
       <c r="G164" s="66"/>
@@ -19840,7 +20227,7 @@
       <c r="L164" s="237"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="473"/>
+      <c r="D165" s="486"/>
       <c r="E165" s="58"/>
       <c r="F165" s="312"/>
       <c r="G165" s="58"/>
@@ -19854,7 +20241,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="473"/>
+      <c r="D166" s="486"/>
       <c r="E166" s="232"/>
       <c r="F166" s="238"/>
       <c r="G166" s="232"/>
@@ -19865,7 +20252,7 @@
       <c r="L166" s="238"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="473"/>
+      <c r="D167" s="486"/>
       <c r="E167" s="66"/>
       <c r="F167" s="237"/>
       <c r="G167" s="59"/>
@@ -19876,7 +20263,7 @@
       <c r="L167" s="312"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="473"/>
+      <c r="D168" s="486"/>
       <c r="E168" s="58"/>
       <c r="F168" s="312"/>
       <c r="G168" s="59"/>
@@ -19890,7 +20277,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="473"/>
+      <c r="D169" s="486"/>
       <c r="E169" s="232"/>
       <c r="F169" s="238"/>
       <c r="G169" s="321"/>
@@ -20255,11 +20642,11 @@
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
       <c r="C225" s="6"/>
-      <c r="E225" s="577" t="s">
+      <c r="E225" s="417" t="s">
         <v>1687</v>
       </c>
-      <c r="F225" s="578"/>
-      <c r="G225" s="579"/>
+      <c r="F225" s="418"/>
+      <c r="G225" s="419"/>
       <c r="I225" t="s">
         <v>431</v>
       </c>
@@ -20276,11 +20663,11 @@
       <c r="D226" t="s">
         <v>1680</v>
       </c>
-      <c r="E226" s="577" t="s">
+      <c r="E226" s="417" t="s">
         <v>1688</v>
       </c>
-      <c r="F226" s="578"/>
-      <c r="G226" s="579"/>
+      <c r="F226" s="418"/>
+      <c r="G226" s="419"/>
       <c r="H226" t="s">
         <v>486</v>
       </c>
@@ -20294,11 +20681,11 @@
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
       <c r="C227" s="6"/>
-      <c r="E227" s="577" t="s">
+      <c r="E227" s="417" t="s">
         <v>1689</v>
       </c>
-      <c r="F227" s="578"/>
-      <c r="G227" s="579"/>
+      <c r="F227" s="418"/>
+      <c r="G227" s="419"/>
       <c r="I227" t="s">
         <v>1690</v>
       </c>
@@ -20331,7 +20718,7 @@
       </c>
     </row>
     <row r="231" spans="1:14">
-      <c r="A231" s="580" t="s">
+      <c r="A231" s="420" t="s">
         <v>1707</v>
       </c>
       <c r="B231" t="s">
@@ -20385,7 +20772,7 @@
       <c r="A237" t="s">
         <v>1700</v>
       </c>
-      <c r="I237" s="580" t="s">
+      <c r="I237" s="420" t="s">
         <v>1709</v>
       </c>
       <c r="J237" t="s">
@@ -20637,17 +21024,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -20892,13 +21279,13 @@
       <c r="C20" s="116">
         <v>43908</v>
       </c>
-      <c r="D20" s="483" t="s">
+      <c r="D20" s="492" t="s">
         <v>456</v>
       </c>
-      <c r="E20" s="483"/>
-      <c r="F20" s="483"/>
-      <c r="G20" s="483"/>
-      <c r="H20" s="483"/>
+      <c r="E20" s="492"/>
+      <c r="F20" s="492"/>
+      <c r="G20" s="492"/>
+      <c r="H20" s="492"/>
       <c r="I20" s="38" t="s">
         <v>457</v>
       </c>
@@ -20909,37 +21296,37 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="484">
+      <c r="C21" s="503">
         <v>43909</v>
       </c>
-      <c r="D21" s="483"/>
-      <c r="E21" s="483"/>
-      <c r="F21" s="483"/>
-      <c r="G21" s="483"/>
-      <c r="H21" s="483"/>
+      <c r="D21" s="492"/>
+      <c r="E21" s="492"/>
+      <c r="F21" s="492"/>
+      <c r="G21" s="492"/>
+      <c r="H21" s="492"/>
       <c r="I21" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="J21" s="483"/>
-      <c r="K21" s="483"/>
-      <c r="L21" s="483" t="s">
+      <c r="J21" s="492"/>
+      <c r="K21" s="492"/>
+      <c r="L21" s="492" t="s">
         <v>459</v>
       </c>
-      <c r="M21" s="483"/>
-      <c r="N21" s="483"/>
+      <c r="M21" s="492"/>
+      <c r="N21" s="492"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="484"/>
-      <c r="D22" s="483"/>
-      <c r="E22" s="483"/>
-      <c r="F22" s="483"/>
-      <c r="G22" s="483"/>
-      <c r="H22" s="483"/>
-      <c r="I22" s="423" t="s">
+      <c r="C22" s="503"/>
+      <c r="D22" s="492"/>
+      <c r="E22" s="492"/>
+      <c r="F22" s="492"/>
+      <c r="G22" s="492"/>
+      <c r="H22" s="492"/>
+      <c r="I22" s="432" t="s">
         <v>460</v>
       </c>
-      <c r="J22" s="483"/>
-      <c r="K22" s="483"/>
+      <c r="J22" s="492"/>
+      <c r="K22" s="492"/>
       <c r="L22" s="117" t="s">
         <v>461</v>
       </c>
@@ -20947,31 +21334,31 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="484"/>
-      <c r="D23" s="483"/>
-      <c r="E23" s="483"/>
-      <c r="F23" s="483"/>
-      <c r="G23" s="483"/>
-      <c r="H23" s="483"/>
-      <c r="I23" s="423"/>
-      <c r="J23" s="483"/>
-      <c r="K23" s="483"/>
-      <c r="L23" s="483" t="s">
+      <c r="C23" s="503"/>
+      <c r="D23" s="492"/>
+      <c r="E23" s="492"/>
+      <c r="F23" s="492"/>
+      <c r="G23" s="492"/>
+      <c r="H23" s="492"/>
+      <c r="I23" s="432"/>
+      <c r="J23" s="492"/>
+      <c r="K23" s="492"/>
+      <c r="L23" s="492" t="s">
         <v>462</v>
       </c>
-      <c r="M23" s="483"/>
-      <c r="N23" s="483"/>
+      <c r="M23" s="492"/>
+      <c r="N23" s="492"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="484"/>
-      <c r="D24" s="483"/>
-      <c r="E24" s="483"/>
-      <c r="F24" s="483"/>
-      <c r="G24" s="483"/>
-      <c r="H24" s="483"/>
-      <c r="I24" s="423"/>
-      <c r="J24" s="483"/>
-      <c r="K24" s="483"/>
+      <c r="C24" s="503"/>
+      <c r="D24" s="492"/>
+      <c r="E24" s="492"/>
+      <c r="F24" s="492"/>
+      <c r="G24" s="492"/>
+      <c r="H24" s="492"/>
+      <c r="I24" s="432"/>
+      <c r="J24" s="492"/>
+      <c r="K24" s="492"/>
       <c r="L24" s="118" t="s">
         <v>460</v>
       </c>
@@ -20982,13 +21369,13 @@
       <c r="C25" s="116">
         <v>43910</v>
       </c>
-      <c r="D25" s="483" t="s">
+      <c r="D25" s="492" t="s">
         <v>463</v>
       </c>
-      <c r="E25" s="483"/>
-      <c r="F25" s="483"/>
-      <c r="G25" s="483"/>
-      <c r="H25" s="483"/>
+      <c r="E25" s="492"/>
+      <c r="F25" s="492"/>
+      <c r="G25" s="492"/>
+      <c r="H25" s="492"/>
       <c r="I25" s="38" t="s">
         <v>464</v>
       </c>
@@ -21002,16 +21389,16 @@
       <c r="C26" s="116">
         <v>43911</v>
       </c>
-      <c r="D26" s="485"/>
-      <c r="E26" s="486"/>
-      <c r="F26" s="486"/>
-      <c r="G26" s="486"/>
-      <c r="H26" s="487"/>
-      <c r="I26" s="492" t="s">
+      <c r="D26" s="493"/>
+      <c r="E26" s="494"/>
+      <c r="F26" s="494"/>
+      <c r="G26" s="494"/>
+      <c r="H26" s="495"/>
+      <c r="I26" s="500" t="s">
         <v>460</v>
       </c>
-      <c r="J26" s="485"/>
-      <c r="K26" s="487"/>
+      <c r="J26" s="493"/>
+      <c r="K26" s="495"/>
       <c r="L26" s="117" t="s">
         <v>461</v>
       </c>
@@ -21020,30 +21407,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
-      <c r="D27" s="488"/>
-      <c r="E27" s="478"/>
-      <c r="F27" s="478"/>
-      <c r="G27" s="478"/>
-      <c r="H27" s="489"/>
-      <c r="I27" s="493"/>
-      <c r="J27" s="488"/>
-      <c r="K27" s="489"/>
-      <c r="L27" s="483" t="s">
+      <c r="D27" s="496"/>
+      <c r="E27" s="491"/>
+      <c r="F27" s="491"/>
+      <c r="G27" s="491"/>
+      <c r="H27" s="497"/>
+      <c r="I27" s="501"/>
+      <c r="J27" s="496"/>
+      <c r="K27" s="497"/>
+      <c r="L27" s="492" t="s">
         <v>465</v>
       </c>
-      <c r="M27" s="483"/>
-      <c r="N27" s="483"/>
+      <c r="M27" s="492"/>
+      <c r="N27" s="492"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
-      <c r="D28" s="488"/>
-      <c r="E28" s="478"/>
-      <c r="F28" s="478"/>
-      <c r="G28" s="478"/>
-      <c r="H28" s="489"/>
-      <c r="I28" s="493"/>
-      <c r="J28" s="488"/>
-      <c r="K28" s="489"/>
+      <c r="D28" s="496"/>
+      <c r="E28" s="491"/>
+      <c r="F28" s="491"/>
+      <c r="G28" s="491"/>
+      <c r="H28" s="497"/>
+      <c r="I28" s="501"/>
+      <c r="J28" s="496"/>
+      <c r="K28" s="497"/>
       <c r="L28" s="118" t="s">
         <v>460</v>
       </c>
@@ -21052,14 +21439,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
-      <c r="D29" s="490"/>
-      <c r="E29" s="470"/>
-      <c r="F29" s="470"/>
-      <c r="G29" s="470"/>
-      <c r="H29" s="491"/>
-      <c r="I29" s="494"/>
-      <c r="J29" s="490"/>
-      <c r="K29" s="491"/>
+      <c r="D29" s="498"/>
+      <c r="E29" s="479"/>
+      <c r="F29" s="479"/>
+      <c r="G29" s="479"/>
+      <c r="H29" s="499"/>
+      <c r="I29" s="502"/>
+      <c r="J29" s="498"/>
+      <c r="K29" s="499"/>
       <c r="L29" s="119" t="s">
         <v>466</v>
       </c>
@@ -21107,13 +21494,13 @@
       <c r="C33" s="116">
         <v>43908</v>
       </c>
-      <c r="D33" s="483" t="s">
+      <c r="D33" s="492" t="s">
         <v>456</v>
       </c>
-      <c r="E33" s="483"/>
-      <c r="F33" s="483"/>
-      <c r="G33" s="483"/>
-      <c r="H33" s="483"/>
+      <c r="E33" s="492"/>
+      <c r="F33" s="492"/>
+      <c r="G33" s="492"/>
+      <c r="H33" s="492"/>
       <c r="I33" s="38" t="s">
         <v>457</v>
       </c>
@@ -21124,33 +21511,33 @@
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="484">
+      <c r="C34" s="503">
         <v>43909</v>
       </c>
-      <c r="D34" s="483"/>
-      <c r="E34" s="483"/>
-      <c r="F34" s="483"/>
-      <c r="G34" s="483"/>
-      <c r="H34" s="483"/>
-      <c r="I34" s="495"/>
-      <c r="J34" s="483"/>
-      <c r="K34" s="483"/>
-      <c r="L34" s="483" t="s">
+      <c r="D34" s="492"/>
+      <c r="E34" s="492"/>
+      <c r="F34" s="492"/>
+      <c r="G34" s="492"/>
+      <c r="H34" s="492"/>
+      <c r="I34" s="504"/>
+      <c r="J34" s="492"/>
+      <c r="K34" s="492"/>
+      <c r="L34" s="492" t="s">
         <v>459</v>
       </c>
-      <c r="M34" s="483"/>
-      <c r="N34" s="483"/>
+      <c r="M34" s="492"/>
+      <c r="N34" s="492"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="484"/>
-      <c r="D35" s="483"/>
-      <c r="E35" s="483"/>
-      <c r="F35" s="483"/>
-      <c r="G35" s="483"/>
-      <c r="H35" s="483"/>
-      <c r="I35" s="496"/>
-      <c r="J35" s="483"/>
-      <c r="K35" s="483"/>
+      <c r="C35" s="503"/>
+      <c r="D35" s="492"/>
+      <c r="E35" s="492"/>
+      <c r="F35" s="492"/>
+      <c r="G35" s="492"/>
+      <c r="H35" s="492"/>
+      <c r="I35" s="505"/>
+      <c r="J35" s="492"/>
+      <c r="K35" s="492"/>
       <c r="L35" s="117" t="s">
         <v>461</v>
       </c>
@@ -21158,31 +21545,31 @@
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="484"/>
-      <c r="D36" s="483"/>
-      <c r="E36" s="483"/>
-      <c r="F36" s="483"/>
-      <c r="G36" s="483"/>
-      <c r="H36" s="483"/>
-      <c r="I36" s="496"/>
-      <c r="J36" s="483"/>
-      <c r="K36" s="483"/>
-      <c r="L36" s="483" t="s">
+      <c r="C36" s="503"/>
+      <c r="D36" s="492"/>
+      <c r="E36" s="492"/>
+      <c r="F36" s="492"/>
+      <c r="G36" s="492"/>
+      <c r="H36" s="492"/>
+      <c r="I36" s="505"/>
+      <c r="J36" s="492"/>
+      <c r="K36" s="492"/>
+      <c r="L36" s="492" t="s">
         <v>462</v>
       </c>
-      <c r="M36" s="483"/>
-      <c r="N36" s="483"/>
+      <c r="M36" s="492"/>
+      <c r="N36" s="492"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="484"/>
-      <c r="D37" s="483"/>
-      <c r="E37" s="483"/>
-      <c r="F37" s="483"/>
-      <c r="G37" s="483"/>
-      <c r="H37" s="483"/>
-      <c r="I37" s="497"/>
-      <c r="J37" s="483"/>
-      <c r="K37" s="483"/>
+      <c r="C37" s="503"/>
+      <c r="D37" s="492"/>
+      <c r="E37" s="492"/>
+      <c r="F37" s="492"/>
+      <c r="G37" s="492"/>
+      <c r="H37" s="492"/>
+      <c r="I37" s="506"/>
+      <c r="J37" s="492"/>
+      <c r="K37" s="492"/>
       <c r="L37" s="118" t="s">
         <v>467</v>
       </c>
@@ -21193,13 +21580,13 @@
       <c r="C38" s="116">
         <v>43910</v>
       </c>
-      <c r="D38" s="483" t="s">
+      <c r="D38" s="492" t="s">
         <v>463</v>
       </c>
-      <c r="E38" s="483"/>
-      <c r="F38" s="483"/>
-      <c r="G38" s="483"/>
-      <c r="H38" s="483"/>
+      <c r="E38" s="492"/>
+      <c r="F38" s="492"/>
+      <c r="G38" s="492"/>
+      <c r="H38" s="492"/>
       <c r="I38" s="38" t="s">
         <v>464</v>
       </c>
@@ -21213,14 +21600,14 @@
       <c r="C39" s="116">
         <v>43911</v>
       </c>
-      <c r="D39" s="485"/>
-      <c r="E39" s="486"/>
-      <c r="F39" s="486"/>
-      <c r="G39" s="486"/>
-      <c r="H39" s="487"/>
-      <c r="I39" s="492"/>
-      <c r="J39" s="485"/>
-      <c r="K39" s="487"/>
+      <c r="D39" s="493"/>
+      <c r="E39" s="494"/>
+      <c r="F39" s="494"/>
+      <c r="G39" s="494"/>
+      <c r="H39" s="495"/>
+      <c r="I39" s="500"/>
+      <c r="J39" s="493"/>
+      <c r="K39" s="495"/>
       <c r="L39" s="117" t="s">
         <v>461</v>
       </c>
@@ -21229,30 +21616,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
-      <c r="D40" s="488"/>
-      <c r="E40" s="478"/>
-      <c r="F40" s="478"/>
-      <c r="G40" s="478"/>
-      <c r="H40" s="489"/>
-      <c r="I40" s="493"/>
-      <c r="J40" s="488"/>
-      <c r="K40" s="489"/>
-      <c r="L40" s="483" t="s">
+      <c r="D40" s="496"/>
+      <c r="E40" s="491"/>
+      <c r="F40" s="491"/>
+      <c r="G40" s="491"/>
+      <c r="H40" s="497"/>
+      <c r="I40" s="501"/>
+      <c r="J40" s="496"/>
+      <c r="K40" s="497"/>
+      <c r="L40" s="492" t="s">
         <v>465</v>
       </c>
-      <c r="M40" s="483"/>
-      <c r="N40" s="483"/>
+      <c r="M40" s="492"/>
+      <c r="N40" s="492"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
-      <c r="D41" s="488"/>
-      <c r="E41" s="478"/>
-      <c r="F41" s="478"/>
-      <c r="G41" s="478"/>
-      <c r="H41" s="489"/>
-      <c r="I41" s="494"/>
-      <c r="J41" s="488"/>
-      <c r="K41" s="489"/>
+      <c r="D41" s="496"/>
+      <c r="E41" s="491"/>
+      <c r="F41" s="491"/>
+      <c r="G41" s="491"/>
+      <c r="H41" s="497"/>
+      <c r="I41" s="502"/>
+      <c r="J41" s="496"/>
+      <c r="K41" s="497"/>
       <c r="L41" s="118" t="s">
         <v>467</v>
       </c>
@@ -21261,16 +21648,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
-      <c r="D42" s="490"/>
-      <c r="E42" s="470"/>
-      <c r="F42" s="470"/>
-      <c r="G42" s="470"/>
-      <c r="H42" s="491"/>
+      <c r="D42" s="498"/>
+      <c r="E42" s="479"/>
+      <c r="F42" s="479"/>
+      <c r="G42" s="479"/>
+      <c r="H42" s="499"/>
       <c r="I42" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="J42" s="490"/>
-      <c r="K42" s="491"/>
+      <c r="J42" s="498"/>
+      <c r="K42" s="499"/>
       <c r="L42" s="119" t="s">
         <v>466</v>
       </c>
@@ -21582,17 +21969,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -21600,12 +21982,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21613,10 +22000,711 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:X155"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N147" sqref="N147:P156"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E51" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" customHeight="1">
+      <c r="A1" s="422" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H1" s="507" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I1" s="507"/>
+      <c r="J1" s="507"/>
+      <c r="K1" s="507"/>
+      <c r="M1" s="12" t="s">
+        <v>1739</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>1740</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>1744</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="422" t="s">
+        <v>1735</v>
+      </c>
+      <c r="H2" s="507"/>
+      <c r="I2" s="507"/>
+      <c r="J2" s="507"/>
+      <c r="K2" s="507"/>
+      <c r="M2" s="38" t="s">
+        <v>1122</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q2" s="38" t="s">
+        <v>1122</v>
+      </c>
+      <c r="S2" s="38" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="422" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H3" s="507"/>
+      <c r="I3" s="507"/>
+      <c r="J3" s="507"/>
+      <c r="K3" s="507"/>
+      <c r="M3" s="38" t="s">
+        <v>1123</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>1742</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>1123</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="422" t="s">
+        <v>1737</v>
+      </c>
+      <c r="H4" s="507"/>
+      <c r="I4" s="507"/>
+      <c r="J4" s="507"/>
+      <c r="K4" s="507"/>
+      <c r="M4" s="38" t="s">
+        <v>1389</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>1743</v>
+      </c>
+      <c r="Q4" s="38" t="s">
+        <v>1389</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="H5" s="507"/>
+      <c r="I5" s="507"/>
+      <c r="J5" s="507"/>
+      <c r="K5" s="507"/>
+      <c r="Q5" s="38" t="s">
+        <v>1741</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="H6" s="507"/>
+      <c r="I6" s="507"/>
+      <c r="J6" s="507"/>
+      <c r="K6" s="507"/>
+      <c r="Q6" s="38" t="s">
+        <v>1742</v>
+      </c>
+      <c r="S6" s="38" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="Q7" s="38" t="s">
+        <v>1743</v>
+      </c>
+      <c r="S7" s="38" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="H9" s="508" t="s">
+        <v>1749</v>
+      </c>
+      <c r="I9" s="508"/>
+      <c r="J9" s="508"/>
+      <c r="K9" s="508"/>
+      <c r="M9" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="423" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H10" s="508"/>
+      <c r="I10" s="508"/>
+      <c r="J10" s="508"/>
+      <c r="K10" s="508"/>
+      <c r="M10" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="423" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H11" s="508"/>
+      <c r="I11" s="508"/>
+      <c r="J11" s="508"/>
+      <c r="K11" s="508"/>
+      <c r="M11" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="423" t="s">
+        <v>1748</v>
+      </c>
+      <c r="H12" s="508"/>
+      <c r="I12" s="508"/>
+      <c r="J12" s="508"/>
+      <c r="K12" s="508"/>
+      <c r="M12" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="M13" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="M15" s="40" t="s">
+        <v>1759</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="16" t="s">
+        <v>1755</v>
+      </c>
+      <c r="I16" s="507" t="s">
+        <v>1758</v>
+      </c>
+      <c r="J16" s="507"/>
+      <c r="K16" s="507"/>
+      <c r="M16" t="s">
+        <v>1760</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="422" t="s">
+        <v>1756</v>
+      </c>
+      <c r="I17" s="507"/>
+      <c r="J17" s="507"/>
+      <c r="K17" s="507"/>
+      <c r="M17" t="s">
+        <v>1761</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="422" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I18" s="507"/>
+      <c r="J18" s="507"/>
+      <c r="K18" s="507"/>
+      <c r="M18" t="s">
+        <v>1762</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="I19" s="507"/>
+      <c r="J19" s="507"/>
+      <c r="K19" s="507"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="422" t="s">
+        <v>1766</v>
+      </c>
+      <c r="I22" s="507" t="s">
+        <v>1767</v>
+      </c>
+      <c r="J22" s="507"/>
+      <c r="K22" s="507"/>
+      <c r="N22" s="40" t="s">
+        <v>1764</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="422" t="s">
+        <v>1763</v>
+      </c>
+      <c r="I23" s="507"/>
+      <c r="J23" s="507"/>
+      <c r="K23" s="507"/>
+      <c r="M23" s="115">
+        <v>0</v>
+      </c>
+      <c r="N23" s="421" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="I24" s="507"/>
+      <c r="J24" s="507"/>
+      <c r="K24" s="507"/>
+      <c r="M24" s="115">
+        <v>1</v>
+      </c>
+      <c r="N24" s="421" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="I25" s="507"/>
+      <c r="J25" s="507"/>
+      <c r="K25" s="507"/>
+      <c r="M25" s="115">
+        <v>2</v>
+      </c>
+      <c r="N25" s="421" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="I26" s="507"/>
+      <c r="J26" s="507"/>
+      <c r="K26" s="507"/>
+      <c r="M26" s="115">
+        <v>3</v>
+      </c>
+      <c r="N26" s="421" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="M27" s="115">
+        <v>4</v>
+      </c>
+      <c r="N27" s="421" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="423" t="s">
+        <v>1768</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1772</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="B30" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I30" t="s">
+        <v>549</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="423"/>
+      <c r="B31" s="423" t="s">
+        <v>1770</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1773</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
+        <v>1771</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="40" t="s">
+        <v>1793</v>
+      </c>
+      <c r="I34" t="s">
+        <v>236</v>
+      </c>
+      <c r="P34" s="40" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="36" spans="1:19">
+      <c r="A36" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="F36" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="I36" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="3"/>
+      <c r="M36" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="P36" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="6"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="6"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="6"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="6"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="F38" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>1779</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="6"/>
+      <c r="M38" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>1779</v>
+      </c>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="6"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="586" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="6"/>
+      <c r="I39" s="4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="J39" s="5"/>
+      <c r="K39" s="6"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="6"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="5" t="s">
+        <v>1787</v>
+      </c>
+      <c r="R39" s="5"/>
+      <c r="S39" s="6"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40" s="586" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="6"/>
+      <c r="I40" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="J40" s="5"/>
+      <c r="K40" s="6"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="6"/>
+      <c r="P40" s="4"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="6"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="6"/>
+      <c r="I41" s="4" t="s">
+        <v>1789</v>
+      </c>
+      <c r="J41" s="5"/>
+      <c r="K41" s="586" t="s">
+        <v>1795</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="6"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="5" t="s">
+        <v>1788</v>
+      </c>
+      <c r="R41" s="5"/>
+      <c r="S41" s="6"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="6"/>
+      <c r="I42" s="4" t="s">
+        <v>1790</v>
+      </c>
+      <c r="J42" s="5"/>
+      <c r="K42" s="586" t="s">
+        <v>1795</v>
+      </c>
+      <c r="M42" s="4"/>
+      <c r="N42" s="6"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="5" t="s">
+        <v>1786</v>
+      </c>
+      <c r="R42" s="5"/>
+      <c r="S42" s="6"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="6"/>
+      <c r="I43" s="4" t="s">
+        <v>1797</v>
+      </c>
+      <c r="J43" s="5"/>
+      <c r="K43" s="6"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="6"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="6"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="6"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="6"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="6"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="24" t="s">
+        <v>1796</v>
+      </c>
+      <c r="R44" s="5"/>
+      <c r="S44" s="6"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="6"/>
+      <c r="I45" s="4" t="s">
+        <v>1781</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="6"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="6"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="6"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="6"/>
+      <c r="I46" s="4" t="s">
+        <v>1782</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="6"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="6"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="6"/>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="9"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="9"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="5" t="s">
+        <v>1791</v>
+      </c>
+      <c r="K47" s="6"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="6"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="6"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="I48" s="4"/>
+      <c r="J48" s="5" t="s">
+        <v>1792</v>
+      </c>
+      <c r="K48" s="6"/>
+      <c r="M48" s="4" t="s">
+        <v>1783</v>
+      </c>
+      <c r="N48" s="6"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="6"/>
+    </row>
+    <row r="49" spans="9:19">
+      <c r="I49" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>1785</v>
+      </c>
+      <c r="K49" s="6"/>
+      <c r="M49" s="4" t="s">
+        <v>1784</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="O49" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="6"/>
+    </row>
+    <row r="50" spans="9:19" ht="15.75" thickBot="1">
+      <c r="I50" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="J50" s="10"/>
+      <c r="K50" s="9"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="9"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H1:K6"/>
+    <mergeCell ref="H9:K12"/>
+    <mergeCell ref="I16:K19"/>
+    <mergeCell ref="I22:K26"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A16" r:id="rId1" display="http://www.mkyong.com/struts2/struts-2-sort-tag-example/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:X225"/>
+  <sheetViews>
+    <sheetView topLeftCell="B152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C230" sqref="C230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21627,29 +22715,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="508" t="s">
+      <c r="B2" s="528" t="s">
         <v>1075</v>
       </c>
-      <c r="C2" s="508"/>
-      <c r="D2" s="508"/>
-      <c r="E2" s="508"/>
-      <c r="F2" s="508"/>
-      <c r="G2" s="508"/>
-      <c r="H2" s="508"/>
-      <c r="I2" s="508"/>
-      <c r="J2" s="508"/>
-      <c r="K2" s="508"/>
-      <c r="L2" s="508"/>
-      <c r="M2" s="508"/>
-      <c r="N2" s="508"/>
-      <c r="O2" s="508"/>
-      <c r="P2" s="508"/>
-      <c r="Q2" s="508"/>
-      <c r="R2" s="508"/>
-      <c r="S2" s="508"/>
-      <c r="T2" s="508"/>
-      <c r="U2" s="508"/>
-      <c r="V2" s="508"/>
+      <c r="C2" s="528"/>
+      <c r="D2" s="528"/>
+      <c r="E2" s="528"/>
+      <c r="F2" s="528"/>
+      <c r="G2" s="528"/>
+      <c r="H2" s="528"/>
+      <c r="I2" s="528"/>
+      <c r="J2" s="528"/>
+      <c r="K2" s="528"/>
+      <c r="L2" s="528"/>
+      <c r="M2" s="528"/>
+      <c r="N2" s="528"/>
+      <c r="O2" s="528"/>
+      <c r="P2" s="528"/>
+      <c r="Q2" s="528"/>
+      <c r="R2" s="528"/>
+      <c r="S2" s="528"/>
+      <c r="T2" s="528"/>
+      <c r="U2" s="528"/>
+      <c r="V2" s="528"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -21682,22 +22770,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="511" t="s">
+      <c r="G5" s="509" t="s">
         <v>518</v>
       </c>
-      <c r="H5" s="511"/>
-      <c r="I5" s="511" t="s">
+      <c r="H5" s="509"/>
+      <c r="I5" s="509" t="s">
         <v>519</v>
       </c>
-      <c r="J5" s="511"/>
-      <c r="K5" s="511"/>
-      <c r="L5" s="511"/>
-      <c r="M5" s="511"/>
-      <c r="N5" s="511"/>
-      <c r="O5" s="511" t="s">
+      <c r="J5" s="509"/>
+      <c r="K5" s="509"/>
+      <c r="L5" s="509"/>
+      <c r="M5" s="509"/>
+      <c r="N5" s="509"/>
+      <c r="O5" s="509" t="s">
         <v>520</v>
       </c>
-      <c r="P5" s="511"/>
+      <c r="P5" s="509"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -21709,7 +22797,7 @@
       <c r="D6" s="135"/>
       <c r="E6" s="136"/>
       <c r="F6" s="138"/>
-      <c r="G6" s="516" t="s">
+      <c r="G6" s="510" t="s">
         <v>521</v>
       </c>
       <c r="H6" s="111"/>
@@ -21738,26 +22826,26 @@
       </c>
       <c r="E7" s="138"/>
       <c r="F7" s="138"/>
-      <c r="G7" s="425"/>
-      <c r="H7" s="517" t="s">
+      <c r="G7" s="434"/>
+      <c r="H7" s="511" t="s">
         <v>523</v>
       </c>
-      <c r="I7" s="520" t="s">
+      <c r="I7" s="514" t="s">
         <v>524</v>
       </c>
-      <c r="J7" s="521"/>
-      <c r="K7" s="522" t="s">
+      <c r="J7" s="515"/>
+      <c r="K7" s="516" t="s">
         <v>525</v>
       </c>
-      <c r="L7" s="523"/>
-      <c r="M7" s="520" t="s">
+      <c r="L7" s="517"/>
+      <c r="M7" s="514" t="s">
         <v>526</v>
       </c>
-      <c r="N7" s="521"/>
-      <c r="O7" s="528" t="s">
+      <c r="N7" s="515"/>
+      <c r="O7" s="522" t="s">
         <v>527</v>
       </c>
-      <c r="P7" s="529"/>
+      <c r="P7" s="523"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -21769,16 +22857,16 @@
       <c r="D8" s="139"/>
       <c r="E8" s="140"/>
       <c r="F8" s="138"/>
-      <c r="G8" s="425"/>
-      <c r="H8" s="518"/>
-      <c r="I8" s="420"/>
-      <c r="J8" s="422"/>
-      <c r="K8" s="524"/>
-      <c r="L8" s="525"/>
-      <c r="M8" s="420"/>
-      <c r="N8" s="422"/>
-      <c r="O8" s="530"/>
-      <c r="P8" s="531"/>
+      <c r="G8" s="434"/>
+      <c r="H8" s="512"/>
+      <c r="I8" s="429"/>
+      <c r="J8" s="431"/>
+      <c r="K8" s="518"/>
+      <c r="L8" s="519"/>
+      <c r="M8" s="429"/>
+      <c r="N8" s="431"/>
+      <c r="O8" s="524"/>
+      <c r="P8" s="525"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="38" t="s">
         <v>182</v>
@@ -21796,16 +22884,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="425"/>
-      <c r="H9" s="518"/>
-      <c r="I9" s="420"/>
-      <c r="J9" s="422"/>
-      <c r="K9" s="524"/>
-      <c r="L9" s="525"/>
-      <c r="M9" s="420"/>
-      <c r="N9" s="422"/>
-      <c r="O9" s="530"/>
-      <c r="P9" s="531"/>
+      <c r="G9" s="434"/>
+      <c r="H9" s="512"/>
+      <c r="I9" s="429"/>
+      <c r="J9" s="431"/>
+      <c r="K9" s="518"/>
+      <c r="L9" s="519"/>
+      <c r="M9" s="429"/>
+      <c r="N9" s="431"/>
+      <c r="O9" s="524"/>
+      <c r="P9" s="525"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -21825,16 +22913,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="425"/>
-      <c r="H10" s="518"/>
-      <c r="I10" s="420"/>
-      <c r="J10" s="422"/>
-      <c r="K10" s="524"/>
-      <c r="L10" s="525"/>
-      <c r="M10" s="420"/>
-      <c r="N10" s="422"/>
-      <c r="O10" s="530"/>
-      <c r="P10" s="531"/>
+      <c r="G10" s="434"/>
+      <c r="H10" s="512"/>
+      <c r="I10" s="429"/>
+      <c r="J10" s="431"/>
+      <c r="K10" s="518"/>
+      <c r="L10" s="519"/>
+      <c r="M10" s="429"/>
+      <c r="N10" s="431"/>
+      <c r="O10" s="524"/>
+      <c r="P10" s="525"/>
       <c r="Q10" s="5" t="s">
         <v>187</v>
       </c>
@@ -21850,16 +22938,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="425"/>
-      <c r="H11" s="518"/>
-      <c r="I11" s="420"/>
-      <c r="J11" s="422"/>
-      <c r="K11" s="524"/>
-      <c r="L11" s="525"/>
-      <c r="M11" s="420"/>
-      <c r="N11" s="422"/>
-      <c r="O11" s="530"/>
-      <c r="P11" s="531"/>
+      <c r="G11" s="434"/>
+      <c r="H11" s="512"/>
+      <c r="I11" s="429"/>
+      <c r="J11" s="431"/>
+      <c r="K11" s="518"/>
+      <c r="L11" s="519"/>
+      <c r="M11" s="429"/>
+      <c r="N11" s="431"/>
+      <c r="O11" s="524"/>
+      <c r="P11" s="525"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -21877,16 +22965,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="425"/>
-      <c r="H12" s="518"/>
-      <c r="I12" s="420"/>
-      <c r="J12" s="422"/>
-      <c r="K12" s="524"/>
-      <c r="L12" s="525"/>
-      <c r="M12" s="420"/>
-      <c r="N12" s="422"/>
-      <c r="O12" s="530"/>
-      <c r="P12" s="531"/>
+      <c r="G12" s="434"/>
+      <c r="H12" s="512"/>
+      <c r="I12" s="429"/>
+      <c r="J12" s="431"/>
+      <c r="K12" s="518"/>
+      <c r="L12" s="519"/>
+      <c r="M12" s="429"/>
+      <c r="N12" s="431"/>
+      <c r="O12" s="524"/>
+      <c r="P12" s="525"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -21900,16 +22988,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="425"/>
-      <c r="H13" s="518"/>
-      <c r="I13" s="420"/>
-      <c r="J13" s="422"/>
-      <c r="K13" s="524"/>
-      <c r="L13" s="525"/>
-      <c r="M13" s="420"/>
-      <c r="N13" s="422"/>
-      <c r="O13" s="530"/>
-      <c r="P13" s="531"/>
+      <c r="G13" s="434"/>
+      <c r="H13" s="512"/>
+      <c r="I13" s="429"/>
+      <c r="J13" s="431"/>
+      <c r="K13" s="518"/>
+      <c r="L13" s="519"/>
+      <c r="M13" s="429"/>
+      <c r="N13" s="431"/>
+      <c r="O13" s="524"/>
+      <c r="P13" s="525"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -21921,16 +23009,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="425"/>
-      <c r="H14" s="518"/>
-      <c r="I14" s="420"/>
-      <c r="J14" s="422"/>
-      <c r="K14" s="524"/>
-      <c r="L14" s="525"/>
-      <c r="M14" s="420"/>
-      <c r="N14" s="422"/>
-      <c r="O14" s="530"/>
-      <c r="P14" s="531"/>
+      <c r="G14" s="434"/>
+      <c r="H14" s="512"/>
+      <c r="I14" s="429"/>
+      <c r="J14" s="431"/>
+      <c r="K14" s="518"/>
+      <c r="L14" s="519"/>
+      <c r="M14" s="429"/>
+      <c r="N14" s="431"/>
+      <c r="O14" s="524"/>
+      <c r="P14" s="525"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -21944,16 +23032,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="425"/>
-      <c r="H15" s="518"/>
-      <c r="I15" s="420"/>
-      <c r="J15" s="422"/>
-      <c r="K15" s="524"/>
-      <c r="L15" s="525"/>
-      <c r="M15" s="420"/>
-      <c r="N15" s="422"/>
-      <c r="O15" s="530"/>
-      <c r="P15" s="531"/>
+      <c r="G15" s="434"/>
+      <c r="H15" s="512"/>
+      <c r="I15" s="429"/>
+      <c r="J15" s="431"/>
+      <c r="K15" s="518"/>
+      <c r="L15" s="519"/>
+      <c r="M15" s="429"/>
+      <c r="N15" s="431"/>
+      <c r="O15" s="524"/>
+      <c r="P15" s="525"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -21965,16 +23053,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="425"/>
-      <c r="H16" s="518"/>
-      <c r="I16" s="420"/>
-      <c r="J16" s="422"/>
-      <c r="K16" s="524"/>
-      <c r="L16" s="525"/>
-      <c r="M16" s="420"/>
-      <c r="N16" s="422"/>
-      <c r="O16" s="530"/>
-      <c r="P16" s="531"/>
+      <c r="G16" s="434"/>
+      <c r="H16" s="512"/>
+      <c r="I16" s="429"/>
+      <c r="J16" s="431"/>
+      <c r="K16" s="518"/>
+      <c r="L16" s="519"/>
+      <c r="M16" s="429"/>
+      <c r="N16" s="431"/>
+      <c r="O16" s="524"/>
+      <c r="P16" s="525"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -21986,16 +23074,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="425"/>
-      <c r="H17" s="518"/>
-      <c r="I17" s="420"/>
-      <c r="J17" s="422"/>
-      <c r="K17" s="524"/>
-      <c r="L17" s="525"/>
-      <c r="M17" s="420"/>
-      <c r="N17" s="422"/>
-      <c r="O17" s="530"/>
-      <c r="P17" s="531"/>
+      <c r="G17" s="434"/>
+      <c r="H17" s="512"/>
+      <c r="I17" s="429"/>
+      <c r="J17" s="431"/>
+      <c r="K17" s="518"/>
+      <c r="L17" s="519"/>
+      <c r="M17" s="429"/>
+      <c r="N17" s="431"/>
+      <c r="O17" s="524"/>
+      <c r="P17" s="525"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -22007,16 +23095,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="425"/>
-      <c r="H18" s="518"/>
-      <c r="I18" s="420"/>
-      <c r="J18" s="422"/>
-      <c r="K18" s="524"/>
-      <c r="L18" s="525"/>
-      <c r="M18" s="420"/>
-      <c r="N18" s="422"/>
-      <c r="O18" s="530"/>
-      <c r="P18" s="531"/>
+      <c r="G18" s="434"/>
+      <c r="H18" s="512"/>
+      <c r="I18" s="429"/>
+      <c r="J18" s="431"/>
+      <c r="K18" s="518"/>
+      <c r="L18" s="519"/>
+      <c r="M18" s="429"/>
+      <c r="N18" s="431"/>
+      <c r="O18" s="524"/>
+      <c r="P18" s="525"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -22030,16 +23118,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="425"/>
-      <c r="H19" s="518"/>
-      <c r="I19" s="420"/>
-      <c r="J19" s="422"/>
-      <c r="K19" s="524"/>
-      <c r="L19" s="525"/>
-      <c r="M19" s="420"/>
-      <c r="N19" s="422"/>
-      <c r="O19" s="530"/>
-      <c r="P19" s="531"/>
+      <c r="G19" s="434"/>
+      <c r="H19" s="512"/>
+      <c r="I19" s="429"/>
+      <c r="J19" s="431"/>
+      <c r="K19" s="518"/>
+      <c r="L19" s="519"/>
+      <c r="M19" s="429"/>
+      <c r="N19" s="431"/>
+      <c r="O19" s="524"/>
+      <c r="P19" s="525"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -22051,16 +23139,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="426"/>
-      <c r="H20" s="519"/>
-      <c r="I20" s="441"/>
-      <c r="J20" s="443"/>
-      <c r="K20" s="526"/>
-      <c r="L20" s="527"/>
-      <c r="M20" s="441"/>
-      <c r="N20" s="443"/>
-      <c r="O20" s="532"/>
-      <c r="P20" s="533"/>
+      <c r="G20" s="435"/>
+      <c r="H20" s="513"/>
+      <c r="I20" s="450"/>
+      <c r="J20" s="452"/>
+      <c r="K20" s="520"/>
+      <c r="L20" s="521"/>
+      <c r="M20" s="450"/>
+      <c r="N20" s="452"/>
+      <c r="O20" s="526"/>
+      <c r="P20" s="527"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -22090,27 +23178,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="444" t="s">
+      <c r="D22" s="453" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="445"/>
+      <c r="E22" s="454"/>
       <c r="F22" s="265"/>
       <c r="G22" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="444" t="s">
+      <c r="H22" s="453" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="446"/>
-      <c r="J22" s="446"/>
-      <c r="K22" s="446"/>
-      <c r="L22" s="446"/>
-      <c r="M22" s="446"/>
-      <c r="N22" s="445"/>
-      <c r="O22" s="444" t="s">
+      <c r="I22" s="455"/>
+      <c r="J22" s="455"/>
+      <c r="K22" s="455"/>
+      <c r="L22" s="455"/>
+      <c r="M22" s="455"/>
+      <c r="N22" s="454"/>
+      <c r="O22" s="453" t="s">
         <v>528</v>
       </c>
-      <c r="P22" s="445"/>
+      <c r="P22" s="454"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -22141,59 +23229,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="508" t="s">
+      <c r="B25" s="528" t="s">
         <v>1074</v>
       </c>
-      <c r="C25" s="508"/>
-      <c r="D25" s="508"/>
-      <c r="E25" s="508"/>
-      <c r="F25" s="508"/>
-      <c r="G25" s="508"/>
-      <c r="H25" s="508"/>
-      <c r="I25" s="508"/>
-      <c r="J25" s="508"/>
-      <c r="K25" s="508"/>
-      <c r="L25" s="508"/>
-      <c r="M25" s="508"/>
-      <c r="N25" s="508"/>
-      <c r="O25" s="508"/>
-      <c r="P25" s="508"/>
-      <c r="Q25" s="508"/>
-      <c r="R25" s="508"/>
-      <c r="S25" s="508"/>
-      <c r="T25" s="508"/>
-      <c r="U25" s="508"/>
-      <c r="V25" s="508"/>
+      <c r="C25" s="528"/>
+      <c r="D25" s="528"/>
+      <c r="E25" s="528"/>
+      <c r="F25" s="528"/>
+      <c r="G25" s="528"/>
+      <c r="H25" s="528"/>
+      <c r="I25" s="528"/>
+      <c r="J25" s="528"/>
+      <c r="K25" s="528"/>
+      <c r="L25" s="528"/>
+      <c r="M25" s="528"/>
+      <c r="N25" s="528"/>
+      <c r="O25" s="528"/>
+      <c r="P25" s="528"/>
+      <c r="Q25" s="528"/>
+      <c r="R25" s="528"/>
+      <c r="S25" s="528"/>
+      <c r="T25" s="528"/>
+      <c r="U25" s="528"/>
+      <c r="V25" s="528"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="509" t="s">
+      <c r="C26" s="529" t="s">
         <v>570</v>
       </c>
-      <c r="D26" s="509"/>
-      <c r="E26" s="509"/>
-      <c r="F26" s="509"/>
-      <c r="G26" s="509"/>
-      <c r="H26" s="509"/>
-      <c r="I26" s="509"/>
-      <c r="J26" s="509"/>
-      <c r="K26" s="509"/>
-      <c r="L26" s="509"/>
-      <c r="M26" s="509"/>
+      <c r="D26" s="529"/>
+      <c r="E26" s="529"/>
+      <c r="F26" s="529"/>
+      <c r="G26" s="529"/>
+      <c r="H26" s="529"/>
+      <c r="I26" s="529"/>
+      <c r="J26" s="529"/>
+      <c r="K26" s="529"/>
+      <c r="L26" s="529"/>
+      <c r="M26" s="529"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="479" t="s">
+      <c r="E27" s="481" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="416"/>
-      <c r="G27" s="416"/>
-      <c r="H27" s="435"/>
-      <c r="I27" s="435"/>
-      <c r="J27" s="435"/>
-      <c r="K27" s="435"/>
-      <c r="L27" s="435"/>
-      <c r="M27" s="436"/>
+      <c r="F27" s="425"/>
+      <c r="G27" s="425"/>
+      <c r="H27" s="444"/>
+      <c r="I27" s="444"/>
+      <c r="J27" s="444"/>
+      <c r="K27" s="444"/>
+      <c r="L27" s="444"/>
+      <c r="M27" s="445"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -22226,11 +23314,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="510" t="s">
+      <c r="O29" s="530" t="s">
         <v>179</v>
       </c>
-      <c r="P29" s="510"/>
-      <c r="Q29" s="510"/>
+      <c r="P29" s="530"/>
+      <c r="Q29" s="530"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -22275,21 +23363,21 @@
         <v>190</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="505" t="s">
+      <c r="E32" s="534" t="s">
         <v>1078</v>
       </c>
-      <c r="F32" s="506"/>
-      <c r="G32" s="507"/>
-      <c r="H32" s="505" t="s">
+      <c r="F32" s="535"/>
+      <c r="G32" s="536"/>
+      <c r="H32" s="534" t="s">
         <v>1079</v>
       </c>
-      <c r="I32" s="506"/>
-      <c r="J32" s="507"/>
-      <c r="K32" s="505" t="s">
+      <c r="I32" s="535"/>
+      <c r="J32" s="536"/>
+      <c r="K32" s="534" t="s">
         <v>1080</v>
       </c>
-      <c r="L32" s="506"/>
-      <c r="M32" s="507"/>
+      <c r="L32" s="535"/>
+      <c r="M32" s="536"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -22306,15 +23394,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="505"/>
-      <c r="F33" s="506"/>
-      <c r="G33" s="507"/>
-      <c r="H33" s="505"/>
-      <c r="I33" s="506"/>
-      <c r="J33" s="507"/>
-      <c r="K33" s="505"/>
-      <c r="L33" s="506"/>
-      <c r="M33" s="507"/>
+      <c r="E33" s="534"/>
+      <c r="F33" s="535"/>
+      <c r="G33" s="536"/>
+      <c r="H33" s="534"/>
+      <c r="I33" s="535"/>
+      <c r="J33" s="536"/>
+      <c r="K33" s="534"/>
+      <c r="L33" s="535"/>
+      <c r="M33" s="536"/>
       <c r="N33" s="5" t="s">
         <v>187</v>
       </c>
@@ -22331,15 +23419,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="505"/>
-      <c r="F34" s="506"/>
-      <c r="G34" s="507"/>
-      <c r="H34" s="505"/>
-      <c r="I34" s="506"/>
-      <c r="J34" s="507"/>
-      <c r="K34" s="505"/>
-      <c r="L34" s="506"/>
-      <c r="M34" s="507"/>
+      <c r="E34" s="534"/>
+      <c r="F34" s="535"/>
+      <c r="G34" s="536"/>
+      <c r="H34" s="534"/>
+      <c r="I34" s="535"/>
+      <c r="J34" s="536"/>
+      <c r="K34" s="534"/>
+      <c r="L34" s="535"/>
+      <c r="M34" s="536"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -22350,15 +23438,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="505"/>
-      <c r="F35" s="506"/>
-      <c r="G35" s="507"/>
-      <c r="H35" s="505"/>
-      <c r="I35" s="506"/>
-      <c r="J35" s="507"/>
-      <c r="K35" s="505"/>
-      <c r="L35" s="506"/>
-      <c r="M35" s="507"/>
+      <c r="E35" s="534"/>
+      <c r="F35" s="535"/>
+      <c r="G35" s="536"/>
+      <c r="H35" s="534"/>
+      <c r="I35" s="535"/>
+      <c r="J35" s="536"/>
+      <c r="K35" s="534"/>
+      <c r="L35" s="535"/>
+      <c r="M35" s="536"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -22489,15 +23577,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="498"/>
-      <c r="F42" s="499"/>
-      <c r="G42" s="499"/>
-      <c r="H42" s="499"/>
-      <c r="I42" s="499"/>
-      <c r="J42" s="499"/>
-      <c r="K42" s="499"/>
-      <c r="L42" s="499"/>
-      <c r="M42" s="500"/>
+      <c r="E42" s="538"/>
+      <c r="F42" s="539"/>
+      <c r="G42" s="539"/>
+      <c r="H42" s="539"/>
+      <c r="I42" s="539"/>
+      <c r="J42" s="539"/>
+      <c r="K42" s="539"/>
+      <c r="L42" s="539"/>
+      <c r="M42" s="540"/>
       <c r="N42" s="40" t="s">
         <v>575</v>
       </c>
@@ -22516,83 +23604,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="444" t="s">
+      <c r="C44" s="453" t="s">
         <v>194</v>
       </c>
-      <c r="D44" s="445"/>
-      <c r="E44" s="444" t="s">
+      <c r="D44" s="454"/>
+      <c r="E44" s="453" t="s">
         <v>195</v>
       </c>
-      <c r="F44" s="446"/>
-      <c r="G44" s="445"/>
-      <c r="H44" s="444" t="s">
+      <c r="F44" s="455"/>
+      <c r="G44" s="454"/>
+      <c r="H44" s="453" t="s">
         <v>196</v>
       </c>
-      <c r="I44" s="446"/>
-      <c r="J44" s="446"/>
-      <c r="K44" s="446"/>
-      <c r="L44" s="446"/>
-      <c r="M44" s="445"/>
+      <c r="I44" s="455"/>
+      <c r="J44" s="455"/>
+      <c r="K44" s="455"/>
+      <c r="L44" s="455"/>
+      <c r="M44" s="454"/>
       <c r="Q44" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="508" t="s">
+      <c r="B47" s="528" t="s">
         <v>1076</v>
       </c>
-      <c r="C47" s="508"/>
-      <c r="D47" s="508"/>
-      <c r="E47" s="508"/>
-      <c r="F47" s="508"/>
-      <c r="G47" s="508"/>
-      <c r="H47" s="508"/>
-      <c r="I47" s="508"/>
-      <c r="J47" s="508"/>
-      <c r="K47" s="508"/>
-      <c r="L47" s="508"/>
-      <c r="M47" s="508"/>
-      <c r="N47" s="508"/>
-      <c r="O47" s="508"/>
-      <c r="P47" s="508"/>
-      <c r="Q47" s="508"/>
-      <c r="R47" s="508"/>
-      <c r="S47" s="508"/>
-      <c r="T47" s="508"/>
-      <c r="U47" s="508"/>
-      <c r="V47" s="508"/>
+      <c r="C47" s="528"/>
+      <c r="D47" s="528"/>
+      <c r="E47" s="528"/>
+      <c r="F47" s="528"/>
+      <c r="G47" s="528"/>
+      <c r="H47" s="528"/>
+      <c r="I47" s="528"/>
+      <c r="J47" s="528"/>
+      <c r="K47" s="528"/>
+      <c r="L47" s="528"/>
+      <c r="M47" s="528"/>
+      <c r="N47" s="528"/>
+      <c r="O47" s="528"/>
+      <c r="P47" s="528"/>
+      <c r="Q47" s="528"/>
+      <c r="R47" s="528"/>
+      <c r="S47" s="528"/>
+      <c r="T47" s="528"/>
+      <c r="U47" s="528"/>
+      <c r="V47" s="528"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="509" t="s">
+      <c r="C48" s="529" t="s">
         <v>570</v>
       </c>
-      <c r="D48" s="509"/>
-      <c r="E48" s="509"/>
-      <c r="F48" s="509"/>
-      <c r="G48" s="509"/>
-      <c r="H48" s="509"/>
-      <c r="I48" s="509"/>
-      <c r="J48" s="509"/>
-      <c r="K48" s="509"/>
-      <c r="L48" s="509"/>
-      <c r="M48" s="509"/>
+      <c r="D48" s="529"/>
+      <c r="E48" s="529"/>
+      <c r="F48" s="529"/>
+      <c r="G48" s="529"/>
+      <c r="H48" s="529"/>
+      <c r="I48" s="529"/>
+      <c r="J48" s="529"/>
+      <c r="K48" s="529"/>
+      <c r="L48" s="529"/>
+      <c r="M48" s="529"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="479" t="s">
+      <c r="E49" s="481" t="s">
         <v>178</v>
       </c>
-      <c r="F49" s="416"/>
-      <c r="G49" s="416"/>
-      <c r="H49" s="435"/>
-      <c r="I49" s="435"/>
-      <c r="J49" s="435"/>
-      <c r="K49" s="435"/>
-      <c r="L49" s="435"/>
-      <c r="M49" s="436"/>
+      <c r="F49" s="425"/>
+      <c r="G49" s="425"/>
+      <c r="H49" s="444"/>
+      <c r="I49" s="444"/>
+      <c r="J49" s="444"/>
+      <c r="K49" s="444"/>
+      <c r="L49" s="444"/>
+      <c r="M49" s="445"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -22610,16 +23698,16 @@
       </c>
       <c r="F50" s="122"/>
       <c r="G50" s="245"/>
-      <c r="H50" s="512" t="s">
+      <c r="H50" s="531" t="s">
         <v>1079</v>
       </c>
-      <c r="I50" s="513"/>
-      <c r="J50" s="514"/>
-      <c r="K50" s="512" t="s">
+      <c r="I50" s="532"/>
+      <c r="J50" s="533"/>
+      <c r="K50" s="531" t="s">
         <v>1080</v>
       </c>
-      <c r="L50" s="513"/>
-      <c r="M50" s="514"/>
+      <c r="L50" s="532"/>
+      <c r="M50" s="533"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -22633,20 +23721,20 @@
         <v>1094</v>
       </c>
       <c r="F51" s="286"/>
-      <c r="G51" s="515" t="s">
+      <c r="G51" s="537" t="s">
         <v>1102</v>
       </c>
-      <c r="H51" s="505"/>
-      <c r="I51" s="506"/>
-      <c r="J51" s="507"/>
-      <c r="K51" s="505"/>
-      <c r="L51" s="506"/>
-      <c r="M51" s="507"/>
-      <c r="O51" s="510" t="s">
+      <c r="H51" s="534"/>
+      <c r="I51" s="535"/>
+      <c r="J51" s="536"/>
+      <c r="K51" s="534"/>
+      <c r="L51" s="535"/>
+      <c r="M51" s="536"/>
+      <c r="O51" s="530" t="s">
         <v>179</v>
       </c>
-      <c r="P51" s="510"/>
-      <c r="Q51" s="510"/>
+      <c r="P51" s="530"/>
+      <c r="Q51" s="530"/>
       <c r="S51" s="273"/>
       <c r="T51" s="273"/>
       <c r="W51" s="40" t="s">
@@ -22660,13 +23748,13 @@
         <v>1095</v>
       </c>
       <c r="F52" s="287"/>
-      <c r="G52" s="515"/>
-      <c r="H52" s="505"/>
-      <c r="I52" s="506"/>
-      <c r="J52" s="507"/>
-      <c r="K52" s="505"/>
-      <c r="L52" s="506"/>
-      <c r="M52" s="507"/>
+      <c r="G52" s="537"/>
+      <c r="H52" s="534"/>
+      <c r="I52" s="535"/>
+      <c r="J52" s="536"/>
+      <c r="K52" s="534"/>
+      <c r="L52" s="535"/>
+      <c r="M52" s="536"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -22677,13 +23765,13 @@
         <v>1096</v>
       </c>
       <c r="F53" s="288"/>
-      <c r="G53" s="515"/>
-      <c r="H53" s="505"/>
-      <c r="I53" s="506"/>
-      <c r="J53" s="507"/>
-      <c r="K53" s="505"/>
-      <c r="L53" s="506"/>
-      <c r="M53" s="507"/>
+      <c r="G53" s="537"/>
+      <c r="H53" s="534"/>
+      <c r="I53" s="535"/>
+      <c r="J53" s="536"/>
+      <c r="K53" s="534"/>
+      <c r="L53" s="535"/>
+      <c r="M53" s="536"/>
       <c r="N53" s="5"/>
       <c r="O53" s="38" t="s">
         <v>182</v>
@@ -22722,7 +23810,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="274"/>
       <c r="F54" s="289"/>
-      <c r="G54" s="503" t="s">
+      <c r="G54" s="543" t="s">
         <v>1106</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -22769,11 +23857,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="501" t="s">
+      <c r="E55" s="541" t="s">
         <v>1107</v>
       </c>
-      <c r="F55" s="502"/>
-      <c r="G55" s="504"/>
+      <c r="F55" s="542"/>
+      <c r="G55" s="544"/>
       <c r="H55" s="141" t="s">
         <v>1098</v>
       </c>
@@ -22817,9 +23905,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="501"/>
-      <c r="F56" s="502"/>
-      <c r="G56" s="504"/>
+      <c r="E56" s="541"/>
+      <c r="F56" s="542"/>
+      <c r="G56" s="544"/>
       <c r="H56" s="141" t="s">
         <v>1099</v>
       </c>
@@ -22849,9 +23937,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="501"/>
-      <c r="F57" s="502"/>
-      <c r="G57" s="504"/>
+      <c r="E57" s="541"/>
+      <c r="F57" s="542"/>
+      <c r="G57" s="544"/>
       <c r="H57" s="4" t="s">
         <v>1111</v>
       </c>
@@ -22881,9 +23969,9 @@
         <v>192</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="501"/>
-      <c r="F58" s="502"/>
-      <c r="G58" s="504"/>
+      <c r="E58" s="541"/>
+      <c r="F58" s="542"/>
+      <c r="G58" s="544"/>
       <c r="H58" s="278" t="s">
         <v>1097</v>
       </c>
@@ -22908,9 +23996,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="501"/>
-      <c r="F59" s="502"/>
-      <c r="G59" s="504"/>
+      <c r="E59" s="541"/>
+      <c r="F59" s="542"/>
+      <c r="G59" s="544"/>
       <c r="H59" s="278" t="s">
         <v>549</v>
       </c>
@@ -22935,9 +24023,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="501"/>
-      <c r="F60" s="502"/>
-      <c r="G60" s="504"/>
+      <c r="E60" s="541"/>
+      <c r="F60" s="542"/>
+      <c r="G60" s="544"/>
       <c r="H60" s="280"/>
       <c r="I60" s="281" t="s">
         <v>1113</v>
@@ -22957,9 +24045,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="501"/>
-      <c r="F61" s="502"/>
-      <c r="G61" s="504"/>
+      <c r="E61" s="541"/>
+      <c r="F61" s="542"/>
+      <c r="G61" s="544"/>
       <c r="H61" s="280"/>
       <c r="I61" s="281" t="s">
         <v>1114</v>
@@ -22979,7 +24067,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="269"/>
       <c r="F62" s="285"/>
-      <c r="G62" s="504"/>
+      <c r="G62" s="544"/>
       <c r="H62" s="282"/>
       <c r="I62" s="284" t="s">
         <v>1115</v>
@@ -23021,15 +24109,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="498"/>
-      <c r="F64" s="499"/>
-      <c r="G64" s="499"/>
-      <c r="H64" s="499"/>
-      <c r="I64" s="499"/>
-      <c r="J64" s="499"/>
-      <c r="K64" s="499"/>
-      <c r="L64" s="499"/>
-      <c r="M64" s="500"/>
+      <c r="E64" s="538"/>
+      <c r="F64" s="539"/>
+      <c r="G64" s="539"/>
+      <c r="H64" s="539"/>
+      <c r="I64" s="539"/>
+      <c r="J64" s="539"/>
+      <c r="K64" s="539"/>
+      <c r="L64" s="539"/>
+      <c r="M64" s="540"/>
       <c r="N64" s="40" t="s">
         <v>575</v>
       </c>
@@ -23058,23 +24146,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="444" t="s">
+      <c r="C66" s="453" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="445"/>
-      <c r="E66" s="444" t="s">
+      <c r="D66" s="454"/>
+      <c r="E66" s="453" t="s">
         <v>195</v>
       </c>
-      <c r="F66" s="446"/>
-      <c r="G66" s="445"/>
-      <c r="H66" s="444" t="s">
+      <c r="F66" s="455"/>
+      <c r="G66" s="454"/>
+      <c r="H66" s="453" t="s">
         <v>196</v>
       </c>
-      <c r="I66" s="446"/>
-      <c r="J66" s="446"/>
-      <c r="K66" s="446"/>
-      <c r="L66" s="446"/>
-      <c r="M66" s="445"/>
+      <c r="I66" s="455"/>
+      <c r="J66" s="455"/>
+      <c r="K66" s="455"/>
+      <c r="L66" s="455"/>
+      <c r="M66" s="454"/>
       <c r="Q66" t="s">
         <v>1077</v>
       </c>
@@ -23095,23 +24183,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="483" t="s">
+      <c r="C68" s="492" t="s">
         <v>181</v>
       </c>
-      <c r="D68" s="483"/>
-      <c r="E68" s="483" t="s">
+      <c r="D68" s="492"/>
+      <c r="E68" s="492" t="s">
         <v>1363</v>
       </c>
-      <c r="F68" s="483"/>
-      <c r="G68" s="483"/>
-      <c r="H68" s="483" t="s">
+      <c r="F68" s="492"/>
+      <c r="G68" s="492"/>
+      <c r="H68" s="492" t="s">
         <v>1379</v>
       </c>
-      <c r="I68" s="483"/>
-      <c r="J68" s="483"/>
-      <c r="K68" s="483"/>
-      <c r="L68" s="483"/>
-      <c r="M68" s="483"/>
+      <c r="I68" s="492"/>
+      <c r="J68" s="492"/>
+      <c r="K68" s="492"/>
+      <c r="L68" s="492"/>
+      <c r="M68" s="492"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -23906,8 +24994,406 @@
         <v>1123</v>
       </c>
     </row>
+    <row r="204" spans="3:18" ht="15.75" thickBot="1"/>
+    <row r="205" spans="3:18">
+      <c r="C205" s="1"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="3"/>
+      <c r="G205" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H205" s="3"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="K205" s="3"/>
+      <c r="L205" s="5"/>
+      <c r="M205" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="N205" s="2"/>
+      <c r="O205" s="3"/>
+    </row>
+    <row r="206" spans="3:18">
+      <c r="C206" s="4"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="6"/>
+      <c r="G206" s="4" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H206" s="6"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="4"/>
+      <c r="K206" s="6"/>
+      <c r="L206" s="5"/>
+      <c r="M206" s="4"/>
+      <c r="N206" s="5"/>
+      <c r="O206" s="6"/>
+    </row>
+    <row r="207" spans="3:18">
+      <c r="C207" s="4"/>
+      <c r="D207" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E207" s="6"/>
+      <c r="G207" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H207" s="6"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="4"/>
+      <c r="K207" s="6"/>
+      <c r="L207" s="5"/>
+      <c r="M207" s="4"/>
+      <c r="N207" s="5"/>
+      <c r="O207" s="6"/>
+    </row>
+    <row r="208" spans="3:18">
+      <c r="C208" s="4"/>
+      <c r="D208" s="5" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E208" s="6"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="6"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="4" t="s">
+        <v>1731</v>
+      </c>
+      <c r="K208" s="6"/>
+      <c r="L208" s="5"/>
+      <c r="M208" s="4"/>
+      <c r="N208" s="5"/>
+      <c r="O208" s="6"/>
+      <c r="Q208" s="40" t="s">
+        <v>1721</v>
+      </c>
+      <c r="R208" s="40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="209" spans="3:18">
+      <c r="C209" s="4"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="6"/>
+      <c r="G209" s="4" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H209" s="6"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="K209" s="6"/>
+      <c r="L209" s="5"/>
+      <c r="M209" s="4"/>
+      <c r="N209" s="5"/>
+      <c r="O209" s="6"/>
+      <c r="P209" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>26</v>
+      </c>
+      <c r="R209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="3:18">
+      <c r="C210" s="4"/>
+      <c r="D210" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E210" s="6"/>
+      <c r="F210" t="s">
+        <v>1719</v>
+      </c>
+      <c r="G210" s="4"/>
+      <c r="H210" s="6" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I210" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J210" s="4"/>
+      <c r="K210" s="6"/>
+      <c r="L210" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M210" s="4"/>
+      <c r="N210" s="5"/>
+      <c r="O210" s="6"/>
+    </row>
+    <row r="211" spans="3:18">
+      <c r="C211" s="4"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="6"/>
+      <c r="F211" t="s">
+        <v>1724</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>1728</v>
+      </c>
+      <c r="H211" s="6"/>
+      <c r="I211" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="J211" s="4"/>
+      <c r="K211" s="6"/>
+      <c r="L211" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="M211" s="4"/>
+      <c r="N211" s="5"/>
+      <c r="O211" s="6"/>
+      <c r="P211" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="212" spans="3:18" ht="15.75" thickBot="1">
+      <c r="C212" s="4"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="6"/>
+      <c r="F212" t="s">
+        <v>1725</v>
+      </c>
+      <c r="G212" s="8"/>
+      <c r="H212" s="9" t="s">
+        <v>1730</v>
+      </c>
+      <c r="I212" s="5"/>
+      <c r="J212" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="K212" s="9"/>
+      <c r="L212" s="5"/>
+      <c r="M212" s="8"/>
+      <c r="N212" s="10"/>
+      <c r="O212" s="9"/>
+    </row>
+    <row r="213" spans="3:18" ht="15.75" thickBot="1">
+      <c r="C213" s="8"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="9"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="K213" s="5"/>
+      <c r="L213" s="5"/>
+      <c r="M213" s="5"/>
+      <c r="N213" s="5"/>
+      <c r="O213" s="5"/>
+    </row>
+    <row r="216" spans="3:18" ht="15.75" thickBot="1"/>
+    <row r="217" spans="3:18">
+      <c r="C217" s="1"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="3"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="5"/>
+      <c r="J217" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="K217" s="3"/>
+      <c r="L217" s="5"/>
+      <c r="M217" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="N217" s="2"/>
+      <c r="O217" s="3"/>
+    </row>
+    <row r="218" spans="3:18">
+      <c r="C218" s="4"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="6"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="6"/>
+      <c r="I218" s="5"/>
+      <c r="J218" s="4"/>
+      <c r="K218" s="6"/>
+      <c r="L218" s="5"/>
+      <c r="M218" s="4"/>
+      <c r="N218" s="5"/>
+      <c r="O218" s="6"/>
+    </row>
+    <row r="219" spans="3:18">
+      <c r="C219" s="4"/>
+      <c r="D219" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E219" s="6"/>
+      <c r="G219" s="4" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H219" s="6"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="4"/>
+      <c r="K219" s="6"/>
+      <c r="L219" s="5"/>
+      <c r="M219" s="4"/>
+      <c r="N219" s="5"/>
+      <c r="O219" s="6"/>
+    </row>
+    <row r="220" spans="3:18">
+      <c r="C220" s="4"/>
+      <c r="D220" s="5" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E220" s="6"/>
+      <c r="G220" s="4" t="s">
+        <v>1733</v>
+      </c>
+      <c r="H220" s="6"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="4" t="s">
+        <v>1731</v>
+      </c>
+      <c r="K220" s="6"/>
+      <c r="L220" s="5"/>
+      <c r="M220" s="4"/>
+      <c r="N220" s="5"/>
+      <c r="O220" s="6"/>
+      <c r="Q220" s="40" t="s">
+        <v>1721</v>
+      </c>
+      <c r="R220" s="40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="221" spans="3:18">
+      <c r="C221" s="4"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="6"/>
+      <c r="G221" s="4" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H221" s="6"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="K221" s="6"/>
+      <c r="L221" s="5"/>
+      <c r="M221" s="4"/>
+      <c r="N221" s="5"/>
+      <c r="O221" s="6"/>
+      <c r="P221" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>26</v>
+      </c>
+      <c r="R221" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="222" spans="3:18">
+      <c r="C222" s="4"/>
+      <c r="D222" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E222" s="6"/>
+      <c r="F222" t="s">
+        <v>1719</v>
+      </c>
+      <c r="G222" s="4"/>
+      <c r="H222" s="6"/>
+      <c r="I222" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J222" s="4"/>
+      <c r="K222" s="6"/>
+      <c r="L222" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M222" s="4"/>
+      <c r="N222" s="5"/>
+      <c r="O222" s="6"/>
+    </row>
+    <row r="223" spans="3:18">
+      <c r="C223" s="4"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="6"/>
+      <c r="F223" t="s">
+        <v>1724</v>
+      </c>
+      <c r="G223" s="4"/>
+      <c r="H223" s="6"/>
+      <c r="I223" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="J223" s="4"/>
+      <c r="K223" s="6"/>
+      <c r="L223" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="M223" s="4"/>
+      <c r="N223" s="5"/>
+      <c r="O223" s="6"/>
+      <c r="P223" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="224" spans="3:18" ht="15.75" thickBot="1">
+      <c r="C224" s="4"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="6"/>
+      <c r="F224" t="s">
+        <v>1725</v>
+      </c>
+      <c r="G224" s="8"/>
+      <c r="H224" s="9"/>
+      <c r="I224" s="5"/>
+      <c r="J224" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="K224" s="9"/>
+      <c r="L224" s="5"/>
+      <c r="M224" s="8"/>
+      <c r="N224" s="10"/>
+      <c r="O224" s="9"/>
+    </row>
+    <row r="225" spans="3:15" ht="15.75" thickBot="1">
+      <c r="C225" s="8"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="9"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
+      <c r="K225" s="5"/>
+      <c r="L225" s="5"/>
+      <c r="M225" s="5"/>
+      <c r="N225" s="5"/>
+      <c r="O225" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -23924,30 +25410,6 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -23967,7 +25429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M28"/>
   <sheetViews>
@@ -23981,12 +25443,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="534" t="s">
+      <c r="B1" s="545" t="s">
         <v>538</v>
       </c>
-      <c r="C1" s="534"/>
-      <c r="D1" s="534"/>
-      <c r="E1" s="534"/>
+      <c r="C1" s="545"/>
+      <c r="D1" s="545"/>
+      <c r="E1" s="545"/>
       <c r="I1" s="40" t="s">
         <v>551</v>
       </c>
@@ -24103,12 +25565,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="478" t="s">
+      <c r="B8" s="491" t="s">
         <v>1401</v>
       </c>
-      <c r="C8" s="478"/>
-      <c r="D8" s="478"/>
-      <c r="E8" s="478"/>
+      <c r="C8" s="491"/>
+      <c r="D8" s="491"/>
+      <c r="E8" s="491"/>
       <c r="J8" s="32" t="s">
         <v>554</v>
       </c>
@@ -24270,7 +25732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P24"/>
   <sheetViews>
@@ -24281,32 +25743,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="509" t="s">
+      <c r="C2" s="529" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="509"/>
-      <c r="E2" s="509"/>
-      <c r="F2" s="509"/>
-      <c r="G2" s="509"/>
-      <c r="H2" s="509"/>
-      <c r="I2" s="509"/>
-      <c r="J2" s="509"/>
-      <c r="K2" s="509"/>
-      <c r="L2" s="509"/>
+      <c r="D2" s="529"/>
+      <c r="E2" s="529"/>
+      <c r="F2" s="529"/>
+      <c r="G2" s="529"/>
+      <c r="H2" s="529"/>
+      <c r="I2" s="529"/>
+      <c r="J2" s="529"/>
+      <c r="K2" s="529"/>
+      <c r="L2" s="529"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="479" t="s">
+      <c r="E3" s="481" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="416"/>
-      <c r="G3" s="435"/>
-      <c r="H3" s="435"/>
-      <c r="I3" s="435"/>
-      <c r="J3" s="435"/>
-      <c r="K3" s="435"/>
-      <c r="L3" s="436"/>
+      <c r="F3" s="425"/>
+      <c r="G3" s="444"/>
+      <c r="H3" s="444"/>
+      <c r="I3" s="444"/>
+      <c r="J3" s="444"/>
+      <c r="K3" s="444"/>
+      <c r="L3" s="445"/>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
@@ -24337,11 +25799,11 @@
         <v>589</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="510" t="s">
+      <c r="N5" s="530" t="s">
         <v>179</v>
       </c>
-      <c r="O5" s="510"/>
-      <c r="P5" s="510"/>
+      <c r="O5" s="530"/>
+      <c r="P5" s="530"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -24392,20 +25854,20 @@
         <v>190</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="505" t="s">
+      <c r="E8" s="534" t="s">
         <v>571</v>
       </c>
-      <c r="F8" s="507"/>
-      <c r="G8" s="505" t="s">
+      <c r="F8" s="536"/>
+      <c r="G8" s="534" t="s">
         <v>572</v>
       </c>
-      <c r="H8" s="506"/>
-      <c r="I8" s="507"/>
-      <c r="J8" s="505" t="s">
+      <c r="H8" s="535"/>
+      <c r="I8" s="536"/>
+      <c r="J8" s="534" t="s">
         <v>573</v>
       </c>
-      <c r="K8" s="506"/>
-      <c r="L8" s="507"/>
+      <c r="K8" s="535"/>
+      <c r="L8" s="536"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -24428,14 +25890,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="505"/>
-      <c r="F9" s="507"/>
-      <c r="G9" s="505"/>
-      <c r="H9" s="506"/>
-      <c r="I9" s="507"/>
-      <c r="J9" s="505"/>
-      <c r="K9" s="506"/>
-      <c r="L9" s="507"/>
+      <c r="E9" s="534"/>
+      <c r="F9" s="536"/>
+      <c r="G9" s="534"/>
+      <c r="H9" s="535"/>
+      <c r="I9" s="536"/>
+      <c r="J9" s="534"/>
+      <c r="K9" s="535"/>
+      <c r="L9" s="536"/>
       <c r="M9" s="5" t="s">
         <v>187</v>
       </c>
@@ -24455,14 +25917,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="505"/>
-      <c r="F10" s="507"/>
-      <c r="G10" s="505"/>
-      <c r="H10" s="506"/>
-      <c r="I10" s="507"/>
-      <c r="J10" s="505"/>
-      <c r="K10" s="506"/>
-      <c r="L10" s="507"/>
+      <c r="E10" s="534"/>
+      <c r="F10" s="536"/>
+      <c r="G10" s="534"/>
+      <c r="H10" s="535"/>
+      <c r="I10" s="536"/>
+      <c r="J10" s="534"/>
+      <c r="K10" s="535"/>
+      <c r="L10" s="536"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -24476,14 +25938,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="505"/>
-      <c r="F11" s="507"/>
-      <c r="G11" s="505"/>
-      <c r="H11" s="506"/>
-      <c r="I11" s="507"/>
-      <c r="J11" s="505"/>
-      <c r="K11" s="506"/>
-      <c r="L11" s="507"/>
+      <c r="E11" s="534"/>
+      <c r="F11" s="536"/>
+      <c r="G11" s="534"/>
+      <c r="H11" s="535"/>
+      <c r="I11" s="536"/>
+      <c r="J11" s="534"/>
+      <c r="K11" s="535"/>
+      <c r="L11" s="536"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -24586,16 +26048,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="498" t="s">
+      <c r="E17" s="538" t="s">
         <v>574</v>
       </c>
-      <c r="F17" s="499"/>
-      <c r="G17" s="499"/>
-      <c r="H17" s="499"/>
-      <c r="I17" s="499"/>
-      <c r="J17" s="499"/>
-      <c r="K17" s="499"/>
-      <c r="L17" s="500"/>
+      <c r="F17" s="539"/>
+      <c r="G17" s="539"/>
+      <c r="H17" s="539"/>
+      <c r="I17" s="539"/>
+      <c r="J17" s="539"/>
+      <c r="K17" s="539"/>
+      <c r="L17" s="540"/>
       <c r="M17" s="40" t="s">
         <v>575</v>
       </c>
@@ -24613,40 +26075,40 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="444" t="s">
+      <c r="C19" s="453" t="s">
         <v>194</v>
       </c>
-      <c r="D19" s="445"/>
-      <c r="E19" s="444" t="s">
+      <c r="D19" s="454"/>
+      <c r="E19" s="453" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="445"/>
-      <c r="G19" s="444" t="s">
+      <c r="F19" s="454"/>
+      <c r="G19" s="453" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="446"/>
-      <c r="I19" s="446"/>
-      <c r="J19" s="446"/>
-      <c r="K19" s="446"/>
-      <c r="L19" s="445"/>
+      <c r="H19" s="455"/>
+      <c r="I19" s="455"/>
+      <c r="J19" s="455"/>
+      <c r="K19" s="455"/>
+      <c r="L19" s="454"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="535" t="s">
+      <c r="E21" s="546" t="s">
         <v>1392</v>
       </c>
-      <c r="F21" s="536"/>
+      <c r="F21" s="547"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="E22" s="537"/>
-      <c r="F22" s="538"/>
+      <c r="E22" s="548"/>
+      <c r="F22" s="549"/>
       <c r="J22" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="E23" s="537"/>
-      <c r="F23" s="538"/>
+      <c r="E23" s="548"/>
+      <c r="F23" s="549"/>
       <c r="H23" t="s">
         <v>1413</v>
       </c>
@@ -24658,8 +26120,8 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="539"/>
-      <c r="F24" s="540"/>
+      <c r="E24" s="550"/>
+      <c r="F24" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -24685,7 +26147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q23"/>
   <sheetViews>
@@ -25071,7 +26533,276 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:17" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B2" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="I3" s="4"/>
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B4" s="38"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" thickBot="1">
+      <c r="I6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B7" s="38"/>
+      <c r="I7" s="7">
+        <v>80</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B10" s="38"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="2:17" ht="15.75" thickBot="1">
+      <c r="I12" s="4"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6">
+        <v>25678</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="15.75" thickBot="1">
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
+        <v>65635</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B15" s="38"/>
+      <c r="I15" s="11">
+        <v>22</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="2:17" ht="15.75" thickBot="1">
+      <c r="I16" s="8"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="36">
+        <v>44234</v>
+      </c>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="5:11">
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11">
+      <c r="E18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18">
+        <v>80</v>
+      </c>
+      <c r="J18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11">
+      <c r="I19">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11">
+      <c r="I20">
+        <v>3306</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:S41"/>
   <sheetViews>
@@ -25114,22 +26845,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="511" t="s">
+      <c r="E3" s="509" t="s">
         <v>518</v>
       </c>
-      <c r="F3" s="511"/>
-      <c r="G3" s="511" t="s">
+      <c r="F3" s="509"/>
+      <c r="G3" s="509" t="s">
         <v>519</v>
       </c>
-      <c r="H3" s="511"/>
-      <c r="I3" s="511"/>
-      <c r="J3" s="511"/>
-      <c r="K3" s="511"/>
-      <c r="L3" s="511"/>
-      <c r="M3" s="511" t="s">
+      <c r="H3" s="509"/>
+      <c r="I3" s="509"/>
+      <c r="J3" s="509"/>
+      <c r="K3" s="509"/>
+      <c r="L3" s="509"/>
+      <c r="M3" s="509" t="s">
         <v>520</v>
       </c>
-      <c r="N3" s="511"/>
+      <c r="N3" s="509"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -25140,7 +26871,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="135"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="516" t="s">
+      <c r="E4" s="510" t="s">
         <v>521</v>
       </c>
       <c r="F4" s="131"/>
@@ -25168,22 +26899,22 @@
         <v>181</v>
       </c>
       <c r="D5" s="138"/>
-      <c r="E5" s="425"/>
-      <c r="F5" s="457" t="s">
+      <c r="E5" s="434"/>
+      <c r="F5" s="466" t="s">
         <v>617</v>
       </c>
-      <c r="G5" s="458"/>
-      <c r="H5" s="459"/>
-      <c r="I5" s="541" t="s">
+      <c r="G5" s="467"/>
+      <c r="H5" s="468"/>
+      <c r="I5" s="582" t="s">
         <v>618</v>
       </c>
-      <c r="J5" s="542"/>
-      <c r="K5" s="542"/>
-      <c r="L5" s="523"/>
-      <c r="M5" s="541" t="s">
+      <c r="J5" s="583"/>
+      <c r="K5" s="583"/>
+      <c r="L5" s="517"/>
+      <c r="M5" s="582" t="s">
         <v>619</v>
       </c>
-      <c r="N5" s="523"/>
+      <c r="N5" s="517"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -25194,16 +26925,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="139"/>
       <c r="D6" s="140"/>
-      <c r="E6" s="425"/>
-      <c r="F6" s="460"/>
-      <c r="G6" s="461"/>
-      <c r="H6" s="462"/>
-      <c r="I6" s="524"/>
-      <c r="J6" s="543"/>
-      <c r="K6" s="543"/>
-      <c r="L6" s="525"/>
-      <c r="M6" s="524"/>
-      <c r="N6" s="525"/>
+      <c r="E6" s="434"/>
+      <c r="F6" s="469"/>
+      <c r="G6" s="470"/>
+      <c r="H6" s="471"/>
+      <c r="I6" s="518"/>
+      <c r="J6" s="584"/>
+      <c r="K6" s="584"/>
+      <c r="L6" s="519"/>
+      <c r="M6" s="518"/>
+      <c r="N6" s="519"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>182</v>
@@ -25220,16 +26951,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="425"/>
-      <c r="F7" s="460"/>
-      <c r="G7" s="461"/>
-      <c r="H7" s="462"/>
-      <c r="I7" s="524"/>
-      <c r="J7" s="543"/>
-      <c r="K7" s="543"/>
-      <c r="L7" s="525"/>
-      <c r="M7" s="524"/>
-      <c r="N7" s="525"/>
+      <c r="E7" s="434"/>
+      <c r="F7" s="469"/>
+      <c r="G7" s="470"/>
+      <c r="H7" s="471"/>
+      <c r="I7" s="518"/>
+      <c r="J7" s="584"/>
+      <c r="K7" s="584"/>
+      <c r="L7" s="519"/>
+      <c r="M7" s="518"/>
+      <c r="N7" s="519"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -25248,16 +26979,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="425"/>
-      <c r="F8" s="460"/>
-      <c r="G8" s="461"/>
-      <c r="H8" s="462"/>
-      <c r="I8" s="524"/>
-      <c r="J8" s="543"/>
-      <c r="K8" s="543"/>
-      <c r="L8" s="525"/>
-      <c r="M8" s="524"/>
-      <c r="N8" s="525"/>
+      <c r="E8" s="434"/>
+      <c r="F8" s="469"/>
+      <c r="G8" s="470"/>
+      <c r="H8" s="471"/>
+      <c r="I8" s="518"/>
+      <c r="J8" s="584"/>
+      <c r="K8" s="584"/>
+      <c r="L8" s="519"/>
+      <c r="M8" s="518"/>
+      <c r="N8" s="519"/>
       <c r="O8" s="5" t="s">
         <v>187</v>
       </c>
@@ -25278,16 +27009,16 @@
         <v>190</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="425"/>
-      <c r="F9" s="460"/>
-      <c r="G9" s="461"/>
-      <c r="H9" s="462"/>
-      <c r="I9" s="524"/>
-      <c r="J9" s="543"/>
-      <c r="K9" s="543"/>
-      <c r="L9" s="525"/>
-      <c r="M9" s="524"/>
-      <c r="N9" s="525"/>
+      <c r="E9" s="434"/>
+      <c r="F9" s="469"/>
+      <c r="G9" s="470"/>
+      <c r="H9" s="471"/>
+      <c r="I9" s="518"/>
+      <c r="J9" s="584"/>
+      <c r="K9" s="584"/>
+      <c r="L9" s="519"/>
+      <c r="M9" s="518"/>
+      <c r="N9" s="519"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -25304,16 +27035,16 @@
         <v>537</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="425"/>
-      <c r="F10" s="460"/>
-      <c r="G10" s="461"/>
-      <c r="H10" s="462"/>
-      <c r="I10" s="524"/>
-      <c r="J10" s="543"/>
-      <c r="K10" s="543"/>
-      <c r="L10" s="525"/>
-      <c r="M10" s="524"/>
-      <c r="N10" s="525"/>
+      <c r="E10" s="434"/>
+      <c r="F10" s="469"/>
+      <c r="G10" s="470"/>
+      <c r="H10" s="471"/>
+      <c r="I10" s="518"/>
+      <c r="J10" s="584"/>
+      <c r="K10" s="584"/>
+      <c r="L10" s="519"/>
+      <c r="M10" s="518"/>
+      <c r="N10" s="519"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -25326,16 +27057,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="425"/>
-      <c r="F11" s="460"/>
-      <c r="G11" s="461"/>
-      <c r="H11" s="462"/>
-      <c r="I11" s="524"/>
-      <c r="J11" s="543"/>
-      <c r="K11" s="543"/>
-      <c r="L11" s="525"/>
-      <c r="M11" s="524"/>
-      <c r="N11" s="525"/>
+      <c r="E11" s="434"/>
+      <c r="F11" s="469"/>
+      <c r="G11" s="470"/>
+      <c r="H11" s="471"/>
+      <c r="I11" s="518"/>
+      <c r="J11" s="584"/>
+      <c r="K11" s="584"/>
+      <c r="L11" s="519"/>
+      <c r="M11" s="518"/>
+      <c r="N11" s="519"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -25346,16 +27077,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="425"/>
-      <c r="F12" s="460"/>
-      <c r="G12" s="461"/>
-      <c r="H12" s="462"/>
-      <c r="I12" s="524"/>
-      <c r="J12" s="543"/>
-      <c r="K12" s="543"/>
-      <c r="L12" s="525"/>
-      <c r="M12" s="524"/>
-      <c r="N12" s="525"/>
+      <c r="E12" s="434"/>
+      <c r="F12" s="469"/>
+      <c r="G12" s="470"/>
+      <c r="H12" s="471"/>
+      <c r="I12" s="518"/>
+      <c r="J12" s="584"/>
+      <c r="K12" s="584"/>
+      <c r="L12" s="519"/>
+      <c r="M12" s="518"/>
+      <c r="N12" s="519"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -25368,16 +27099,16 @@
         <v>192</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="425"/>
-      <c r="F13" s="460"/>
-      <c r="G13" s="461"/>
-      <c r="H13" s="462"/>
-      <c r="I13" s="524"/>
-      <c r="J13" s="543"/>
-      <c r="K13" s="543"/>
-      <c r="L13" s="525"/>
-      <c r="M13" s="524"/>
-      <c r="N13" s="525"/>
+      <c r="E13" s="434"/>
+      <c r="F13" s="469"/>
+      <c r="G13" s="470"/>
+      <c r="H13" s="471"/>
+      <c r="I13" s="518"/>
+      <c r="J13" s="584"/>
+      <c r="K13" s="584"/>
+      <c r="L13" s="519"/>
+      <c r="M13" s="518"/>
+      <c r="N13" s="519"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -25388,16 +27119,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="425"/>
-      <c r="F14" s="460"/>
-      <c r="G14" s="461"/>
-      <c r="H14" s="462"/>
-      <c r="I14" s="524"/>
-      <c r="J14" s="543"/>
-      <c r="K14" s="543"/>
-      <c r="L14" s="525"/>
-      <c r="M14" s="524"/>
-      <c r="N14" s="525"/>
+      <c r="E14" s="434"/>
+      <c r="F14" s="469"/>
+      <c r="G14" s="470"/>
+      <c r="H14" s="471"/>
+      <c r="I14" s="518"/>
+      <c r="J14" s="584"/>
+      <c r="K14" s="584"/>
+      <c r="L14" s="519"/>
+      <c r="M14" s="518"/>
+      <c r="N14" s="519"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -25408,16 +27139,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="425"/>
-      <c r="F15" s="460"/>
-      <c r="G15" s="461"/>
-      <c r="H15" s="462"/>
-      <c r="I15" s="524"/>
-      <c r="J15" s="543"/>
-      <c r="K15" s="543"/>
-      <c r="L15" s="525"/>
-      <c r="M15" s="524"/>
-      <c r="N15" s="525"/>
+      <c r="E15" s="434"/>
+      <c r="F15" s="469"/>
+      <c r="G15" s="470"/>
+      <c r="H15" s="471"/>
+      <c r="I15" s="518"/>
+      <c r="J15" s="584"/>
+      <c r="K15" s="584"/>
+      <c r="L15" s="519"/>
+      <c r="M15" s="518"/>
+      <c r="N15" s="519"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -25428,16 +27159,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="425"/>
-      <c r="F16" s="460"/>
-      <c r="G16" s="461"/>
-      <c r="H16" s="462"/>
-      <c r="I16" s="524"/>
-      <c r="J16" s="543"/>
-      <c r="K16" s="543"/>
-      <c r="L16" s="525"/>
-      <c r="M16" s="524"/>
-      <c r="N16" s="525"/>
+      <c r="E16" s="434"/>
+      <c r="F16" s="469"/>
+      <c r="G16" s="470"/>
+      <c r="H16" s="471"/>
+      <c r="I16" s="518"/>
+      <c r="J16" s="584"/>
+      <c r="K16" s="584"/>
+      <c r="L16" s="519"/>
+      <c r="M16" s="518"/>
+      <c r="N16" s="519"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -25450,16 +27181,16 @@
         <v>193</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="425"/>
-      <c r="F17" s="460"/>
-      <c r="G17" s="461"/>
-      <c r="H17" s="462"/>
-      <c r="I17" s="524"/>
-      <c r="J17" s="543"/>
-      <c r="K17" s="543"/>
-      <c r="L17" s="525"/>
-      <c r="M17" s="524"/>
-      <c r="N17" s="525"/>
+      <c r="E17" s="434"/>
+      <c r="F17" s="469"/>
+      <c r="G17" s="470"/>
+      <c r="H17" s="471"/>
+      <c r="I17" s="518"/>
+      <c r="J17" s="584"/>
+      <c r="K17" s="584"/>
+      <c r="L17" s="519"/>
+      <c r="M17" s="518"/>
+      <c r="N17" s="519"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -25470,16 +27201,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="426"/>
-      <c r="F18" s="463"/>
-      <c r="G18" s="464"/>
-      <c r="H18" s="465"/>
-      <c r="I18" s="526"/>
-      <c r="J18" s="544"/>
-      <c r="K18" s="544"/>
-      <c r="L18" s="527"/>
-      <c r="M18" s="526"/>
-      <c r="N18" s="527"/>
+      <c r="E18" s="435"/>
+      <c r="F18" s="472"/>
+      <c r="G18" s="473"/>
+      <c r="H18" s="474"/>
+      <c r="I18" s="520"/>
+      <c r="J18" s="585"/>
+      <c r="K18" s="585"/>
+      <c r="L18" s="521"/>
+      <c r="M18" s="520"/>
+      <c r="N18" s="521"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -25508,26 +27239,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="444" t="s">
+      <c r="C20" s="453" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="445"/>
+      <c r="D20" s="454"/>
       <c r="E20" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="F20" s="444" t="s">
+      <c r="F20" s="453" t="s">
         <v>196</v>
       </c>
-      <c r="G20" s="446"/>
-      <c r="H20" s="446"/>
-      <c r="I20" s="446"/>
-      <c r="J20" s="446"/>
-      <c r="K20" s="446"/>
-      <c r="L20" s="445"/>
-      <c r="M20" s="444" t="s">
+      <c r="G20" s="455"/>
+      <c r="H20" s="455"/>
+      <c r="I20" s="455"/>
+      <c r="J20" s="455"/>
+      <c r="K20" s="455"/>
+      <c r="L20" s="454"/>
+      <c r="M20" s="453" t="s">
         <v>528</v>
       </c>
-      <c r="N20" s="445"/>
+      <c r="N20" s="454"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -25555,39 +27286,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="510" t="s">
+      <c r="B24" s="530" t="s">
         <v>570</v>
       </c>
-      <c r="C24" s="510"/>
-      <c r="D24" s="509"/>
-      <c r="E24" s="509"/>
-      <c r="F24" s="509"/>
-      <c r="G24" s="509"/>
-      <c r="H24" s="509"/>
-      <c r="I24" s="509"/>
-      <c r="J24" s="509"/>
-      <c r="K24" s="509"/>
-      <c r="M24" s="563" t="s">
+      <c r="C24" s="530"/>
+      <c r="D24" s="529"/>
+      <c r="E24" s="529"/>
+      <c r="F24" s="529"/>
+      <c r="G24" s="529"/>
+      <c r="H24" s="529"/>
+      <c r="I24" s="529"/>
+      <c r="J24" s="529"/>
+      <c r="K24" s="529"/>
+      <c r="M24" s="552" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="563"/>
-      <c r="O24" s="563"/>
+      <c r="N24" s="552"/>
+      <c r="O24" s="552"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="564" t="s">
+      <c r="B25" s="553" t="s">
         <v>913</v>
       </c>
-      <c r="C25" s="487"/>
-      <c r="D25" s="435" t="s">
+      <c r="C25" s="495"/>
+      <c r="D25" s="444" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="435"/>
-      <c r="F25" s="435"/>
-      <c r="G25" s="435"/>
-      <c r="H25" s="435"/>
-      <c r="I25" s="435"/>
-      <c r="J25" s="435"/>
-      <c r="K25" s="436"/>
+      <c r="E25" s="444"/>
+      <c r="F25" s="444"/>
+      <c r="G25" s="444"/>
+      <c r="H25" s="444"/>
+      <c r="I25" s="444"/>
+      <c r="J25" s="444"/>
+      <c r="K25" s="445"/>
       <c r="M25" s="38" t="s">
         <v>182</v>
       </c>
@@ -25599,22 +27330,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="488"/>
-      <c r="C26" s="489"/>
-      <c r="D26" s="486" t="s">
+      <c r="B26" s="496"/>
+      <c r="C26" s="497"/>
+      <c r="D26" s="494" t="s">
         <v>906</v>
       </c>
-      <c r="E26" s="487"/>
-      <c r="F26" s="557" t="s">
+      <c r="E26" s="495"/>
+      <c r="F26" s="580" t="s">
         <v>906</v>
       </c>
-      <c r="G26" s="435"/>
-      <c r="H26" s="436"/>
-      <c r="I26" s="434" t="s">
+      <c r="G26" s="444"/>
+      <c r="H26" s="445"/>
+      <c r="I26" s="443" t="s">
         <v>910</v>
       </c>
-      <c r="J26" s="435"/>
-      <c r="K26" s="436"/>
+      <c r="J26" s="444"/>
+      <c r="K26" s="445"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -25629,22 +27360,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="488"/>
-      <c r="C27" s="489"/>
-      <c r="D27" s="478" t="s">
+      <c r="B27" s="496"/>
+      <c r="C27" s="497"/>
+      <c r="D27" s="491" t="s">
         <v>911</v>
       </c>
-      <c r="E27" s="489"/>
-      <c r="F27" s="488" t="s">
+      <c r="E27" s="497"/>
+      <c r="F27" s="496" t="s">
         <v>907</v>
       </c>
-      <c r="G27" s="478"/>
-      <c r="H27" s="558"/>
-      <c r="I27" s="562" t="s">
+      <c r="G27" s="491"/>
+      <c r="H27" s="564"/>
+      <c r="I27" s="563" t="s">
         <v>911</v>
       </c>
-      <c r="J27" s="478"/>
-      <c r="K27" s="558"/>
+      <c r="J27" s="491"/>
+      <c r="K27" s="564"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -25659,22 +27390,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="488"/>
-      <c r="C28" s="489"/>
-      <c r="D28" s="478" t="s">
+      <c r="B28" s="496"/>
+      <c r="C28" s="497"/>
+      <c r="D28" s="491" t="s">
         <v>908</v>
       </c>
-      <c r="E28" s="489"/>
-      <c r="F28" s="488" t="s">
+      <c r="E28" s="497"/>
+      <c r="F28" s="496" t="s">
         <v>908</v>
       </c>
-      <c r="G28" s="478"/>
-      <c r="H28" s="558"/>
-      <c r="I28" s="562" t="s">
+      <c r="G28" s="491"/>
+      <c r="H28" s="564"/>
+      <c r="I28" s="563" t="s">
         <v>908</v>
       </c>
-      <c r="J28" s="478"/>
-      <c r="K28" s="558"/>
+      <c r="J28" s="491"/>
+      <c r="K28" s="564"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -25683,22 +27414,22 @@
       <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="490"/>
-      <c r="C29" s="491"/>
-      <c r="D29" s="478" t="s">
+      <c r="B29" s="498"/>
+      <c r="C29" s="499"/>
+      <c r="D29" s="491" t="s">
         <v>909</v>
       </c>
-      <c r="E29" s="489"/>
-      <c r="F29" s="559" t="s">
+      <c r="E29" s="497"/>
+      <c r="F29" s="581" t="s">
         <v>909</v>
       </c>
-      <c r="G29" s="560"/>
-      <c r="H29" s="561"/>
-      <c r="I29" s="574" t="s">
+      <c r="G29" s="566"/>
+      <c r="H29" s="567"/>
+      <c r="I29" s="565" t="s">
         <v>909</v>
       </c>
-      <c r="J29" s="560"/>
-      <c r="K29" s="561"/>
+      <c r="J29" s="566"/>
+      <c r="K29" s="567"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -25707,149 +27438,149 @@
       <c r="O29" s="38"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="437" t="s">
+      <c r="B30" s="446" t="s">
         <v>912</v>
       </c>
-      <c r="C30" s="439"/>
-      <c r="D30" s="545" t="s">
+      <c r="C30" s="448"/>
+      <c r="D30" s="568" t="s">
         <v>571</v>
       </c>
-      <c r="E30" s="546"/>
-      <c r="F30" s="550" t="s">
+      <c r="E30" s="569"/>
+      <c r="F30" s="573" t="s">
         <v>572</v>
       </c>
-      <c r="G30" s="551"/>
-      <c r="H30" s="546"/>
-      <c r="I30" s="550" t="s">
+      <c r="G30" s="574"/>
+      <c r="H30" s="569"/>
+      <c r="I30" s="573" t="s">
         <v>573</v>
       </c>
-      <c r="J30" s="551"/>
-      <c r="K30" s="554"/>
+      <c r="J30" s="574"/>
+      <c r="K30" s="577"/>
       <c r="L30" s="5"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="420"/>
-      <c r="C31" s="440"/>
-      <c r="D31" s="547"/>
-      <c r="E31" s="507"/>
-      <c r="F31" s="505"/>
-      <c r="G31" s="506"/>
-      <c r="H31" s="507"/>
-      <c r="I31" s="505"/>
-      <c r="J31" s="506"/>
-      <c r="K31" s="555"/>
+      <c r="B31" s="429"/>
+      <c r="C31" s="449"/>
+      <c r="D31" s="570"/>
+      <c r="E31" s="536"/>
+      <c r="F31" s="534"/>
+      <c r="G31" s="535"/>
+      <c r="H31" s="536"/>
+      <c r="I31" s="534"/>
+      <c r="J31" s="535"/>
+      <c r="K31" s="578"/>
       <c r="L31" s="5"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="420"/>
-      <c r="C32" s="440"/>
-      <c r="D32" s="547"/>
-      <c r="E32" s="507"/>
-      <c r="F32" s="505"/>
-      <c r="G32" s="506"/>
-      <c r="H32" s="507"/>
-      <c r="I32" s="505"/>
-      <c r="J32" s="506"/>
-      <c r="K32" s="555"/>
+      <c r="B32" s="429"/>
+      <c r="C32" s="449"/>
+      <c r="D32" s="570"/>
+      <c r="E32" s="536"/>
+      <c r="F32" s="534"/>
+      <c r="G32" s="535"/>
+      <c r="H32" s="536"/>
+      <c r="I32" s="534"/>
+      <c r="J32" s="535"/>
+      <c r="K32" s="578"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="420"/>
-      <c r="C33" s="440"/>
-      <c r="D33" s="548"/>
-      <c r="E33" s="549"/>
-      <c r="F33" s="552"/>
-      <c r="G33" s="553"/>
-      <c r="H33" s="549"/>
-      <c r="I33" s="552"/>
-      <c r="J33" s="553"/>
-      <c r="K33" s="556"/>
+      <c r="B33" s="429"/>
+      <c r="C33" s="449"/>
+      <c r="D33" s="571"/>
+      <c r="E33" s="572"/>
+      <c r="F33" s="575"/>
+      <c r="G33" s="576"/>
+      <c r="H33" s="572"/>
+      <c r="I33" s="575"/>
+      <c r="J33" s="576"/>
+      <c r="K33" s="579"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="420"/>
-      <c r="C34" s="422"/>
-      <c r="D34" s="565" t="s">
+      <c r="B34" s="429"/>
+      <c r="C34" s="431"/>
+      <c r="D34" s="554" t="s">
         <v>899</v>
       </c>
-      <c r="E34" s="566"/>
-      <c r="F34" s="565" t="s">
+      <c r="E34" s="555"/>
+      <c r="F34" s="554" t="s">
         <v>593</v>
       </c>
-      <c r="G34" s="571"/>
-      <c r="H34" s="566"/>
-      <c r="I34" s="565" t="s">
+      <c r="G34" s="560"/>
+      <c r="H34" s="555"/>
+      <c r="I34" s="554" t="s">
         <v>914</v>
       </c>
-      <c r="J34" s="571"/>
-      <c r="K34" s="566"/>
+      <c r="J34" s="560"/>
+      <c r="K34" s="555"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="420"/>
-      <c r="C35" s="422"/>
-      <c r="D35" s="567"/>
-      <c r="E35" s="568"/>
-      <c r="F35" s="567"/>
-      <c r="G35" s="572"/>
-      <c r="H35" s="568"/>
-      <c r="I35" s="567"/>
-      <c r="J35" s="572"/>
-      <c r="K35" s="568"/>
+      <c r="B35" s="429"/>
+      <c r="C35" s="431"/>
+      <c r="D35" s="556"/>
+      <c r="E35" s="557"/>
+      <c r="F35" s="556"/>
+      <c r="G35" s="561"/>
+      <c r="H35" s="557"/>
+      <c r="I35" s="556"/>
+      <c r="J35" s="561"/>
+      <c r="K35" s="557"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="420"/>
-      <c r="C36" s="422"/>
-      <c r="D36" s="567"/>
-      <c r="E36" s="568"/>
-      <c r="F36" s="567"/>
-      <c r="G36" s="572"/>
-      <c r="H36" s="568"/>
-      <c r="I36" s="567"/>
-      <c r="J36" s="572"/>
-      <c r="K36" s="568"/>
+      <c r="B36" s="429"/>
+      <c r="C36" s="431"/>
+      <c r="D36" s="556"/>
+      <c r="E36" s="557"/>
+      <c r="F36" s="556"/>
+      <c r="G36" s="561"/>
+      <c r="H36" s="557"/>
+      <c r="I36" s="556"/>
+      <c r="J36" s="561"/>
+      <c r="K36" s="557"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="420"/>
-      <c r="C37" s="422"/>
-      <c r="D37" s="567"/>
-      <c r="E37" s="568"/>
-      <c r="F37" s="567"/>
-      <c r="G37" s="572"/>
-      <c r="H37" s="568"/>
-      <c r="I37" s="567"/>
-      <c r="J37" s="572"/>
-      <c r="K37" s="568"/>
+      <c r="B37" s="429"/>
+      <c r="C37" s="431"/>
+      <c r="D37" s="556"/>
+      <c r="E37" s="557"/>
+      <c r="F37" s="556"/>
+      <c r="G37" s="561"/>
+      <c r="H37" s="557"/>
+      <c r="I37" s="556"/>
+      <c r="J37" s="561"/>
+      <c r="K37" s="557"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="420"/>
-      <c r="C38" s="422"/>
-      <c r="D38" s="569"/>
-      <c r="E38" s="570"/>
-      <c r="F38" s="569"/>
-      <c r="G38" s="573"/>
-      <c r="H38" s="570"/>
-      <c r="I38" s="569"/>
-      <c r="J38" s="573"/>
-      <c r="K38" s="570"/>
+      <c r="B38" s="429"/>
+      <c r="C38" s="431"/>
+      <c r="D38" s="558"/>
+      <c r="E38" s="559"/>
+      <c r="F38" s="558"/>
+      <c r="G38" s="562"/>
+      <c r="H38" s="559"/>
+      <c r="I38" s="558"/>
+      <c r="J38" s="562"/>
+      <c r="K38" s="559"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="441"/>
-      <c r="C39" s="443"/>
-      <c r="D39" s="498" t="s">
+      <c r="B39" s="450"/>
+      <c r="C39" s="452"/>
+      <c r="D39" s="538" t="s">
         <v>574</v>
       </c>
-      <c r="E39" s="499"/>
-      <c r="F39" s="499"/>
-      <c r="G39" s="499"/>
-      <c r="H39" s="499"/>
-      <c r="I39" s="499"/>
-      <c r="J39" s="499"/>
-      <c r="K39" s="500"/>
+      <c r="E39" s="539"/>
+      <c r="F39" s="539"/>
+      <c r="G39" s="539"/>
+      <c r="H39" s="539"/>
+      <c r="I39" s="539"/>
+      <c r="J39" s="539"/>
+      <c r="K39" s="540"/>
       <c r="L39" s="40" t="s">
         <v>575</v>
       </c>
@@ -25867,36 +27598,35 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="444" t="s">
+      <c r="B41" s="453" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="445"/>
-      <c r="D41" s="444" t="s">
+      <c r="C41" s="454"/>
+      <c r="D41" s="453" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="445"/>
-      <c r="F41" s="444" t="s">
+      <c r="E41" s="454"/>
+      <c r="F41" s="453" t="s">
         <v>196</v>
       </c>
-      <c r="G41" s="446"/>
-      <c r="H41" s="446"/>
-      <c r="I41" s="446"/>
-      <c r="J41" s="446"/>
-      <c r="K41" s="445"/>
+      <c r="G41" s="455"/>
+      <c r="H41" s="455"/>
+      <c r="I41" s="455"/>
+      <c r="J41" s="455"/>
+      <c r="K41" s="454"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -25913,16 +27643,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -25934,275 +27665,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:M9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:17" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B2" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="2:17">
-      <c r="I3" s="4"/>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B4" s="38"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>3306</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="2:17" ht="15.75" thickBot="1">
-      <c r="I6" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B7" s="38"/>
-      <c r="I7" s="7">
-        <v>80</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="I9" s="4"/>
-      <c r="J9" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B10" s="38"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="2:17" ht="15.75" thickBot="1">
-      <c r="I12" s="4"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="6">
-        <v>25678</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="15.75" thickBot="1">
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5">
-        <v>65635</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B15" s="38"/>
-      <c r="I15" s="11">
-        <v>22</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="2:17" ht="15.75" thickBot="1">
-      <c r="I16" s="8"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="36">
-        <v>44234</v>
-      </c>
-      <c r="Q16" s="9"/>
-    </row>
-    <row r="17" spans="5:11">
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11">
-      <c r="E18" t="s">
-        <v>126</v>
-      </c>
-      <c r="I18">
-        <v>80</v>
-      </c>
-      <c r="J18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11">
-      <c r="I19">
-        <v>22</v>
-      </c>
-      <c r="J19" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11">
-      <c r="I20">
-        <v>3306</v>
-      </c>
-      <c r="J20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -26446,13 +27908,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="415" t="s">
+      <c r="A5" s="424" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="416"/>
-      <c r="C5" s="416"/>
-      <c r="D5" s="416"/>
-      <c r="E5" s="417"/>
+      <c r="B5" s="425"/>
+      <c r="C5" s="425"/>
+      <c r="D5" s="425"/>
+      <c r="E5" s="426"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>150</v>
@@ -27109,7 +28571,7 @@
       <c r="J4" s="173"/>
       <c r="K4" s="173"/>
       <c r="L4" s="174"/>
-      <c r="M4" s="420" t="s">
+      <c r="M4" s="429" t="s">
         <v>324</v>
       </c>
     </row>
@@ -27127,7 +28589,7 @@
       <c r="J5" s="167"/>
       <c r="K5" s="167"/>
       <c r="L5" s="168"/>
-      <c r="M5" s="420"/>
+      <c r="M5" s="429"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="360">
@@ -27143,7 +28605,7 @@
       <c r="J6" s="167"/>
       <c r="K6" s="167"/>
       <c r="L6" s="168"/>
-      <c r="M6" s="420"/>
+      <c r="M6" s="429"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="360">
@@ -27163,7 +28625,7 @@
       <c r="J7" s="167"/>
       <c r="K7" s="167"/>
       <c r="L7" s="168"/>
-      <c r="M7" s="420"/>
+      <c r="M7" s="429"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="360">
@@ -27179,7 +28641,7 @@
       <c r="J8" s="167"/>
       <c r="K8" s="167"/>
       <c r="L8" s="168"/>
-      <c r="M8" s="420"/>
+      <c r="M8" s="429"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="360">
@@ -27195,7 +28657,7 @@
       <c r="J9" s="167"/>
       <c r="K9" s="167"/>
       <c r="L9" s="168"/>
-      <c r="M9" s="420"/>
+      <c r="M9" s="429"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="360">
@@ -27211,7 +28673,7 @@
       <c r="J10" s="167"/>
       <c r="K10" s="167"/>
       <c r="L10" s="168"/>
-      <c r="M10" s="420"/>
+      <c r="M10" s="429"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1">
       <c r="B11" s="360">
@@ -27227,7 +28689,7 @@
       <c r="J11" s="176"/>
       <c r="K11" s="176"/>
       <c r="L11" s="177"/>
-      <c r="M11" s="420"/>
+      <c r="M11" s="429"/>
     </row>
     <row r="12" spans="2:13">
       <c r="M12" t="s">
@@ -27501,7 +28963,7 @@
       <c r="O134" s="5"/>
     </row>
     <row r="135" spans="3:15">
-      <c r="C135" s="423" t="s">
+      <c r="C135" s="432" t="s">
         <v>167</v>
       </c>
       <c r="D135">
@@ -27528,7 +28990,7 @@
       <c r="O135" s="5"/>
     </row>
     <row r="136" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C136" s="423"/>
+      <c r="C136" s="432"/>
       <c r="D136">
         <v>20</v>
       </c>
@@ -27557,7 +29019,7 @@
       <c r="O136" s="5"/>
     </row>
     <row r="137" spans="3:15">
-      <c r="C137" s="423" t="s">
+      <c r="C137" s="432" t="s">
         <v>168</v>
       </c>
       <c r="D137">
@@ -27576,7 +29038,7 @@
       <c r="O137" s="5"/>
     </row>
     <row r="138" spans="3:15">
-      <c r="C138" s="423"/>
+      <c r="C138" s="432"/>
       <c r="D138">
         <v>40</v>
       </c>
@@ -27593,7 +29055,7 @@
       <c r="O138" s="5"/>
     </row>
     <row r="139" spans="3:15">
-      <c r="C139" s="423"/>
+      <c r="C139" s="432"/>
       <c r="D139">
         <v>50</v>
       </c>
@@ -27610,7 +29072,7 @@
       <c r="O139" s="5"/>
     </row>
     <row r="140" spans="3:15">
-      <c r="C140" s="423"/>
+      <c r="C140" s="432"/>
       <c r="D140">
         <v>60</v>
       </c>
@@ -27629,7 +29091,7 @@
       <c r="O140" s="5"/>
     </row>
     <row r="141" spans="3:15">
-      <c r="C141" s="423"/>
+      <c r="C141" s="432"/>
       <c r="D141">
         <v>70</v>
       </c>
@@ -27646,7 +29108,7 @@
       <c r="O141" s="5"/>
     </row>
     <row r="142" spans="3:15">
-      <c r="C142" s="423"/>
+      <c r="C142" s="432"/>
       <c r="D142">
         <v>80</v>
       </c>
@@ -27663,7 +29125,7 @@
       <c r="O142" s="5"/>
     </row>
     <row r="143" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C143" s="423"/>
+      <c r="C143" s="432"/>
       <c r="D143">
         <v>90</v>
       </c>
@@ -27754,7 +29216,7 @@
       </c>
     </row>
     <row r="148" spans="4:15">
-      <c r="D148" s="421">
+      <c r="D148" s="430">
         <v>1</v>
       </c>
       <c r="E148" s="169"/>
@@ -27769,7 +29231,7 @@
       <c r="N148" s="174"/>
     </row>
     <row r="149" spans="4:15">
-      <c r="D149" s="422"/>
+      <c r="D149" s="431"/>
       <c r="E149" s="170"/>
       <c r="F149" s="166"/>
       <c r="G149" s="167"/>
@@ -27782,7 +29244,7 @@
       <c r="N149" s="168"/>
     </row>
     <row r="150" spans="4:15">
-      <c r="D150" s="422"/>
+      <c r="D150" s="431"/>
       <c r="E150" s="170"/>
       <c r="F150" s="166"/>
       <c r="G150" s="167"/>
@@ -27795,7 +29257,7 @@
       <c r="N150" s="168"/>
     </row>
     <row r="151" spans="4:15">
-      <c r="D151" s="422"/>
+      <c r="D151" s="431"/>
       <c r="E151" s="170" t="s">
         <v>663</v>
       </c>
@@ -27812,7 +29274,7 @@
       <c r="N151" s="168"/>
     </row>
     <row r="152" spans="4:15">
-      <c r="D152" s="422"/>
+      <c r="D152" s="431"/>
       <c r="E152" s="170"/>
       <c r="F152" s="166"/>
       <c r="G152" s="167"/>
@@ -27825,7 +29287,7 @@
       <c r="N152" s="168"/>
     </row>
     <row r="153" spans="4:15">
-      <c r="D153" s="422"/>
+      <c r="D153" s="431"/>
       <c r="E153" s="170"/>
       <c r="F153" s="166"/>
       <c r="G153" s="167"/>
@@ -27838,7 +29300,7 @@
       <c r="N153" s="168"/>
     </row>
     <row r="154" spans="4:15" ht="15.75" thickBot="1">
-      <c r="D154" s="422"/>
+      <c r="D154" s="431"/>
       <c r="E154" s="171"/>
       <c r="F154" s="175"/>
       <c r="G154" s="176"/>
@@ -27961,7 +29423,7 @@
       <c r="K183" s="173"/>
       <c r="L183" s="173"/>
       <c r="M183" s="173"/>
-      <c r="N183" s="419" t="s">
+      <c r="N183" s="428" t="s">
         <v>916</v>
       </c>
       <c r="O183" t="s">
@@ -27982,7 +29444,7 @@
       <c r="K184" s="176"/>
       <c r="L184" s="176"/>
       <c r="M184" s="176"/>
-      <c r="N184" s="419"/>
+      <c r="N184" s="428"/>
       <c r="O184" t="s">
         <v>917</v>
       </c>
@@ -28001,7 +29463,7 @@
       <c r="K185" s="229"/>
       <c r="L185" s="229"/>
       <c r="M185" s="293"/>
-      <c r="N185" s="418" t="s">
+      <c r="N185" s="427" t="s">
         <v>919</v>
       </c>
       <c r="O185" t="s">
@@ -28022,7 +29484,7 @@
       <c r="K186" s="230"/>
       <c r="L186" s="230"/>
       <c r="M186" s="295"/>
-      <c r="N186" s="418"/>
+      <c r="N186" s="427"/>
     </row>
     <row r="187" spans="3:15">
       <c r="C187">
@@ -28038,7 +29500,7 @@
       <c r="K187" s="230"/>
       <c r="L187" s="230"/>
       <c r="M187" s="295"/>
-      <c r="N187" s="418"/>
+      <c r="N187" s="427"/>
     </row>
     <row r="188" spans="3:15" ht="15.75" thickBot="1">
       <c r="C188">
@@ -28058,7 +29520,7 @@
       <c r="K188" s="231"/>
       <c r="L188" s="231"/>
       <c r="M188" s="297"/>
-      <c r="N188" s="418"/>
+      <c r="N188" s="427"/>
     </row>
     <row r="189" spans="3:15">
       <c r="C189">
@@ -28074,7 +29536,7 @@
       <c r="K189" s="230"/>
       <c r="L189" s="230"/>
       <c r="M189" s="230"/>
-      <c r="N189" s="419"/>
+      <c r="N189" s="428"/>
     </row>
     <row r="190" spans="3:15">
       <c r="C190">
@@ -28090,7 +29552,7 @@
       <c r="K190" s="230"/>
       <c r="L190" s="230"/>
       <c r="M190" s="230"/>
-      <c r="N190" s="419"/>
+      <c r="N190" s="428"/>
     </row>
     <row r="191" spans="3:15" ht="15.75" thickBot="1">
       <c r="C191">
@@ -28106,7 +29568,7 @@
       <c r="K191" s="231"/>
       <c r="L191" s="231"/>
       <c r="M191" s="231"/>
-      <c r="N191" s="419"/>
+      <c r="N191" s="428"/>
     </row>
     <row r="192" spans="3:15" ht="15.75" thickBot="1">
       <c r="C192">
@@ -28481,14 +29943,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="434" t="s">
+      <c r="K4" s="443" t="s">
         <v>178</v>
       </c>
-      <c r="L4" s="435"/>
-      <c r="M4" s="435"/>
-      <c r="N4" s="435"/>
-      <c r="O4" s="435"/>
-      <c r="P4" s="436"/>
+      <c r="L4" s="444"/>
+      <c r="M4" s="444"/>
+      <c r="N4" s="444"/>
+      <c r="O4" s="444"/>
+      <c r="P4" s="445"/>
       <c r="Q4" s="115" t="s">
         <v>281</v>
       </c>
@@ -28527,7 +29989,7 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="453" t="s">
+      <c r="E6" s="462" t="s">
         <v>1488</v>
       </c>
       <c r="F6" t="s">
@@ -28570,7 +30032,7 @@
       <c r="D7" s="367" t="s">
         <v>1609</v>
       </c>
-      <c r="E7" s="425"/>
+      <c r="E7" s="434"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
@@ -28606,7 +30068,7 @@
       <c r="D8" s="367" t="s">
         <v>1608</v>
       </c>
-      <c r="E8" s="425"/>
+      <c r="E8" s="434"/>
       <c r="F8" t="s">
         <v>203</v>
       </c>
@@ -28617,10 +30079,10 @@
       <c r="L8" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M8" s="447" t="s">
+      <c r="M8" s="456" t="s">
         <v>1487</v>
       </c>
-      <c r="N8" s="448"/>
+      <c r="N8" s="457"/>
       <c r="O8" s="5" t="s">
         <v>31</v>
       </c>
@@ -28649,7 +30111,7 @@
       <c r="D9" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="E9" s="425"/>
+      <c r="E9" s="434"/>
       <c r="F9" s="24" t="s">
         <v>216</v>
       </c>
@@ -28662,8 +30124,8 @@
       <c r="L9" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M9" s="449"/>
-      <c r="N9" s="450"/>
+      <c r="M9" s="458"/>
+      <c r="N9" s="459"/>
       <c r="O9" s="5" t="s">
         <v>187</v>
       </c>
@@ -28688,7 +30150,7 @@
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
-      <c r="E10" s="426"/>
+      <c r="E10" s="435"/>
       <c r="F10" t="s">
         <v>204</v>
       </c>
@@ -28699,8 +30161,8 @@
       <c r="L10" s="5" t="s">
         <v>1166</v>
       </c>
-      <c r="M10" s="449"/>
-      <c r="N10" s="450"/>
+      <c r="M10" s="458"/>
+      <c r="N10" s="459"/>
       <c r="O10" s="5"/>
       <c r="P10" s="240" t="s">
         <v>399</v>
@@ -28717,13 +30179,13 @@
       <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="437" t="s">
+      <c r="A11" s="446" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="438"/>
-      <c r="C11" s="439"/>
-      <c r="D11" s="439"/>
-      <c r="E11" s="422"/>
+      <c r="B11" s="447"/>
+      <c r="C11" s="448"/>
+      <c r="D11" s="448"/>
+      <c r="E11" s="431"/>
       <c r="F11" t="s">
         <v>209</v>
       </c>
@@ -28732,8 +30194,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="449"/>
-      <c r="N11" s="450"/>
+      <c r="M11" s="458"/>
+      <c r="N11" s="459"/>
       <c r="O11" s="5" t="s">
         <v>2</v>
       </c>
@@ -28750,11 +30212,11 @@
       <c r="T11" s="38"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="420"/>
-      <c r="B12" s="440"/>
-      <c r="C12" s="440"/>
-      <c r="D12" s="440"/>
-      <c r="E12" s="422"/>
+      <c r="A12" s="429"/>
+      <c r="B12" s="449"/>
+      <c r="C12" s="449"/>
+      <c r="D12" s="449"/>
+      <c r="E12" s="431"/>
       <c r="F12" t="s">
         <v>943</v>
       </c>
@@ -28763,8 +30225,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="449"/>
-      <c r="N12" s="450"/>
+      <c r="M12" s="458"/>
+      <c r="N12" s="459"/>
       <c r="O12" s="5"/>
       <c r="P12" s="240" t="s">
         <v>1304</v>
@@ -28777,11 +30239,11 @@
       <c r="T12" s="38"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A13" s="420"/>
-      <c r="B13" s="440"/>
-      <c r="C13" s="440"/>
-      <c r="D13" s="440"/>
-      <c r="E13" s="422"/>
+      <c r="A13" s="429"/>
+      <c r="B13" s="449"/>
+      <c r="C13" s="449"/>
+      <c r="D13" s="449"/>
+      <c r="E13" s="431"/>
       <c r="F13" t="s">
         <v>679</v>
       </c>
@@ -28792,8 +30254,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="451"/>
-      <c r="N13" s="452"/>
+      <c r="M13" s="460"/>
+      <c r="N13" s="461"/>
       <c r="O13" s="28"/>
       <c r="P13" s="241"/>
       <c r="Q13">
@@ -28804,11 +30266,11 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="441"/>
-      <c r="B14" s="442"/>
-      <c r="C14" s="442"/>
-      <c r="D14" s="442"/>
-      <c r="E14" s="443"/>
+      <c r="A14" s="450"/>
+      <c r="B14" s="451"/>
+      <c r="C14" s="451"/>
+      <c r="D14" s="451"/>
+      <c r="E14" s="452"/>
       <c r="F14" t="s">
         <v>884</v>
       </c>
@@ -28948,20 +30410,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="444" t="s">
+      <c r="I20" s="453" t="s">
         <v>194</v>
       </c>
-      <c r="J20" s="445"/>
-      <c r="K20" s="444" t="s">
+      <c r="J20" s="454"/>
+      <c r="K20" s="453" t="s">
         <v>195</v>
       </c>
-      <c r="L20" s="445"/>
-      <c r="M20" s="444" t="s">
+      <c r="L20" s="454"/>
+      <c r="M20" s="453" t="s">
         <v>196</v>
       </c>
-      <c r="N20" s="446"/>
-      <c r="O20" s="446"/>
-      <c r="P20" s="445"/>
+      <c r="N20" s="455"/>
+      <c r="O20" s="455"/>
+      <c r="P20" s="454"/>
       <c r="S20" t="s">
         <v>281</v>
       </c>
@@ -30687,19 +32149,19 @@
       <c r="D204" s="2"/>
       <c r="E204" s="3"/>
       <c r="I204" s="4"/>
-      <c r="J204" s="424" t="s">
+      <c r="J204" s="433" t="s">
         <v>1492</v>
       </c>
       <c r="K204" s="1"/>
-      <c r="L204" s="454" t="s">
+      <c r="L204" s="463" t="s">
         <v>1503</v>
       </c>
-      <c r="M204" s="427" t="s">
+      <c r="M204" s="436" t="s">
         <v>1502</v>
       </c>
-      <c r="N204" s="428"/>
-      <c r="O204" s="428"/>
-      <c r="P204" s="429"/>
+      <c r="N204" s="437"/>
+      <c r="O204" s="437"/>
+      <c r="P204" s="438"/>
       <c r="Q204" s="6"/>
     </row>
     <row r="205" spans="1:17" ht="15.75" thickBot="1">
@@ -30709,13 +32171,13 @@
       <c r="D205" s="5"/>
       <c r="E205" s="6"/>
       <c r="I205" s="4"/>
-      <c r="J205" s="425"/>
+      <c r="J205" s="434"/>
       <c r="K205" s="4"/>
-      <c r="L205" s="455"/>
-      <c r="M205" s="430"/>
-      <c r="N205" s="430"/>
-      <c r="O205" s="430"/>
-      <c r="P205" s="431"/>
+      <c r="L205" s="464"/>
+      <c r="M205" s="439"/>
+      <c r="N205" s="439"/>
+      <c r="O205" s="439"/>
+      <c r="P205" s="440"/>
       <c r="Q205" s="6"/>
     </row>
     <row r="206" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
@@ -30727,15 +32189,15 @@
       <c r="D206" s="107"/>
       <c r="E206" s="108"/>
       <c r="I206" s="4"/>
-      <c r="J206" s="425"/>
+      <c r="J206" s="434"/>
       <c r="K206" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="L206" s="455"/>
-      <c r="M206" s="430"/>
-      <c r="N206" s="430"/>
-      <c r="O206" s="430"/>
-      <c r="P206" s="431"/>
+      <c r="L206" s="464"/>
+      <c r="M206" s="439"/>
+      <c r="N206" s="439"/>
+      <c r="O206" s="439"/>
+      <c r="P206" s="440"/>
       <c r="Q206" s="6"/>
     </row>
     <row r="207" spans="1:17">
@@ -30747,13 +32209,13 @@
       <c r="D207" s="5"/>
       <c r="E207" s="6"/>
       <c r="I207" s="4"/>
-      <c r="J207" s="425"/>
+      <c r="J207" s="434"/>
       <c r="K207" s="4"/>
-      <c r="L207" s="455"/>
-      <c r="M207" s="430"/>
-      <c r="N207" s="430"/>
-      <c r="O207" s="430"/>
-      <c r="P207" s="431"/>
+      <c r="L207" s="464"/>
+      <c r="M207" s="439"/>
+      <c r="N207" s="439"/>
+      <c r="O207" s="439"/>
+      <c r="P207" s="440"/>
       <c r="Q207" s="6"/>
     </row>
     <row r="208" spans="1:17" ht="15.75" thickBot="1">
@@ -30767,13 +32229,13 @@
       <c r="D208" s="5"/>
       <c r="E208" s="6"/>
       <c r="I208" s="4"/>
-      <c r="J208" s="425"/>
+      <c r="J208" s="434"/>
       <c r="K208" s="8"/>
-      <c r="L208" s="455"/>
-      <c r="M208" s="430"/>
-      <c r="N208" s="430"/>
-      <c r="O208" s="430"/>
-      <c r="P208" s="431"/>
+      <c r="L208" s="464"/>
+      <c r="M208" s="439"/>
+      <c r="N208" s="439"/>
+      <c r="O208" s="439"/>
+      <c r="P208" s="440"/>
       <c r="Q208" s="6"/>
     </row>
     <row r="209" spans="1:17">
@@ -30787,13 +32249,13 @@
       <c r="D209" s="5"/>
       <c r="E209" s="6"/>
       <c r="I209" s="4"/>
-      <c r="J209" s="425"/>
+      <c r="J209" s="434"/>
       <c r="K209" s="1"/>
-      <c r="L209" s="455"/>
-      <c r="M209" s="430"/>
-      <c r="N209" s="430"/>
-      <c r="O209" s="430"/>
-      <c r="P209" s="431"/>
+      <c r="L209" s="464"/>
+      <c r="M209" s="439"/>
+      <c r="N209" s="439"/>
+      <c r="O209" s="439"/>
+      <c r="P209" s="440"/>
       <c r="Q209" s="6"/>
     </row>
     <row r="210" spans="1:17">
@@ -30805,13 +32267,13 @@
       <c r="D210" s="5"/>
       <c r="E210" s="6"/>
       <c r="I210" s="4"/>
-      <c r="J210" s="425"/>
+      <c r="J210" s="434"/>
       <c r="K210" s="4"/>
-      <c r="L210" s="455"/>
-      <c r="M210" s="430"/>
-      <c r="N210" s="430"/>
-      <c r="O210" s="430"/>
-      <c r="P210" s="431"/>
+      <c r="L210" s="464"/>
+      <c r="M210" s="439"/>
+      <c r="N210" s="439"/>
+      <c r="O210" s="439"/>
+      <c r="P210" s="440"/>
       <c r="Q210" s="6"/>
     </row>
     <row r="211" spans="1:17">
@@ -30826,13 +32288,13 @@
         <v>1501</v>
       </c>
       <c r="I211" s="4"/>
-      <c r="J211" s="425"/>
+      <c r="J211" s="434"/>
       <c r="K211" s="4"/>
-      <c r="L211" s="455"/>
-      <c r="M211" s="430"/>
-      <c r="N211" s="430"/>
-      <c r="O211" s="430"/>
-      <c r="P211" s="431"/>
+      <c r="L211" s="464"/>
+      <c r="M211" s="439"/>
+      <c r="N211" s="439"/>
+      <c r="O211" s="439"/>
+      <c r="P211" s="440"/>
       <c r="Q211" s="6"/>
     </row>
     <row r="212" spans="1:17">
@@ -30845,15 +32307,15 @@
         <v>485</v>
       </c>
       <c r="I212" s="4"/>
-      <c r="J212" s="425"/>
+      <c r="J212" s="434"/>
       <c r="K212" s="4" t="s">
         <v>1482</v>
       </c>
-      <c r="L212" s="455"/>
-      <c r="M212" s="430"/>
-      <c r="N212" s="430"/>
-      <c r="O212" s="430"/>
-      <c r="P212" s="431"/>
+      <c r="L212" s="464"/>
+      <c r="M212" s="439"/>
+      <c r="N212" s="439"/>
+      <c r="O212" s="439"/>
+      <c r="P212" s="440"/>
       <c r="Q212" s="6"/>
     </row>
     <row r="213" spans="1:17" ht="15.75" thickBot="1">
@@ -30863,24 +32325,24 @@
       <c r="D213" s="10"/>
       <c r="E213" s="9"/>
       <c r="I213" s="4"/>
-      <c r="J213" s="425"/>
+      <c r="J213" s="434"/>
       <c r="K213" s="4"/>
-      <c r="L213" s="455"/>
-      <c r="M213" s="430"/>
-      <c r="N213" s="430"/>
-      <c r="O213" s="430"/>
-      <c r="P213" s="431"/>
+      <c r="L213" s="464"/>
+      <c r="M213" s="439"/>
+      <c r="N213" s="439"/>
+      <c r="O213" s="439"/>
+      <c r="P213" s="440"/>
       <c r="Q213" s="6"/>
     </row>
     <row r="214" spans="1:17" ht="15.75" thickBot="1">
       <c r="I214" s="4"/>
-      <c r="J214" s="425"/>
+      <c r="J214" s="434"/>
       <c r="K214" s="8"/>
-      <c r="L214" s="455"/>
-      <c r="M214" s="430"/>
-      <c r="N214" s="430"/>
-      <c r="O214" s="430"/>
-      <c r="P214" s="431"/>
+      <c r="L214" s="464"/>
+      <c r="M214" s="439"/>
+      <c r="N214" s="439"/>
+      <c r="O214" s="439"/>
+      <c r="P214" s="440"/>
       <c r="Q214" s="6"/>
     </row>
     <row r="215" spans="1:17">
@@ -30888,24 +32350,24 @@
         <v>1494</v>
       </c>
       <c r="I215" s="4"/>
-      <c r="J215" s="425"/>
+      <c r="J215" s="434"/>
       <c r="K215" s="5"/>
-      <c r="L215" s="455"/>
-      <c r="M215" s="430"/>
-      <c r="N215" s="430"/>
-      <c r="O215" s="430"/>
-      <c r="P215" s="431"/>
+      <c r="L215" s="464"/>
+      <c r="M215" s="439"/>
+      <c r="N215" s="439"/>
+      <c r="O215" s="439"/>
+      <c r="P215" s="440"/>
       <c r="Q215" s="6"/>
     </row>
     <row r="216" spans="1:17">
       <c r="I216" s="4"/>
-      <c r="J216" s="425"/>
+      <c r="J216" s="434"/>
       <c r="K216" s="5"/>
-      <c r="L216" s="455"/>
-      <c r="M216" s="430"/>
-      <c r="N216" s="430"/>
-      <c r="O216" s="430"/>
-      <c r="P216" s="431"/>
+      <c r="L216" s="464"/>
+      <c r="M216" s="439"/>
+      <c r="N216" s="439"/>
+      <c r="O216" s="439"/>
+      <c r="P216" s="440"/>
       <c r="Q216" s="6"/>
     </row>
     <row r="217" spans="1:17">
@@ -30916,15 +32378,15 @@
         <v>167</v>
       </c>
       <c r="I217" s="4"/>
-      <c r="J217" s="425"/>
+      <c r="J217" s="434"/>
       <c r="K217" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="L217" s="455"/>
-      <c r="M217" s="430"/>
-      <c r="N217" s="430"/>
-      <c r="O217" s="430"/>
-      <c r="P217" s="431"/>
+      <c r="L217" s="464"/>
+      <c r="M217" s="439"/>
+      <c r="N217" s="439"/>
+      <c r="O217" s="439"/>
+      <c r="P217" s="440"/>
       <c r="Q217" s="6"/>
     </row>
     <row r="218" spans="1:17">
@@ -30932,13 +32394,13 @@
         <v>168</v>
       </c>
       <c r="I218" s="4"/>
-      <c r="J218" s="425"/>
+      <c r="J218" s="434"/>
       <c r="K218" s="5"/>
-      <c r="L218" s="455"/>
-      <c r="M218" s="430"/>
-      <c r="N218" s="430"/>
-      <c r="O218" s="430"/>
-      <c r="P218" s="431"/>
+      <c r="L218" s="464"/>
+      <c r="M218" s="439"/>
+      <c r="N218" s="439"/>
+      <c r="O218" s="439"/>
+      <c r="P218" s="440"/>
       <c r="Q218" s="6"/>
     </row>
     <row r="219" spans="1:17">
@@ -30949,13 +32411,13 @@
         <v>10</v>
       </c>
       <c r="I219" s="4"/>
-      <c r="J219" s="425"/>
+      <c r="J219" s="434"/>
       <c r="K219" s="5"/>
-      <c r="L219" s="455"/>
-      <c r="M219" s="430"/>
-      <c r="N219" s="430"/>
-      <c r="O219" s="430"/>
-      <c r="P219" s="431"/>
+      <c r="L219" s="464"/>
+      <c r="M219" s="439"/>
+      <c r="N219" s="439"/>
+      <c r="O219" s="439"/>
+      <c r="P219" s="440"/>
       <c r="Q219" s="6"/>
     </row>
     <row r="220" spans="1:17">
@@ -30966,13 +32428,13 @@
         <v>80</v>
       </c>
       <c r="I220" s="4"/>
-      <c r="J220" s="425"/>
+      <c r="J220" s="434"/>
       <c r="K220" s="5"/>
-      <c r="L220" s="455"/>
-      <c r="M220" s="430"/>
-      <c r="N220" s="430"/>
-      <c r="O220" s="430"/>
-      <c r="P220" s="431"/>
+      <c r="L220" s="464"/>
+      <c r="M220" s="439"/>
+      <c r="N220" s="439"/>
+      <c r="O220" s="439"/>
+      <c r="P220" s="440"/>
       <c r="Q220" s="6"/>
     </row>
     <row r="221" spans="1:17">
@@ -30983,24 +32445,24 @@
         <v>1164</v>
       </c>
       <c r="I221" s="4"/>
-      <c r="J221" s="425"/>
+      <c r="J221" s="434"/>
       <c r="K221" s="5"/>
-      <c r="L221" s="455"/>
-      <c r="M221" s="430"/>
-      <c r="N221" s="430"/>
-      <c r="O221" s="430"/>
-      <c r="P221" s="431"/>
+      <c r="L221" s="464"/>
+      <c r="M221" s="439"/>
+      <c r="N221" s="439"/>
+      <c r="O221" s="439"/>
+      <c r="P221" s="440"/>
       <c r="Q221" s="6"/>
     </row>
     <row r="222" spans="1:17" ht="15.75" thickBot="1">
       <c r="I222" s="4"/>
-      <c r="J222" s="426"/>
+      <c r="J222" s="435"/>
       <c r="K222" s="10"/>
-      <c r="L222" s="456"/>
-      <c r="M222" s="432"/>
-      <c r="N222" s="432"/>
-      <c r="O222" s="432"/>
-      <c r="P222" s="433"/>
+      <c r="L222" s="465"/>
+      <c r="M222" s="441"/>
+      <c r="N222" s="441"/>
+      <c r="O222" s="441"/>
+      <c r="P222" s="442"/>
       <c r="Q222" s="6"/>
     </row>
     <row r="223" spans="1:17" ht="15.75" thickBot="1">
@@ -32823,13 +34285,13 @@
         <v>181</v>
       </c>
       <c r="J3" s="148"/>
-      <c r="K3" s="466"/>
-      <c r="L3" s="466"/>
-      <c r="M3" s="466"/>
-      <c r="N3" s="466"/>
-      <c r="O3" s="466"/>
-      <c r="P3" s="466"/>
-      <c r="Q3" s="467"/>
+      <c r="K3" s="475"/>
+      <c r="L3" s="475"/>
+      <c r="M3" s="475"/>
+      <c r="N3" s="475"/>
+      <c r="O3" s="475"/>
+      <c r="P3" s="475"/>
+      <c r="Q3" s="476"/>
       <c r="T3" s="40" t="s">
         <v>179</v>
       </c>
@@ -33097,13 +34559,13 @@
       <c r="U11" s="38"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="457" t="s">
+      <c r="A12" s="466" t="s">
         <v>667</v>
       </c>
-      <c r="B12" s="458"/>
-      <c r="C12" s="458"/>
-      <c r="D12" s="458"/>
-      <c r="E12" s="459"/>
+      <c r="B12" s="467"/>
+      <c r="C12" s="467"/>
+      <c r="D12" s="467"/>
+      <c r="E12" s="468"/>
       <c r="F12" t="s">
         <v>680</v>
       </c>
@@ -33126,11 +34588,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="460"/>
-      <c r="B13" s="461"/>
-      <c r="C13" s="461"/>
-      <c r="D13" s="461"/>
-      <c r="E13" s="462"/>
+      <c r="A13" s="469"/>
+      <c r="B13" s="470"/>
+      <c r="C13" s="470"/>
+      <c r="D13" s="470"/>
+      <c r="E13" s="471"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -33151,11 +34613,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="460"/>
-      <c r="B14" s="461"/>
-      <c r="C14" s="461"/>
-      <c r="D14" s="461"/>
-      <c r="E14" s="462"/>
+      <c r="A14" s="469"/>
+      <c r="B14" s="470"/>
+      <c r="C14" s="470"/>
+      <c r="D14" s="470"/>
+      <c r="E14" s="471"/>
       <c r="F14" t="s">
         <v>677</v>
       </c>
@@ -33178,11 +34640,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="463"/>
-      <c r="B15" s="464"/>
-      <c r="C15" s="464"/>
-      <c r="D15" s="464"/>
-      <c r="E15" s="465"/>
+      <c r="A15" s="472"/>
+      <c r="B15" s="473"/>
+      <c r="C15" s="473"/>
+      <c r="D15" s="473"/>
+      <c r="E15" s="474"/>
       <c r="F15" s="24"/>
       <c r="H15" s="192"/>
       <c r="I15" s="4" t="s">
@@ -33240,17 +34702,17 @@
       <c r="F17" s="188"/>
       <c r="G17" s="129"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="435" t="s">
+      <c r="I17" s="444" t="s">
         <v>1176</v>
       </c>
-      <c r="J17" s="435"/>
-      <c r="K17" s="435"/>
-      <c r="L17" s="435"/>
-      <c r="M17" s="435"/>
-      <c r="N17" s="435"/>
-      <c r="O17" s="435"/>
-      <c r="P17" s="435"/>
-      <c r="Q17" s="435"/>
+      <c r="J17" s="444"/>
+      <c r="K17" s="444"/>
+      <c r="L17" s="444"/>
+      <c r="M17" s="444"/>
+      <c r="N17" s="444"/>
+      <c r="O17" s="444"/>
+      <c r="P17" s="444"/>
+      <c r="Q17" s="444"/>
       <c r="S17" t="s">
         <v>358</v>
       </c>
@@ -37536,10 +38998,10 @@
       <c r="K232" s="35"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="468" t="s">
+      <c r="O232" s="477" t="s">
         <v>1224</v>
       </c>
-      <c r="P232" s="469"/>
+      <c r="P232" s="478"/>
       <c r="Q232" s="6"/>
     </row>
     <row r="233" spans="2:17">

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="9" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3683" uniqueCount="1799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="1804">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -6137,6 +6137,21 @@
   </si>
   <si>
     <t>MergeIterator</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>java program object</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>Request scope</t>
+  </si>
+  <si>
+    <t>session scope</t>
   </si>
 </sst>
 </file>
@@ -7591,6 +7606,7 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7762,18 +7778,6 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7795,8 +7799,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7828,9 +7847,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7846,8 +7862,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7903,57 +7970,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7975,53 +7991,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8062,22 +8042,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13889,10 +13904,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="479" t="s">
+      <c r="L35" s="480" t="s">
         <v>374</v>
       </c>
-      <c r="M35" s="479"/>
+      <c r="M35" s="480"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -15822,10 +15837,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="480" t="s">
+      <c r="A155" s="481" t="s">
         <v>992</v>
       </c>
-      <c r="B155" s="480"/>
+      <c r="B155" s="481"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="93" t="s">
@@ -18205,7 +18220,7 @@
       <c r="K246" s="398" t="s">
         <v>635</v>
       </c>
-      <c r="L246" s="432" t="s">
+      <c r="L246" s="433" t="s">
         <v>1649</v>
       </c>
       <c r="M246" s="399" t="s">
@@ -18214,10 +18229,10 @@
       <c r="N246" s="399">
         <v>2</v>
       </c>
-      <c r="O246" s="432" t="s">
+      <c r="O246" s="433" t="s">
         <v>1650</v>
       </c>
-      <c r="P246" s="432"/>
+      <c r="P246" s="433"/>
       <c r="Q246" s="405" t="s">
         <v>1655</v>
       </c>
@@ -18231,15 +18246,15 @@
       <c r="I247" s="399"/>
       <c r="J247" s="398"/>
       <c r="K247" s="398"/>
-      <c r="L247" s="432"/>
+      <c r="L247" s="433"/>
       <c r="M247" s="399" t="s">
         <v>364</v>
       </c>
       <c r="N247" s="399">
         <v>5</v>
       </c>
-      <c r="O247" s="432"/>
-      <c r="P247" s="432"/>
+      <c r="O247" s="433"/>
+      <c r="P247" s="433"/>
       <c r="Q247" s="405" t="s">
         <v>1656</v>
       </c>
@@ -18356,7 +18371,7 @@
       </c>
       <c r="L253" s="409"/>
       <c r="M253" s="409"/>
-      <c r="N253" s="449" t="s">
+      <c r="N253" s="450" t="s">
         <v>1658</v>
       </c>
     </row>
@@ -18371,7 +18386,7 @@
       </c>
       <c r="L254" s="409"/>
       <c r="M254" s="409"/>
-      <c r="N254" s="449"/>
+      <c r="N254" s="450"/>
     </row>
     <row r="255" spans="2:17">
       <c r="D255" s="4"/>
@@ -18386,7 +18401,7 @@
       </c>
       <c r="L255" s="410"/>
       <c r="M255" s="410"/>
-      <c r="N255" s="449"/>
+      <c r="N255" s="450"/>
       <c r="O255" s="398"/>
     </row>
     <row r="256" spans="2:17">
@@ -18566,18 +18581,18 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="481" t="s">
+      <c r="E6" s="489" t="s">
         <v>406</v>
       </c>
-      <c r="F6" s="426"/>
-      <c r="G6" s="425" t="s">
+      <c r="F6" s="427"/>
+      <c r="G6" s="426" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="425"/>
-      <c r="I6" s="425"/>
-      <c r="J6" s="425"/>
-      <c r="K6" s="425"/>
-      <c r="L6" s="426"/>
+      <c r="H6" s="426"/>
+      <c r="I6" s="426"/>
+      <c r="J6" s="426"/>
+      <c r="K6" s="426"/>
+      <c r="L6" s="427"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="28" t="s">
@@ -18587,7 +18602,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="489">
+      <c r="D7" s="486">
         <v>80</v>
       </c>
       <c r="E7" s="147"/>
@@ -18605,7 +18620,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="489"/>
+      <c r="D8" s="486"/>
       <c r="E8" s="134" t="s">
         <v>408</v>
       </c>
@@ -18640,7 +18655,7 @@
       <c r="B9" t="s">
         <v>407</v>
       </c>
-      <c r="D9" s="489"/>
+      <c r="D9" s="486"/>
       <c r="E9" s="149"/>
       <c r="F9" s="344"/>
       <c r="G9" s="149"/>
@@ -18664,7 +18679,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="489"/>
+      <c r="D10" s="486"/>
       <c r="E10" s="147"/>
       <c r="F10" s="148"/>
       <c r="G10" s="147"/>
@@ -18688,7 +18703,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="489"/>
+      <c r="D11" s="486"/>
       <c r="E11" s="134" t="s">
         <v>412</v>
       </c>
@@ -18717,7 +18732,7 @@
       <c r="B12" s="209" t="s">
         <v>416</v>
       </c>
-      <c r="D12" s="489"/>
+      <c r="D12" s="486"/>
       <c r="E12" s="149"/>
       <c r="F12" s="344"/>
       <c r="G12" s="149"/>
@@ -18735,7 +18750,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="489"/>
+      <c r="D13" s="486"/>
       <c r="E13" s="147"/>
       <c r="F13" s="148"/>
       <c r="G13" s="147"/>
@@ -18751,7 +18766,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="489"/>
+      <c r="D14" s="486"/>
       <c r="E14" s="134" t="s">
         <v>417</v>
       </c>
@@ -18775,7 +18790,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="489"/>
+      <c r="D15" s="486"/>
       <c r="E15" s="149"/>
       <c r="F15" s="344"/>
       <c r="G15" s="149"/>
@@ -18791,7 +18806,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="489"/>
+      <c r="D16" s="486"/>
       <c r="E16" s="147"/>
       <c r="F16" s="148"/>
       <c r="G16" s="24"/>
@@ -18807,7 +18822,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="489"/>
+      <c r="D17" s="486"/>
       <c r="E17" s="134" t="s">
         <v>421</v>
       </c>
@@ -18831,7 +18846,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="489"/>
+      <c r="D18" s="486"/>
       <c r="E18" s="149"/>
       <c r="F18" s="344"/>
       <c r="G18" s="71"/>
@@ -18848,20 +18863,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="482" t="s">
+      <c r="E19" s="490" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="483"/>
-      <c r="G19" s="482" t="s">
+      <c r="F19" s="491"/>
+      <c r="G19" s="490" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="483"/>
-      <c r="I19" s="482" t="s">
+      <c r="H19" s="491"/>
+      <c r="I19" s="490" t="s">
         <v>196</v>
       </c>
-      <c r="J19" s="484"/>
-      <c r="K19" s="484"/>
-      <c r="L19" s="483"/>
+      <c r="J19" s="492"/>
+      <c r="K19" s="492"/>
+      <c r="L19" s="491"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -18926,12 +18941,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="491"/>
-      <c r="H24" s="491"/>
-      <c r="I24" s="491"/>
-      <c r="J24" s="491"/>
-      <c r="K24" s="491"/>
-      <c r="L24" s="491"/>
+      <c r="G24" s="488"/>
+      <c r="H24" s="488"/>
+      <c r="I24" s="488"/>
+      <c r="J24" s="488"/>
+      <c r="K24" s="488"/>
+      <c r="L24" s="488"/>
       <c r="O24" s="40" t="s">
         <v>179</v>
       </c>
@@ -19312,11 +19327,11 @@
       <c r="G47" s="222" t="s">
         <v>882</v>
       </c>
-      <c r="H47" s="477" t="s">
+      <c r="H47" s="478" t="s">
         <v>1353</v>
       </c>
-      <c r="I47" s="490"/>
-      <c r="J47" s="478"/>
+      <c r="I47" s="487"/>
+      <c r="J47" s="479"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -19922,16 +19937,16 @@
         <v>1047</v>
       </c>
       <c r="F131" s="38"/>
-      <c r="G131" s="487" t="s">
+      <c r="G131" s="484" t="s">
         <v>1040</v>
       </c>
-      <c r="H131" s="487"/>
-      <c r="I131" s="487"/>
-      <c r="J131" s="487"/>
-      <c r="K131" s="487"/>
-      <c r="L131" s="487"/>
-      <c r="M131" s="487"/>
-      <c r="N131" s="487"/>
+      <c r="H131" s="484"/>
+      <c r="I131" s="484"/>
+      <c r="J131" s="484"/>
+      <c r="K131" s="484"/>
+      <c r="L131" s="484"/>
+      <c r="M131" s="484"/>
+      <c r="N131" s="484"/>
       <c r="O131" s="38"/>
     </row>
     <row r="132" spans="2:15">
@@ -20068,29 +20083,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="38"/>
-      <c r="G141" s="488"/>
-      <c r="H141" s="488"/>
-      <c r="I141" s="488"/>
-      <c r="J141" s="488"/>
-      <c r="K141" s="488"/>
-      <c r="L141" s="488"/>
-      <c r="M141" s="488"/>
-      <c r="N141" s="488"/>
-      <c r="O141" s="488"/>
+      <c r="G141" s="485"/>
+      <c r="H141" s="485"/>
+      <c r="I141" s="485"/>
+      <c r="J141" s="485"/>
+      <c r="K141" s="485"/>
+      <c r="L141" s="485"/>
+      <c r="M141" s="485"/>
+      <c r="N141" s="485"/>
+      <c r="O141" s="485"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="488"/>
-      <c r="H142" s="488"/>
-      <c r="I142" s="488"/>
-      <c r="J142" s="488"/>
-      <c r="K142" s="488"/>
-      <c r="L142" s="488"/>
-      <c r="M142" s="488"/>
-      <c r="N142" s="488"/>
-      <c r="O142" s="488"/>
+      <c r="G142" s="485"/>
+      <c r="H142" s="485"/>
+      <c r="I142" s="485"/>
+      <c r="J142" s="485"/>
+      <c r="K142" s="485"/>
+      <c r="L142" s="485"/>
+      <c r="M142" s="485"/>
+      <c r="N142" s="485"/>
+      <c r="O142" s="485"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -20134,7 +20149,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="485" t="s">
+      <c r="D158" s="482" t="s">
         <v>1319</v>
       </c>
       <c r="E158" s="66"/>
@@ -20147,7 +20162,7 @@
       <c r="L158" s="237"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="486"/>
+      <c r="D159" s="483"/>
       <c r="E159" s="313" t="s">
         <v>1317</v>
       </c>
@@ -20169,7 +20184,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="486"/>
+      <c r="D160" s="483"/>
       <c r="E160" s="232"/>
       <c r="F160" s="238"/>
       <c r="G160" s="232"/>
@@ -20180,7 +20195,7 @@
       <c r="L160" s="238"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="486"/>
+      <c r="D161" s="483"/>
       <c r="E161" s="315"/>
       <c r="F161" s="316"/>
       <c r="G161" s="315"/>
@@ -20191,7 +20206,7 @@
       <c r="L161" s="316"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="486"/>
+      <c r="D162" s="483"/>
       <c r="E162" s="317"/>
       <c r="F162" s="318"/>
       <c r="G162" s="317"/>
@@ -20205,7 +20220,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="486"/>
+      <c r="D163" s="483"/>
       <c r="E163" s="319"/>
       <c r="F163" s="320"/>
       <c r="G163" s="319"/>
@@ -20216,7 +20231,7 @@
       <c r="L163" s="320"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="486"/>
+      <c r="D164" s="483"/>
       <c r="E164" s="66"/>
       <c r="F164" s="237"/>
       <c r="G164" s="66"/>
@@ -20227,7 +20242,7 @@
       <c r="L164" s="237"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="486"/>
+      <c r="D165" s="483"/>
       <c r="E165" s="58"/>
       <c r="F165" s="312"/>
       <c r="G165" s="58"/>
@@ -20241,7 +20256,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="486"/>
+      <c r="D166" s="483"/>
       <c r="E166" s="232"/>
       <c r="F166" s="238"/>
       <c r="G166" s="232"/>
@@ -20252,7 +20267,7 @@
       <c r="L166" s="238"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="486"/>
+      <c r="D167" s="483"/>
       <c r="E167" s="66"/>
       <c r="F167" s="237"/>
       <c r="G167" s="59"/>
@@ -20263,7 +20278,7 @@
       <c r="L167" s="312"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="486"/>
+      <c r="D168" s="483"/>
       <c r="E168" s="58"/>
       <c r="F168" s="312"/>
       <c r="G168" s="59"/>
@@ -20277,7 +20292,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="486"/>
+      <c r="D169" s="483"/>
       <c r="E169" s="232"/>
       <c r="F169" s="238"/>
       <c r="G169" s="321"/>
@@ -21024,17 +21039,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -21279,13 +21294,13 @@
       <c r="C20" s="116">
         <v>43908</v>
       </c>
-      <c r="D20" s="492" t="s">
+      <c r="D20" s="493" t="s">
         <v>456</v>
       </c>
-      <c r="E20" s="492"/>
-      <c r="F20" s="492"/>
-      <c r="G20" s="492"/>
-      <c r="H20" s="492"/>
+      <c r="E20" s="493"/>
+      <c r="F20" s="493"/>
+      <c r="G20" s="493"/>
+      <c r="H20" s="493"/>
       <c r="I20" s="38" t="s">
         <v>457</v>
       </c>
@@ -21296,37 +21311,37 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="503">
+      <c r="C21" s="494">
         <v>43909</v>
       </c>
-      <c r="D21" s="492"/>
-      <c r="E21" s="492"/>
-      <c r="F21" s="492"/>
-      <c r="G21" s="492"/>
-      <c r="H21" s="492"/>
+      <c r="D21" s="493"/>
+      <c r="E21" s="493"/>
+      <c r="F21" s="493"/>
+      <c r="G21" s="493"/>
+      <c r="H21" s="493"/>
       <c r="I21" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="J21" s="492"/>
-      <c r="K21" s="492"/>
-      <c r="L21" s="492" t="s">
+      <c r="J21" s="493"/>
+      <c r="K21" s="493"/>
+      <c r="L21" s="493" t="s">
         <v>459</v>
       </c>
-      <c r="M21" s="492"/>
-      <c r="N21" s="492"/>
+      <c r="M21" s="493"/>
+      <c r="N21" s="493"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="503"/>
-      <c r="D22" s="492"/>
-      <c r="E22" s="492"/>
-      <c r="F22" s="492"/>
-      <c r="G22" s="492"/>
-      <c r="H22" s="492"/>
-      <c r="I22" s="432" t="s">
+      <c r="C22" s="494"/>
+      <c r="D22" s="493"/>
+      <c r="E22" s="493"/>
+      <c r="F22" s="493"/>
+      <c r="G22" s="493"/>
+      <c r="H22" s="493"/>
+      <c r="I22" s="433" t="s">
         <v>460</v>
       </c>
-      <c r="J22" s="492"/>
-      <c r="K22" s="492"/>
+      <c r="J22" s="493"/>
+      <c r="K22" s="493"/>
       <c r="L22" s="117" t="s">
         <v>461</v>
       </c>
@@ -21334,31 +21349,31 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="503"/>
-      <c r="D23" s="492"/>
-      <c r="E23" s="492"/>
-      <c r="F23" s="492"/>
-      <c r="G23" s="492"/>
-      <c r="H23" s="492"/>
-      <c r="I23" s="432"/>
-      <c r="J23" s="492"/>
-      <c r="K23" s="492"/>
-      <c r="L23" s="492" t="s">
+      <c r="C23" s="494"/>
+      <c r="D23" s="493"/>
+      <c r="E23" s="493"/>
+      <c r="F23" s="493"/>
+      <c r="G23" s="493"/>
+      <c r="H23" s="493"/>
+      <c r="I23" s="433"/>
+      <c r="J23" s="493"/>
+      <c r="K23" s="493"/>
+      <c r="L23" s="493" t="s">
         <v>462</v>
       </c>
-      <c r="M23" s="492"/>
-      <c r="N23" s="492"/>
+      <c r="M23" s="493"/>
+      <c r="N23" s="493"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="503"/>
-      <c r="D24" s="492"/>
-      <c r="E24" s="492"/>
-      <c r="F24" s="492"/>
-      <c r="G24" s="492"/>
-      <c r="H24" s="492"/>
-      <c r="I24" s="432"/>
-      <c r="J24" s="492"/>
-      <c r="K24" s="492"/>
+      <c r="C24" s="494"/>
+      <c r="D24" s="493"/>
+      <c r="E24" s="493"/>
+      <c r="F24" s="493"/>
+      <c r="G24" s="493"/>
+      <c r="H24" s="493"/>
+      <c r="I24" s="433"/>
+      <c r="J24" s="493"/>
+      <c r="K24" s="493"/>
       <c r="L24" s="118" t="s">
         <v>460</v>
       </c>
@@ -21369,13 +21384,13 @@
       <c r="C25" s="116">
         <v>43910</v>
       </c>
-      <c r="D25" s="492" t="s">
+      <c r="D25" s="493" t="s">
         <v>463</v>
       </c>
-      <c r="E25" s="492"/>
-      <c r="F25" s="492"/>
-      <c r="G25" s="492"/>
-      <c r="H25" s="492"/>
+      <c r="E25" s="493"/>
+      <c r="F25" s="493"/>
+      <c r="G25" s="493"/>
+      <c r="H25" s="493"/>
       <c r="I25" s="38" t="s">
         <v>464</v>
       </c>
@@ -21389,16 +21404,16 @@
       <c r="C26" s="116">
         <v>43911</v>
       </c>
-      <c r="D26" s="493"/>
-      <c r="E26" s="494"/>
-      <c r="F26" s="494"/>
-      <c r="G26" s="494"/>
-      <c r="H26" s="495"/>
-      <c r="I26" s="500" t="s">
+      <c r="D26" s="495"/>
+      <c r="E26" s="496"/>
+      <c r="F26" s="496"/>
+      <c r="G26" s="496"/>
+      <c r="H26" s="497"/>
+      <c r="I26" s="502" t="s">
         <v>460</v>
       </c>
-      <c r="J26" s="493"/>
-      <c r="K26" s="495"/>
+      <c r="J26" s="495"/>
+      <c r="K26" s="497"/>
       <c r="L26" s="117" t="s">
         <v>461</v>
       </c>
@@ -21407,30 +21422,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
-      <c r="D27" s="496"/>
-      <c r="E27" s="491"/>
-      <c r="F27" s="491"/>
-      <c r="G27" s="491"/>
-      <c r="H27" s="497"/>
-      <c r="I27" s="501"/>
-      <c r="J27" s="496"/>
-      <c r="K27" s="497"/>
-      <c r="L27" s="492" t="s">
+      <c r="D27" s="498"/>
+      <c r="E27" s="488"/>
+      <c r="F27" s="488"/>
+      <c r="G27" s="488"/>
+      <c r="H27" s="499"/>
+      <c r="I27" s="503"/>
+      <c r="J27" s="498"/>
+      <c r="K27" s="499"/>
+      <c r="L27" s="493" t="s">
         <v>465</v>
       </c>
-      <c r="M27" s="492"/>
-      <c r="N27" s="492"/>
+      <c r="M27" s="493"/>
+      <c r="N27" s="493"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
-      <c r="D28" s="496"/>
-      <c r="E28" s="491"/>
-      <c r="F28" s="491"/>
-      <c r="G28" s="491"/>
-      <c r="H28" s="497"/>
-      <c r="I28" s="501"/>
-      <c r="J28" s="496"/>
-      <c r="K28" s="497"/>
+      <c r="D28" s="498"/>
+      <c r="E28" s="488"/>
+      <c r="F28" s="488"/>
+      <c r="G28" s="488"/>
+      <c r="H28" s="499"/>
+      <c r="I28" s="503"/>
+      <c r="J28" s="498"/>
+      <c r="K28" s="499"/>
       <c r="L28" s="118" t="s">
         <v>460</v>
       </c>
@@ -21439,14 +21454,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
-      <c r="D29" s="498"/>
-      <c r="E29" s="479"/>
-      <c r="F29" s="479"/>
-      <c r="G29" s="479"/>
-      <c r="H29" s="499"/>
-      <c r="I29" s="502"/>
-      <c r="J29" s="498"/>
-      <c r="K29" s="499"/>
+      <c r="D29" s="500"/>
+      <c r="E29" s="480"/>
+      <c r="F29" s="480"/>
+      <c r="G29" s="480"/>
+      <c r="H29" s="501"/>
+      <c r="I29" s="504"/>
+      <c r="J29" s="500"/>
+      <c r="K29" s="501"/>
       <c r="L29" s="119" t="s">
         <v>466</v>
       </c>
@@ -21494,13 +21509,13 @@
       <c r="C33" s="116">
         <v>43908</v>
       </c>
-      <c r="D33" s="492" t="s">
+      <c r="D33" s="493" t="s">
         <v>456</v>
       </c>
-      <c r="E33" s="492"/>
-      <c r="F33" s="492"/>
-      <c r="G33" s="492"/>
-      <c r="H33" s="492"/>
+      <c r="E33" s="493"/>
+      <c r="F33" s="493"/>
+      <c r="G33" s="493"/>
+      <c r="H33" s="493"/>
       <c r="I33" s="38" t="s">
         <v>457</v>
       </c>
@@ -21511,33 +21526,33 @@
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="503">
+      <c r="C34" s="494">
         <v>43909</v>
       </c>
-      <c r="D34" s="492"/>
-      <c r="E34" s="492"/>
-      <c r="F34" s="492"/>
-      <c r="G34" s="492"/>
-      <c r="H34" s="492"/>
-      <c r="I34" s="504"/>
-      <c r="J34" s="492"/>
-      <c r="K34" s="492"/>
-      <c r="L34" s="492" t="s">
+      <c r="D34" s="493"/>
+      <c r="E34" s="493"/>
+      <c r="F34" s="493"/>
+      <c r="G34" s="493"/>
+      <c r="H34" s="493"/>
+      <c r="I34" s="505"/>
+      <c r="J34" s="493"/>
+      <c r="K34" s="493"/>
+      <c r="L34" s="493" t="s">
         <v>459</v>
       </c>
-      <c r="M34" s="492"/>
-      <c r="N34" s="492"/>
+      <c r="M34" s="493"/>
+      <c r="N34" s="493"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="503"/>
-      <c r="D35" s="492"/>
-      <c r="E35" s="492"/>
-      <c r="F35" s="492"/>
-      <c r="G35" s="492"/>
-      <c r="H35" s="492"/>
-      <c r="I35" s="505"/>
-      <c r="J35" s="492"/>
-      <c r="K35" s="492"/>
+      <c r="C35" s="494"/>
+      <c r="D35" s="493"/>
+      <c r="E35" s="493"/>
+      <c r="F35" s="493"/>
+      <c r="G35" s="493"/>
+      <c r="H35" s="493"/>
+      <c r="I35" s="506"/>
+      <c r="J35" s="493"/>
+      <c r="K35" s="493"/>
       <c r="L35" s="117" t="s">
         <v>461</v>
       </c>
@@ -21545,31 +21560,31 @@
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="503"/>
-      <c r="D36" s="492"/>
-      <c r="E36" s="492"/>
-      <c r="F36" s="492"/>
-      <c r="G36" s="492"/>
-      <c r="H36" s="492"/>
-      <c r="I36" s="505"/>
-      <c r="J36" s="492"/>
-      <c r="K36" s="492"/>
-      <c r="L36" s="492" t="s">
+      <c r="C36" s="494"/>
+      <c r="D36" s="493"/>
+      <c r="E36" s="493"/>
+      <c r="F36" s="493"/>
+      <c r="G36" s="493"/>
+      <c r="H36" s="493"/>
+      <c r="I36" s="506"/>
+      <c r="J36" s="493"/>
+      <c r="K36" s="493"/>
+      <c r="L36" s="493" t="s">
         <v>462</v>
       </c>
-      <c r="M36" s="492"/>
-      <c r="N36" s="492"/>
+      <c r="M36" s="493"/>
+      <c r="N36" s="493"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="503"/>
-      <c r="D37" s="492"/>
-      <c r="E37" s="492"/>
-      <c r="F37" s="492"/>
-      <c r="G37" s="492"/>
-      <c r="H37" s="492"/>
-      <c r="I37" s="506"/>
-      <c r="J37" s="492"/>
-      <c r="K37" s="492"/>
+      <c r="C37" s="494"/>
+      <c r="D37" s="493"/>
+      <c r="E37" s="493"/>
+      <c r="F37" s="493"/>
+      <c r="G37" s="493"/>
+      <c r="H37" s="493"/>
+      <c r="I37" s="507"/>
+      <c r="J37" s="493"/>
+      <c r="K37" s="493"/>
       <c r="L37" s="118" t="s">
         <v>467</v>
       </c>
@@ -21580,13 +21595,13 @@
       <c r="C38" s="116">
         <v>43910</v>
       </c>
-      <c r="D38" s="492" t="s">
+      <c r="D38" s="493" t="s">
         <v>463</v>
       </c>
-      <c r="E38" s="492"/>
-      <c r="F38" s="492"/>
-      <c r="G38" s="492"/>
-      <c r="H38" s="492"/>
+      <c r="E38" s="493"/>
+      <c r="F38" s="493"/>
+      <c r="G38" s="493"/>
+      <c r="H38" s="493"/>
       <c r="I38" s="38" t="s">
         <v>464</v>
       </c>
@@ -21600,14 +21615,14 @@
       <c r="C39" s="116">
         <v>43911</v>
       </c>
-      <c r="D39" s="493"/>
-      <c r="E39" s="494"/>
-      <c r="F39" s="494"/>
-      <c r="G39" s="494"/>
-      <c r="H39" s="495"/>
-      <c r="I39" s="500"/>
-      <c r="J39" s="493"/>
-      <c r="K39" s="495"/>
+      <c r="D39" s="495"/>
+      <c r="E39" s="496"/>
+      <c r="F39" s="496"/>
+      <c r="G39" s="496"/>
+      <c r="H39" s="497"/>
+      <c r="I39" s="502"/>
+      <c r="J39" s="495"/>
+      <c r="K39" s="497"/>
       <c r="L39" s="117" t="s">
         <v>461</v>
       </c>
@@ -21616,30 +21631,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
-      <c r="D40" s="496"/>
-      <c r="E40" s="491"/>
-      <c r="F40" s="491"/>
-      <c r="G40" s="491"/>
-      <c r="H40" s="497"/>
-      <c r="I40" s="501"/>
-      <c r="J40" s="496"/>
-      <c r="K40" s="497"/>
-      <c r="L40" s="492" t="s">
+      <c r="D40" s="498"/>
+      <c r="E40" s="488"/>
+      <c r="F40" s="488"/>
+      <c r="G40" s="488"/>
+      <c r="H40" s="499"/>
+      <c r="I40" s="503"/>
+      <c r="J40" s="498"/>
+      <c r="K40" s="499"/>
+      <c r="L40" s="493" t="s">
         <v>465</v>
       </c>
-      <c r="M40" s="492"/>
-      <c r="N40" s="492"/>
+      <c r="M40" s="493"/>
+      <c r="N40" s="493"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
-      <c r="D41" s="496"/>
-      <c r="E41" s="491"/>
-      <c r="F41" s="491"/>
-      <c r="G41" s="491"/>
-      <c r="H41" s="497"/>
-      <c r="I41" s="502"/>
-      <c r="J41" s="496"/>
-      <c r="K41" s="497"/>
+      <c r="D41" s="498"/>
+      <c r="E41" s="488"/>
+      <c r="F41" s="488"/>
+      <c r="G41" s="488"/>
+      <c r="H41" s="499"/>
+      <c r="I41" s="504"/>
+      <c r="J41" s="498"/>
+      <c r="K41" s="499"/>
       <c r="L41" s="118" t="s">
         <v>467</v>
       </c>
@@ -21648,16 +21663,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
-      <c r="D42" s="498"/>
-      <c r="E42" s="479"/>
-      <c r="F42" s="479"/>
-      <c r="G42" s="479"/>
-      <c r="H42" s="499"/>
+      <c r="D42" s="500"/>
+      <c r="E42" s="480"/>
+      <c r="F42" s="480"/>
+      <c r="G42" s="480"/>
+      <c r="H42" s="501"/>
       <c r="I42" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="J42" s="498"/>
-      <c r="K42" s="499"/>
+      <c r="J42" s="500"/>
+      <c r="K42" s="501"/>
       <c r="L42" s="119" t="s">
         <v>466</v>
       </c>
@@ -21969,12 +21984,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -21982,17 +22002,12 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22000,10 +22015,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E51" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="I60" sqref="F60:I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22012,12 +22027,12 @@
       <c r="A1" s="422" t="s">
         <v>1738</v>
       </c>
-      <c r="H1" s="507" t="s">
+      <c r="H1" s="508" t="s">
         <v>1745</v>
       </c>
-      <c r="I1" s="507"/>
-      <c r="J1" s="507"/>
-      <c r="K1" s="507"/>
+      <c r="I1" s="508"/>
+      <c r="J1" s="508"/>
+      <c r="K1" s="508"/>
       <c r="M1" s="12" t="s">
         <v>1739</v>
       </c>
@@ -22035,10 +22050,10 @@
       <c r="A2" s="422" t="s">
         <v>1735</v>
       </c>
-      <c r="H2" s="507"/>
-      <c r="I2" s="507"/>
-      <c r="J2" s="507"/>
-      <c r="K2" s="507"/>
+      <c r="H2" s="508"/>
+      <c r="I2" s="508"/>
+      <c r="J2" s="508"/>
+      <c r="K2" s="508"/>
       <c r="M2" s="38" t="s">
         <v>1122</v>
       </c>
@@ -22056,10 +22071,10 @@
       <c r="A3" s="422" t="s">
         <v>1736</v>
       </c>
-      <c r="H3" s="507"/>
-      <c r="I3" s="507"/>
-      <c r="J3" s="507"/>
-      <c r="K3" s="507"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="508"/>
+      <c r="J3" s="508"/>
+      <c r="K3" s="508"/>
       <c r="M3" s="38" t="s">
         <v>1123</v>
       </c>
@@ -22077,10 +22092,10 @@
       <c r="A4" s="422" t="s">
         <v>1737</v>
       </c>
-      <c r="H4" s="507"/>
-      <c r="I4" s="507"/>
-      <c r="J4" s="507"/>
-      <c r="K4" s="507"/>
+      <c r="H4" s="508"/>
+      <c r="I4" s="508"/>
+      <c r="J4" s="508"/>
+      <c r="K4" s="508"/>
       <c r="M4" s="38" t="s">
         <v>1389</v>
       </c>
@@ -22095,10 +22110,10 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="H5" s="507"/>
-      <c r="I5" s="507"/>
-      <c r="J5" s="507"/>
-      <c r="K5" s="507"/>
+      <c r="H5" s="508"/>
+      <c r="I5" s="508"/>
+      <c r="J5" s="508"/>
+      <c r="K5" s="508"/>
       <c r="Q5" s="38" t="s">
         <v>1741</v>
       </c>
@@ -22107,10 +22122,10 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="H6" s="507"/>
-      <c r="I6" s="507"/>
-      <c r="J6" s="507"/>
-      <c r="K6" s="507"/>
+      <c r="H6" s="508"/>
+      <c r="I6" s="508"/>
+      <c r="J6" s="508"/>
+      <c r="K6" s="508"/>
       <c r="Q6" s="38" t="s">
         <v>1742</v>
       </c>
@@ -22127,12 +22142,12 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="H9" s="508" t="s">
+      <c r="H9" s="509" t="s">
         <v>1749</v>
       </c>
-      <c r="I9" s="508"/>
-      <c r="J9" s="508"/>
-      <c r="K9" s="508"/>
+      <c r="I9" s="509"/>
+      <c r="J9" s="509"/>
+      <c r="K9" s="509"/>
       <c r="M9" t="s">
         <v>1750</v>
       </c>
@@ -22141,10 +22156,10 @@
       <c r="A10" s="423" t="s">
         <v>1746</v>
       </c>
-      <c r="H10" s="508"/>
-      <c r="I10" s="508"/>
-      <c r="J10" s="508"/>
-      <c r="K10" s="508"/>
+      <c r="H10" s="509"/>
+      <c r="I10" s="509"/>
+      <c r="J10" s="509"/>
+      <c r="K10" s="509"/>
       <c r="M10" t="s">
         <v>1751</v>
       </c>
@@ -22153,10 +22168,10 @@
       <c r="A11" s="423" t="s">
         <v>1747</v>
       </c>
-      <c r="H11" s="508"/>
-      <c r="I11" s="508"/>
-      <c r="J11" s="508"/>
-      <c r="K11" s="508"/>
+      <c r="H11" s="509"/>
+      <c r="I11" s="509"/>
+      <c r="J11" s="509"/>
+      <c r="K11" s="509"/>
       <c r="M11" t="s">
         <v>1752</v>
       </c>
@@ -22165,10 +22180,10 @@
       <c r="A12" s="423" t="s">
         <v>1748</v>
       </c>
-      <c r="H12" s="508"/>
-      <c r="I12" s="508"/>
-      <c r="J12" s="508"/>
-      <c r="K12" s="508"/>
+      <c r="H12" s="509"/>
+      <c r="I12" s="509"/>
+      <c r="J12" s="509"/>
+      <c r="K12" s="509"/>
       <c r="M12" t="s">
         <v>1753</v>
       </c>
@@ -22190,11 +22205,11 @@
       <c r="A16" s="16" t="s">
         <v>1755</v>
       </c>
-      <c r="I16" s="507" t="s">
+      <c r="I16" s="508" t="s">
         <v>1758</v>
       </c>
-      <c r="J16" s="507"/>
-      <c r="K16" s="507"/>
+      <c r="J16" s="508"/>
+      <c r="K16" s="508"/>
       <c r="M16" t="s">
         <v>1760</v>
       </c>
@@ -22206,9 +22221,9 @@
       <c r="A17" s="422" t="s">
         <v>1756</v>
       </c>
-      <c r="I17" s="507"/>
-      <c r="J17" s="507"/>
-      <c r="K17" s="507"/>
+      <c r="I17" s="508"/>
+      <c r="J17" s="508"/>
+      <c r="K17" s="508"/>
       <c r="M17" t="s">
         <v>1761</v>
       </c>
@@ -22220,9 +22235,9 @@
       <c r="A18" s="422" t="s">
         <v>1757</v>
       </c>
-      <c r="I18" s="507"/>
-      <c r="J18" s="507"/>
-      <c r="K18" s="507"/>
+      <c r="I18" s="508"/>
+      <c r="J18" s="508"/>
+      <c r="K18" s="508"/>
       <c r="M18" t="s">
         <v>1762</v>
       </c>
@@ -22231,19 +22246,19 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="I19" s="507"/>
-      <c r="J19" s="507"/>
-      <c r="K19" s="507"/>
+      <c r="I19" s="508"/>
+      <c r="J19" s="508"/>
+      <c r="K19" s="508"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="422" t="s">
         <v>1766</v>
       </c>
-      <c r="I22" s="507" t="s">
+      <c r="I22" s="508" t="s">
         <v>1767</v>
       </c>
-      <c r="J22" s="507"/>
-      <c r="K22" s="507"/>
+      <c r="J22" s="508"/>
+      <c r="K22" s="508"/>
       <c r="N22" s="40" t="s">
         <v>1764</v>
       </c>
@@ -22255,9 +22270,9 @@
       <c r="A23" s="422" t="s">
         <v>1763</v>
       </c>
-      <c r="I23" s="507"/>
-      <c r="J23" s="507"/>
-      <c r="K23" s="507"/>
+      <c r="I23" s="508"/>
+      <c r="J23" s="508"/>
+      <c r="K23" s="508"/>
       <c r="M23" s="115">
         <v>0</v>
       </c>
@@ -22269,9 +22284,9 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="I24" s="507"/>
-      <c r="J24" s="507"/>
-      <c r="K24" s="507"/>
+      <c r="I24" s="508"/>
+      <c r="J24" s="508"/>
+      <c r="K24" s="508"/>
       <c r="M24" s="115">
         <v>1</v>
       </c>
@@ -22283,9 +22298,9 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="I25" s="507"/>
-      <c r="J25" s="507"/>
-      <c r="K25" s="507"/>
+      <c r="I25" s="508"/>
+      <c r="J25" s="508"/>
+      <c r="K25" s="508"/>
       <c r="M25" s="115">
         <v>2</v>
       </c>
@@ -22297,9 +22312,9 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="I26" s="507"/>
-      <c r="J26" s="507"/>
-      <c r="K26" s="507"/>
+      <c r="I26" s="508"/>
+      <c r="J26" s="508"/>
+      <c r="K26" s="508"/>
       <c r="M26" s="115">
         <v>3</v>
       </c>
@@ -22446,7 +22461,7 @@
       <c r="C39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="586" t="s">
+      <c r="D39" s="424" t="s">
         <v>1780</v>
       </c>
       <c r="F39" s="4"/>
@@ -22473,7 +22488,7 @@
       <c r="C40" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D40" s="586" t="s">
+      <c r="D40" s="424" t="s">
         <v>1780</v>
       </c>
       <c r="F40" s="4"/>
@@ -22500,7 +22515,7 @@
         <v>1789</v>
       </c>
       <c r="J41" s="5"/>
-      <c r="K41" s="586" t="s">
+      <c r="K41" s="424" t="s">
         <v>1795</v>
       </c>
       <c r="M41" s="4"/>
@@ -22527,7 +22542,7 @@
         <v>1790</v>
       </c>
       <c r="J42" s="5"/>
-      <c r="K42" s="586" t="s">
+      <c r="K42" s="424" t="s">
         <v>1795</v>
       </c>
       <c r="M42" s="4"/>
@@ -22649,7 +22664,7 @@
       <c r="R48" s="5"/>
       <c r="S48" s="6"/>
     </row>
-    <row r="49" spans="9:19">
+    <row r="49" spans="1:19">
       <c r="I49" s="4" t="s">
         <v>236</v>
       </c>
@@ -22671,7 +22686,7 @@
       <c r="R49" s="5"/>
       <c r="S49" s="6"/>
     </row>
-    <row r="50" spans="9:19" ht="15.75" thickBot="1">
+    <row r="50" spans="1:19" ht="15.75" thickBot="1">
       <c r="I50" s="8" t="s">
         <v>236</v>
       </c>
@@ -22683,6 +22698,508 @@
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
       <c r="S50" s="9"/>
+    </row>
+    <row r="53" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="54" spans="1:19">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="3"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="6"/>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="6"/>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="6"/>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="6"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="6"/>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5" t="s">
+        <v>1800</v>
+      </c>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5" t="s">
+        <v>1802</v>
+      </c>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="6"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="6"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="6"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="6"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="6"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="6"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="6"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="6"/>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="6"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="6"/>
+    </row>
+    <row r="66" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A66" s="8"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="9"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="9"/>
+    </row>
+    <row r="68" spans="1:18" ht="15.75" thickBot="1"/>
+    <row r="69" spans="1:18">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="3"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="3"/>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="6"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="6"/>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="6"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="6"/>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="6"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="6"/>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="6"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="6"/>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5" t="s">
+        <v>1800</v>
+      </c>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5" t="s">
+        <v>1803</v>
+      </c>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="6"/>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="4"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="6"/>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="6"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="6"/>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="4"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="6"/>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="6"/>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="4"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="6"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="6"/>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" s="4"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="6"/>
+    </row>
+    <row r="81" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A81" s="8"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="5" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -22703,8 +23220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:X225"/>
   <sheetViews>
-    <sheetView topLeftCell="B152" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C230" sqref="C230"/>
+    <sheetView topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22715,29 +23232,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="528" t="s">
+      <c r="B2" s="520" t="s">
         <v>1075</v>
       </c>
-      <c r="C2" s="528"/>
-      <c r="D2" s="528"/>
-      <c r="E2" s="528"/>
-      <c r="F2" s="528"/>
-      <c r="G2" s="528"/>
-      <c r="H2" s="528"/>
-      <c r="I2" s="528"/>
-      <c r="J2" s="528"/>
-      <c r="K2" s="528"/>
-      <c r="L2" s="528"/>
-      <c r="M2" s="528"/>
-      <c r="N2" s="528"/>
-      <c r="O2" s="528"/>
-      <c r="P2" s="528"/>
-      <c r="Q2" s="528"/>
-      <c r="R2" s="528"/>
-      <c r="S2" s="528"/>
-      <c r="T2" s="528"/>
-      <c r="U2" s="528"/>
-      <c r="V2" s="528"/>
+      <c r="C2" s="520"/>
+      <c r="D2" s="520"/>
+      <c r="E2" s="520"/>
+      <c r="F2" s="520"/>
+      <c r="G2" s="520"/>
+      <c r="H2" s="520"/>
+      <c r="I2" s="520"/>
+      <c r="J2" s="520"/>
+      <c r="K2" s="520"/>
+      <c r="L2" s="520"/>
+      <c r="M2" s="520"/>
+      <c r="N2" s="520"/>
+      <c r="O2" s="520"/>
+      <c r="P2" s="520"/>
+      <c r="Q2" s="520"/>
+      <c r="R2" s="520"/>
+      <c r="S2" s="520"/>
+      <c r="T2" s="520"/>
+      <c r="U2" s="520"/>
+      <c r="V2" s="520"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -22770,22 +23287,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="509" t="s">
+      <c r="G5" s="523" t="s">
         <v>518</v>
       </c>
-      <c r="H5" s="509"/>
-      <c r="I5" s="509" t="s">
+      <c r="H5" s="523"/>
+      <c r="I5" s="523" t="s">
         <v>519</v>
       </c>
-      <c r="J5" s="509"/>
-      <c r="K5" s="509"/>
-      <c r="L5" s="509"/>
-      <c r="M5" s="509"/>
-      <c r="N5" s="509"/>
-      <c r="O5" s="509" t="s">
+      <c r="J5" s="523"/>
+      <c r="K5" s="523"/>
+      <c r="L5" s="523"/>
+      <c r="M5" s="523"/>
+      <c r="N5" s="523"/>
+      <c r="O5" s="523" t="s">
         <v>520</v>
       </c>
-      <c r="P5" s="509"/>
+      <c r="P5" s="523"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -22797,7 +23314,7 @@
       <c r="D6" s="135"/>
       <c r="E6" s="136"/>
       <c r="F6" s="138"/>
-      <c r="G6" s="510" t="s">
+      <c r="G6" s="528" t="s">
         <v>521</v>
       </c>
       <c r="H6" s="111"/>
@@ -22826,26 +23343,26 @@
       </c>
       <c r="E7" s="138"/>
       <c r="F7" s="138"/>
-      <c r="G7" s="434"/>
-      <c r="H7" s="511" t="s">
+      <c r="G7" s="435"/>
+      <c r="H7" s="529" t="s">
         <v>523</v>
       </c>
-      <c r="I7" s="514" t="s">
+      <c r="I7" s="532" t="s">
         <v>524</v>
       </c>
-      <c r="J7" s="515"/>
-      <c r="K7" s="516" t="s">
+      <c r="J7" s="533"/>
+      <c r="K7" s="534" t="s">
         <v>525</v>
       </c>
-      <c r="L7" s="517"/>
-      <c r="M7" s="514" t="s">
+      <c r="L7" s="535"/>
+      <c r="M7" s="532" t="s">
         <v>526</v>
       </c>
-      <c r="N7" s="515"/>
-      <c r="O7" s="522" t="s">
+      <c r="N7" s="533"/>
+      <c r="O7" s="540" t="s">
         <v>527</v>
       </c>
-      <c r="P7" s="523"/>
+      <c r="P7" s="541"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -22857,16 +23374,16 @@
       <c r="D8" s="139"/>
       <c r="E8" s="140"/>
       <c r="F8" s="138"/>
-      <c r="G8" s="434"/>
-      <c r="H8" s="512"/>
-      <c r="I8" s="429"/>
-      <c r="J8" s="431"/>
-      <c r="K8" s="518"/>
-      <c r="L8" s="519"/>
-      <c r="M8" s="429"/>
-      <c r="N8" s="431"/>
-      <c r="O8" s="524"/>
-      <c r="P8" s="525"/>
+      <c r="G8" s="435"/>
+      <c r="H8" s="530"/>
+      <c r="I8" s="430"/>
+      <c r="J8" s="432"/>
+      <c r="K8" s="536"/>
+      <c r="L8" s="537"/>
+      <c r="M8" s="430"/>
+      <c r="N8" s="432"/>
+      <c r="O8" s="542"/>
+      <c r="P8" s="543"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="38" t="s">
         <v>182</v>
@@ -22884,16 +23401,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="434"/>
-      <c r="H9" s="512"/>
-      <c r="I9" s="429"/>
-      <c r="J9" s="431"/>
-      <c r="K9" s="518"/>
-      <c r="L9" s="519"/>
-      <c r="M9" s="429"/>
-      <c r="N9" s="431"/>
-      <c r="O9" s="524"/>
-      <c r="P9" s="525"/>
+      <c r="G9" s="435"/>
+      <c r="H9" s="530"/>
+      <c r="I9" s="430"/>
+      <c r="J9" s="432"/>
+      <c r="K9" s="536"/>
+      <c r="L9" s="537"/>
+      <c r="M9" s="430"/>
+      <c r="N9" s="432"/>
+      <c r="O9" s="542"/>
+      <c r="P9" s="543"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -22913,16 +23430,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="434"/>
-      <c r="H10" s="512"/>
-      <c r="I10" s="429"/>
-      <c r="J10" s="431"/>
-      <c r="K10" s="518"/>
-      <c r="L10" s="519"/>
-      <c r="M10" s="429"/>
-      <c r="N10" s="431"/>
-      <c r="O10" s="524"/>
-      <c r="P10" s="525"/>
+      <c r="G10" s="435"/>
+      <c r="H10" s="530"/>
+      <c r="I10" s="430"/>
+      <c r="J10" s="432"/>
+      <c r="K10" s="536"/>
+      <c r="L10" s="537"/>
+      <c r="M10" s="430"/>
+      <c r="N10" s="432"/>
+      <c r="O10" s="542"/>
+      <c r="P10" s="543"/>
       <c r="Q10" s="5" t="s">
         <v>187</v>
       </c>
@@ -22938,16 +23455,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="434"/>
-      <c r="H11" s="512"/>
-      <c r="I11" s="429"/>
-      <c r="J11" s="431"/>
-      <c r="K11" s="518"/>
-      <c r="L11" s="519"/>
-      <c r="M11" s="429"/>
-      <c r="N11" s="431"/>
-      <c r="O11" s="524"/>
-      <c r="P11" s="525"/>
+      <c r="G11" s="435"/>
+      <c r="H11" s="530"/>
+      <c r="I11" s="430"/>
+      <c r="J11" s="432"/>
+      <c r="K11" s="536"/>
+      <c r="L11" s="537"/>
+      <c r="M11" s="430"/>
+      <c r="N11" s="432"/>
+      <c r="O11" s="542"/>
+      <c r="P11" s="543"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -22965,16 +23482,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="434"/>
-      <c r="H12" s="512"/>
-      <c r="I12" s="429"/>
-      <c r="J12" s="431"/>
-      <c r="K12" s="518"/>
-      <c r="L12" s="519"/>
-      <c r="M12" s="429"/>
-      <c r="N12" s="431"/>
-      <c r="O12" s="524"/>
-      <c r="P12" s="525"/>
+      <c r="G12" s="435"/>
+      <c r="H12" s="530"/>
+      <c r="I12" s="430"/>
+      <c r="J12" s="432"/>
+      <c r="K12" s="536"/>
+      <c r="L12" s="537"/>
+      <c r="M12" s="430"/>
+      <c r="N12" s="432"/>
+      <c r="O12" s="542"/>
+      <c r="P12" s="543"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -22988,16 +23505,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="434"/>
-      <c r="H13" s="512"/>
-      <c r="I13" s="429"/>
-      <c r="J13" s="431"/>
-      <c r="K13" s="518"/>
-      <c r="L13" s="519"/>
-      <c r="M13" s="429"/>
-      <c r="N13" s="431"/>
-      <c r="O13" s="524"/>
-      <c r="P13" s="525"/>
+      <c r="G13" s="435"/>
+      <c r="H13" s="530"/>
+      <c r="I13" s="430"/>
+      <c r="J13" s="432"/>
+      <c r="K13" s="536"/>
+      <c r="L13" s="537"/>
+      <c r="M13" s="430"/>
+      <c r="N13" s="432"/>
+      <c r="O13" s="542"/>
+      <c r="P13" s="543"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -23009,16 +23526,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="434"/>
-      <c r="H14" s="512"/>
-      <c r="I14" s="429"/>
-      <c r="J14" s="431"/>
-      <c r="K14" s="518"/>
-      <c r="L14" s="519"/>
-      <c r="M14" s="429"/>
-      <c r="N14" s="431"/>
-      <c r="O14" s="524"/>
-      <c r="P14" s="525"/>
+      <c r="G14" s="435"/>
+      <c r="H14" s="530"/>
+      <c r="I14" s="430"/>
+      <c r="J14" s="432"/>
+      <c r="K14" s="536"/>
+      <c r="L14" s="537"/>
+      <c r="M14" s="430"/>
+      <c r="N14" s="432"/>
+      <c r="O14" s="542"/>
+      <c r="P14" s="543"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -23032,16 +23549,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="434"/>
-      <c r="H15" s="512"/>
-      <c r="I15" s="429"/>
-      <c r="J15" s="431"/>
-      <c r="K15" s="518"/>
-      <c r="L15" s="519"/>
-      <c r="M15" s="429"/>
-      <c r="N15" s="431"/>
-      <c r="O15" s="524"/>
-      <c r="P15" s="525"/>
+      <c r="G15" s="435"/>
+      <c r="H15" s="530"/>
+      <c r="I15" s="430"/>
+      <c r="J15" s="432"/>
+      <c r="K15" s="536"/>
+      <c r="L15" s="537"/>
+      <c r="M15" s="430"/>
+      <c r="N15" s="432"/>
+      <c r="O15" s="542"/>
+      <c r="P15" s="543"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -23053,16 +23570,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="434"/>
-      <c r="H16" s="512"/>
-      <c r="I16" s="429"/>
-      <c r="J16" s="431"/>
-      <c r="K16" s="518"/>
-      <c r="L16" s="519"/>
-      <c r="M16" s="429"/>
-      <c r="N16" s="431"/>
-      <c r="O16" s="524"/>
-      <c r="P16" s="525"/>
+      <c r="G16" s="435"/>
+      <c r="H16" s="530"/>
+      <c r="I16" s="430"/>
+      <c r="J16" s="432"/>
+      <c r="K16" s="536"/>
+      <c r="L16" s="537"/>
+      <c r="M16" s="430"/>
+      <c r="N16" s="432"/>
+      <c r="O16" s="542"/>
+      <c r="P16" s="543"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -23074,16 +23591,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="434"/>
-      <c r="H17" s="512"/>
-      <c r="I17" s="429"/>
-      <c r="J17" s="431"/>
-      <c r="K17" s="518"/>
-      <c r="L17" s="519"/>
-      <c r="M17" s="429"/>
-      <c r="N17" s="431"/>
-      <c r="O17" s="524"/>
-      <c r="P17" s="525"/>
+      <c r="G17" s="435"/>
+      <c r="H17" s="530"/>
+      <c r="I17" s="430"/>
+      <c r="J17" s="432"/>
+      <c r="K17" s="536"/>
+      <c r="L17" s="537"/>
+      <c r="M17" s="430"/>
+      <c r="N17" s="432"/>
+      <c r="O17" s="542"/>
+      <c r="P17" s="543"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -23095,16 +23612,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="434"/>
-      <c r="H18" s="512"/>
-      <c r="I18" s="429"/>
-      <c r="J18" s="431"/>
-      <c r="K18" s="518"/>
-      <c r="L18" s="519"/>
-      <c r="M18" s="429"/>
-      <c r="N18" s="431"/>
-      <c r="O18" s="524"/>
-      <c r="P18" s="525"/>
+      <c r="G18" s="435"/>
+      <c r="H18" s="530"/>
+      <c r="I18" s="430"/>
+      <c r="J18" s="432"/>
+      <c r="K18" s="536"/>
+      <c r="L18" s="537"/>
+      <c r="M18" s="430"/>
+      <c r="N18" s="432"/>
+      <c r="O18" s="542"/>
+      <c r="P18" s="543"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -23118,16 +23635,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="434"/>
-      <c r="H19" s="512"/>
-      <c r="I19" s="429"/>
-      <c r="J19" s="431"/>
-      <c r="K19" s="518"/>
-      <c r="L19" s="519"/>
-      <c r="M19" s="429"/>
-      <c r="N19" s="431"/>
-      <c r="O19" s="524"/>
-      <c r="P19" s="525"/>
+      <c r="G19" s="435"/>
+      <c r="H19" s="530"/>
+      <c r="I19" s="430"/>
+      <c r="J19" s="432"/>
+      <c r="K19" s="536"/>
+      <c r="L19" s="537"/>
+      <c r="M19" s="430"/>
+      <c r="N19" s="432"/>
+      <c r="O19" s="542"/>
+      <c r="P19" s="543"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -23139,16 +23656,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="435"/>
-      <c r="H20" s="513"/>
-      <c r="I20" s="450"/>
-      <c r="J20" s="452"/>
-      <c r="K20" s="520"/>
-      <c r="L20" s="521"/>
-      <c r="M20" s="450"/>
-      <c r="N20" s="452"/>
-      <c r="O20" s="526"/>
-      <c r="P20" s="527"/>
+      <c r="G20" s="436"/>
+      <c r="H20" s="531"/>
+      <c r="I20" s="451"/>
+      <c r="J20" s="453"/>
+      <c r="K20" s="538"/>
+      <c r="L20" s="539"/>
+      <c r="M20" s="451"/>
+      <c r="N20" s="453"/>
+      <c r="O20" s="544"/>
+      <c r="P20" s="545"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -23178,27 +23695,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="453" t="s">
+      <c r="D22" s="454" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="454"/>
+      <c r="E22" s="455"/>
       <c r="F22" s="265"/>
       <c r="G22" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="453" t="s">
+      <c r="H22" s="454" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="455"/>
-      <c r="J22" s="455"/>
-      <c r="K22" s="455"/>
-      <c r="L22" s="455"/>
-      <c r="M22" s="455"/>
-      <c r="N22" s="454"/>
-      <c r="O22" s="453" t="s">
+      <c r="I22" s="456"/>
+      <c r="J22" s="456"/>
+      <c r="K22" s="456"/>
+      <c r="L22" s="456"/>
+      <c r="M22" s="456"/>
+      <c r="N22" s="455"/>
+      <c r="O22" s="454" t="s">
         <v>528</v>
       </c>
-      <c r="P22" s="454"/>
+      <c r="P22" s="455"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -23229,59 +23746,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="528" t="s">
+      <c r="B25" s="520" t="s">
         <v>1074</v>
       </c>
-      <c r="C25" s="528"/>
-      <c r="D25" s="528"/>
-      <c r="E25" s="528"/>
-      <c r="F25" s="528"/>
-      <c r="G25" s="528"/>
-      <c r="H25" s="528"/>
-      <c r="I25" s="528"/>
-      <c r="J25" s="528"/>
-      <c r="K25" s="528"/>
-      <c r="L25" s="528"/>
-      <c r="M25" s="528"/>
-      <c r="N25" s="528"/>
-      <c r="O25" s="528"/>
-      <c r="P25" s="528"/>
-      <c r="Q25" s="528"/>
-      <c r="R25" s="528"/>
-      <c r="S25" s="528"/>
-      <c r="T25" s="528"/>
-      <c r="U25" s="528"/>
-      <c r="V25" s="528"/>
+      <c r="C25" s="520"/>
+      <c r="D25" s="520"/>
+      <c r="E25" s="520"/>
+      <c r="F25" s="520"/>
+      <c r="G25" s="520"/>
+      <c r="H25" s="520"/>
+      <c r="I25" s="520"/>
+      <c r="J25" s="520"/>
+      <c r="K25" s="520"/>
+      <c r="L25" s="520"/>
+      <c r="M25" s="520"/>
+      <c r="N25" s="520"/>
+      <c r="O25" s="520"/>
+      <c r="P25" s="520"/>
+      <c r="Q25" s="520"/>
+      <c r="R25" s="520"/>
+      <c r="S25" s="520"/>
+      <c r="T25" s="520"/>
+      <c r="U25" s="520"/>
+      <c r="V25" s="520"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="529" t="s">
+      <c r="C26" s="521" t="s">
         <v>570</v>
       </c>
-      <c r="D26" s="529"/>
-      <c r="E26" s="529"/>
-      <c r="F26" s="529"/>
-      <c r="G26" s="529"/>
-      <c r="H26" s="529"/>
-      <c r="I26" s="529"/>
-      <c r="J26" s="529"/>
-      <c r="K26" s="529"/>
-      <c r="L26" s="529"/>
-      <c r="M26" s="529"/>
+      <c r="D26" s="521"/>
+      <c r="E26" s="521"/>
+      <c r="F26" s="521"/>
+      <c r="G26" s="521"/>
+      <c r="H26" s="521"/>
+      <c r="I26" s="521"/>
+      <c r="J26" s="521"/>
+      <c r="K26" s="521"/>
+      <c r="L26" s="521"/>
+      <c r="M26" s="521"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="481" t="s">
+      <c r="E27" s="489" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="425"/>
-      <c r="G27" s="425"/>
-      <c r="H27" s="444"/>
-      <c r="I27" s="444"/>
-      <c r="J27" s="444"/>
-      <c r="K27" s="444"/>
-      <c r="L27" s="444"/>
-      <c r="M27" s="445"/>
+      <c r="F27" s="426"/>
+      <c r="G27" s="426"/>
+      <c r="H27" s="445"/>
+      <c r="I27" s="445"/>
+      <c r="J27" s="445"/>
+      <c r="K27" s="445"/>
+      <c r="L27" s="445"/>
+      <c r="M27" s="446"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -23314,11 +23831,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="530" t="s">
+      <c r="O29" s="522" t="s">
         <v>179</v>
       </c>
-      <c r="P29" s="530"/>
-      <c r="Q29" s="530"/>
+      <c r="P29" s="522"/>
+      <c r="Q29" s="522"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -23363,21 +23880,21 @@
         <v>190</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="534" t="s">
+      <c r="E32" s="517" t="s">
         <v>1078</v>
       </c>
-      <c r="F32" s="535"/>
-      <c r="G32" s="536"/>
-      <c r="H32" s="534" t="s">
+      <c r="F32" s="518"/>
+      <c r="G32" s="519"/>
+      <c r="H32" s="517" t="s">
         <v>1079</v>
       </c>
-      <c r="I32" s="535"/>
-      <c r="J32" s="536"/>
-      <c r="K32" s="534" t="s">
+      <c r="I32" s="518"/>
+      <c r="J32" s="519"/>
+      <c r="K32" s="517" t="s">
         <v>1080</v>
       </c>
-      <c r="L32" s="535"/>
-      <c r="M32" s="536"/>
+      <c r="L32" s="518"/>
+      <c r="M32" s="519"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -23394,15 +23911,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="534"/>
-      <c r="F33" s="535"/>
-      <c r="G33" s="536"/>
-      <c r="H33" s="534"/>
-      <c r="I33" s="535"/>
-      <c r="J33" s="536"/>
-      <c r="K33" s="534"/>
-      <c r="L33" s="535"/>
-      <c r="M33" s="536"/>
+      <c r="E33" s="517"/>
+      <c r="F33" s="518"/>
+      <c r="G33" s="519"/>
+      <c r="H33" s="517"/>
+      <c r="I33" s="518"/>
+      <c r="J33" s="519"/>
+      <c r="K33" s="517"/>
+      <c r="L33" s="518"/>
+      <c r="M33" s="519"/>
       <c r="N33" s="5" t="s">
         <v>187</v>
       </c>
@@ -23419,15 +23936,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="534"/>
-      <c r="F34" s="535"/>
-      <c r="G34" s="536"/>
-      <c r="H34" s="534"/>
-      <c r="I34" s="535"/>
-      <c r="J34" s="536"/>
-      <c r="K34" s="534"/>
-      <c r="L34" s="535"/>
-      <c r="M34" s="536"/>
+      <c r="E34" s="517"/>
+      <c r="F34" s="518"/>
+      <c r="G34" s="519"/>
+      <c r="H34" s="517"/>
+      <c r="I34" s="518"/>
+      <c r="J34" s="519"/>
+      <c r="K34" s="517"/>
+      <c r="L34" s="518"/>
+      <c r="M34" s="519"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -23438,15 +23955,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="534"/>
-      <c r="F35" s="535"/>
-      <c r="G35" s="536"/>
-      <c r="H35" s="534"/>
-      <c r="I35" s="535"/>
-      <c r="J35" s="536"/>
-      <c r="K35" s="534"/>
-      <c r="L35" s="535"/>
-      <c r="M35" s="536"/>
+      <c r="E35" s="517"/>
+      <c r="F35" s="518"/>
+      <c r="G35" s="519"/>
+      <c r="H35" s="517"/>
+      <c r="I35" s="518"/>
+      <c r="J35" s="519"/>
+      <c r="K35" s="517"/>
+      <c r="L35" s="518"/>
+      <c r="M35" s="519"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -23577,15 +24094,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="538"/>
-      <c r="F42" s="539"/>
-      <c r="G42" s="539"/>
-      <c r="H42" s="539"/>
-      <c r="I42" s="539"/>
-      <c r="J42" s="539"/>
-      <c r="K42" s="539"/>
-      <c r="L42" s="539"/>
-      <c r="M42" s="540"/>
+      <c r="E42" s="510"/>
+      <c r="F42" s="511"/>
+      <c r="G42" s="511"/>
+      <c r="H42" s="511"/>
+      <c r="I42" s="511"/>
+      <c r="J42" s="511"/>
+      <c r="K42" s="511"/>
+      <c r="L42" s="511"/>
+      <c r="M42" s="512"/>
       <c r="N42" s="40" t="s">
         <v>575</v>
       </c>
@@ -23604,83 +24121,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="453" t="s">
+      <c r="C44" s="454" t="s">
         <v>194</v>
       </c>
-      <c r="D44" s="454"/>
-      <c r="E44" s="453" t="s">
+      <c r="D44" s="455"/>
+      <c r="E44" s="454" t="s">
         <v>195</v>
       </c>
-      <c r="F44" s="455"/>
-      <c r="G44" s="454"/>
-      <c r="H44" s="453" t="s">
+      <c r="F44" s="456"/>
+      <c r="G44" s="455"/>
+      <c r="H44" s="454" t="s">
         <v>196</v>
       </c>
-      <c r="I44" s="455"/>
-      <c r="J44" s="455"/>
-      <c r="K44" s="455"/>
-      <c r="L44" s="455"/>
-      <c r="M44" s="454"/>
+      <c r="I44" s="456"/>
+      <c r="J44" s="456"/>
+      <c r="K44" s="456"/>
+      <c r="L44" s="456"/>
+      <c r="M44" s="455"/>
       <c r="Q44" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="528" t="s">
+      <c r="B47" s="520" t="s">
         <v>1076</v>
       </c>
-      <c r="C47" s="528"/>
-      <c r="D47" s="528"/>
-      <c r="E47" s="528"/>
-      <c r="F47" s="528"/>
-      <c r="G47" s="528"/>
-      <c r="H47" s="528"/>
-      <c r="I47" s="528"/>
-      <c r="J47" s="528"/>
-      <c r="K47" s="528"/>
-      <c r="L47" s="528"/>
-      <c r="M47" s="528"/>
-      <c r="N47" s="528"/>
-      <c r="O47" s="528"/>
-      <c r="P47" s="528"/>
-      <c r="Q47" s="528"/>
-      <c r="R47" s="528"/>
-      <c r="S47" s="528"/>
-      <c r="T47" s="528"/>
-      <c r="U47" s="528"/>
-      <c r="V47" s="528"/>
+      <c r="C47" s="520"/>
+      <c r="D47" s="520"/>
+      <c r="E47" s="520"/>
+      <c r="F47" s="520"/>
+      <c r="G47" s="520"/>
+      <c r="H47" s="520"/>
+      <c r="I47" s="520"/>
+      <c r="J47" s="520"/>
+      <c r="K47" s="520"/>
+      <c r="L47" s="520"/>
+      <c r="M47" s="520"/>
+      <c r="N47" s="520"/>
+      <c r="O47" s="520"/>
+      <c r="P47" s="520"/>
+      <c r="Q47" s="520"/>
+      <c r="R47" s="520"/>
+      <c r="S47" s="520"/>
+      <c r="T47" s="520"/>
+      <c r="U47" s="520"/>
+      <c r="V47" s="520"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="529" t="s">
+      <c r="C48" s="521" t="s">
         <v>570</v>
       </c>
-      <c r="D48" s="529"/>
-      <c r="E48" s="529"/>
-      <c r="F48" s="529"/>
-      <c r="G48" s="529"/>
-      <c r="H48" s="529"/>
-      <c r="I48" s="529"/>
-      <c r="J48" s="529"/>
-      <c r="K48" s="529"/>
-      <c r="L48" s="529"/>
-      <c r="M48" s="529"/>
+      <c r="D48" s="521"/>
+      <c r="E48" s="521"/>
+      <c r="F48" s="521"/>
+      <c r="G48" s="521"/>
+      <c r="H48" s="521"/>
+      <c r="I48" s="521"/>
+      <c r="J48" s="521"/>
+      <c r="K48" s="521"/>
+      <c r="L48" s="521"/>
+      <c r="M48" s="521"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="481" t="s">
+      <c r="E49" s="489" t="s">
         <v>178</v>
       </c>
-      <c r="F49" s="425"/>
-      <c r="G49" s="425"/>
-      <c r="H49" s="444"/>
-      <c r="I49" s="444"/>
-      <c r="J49" s="444"/>
-      <c r="K49" s="444"/>
-      <c r="L49" s="444"/>
-      <c r="M49" s="445"/>
+      <c r="F49" s="426"/>
+      <c r="G49" s="426"/>
+      <c r="H49" s="445"/>
+      <c r="I49" s="445"/>
+      <c r="J49" s="445"/>
+      <c r="K49" s="445"/>
+      <c r="L49" s="445"/>
+      <c r="M49" s="446"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -23698,16 +24215,16 @@
       </c>
       <c r="F50" s="122"/>
       <c r="G50" s="245"/>
-      <c r="H50" s="531" t="s">
+      <c r="H50" s="524" t="s">
         <v>1079</v>
       </c>
-      <c r="I50" s="532"/>
-      <c r="J50" s="533"/>
-      <c r="K50" s="531" t="s">
+      <c r="I50" s="525"/>
+      <c r="J50" s="526"/>
+      <c r="K50" s="524" t="s">
         <v>1080</v>
       </c>
-      <c r="L50" s="532"/>
-      <c r="M50" s="533"/>
+      <c r="L50" s="525"/>
+      <c r="M50" s="526"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -23721,20 +24238,20 @@
         <v>1094</v>
       </c>
       <c r="F51" s="286"/>
-      <c r="G51" s="537" t="s">
+      <c r="G51" s="527" t="s">
         <v>1102</v>
       </c>
-      <c r="H51" s="534"/>
-      <c r="I51" s="535"/>
-      <c r="J51" s="536"/>
-      <c r="K51" s="534"/>
-      <c r="L51" s="535"/>
-      <c r="M51" s="536"/>
-      <c r="O51" s="530" t="s">
+      <c r="H51" s="517"/>
+      <c r="I51" s="518"/>
+      <c r="J51" s="519"/>
+      <c r="K51" s="517"/>
+      <c r="L51" s="518"/>
+      <c r="M51" s="519"/>
+      <c r="O51" s="522" t="s">
         <v>179</v>
       </c>
-      <c r="P51" s="530"/>
-      <c r="Q51" s="530"/>
+      <c r="P51" s="522"/>
+      <c r="Q51" s="522"/>
       <c r="S51" s="273"/>
       <c r="T51" s="273"/>
       <c r="W51" s="40" t="s">
@@ -23748,13 +24265,13 @@
         <v>1095</v>
       </c>
       <c r="F52" s="287"/>
-      <c r="G52" s="537"/>
-      <c r="H52" s="534"/>
-      <c r="I52" s="535"/>
-      <c r="J52" s="536"/>
-      <c r="K52" s="534"/>
-      <c r="L52" s="535"/>
-      <c r="M52" s="536"/>
+      <c r="G52" s="527"/>
+      <c r="H52" s="517"/>
+      <c r="I52" s="518"/>
+      <c r="J52" s="519"/>
+      <c r="K52" s="517"/>
+      <c r="L52" s="518"/>
+      <c r="M52" s="519"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -23765,13 +24282,13 @@
         <v>1096</v>
       </c>
       <c r="F53" s="288"/>
-      <c r="G53" s="537"/>
-      <c r="H53" s="534"/>
-      <c r="I53" s="535"/>
-      <c r="J53" s="536"/>
-      <c r="K53" s="534"/>
-      <c r="L53" s="535"/>
-      <c r="M53" s="536"/>
+      <c r="G53" s="527"/>
+      <c r="H53" s="517"/>
+      <c r="I53" s="518"/>
+      <c r="J53" s="519"/>
+      <c r="K53" s="517"/>
+      <c r="L53" s="518"/>
+      <c r="M53" s="519"/>
       <c r="N53" s="5"/>
       <c r="O53" s="38" t="s">
         <v>182</v>
@@ -23810,7 +24327,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="274"/>
       <c r="F54" s="289"/>
-      <c r="G54" s="543" t="s">
+      <c r="G54" s="515" t="s">
         <v>1106</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -23857,11 +24374,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="541" t="s">
+      <c r="E55" s="513" t="s">
         <v>1107</v>
       </c>
-      <c r="F55" s="542"/>
-      <c r="G55" s="544"/>
+      <c r="F55" s="514"/>
+      <c r="G55" s="516"/>
       <c r="H55" s="141" t="s">
         <v>1098</v>
       </c>
@@ -23905,9 +24422,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="541"/>
-      <c r="F56" s="542"/>
-      <c r="G56" s="544"/>
+      <c r="E56" s="513"/>
+      <c r="F56" s="514"/>
+      <c r="G56" s="516"/>
       <c r="H56" s="141" t="s">
         <v>1099</v>
       </c>
@@ -23937,9 +24454,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="541"/>
-      <c r="F57" s="542"/>
-      <c r="G57" s="544"/>
+      <c r="E57" s="513"/>
+      <c r="F57" s="514"/>
+      <c r="G57" s="516"/>
       <c r="H57" s="4" t="s">
         <v>1111</v>
       </c>
@@ -23969,9 +24486,9 @@
         <v>192</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="541"/>
-      <c r="F58" s="542"/>
-      <c r="G58" s="544"/>
+      <c r="E58" s="513"/>
+      <c r="F58" s="514"/>
+      <c r="G58" s="516"/>
       <c r="H58" s="278" t="s">
         <v>1097</v>
       </c>
@@ -23996,9 +24513,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="541"/>
-      <c r="F59" s="542"/>
-      <c r="G59" s="544"/>
+      <c r="E59" s="513"/>
+      <c r="F59" s="514"/>
+      <c r="G59" s="516"/>
       <c r="H59" s="278" t="s">
         <v>549</v>
       </c>
@@ -24023,9 +24540,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="541"/>
-      <c r="F60" s="542"/>
-      <c r="G60" s="544"/>
+      <c r="E60" s="513"/>
+      <c r="F60" s="514"/>
+      <c r="G60" s="516"/>
       <c r="H60" s="280"/>
       <c r="I60" s="281" t="s">
         <v>1113</v>
@@ -24045,9 +24562,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="541"/>
-      <c r="F61" s="542"/>
-      <c r="G61" s="544"/>
+      <c r="E61" s="513"/>
+      <c r="F61" s="514"/>
+      <c r="G61" s="516"/>
       <c r="H61" s="280"/>
       <c r="I61" s="281" t="s">
         <v>1114</v>
@@ -24067,7 +24584,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="269"/>
       <c r="F62" s="285"/>
-      <c r="G62" s="544"/>
+      <c r="G62" s="516"/>
       <c r="H62" s="282"/>
       <c r="I62" s="284" t="s">
         <v>1115</v>
@@ -24109,15 +24626,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="538"/>
-      <c r="F64" s="539"/>
-      <c r="G64" s="539"/>
-      <c r="H64" s="539"/>
-      <c r="I64" s="539"/>
-      <c r="J64" s="539"/>
-      <c r="K64" s="539"/>
-      <c r="L64" s="539"/>
-      <c r="M64" s="540"/>
+      <c r="E64" s="510"/>
+      <c r="F64" s="511"/>
+      <c r="G64" s="511"/>
+      <c r="H64" s="511"/>
+      <c r="I64" s="511"/>
+      <c r="J64" s="511"/>
+      <c r="K64" s="511"/>
+      <c r="L64" s="511"/>
+      <c r="M64" s="512"/>
       <c r="N64" s="40" t="s">
         <v>575</v>
       </c>
@@ -24146,23 +24663,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="453" t="s">
+      <c r="C66" s="454" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="454"/>
-      <c r="E66" s="453" t="s">
+      <c r="D66" s="455"/>
+      <c r="E66" s="454" t="s">
         <v>195</v>
       </c>
-      <c r="F66" s="455"/>
-      <c r="G66" s="454"/>
-      <c r="H66" s="453" t="s">
+      <c r="F66" s="456"/>
+      <c r="G66" s="455"/>
+      <c r="H66" s="454" t="s">
         <v>196</v>
       </c>
-      <c r="I66" s="455"/>
-      <c r="J66" s="455"/>
-      <c r="K66" s="455"/>
-      <c r="L66" s="455"/>
-      <c r="M66" s="454"/>
+      <c r="I66" s="456"/>
+      <c r="J66" s="456"/>
+      <c r="K66" s="456"/>
+      <c r="L66" s="456"/>
+      <c r="M66" s="455"/>
       <c r="Q66" t="s">
         <v>1077</v>
       </c>
@@ -24183,23 +24700,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="492" t="s">
+      <c r="C68" s="493" t="s">
         <v>181</v>
       </c>
-      <c r="D68" s="492"/>
-      <c r="E68" s="492" t="s">
+      <c r="D68" s="493"/>
+      <c r="E68" s="493" t="s">
         <v>1363</v>
       </c>
-      <c r="F68" s="492"/>
-      <c r="G68" s="492"/>
-      <c r="H68" s="492" t="s">
+      <c r="F68" s="493"/>
+      <c r="G68" s="493"/>
+      <c r="H68" s="493" t="s">
         <v>1379</v>
       </c>
-      <c r="I68" s="492"/>
-      <c r="J68" s="492"/>
-      <c r="K68" s="492"/>
-      <c r="L68" s="492"/>
-      <c r="M68" s="492"/>
+      <c r="I68" s="493"/>
+      <c r="J68" s="493"/>
+      <c r="K68" s="493"/>
+      <c r="L68" s="493"/>
+      <c r="M68" s="493"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -25370,30 +25887,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -25410,6 +25903,30 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -25434,7 +25951,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25443,12 +25960,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="545" t="s">
+      <c r="B1" s="546" t="s">
         <v>538</v>
       </c>
-      <c r="C1" s="545"/>
-      <c r="D1" s="545"/>
-      <c r="E1" s="545"/>
+      <c r="C1" s="546"/>
+      <c r="D1" s="546"/>
+      <c r="E1" s="546"/>
       <c r="I1" s="40" t="s">
         <v>551</v>
       </c>
@@ -25565,12 +26082,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="491" t="s">
+      <c r="B8" s="488" t="s">
         <v>1401</v>
       </c>
-      <c r="C8" s="491"/>
-      <c r="D8" s="491"/>
-      <c r="E8" s="491"/>
+      <c r="C8" s="488"/>
+      <c r="D8" s="488"/>
+      <c r="E8" s="488"/>
       <c r="J8" s="32" t="s">
         <v>554</v>
       </c>
@@ -25736,39 +26253,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="529" t="s">
+      <c r="C2" s="521" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="529"/>
-      <c r="E2" s="529"/>
-      <c r="F2" s="529"/>
-      <c r="G2" s="529"/>
-      <c r="H2" s="529"/>
-      <c r="I2" s="529"/>
-      <c r="J2" s="529"/>
-      <c r="K2" s="529"/>
-      <c r="L2" s="529"/>
+      <c r="D2" s="521"/>
+      <c r="E2" s="521"/>
+      <c r="F2" s="521"/>
+      <c r="G2" s="521"/>
+      <c r="H2" s="521"/>
+      <c r="I2" s="521"/>
+      <c r="J2" s="521"/>
+      <c r="K2" s="521"/>
+      <c r="L2" s="521"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="481" t="s">
+      <c r="E3" s="489" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="425"/>
-      <c r="G3" s="444"/>
-      <c r="H3" s="444"/>
-      <c r="I3" s="444"/>
-      <c r="J3" s="444"/>
-      <c r="K3" s="444"/>
-      <c r="L3" s="445"/>
+      <c r="F3" s="426"/>
+      <c r="G3" s="445"/>
+      <c r="H3" s="445"/>
+      <c r="I3" s="445"/>
+      <c r="J3" s="445"/>
+      <c r="K3" s="445"/>
+      <c r="L3" s="446"/>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
@@ -25799,11 +26316,11 @@
         <v>589</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="530" t="s">
+      <c r="N5" s="522" t="s">
         <v>179</v>
       </c>
-      <c r="O5" s="530"/>
-      <c r="P5" s="530"/>
+      <c r="O5" s="522"/>
+      <c r="P5" s="522"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -25854,20 +26371,20 @@
         <v>190</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="534" t="s">
+      <c r="E8" s="517" t="s">
         <v>571</v>
       </c>
-      <c r="F8" s="536"/>
-      <c r="G8" s="534" t="s">
+      <c r="F8" s="519"/>
+      <c r="G8" s="517" t="s">
         <v>572</v>
       </c>
-      <c r="H8" s="535"/>
-      <c r="I8" s="536"/>
-      <c r="J8" s="534" t="s">
+      <c r="H8" s="518"/>
+      <c r="I8" s="519"/>
+      <c r="J8" s="517" t="s">
         <v>573</v>
       </c>
-      <c r="K8" s="535"/>
-      <c r="L8" s="536"/>
+      <c r="K8" s="518"/>
+      <c r="L8" s="519"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -25890,14 +26407,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="534"/>
-      <c r="F9" s="536"/>
-      <c r="G9" s="534"/>
-      <c r="H9" s="535"/>
-      <c r="I9" s="536"/>
-      <c r="J9" s="534"/>
-      <c r="K9" s="535"/>
-      <c r="L9" s="536"/>
+      <c r="E9" s="517"/>
+      <c r="F9" s="519"/>
+      <c r="G9" s="517"/>
+      <c r="H9" s="518"/>
+      <c r="I9" s="519"/>
+      <c r="J9" s="517"/>
+      <c r="K9" s="518"/>
+      <c r="L9" s="519"/>
       <c r="M9" s="5" t="s">
         <v>187</v>
       </c>
@@ -25917,14 +26434,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="534"/>
-      <c r="F10" s="536"/>
-      <c r="G10" s="534"/>
-      <c r="H10" s="535"/>
-      <c r="I10" s="536"/>
-      <c r="J10" s="534"/>
-      <c r="K10" s="535"/>
-      <c r="L10" s="536"/>
+      <c r="E10" s="517"/>
+      <c r="F10" s="519"/>
+      <c r="G10" s="517"/>
+      <c r="H10" s="518"/>
+      <c r="I10" s="519"/>
+      <c r="J10" s="517"/>
+      <c r="K10" s="518"/>
+      <c r="L10" s="519"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -25938,14 +26455,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="534"/>
-      <c r="F11" s="536"/>
-      <c r="G11" s="534"/>
-      <c r="H11" s="535"/>
-      <c r="I11" s="536"/>
-      <c r="J11" s="534"/>
-      <c r="K11" s="535"/>
-      <c r="L11" s="536"/>
+      <c r="E11" s="517"/>
+      <c r="F11" s="519"/>
+      <c r="G11" s="517"/>
+      <c r="H11" s="518"/>
+      <c r="I11" s="519"/>
+      <c r="J11" s="517"/>
+      <c r="K11" s="518"/>
+      <c r="L11" s="519"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -26048,16 +26565,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="538" t="s">
+      <c r="E17" s="510" t="s">
         <v>574</v>
       </c>
-      <c r="F17" s="539"/>
-      <c r="G17" s="539"/>
-      <c r="H17" s="539"/>
-      <c r="I17" s="539"/>
-      <c r="J17" s="539"/>
-      <c r="K17" s="539"/>
-      <c r="L17" s="540"/>
+      <c r="F17" s="511"/>
+      <c r="G17" s="511"/>
+      <c r="H17" s="511"/>
+      <c r="I17" s="511"/>
+      <c r="J17" s="511"/>
+      <c r="K17" s="511"/>
+      <c r="L17" s="512"/>
       <c r="M17" s="40" t="s">
         <v>575</v>
       </c>
@@ -26075,40 +26592,40 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="453" t="s">
+      <c r="C19" s="454" t="s">
         <v>194</v>
       </c>
-      <c r="D19" s="454"/>
-      <c r="E19" s="453" t="s">
+      <c r="D19" s="455"/>
+      <c r="E19" s="454" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="454"/>
-      <c r="G19" s="453" t="s">
+      <c r="F19" s="455"/>
+      <c r="G19" s="454" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="455"/>
-      <c r="I19" s="455"/>
-      <c r="J19" s="455"/>
-      <c r="K19" s="455"/>
-      <c r="L19" s="454"/>
+      <c r="H19" s="456"/>
+      <c r="I19" s="456"/>
+      <c r="J19" s="456"/>
+      <c r="K19" s="456"/>
+      <c r="L19" s="455"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="546" t="s">
+      <c r="E21" s="547" t="s">
         <v>1392</v>
       </c>
-      <c r="F21" s="547"/>
+      <c r="F21" s="548"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="E22" s="548"/>
-      <c r="F22" s="549"/>
+      <c r="E22" s="549"/>
+      <c r="F22" s="550"/>
       <c r="J22" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="E23" s="548"/>
-      <c r="F23" s="549"/>
+      <c r="E23" s="549"/>
+      <c r="F23" s="550"/>
       <c r="H23" t="s">
         <v>1413</v>
       </c>
@@ -26120,8 +26637,8 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="550"/>
-      <c r="F24" s="551"/>
+      <c r="E24" s="551"/>
+      <c r="F24" s="552"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -26845,22 +27362,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="509" t="s">
+      <c r="E3" s="523" t="s">
         <v>518</v>
       </c>
-      <c r="F3" s="509"/>
-      <c r="G3" s="509" t="s">
+      <c r="F3" s="523"/>
+      <c r="G3" s="523" t="s">
         <v>519</v>
       </c>
-      <c r="H3" s="509"/>
-      <c r="I3" s="509"/>
-      <c r="J3" s="509"/>
-      <c r="K3" s="509"/>
-      <c r="L3" s="509"/>
-      <c r="M3" s="509" t="s">
+      <c r="H3" s="523"/>
+      <c r="I3" s="523"/>
+      <c r="J3" s="523"/>
+      <c r="K3" s="523"/>
+      <c r="L3" s="523"/>
+      <c r="M3" s="523" t="s">
         <v>520</v>
       </c>
-      <c r="N3" s="509"/>
+      <c r="N3" s="523"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -26871,7 +27388,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="135"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="510" t="s">
+      <c r="E4" s="528" t="s">
         <v>521</v>
       </c>
       <c r="F4" s="131"/>
@@ -26899,22 +27416,22 @@
         <v>181</v>
       </c>
       <c r="D5" s="138"/>
-      <c r="E5" s="434"/>
-      <c r="F5" s="466" t="s">
+      <c r="E5" s="435"/>
+      <c r="F5" s="467" t="s">
         <v>617</v>
       </c>
-      <c r="G5" s="467"/>
-      <c r="H5" s="468"/>
-      <c r="I5" s="582" t="s">
+      <c r="G5" s="468"/>
+      <c r="H5" s="469"/>
+      <c r="I5" s="553" t="s">
         <v>618</v>
       </c>
-      <c r="J5" s="583"/>
-      <c r="K5" s="583"/>
-      <c r="L5" s="517"/>
-      <c r="M5" s="582" t="s">
+      <c r="J5" s="554"/>
+      <c r="K5" s="554"/>
+      <c r="L5" s="535"/>
+      <c r="M5" s="553" t="s">
         <v>619</v>
       </c>
-      <c r="N5" s="517"/>
+      <c r="N5" s="535"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -26925,16 +27442,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="139"/>
       <c r="D6" s="140"/>
-      <c r="E6" s="434"/>
-      <c r="F6" s="469"/>
-      <c r="G6" s="470"/>
-      <c r="H6" s="471"/>
-      <c r="I6" s="518"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="584"/>
-      <c r="L6" s="519"/>
-      <c r="M6" s="518"/>
-      <c r="N6" s="519"/>
+      <c r="E6" s="435"/>
+      <c r="F6" s="470"/>
+      <c r="G6" s="471"/>
+      <c r="H6" s="472"/>
+      <c r="I6" s="536"/>
+      <c r="J6" s="555"/>
+      <c r="K6" s="555"/>
+      <c r="L6" s="537"/>
+      <c r="M6" s="536"/>
+      <c r="N6" s="537"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>182</v>
@@ -26951,16 +27468,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="434"/>
-      <c r="F7" s="469"/>
-      <c r="G7" s="470"/>
-      <c r="H7" s="471"/>
-      <c r="I7" s="518"/>
-      <c r="J7" s="584"/>
-      <c r="K7" s="584"/>
-      <c r="L7" s="519"/>
-      <c r="M7" s="518"/>
-      <c r="N7" s="519"/>
+      <c r="E7" s="435"/>
+      <c r="F7" s="470"/>
+      <c r="G7" s="471"/>
+      <c r="H7" s="472"/>
+      <c r="I7" s="536"/>
+      <c r="J7" s="555"/>
+      <c r="K7" s="555"/>
+      <c r="L7" s="537"/>
+      <c r="M7" s="536"/>
+      <c r="N7" s="537"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -26979,16 +27496,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="434"/>
-      <c r="F8" s="469"/>
-      <c r="G8" s="470"/>
-      <c r="H8" s="471"/>
-      <c r="I8" s="518"/>
-      <c r="J8" s="584"/>
-      <c r="K8" s="584"/>
-      <c r="L8" s="519"/>
-      <c r="M8" s="518"/>
-      <c r="N8" s="519"/>
+      <c r="E8" s="435"/>
+      <c r="F8" s="470"/>
+      <c r="G8" s="471"/>
+      <c r="H8" s="472"/>
+      <c r="I8" s="536"/>
+      <c r="J8" s="555"/>
+      <c r="K8" s="555"/>
+      <c r="L8" s="537"/>
+      <c r="M8" s="536"/>
+      <c r="N8" s="537"/>
       <c r="O8" s="5" t="s">
         <v>187</v>
       </c>
@@ -27009,16 +27526,16 @@
         <v>190</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="434"/>
-      <c r="F9" s="469"/>
-      <c r="G9" s="470"/>
-      <c r="H9" s="471"/>
-      <c r="I9" s="518"/>
-      <c r="J9" s="584"/>
-      <c r="K9" s="584"/>
-      <c r="L9" s="519"/>
-      <c r="M9" s="518"/>
-      <c r="N9" s="519"/>
+      <c r="E9" s="435"/>
+      <c r="F9" s="470"/>
+      <c r="G9" s="471"/>
+      <c r="H9" s="472"/>
+      <c r="I9" s="536"/>
+      <c r="J9" s="555"/>
+      <c r="K9" s="555"/>
+      <c r="L9" s="537"/>
+      <c r="M9" s="536"/>
+      <c r="N9" s="537"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -27035,16 +27552,16 @@
         <v>537</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="434"/>
-      <c r="F10" s="469"/>
-      <c r="G10" s="470"/>
-      <c r="H10" s="471"/>
-      <c r="I10" s="518"/>
-      <c r="J10" s="584"/>
-      <c r="K10" s="584"/>
-      <c r="L10" s="519"/>
-      <c r="M10" s="518"/>
-      <c r="N10" s="519"/>
+      <c r="E10" s="435"/>
+      <c r="F10" s="470"/>
+      <c r="G10" s="471"/>
+      <c r="H10" s="472"/>
+      <c r="I10" s="536"/>
+      <c r="J10" s="555"/>
+      <c r="K10" s="555"/>
+      <c r="L10" s="537"/>
+      <c r="M10" s="536"/>
+      <c r="N10" s="537"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -27057,16 +27574,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="434"/>
-      <c r="F11" s="469"/>
-      <c r="G11" s="470"/>
-      <c r="H11" s="471"/>
-      <c r="I11" s="518"/>
-      <c r="J11" s="584"/>
-      <c r="K11" s="584"/>
-      <c r="L11" s="519"/>
-      <c r="M11" s="518"/>
-      <c r="N11" s="519"/>
+      <c r="E11" s="435"/>
+      <c r="F11" s="470"/>
+      <c r="G11" s="471"/>
+      <c r="H11" s="472"/>
+      <c r="I11" s="536"/>
+      <c r="J11" s="555"/>
+      <c r="K11" s="555"/>
+      <c r="L11" s="537"/>
+      <c r="M11" s="536"/>
+      <c r="N11" s="537"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -27077,16 +27594,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="434"/>
-      <c r="F12" s="469"/>
-      <c r="G12" s="470"/>
-      <c r="H12" s="471"/>
-      <c r="I12" s="518"/>
-      <c r="J12" s="584"/>
-      <c r="K12" s="584"/>
-      <c r="L12" s="519"/>
-      <c r="M12" s="518"/>
-      <c r="N12" s="519"/>
+      <c r="E12" s="435"/>
+      <c r="F12" s="470"/>
+      <c r="G12" s="471"/>
+      <c r="H12" s="472"/>
+      <c r="I12" s="536"/>
+      <c r="J12" s="555"/>
+      <c r="K12" s="555"/>
+      <c r="L12" s="537"/>
+      <c r="M12" s="536"/>
+      <c r="N12" s="537"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -27099,16 +27616,16 @@
         <v>192</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="434"/>
-      <c r="F13" s="469"/>
-      <c r="G13" s="470"/>
-      <c r="H13" s="471"/>
-      <c r="I13" s="518"/>
-      <c r="J13" s="584"/>
-      <c r="K13" s="584"/>
-      <c r="L13" s="519"/>
-      <c r="M13" s="518"/>
-      <c r="N13" s="519"/>
+      <c r="E13" s="435"/>
+      <c r="F13" s="470"/>
+      <c r="G13" s="471"/>
+      <c r="H13" s="472"/>
+      <c r="I13" s="536"/>
+      <c r="J13" s="555"/>
+      <c r="K13" s="555"/>
+      <c r="L13" s="537"/>
+      <c r="M13" s="536"/>
+      <c r="N13" s="537"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -27119,16 +27636,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="434"/>
-      <c r="F14" s="469"/>
-      <c r="G14" s="470"/>
-      <c r="H14" s="471"/>
-      <c r="I14" s="518"/>
-      <c r="J14" s="584"/>
-      <c r="K14" s="584"/>
-      <c r="L14" s="519"/>
-      <c r="M14" s="518"/>
-      <c r="N14" s="519"/>
+      <c r="E14" s="435"/>
+      <c r="F14" s="470"/>
+      <c r="G14" s="471"/>
+      <c r="H14" s="472"/>
+      <c r="I14" s="536"/>
+      <c r="J14" s="555"/>
+      <c r="K14" s="555"/>
+      <c r="L14" s="537"/>
+      <c r="M14" s="536"/>
+      <c r="N14" s="537"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -27139,16 +27656,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="434"/>
-      <c r="F15" s="469"/>
-      <c r="G15" s="470"/>
-      <c r="H15" s="471"/>
-      <c r="I15" s="518"/>
-      <c r="J15" s="584"/>
-      <c r="K15" s="584"/>
-      <c r="L15" s="519"/>
-      <c r="M15" s="518"/>
-      <c r="N15" s="519"/>
+      <c r="E15" s="435"/>
+      <c r="F15" s="470"/>
+      <c r="G15" s="471"/>
+      <c r="H15" s="472"/>
+      <c r="I15" s="536"/>
+      <c r="J15" s="555"/>
+      <c r="K15" s="555"/>
+      <c r="L15" s="537"/>
+      <c r="M15" s="536"/>
+      <c r="N15" s="537"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -27159,16 +27676,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="434"/>
-      <c r="F16" s="469"/>
-      <c r="G16" s="470"/>
-      <c r="H16" s="471"/>
-      <c r="I16" s="518"/>
-      <c r="J16" s="584"/>
-      <c r="K16" s="584"/>
-      <c r="L16" s="519"/>
-      <c r="M16" s="518"/>
-      <c r="N16" s="519"/>
+      <c r="E16" s="435"/>
+      <c r="F16" s="470"/>
+      <c r="G16" s="471"/>
+      <c r="H16" s="472"/>
+      <c r="I16" s="536"/>
+      <c r="J16" s="555"/>
+      <c r="K16" s="555"/>
+      <c r="L16" s="537"/>
+      <c r="M16" s="536"/>
+      <c r="N16" s="537"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -27181,16 +27698,16 @@
         <v>193</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="434"/>
-      <c r="F17" s="469"/>
-      <c r="G17" s="470"/>
-      <c r="H17" s="471"/>
-      <c r="I17" s="518"/>
-      <c r="J17" s="584"/>
-      <c r="K17" s="584"/>
-      <c r="L17" s="519"/>
-      <c r="M17" s="518"/>
-      <c r="N17" s="519"/>
+      <c r="E17" s="435"/>
+      <c r="F17" s="470"/>
+      <c r="G17" s="471"/>
+      <c r="H17" s="472"/>
+      <c r="I17" s="536"/>
+      <c r="J17" s="555"/>
+      <c r="K17" s="555"/>
+      <c r="L17" s="537"/>
+      <c r="M17" s="536"/>
+      <c r="N17" s="537"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -27201,16 +27718,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="435"/>
-      <c r="F18" s="472"/>
-      <c r="G18" s="473"/>
-      <c r="H18" s="474"/>
-      <c r="I18" s="520"/>
-      <c r="J18" s="585"/>
-      <c r="K18" s="585"/>
-      <c r="L18" s="521"/>
-      <c r="M18" s="520"/>
-      <c r="N18" s="521"/>
+      <c r="E18" s="436"/>
+      <c r="F18" s="473"/>
+      <c r="G18" s="474"/>
+      <c r="H18" s="475"/>
+      <c r="I18" s="538"/>
+      <c r="J18" s="556"/>
+      <c r="K18" s="556"/>
+      <c r="L18" s="539"/>
+      <c r="M18" s="538"/>
+      <c r="N18" s="539"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -27239,26 +27756,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="453" t="s">
+      <c r="C20" s="454" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="454"/>
+      <c r="D20" s="455"/>
       <c r="E20" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="F20" s="453" t="s">
+      <c r="F20" s="454" t="s">
         <v>196</v>
       </c>
-      <c r="G20" s="455"/>
-      <c r="H20" s="455"/>
-      <c r="I20" s="455"/>
-      <c r="J20" s="455"/>
-      <c r="K20" s="455"/>
-      <c r="L20" s="454"/>
-      <c r="M20" s="453" t="s">
+      <c r="G20" s="456"/>
+      <c r="H20" s="456"/>
+      <c r="I20" s="456"/>
+      <c r="J20" s="456"/>
+      <c r="K20" s="456"/>
+      <c r="L20" s="455"/>
+      <c r="M20" s="454" t="s">
         <v>528</v>
       </c>
-      <c r="N20" s="454"/>
+      <c r="N20" s="455"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -27286,39 +27803,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="530" t="s">
+      <c r="B24" s="522" t="s">
         <v>570</v>
       </c>
-      <c r="C24" s="530"/>
-      <c r="D24" s="529"/>
-      <c r="E24" s="529"/>
-      <c r="F24" s="529"/>
-      <c r="G24" s="529"/>
-      <c r="H24" s="529"/>
-      <c r="I24" s="529"/>
-      <c r="J24" s="529"/>
-      <c r="K24" s="529"/>
-      <c r="M24" s="552" t="s">
+      <c r="C24" s="522"/>
+      <c r="D24" s="521"/>
+      <c r="E24" s="521"/>
+      <c r="F24" s="521"/>
+      <c r="G24" s="521"/>
+      <c r="H24" s="521"/>
+      <c r="I24" s="521"/>
+      <c r="J24" s="521"/>
+      <c r="K24" s="521"/>
+      <c r="M24" s="575" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="552"/>
-      <c r="O24" s="552"/>
+      <c r="N24" s="575"/>
+      <c r="O24" s="575"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="553" t="s">
+      <c r="B25" s="576" t="s">
         <v>913</v>
       </c>
-      <c r="C25" s="495"/>
-      <c r="D25" s="444" t="s">
+      <c r="C25" s="497"/>
+      <c r="D25" s="445" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="444"/>
-      <c r="F25" s="444"/>
-      <c r="G25" s="444"/>
-      <c r="H25" s="444"/>
-      <c r="I25" s="444"/>
-      <c r="J25" s="444"/>
-      <c r="K25" s="445"/>
+      <c r="E25" s="445"/>
+      <c r="F25" s="445"/>
+      <c r="G25" s="445"/>
+      <c r="H25" s="445"/>
+      <c r="I25" s="445"/>
+      <c r="J25" s="445"/>
+      <c r="K25" s="446"/>
       <c r="M25" s="38" t="s">
         <v>182</v>
       </c>
@@ -27330,22 +27847,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="496"/>
-      <c r="C26" s="497"/>
-      <c r="D26" s="494" t="s">
+      <c r="B26" s="498"/>
+      <c r="C26" s="499"/>
+      <c r="D26" s="496" t="s">
         <v>906</v>
       </c>
-      <c r="E26" s="495"/>
-      <c r="F26" s="580" t="s">
+      <c r="E26" s="497"/>
+      <c r="F26" s="569" t="s">
         <v>906</v>
       </c>
-      <c r="G26" s="444"/>
-      <c r="H26" s="445"/>
-      <c r="I26" s="443" t="s">
+      <c r="G26" s="445"/>
+      <c r="H26" s="446"/>
+      <c r="I26" s="444" t="s">
         <v>910</v>
       </c>
-      <c r="J26" s="444"/>
-      <c r="K26" s="445"/>
+      <c r="J26" s="445"/>
+      <c r="K26" s="446"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -27360,22 +27877,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="496"/>
-      <c r="C27" s="497"/>
-      <c r="D27" s="491" t="s">
+      <c r="B27" s="498"/>
+      <c r="C27" s="499"/>
+      <c r="D27" s="488" t="s">
         <v>911</v>
       </c>
-      <c r="E27" s="497"/>
-      <c r="F27" s="496" t="s">
+      <c r="E27" s="499"/>
+      <c r="F27" s="498" t="s">
         <v>907</v>
       </c>
-      <c r="G27" s="491"/>
-      <c r="H27" s="564"/>
-      <c r="I27" s="563" t="s">
+      <c r="G27" s="488"/>
+      <c r="H27" s="570"/>
+      <c r="I27" s="574" t="s">
         <v>911</v>
       </c>
-      <c r="J27" s="491"/>
-      <c r="K27" s="564"/>
+      <c r="J27" s="488"/>
+      <c r="K27" s="570"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -27390,22 +27907,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="496"/>
-      <c r="C28" s="497"/>
-      <c r="D28" s="491" t="s">
+      <c r="B28" s="498"/>
+      <c r="C28" s="499"/>
+      <c r="D28" s="488" t="s">
         <v>908</v>
       </c>
-      <c r="E28" s="497"/>
-      <c r="F28" s="496" t="s">
+      <c r="E28" s="499"/>
+      <c r="F28" s="498" t="s">
         <v>908</v>
       </c>
-      <c r="G28" s="491"/>
-      <c r="H28" s="564"/>
-      <c r="I28" s="563" t="s">
+      <c r="G28" s="488"/>
+      <c r="H28" s="570"/>
+      <c r="I28" s="574" t="s">
         <v>908</v>
       </c>
-      <c r="J28" s="491"/>
-      <c r="K28" s="564"/>
+      <c r="J28" s="488"/>
+      <c r="K28" s="570"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -27414,22 +27931,22 @@
       <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="498"/>
-      <c r="C29" s="499"/>
-      <c r="D29" s="491" t="s">
+      <c r="B29" s="500"/>
+      <c r="C29" s="501"/>
+      <c r="D29" s="488" t="s">
         <v>909</v>
       </c>
-      <c r="E29" s="497"/>
-      <c r="F29" s="581" t="s">
+      <c r="E29" s="499"/>
+      <c r="F29" s="571" t="s">
         <v>909</v>
       </c>
-      <c r="G29" s="566"/>
-      <c r="H29" s="567"/>
-      <c r="I29" s="565" t="s">
+      <c r="G29" s="572"/>
+      <c r="H29" s="573"/>
+      <c r="I29" s="586" t="s">
         <v>909</v>
       </c>
-      <c r="J29" s="566"/>
-      <c r="K29" s="567"/>
+      <c r="J29" s="572"/>
+      <c r="K29" s="573"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -27438,149 +27955,149 @@
       <c r="O29" s="38"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="446" t="s">
+      <c r="B30" s="447" t="s">
         <v>912</v>
       </c>
-      <c r="C30" s="448"/>
-      <c r="D30" s="568" t="s">
+      <c r="C30" s="449"/>
+      <c r="D30" s="557" t="s">
         <v>571</v>
       </c>
-      <c r="E30" s="569"/>
-      <c r="F30" s="573" t="s">
+      <c r="E30" s="558"/>
+      <c r="F30" s="562" t="s">
         <v>572</v>
       </c>
-      <c r="G30" s="574"/>
-      <c r="H30" s="569"/>
-      <c r="I30" s="573" t="s">
+      <c r="G30" s="563"/>
+      <c r="H30" s="558"/>
+      <c r="I30" s="562" t="s">
         <v>573</v>
       </c>
-      <c r="J30" s="574"/>
-      <c r="K30" s="577"/>
+      <c r="J30" s="563"/>
+      <c r="K30" s="566"/>
       <c r="L30" s="5"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="429"/>
-      <c r="C31" s="449"/>
-      <c r="D31" s="570"/>
-      <c r="E31" s="536"/>
-      <c r="F31" s="534"/>
-      <c r="G31" s="535"/>
-      <c r="H31" s="536"/>
-      <c r="I31" s="534"/>
-      <c r="J31" s="535"/>
-      <c r="K31" s="578"/>
+      <c r="B31" s="430"/>
+      <c r="C31" s="450"/>
+      <c r="D31" s="559"/>
+      <c r="E31" s="519"/>
+      <c r="F31" s="517"/>
+      <c r="G31" s="518"/>
+      <c r="H31" s="519"/>
+      <c r="I31" s="517"/>
+      <c r="J31" s="518"/>
+      <c r="K31" s="567"/>
       <c r="L31" s="5"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="429"/>
-      <c r="C32" s="449"/>
-      <c r="D32" s="570"/>
-      <c r="E32" s="536"/>
-      <c r="F32" s="534"/>
-      <c r="G32" s="535"/>
-      <c r="H32" s="536"/>
-      <c r="I32" s="534"/>
-      <c r="J32" s="535"/>
-      <c r="K32" s="578"/>
+      <c r="B32" s="430"/>
+      <c r="C32" s="450"/>
+      <c r="D32" s="559"/>
+      <c r="E32" s="519"/>
+      <c r="F32" s="517"/>
+      <c r="G32" s="518"/>
+      <c r="H32" s="519"/>
+      <c r="I32" s="517"/>
+      <c r="J32" s="518"/>
+      <c r="K32" s="567"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="429"/>
-      <c r="C33" s="449"/>
-      <c r="D33" s="571"/>
-      <c r="E33" s="572"/>
-      <c r="F33" s="575"/>
-      <c r="G33" s="576"/>
-      <c r="H33" s="572"/>
-      <c r="I33" s="575"/>
-      <c r="J33" s="576"/>
-      <c r="K33" s="579"/>
+      <c r="B33" s="430"/>
+      <c r="C33" s="450"/>
+      <c r="D33" s="560"/>
+      <c r="E33" s="561"/>
+      <c r="F33" s="564"/>
+      <c r="G33" s="565"/>
+      <c r="H33" s="561"/>
+      <c r="I33" s="564"/>
+      <c r="J33" s="565"/>
+      <c r="K33" s="568"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="429"/>
-      <c r="C34" s="431"/>
-      <c r="D34" s="554" t="s">
+      <c r="B34" s="430"/>
+      <c r="C34" s="432"/>
+      <c r="D34" s="577" t="s">
         <v>899</v>
       </c>
-      <c r="E34" s="555"/>
-      <c r="F34" s="554" t="s">
+      <c r="E34" s="578"/>
+      <c r="F34" s="577" t="s">
         <v>593</v>
       </c>
-      <c r="G34" s="560"/>
-      <c r="H34" s="555"/>
-      <c r="I34" s="554" t="s">
+      <c r="G34" s="583"/>
+      <c r="H34" s="578"/>
+      <c r="I34" s="577" t="s">
         <v>914</v>
       </c>
-      <c r="J34" s="560"/>
-      <c r="K34" s="555"/>
+      <c r="J34" s="583"/>
+      <c r="K34" s="578"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="429"/>
-      <c r="C35" s="431"/>
-      <c r="D35" s="556"/>
-      <c r="E35" s="557"/>
-      <c r="F35" s="556"/>
-      <c r="G35" s="561"/>
-      <c r="H35" s="557"/>
-      <c r="I35" s="556"/>
-      <c r="J35" s="561"/>
-      <c r="K35" s="557"/>
+      <c r="B35" s="430"/>
+      <c r="C35" s="432"/>
+      <c r="D35" s="579"/>
+      <c r="E35" s="580"/>
+      <c r="F35" s="579"/>
+      <c r="G35" s="584"/>
+      <c r="H35" s="580"/>
+      <c r="I35" s="579"/>
+      <c r="J35" s="584"/>
+      <c r="K35" s="580"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="429"/>
-      <c r="C36" s="431"/>
-      <c r="D36" s="556"/>
-      <c r="E36" s="557"/>
-      <c r="F36" s="556"/>
-      <c r="G36" s="561"/>
-      <c r="H36" s="557"/>
-      <c r="I36" s="556"/>
-      <c r="J36" s="561"/>
-      <c r="K36" s="557"/>
+      <c r="B36" s="430"/>
+      <c r="C36" s="432"/>
+      <c r="D36" s="579"/>
+      <c r="E36" s="580"/>
+      <c r="F36" s="579"/>
+      <c r="G36" s="584"/>
+      <c r="H36" s="580"/>
+      <c r="I36" s="579"/>
+      <c r="J36" s="584"/>
+      <c r="K36" s="580"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="429"/>
-      <c r="C37" s="431"/>
-      <c r="D37" s="556"/>
-      <c r="E37" s="557"/>
-      <c r="F37" s="556"/>
-      <c r="G37" s="561"/>
-      <c r="H37" s="557"/>
-      <c r="I37" s="556"/>
-      <c r="J37" s="561"/>
-      <c r="K37" s="557"/>
+      <c r="B37" s="430"/>
+      <c r="C37" s="432"/>
+      <c r="D37" s="579"/>
+      <c r="E37" s="580"/>
+      <c r="F37" s="579"/>
+      <c r="G37" s="584"/>
+      <c r="H37" s="580"/>
+      <c r="I37" s="579"/>
+      <c r="J37" s="584"/>
+      <c r="K37" s="580"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="429"/>
-      <c r="C38" s="431"/>
-      <c r="D38" s="558"/>
-      <c r="E38" s="559"/>
-      <c r="F38" s="558"/>
-      <c r="G38" s="562"/>
-      <c r="H38" s="559"/>
-      <c r="I38" s="558"/>
-      <c r="J38" s="562"/>
-      <c r="K38" s="559"/>
+      <c r="B38" s="430"/>
+      <c r="C38" s="432"/>
+      <c r="D38" s="581"/>
+      <c r="E38" s="582"/>
+      <c r="F38" s="581"/>
+      <c r="G38" s="585"/>
+      <c r="H38" s="582"/>
+      <c r="I38" s="581"/>
+      <c r="J38" s="585"/>
+      <c r="K38" s="582"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="450"/>
-      <c r="C39" s="452"/>
-      <c r="D39" s="538" t="s">
+      <c r="B39" s="451"/>
+      <c r="C39" s="453"/>
+      <c r="D39" s="510" t="s">
         <v>574</v>
       </c>
-      <c r="E39" s="539"/>
-      <c r="F39" s="539"/>
-      <c r="G39" s="539"/>
-      <c r="H39" s="539"/>
-      <c r="I39" s="539"/>
-      <c r="J39" s="539"/>
-      <c r="K39" s="540"/>
+      <c r="E39" s="511"/>
+      <c r="F39" s="511"/>
+      <c r="G39" s="511"/>
+      <c r="H39" s="511"/>
+      <c r="I39" s="511"/>
+      <c r="J39" s="511"/>
+      <c r="K39" s="512"/>
       <c r="L39" s="40" t="s">
         <v>575</v>
       </c>
@@ -27598,35 +28115,36 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="453" t="s">
+      <c r="B41" s="454" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="454"/>
-      <c r="D41" s="453" t="s">
+      <c r="C41" s="455"/>
+      <c r="D41" s="454" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="454"/>
-      <c r="F41" s="453" t="s">
+      <c r="E41" s="455"/>
+      <c r="F41" s="454" t="s">
         <v>196</v>
       </c>
-      <c r="G41" s="455"/>
-      <c r="H41" s="455"/>
-      <c r="I41" s="455"/>
-      <c r="J41" s="455"/>
-      <c r="K41" s="454"/>
+      <c r="G41" s="456"/>
+      <c r="H41" s="456"/>
+      <c r="I41" s="456"/>
+      <c r="J41" s="456"/>
+      <c r="K41" s="455"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -27643,17 +28161,16 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -27908,13 +28425,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="424" t="s">
+      <c r="A5" s="425" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="425"/>
-      <c r="C5" s="425"/>
-      <c r="D5" s="425"/>
-      <c r="E5" s="426"/>
+      <c r="B5" s="426"/>
+      <c r="C5" s="426"/>
+      <c r="D5" s="426"/>
+      <c r="E5" s="427"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>150</v>
@@ -28571,7 +29088,7 @@
       <c r="J4" s="173"/>
       <c r="K4" s="173"/>
       <c r="L4" s="174"/>
-      <c r="M4" s="429" t="s">
+      <c r="M4" s="430" t="s">
         <v>324</v>
       </c>
     </row>
@@ -28589,7 +29106,7 @@
       <c r="J5" s="167"/>
       <c r="K5" s="167"/>
       <c r="L5" s="168"/>
-      <c r="M5" s="429"/>
+      <c r="M5" s="430"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="360">
@@ -28605,7 +29122,7 @@
       <c r="J6" s="167"/>
       <c r="K6" s="167"/>
       <c r="L6" s="168"/>
-      <c r="M6" s="429"/>
+      <c r="M6" s="430"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="360">
@@ -28625,7 +29142,7 @@
       <c r="J7" s="167"/>
       <c r="K7" s="167"/>
       <c r="L7" s="168"/>
-      <c r="M7" s="429"/>
+      <c r="M7" s="430"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="360">
@@ -28641,7 +29158,7 @@
       <c r="J8" s="167"/>
       <c r="K8" s="167"/>
       <c r="L8" s="168"/>
-      <c r="M8" s="429"/>
+      <c r="M8" s="430"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="360">
@@ -28657,7 +29174,7 @@
       <c r="J9" s="167"/>
       <c r="K9" s="167"/>
       <c r="L9" s="168"/>
-      <c r="M9" s="429"/>
+      <c r="M9" s="430"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="360">
@@ -28673,7 +29190,7 @@
       <c r="J10" s="167"/>
       <c r="K10" s="167"/>
       <c r="L10" s="168"/>
-      <c r="M10" s="429"/>
+      <c r="M10" s="430"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1">
       <c r="B11" s="360">
@@ -28689,7 +29206,7 @@
       <c r="J11" s="176"/>
       <c r="K11" s="176"/>
       <c r="L11" s="177"/>
-      <c r="M11" s="429"/>
+      <c r="M11" s="430"/>
     </row>
     <row r="12" spans="2:13">
       <c r="M12" t="s">
@@ -28963,7 +29480,7 @@
       <c r="O134" s="5"/>
     </row>
     <row r="135" spans="3:15">
-      <c r="C135" s="432" t="s">
+      <c r="C135" s="433" t="s">
         <v>167</v>
       </c>
       <c r="D135">
@@ -28990,7 +29507,7 @@
       <c r="O135" s="5"/>
     </row>
     <row r="136" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C136" s="432"/>
+      <c r="C136" s="433"/>
       <c r="D136">
         <v>20</v>
       </c>
@@ -29019,7 +29536,7 @@
       <c r="O136" s="5"/>
     </row>
     <row r="137" spans="3:15">
-      <c r="C137" s="432" t="s">
+      <c r="C137" s="433" t="s">
         <v>168</v>
       </c>
       <c r="D137">
@@ -29038,7 +29555,7 @@
       <c r="O137" s="5"/>
     </row>
     <row r="138" spans="3:15">
-      <c r="C138" s="432"/>
+      <c r="C138" s="433"/>
       <c r="D138">
         <v>40</v>
       </c>
@@ -29055,7 +29572,7 @@
       <c r="O138" s="5"/>
     </row>
     <row r="139" spans="3:15">
-      <c r="C139" s="432"/>
+      <c r="C139" s="433"/>
       <c r="D139">
         <v>50</v>
       </c>
@@ -29072,7 +29589,7 @@
       <c r="O139" s="5"/>
     </row>
     <row r="140" spans="3:15">
-      <c r="C140" s="432"/>
+      <c r="C140" s="433"/>
       <c r="D140">
         <v>60</v>
       </c>
@@ -29091,7 +29608,7 @@
       <c r="O140" s="5"/>
     </row>
     <row r="141" spans="3:15">
-      <c r="C141" s="432"/>
+      <c r="C141" s="433"/>
       <c r="D141">
         <v>70</v>
       </c>
@@ -29108,7 +29625,7 @@
       <c r="O141" s="5"/>
     </row>
     <row r="142" spans="3:15">
-      <c r="C142" s="432"/>
+      <c r="C142" s="433"/>
       <c r="D142">
         <v>80</v>
       </c>
@@ -29125,7 +29642,7 @@
       <c r="O142" s="5"/>
     </row>
     <row r="143" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C143" s="432"/>
+      <c r="C143" s="433"/>
       <c r="D143">
         <v>90</v>
       </c>
@@ -29216,7 +29733,7 @@
       </c>
     </row>
     <row r="148" spans="4:15">
-      <c r="D148" s="430">
+      <c r="D148" s="431">
         <v>1</v>
       </c>
       <c r="E148" s="169"/>
@@ -29231,7 +29748,7 @@
       <c r="N148" s="174"/>
     </row>
     <row r="149" spans="4:15">
-      <c r="D149" s="431"/>
+      <c r="D149" s="432"/>
       <c r="E149" s="170"/>
       <c r="F149" s="166"/>
       <c r="G149" s="167"/>
@@ -29244,7 +29761,7 @@
       <c r="N149" s="168"/>
     </row>
     <row r="150" spans="4:15">
-      <c r="D150" s="431"/>
+      <c r="D150" s="432"/>
       <c r="E150" s="170"/>
       <c r="F150" s="166"/>
       <c r="G150" s="167"/>
@@ -29257,7 +29774,7 @@
       <c r="N150" s="168"/>
     </row>
     <row r="151" spans="4:15">
-      <c r="D151" s="431"/>
+      <c r="D151" s="432"/>
       <c r="E151" s="170" t="s">
         <v>663</v>
       </c>
@@ -29274,7 +29791,7 @@
       <c r="N151" s="168"/>
     </row>
     <row r="152" spans="4:15">
-      <c r="D152" s="431"/>
+      <c r="D152" s="432"/>
       <c r="E152" s="170"/>
       <c r="F152" s="166"/>
       <c r="G152" s="167"/>
@@ -29287,7 +29804,7 @@
       <c r="N152" s="168"/>
     </row>
     <row r="153" spans="4:15">
-      <c r="D153" s="431"/>
+      <c r="D153" s="432"/>
       <c r="E153" s="170"/>
       <c r="F153" s="166"/>
       <c r="G153" s="167"/>
@@ -29300,7 +29817,7 @@
       <c r="N153" s="168"/>
     </row>
     <row r="154" spans="4:15" ht="15.75" thickBot="1">
-      <c r="D154" s="431"/>
+      <c r="D154" s="432"/>
       <c r="E154" s="171"/>
       <c r="F154" s="175"/>
       <c r="G154" s="176"/>
@@ -29423,7 +29940,7 @@
       <c r="K183" s="173"/>
       <c r="L183" s="173"/>
       <c r="M183" s="173"/>
-      <c r="N183" s="428" t="s">
+      <c r="N183" s="429" t="s">
         <v>916</v>
       </c>
       <c r="O183" t="s">
@@ -29444,7 +29961,7 @@
       <c r="K184" s="176"/>
       <c r="L184" s="176"/>
       <c r="M184" s="176"/>
-      <c r="N184" s="428"/>
+      <c r="N184" s="429"/>
       <c r="O184" t="s">
         <v>917</v>
       </c>
@@ -29463,7 +29980,7 @@
       <c r="K185" s="229"/>
       <c r="L185" s="229"/>
       <c r="M185" s="293"/>
-      <c r="N185" s="427" t="s">
+      <c r="N185" s="428" t="s">
         <v>919</v>
       </c>
       <c r="O185" t="s">
@@ -29484,7 +30001,7 @@
       <c r="K186" s="230"/>
       <c r="L186" s="230"/>
       <c r="M186" s="295"/>
-      <c r="N186" s="427"/>
+      <c r="N186" s="428"/>
     </row>
     <row r="187" spans="3:15">
       <c r="C187">
@@ -29500,7 +30017,7 @@
       <c r="K187" s="230"/>
       <c r="L187" s="230"/>
       <c r="M187" s="295"/>
-      <c r="N187" s="427"/>
+      <c r="N187" s="428"/>
     </row>
     <row r="188" spans="3:15" ht="15.75" thickBot="1">
       <c r="C188">
@@ -29520,7 +30037,7 @@
       <c r="K188" s="231"/>
       <c r="L188" s="231"/>
       <c r="M188" s="297"/>
-      <c r="N188" s="427"/>
+      <c r="N188" s="428"/>
     </row>
     <row r="189" spans="3:15">
       <c r="C189">
@@ -29536,7 +30053,7 @@
       <c r="K189" s="230"/>
       <c r="L189" s="230"/>
       <c r="M189" s="230"/>
-      <c r="N189" s="428"/>
+      <c r="N189" s="429"/>
     </row>
     <row r="190" spans="3:15">
       <c r="C190">
@@ -29552,7 +30069,7 @@
       <c r="K190" s="230"/>
       <c r="L190" s="230"/>
       <c r="M190" s="230"/>
-      <c r="N190" s="428"/>
+      <c r="N190" s="429"/>
     </row>
     <row r="191" spans="3:15" ht="15.75" thickBot="1">
       <c r="C191">
@@ -29568,7 +30085,7 @@
       <c r="K191" s="231"/>
       <c r="L191" s="231"/>
       <c r="M191" s="231"/>
-      <c r="N191" s="428"/>
+      <c r="N191" s="429"/>
     </row>
     <row r="192" spans="3:15" ht="15.75" thickBot="1">
       <c r="C192">
@@ -29943,14 +30460,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="443" t="s">
+      <c r="K4" s="444" t="s">
         <v>178</v>
       </c>
-      <c r="L4" s="444"/>
-      <c r="M4" s="444"/>
-      <c r="N4" s="444"/>
-      <c r="O4" s="444"/>
-      <c r="P4" s="445"/>
+      <c r="L4" s="445"/>
+      <c r="M4" s="445"/>
+      <c r="N4" s="445"/>
+      <c r="O4" s="445"/>
+      <c r="P4" s="446"/>
       <c r="Q4" s="115" t="s">
         <v>281</v>
       </c>
@@ -29989,7 +30506,7 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="462" t="s">
+      <c r="E6" s="463" t="s">
         <v>1488</v>
       </c>
       <c r="F6" t="s">
@@ -30032,7 +30549,7 @@
       <c r="D7" s="367" t="s">
         <v>1609</v>
       </c>
-      <c r="E7" s="434"/>
+      <c r="E7" s="435"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
@@ -30068,7 +30585,7 @@
       <c r="D8" s="367" t="s">
         <v>1608</v>
       </c>
-      <c r="E8" s="434"/>
+      <c r="E8" s="435"/>
       <c r="F8" t="s">
         <v>203</v>
       </c>
@@ -30079,10 +30596,10 @@
       <c r="L8" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M8" s="456" t="s">
+      <c r="M8" s="457" t="s">
         <v>1487</v>
       </c>
-      <c r="N8" s="457"/>
+      <c r="N8" s="458"/>
       <c r="O8" s="5" t="s">
         <v>31</v>
       </c>
@@ -30111,7 +30628,7 @@
       <c r="D9" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="E9" s="434"/>
+      <c r="E9" s="435"/>
       <c r="F9" s="24" t="s">
         <v>216</v>
       </c>
@@ -30124,8 +30641,8 @@
       <c r="L9" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M9" s="458"/>
-      <c r="N9" s="459"/>
+      <c r="M9" s="459"/>
+      <c r="N9" s="460"/>
       <c r="O9" s="5" t="s">
         <v>187</v>
       </c>
@@ -30150,7 +30667,7 @@
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
-      <c r="E10" s="435"/>
+      <c r="E10" s="436"/>
       <c r="F10" t="s">
         <v>204</v>
       </c>
@@ -30161,8 +30678,8 @@
       <c r="L10" s="5" t="s">
         <v>1166</v>
       </c>
-      <c r="M10" s="458"/>
-      <c r="N10" s="459"/>
+      <c r="M10" s="459"/>
+      <c r="N10" s="460"/>
       <c r="O10" s="5"/>
       <c r="P10" s="240" t="s">
         <v>399</v>
@@ -30179,13 +30696,13 @@
       <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="446" t="s">
+      <c r="A11" s="447" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="447"/>
-      <c r="C11" s="448"/>
-      <c r="D11" s="448"/>
-      <c r="E11" s="431"/>
+      <c r="B11" s="448"/>
+      <c r="C11" s="449"/>
+      <c r="D11" s="449"/>
+      <c r="E11" s="432"/>
       <c r="F11" t="s">
         <v>209</v>
       </c>
@@ -30194,8 +30711,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="458"/>
-      <c r="N11" s="459"/>
+      <c r="M11" s="459"/>
+      <c r="N11" s="460"/>
       <c r="O11" s="5" t="s">
         <v>2</v>
       </c>
@@ -30212,11 +30729,11 @@
       <c r="T11" s="38"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="429"/>
-      <c r="B12" s="449"/>
-      <c r="C12" s="449"/>
-      <c r="D12" s="449"/>
-      <c r="E12" s="431"/>
+      <c r="A12" s="430"/>
+      <c r="B12" s="450"/>
+      <c r="C12" s="450"/>
+      <c r="D12" s="450"/>
+      <c r="E12" s="432"/>
       <c r="F12" t="s">
         <v>943</v>
       </c>
@@ -30225,8 +30742,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="458"/>
-      <c r="N12" s="459"/>
+      <c r="M12" s="459"/>
+      <c r="N12" s="460"/>
       <c r="O12" s="5"/>
       <c r="P12" s="240" t="s">
         <v>1304</v>
@@ -30239,11 +30756,11 @@
       <c r="T12" s="38"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A13" s="429"/>
-      <c r="B13" s="449"/>
-      <c r="C13" s="449"/>
-      <c r="D13" s="449"/>
-      <c r="E13" s="431"/>
+      <c r="A13" s="430"/>
+      <c r="B13" s="450"/>
+      <c r="C13" s="450"/>
+      <c r="D13" s="450"/>
+      <c r="E13" s="432"/>
       <c r="F13" t="s">
         <v>679</v>
       </c>
@@ -30254,8 +30771,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="460"/>
-      <c r="N13" s="461"/>
+      <c r="M13" s="461"/>
+      <c r="N13" s="462"/>
       <c r="O13" s="28"/>
       <c r="P13" s="241"/>
       <c r="Q13">
@@ -30266,11 +30783,11 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="450"/>
-      <c r="B14" s="451"/>
-      <c r="C14" s="451"/>
-      <c r="D14" s="451"/>
-      <c r="E14" s="452"/>
+      <c r="A14" s="451"/>
+      <c r="B14" s="452"/>
+      <c r="C14" s="452"/>
+      <c r="D14" s="452"/>
+      <c r="E14" s="453"/>
       <c r="F14" t="s">
         <v>884</v>
       </c>
@@ -30410,20 +30927,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="453" t="s">
+      <c r="I20" s="454" t="s">
         <v>194</v>
       </c>
-      <c r="J20" s="454"/>
-      <c r="K20" s="453" t="s">
+      <c r="J20" s="455"/>
+      <c r="K20" s="454" t="s">
         <v>195</v>
       </c>
-      <c r="L20" s="454"/>
-      <c r="M20" s="453" t="s">
+      <c r="L20" s="455"/>
+      <c r="M20" s="454" t="s">
         <v>196</v>
       </c>
-      <c r="N20" s="455"/>
-      <c r="O20" s="455"/>
-      <c r="P20" s="454"/>
+      <c r="N20" s="456"/>
+      <c r="O20" s="456"/>
+      <c r="P20" s="455"/>
       <c r="S20" t="s">
         <v>281</v>
       </c>
@@ -32149,19 +32666,19 @@
       <c r="D204" s="2"/>
       <c r="E204" s="3"/>
       <c r="I204" s="4"/>
-      <c r="J204" s="433" t="s">
+      <c r="J204" s="434" t="s">
         <v>1492</v>
       </c>
       <c r="K204" s="1"/>
-      <c r="L204" s="463" t="s">
+      <c r="L204" s="464" t="s">
         <v>1503</v>
       </c>
-      <c r="M204" s="436" t="s">
+      <c r="M204" s="437" t="s">
         <v>1502</v>
       </c>
-      <c r="N204" s="437"/>
-      <c r="O204" s="437"/>
-      <c r="P204" s="438"/>
+      <c r="N204" s="438"/>
+      <c r="O204" s="438"/>
+      <c r="P204" s="439"/>
       <c r="Q204" s="6"/>
     </row>
     <row r="205" spans="1:17" ht="15.75" thickBot="1">
@@ -32171,13 +32688,13 @@
       <c r="D205" s="5"/>
       <c r="E205" s="6"/>
       <c r="I205" s="4"/>
-      <c r="J205" s="434"/>
+      <c r="J205" s="435"/>
       <c r="K205" s="4"/>
-      <c r="L205" s="464"/>
-      <c r="M205" s="439"/>
-      <c r="N205" s="439"/>
-      <c r="O205" s="439"/>
-      <c r="P205" s="440"/>
+      <c r="L205" s="465"/>
+      <c r="M205" s="440"/>
+      <c r="N205" s="440"/>
+      <c r="O205" s="440"/>
+      <c r="P205" s="441"/>
       <c r="Q205" s="6"/>
     </row>
     <row r="206" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
@@ -32189,15 +32706,15 @@
       <c r="D206" s="107"/>
       <c r="E206" s="108"/>
       <c r="I206" s="4"/>
-      <c r="J206" s="434"/>
+      <c r="J206" s="435"/>
       <c r="K206" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="L206" s="464"/>
-      <c r="M206" s="439"/>
-      <c r="N206" s="439"/>
-      <c r="O206" s="439"/>
-      <c r="P206" s="440"/>
+      <c r="L206" s="465"/>
+      <c r="M206" s="440"/>
+      <c r="N206" s="440"/>
+      <c r="O206" s="440"/>
+      <c r="P206" s="441"/>
       <c r="Q206" s="6"/>
     </row>
     <row r="207" spans="1:17">
@@ -32209,13 +32726,13 @@
       <c r="D207" s="5"/>
       <c r="E207" s="6"/>
       <c r="I207" s="4"/>
-      <c r="J207" s="434"/>
+      <c r="J207" s="435"/>
       <c r="K207" s="4"/>
-      <c r="L207" s="464"/>
-      <c r="M207" s="439"/>
-      <c r="N207" s="439"/>
-      <c r="O207" s="439"/>
-      <c r="P207" s="440"/>
+      <c r="L207" s="465"/>
+      <c r="M207" s="440"/>
+      <c r="N207" s="440"/>
+      <c r="O207" s="440"/>
+      <c r="P207" s="441"/>
       <c r="Q207" s="6"/>
     </row>
     <row r="208" spans="1:17" ht="15.75" thickBot="1">
@@ -32229,13 +32746,13 @@
       <c r="D208" s="5"/>
       <c r="E208" s="6"/>
       <c r="I208" s="4"/>
-      <c r="J208" s="434"/>
+      <c r="J208" s="435"/>
       <c r="K208" s="8"/>
-      <c r="L208" s="464"/>
-      <c r="M208" s="439"/>
-      <c r="N208" s="439"/>
-      <c r="O208" s="439"/>
-      <c r="P208" s="440"/>
+      <c r="L208" s="465"/>
+      <c r="M208" s="440"/>
+      <c r="N208" s="440"/>
+      <c r="O208" s="440"/>
+      <c r="P208" s="441"/>
       <c r="Q208" s="6"/>
     </row>
     <row r="209" spans="1:17">
@@ -32249,13 +32766,13 @@
       <c r="D209" s="5"/>
       <c r="E209" s="6"/>
       <c r="I209" s="4"/>
-      <c r="J209" s="434"/>
+      <c r="J209" s="435"/>
       <c r="K209" s="1"/>
-      <c r="L209" s="464"/>
-      <c r="M209" s="439"/>
-      <c r="N209" s="439"/>
-      <c r="O209" s="439"/>
-      <c r="P209" s="440"/>
+      <c r="L209" s="465"/>
+      <c r="M209" s="440"/>
+      <c r="N209" s="440"/>
+      <c r="O209" s="440"/>
+      <c r="P209" s="441"/>
       <c r="Q209" s="6"/>
     </row>
     <row r="210" spans="1:17">
@@ -32267,13 +32784,13 @@
       <c r="D210" s="5"/>
       <c r="E210" s="6"/>
       <c r="I210" s="4"/>
-      <c r="J210" s="434"/>
+      <c r="J210" s="435"/>
       <c r="K210" s="4"/>
-      <c r="L210" s="464"/>
-      <c r="M210" s="439"/>
-      <c r="N210" s="439"/>
-      <c r="O210" s="439"/>
-      <c r="P210" s="440"/>
+      <c r="L210" s="465"/>
+      <c r="M210" s="440"/>
+      <c r="N210" s="440"/>
+      <c r="O210" s="440"/>
+      <c r="P210" s="441"/>
       <c r="Q210" s="6"/>
     </row>
     <row r="211" spans="1:17">
@@ -32288,13 +32805,13 @@
         <v>1501</v>
       </c>
       <c r="I211" s="4"/>
-      <c r="J211" s="434"/>
+      <c r="J211" s="435"/>
       <c r="K211" s="4"/>
-      <c r="L211" s="464"/>
-      <c r="M211" s="439"/>
-      <c r="N211" s="439"/>
-      <c r="O211" s="439"/>
-      <c r="P211" s="440"/>
+      <c r="L211" s="465"/>
+      <c r="M211" s="440"/>
+      <c r="N211" s="440"/>
+      <c r="O211" s="440"/>
+      <c r="P211" s="441"/>
       <c r="Q211" s="6"/>
     </row>
     <row r="212" spans="1:17">
@@ -32307,15 +32824,15 @@
         <v>485</v>
       </c>
       <c r="I212" s="4"/>
-      <c r="J212" s="434"/>
+      <c r="J212" s="435"/>
       <c r="K212" s="4" t="s">
         <v>1482</v>
       </c>
-      <c r="L212" s="464"/>
-      <c r="M212" s="439"/>
-      <c r="N212" s="439"/>
-      <c r="O212" s="439"/>
-      <c r="P212" s="440"/>
+      <c r="L212" s="465"/>
+      <c r="M212" s="440"/>
+      <c r="N212" s="440"/>
+      <c r="O212" s="440"/>
+      <c r="P212" s="441"/>
       <c r="Q212" s="6"/>
     </row>
     <row r="213" spans="1:17" ht="15.75" thickBot="1">
@@ -32325,24 +32842,24 @@
       <c r="D213" s="10"/>
       <c r="E213" s="9"/>
       <c r="I213" s="4"/>
-      <c r="J213" s="434"/>
+      <c r="J213" s="435"/>
       <c r="K213" s="4"/>
-      <c r="L213" s="464"/>
-      <c r="M213" s="439"/>
-      <c r="N213" s="439"/>
-      <c r="O213" s="439"/>
-      <c r="P213" s="440"/>
+      <c r="L213" s="465"/>
+      <c r="M213" s="440"/>
+      <c r="N213" s="440"/>
+      <c r="O213" s="440"/>
+      <c r="P213" s="441"/>
       <c r="Q213" s="6"/>
     </row>
     <row r="214" spans="1:17" ht="15.75" thickBot="1">
       <c r="I214" s="4"/>
-      <c r="J214" s="434"/>
+      <c r="J214" s="435"/>
       <c r="K214" s="8"/>
-      <c r="L214" s="464"/>
-      <c r="M214" s="439"/>
-      <c r="N214" s="439"/>
-      <c r="O214" s="439"/>
-      <c r="P214" s="440"/>
+      <c r="L214" s="465"/>
+      <c r="M214" s="440"/>
+      <c r="N214" s="440"/>
+      <c r="O214" s="440"/>
+      <c r="P214" s="441"/>
       <c r="Q214" s="6"/>
     </row>
     <row r="215" spans="1:17">
@@ -32350,24 +32867,24 @@
         <v>1494</v>
       </c>
       <c r="I215" s="4"/>
-      <c r="J215" s="434"/>
+      <c r="J215" s="435"/>
       <c r="K215" s="5"/>
-      <c r="L215" s="464"/>
-      <c r="M215" s="439"/>
-      <c r="N215" s="439"/>
-      <c r="O215" s="439"/>
-      <c r="P215" s="440"/>
+      <c r="L215" s="465"/>
+      <c r="M215" s="440"/>
+      <c r="N215" s="440"/>
+      <c r="O215" s="440"/>
+      <c r="P215" s="441"/>
       <c r="Q215" s="6"/>
     </row>
     <row r="216" spans="1:17">
       <c r="I216" s="4"/>
-      <c r="J216" s="434"/>
+      <c r="J216" s="435"/>
       <c r="K216" s="5"/>
-      <c r="L216" s="464"/>
-      <c r="M216" s="439"/>
-      <c r="N216" s="439"/>
-      <c r="O216" s="439"/>
-      <c r="P216" s="440"/>
+      <c r="L216" s="465"/>
+      <c r="M216" s="440"/>
+      <c r="N216" s="440"/>
+      <c r="O216" s="440"/>
+      <c r="P216" s="441"/>
       <c r="Q216" s="6"/>
     </row>
     <row r="217" spans="1:17">
@@ -32378,15 +32895,15 @@
         <v>167</v>
       </c>
       <c r="I217" s="4"/>
-      <c r="J217" s="434"/>
+      <c r="J217" s="435"/>
       <c r="K217" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="L217" s="464"/>
-      <c r="M217" s="439"/>
-      <c r="N217" s="439"/>
-      <c r="O217" s="439"/>
-      <c r="P217" s="440"/>
+      <c r="L217" s="465"/>
+      <c r="M217" s="440"/>
+      <c r="N217" s="440"/>
+      <c r="O217" s="440"/>
+      <c r="P217" s="441"/>
       <c r="Q217" s="6"/>
     </row>
     <row r="218" spans="1:17">
@@ -32394,13 +32911,13 @@
         <v>168</v>
       </c>
       <c r="I218" s="4"/>
-      <c r="J218" s="434"/>
+      <c r="J218" s="435"/>
       <c r="K218" s="5"/>
-      <c r="L218" s="464"/>
-      <c r="M218" s="439"/>
-      <c r="N218" s="439"/>
-      <c r="O218" s="439"/>
-      <c r="P218" s="440"/>
+      <c r="L218" s="465"/>
+      <c r="M218" s="440"/>
+      <c r="N218" s="440"/>
+      <c r="O218" s="440"/>
+      <c r="P218" s="441"/>
       <c r="Q218" s="6"/>
     </row>
     <row r="219" spans="1:17">
@@ -32411,13 +32928,13 @@
         <v>10</v>
       </c>
       <c r="I219" s="4"/>
-      <c r="J219" s="434"/>
+      <c r="J219" s="435"/>
       <c r="K219" s="5"/>
-      <c r="L219" s="464"/>
-      <c r="M219" s="439"/>
-      <c r="N219" s="439"/>
-      <c r="O219" s="439"/>
-      <c r="P219" s="440"/>
+      <c r="L219" s="465"/>
+      <c r="M219" s="440"/>
+      <c r="N219" s="440"/>
+      <c r="O219" s="440"/>
+      <c r="P219" s="441"/>
       <c r="Q219" s="6"/>
     </row>
     <row r="220" spans="1:17">
@@ -32428,13 +32945,13 @@
         <v>80</v>
       </c>
       <c r="I220" s="4"/>
-      <c r="J220" s="434"/>
+      <c r="J220" s="435"/>
       <c r="K220" s="5"/>
-      <c r="L220" s="464"/>
-      <c r="M220" s="439"/>
-      <c r="N220" s="439"/>
-      <c r="O220" s="439"/>
-      <c r="P220" s="440"/>
+      <c r="L220" s="465"/>
+      <c r="M220" s="440"/>
+      <c r="N220" s="440"/>
+      <c r="O220" s="440"/>
+      <c r="P220" s="441"/>
       <c r="Q220" s="6"/>
     </row>
     <row r="221" spans="1:17">
@@ -32445,24 +32962,24 @@
         <v>1164</v>
       </c>
       <c r="I221" s="4"/>
-      <c r="J221" s="434"/>
+      <c r="J221" s="435"/>
       <c r="K221" s="5"/>
-      <c r="L221" s="464"/>
-      <c r="M221" s="439"/>
-      <c r="N221" s="439"/>
-      <c r="O221" s="439"/>
-      <c r="P221" s="440"/>
+      <c r="L221" s="465"/>
+      <c r="M221" s="440"/>
+      <c r="N221" s="440"/>
+      <c r="O221" s="440"/>
+      <c r="P221" s="441"/>
       <c r="Q221" s="6"/>
     </row>
     <row r="222" spans="1:17" ht="15.75" thickBot="1">
       <c r="I222" s="4"/>
-      <c r="J222" s="435"/>
+      <c r="J222" s="436"/>
       <c r="K222" s="10"/>
-      <c r="L222" s="465"/>
-      <c r="M222" s="441"/>
-      <c r="N222" s="441"/>
-      <c r="O222" s="441"/>
-      <c r="P222" s="442"/>
+      <c r="L222" s="466"/>
+      <c r="M222" s="442"/>
+      <c r="N222" s="442"/>
+      <c r="O222" s="442"/>
+      <c r="P222" s="443"/>
       <c r="Q222" s="6"/>
     </row>
     <row r="223" spans="1:17" ht="15.75" thickBot="1">
@@ -34285,13 +34802,13 @@
         <v>181</v>
       </c>
       <c r="J3" s="148"/>
-      <c r="K3" s="475"/>
-      <c r="L3" s="475"/>
-      <c r="M3" s="475"/>
-      <c r="N3" s="475"/>
-      <c r="O3" s="475"/>
-      <c r="P3" s="475"/>
-      <c r="Q3" s="476"/>
+      <c r="K3" s="476"/>
+      <c r="L3" s="476"/>
+      <c r="M3" s="476"/>
+      <c r="N3" s="476"/>
+      <c r="O3" s="476"/>
+      <c r="P3" s="476"/>
+      <c r="Q3" s="477"/>
       <c r="T3" s="40" t="s">
         <v>179</v>
       </c>
@@ -34559,13 +35076,13 @@
       <c r="U11" s="38"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="466" t="s">
+      <c r="A12" s="467" t="s">
         <v>667</v>
       </c>
-      <c r="B12" s="467"/>
-      <c r="C12" s="467"/>
-      <c r="D12" s="467"/>
-      <c r="E12" s="468"/>
+      <c r="B12" s="468"/>
+      <c r="C12" s="468"/>
+      <c r="D12" s="468"/>
+      <c r="E12" s="469"/>
       <c r="F12" t="s">
         <v>680</v>
       </c>
@@ -34588,11 +35105,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="469"/>
-      <c r="B13" s="470"/>
-      <c r="C13" s="470"/>
-      <c r="D13" s="470"/>
-      <c r="E13" s="471"/>
+      <c r="A13" s="470"/>
+      <c r="B13" s="471"/>
+      <c r="C13" s="471"/>
+      <c r="D13" s="471"/>
+      <c r="E13" s="472"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -34613,11 +35130,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="469"/>
-      <c r="B14" s="470"/>
-      <c r="C14" s="470"/>
-      <c r="D14" s="470"/>
-      <c r="E14" s="471"/>
+      <c r="A14" s="470"/>
+      <c r="B14" s="471"/>
+      <c r="C14" s="471"/>
+      <c r="D14" s="471"/>
+      <c r="E14" s="472"/>
       <c r="F14" t="s">
         <v>677</v>
       </c>
@@ -34640,11 +35157,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="472"/>
-      <c r="B15" s="473"/>
-      <c r="C15" s="473"/>
-      <c r="D15" s="473"/>
-      <c r="E15" s="474"/>
+      <c r="A15" s="473"/>
+      <c r="B15" s="474"/>
+      <c r="C15" s="474"/>
+      <c r="D15" s="474"/>
+      <c r="E15" s="475"/>
       <c r="F15" s="24"/>
       <c r="H15" s="192"/>
       <c r="I15" s="4" t="s">
@@ -34702,17 +35219,17 @@
       <c r="F17" s="188"/>
       <c r="G17" s="129"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="444" t="s">
+      <c r="I17" s="445" t="s">
         <v>1176</v>
       </c>
-      <c r="J17" s="444"/>
-      <c r="K17" s="444"/>
-      <c r="L17" s="444"/>
-      <c r="M17" s="444"/>
-      <c r="N17" s="444"/>
-      <c r="O17" s="444"/>
-      <c r="P17" s="444"/>
-      <c r="Q17" s="444"/>
+      <c r="J17" s="445"/>
+      <c r="K17" s="445"/>
+      <c r="L17" s="445"/>
+      <c r="M17" s="445"/>
+      <c r="N17" s="445"/>
+      <c r="O17" s="445"/>
+      <c r="P17" s="445"/>
+      <c r="Q17" s="445"/>
       <c r="S17" t="s">
         <v>358</v>
       </c>
@@ -38998,10 +39515,10 @@
       <c r="K232" s="35"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="477" t="s">
+      <c r="O232" s="478" t="s">
         <v>1224</v>
       </c>
-      <c r="P232" s="478"/>
+      <c r="P232" s="479"/>
       <c r="Q232" s="6"/>
     </row>
     <row r="233" spans="2:17">

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="9" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="11" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="1804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3744" uniqueCount="1829">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -6152,6 +6152,81 @@
   </si>
   <si>
     <t>session scope</t>
+  </si>
+  <si>
+    <t>Logging Object</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>session object</t>
+  </si>
+  <si>
+    <t>cus1</t>
+  </si>
+  <si>
+    <t>cus2</t>
+  </si>
+  <si>
+    <t>Req Object</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;login&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;add2Cart&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>SCOPE</t>
+  </si>
+  <si>
+    <t>singleton</t>
+  </si>
+  <si>
+    <t>Program A</t>
+  </si>
+  <si>
+    <t>Program B</t>
+  </si>
+  <si>
+    <t>public void register(){</t>
+  </si>
+  <si>
+    <t>public void abcd{</t>
+  </si>
+  <si>
+    <t>ProgramB obj;</t>
+  </si>
+  <si>
+    <t>obj.register();</t>
+  </si>
+  <si>
+    <t>JoinPoint</t>
+  </si>
+  <si>
+    <t>Point CUT</t>
+  </si>
+  <si>
+    <t>code for registration</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>exception handling</t>
+  </si>
+  <si>
+    <t>Aspects</t>
   </si>
 </sst>
 </file>
@@ -7778,6 +7853,18 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7799,23 +7886,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7847,6 +7919,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7862,59 +7937,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7970,6 +7994,57 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7991,17 +8066,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8042,56 +8153,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -18581,7 +18656,7 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="489" t="s">
+      <c r="E6" s="482" t="s">
         <v>406</v>
       </c>
       <c r="F6" s="427"/>
@@ -18602,7 +18677,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="486">
+      <c r="D7" s="490">
         <v>80</v>
       </c>
       <c r="E7" s="147"/>
@@ -18620,7 +18695,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="486"/>
+      <c r="D8" s="490"/>
       <c r="E8" s="134" t="s">
         <v>408</v>
       </c>
@@ -18655,7 +18730,7 @@
       <c r="B9" t="s">
         <v>407</v>
       </c>
-      <c r="D9" s="486"/>
+      <c r="D9" s="490"/>
       <c r="E9" s="149"/>
       <c r="F9" s="344"/>
       <c r="G9" s="149"/>
@@ -18679,7 +18754,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="486"/>
+      <c r="D10" s="490"/>
       <c r="E10" s="147"/>
       <c r="F10" s="148"/>
       <c r="G10" s="147"/>
@@ -18703,7 +18778,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="486"/>
+      <c r="D11" s="490"/>
       <c r="E11" s="134" t="s">
         <v>412</v>
       </c>
@@ -18732,7 +18807,7 @@
       <c r="B12" s="209" t="s">
         <v>416</v>
       </c>
-      <c r="D12" s="486"/>
+      <c r="D12" s="490"/>
       <c r="E12" s="149"/>
       <c r="F12" s="344"/>
       <c r="G12" s="149"/>
@@ -18750,7 +18825,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="486"/>
+      <c r="D13" s="490"/>
       <c r="E13" s="147"/>
       <c r="F13" s="148"/>
       <c r="G13" s="147"/>
@@ -18766,7 +18841,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="486"/>
+      <c r="D14" s="490"/>
       <c r="E14" s="134" t="s">
         <v>417</v>
       </c>
@@ -18790,7 +18865,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="486"/>
+      <c r="D15" s="490"/>
       <c r="E15" s="149"/>
       <c r="F15" s="344"/>
       <c r="G15" s="149"/>
@@ -18806,7 +18881,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="486"/>
+      <c r="D16" s="490"/>
       <c r="E16" s="147"/>
       <c r="F16" s="148"/>
       <c r="G16" s="24"/>
@@ -18822,7 +18897,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="486"/>
+      <c r="D17" s="490"/>
       <c r="E17" s="134" t="s">
         <v>421</v>
       </c>
@@ -18846,7 +18921,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="486"/>
+      <c r="D18" s="490"/>
       <c r="E18" s="149"/>
       <c r="F18" s="344"/>
       <c r="G18" s="71"/>
@@ -18863,20 +18938,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="490" t="s">
+      <c r="E19" s="483" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="491"/>
-      <c r="G19" s="490" t="s">
+      <c r="F19" s="484"/>
+      <c r="G19" s="483" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="491"/>
-      <c r="I19" s="490" t="s">
+      <c r="H19" s="484"/>
+      <c r="I19" s="483" t="s">
         <v>196</v>
       </c>
-      <c r="J19" s="492"/>
-      <c r="K19" s="492"/>
-      <c r="L19" s="491"/>
+      <c r="J19" s="485"/>
+      <c r="K19" s="485"/>
+      <c r="L19" s="484"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -18941,12 +19016,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="488"/>
-      <c r="H24" s="488"/>
-      <c r="I24" s="488"/>
-      <c r="J24" s="488"/>
-      <c r="K24" s="488"/>
-      <c r="L24" s="488"/>
+      <c r="G24" s="492"/>
+      <c r="H24" s="492"/>
+      <c r="I24" s="492"/>
+      <c r="J24" s="492"/>
+      <c r="K24" s="492"/>
+      <c r="L24" s="492"/>
       <c r="O24" s="40" t="s">
         <v>179</v>
       </c>
@@ -19330,7 +19405,7 @@
       <c r="H47" s="478" t="s">
         <v>1353</v>
       </c>
-      <c r="I47" s="487"/>
+      <c r="I47" s="491"/>
       <c r="J47" s="479"/>
     </row>
     <row r="48" spans="1:17">
@@ -19937,16 +20012,16 @@
         <v>1047</v>
       </c>
       <c r="F131" s="38"/>
-      <c r="G131" s="484" t="s">
+      <c r="G131" s="488" t="s">
         <v>1040</v>
       </c>
-      <c r="H131" s="484"/>
-      <c r="I131" s="484"/>
-      <c r="J131" s="484"/>
-      <c r="K131" s="484"/>
-      <c r="L131" s="484"/>
-      <c r="M131" s="484"/>
-      <c r="N131" s="484"/>
+      <c r="H131" s="488"/>
+      <c r="I131" s="488"/>
+      <c r="J131" s="488"/>
+      <c r="K131" s="488"/>
+      <c r="L131" s="488"/>
+      <c r="M131" s="488"/>
+      <c r="N131" s="488"/>
       <c r="O131" s="38"/>
     </row>
     <row r="132" spans="2:15">
@@ -20083,29 +20158,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="38"/>
-      <c r="G141" s="485"/>
-      <c r="H141" s="485"/>
-      <c r="I141" s="485"/>
-      <c r="J141" s="485"/>
-      <c r="K141" s="485"/>
-      <c r="L141" s="485"/>
-      <c r="M141" s="485"/>
-      <c r="N141" s="485"/>
-      <c r="O141" s="485"/>
+      <c r="G141" s="489"/>
+      <c r="H141" s="489"/>
+      <c r="I141" s="489"/>
+      <c r="J141" s="489"/>
+      <c r="K141" s="489"/>
+      <c r="L141" s="489"/>
+      <c r="M141" s="489"/>
+      <c r="N141" s="489"/>
+      <c r="O141" s="489"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="485"/>
-      <c r="H142" s="485"/>
-      <c r="I142" s="485"/>
-      <c r="J142" s="485"/>
-      <c r="K142" s="485"/>
-      <c r="L142" s="485"/>
-      <c r="M142" s="485"/>
-      <c r="N142" s="485"/>
-      <c r="O142" s="485"/>
+      <c r="G142" s="489"/>
+      <c r="H142" s="489"/>
+      <c r="I142" s="489"/>
+      <c r="J142" s="489"/>
+      <c r="K142" s="489"/>
+      <c r="L142" s="489"/>
+      <c r="M142" s="489"/>
+      <c r="N142" s="489"/>
+      <c r="O142" s="489"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -20149,7 +20224,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="482" t="s">
+      <c r="D158" s="486" t="s">
         <v>1319</v>
       </c>
       <c r="E158" s="66"/>
@@ -20162,7 +20237,7 @@
       <c r="L158" s="237"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="483"/>
+      <c r="D159" s="487"/>
       <c r="E159" s="313" t="s">
         <v>1317</v>
       </c>
@@ -20184,7 +20259,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="483"/>
+      <c r="D160" s="487"/>
       <c r="E160" s="232"/>
       <c r="F160" s="238"/>
       <c r="G160" s="232"/>
@@ -20195,7 +20270,7 @@
       <c r="L160" s="238"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="483"/>
+      <c r="D161" s="487"/>
       <c r="E161" s="315"/>
       <c r="F161" s="316"/>
       <c r="G161" s="315"/>
@@ -20206,7 +20281,7 @@
       <c r="L161" s="316"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="483"/>
+      <c r="D162" s="487"/>
       <c r="E162" s="317"/>
       <c r="F162" s="318"/>
       <c r="G162" s="317"/>
@@ -20220,7 +20295,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="483"/>
+      <c r="D163" s="487"/>
       <c r="E163" s="319"/>
       <c r="F163" s="320"/>
       <c r="G163" s="319"/>
@@ -20231,7 +20306,7 @@
       <c r="L163" s="320"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="483"/>
+      <c r="D164" s="487"/>
       <c r="E164" s="66"/>
       <c r="F164" s="237"/>
       <c r="G164" s="66"/>
@@ -20242,7 +20317,7 @@
       <c r="L164" s="237"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="483"/>
+      <c r="D165" s="487"/>
       <c r="E165" s="58"/>
       <c r="F165" s="312"/>
       <c r="G165" s="58"/>
@@ -20256,7 +20331,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="483"/>
+      <c r="D166" s="487"/>
       <c r="E166" s="232"/>
       <c r="F166" s="238"/>
       <c r="G166" s="232"/>
@@ -20267,7 +20342,7 @@
       <c r="L166" s="238"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="483"/>
+      <c r="D167" s="487"/>
       <c r="E167" s="66"/>
       <c r="F167" s="237"/>
       <c r="G167" s="59"/>
@@ -20278,7 +20353,7 @@
       <c r="L167" s="312"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="483"/>
+      <c r="D168" s="487"/>
       <c r="E168" s="58"/>
       <c r="F168" s="312"/>
       <c r="G168" s="59"/>
@@ -20292,7 +20367,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="483"/>
+      <c r="D169" s="487"/>
       <c r="E169" s="232"/>
       <c r="F169" s="238"/>
       <c r="G169" s="321"/>
@@ -21039,17 +21114,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -21311,7 +21386,7 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="494">
+      <c r="C21" s="504">
         <v>43909</v>
       </c>
       <c r="D21" s="493"/>
@@ -21331,7 +21406,7 @@
       <c r="N21" s="493"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="494"/>
+      <c r="C22" s="504"/>
       <c r="D22" s="493"/>
       <c r="E22" s="493"/>
       <c r="F22" s="493"/>
@@ -21349,7 +21424,7 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="494"/>
+      <c r="C23" s="504"/>
       <c r="D23" s="493"/>
       <c r="E23" s="493"/>
       <c r="F23" s="493"/>
@@ -21365,7 +21440,7 @@
       <c r="N23" s="493"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="494"/>
+      <c r="C24" s="504"/>
       <c r="D24" s="493"/>
       <c r="E24" s="493"/>
       <c r="F24" s="493"/>
@@ -21404,16 +21479,16 @@
       <c r="C26" s="116">
         <v>43911</v>
       </c>
-      <c r="D26" s="495"/>
-      <c r="E26" s="496"/>
-      <c r="F26" s="496"/>
-      <c r="G26" s="496"/>
-      <c r="H26" s="497"/>
-      <c r="I26" s="502" t="s">
+      <c r="D26" s="494"/>
+      <c r="E26" s="495"/>
+      <c r="F26" s="495"/>
+      <c r="G26" s="495"/>
+      <c r="H26" s="496"/>
+      <c r="I26" s="501" t="s">
         <v>460</v>
       </c>
-      <c r="J26" s="495"/>
-      <c r="K26" s="497"/>
+      <c r="J26" s="494"/>
+      <c r="K26" s="496"/>
       <c r="L26" s="117" t="s">
         <v>461</v>
       </c>
@@ -21422,14 +21497,14 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
-      <c r="D27" s="498"/>
-      <c r="E27" s="488"/>
-      <c r="F27" s="488"/>
-      <c r="G27" s="488"/>
-      <c r="H27" s="499"/>
-      <c r="I27" s="503"/>
-      <c r="J27" s="498"/>
-      <c r="K27" s="499"/>
+      <c r="D27" s="497"/>
+      <c r="E27" s="492"/>
+      <c r="F27" s="492"/>
+      <c r="G27" s="492"/>
+      <c r="H27" s="498"/>
+      <c r="I27" s="502"/>
+      <c r="J27" s="497"/>
+      <c r="K27" s="498"/>
       <c r="L27" s="493" t="s">
         <v>465</v>
       </c>
@@ -21438,14 +21513,14 @@
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
-      <c r="D28" s="498"/>
-      <c r="E28" s="488"/>
-      <c r="F28" s="488"/>
-      <c r="G28" s="488"/>
-      <c r="H28" s="499"/>
-      <c r="I28" s="503"/>
-      <c r="J28" s="498"/>
-      <c r="K28" s="499"/>
+      <c r="D28" s="497"/>
+      <c r="E28" s="492"/>
+      <c r="F28" s="492"/>
+      <c r="G28" s="492"/>
+      <c r="H28" s="498"/>
+      <c r="I28" s="502"/>
+      <c r="J28" s="497"/>
+      <c r="K28" s="498"/>
       <c r="L28" s="118" t="s">
         <v>460</v>
       </c>
@@ -21454,14 +21529,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
-      <c r="D29" s="500"/>
+      <c r="D29" s="499"/>
       <c r="E29" s="480"/>
       <c r="F29" s="480"/>
       <c r="G29" s="480"/>
-      <c r="H29" s="501"/>
-      <c r="I29" s="504"/>
-      <c r="J29" s="500"/>
-      <c r="K29" s="501"/>
+      <c r="H29" s="500"/>
+      <c r="I29" s="503"/>
+      <c r="J29" s="499"/>
+      <c r="K29" s="500"/>
       <c r="L29" s="119" t="s">
         <v>466</v>
       </c>
@@ -21526,7 +21601,7 @@
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="494">
+      <c r="C34" s="504">
         <v>43909</v>
       </c>
       <c r="D34" s="493"/>
@@ -21544,7 +21619,7 @@
       <c r="N34" s="493"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="494"/>
+      <c r="C35" s="504"/>
       <c r="D35" s="493"/>
       <c r="E35" s="493"/>
       <c r="F35" s="493"/>
@@ -21560,7 +21635,7 @@
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="494"/>
+      <c r="C36" s="504"/>
       <c r="D36" s="493"/>
       <c r="E36" s="493"/>
       <c r="F36" s="493"/>
@@ -21576,7 +21651,7 @@
       <c r="N36" s="493"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="494"/>
+      <c r="C37" s="504"/>
       <c r="D37" s="493"/>
       <c r="E37" s="493"/>
       <c r="F37" s="493"/>
@@ -21615,14 +21690,14 @@
       <c r="C39" s="116">
         <v>43911</v>
       </c>
-      <c r="D39" s="495"/>
-      <c r="E39" s="496"/>
-      <c r="F39" s="496"/>
-      <c r="G39" s="496"/>
-      <c r="H39" s="497"/>
-      <c r="I39" s="502"/>
-      <c r="J39" s="495"/>
-      <c r="K39" s="497"/>
+      <c r="D39" s="494"/>
+      <c r="E39" s="495"/>
+      <c r="F39" s="495"/>
+      <c r="G39" s="495"/>
+      <c r="H39" s="496"/>
+      <c r="I39" s="501"/>
+      <c r="J39" s="494"/>
+      <c r="K39" s="496"/>
       <c r="L39" s="117" t="s">
         <v>461</v>
       </c>
@@ -21631,14 +21706,14 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
-      <c r="D40" s="498"/>
-      <c r="E40" s="488"/>
-      <c r="F40" s="488"/>
-      <c r="G40" s="488"/>
-      <c r="H40" s="499"/>
-      <c r="I40" s="503"/>
-      <c r="J40" s="498"/>
-      <c r="K40" s="499"/>
+      <c r="D40" s="497"/>
+      <c r="E40" s="492"/>
+      <c r="F40" s="492"/>
+      <c r="G40" s="492"/>
+      <c r="H40" s="498"/>
+      <c r="I40" s="502"/>
+      <c r="J40" s="497"/>
+      <c r="K40" s="498"/>
       <c r="L40" s="493" t="s">
         <v>465</v>
       </c>
@@ -21647,14 +21722,14 @@
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
-      <c r="D41" s="498"/>
-      <c r="E41" s="488"/>
-      <c r="F41" s="488"/>
-      <c r="G41" s="488"/>
-      <c r="H41" s="499"/>
-      <c r="I41" s="504"/>
-      <c r="J41" s="498"/>
-      <c r="K41" s="499"/>
+      <c r="D41" s="497"/>
+      <c r="E41" s="492"/>
+      <c r="F41" s="492"/>
+      <c r="G41" s="492"/>
+      <c r="H41" s="498"/>
+      <c r="I41" s="503"/>
+      <c r="J41" s="497"/>
+      <c r="K41" s="498"/>
       <c r="L41" s="118" t="s">
         <v>467</v>
       </c>
@@ -21663,16 +21738,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
-      <c r="D42" s="500"/>
+      <c r="D42" s="499"/>
       <c r="E42" s="480"/>
       <c r="F42" s="480"/>
       <c r="G42" s="480"/>
-      <c r="H42" s="501"/>
+      <c r="H42" s="500"/>
       <c r="I42" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="J42" s="500"/>
-      <c r="K42" s="501"/>
+      <c r="J42" s="499"/>
+      <c r="K42" s="500"/>
       <c r="L42" s="119" t="s">
         <v>466</v>
       </c>
@@ -21984,17 +22059,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -22002,12 +22072,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23232,29 +23307,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="520" t="s">
+      <c r="B2" s="529" t="s">
         <v>1075</v>
       </c>
-      <c r="C2" s="520"/>
-      <c r="D2" s="520"/>
-      <c r="E2" s="520"/>
-      <c r="F2" s="520"/>
-      <c r="G2" s="520"/>
-      <c r="H2" s="520"/>
-      <c r="I2" s="520"/>
-      <c r="J2" s="520"/>
-      <c r="K2" s="520"/>
-      <c r="L2" s="520"/>
-      <c r="M2" s="520"/>
-      <c r="N2" s="520"/>
-      <c r="O2" s="520"/>
-      <c r="P2" s="520"/>
-      <c r="Q2" s="520"/>
-      <c r="R2" s="520"/>
-      <c r="S2" s="520"/>
-      <c r="T2" s="520"/>
-      <c r="U2" s="520"/>
-      <c r="V2" s="520"/>
+      <c r="C2" s="529"/>
+      <c r="D2" s="529"/>
+      <c r="E2" s="529"/>
+      <c r="F2" s="529"/>
+      <c r="G2" s="529"/>
+      <c r="H2" s="529"/>
+      <c r="I2" s="529"/>
+      <c r="J2" s="529"/>
+      <c r="K2" s="529"/>
+      <c r="L2" s="529"/>
+      <c r="M2" s="529"/>
+      <c r="N2" s="529"/>
+      <c r="O2" s="529"/>
+      <c r="P2" s="529"/>
+      <c r="Q2" s="529"/>
+      <c r="R2" s="529"/>
+      <c r="S2" s="529"/>
+      <c r="T2" s="529"/>
+      <c r="U2" s="529"/>
+      <c r="V2" s="529"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -23287,22 +23362,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="523" t="s">
+      <c r="G5" s="510" t="s">
         <v>518</v>
       </c>
-      <c r="H5" s="523"/>
-      <c r="I5" s="523" t="s">
+      <c r="H5" s="510"/>
+      <c r="I5" s="510" t="s">
         <v>519</v>
       </c>
-      <c r="J5" s="523"/>
-      <c r="K5" s="523"/>
-      <c r="L5" s="523"/>
-      <c r="M5" s="523"/>
-      <c r="N5" s="523"/>
-      <c r="O5" s="523" t="s">
+      <c r="J5" s="510"/>
+      <c r="K5" s="510"/>
+      <c r="L5" s="510"/>
+      <c r="M5" s="510"/>
+      <c r="N5" s="510"/>
+      <c r="O5" s="510" t="s">
         <v>520</v>
       </c>
-      <c r="P5" s="523"/>
+      <c r="P5" s="510"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -23314,7 +23389,7 @@
       <c r="D6" s="135"/>
       <c r="E6" s="136"/>
       <c r="F6" s="138"/>
-      <c r="G6" s="528" t="s">
+      <c r="G6" s="511" t="s">
         <v>521</v>
       </c>
       <c r="H6" s="111"/>
@@ -23344,25 +23419,25 @@
       <c r="E7" s="138"/>
       <c r="F7" s="138"/>
       <c r="G7" s="435"/>
-      <c r="H7" s="529" t="s">
+      <c r="H7" s="512" t="s">
         <v>523</v>
       </c>
-      <c r="I7" s="532" t="s">
+      <c r="I7" s="515" t="s">
         <v>524</v>
       </c>
-      <c r="J7" s="533"/>
-      <c r="K7" s="534" t="s">
+      <c r="J7" s="516"/>
+      <c r="K7" s="517" t="s">
         <v>525</v>
       </c>
-      <c r="L7" s="535"/>
-      <c r="M7" s="532" t="s">
+      <c r="L7" s="518"/>
+      <c r="M7" s="515" t="s">
         <v>526</v>
       </c>
-      <c r="N7" s="533"/>
-      <c r="O7" s="540" t="s">
+      <c r="N7" s="516"/>
+      <c r="O7" s="523" t="s">
         <v>527</v>
       </c>
-      <c r="P7" s="541"/>
+      <c r="P7" s="524"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -23375,15 +23450,15 @@
       <c r="E8" s="140"/>
       <c r="F8" s="138"/>
       <c r="G8" s="435"/>
-      <c r="H8" s="530"/>
+      <c r="H8" s="513"/>
       <c r="I8" s="430"/>
       <c r="J8" s="432"/>
-      <c r="K8" s="536"/>
-      <c r="L8" s="537"/>
+      <c r="K8" s="519"/>
+      <c r="L8" s="520"/>
       <c r="M8" s="430"/>
       <c r="N8" s="432"/>
-      <c r="O8" s="542"/>
-      <c r="P8" s="543"/>
+      <c r="O8" s="525"/>
+      <c r="P8" s="526"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="38" t="s">
         <v>182</v>
@@ -23402,15 +23477,15 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="435"/>
-      <c r="H9" s="530"/>
+      <c r="H9" s="513"/>
       <c r="I9" s="430"/>
       <c r="J9" s="432"/>
-      <c r="K9" s="536"/>
-      <c r="L9" s="537"/>
+      <c r="K9" s="519"/>
+      <c r="L9" s="520"/>
       <c r="M9" s="430"/>
       <c r="N9" s="432"/>
-      <c r="O9" s="542"/>
-      <c r="P9" s="543"/>
+      <c r="O9" s="525"/>
+      <c r="P9" s="526"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -23431,15 +23506,15 @@
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
       <c r="G10" s="435"/>
-      <c r="H10" s="530"/>
+      <c r="H10" s="513"/>
       <c r="I10" s="430"/>
       <c r="J10" s="432"/>
-      <c r="K10" s="536"/>
-      <c r="L10" s="537"/>
+      <c r="K10" s="519"/>
+      <c r="L10" s="520"/>
       <c r="M10" s="430"/>
       <c r="N10" s="432"/>
-      <c r="O10" s="542"/>
-      <c r="P10" s="543"/>
+      <c r="O10" s="525"/>
+      <c r="P10" s="526"/>
       <c r="Q10" s="5" t="s">
         <v>187</v>
       </c>
@@ -23456,15 +23531,15 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="435"/>
-      <c r="H11" s="530"/>
+      <c r="H11" s="513"/>
       <c r="I11" s="430"/>
       <c r="J11" s="432"/>
-      <c r="K11" s="536"/>
-      <c r="L11" s="537"/>
+      <c r="K11" s="519"/>
+      <c r="L11" s="520"/>
       <c r="M11" s="430"/>
       <c r="N11" s="432"/>
-      <c r="O11" s="542"/>
-      <c r="P11" s="543"/>
+      <c r="O11" s="525"/>
+      <c r="P11" s="526"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -23483,15 +23558,15 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="435"/>
-      <c r="H12" s="530"/>
+      <c r="H12" s="513"/>
       <c r="I12" s="430"/>
       <c r="J12" s="432"/>
-      <c r="K12" s="536"/>
-      <c r="L12" s="537"/>
+      <c r="K12" s="519"/>
+      <c r="L12" s="520"/>
       <c r="M12" s="430"/>
       <c r="N12" s="432"/>
-      <c r="O12" s="542"/>
-      <c r="P12" s="543"/>
+      <c r="O12" s="525"/>
+      <c r="P12" s="526"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -23506,15 +23581,15 @@
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
       <c r="G13" s="435"/>
-      <c r="H13" s="530"/>
+      <c r="H13" s="513"/>
       <c r="I13" s="430"/>
       <c r="J13" s="432"/>
-      <c r="K13" s="536"/>
-      <c r="L13" s="537"/>
+      <c r="K13" s="519"/>
+      <c r="L13" s="520"/>
       <c r="M13" s="430"/>
       <c r="N13" s="432"/>
-      <c r="O13" s="542"/>
-      <c r="P13" s="543"/>
+      <c r="O13" s="525"/>
+      <c r="P13" s="526"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -23527,15 +23602,15 @@
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
       <c r="G14" s="435"/>
-      <c r="H14" s="530"/>
+      <c r="H14" s="513"/>
       <c r="I14" s="430"/>
       <c r="J14" s="432"/>
-      <c r="K14" s="536"/>
-      <c r="L14" s="537"/>
+      <c r="K14" s="519"/>
+      <c r="L14" s="520"/>
       <c r="M14" s="430"/>
       <c r="N14" s="432"/>
-      <c r="O14" s="542"/>
-      <c r="P14" s="543"/>
+      <c r="O14" s="525"/>
+      <c r="P14" s="526"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -23550,15 +23625,15 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="435"/>
-      <c r="H15" s="530"/>
+      <c r="H15" s="513"/>
       <c r="I15" s="430"/>
       <c r="J15" s="432"/>
-      <c r="K15" s="536"/>
-      <c r="L15" s="537"/>
+      <c r="K15" s="519"/>
+      <c r="L15" s="520"/>
       <c r="M15" s="430"/>
       <c r="N15" s="432"/>
-      <c r="O15" s="542"/>
-      <c r="P15" s="543"/>
+      <c r="O15" s="525"/>
+      <c r="P15" s="526"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -23571,15 +23646,15 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="435"/>
-      <c r="H16" s="530"/>
+      <c r="H16" s="513"/>
       <c r="I16" s="430"/>
       <c r="J16" s="432"/>
-      <c r="K16" s="536"/>
-      <c r="L16" s="537"/>
+      <c r="K16" s="519"/>
+      <c r="L16" s="520"/>
       <c r="M16" s="430"/>
       <c r="N16" s="432"/>
-      <c r="O16" s="542"/>
-      <c r="P16" s="543"/>
+      <c r="O16" s="525"/>
+      <c r="P16" s="526"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -23592,15 +23667,15 @@
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
       <c r="G17" s="435"/>
-      <c r="H17" s="530"/>
+      <c r="H17" s="513"/>
       <c r="I17" s="430"/>
       <c r="J17" s="432"/>
-      <c r="K17" s="536"/>
-      <c r="L17" s="537"/>
+      <c r="K17" s="519"/>
+      <c r="L17" s="520"/>
       <c r="M17" s="430"/>
       <c r="N17" s="432"/>
-      <c r="O17" s="542"/>
-      <c r="P17" s="543"/>
+      <c r="O17" s="525"/>
+      <c r="P17" s="526"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -23613,15 +23688,15 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="435"/>
-      <c r="H18" s="530"/>
+      <c r="H18" s="513"/>
       <c r="I18" s="430"/>
       <c r="J18" s="432"/>
-      <c r="K18" s="536"/>
-      <c r="L18" s="537"/>
+      <c r="K18" s="519"/>
+      <c r="L18" s="520"/>
       <c r="M18" s="430"/>
       <c r="N18" s="432"/>
-      <c r="O18" s="542"/>
-      <c r="P18" s="543"/>
+      <c r="O18" s="525"/>
+      <c r="P18" s="526"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -23636,15 +23711,15 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="435"/>
-      <c r="H19" s="530"/>
+      <c r="H19" s="513"/>
       <c r="I19" s="430"/>
       <c r="J19" s="432"/>
-      <c r="K19" s="536"/>
-      <c r="L19" s="537"/>
+      <c r="K19" s="519"/>
+      <c r="L19" s="520"/>
       <c r="M19" s="430"/>
       <c r="N19" s="432"/>
-      <c r="O19" s="542"/>
-      <c r="P19" s="543"/>
+      <c r="O19" s="525"/>
+      <c r="P19" s="526"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -23657,15 +23732,15 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="436"/>
-      <c r="H20" s="531"/>
+      <c r="H20" s="514"/>
       <c r="I20" s="451"/>
       <c r="J20" s="453"/>
-      <c r="K20" s="538"/>
-      <c r="L20" s="539"/>
+      <c r="K20" s="521"/>
+      <c r="L20" s="522"/>
       <c r="M20" s="451"/>
       <c r="N20" s="453"/>
-      <c r="O20" s="544"/>
-      <c r="P20" s="545"/>
+      <c r="O20" s="527"/>
+      <c r="P20" s="528"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -23746,49 +23821,49 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="520" t="s">
+      <c r="B25" s="529" t="s">
         <v>1074</v>
       </c>
-      <c r="C25" s="520"/>
-      <c r="D25" s="520"/>
-      <c r="E25" s="520"/>
-      <c r="F25" s="520"/>
-      <c r="G25" s="520"/>
-      <c r="H25" s="520"/>
-      <c r="I25" s="520"/>
-      <c r="J25" s="520"/>
-      <c r="K25" s="520"/>
-      <c r="L25" s="520"/>
-      <c r="M25" s="520"/>
-      <c r="N25" s="520"/>
-      <c r="O25" s="520"/>
-      <c r="P25" s="520"/>
-      <c r="Q25" s="520"/>
-      <c r="R25" s="520"/>
-      <c r="S25" s="520"/>
-      <c r="T25" s="520"/>
-      <c r="U25" s="520"/>
-      <c r="V25" s="520"/>
+      <c r="C25" s="529"/>
+      <c r="D25" s="529"/>
+      <c r="E25" s="529"/>
+      <c r="F25" s="529"/>
+      <c r="G25" s="529"/>
+      <c r="H25" s="529"/>
+      <c r="I25" s="529"/>
+      <c r="J25" s="529"/>
+      <c r="K25" s="529"/>
+      <c r="L25" s="529"/>
+      <c r="M25" s="529"/>
+      <c r="N25" s="529"/>
+      <c r="O25" s="529"/>
+      <c r="P25" s="529"/>
+      <c r="Q25" s="529"/>
+      <c r="R25" s="529"/>
+      <c r="S25" s="529"/>
+      <c r="T25" s="529"/>
+      <c r="U25" s="529"/>
+      <c r="V25" s="529"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="521" t="s">
+      <c r="C26" s="530" t="s">
         <v>570</v>
       </c>
-      <c r="D26" s="521"/>
-      <c r="E26" s="521"/>
-      <c r="F26" s="521"/>
-      <c r="G26" s="521"/>
-      <c r="H26" s="521"/>
-      <c r="I26" s="521"/>
-      <c r="J26" s="521"/>
-      <c r="K26" s="521"/>
-      <c r="L26" s="521"/>
-      <c r="M26" s="521"/>
+      <c r="D26" s="530"/>
+      <c r="E26" s="530"/>
+      <c r="F26" s="530"/>
+      <c r="G26" s="530"/>
+      <c r="H26" s="530"/>
+      <c r="I26" s="530"/>
+      <c r="J26" s="530"/>
+      <c r="K26" s="530"/>
+      <c r="L26" s="530"/>
+      <c r="M26" s="530"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="489" t="s">
+      <c r="E27" s="482" t="s">
         <v>178</v>
       </c>
       <c r="F27" s="426"/>
@@ -23831,11 +23906,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="522" t="s">
+      <c r="O29" s="531" t="s">
         <v>179</v>
       </c>
-      <c r="P29" s="522"/>
-      <c r="Q29" s="522"/>
+      <c r="P29" s="531"/>
+      <c r="Q29" s="531"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -23880,21 +23955,21 @@
         <v>190</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="517" t="s">
+      <c r="E32" s="535" t="s">
         <v>1078</v>
       </c>
-      <c r="F32" s="518"/>
-      <c r="G32" s="519"/>
-      <c r="H32" s="517" t="s">
+      <c r="F32" s="536"/>
+      <c r="G32" s="537"/>
+      <c r="H32" s="535" t="s">
         <v>1079</v>
       </c>
-      <c r="I32" s="518"/>
-      <c r="J32" s="519"/>
-      <c r="K32" s="517" t="s">
+      <c r="I32" s="536"/>
+      <c r="J32" s="537"/>
+      <c r="K32" s="535" t="s">
         <v>1080</v>
       </c>
-      <c r="L32" s="518"/>
-      <c r="M32" s="519"/>
+      <c r="L32" s="536"/>
+      <c r="M32" s="537"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -23911,15 +23986,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="517"/>
-      <c r="F33" s="518"/>
-      <c r="G33" s="519"/>
-      <c r="H33" s="517"/>
-      <c r="I33" s="518"/>
-      <c r="J33" s="519"/>
-      <c r="K33" s="517"/>
-      <c r="L33" s="518"/>
-      <c r="M33" s="519"/>
+      <c r="E33" s="535"/>
+      <c r="F33" s="536"/>
+      <c r="G33" s="537"/>
+      <c r="H33" s="535"/>
+      <c r="I33" s="536"/>
+      <c r="J33" s="537"/>
+      <c r="K33" s="535"/>
+      <c r="L33" s="536"/>
+      <c r="M33" s="537"/>
       <c r="N33" s="5" t="s">
         <v>187</v>
       </c>
@@ -23936,15 +24011,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="517"/>
-      <c r="F34" s="518"/>
-      <c r="G34" s="519"/>
-      <c r="H34" s="517"/>
-      <c r="I34" s="518"/>
-      <c r="J34" s="519"/>
-      <c r="K34" s="517"/>
-      <c r="L34" s="518"/>
-      <c r="M34" s="519"/>
+      <c r="E34" s="535"/>
+      <c r="F34" s="536"/>
+      <c r="G34" s="537"/>
+      <c r="H34" s="535"/>
+      <c r="I34" s="536"/>
+      <c r="J34" s="537"/>
+      <c r="K34" s="535"/>
+      <c r="L34" s="536"/>
+      <c r="M34" s="537"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -23955,15 +24030,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="517"/>
-      <c r="F35" s="518"/>
-      <c r="G35" s="519"/>
-      <c r="H35" s="517"/>
-      <c r="I35" s="518"/>
-      <c r="J35" s="519"/>
-      <c r="K35" s="517"/>
-      <c r="L35" s="518"/>
-      <c r="M35" s="519"/>
+      <c r="E35" s="535"/>
+      <c r="F35" s="536"/>
+      <c r="G35" s="537"/>
+      <c r="H35" s="535"/>
+      <c r="I35" s="536"/>
+      <c r="J35" s="537"/>
+      <c r="K35" s="535"/>
+      <c r="L35" s="536"/>
+      <c r="M35" s="537"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -24094,15 +24169,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="510"/>
-      <c r="F42" s="511"/>
-      <c r="G42" s="511"/>
-      <c r="H42" s="511"/>
-      <c r="I42" s="511"/>
-      <c r="J42" s="511"/>
-      <c r="K42" s="511"/>
-      <c r="L42" s="511"/>
-      <c r="M42" s="512"/>
+      <c r="E42" s="539"/>
+      <c r="F42" s="540"/>
+      <c r="G42" s="540"/>
+      <c r="H42" s="540"/>
+      <c r="I42" s="540"/>
+      <c r="J42" s="540"/>
+      <c r="K42" s="540"/>
+      <c r="L42" s="540"/>
+      <c r="M42" s="541"/>
       <c r="N42" s="40" t="s">
         <v>575</v>
       </c>
@@ -24143,51 +24218,51 @@
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="520" t="s">
+      <c r="B47" s="529" t="s">
         <v>1076</v>
       </c>
-      <c r="C47" s="520"/>
-      <c r="D47" s="520"/>
-      <c r="E47" s="520"/>
-      <c r="F47" s="520"/>
-      <c r="G47" s="520"/>
-      <c r="H47" s="520"/>
-      <c r="I47" s="520"/>
-      <c r="J47" s="520"/>
-      <c r="K47" s="520"/>
-      <c r="L47" s="520"/>
-      <c r="M47" s="520"/>
-      <c r="N47" s="520"/>
-      <c r="O47" s="520"/>
-      <c r="P47" s="520"/>
-      <c r="Q47" s="520"/>
-      <c r="R47" s="520"/>
-      <c r="S47" s="520"/>
-      <c r="T47" s="520"/>
-      <c r="U47" s="520"/>
-      <c r="V47" s="520"/>
+      <c r="C47" s="529"/>
+      <c r="D47" s="529"/>
+      <c r="E47" s="529"/>
+      <c r="F47" s="529"/>
+      <c r="G47" s="529"/>
+      <c r="H47" s="529"/>
+      <c r="I47" s="529"/>
+      <c r="J47" s="529"/>
+      <c r="K47" s="529"/>
+      <c r="L47" s="529"/>
+      <c r="M47" s="529"/>
+      <c r="N47" s="529"/>
+      <c r="O47" s="529"/>
+      <c r="P47" s="529"/>
+      <c r="Q47" s="529"/>
+      <c r="R47" s="529"/>
+      <c r="S47" s="529"/>
+      <c r="T47" s="529"/>
+      <c r="U47" s="529"/>
+      <c r="V47" s="529"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="521" t="s">
+      <c r="C48" s="530" t="s">
         <v>570</v>
       </c>
-      <c r="D48" s="521"/>
-      <c r="E48" s="521"/>
-      <c r="F48" s="521"/>
-      <c r="G48" s="521"/>
-      <c r="H48" s="521"/>
-      <c r="I48" s="521"/>
-      <c r="J48" s="521"/>
-      <c r="K48" s="521"/>
-      <c r="L48" s="521"/>
-      <c r="M48" s="521"/>
+      <c r="D48" s="530"/>
+      <c r="E48" s="530"/>
+      <c r="F48" s="530"/>
+      <c r="G48" s="530"/>
+      <c r="H48" s="530"/>
+      <c r="I48" s="530"/>
+      <c r="J48" s="530"/>
+      <c r="K48" s="530"/>
+      <c r="L48" s="530"/>
+      <c r="M48" s="530"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="489" t="s">
+      <c r="E49" s="482" t="s">
         <v>178</v>
       </c>
       <c r="F49" s="426"/>
@@ -24215,16 +24290,16 @@
       </c>
       <c r="F50" s="122"/>
       <c r="G50" s="245"/>
-      <c r="H50" s="524" t="s">
+      <c r="H50" s="532" t="s">
         <v>1079</v>
       </c>
-      <c r="I50" s="525"/>
-      <c r="J50" s="526"/>
-      <c r="K50" s="524" t="s">
+      <c r="I50" s="533"/>
+      <c r="J50" s="534"/>
+      <c r="K50" s="532" t="s">
         <v>1080</v>
       </c>
-      <c r="L50" s="525"/>
-      <c r="M50" s="526"/>
+      <c r="L50" s="533"/>
+      <c r="M50" s="534"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -24238,20 +24313,20 @@
         <v>1094</v>
       </c>
       <c r="F51" s="286"/>
-      <c r="G51" s="527" t="s">
+      <c r="G51" s="538" t="s">
         <v>1102</v>
       </c>
-      <c r="H51" s="517"/>
-      <c r="I51" s="518"/>
-      <c r="J51" s="519"/>
-      <c r="K51" s="517"/>
-      <c r="L51" s="518"/>
-      <c r="M51" s="519"/>
-      <c r="O51" s="522" t="s">
+      <c r="H51" s="535"/>
+      <c r="I51" s="536"/>
+      <c r="J51" s="537"/>
+      <c r="K51" s="535"/>
+      <c r="L51" s="536"/>
+      <c r="M51" s="537"/>
+      <c r="O51" s="531" t="s">
         <v>179</v>
       </c>
-      <c r="P51" s="522"/>
-      <c r="Q51" s="522"/>
+      <c r="P51" s="531"/>
+      <c r="Q51" s="531"/>
       <c r="S51" s="273"/>
       <c r="T51" s="273"/>
       <c r="W51" s="40" t="s">
@@ -24265,13 +24340,13 @@
         <v>1095</v>
       </c>
       <c r="F52" s="287"/>
-      <c r="G52" s="527"/>
-      <c r="H52" s="517"/>
-      <c r="I52" s="518"/>
-      <c r="J52" s="519"/>
-      <c r="K52" s="517"/>
-      <c r="L52" s="518"/>
-      <c r="M52" s="519"/>
+      <c r="G52" s="538"/>
+      <c r="H52" s="535"/>
+      <c r="I52" s="536"/>
+      <c r="J52" s="537"/>
+      <c r="K52" s="535"/>
+      <c r="L52" s="536"/>
+      <c r="M52" s="537"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -24282,13 +24357,13 @@
         <v>1096</v>
       </c>
       <c r="F53" s="288"/>
-      <c r="G53" s="527"/>
-      <c r="H53" s="517"/>
-      <c r="I53" s="518"/>
-      <c r="J53" s="519"/>
-      <c r="K53" s="517"/>
-      <c r="L53" s="518"/>
-      <c r="M53" s="519"/>
+      <c r="G53" s="538"/>
+      <c r="H53" s="535"/>
+      <c r="I53" s="536"/>
+      <c r="J53" s="537"/>
+      <c r="K53" s="535"/>
+      <c r="L53" s="536"/>
+      <c r="M53" s="537"/>
       <c r="N53" s="5"/>
       <c r="O53" s="38" t="s">
         <v>182</v>
@@ -24327,7 +24402,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="274"/>
       <c r="F54" s="289"/>
-      <c r="G54" s="515" t="s">
+      <c r="G54" s="544" t="s">
         <v>1106</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -24374,11 +24449,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="513" t="s">
+      <c r="E55" s="542" t="s">
         <v>1107</v>
       </c>
-      <c r="F55" s="514"/>
-      <c r="G55" s="516"/>
+      <c r="F55" s="543"/>
+      <c r="G55" s="545"/>
       <c r="H55" s="141" t="s">
         <v>1098</v>
       </c>
@@ -24422,9 +24497,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="513"/>
-      <c r="F56" s="514"/>
-      <c r="G56" s="516"/>
+      <c r="E56" s="542"/>
+      <c r="F56" s="543"/>
+      <c r="G56" s="545"/>
       <c r="H56" s="141" t="s">
         <v>1099</v>
       </c>
@@ -24454,9 +24529,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="513"/>
-      <c r="F57" s="514"/>
-      <c r="G57" s="516"/>
+      <c r="E57" s="542"/>
+      <c r="F57" s="543"/>
+      <c r="G57" s="545"/>
       <c r="H57" s="4" t="s">
         <v>1111</v>
       </c>
@@ -24486,9 +24561,9 @@
         <v>192</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="513"/>
-      <c r="F58" s="514"/>
-      <c r="G58" s="516"/>
+      <c r="E58" s="542"/>
+      <c r="F58" s="543"/>
+      <c r="G58" s="545"/>
       <c r="H58" s="278" t="s">
         <v>1097</v>
       </c>
@@ -24513,9 +24588,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="513"/>
-      <c r="F59" s="514"/>
-      <c r="G59" s="516"/>
+      <c r="E59" s="542"/>
+      <c r="F59" s="543"/>
+      <c r="G59" s="545"/>
       <c r="H59" s="278" t="s">
         <v>549</v>
       </c>
@@ -24540,9 +24615,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="513"/>
-      <c r="F60" s="514"/>
-      <c r="G60" s="516"/>
+      <c r="E60" s="542"/>
+      <c r="F60" s="543"/>
+      <c r="G60" s="545"/>
       <c r="H60" s="280"/>
       <c r="I60" s="281" t="s">
         <v>1113</v>
@@ -24562,9 +24637,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="513"/>
-      <c r="F61" s="514"/>
-      <c r="G61" s="516"/>
+      <c r="E61" s="542"/>
+      <c r="F61" s="543"/>
+      <c r="G61" s="545"/>
       <c r="H61" s="280"/>
       <c r="I61" s="281" t="s">
         <v>1114</v>
@@ -24584,7 +24659,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="269"/>
       <c r="F62" s="285"/>
-      <c r="G62" s="516"/>
+      <c r="G62" s="545"/>
       <c r="H62" s="282"/>
       <c r="I62" s="284" t="s">
         <v>1115</v>
@@ -24626,15 +24701,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="510"/>
-      <c r="F64" s="511"/>
-      <c r="G64" s="511"/>
-      <c r="H64" s="511"/>
-      <c r="I64" s="511"/>
-      <c r="J64" s="511"/>
-      <c r="K64" s="511"/>
-      <c r="L64" s="511"/>
-      <c r="M64" s="512"/>
+      <c r="E64" s="539"/>
+      <c r="F64" s="540"/>
+      <c r="G64" s="540"/>
+      <c r="H64" s="540"/>
+      <c r="I64" s="540"/>
+      <c r="J64" s="540"/>
+      <c r="K64" s="540"/>
+      <c r="L64" s="540"/>
+      <c r="M64" s="541"/>
       <c r="N64" s="40" t="s">
         <v>575</v>
       </c>
@@ -25887,6 +25962,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -25903,30 +26002,6 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -26082,12 +26157,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="488" t="s">
+      <c r="B8" s="492" t="s">
         <v>1401</v>
       </c>
-      <c r="C8" s="488"/>
-      <c r="D8" s="488"/>
-      <c r="E8" s="488"/>
+      <c r="C8" s="492"/>
+      <c r="D8" s="492"/>
+      <c r="E8" s="492"/>
       <c r="J8" s="32" t="s">
         <v>554</v>
       </c>
@@ -26253,30 +26328,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="521" t="s">
+      <c r="C2" s="530" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="521"/>
-      <c r="E2" s="521"/>
-      <c r="F2" s="521"/>
-      <c r="G2" s="521"/>
-      <c r="H2" s="521"/>
-      <c r="I2" s="521"/>
-      <c r="J2" s="521"/>
-      <c r="K2" s="521"/>
-      <c r="L2" s="521"/>
+      <c r="D2" s="530"/>
+      <c r="E2" s="530"/>
+      <c r="F2" s="530"/>
+      <c r="G2" s="530"/>
+      <c r="H2" s="530"/>
+      <c r="I2" s="530"/>
+      <c r="J2" s="530"/>
+      <c r="K2" s="530"/>
+      <c r="L2" s="530"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="489" t="s">
+      <c r="E3" s="482" t="s">
         <v>178</v>
       </c>
       <c r="F3" s="426"/>
@@ -26316,11 +26391,11 @@
         <v>589</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="522" t="s">
+      <c r="N5" s="531" t="s">
         <v>179</v>
       </c>
-      <c r="O5" s="522"/>
-      <c r="P5" s="522"/>
+      <c r="O5" s="531"/>
+      <c r="P5" s="531"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -26371,20 +26446,20 @@
         <v>190</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="517" t="s">
+      <c r="E8" s="535" t="s">
         <v>571</v>
       </c>
-      <c r="F8" s="519"/>
-      <c r="G8" s="517" t="s">
+      <c r="F8" s="537"/>
+      <c r="G8" s="535" t="s">
         <v>572</v>
       </c>
-      <c r="H8" s="518"/>
-      <c r="I8" s="519"/>
-      <c r="J8" s="517" t="s">
+      <c r="H8" s="536"/>
+      <c r="I8" s="537"/>
+      <c r="J8" s="535" t="s">
         <v>573</v>
       </c>
-      <c r="K8" s="518"/>
-      <c r="L8" s="519"/>
+      <c r="K8" s="536"/>
+      <c r="L8" s="537"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -26407,14 +26482,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="517"/>
-      <c r="F9" s="519"/>
-      <c r="G9" s="517"/>
-      <c r="H9" s="518"/>
-      <c r="I9" s="519"/>
-      <c r="J9" s="517"/>
-      <c r="K9" s="518"/>
-      <c r="L9" s="519"/>
+      <c r="E9" s="535"/>
+      <c r="F9" s="537"/>
+      <c r="G9" s="535"/>
+      <c r="H9" s="536"/>
+      <c r="I9" s="537"/>
+      <c r="J9" s="535"/>
+      <c r="K9" s="536"/>
+      <c r="L9" s="537"/>
       <c r="M9" s="5" t="s">
         <v>187</v>
       </c>
@@ -26434,14 +26509,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="517"/>
-      <c r="F10" s="519"/>
-      <c r="G10" s="517"/>
-      <c r="H10" s="518"/>
-      <c r="I10" s="519"/>
-      <c r="J10" s="517"/>
-      <c r="K10" s="518"/>
-      <c r="L10" s="519"/>
+      <c r="E10" s="535"/>
+      <c r="F10" s="537"/>
+      <c r="G10" s="535"/>
+      <c r="H10" s="536"/>
+      <c r="I10" s="537"/>
+      <c r="J10" s="535"/>
+      <c r="K10" s="536"/>
+      <c r="L10" s="537"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -26455,14 +26530,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="517"/>
-      <c r="F11" s="519"/>
-      <c r="G11" s="517"/>
-      <c r="H11" s="518"/>
-      <c r="I11" s="519"/>
-      <c r="J11" s="517"/>
-      <c r="K11" s="518"/>
-      <c r="L11" s="519"/>
+      <c r="E11" s="535"/>
+      <c r="F11" s="537"/>
+      <c r="G11" s="535"/>
+      <c r="H11" s="536"/>
+      <c r="I11" s="537"/>
+      <c r="J11" s="535"/>
+      <c r="K11" s="536"/>
+      <c r="L11" s="537"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -26565,16 +26640,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="510" t="s">
+      <c r="E17" s="539" t="s">
         <v>574</v>
       </c>
-      <c r="F17" s="511"/>
-      <c r="G17" s="511"/>
-      <c r="H17" s="511"/>
-      <c r="I17" s="511"/>
-      <c r="J17" s="511"/>
-      <c r="K17" s="511"/>
-      <c r="L17" s="512"/>
+      <c r="F17" s="540"/>
+      <c r="G17" s="540"/>
+      <c r="H17" s="540"/>
+      <c r="I17" s="540"/>
+      <c r="J17" s="540"/>
+      <c r="K17" s="540"/>
+      <c r="L17" s="541"/>
       <c r="M17" s="40" t="s">
         <v>575</v>
       </c>
@@ -26666,34 +26741,78 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q23"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:17">
-      <c r="H3" s="1"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="H4" s="4"/>
-      <c r="I4" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+    <row r="1" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="G2" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>1811</v>
+      </c>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="7" t="s">
+        <v>1804</v>
+      </c>
+      <c r="N3" s="108"/>
+      <c r="O3" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>1805</v>
+      </c>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -26702,348 +26821,764 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H5" s="4"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="M5" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="N5" s="3"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="6"/>
+      <c r="P5" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H6" s="4"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="3"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="9"/>
+      <c r="D6" t="s">
+        <v>1813</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="4" t="s">
+        <v>1807</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="4" t="s">
+        <v>1808</v>
+      </c>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" t="s">
-        <v>600</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>608</v>
-      </c>
-      <c r="G7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="K7" s="3"/>
+      <c r="D7" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="N7" s="3"/>
+      <c r="M7" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>331</v>
+      </c>
       <c r="O7" s="5"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="P7" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1">
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>1814</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A10" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A11" t="s">
-        <v>605</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="M11" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="N11" s="3"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="6"/>
+      <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>301</v>
-      </c>
-      <c r="D12" t="s">
-        <v>607</v>
-      </c>
-      <c r="F12" t="s">
-        <v>485</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="K12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="M12" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="N12" s="6"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="6"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>301</v>
-      </c>
-      <c r="D13" t="s">
-        <v>614</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="K13" s="6">
-        <v>6</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="M13" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="N13" s="6"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="6"/>
+      <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1">
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>301</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9"/>
+    <row r="14" spans="1:17">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="M14" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N14" s="6"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="6"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17">
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="6"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="6"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" t="s">
-        <v>609</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1">
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="6"/>
+      <c r="P16" s="5"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+    <row r="17" spans="6:17">
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="6"/>
+      <c r="P17" s="5"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" t="s">
+    <row r="18" spans="6:17" ht="15.75" thickBot="1">
+      <c r="G18" s="8"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="20" spans="6:17">
+      <c r="K20" s="40" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="21" spans="6:17" ht="15.75" thickBot="1">
+      <c r="K21" s="40" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="22" spans="6:17">
+      <c r="F22" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+      <c r="K22" s="40"/>
+      <c r="M22" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="6:17">
+      <c r="F23" s="4" t="s">
+        <v>1820</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+      <c r="K23" s="40"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="6:17">
+      <c r="F24" s="4" t="s">
+        <v>1819</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
+      <c r="K24" s="40" t="s">
+        <v>1825</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="6:17">
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6" t="s">
+        <v>1822</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>1826</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="6:17">
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="s">
+        <v>1821</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="K26" s="40"/>
+      <c r="M26" s="4" t="s">
+        <v>1818</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="6:17">
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
+      <c r="K27" s="40" t="s">
+        <v>1827</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5" t="s">
+        <v>1824</v>
+      </c>
+      <c r="O27" s="5"/>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="6:17">
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
+      <c r="K28" s="40" t="s">
+        <v>1361</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="6:17">
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
+      <c r="K29" s="40"/>
+      <c r="M29" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="6:17" ht="15.75" thickBot="1">
+      <c r="F30" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="9"/>
+      <c r="K30" s="40"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="6:17">
+      <c r="K31" s="40"/>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="43" spans="1:17">
+      <c r="H43" s="1"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="H44" s="4"/>
+      <c r="I44" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="6"/>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" thickBot="1">
+      <c r="H45" s="4"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="6"/>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" thickBot="1">
+      <c r="H46" s="4"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="6"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" t="s">
+        <v>600</v>
+      </c>
+      <c r="C47" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E47" t="s">
+        <v>608</v>
+      </c>
+      <c r="G47" t="s">
+        <v>270</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="K47" s="3"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="N47" s="3"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" t="s">
+        <v>615</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" s="5"/>
+      <c r="M48" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O48" s="5"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="L49" s="5"/>
+      <c r="M49" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="O49" s="5"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" thickBot="1">
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+    </row>
+    <row r="51" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A51" t="s">
+        <v>605</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>301</v>
+      </c>
+      <c r="D52" t="s">
+        <v>607</v>
+      </c>
+      <c r="F52" t="s">
+        <v>485</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="K52" s="3"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>301</v>
+      </c>
+      <c r="D53" t="s">
+        <v>614</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="K53" s="6">
+        <v>6</v>
+      </c>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>301</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" t="s">
+        <v>609</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+    </row>
+    <row r="57" spans="1:17" ht="15.75" thickBot="1">
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s">
         <v>610</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C58" t="s">
         <v>331</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D58" t="s">
         <v>613</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F58" t="s">
         <v>485</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="1" t="s">
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="1" t="s">
+      <c r="K58" s="3"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" t="s">
+      <c r="N58" s="3"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B59" t="s">
         <v>610</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C59" t="s">
         <v>364</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D59" t="s">
         <v>287</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4" t="s">
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K59" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="4" t="s">
+      <c r="L59" s="5"/>
+      <c r="M59" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N59" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H22" s="4"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" thickBot="1">
-      <c r="H23" s="8"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="9"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+    </row>
+    <row r="61" spans="1:17" ht="15.75" thickBot="1">
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+    </row>
+    <row r="62" spans="1:17" ht="15.75" thickBot="1">
+      <c r="H62" s="4"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="6"/>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" thickBot="1">
+      <c r="H63" s="8"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27362,22 +27897,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="523" t="s">
+      <c r="E3" s="510" t="s">
         <v>518</v>
       </c>
-      <c r="F3" s="523"/>
-      <c r="G3" s="523" t="s">
+      <c r="F3" s="510"/>
+      <c r="G3" s="510" t="s">
         <v>519</v>
       </c>
-      <c r="H3" s="523"/>
-      <c r="I3" s="523"/>
-      <c r="J3" s="523"/>
-      <c r="K3" s="523"/>
-      <c r="L3" s="523"/>
-      <c r="M3" s="523" t="s">
+      <c r="H3" s="510"/>
+      <c r="I3" s="510"/>
+      <c r="J3" s="510"/>
+      <c r="K3" s="510"/>
+      <c r="L3" s="510"/>
+      <c r="M3" s="510" t="s">
         <v>520</v>
       </c>
-      <c r="N3" s="523"/>
+      <c r="N3" s="510"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -27388,7 +27923,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="135"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="528" t="s">
+      <c r="E4" s="511" t="s">
         <v>521</v>
       </c>
       <c r="F4" s="131"/>
@@ -27422,16 +27957,16 @@
       </c>
       <c r="G5" s="468"/>
       <c r="H5" s="469"/>
-      <c r="I5" s="553" t="s">
+      <c r="I5" s="583" t="s">
         <v>618</v>
       </c>
-      <c r="J5" s="554"/>
-      <c r="K5" s="554"/>
-      <c r="L5" s="535"/>
-      <c r="M5" s="553" t="s">
+      <c r="J5" s="584"/>
+      <c r="K5" s="584"/>
+      <c r="L5" s="518"/>
+      <c r="M5" s="583" t="s">
         <v>619</v>
       </c>
-      <c r="N5" s="535"/>
+      <c r="N5" s="518"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -27446,12 +27981,12 @@
       <c r="F6" s="470"/>
       <c r="G6" s="471"/>
       <c r="H6" s="472"/>
-      <c r="I6" s="536"/>
-      <c r="J6" s="555"/>
-      <c r="K6" s="555"/>
-      <c r="L6" s="537"/>
-      <c r="M6" s="536"/>
-      <c r="N6" s="537"/>
+      <c r="I6" s="519"/>
+      <c r="J6" s="585"/>
+      <c r="K6" s="585"/>
+      <c r="L6" s="520"/>
+      <c r="M6" s="519"/>
+      <c r="N6" s="520"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>182</v>
@@ -27472,12 +28007,12 @@
       <c r="F7" s="470"/>
       <c r="G7" s="471"/>
       <c r="H7" s="472"/>
-      <c r="I7" s="536"/>
-      <c r="J7" s="555"/>
-      <c r="K7" s="555"/>
-      <c r="L7" s="537"/>
-      <c r="M7" s="536"/>
-      <c r="N7" s="537"/>
+      <c r="I7" s="519"/>
+      <c r="J7" s="585"/>
+      <c r="K7" s="585"/>
+      <c r="L7" s="520"/>
+      <c r="M7" s="519"/>
+      <c r="N7" s="520"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -27500,12 +28035,12 @@
       <c r="F8" s="470"/>
       <c r="G8" s="471"/>
       <c r="H8" s="472"/>
-      <c r="I8" s="536"/>
-      <c r="J8" s="555"/>
-      <c r="K8" s="555"/>
-      <c r="L8" s="537"/>
-      <c r="M8" s="536"/>
-      <c r="N8" s="537"/>
+      <c r="I8" s="519"/>
+      <c r="J8" s="585"/>
+      <c r="K8" s="585"/>
+      <c r="L8" s="520"/>
+      <c r="M8" s="519"/>
+      <c r="N8" s="520"/>
       <c r="O8" s="5" t="s">
         <v>187</v>
       </c>
@@ -27530,12 +28065,12 @@
       <c r="F9" s="470"/>
       <c r="G9" s="471"/>
       <c r="H9" s="472"/>
-      <c r="I9" s="536"/>
-      <c r="J9" s="555"/>
-      <c r="K9" s="555"/>
-      <c r="L9" s="537"/>
-      <c r="M9" s="536"/>
-      <c r="N9" s="537"/>
+      <c r="I9" s="519"/>
+      <c r="J9" s="585"/>
+      <c r="K9" s="585"/>
+      <c r="L9" s="520"/>
+      <c r="M9" s="519"/>
+      <c r="N9" s="520"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -27556,12 +28091,12 @@
       <c r="F10" s="470"/>
       <c r="G10" s="471"/>
       <c r="H10" s="472"/>
-      <c r="I10" s="536"/>
-      <c r="J10" s="555"/>
-      <c r="K10" s="555"/>
-      <c r="L10" s="537"/>
-      <c r="M10" s="536"/>
-      <c r="N10" s="537"/>
+      <c r="I10" s="519"/>
+      <c r="J10" s="585"/>
+      <c r="K10" s="585"/>
+      <c r="L10" s="520"/>
+      <c r="M10" s="519"/>
+      <c r="N10" s="520"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -27578,12 +28113,12 @@
       <c r="F11" s="470"/>
       <c r="G11" s="471"/>
       <c r="H11" s="472"/>
-      <c r="I11" s="536"/>
-      <c r="J11" s="555"/>
-      <c r="K11" s="555"/>
-      <c r="L11" s="537"/>
-      <c r="M11" s="536"/>
-      <c r="N11" s="537"/>
+      <c r="I11" s="519"/>
+      <c r="J11" s="585"/>
+      <c r="K11" s="585"/>
+      <c r="L11" s="520"/>
+      <c r="M11" s="519"/>
+      <c r="N11" s="520"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -27598,12 +28133,12 @@
       <c r="F12" s="470"/>
       <c r="G12" s="471"/>
       <c r="H12" s="472"/>
-      <c r="I12" s="536"/>
-      <c r="J12" s="555"/>
-      <c r="K12" s="555"/>
-      <c r="L12" s="537"/>
-      <c r="M12" s="536"/>
-      <c r="N12" s="537"/>
+      <c r="I12" s="519"/>
+      <c r="J12" s="585"/>
+      <c r="K12" s="585"/>
+      <c r="L12" s="520"/>
+      <c r="M12" s="519"/>
+      <c r="N12" s="520"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -27620,12 +28155,12 @@
       <c r="F13" s="470"/>
       <c r="G13" s="471"/>
       <c r="H13" s="472"/>
-      <c r="I13" s="536"/>
-      <c r="J13" s="555"/>
-      <c r="K13" s="555"/>
-      <c r="L13" s="537"/>
-      <c r="M13" s="536"/>
-      <c r="N13" s="537"/>
+      <c r="I13" s="519"/>
+      <c r="J13" s="585"/>
+      <c r="K13" s="585"/>
+      <c r="L13" s="520"/>
+      <c r="M13" s="519"/>
+      <c r="N13" s="520"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -27640,12 +28175,12 @@
       <c r="F14" s="470"/>
       <c r="G14" s="471"/>
       <c r="H14" s="472"/>
-      <c r="I14" s="536"/>
-      <c r="J14" s="555"/>
-      <c r="K14" s="555"/>
-      <c r="L14" s="537"/>
-      <c r="M14" s="536"/>
-      <c r="N14" s="537"/>
+      <c r="I14" s="519"/>
+      <c r="J14" s="585"/>
+      <c r="K14" s="585"/>
+      <c r="L14" s="520"/>
+      <c r="M14" s="519"/>
+      <c r="N14" s="520"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -27660,12 +28195,12 @@
       <c r="F15" s="470"/>
       <c r="G15" s="471"/>
       <c r="H15" s="472"/>
-      <c r="I15" s="536"/>
-      <c r="J15" s="555"/>
-      <c r="K15" s="555"/>
-      <c r="L15" s="537"/>
-      <c r="M15" s="536"/>
-      <c r="N15" s="537"/>
+      <c r="I15" s="519"/>
+      <c r="J15" s="585"/>
+      <c r="K15" s="585"/>
+      <c r="L15" s="520"/>
+      <c r="M15" s="519"/>
+      <c r="N15" s="520"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -27680,12 +28215,12 @@
       <c r="F16" s="470"/>
       <c r="G16" s="471"/>
       <c r="H16" s="472"/>
-      <c r="I16" s="536"/>
-      <c r="J16" s="555"/>
-      <c r="K16" s="555"/>
-      <c r="L16" s="537"/>
-      <c r="M16" s="536"/>
-      <c r="N16" s="537"/>
+      <c r="I16" s="519"/>
+      <c r="J16" s="585"/>
+      <c r="K16" s="585"/>
+      <c r="L16" s="520"/>
+      <c r="M16" s="519"/>
+      <c r="N16" s="520"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -27702,12 +28237,12 @@
       <c r="F17" s="470"/>
       <c r="G17" s="471"/>
       <c r="H17" s="472"/>
-      <c r="I17" s="536"/>
-      <c r="J17" s="555"/>
-      <c r="K17" s="555"/>
-      <c r="L17" s="537"/>
-      <c r="M17" s="536"/>
-      <c r="N17" s="537"/>
+      <c r="I17" s="519"/>
+      <c r="J17" s="585"/>
+      <c r="K17" s="585"/>
+      <c r="L17" s="520"/>
+      <c r="M17" s="519"/>
+      <c r="N17" s="520"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -27722,12 +28257,12 @@
       <c r="F18" s="473"/>
       <c r="G18" s="474"/>
       <c r="H18" s="475"/>
-      <c r="I18" s="538"/>
-      <c r="J18" s="556"/>
-      <c r="K18" s="556"/>
-      <c r="L18" s="539"/>
-      <c r="M18" s="538"/>
-      <c r="N18" s="539"/>
+      <c r="I18" s="521"/>
+      <c r="J18" s="586"/>
+      <c r="K18" s="586"/>
+      <c r="L18" s="522"/>
+      <c r="M18" s="521"/>
+      <c r="N18" s="522"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -27803,29 +28338,29 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="522" t="s">
+      <c r="B24" s="531" t="s">
         <v>570</v>
       </c>
-      <c r="C24" s="522"/>
-      <c r="D24" s="521"/>
-      <c r="E24" s="521"/>
-      <c r="F24" s="521"/>
-      <c r="G24" s="521"/>
-      <c r="H24" s="521"/>
-      <c r="I24" s="521"/>
-      <c r="J24" s="521"/>
-      <c r="K24" s="521"/>
-      <c r="M24" s="575" t="s">
+      <c r="C24" s="531"/>
+      <c r="D24" s="530"/>
+      <c r="E24" s="530"/>
+      <c r="F24" s="530"/>
+      <c r="G24" s="530"/>
+      <c r="H24" s="530"/>
+      <c r="I24" s="530"/>
+      <c r="J24" s="530"/>
+      <c r="K24" s="530"/>
+      <c r="M24" s="553" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="575"/>
-      <c r="O24" s="575"/>
+      <c r="N24" s="553"/>
+      <c r="O24" s="553"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="576" t="s">
+      <c r="B25" s="554" t="s">
         <v>913</v>
       </c>
-      <c r="C25" s="497"/>
+      <c r="C25" s="496"/>
       <c r="D25" s="445" t="s">
         <v>178</v>
       </c>
@@ -27847,13 +28382,13 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="498"/>
-      <c r="C26" s="499"/>
-      <c r="D26" s="496" t="s">
+      <c r="B26" s="497"/>
+      <c r="C26" s="498"/>
+      <c r="D26" s="495" t="s">
         <v>906</v>
       </c>
-      <c r="E26" s="497"/>
-      <c r="F26" s="569" t="s">
+      <c r="E26" s="496"/>
+      <c r="F26" s="581" t="s">
         <v>906</v>
       </c>
       <c r="G26" s="445"/>
@@ -27877,22 +28412,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="498"/>
-      <c r="C27" s="499"/>
-      <c r="D27" s="488" t="s">
+      <c r="B27" s="497"/>
+      <c r="C27" s="498"/>
+      <c r="D27" s="492" t="s">
         <v>911</v>
       </c>
-      <c r="E27" s="499"/>
-      <c r="F27" s="498" t="s">
+      <c r="E27" s="498"/>
+      <c r="F27" s="497" t="s">
         <v>907</v>
       </c>
-      <c r="G27" s="488"/>
-      <c r="H27" s="570"/>
-      <c r="I27" s="574" t="s">
+      <c r="G27" s="492"/>
+      <c r="H27" s="565"/>
+      <c r="I27" s="564" t="s">
         <v>911</v>
       </c>
-      <c r="J27" s="488"/>
-      <c r="K27" s="570"/>
+      <c r="J27" s="492"/>
+      <c r="K27" s="565"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -27907,22 +28442,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="498"/>
-      <c r="C28" s="499"/>
-      <c r="D28" s="488" t="s">
+      <c r="B28" s="497"/>
+      <c r="C28" s="498"/>
+      <c r="D28" s="492" t="s">
         <v>908</v>
       </c>
-      <c r="E28" s="499"/>
-      <c r="F28" s="498" t="s">
+      <c r="E28" s="498"/>
+      <c r="F28" s="497" t="s">
         <v>908</v>
       </c>
-      <c r="G28" s="488"/>
-      <c r="H28" s="570"/>
-      <c r="I28" s="574" t="s">
+      <c r="G28" s="492"/>
+      <c r="H28" s="565"/>
+      <c r="I28" s="564" t="s">
         <v>908</v>
       </c>
-      <c r="J28" s="488"/>
-      <c r="K28" s="570"/>
+      <c r="J28" s="492"/>
+      <c r="K28" s="565"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -27931,22 +28466,22 @@
       <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="500"/>
-      <c r="C29" s="501"/>
-      <c r="D29" s="488" t="s">
+      <c r="B29" s="499"/>
+      <c r="C29" s="500"/>
+      <c r="D29" s="492" t="s">
         <v>909</v>
       </c>
-      <c r="E29" s="499"/>
-      <c r="F29" s="571" t="s">
+      <c r="E29" s="498"/>
+      <c r="F29" s="582" t="s">
         <v>909</v>
       </c>
-      <c r="G29" s="572"/>
-      <c r="H29" s="573"/>
-      <c r="I29" s="586" t="s">
+      <c r="G29" s="567"/>
+      <c r="H29" s="568"/>
+      <c r="I29" s="566" t="s">
         <v>909</v>
       </c>
-      <c r="J29" s="572"/>
-      <c r="K29" s="573"/>
+      <c r="J29" s="567"/>
+      <c r="K29" s="568"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -27959,20 +28494,20 @@
         <v>912</v>
       </c>
       <c r="C30" s="449"/>
-      <c r="D30" s="557" t="s">
+      <c r="D30" s="569" t="s">
         <v>571</v>
       </c>
-      <c r="E30" s="558"/>
-      <c r="F30" s="562" t="s">
+      <c r="E30" s="570"/>
+      <c r="F30" s="574" t="s">
         <v>572</v>
       </c>
-      <c r="G30" s="563"/>
-      <c r="H30" s="558"/>
-      <c r="I30" s="562" t="s">
+      <c r="G30" s="575"/>
+      <c r="H30" s="570"/>
+      <c r="I30" s="574" t="s">
         <v>573</v>
       </c>
-      <c r="J30" s="563"/>
-      <c r="K30" s="566"/>
+      <c r="J30" s="575"/>
+      <c r="K30" s="578"/>
       <c r="L30" s="5"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
@@ -27981,14 +28516,14 @@
     <row r="31" spans="2:19">
       <c r="B31" s="430"/>
       <c r="C31" s="450"/>
-      <c r="D31" s="559"/>
-      <c r="E31" s="519"/>
-      <c r="F31" s="517"/>
-      <c r="G31" s="518"/>
-      <c r="H31" s="519"/>
-      <c r="I31" s="517"/>
-      <c r="J31" s="518"/>
-      <c r="K31" s="567"/>
+      <c r="D31" s="571"/>
+      <c r="E31" s="537"/>
+      <c r="F31" s="535"/>
+      <c r="G31" s="536"/>
+      <c r="H31" s="537"/>
+      <c r="I31" s="535"/>
+      <c r="J31" s="536"/>
+      <c r="K31" s="579"/>
       <c r="L31" s="5"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
@@ -27997,107 +28532,107 @@
     <row r="32" spans="2:19">
       <c r="B32" s="430"/>
       <c r="C32" s="450"/>
-      <c r="D32" s="559"/>
-      <c r="E32" s="519"/>
-      <c r="F32" s="517"/>
-      <c r="G32" s="518"/>
-      <c r="H32" s="519"/>
-      <c r="I32" s="517"/>
-      <c r="J32" s="518"/>
-      <c r="K32" s="567"/>
+      <c r="D32" s="571"/>
+      <c r="E32" s="537"/>
+      <c r="F32" s="535"/>
+      <c r="G32" s="536"/>
+      <c r="H32" s="537"/>
+      <c r="I32" s="535"/>
+      <c r="J32" s="536"/>
+      <c r="K32" s="579"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="430"/>
       <c r="C33" s="450"/>
-      <c r="D33" s="560"/>
-      <c r="E33" s="561"/>
-      <c r="F33" s="564"/>
-      <c r="G33" s="565"/>
-      <c r="H33" s="561"/>
-      <c r="I33" s="564"/>
-      <c r="J33" s="565"/>
-      <c r="K33" s="568"/>
+      <c r="D33" s="572"/>
+      <c r="E33" s="573"/>
+      <c r="F33" s="576"/>
+      <c r="G33" s="577"/>
+      <c r="H33" s="573"/>
+      <c r="I33" s="576"/>
+      <c r="J33" s="577"/>
+      <c r="K33" s="580"/>
     </row>
     <row r="34" spans="2:14">
       <c r="B34" s="430"/>
       <c r="C34" s="432"/>
-      <c r="D34" s="577" t="s">
+      <c r="D34" s="555" t="s">
         <v>899</v>
       </c>
-      <c r="E34" s="578"/>
-      <c r="F34" s="577" t="s">
+      <c r="E34" s="556"/>
+      <c r="F34" s="555" t="s">
         <v>593</v>
       </c>
-      <c r="G34" s="583"/>
-      <c r="H34" s="578"/>
-      <c r="I34" s="577" t="s">
+      <c r="G34" s="561"/>
+      <c r="H34" s="556"/>
+      <c r="I34" s="555" t="s">
         <v>914</v>
       </c>
-      <c r="J34" s="583"/>
-      <c r="K34" s="578"/>
+      <c r="J34" s="561"/>
+      <c r="K34" s="556"/>
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="430"/>
       <c r="C35" s="432"/>
-      <c r="D35" s="579"/>
-      <c r="E35" s="580"/>
-      <c r="F35" s="579"/>
-      <c r="G35" s="584"/>
-      <c r="H35" s="580"/>
-      <c r="I35" s="579"/>
-      <c r="J35" s="584"/>
-      <c r="K35" s="580"/>
+      <c r="D35" s="557"/>
+      <c r="E35" s="558"/>
+      <c r="F35" s="557"/>
+      <c r="G35" s="562"/>
+      <c r="H35" s="558"/>
+      <c r="I35" s="557"/>
+      <c r="J35" s="562"/>
+      <c r="K35" s="558"/>
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="430"/>
       <c r="C36" s="432"/>
-      <c r="D36" s="579"/>
-      <c r="E36" s="580"/>
-      <c r="F36" s="579"/>
-      <c r="G36" s="584"/>
-      <c r="H36" s="580"/>
-      <c r="I36" s="579"/>
-      <c r="J36" s="584"/>
-      <c r="K36" s="580"/>
+      <c r="D36" s="557"/>
+      <c r="E36" s="558"/>
+      <c r="F36" s="557"/>
+      <c r="G36" s="562"/>
+      <c r="H36" s="558"/>
+      <c r="I36" s="557"/>
+      <c r="J36" s="562"/>
+      <c r="K36" s="558"/>
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="430"/>
       <c r="C37" s="432"/>
-      <c r="D37" s="579"/>
-      <c r="E37" s="580"/>
-      <c r="F37" s="579"/>
-      <c r="G37" s="584"/>
-      <c r="H37" s="580"/>
-      <c r="I37" s="579"/>
-      <c r="J37" s="584"/>
-      <c r="K37" s="580"/>
+      <c r="D37" s="557"/>
+      <c r="E37" s="558"/>
+      <c r="F37" s="557"/>
+      <c r="G37" s="562"/>
+      <c r="H37" s="558"/>
+      <c r="I37" s="557"/>
+      <c r="J37" s="562"/>
+      <c r="K37" s="558"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
       <c r="B38" s="430"/>
       <c r="C38" s="432"/>
-      <c r="D38" s="581"/>
-      <c r="E38" s="582"/>
-      <c r="F38" s="581"/>
-      <c r="G38" s="585"/>
-      <c r="H38" s="582"/>
-      <c r="I38" s="581"/>
-      <c r="J38" s="585"/>
-      <c r="K38" s="582"/>
+      <c r="D38" s="559"/>
+      <c r="E38" s="560"/>
+      <c r="F38" s="559"/>
+      <c r="G38" s="563"/>
+      <c r="H38" s="560"/>
+      <c r="I38" s="559"/>
+      <c r="J38" s="563"/>
+      <c r="K38" s="560"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
       <c r="B39" s="451"/>
       <c r="C39" s="453"/>
-      <c r="D39" s="510" t="s">
+      <c r="D39" s="539" t="s">
         <v>574</v>
       </c>
-      <c r="E39" s="511"/>
-      <c r="F39" s="511"/>
-      <c r="G39" s="511"/>
-      <c r="H39" s="511"/>
-      <c r="I39" s="511"/>
-      <c r="J39" s="511"/>
-      <c r="K39" s="512"/>
+      <c r="E39" s="540"/>
+      <c r="F39" s="540"/>
+      <c r="G39" s="540"/>
+      <c r="H39" s="540"/>
+      <c r="I39" s="540"/>
+      <c r="J39" s="540"/>
+      <c r="K39" s="541"/>
       <c r="L39" s="40" t="s">
         <v>575</v>
       </c>
@@ -28134,17 +28669,16 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -28161,16 +28695,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="fullstack" sheetId="22" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3801" uniqueCount="1855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3803" uniqueCount="1857">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -6155,12 +6155,6 @@
     <t>public void abcd{</t>
   </si>
   <si>
-    <t>ProgramB obj;</t>
-  </si>
-  <si>
-    <t>obj.register();</t>
-  </si>
-  <si>
     <t>JoinPoint</t>
   </si>
   <si>
@@ -6306,6 +6300,18 @@
   </si>
   <si>
     <t>BACK END</t>
+  </si>
+  <si>
+    <t>ProgramB b=new ProgramB();</t>
+  </si>
+  <si>
+    <t>b.register();</t>
+  </si>
+  <si>
+    <t>on method call</t>
+  </si>
+  <si>
+    <t>control is given to other program</t>
   </si>
 </sst>
 </file>
@@ -7103,7 +7109,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="602">
+  <cellXfs count="603">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -7761,6 +7767,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7932,6 +7950,18 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7953,23 +7983,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8001,6 +8016,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8015,6 +8033,102 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8035,75 +8149,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8127,17 +8172,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8178,114 +8259,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment hor